--- a/docs/FantasyProsFootballDraft.xlsx
+++ b/docs/FantasyProsFootballDraft.xlsx
@@ -7441,13 +7441,13 @@
         <v>66</v>
       </c>
       <c r="B67" t="s">
-        <v>71</v>
+        <v>70</v>
       </c>
       <c r="C67" t="s">
-        <v>355</v>
+        <v>356</v>
       </c>
       <c r="D67" t="s">
-        <v>378</v>
+        <v>375</v>
       </c>
     </row>
     <row r="68" spans="1:4">
@@ -7455,13 +7455,13 @@
         <v>67</v>
       </c>
       <c r="B68" t="s">
-        <v>70</v>
+        <v>71</v>
       </c>
       <c r="C68" t="s">
-        <v>356</v>
+        <v>355</v>
       </c>
       <c r="D68" t="s">
-        <v>375</v>
+        <v>378</v>
       </c>
     </row>
     <row r="69" spans="1:4">
@@ -9079,13 +9079,13 @@
         <v>183</v>
       </c>
       <c r="B184" t="s">
-        <v>193</v>
+        <v>184</v>
       </c>
       <c r="C184" t="s">
-        <v>355</v>
+        <v>359</v>
       </c>
       <c r="D184" t="s">
-        <v>364</v>
+        <v>372</v>
       </c>
     </row>
     <row r="185" spans="1:4">
@@ -9093,13 +9093,13 @@
         <v>184</v>
       </c>
       <c r="B185" t="s">
-        <v>184</v>
+        <v>200</v>
       </c>
       <c r="C185" t="s">
-        <v>359</v>
+        <v>355</v>
       </c>
       <c r="D185" t="s">
-        <v>372</v>
+        <v>370</v>
       </c>
     </row>
     <row r="186" spans="1:4">
@@ -9107,13 +9107,13 @@
         <v>185</v>
       </c>
       <c r="B186" t="s">
-        <v>200</v>
+        <v>193</v>
       </c>
       <c r="C186" t="s">
         <v>355</v>
       </c>
       <c r="D186" t="s">
-        <v>370</v>
+        <v>364</v>
       </c>
     </row>
     <row r="187" spans="1:4">
@@ -9555,13 +9555,13 @@
         <v>217</v>
       </c>
       <c r="B218" t="s">
-        <v>242</v>
+        <v>205</v>
       </c>
       <c r="C218" t="s">
-        <v>355</v>
+        <v>357</v>
       </c>
       <c r="D218" t="s">
-        <v>377</v>
+        <v>361</v>
       </c>
     </row>
     <row r="219" spans="1:4">
@@ -9569,13 +9569,13 @@
         <v>218</v>
       </c>
       <c r="B219" t="s">
-        <v>205</v>
+        <v>242</v>
       </c>
       <c r="C219" t="s">
-        <v>357</v>
+        <v>355</v>
       </c>
       <c r="D219" t="s">
-        <v>361</v>
+        <v>377</v>
       </c>
     </row>
     <row r="220" spans="1:4">

--- a/docs/FantasyProsFootballDraft.xlsx
+++ b/docs/FantasyProsFootballDraft.xlsx
@@ -7441,13 +7441,13 @@
         <v>66</v>
       </c>
       <c r="B67" t="s">
-        <v>70</v>
+        <v>71</v>
       </c>
       <c r="C67" t="s">
-        <v>356</v>
+        <v>355</v>
       </c>
       <c r="D67" t="s">
-        <v>375</v>
+        <v>378</v>
       </c>
     </row>
     <row r="68" spans="1:4">
@@ -7455,13 +7455,13 @@
         <v>67</v>
       </c>
       <c r="B68" t="s">
-        <v>71</v>
+        <v>70</v>
       </c>
       <c r="C68" t="s">
-        <v>355</v>
+        <v>356</v>
       </c>
       <c r="D68" t="s">
-        <v>378</v>
+        <v>375</v>
       </c>
     </row>
     <row r="69" spans="1:4">
@@ -9079,13 +9079,13 @@
         <v>183</v>
       </c>
       <c r="B184" t="s">
-        <v>184</v>
+        <v>193</v>
       </c>
       <c r="C184" t="s">
-        <v>359</v>
+        <v>355</v>
       </c>
       <c r="D184" t="s">
-        <v>372</v>
+        <v>364</v>
       </c>
     </row>
     <row r="185" spans="1:4">
@@ -9093,13 +9093,13 @@
         <v>184</v>
       </c>
       <c r="B185" t="s">
-        <v>200</v>
+        <v>184</v>
       </c>
       <c r="C185" t="s">
-        <v>355</v>
+        <v>359</v>
       </c>
       <c r="D185" t="s">
-        <v>370</v>
+        <v>372</v>
       </c>
     </row>
     <row r="186" spans="1:4">
@@ -9107,13 +9107,13 @@
         <v>185</v>
       </c>
       <c r="B186" t="s">
-        <v>193</v>
+        <v>200</v>
       </c>
       <c r="C186" t="s">
         <v>355</v>
       </c>
       <c r="D186" t="s">
-        <v>364</v>
+        <v>370</v>
       </c>
     </row>
     <row r="187" spans="1:4">
@@ -9555,13 +9555,13 @@
         <v>217</v>
       </c>
       <c r="B218" t="s">
-        <v>205</v>
+        <v>242</v>
       </c>
       <c r="C218" t="s">
-        <v>357</v>
+        <v>355</v>
       </c>
       <c r="D218" t="s">
-        <v>361</v>
+        <v>377</v>
       </c>
     </row>
     <row r="219" spans="1:4">
@@ -9569,13 +9569,13 @@
         <v>218</v>
       </c>
       <c r="B219" t="s">
-        <v>242</v>
+        <v>205</v>
       </c>
       <c r="C219" t="s">
-        <v>355</v>
+        <v>357</v>
       </c>
       <c r="D219" t="s">
-        <v>377</v>
+        <v>361</v>
       </c>
     </row>
     <row r="220" spans="1:4">

--- a/docs/FantasyProsFootballDraft.xlsx
+++ b/docs/FantasyProsFootballDraft.xlsx
@@ -140,15 +140,15 @@
     <t>Mike Williams</t>
   </si>
   <si>
+    <t>Breece Hall</t>
+  </si>
+  <si>
+    <t>Courtland Sutton</t>
+  </si>
+  <si>
     <t>Cam Akers</t>
   </si>
   <si>
-    <t>Courtland Sutton</t>
-  </si>
-  <si>
-    <t>Breece Hall</t>
-  </si>
-  <si>
     <t>Terry McLaurin</t>
   </si>
   <si>
@@ -188,27 +188,27 @@
     <t>Darren Waller</t>
   </si>
   <si>
+    <t>Allen Robinson II</t>
+  </si>
+  <si>
     <t>Gabriel Davis</t>
   </si>
   <si>
     <t>Lamar Jackson</t>
   </si>
   <si>
-    <t>Allen Robinson II</t>
-  </si>
-  <si>
     <t>Marquise Brown</t>
   </si>
   <si>
+    <t>AJ Dillon</t>
+  </si>
+  <si>
     <t>Josh Jacobs</t>
   </si>
   <si>
     <t>Antonio Gibson</t>
   </si>
   <si>
-    <t>AJ Dillon</t>
-  </si>
-  <si>
     <t>Jerry Jeudy</t>
   </si>
   <si>
@@ -227,12 +227,12 @@
     <t>Dalton Schultz</t>
   </si>
   <si>
+    <t>Jalen Hurts</t>
+  </si>
+  <si>
     <t>Elijah Moore</t>
   </si>
   <si>
-    <t>Jalen Hurts</t>
-  </si>
-  <si>
     <t>Rashod Bateman</t>
   </si>
   <si>
@@ -311,12 +311,12 @@
     <t>Melvin Gordon III</t>
   </si>
   <si>
+    <t>Ken Walker III</t>
+  </si>
+  <si>
     <t>Dawson Knox</t>
   </si>
   <si>
-    <t>Ken Walker III</t>
-  </si>
-  <si>
     <t>DeAndre Hopkins</t>
   </si>
   <si>
@@ -377,18 +377,18 @@
     <t>Pat Freiermuth</t>
   </si>
   <si>
+    <t>Skyy Moore</t>
+  </si>
+  <si>
     <t>Michael Carter</t>
   </si>
   <si>
-    <t>Skyy Moore</t>
+    <t>Cole Kmet</t>
   </si>
   <si>
     <t>Tua Tagovailoa</t>
   </si>
   <si>
-    <t>Cole Kmet</t>
-  </si>
-  <si>
     <t>James Robinson</t>
   </si>
   <si>
@@ -410,12 +410,12 @@
     <t>Trevor Lawrence</t>
   </si>
   <si>
+    <t>Tyler Boyd</t>
+  </si>
+  <si>
     <t>Russell Gage</t>
   </si>
   <si>
-    <t>Tyler Boyd</t>
-  </si>
-  <si>
     <t>Irv Smith Jr.</t>
   </si>
   <si>
@@ -425,15 +425,15 @@
     <t>Kenneth Gainwell</t>
   </si>
   <si>
+    <t>Noah Fant</t>
+  </si>
+  <si>
+    <t>Raheem Mostert</t>
+  </si>
+  <si>
     <t>Jameis Winston</t>
   </si>
   <si>
-    <t>Noah Fant</t>
-  </si>
-  <si>
-    <t>Raheem Mostert</t>
-  </si>
-  <si>
     <t>Jamaal Williams</t>
   </si>
   <si>
@@ -443,30 +443,30 @@
     <t>Kenny Golladay</t>
   </si>
   <si>
+    <t>DeVante Parker</t>
+  </si>
+  <si>
     <t>Jarvis Landry</t>
   </si>
   <si>
-    <t>DeVante Parker</t>
+    <t>Robert Tonyan</t>
   </si>
   <si>
     <t>Matt Ryan</t>
   </si>
   <si>
+    <t>Khalil Herbert</t>
+  </si>
+  <si>
     <t>Michael Gallup</t>
   </si>
   <si>
     <t>Jakobi Meyers</t>
   </si>
   <si>
-    <t>Khalil Herbert</t>
-  </si>
-  <si>
     <t>David Njoku</t>
   </si>
   <si>
-    <t>Robert Tonyan</t>
-  </si>
-  <si>
     <t>DJ Chark Jr.</t>
   </si>
   <si>
@@ -485,42 +485,42 @@
     <t>Tyler Higbee</t>
   </si>
   <si>
+    <t>Rondale Moore</t>
+  </si>
+  <si>
+    <t>Gus Edwards</t>
+  </si>
+  <si>
     <t>Buffalo Bills</t>
   </si>
   <si>
-    <t>Rondale Moore</t>
-  </si>
-  <si>
-    <t>Gus Edwards</t>
-  </si>
-  <si>
     <t>Julio Jones</t>
   </si>
   <si>
+    <t>Marlon Mack</t>
+  </si>
+  <si>
     <t>Tampa Bay Buccaneers</t>
   </si>
   <si>
-    <t>Marlon Mack</t>
+    <t>Evan Engram</t>
+  </si>
+  <si>
+    <t>Mac Jones</t>
+  </si>
+  <si>
+    <t>Rachaad White</t>
+  </si>
+  <si>
+    <t>Brian Robinson Jr.</t>
+  </si>
+  <si>
+    <t>George Pickens</t>
   </si>
   <si>
     <t>Ronald Jones II</t>
   </si>
   <si>
-    <t>Mac Jones</t>
-  </si>
-  <si>
-    <t>Evan Engram</t>
-  </si>
-  <si>
-    <t>Rachaad White</t>
-  </si>
-  <si>
-    <t>George Pickens</t>
-  </si>
-  <si>
-    <t>Brian Robinson Jr.</t>
-  </si>
-  <si>
     <t>Daniel Jones</t>
   </si>
   <si>
@@ -530,12 +530,12 @@
     <t>Jahan Dotson</t>
   </si>
   <si>
+    <t>Corey Davis</t>
+  </si>
+  <si>
     <t>San Francisco 49ers</t>
   </si>
   <si>
-    <t>Corey Davis</t>
-  </si>
-  <si>
     <t>Sony Michel</t>
   </si>
   <si>
@@ -545,18 +545,18 @@
     <t>D'Onta Foreman</t>
   </si>
   <si>
+    <t>Austin Hooper</t>
+  </si>
+  <si>
+    <t>Carson Wentz</t>
+  </si>
+  <si>
+    <t>Mark Ingram II</t>
+  </si>
+  <si>
     <t>Indianapolis Colts</t>
   </si>
   <si>
-    <t>Austin Hooper</t>
-  </si>
-  <si>
-    <t>Carson Wentz</t>
-  </si>
-  <si>
-    <t>Mark Ingram II</t>
-  </si>
-  <si>
     <t>Mecole Hardman</t>
   </si>
   <si>
@@ -566,27 +566,27 @@
     <t>Jared Goff</t>
   </si>
   <si>
+    <t>Zach Wilson</t>
+  </si>
+  <si>
+    <t>Nico Collins</t>
+  </si>
+  <si>
     <t>Justin Tucker</t>
   </si>
   <si>
-    <t>Nico Collins</t>
-  </si>
-  <si>
-    <t>Zach Wilson</t>
-  </si>
-  <si>
     <t>Van Jefferson</t>
   </si>
   <si>
+    <t>Robbie Anderson</t>
+  </si>
+  <si>
     <t>Jameson Williams</t>
   </si>
   <si>
     <t>New Orleans Saints</t>
   </si>
   <si>
-    <t>Robbie Anderson</t>
-  </si>
-  <si>
     <t>New England Patriots</t>
   </si>
   <si>
@@ -602,12 +602,12 @@
     <t>Hayden Hurst</t>
   </si>
   <si>
+    <t>K.J. Osborn</t>
+  </si>
+  <si>
     <t>Tyler Bass</t>
   </si>
   <si>
-    <t>K.J. Osborn</t>
-  </si>
-  <si>
     <t>Marvin Jones Jr.</t>
   </si>
   <si>
@@ -620,12 +620,12 @@
     <t>Zamir White</t>
   </si>
   <si>
+    <t>Baker Mayfield</t>
+  </si>
+  <si>
     <t>Matt Gay</t>
   </si>
   <si>
-    <t>Baker Mayfield</t>
-  </si>
-  <si>
     <t>Kendrick Bourne</t>
   </si>
   <si>
@@ -638,87 +638,87 @@
     <t>Boston Scott</t>
   </si>
   <si>
+    <t>Jalen Tolbert</t>
+  </si>
+  <si>
     <t>Los Angeles Chargers</t>
   </si>
   <si>
     <t>Daniel Carlson</t>
   </si>
   <si>
-    <t>Jalen Tolbert</t>
+    <t>KJ Hamler</t>
   </si>
   <si>
     <t>Evan McPherson</t>
   </si>
   <si>
-    <t>KJ Hamler</t>
-  </si>
-  <si>
     <t>Green Bay Packers</t>
   </si>
   <si>
+    <t>Parris Campbell</t>
+  </si>
+  <si>
+    <t>Curtis Samuel</t>
+  </si>
+  <si>
     <t>Miami Dolphins</t>
   </si>
   <si>
-    <t>Parris Campbell</t>
-  </si>
-  <si>
-    <t>Curtis Samuel</t>
+    <t>Kenyan Drake</t>
   </si>
   <si>
     <t>Kansas City Chiefs</t>
   </si>
   <si>
-    <t>Kenyan Drake</t>
-  </si>
-  <si>
     <t>Jamison Crowder</t>
   </si>
   <si>
+    <t>Chuba Hubbard</t>
+  </si>
+  <si>
+    <t>Wan'Dale Robinson</t>
+  </si>
+  <si>
     <t>Ryan Succop</t>
   </si>
   <si>
-    <t>Chuba Hubbard</t>
+    <t>Tyrion Davis-Price</t>
   </si>
   <si>
     <t>Harrison Butker</t>
   </si>
   <si>
-    <t>Tyrion Davis-Price</t>
-  </si>
-  <si>
-    <t>Wan'Dale Robinson</t>
-  </si>
-  <si>
     <t>Deshaun Watson</t>
   </si>
   <si>
     <t>Matt Prater</t>
   </si>
   <si>
+    <t>Brevin Jordan</t>
+  </si>
+  <si>
+    <t>A.J. Green</t>
+  </si>
+  <si>
     <t>Cleveland Browns</t>
   </si>
   <si>
-    <t>A.J. Green</t>
+    <t>Baltimore Ravens</t>
   </si>
   <si>
     <t>Trey Sermon</t>
   </si>
   <si>
-    <t>Baltimore Ravens</t>
-  </si>
-  <si>
-    <t>Brevin Jordan</t>
+    <t>Alec Pierce</t>
+  </si>
+  <si>
+    <t>Samaje Perine</t>
   </si>
   <si>
     <t>Pittsburgh Steelers</t>
   </si>
   <si>
-    <t>Alec Pierce</t>
-  </si>
-  <si>
-    <t>Samaje Perine</t>
-  </si>
-  <si>
     <t>David Bell</t>
   </si>
   <si>
@@ -728,61 +728,64 @@
     <t>Jonnu Smith</t>
   </si>
   <si>
+    <t>Isaiah McKenzie</t>
+  </si>
+  <si>
+    <t>Marcus Mariota</t>
+  </si>
+  <si>
     <t>D'Ernest Johnson</t>
   </si>
   <si>
     <t>Rodrigo Blankenship</t>
   </si>
   <si>
-    <t>Isaiah McKenzie</t>
-  </si>
-  <si>
-    <t>Marcus Mariota</t>
-  </si>
-  <si>
     <t>Younghoe Koo</t>
   </si>
   <si>
+    <t>Damien Williams</t>
+  </si>
+  <si>
+    <t>Laviska Shenault Jr.</t>
+  </si>
+  <si>
     <t>Jason Sanders</t>
   </si>
   <si>
-    <t>Laviska Shenault Jr.</t>
-  </si>
-  <si>
-    <t>Damien Williams</t>
-  </si>
-  <si>
     <t>Sterling Shepard</t>
   </si>
   <si>
     <t>Nick Folk</t>
   </si>
   <si>
+    <t>Jeff Wilson Jr.</t>
+  </si>
+  <si>
+    <t>Adam Trautman</t>
+  </si>
+  <si>
     <t>Brandon McManus</t>
   </si>
   <si>
-    <t>Jeff Wilson Jr.</t>
-  </si>
-  <si>
-    <t>Adam Trautman</t>
-  </si>
-  <si>
     <t>Mo Alie-Cox</t>
   </si>
   <si>
+    <t>Romeo Doubs</t>
+  </si>
+  <si>
+    <t>Isiah Pacheco</t>
+  </si>
+  <si>
     <t>Zack Moss</t>
   </si>
   <si>
+    <t>Mitch Trubisky</t>
+  </si>
+  <si>
     <t>Robbie Gould</t>
   </si>
   <si>
-    <t>Romeo Doubs</t>
-  </si>
-  <si>
-    <t>Mitch Trubisky</t>
-  </si>
-  <si>
-    <t>Isiah Pacheco</t>
+    <t>Byron Pringle</t>
   </si>
   <si>
     <t>Terrace Marshall Jr.</t>
@@ -791,36 +794,33 @@
     <t>Arizona Cardinals</t>
   </si>
   <si>
-    <t>Byron Pringle</t>
+    <t>Cincinnati Bengals</t>
   </si>
   <si>
     <t>Jake Elliott</t>
   </si>
   <si>
-    <t>Cincinnati Bengals</t>
+    <t>Zay Jones</t>
   </si>
   <si>
     <t>Dustin Hopkins</t>
   </si>
   <si>
+    <t>Dan Arnold</t>
+  </si>
+  <si>
+    <t>Mike Davis</t>
+  </si>
+  <si>
+    <t>Rex Burkhead</t>
+  </si>
+  <si>
+    <t>Jerick McKinnon</t>
+  </si>
+  <si>
     <t>Myles Gaskin</t>
   </si>
   <si>
-    <t>Zay Jones</t>
-  </si>
-  <si>
-    <t>Mike Davis</t>
-  </si>
-  <si>
-    <t>Jerick McKinnon</t>
-  </si>
-  <si>
-    <t>Dan Arnold</t>
-  </si>
-  <si>
-    <t>Rex Burkhead</t>
-  </si>
-  <si>
     <t>Tennessee Titans</t>
   </si>
   <si>
@@ -830,64 +830,67 @@
     <t>Braxton Berrios</t>
   </si>
   <si>
+    <t>Bryan Edwards</t>
+  </si>
+  <si>
+    <t>Randall Cobb</t>
+  </si>
+  <si>
     <t>C.J. Uzomah</t>
   </si>
   <si>
-    <t>Bryan Edwards</t>
-  </si>
-  <si>
-    <t>Randall Cobb</t>
-  </si>
-  <si>
     <t>Carolina Panthers</t>
   </si>
   <si>
     <t>Greg Zuerlein</t>
   </si>
   <si>
+    <t>Matt Breida</t>
+  </si>
+  <si>
+    <t>Minnesota Vikings</t>
+  </si>
+  <si>
+    <t>Chris Boswell</t>
+  </si>
+  <si>
+    <t>Wil Lutz</t>
+  </si>
+  <si>
     <t>Marquez Callaway</t>
   </si>
   <si>
-    <t>Wil Lutz</t>
-  </si>
-  <si>
-    <t>Minnesota Vikings</t>
-  </si>
-  <si>
-    <t>Chris Boswell</t>
-  </si>
-  <si>
-    <t>Matt Breida</t>
-  </si>
-  <si>
     <t>Cameron Brate</t>
   </si>
   <si>
+    <t>Sammy Watkins</t>
+  </si>
+  <si>
+    <t>Eno Benjamin</t>
+  </si>
+  <si>
     <t>Odell Beckham Jr.</t>
   </si>
   <si>
-    <t>Eno Benjamin</t>
-  </si>
-  <si>
-    <t>Sammy Watkins</t>
-  </si>
-  <si>
     <t>Cedrick Wilson Jr.</t>
   </si>
   <si>
+    <t>Mason Crosby</t>
+  </si>
+  <si>
     <t>Hassan Haskins</t>
   </si>
   <si>
-    <t>Mason Crosby</t>
-  </si>
-  <si>
     <t>Chicago Bears</t>
   </si>
   <si>
+    <t>Phillip Lindsay</t>
+  </si>
+  <si>
     <t>Ke'Shawn Vaughn</t>
   </si>
   <si>
-    <t>Phillip Lindsay</t>
+    <t>Washington Commanders</t>
   </si>
   <si>
     <t>O.J. Howard</t>
@@ -896,18 +899,15 @@
     <t>Nelson Agholor</t>
   </si>
   <si>
-    <t>Washington Commanders</t>
-  </si>
-  <si>
     <t>Trey McBride</t>
   </si>
   <si>
+    <t>Graham Gano</t>
+  </si>
+  <si>
     <t>Jason Myers</t>
   </si>
   <si>
-    <t>Graham Gano</t>
-  </si>
-  <si>
     <t>Greg Joseph</t>
   </si>
   <si>
@@ -920,24 +920,24 @@
     <t>Cairo Santos</t>
   </si>
   <si>
+    <t>Seattle Seahawks</t>
+  </si>
+  <si>
+    <t>Kyle Rudolph</t>
+  </si>
+  <si>
     <t>Josh Reynolds</t>
   </si>
   <si>
     <t>Tre'Quan Smith</t>
   </si>
   <si>
-    <t>Kyle Rudolph</t>
-  </si>
-  <si>
-    <t>Seattle Seahawks</t>
+    <t>New York Jets</t>
   </si>
   <si>
     <t>Quez Watkins</t>
   </si>
   <si>
-    <t>New York Jets</t>
-  </si>
-  <si>
     <t>Ka'imi Fairbairn</t>
   </si>
   <si>
@@ -953,28 +953,34 @@
     <t>Kyren Williams</t>
   </si>
   <si>
+    <t>Darius Slayton</t>
+  </si>
+  <si>
+    <t>Chris Evans</t>
+  </si>
+  <si>
     <t>Pierre Strong Jr.</t>
   </si>
   <si>
-    <t>Darius Slayton</t>
-  </si>
-  <si>
     <t>Jimmy Garoppolo</t>
   </si>
   <si>
-    <t>Chris Evans</t>
+    <t>Jacksonville Jaguars</t>
   </si>
   <si>
     <t>Dyami Brown</t>
   </si>
   <si>
-    <t>Jacksonville Jaguars</t>
+    <t>Greg Dulcich</t>
+  </si>
+  <si>
+    <t>Velus Jones Jr.</t>
   </si>
   <si>
     <t>Emmanuel Sanders</t>
   </si>
   <si>
-    <t>Greg Dulcich</t>
+    <t>Jalen Reagor</t>
   </si>
   <si>
     <t>Ty Johnson</t>
@@ -983,24 +989,18 @@
     <t>Justin Jackson</t>
   </si>
   <si>
-    <t>Velus Jones Jr.</t>
+    <t>Jacoby Brissett</t>
   </si>
   <si>
     <t>Quintez Cephus</t>
   </si>
   <si>
-    <t>Jalen Reagor</t>
-  </si>
-  <si>
-    <t>Jacoby Brissett</t>
+    <t>Giovani Bernard</t>
   </si>
   <si>
     <t>Tyler Badie</t>
   </si>
   <si>
-    <t>Giovani Bernard</t>
-  </si>
-  <si>
     <t>Devin Duvernay</t>
   </si>
   <si>
@@ -1022,46 +1022,46 @@
     <t>Daniel Bellinger</t>
   </si>
   <si>
+    <t>Harrison Bryant</t>
+  </si>
+  <si>
     <t>Salvon Ahmed</t>
   </si>
   <si>
-    <t>Harrison Bryant</t>
+    <t>Chase McLaughlin</t>
   </si>
   <si>
     <t>Tevin Coleman</t>
   </si>
   <si>
-    <t>Chase McLaughlin</t>
+    <t>Snoop Conner</t>
   </si>
   <si>
     <t>Cole Beasley</t>
   </si>
   <si>
-    <t>Snoop Conner</t>
-  </si>
-  <si>
     <t>Sam Darnold</t>
   </si>
   <si>
+    <t>Tommy Tremble</t>
+  </si>
+  <si>
+    <t>Josh Lambo</t>
+  </si>
+  <si>
     <t>Jerome Ford</t>
   </si>
   <si>
-    <t>Tommy Tremble</t>
-  </si>
-  <si>
     <t>Jared Cook</t>
   </si>
   <si>
     <t>Jaret Patterson</t>
   </si>
   <si>
-    <t>Josh Lambo</t>
+    <t>Donald Parham Jr.</t>
   </si>
   <si>
     <t>Tyquan Thornton</t>
-  </si>
-  <si>
-    <t>Donald Parham Jr.</t>
   </si>
   <si>
     <t>Ricky Seals-Jones</t>
@@ -2090,7 +2090,7 @@
         <v>354</v>
       </c>
       <c r="D37" t="s">
-        <v>368</v>
+        <v>385</v>
       </c>
     </row>
     <row r="38" spans="1:4">
@@ -2118,7 +2118,7 @@
         <v>354</v>
       </c>
       <c r="D39" t="s">
-        <v>385</v>
+        <v>368</v>
       </c>
     </row>
     <row r="40" spans="1:4">
@@ -2314,7 +2314,7 @@
         <v>355</v>
       </c>
       <c r="D53" t="s">
-        <v>374</v>
+        <v>368</v>
       </c>
     </row>
     <row r="54" spans="1:4">
@@ -2325,10 +2325,10 @@
         <v>56</v>
       </c>
       <c r="C54" t="s">
-        <v>357</v>
+        <v>355</v>
       </c>
       <c r="D54" t="s">
-        <v>371</v>
+        <v>374</v>
       </c>
     </row>
     <row r="55" spans="1:4">
@@ -2339,10 +2339,10 @@
         <v>57</v>
       </c>
       <c r="C55" t="s">
-        <v>355</v>
+        <v>357</v>
       </c>
       <c r="D55" t="s">
-        <v>368</v>
+        <v>371</v>
       </c>
     </row>
     <row r="56" spans="1:4">
@@ -2370,7 +2370,7 @@
         <v>354</v>
       </c>
       <c r="D57" t="s">
-        <v>375</v>
+        <v>378</v>
       </c>
     </row>
     <row r="58" spans="1:4">
@@ -2384,7 +2384,7 @@
         <v>354</v>
       </c>
       <c r="D58" t="s">
-        <v>386</v>
+        <v>375</v>
       </c>
     </row>
     <row r="59" spans="1:4">
@@ -2398,7 +2398,7 @@
         <v>354</v>
       </c>
       <c r="D59" t="s">
-        <v>378</v>
+        <v>386</v>
       </c>
     </row>
     <row r="60" spans="1:4">
@@ -2493,10 +2493,10 @@
         <v>68</v>
       </c>
       <c r="C66" t="s">
-        <v>355</v>
+        <v>357</v>
       </c>
       <c r="D66" t="s">
-        <v>385</v>
+        <v>383</v>
       </c>
     </row>
     <row r="67" spans="1:4">
@@ -2507,10 +2507,10 @@
         <v>69</v>
       </c>
       <c r="C67" t="s">
-        <v>357</v>
+        <v>355</v>
       </c>
       <c r="D67" t="s">
-        <v>383</v>
+        <v>385</v>
       </c>
     </row>
     <row r="68" spans="1:4">
@@ -2885,10 +2885,10 @@
         <v>96</v>
       </c>
       <c r="C94" t="s">
-        <v>356</v>
+        <v>354</v>
       </c>
       <c r="D94" t="s">
-        <v>374</v>
+        <v>388</v>
       </c>
     </row>
     <row r="95" spans="1:4">
@@ -2899,10 +2899,10 @@
         <v>97</v>
       </c>
       <c r="C95" t="s">
-        <v>354</v>
+        <v>356</v>
       </c>
       <c r="D95" t="s">
-        <v>388</v>
+        <v>374</v>
       </c>
     </row>
     <row r="96" spans="1:4">
@@ -3193,10 +3193,10 @@
         <v>118</v>
       </c>
       <c r="C116" t="s">
-        <v>354</v>
+        <v>355</v>
       </c>
       <c r="D116" t="s">
-        <v>385</v>
+        <v>369</v>
       </c>
     </row>
     <row r="117" spans="1:4">
@@ -3207,10 +3207,10 @@
         <v>119</v>
       </c>
       <c r="C117" t="s">
-        <v>355</v>
+        <v>354</v>
       </c>
       <c r="D117" t="s">
-        <v>369</v>
+        <v>385</v>
       </c>
     </row>
     <row r="118" spans="1:4">
@@ -3221,10 +3221,10 @@
         <v>120</v>
       </c>
       <c r="C118" t="s">
-        <v>357</v>
+        <v>356</v>
       </c>
       <c r="D118" t="s">
-        <v>381</v>
+        <v>387</v>
       </c>
     </row>
     <row r="119" spans="1:4">
@@ -3235,10 +3235,10 @@
         <v>121</v>
       </c>
       <c r="C119" t="s">
-        <v>356</v>
+        <v>357</v>
       </c>
       <c r="D119" t="s">
-        <v>387</v>
+        <v>381</v>
       </c>
     </row>
     <row r="120" spans="1:4">
@@ -3350,7 +3350,7 @@
         <v>355</v>
       </c>
       <c r="D127" t="s">
-        <v>380</v>
+        <v>365</v>
       </c>
     </row>
     <row r="128" spans="1:4">
@@ -3364,7 +3364,7 @@
         <v>355</v>
       </c>
       <c r="D128" t="s">
-        <v>365</v>
+        <v>380</v>
       </c>
     </row>
     <row r="129" spans="1:4">
@@ -3417,10 +3417,10 @@
         <v>134</v>
       </c>
       <c r="C132" t="s">
-        <v>357</v>
+        <v>356</v>
       </c>
       <c r="D132" t="s">
-        <v>373</v>
+        <v>388</v>
       </c>
     </row>
     <row r="133" spans="1:4">
@@ -3431,10 +3431,10 @@
         <v>135</v>
       </c>
       <c r="C133" t="s">
-        <v>356</v>
+        <v>354</v>
       </c>
       <c r="D133" t="s">
-        <v>388</v>
+        <v>381</v>
       </c>
     </row>
     <row r="134" spans="1:4">
@@ -3445,10 +3445,10 @@
         <v>136</v>
       </c>
       <c r="C134" t="s">
-        <v>354</v>
+        <v>357</v>
       </c>
       <c r="D134" t="s">
-        <v>381</v>
+        <v>373</v>
       </c>
     </row>
     <row r="135" spans="1:4">
@@ -3504,7 +3504,7 @@
         <v>355</v>
       </c>
       <c r="D138" t="s">
-        <v>373</v>
+        <v>391</v>
       </c>
     </row>
     <row r="139" spans="1:4">
@@ -3518,7 +3518,7 @@
         <v>355</v>
       </c>
       <c r="D139" t="s">
-        <v>391</v>
+        <v>373</v>
       </c>
     </row>
     <row r="140" spans="1:4">
@@ -3529,10 +3529,10 @@
         <v>142</v>
       </c>
       <c r="C140" t="s">
-        <v>357</v>
+        <v>356</v>
       </c>
       <c r="D140" t="s">
-        <v>360</v>
+        <v>378</v>
       </c>
     </row>
     <row r="141" spans="1:4">
@@ -3543,10 +3543,10 @@
         <v>143</v>
       </c>
       <c r="C141" t="s">
-        <v>355</v>
+        <v>357</v>
       </c>
       <c r="D141" t="s">
-        <v>377</v>
+        <v>360</v>
       </c>
     </row>
     <row r="142" spans="1:4">
@@ -3557,10 +3557,10 @@
         <v>144</v>
       </c>
       <c r="C142" t="s">
-        <v>355</v>
+        <v>354</v>
       </c>
       <c r="D142" t="s">
-        <v>391</v>
+        <v>387</v>
       </c>
     </row>
     <row r="143" spans="1:4">
@@ -3571,10 +3571,10 @@
         <v>145</v>
       </c>
       <c r="C143" t="s">
-        <v>354</v>
+        <v>355</v>
       </c>
       <c r="D143" t="s">
-        <v>387</v>
+        <v>377</v>
       </c>
     </row>
     <row r="144" spans="1:4">
@@ -3585,10 +3585,10 @@
         <v>146</v>
       </c>
       <c r="C144" t="s">
-        <v>356</v>
+        <v>355</v>
       </c>
       <c r="D144" t="s">
-        <v>367</v>
+        <v>391</v>
       </c>
     </row>
     <row r="145" spans="1:4">
@@ -3602,7 +3602,7 @@
         <v>356</v>
       </c>
       <c r="D145" t="s">
-        <v>378</v>
+        <v>367</v>
       </c>
     </row>
     <row r="146" spans="1:4">
@@ -3697,10 +3697,10 @@
         <v>154</v>
       </c>
       <c r="C152" t="s">
-        <v>358</v>
+        <v>355</v>
       </c>
       <c r="D152" t="s">
-        <v>374</v>
+        <v>382</v>
       </c>
     </row>
     <row r="153" spans="1:4">
@@ -3711,10 +3711,10 @@
         <v>155</v>
       </c>
       <c r="C153" t="s">
-        <v>355</v>
+        <v>354</v>
       </c>
       <c r="D153" t="s">
-        <v>382</v>
+        <v>371</v>
       </c>
     </row>
     <row r="154" spans="1:4">
@@ -3725,10 +3725,10 @@
         <v>156</v>
       </c>
       <c r="C154" t="s">
-        <v>354</v>
+        <v>358</v>
       </c>
       <c r="D154" t="s">
-        <v>371</v>
+        <v>374</v>
       </c>
     </row>
     <row r="155" spans="1:4">
@@ -3753,10 +3753,10 @@
         <v>158</v>
       </c>
       <c r="C156" t="s">
-        <v>358</v>
+        <v>354</v>
       </c>
       <c r="D156" t="s">
-        <v>380</v>
+        <v>389</v>
       </c>
     </row>
     <row r="157" spans="1:4">
@@ -3767,10 +3767,10 @@
         <v>159</v>
       </c>
       <c r="C157" t="s">
-        <v>354</v>
+        <v>358</v>
       </c>
       <c r="D157" t="s">
-        <v>389</v>
+        <v>380</v>
       </c>
     </row>
     <row r="158" spans="1:4">
@@ -3781,10 +3781,10 @@
         <v>160</v>
       </c>
       <c r="C158" t="s">
-        <v>354</v>
+        <v>356</v>
       </c>
       <c r="D158" t="s">
-        <v>369</v>
+        <v>390</v>
       </c>
     </row>
     <row r="159" spans="1:4">
@@ -3809,10 +3809,10 @@
         <v>162</v>
       </c>
       <c r="C160" t="s">
-        <v>356</v>
+        <v>354</v>
       </c>
       <c r="D160" t="s">
-        <v>390</v>
+        <v>380</v>
       </c>
     </row>
     <row r="161" spans="1:4">
@@ -3826,7 +3826,7 @@
         <v>354</v>
       </c>
       <c r="D161" t="s">
-        <v>380</v>
+        <v>386</v>
       </c>
     </row>
     <row r="162" spans="1:4">
@@ -3854,7 +3854,7 @@
         <v>354</v>
       </c>
       <c r="D163" t="s">
-        <v>386</v>
+        <v>369</v>
       </c>
     </row>
     <row r="164" spans="1:4">
@@ -3907,10 +3907,10 @@
         <v>169</v>
       </c>
       <c r="C167" t="s">
-        <v>358</v>
+        <v>355</v>
       </c>
       <c r="D167" t="s">
-        <v>376</v>
+        <v>385</v>
       </c>
     </row>
     <row r="168" spans="1:4">
@@ -3921,10 +3921,10 @@
         <v>170</v>
       </c>
       <c r="C168" t="s">
-        <v>355</v>
+        <v>358</v>
       </c>
       <c r="D168" t="s">
-        <v>385</v>
+        <v>376</v>
       </c>
     </row>
     <row r="169" spans="1:4">
@@ -3977,10 +3977,10 @@
         <v>174</v>
       </c>
       <c r="C172" t="s">
-        <v>358</v>
+        <v>356</v>
       </c>
       <c r="D172" t="s">
-        <v>360</v>
+        <v>362</v>
       </c>
     </row>
     <row r="173" spans="1:4">
@@ -3991,10 +3991,10 @@
         <v>175</v>
       </c>
       <c r="C173" t="s">
-        <v>356</v>
+        <v>357</v>
       </c>
       <c r="D173" t="s">
-        <v>362</v>
+        <v>386</v>
       </c>
     </row>
     <row r="174" spans="1:4">
@@ -4005,10 +4005,10 @@
         <v>176</v>
       </c>
       <c r="C174" t="s">
-        <v>357</v>
+        <v>354</v>
       </c>
       <c r="D174" t="s">
-        <v>386</v>
+        <v>373</v>
       </c>
     </row>
     <row r="175" spans="1:4">
@@ -4019,10 +4019,10 @@
         <v>177</v>
       </c>
       <c r="C175" t="s">
-        <v>354</v>
+        <v>358</v>
       </c>
       <c r="D175" t="s">
-        <v>373</v>
+        <v>360</v>
       </c>
     </row>
     <row r="176" spans="1:4">
@@ -4075,10 +4075,10 @@
         <v>181</v>
       </c>
       <c r="C179" t="s">
-        <v>359</v>
+        <v>357</v>
       </c>
       <c r="D179" t="s">
-        <v>371</v>
+        <v>385</v>
       </c>
     </row>
     <row r="180" spans="1:4">
@@ -4103,10 +4103,10 @@
         <v>183</v>
       </c>
       <c r="C181" t="s">
-        <v>357</v>
+        <v>359</v>
       </c>
       <c r="D181" t="s">
-        <v>385</v>
+        <v>371</v>
       </c>
     </row>
     <row r="182" spans="1:4">
@@ -4134,7 +4134,7 @@
         <v>355</v>
       </c>
       <c r="D183" t="s">
-        <v>370</v>
+        <v>361</v>
       </c>
     </row>
     <row r="184" spans="1:4">
@@ -4145,10 +4145,10 @@
         <v>186</v>
       </c>
       <c r="C184" t="s">
-        <v>358</v>
+        <v>355</v>
       </c>
       <c r="D184" t="s">
-        <v>373</v>
+        <v>370</v>
       </c>
     </row>
     <row r="185" spans="1:4">
@@ -4159,10 +4159,10 @@
         <v>187</v>
       </c>
       <c r="C185" t="s">
-        <v>355</v>
+        <v>358</v>
       </c>
       <c r="D185" t="s">
-        <v>361</v>
+        <v>373</v>
       </c>
     </row>
     <row r="186" spans="1:4">
@@ -4243,10 +4243,10 @@
         <v>193</v>
       </c>
       <c r="C191" t="s">
-        <v>359</v>
+        <v>355</v>
       </c>
       <c r="D191" t="s">
-        <v>374</v>
+        <v>363</v>
       </c>
     </row>
     <row r="192" spans="1:4">
@@ -4257,10 +4257,10 @@
         <v>194</v>
       </c>
       <c r="C192" t="s">
-        <v>355</v>
+        <v>359</v>
       </c>
       <c r="D192" t="s">
-        <v>363</v>
+        <v>374</v>
       </c>
     </row>
     <row r="193" spans="1:4">
@@ -4327,10 +4327,10 @@
         <v>199</v>
       </c>
       <c r="C197" t="s">
-        <v>359</v>
+        <v>357</v>
       </c>
       <c r="D197" t="s">
-        <v>368</v>
+        <v>361</v>
       </c>
     </row>
     <row r="198" spans="1:4">
@@ -4341,10 +4341,10 @@
         <v>200</v>
       </c>
       <c r="C198" t="s">
-        <v>357</v>
+        <v>359</v>
       </c>
       <c r="D198" t="s">
-        <v>361</v>
+        <v>368</v>
       </c>
     </row>
     <row r="199" spans="1:4">
@@ -4411,10 +4411,10 @@
         <v>205</v>
       </c>
       <c r="C203" t="s">
-        <v>358</v>
+        <v>355</v>
       </c>
       <c r="D203" t="s">
-        <v>364</v>
+        <v>377</v>
       </c>
     </row>
     <row r="204" spans="1:4">
@@ -4425,10 +4425,10 @@
         <v>206</v>
       </c>
       <c r="C204" t="s">
-        <v>359</v>
+        <v>358</v>
       </c>
       <c r="D204" t="s">
-        <v>375</v>
+        <v>364</v>
       </c>
     </row>
     <row r="205" spans="1:4">
@@ -4439,10 +4439,10 @@
         <v>207</v>
       </c>
       <c r="C205" t="s">
-        <v>355</v>
+        <v>359</v>
       </c>
       <c r="D205" t="s">
-        <v>377</v>
+        <v>375</v>
       </c>
     </row>
     <row r="206" spans="1:4">
@@ -4453,10 +4453,10 @@
         <v>208</v>
       </c>
       <c r="C206" t="s">
-        <v>359</v>
+        <v>355</v>
       </c>
       <c r="D206" t="s">
-        <v>365</v>
+        <v>379</v>
       </c>
     </row>
     <row r="207" spans="1:4">
@@ -4467,10 +4467,10 @@
         <v>209</v>
       </c>
       <c r="C207" t="s">
-        <v>355</v>
+        <v>359</v>
       </c>
       <c r="D207" t="s">
-        <v>379</v>
+        <v>365</v>
       </c>
     </row>
     <row r="208" spans="1:4">
@@ -4495,10 +4495,10 @@
         <v>211</v>
       </c>
       <c r="C209" t="s">
-        <v>358</v>
+        <v>355</v>
       </c>
       <c r="D209" t="s">
-        <v>381</v>
+        <v>360</v>
       </c>
     </row>
     <row r="210" spans="1:4">
@@ -4512,7 +4512,7 @@
         <v>355</v>
       </c>
       <c r="D210" t="s">
-        <v>360</v>
+        <v>386</v>
       </c>
     </row>
     <row r="211" spans="1:4">
@@ -4523,10 +4523,10 @@
         <v>213</v>
       </c>
       <c r="C211" t="s">
-        <v>355</v>
+        <v>358</v>
       </c>
       <c r="D211" t="s">
-        <v>386</v>
+        <v>381</v>
       </c>
     </row>
     <row r="212" spans="1:4">
@@ -4537,10 +4537,10 @@
         <v>214</v>
       </c>
       <c r="C212" t="s">
-        <v>358</v>
+        <v>354</v>
       </c>
       <c r="D212" t="s">
-        <v>369</v>
+        <v>375</v>
       </c>
     </row>
     <row r="213" spans="1:4">
@@ -4551,10 +4551,10 @@
         <v>215</v>
       </c>
       <c r="C213" t="s">
-        <v>354</v>
+        <v>358</v>
       </c>
       <c r="D213" t="s">
-        <v>375</v>
+        <v>369</v>
       </c>
     </row>
     <row r="214" spans="1:4">
@@ -4579,10 +4579,10 @@
         <v>217</v>
       </c>
       <c r="C215" t="s">
-        <v>359</v>
+        <v>354</v>
       </c>
       <c r="D215" t="s">
-        <v>380</v>
+        <v>361</v>
       </c>
     </row>
     <row r="216" spans="1:4">
@@ -4593,10 +4593,10 @@
         <v>218</v>
       </c>
       <c r="C216" t="s">
-        <v>354</v>
+        <v>355</v>
       </c>
       <c r="D216" t="s">
-        <v>361</v>
+        <v>372</v>
       </c>
     </row>
     <row r="217" spans="1:4">
@@ -4610,7 +4610,7 @@
         <v>359</v>
       </c>
       <c r="D217" t="s">
-        <v>369</v>
+        <v>380</v>
       </c>
     </row>
     <row r="218" spans="1:4">
@@ -4635,10 +4635,10 @@
         <v>221</v>
       </c>
       <c r="C219" t="s">
-        <v>355</v>
+        <v>359</v>
       </c>
       <c r="D219" t="s">
-        <v>372</v>
+        <v>369</v>
       </c>
     </row>
     <row r="220" spans="1:4">
@@ -4677,10 +4677,10 @@
         <v>224</v>
       </c>
       <c r="C222" t="s">
-        <v>358</v>
+        <v>356</v>
       </c>
       <c r="D222" t="s">
-        <v>367</v>
+        <v>389</v>
       </c>
     </row>
     <row r="223" spans="1:4">
@@ -4705,10 +4705,10 @@
         <v>226</v>
       </c>
       <c r="C224" t="s">
-        <v>354</v>
+        <v>358</v>
       </c>
       <c r="D224" t="s">
-        <v>376</v>
+        <v>367</v>
       </c>
     </row>
     <row r="225" spans="1:4">
@@ -4733,10 +4733,10 @@
         <v>228</v>
       </c>
       <c r="C226" t="s">
-        <v>356</v>
+        <v>354</v>
       </c>
       <c r="D226" t="s">
-        <v>389</v>
+        <v>376</v>
       </c>
     </row>
     <row r="227" spans="1:4">
@@ -4747,10 +4747,10 @@
         <v>229</v>
       </c>
       <c r="C227" t="s">
-        <v>358</v>
+        <v>355</v>
       </c>
       <c r="D227" t="s">
-        <v>366</v>
+        <v>360</v>
       </c>
     </row>
     <row r="228" spans="1:4">
@@ -4761,10 +4761,10 @@
         <v>230</v>
       </c>
       <c r="C228" t="s">
-        <v>355</v>
+        <v>354</v>
       </c>
       <c r="D228" t="s">
-        <v>360</v>
+        <v>365</v>
       </c>
     </row>
     <row r="229" spans="1:4">
@@ -4775,10 +4775,10 @@
         <v>231</v>
       </c>
       <c r="C229" t="s">
-        <v>354</v>
+        <v>358</v>
       </c>
       <c r="D229" t="s">
-        <v>365</v>
+        <v>366</v>
       </c>
     </row>
     <row r="230" spans="1:4">
@@ -4831,10 +4831,10 @@
         <v>235</v>
       </c>
       <c r="C233" t="s">
-        <v>354</v>
+        <v>355</v>
       </c>
       <c r="D233" t="s">
-        <v>367</v>
+        <v>374</v>
       </c>
     </row>
     <row r="234" spans="1:4">
@@ -4845,10 +4845,10 @@
         <v>236</v>
       </c>
       <c r="C234" t="s">
-        <v>359</v>
+        <v>357</v>
       </c>
       <c r="D234" t="s">
-        <v>360</v>
+        <v>384</v>
       </c>
     </row>
     <row r="235" spans="1:4">
@@ -4859,10 +4859,10 @@
         <v>237</v>
       </c>
       <c r="C235" t="s">
-        <v>355</v>
+        <v>354</v>
       </c>
       <c r="D235" t="s">
-        <v>374</v>
+        <v>367</v>
       </c>
     </row>
     <row r="236" spans="1:4">
@@ -4873,10 +4873,10 @@
         <v>238</v>
       </c>
       <c r="C236" t="s">
-        <v>357</v>
+        <v>359</v>
       </c>
       <c r="D236" t="s">
-        <v>384</v>
+        <v>360</v>
       </c>
     </row>
     <row r="237" spans="1:4">
@@ -4901,10 +4901,10 @@
         <v>240</v>
       </c>
       <c r="C238" t="s">
-        <v>359</v>
+        <v>354</v>
       </c>
       <c r="D238" t="s">
-        <v>381</v>
+        <v>384</v>
       </c>
     </row>
     <row r="239" spans="1:4">
@@ -4929,10 +4929,10 @@
         <v>242</v>
       </c>
       <c r="C240" t="s">
-        <v>354</v>
+        <v>359</v>
       </c>
       <c r="D240" t="s">
-        <v>384</v>
+        <v>381</v>
       </c>
     </row>
     <row r="241" spans="1:4">
@@ -4971,10 +4971,10 @@
         <v>245</v>
       </c>
       <c r="C243" t="s">
-        <v>359</v>
+        <v>354</v>
       </c>
       <c r="D243" t="s">
-        <v>379</v>
+        <v>376</v>
       </c>
     </row>
     <row r="244" spans="1:4">
@@ -4985,10 +4985,10 @@
         <v>246</v>
       </c>
       <c r="C244" t="s">
-        <v>354</v>
+        <v>356</v>
       </c>
       <c r="D244" t="s">
-        <v>376</v>
+        <v>373</v>
       </c>
     </row>
     <row r="245" spans="1:4">
@@ -4999,10 +4999,10 @@
         <v>247</v>
       </c>
       <c r="C245" t="s">
-        <v>356</v>
+        <v>359</v>
       </c>
       <c r="D245" t="s">
-        <v>373</v>
+        <v>379</v>
       </c>
     </row>
     <row r="246" spans="1:4">
@@ -5027,10 +5027,10 @@
         <v>249</v>
       </c>
       <c r="C247" t="s">
-        <v>354</v>
+        <v>355</v>
       </c>
       <c r="D247" t="s">
-        <v>374</v>
+        <v>378</v>
       </c>
     </row>
     <row r="248" spans="1:4">
@@ -5041,10 +5041,10 @@
         <v>250</v>
       </c>
       <c r="C248" t="s">
-        <v>359</v>
+        <v>354</v>
       </c>
       <c r="D248" t="s">
-        <v>376</v>
+        <v>369</v>
       </c>
     </row>
     <row r="249" spans="1:4">
@@ -5055,10 +5055,10 @@
         <v>251</v>
       </c>
       <c r="C249" t="s">
-        <v>355</v>
+        <v>354</v>
       </c>
       <c r="D249" t="s">
-        <v>378</v>
+        <v>374</v>
       </c>
     </row>
     <row r="250" spans="1:4">
@@ -5083,10 +5083,10 @@
         <v>253</v>
       </c>
       <c r="C251" t="s">
-        <v>354</v>
+        <v>359</v>
       </c>
       <c r="D251" t="s">
-        <v>369</v>
+        <v>376</v>
       </c>
     </row>
     <row r="252" spans="1:4">
@@ -5100,7 +5100,7 @@
         <v>355</v>
       </c>
       <c r="D252" t="s">
-        <v>361</v>
+        <v>387</v>
       </c>
     </row>
     <row r="253" spans="1:4">
@@ -5111,10 +5111,10 @@
         <v>255</v>
       </c>
       <c r="C253" t="s">
-        <v>358</v>
+        <v>355</v>
       </c>
       <c r="D253" t="s">
-        <v>382</v>
+        <v>361</v>
       </c>
     </row>
     <row r="254" spans="1:4">
@@ -5125,10 +5125,10 @@
         <v>256</v>
       </c>
       <c r="C254" t="s">
-        <v>355</v>
+        <v>358</v>
       </c>
       <c r="D254" t="s">
-        <v>387</v>
+        <v>382</v>
       </c>
     </row>
     <row r="255" spans="1:4">
@@ -5139,10 +5139,10 @@
         <v>257</v>
       </c>
       <c r="C255" t="s">
-        <v>359</v>
+        <v>358</v>
       </c>
       <c r="D255" t="s">
-        <v>383</v>
+        <v>365</v>
       </c>
     </row>
     <row r="256" spans="1:4">
@@ -5153,10 +5153,10 @@
         <v>258</v>
       </c>
       <c r="C256" t="s">
-        <v>358</v>
+        <v>359</v>
       </c>
       <c r="D256" t="s">
-        <v>365</v>
+        <v>383</v>
       </c>
     </row>
     <row r="257" spans="1:4">
@@ -5167,10 +5167,10 @@
         <v>259</v>
       </c>
       <c r="C257" t="s">
-        <v>359</v>
+        <v>355</v>
       </c>
       <c r="D257" t="s">
-        <v>364</v>
+        <v>390</v>
       </c>
     </row>
     <row r="258" spans="1:4">
@@ -5181,10 +5181,10 @@
         <v>260</v>
       </c>
       <c r="C258" t="s">
-        <v>354</v>
+        <v>359</v>
       </c>
       <c r="D258" t="s">
-        <v>381</v>
+        <v>364</v>
       </c>
     </row>
     <row r="259" spans="1:4">
@@ -5195,7 +5195,7 @@
         <v>261</v>
       </c>
       <c r="C259" t="s">
-        <v>355</v>
+        <v>356</v>
       </c>
       <c r="D259" t="s">
         <v>390</v>
@@ -5226,7 +5226,7 @@
         <v>354</v>
       </c>
       <c r="D261" t="s">
-        <v>369</v>
+        <v>389</v>
       </c>
     </row>
     <row r="262" spans="1:4">
@@ -5237,10 +5237,10 @@
         <v>264</v>
       </c>
       <c r="C262" t="s">
-        <v>356</v>
+        <v>354</v>
       </c>
       <c r="D262" t="s">
-        <v>390</v>
+        <v>369</v>
       </c>
     </row>
     <row r="263" spans="1:4">
@@ -5254,7 +5254,7 @@
         <v>354</v>
       </c>
       <c r="D263" t="s">
-        <v>389</v>
+        <v>381</v>
       </c>
     </row>
     <row r="264" spans="1:4">
@@ -5307,10 +5307,10 @@
         <v>269</v>
       </c>
       <c r="C267" t="s">
-        <v>356</v>
+        <v>355</v>
       </c>
       <c r="D267" t="s">
-        <v>385</v>
+        <v>384</v>
       </c>
     </row>
     <row r="268" spans="1:4">
@@ -5324,7 +5324,7 @@
         <v>355</v>
       </c>
       <c r="D268" t="s">
-        <v>384</v>
+        <v>378</v>
       </c>
     </row>
     <row r="269" spans="1:4">
@@ -5335,10 +5335,10 @@
         <v>271</v>
       </c>
       <c r="C269" t="s">
-        <v>355</v>
+        <v>356</v>
       </c>
       <c r="D269" t="s">
-        <v>378</v>
+        <v>385</v>
       </c>
     </row>
     <row r="270" spans="1:4">
@@ -5377,10 +5377,10 @@
         <v>274</v>
       </c>
       <c r="C272" t="s">
-        <v>355</v>
+        <v>354</v>
       </c>
       <c r="D272" t="s">
-        <v>373</v>
+        <v>372</v>
       </c>
     </row>
     <row r="273" spans="1:4">
@@ -5391,10 +5391,10 @@
         <v>275</v>
       </c>
       <c r="C273" t="s">
-        <v>359</v>
+        <v>358</v>
       </c>
       <c r="D273" t="s">
-        <v>373</v>
+        <v>363</v>
       </c>
     </row>
     <row r="274" spans="1:4">
@@ -5405,10 +5405,10 @@
         <v>276</v>
       </c>
       <c r="C274" t="s">
-        <v>358</v>
+        <v>359</v>
       </c>
       <c r="D274" t="s">
-        <v>363</v>
+        <v>366</v>
       </c>
     </row>
     <row r="275" spans="1:4">
@@ -5422,7 +5422,7 @@
         <v>359</v>
       </c>
       <c r="D275" t="s">
-        <v>366</v>
+        <v>373</v>
       </c>
     </row>
     <row r="276" spans="1:4">
@@ -5433,10 +5433,10 @@
         <v>278</v>
       </c>
       <c r="C276" t="s">
-        <v>354</v>
+        <v>355</v>
       </c>
       <c r="D276" t="s">
-        <v>372</v>
+        <v>373</v>
       </c>
     </row>
     <row r="277" spans="1:4">
@@ -5464,7 +5464,7 @@
         <v>355</v>
       </c>
       <c r="D278" t="s">
-        <v>392</v>
+        <v>378</v>
       </c>
     </row>
     <row r="279" spans="1:4">
@@ -5492,7 +5492,7 @@
         <v>355</v>
       </c>
       <c r="D280" t="s">
-        <v>378</v>
+        <v>392</v>
       </c>
     </row>
     <row r="281" spans="1:4">
@@ -5517,10 +5517,10 @@
         <v>284</v>
       </c>
       <c r="C282" t="s">
-        <v>354</v>
+        <v>359</v>
       </c>
       <c r="D282" t="s">
-        <v>362</v>
+        <v>378</v>
       </c>
     </row>
     <row r="283" spans="1:4">
@@ -5531,10 +5531,10 @@
         <v>285</v>
       </c>
       <c r="C283" t="s">
-        <v>359</v>
+        <v>354</v>
       </c>
       <c r="D283" t="s">
-        <v>378</v>
+        <v>362</v>
       </c>
     </row>
     <row r="284" spans="1:4">
@@ -5562,7 +5562,7 @@
         <v>354</v>
       </c>
       <c r="D285" t="s">
-        <v>380</v>
+        <v>360</v>
       </c>
     </row>
     <row r="286" spans="1:4">
@@ -5576,7 +5576,7 @@
         <v>354</v>
       </c>
       <c r="D286" t="s">
-        <v>360</v>
+        <v>380</v>
       </c>
     </row>
     <row r="287" spans="1:4">
@@ -5587,10 +5587,10 @@
         <v>289</v>
       </c>
       <c r="C287" t="s">
-        <v>356</v>
+        <v>358</v>
       </c>
       <c r="D287" t="s">
-        <v>374</v>
+        <v>386</v>
       </c>
     </row>
     <row r="288" spans="1:4">
@@ -5601,10 +5601,10 @@
         <v>290</v>
       </c>
       <c r="C288" t="s">
-        <v>355</v>
+        <v>356</v>
       </c>
       <c r="D288" t="s">
-        <v>391</v>
+        <v>374</v>
       </c>
     </row>
     <row r="289" spans="1:4">
@@ -5615,10 +5615,10 @@
         <v>291</v>
       </c>
       <c r="C289" t="s">
-        <v>358</v>
+        <v>355</v>
       </c>
       <c r="D289" t="s">
-        <v>386</v>
+        <v>391</v>
       </c>
     </row>
     <row r="290" spans="1:4">
@@ -5646,7 +5646,7 @@
         <v>359</v>
       </c>
       <c r="D291" t="s">
-        <v>388</v>
+        <v>372</v>
       </c>
     </row>
     <row r="292" spans="1:4">
@@ -5660,7 +5660,7 @@
         <v>359</v>
       </c>
       <c r="D292" t="s">
-        <v>372</v>
+        <v>388</v>
       </c>
     </row>
     <row r="293" spans="1:4">
@@ -5727,10 +5727,10 @@
         <v>299</v>
       </c>
       <c r="C297" t="s">
-        <v>355</v>
+        <v>358</v>
       </c>
       <c r="D297" t="s">
-        <v>370</v>
+        <v>388</v>
       </c>
     </row>
     <row r="298" spans="1:4">
@@ -5741,10 +5741,10 @@
         <v>300</v>
       </c>
       <c r="C298" t="s">
-        <v>355</v>
+        <v>356</v>
       </c>
       <c r="D298" t="s">
-        <v>373</v>
+        <v>380</v>
       </c>
     </row>
     <row r="299" spans="1:4">
@@ -5755,10 +5755,10 @@
         <v>301</v>
       </c>
       <c r="C299" t="s">
-        <v>356</v>
+        <v>355</v>
       </c>
       <c r="D299" t="s">
-        <v>380</v>
+        <v>370</v>
       </c>
     </row>
     <row r="300" spans="1:4">
@@ -5769,10 +5769,10 @@
         <v>302</v>
       </c>
       <c r="C300" t="s">
-        <v>358</v>
+        <v>355</v>
       </c>
       <c r="D300" t="s">
-        <v>388</v>
+        <v>373</v>
       </c>
     </row>
     <row r="301" spans="1:4">
@@ -5783,10 +5783,10 @@
         <v>303</v>
       </c>
       <c r="C301" t="s">
-        <v>355</v>
+        <v>358</v>
       </c>
       <c r="D301" t="s">
-        <v>383</v>
+        <v>385</v>
       </c>
     </row>
     <row r="302" spans="1:4">
@@ -5797,10 +5797,10 @@
         <v>304</v>
       </c>
       <c r="C302" t="s">
-        <v>358</v>
+        <v>355</v>
       </c>
       <c r="D302" t="s">
-        <v>385</v>
+        <v>383</v>
       </c>
     </row>
     <row r="303" spans="1:4">
@@ -5881,10 +5881,10 @@
         <v>310</v>
       </c>
       <c r="C308" t="s">
-        <v>354</v>
+        <v>355</v>
       </c>
       <c r="D308" t="s">
-        <v>391</v>
+        <v>372</v>
       </c>
     </row>
     <row r="309" spans="1:4">
@@ -5895,10 +5895,10 @@
         <v>311</v>
       </c>
       <c r="C309" t="s">
-        <v>355</v>
+        <v>354</v>
       </c>
       <c r="D309" t="s">
-        <v>372</v>
+        <v>365</v>
       </c>
     </row>
     <row r="310" spans="1:4">
@@ -5909,10 +5909,10 @@
         <v>312</v>
       </c>
       <c r="C310" t="s">
-        <v>357</v>
+        <v>354</v>
       </c>
       <c r="D310" t="s">
-        <v>376</v>
+        <v>391</v>
       </c>
     </row>
     <row r="311" spans="1:4">
@@ -5923,10 +5923,10 @@
         <v>313</v>
       </c>
       <c r="C311" t="s">
-        <v>354</v>
+        <v>357</v>
       </c>
       <c r="D311" t="s">
-        <v>365</v>
+        <v>376</v>
       </c>
     </row>
     <row r="312" spans="1:4">
@@ -5937,10 +5937,10 @@
         <v>314</v>
       </c>
       <c r="C312" t="s">
-        <v>355</v>
+        <v>358</v>
       </c>
       <c r="D312" t="s">
-        <v>386</v>
+        <v>390</v>
       </c>
     </row>
     <row r="313" spans="1:4">
@@ -5951,10 +5951,10 @@
         <v>315</v>
       </c>
       <c r="C313" t="s">
-        <v>358</v>
+        <v>355</v>
       </c>
       <c r="D313" t="s">
-        <v>390</v>
+        <v>386</v>
       </c>
     </row>
     <row r="314" spans="1:4">
@@ -5965,10 +5965,10 @@
         <v>316</v>
       </c>
       <c r="C314" t="s">
-        <v>355</v>
+        <v>356</v>
       </c>
       <c r="D314" t="s">
-        <v>392</v>
+        <v>379</v>
       </c>
     </row>
     <row r="315" spans="1:4">
@@ -5979,10 +5979,10 @@
         <v>317</v>
       </c>
       <c r="C315" t="s">
-        <v>356</v>
+        <v>355</v>
       </c>
       <c r="D315" t="s">
-        <v>379</v>
+        <v>387</v>
       </c>
     </row>
     <row r="316" spans="1:4">
@@ -5993,10 +5993,10 @@
         <v>318</v>
       </c>
       <c r="C316" t="s">
-        <v>354</v>
+        <v>355</v>
       </c>
       <c r="D316" t="s">
-        <v>385</v>
+        <v>392</v>
       </c>
     </row>
     <row r="317" spans="1:4">
@@ -6007,10 +6007,10 @@
         <v>319</v>
       </c>
       <c r="C317" t="s">
-        <v>354</v>
+        <v>355</v>
       </c>
       <c r="D317" t="s">
-        <v>370</v>
+        <v>383</v>
       </c>
     </row>
     <row r="318" spans="1:4">
@@ -6021,10 +6021,10 @@
         <v>320</v>
       </c>
       <c r="C318" t="s">
-        <v>355</v>
+        <v>354</v>
       </c>
       <c r="D318" t="s">
-        <v>387</v>
+        <v>385</v>
       </c>
     </row>
     <row r="319" spans="1:4">
@@ -6035,7 +6035,7 @@
         <v>321</v>
       </c>
       <c r="C319" t="s">
-        <v>355</v>
+        <v>354</v>
       </c>
       <c r="D319" t="s">
         <v>370</v>
@@ -6049,10 +6049,10 @@
         <v>322</v>
       </c>
       <c r="C320" t="s">
-        <v>355</v>
+        <v>357</v>
       </c>
       <c r="D320" t="s">
-        <v>383</v>
+        <v>367</v>
       </c>
     </row>
     <row r="321" spans="1:4">
@@ -6063,10 +6063,10 @@
         <v>323</v>
       </c>
       <c r="C321" t="s">
-        <v>357</v>
+        <v>355</v>
       </c>
       <c r="D321" t="s">
-        <v>367</v>
+        <v>370</v>
       </c>
     </row>
     <row r="322" spans="1:4">
@@ -6080,7 +6080,7 @@
         <v>354</v>
       </c>
       <c r="D322" t="s">
-        <v>371</v>
+        <v>380</v>
       </c>
     </row>
     <row r="323" spans="1:4">
@@ -6094,7 +6094,7 @@
         <v>354</v>
       </c>
       <c r="D323" t="s">
-        <v>380</v>
+        <v>371</v>
       </c>
     </row>
     <row r="324" spans="1:4">
@@ -6203,10 +6203,10 @@
         <v>333</v>
       </c>
       <c r="C331" t="s">
-        <v>354</v>
+        <v>356</v>
       </c>
       <c r="D331" t="s">
-        <v>381</v>
+        <v>367</v>
       </c>
     </row>
     <row r="332" spans="1:4">
@@ -6217,10 +6217,10 @@
         <v>334</v>
       </c>
       <c r="C332" t="s">
-        <v>356</v>
+        <v>354</v>
       </c>
       <c r="D332" t="s">
-        <v>367</v>
+        <v>381</v>
       </c>
     </row>
     <row r="333" spans="1:4">
@@ -6231,10 +6231,10 @@
         <v>335</v>
       </c>
       <c r="C333" t="s">
-        <v>354</v>
+        <v>359</v>
       </c>
       <c r="D333" t="s">
-        <v>385</v>
+        <v>392</v>
       </c>
     </row>
     <row r="334" spans="1:4">
@@ -6245,10 +6245,10 @@
         <v>336</v>
       </c>
       <c r="C334" t="s">
-        <v>359</v>
+        <v>354</v>
       </c>
       <c r="D334" t="s">
-        <v>392</v>
+        <v>385</v>
       </c>
     </row>
     <row r="335" spans="1:4">
@@ -6259,10 +6259,10 @@
         <v>337</v>
       </c>
       <c r="C335" t="s">
-        <v>355</v>
+        <v>354</v>
       </c>
       <c r="D335" t="s">
-        <v>392</v>
+        <v>390</v>
       </c>
     </row>
     <row r="336" spans="1:4">
@@ -6273,10 +6273,10 @@
         <v>338</v>
       </c>
       <c r="C336" t="s">
-        <v>354</v>
+        <v>355</v>
       </c>
       <c r="D336" t="s">
-        <v>390</v>
+        <v>392</v>
       </c>
     </row>
     <row r="337" spans="1:4">
@@ -6301,10 +6301,10 @@
         <v>340</v>
       </c>
       <c r="C338" t="s">
-        <v>354</v>
+        <v>356</v>
       </c>
       <c r="D338" t="s">
-        <v>367</v>
+        <v>361</v>
       </c>
     </row>
     <row r="339" spans="1:4">
@@ -6315,10 +6315,10 @@
         <v>341</v>
       </c>
       <c r="C339" t="s">
-        <v>356</v>
+        <v>359</v>
       </c>
       <c r="D339" t="s">
-        <v>361</v>
+        <v>392</v>
       </c>
     </row>
     <row r="340" spans="1:4">
@@ -6329,10 +6329,10 @@
         <v>342</v>
       </c>
       <c r="C340" t="s">
-        <v>356</v>
+        <v>354</v>
       </c>
       <c r="D340" t="s">
-        <v>392</v>
+        <v>367</v>
       </c>
     </row>
     <row r="341" spans="1:4">
@@ -6343,10 +6343,10 @@
         <v>343</v>
       </c>
       <c r="C341" t="s">
-        <v>354</v>
+        <v>356</v>
       </c>
       <c r="D341" t="s">
-        <v>386</v>
+        <v>392</v>
       </c>
     </row>
     <row r="342" spans="1:4">
@@ -6357,10 +6357,10 @@
         <v>344</v>
       </c>
       <c r="C342" t="s">
-        <v>359</v>
+        <v>354</v>
       </c>
       <c r="D342" t="s">
-        <v>392</v>
+        <v>386</v>
       </c>
     </row>
     <row r="343" spans="1:4">
@@ -6371,10 +6371,10 @@
         <v>345</v>
       </c>
       <c r="C343" t="s">
-        <v>355</v>
+        <v>356</v>
       </c>
       <c r="D343" t="s">
-        <v>391</v>
+        <v>364</v>
       </c>
     </row>
     <row r="344" spans="1:4">
@@ -6385,10 +6385,10 @@
         <v>346</v>
       </c>
       <c r="C344" t="s">
-        <v>356</v>
+        <v>355</v>
       </c>
       <c r="D344" t="s">
-        <v>364</v>
+        <v>391</v>
       </c>
     </row>
     <row r="345" spans="1:4">
@@ -6917,13 +6917,13 @@
         <v>29</v>
       </c>
       <c r="B30" t="s">
-        <v>29</v>
+        <v>34</v>
       </c>
       <c r="C30" t="s">
-        <v>354</v>
+        <v>355</v>
       </c>
       <c r="D30" t="s">
-        <v>382</v>
+        <v>360</v>
       </c>
     </row>
     <row r="31" spans="1:4">
@@ -6931,13 +6931,13 @@
         <v>30</v>
       </c>
       <c r="B31" t="s">
-        <v>34</v>
+        <v>29</v>
       </c>
       <c r="C31" t="s">
-        <v>355</v>
+        <v>354</v>
       </c>
       <c r="D31" t="s">
-        <v>360</v>
+        <v>382</v>
       </c>
     </row>
     <row r="32" spans="1:4">
@@ -7001,7 +7001,7 @@
         <v>35</v>
       </c>
       <c r="B36" t="s">
-        <v>41</v>
+        <v>39</v>
       </c>
       <c r="C36" t="s">
         <v>354</v>
@@ -7015,7 +7015,7 @@
         <v>36</v>
       </c>
       <c r="B37" t="s">
-        <v>39</v>
+        <v>41</v>
       </c>
       <c r="C37" t="s">
         <v>354</v>
@@ -7155,13 +7155,13 @@
         <v>46</v>
       </c>
       <c r="B47" t="s">
-        <v>44</v>
+        <v>50</v>
       </c>
       <c r="C47" t="s">
-        <v>354</v>
+        <v>355</v>
       </c>
       <c r="D47" t="s">
-        <v>376</v>
+        <v>389</v>
       </c>
     </row>
     <row r="48" spans="1:4">
@@ -7169,13 +7169,13 @@
         <v>47</v>
       </c>
       <c r="B48" t="s">
-        <v>50</v>
+        <v>44</v>
       </c>
       <c r="C48" t="s">
-        <v>355</v>
+        <v>354</v>
       </c>
       <c r="D48" t="s">
-        <v>389</v>
+        <v>376</v>
       </c>
     </row>
     <row r="49" spans="1:4">
@@ -7225,7 +7225,7 @@
         <v>51</v>
       </c>
       <c r="B52" t="s">
-        <v>61</v>
+        <v>59</v>
       </c>
       <c r="C52" t="s">
         <v>354</v>
@@ -7239,7 +7239,7 @@
         <v>52</v>
       </c>
       <c r="B53" t="s">
-        <v>56</v>
+        <v>57</v>
       </c>
       <c r="C53" t="s">
         <v>357</v>
@@ -7253,7 +7253,7 @@
         <v>53</v>
       </c>
       <c r="B54" t="s">
-        <v>59</v>
+        <v>60</v>
       </c>
       <c r="C54" t="s">
         <v>354</v>
@@ -7267,13 +7267,13 @@
         <v>54</v>
       </c>
       <c r="B55" t="s">
-        <v>54</v>
+        <v>55</v>
       </c>
       <c r="C55" t="s">
-        <v>356</v>
+        <v>355</v>
       </c>
       <c r="D55" t="s">
-        <v>375</v>
+        <v>368</v>
       </c>
     </row>
     <row r="56" spans="1:4">
@@ -7281,13 +7281,13 @@
         <v>55</v>
       </c>
       <c r="B56" t="s">
-        <v>60</v>
+        <v>54</v>
       </c>
       <c r="C56" t="s">
-        <v>354</v>
+        <v>356</v>
       </c>
       <c r="D56" t="s">
-        <v>386</v>
+        <v>375</v>
       </c>
     </row>
     <row r="57" spans="1:4">
@@ -7295,13 +7295,13 @@
         <v>56</v>
       </c>
       <c r="B57" t="s">
-        <v>57</v>
+        <v>61</v>
       </c>
       <c r="C57" t="s">
-        <v>355</v>
+        <v>354</v>
       </c>
       <c r="D57" t="s">
-        <v>368</v>
+        <v>386</v>
       </c>
     </row>
     <row r="58" spans="1:4">
@@ -7379,13 +7379,13 @@
         <v>62</v>
       </c>
       <c r="B63" t="s">
-        <v>64</v>
+        <v>68</v>
       </c>
       <c r="C63" t="s">
-        <v>355</v>
+        <v>357</v>
       </c>
       <c r="D63" t="s">
-        <v>367</v>
+        <v>383</v>
       </c>
     </row>
     <row r="64" spans="1:4">
@@ -7407,13 +7407,13 @@
         <v>64</v>
       </c>
       <c r="B65" t="s">
-        <v>69</v>
+        <v>64</v>
       </c>
       <c r="C65" t="s">
-        <v>357</v>
+        <v>355</v>
       </c>
       <c r="D65" t="s">
-        <v>383</v>
+        <v>367</v>
       </c>
     </row>
     <row r="66" spans="1:4">
@@ -7491,7 +7491,7 @@
         <v>70</v>
       </c>
       <c r="B71" t="s">
-        <v>55</v>
+        <v>56</v>
       </c>
       <c r="C71" t="s">
         <v>355</v>
@@ -7533,7 +7533,7 @@
         <v>73</v>
       </c>
       <c r="B74" t="s">
-        <v>68</v>
+        <v>69</v>
       </c>
       <c r="C74" t="s">
         <v>355</v>
@@ -7547,13 +7547,13 @@
         <v>74</v>
       </c>
       <c r="B75" t="s">
-        <v>78</v>
+        <v>75</v>
       </c>
       <c r="C75" t="s">
-        <v>354</v>
+        <v>355</v>
       </c>
       <c r="D75" t="s">
-        <v>388</v>
+        <v>369</v>
       </c>
     </row>
     <row r="76" spans="1:4">
@@ -7561,13 +7561,13 @@
         <v>75</v>
       </c>
       <c r="B76" t="s">
-        <v>75</v>
+        <v>88</v>
       </c>
       <c r="C76" t="s">
-        <v>355</v>
+        <v>354</v>
       </c>
       <c r="D76" t="s">
-        <v>369</v>
+        <v>367</v>
       </c>
     </row>
     <row r="77" spans="1:4">
@@ -7575,13 +7575,13 @@
         <v>76</v>
       </c>
       <c r="B77" t="s">
-        <v>88</v>
+        <v>78</v>
       </c>
       <c r="C77" t="s">
         <v>354</v>
       </c>
       <c r="D77" t="s">
-        <v>367</v>
+        <v>388</v>
       </c>
     </row>
     <row r="78" spans="1:4">
@@ -7771,13 +7771,13 @@
         <v>90</v>
       </c>
       <c r="B91" t="s">
-        <v>97</v>
+        <v>83</v>
       </c>
       <c r="C91" t="s">
-        <v>354</v>
+        <v>355</v>
       </c>
       <c r="D91" t="s">
-        <v>388</v>
+        <v>383</v>
       </c>
     </row>
     <row r="92" spans="1:4">
@@ -7785,13 +7785,13 @@
         <v>91</v>
       </c>
       <c r="B92" t="s">
-        <v>83</v>
+        <v>96</v>
       </c>
       <c r="C92" t="s">
-        <v>355</v>
+        <v>354</v>
       </c>
       <c r="D92" t="s">
-        <v>383</v>
+        <v>388</v>
       </c>
     </row>
     <row r="93" spans="1:4">
@@ -7869,13 +7869,13 @@
         <v>97</v>
       </c>
       <c r="B98" t="s">
-        <v>104</v>
+        <v>87</v>
       </c>
       <c r="C98" t="s">
-        <v>357</v>
+        <v>355</v>
       </c>
       <c r="D98" t="s">
-        <v>368</v>
+        <v>378</v>
       </c>
     </row>
     <row r="99" spans="1:4">
@@ -7883,13 +7883,13 @@
         <v>98</v>
       </c>
       <c r="B99" t="s">
-        <v>87</v>
+        <v>104</v>
       </c>
       <c r="C99" t="s">
-        <v>355</v>
+        <v>357</v>
       </c>
       <c r="D99" t="s">
-        <v>378</v>
+        <v>368</v>
       </c>
     </row>
     <row r="100" spans="1:4">
@@ -7939,10 +7939,10 @@
         <v>102</v>
       </c>
       <c r="B103" t="s">
-        <v>96</v>
+        <v>113</v>
       </c>
       <c r="C103" t="s">
-        <v>356</v>
+        <v>354</v>
       </c>
       <c r="D103" t="s">
         <v>374</v>
@@ -7953,10 +7953,10 @@
         <v>103</v>
       </c>
       <c r="B104" t="s">
-        <v>113</v>
+        <v>97</v>
       </c>
       <c r="C104" t="s">
-        <v>354</v>
+        <v>356</v>
       </c>
       <c r="D104" t="s">
         <v>374</v>
@@ -7995,7 +7995,7 @@
         <v>106</v>
       </c>
       <c r="B107" t="s">
-        <v>118</v>
+        <v>119</v>
       </c>
       <c r="C107" t="s">
         <v>354</v>
@@ -8065,13 +8065,13 @@
         <v>111</v>
       </c>
       <c r="B112" t="s">
-        <v>117</v>
+        <v>107</v>
       </c>
       <c r="C112" t="s">
-        <v>356</v>
+        <v>355</v>
       </c>
       <c r="D112" t="s">
-        <v>366</v>
+        <v>362</v>
       </c>
     </row>
     <row r="113" spans="1:4">
@@ -8079,13 +8079,13 @@
         <v>112</v>
       </c>
       <c r="B113" t="s">
-        <v>107</v>
+        <v>117</v>
       </c>
       <c r="C113" t="s">
-        <v>355</v>
+        <v>356</v>
       </c>
       <c r="D113" t="s">
-        <v>362</v>
+        <v>366</v>
       </c>
     </row>
     <row r="114" spans="1:4">
@@ -8107,13 +8107,13 @@
         <v>114</v>
       </c>
       <c r="B115" t="s">
-        <v>110</v>
+        <v>120</v>
       </c>
       <c r="C115" t="s">
-        <v>355</v>
+        <v>356</v>
       </c>
       <c r="D115" t="s">
-        <v>366</v>
+        <v>387</v>
       </c>
     </row>
     <row r="116" spans="1:4">
@@ -8121,13 +8121,13 @@
         <v>115</v>
       </c>
       <c r="B116" t="s">
-        <v>121</v>
+        <v>110</v>
       </c>
       <c r="C116" t="s">
-        <v>356</v>
+        <v>355</v>
       </c>
       <c r="D116" t="s">
-        <v>387</v>
+        <v>366</v>
       </c>
     </row>
     <row r="117" spans="1:4">
@@ -8177,7 +8177,7 @@
         <v>119</v>
       </c>
       <c r="B120" t="s">
-        <v>119</v>
+        <v>118</v>
       </c>
       <c r="C120" t="s">
         <v>355</v>
@@ -8191,7 +8191,7 @@
         <v>120</v>
       </c>
       <c r="B121" t="s">
-        <v>129</v>
+        <v>130</v>
       </c>
       <c r="C121" t="s">
         <v>355</v>
@@ -8205,7 +8205,7 @@
         <v>121</v>
       </c>
       <c r="B122" t="s">
-        <v>130</v>
+        <v>129</v>
       </c>
       <c r="C122" t="s">
         <v>355</v>
@@ -8275,7 +8275,7 @@
         <v>126</v>
       </c>
       <c r="B127" t="s">
-        <v>120</v>
+        <v>121</v>
       </c>
       <c r="C127" t="s">
         <v>357</v>
@@ -8289,7 +8289,7 @@
         <v>127</v>
       </c>
       <c r="B128" t="s">
-        <v>144</v>
+        <v>146</v>
       </c>
       <c r="C128" t="s">
         <v>355</v>
@@ -8331,13 +8331,13 @@
         <v>130</v>
       </c>
       <c r="B131" t="s">
-        <v>167</v>
+        <v>126</v>
       </c>
       <c r="C131" t="s">
-        <v>354</v>
+        <v>355</v>
       </c>
       <c r="D131" t="s">
-        <v>386</v>
+        <v>369</v>
       </c>
     </row>
     <row r="132" spans="1:4">
@@ -8345,13 +8345,13 @@
         <v>131</v>
       </c>
       <c r="B132" t="s">
-        <v>126</v>
+        <v>167</v>
       </c>
       <c r="C132" t="s">
-        <v>355</v>
+        <v>354</v>
       </c>
       <c r="D132" t="s">
-        <v>369</v>
+        <v>386</v>
       </c>
     </row>
     <row r="133" spans="1:4">
@@ -8359,7 +8359,7 @@
         <v>132</v>
       </c>
       <c r="B133" t="s">
-        <v>140</v>
+        <v>141</v>
       </c>
       <c r="C133" t="s">
         <v>355</v>
@@ -8373,7 +8373,7 @@
         <v>133</v>
       </c>
       <c r="B134" t="s">
-        <v>136</v>
+        <v>135</v>
       </c>
       <c r="C134" t="s">
         <v>354</v>
@@ -8387,13 +8387,13 @@
         <v>134</v>
       </c>
       <c r="B135" t="s">
-        <v>131</v>
+        <v>144</v>
       </c>
       <c r="C135" t="s">
-        <v>356</v>
+        <v>354</v>
       </c>
       <c r="D135" t="s">
-        <v>363</v>
+        <v>387</v>
       </c>
     </row>
     <row r="136" spans="1:4">
@@ -8401,13 +8401,13 @@
         <v>135</v>
       </c>
       <c r="B136" t="s">
-        <v>138</v>
+        <v>131</v>
       </c>
       <c r="C136" t="s">
-        <v>354</v>
+        <v>356</v>
       </c>
       <c r="D136" t="s">
-        <v>364</v>
+        <v>363</v>
       </c>
     </row>
     <row r="137" spans="1:4">
@@ -8415,13 +8415,13 @@
         <v>136</v>
       </c>
       <c r="B137" t="s">
-        <v>145</v>
+        <v>138</v>
       </c>
       <c r="C137" t="s">
         <v>354</v>
       </c>
       <c r="D137" t="s">
-        <v>387</v>
+        <v>364</v>
       </c>
     </row>
     <row r="138" spans="1:4">
@@ -8429,13 +8429,13 @@
         <v>137</v>
       </c>
       <c r="B138" t="s">
-        <v>128</v>
+        <v>134</v>
       </c>
       <c r="C138" t="s">
-        <v>357</v>
+        <v>356</v>
       </c>
       <c r="D138" t="s">
-        <v>390</v>
+        <v>388</v>
       </c>
     </row>
     <row r="139" spans="1:4">
@@ -8443,13 +8443,13 @@
         <v>138</v>
       </c>
       <c r="B139" t="s">
-        <v>135</v>
+        <v>128</v>
       </c>
       <c r="C139" t="s">
-        <v>356</v>
+        <v>357</v>
       </c>
       <c r="D139" t="s">
-        <v>388</v>
+        <v>390</v>
       </c>
     </row>
     <row r="140" spans="1:4">
@@ -8471,7 +8471,7 @@
         <v>140</v>
       </c>
       <c r="B141" t="s">
-        <v>141</v>
+        <v>140</v>
       </c>
       <c r="C141" t="s">
         <v>355</v>
@@ -8499,7 +8499,7 @@
         <v>142</v>
       </c>
       <c r="B143" t="s">
-        <v>155</v>
+        <v>154</v>
       </c>
       <c r="C143" t="s">
         <v>355</v>
@@ -8527,13 +8527,13 @@
         <v>144</v>
       </c>
       <c r="B145" t="s">
-        <v>147</v>
+        <v>149</v>
       </c>
       <c r="C145" t="s">
-        <v>356</v>
+        <v>354</v>
       </c>
       <c r="D145" t="s">
-        <v>378</v>
+        <v>384</v>
       </c>
     </row>
     <row r="146" spans="1:4">
@@ -8541,13 +8541,13 @@
         <v>145</v>
       </c>
       <c r="B146" t="s">
-        <v>149</v>
+        <v>142</v>
       </c>
       <c r="C146" t="s">
-        <v>354</v>
+        <v>356</v>
       </c>
       <c r="D146" t="s">
-        <v>384</v>
+        <v>378</v>
       </c>
     </row>
     <row r="147" spans="1:4">
@@ -8569,7 +8569,7 @@
         <v>147</v>
       </c>
       <c r="B148" t="s">
-        <v>143</v>
+        <v>145</v>
       </c>
       <c r="C148" t="s">
         <v>355</v>
@@ -8583,7 +8583,7 @@
         <v>148</v>
       </c>
       <c r="B149" t="s">
-        <v>134</v>
+        <v>136</v>
       </c>
       <c r="C149" t="s">
         <v>357</v>
@@ -8597,7 +8597,7 @@
         <v>149</v>
       </c>
       <c r="B150" t="s">
-        <v>146</v>
+        <v>147</v>
       </c>
       <c r="C150" t="s">
         <v>356</v>
@@ -8611,13 +8611,13 @@
         <v>150</v>
       </c>
       <c r="B151" t="s">
-        <v>153</v>
+        <v>143</v>
       </c>
       <c r="C151" t="s">
-        <v>356</v>
+        <v>357</v>
       </c>
       <c r="D151" t="s">
-        <v>368</v>
+        <v>360</v>
       </c>
     </row>
     <row r="152" spans="1:4">
@@ -8625,13 +8625,13 @@
         <v>151</v>
       </c>
       <c r="B152" t="s">
-        <v>142</v>
+        <v>153</v>
       </c>
       <c r="C152" t="s">
-        <v>357</v>
+        <v>356</v>
       </c>
       <c r="D152" t="s">
-        <v>360</v>
+        <v>368</v>
       </c>
     </row>
     <row r="153" spans="1:4">
@@ -8653,13 +8653,13 @@
         <v>153</v>
       </c>
       <c r="B154" t="s">
-        <v>157</v>
+        <v>163</v>
       </c>
       <c r="C154" t="s">
-        <v>355</v>
+        <v>354</v>
       </c>
       <c r="D154" t="s">
-        <v>380</v>
+        <v>386</v>
       </c>
     </row>
     <row r="155" spans="1:4">
@@ -8667,13 +8667,13 @@
         <v>154</v>
       </c>
       <c r="B155" t="s">
-        <v>165</v>
+        <v>157</v>
       </c>
       <c r="C155" t="s">
-        <v>354</v>
+        <v>355</v>
       </c>
       <c r="D155" t="s">
-        <v>386</v>
+        <v>380</v>
       </c>
     </row>
     <row r="156" spans="1:4">
@@ -8695,7 +8695,7 @@
         <v>156</v>
       </c>
       <c r="B157" t="s">
-        <v>163</v>
+        <v>162</v>
       </c>
       <c r="C157" t="s">
         <v>354</v>
@@ -8723,13 +8723,13 @@
         <v>158</v>
       </c>
       <c r="B159" t="s">
-        <v>154</v>
+        <v>160</v>
       </c>
       <c r="C159" t="s">
-        <v>358</v>
+        <v>356</v>
       </c>
       <c r="D159" t="s">
-        <v>374</v>
+        <v>390</v>
       </c>
     </row>
     <row r="160" spans="1:4">
@@ -8737,13 +8737,13 @@
         <v>159</v>
       </c>
       <c r="B160" t="s">
-        <v>162</v>
+        <v>156</v>
       </c>
       <c r="C160" t="s">
-        <v>356</v>
+        <v>358</v>
       </c>
       <c r="D160" t="s">
-        <v>390</v>
+        <v>374</v>
       </c>
     </row>
     <row r="161" spans="1:4">
@@ -8751,7 +8751,7 @@
         <v>160</v>
       </c>
       <c r="B161" t="s">
-        <v>170</v>
+        <v>169</v>
       </c>
       <c r="C161" t="s">
         <v>355</v>
@@ -8765,13 +8765,13 @@
         <v>161</v>
       </c>
       <c r="B162" t="s">
-        <v>156</v>
+        <v>174</v>
       </c>
       <c r="C162" t="s">
-        <v>354</v>
+        <v>356</v>
       </c>
       <c r="D162" t="s">
-        <v>371</v>
+        <v>362</v>
       </c>
     </row>
     <row r="163" spans="1:4">
@@ -8779,13 +8779,13 @@
         <v>162</v>
       </c>
       <c r="B163" t="s">
-        <v>158</v>
+        <v>155</v>
       </c>
       <c r="C163" t="s">
-        <v>358</v>
+        <v>354</v>
       </c>
       <c r="D163" t="s">
-        <v>380</v>
+        <v>371</v>
       </c>
     </row>
     <row r="164" spans="1:4">
@@ -8793,13 +8793,13 @@
         <v>163</v>
       </c>
       <c r="B164" t="s">
-        <v>160</v>
+        <v>161</v>
       </c>
       <c r="C164" t="s">
-        <v>354</v>
+        <v>357</v>
       </c>
       <c r="D164" t="s">
-        <v>369</v>
+        <v>391</v>
       </c>
     </row>
     <row r="165" spans="1:4">
@@ -8807,13 +8807,13 @@
         <v>164</v>
       </c>
       <c r="B165" t="s">
-        <v>175</v>
+        <v>159</v>
       </c>
       <c r="C165" t="s">
-        <v>356</v>
+        <v>358</v>
       </c>
       <c r="D165" t="s">
-        <v>362</v>
+        <v>380</v>
       </c>
     </row>
     <row r="166" spans="1:4">
@@ -8821,13 +8821,13 @@
         <v>165</v>
       </c>
       <c r="B166" t="s">
-        <v>161</v>
+        <v>158</v>
       </c>
       <c r="C166" t="s">
-        <v>357</v>
+        <v>354</v>
       </c>
       <c r="D166" t="s">
-        <v>391</v>
+        <v>389</v>
       </c>
     </row>
     <row r="167" spans="1:4">
@@ -8835,13 +8835,13 @@
         <v>166</v>
       </c>
       <c r="B167" t="s">
-        <v>169</v>
+        <v>165</v>
       </c>
       <c r="C167" t="s">
-        <v>358</v>
+        <v>354</v>
       </c>
       <c r="D167" t="s">
-        <v>376</v>
+        <v>369</v>
       </c>
     </row>
     <row r="168" spans="1:4">
@@ -8849,13 +8849,13 @@
         <v>167</v>
       </c>
       <c r="B168" t="s">
-        <v>159</v>
+        <v>170</v>
       </c>
       <c r="C168" t="s">
-        <v>354</v>
+        <v>358</v>
       </c>
       <c r="D168" t="s">
-        <v>389</v>
+        <v>376</v>
       </c>
     </row>
     <row r="169" spans="1:4">
@@ -8905,7 +8905,7 @@
         <v>171</v>
       </c>
       <c r="B172" t="s">
-        <v>187</v>
+        <v>185</v>
       </c>
       <c r="C172" t="s">
         <v>355</v>
@@ -8919,13 +8919,13 @@
         <v>172</v>
       </c>
       <c r="B173" t="s">
-        <v>174</v>
+        <v>182</v>
       </c>
       <c r="C173" t="s">
-        <v>358</v>
+        <v>355</v>
       </c>
       <c r="D173" t="s">
-        <v>360</v>
+        <v>389</v>
       </c>
     </row>
     <row r="174" spans="1:4">
@@ -8947,13 +8947,13 @@
         <v>174</v>
       </c>
       <c r="B175" t="s">
-        <v>182</v>
+        <v>177</v>
       </c>
       <c r="C175" t="s">
-        <v>355</v>
+        <v>358</v>
       </c>
       <c r="D175" t="s">
-        <v>389</v>
+        <v>360</v>
       </c>
     </row>
     <row r="176" spans="1:4">
@@ -8975,7 +8975,7 @@
         <v>176</v>
       </c>
       <c r="B177" t="s">
-        <v>177</v>
+        <v>176</v>
       </c>
       <c r="C177" t="s">
         <v>354</v>
@@ -8989,13 +8989,13 @@
         <v>177</v>
       </c>
       <c r="B178" t="s">
-        <v>181</v>
+        <v>186</v>
       </c>
       <c r="C178" t="s">
-        <v>359</v>
+        <v>355</v>
       </c>
       <c r="D178" t="s">
-        <v>371</v>
+        <v>370</v>
       </c>
     </row>
     <row r="179" spans="1:4">
@@ -9003,13 +9003,13 @@
         <v>178</v>
       </c>
       <c r="B179" t="s">
-        <v>185</v>
+        <v>183</v>
       </c>
       <c r="C179" t="s">
-        <v>355</v>
+        <v>359</v>
       </c>
       <c r="D179" t="s">
-        <v>370</v>
+        <v>371</v>
       </c>
     </row>
     <row r="180" spans="1:4">
@@ -9031,13 +9031,13 @@
         <v>180</v>
       </c>
       <c r="B181" t="s">
-        <v>189</v>
+        <v>172</v>
       </c>
       <c r="C181" t="s">
-        <v>358</v>
+        <v>356</v>
       </c>
       <c r="D181" t="s">
-        <v>379</v>
+        <v>386</v>
       </c>
     </row>
     <row r="182" spans="1:4">
@@ -9045,13 +9045,13 @@
         <v>181</v>
       </c>
       <c r="B182" t="s">
-        <v>172</v>
+        <v>193</v>
       </c>
       <c r="C182" t="s">
-        <v>356</v>
+        <v>355</v>
       </c>
       <c r="D182" t="s">
-        <v>386</v>
+        <v>363</v>
       </c>
     </row>
     <row r="183" spans="1:4">
@@ -9059,13 +9059,13 @@
         <v>182</v>
       </c>
       <c r="B183" t="s">
-        <v>194</v>
+        <v>195</v>
       </c>
       <c r="C183" t="s">
         <v>355</v>
       </c>
       <c r="D183" t="s">
-        <v>363</v>
+        <v>390</v>
       </c>
     </row>
     <row r="184" spans="1:4">
@@ -9073,13 +9073,13 @@
         <v>183</v>
       </c>
       <c r="B184" t="s">
-        <v>191</v>
+        <v>189</v>
       </c>
       <c r="C184" t="s">
-        <v>355</v>
+        <v>358</v>
       </c>
       <c r="D184" t="s">
-        <v>378</v>
+        <v>379</v>
       </c>
     </row>
     <row r="185" spans="1:4">
@@ -9087,13 +9087,13 @@
         <v>184</v>
       </c>
       <c r="B185" t="s">
-        <v>195</v>
+        <v>191</v>
       </c>
       <c r="C185" t="s">
         <v>355</v>
       </c>
       <c r="D185" t="s">
-        <v>390</v>
+        <v>378</v>
       </c>
     </row>
     <row r="186" spans="1:4">
@@ -9101,13 +9101,13 @@
         <v>185</v>
       </c>
       <c r="B186" t="s">
-        <v>186</v>
+        <v>196</v>
       </c>
       <c r="C186" t="s">
-        <v>358</v>
+        <v>355</v>
       </c>
       <c r="D186" t="s">
-        <v>373</v>
+        <v>364</v>
       </c>
     </row>
     <row r="187" spans="1:4">
@@ -9115,13 +9115,13 @@
         <v>186</v>
       </c>
       <c r="B187" t="s">
-        <v>196</v>
+        <v>187</v>
       </c>
       <c r="C187" t="s">
-        <v>355</v>
+        <v>358</v>
       </c>
       <c r="D187" t="s">
-        <v>364</v>
+        <v>373</v>
       </c>
     </row>
     <row r="188" spans="1:4">
@@ -9129,13 +9129,13 @@
         <v>187</v>
       </c>
       <c r="B188" t="s">
-        <v>188</v>
+        <v>192</v>
       </c>
       <c r="C188" t="s">
-        <v>358</v>
+        <v>356</v>
       </c>
       <c r="D188" t="s">
-        <v>391</v>
+        <v>365</v>
       </c>
     </row>
     <row r="189" spans="1:4">
@@ -9143,13 +9143,13 @@
         <v>188</v>
       </c>
       <c r="B189" t="s">
-        <v>190</v>
+        <v>188</v>
       </c>
       <c r="C189" t="s">
         <v>358</v>
       </c>
       <c r="D189" t="s">
-        <v>368</v>
+        <v>391</v>
       </c>
     </row>
     <row r="190" spans="1:4">
@@ -9157,13 +9157,13 @@
         <v>189</v>
       </c>
       <c r="B190" t="s">
-        <v>193</v>
+        <v>190</v>
       </c>
       <c r="C190" t="s">
-        <v>359</v>
+        <v>358</v>
       </c>
       <c r="D190" t="s">
-        <v>374</v>
+        <v>368</v>
       </c>
     </row>
     <row r="191" spans="1:4">
@@ -9171,13 +9171,13 @@
         <v>190</v>
       </c>
       <c r="B191" t="s">
-        <v>192</v>
+        <v>194</v>
       </c>
       <c r="C191" t="s">
-        <v>356</v>
+        <v>359</v>
       </c>
       <c r="D191" t="s">
-        <v>365</v>
+        <v>374</v>
       </c>
     </row>
     <row r="192" spans="1:4">
@@ -9185,7 +9185,7 @@
         <v>191</v>
       </c>
       <c r="B192" t="s">
-        <v>199</v>
+        <v>200</v>
       </c>
       <c r="C192" t="s">
         <v>359</v>
@@ -9199,7 +9199,7 @@
         <v>192</v>
       </c>
       <c r="B193" t="s">
-        <v>183</v>
+        <v>181</v>
       </c>
       <c r="C193" t="s">
         <v>357</v>
@@ -9213,13 +9213,13 @@
         <v>193</v>
       </c>
       <c r="B194" t="s">
-        <v>176</v>
+        <v>201</v>
       </c>
       <c r="C194" t="s">
-        <v>357</v>
+        <v>355</v>
       </c>
       <c r="D194" t="s">
-        <v>386</v>
+        <v>391</v>
       </c>
     </row>
     <row r="195" spans="1:4">
@@ -9227,13 +9227,13 @@
         <v>194</v>
       </c>
       <c r="B195" t="s">
-        <v>201</v>
+        <v>175</v>
       </c>
       <c r="C195" t="s">
-        <v>355</v>
+        <v>357</v>
       </c>
       <c r="D195" t="s">
-        <v>391</v>
+        <v>386</v>
       </c>
     </row>
     <row r="196" spans="1:4">
@@ -9283,13 +9283,13 @@
         <v>198</v>
       </c>
       <c r="B199" t="s">
-        <v>205</v>
+        <v>218</v>
       </c>
       <c r="C199" t="s">
-        <v>358</v>
+        <v>355</v>
       </c>
       <c r="D199" t="s">
-        <v>364</v>
+        <v>372</v>
       </c>
     </row>
     <row r="200" spans="1:4">
@@ -9297,13 +9297,13 @@
         <v>199</v>
       </c>
       <c r="B200" t="s">
-        <v>202</v>
+        <v>206</v>
       </c>
       <c r="C200" t="s">
         <v>358</v>
       </c>
       <c r="D200" t="s">
-        <v>377</v>
+        <v>364</v>
       </c>
     </row>
     <row r="201" spans="1:4">
@@ -9311,13 +9311,13 @@
         <v>200</v>
       </c>
       <c r="B201" t="s">
-        <v>221</v>
+        <v>202</v>
       </c>
       <c r="C201" t="s">
-        <v>355</v>
+        <v>358</v>
       </c>
       <c r="D201" t="s">
-        <v>372</v>
+        <v>377</v>
       </c>
     </row>
     <row r="202" spans="1:4">
@@ -9325,13 +9325,13 @@
         <v>201</v>
       </c>
       <c r="B202" t="s">
-        <v>206</v>
+        <v>216</v>
       </c>
       <c r="C202" t="s">
-        <v>359</v>
+        <v>355</v>
       </c>
       <c r="D202" t="s">
-        <v>375</v>
+        <v>374</v>
       </c>
     </row>
     <row r="203" spans="1:4">
@@ -9339,13 +9339,13 @@
         <v>202</v>
       </c>
       <c r="B203" t="s">
-        <v>216</v>
+        <v>207</v>
       </c>
       <c r="C203" t="s">
-        <v>355</v>
+        <v>359</v>
       </c>
       <c r="D203" t="s">
-        <v>374</v>
+        <v>375</v>
       </c>
     </row>
     <row r="204" spans="1:4">
@@ -9353,7 +9353,7 @@
         <v>203</v>
       </c>
       <c r="B204" t="s">
-        <v>212</v>
+        <v>211</v>
       </c>
       <c r="C204" t="s">
         <v>355</v>
@@ -9367,7 +9367,7 @@
         <v>204</v>
       </c>
       <c r="B205" t="s">
-        <v>208</v>
+        <v>209</v>
       </c>
       <c r="C205" t="s">
         <v>359</v>
@@ -9381,7 +9381,7 @@
         <v>205</v>
       </c>
       <c r="B206" t="s">
-        <v>209</v>
+        <v>208</v>
       </c>
       <c r="C206" t="s">
         <v>355</v>
@@ -9395,13 +9395,13 @@
         <v>206</v>
       </c>
       <c r="B207" t="s">
-        <v>211</v>
+        <v>214</v>
       </c>
       <c r="C207" t="s">
-        <v>358</v>
+        <v>354</v>
       </c>
       <c r="D207" t="s">
-        <v>381</v>
+        <v>375</v>
       </c>
     </row>
     <row r="208" spans="1:4">
@@ -9409,13 +9409,13 @@
         <v>207</v>
       </c>
       <c r="B208" t="s">
-        <v>215</v>
+        <v>212</v>
       </c>
       <c r="C208" t="s">
-        <v>354</v>
+        <v>355</v>
       </c>
       <c r="D208" t="s">
-        <v>375</v>
+        <v>386</v>
       </c>
     </row>
     <row r="209" spans="1:4">
@@ -9423,13 +9423,13 @@
         <v>208</v>
       </c>
       <c r="B209" t="s">
-        <v>210</v>
+        <v>213</v>
       </c>
       <c r="C209" t="s">
         <v>358</v>
       </c>
       <c r="D209" t="s">
-        <v>378</v>
+        <v>381</v>
       </c>
     </row>
     <row r="210" spans="1:4">
@@ -9437,13 +9437,13 @@
         <v>209</v>
       </c>
       <c r="B210" t="s">
-        <v>204</v>
+        <v>210</v>
       </c>
       <c r="C210" t="s">
-        <v>354</v>
+        <v>358</v>
       </c>
       <c r="D210" t="s">
-        <v>383</v>
+        <v>378</v>
       </c>
     </row>
     <row r="211" spans="1:4">
@@ -9451,13 +9451,13 @@
         <v>210</v>
       </c>
       <c r="B211" t="s">
-        <v>213</v>
+        <v>205</v>
       </c>
       <c r="C211" t="s">
         <v>355</v>
       </c>
       <c r="D211" t="s">
-        <v>386</v>
+        <v>377</v>
       </c>
     </row>
     <row r="212" spans="1:4">
@@ -9465,13 +9465,13 @@
         <v>211</v>
       </c>
       <c r="B212" t="s">
-        <v>207</v>
+        <v>204</v>
       </c>
       <c r="C212" t="s">
-        <v>355</v>
+        <v>354</v>
       </c>
       <c r="D212" t="s">
-        <v>377</v>
+        <v>383</v>
       </c>
     </row>
     <row r="213" spans="1:4">
@@ -9479,13 +9479,13 @@
         <v>212</v>
       </c>
       <c r="B213" t="s">
-        <v>214</v>
+        <v>197</v>
       </c>
       <c r="C213" t="s">
-        <v>358</v>
+        <v>357</v>
       </c>
       <c r="D213" t="s">
-        <v>369</v>
+        <v>389</v>
       </c>
     </row>
     <row r="214" spans="1:4">
@@ -9493,13 +9493,13 @@
         <v>213</v>
       </c>
       <c r="B214" t="s">
-        <v>217</v>
+        <v>199</v>
       </c>
       <c r="C214" t="s">
-        <v>359</v>
+        <v>357</v>
       </c>
       <c r="D214" t="s">
-        <v>380</v>
+        <v>361</v>
       </c>
     </row>
     <row r="215" spans="1:4">
@@ -9507,13 +9507,13 @@
         <v>214</v>
       </c>
       <c r="B215" t="s">
-        <v>200</v>
+        <v>235</v>
       </c>
       <c r="C215" t="s">
-        <v>357</v>
+        <v>355</v>
       </c>
       <c r="D215" t="s">
-        <v>361</v>
+        <v>374</v>
       </c>
     </row>
     <row r="216" spans="1:4">
@@ -9521,13 +9521,13 @@
         <v>215</v>
       </c>
       <c r="B216" t="s">
-        <v>197</v>
+        <v>219</v>
       </c>
       <c r="C216" t="s">
-        <v>357</v>
+        <v>359</v>
       </c>
       <c r="D216" t="s">
-        <v>389</v>
+        <v>380</v>
       </c>
     </row>
     <row r="217" spans="1:4">
@@ -9535,13 +9535,13 @@
         <v>216</v>
       </c>
       <c r="B217" t="s">
-        <v>237</v>
+        <v>215</v>
       </c>
       <c r="C217" t="s">
-        <v>355</v>
+        <v>358</v>
       </c>
       <c r="D217" t="s">
-        <v>374</v>
+        <v>369</v>
       </c>
     </row>
     <row r="218" spans="1:4">
@@ -9563,13 +9563,13 @@
         <v>218</v>
       </c>
       <c r="B219" t="s">
-        <v>224</v>
+        <v>225</v>
       </c>
       <c r="C219" t="s">
-        <v>358</v>
+        <v>355</v>
       </c>
       <c r="D219" t="s">
-        <v>367</v>
+        <v>382</v>
       </c>
     </row>
     <row r="220" spans="1:4">
@@ -9577,13 +9577,13 @@
         <v>219</v>
       </c>
       <c r="B220" t="s">
-        <v>225</v>
+        <v>226</v>
       </c>
       <c r="C220" t="s">
-        <v>355</v>
+        <v>358</v>
       </c>
       <c r="D220" t="s">
-        <v>382</v>
+        <v>367</v>
       </c>
     </row>
     <row r="221" spans="1:4">
@@ -9591,7 +9591,7 @@
         <v>220</v>
       </c>
       <c r="B221" t="s">
-        <v>219</v>
+        <v>221</v>
       </c>
       <c r="C221" t="s">
         <v>359</v>
@@ -9605,13 +9605,13 @@
         <v>221</v>
       </c>
       <c r="B222" t="s">
-        <v>223</v>
+        <v>224</v>
       </c>
       <c r="C222" t="s">
-        <v>359</v>
+        <v>356</v>
       </c>
       <c r="D222" t="s">
-        <v>382</v>
+        <v>389</v>
       </c>
     </row>
     <row r="223" spans="1:4">
@@ -9619,13 +9619,13 @@
         <v>222</v>
       </c>
       <c r="B223" t="s">
-        <v>228</v>
+        <v>223</v>
       </c>
       <c r="C223" t="s">
-        <v>356</v>
+        <v>359</v>
       </c>
       <c r="D223" t="s">
-        <v>389</v>
+        <v>382</v>
       </c>
     </row>
     <row r="224" spans="1:4">
@@ -9633,7 +9633,7 @@
         <v>223</v>
       </c>
       <c r="B224" t="s">
-        <v>218</v>
+        <v>217</v>
       </c>
       <c r="C224" t="s">
         <v>354</v>
@@ -9675,13 +9675,13 @@
         <v>226</v>
       </c>
       <c r="B227" t="s">
-        <v>241</v>
+        <v>230</v>
       </c>
       <c r="C227" t="s">
-        <v>355</v>
+        <v>354</v>
       </c>
       <c r="D227" t="s">
-        <v>390</v>
+        <v>365</v>
       </c>
     </row>
     <row r="228" spans="1:4">
@@ -9703,13 +9703,13 @@
         <v>228</v>
       </c>
       <c r="B229" t="s">
-        <v>239</v>
+        <v>241</v>
       </c>
       <c r="C229" t="s">
-        <v>359</v>
+        <v>355</v>
       </c>
       <c r="D229" t="s">
-        <v>384</v>
+        <v>390</v>
       </c>
     </row>
     <row r="230" spans="1:4">
@@ -9717,13 +9717,13 @@
         <v>229</v>
       </c>
       <c r="B230" t="s">
-        <v>231</v>
+        <v>239</v>
       </c>
       <c r="C230" t="s">
-        <v>354</v>
+        <v>359</v>
       </c>
       <c r="D230" t="s">
-        <v>365</v>
+        <v>384</v>
       </c>
     </row>
     <row r="231" spans="1:4">
@@ -9731,10 +9731,10 @@
         <v>230</v>
       </c>
       <c r="B231" t="s">
-        <v>236</v>
+        <v>229</v>
       </c>
       <c r="C231" t="s">
-        <v>359</v>
+        <v>355</v>
       </c>
       <c r="D231" t="s">
         <v>360</v>
@@ -9745,10 +9745,10 @@
         <v>231</v>
       </c>
       <c r="B232" t="s">
-        <v>230</v>
+        <v>238</v>
       </c>
       <c r="C232" t="s">
-        <v>355</v>
+        <v>359</v>
       </c>
       <c r="D232" t="s">
         <v>360</v>
@@ -9759,7 +9759,7 @@
         <v>232</v>
       </c>
       <c r="B233" t="s">
-        <v>229</v>
+        <v>231</v>
       </c>
       <c r="C233" t="s">
         <v>358</v>
@@ -9787,13 +9787,13 @@
         <v>234</v>
       </c>
       <c r="B235" t="s">
-        <v>240</v>
+        <v>234</v>
       </c>
       <c r="C235" t="s">
-        <v>359</v>
+        <v>356</v>
       </c>
       <c r="D235" t="s">
-        <v>381</v>
+        <v>391</v>
       </c>
     </row>
     <row r="236" spans="1:4">
@@ -9801,13 +9801,13 @@
         <v>235</v>
       </c>
       <c r="B236" t="s">
-        <v>226</v>
+        <v>242</v>
       </c>
       <c r="C236" t="s">
-        <v>354</v>
+        <v>359</v>
       </c>
       <c r="D236" t="s">
-        <v>376</v>
+        <v>381</v>
       </c>
     </row>
     <row r="237" spans="1:4">
@@ -9815,13 +9815,13 @@
         <v>236</v>
       </c>
       <c r="B237" t="s">
-        <v>234</v>
+        <v>228</v>
       </c>
       <c r="C237" t="s">
-        <v>356</v>
+        <v>354</v>
       </c>
       <c r="D237" t="s">
-        <v>391</v>
+        <v>376</v>
       </c>
     </row>
     <row r="238" spans="1:4">
@@ -9829,7 +9829,7 @@
         <v>237</v>
       </c>
       <c r="B238" t="s">
-        <v>242</v>
+        <v>240</v>
       </c>
       <c r="C238" t="s">
         <v>354</v>
@@ -9843,13 +9843,13 @@
         <v>238</v>
       </c>
       <c r="B239" t="s">
-        <v>250</v>
+        <v>255</v>
       </c>
       <c r="C239" t="s">
-        <v>359</v>
+        <v>355</v>
       </c>
       <c r="D239" t="s">
-        <v>376</v>
+        <v>361</v>
       </c>
     </row>
     <row r="240" spans="1:4">
@@ -9871,13 +9871,13 @@
         <v>240</v>
       </c>
       <c r="B241" t="s">
-        <v>254</v>
+        <v>253</v>
       </c>
       <c r="C241" t="s">
-        <v>355</v>
+        <v>359</v>
       </c>
       <c r="D241" t="s">
-        <v>361</v>
+        <v>376</v>
       </c>
     </row>
     <row r="242" spans="1:4">
@@ -9885,7 +9885,7 @@
         <v>241</v>
       </c>
       <c r="B242" t="s">
-        <v>245</v>
+        <v>247</v>
       </c>
       <c r="C242" t="s">
         <v>359</v>
@@ -9899,13 +9899,13 @@
         <v>242</v>
       </c>
       <c r="B243" t="s">
-        <v>222</v>
+        <v>254</v>
       </c>
       <c r="C243" t="s">
-        <v>357</v>
+        <v>355</v>
       </c>
       <c r="D243" t="s">
-        <v>367</v>
+        <v>387</v>
       </c>
     </row>
     <row r="244" spans="1:4">
@@ -9913,10 +9913,10 @@
         <v>243</v>
       </c>
       <c r="B244" t="s">
-        <v>235</v>
+        <v>222</v>
       </c>
       <c r="C244" t="s">
-        <v>354</v>
+        <v>357</v>
       </c>
       <c r="D244" t="s">
         <v>367</v>
@@ -9927,13 +9927,13 @@
         <v>244</v>
       </c>
       <c r="B245" t="s">
-        <v>256</v>
+        <v>237</v>
       </c>
       <c r="C245" t="s">
-        <v>355</v>
+        <v>354</v>
       </c>
       <c r="D245" t="s">
-        <v>387</v>
+        <v>367</v>
       </c>
     </row>
     <row r="246" spans="1:4">
@@ -9941,7 +9941,7 @@
         <v>245</v>
       </c>
       <c r="B246" t="s">
-        <v>251</v>
+        <v>249</v>
       </c>
       <c r="C246" t="s">
         <v>355</v>
@@ -9955,13 +9955,13 @@
         <v>246</v>
       </c>
       <c r="B247" t="s">
-        <v>257</v>
+        <v>250</v>
       </c>
       <c r="C247" t="s">
-        <v>359</v>
+        <v>354</v>
       </c>
       <c r="D247" t="s">
-        <v>383</v>
+        <v>369</v>
       </c>
     </row>
     <row r="248" spans="1:4">
@@ -9969,13 +9969,13 @@
         <v>247</v>
       </c>
       <c r="B248" t="s">
-        <v>255</v>
+        <v>248</v>
       </c>
       <c r="C248" t="s">
-        <v>358</v>
+        <v>356</v>
       </c>
       <c r="D248" t="s">
-        <v>382</v>
+        <v>360</v>
       </c>
     </row>
     <row r="249" spans="1:4">
@@ -9983,13 +9983,13 @@
         <v>248</v>
       </c>
       <c r="B249" t="s">
-        <v>253</v>
+        <v>258</v>
       </c>
       <c r="C249" t="s">
-        <v>354</v>
+        <v>359</v>
       </c>
       <c r="D249" t="s">
-        <v>369</v>
+        <v>383</v>
       </c>
     </row>
     <row r="250" spans="1:4">
@@ -9997,13 +9997,13 @@
         <v>249</v>
       </c>
       <c r="B250" t="s">
-        <v>248</v>
+        <v>259</v>
       </c>
       <c r="C250" t="s">
-        <v>356</v>
+        <v>355</v>
       </c>
       <c r="D250" t="s">
-        <v>360</v>
+        <v>390</v>
       </c>
     </row>
     <row r="251" spans="1:4">
@@ -10011,7 +10011,7 @@
         <v>250</v>
       </c>
       <c r="B251" t="s">
-        <v>263</v>
+        <v>264</v>
       </c>
       <c r="C251" t="s">
         <v>354</v>
@@ -10025,13 +10025,13 @@
         <v>251</v>
       </c>
       <c r="B252" t="s">
-        <v>261</v>
+        <v>245</v>
       </c>
       <c r="C252" t="s">
-        <v>355</v>
+        <v>354</v>
       </c>
       <c r="D252" t="s">
-        <v>390</v>
+        <v>376</v>
       </c>
     </row>
     <row r="253" spans="1:4">
@@ -10039,13 +10039,13 @@
         <v>252</v>
       </c>
       <c r="B253" t="s">
-        <v>259</v>
+        <v>256</v>
       </c>
       <c r="C253" t="s">
-        <v>359</v>
+        <v>358</v>
       </c>
       <c r="D253" t="s">
-        <v>364</v>
+        <v>382</v>
       </c>
     </row>
     <row r="254" spans="1:4">
@@ -10053,13 +10053,13 @@
         <v>253</v>
       </c>
       <c r="B254" t="s">
-        <v>246</v>
+        <v>260</v>
       </c>
       <c r="C254" t="s">
-        <v>354</v>
+        <v>359</v>
       </c>
       <c r="D254" t="s">
-        <v>376</v>
+        <v>364</v>
       </c>
     </row>
     <row r="255" spans="1:4">
@@ -10067,13 +10067,13 @@
         <v>254</v>
       </c>
       <c r="B255" t="s">
-        <v>266</v>
+        <v>236</v>
       </c>
       <c r="C255" t="s">
-        <v>358</v>
+        <v>357</v>
       </c>
       <c r="D255" t="s">
-        <v>362</v>
+        <v>384</v>
       </c>
     </row>
     <row r="256" spans="1:4">
@@ -10081,7 +10081,7 @@
         <v>255</v>
       </c>
       <c r="B256" t="s">
-        <v>258</v>
+        <v>257</v>
       </c>
       <c r="C256" t="s">
         <v>358</v>
@@ -10095,13 +10095,13 @@
         <v>256</v>
       </c>
       <c r="B257" t="s">
-        <v>238</v>
+        <v>266</v>
       </c>
       <c r="C257" t="s">
-        <v>357</v>
+        <v>358</v>
       </c>
       <c r="D257" t="s">
-        <v>384</v>
+        <v>362</v>
       </c>
     </row>
     <row r="258" spans="1:4">
@@ -10109,7 +10109,7 @@
         <v>257</v>
       </c>
       <c r="B258" t="s">
-        <v>247</v>
+        <v>246</v>
       </c>
       <c r="C258" t="s">
         <v>356</v>
@@ -10123,13 +10123,13 @@
         <v>258</v>
       </c>
       <c r="B259" t="s">
-        <v>268</v>
+        <v>251</v>
       </c>
       <c r="C259" t="s">
-        <v>355</v>
+        <v>354</v>
       </c>
       <c r="D259" t="s">
-        <v>385</v>
+        <v>374</v>
       </c>
     </row>
     <row r="260" spans="1:4">
@@ -10137,7 +10137,7 @@
         <v>259</v>
       </c>
       <c r="B260" t="s">
-        <v>265</v>
+        <v>263</v>
       </c>
       <c r="C260" t="s">
         <v>354</v>
@@ -10151,13 +10151,13 @@
         <v>260</v>
       </c>
       <c r="B261" t="s">
-        <v>249</v>
+        <v>268</v>
       </c>
       <c r="C261" t="s">
-        <v>354</v>
+        <v>355</v>
       </c>
       <c r="D261" t="s">
-        <v>374</v>
+        <v>385</v>
       </c>
     </row>
     <row r="262" spans="1:4">
@@ -10179,13 +10179,13 @@
         <v>262</v>
       </c>
       <c r="B263" t="s">
-        <v>267</v>
+        <v>262</v>
       </c>
       <c r="C263" t="s">
-        <v>355</v>
+        <v>354</v>
       </c>
       <c r="D263" t="s">
-        <v>392</v>
+        <v>371</v>
       </c>
     </row>
     <row r="264" spans="1:4">
@@ -10193,13 +10193,13 @@
         <v>263</v>
       </c>
       <c r="B264" t="s">
-        <v>272</v>
+        <v>267</v>
       </c>
       <c r="C264" t="s">
-        <v>358</v>
+        <v>355</v>
       </c>
       <c r="D264" t="s">
-        <v>361</v>
+        <v>392</v>
       </c>
     </row>
     <row r="265" spans="1:4">
@@ -10207,13 +10207,13 @@
         <v>264</v>
       </c>
       <c r="B265" t="s">
-        <v>260</v>
+        <v>270</v>
       </c>
       <c r="C265" t="s">
-        <v>354</v>
+        <v>355</v>
       </c>
       <c r="D265" t="s">
-        <v>381</v>
+        <v>378</v>
       </c>
     </row>
     <row r="266" spans="1:4">
@@ -10221,13 +10221,13 @@
         <v>265</v>
       </c>
       <c r="B266" t="s">
-        <v>262</v>
+        <v>272</v>
       </c>
       <c r="C266" t="s">
-        <v>354</v>
+        <v>358</v>
       </c>
       <c r="D266" t="s">
-        <v>371</v>
+        <v>361</v>
       </c>
     </row>
     <row r="267" spans="1:4">
@@ -10235,13 +10235,13 @@
         <v>266</v>
       </c>
       <c r="B267" t="s">
-        <v>277</v>
+        <v>271</v>
       </c>
       <c r="C267" t="s">
-        <v>359</v>
+        <v>356</v>
       </c>
       <c r="D267" t="s">
-        <v>366</v>
+        <v>385</v>
       </c>
     </row>
     <row r="268" spans="1:4">
@@ -10252,10 +10252,10 @@
         <v>276</v>
       </c>
       <c r="C268" t="s">
-        <v>358</v>
+        <v>359</v>
       </c>
       <c r="D268" t="s">
-        <v>363</v>
+        <v>366</v>
       </c>
     </row>
     <row r="269" spans="1:4">
@@ -10280,10 +10280,10 @@
         <v>269</v>
       </c>
       <c r="C270" t="s">
-        <v>356</v>
+        <v>355</v>
       </c>
       <c r="D270" t="s">
-        <v>385</v>
+        <v>384</v>
       </c>
     </row>
     <row r="271" spans="1:4">
@@ -10291,13 +10291,13 @@
         <v>270</v>
       </c>
       <c r="B271" t="s">
-        <v>271</v>
+        <v>265</v>
       </c>
       <c r="C271" t="s">
-        <v>355</v>
+        <v>354</v>
       </c>
       <c r="D271" t="s">
-        <v>378</v>
+        <v>381</v>
       </c>
     </row>
     <row r="272" spans="1:4">
@@ -10308,10 +10308,10 @@
         <v>275</v>
       </c>
       <c r="C272" t="s">
-        <v>359</v>
+        <v>358</v>
       </c>
       <c r="D272" t="s">
-        <v>373</v>
+        <v>363</v>
       </c>
     </row>
     <row r="273" spans="1:4">
@@ -10319,13 +10319,13 @@
         <v>272</v>
       </c>
       <c r="B273" t="s">
-        <v>270</v>
+        <v>277</v>
       </c>
       <c r="C273" t="s">
-        <v>355</v>
+        <v>359</v>
       </c>
       <c r="D273" t="s">
-        <v>384</v>
+        <v>373</v>
       </c>
     </row>
     <row r="274" spans="1:4">
@@ -10333,7 +10333,7 @@
         <v>273</v>
       </c>
       <c r="B274" t="s">
-        <v>264</v>
+        <v>261</v>
       </c>
       <c r="C274" t="s">
         <v>356</v>
@@ -10347,13 +10347,13 @@
         <v>274</v>
       </c>
       <c r="B275" t="s">
-        <v>285</v>
+        <v>279</v>
       </c>
       <c r="C275" t="s">
-        <v>359</v>
+        <v>356</v>
       </c>
       <c r="D275" t="s">
-        <v>378</v>
+        <v>380</v>
       </c>
     </row>
     <row r="276" spans="1:4">
@@ -10361,13 +10361,13 @@
         <v>275</v>
       </c>
       <c r="B276" t="s">
-        <v>278</v>
+        <v>284</v>
       </c>
       <c r="C276" t="s">
-        <v>354</v>
+        <v>359</v>
       </c>
       <c r="D276" t="s">
-        <v>372</v>
+        <v>378</v>
       </c>
     </row>
     <row r="277" spans="1:4">
@@ -10378,10 +10378,10 @@
         <v>274</v>
       </c>
       <c r="C277" t="s">
-        <v>355</v>
+        <v>354</v>
       </c>
       <c r="D277" t="s">
-        <v>373</v>
+        <v>372</v>
       </c>
     </row>
     <row r="278" spans="1:4">
@@ -10389,13 +10389,13 @@
         <v>277</v>
       </c>
       <c r="B278" t="s">
-        <v>279</v>
+        <v>278</v>
       </c>
       <c r="C278" t="s">
-        <v>356</v>
+        <v>355</v>
       </c>
       <c r="D278" t="s">
-        <v>380</v>
+        <v>373</v>
       </c>
     </row>
     <row r="279" spans="1:4">
@@ -10409,7 +10409,7 @@
         <v>355</v>
       </c>
       <c r="D279" t="s">
-        <v>392</v>
+        <v>378</v>
       </c>
     </row>
     <row r="280" spans="1:4">
@@ -10431,13 +10431,13 @@
         <v>280</v>
       </c>
       <c r="B281" t="s">
-        <v>282</v>
+        <v>283</v>
       </c>
       <c r="C281" t="s">
         <v>355</v>
       </c>
       <c r="D281" t="s">
-        <v>378</v>
+        <v>381</v>
       </c>
     </row>
     <row r="282" spans="1:4">
@@ -10445,13 +10445,13 @@
         <v>281</v>
       </c>
       <c r="B282" t="s">
-        <v>281</v>
+        <v>282</v>
       </c>
       <c r="C282" t="s">
-        <v>354</v>
+        <v>355</v>
       </c>
       <c r="D282" t="s">
-        <v>382</v>
+        <v>392</v>
       </c>
     </row>
     <row r="283" spans="1:4">
@@ -10459,13 +10459,13 @@
         <v>282</v>
       </c>
       <c r="B283" t="s">
-        <v>283</v>
+        <v>281</v>
       </c>
       <c r="C283" t="s">
-        <v>355</v>
+        <v>354</v>
       </c>
       <c r="D283" t="s">
-        <v>381</v>
+        <v>382</v>
       </c>
     </row>
     <row r="284" spans="1:4">
@@ -10473,7 +10473,7 @@
         <v>283</v>
       </c>
       <c r="B284" t="s">
-        <v>294</v>
+        <v>293</v>
       </c>
       <c r="C284" t="s">
         <v>359</v>
@@ -10487,7 +10487,7 @@
         <v>284</v>
       </c>
       <c r="B285" t="s">
-        <v>291</v>
+        <v>289</v>
       </c>
       <c r="C285" t="s">
         <v>358</v>
@@ -10515,13 +10515,13 @@
         <v>286</v>
       </c>
       <c r="B287" t="s">
-        <v>295</v>
+        <v>291</v>
       </c>
       <c r="C287" t="s">
-        <v>359</v>
+        <v>355</v>
       </c>
       <c r="D287" t="s">
-        <v>363</v>
+        <v>391</v>
       </c>
     </row>
     <row r="288" spans="1:4">
@@ -10529,13 +10529,13 @@
         <v>287</v>
       </c>
       <c r="B288" t="s">
-        <v>293</v>
+        <v>295</v>
       </c>
       <c r="C288" t="s">
         <v>359</v>
       </c>
       <c r="D288" t="s">
-        <v>388</v>
+        <v>363</v>
       </c>
     </row>
     <row r="289" spans="1:4">
@@ -10543,13 +10543,13 @@
         <v>288</v>
       </c>
       <c r="B289" t="s">
-        <v>290</v>
+        <v>294</v>
       </c>
       <c r="C289" t="s">
-        <v>355</v>
+        <v>359</v>
       </c>
       <c r="D289" t="s">
-        <v>391</v>
+        <v>388</v>
       </c>
     </row>
     <row r="290" spans="1:4">
@@ -10557,13 +10557,13 @@
         <v>289</v>
       </c>
       <c r="B290" t="s">
-        <v>292</v>
+        <v>287</v>
       </c>
       <c r="C290" t="s">
-        <v>356</v>
+        <v>354</v>
       </c>
       <c r="D290" t="s">
-        <v>382</v>
+        <v>360</v>
       </c>
     </row>
     <row r="291" spans="1:4">
@@ -10571,13 +10571,13 @@
         <v>290</v>
       </c>
       <c r="B291" t="s">
-        <v>284</v>
+        <v>288</v>
       </c>
       <c r="C291" t="s">
         <v>354</v>
       </c>
       <c r="D291" t="s">
-        <v>362</v>
+        <v>380</v>
       </c>
     </row>
     <row r="292" spans="1:4">
@@ -10585,13 +10585,13 @@
         <v>291</v>
       </c>
       <c r="B292" t="s">
-        <v>288</v>
+        <v>292</v>
       </c>
       <c r="C292" t="s">
-        <v>354</v>
+        <v>356</v>
       </c>
       <c r="D292" t="s">
-        <v>360</v>
+        <v>382</v>
       </c>
     </row>
     <row r="293" spans="1:4">
@@ -10599,13 +10599,13 @@
         <v>292</v>
       </c>
       <c r="B293" t="s">
-        <v>287</v>
+        <v>285</v>
       </c>
       <c r="C293" t="s">
         <v>354</v>
       </c>
       <c r="D293" t="s">
-        <v>380</v>
+        <v>362</v>
       </c>
     </row>
     <row r="294" spans="1:4">
@@ -10613,7 +10613,7 @@
         <v>293</v>
       </c>
       <c r="B294" t="s">
-        <v>302</v>
+        <v>299</v>
       </c>
       <c r="C294" t="s">
         <v>358</v>
@@ -10627,7 +10627,7 @@
         <v>294</v>
       </c>
       <c r="B295" t="s">
-        <v>300</v>
+        <v>302</v>
       </c>
       <c r="C295" t="s">
         <v>355</v>
@@ -10669,7 +10669,7 @@
         <v>297</v>
       </c>
       <c r="B298" t="s">
-        <v>304</v>
+        <v>303</v>
       </c>
       <c r="C298" t="s">
         <v>358</v>
@@ -10683,7 +10683,7 @@
         <v>298</v>
       </c>
       <c r="B299" t="s">
-        <v>289</v>
+        <v>290</v>
       </c>
       <c r="C299" t="s">
         <v>356</v>
@@ -10711,7 +10711,7 @@
         <v>300</v>
       </c>
       <c r="B301" t="s">
-        <v>299</v>
+        <v>301</v>
       </c>
       <c r="C301" t="s">
         <v>355</v>
@@ -10725,7 +10725,7 @@
         <v>301</v>
       </c>
       <c r="B302" t="s">
-        <v>313</v>
+        <v>311</v>
       </c>
       <c r="C302" t="s">
         <v>354</v>
@@ -10739,13 +10739,13 @@
         <v>302</v>
       </c>
       <c r="B303" t="s">
-        <v>307</v>
+        <v>306</v>
       </c>
       <c r="C303" t="s">
-        <v>354</v>
+        <v>357</v>
       </c>
       <c r="D303" t="s">
-        <v>364</v>
+        <v>388</v>
       </c>
     </row>
     <row r="304" spans="1:4">
@@ -10753,13 +10753,13 @@
         <v>303</v>
       </c>
       <c r="B304" t="s">
-        <v>315</v>
+        <v>307</v>
       </c>
       <c r="C304" t="s">
-        <v>358</v>
+        <v>354</v>
       </c>
       <c r="D304" t="s">
-        <v>390</v>
+        <v>364</v>
       </c>
     </row>
     <row r="305" spans="1:4">
@@ -10767,13 +10767,13 @@
         <v>304</v>
       </c>
       <c r="B305" t="s">
-        <v>306</v>
+        <v>314</v>
       </c>
       <c r="C305" t="s">
-        <v>357</v>
+        <v>358</v>
       </c>
       <c r="D305" t="s">
-        <v>388</v>
+        <v>390</v>
       </c>
     </row>
     <row r="306" spans="1:4">
@@ -10784,10 +10784,10 @@
         <v>310</v>
       </c>
       <c r="C306" t="s">
-        <v>354</v>
+        <v>355</v>
       </c>
       <c r="D306" t="s">
-        <v>391</v>
+        <v>372</v>
       </c>
     </row>
     <row r="307" spans="1:4">
@@ -10795,13 +10795,13 @@
         <v>306</v>
       </c>
       <c r="B307" t="s">
-        <v>318</v>
+        <v>300</v>
       </c>
       <c r="C307" t="s">
-        <v>354</v>
+        <v>356</v>
       </c>
       <c r="D307" t="s">
-        <v>385</v>
+        <v>380</v>
       </c>
     </row>
     <row r="308" spans="1:4">
@@ -10809,13 +10809,13 @@
         <v>307</v>
       </c>
       <c r="B308" t="s">
-        <v>311</v>
+        <v>308</v>
       </c>
       <c r="C308" t="s">
-        <v>355</v>
+        <v>357</v>
       </c>
       <c r="D308" t="s">
-        <v>372</v>
+        <v>366</v>
       </c>
     </row>
     <row r="309" spans="1:4">
@@ -10823,13 +10823,13 @@
         <v>308</v>
       </c>
       <c r="B309" t="s">
-        <v>303</v>
+        <v>320</v>
       </c>
       <c r="C309" t="s">
-        <v>355</v>
+        <v>354</v>
       </c>
       <c r="D309" t="s">
-        <v>383</v>
+        <v>385</v>
       </c>
     </row>
     <row r="310" spans="1:4">
@@ -10837,13 +10837,13 @@
         <v>309</v>
       </c>
       <c r="B310" t="s">
-        <v>308</v>
+        <v>304</v>
       </c>
       <c r="C310" t="s">
-        <v>357</v>
+        <v>355</v>
       </c>
       <c r="D310" t="s">
-        <v>366</v>
+        <v>383</v>
       </c>
     </row>
     <row r="311" spans="1:4">
@@ -10851,13 +10851,13 @@
         <v>310</v>
       </c>
       <c r="B311" t="s">
-        <v>301</v>
+        <v>312</v>
       </c>
       <c r="C311" t="s">
-        <v>356</v>
+        <v>354</v>
       </c>
       <c r="D311" t="s">
-        <v>380</v>
+        <v>391</v>
       </c>
     </row>
     <row r="312" spans="1:4">
@@ -10865,13 +10865,13 @@
         <v>311</v>
       </c>
       <c r="B312" t="s">
-        <v>322</v>
+        <v>309</v>
       </c>
       <c r="C312" t="s">
-        <v>355</v>
+        <v>354</v>
       </c>
       <c r="D312" t="s">
-        <v>383</v>
+        <v>368</v>
       </c>
     </row>
     <row r="313" spans="1:4">
@@ -10879,13 +10879,13 @@
         <v>312</v>
       </c>
       <c r="B313" t="s">
-        <v>309</v>
+        <v>319</v>
       </c>
       <c r="C313" t="s">
-        <v>354</v>
+        <v>355</v>
       </c>
       <c r="D313" t="s">
-        <v>368</v>
+        <v>383</v>
       </c>
     </row>
     <row r="314" spans="1:4">
@@ -10893,7 +10893,7 @@
         <v>313</v>
       </c>
       <c r="B314" t="s">
-        <v>314</v>
+        <v>315</v>
       </c>
       <c r="C314" t="s">
         <v>355</v>
@@ -10907,7 +10907,7 @@
         <v>314</v>
       </c>
       <c r="B315" t="s">
-        <v>325</v>
+        <v>324</v>
       </c>
       <c r="C315" t="s">
         <v>354</v>
@@ -10921,7 +10921,7 @@
         <v>315</v>
       </c>
       <c r="B316" t="s">
-        <v>312</v>
+        <v>313</v>
       </c>
       <c r="C316" t="s">
         <v>357</v>
@@ -10949,7 +10949,7 @@
         <v>317</v>
       </c>
       <c r="B318" t="s">
-        <v>321</v>
+        <v>323</v>
       </c>
       <c r="C318" t="s">
         <v>355</v>
@@ -10963,7 +10963,7 @@
         <v>318</v>
       </c>
       <c r="B319" t="s">
-        <v>320</v>
+        <v>317</v>
       </c>
       <c r="C319" t="s">
         <v>355</v>
@@ -10977,7 +10977,7 @@
         <v>319</v>
       </c>
       <c r="B320" t="s">
-        <v>316</v>
+        <v>318</v>
       </c>
       <c r="C320" t="s">
         <v>355</v>
@@ -11005,7 +11005,7 @@
         <v>321</v>
       </c>
       <c r="B322" t="s">
-        <v>319</v>
+        <v>321</v>
       </c>
       <c r="C322" t="s">
         <v>354</v>
@@ -11019,13 +11019,13 @@
         <v>322</v>
       </c>
       <c r="B323" t="s">
-        <v>333</v>
+        <v>322</v>
       </c>
       <c r="C323" t="s">
-        <v>354</v>
+        <v>357</v>
       </c>
       <c r="D323" t="s">
-        <v>381</v>
+        <v>367</v>
       </c>
     </row>
     <row r="324" spans="1:4">
@@ -11033,13 +11033,13 @@
         <v>323</v>
       </c>
       <c r="B324" t="s">
-        <v>323</v>
+        <v>334</v>
       </c>
       <c r="C324" t="s">
-        <v>357</v>
+        <v>354</v>
       </c>
       <c r="D324" t="s">
-        <v>367</v>
+        <v>381</v>
       </c>
     </row>
     <row r="325" spans="1:4">
@@ -11047,13 +11047,13 @@
         <v>324</v>
       </c>
       <c r="B325" t="s">
-        <v>336</v>
+        <v>316</v>
       </c>
       <c r="C325" t="s">
-        <v>359</v>
+        <v>356</v>
       </c>
       <c r="D325" t="s">
-        <v>392</v>
+        <v>379</v>
       </c>
     </row>
     <row r="326" spans="1:4">
@@ -11061,13 +11061,13 @@
         <v>325</v>
       </c>
       <c r="B326" t="s">
-        <v>317</v>
+        <v>331</v>
       </c>
       <c r="C326" t="s">
-        <v>356</v>
+        <v>355</v>
       </c>
       <c r="D326" t="s">
-        <v>379</v>
+        <v>362</v>
       </c>
     </row>
     <row r="327" spans="1:4">
@@ -11075,13 +11075,13 @@
         <v>326</v>
       </c>
       <c r="B327" t="s">
-        <v>324</v>
+        <v>335</v>
       </c>
       <c r="C327" t="s">
-        <v>354</v>
+        <v>359</v>
       </c>
       <c r="D327" t="s">
-        <v>371</v>
+        <v>392</v>
       </c>
     </row>
     <row r="328" spans="1:4">
@@ -11089,13 +11089,13 @@
         <v>327</v>
       </c>
       <c r="B328" t="s">
-        <v>331</v>
+        <v>325</v>
       </c>
       <c r="C328" t="s">
-        <v>355</v>
+        <v>354</v>
       </c>
       <c r="D328" t="s">
-        <v>362</v>
+        <v>371</v>
       </c>
     </row>
     <row r="329" spans="1:4">
@@ -11117,13 +11117,13 @@
         <v>329</v>
       </c>
       <c r="B330" t="s">
-        <v>337</v>
+        <v>328</v>
       </c>
       <c r="C330" t="s">
-        <v>355</v>
+        <v>356</v>
       </c>
       <c r="D330" t="s">
-        <v>392</v>
+        <v>385</v>
       </c>
     </row>
     <row r="331" spans="1:4">
@@ -11131,13 +11131,13 @@
         <v>330</v>
       </c>
       <c r="B331" t="s">
-        <v>328</v>
+        <v>329</v>
       </c>
       <c r="C331" t="s">
-        <v>356</v>
+        <v>357</v>
       </c>
       <c r="D331" t="s">
-        <v>385</v>
+        <v>388</v>
       </c>
     </row>
     <row r="332" spans="1:4">
@@ -11145,13 +11145,13 @@
         <v>331</v>
       </c>
       <c r="B332" t="s">
-        <v>329</v>
+        <v>338</v>
       </c>
       <c r="C332" t="s">
-        <v>357</v>
+        <v>355</v>
       </c>
       <c r="D332" t="s">
-        <v>388</v>
+        <v>392</v>
       </c>
     </row>
     <row r="333" spans="1:4">
@@ -11159,13 +11159,13 @@
         <v>332</v>
       </c>
       <c r="B333" t="s">
-        <v>340</v>
+        <v>336</v>
       </c>
       <c r="C333" t="s">
         <v>354</v>
       </c>
       <c r="D333" t="s">
-        <v>367</v>
+        <v>385</v>
       </c>
     </row>
     <row r="334" spans="1:4">
@@ -11173,13 +11173,13 @@
         <v>333</v>
       </c>
       <c r="B334" t="s">
-        <v>335</v>
+        <v>332</v>
       </c>
       <c r="C334" t="s">
-        <v>354</v>
+        <v>356</v>
       </c>
       <c r="D334" t="s">
-        <v>385</v>
+        <v>372</v>
       </c>
     </row>
     <row r="335" spans="1:4">
@@ -11187,13 +11187,13 @@
         <v>334</v>
       </c>
       <c r="B335" t="s">
-        <v>332</v>
+        <v>342</v>
       </c>
       <c r="C335" t="s">
-        <v>356</v>
+        <v>354</v>
       </c>
       <c r="D335" t="s">
-        <v>372</v>
+        <v>367</v>
       </c>
     </row>
     <row r="336" spans="1:4">
@@ -11201,13 +11201,13 @@
         <v>335</v>
       </c>
       <c r="B336" t="s">
-        <v>344</v>
+        <v>333</v>
       </c>
       <c r="C336" t="s">
-        <v>359</v>
+        <v>356</v>
       </c>
       <c r="D336" t="s">
-        <v>392</v>
+        <v>367</v>
       </c>
     </row>
     <row r="337" spans="1:4">
@@ -11215,13 +11215,13 @@
         <v>336</v>
       </c>
       <c r="B337" t="s">
-        <v>334</v>
+        <v>341</v>
       </c>
       <c r="C337" t="s">
-        <v>356</v>
+        <v>359</v>
       </c>
       <c r="D337" t="s">
-        <v>367</v>
+        <v>392</v>
       </c>
     </row>
     <row r="338" spans="1:4">
@@ -11229,7 +11229,7 @@
         <v>337</v>
       </c>
       <c r="B338" t="s">
-        <v>338</v>
+        <v>337</v>
       </c>
       <c r="C338" t="s">
         <v>354</v>
@@ -11243,7 +11243,7 @@
         <v>338</v>
       </c>
       <c r="B339" t="s">
-        <v>345</v>
+        <v>346</v>
       </c>
       <c r="C339" t="s">
         <v>355</v>
@@ -11257,7 +11257,7 @@
         <v>339</v>
       </c>
       <c r="B340" t="s">
-        <v>343</v>
+        <v>344</v>
       </c>
       <c r="C340" t="s">
         <v>354</v>
@@ -11271,10 +11271,10 @@
         <v>340</v>
       </c>
       <c r="B341" t="s">
-        <v>339</v>
+        <v>340</v>
       </c>
       <c r="C341" t="s">
-        <v>357</v>
+        <v>356</v>
       </c>
       <c r="D341" t="s">
         <v>361</v>
@@ -11285,13 +11285,13 @@
         <v>341</v>
       </c>
       <c r="B342" t="s">
-        <v>341</v>
+        <v>351</v>
       </c>
       <c r="C342" t="s">
-        <v>356</v>
+        <v>354</v>
       </c>
       <c r="D342" t="s">
-        <v>361</v>
+        <v>362</v>
       </c>
     </row>
     <row r="343" spans="1:4">
@@ -11299,13 +11299,13 @@
         <v>342</v>
       </c>
       <c r="B343" t="s">
-        <v>351</v>
+        <v>339</v>
       </c>
       <c r="C343" t="s">
-        <v>354</v>
+        <v>357</v>
       </c>
       <c r="D343" t="s">
-        <v>362</v>
+        <v>361</v>
       </c>
     </row>
     <row r="344" spans="1:4">
@@ -11341,7 +11341,7 @@
         <v>345</v>
       </c>
       <c r="B346" t="s">
-        <v>342</v>
+        <v>343</v>
       </c>
       <c r="C346" t="s">
         <v>356</v>
@@ -11355,13 +11355,13 @@
         <v>346</v>
       </c>
       <c r="B347" t="s">
-        <v>348</v>
+        <v>352</v>
       </c>
       <c r="C347" t="s">
-        <v>356</v>
+        <v>354</v>
       </c>
       <c r="D347" t="s">
-        <v>384</v>
+        <v>392</v>
       </c>
     </row>
     <row r="348" spans="1:4">
@@ -11369,13 +11369,13 @@
         <v>347</v>
       </c>
       <c r="B348" t="s">
-        <v>352</v>
+        <v>348</v>
       </c>
       <c r="C348" t="s">
-        <v>354</v>
+        <v>356</v>
       </c>
       <c r="D348" t="s">
-        <v>392</v>
+        <v>384</v>
       </c>
     </row>
     <row r="349" spans="1:4">
@@ -11411,13 +11411,13 @@
         <v>350</v>
       </c>
       <c r="B351" t="s">
-        <v>395</v>
+        <v>345</v>
       </c>
       <c r="C351" t="s">
-        <v>355</v>
+        <v>356</v>
       </c>
       <c r="D351" t="s">
-        <v>392</v>
+        <v>364</v>
       </c>
     </row>
   </sheetData>
@@ -11596,10 +11596,10 @@
         <v>11</v>
       </c>
       <c r="B12" t="s">
-        <v>9</v>
+        <v>14</v>
       </c>
       <c r="C12" t="s">
-        <v>354</v>
+        <v>355</v>
       </c>
       <c r="D12" t="s">
         <v>365</v>
@@ -11610,10 +11610,10 @@
         <v>12</v>
       </c>
       <c r="B13" t="s">
-        <v>14</v>
+        <v>9</v>
       </c>
       <c r="C13" t="s">
-        <v>355</v>
+        <v>354</v>
       </c>
       <c r="D13" t="s">
         <v>365</v>
@@ -11666,13 +11666,13 @@
         <v>16</v>
       </c>
       <c r="B17" t="s">
-        <v>23</v>
+        <v>19</v>
       </c>
       <c r="C17" t="s">
-        <v>355</v>
+        <v>354</v>
       </c>
       <c r="D17" t="s">
-        <v>377</v>
+        <v>373</v>
       </c>
     </row>
     <row r="18" spans="1:4">
@@ -11680,13 +11680,13 @@
         <v>17</v>
       </c>
       <c r="B18" t="s">
-        <v>19</v>
+        <v>23</v>
       </c>
       <c r="C18" t="s">
-        <v>354</v>
+        <v>355</v>
       </c>
       <c r="D18" t="s">
-        <v>373</v>
+        <v>377</v>
       </c>
     </row>
     <row r="19" spans="1:4">
@@ -11764,13 +11764,13 @@
         <v>23</v>
       </c>
       <c r="B24" t="s">
-        <v>36</v>
+        <v>26</v>
       </c>
       <c r="C24" t="s">
         <v>355</v>
       </c>
       <c r="D24" t="s">
-        <v>364</v>
+        <v>380</v>
       </c>
     </row>
     <row r="25" spans="1:4">
@@ -11778,13 +11778,13 @@
         <v>24</v>
       </c>
       <c r="B25" t="s">
-        <v>26</v>
+        <v>36</v>
       </c>
       <c r="C25" t="s">
         <v>355</v>
       </c>
       <c r="D25" t="s">
-        <v>380</v>
+        <v>364</v>
       </c>
     </row>
     <row r="26" spans="1:4">
@@ -11890,13 +11890,13 @@
         <v>32</v>
       </c>
       <c r="B33" t="s">
-        <v>31</v>
+        <v>32</v>
       </c>
       <c r="C33" t="s">
-        <v>356</v>
+        <v>354</v>
       </c>
       <c r="D33" t="s">
-        <v>384</v>
+        <v>377</v>
       </c>
     </row>
     <row r="34" spans="1:4">
@@ -11904,13 +11904,13 @@
         <v>33</v>
       </c>
       <c r="B34" t="s">
-        <v>32</v>
+        <v>31</v>
       </c>
       <c r="C34" t="s">
-        <v>354</v>
+        <v>356</v>
       </c>
       <c r="D34" t="s">
-        <v>377</v>
+        <v>384</v>
       </c>
     </row>
     <row r="35" spans="1:4">
@@ -11960,7 +11960,7 @@
         <v>37</v>
       </c>
       <c r="B38" t="s">
-        <v>41</v>
+        <v>39</v>
       </c>
       <c r="C38" t="s">
         <v>354</v>
@@ -12016,7 +12016,7 @@
         <v>41</v>
       </c>
       <c r="B42" t="s">
-        <v>39</v>
+        <v>41</v>
       </c>
       <c r="C42" t="s">
         <v>354</v>
@@ -12114,7 +12114,7 @@
         <v>48</v>
       </c>
       <c r="B49" t="s">
-        <v>57</v>
+        <v>55</v>
       </c>
       <c r="C49" t="s">
         <v>355</v>
@@ -12156,7 +12156,7 @@
         <v>51</v>
       </c>
       <c r="B52" t="s">
-        <v>56</v>
+        <v>57</v>
       </c>
       <c r="C52" t="s">
         <v>357</v>
@@ -12170,7 +12170,7 @@
         <v>52</v>
       </c>
       <c r="B53" t="s">
-        <v>59</v>
+        <v>60</v>
       </c>
       <c r="C53" t="s">
         <v>354</v>
@@ -12198,7 +12198,7 @@
         <v>54</v>
       </c>
       <c r="B55" t="s">
-        <v>61</v>
+        <v>59</v>
       </c>
       <c r="C55" t="s">
         <v>354</v>
@@ -12240,7 +12240,7 @@
         <v>57</v>
       </c>
       <c r="B58" t="s">
-        <v>60</v>
+        <v>61</v>
       </c>
       <c r="C58" t="s">
         <v>354</v>
@@ -12310,13 +12310,13 @@
         <v>62</v>
       </c>
       <c r="B63" t="s">
-        <v>70</v>
+        <v>67</v>
       </c>
       <c r="C63" t="s">
-        <v>355</v>
+        <v>356</v>
       </c>
       <c r="D63" t="s">
-        <v>371</v>
+        <v>377</v>
       </c>
     </row>
     <row r="64" spans="1:4">
@@ -12324,13 +12324,13 @@
         <v>63</v>
       </c>
       <c r="B64" t="s">
-        <v>67</v>
+        <v>70</v>
       </c>
       <c r="C64" t="s">
-        <v>356</v>
+        <v>355</v>
       </c>
       <c r="D64" t="s">
-        <v>377</v>
+        <v>371</v>
       </c>
     </row>
     <row r="65" spans="1:4">
@@ -12338,13 +12338,13 @@
         <v>64</v>
       </c>
       <c r="B65" t="s">
-        <v>64</v>
+        <v>85</v>
       </c>
       <c r="C65" t="s">
-        <v>355</v>
+        <v>354</v>
       </c>
       <c r="D65" t="s">
-        <v>367</v>
+        <v>381</v>
       </c>
     </row>
     <row r="66" spans="1:4">
@@ -12366,13 +12366,13 @@
         <v>66</v>
       </c>
       <c r="B67" t="s">
-        <v>85</v>
+        <v>64</v>
       </c>
       <c r="C67" t="s">
-        <v>354</v>
+        <v>355</v>
       </c>
       <c r="D67" t="s">
-        <v>381</v>
+        <v>367</v>
       </c>
     </row>
     <row r="68" spans="1:4">
@@ -12394,13 +12394,13 @@
         <v>68</v>
       </c>
       <c r="B69" t="s">
-        <v>75</v>
+        <v>68</v>
       </c>
       <c r="C69" t="s">
-        <v>355</v>
+        <v>357</v>
       </c>
       <c r="D69" t="s">
-        <v>369</v>
+        <v>383</v>
       </c>
     </row>
     <row r="70" spans="1:4">
@@ -12408,13 +12408,13 @@
         <v>69</v>
       </c>
       <c r="B70" t="s">
-        <v>69</v>
+        <v>75</v>
       </c>
       <c r="C70" t="s">
-        <v>357</v>
+        <v>355</v>
       </c>
       <c r="D70" t="s">
-        <v>383</v>
+        <v>369</v>
       </c>
     </row>
     <row r="71" spans="1:4">
@@ -12464,7 +12464,7 @@
         <v>73</v>
       </c>
       <c r="B74" t="s">
-        <v>68</v>
+        <v>69</v>
       </c>
       <c r="C74" t="s">
         <v>355</v>
@@ -12548,7 +12548,7 @@
         <v>79</v>
       </c>
       <c r="B80" t="s">
-        <v>55</v>
+        <v>56</v>
       </c>
       <c r="C80" t="s">
         <v>355</v>
@@ -12590,13 +12590,13 @@
         <v>82</v>
       </c>
       <c r="B83" t="s">
-        <v>91</v>
+        <v>74</v>
       </c>
       <c r="C83" t="s">
-        <v>354</v>
+        <v>356</v>
       </c>
       <c r="D83" t="s">
-        <v>391</v>
+        <v>383</v>
       </c>
     </row>
     <row r="84" spans="1:4">
@@ -12604,13 +12604,13 @@
         <v>83</v>
       </c>
       <c r="B84" t="s">
-        <v>74</v>
+        <v>99</v>
       </c>
       <c r="C84" t="s">
-        <v>356</v>
+        <v>354</v>
       </c>
       <c r="D84" t="s">
-        <v>383</v>
+        <v>384</v>
       </c>
     </row>
     <row r="85" spans="1:4">
@@ -12618,13 +12618,13 @@
         <v>84</v>
       </c>
       <c r="B85" t="s">
-        <v>99</v>
+        <v>91</v>
       </c>
       <c r="C85" t="s">
         <v>354</v>
       </c>
       <c r="D85" t="s">
-        <v>384</v>
+        <v>391</v>
       </c>
     </row>
     <row r="86" spans="1:4">
@@ -12744,7 +12744,7 @@
         <v>93</v>
       </c>
       <c r="B94" t="s">
-        <v>97</v>
+        <v>96</v>
       </c>
       <c r="C94" t="s">
         <v>354</v>
@@ -12786,13 +12786,13 @@
         <v>96</v>
       </c>
       <c r="B97" t="s">
-        <v>101</v>
+        <v>102</v>
       </c>
       <c r="C97" t="s">
-        <v>357</v>
+        <v>355</v>
       </c>
       <c r="D97" t="s">
-        <v>376</v>
+        <v>390</v>
       </c>
     </row>
     <row r="98" spans="1:4">
@@ -12800,13 +12800,13 @@
         <v>97</v>
       </c>
       <c r="B98" t="s">
-        <v>102</v>
+        <v>101</v>
       </c>
       <c r="C98" t="s">
-        <v>355</v>
+        <v>357</v>
       </c>
       <c r="D98" t="s">
-        <v>390</v>
+        <v>376</v>
       </c>
     </row>
     <row r="99" spans="1:4">
@@ -12814,13 +12814,13 @@
         <v>98</v>
       </c>
       <c r="B99" t="s">
-        <v>104</v>
+        <v>87</v>
       </c>
       <c r="C99" t="s">
-        <v>357</v>
+        <v>355</v>
       </c>
       <c r="D99" t="s">
-        <v>368</v>
+        <v>378</v>
       </c>
     </row>
     <row r="100" spans="1:4">
@@ -12828,13 +12828,13 @@
         <v>99</v>
       </c>
       <c r="B100" t="s">
-        <v>87</v>
+        <v>104</v>
       </c>
       <c r="C100" t="s">
-        <v>355</v>
+        <v>357</v>
       </c>
       <c r="D100" t="s">
-        <v>378</v>
+        <v>368</v>
       </c>
     </row>
     <row r="101" spans="1:4">
@@ -12926,7 +12926,7 @@
         <v>106</v>
       </c>
       <c r="B107" t="s">
-        <v>118</v>
+        <v>119</v>
       </c>
       <c r="C107" t="s">
         <v>354</v>
@@ -12954,7 +12954,7 @@
         <v>108</v>
       </c>
       <c r="B109" t="s">
-        <v>121</v>
+        <v>120</v>
       </c>
       <c r="C109" t="s">
         <v>356</v>
@@ -13010,7 +13010,7 @@
         <v>112</v>
       </c>
       <c r="B113" t="s">
-        <v>96</v>
+        <v>97</v>
       </c>
       <c r="C113" t="s">
         <v>356</v>
@@ -13094,13 +13094,13 @@
         <v>118</v>
       </c>
       <c r="B119" t="s">
-        <v>167</v>
+        <v>129</v>
       </c>
       <c r="C119" t="s">
-        <v>354</v>
+        <v>355</v>
       </c>
       <c r="D119" t="s">
-        <v>386</v>
+        <v>365</v>
       </c>
     </row>
     <row r="120" spans="1:4">
@@ -13108,13 +13108,13 @@
         <v>119</v>
       </c>
       <c r="B120" t="s">
-        <v>130</v>
+        <v>167</v>
       </c>
       <c r="C120" t="s">
-        <v>355</v>
+        <v>354</v>
       </c>
       <c r="D120" t="s">
-        <v>365</v>
+        <v>386</v>
       </c>
     </row>
     <row r="121" spans="1:4">
@@ -13122,13 +13122,13 @@
         <v>120</v>
       </c>
       <c r="B121" t="s">
-        <v>129</v>
+        <v>122</v>
       </c>
       <c r="C121" t="s">
-        <v>355</v>
+        <v>354</v>
       </c>
       <c r="D121" t="s">
-        <v>380</v>
+        <v>390</v>
       </c>
     </row>
     <row r="122" spans="1:4">
@@ -13136,13 +13136,13 @@
         <v>121</v>
       </c>
       <c r="B122" t="s">
-        <v>122</v>
+        <v>146</v>
       </c>
       <c r="C122" t="s">
-        <v>354</v>
+        <v>355</v>
       </c>
       <c r="D122" t="s">
-        <v>390</v>
+        <v>391</v>
       </c>
     </row>
     <row r="123" spans="1:4">
@@ -13150,13 +13150,13 @@
         <v>122</v>
       </c>
       <c r="B123" t="s">
-        <v>144</v>
+        <v>130</v>
       </c>
       <c r="C123" t="s">
         <v>355</v>
       </c>
       <c r="D123" t="s">
-        <v>391</v>
+        <v>380</v>
       </c>
     </row>
     <row r="124" spans="1:4">
@@ -13178,13 +13178,13 @@
         <v>124</v>
       </c>
       <c r="B125" t="s">
-        <v>133</v>
+        <v>118</v>
       </c>
       <c r="C125" t="s">
-        <v>354</v>
+        <v>355</v>
       </c>
       <c r="D125" t="s">
-        <v>383</v>
+        <v>369</v>
       </c>
     </row>
     <row r="126" spans="1:4">
@@ -13192,13 +13192,13 @@
         <v>125</v>
       </c>
       <c r="B126" t="s">
-        <v>119</v>
+        <v>133</v>
       </c>
       <c r="C126" t="s">
-        <v>355</v>
+        <v>354</v>
       </c>
       <c r="D126" t="s">
-        <v>369</v>
+        <v>383</v>
       </c>
     </row>
     <row r="127" spans="1:4">
@@ -13220,7 +13220,7 @@
         <v>127</v>
       </c>
       <c r="B128" t="s">
-        <v>140</v>
+        <v>141</v>
       </c>
       <c r="C128" t="s">
         <v>355</v>
@@ -13234,13 +13234,13 @@
         <v>128</v>
       </c>
       <c r="B129" t="s">
-        <v>120</v>
+        <v>114</v>
       </c>
       <c r="C129" t="s">
-        <v>357</v>
+        <v>356</v>
       </c>
       <c r="D129" t="s">
-        <v>381</v>
+        <v>391</v>
       </c>
     </row>
     <row r="130" spans="1:4">
@@ -13248,13 +13248,13 @@
         <v>129</v>
       </c>
       <c r="B130" t="s">
-        <v>114</v>
+        <v>121</v>
       </c>
       <c r="C130" t="s">
-        <v>356</v>
+        <v>357</v>
       </c>
       <c r="D130" t="s">
-        <v>391</v>
+        <v>381</v>
       </c>
     </row>
     <row r="131" spans="1:4">
@@ -13262,13 +13262,13 @@
         <v>130</v>
       </c>
       <c r="B131" t="s">
-        <v>155</v>
+        <v>140</v>
       </c>
       <c r="C131" t="s">
         <v>355</v>
       </c>
       <c r="D131" t="s">
-        <v>382</v>
+        <v>391</v>
       </c>
     </row>
     <row r="132" spans="1:4">
@@ -13276,13 +13276,13 @@
         <v>131</v>
       </c>
       <c r="B132" t="s">
-        <v>141</v>
+        <v>154</v>
       </c>
       <c r="C132" t="s">
         <v>355</v>
       </c>
       <c r="D132" t="s">
-        <v>391</v>
+        <v>382</v>
       </c>
     </row>
     <row r="133" spans="1:4">
@@ -13290,13 +13290,13 @@
         <v>132</v>
       </c>
       <c r="B133" t="s">
-        <v>137</v>
+        <v>138</v>
       </c>
       <c r="C133" t="s">
         <v>354</v>
       </c>
       <c r="D133" t="s">
-        <v>370</v>
+        <v>364</v>
       </c>
     </row>
     <row r="134" spans="1:4">
@@ -13304,13 +13304,13 @@
         <v>133</v>
       </c>
       <c r="B134" t="s">
-        <v>138</v>
+        <v>137</v>
       </c>
       <c r="C134" t="s">
         <v>354</v>
       </c>
       <c r="D134" t="s">
-        <v>364</v>
+        <v>370</v>
       </c>
     </row>
     <row r="135" spans="1:4">
@@ -13346,7 +13346,7 @@
         <v>136</v>
       </c>
       <c r="B137" t="s">
-        <v>135</v>
+        <v>134</v>
       </c>
       <c r="C137" t="s">
         <v>356</v>
@@ -13360,13 +13360,13 @@
         <v>137</v>
       </c>
       <c r="B138" t="s">
-        <v>139</v>
+        <v>144</v>
       </c>
       <c r="C138" t="s">
-        <v>355</v>
+        <v>354</v>
       </c>
       <c r="D138" t="s">
-        <v>372</v>
+        <v>387</v>
       </c>
     </row>
     <row r="139" spans="1:4">
@@ -13374,13 +13374,13 @@
         <v>138</v>
       </c>
       <c r="B139" t="s">
-        <v>131</v>
+        <v>139</v>
       </c>
       <c r="C139" t="s">
-        <v>356</v>
+        <v>355</v>
       </c>
       <c r="D139" t="s">
-        <v>363</v>
+        <v>372</v>
       </c>
     </row>
     <row r="140" spans="1:4">
@@ -13388,13 +13388,13 @@
         <v>139</v>
       </c>
       <c r="B140" t="s">
-        <v>145</v>
+        <v>131</v>
       </c>
       <c r="C140" t="s">
-        <v>354</v>
+        <v>356</v>
       </c>
       <c r="D140" t="s">
-        <v>387</v>
+        <v>363</v>
       </c>
     </row>
     <row r="141" spans="1:4">
@@ -13416,13 +13416,13 @@
         <v>141</v>
       </c>
       <c r="B142" t="s">
-        <v>136</v>
+        <v>132</v>
       </c>
       <c r="C142" t="s">
-        <v>354</v>
+        <v>356</v>
       </c>
       <c r="D142" t="s">
-        <v>381</v>
+        <v>379</v>
       </c>
     </row>
     <row r="143" spans="1:4">
@@ -13430,13 +13430,13 @@
         <v>142</v>
       </c>
       <c r="B143" t="s">
-        <v>132</v>
+        <v>135</v>
       </c>
       <c r="C143" t="s">
-        <v>356</v>
+        <v>354</v>
       </c>
       <c r="D143" t="s">
-        <v>379</v>
+        <v>381</v>
       </c>
     </row>
     <row r="144" spans="1:4">
@@ -13444,13 +13444,13 @@
         <v>143</v>
       </c>
       <c r="B144" t="s">
-        <v>143</v>
+        <v>149</v>
       </c>
       <c r="C144" t="s">
-        <v>355</v>
+        <v>354</v>
       </c>
       <c r="D144" t="s">
-        <v>377</v>
+        <v>384</v>
       </c>
     </row>
     <row r="145" spans="1:4">
@@ -13458,13 +13458,13 @@
         <v>144</v>
       </c>
       <c r="B145" t="s">
-        <v>149</v>
+        <v>145</v>
       </c>
       <c r="C145" t="s">
-        <v>354</v>
+        <v>355</v>
       </c>
       <c r="D145" t="s">
-        <v>384</v>
+        <v>377</v>
       </c>
     </row>
     <row r="146" spans="1:4">
@@ -13486,13 +13486,13 @@
         <v>146</v>
       </c>
       <c r="B147" t="s">
-        <v>157</v>
+        <v>164</v>
       </c>
       <c r="C147" t="s">
         <v>355</v>
       </c>
       <c r="D147" t="s">
-        <v>380</v>
+        <v>366</v>
       </c>
     </row>
     <row r="148" spans="1:4">
@@ -13500,13 +13500,13 @@
         <v>147</v>
       </c>
       <c r="B148" t="s">
-        <v>164</v>
+        <v>157</v>
       </c>
       <c r="C148" t="s">
         <v>355</v>
       </c>
       <c r="D148" t="s">
-        <v>366</v>
+        <v>380</v>
       </c>
     </row>
     <row r="149" spans="1:4">
@@ -13514,7 +13514,7 @@
         <v>148</v>
       </c>
       <c r="B149" t="s">
-        <v>163</v>
+        <v>162</v>
       </c>
       <c r="C149" t="s">
         <v>354</v>
@@ -13556,13 +13556,13 @@
         <v>151</v>
       </c>
       <c r="B152" t="s">
-        <v>146</v>
+        <v>153</v>
       </c>
       <c r="C152" t="s">
         <v>356</v>
       </c>
       <c r="D152" t="s">
-        <v>367</v>
+        <v>368</v>
       </c>
     </row>
     <row r="153" spans="1:4">
@@ -13570,13 +13570,13 @@
         <v>152</v>
       </c>
       <c r="B153" t="s">
-        <v>153</v>
+        <v>147</v>
       </c>
       <c r="C153" t="s">
         <v>356</v>
       </c>
       <c r="D153" t="s">
-        <v>368</v>
+        <v>367</v>
       </c>
     </row>
     <row r="154" spans="1:4">
@@ -13584,7 +13584,7 @@
         <v>153</v>
       </c>
       <c r="B154" t="s">
-        <v>147</v>
+        <v>142</v>
       </c>
       <c r="C154" t="s">
         <v>356</v>
@@ -13598,7 +13598,7 @@
         <v>154</v>
       </c>
       <c r="B155" t="s">
-        <v>134</v>
+        <v>136</v>
       </c>
       <c r="C155" t="s">
         <v>357</v>
@@ -13612,13 +13612,13 @@
         <v>155</v>
       </c>
       <c r="B156" t="s">
-        <v>154</v>
+        <v>169</v>
       </c>
       <c r="C156" t="s">
-        <v>358</v>
+        <v>355</v>
       </c>
       <c r="D156" t="s">
-        <v>374</v>
+        <v>385</v>
       </c>
     </row>
     <row r="157" spans="1:4">
@@ -13626,13 +13626,13 @@
         <v>156</v>
       </c>
       <c r="B157" t="s">
-        <v>170</v>
+        <v>160</v>
       </c>
       <c r="C157" t="s">
-        <v>355</v>
+        <v>356</v>
       </c>
       <c r="D157" t="s">
-        <v>385</v>
+        <v>390</v>
       </c>
     </row>
     <row r="158" spans="1:4">
@@ -13640,7 +13640,7 @@
         <v>157</v>
       </c>
       <c r="B158" t="s">
-        <v>160</v>
+        <v>165</v>
       </c>
       <c r="C158" t="s">
         <v>354</v>
@@ -13654,13 +13654,13 @@
         <v>158</v>
       </c>
       <c r="B159" t="s">
-        <v>162</v>
+        <v>156</v>
       </c>
       <c r="C159" t="s">
-        <v>356</v>
+        <v>358</v>
       </c>
       <c r="D159" t="s">
-        <v>390</v>
+        <v>374</v>
       </c>
     </row>
     <row r="160" spans="1:4">
@@ -13682,13 +13682,13 @@
         <v>160</v>
       </c>
       <c r="B161" t="s">
-        <v>158</v>
+        <v>143</v>
       </c>
       <c r="C161" t="s">
-        <v>358</v>
+        <v>357</v>
       </c>
       <c r="D161" t="s">
-        <v>380</v>
+        <v>360</v>
       </c>
     </row>
     <row r="162" spans="1:4">
@@ -13696,13 +13696,13 @@
         <v>161</v>
       </c>
       <c r="B162" t="s">
-        <v>142</v>
+        <v>158</v>
       </c>
       <c r="C162" t="s">
-        <v>357</v>
+        <v>354</v>
       </c>
       <c r="D162" t="s">
-        <v>360</v>
+        <v>389</v>
       </c>
     </row>
     <row r="163" spans="1:4">
@@ -13710,10 +13710,10 @@
         <v>162</v>
       </c>
       <c r="B163" t="s">
-        <v>159</v>
+        <v>182</v>
       </c>
       <c r="C163" t="s">
-        <v>354</v>
+        <v>355</v>
       </c>
       <c r="D163" t="s">
         <v>389</v>
@@ -13724,13 +13724,13 @@
         <v>163</v>
       </c>
       <c r="B164" t="s">
-        <v>182</v>
+        <v>159</v>
       </c>
       <c r="C164" t="s">
-        <v>355</v>
+        <v>358</v>
       </c>
       <c r="D164" t="s">
-        <v>389</v>
+        <v>380</v>
       </c>
     </row>
     <row r="165" spans="1:4">
@@ -13738,13 +13738,13 @@
         <v>164</v>
       </c>
       <c r="B165" t="s">
-        <v>156</v>
+        <v>163</v>
       </c>
       <c r="C165" t="s">
         <v>354</v>
       </c>
       <c r="D165" t="s">
-        <v>371</v>
+        <v>386</v>
       </c>
     </row>
     <row r="166" spans="1:4">
@@ -13752,13 +13752,13 @@
         <v>165</v>
       </c>
       <c r="B166" t="s">
-        <v>165</v>
+        <v>155</v>
       </c>
       <c r="C166" t="s">
         <v>354</v>
       </c>
       <c r="D166" t="s">
-        <v>386</v>
+        <v>371</v>
       </c>
     </row>
     <row r="167" spans="1:4">
@@ -13766,7 +13766,7 @@
         <v>166</v>
       </c>
       <c r="B167" t="s">
-        <v>187</v>
+        <v>185</v>
       </c>
       <c r="C167" t="s">
         <v>355</v>
@@ -13780,13 +13780,13 @@
         <v>167</v>
       </c>
       <c r="B168" t="s">
-        <v>169</v>
+        <v>178</v>
       </c>
       <c r="C168" t="s">
-        <v>358</v>
+        <v>355</v>
       </c>
       <c r="D168" t="s">
-        <v>376</v>
+        <v>369</v>
       </c>
     </row>
     <row r="169" spans="1:4">
@@ -13794,13 +13794,13 @@
         <v>168</v>
       </c>
       <c r="B169" t="s">
-        <v>178</v>
+        <v>170</v>
       </c>
       <c r="C169" t="s">
-        <v>355</v>
+        <v>358</v>
       </c>
       <c r="D169" t="s">
-        <v>369</v>
+        <v>376</v>
       </c>
     </row>
     <row r="170" spans="1:4">
@@ -13822,7 +13822,7 @@
         <v>170</v>
       </c>
       <c r="B171" t="s">
-        <v>175</v>
+        <v>174</v>
       </c>
       <c r="C171" t="s">
         <v>356</v>
@@ -13836,7 +13836,7 @@
         <v>171</v>
       </c>
       <c r="B172" t="s">
-        <v>177</v>
+        <v>176</v>
       </c>
       <c r="C172" t="s">
         <v>354</v>
@@ -13850,13 +13850,13 @@
         <v>172</v>
       </c>
       <c r="B173" t="s">
-        <v>174</v>
+        <v>173</v>
       </c>
       <c r="C173" t="s">
-        <v>358</v>
+        <v>354</v>
       </c>
       <c r="D173" t="s">
-        <v>360</v>
+        <v>361</v>
       </c>
     </row>
     <row r="174" spans="1:4">
@@ -13864,13 +13864,13 @@
         <v>173</v>
       </c>
       <c r="B174" t="s">
-        <v>173</v>
+        <v>186</v>
       </c>
       <c r="C174" t="s">
-        <v>354</v>
+        <v>355</v>
       </c>
       <c r="D174" t="s">
-        <v>361</v>
+        <v>370</v>
       </c>
     </row>
     <row r="175" spans="1:4">
@@ -13878,13 +13878,13 @@
         <v>174</v>
       </c>
       <c r="B175" t="s">
-        <v>185</v>
+        <v>184</v>
       </c>
       <c r="C175" t="s">
         <v>355</v>
       </c>
       <c r="D175" t="s">
-        <v>370</v>
+        <v>368</v>
       </c>
     </row>
     <row r="176" spans="1:4">
@@ -13892,13 +13892,13 @@
         <v>175</v>
       </c>
       <c r="B176" t="s">
-        <v>184</v>
+        <v>177</v>
       </c>
       <c r="C176" t="s">
-        <v>355</v>
+        <v>358</v>
       </c>
       <c r="D176" t="s">
-        <v>368</v>
+        <v>360</v>
       </c>
     </row>
     <row r="177" spans="1:4">
@@ -13906,13 +13906,13 @@
         <v>176</v>
       </c>
       <c r="B177" t="s">
-        <v>172</v>
+        <v>152</v>
       </c>
       <c r="C177" t="s">
-        <v>356</v>
+        <v>357</v>
       </c>
       <c r="D177" t="s">
-        <v>386</v>
+        <v>362</v>
       </c>
     </row>
     <row r="178" spans="1:4">
@@ -13920,13 +13920,13 @@
         <v>177</v>
       </c>
       <c r="B178" t="s">
-        <v>152</v>
+        <v>172</v>
       </c>
       <c r="C178" t="s">
-        <v>357</v>
+        <v>356</v>
       </c>
       <c r="D178" t="s">
-        <v>362</v>
+        <v>386</v>
       </c>
     </row>
     <row r="179" spans="1:4">
@@ -13934,13 +13934,13 @@
         <v>178</v>
       </c>
       <c r="B179" t="s">
-        <v>196</v>
+        <v>195</v>
       </c>
       <c r="C179" t="s">
         <v>355</v>
       </c>
       <c r="D179" t="s">
-        <v>364</v>
+        <v>390</v>
       </c>
     </row>
     <row r="180" spans="1:4">
@@ -13948,13 +13948,13 @@
         <v>179</v>
       </c>
       <c r="B180" t="s">
-        <v>195</v>
+        <v>196</v>
       </c>
       <c r="C180" t="s">
         <v>355</v>
       </c>
       <c r="D180" t="s">
-        <v>390</v>
+        <v>364</v>
       </c>
     </row>
     <row r="181" spans="1:4">
@@ -13962,13 +13962,13 @@
         <v>180</v>
       </c>
       <c r="B181" t="s">
-        <v>181</v>
+        <v>193</v>
       </c>
       <c r="C181" t="s">
-        <v>359</v>
+        <v>355</v>
       </c>
       <c r="D181" t="s">
-        <v>371</v>
+        <v>363</v>
       </c>
     </row>
     <row r="182" spans="1:4">
@@ -13976,13 +13976,13 @@
         <v>181</v>
       </c>
       <c r="B182" t="s">
-        <v>186</v>
+        <v>183</v>
       </c>
       <c r="C182" t="s">
-        <v>358</v>
+        <v>359</v>
       </c>
       <c r="D182" t="s">
-        <v>373</v>
+        <v>371</v>
       </c>
     </row>
     <row r="183" spans="1:4">
@@ -13990,13 +13990,13 @@
         <v>182</v>
       </c>
       <c r="B183" t="s">
-        <v>194</v>
+        <v>187</v>
       </c>
       <c r="C183" t="s">
-        <v>355</v>
+        <v>358</v>
       </c>
       <c r="D183" t="s">
-        <v>363</v>
+        <v>373</v>
       </c>
     </row>
     <row r="184" spans="1:4">
@@ -14018,10 +14018,10 @@
         <v>184</v>
       </c>
       <c r="B185" t="s">
-        <v>188</v>
+        <v>161</v>
       </c>
       <c r="C185" t="s">
-        <v>358</v>
+        <v>357</v>
       </c>
       <c r="D185" t="s">
         <v>391</v>
@@ -14032,10 +14032,10 @@
         <v>185</v>
       </c>
       <c r="B186" t="s">
-        <v>161</v>
+        <v>188</v>
       </c>
       <c r="C186" t="s">
-        <v>357</v>
+        <v>358</v>
       </c>
       <c r="D186" t="s">
         <v>391</v>
@@ -14074,13 +14074,13 @@
         <v>188</v>
       </c>
       <c r="B189" t="s">
-        <v>193</v>
+        <v>166</v>
       </c>
       <c r="C189" t="s">
-        <v>359</v>
+        <v>357</v>
       </c>
       <c r="D189" t="s">
-        <v>374</v>
+        <v>372</v>
       </c>
     </row>
     <row r="190" spans="1:4">
@@ -14088,13 +14088,13 @@
         <v>189</v>
       </c>
       <c r="B190" t="s">
-        <v>166</v>
+        <v>192</v>
       </c>
       <c r="C190" t="s">
-        <v>357</v>
+        <v>356</v>
       </c>
       <c r="D190" t="s">
-        <v>372</v>
+        <v>365</v>
       </c>
     </row>
     <row r="191" spans="1:4">
@@ -14102,13 +14102,13 @@
         <v>190</v>
       </c>
       <c r="B191" t="s">
-        <v>192</v>
+        <v>194</v>
       </c>
       <c r="C191" t="s">
-        <v>356</v>
+        <v>359</v>
       </c>
       <c r="D191" t="s">
-        <v>365</v>
+        <v>374</v>
       </c>
     </row>
     <row r="192" spans="1:4">
@@ -14116,7 +14116,7 @@
         <v>191</v>
       </c>
       <c r="B192" t="s">
-        <v>199</v>
+        <v>200</v>
       </c>
       <c r="C192" t="s">
         <v>359</v>
@@ -14158,13 +14158,13 @@
         <v>194</v>
       </c>
       <c r="B195" t="s">
-        <v>212</v>
+        <v>218</v>
       </c>
       <c r="C195" t="s">
         <v>355</v>
       </c>
       <c r="D195" t="s">
-        <v>360</v>
+        <v>372</v>
       </c>
     </row>
     <row r="196" spans="1:4">
@@ -14172,13 +14172,13 @@
         <v>195</v>
       </c>
       <c r="B196" t="s">
-        <v>221</v>
+        <v>214</v>
       </c>
       <c r="C196" t="s">
-        <v>355</v>
+        <v>354</v>
       </c>
       <c r="D196" t="s">
-        <v>372</v>
+        <v>375</v>
       </c>
     </row>
     <row r="197" spans="1:4">
@@ -14186,13 +14186,13 @@
         <v>196</v>
       </c>
       <c r="B197" t="s">
-        <v>198</v>
+        <v>211</v>
       </c>
       <c r="C197" t="s">
-        <v>354</v>
+        <v>355</v>
       </c>
       <c r="D197" t="s">
-        <v>375</v>
+        <v>360</v>
       </c>
     </row>
     <row r="198" spans="1:4">
@@ -14200,13 +14200,13 @@
         <v>197</v>
       </c>
       <c r="B198" t="s">
-        <v>215</v>
+        <v>205</v>
       </c>
       <c r="C198" t="s">
-        <v>354</v>
+        <v>355</v>
       </c>
       <c r="D198" t="s">
-        <v>375</v>
+        <v>377</v>
       </c>
     </row>
     <row r="199" spans="1:4">
@@ -14214,13 +14214,13 @@
         <v>198</v>
       </c>
       <c r="B199" t="s">
-        <v>209</v>
+        <v>198</v>
       </c>
       <c r="C199" t="s">
-        <v>355</v>
+        <v>354</v>
       </c>
       <c r="D199" t="s">
-        <v>379</v>
+        <v>375</v>
       </c>
     </row>
     <row r="200" spans="1:4">
@@ -14228,13 +14228,13 @@
         <v>199</v>
       </c>
       <c r="B200" t="s">
-        <v>202</v>
+        <v>208</v>
       </c>
       <c r="C200" t="s">
-        <v>358</v>
+        <v>355</v>
       </c>
       <c r="D200" t="s">
-        <v>377</v>
+        <v>379</v>
       </c>
     </row>
     <row r="201" spans="1:4">
@@ -14242,13 +14242,13 @@
         <v>200</v>
       </c>
       <c r="B201" t="s">
-        <v>207</v>
+        <v>203</v>
       </c>
       <c r="C201" t="s">
         <v>355</v>
       </c>
       <c r="D201" t="s">
-        <v>377</v>
+        <v>367</v>
       </c>
     </row>
     <row r="202" spans="1:4">
@@ -14256,13 +14256,13 @@
         <v>201</v>
       </c>
       <c r="B202" t="s">
-        <v>203</v>
+        <v>202</v>
       </c>
       <c r="C202" t="s">
-        <v>355</v>
+        <v>358</v>
       </c>
       <c r="D202" t="s">
-        <v>367</v>
+        <v>377</v>
       </c>
     </row>
     <row r="203" spans="1:4">
@@ -14270,7 +14270,7 @@
         <v>202</v>
       </c>
       <c r="B203" t="s">
-        <v>205</v>
+        <v>206</v>
       </c>
       <c r="C203" t="s">
         <v>358</v>
@@ -14284,7 +14284,7 @@
         <v>203</v>
       </c>
       <c r="B204" t="s">
-        <v>206</v>
+        <v>207</v>
       </c>
       <c r="C204" t="s">
         <v>359</v>
@@ -14312,7 +14312,7 @@
         <v>205</v>
       </c>
       <c r="B206" t="s">
-        <v>208</v>
+        <v>209</v>
       </c>
       <c r="C206" t="s">
         <v>359</v>
@@ -14326,7 +14326,7 @@
         <v>206</v>
       </c>
       <c r="B207" t="s">
-        <v>213</v>
+        <v>212</v>
       </c>
       <c r="C207" t="s">
         <v>355</v>
@@ -14340,7 +14340,7 @@
         <v>207</v>
       </c>
       <c r="B208" t="s">
-        <v>211</v>
+        <v>213</v>
       </c>
       <c r="C208" t="s">
         <v>358</v>
@@ -14354,7 +14354,7 @@
         <v>208</v>
       </c>
       <c r="B209" t="s">
-        <v>218</v>
+        <v>217</v>
       </c>
       <c r="C209" t="s">
         <v>354</v>
@@ -14368,7 +14368,7 @@
         <v>209</v>
       </c>
       <c r="B210" t="s">
-        <v>176</v>
+        <v>175</v>
       </c>
       <c r="C210" t="s">
         <v>357</v>
@@ -14396,13 +14396,13 @@
         <v>211</v>
       </c>
       <c r="B212" t="s">
-        <v>214</v>
+        <v>181</v>
       </c>
       <c r="C212" t="s">
-        <v>358</v>
+        <v>357</v>
       </c>
       <c r="D212" t="s">
-        <v>369</v>
+        <v>385</v>
       </c>
     </row>
     <row r="213" spans="1:4">
@@ -14410,13 +14410,13 @@
         <v>212</v>
       </c>
       <c r="B213" t="s">
-        <v>183</v>
+        <v>215</v>
       </c>
       <c r="C213" t="s">
-        <v>357</v>
+        <v>358</v>
       </c>
       <c r="D213" t="s">
-        <v>385</v>
+        <v>369</v>
       </c>
     </row>
     <row r="214" spans="1:4">
@@ -14424,13 +14424,13 @@
         <v>213</v>
       </c>
       <c r="B214" t="s">
-        <v>204</v>
+        <v>232</v>
       </c>
       <c r="C214" t="s">
-        <v>354</v>
+        <v>355</v>
       </c>
       <c r="D214" t="s">
-        <v>383</v>
+        <v>367</v>
       </c>
     </row>
     <row r="215" spans="1:4">
@@ -14438,13 +14438,13 @@
         <v>214</v>
       </c>
       <c r="B215" t="s">
-        <v>232</v>
+        <v>230</v>
       </c>
       <c r="C215" t="s">
-        <v>355</v>
+        <v>354</v>
       </c>
       <c r="D215" t="s">
-        <v>367</v>
+        <v>365</v>
       </c>
     </row>
     <row r="216" spans="1:4">
@@ -14452,13 +14452,13 @@
         <v>215</v>
       </c>
       <c r="B216" t="s">
-        <v>231</v>
+        <v>204</v>
       </c>
       <c r="C216" t="s">
         <v>354</v>
       </c>
       <c r="D216" t="s">
-        <v>365</v>
+        <v>383</v>
       </c>
     </row>
     <row r="217" spans="1:4">
@@ -14480,13 +14480,13 @@
         <v>217</v>
       </c>
       <c r="B218" t="s">
-        <v>217</v>
+        <v>235</v>
       </c>
       <c r="C218" t="s">
-        <v>359</v>
+        <v>355</v>
       </c>
       <c r="D218" t="s">
-        <v>380</v>
+        <v>374</v>
       </c>
     </row>
     <row r="219" spans="1:4">
@@ -14494,13 +14494,13 @@
         <v>218</v>
       </c>
       <c r="B219" t="s">
-        <v>237</v>
+        <v>219</v>
       </c>
       <c r="C219" t="s">
-        <v>355</v>
+        <v>359</v>
       </c>
       <c r="D219" t="s">
-        <v>374</v>
+        <v>380</v>
       </c>
     </row>
     <row r="220" spans="1:4">
@@ -14508,13 +14508,13 @@
         <v>219</v>
       </c>
       <c r="B220" t="s">
-        <v>219</v>
+        <v>225</v>
       </c>
       <c r="C220" t="s">
-        <v>359</v>
+        <v>355</v>
       </c>
       <c r="D220" t="s">
-        <v>369</v>
+        <v>382</v>
       </c>
     </row>
     <row r="221" spans="1:4">
@@ -14522,13 +14522,13 @@
         <v>220</v>
       </c>
       <c r="B221" t="s">
-        <v>223</v>
+        <v>224</v>
       </c>
       <c r="C221" t="s">
-        <v>359</v>
+        <v>356</v>
       </c>
       <c r="D221" t="s">
-        <v>382</v>
+        <v>389</v>
       </c>
     </row>
     <row r="222" spans="1:4">
@@ -14550,13 +14550,13 @@
         <v>222</v>
       </c>
       <c r="B223" t="s">
-        <v>225</v>
+        <v>221</v>
       </c>
       <c r="C223" t="s">
-        <v>355</v>
+        <v>359</v>
       </c>
       <c r="D223" t="s">
-        <v>382</v>
+        <v>369</v>
       </c>
     </row>
     <row r="224" spans="1:4">
@@ -14564,13 +14564,13 @@
         <v>223</v>
       </c>
       <c r="B224" t="s">
-        <v>228</v>
+        <v>223</v>
       </c>
       <c r="C224" t="s">
-        <v>356</v>
+        <v>359</v>
       </c>
       <c r="D224" t="s">
-        <v>389</v>
+        <v>382</v>
       </c>
     </row>
     <row r="225" spans="1:4">
@@ -14578,7 +14578,7 @@
         <v>224</v>
       </c>
       <c r="B225" t="s">
-        <v>224</v>
+        <v>226</v>
       </c>
       <c r="C225" t="s">
         <v>358</v>
@@ -14620,13 +14620,13 @@
         <v>227</v>
       </c>
       <c r="B228" t="s">
-        <v>226</v>
+        <v>229</v>
       </c>
       <c r="C228" t="s">
-        <v>354</v>
+        <v>355</v>
       </c>
       <c r="D228" t="s">
-        <v>376</v>
+        <v>360</v>
       </c>
     </row>
     <row r="229" spans="1:4">
@@ -14634,13 +14634,13 @@
         <v>228</v>
       </c>
       <c r="B229" t="s">
-        <v>230</v>
+        <v>228</v>
       </c>
       <c r="C229" t="s">
-        <v>355</v>
+        <v>354</v>
       </c>
       <c r="D229" t="s">
-        <v>360</v>
+        <v>376</v>
       </c>
     </row>
     <row r="230" spans="1:4">
@@ -14662,13 +14662,13 @@
         <v>230</v>
       </c>
       <c r="B231" t="s">
-        <v>229</v>
+        <v>240</v>
       </c>
       <c r="C231" t="s">
-        <v>358</v>
+        <v>354</v>
       </c>
       <c r="D231" t="s">
-        <v>366</v>
+        <v>384</v>
       </c>
     </row>
     <row r="232" spans="1:4">
@@ -14676,13 +14676,13 @@
         <v>231</v>
       </c>
       <c r="B232" t="s">
-        <v>242</v>
+        <v>231</v>
       </c>
       <c r="C232" t="s">
-        <v>354</v>
+        <v>358</v>
       </c>
       <c r="D232" t="s">
-        <v>384</v>
+        <v>366</v>
       </c>
     </row>
     <row r="233" spans="1:4">
@@ -14690,13 +14690,13 @@
         <v>232</v>
       </c>
       <c r="B233" t="s">
-        <v>234</v>
+        <v>264</v>
       </c>
       <c r="C233" t="s">
-        <v>356</v>
+        <v>354</v>
       </c>
       <c r="D233" t="s">
-        <v>391</v>
+        <v>369</v>
       </c>
     </row>
     <row r="234" spans="1:4">
@@ -14704,13 +14704,13 @@
         <v>233</v>
       </c>
       <c r="B234" t="s">
-        <v>263</v>
+        <v>234</v>
       </c>
       <c r="C234" t="s">
-        <v>354</v>
+        <v>356</v>
       </c>
       <c r="D234" t="s">
-        <v>369</v>
+        <v>391</v>
       </c>
     </row>
     <row r="235" spans="1:4">
@@ -14718,7 +14718,7 @@
         <v>234</v>
       </c>
       <c r="B235" t="s">
-        <v>236</v>
+        <v>238</v>
       </c>
       <c r="C235" t="s">
         <v>359</v>
@@ -14746,13 +14746,13 @@
         <v>236</v>
       </c>
       <c r="B237" t="s">
-        <v>240</v>
+        <v>255</v>
       </c>
       <c r="C237" t="s">
-        <v>359</v>
+        <v>355</v>
       </c>
       <c r="D237" t="s">
-        <v>381</v>
+        <v>361</v>
       </c>
     </row>
     <row r="238" spans="1:4">
@@ -14760,7 +14760,7 @@
         <v>237</v>
       </c>
       <c r="B238" t="s">
-        <v>235</v>
+        <v>237</v>
       </c>
       <c r="C238" t="s">
         <v>354</v>
@@ -14774,13 +14774,13 @@
         <v>238</v>
       </c>
       <c r="B239" t="s">
-        <v>254</v>
+        <v>242</v>
       </c>
       <c r="C239" t="s">
-        <v>355</v>
+        <v>359</v>
       </c>
       <c r="D239" t="s">
-        <v>361</v>
+        <v>381</v>
       </c>
     </row>
     <row r="240" spans="1:4">
@@ -14788,7 +14788,7 @@
         <v>239</v>
       </c>
       <c r="B240" t="s">
-        <v>256</v>
+        <v>254</v>
       </c>
       <c r="C240" t="s">
         <v>355</v>
@@ -14802,7 +14802,7 @@
         <v>240</v>
       </c>
       <c r="B241" t="s">
-        <v>200</v>
+        <v>199</v>
       </c>
       <c r="C241" t="s">
         <v>357</v>
@@ -14816,13 +14816,13 @@
         <v>241</v>
       </c>
       <c r="B242" t="s">
-        <v>246</v>
+        <v>249</v>
       </c>
       <c r="C242" t="s">
-        <v>354</v>
+        <v>355</v>
       </c>
       <c r="D242" t="s">
-        <v>376</v>
+        <v>378</v>
       </c>
     </row>
     <row r="243" spans="1:4">
@@ -14830,13 +14830,13 @@
         <v>242</v>
       </c>
       <c r="B243" t="s">
-        <v>244</v>
+        <v>250</v>
       </c>
       <c r="C243" t="s">
-        <v>359</v>
+        <v>354</v>
       </c>
       <c r="D243" t="s">
-        <v>391</v>
+        <v>369</v>
       </c>
     </row>
     <row r="244" spans="1:4">
@@ -14844,13 +14844,13 @@
         <v>243</v>
       </c>
       <c r="B244" t="s">
-        <v>268</v>
+        <v>245</v>
       </c>
       <c r="C244" t="s">
-        <v>355</v>
+        <v>354</v>
       </c>
       <c r="D244" t="s">
-        <v>385</v>
+        <v>376</v>
       </c>
     </row>
     <row r="245" spans="1:4">
@@ -14858,13 +14858,13 @@
         <v>244</v>
       </c>
       <c r="B245" t="s">
-        <v>260</v>
+        <v>268</v>
       </c>
       <c r="C245" t="s">
-        <v>354</v>
+        <v>355</v>
       </c>
       <c r="D245" t="s">
-        <v>381</v>
+        <v>385</v>
       </c>
     </row>
     <row r="246" spans="1:4">
@@ -14872,13 +14872,13 @@
         <v>245</v>
       </c>
       <c r="B246" t="s">
-        <v>245</v>
+        <v>244</v>
       </c>
       <c r="C246" t="s">
         <v>359</v>
       </c>
       <c r="D246" t="s">
-        <v>379</v>
+        <v>391</v>
       </c>
     </row>
     <row r="247" spans="1:4">
@@ -14886,13 +14886,13 @@
         <v>246</v>
       </c>
       <c r="B247" t="s">
-        <v>251</v>
+        <v>259</v>
       </c>
       <c r="C247" t="s">
         <v>355</v>
       </c>
       <c r="D247" t="s">
-        <v>378</v>
+        <v>390</v>
       </c>
     </row>
     <row r="248" spans="1:4">
@@ -14900,13 +14900,13 @@
         <v>247</v>
       </c>
       <c r="B248" t="s">
-        <v>197</v>
+        <v>247</v>
       </c>
       <c r="C248" t="s">
-        <v>357</v>
+        <v>359</v>
       </c>
       <c r="D248" t="s">
-        <v>389</v>
+        <v>379</v>
       </c>
     </row>
     <row r="249" spans="1:4">
@@ -14914,13 +14914,13 @@
         <v>248</v>
       </c>
       <c r="B249" t="s">
-        <v>261</v>
+        <v>197</v>
       </c>
       <c r="C249" t="s">
-        <v>355</v>
+        <v>357</v>
       </c>
       <c r="D249" t="s">
-        <v>390</v>
+        <v>389</v>
       </c>
     </row>
     <row r="250" spans="1:4">
@@ -14928,13 +14928,13 @@
         <v>249</v>
       </c>
       <c r="B250" t="s">
-        <v>253</v>
+        <v>265</v>
       </c>
       <c r="C250" t="s">
         <v>354</v>
       </c>
       <c r="D250" t="s">
-        <v>369</v>
+        <v>381</v>
       </c>
     </row>
     <row r="251" spans="1:4">
@@ -14942,13 +14942,13 @@
         <v>250</v>
       </c>
       <c r="B251" t="s">
-        <v>250</v>
+        <v>262</v>
       </c>
       <c r="C251" t="s">
-        <v>359</v>
+        <v>354</v>
       </c>
       <c r="D251" t="s">
-        <v>376</v>
+        <v>371</v>
       </c>
     </row>
     <row r="252" spans="1:4">
@@ -14956,7 +14956,7 @@
         <v>251</v>
       </c>
       <c r="B252" t="s">
-        <v>247</v>
+        <v>246</v>
       </c>
       <c r="C252" t="s">
         <v>356</v>
@@ -14970,13 +14970,13 @@
         <v>252</v>
       </c>
       <c r="B253" t="s">
-        <v>262</v>
+        <v>253</v>
       </c>
       <c r="C253" t="s">
-        <v>354</v>
+        <v>359</v>
       </c>
       <c r="D253" t="s">
-        <v>371</v>
+        <v>376</v>
       </c>
     </row>
     <row r="254" spans="1:4">
@@ -14984,7 +14984,7 @@
         <v>253</v>
       </c>
       <c r="B254" t="s">
-        <v>255</v>
+        <v>256</v>
       </c>
       <c r="C254" t="s">
         <v>358</v>
@@ -14998,13 +14998,13 @@
         <v>254</v>
       </c>
       <c r="B255" t="s">
-        <v>257</v>
+        <v>248</v>
       </c>
       <c r="C255" t="s">
-        <v>359</v>
+        <v>356</v>
       </c>
       <c r="D255" t="s">
-        <v>383</v>
+        <v>360</v>
       </c>
     </row>
     <row r="256" spans="1:4">
@@ -15012,13 +15012,13 @@
         <v>255</v>
       </c>
       <c r="B256" t="s">
-        <v>248</v>
+        <v>257</v>
       </c>
       <c r="C256" t="s">
-        <v>356</v>
+        <v>358</v>
       </c>
       <c r="D256" t="s">
-        <v>360</v>
+        <v>365</v>
       </c>
     </row>
     <row r="257" spans="1:4">
@@ -15026,13 +15026,13 @@
         <v>256</v>
       </c>
       <c r="B257" t="s">
-        <v>258</v>
+        <v>263</v>
       </c>
       <c r="C257" t="s">
-        <v>358</v>
+        <v>354</v>
       </c>
       <c r="D257" t="s">
-        <v>365</v>
+        <v>389</v>
       </c>
     </row>
     <row r="258" spans="1:4">
@@ -15040,13 +15040,13 @@
         <v>257</v>
       </c>
       <c r="B258" t="s">
-        <v>265</v>
+        <v>258</v>
       </c>
       <c r="C258" t="s">
-        <v>354</v>
+        <v>359</v>
       </c>
       <c r="D258" t="s">
-        <v>389</v>
+        <v>383</v>
       </c>
     </row>
     <row r="259" spans="1:4">
@@ -15054,13 +15054,13 @@
         <v>258</v>
       </c>
       <c r="B259" t="s">
-        <v>222</v>
+        <v>269</v>
       </c>
       <c r="C259" t="s">
-        <v>357</v>
+        <v>355</v>
       </c>
       <c r="D259" t="s">
-        <v>367</v>
+        <v>384</v>
       </c>
     </row>
     <row r="260" spans="1:4">
@@ -15068,13 +15068,13 @@
         <v>259</v>
       </c>
       <c r="B260" t="s">
-        <v>267</v>
+        <v>260</v>
       </c>
       <c r="C260" t="s">
-        <v>355</v>
+        <v>359</v>
       </c>
       <c r="D260" t="s">
-        <v>392</v>
+        <v>364</v>
       </c>
     </row>
     <row r="261" spans="1:4">
@@ -15082,13 +15082,13 @@
         <v>260</v>
       </c>
       <c r="B261" t="s">
-        <v>270</v>
+        <v>251</v>
       </c>
       <c r="C261" t="s">
-        <v>355</v>
+        <v>354</v>
       </c>
       <c r="D261" t="s">
-        <v>384</v>
+        <v>374</v>
       </c>
     </row>
     <row r="262" spans="1:4">
@@ -15096,13 +15096,13 @@
         <v>261</v>
       </c>
       <c r="B262" t="s">
-        <v>259</v>
+        <v>270</v>
       </c>
       <c r="C262" t="s">
-        <v>359</v>
+        <v>355</v>
       </c>
       <c r="D262" t="s">
-        <v>364</v>
+        <v>378</v>
       </c>
     </row>
     <row r="263" spans="1:4">
@@ -15110,13 +15110,13 @@
         <v>262</v>
       </c>
       <c r="B263" t="s">
-        <v>266</v>
+        <v>222</v>
       </c>
       <c r="C263" t="s">
-        <v>358</v>
+        <v>357</v>
       </c>
       <c r="D263" t="s">
-        <v>362</v>
+        <v>367</v>
       </c>
     </row>
     <row r="264" spans="1:4">
@@ -15124,13 +15124,13 @@
         <v>263</v>
       </c>
       <c r="B264" t="s">
-        <v>249</v>
+        <v>267</v>
       </c>
       <c r="C264" t="s">
-        <v>354</v>
+        <v>355</v>
       </c>
       <c r="D264" t="s">
-        <v>374</v>
+        <v>392</v>
       </c>
     </row>
     <row r="265" spans="1:4">
@@ -15138,13 +15138,13 @@
         <v>264</v>
       </c>
       <c r="B265" t="s">
-        <v>271</v>
+        <v>266</v>
       </c>
       <c r="C265" t="s">
-        <v>355</v>
+        <v>358</v>
       </c>
       <c r="D265" t="s">
-        <v>378</v>
+        <v>362</v>
       </c>
     </row>
     <row r="266" spans="1:4">
@@ -15152,7 +15152,7 @@
         <v>265</v>
       </c>
       <c r="B266" t="s">
-        <v>269</v>
+        <v>271</v>
       </c>
       <c r="C266" t="s">
         <v>356</v>
@@ -15180,7 +15180,7 @@
         <v>267</v>
       </c>
       <c r="B268" t="s">
-        <v>264</v>
+        <v>261</v>
       </c>
       <c r="C268" t="s">
         <v>356</v>
@@ -15208,7 +15208,7 @@
         <v>269</v>
       </c>
       <c r="B270" t="s">
-        <v>276</v>
+        <v>275</v>
       </c>
       <c r="C270" t="s">
         <v>358</v>
@@ -15222,13 +15222,13 @@
         <v>270</v>
       </c>
       <c r="B271" t="s">
-        <v>280</v>
+        <v>276</v>
       </c>
       <c r="C271" t="s">
-        <v>355</v>
+        <v>359</v>
       </c>
       <c r="D271" t="s">
-        <v>392</v>
+        <v>366</v>
       </c>
     </row>
     <row r="272" spans="1:4">
@@ -15236,13 +15236,13 @@
         <v>271</v>
       </c>
       <c r="B272" t="s">
-        <v>277</v>
+        <v>280</v>
       </c>
       <c r="C272" t="s">
-        <v>359</v>
+        <v>355</v>
       </c>
       <c r="D272" t="s">
-        <v>366</v>
+        <v>378</v>
       </c>
     </row>
     <row r="273" spans="1:4">
@@ -15250,7 +15250,7 @@
         <v>272</v>
       </c>
       <c r="B273" t="s">
-        <v>275</v>
+        <v>277</v>
       </c>
       <c r="C273" t="s">
         <v>359</v>
@@ -15264,13 +15264,13 @@
         <v>273</v>
       </c>
       <c r="B274" t="s">
-        <v>282</v>
+        <v>283</v>
       </c>
       <c r="C274" t="s">
         <v>355</v>
       </c>
       <c r="D274" t="s">
-        <v>378</v>
+        <v>381</v>
       </c>
     </row>
     <row r="275" spans="1:4">
@@ -15278,13 +15278,13 @@
         <v>274</v>
       </c>
       <c r="B275" t="s">
-        <v>283</v>
+        <v>282</v>
       </c>
       <c r="C275" t="s">
         <v>355</v>
       </c>
       <c r="D275" t="s">
-        <v>381</v>
+        <v>392</v>
       </c>
     </row>
     <row r="276" spans="1:4">
@@ -15292,7 +15292,7 @@
         <v>275</v>
       </c>
       <c r="B276" t="s">
-        <v>274</v>
+        <v>278</v>
       </c>
       <c r="C276" t="s">
         <v>355</v>
@@ -15334,13 +15334,13 @@
         <v>278</v>
       </c>
       <c r="B279" t="s">
-        <v>290</v>
+        <v>284</v>
       </c>
       <c r="C279" t="s">
-        <v>355</v>
+        <v>359</v>
       </c>
       <c r="D279" t="s">
-        <v>391</v>
+        <v>378</v>
       </c>
     </row>
     <row r="280" spans="1:4">
@@ -15348,13 +15348,13 @@
         <v>279</v>
       </c>
       <c r="B280" t="s">
-        <v>278</v>
+        <v>286</v>
       </c>
       <c r="C280" t="s">
-        <v>354</v>
+        <v>358</v>
       </c>
       <c r="D280" t="s">
-        <v>372</v>
+        <v>387</v>
       </c>
     </row>
     <row r="281" spans="1:4">
@@ -15362,13 +15362,13 @@
         <v>280</v>
       </c>
       <c r="B281" t="s">
-        <v>285</v>
+        <v>274</v>
       </c>
       <c r="C281" t="s">
-        <v>359</v>
+        <v>354</v>
       </c>
       <c r="D281" t="s">
-        <v>378</v>
+        <v>372</v>
       </c>
     </row>
     <row r="282" spans="1:4">
@@ -15376,7 +15376,7 @@
         <v>281</v>
       </c>
       <c r="B282" t="s">
-        <v>238</v>
+        <v>236</v>
       </c>
       <c r="C282" t="s">
         <v>357</v>
@@ -15390,13 +15390,13 @@
         <v>282</v>
       </c>
       <c r="B283" t="s">
-        <v>286</v>
+        <v>291</v>
       </c>
       <c r="C283" t="s">
-        <v>358</v>
+        <v>355</v>
       </c>
       <c r="D283" t="s">
-        <v>387</v>
+        <v>391</v>
       </c>
     </row>
     <row r="284" spans="1:4">
@@ -15404,7 +15404,7 @@
         <v>283</v>
       </c>
       <c r="B284" t="s">
-        <v>291</v>
+        <v>289</v>
       </c>
       <c r="C284" t="s">
         <v>358</v>
@@ -15418,7 +15418,7 @@
         <v>284</v>
       </c>
       <c r="B285" t="s">
-        <v>294</v>
+        <v>293</v>
       </c>
       <c r="C285" t="s">
         <v>359</v>
@@ -15432,7 +15432,7 @@
         <v>285</v>
       </c>
       <c r="B286" t="s">
-        <v>293</v>
+        <v>294</v>
       </c>
       <c r="C286" t="s">
         <v>359</v>
@@ -15446,13 +15446,13 @@
         <v>286</v>
       </c>
       <c r="B287" t="s">
-        <v>284</v>
+        <v>295</v>
       </c>
       <c r="C287" t="s">
-        <v>354</v>
+        <v>359</v>
       </c>
       <c r="D287" t="s">
-        <v>362</v>
+        <v>363</v>
       </c>
     </row>
     <row r="288" spans="1:4">
@@ -15460,13 +15460,13 @@
         <v>287</v>
       </c>
       <c r="B288" t="s">
-        <v>300</v>
+        <v>252</v>
       </c>
       <c r="C288" t="s">
-        <v>355</v>
+        <v>357</v>
       </c>
       <c r="D288" t="s">
-        <v>373</v>
+        <v>366</v>
       </c>
     </row>
     <row r="289" spans="1:4">
@@ -15474,13 +15474,13 @@
         <v>288</v>
       </c>
       <c r="B289" t="s">
-        <v>295</v>
+        <v>285</v>
       </c>
       <c r="C289" t="s">
-        <v>359</v>
+        <v>354</v>
       </c>
       <c r="D289" t="s">
-        <v>363</v>
+        <v>362</v>
       </c>
     </row>
     <row r="290" spans="1:4">
@@ -15488,13 +15488,13 @@
         <v>289</v>
       </c>
       <c r="B290" t="s">
-        <v>252</v>
+        <v>302</v>
       </c>
       <c r="C290" t="s">
-        <v>357</v>
+        <v>355</v>
       </c>
       <c r="D290" t="s">
-        <v>366</v>
+        <v>373</v>
       </c>
     </row>
     <row r="291" spans="1:4">
@@ -15502,13 +15502,13 @@
         <v>290</v>
       </c>
       <c r="B291" t="s">
-        <v>289</v>
+        <v>292</v>
       </c>
       <c r="C291" t="s">
         <v>356</v>
       </c>
       <c r="D291" t="s">
-        <v>374</v>
+        <v>382</v>
       </c>
     </row>
     <row r="292" spans="1:4">
@@ -15516,13 +15516,13 @@
         <v>291</v>
       </c>
       <c r="B292" t="s">
-        <v>292</v>
+        <v>290</v>
       </c>
       <c r="C292" t="s">
         <v>356</v>
       </c>
       <c r="D292" t="s">
-        <v>382</v>
+        <v>374</v>
       </c>
     </row>
     <row r="293" spans="1:4">
@@ -15544,13 +15544,13 @@
         <v>293</v>
       </c>
       <c r="B294" t="s">
-        <v>313</v>
+        <v>297</v>
       </c>
       <c r="C294" t="s">
-        <v>354</v>
+        <v>359</v>
       </c>
       <c r="D294" t="s">
-        <v>365</v>
+        <v>362</v>
       </c>
     </row>
     <row r="295" spans="1:4">
@@ -15558,13 +15558,13 @@
         <v>294</v>
       </c>
       <c r="B295" t="s">
-        <v>297</v>
+        <v>311</v>
       </c>
       <c r="C295" t="s">
-        <v>359</v>
+        <v>354</v>
       </c>
       <c r="D295" t="s">
-        <v>362</v>
+        <v>365</v>
       </c>
     </row>
     <row r="296" spans="1:4">
@@ -15586,7 +15586,7 @@
         <v>296</v>
       </c>
       <c r="B297" t="s">
-        <v>301</v>
+        <v>300</v>
       </c>
       <c r="C297" t="s">
         <v>356</v>
@@ -15600,13 +15600,13 @@
         <v>297</v>
       </c>
       <c r="B298" t="s">
-        <v>303</v>
+        <v>288</v>
       </c>
       <c r="C298" t="s">
-        <v>355</v>
+        <v>354</v>
       </c>
       <c r="D298" t="s">
-        <v>383</v>
+        <v>380</v>
       </c>
     </row>
     <row r="299" spans="1:4">
@@ -15614,13 +15614,13 @@
         <v>298</v>
       </c>
       <c r="B299" t="s">
-        <v>287</v>
+        <v>299</v>
       </c>
       <c r="C299" t="s">
-        <v>354</v>
+        <v>358</v>
       </c>
       <c r="D299" t="s">
-        <v>380</v>
+        <v>388</v>
       </c>
     </row>
     <row r="300" spans="1:4">
@@ -15628,13 +15628,13 @@
         <v>299</v>
       </c>
       <c r="B300" t="s">
-        <v>318</v>
+        <v>304</v>
       </c>
       <c r="C300" t="s">
-        <v>354</v>
+        <v>355</v>
       </c>
       <c r="D300" t="s">
-        <v>385</v>
+        <v>383</v>
       </c>
     </row>
     <row r="301" spans="1:4">
@@ -15642,13 +15642,13 @@
         <v>300</v>
       </c>
       <c r="B301" t="s">
-        <v>302</v>
+        <v>320</v>
       </c>
       <c r="C301" t="s">
-        <v>358</v>
+        <v>354</v>
       </c>
       <c r="D301" t="s">
-        <v>388</v>
+        <v>385</v>
       </c>
     </row>
     <row r="302" spans="1:4">
@@ -15656,7 +15656,7 @@
         <v>301</v>
       </c>
       <c r="B302" t="s">
-        <v>299</v>
+        <v>301</v>
       </c>
       <c r="C302" t="s">
         <v>355</v>
@@ -15670,13 +15670,13 @@
         <v>302</v>
       </c>
       <c r="B303" t="s">
-        <v>311</v>
+        <v>287</v>
       </c>
       <c r="C303" t="s">
-        <v>355</v>
+        <v>354</v>
       </c>
       <c r="D303" t="s">
-        <v>372</v>
+        <v>360</v>
       </c>
     </row>
     <row r="304" spans="1:4">
@@ -15684,13 +15684,13 @@
         <v>303</v>
       </c>
       <c r="B304" t="s">
-        <v>288</v>
+        <v>310</v>
       </c>
       <c r="C304" t="s">
-        <v>354</v>
+        <v>355</v>
       </c>
       <c r="D304" t="s">
-        <v>360</v>
+        <v>372</v>
       </c>
     </row>
     <row r="305" spans="1:4">
@@ -15698,7 +15698,7 @@
         <v>304</v>
       </c>
       <c r="B305" t="s">
-        <v>304</v>
+        <v>303</v>
       </c>
       <c r="C305" t="s">
         <v>358</v>
@@ -15726,7 +15726,7 @@
         <v>306</v>
       </c>
       <c r="B307" t="s">
-        <v>322</v>
+        <v>319</v>
       </c>
       <c r="C307" t="s">
         <v>355</v>
@@ -15740,7 +15740,7 @@
         <v>307</v>
       </c>
       <c r="B308" t="s">
-        <v>325</v>
+        <v>324</v>
       </c>
       <c r="C308" t="s">
         <v>354</v>
@@ -15754,13 +15754,13 @@
         <v>308</v>
       </c>
       <c r="B309" t="s">
-        <v>310</v>
+        <v>307</v>
       </c>
       <c r="C309" t="s">
         <v>354</v>
       </c>
       <c r="D309" t="s">
-        <v>391</v>
+        <v>364</v>
       </c>
     </row>
     <row r="310" spans="1:4">
@@ -15768,13 +15768,13 @@
         <v>309</v>
       </c>
       <c r="B310" t="s">
-        <v>307</v>
+        <v>312</v>
       </c>
       <c r="C310" t="s">
         <v>354</v>
       </c>
       <c r="D310" t="s">
-        <v>364</v>
+        <v>391</v>
       </c>
     </row>
     <row r="311" spans="1:4">
@@ -15782,13 +15782,13 @@
         <v>310</v>
       </c>
       <c r="B311" t="s">
-        <v>309</v>
+        <v>314</v>
       </c>
       <c r="C311" t="s">
-        <v>354</v>
+        <v>358</v>
       </c>
       <c r="D311" t="s">
-        <v>368</v>
+        <v>390</v>
       </c>
     </row>
     <row r="312" spans="1:4">
@@ -15796,13 +15796,13 @@
         <v>311</v>
       </c>
       <c r="B312" t="s">
-        <v>314</v>
+        <v>309</v>
       </c>
       <c r="C312" t="s">
-        <v>355</v>
+        <v>354</v>
       </c>
       <c r="D312" t="s">
-        <v>386</v>
+        <v>368</v>
       </c>
     </row>
     <row r="313" spans="1:4">
@@ -15810,13 +15810,13 @@
         <v>312</v>
       </c>
       <c r="B313" t="s">
-        <v>315</v>
+        <v>317</v>
       </c>
       <c r="C313" t="s">
-        <v>358</v>
+        <v>355</v>
       </c>
       <c r="D313" t="s">
-        <v>390</v>
+        <v>387</v>
       </c>
     </row>
     <row r="314" spans="1:4">
@@ -15824,13 +15824,13 @@
         <v>313</v>
       </c>
       <c r="B314" t="s">
-        <v>321</v>
+        <v>315</v>
       </c>
       <c r="C314" t="s">
         <v>355</v>
       </c>
       <c r="D314" t="s">
-        <v>370</v>
+        <v>386</v>
       </c>
     </row>
     <row r="315" spans="1:4">
@@ -15852,13 +15852,13 @@
         <v>315</v>
       </c>
       <c r="B316" t="s">
-        <v>320</v>
+        <v>323</v>
       </c>
       <c r="C316" t="s">
         <v>355</v>
       </c>
       <c r="D316" t="s">
-        <v>387</v>
+        <v>370</v>
       </c>
     </row>
     <row r="317" spans="1:4">
@@ -15866,7 +15866,7 @@
         <v>316</v>
       </c>
       <c r="B317" t="s">
-        <v>316</v>
+        <v>318</v>
       </c>
       <c r="C317" t="s">
         <v>355</v>
@@ -15880,7 +15880,7 @@
         <v>317</v>
       </c>
       <c r="B318" t="s">
-        <v>317</v>
+        <v>316</v>
       </c>
       <c r="C318" t="s">
         <v>356</v>
@@ -15908,7 +15908,7 @@
         <v>319</v>
       </c>
       <c r="B320" t="s">
-        <v>337</v>
+        <v>338</v>
       </c>
       <c r="C320" t="s">
         <v>355</v>
@@ -15922,7 +15922,7 @@
         <v>320</v>
       </c>
       <c r="B321" t="s">
-        <v>319</v>
+        <v>321</v>
       </c>
       <c r="C321" t="s">
         <v>354</v>
@@ -15964,13 +15964,13 @@
         <v>323</v>
       </c>
       <c r="B324" t="s">
-        <v>333</v>
+        <v>306</v>
       </c>
       <c r="C324" t="s">
-        <v>354</v>
+        <v>357</v>
       </c>
       <c r="D324" t="s">
-        <v>381</v>
+        <v>388</v>
       </c>
     </row>
     <row r="325" spans="1:4">
@@ -15978,13 +15978,13 @@
         <v>324</v>
       </c>
       <c r="B325" t="s">
-        <v>306</v>
+        <v>331</v>
       </c>
       <c r="C325" t="s">
-        <v>357</v>
+        <v>355</v>
       </c>
       <c r="D325" t="s">
-        <v>388</v>
+        <v>362</v>
       </c>
     </row>
     <row r="326" spans="1:4">
@@ -15992,13 +15992,13 @@
         <v>325</v>
       </c>
       <c r="B326" t="s">
-        <v>331</v>
+        <v>334</v>
       </c>
       <c r="C326" t="s">
-        <v>355</v>
+        <v>354</v>
       </c>
       <c r="D326" t="s">
-        <v>362</v>
+        <v>381</v>
       </c>
     </row>
     <row r="327" spans="1:4">
@@ -16006,13 +16006,13 @@
         <v>326</v>
       </c>
       <c r="B327" t="s">
-        <v>324</v>
+        <v>308</v>
       </c>
       <c r="C327" t="s">
-        <v>354</v>
+        <v>357</v>
       </c>
       <c r="D327" t="s">
-        <v>371</v>
+        <v>366</v>
       </c>
     </row>
     <row r="328" spans="1:4">
@@ -16020,13 +16020,13 @@
         <v>327</v>
       </c>
       <c r="B328" t="s">
-        <v>327</v>
+        <v>325</v>
       </c>
       <c r="C328" t="s">
         <v>354</v>
       </c>
       <c r="D328" t="s">
-        <v>374</v>
+        <v>371</v>
       </c>
     </row>
     <row r="329" spans="1:4">
@@ -16034,13 +16034,13 @@
         <v>328</v>
       </c>
       <c r="B329" t="s">
-        <v>308</v>
+        <v>327</v>
       </c>
       <c r="C329" t="s">
-        <v>357</v>
+        <v>354</v>
       </c>
       <c r="D329" t="s">
-        <v>366</v>
+        <v>374</v>
       </c>
     </row>
     <row r="330" spans="1:4">
@@ -16048,7 +16048,7 @@
         <v>329</v>
       </c>
       <c r="B330" t="s">
-        <v>334</v>
+        <v>333</v>
       </c>
       <c r="C330" t="s">
         <v>356</v>
@@ -16062,13 +16062,13 @@
         <v>330</v>
       </c>
       <c r="B331" t="s">
-        <v>312</v>
+        <v>335</v>
       </c>
       <c r="C331" t="s">
-        <v>357</v>
+        <v>359</v>
       </c>
       <c r="D331" t="s">
-        <v>376</v>
+        <v>392</v>
       </c>
     </row>
     <row r="332" spans="1:4">
@@ -16076,13 +16076,13 @@
         <v>331</v>
       </c>
       <c r="B332" t="s">
-        <v>336</v>
+        <v>313</v>
       </c>
       <c r="C332" t="s">
-        <v>359</v>
+        <v>357</v>
       </c>
       <c r="D332" t="s">
-        <v>392</v>
+        <v>376</v>
       </c>
     </row>
     <row r="333" spans="1:4">
@@ -16090,7 +16090,7 @@
         <v>332</v>
       </c>
       <c r="B333" t="s">
-        <v>340</v>
+        <v>342</v>
       </c>
       <c r="C333" t="s">
         <v>354</v>
@@ -16104,13 +16104,13 @@
         <v>333</v>
       </c>
       <c r="B334" t="s">
-        <v>335</v>
+        <v>351</v>
       </c>
       <c r="C334" t="s">
         <v>354</v>
       </c>
       <c r="D334" t="s">
-        <v>385</v>
+        <v>362</v>
       </c>
     </row>
     <row r="335" spans="1:4">
@@ -16118,13 +16118,13 @@
         <v>334</v>
       </c>
       <c r="B335" t="s">
-        <v>351</v>
+        <v>340</v>
       </c>
       <c r="C335" t="s">
-        <v>354</v>
+        <v>356</v>
       </c>
       <c r="D335" t="s">
-        <v>362</v>
+        <v>361</v>
       </c>
     </row>
     <row r="336" spans="1:4">
@@ -16132,13 +16132,13 @@
         <v>335</v>
       </c>
       <c r="B336" t="s">
-        <v>341</v>
+        <v>336</v>
       </c>
       <c r="C336" t="s">
-        <v>356</v>
+        <v>354</v>
       </c>
       <c r="D336" t="s">
-        <v>361</v>
+        <v>385</v>
       </c>
     </row>
     <row r="337" spans="1:4">
@@ -16146,13 +16146,13 @@
         <v>336</v>
       </c>
       <c r="B337" t="s">
-        <v>345</v>
+        <v>337</v>
       </c>
       <c r="C337" t="s">
-        <v>355</v>
+        <v>354</v>
       </c>
       <c r="D337" t="s">
-        <v>391</v>
+        <v>390</v>
       </c>
     </row>
     <row r="338" spans="1:4">
@@ -16160,13 +16160,13 @@
         <v>337</v>
       </c>
       <c r="B338" t="s">
-        <v>338</v>
+        <v>346</v>
       </c>
       <c r="C338" t="s">
-        <v>354</v>
+        <v>355</v>
       </c>
       <c r="D338" t="s">
-        <v>390</v>
+        <v>391</v>
       </c>
     </row>
     <row r="339" spans="1:4">
@@ -16174,7 +16174,7 @@
         <v>338</v>
       </c>
       <c r="B339" t="s">
-        <v>344</v>
+        <v>341</v>
       </c>
       <c r="C339" t="s">
         <v>359</v>
@@ -16188,13 +16188,13 @@
         <v>339</v>
       </c>
       <c r="B340" t="s">
-        <v>348</v>
+        <v>322</v>
       </c>
       <c r="C340" t="s">
-        <v>356</v>
+        <v>357</v>
       </c>
       <c r="D340" t="s">
-        <v>384</v>
+        <v>367</v>
       </c>
     </row>
     <row r="341" spans="1:4">
@@ -16202,13 +16202,13 @@
         <v>340</v>
       </c>
       <c r="B341" t="s">
-        <v>342</v>
+        <v>348</v>
       </c>
       <c r="C341" t="s">
         <v>356</v>
       </c>
       <c r="D341" t="s">
-        <v>392</v>
+        <v>384</v>
       </c>
     </row>
     <row r="342" spans="1:4">
@@ -16230,13 +16230,13 @@
         <v>342</v>
       </c>
       <c r="B343" t="s">
-        <v>323</v>
+        <v>343</v>
       </c>
       <c r="C343" t="s">
-        <v>357</v>
+        <v>356</v>
       </c>
       <c r="D343" t="s">
-        <v>367</v>
+        <v>392</v>
       </c>
     </row>
     <row r="344" spans="1:4">
@@ -16258,7 +16258,7 @@
         <v>344</v>
       </c>
       <c r="B345" t="s">
-        <v>346</v>
+        <v>345</v>
       </c>
       <c r="C345" t="s">
         <v>356</v>
@@ -16286,13 +16286,13 @@
         <v>346</v>
       </c>
       <c r="B347" t="s">
-        <v>343</v>
+        <v>394</v>
       </c>
       <c r="C347" t="s">
-        <v>354</v>
+        <v>355</v>
       </c>
       <c r="D347" t="s">
-        <v>386</v>
+        <v>362</v>
       </c>
     </row>
     <row r="348" spans="1:4">
@@ -16300,13 +16300,13 @@
         <v>347</v>
       </c>
       <c r="B348" t="s">
-        <v>394</v>
+        <v>344</v>
       </c>
       <c r="C348" t="s">
-        <v>355</v>
+        <v>354</v>
       </c>
       <c r="D348" t="s">
-        <v>362</v>
+        <v>386</v>
       </c>
     </row>
     <row r="349" spans="1:4">
@@ -16314,13 +16314,13 @@
         <v>348</v>
       </c>
       <c r="B349" t="s">
-        <v>395</v>
+        <v>350</v>
       </c>
       <c r="C349" t="s">
         <v>355</v>
       </c>
       <c r="D349" t="s">
-        <v>392</v>
+        <v>364</v>
       </c>
     </row>
     <row r="350" spans="1:4">
@@ -16328,13 +16328,13 @@
         <v>349</v>
       </c>
       <c r="B350" t="s">
-        <v>350</v>
+        <v>395</v>
       </c>
       <c r="C350" t="s">
         <v>355</v>
       </c>
       <c r="D350" t="s">
-        <v>364</v>
+        <v>392</v>
       </c>
     </row>
     <row r="351" spans="1:4">

--- a/docs/FantasyProsFootballDraft.xlsx
+++ b/docs/FantasyProsFootballDraft.xlsx
@@ -6819,13 +6819,13 @@
         <v>22</v>
       </c>
       <c r="B23" t="s">
-        <v>25</v>
+        <v>17</v>
       </c>
       <c r="C23" t="s">
-        <v>354</v>
+        <v>356</v>
       </c>
       <c r="D23" t="s">
-        <v>379</v>
+        <v>371</v>
       </c>
     </row>
     <row r="24" spans="1:4">
@@ -6833,13 +6833,13 @@
         <v>23</v>
       </c>
       <c r="B24" t="s">
-        <v>17</v>
+        <v>25</v>
       </c>
       <c r="C24" t="s">
-        <v>356</v>
+        <v>354</v>
       </c>
       <c r="D24" t="s">
-        <v>371</v>
+        <v>379</v>
       </c>
     </row>
     <row r="25" spans="1:4">
@@ -7771,13 +7771,13 @@
         <v>90</v>
       </c>
       <c r="B91" t="s">
-        <v>83</v>
+        <v>96</v>
       </c>
       <c r="C91" t="s">
-        <v>355</v>
+        <v>354</v>
       </c>
       <c r="D91" t="s">
-        <v>383</v>
+        <v>388</v>
       </c>
     </row>
     <row r="92" spans="1:4">
@@ -7785,13 +7785,13 @@
         <v>91</v>
       </c>
       <c r="B92" t="s">
-        <v>96</v>
+        <v>83</v>
       </c>
       <c r="C92" t="s">
-        <v>354</v>
+        <v>355</v>
       </c>
       <c r="D92" t="s">
-        <v>388</v>
+        <v>383</v>
       </c>
     </row>
     <row r="93" spans="1:4">
@@ -8065,13 +8065,13 @@
         <v>111</v>
       </c>
       <c r="B112" t="s">
-        <v>107</v>
+        <v>117</v>
       </c>
       <c r="C112" t="s">
-        <v>355</v>
+        <v>356</v>
       </c>
       <c r="D112" t="s">
-        <v>362</v>
+        <v>366</v>
       </c>
     </row>
     <row r="113" spans="1:4">
@@ -8079,13 +8079,13 @@
         <v>112</v>
       </c>
       <c r="B113" t="s">
-        <v>117</v>
+        <v>107</v>
       </c>
       <c r="C113" t="s">
-        <v>356</v>
+        <v>355</v>
       </c>
       <c r="D113" t="s">
-        <v>366</v>
+        <v>362</v>
       </c>
     </row>
     <row r="114" spans="1:4">
@@ -8387,13 +8387,13 @@
         <v>134</v>
       </c>
       <c r="B135" t="s">
-        <v>144</v>
+        <v>131</v>
       </c>
       <c r="C135" t="s">
-        <v>354</v>
+        <v>356</v>
       </c>
       <c r="D135" t="s">
-        <v>387</v>
+        <v>363</v>
       </c>
     </row>
     <row r="136" spans="1:4">
@@ -8401,13 +8401,13 @@
         <v>135</v>
       </c>
       <c r="B136" t="s">
-        <v>131</v>
+        <v>144</v>
       </c>
       <c r="C136" t="s">
-        <v>356</v>
+        <v>354</v>
       </c>
       <c r="D136" t="s">
-        <v>363</v>
+        <v>387</v>
       </c>
     </row>
     <row r="137" spans="1:4">
@@ -8653,13 +8653,13 @@
         <v>153</v>
       </c>
       <c r="B154" t="s">
-        <v>163</v>
+        <v>157</v>
       </c>
       <c r="C154" t="s">
-        <v>354</v>
+        <v>355</v>
       </c>
       <c r="D154" t="s">
-        <v>386</v>
+        <v>380</v>
       </c>
     </row>
     <row r="155" spans="1:4">
@@ -8667,13 +8667,13 @@
         <v>154</v>
       </c>
       <c r="B155" t="s">
-        <v>157</v>
+        <v>163</v>
       </c>
       <c r="C155" t="s">
-        <v>355</v>
+        <v>354</v>
       </c>
       <c r="D155" t="s">
-        <v>380</v>
+        <v>386</v>
       </c>
     </row>
     <row r="156" spans="1:4">
@@ -8835,13 +8835,13 @@
         <v>166</v>
       </c>
       <c r="B167" t="s">
-        <v>165</v>
+        <v>170</v>
       </c>
       <c r="C167" t="s">
-        <v>354</v>
+        <v>358</v>
       </c>
       <c r="D167" t="s">
-        <v>369</v>
+        <v>376</v>
       </c>
     </row>
     <row r="168" spans="1:4">
@@ -8849,13 +8849,13 @@
         <v>167</v>
       </c>
       <c r="B168" t="s">
-        <v>170</v>
+        <v>165</v>
       </c>
       <c r="C168" t="s">
-        <v>358</v>
+        <v>354</v>
       </c>
       <c r="D168" t="s">
-        <v>376</v>
+        <v>369</v>
       </c>
     </row>
     <row r="169" spans="1:4">
@@ -8877,13 +8877,13 @@
         <v>169</v>
       </c>
       <c r="B170" t="s">
-        <v>171</v>
+        <v>166</v>
       </c>
       <c r="C170" t="s">
-        <v>354</v>
+        <v>357</v>
       </c>
       <c r="D170" t="s">
-        <v>381</v>
+        <v>372</v>
       </c>
     </row>
     <row r="171" spans="1:4">
@@ -8891,13 +8891,13 @@
         <v>170</v>
       </c>
       <c r="B171" t="s">
-        <v>166</v>
+        <v>185</v>
       </c>
       <c r="C171" t="s">
-        <v>357</v>
+        <v>355</v>
       </c>
       <c r="D171" t="s">
-        <v>372</v>
+        <v>361</v>
       </c>
     </row>
     <row r="172" spans="1:4">
@@ -8905,13 +8905,13 @@
         <v>171</v>
       </c>
       <c r="B172" t="s">
-        <v>185</v>
+        <v>182</v>
       </c>
       <c r="C172" t="s">
         <v>355</v>
       </c>
       <c r="D172" t="s">
-        <v>361</v>
+        <v>389</v>
       </c>
     </row>
     <row r="173" spans="1:4">
@@ -8919,13 +8919,13 @@
         <v>172</v>
       </c>
       <c r="B173" t="s">
-        <v>182</v>
+        <v>171</v>
       </c>
       <c r="C173" t="s">
-        <v>355</v>
+        <v>354</v>
       </c>
       <c r="D173" t="s">
-        <v>389</v>
+        <v>381</v>
       </c>
     </row>
     <row r="174" spans="1:4">
@@ -8961,13 +8961,13 @@
         <v>175</v>
       </c>
       <c r="B176" t="s">
-        <v>173</v>
+        <v>176</v>
       </c>
       <c r="C176" t="s">
         <v>354</v>
       </c>
       <c r="D176" t="s">
-        <v>361</v>
+        <v>373</v>
       </c>
     </row>
     <row r="177" spans="1:4">
@@ -8975,13 +8975,13 @@
         <v>176</v>
       </c>
       <c r="B177" t="s">
-        <v>176</v>
+        <v>173</v>
       </c>
       <c r="C177" t="s">
         <v>354</v>
       </c>
       <c r="D177" t="s">
-        <v>373</v>
+        <v>361</v>
       </c>
     </row>
     <row r="178" spans="1:4">
@@ -9031,13 +9031,13 @@
         <v>180</v>
       </c>
       <c r="B181" t="s">
-        <v>172</v>
+        <v>193</v>
       </c>
       <c r="C181" t="s">
-        <v>356</v>
+        <v>355</v>
       </c>
       <c r="D181" t="s">
-        <v>386</v>
+        <v>363</v>
       </c>
     </row>
     <row r="182" spans="1:4">
@@ -9045,13 +9045,13 @@
         <v>181</v>
       </c>
       <c r="B182" t="s">
-        <v>193</v>
+        <v>172</v>
       </c>
       <c r="C182" t="s">
-        <v>355</v>
+        <v>356</v>
       </c>
       <c r="D182" t="s">
-        <v>363</v>
+        <v>386</v>
       </c>
     </row>
     <row r="183" spans="1:4">
@@ -9129,13 +9129,13 @@
         <v>187</v>
       </c>
       <c r="B188" t="s">
-        <v>192</v>
+        <v>188</v>
       </c>
       <c r="C188" t="s">
-        <v>356</v>
+        <v>358</v>
       </c>
       <c r="D188" t="s">
-        <v>365</v>
+        <v>391</v>
       </c>
     </row>
     <row r="189" spans="1:4">
@@ -9143,13 +9143,13 @@
         <v>188</v>
       </c>
       <c r="B189" t="s">
-        <v>188</v>
+        <v>192</v>
       </c>
       <c r="C189" t="s">
-        <v>358</v>
+        <v>356</v>
       </c>
       <c r="D189" t="s">
-        <v>391</v>
+        <v>365</v>
       </c>
     </row>
     <row r="190" spans="1:4">
@@ -9213,13 +9213,13 @@
         <v>193</v>
       </c>
       <c r="B194" t="s">
-        <v>201</v>
+        <v>175</v>
       </c>
       <c r="C194" t="s">
-        <v>355</v>
+        <v>357</v>
       </c>
       <c r="D194" t="s">
-        <v>391</v>
+        <v>386</v>
       </c>
     </row>
     <row r="195" spans="1:4">
@@ -9227,13 +9227,13 @@
         <v>194</v>
       </c>
       <c r="B195" t="s">
-        <v>175</v>
+        <v>180</v>
       </c>
       <c r="C195" t="s">
         <v>357</v>
       </c>
       <c r="D195" t="s">
-        <v>386</v>
+        <v>370</v>
       </c>
     </row>
     <row r="196" spans="1:4">
@@ -9241,13 +9241,13 @@
         <v>195</v>
       </c>
       <c r="B196" t="s">
-        <v>198</v>
+        <v>201</v>
       </c>
       <c r="C196" t="s">
-        <v>354</v>
+        <v>355</v>
       </c>
       <c r="D196" t="s">
-        <v>375</v>
+        <v>391</v>
       </c>
     </row>
     <row r="197" spans="1:4">
@@ -9255,13 +9255,13 @@
         <v>196</v>
       </c>
       <c r="B197" t="s">
-        <v>180</v>
+        <v>198</v>
       </c>
       <c r="C197" t="s">
-        <v>357</v>
+        <v>354</v>
       </c>
       <c r="D197" t="s">
-        <v>370</v>
+        <v>375</v>
       </c>
     </row>
     <row r="198" spans="1:4">
@@ -9269,13 +9269,13 @@
         <v>197</v>
       </c>
       <c r="B198" t="s">
-        <v>203</v>
+        <v>218</v>
       </c>
       <c r="C198" t="s">
         <v>355</v>
       </c>
       <c r="D198" t="s">
-        <v>367</v>
+        <v>372</v>
       </c>
     </row>
     <row r="199" spans="1:4">
@@ -9283,13 +9283,13 @@
         <v>198</v>
       </c>
       <c r="B199" t="s">
-        <v>218</v>
+        <v>203</v>
       </c>
       <c r="C199" t="s">
         <v>355</v>
       </c>
       <c r="D199" t="s">
-        <v>372</v>
+        <v>367</v>
       </c>
     </row>
     <row r="200" spans="1:4">
@@ -9353,13 +9353,13 @@
         <v>203</v>
       </c>
       <c r="B204" t="s">
-        <v>211</v>
+        <v>209</v>
       </c>
       <c r="C204" t="s">
-        <v>355</v>
+        <v>359</v>
       </c>
       <c r="D204" t="s">
-        <v>360</v>
+        <v>365</v>
       </c>
     </row>
     <row r="205" spans="1:4">
@@ -9367,13 +9367,13 @@
         <v>204</v>
       </c>
       <c r="B205" t="s">
-        <v>209</v>
+        <v>211</v>
       </c>
       <c r="C205" t="s">
-        <v>359</v>
+        <v>355</v>
       </c>
       <c r="D205" t="s">
-        <v>365</v>
+        <v>360</v>
       </c>
     </row>
     <row r="206" spans="1:4">
@@ -9395,13 +9395,13 @@
         <v>206</v>
       </c>
       <c r="B207" t="s">
-        <v>214</v>
+        <v>212</v>
       </c>
       <c r="C207" t="s">
-        <v>354</v>
+        <v>355</v>
       </c>
       <c r="D207" t="s">
-        <v>375</v>
+        <v>386</v>
       </c>
     </row>
     <row r="208" spans="1:4">
@@ -9409,13 +9409,13 @@
         <v>207</v>
       </c>
       <c r="B208" t="s">
-        <v>212</v>
+        <v>210</v>
       </c>
       <c r="C208" t="s">
-        <v>355</v>
+        <v>358</v>
       </c>
       <c r="D208" t="s">
-        <v>386</v>
+        <v>378</v>
       </c>
     </row>
     <row r="209" spans="1:4">
@@ -9437,13 +9437,13 @@
         <v>209</v>
       </c>
       <c r="B210" t="s">
-        <v>210</v>
+        <v>205</v>
       </c>
       <c r="C210" t="s">
-        <v>358</v>
+        <v>355</v>
       </c>
       <c r="D210" t="s">
-        <v>378</v>
+        <v>377</v>
       </c>
     </row>
     <row r="211" spans="1:4">
@@ -9451,13 +9451,13 @@
         <v>210</v>
       </c>
       <c r="B211" t="s">
-        <v>205</v>
+        <v>214</v>
       </c>
       <c r="C211" t="s">
-        <v>355</v>
+        <v>354</v>
       </c>
       <c r="D211" t="s">
-        <v>377</v>
+        <v>375</v>
       </c>
     </row>
     <row r="212" spans="1:4">
@@ -9507,13 +9507,13 @@
         <v>214</v>
       </c>
       <c r="B215" t="s">
-        <v>235</v>
+        <v>215</v>
       </c>
       <c r="C215" t="s">
-        <v>355</v>
+        <v>358</v>
       </c>
       <c r="D215" t="s">
-        <v>374</v>
+        <v>369</v>
       </c>
     </row>
     <row r="216" spans="1:4">
@@ -9535,13 +9535,13 @@
         <v>216</v>
       </c>
       <c r="B217" t="s">
-        <v>215</v>
+        <v>235</v>
       </c>
       <c r="C217" t="s">
-        <v>358</v>
+        <v>355</v>
       </c>
       <c r="D217" t="s">
-        <v>369</v>
+        <v>374</v>
       </c>
     </row>
     <row r="218" spans="1:4">
@@ -9563,13 +9563,13 @@
         <v>218</v>
       </c>
       <c r="B219" t="s">
-        <v>225</v>
+        <v>226</v>
       </c>
       <c r="C219" t="s">
-        <v>355</v>
+        <v>358</v>
       </c>
       <c r="D219" t="s">
-        <v>382</v>
+        <v>367</v>
       </c>
     </row>
     <row r="220" spans="1:4">
@@ -9577,13 +9577,13 @@
         <v>219</v>
       </c>
       <c r="B220" t="s">
-        <v>226</v>
+        <v>221</v>
       </c>
       <c r="C220" t="s">
-        <v>358</v>
+        <v>359</v>
       </c>
       <c r="D220" t="s">
-        <v>367</v>
+        <v>369</v>
       </c>
     </row>
     <row r="221" spans="1:4">
@@ -9591,13 +9591,13 @@
         <v>220</v>
       </c>
       <c r="B221" t="s">
-        <v>221</v>
+        <v>225</v>
       </c>
       <c r="C221" t="s">
-        <v>359</v>
+        <v>355</v>
       </c>
       <c r="D221" t="s">
-        <v>369</v>
+        <v>382</v>
       </c>
     </row>
     <row r="222" spans="1:4">
@@ -9633,13 +9633,13 @@
         <v>223</v>
       </c>
       <c r="B224" t="s">
-        <v>217</v>
+        <v>243</v>
       </c>
       <c r="C224" t="s">
-        <v>354</v>
+        <v>355</v>
       </c>
       <c r="D224" t="s">
-        <v>361</v>
+        <v>372</v>
       </c>
     </row>
     <row r="225" spans="1:4">
@@ -9647,13 +9647,13 @@
         <v>224</v>
       </c>
       <c r="B225" t="s">
-        <v>243</v>
+        <v>217</v>
       </c>
       <c r="C225" t="s">
-        <v>355</v>
+        <v>354</v>
       </c>
       <c r="D225" t="s">
-        <v>372</v>
+        <v>361</v>
       </c>
     </row>
     <row r="226" spans="1:4">
@@ -9675,13 +9675,13 @@
         <v>226</v>
       </c>
       <c r="B227" t="s">
-        <v>230</v>
+        <v>227</v>
       </c>
       <c r="C227" t="s">
-        <v>354</v>
+        <v>358</v>
       </c>
       <c r="D227" t="s">
-        <v>365</v>
+        <v>371</v>
       </c>
     </row>
     <row r="228" spans="1:4">
@@ -9689,13 +9689,13 @@
         <v>227</v>
       </c>
       <c r="B228" t="s">
-        <v>227</v>
+        <v>241</v>
       </c>
       <c r="C228" t="s">
-        <v>358</v>
+        <v>355</v>
       </c>
       <c r="D228" t="s">
-        <v>371</v>
+        <v>390</v>
       </c>
     </row>
     <row r="229" spans="1:4">
@@ -9703,13 +9703,13 @@
         <v>228</v>
       </c>
       <c r="B229" t="s">
-        <v>241</v>
+        <v>239</v>
       </c>
       <c r="C229" t="s">
-        <v>355</v>
+        <v>359</v>
       </c>
       <c r="D229" t="s">
-        <v>390</v>
+        <v>384</v>
       </c>
     </row>
     <row r="230" spans="1:4">
@@ -9717,13 +9717,13 @@
         <v>229</v>
       </c>
       <c r="B230" t="s">
-        <v>239</v>
+        <v>230</v>
       </c>
       <c r="C230" t="s">
-        <v>359</v>
+        <v>354</v>
       </c>
       <c r="D230" t="s">
-        <v>384</v>
+        <v>365</v>
       </c>
     </row>
     <row r="231" spans="1:4">
@@ -9843,13 +9843,13 @@
         <v>238</v>
       </c>
       <c r="B239" t="s">
-        <v>255</v>
+        <v>244</v>
       </c>
       <c r="C239" t="s">
-        <v>355</v>
+        <v>359</v>
       </c>
       <c r="D239" t="s">
-        <v>361</v>
+        <v>391</v>
       </c>
     </row>
     <row r="240" spans="1:4">
@@ -9857,13 +9857,13 @@
         <v>239</v>
       </c>
       <c r="B240" t="s">
-        <v>244</v>
+        <v>253</v>
       </c>
       <c r="C240" t="s">
         <v>359</v>
       </c>
       <c r="D240" t="s">
-        <v>391</v>
+        <v>376</v>
       </c>
     </row>
     <row r="241" spans="1:4">
@@ -9871,13 +9871,13 @@
         <v>240</v>
       </c>
       <c r="B241" t="s">
-        <v>253</v>
+        <v>255</v>
       </c>
       <c r="C241" t="s">
-        <v>359</v>
+        <v>355</v>
       </c>
       <c r="D241" t="s">
-        <v>376</v>
+        <v>361</v>
       </c>
     </row>
     <row r="242" spans="1:4">
@@ -9899,13 +9899,13 @@
         <v>242</v>
       </c>
       <c r="B243" t="s">
-        <v>254</v>
+        <v>222</v>
       </c>
       <c r="C243" t="s">
-        <v>355</v>
+        <v>357</v>
       </c>
       <c r="D243" t="s">
-        <v>387</v>
+        <v>367</v>
       </c>
     </row>
     <row r="244" spans="1:4">
@@ -9913,13 +9913,13 @@
         <v>243</v>
       </c>
       <c r="B244" t="s">
-        <v>222</v>
+        <v>249</v>
       </c>
       <c r="C244" t="s">
-        <v>357</v>
+        <v>355</v>
       </c>
       <c r="D244" t="s">
-        <v>367</v>
+        <v>378</v>
       </c>
     </row>
     <row r="245" spans="1:4">
@@ -9927,13 +9927,13 @@
         <v>244</v>
       </c>
       <c r="B245" t="s">
-        <v>237</v>
+        <v>254</v>
       </c>
       <c r="C245" t="s">
-        <v>354</v>
+        <v>355</v>
       </c>
       <c r="D245" t="s">
-        <v>367</v>
+        <v>387</v>
       </c>
     </row>
     <row r="246" spans="1:4">
@@ -9941,13 +9941,13 @@
         <v>245</v>
       </c>
       <c r="B246" t="s">
-        <v>249</v>
+        <v>237</v>
       </c>
       <c r="C246" t="s">
-        <v>355</v>
+        <v>354</v>
       </c>
       <c r="D246" t="s">
-        <v>378</v>
+        <v>367</v>
       </c>
     </row>
     <row r="247" spans="1:4">
@@ -9997,13 +9997,13 @@
         <v>249</v>
       </c>
       <c r="B250" t="s">
-        <v>259</v>
+        <v>256</v>
       </c>
       <c r="C250" t="s">
-        <v>355</v>
+        <v>358</v>
       </c>
       <c r="D250" t="s">
-        <v>390</v>
+        <v>382</v>
       </c>
     </row>
     <row r="251" spans="1:4">
@@ -10011,13 +10011,13 @@
         <v>250</v>
       </c>
       <c r="B251" t="s">
-        <v>264</v>
+        <v>259</v>
       </c>
       <c r="C251" t="s">
-        <v>354</v>
+        <v>355</v>
       </c>
       <c r="D251" t="s">
-        <v>369</v>
+        <v>390</v>
       </c>
     </row>
     <row r="252" spans="1:4">
@@ -10025,13 +10025,13 @@
         <v>251</v>
       </c>
       <c r="B252" t="s">
-        <v>245</v>
+        <v>264</v>
       </c>
       <c r="C252" t="s">
         <v>354</v>
       </c>
       <c r="D252" t="s">
-        <v>376</v>
+        <v>369</v>
       </c>
     </row>
     <row r="253" spans="1:4">
@@ -10039,13 +10039,13 @@
         <v>252</v>
       </c>
       <c r="B253" t="s">
-        <v>256</v>
+        <v>260</v>
       </c>
       <c r="C253" t="s">
-        <v>358</v>
+        <v>359</v>
       </c>
       <c r="D253" t="s">
-        <v>382</v>
+        <v>364</v>
       </c>
     </row>
     <row r="254" spans="1:4">
@@ -10053,13 +10053,13 @@
         <v>253</v>
       </c>
       <c r="B254" t="s">
-        <v>260</v>
+        <v>245</v>
       </c>
       <c r="C254" t="s">
-        <v>359</v>
+        <v>354</v>
       </c>
       <c r="D254" t="s">
-        <v>364</v>
+        <v>376</v>
       </c>
     </row>
     <row r="255" spans="1:4">
@@ -10123,13 +10123,13 @@
         <v>258</v>
       </c>
       <c r="B259" t="s">
-        <v>251</v>
+        <v>263</v>
       </c>
       <c r="C259" t="s">
         <v>354</v>
       </c>
       <c r="D259" t="s">
-        <v>374</v>
+        <v>389</v>
       </c>
     </row>
     <row r="260" spans="1:4">
@@ -10137,13 +10137,13 @@
         <v>259</v>
       </c>
       <c r="B260" t="s">
-        <v>263</v>
+        <v>251</v>
       </c>
       <c r="C260" t="s">
         <v>354</v>
       </c>
       <c r="D260" t="s">
-        <v>389</v>
+        <v>374</v>
       </c>
     </row>
     <row r="261" spans="1:4">
@@ -10179,13 +10179,13 @@
         <v>262</v>
       </c>
       <c r="B263" t="s">
-        <v>262</v>
+        <v>272</v>
       </c>
       <c r="C263" t="s">
-        <v>354</v>
+        <v>358</v>
       </c>
       <c r="D263" t="s">
-        <v>371</v>
+        <v>361</v>
       </c>
     </row>
     <row r="264" spans="1:4">
@@ -10193,13 +10193,13 @@
         <v>263</v>
       </c>
       <c r="B264" t="s">
-        <v>267</v>
+        <v>262</v>
       </c>
       <c r="C264" t="s">
-        <v>355</v>
+        <v>354</v>
       </c>
       <c r="D264" t="s">
-        <v>392</v>
+        <v>371</v>
       </c>
     </row>
     <row r="265" spans="1:4">
@@ -10207,13 +10207,13 @@
         <v>264</v>
       </c>
       <c r="B265" t="s">
-        <v>270</v>
+        <v>267</v>
       </c>
       <c r="C265" t="s">
         <v>355</v>
       </c>
       <c r="D265" t="s">
-        <v>378</v>
+        <v>392</v>
       </c>
     </row>
     <row r="266" spans="1:4">
@@ -10221,13 +10221,13 @@
         <v>265</v>
       </c>
       <c r="B266" t="s">
-        <v>272</v>
+        <v>270</v>
       </c>
       <c r="C266" t="s">
-        <v>358</v>
+        <v>355</v>
       </c>
       <c r="D266" t="s">
-        <v>361</v>
+        <v>378</v>
       </c>
     </row>
     <row r="267" spans="1:4">
@@ -10277,13 +10277,13 @@
         <v>269</v>
       </c>
       <c r="B270" t="s">
-        <v>269</v>
+        <v>275</v>
       </c>
       <c r="C270" t="s">
-        <v>355</v>
+        <v>358</v>
       </c>
       <c r="D270" t="s">
-        <v>384</v>
+        <v>363</v>
       </c>
     </row>
     <row r="271" spans="1:4">
@@ -10291,13 +10291,13 @@
         <v>270</v>
       </c>
       <c r="B271" t="s">
-        <v>265</v>
+        <v>269</v>
       </c>
       <c r="C271" t="s">
-        <v>354</v>
+        <v>355</v>
       </c>
       <c r="D271" t="s">
-        <v>381</v>
+        <v>384</v>
       </c>
     </row>
     <row r="272" spans="1:4">
@@ -10305,13 +10305,13 @@
         <v>271</v>
       </c>
       <c r="B272" t="s">
-        <v>275</v>
+        <v>277</v>
       </c>
       <c r="C272" t="s">
-        <v>358</v>
+        <v>359</v>
       </c>
       <c r="D272" t="s">
-        <v>363</v>
+        <v>373</v>
       </c>
     </row>
     <row r="273" spans="1:4">
@@ -10319,13 +10319,13 @@
         <v>272</v>
       </c>
       <c r="B273" t="s">
-        <v>277</v>
+        <v>265</v>
       </c>
       <c r="C273" t="s">
-        <v>359</v>
+        <v>354</v>
       </c>
       <c r="D273" t="s">
-        <v>373</v>
+        <v>381</v>
       </c>
     </row>
     <row r="274" spans="1:4">
@@ -10403,13 +10403,13 @@
         <v>278</v>
       </c>
       <c r="B279" t="s">
-        <v>280</v>
+        <v>286</v>
       </c>
       <c r="C279" t="s">
-        <v>355</v>
+        <v>358</v>
       </c>
       <c r="D279" t="s">
-        <v>378</v>
+        <v>387</v>
       </c>
     </row>
     <row r="280" spans="1:4">
@@ -10417,13 +10417,13 @@
         <v>279</v>
       </c>
       <c r="B280" t="s">
-        <v>286</v>
+        <v>280</v>
       </c>
       <c r="C280" t="s">
-        <v>358</v>
+        <v>355</v>
       </c>
       <c r="D280" t="s">
-        <v>387</v>
+        <v>378</v>
       </c>
     </row>
     <row r="281" spans="1:4">
@@ -10459,13 +10459,13 @@
         <v>282</v>
       </c>
       <c r="B283" t="s">
-        <v>281</v>
+        <v>293</v>
       </c>
       <c r="C283" t="s">
-        <v>354</v>
+        <v>359</v>
       </c>
       <c r="D283" t="s">
-        <v>382</v>
+        <v>372</v>
       </c>
     </row>
     <row r="284" spans="1:4">
@@ -10473,13 +10473,13 @@
         <v>283</v>
       </c>
       <c r="B284" t="s">
-        <v>293</v>
+        <v>281</v>
       </c>
       <c r="C284" t="s">
-        <v>359</v>
+        <v>354</v>
       </c>
       <c r="D284" t="s">
-        <v>372</v>
+        <v>382</v>
       </c>
     </row>
     <row r="285" spans="1:4">
@@ -10515,13 +10515,13 @@
         <v>286</v>
       </c>
       <c r="B287" t="s">
-        <v>291</v>
+        <v>295</v>
       </c>
       <c r="C287" t="s">
-        <v>355</v>
+        <v>359</v>
       </c>
       <c r="D287" t="s">
-        <v>391</v>
+        <v>363</v>
       </c>
     </row>
     <row r="288" spans="1:4">
@@ -10529,13 +10529,13 @@
         <v>287</v>
       </c>
       <c r="B288" t="s">
-        <v>295</v>
+        <v>294</v>
       </c>
       <c r="C288" t="s">
         <v>359</v>
       </c>
       <c r="D288" t="s">
-        <v>363</v>
+        <v>388</v>
       </c>
     </row>
     <row r="289" spans="1:4">
@@ -10543,13 +10543,13 @@
         <v>288</v>
       </c>
       <c r="B289" t="s">
-        <v>294</v>
+        <v>291</v>
       </c>
       <c r="C289" t="s">
-        <v>359</v>
+        <v>355</v>
       </c>
       <c r="D289" t="s">
-        <v>388</v>
+        <v>391</v>
       </c>
     </row>
     <row r="290" spans="1:4">
@@ -10557,13 +10557,13 @@
         <v>289</v>
       </c>
       <c r="B290" t="s">
-        <v>287</v>
+        <v>292</v>
       </c>
       <c r="C290" t="s">
-        <v>354</v>
+        <v>356</v>
       </c>
       <c r="D290" t="s">
-        <v>360</v>
+        <v>382</v>
       </c>
     </row>
     <row r="291" spans="1:4">
@@ -10571,13 +10571,13 @@
         <v>290</v>
       </c>
       <c r="B291" t="s">
-        <v>288</v>
+        <v>287</v>
       </c>
       <c r="C291" t="s">
         <v>354</v>
       </c>
       <c r="D291" t="s">
-        <v>380</v>
+        <v>360</v>
       </c>
     </row>
     <row r="292" spans="1:4">
@@ -10585,13 +10585,13 @@
         <v>291</v>
       </c>
       <c r="B292" t="s">
-        <v>292</v>
+        <v>288</v>
       </c>
       <c r="C292" t="s">
-        <v>356</v>
+        <v>354</v>
       </c>
       <c r="D292" t="s">
-        <v>382</v>
+        <v>380</v>
       </c>
     </row>
     <row r="293" spans="1:4">
@@ -10627,13 +10627,13 @@
         <v>294</v>
       </c>
       <c r="B295" t="s">
-        <v>302</v>
+        <v>297</v>
       </c>
       <c r="C295" t="s">
-        <v>355</v>
+        <v>359</v>
       </c>
       <c r="D295" t="s">
-        <v>373</v>
+        <v>362</v>
       </c>
     </row>
     <row r="296" spans="1:4">
@@ -10641,13 +10641,13 @@
         <v>295</v>
       </c>
       <c r="B296" t="s">
-        <v>297</v>
+        <v>302</v>
       </c>
       <c r="C296" t="s">
-        <v>359</v>
+        <v>355</v>
       </c>
       <c r="D296" t="s">
-        <v>362</v>
+        <v>373</v>
       </c>
     </row>
     <row r="297" spans="1:4">
@@ -10725,13 +10725,13 @@
         <v>301</v>
       </c>
       <c r="B302" t="s">
-        <v>311</v>
+        <v>306</v>
       </c>
       <c r="C302" t="s">
-        <v>354</v>
+        <v>357</v>
       </c>
       <c r="D302" t="s">
-        <v>365</v>
+        <v>388</v>
       </c>
     </row>
     <row r="303" spans="1:4">
@@ -10739,13 +10739,13 @@
         <v>302</v>
       </c>
       <c r="B303" t="s">
-        <v>306</v>
+        <v>311</v>
       </c>
       <c r="C303" t="s">
-        <v>357</v>
+        <v>354</v>
       </c>
       <c r="D303" t="s">
-        <v>388</v>
+        <v>365</v>
       </c>
     </row>
     <row r="304" spans="1:4">
@@ -10781,13 +10781,13 @@
         <v>305</v>
       </c>
       <c r="B306" t="s">
-        <v>310</v>
+        <v>300</v>
       </c>
       <c r="C306" t="s">
-        <v>355</v>
+        <v>356</v>
       </c>
       <c r="D306" t="s">
-        <v>372</v>
+        <v>380</v>
       </c>
     </row>
     <row r="307" spans="1:4">
@@ -10795,13 +10795,13 @@
         <v>306</v>
       </c>
       <c r="B307" t="s">
-        <v>300</v>
+        <v>308</v>
       </c>
       <c r="C307" t="s">
-        <v>356</v>
+        <v>357</v>
       </c>
       <c r="D307" t="s">
-        <v>380</v>
+        <v>366</v>
       </c>
     </row>
     <row r="308" spans="1:4">
@@ -10809,13 +10809,13 @@
         <v>307</v>
       </c>
       <c r="B308" t="s">
-        <v>308</v>
+        <v>310</v>
       </c>
       <c r="C308" t="s">
-        <v>357</v>
+        <v>355</v>
       </c>
       <c r="D308" t="s">
-        <v>366</v>
+        <v>372</v>
       </c>
     </row>
     <row r="309" spans="1:4">
@@ -11117,13 +11117,13 @@
         <v>329</v>
       </c>
       <c r="B330" t="s">
-        <v>328</v>
+        <v>329</v>
       </c>
       <c r="C330" t="s">
-        <v>356</v>
+        <v>357</v>
       </c>
       <c r="D330" t="s">
-        <v>385</v>
+        <v>388</v>
       </c>
     </row>
     <row r="331" spans="1:4">
@@ -11131,13 +11131,13 @@
         <v>330</v>
       </c>
       <c r="B331" t="s">
-        <v>329</v>
+        <v>328</v>
       </c>
       <c r="C331" t="s">
-        <v>357</v>
+        <v>356</v>
       </c>
       <c r="D331" t="s">
-        <v>388</v>
+        <v>385</v>
       </c>
     </row>
     <row r="332" spans="1:4">
@@ -11285,13 +11285,13 @@
         <v>341</v>
       </c>
       <c r="B342" t="s">
-        <v>351</v>
+        <v>339</v>
       </c>
       <c r="C342" t="s">
-        <v>354</v>
+        <v>357</v>
       </c>
       <c r="D342" t="s">
-        <v>362</v>
+        <v>361</v>
       </c>
     </row>
     <row r="343" spans="1:4">
@@ -11299,13 +11299,13 @@
         <v>342</v>
       </c>
       <c r="B343" t="s">
-        <v>339</v>
+        <v>351</v>
       </c>
       <c r="C343" t="s">
-        <v>357</v>
+        <v>354</v>
       </c>
       <c r="D343" t="s">
-        <v>361</v>
+        <v>362</v>
       </c>
     </row>
     <row r="344" spans="1:4">
@@ -11750,13 +11750,13 @@
         <v>22</v>
       </c>
       <c r="B23" t="s">
-        <v>25</v>
+        <v>36</v>
       </c>
       <c r="C23" t="s">
-        <v>354</v>
+        <v>355</v>
       </c>
       <c r="D23" t="s">
-        <v>379</v>
+        <v>364</v>
       </c>
     </row>
     <row r="24" spans="1:4">
@@ -11778,13 +11778,13 @@
         <v>24</v>
       </c>
       <c r="B25" t="s">
-        <v>36</v>
+        <v>25</v>
       </c>
       <c r="C25" t="s">
-        <v>355</v>
+        <v>354</v>
       </c>
       <c r="D25" t="s">
-        <v>364</v>
+        <v>379</v>
       </c>
     </row>
     <row r="26" spans="1:4">
@@ -11890,13 +11890,13 @@
         <v>32</v>
       </c>
       <c r="B33" t="s">
-        <v>32</v>
+        <v>31</v>
       </c>
       <c r="C33" t="s">
-        <v>354</v>
+        <v>356</v>
       </c>
       <c r="D33" t="s">
-        <v>377</v>
+        <v>384</v>
       </c>
     </row>
     <row r="34" spans="1:4">
@@ -11904,13 +11904,13 @@
         <v>33</v>
       </c>
       <c r="B34" t="s">
-        <v>31</v>
+        <v>32</v>
       </c>
       <c r="C34" t="s">
-        <v>356</v>
+        <v>354</v>
       </c>
       <c r="D34" t="s">
-        <v>384</v>
+        <v>377</v>
       </c>
     </row>
     <row r="35" spans="1:4">
@@ -12310,13 +12310,13 @@
         <v>62</v>
       </c>
       <c r="B63" t="s">
-        <v>67</v>
+        <v>70</v>
       </c>
       <c r="C63" t="s">
-        <v>356</v>
+        <v>355</v>
       </c>
       <c r="D63" t="s">
-        <v>377</v>
+        <v>371</v>
       </c>
     </row>
     <row r="64" spans="1:4">
@@ -12324,13 +12324,13 @@
         <v>63</v>
       </c>
       <c r="B64" t="s">
-        <v>70</v>
+        <v>67</v>
       </c>
       <c r="C64" t="s">
-        <v>355</v>
+        <v>356</v>
       </c>
       <c r="D64" t="s">
-        <v>371</v>
+        <v>377</v>
       </c>
     </row>
     <row r="65" spans="1:4">
@@ -12338,13 +12338,13 @@
         <v>64</v>
       </c>
       <c r="B65" t="s">
-        <v>85</v>
+        <v>72</v>
       </c>
       <c r="C65" t="s">
-        <v>354</v>
+        <v>355</v>
       </c>
       <c r="D65" t="s">
-        <v>381</v>
+        <v>380</v>
       </c>
     </row>
     <row r="66" spans="1:4">
@@ -12352,13 +12352,13 @@
         <v>65</v>
       </c>
       <c r="B66" t="s">
-        <v>72</v>
+        <v>85</v>
       </c>
       <c r="C66" t="s">
-        <v>355</v>
+        <v>354</v>
       </c>
       <c r="D66" t="s">
-        <v>380</v>
+        <v>381</v>
       </c>
     </row>
     <row r="67" spans="1:4">
@@ -12366,13 +12366,13 @@
         <v>66</v>
       </c>
       <c r="B67" t="s">
-        <v>64</v>
+        <v>65</v>
       </c>
       <c r="C67" t="s">
-        <v>355</v>
+        <v>357</v>
       </c>
       <c r="D67" t="s">
-        <v>367</v>
+        <v>382</v>
       </c>
     </row>
     <row r="68" spans="1:4">
@@ -12380,13 +12380,13 @@
         <v>67</v>
       </c>
       <c r="B68" t="s">
-        <v>65</v>
+        <v>64</v>
       </c>
       <c r="C68" t="s">
-        <v>357</v>
+        <v>355</v>
       </c>
       <c r="D68" t="s">
-        <v>382</v>
+        <v>367</v>
       </c>
     </row>
     <row r="69" spans="1:4">
@@ -12394,13 +12394,13 @@
         <v>68</v>
       </c>
       <c r="B69" t="s">
-        <v>68</v>
+        <v>75</v>
       </c>
       <c r="C69" t="s">
-        <v>357</v>
+        <v>355</v>
       </c>
       <c r="D69" t="s">
-        <v>383</v>
+        <v>369</v>
       </c>
     </row>
     <row r="70" spans="1:4">
@@ -12408,13 +12408,13 @@
         <v>69</v>
       </c>
       <c r="B70" t="s">
-        <v>75</v>
+        <v>68</v>
       </c>
       <c r="C70" t="s">
-        <v>355</v>
+        <v>357</v>
       </c>
       <c r="D70" t="s">
-        <v>369</v>
+        <v>383</v>
       </c>
     </row>
     <row r="71" spans="1:4">
@@ -12590,13 +12590,13 @@
         <v>82</v>
       </c>
       <c r="B83" t="s">
-        <v>74</v>
+        <v>99</v>
       </c>
       <c r="C83" t="s">
-        <v>356</v>
+        <v>354</v>
       </c>
       <c r="D83" t="s">
-        <v>383</v>
+        <v>384</v>
       </c>
     </row>
     <row r="84" spans="1:4">
@@ -12604,13 +12604,13 @@
         <v>83</v>
       </c>
       <c r="B84" t="s">
-        <v>99</v>
+        <v>74</v>
       </c>
       <c r="C84" t="s">
-        <v>354</v>
+        <v>356</v>
       </c>
       <c r="D84" t="s">
-        <v>384</v>
+        <v>383</v>
       </c>
     </row>
     <row r="85" spans="1:4">
@@ -13108,13 +13108,13 @@
         <v>119</v>
       </c>
       <c r="B120" t="s">
-        <v>167</v>
+        <v>122</v>
       </c>
       <c r="C120" t="s">
         <v>354</v>
       </c>
       <c r="D120" t="s">
-        <v>386</v>
+        <v>390</v>
       </c>
     </row>
     <row r="121" spans="1:4">
@@ -13122,13 +13122,13 @@
         <v>120</v>
       </c>
       <c r="B121" t="s">
-        <v>122</v>
+        <v>167</v>
       </c>
       <c r="C121" t="s">
         <v>354</v>
       </c>
       <c r="D121" t="s">
-        <v>390</v>
+        <v>386</v>
       </c>
     </row>
     <row r="122" spans="1:4">
@@ -13178,13 +13178,13 @@
         <v>124</v>
       </c>
       <c r="B125" t="s">
-        <v>118</v>
+        <v>133</v>
       </c>
       <c r="C125" t="s">
-        <v>355</v>
+        <v>354</v>
       </c>
       <c r="D125" t="s">
-        <v>369</v>
+        <v>383</v>
       </c>
     </row>
     <row r="126" spans="1:4">
@@ -13192,13 +13192,13 @@
         <v>125</v>
       </c>
       <c r="B126" t="s">
-        <v>133</v>
+        <v>118</v>
       </c>
       <c r="C126" t="s">
-        <v>354</v>
+        <v>355</v>
       </c>
       <c r="D126" t="s">
-        <v>383</v>
+        <v>369</v>
       </c>
     </row>
     <row r="127" spans="1:4">
@@ -13234,13 +13234,13 @@
         <v>128</v>
       </c>
       <c r="B129" t="s">
-        <v>114</v>
+        <v>121</v>
       </c>
       <c r="C129" t="s">
-        <v>356</v>
+        <v>357</v>
       </c>
       <c r="D129" t="s">
-        <v>391</v>
+        <v>381</v>
       </c>
     </row>
     <row r="130" spans="1:4">
@@ -13248,13 +13248,13 @@
         <v>129</v>
       </c>
       <c r="B130" t="s">
-        <v>121</v>
+        <v>114</v>
       </c>
       <c r="C130" t="s">
-        <v>357</v>
+        <v>356</v>
       </c>
       <c r="D130" t="s">
-        <v>381</v>
+        <v>391</v>
       </c>
     </row>
     <row r="131" spans="1:4">
@@ -13430,13 +13430,13 @@
         <v>142</v>
       </c>
       <c r="B143" t="s">
-        <v>135</v>
+        <v>149</v>
       </c>
       <c r="C143" t="s">
         <v>354</v>
       </c>
       <c r="D143" t="s">
-        <v>381</v>
+        <v>384</v>
       </c>
     </row>
     <row r="144" spans="1:4">
@@ -13444,13 +13444,13 @@
         <v>143</v>
       </c>
       <c r="B144" t="s">
-        <v>149</v>
+        <v>135</v>
       </c>
       <c r="C144" t="s">
         <v>354</v>
       </c>
       <c r="D144" t="s">
-        <v>384</v>
+        <v>381</v>
       </c>
     </row>
     <row r="145" spans="1:4">
@@ -13486,13 +13486,13 @@
         <v>146</v>
       </c>
       <c r="B147" t="s">
-        <v>164</v>
+        <v>157</v>
       </c>
       <c r="C147" t="s">
         <v>355</v>
       </c>
       <c r="D147" t="s">
-        <v>366</v>
+        <v>380</v>
       </c>
     </row>
     <row r="148" spans="1:4">
@@ -13500,13 +13500,13 @@
         <v>147</v>
       </c>
       <c r="B148" t="s">
-        <v>157</v>
+        <v>164</v>
       </c>
       <c r="C148" t="s">
         <v>355</v>
       </c>
       <c r="D148" t="s">
-        <v>380</v>
+        <v>366</v>
       </c>
     </row>
     <row r="149" spans="1:4">
@@ -13514,13 +13514,13 @@
         <v>148</v>
       </c>
       <c r="B149" t="s">
-        <v>162</v>
+        <v>168</v>
       </c>
       <c r="C149" t="s">
-        <v>354</v>
+        <v>355</v>
       </c>
       <c r="D149" t="s">
-        <v>380</v>
+        <v>386</v>
       </c>
     </row>
     <row r="150" spans="1:4">
@@ -13528,13 +13528,13 @@
         <v>149</v>
       </c>
       <c r="B150" t="s">
-        <v>168</v>
+        <v>162</v>
       </c>
       <c r="C150" t="s">
-        <v>355</v>
+        <v>354</v>
       </c>
       <c r="D150" t="s">
-        <v>386</v>
+        <v>380</v>
       </c>
     </row>
     <row r="151" spans="1:4">
@@ -13640,13 +13640,13 @@
         <v>157</v>
       </c>
       <c r="B158" t="s">
-        <v>165</v>
+        <v>156</v>
       </c>
       <c r="C158" t="s">
-        <v>354</v>
+        <v>358</v>
       </c>
       <c r="D158" t="s">
-        <v>369</v>
+        <v>374</v>
       </c>
     </row>
     <row r="159" spans="1:4">
@@ -13654,13 +13654,13 @@
         <v>158</v>
       </c>
       <c r="B159" t="s">
-        <v>156</v>
+        <v>179</v>
       </c>
       <c r="C159" t="s">
-        <v>358</v>
+        <v>354</v>
       </c>
       <c r="D159" t="s">
-        <v>374</v>
+        <v>382</v>
       </c>
     </row>
     <row r="160" spans="1:4">
@@ -13668,13 +13668,13 @@
         <v>159</v>
       </c>
       <c r="B160" t="s">
-        <v>179</v>
+        <v>143</v>
       </c>
       <c r="C160" t="s">
-        <v>354</v>
+        <v>357</v>
       </c>
       <c r="D160" t="s">
-        <v>382</v>
+        <v>360</v>
       </c>
     </row>
     <row r="161" spans="1:4">
@@ -13682,13 +13682,13 @@
         <v>160</v>
       </c>
       <c r="B161" t="s">
-        <v>143</v>
+        <v>165</v>
       </c>
       <c r="C161" t="s">
-        <v>357</v>
+        <v>354</v>
       </c>
       <c r="D161" t="s">
-        <v>360</v>
+        <v>369</v>
       </c>
     </row>
     <row r="162" spans="1:4">
@@ -13808,13 +13808,13 @@
         <v>169</v>
       </c>
       <c r="B170" t="s">
-        <v>171</v>
+        <v>174</v>
       </c>
       <c r="C170" t="s">
-        <v>354</v>
+        <v>356</v>
       </c>
       <c r="D170" t="s">
-        <v>381</v>
+        <v>362</v>
       </c>
     </row>
     <row r="171" spans="1:4">
@@ -13822,13 +13822,13 @@
         <v>170</v>
       </c>
       <c r="B171" t="s">
-        <v>174</v>
+        <v>176</v>
       </c>
       <c r="C171" t="s">
-        <v>356</v>
+        <v>354</v>
       </c>
       <c r="D171" t="s">
-        <v>362</v>
+        <v>373</v>
       </c>
     </row>
     <row r="172" spans="1:4">
@@ -13836,13 +13836,13 @@
         <v>171</v>
       </c>
       <c r="B172" t="s">
-        <v>176</v>
+        <v>171</v>
       </c>
       <c r="C172" t="s">
         <v>354</v>
       </c>
       <c r="D172" t="s">
-        <v>373</v>
+        <v>381</v>
       </c>
     </row>
     <row r="173" spans="1:4">
@@ -13850,13 +13850,13 @@
         <v>172</v>
       </c>
       <c r="B173" t="s">
-        <v>173</v>
+        <v>177</v>
       </c>
       <c r="C173" t="s">
-        <v>354</v>
+        <v>358</v>
       </c>
       <c r="D173" t="s">
-        <v>361</v>
+        <v>360</v>
       </c>
     </row>
     <row r="174" spans="1:4">
@@ -13892,13 +13892,13 @@
         <v>175</v>
       </c>
       <c r="B176" t="s">
-        <v>177</v>
+        <v>173</v>
       </c>
       <c r="C176" t="s">
-        <v>358</v>
+        <v>354</v>
       </c>
       <c r="D176" t="s">
-        <v>360</v>
+        <v>361</v>
       </c>
     </row>
     <row r="177" spans="1:4">
@@ -13906,13 +13906,13 @@
         <v>176</v>
       </c>
       <c r="B177" t="s">
-        <v>152</v>
+        <v>172</v>
       </c>
       <c r="C177" t="s">
-        <v>357</v>
+        <v>356</v>
       </c>
       <c r="D177" t="s">
-        <v>362</v>
+        <v>386</v>
       </c>
     </row>
     <row r="178" spans="1:4">
@@ -13920,13 +13920,13 @@
         <v>177</v>
       </c>
       <c r="B178" t="s">
-        <v>172</v>
+        <v>152</v>
       </c>
       <c r="C178" t="s">
-        <v>356</v>
+        <v>357</v>
       </c>
       <c r="D178" t="s">
-        <v>386</v>
+        <v>362</v>
       </c>
     </row>
     <row r="179" spans="1:4">
@@ -14172,13 +14172,13 @@
         <v>195</v>
       </c>
       <c r="B196" t="s">
-        <v>214</v>
+        <v>205</v>
       </c>
       <c r="C196" t="s">
-        <v>354</v>
+        <v>355</v>
       </c>
       <c r="D196" t="s">
-        <v>375</v>
+        <v>377</v>
       </c>
     </row>
     <row r="197" spans="1:4">
@@ -14200,13 +14200,13 @@
         <v>197</v>
       </c>
       <c r="B198" t="s">
-        <v>205</v>
+        <v>198</v>
       </c>
       <c r="C198" t="s">
-        <v>355</v>
+        <v>354</v>
       </c>
       <c r="D198" t="s">
-        <v>377</v>
+        <v>375</v>
       </c>
     </row>
     <row r="199" spans="1:4">
@@ -14214,7 +14214,7 @@
         <v>198</v>
       </c>
       <c r="B199" t="s">
-        <v>198</v>
+        <v>214</v>
       </c>
       <c r="C199" t="s">
         <v>354</v>
@@ -14340,13 +14340,13 @@
         <v>207</v>
       </c>
       <c r="B208" t="s">
-        <v>213</v>
+        <v>217</v>
       </c>
       <c r="C208" t="s">
-        <v>358</v>
+        <v>354</v>
       </c>
       <c r="D208" t="s">
-        <v>381</v>
+        <v>361</v>
       </c>
     </row>
     <row r="209" spans="1:4">
@@ -14354,13 +14354,13 @@
         <v>208</v>
       </c>
       <c r="B209" t="s">
-        <v>217</v>
+        <v>213</v>
       </c>
       <c r="C209" t="s">
-        <v>354</v>
+        <v>358</v>
       </c>
       <c r="D209" t="s">
-        <v>361</v>
+        <v>381</v>
       </c>
     </row>
     <row r="210" spans="1:4">
@@ -14452,13 +14452,13 @@
         <v>215</v>
       </c>
       <c r="B216" t="s">
-        <v>204</v>
+        <v>180</v>
       </c>
       <c r="C216" t="s">
-        <v>354</v>
+        <v>357</v>
       </c>
       <c r="D216" t="s">
-        <v>383</v>
+        <v>370</v>
       </c>
     </row>
     <row r="217" spans="1:4">
@@ -14466,13 +14466,13 @@
         <v>216</v>
       </c>
       <c r="B217" t="s">
-        <v>180</v>
+        <v>204</v>
       </c>
       <c r="C217" t="s">
-        <v>357</v>
+        <v>354</v>
       </c>
       <c r="D217" t="s">
-        <v>370</v>
+        <v>383</v>
       </c>
     </row>
     <row r="218" spans="1:4">
@@ -14508,13 +14508,13 @@
         <v>219</v>
       </c>
       <c r="B220" t="s">
-        <v>225</v>
+        <v>224</v>
       </c>
       <c r="C220" t="s">
-        <v>355</v>
+        <v>356</v>
       </c>
       <c r="D220" t="s">
-        <v>382</v>
+        <v>389</v>
       </c>
     </row>
     <row r="221" spans="1:4">
@@ -14522,13 +14522,13 @@
         <v>220</v>
       </c>
       <c r="B221" t="s">
-        <v>224</v>
+        <v>241</v>
       </c>
       <c r="C221" t="s">
-        <v>356</v>
+        <v>355</v>
       </c>
       <c r="D221" t="s">
-        <v>389</v>
+        <v>390</v>
       </c>
     </row>
     <row r="222" spans="1:4">
@@ -14536,13 +14536,13 @@
         <v>221</v>
       </c>
       <c r="B222" t="s">
-        <v>241</v>
+        <v>225</v>
       </c>
       <c r="C222" t="s">
         <v>355</v>
       </c>
       <c r="D222" t="s">
-        <v>390</v>
+        <v>382</v>
       </c>
     </row>
     <row r="223" spans="1:4">
@@ -14606,13 +14606,13 @@
         <v>226</v>
       </c>
       <c r="B227" t="s">
-        <v>220</v>
+        <v>229</v>
       </c>
       <c r="C227" t="s">
-        <v>354</v>
+        <v>355</v>
       </c>
       <c r="D227" t="s">
-        <v>376</v>
+        <v>360</v>
       </c>
     </row>
     <row r="228" spans="1:4">
@@ -14620,13 +14620,13 @@
         <v>227</v>
       </c>
       <c r="B228" t="s">
-        <v>229</v>
+        <v>220</v>
       </c>
       <c r="C228" t="s">
-        <v>355</v>
+        <v>354</v>
       </c>
       <c r="D228" t="s">
-        <v>360</v>
+        <v>376</v>
       </c>
     </row>
     <row r="229" spans="1:4">
@@ -14634,13 +14634,13 @@
         <v>228</v>
       </c>
       <c r="B229" t="s">
-        <v>228</v>
+        <v>233</v>
       </c>
       <c r="C229" t="s">
-        <v>354</v>
+        <v>358</v>
       </c>
       <c r="D229" t="s">
-        <v>376</v>
+        <v>383</v>
       </c>
     </row>
     <row r="230" spans="1:4">
@@ -14648,13 +14648,13 @@
         <v>229</v>
       </c>
       <c r="B230" t="s">
-        <v>233</v>
+        <v>228</v>
       </c>
       <c r="C230" t="s">
-        <v>358</v>
+        <v>354</v>
       </c>
       <c r="D230" t="s">
-        <v>383</v>
+        <v>376</v>
       </c>
     </row>
     <row r="231" spans="1:4">
@@ -14662,13 +14662,13 @@
         <v>230</v>
       </c>
       <c r="B231" t="s">
-        <v>240</v>
+        <v>231</v>
       </c>
       <c r="C231" t="s">
-        <v>354</v>
+        <v>358</v>
       </c>
       <c r="D231" t="s">
-        <v>384</v>
+        <v>366</v>
       </c>
     </row>
     <row r="232" spans="1:4">
@@ -14676,13 +14676,13 @@
         <v>231</v>
       </c>
       <c r="B232" t="s">
-        <v>231</v>
+        <v>240</v>
       </c>
       <c r="C232" t="s">
-        <v>358</v>
+        <v>354</v>
       </c>
       <c r="D232" t="s">
-        <v>366</v>
+        <v>384</v>
       </c>
     </row>
     <row r="233" spans="1:4">
@@ -14690,13 +14690,13 @@
         <v>232</v>
       </c>
       <c r="B233" t="s">
-        <v>264</v>
+        <v>234</v>
       </c>
       <c r="C233" t="s">
-        <v>354</v>
+        <v>356</v>
       </c>
       <c r="D233" t="s">
-        <v>369</v>
+        <v>391</v>
       </c>
     </row>
     <row r="234" spans="1:4">
@@ -14704,13 +14704,13 @@
         <v>233</v>
       </c>
       <c r="B234" t="s">
-        <v>234</v>
+        <v>238</v>
       </c>
       <c r="C234" t="s">
-        <v>356</v>
+        <v>359</v>
       </c>
       <c r="D234" t="s">
-        <v>391</v>
+        <v>360</v>
       </c>
     </row>
     <row r="235" spans="1:4">
@@ -14718,13 +14718,13 @@
         <v>234</v>
       </c>
       <c r="B235" t="s">
-        <v>238</v>
+        <v>239</v>
       </c>
       <c r="C235" t="s">
         <v>359</v>
       </c>
       <c r="D235" t="s">
-        <v>360</v>
+        <v>384</v>
       </c>
     </row>
     <row r="236" spans="1:4">
@@ -14732,13 +14732,13 @@
         <v>235</v>
       </c>
       <c r="B236" t="s">
-        <v>239</v>
+        <v>264</v>
       </c>
       <c r="C236" t="s">
-        <v>359</v>
+        <v>354</v>
       </c>
       <c r="D236" t="s">
-        <v>384</v>
+        <v>369</v>
       </c>
     </row>
     <row r="237" spans="1:4">
@@ -14746,13 +14746,13 @@
         <v>236</v>
       </c>
       <c r="B237" t="s">
-        <v>255</v>
+        <v>242</v>
       </c>
       <c r="C237" t="s">
-        <v>355</v>
+        <v>359</v>
       </c>
       <c r="D237" t="s">
-        <v>361</v>
+        <v>381</v>
       </c>
     </row>
     <row r="238" spans="1:4">
@@ -14760,13 +14760,13 @@
         <v>237</v>
       </c>
       <c r="B238" t="s">
-        <v>237</v>
+        <v>255</v>
       </c>
       <c r="C238" t="s">
-        <v>354</v>
+        <v>355</v>
       </c>
       <c r="D238" t="s">
-        <v>367</v>
+        <v>361</v>
       </c>
     </row>
     <row r="239" spans="1:4">
@@ -14774,13 +14774,13 @@
         <v>238</v>
       </c>
       <c r="B239" t="s">
-        <v>242</v>
+        <v>237</v>
       </c>
       <c r="C239" t="s">
-        <v>359</v>
+        <v>354</v>
       </c>
       <c r="D239" t="s">
-        <v>381</v>
+        <v>367</v>
       </c>
     </row>
     <row r="240" spans="1:4">
@@ -14816,13 +14816,13 @@
         <v>241</v>
       </c>
       <c r="B242" t="s">
-        <v>249</v>
+        <v>250</v>
       </c>
       <c r="C242" t="s">
-        <v>355</v>
+        <v>354</v>
       </c>
       <c r="D242" t="s">
-        <v>378</v>
+        <v>369</v>
       </c>
     </row>
     <row r="243" spans="1:4">
@@ -14830,13 +14830,13 @@
         <v>242</v>
       </c>
       <c r="B243" t="s">
-        <v>250</v>
+        <v>249</v>
       </c>
       <c r="C243" t="s">
-        <v>354</v>
+        <v>355</v>
       </c>
       <c r="D243" t="s">
-        <v>369</v>
+        <v>378</v>
       </c>
     </row>
     <row r="244" spans="1:4">
@@ -14844,13 +14844,13 @@
         <v>243</v>
       </c>
       <c r="B244" t="s">
-        <v>245</v>
+        <v>244</v>
       </c>
       <c r="C244" t="s">
-        <v>354</v>
+        <v>359</v>
       </c>
       <c r="D244" t="s">
-        <v>376</v>
+        <v>391</v>
       </c>
     </row>
     <row r="245" spans="1:4">
@@ -14858,13 +14858,13 @@
         <v>244</v>
       </c>
       <c r="B245" t="s">
-        <v>268</v>
+        <v>245</v>
       </c>
       <c r="C245" t="s">
-        <v>355</v>
+        <v>354</v>
       </c>
       <c r="D245" t="s">
-        <v>385</v>
+        <v>376</v>
       </c>
     </row>
     <row r="246" spans="1:4">
@@ -14872,13 +14872,13 @@
         <v>245</v>
       </c>
       <c r="B246" t="s">
-        <v>244</v>
+        <v>268</v>
       </c>
       <c r="C246" t="s">
-        <v>359</v>
+        <v>355</v>
       </c>
       <c r="D246" t="s">
-        <v>391</v>
+        <v>385</v>
       </c>
     </row>
     <row r="247" spans="1:4">
@@ -14886,13 +14886,13 @@
         <v>246</v>
       </c>
       <c r="B247" t="s">
-        <v>259</v>
+        <v>247</v>
       </c>
       <c r="C247" t="s">
-        <v>355</v>
+        <v>359</v>
       </c>
       <c r="D247" t="s">
-        <v>390</v>
+        <v>379</v>
       </c>
     </row>
     <row r="248" spans="1:4">
@@ -14900,13 +14900,13 @@
         <v>247</v>
       </c>
       <c r="B248" t="s">
-        <v>247</v>
+        <v>197</v>
       </c>
       <c r="C248" t="s">
-        <v>359</v>
+        <v>357</v>
       </c>
       <c r="D248" t="s">
-        <v>379</v>
+        <v>389</v>
       </c>
     </row>
     <row r="249" spans="1:4">
@@ -14914,13 +14914,13 @@
         <v>248</v>
       </c>
       <c r="B249" t="s">
-        <v>197</v>
+        <v>259</v>
       </c>
       <c r="C249" t="s">
-        <v>357</v>
+        <v>355</v>
       </c>
       <c r="D249" t="s">
-        <v>389</v>
+        <v>390</v>
       </c>
     </row>
     <row r="250" spans="1:4">
@@ -14928,13 +14928,13 @@
         <v>249</v>
       </c>
       <c r="B250" t="s">
-        <v>265</v>
+        <v>246</v>
       </c>
       <c r="C250" t="s">
-        <v>354</v>
+        <v>356</v>
       </c>
       <c r="D250" t="s">
-        <v>381</v>
+        <v>373</v>
       </c>
     </row>
     <row r="251" spans="1:4">
@@ -14942,13 +14942,13 @@
         <v>250</v>
       </c>
       <c r="B251" t="s">
-        <v>262</v>
+        <v>253</v>
       </c>
       <c r="C251" t="s">
-        <v>354</v>
+        <v>359</v>
       </c>
       <c r="D251" t="s">
-        <v>371</v>
+        <v>376</v>
       </c>
     </row>
     <row r="252" spans="1:4">
@@ -14956,13 +14956,13 @@
         <v>251</v>
       </c>
       <c r="B252" t="s">
-        <v>246</v>
+        <v>265</v>
       </c>
       <c r="C252" t="s">
-        <v>356</v>
+        <v>354</v>
       </c>
       <c r="D252" t="s">
-        <v>373</v>
+        <v>381</v>
       </c>
     </row>
     <row r="253" spans="1:4">
@@ -14970,13 +14970,13 @@
         <v>252</v>
       </c>
       <c r="B253" t="s">
-        <v>253</v>
+        <v>262</v>
       </c>
       <c r="C253" t="s">
-        <v>359</v>
+        <v>354</v>
       </c>
       <c r="D253" t="s">
-        <v>376</v>
+        <v>371</v>
       </c>
     </row>
     <row r="254" spans="1:4">
@@ -15082,13 +15082,13 @@
         <v>260</v>
       </c>
       <c r="B261" t="s">
-        <v>251</v>
+        <v>222</v>
       </c>
       <c r="C261" t="s">
-        <v>354</v>
+        <v>357</v>
       </c>
       <c r="D261" t="s">
-        <v>374</v>
+        <v>367</v>
       </c>
     </row>
     <row r="262" spans="1:4">
@@ -15096,13 +15096,13 @@
         <v>261</v>
       </c>
       <c r="B262" t="s">
-        <v>270</v>
+        <v>251</v>
       </c>
       <c r="C262" t="s">
-        <v>355</v>
+        <v>354</v>
       </c>
       <c r="D262" t="s">
-        <v>378</v>
+        <v>374</v>
       </c>
     </row>
     <row r="263" spans="1:4">
@@ -15110,13 +15110,13 @@
         <v>262</v>
       </c>
       <c r="B263" t="s">
-        <v>222</v>
+        <v>270</v>
       </c>
       <c r="C263" t="s">
-        <v>357</v>
+        <v>355</v>
       </c>
       <c r="D263" t="s">
-        <v>367</v>
+        <v>378</v>
       </c>
     </row>
     <row r="264" spans="1:4">
@@ -15222,13 +15222,13 @@
         <v>270</v>
       </c>
       <c r="B271" t="s">
-        <v>276</v>
+        <v>280</v>
       </c>
       <c r="C271" t="s">
-        <v>359</v>
+        <v>355</v>
       </c>
       <c r="D271" t="s">
-        <v>366</v>
+        <v>378</v>
       </c>
     </row>
     <row r="272" spans="1:4">
@@ -15236,13 +15236,13 @@
         <v>271</v>
       </c>
       <c r="B272" t="s">
-        <v>280</v>
+        <v>276</v>
       </c>
       <c r="C272" t="s">
-        <v>355</v>
+        <v>359</v>
       </c>
       <c r="D272" t="s">
-        <v>378</v>
+        <v>366</v>
       </c>
     </row>
     <row r="273" spans="1:4">
@@ -15278,13 +15278,13 @@
         <v>274</v>
       </c>
       <c r="B275" t="s">
-        <v>282</v>
+        <v>279</v>
       </c>
       <c r="C275" t="s">
-        <v>355</v>
+        <v>356</v>
       </c>
       <c r="D275" t="s">
-        <v>392</v>
+        <v>380</v>
       </c>
     </row>
     <row r="276" spans="1:4">
@@ -15292,13 +15292,13 @@
         <v>275</v>
       </c>
       <c r="B276" t="s">
-        <v>278</v>
+        <v>282</v>
       </c>
       <c r="C276" t="s">
         <v>355</v>
       </c>
       <c r="D276" t="s">
-        <v>373</v>
+        <v>392</v>
       </c>
     </row>
     <row r="277" spans="1:4">
@@ -15306,13 +15306,13 @@
         <v>276</v>
       </c>
       <c r="B277" t="s">
-        <v>279</v>
+        <v>278</v>
       </c>
       <c r="C277" t="s">
-        <v>356</v>
+        <v>355</v>
       </c>
       <c r="D277" t="s">
-        <v>380</v>
+        <v>373</v>
       </c>
     </row>
     <row r="278" spans="1:4">
@@ -15320,13 +15320,13 @@
         <v>277</v>
       </c>
       <c r="B278" t="s">
-        <v>281</v>
+        <v>284</v>
       </c>
       <c r="C278" t="s">
-        <v>354</v>
+        <v>359</v>
       </c>
       <c r="D278" t="s">
-        <v>382</v>
+        <v>378</v>
       </c>
     </row>
     <row r="279" spans="1:4">
@@ -15334,13 +15334,13 @@
         <v>278</v>
       </c>
       <c r="B279" t="s">
-        <v>284</v>
+        <v>281</v>
       </c>
       <c r="C279" t="s">
-        <v>359</v>
+        <v>354</v>
       </c>
       <c r="D279" t="s">
-        <v>378</v>
+        <v>382</v>
       </c>
     </row>
     <row r="280" spans="1:4">
@@ -15348,13 +15348,13 @@
         <v>279</v>
       </c>
       <c r="B280" t="s">
-        <v>286</v>
+        <v>236</v>
       </c>
       <c r="C280" t="s">
-        <v>358</v>
+        <v>357</v>
       </c>
       <c r="D280" t="s">
-        <v>387</v>
+        <v>384</v>
       </c>
     </row>
     <row r="281" spans="1:4">
@@ -15362,13 +15362,13 @@
         <v>280</v>
       </c>
       <c r="B281" t="s">
-        <v>274</v>
+        <v>286</v>
       </c>
       <c r="C281" t="s">
-        <v>354</v>
+        <v>358</v>
       </c>
       <c r="D281" t="s">
-        <v>372</v>
+        <v>387</v>
       </c>
     </row>
     <row r="282" spans="1:4">
@@ -15376,13 +15376,13 @@
         <v>281</v>
       </c>
       <c r="B282" t="s">
-        <v>236</v>
+        <v>274</v>
       </c>
       <c r="C282" t="s">
-        <v>357</v>
+        <v>354</v>
       </c>
       <c r="D282" t="s">
-        <v>384</v>
+        <v>372</v>
       </c>
     </row>
     <row r="283" spans="1:4">
@@ -15474,13 +15474,13 @@
         <v>288</v>
       </c>
       <c r="B289" t="s">
-        <v>285</v>
+        <v>292</v>
       </c>
       <c r="C289" t="s">
-        <v>354</v>
+        <v>356</v>
       </c>
       <c r="D289" t="s">
-        <v>362</v>
+        <v>382</v>
       </c>
     </row>
     <row r="290" spans="1:4">
@@ -15488,13 +15488,13 @@
         <v>289</v>
       </c>
       <c r="B290" t="s">
-        <v>302</v>
+        <v>285</v>
       </c>
       <c r="C290" t="s">
-        <v>355</v>
+        <v>354</v>
       </c>
       <c r="D290" t="s">
-        <v>373</v>
+        <v>362</v>
       </c>
     </row>
     <row r="291" spans="1:4">
@@ -15502,13 +15502,13 @@
         <v>290</v>
       </c>
       <c r="B291" t="s">
-        <v>292</v>
+        <v>302</v>
       </c>
       <c r="C291" t="s">
-        <v>356</v>
+        <v>355</v>
       </c>
       <c r="D291" t="s">
-        <v>382</v>
+        <v>373</v>
       </c>
     </row>
     <row r="292" spans="1:4">
@@ -15558,13 +15558,13 @@
         <v>294</v>
       </c>
       <c r="B295" t="s">
-        <v>311</v>
+        <v>298</v>
       </c>
       <c r="C295" t="s">
-        <v>354</v>
+        <v>359</v>
       </c>
       <c r="D295" t="s">
-        <v>365</v>
+        <v>387</v>
       </c>
     </row>
     <row r="296" spans="1:4">
@@ -15572,13 +15572,13 @@
         <v>295</v>
       </c>
       <c r="B296" t="s">
-        <v>298</v>
+        <v>300</v>
       </c>
       <c r="C296" t="s">
-        <v>359</v>
+        <v>356</v>
       </c>
       <c r="D296" t="s">
-        <v>387</v>
+        <v>380</v>
       </c>
     </row>
     <row r="297" spans="1:4">
@@ -15586,13 +15586,13 @@
         <v>296</v>
       </c>
       <c r="B297" t="s">
-        <v>300</v>
+        <v>311</v>
       </c>
       <c r="C297" t="s">
-        <v>356</v>
+        <v>354</v>
       </c>
       <c r="D297" t="s">
-        <v>380</v>
+        <v>365</v>
       </c>
     </row>
     <row r="298" spans="1:4">
@@ -15600,13 +15600,13 @@
         <v>297</v>
       </c>
       <c r="B298" t="s">
-        <v>288</v>
+        <v>299</v>
       </c>
       <c r="C298" t="s">
-        <v>354</v>
+        <v>358</v>
       </c>
       <c r="D298" t="s">
-        <v>380</v>
+        <v>388</v>
       </c>
     </row>
     <row r="299" spans="1:4">
@@ -15614,13 +15614,13 @@
         <v>298</v>
       </c>
       <c r="B299" t="s">
-        <v>299</v>
+        <v>288</v>
       </c>
       <c r="C299" t="s">
-        <v>358</v>
+        <v>354</v>
       </c>
       <c r="D299" t="s">
-        <v>388</v>
+        <v>380</v>
       </c>
     </row>
     <row r="300" spans="1:4">
@@ -15656,13 +15656,13 @@
         <v>301</v>
       </c>
       <c r="B302" t="s">
-        <v>301</v>
+        <v>303</v>
       </c>
       <c r="C302" t="s">
-        <v>355</v>
+        <v>358</v>
       </c>
       <c r="D302" t="s">
-        <v>370</v>
+        <v>385</v>
       </c>
     </row>
     <row r="303" spans="1:4">
@@ -15670,13 +15670,13 @@
         <v>302</v>
       </c>
       <c r="B303" t="s">
-        <v>287</v>
+        <v>301</v>
       </c>
       <c r="C303" t="s">
-        <v>354</v>
+        <v>355</v>
       </c>
       <c r="D303" t="s">
-        <v>360</v>
+        <v>370</v>
       </c>
     </row>
     <row r="304" spans="1:4">
@@ -15698,13 +15698,13 @@
         <v>304</v>
       </c>
       <c r="B305" t="s">
-        <v>303</v>
+        <v>287</v>
       </c>
       <c r="C305" t="s">
-        <v>358</v>
+        <v>354</v>
       </c>
       <c r="D305" t="s">
-        <v>385</v>
+        <v>360</v>
       </c>
     </row>
     <row r="306" spans="1:4">
@@ -15754,13 +15754,13 @@
         <v>308</v>
       </c>
       <c r="B309" t="s">
-        <v>307</v>
+        <v>314</v>
       </c>
       <c r="C309" t="s">
-        <v>354</v>
+        <v>358</v>
       </c>
       <c r="D309" t="s">
-        <v>364</v>
+        <v>390</v>
       </c>
     </row>
     <row r="310" spans="1:4">
@@ -15768,13 +15768,13 @@
         <v>309</v>
       </c>
       <c r="B310" t="s">
-        <v>312</v>
+        <v>307</v>
       </c>
       <c r="C310" t="s">
         <v>354</v>
       </c>
       <c r="D310" t="s">
-        <v>391</v>
+        <v>364</v>
       </c>
     </row>
     <row r="311" spans="1:4">
@@ -15782,13 +15782,13 @@
         <v>310</v>
       </c>
       <c r="B311" t="s">
-        <v>314</v>
+        <v>312</v>
       </c>
       <c r="C311" t="s">
-        <v>358</v>
+        <v>354</v>
       </c>
       <c r="D311" t="s">
-        <v>390</v>
+        <v>391</v>
       </c>
     </row>
     <row r="312" spans="1:4">
@@ -15824,13 +15824,13 @@
         <v>313</v>
       </c>
       <c r="B314" t="s">
-        <v>315</v>
+        <v>330</v>
       </c>
       <c r="C314" t="s">
-        <v>355</v>
+        <v>354</v>
       </c>
       <c r="D314" t="s">
-        <v>386</v>
+        <v>387</v>
       </c>
     </row>
     <row r="315" spans="1:4">
@@ -15838,13 +15838,13 @@
         <v>314</v>
       </c>
       <c r="B315" t="s">
-        <v>330</v>
+        <v>315</v>
       </c>
       <c r="C315" t="s">
-        <v>354</v>
+        <v>355</v>
       </c>
       <c r="D315" t="s">
-        <v>387</v>
+        <v>386</v>
       </c>
     </row>
     <row r="316" spans="1:4">
@@ -15950,13 +15950,13 @@
         <v>322</v>
       </c>
       <c r="B323" t="s">
-        <v>332</v>
+        <v>306</v>
       </c>
       <c r="C323" t="s">
-        <v>356</v>
+        <v>357</v>
       </c>
       <c r="D323" t="s">
-        <v>372</v>
+        <v>388</v>
       </c>
     </row>
     <row r="324" spans="1:4">
@@ -15964,13 +15964,13 @@
         <v>323</v>
       </c>
       <c r="B324" t="s">
-        <v>306</v>
+        <v>332</v>
       </c>
       <c r="C324" t="s">
-        <v>357</v>
+        <v>356</v>
       </c>
       <c r="D324" t="s">
-        <v>388</v>
+        <v>372</v>
       </c>
     </row>
     <row r="325" spans="1:4">
@@ -16062,13 +16062,13 @@
         <v>330</v>
       </c>
       <c r="B331" t="s">
-        <v>335</v>
+        <v>313</v>
       </c>
       <c r="C331" t="s">
-        <v>359</v>
+        <v>357</v>
       </c>
       <c r="D331" t="s">
-        <v>392</v>
+        <v>376</v>
       </c>
     </row>
     <row r="332" spans="1:4">
@@ -16076,13 +16076,13 @@
         <v>331</v>
       </c>
       <c r="B332" t="s">
-        <v>313</v>
+        <v>335</v>
       </c>
       <c r="C332" t="s">
-        <v>357</v>
+        <v>359</v>
       </c>
       <c r="D332" t="s">
-        <v>376</v>
+        <v>392</v>
       </c>
     </row>
     <row r="333" spans="1:4">
@@ -16188,13 +16188,13 @@
         <v>339</v>
       </c>
       <c r="B340" t="s">
-        <v>322</v>
+        <v>347</v>
       </c>
       <c r="C340" t="s">
-        <v>357</v>
+        <v>356</v>
       </c>
       <c r="D340" t="s">
-        <v>367</v>
+        <v>372</v>
       </c>
     </row>
     <row r="341" spans="1:4">
@@ -16202,13 +16202,13 @@
         <v>340</v>
       </c>
       <c r="B341" t="s">
-        <v>348</v>
+        <v>322</v>
       </c>
       <c r="C341" t="s">
-        <v>356</v>
+        <v>357</v>
       </c>
       <c r="D341" t="s">
-        <v>384</v>
+        <v>367</v>
       </c>
     </row>
     <row r="342" spans="1:4">
@@ -16216,13 +16216,13 @@
         <v>341</v>
       </c>
       <c r="B342" t="s">
-        <v>347</v>
+        <v>348</v>
       </c>
       <c r="C342" t="s">
         <v>356</v>
       </c>
       <c r="D342" t="s">
-        <v>372</v>
+        <v>384</v>
       </c>
     </row>
     <row r="343" spans="1:4">

--- a/docs/FantasyProsFootballDraft.xlsx
+++ b/docs/FantasyProsFootballDraft.xlsx
@@ -92,12 +92,12 @@
     <t>Aaron Jones</t>
   </si>
   <si>
+    <t>Javonte Williams</t>
+  </si>
+  <si>
     <t>Deebo Samuel</t>
   </si>
   <si>
-    <t>Javonte Williams</t>
-  </si>
-  <si>
     <t>CeeDee Lamb</t>
   </si>
   <si>
@@ -227,24 +227,24 @@
     <t>Kyler Murray</t>
   </si>
   <si>
+    <t>Dameon Pierce</t>
+  </si>
+  <si>
     <t>Antonio Gibson</t>
   </si>
   <si>
-    <t>Dameon Pierce</t>
-  </si>
-  <si>
     <t>Damien Harris</t>
   </si>
   <si>
     <t>Elijah Moore</t>
   </si>
   <si>
+    <t>Michael Thomas</t>
+  </si>
+  <si>
     <t>Amon-Ra St. Brown</t>
   </si>
   <si>
-    <t>Michael Thomas</t>
-  </si>
-  <si>
     <t>JuJu Smith-Schuster</t>
   </si>
   <si>
@@ -305,12 +305,12 @@
     <t>Dawson Knox</t>
   </si>
   <si>
+    <t>Dak Prescott</t>
+  </si>
+  <si>
     <t>Tony Pollard</t>
   </si>
   <si>
-    <t>Dak Prescott</t>
-  </si>
-  <si>
     <t>Devin Singletary</t>
   </si>
   <si>
@@ -437,12 +437,12 @@
     <t>Jameis Winston</t>
   </si>
   <si>
+    <t>Russell Gage</t>
+  </si>
+  <si>
     <t>Khalil Herbert</t>
   </si>
   <si>
-    <t>Russell Gage</t>
-  </si>
-  <si>
     <t>Jamaal Williams</t>
   </si>
   <si>
@@ -476,21 +476,21 @@
     <t>Jahan Dotson</t>
   </si>
   <si>
+    <t>Robert Tonyan</t>
+  </si>
+  <si>
     <t>Buffalo Bills</t>
   </si>
   <si>
-    <t>Robert Tonyan</t>
+    <t>J.D. McKissic</t>
+  </si>
+  <si>
+    <t>Ryan Tannehill</t>
   </si>
   <si>
     <t>Tyler Higbee</t>
   </si>
   <si>
-    <t>Ryan Tannehill</t>
-  </si>
-  <si>
-    <t>J.D. McKissic</t>
-  </si>
-  <si>
     <t>Jarvis Landry</t>
   </si>
   <si>
@@ -716,12 +716,12 @@
     <t>Pittsburgh Steelers</t>
   </si>
   <si>
+    <t>Mike Davis</t>
+  </si>
+  <si>
     <t>Damien Williams</t>
   </si>
   <si>
-    <t>Mike Davis</t>
-  </si>
-  <si>
     <t>Jerick McKinnon</t>
   </si>
   <si>
@@ -740,12 +740,12 @@
     <t>Brandon McManus</t>
   </si>
   <si>
+    <t>Kendrick Bourne</t>
+  </si>
+  <si>
     <t>David Bell</t>
   </si>
   <si>
-    <t>Kendrick Bourne</t>
-  </si>
-  <si>
     <t>Jamison Crowder</t>
   </si>
   <si>
@@ -785,12 +785,12 @@
     <t>Mitch Trubisky</t>
   </si>
   <si>
+    <t>Robbie Gould</t>
+  </si>
+  <si>
     <t>Arizona Cardinals</t>
   </si>
   <si>
-    <t>Robbie Gould</t>
-  </si>
-  <si>
     <t>Tennessee Titans</t>
   </si>
   <si>
@@ -860,24 +860,24 @@
     <t>Greg Zuerlein</t>
   </si>
   <si>
+    <t>Washington Commanders</t>
+  </si>
+  <si>
     <t>C.J. Uzomah</t>
   </si>
   <si>
-    <t>Washington Commanders</t>
-  </si>
-  <si>
     <t>Dan Arnold</t>
   </si>
   <si>
     <t>Isaiah Likely</t>
   </si>
   <si>
+    <t>Trey Sermon</t>
+  </si>
+  <si>
     <t>Myles Gaskin</t>
   </si>
   <si>
-    <t>Trey Sermon</t>
-  </si>
-  <si>
     <t>Chicago Bears</t>
   </si>
   <si>
@@ -896,15 +896,15 @@
     <t>Geno Smith</t>
   </si>
   <si>
+    <t>Joshua Kelley</t>
+  </si>
+  <si>
     <t>Ameer Abdullah</t>
   </si>
   <si>
     <t>Trey McBride</t>
   </si>
   <si>
-    <t>Joshua Kelley</t>
-  </si>
-  <si>
     <t>Jacoby Brissett</t>
   </si>
   <si>
@@ -917,12 +917,12 @@
     <t>Randy Bullock</t>
   </si>
   <si>
+    <t>Kyle Rudolph</t>
+  </si>
+  <si>
     <t>Jason Myers</t>
   </si>
   <si>
-    <t>Kyle Rudolph</t>
-  </si>
-  <si>
     <t>Ke'Shawn Vaughn</t>
   </si>
   <si>
@@ -947,12 +947,12 @@
     <t>Jaylen Warren</t>
   </si>
   <si>
+    <t>Devin Duvernay</t>
+  </si>
+  <si>
     <t>Seattle Seahawks</t>
   </si>
   <si>
-    <t>Devin Duvernay</t>
-  </si>
-  <si>
     <t>Daniel Bellinger</t>
   </si>
   <si>
@@ -962,18 +962,18 @@
     <t>Ka'imi Fairbairn</t>
   </si>
   <si>
+    <t>Josh Reynolds</t>
+  </si>
+  <si>
     <t>Dontrell Hilliard</t>
   </si>
   <si>
-    <t>Josh Reynolds</t>
+    <t>Marlon Mack</t>
   </si>
   <si>
     <t>Odell Beckham Jr.</t>
   </si>
   <si>
-    <t>Marlon Mack</t>
-  </si>
-  <si>
     <t>Kyle Philips</t>
   </si>
   <si>
@@ -983,12 +983,12 @@
     <t>Jacksonville Jaguars</t>
   </si>
   <si>
+    <t>Pierre Strong Jr.</t>
+  </si>
+  <si>
     <t>Tre'Quan Smith</t>
   </si>
   <si>
-    <t>Pierre Strong Jr.</t>
-  </si>
-  <si>
     <t>Darius Slayton</t>
   </si>
   <si>
@@ -1022,12 +1022,12 @@
     <t>Brett Maher</t>
   </si>
   <si>
+    <t>Phillip Lindsay</t>
+  </si>
+  <si>
     <t>Quintez Cephus</t>
   </si>
   <si>
-    <t>Phillip Lindsay</t>
-  </si>
-  <si>
     <t>Harrison Bryant</t>
   </si>
   <si>
@@ -1043,12 +1043,12 @@
     <t>Cade York</t>
   </si>
   <si>
+    <t>Donald Parham Jr.</t>
+  </si>
+  <si>
     <t>Ty Montgomery</t>
   </si>
   <si>
-    <t>Donald Parham Jr.</t>
-  </si>
-  <si>
     <t>Las Vegas Raiders</t>
   </si>
   <si>
@@ -1154,10 +1154,10 @@
     <t>GB</t>
   </si>
   <si>
+    <t>DEN</t>
+  </si>
+  <si>
     <t>SF</t>
-  </si>
-  <si>
-    <t>DEN</t>
   </si>
   <si>
     <t>DAL</t>
@@ -1863,7 +1863,7 @@
         <v>23</v>
       </c>
       <c r="C21" t="s">
-        <v>355</v>
+        <v>354</v>
       </c>
       <c r="D21" t="s">
         <v>377</v>
@@ -1877,7 +1877,7 @@
         <v>24</v>
       </c>
       <c r="C22" t="s">
-        <v>354</v>
+        <v>355</v>
       </c>
       <c r="D22" t="s">
         <v>378</v>
@@ -2048,7 +2048,7 @@
         <v>355</v>
       </c>
       <c r="D34" t="s">
-        <v>378</v>
+        <v>377</v>
       </c>
     </row>
     <row r="35" spans="1:4">
@@ -2132,7 +2132,7 @@
         <v>354</v>
       </c>
       <c r="D40" t="s">
-        <v>377</v>
+        <v>378</v>
       </c>
     </row>
     <row r="41" spans="1:4">
@@ -2300,7 +2300,7 @@
         <v>356</v>
       </c>
       <c r="D52" t="s">
-        <v>377</v>
+        <v>378</v>
       </c>
     </row>
     <row r="53" spans="1:4">
@@ -2370,7 +2370,7 @@
         <v>355</v>
       </c>
       <c r="D57" t="s">
-        <v>378</v>
+        <v>377</v>
       </c>
     </row>
     <row r="58" spans="1:4">
@@ -2496,7 +2496,7 @@
         <v>354</v>
       </c>
       <c r="D66" t="s">
-        <v>385</v>
+        <v>390</v>
       </c>
     </row>
     <row r="67" spans="1:4">
@@ -2510,7 +2510,7 @@
         <v>354</v>
       </c>
       <c r="D67" t="s">
-        <v>390</v>
+        <v>385</v>
       </c>
     </row>
     <row r="68" spans="1:4">
@@ -2552,7 +2552,7 @@
         <v>355</v>
       </c>
       <c r="D70" t="s">
-        <v>372</v>
+        <v>369</v>
       </c>
     </row>
     <row r="71" spans="1:4">
@@ -2566,7 +2566,7 @@
         <v>355</v>
       </c>
       <c r="D71" t="s">
-        <v>369</v>
+        <v>372</v>
       </c>
     </row>
     <row r="72" spans="1:4">
@@ -2692,7 +2692,7 @@
         <v>355</v>
       </c>
       <c r="D80" t="s">
-        <v>377</v>
+        <v>378</v>
       </c>
     </row>
     <row r="81" spans="1:4">
@@ -2748,7 +2748,7 @@
         <v>357</v>
       </c>
       <c r="D84" t="s">
-        <v>378</v>
+        <v>377</v>
       </c>
     </row>
     <row r="85" spans="1:4">
@@ -2857,7 +2857,7 @@
         <v>94</v>
       </c>
       <c r="C92" t="s">
-        <v>354</v>
+        <v>357</v>
       </c>
       <c r="D92" t="s">
         <v>379</v>
@@ -2871,7 +2871,7 @@
         <v>95</v>
       </c>
       <c r="C93" t="s">
-        <v>357</v>
+        <v>354</v>
       </c>
       <c r="D93" t="s">
         <v>379</v>
@@ -2930,7 +2930,7 @@
         <v>357</v>
       </c>
       <c r="D97" t="s">
-        <v>377</v>
+        <v>378</v>
       </c>
     </row>
     <row r="98" spans="1:4">
@@ -2986,7 +2986,7 @@
         <v>354</v>
       </c>
       <c r="D101" t="s">
-        <v>378</v>
+        <v>377</v>
       </c>
     </row>
     <row r="102" spans="1:4">
@@ -3434,7 +3434,7 @@
         <v>356</v>
       </c>
       <c r="D133" t="s">
-        <v>378</v>
+        <v>377</v>
       </c>
     </row>
     <row r="134" spans="1:4">
@@ -3473,10 +3473,10 @@
         <v>138</v>
       </c>
       <c r="C136" t="s">
-        <v>354</v>
+        <v>355</v>
       </c>
       <c r="D136" t="s">
-        <v>387</v>
+        <v>380</v>
       </c>
     </row>
     <row r="137" spans="1:4">
@@ -3487,10 +3487,10 @@
         <v>139</v>
       </c>
       <c r="C137" t="s">
-        <v>355</v>
+        <v>354</v>
       </c>
       <c r="D137" t="s">
-        <v>380</v>
+        <v>387</v>
       </c>
     </row>
     <row r="138" spans="1:4">
@@ -3655,10 +3655,10 @@
         <v>151</v>
       </c>
       <c r="C149" t="s">
-        <v>358</v>
+        <v>356</v>
       </c>
       <c r="D149" t="s">
-        <v>374</v>
+        <v>376</v>
       </c>
     </row>
     <row r="150" spans="1:4">
@@ -3669,10 +3669,10 @@
         <v>152</v>
       </c>
       <c r="C150" t="s">
-        <v>356</v>
+        <v>358</v>
       </c>
       <c r="D150" t="s">
-        <v>376</v>
+        <v>374</v>
       </c>
     </row>
     <row r="151" spans="1:4">
@@ -3683,10 +3683,10 @@
         <v>153</v>
       </c>
       <c r="C151" t="s">
-        <v>356</v>
+        <v>354</v>
       </c>
       <c r="D151" t="s">
-        <v>368</v>
+        <v>385</v>
       </c>
     </row>
     <row r="152" spans="1:4">
@@ -3711,10 +3711,10 @@
         <v>155</v>
       </c>
       <c r="C153" t="s">
-        <v>354</v>
+        <v>356</v>
       </c>
       <c r="D153" t="s">
-        <v>385</v>
+        <v>368</v>
       </c>
     </row>
     <row r="154" spans="1:4">
@@ -3840,7 +3840,7 @@
         <v>358</v>
       </c>
       <c r="D162" t="s">
-        <v>377</v>
+        <v>378</v>
       </c>
     </row>
     <row r="163" spans="1:4">
@@ -4036,7 +4036,7 @@
         <v>358</v>
       </c>
       <c r="D176" t="s">
-        <v>378</v>
+        <v>377</v>
       </c>
     </row>
     <row r="177" spans="1:4">
@@ -4414,7 +4414,7 @@
         <v>354</v>
       </c>
       <c r="D203" t="s">
-        <v>377</v>
+        <v>378</v>
       </c>
     </row>
     <row r="204" spans="1:4">
@@ -4470,7 +4470,7 @@
         <v>355</v>
       </c>
       <c r="D207" t="s">
-        <v>378</v>
+        <v>377</v>
       </c>
     </row>
     <row r="208" spans="1:4">
@@ -4736,7 +4736,7 @@
         <v>354</v>
       </c>
       <c r="D226" t="s">
-        <v>377</v>
+        <v>378</v>
       </c>
     </row>
     <row r="227" spans="1:4">
@@ -4778,7 +4778,7 @@
         <v>354</v>
       </c>
       <c r="D229" t="s">
-        <v>382</v>
+        <v>373</v>
       </c>
     </row>
     <row r="230" spans="1:4">
@@ -4792,7 +4792,7 @@
         <v>354</v>
       </c>
       <c r="D230" t="s">
-        <v>373</v>
+        <v>382</v>
       </c>
     </row>
     <row r="231" spans="1:4">
@@ -4876,7 +4876,7 @@
         <v>359</v>
       </c>
       <c r="D236" t="s">
-        <v>378</v>
+        <v>377</v>
       </c>
     </row>
     <row r="237" spans="1:4">
@@ -4890,7 +4890,7 @@
         <v>355</v>
       </c>
       <c r="D237" t="s">
-        <v>367</v>
+        <v>391</v>
       </c>
     </row>
     <row r="238" spans="1:4">
@@ -4904,7 +4904,7 @@
         <v>355</v>
       </c>
       <c r="D238" t="s">
-        <v>391</v>
+        <v>367</v>
       </c>
     </row>
     <row r="239" spans="1:4">
@@ -5097,10 +5097,10 @@
         <v>254</v>
       </c>
       <c r="C252" t="s">
-        <v>358</v>
+        <v>359</v>
       </c>
       <c r="D252" t="s">
-        <v>383</v>
+        <v>378</v>
       </c>
     </row>
     <row r="253" spans="1:4">
@@ -5111,10 +5111,10 @@
         <v>255</v>
       </c>
       <c r="C253" t="s">
-        <v>359</v>
+        <v>358</v>
       </c>
       <c r="D253" t="s">
-        <v>377</v>
+        <v>383</v>
       </c>
     </row>
     <row r="254" spans="1:4">
@@ -5447,10 +5447,10 @@
         <v>279</v>
       </c>
       <c r="C277" t="s">
-        <v>356</v>
+        <v>358</v>
       </c>
       <c r="D277" t="s">
-        <v>388</v>
+        <v>385</v>
       </c>
     </row>
     <row r="278" spans="1:4">
@@ -5461,10 +5461,10 @@
         <v>280</v>
       </c>
       <c r="C278" t="s">
-        <v>358</v>
+        <v>356</v>
       </c>
       <c r="D278" t="s">
-        <v>385</v>
+        <v>388</v>
       </c>
     </row>
     <row r="279" spans="1:4">
@@ -5506,7 +5506,7 @@
         <v>354</v>
       </c>
       <c r="D281" t="s">
-        <v>381</v>
+        <v>384</v>
       </c>
     </row>
     <row r="282" spans="1:4">
@@ -5520,7 +5520,7 @@
         <v>354</v>
       </c>
       <c r="D282" t="s">
-        <v>384</v>
+        <v>381</v>
       </c>
     </row>
     <row r="283" spans="1:4">
@@ -5618,7 +5618,7 @@
         <v>354</v>
       </c>
       <c r="D289" t="s">
-        <v>375</v>
+        <v>364</v>
       </c>
     </row>
     <row r="290" spans="1:4">
@@ -5629,10 +5629,10 @@
         <v>292</v>
       </c>
       <c r="C290" t="s">
-        <v>356</v>
+        <v>354</v>
       </c>
       <c r="D290" t="s">
-        <v>383</v>
+        <v>375</v>
       </c>
     </row>
     <row r="291" spans="1:4">
@@ -5643,10 +5643,10 @@
         <v>293</v>
       </c>
       <c r="C291" t="s">
-        <v>354</v>
+        <v>356</v>
       </c>
       <c r="D291" t="s">
-        <v>364</v>
+        <v>383</v>
       </c>
     </row>
     <row r="292" spans="1:4">
@@ -5713,10 +5713,10 @@
         <v>298</v>
       </c>
       <c r="C296" t="s">
-        <v>359</v>
+        <v>356</v>
       </c>
       <c r="D296" t="s">
-        <v>389</v>
+        <v>380</v>
       </c>
     </row>
     <row r="297" spans="1:4">
@@ -5727,10 +5727,10 @@
         <v>299</v>
       </c>
       <c r="C297" t="s">
-        <v>356</v>
+        <v>359</v>
       </c>
       <c r="D297" t="s">
-        <v>380</v>
+        <v>389</v>
       </c>
     </row>
     <row r="298" spans="1:4">
@@ -5853,10 +5853,10 @@
         <v>308</v>
       </c>
       <c r="C306" t="s">
-        <v>358</v>
+        <v>355</v>
       </c>
       <c r="D306" t="s">
-        <v>389</v>
+        <v>373</v>
       </c>
     </row>
     <row r="307" spans="1:4">
@@ -5867,10 +5867,10 @@
         <v>309</v>
       </c>
       <c r="C307" t="s">
-        <v>355</v>
+        <v>358</v>
       </c>
       <c r="D307" t="s">
-        <v>373</v>
+        <v>389</v>
       </c>
     </row>
     <row r="308" spans="1:4">
@@ -5923,10 +5923,10 @@
         <v>313</v>
       </c>
       <c r="C311" t="s">
-        <v>354</v>
+        <v>355</v>
       </c>
       <c r="D311" t="s">
-        <v>362</v>
+        <v>372</v>
       </c>
     </row>
     <row r="312" spans="1:4">
@@ -5937,10 +5937,10 @@
         <v>314</v>
       </c>
       <c r="C312" t="s">
-        <v>355</v>
+        <v>354</v>
       </c>
       <c r="D312" t="s">
-        <v>372</v>
+        <v>362</v>
       </c>
     </row>
     <row r="313" spans="1:4">
@@ -5951,7 +5951,7 @@
         <v>315</v>
       </c>
       <c r="C313" t="s">
-        <v>355</v>
+        <v>354</v>
       </c>
       <c r="D313" t="s">
         <v>392</v>
@@ -5965,7 +5965,7 @@
         <v>316</v>
       </c>
       <c r="C314" t="s">
-        <v>354</v>
+        <v>355</v>
       </c>
       <c r="D314" t="s">
         <v>392</v>
@@ -6021,10 +6021,10 @@
         <v>320</v>
       </c>
       <c r="C318" t="s">
-        <v>355</v>
+        <v>354</v>
       </c>
       <c r="D318" t="s">
-        <v>369</v>
+        <v>391</v>
       </c>
     </row>
     <row r="319" spans="1:4">
@@ -6035,10 +6035,10 @@
         <v>321</v>
       </c>
       <c r="C319" t="s">
-        <v>354</v>
+        <v>355</v>
       </c>
       <c r="D319" t="s">
-        <v>391</v>
+        <v>369</v>
       </c>
     </row>
     <row r="320" spans="1:4">
@@ -6108,7 +6108,7 @@
         <v>356</v>
       </c>
       <c r="D324" t="s">
-        <v>378</v>
+        <v>377</v>
       </c>
     </row>
     <row r="325" spans="1:4">
@@ -6150,7 +6150,7 @@
         <v>357</v>
       </c>
       <c r="D327" t="s">
-        <v>377</v>
+        <v>378</v>
       </c>
     </row>
     <row r="328" spans="1:4">
@@ -6203,10 +6203,10 @@
         <v>333</v>
       </c>
       <c r="C331" t="s">
-        <v>355</v>
+        <v>354</v>
       </c>
       <c r="D331" t="s">
-        <v>372</v>
+        <v>360</v>
       </c>
     </row>
     <row r="332" spans="1:4">
@@ -6217,10 +6217,10 @@
         <v>334</v>
       </c>
       <c r="C332" t="s">
-        <v>354</v>
+        <v>355</v>
       </c>
       <c r="D332" t="s">
-        <v>360</v>
+        <v>372</v>
       </c>
     </row>
     <row r="333" spans="1:4">
@@ -6301,10 +6301,10 @@
         <v>340</v>
       </c>
       <c r="C338" t="s">
-        <v>354</v>
+        <v>356</v>
       </c>
       <c r="D338" t="s">
-        <v>391</v>
+        <v>364</v>
       </c>
     </row>
     <row r="339" spans="1:4">
@@ -6315,10 +6315,10 @@
         <v>341</v>
       </c>
       <c r="C339" t="s">
-        <v>356</v>
+        <v>354</v>
       </c>
       <c r="D339" t="s">
-        <v>364</v>
+        <v>391</v>
       </c>
     </row>
     <row r="340" spans="1:4">
@@ -6416,7 +6416,7 @@
         <v>355</v>
       </c>
       <c r="D346" t="s">
-        <v>377</v>
+        <v>378</v>
       </c>
     </row>
     <row r="347" spans="1:4">
@@ -6595,13 +6595,13 @@
         <v>6</v>
       </c>
       <c r="B7" t="s">
-        <v>13</v>
+        <v>6</v>
       </c>
       <c r="C7" t="s">
-        <v>355</v>
+        <v>354</v>
       </c>
       <c r="D7" t="s">
-        <v>368</v>
+        <v>362</v>
       </c>
     </row>
     <row r="8" spans="1:4">
@@ -6609,13 +6609,13 @@
         <v>7</v>
       </c>
       <c r="B8" t="s">
-        <v>6</v>
+        <v>13</v>
       </c>
       <c r="C8" t="s">
-        <v>354</v>
+        <v>355</v>
       </c>
       <c r="D8" t="s">
-        <v>362</v>
+        <v>368</v>
       </c>
     </row>
     <row r="9" spans="1:4">
@@ -6805,13 +6805,13 @@
         <v>21</v>
       </c>
       <c r="B22" t="s">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="C22" t="s">
         <v>354</v>
       </c>
       <c r="D22" t="s">
-        <v>378</v>
+        <v>377</v>
       </c>
     </row>
     <row r="23" spans="1:4">
@@ -6833,13 +6833,13 @@
         <v>23</v>
       </c>
       <c r="B24" t="s">
-        <v>23</v>
+        <v>24</v>
       </c>
       <c r="C24" t="s">
         <v>355</v>
       </c>
       <c r="D24" t="s">
-        <v>377</v>
+        <v>378</v>
       </c>
     </row>
     <row r="25" spans="1:4">
@@ -7021,7 +7021,7 @@
         <v>355</v>
       </c>
       <c r="D37" t="s">
-        <v>378</v>
+        <v>377</v>
       </c>
     </row>
     <row r="38" spans="1:4">
@@ -7147,7 +7147,7 @@
         <v>354</v>
       </c>
       <c r="D46" t="s">
-        <v>377</v>
+        <v>378</v>
       </c>
     </row>
     <row r="47" spans="1:4">
@@ -7245,7 +7245,7 @@
         <v>356</v>
       </c>
       <c r="D53" t="s">
-        <v>377</v>
+        <v>378</v>
       </c>
     </row>
     <row r="54" spans="1:4">
@@ -7337,7 +7337,7 @@
         <v>59</v>
       </c>
       <c r="B60" t="s">
-        <v>69</v>
+        <v>68</v>
       </c>
       <c r="C60" t="s">
         <v>354</v>
@@ -7365,7 +7365,7 @@
         <v>61</v>
       </c>
       <c r="B62" t="s">
-        <v>68</v>
+        <v>69</v>
       </c>
       <c r="C62" t="s">
         <v>354</v>
@@ -7399,7 +7399,7 @@
         <v>355</v>
       </c>
       <c r="D64" t="s">
-        <v>378</v>
+        <v>377</v>
       </c>
     </row>
     <row r="65" spans="1:4">
@@ -7435,7 +7435,7 @@
         <v>66</v>
       </c>
       <c r="B67" t="s">
-        <v>72</v>
+        <v>73</v>
       </c>
       <c r="C67" t="s">
         <v>355</v>
@@ -7477,7 +7477,7 @@
         <v>69</v>
       </c>
       <c r="B70" t="s">
-        <v>73</v>
+        <v>72</v>
       </c>
       <c r="C70" t="s">
         <v>355</v>
@@ -7533,13 +7533,13 @@
         <v>73</v>
       </c>
       <c r="B74" t="s">
-        <v>71</v>
+        <v>76</v>
       </c>
       <c r="C74" t="s">
-        <v>355</v>
+        <v>354</v>
       </c>
       <c r="D74" t="s">
-        <v>388</v>
+        <v>389</v>
       </c>
     </row>
     <row r="75" spans="1:4">
@@ -7547,13 +7547,13 @@
         <v>74</v>
       </c>
       <c r="B75" t="s">
-        <v>76</v>
+        <v>71</v>
       </c>
       <c r="C75" t="s">
-        <v>354</v>
+        <v>355</v>
       </c>
       <c r="D75" t="s">
-        <v>389</v>
+        <v>388</v>
       </c>
     </row>
     <row r="76" spans="1:4">
@@ -7603,7 +7603,7 @@
         <v>78</v>
       </c>
       <c r="B79" t="s">
-        <v>94</v>
+        <v>95</v>
       </c>
       <c r="C79" t="s">
         <v>354</v>
@@ -7679,7 +7679,7 @@
         <v>357</v>
       </c>
       <c r="D84" t="s">
-        <v>378</v>
+        <v>377</v>
       </c>
     </row>
     <row r="85" spans="1:4">
@@ -7735,7 +7735,7 @@
         <v>355</v>
       </c>
       <c r="D88" t="s">
-        <v>377</v>
+        <v>378</v>
       </c>
     </row>
     <row r="89" spans="1:4">
@@ -7757,7 +7757,7 @@
         <v>89</v>
       </c>
       <c r="B90" t="s">
-        <v>95</v>
+        <v>94</v>
       </c>
       <c r="C90" t="s">
         <v>357</v>
@@ -7791,7 +7791,7 @@
         <v>354</v>
       </c>
       <c r="D92" t="s">
-        <v>378</v>
+        <v>377</v>
       </c>
     </row>
     <row r="93" spans="1:4">
@@ -7861,7 +7861,7 @@
         <v>357</v>
       </c>
       <c r="D97" t="s">
-        <v>377</v>
+        <v>378</v>
       </c>
     </row>
     <row r="98" spans="1:4">
@@ -8247,7 +8247,7 @@
         <v>124</v>
       </c>
       <c r="B125" t="s">
-        <v>155</v>
+        <v>153</v>
       </c>
       <c r="C125" t="s">
         <v>354</v>
@@ -8275,7 +8275,7 @@
         <v>126</v>
       </c>
       <c r="B127" t="s">
-        <v>138</v>
+        <v>139</v>
       </c>
       <c r="C127" t="s">
         <v>354</v>
@@ -8289,13 +8289,13 @@
         <v>127</v>
       </c>
       <c r="B128" t="s">
-        <v>133</v>
+        <v>128</v>
       </c>
       <c r="C128" t="s">
-        <v>354</v>
+        <v>355</v>
       </c>
       <c r="D128" t="s">
-        <v>381</v>
+        <v>370</v>
       </c>
     </row>
     <row r="129" spans="1:4">
@@ -8303,13 +8303,13 @@
         <v>128</v>
       </c>
       <c r="B129" t="s">
-        <v>128</v>
+        <v>133</v>
       </c>
       <c r="C129" t="s">
-        <v>355</v>
+        <v>354</v>
       </c>
       <c r="D129" t="s">
-        <v>370</v>
+        <v>381</v>
       </c>
     </row>
     <row r="130" spans="1:4">
@@ -8359,7 +8359,7 @@
         <v>132</v>
       </c>
       <c r="B133" t="s">
-        <v>139</v>
+        <v>138</v>
       </c>
       <c r="C133" t="s">
         <v>355</v>
@@ -8435,7 +8435,7 @@
         <v>356</v>
       </c>
       <c r="D138" t="s">
-        <v>378</v>
+        <v>377</v>
       </c>
     </row>
     <row r="139" spans="1:4">
@@ -8639,7 +8639,7 @@
         <v>152</v>
       </c>
       <c r="B153" t="s">
-        <v>153</v>
+        <v>155</v>
       </c>
       <c r="C153" t="s">
         <v>356</v>
@@ -8653,7 +8653,7 @@
         <v>153</v>
       </c>
       <c r="B154" t="s">
-        <v>152</v>
+        <v>151</v>
       </c>
       <c r="C154" t="s">
         <v>356</v>
@@ -8765,13 +8765,13 @@
         <v>161</v>
       </c>
       <c r="B162" t="s">
-        <v>174</v>
+        <v>171</v>
       </c>
       <c r="C162" t="s">
-        <v>355</v>
+        <v>354</v>
       </c>
       <c r="D162" t="s">
-        <v>363</v>
+        <v>369</v>
       </c>
     </row>
     <row r="163" spans="1:4">
@@ -8779,13 +8779,13 @@
         <v>162</v>
       </c>
       <c r="B163" t="s">
-        <v>171</v>
+        <v>174</v>
       </c>
       <c r="C163" t="s">
-        <v>354</v>
+        <v>355</v>
       </c>
       <c r="D163" t="s">
-        <v>369</v>
+        <v>363</v>
       </c>
     </row>
     <row r="164" spans="1:4">
@@ -8793,7 +8793,7 @@
         <v>163</v>
       </c>
       <c r="B164" t="s">
-        <v>151</v>
+        <v>152</v>
       </c>
       <c r="C164" t="s">
         <v>358</v>
@@ -8869,7 +8869,7 @@
         <v>358</v>
       </c>
       <c r="D169" t="s">
-        <v>377</v>
+        <v>378</v>
       </c>
     </row>
     <row r="170" spans="1:4">
@@ -8919,13 +8919,13 @@
         <v>172</v>
       </c>
       <c r="B173" t="s">
-        <v>179</v>
+        <v>182</v>
       </c>
       <c r="C173" t="s">
-        <v>355</v>
+        <v>356</v>
       </c>
       <c r="D173" t="s">
-        <v>388</v>
+        <v>365</v>
       </c>
     </row>
     <row r="174" spans="1:4">
@@ -8933,13 +8933,13 @@
         <v>173</v>
       </c>
       <c r="B174" t="s">
-        <v>182</v>
+        <v>179</v>
       </c>
       <c r="C174" t="s">
-        <v>356</v>
+        <v>355</v>
       </c>
       <c r="D174" t="s">
-        <v>365</v>
+        <v>388</v>
       </c>
     </row>
     <row r="175" spans="1:4">
@@ -9003,13 +9003,13 @@
         <v>178</v>
       </c>
       <c r="B179" t="s">
-        <v>175</v>
+        <v>181</v>
       </c>
       <c r="C179" t="s">
-        <v>358</v>
+        <v>354</v>
       </c>
       <c r="D179" t="s">
-        <v>369</v>
+        <v>364</v>
       </c>
     </row>
     <row r="180" spans="1:4">
@@ -9017,13 +9017,13 @@
         <v>179</v>
       </c>
       <c r="B180" t="s">
-        <v>181</v>
+        <v>175</v>
       </c>
       <c r="C180" t="s">
-        <v>354</v>
+        <v>358</v>
       </c>
       <c r="D180" t="s">
-        <v>364</v>
+        <v>369</v>
       </c>
     </row>
     <row r="181" spans="1:4">
@@ -9051,7 +9051,7 @@
         <v>358</v>
       </c>
       <c r="D182" t="s">
-        <v>378</v>
+        <v>377</v>
       </c>
     </row>
     <row r="183" spans="1:4">
@@ -9101,13 +9101,13 @@
         <v>185</v>
       </c>
       <c r="B186" t="s">
-        <v>205</v>
+        <v>177</v>
       </c>
       <c r="C186" t="s">
-        <v>354</v>
+        <v>357</v>
       </c>
       <c r="D186" t="s">
-        <v>377</v>
+        <v>361</v>
       </c>
     </row>
     <row r="187" spans="1:4">
@@ -9115,13 +9115,13 @@
         <v>186</v>
       </c>
       <c r="B187" t="s">
-        <v>177</v>
+        <v>205</v>
       </c>
       <c r="C187" t="s">
-        <v>357</v>
+        <v>354</v>
       </c>
       <c r="D187" t="s">
-        <v>361</v>
+        <v>378</v>
       </c>
     </row>
     <row r="188" spans="1:4">
@@ -9163,7 +9163,7 @@
         <v>355</v>
       </c>
       <c r="D190" t="s">
-        <v>378</v>
+        <v>377</v>
       </c>
     </row>
     <row r="191" spans="1:4">
@@ -9213,13 +9213,13 @@
         <v>193</v>
       </c>
       <c r="B194" t="s">
-        <v>210</v>
+        <v>184</v>
       </c>
       <c r="C194" t="s">
-        <v>355</v>
+        <v>358</v>
       </c>
       <c r="D194" t="s">
-        <v>360</v>
+        <v>391</v>
       </c>
     </row>
     <row r="195" spans="1:4">
@@ -9227,13 +9227,13 @@
         <v>194</v>
       </c>
       <c r="B195" t="s">
-        <v>184</v>
+        <v>210</v>
       </c>
       <c r="C195" t="s">
-        <v>358</v>
+        <v>355</v>
       </c>
       <c r="D195" t="s">
-        <v>391</v>
+        <v>360</v>
       </c>
     </row>
     <row r="196" spans="1:4">
@@ -9283,13 +9283,13 @@
         <v>198</v>
       </c>
       <c r="B199" t="s">
-        <v>213</v>
+        <v>203</v>
       </c>
       <c r="C199" t="s">
-        <v>355</v>
+        <v>354</v>
       </c>
       <c r="D199" t="s">
-        <v>360</v>
+        <v>383</v>
       </c>
     </row>
     <row r="200" spans="1:4">
@@ -9297,13 +9297,13 @@
         <v>199</v>
       </c>
       <c r="B200" t="s">
-        <v>203</v>
+        <v>213</v>
       </c>
       <c r="C200" t="s">
-        <v>354</v>
+        <v>355</v>
       </c>
       <c r="D200" t="s">
-        <v>383</v>
+        <v>360</v>
       </c>
     </row>
     <row r="201" spans="1:4">
@@ -9563,7 +9563,7 @@
         <v>218</v>
       </c>
       <c r="B219" t="s">
-        <v>239</v>
+        <v>240</v>
       </c>
       <c r="C219" t="s">
         <v>355</v>
@@ -9605,7 +9605,7 @@
         <v>221</v>
       </c>
       <c r="B222" t="s">
-        <v>231</v>
+        <v>232</v>
       </c>
       <c r="C222" t="s">
         <v>354</v>
@@ -9647,13 +9647,13 @@
         <v>224</v>
       </c>
       <c r="B225" t="s">
-        <v>224</v>
+        <v>219</v>
       </c>
       <c r="C225" t="s">
-        <v>358</v>
+        <v>356</v>
       </c>
       <c r="D225" t="s">
-        <v>367</v>
+        <v>360</v>
       </c>
     </row>
     <row r="226" spans="1:4">
@@ -9661,13 +9661,13 @@
         <v>225</v>
       </c>
       <c r="B226" t="s">
-        <v>219</v>
+        <v>224</v>
       </c>
       <c r="C226" t="s">
-        <v>356</v>
+        <v>358</v>
       </c>
       <c r="D226" t="s">
-        <v>360</v>
+        <v>367</v>
       </c>
     </row>
     <row r="227" spans="1:4">
@@ -9703,13 +9703,13 @@
         <v>228</v>
       </c>
       <c r="B229" t="s">
-        <v>221</v>
+        <v>246</v>
       </c>
       <c r="C229" t="s">
-        <v>357</v>
+        <v>355</v>
       </c>
       <c r="D229" t="s">
-        <v>382</v>
+        <v>386</v>
       </c>
     </row>
     <row r="230" spans="1:4">
@@ -9717,13 +9717,13 @@
         <v>229</v>
       </c>
       <c r="B230" t="s">
-        <v>246</v>
+        <v>221</v>
       </c>
       <c r="C230" t="s">
-        <v>355</v>
+        <v>357</v>
       </c>
       <c r="D230" t="s">
-        <v>386</v>
+        <v>382</v>
       </c>
     </row>
     <row r="231" spans="1:4">
@@ -9731,7 +9731,7 @@
         <v>230</v>
       </c>
       <c r="B231" t="s">
-        <v>232</v>
+        <v>231</v>
       </c>
       <c r="C231" t="s">
         <v>354</v>
@@ -9745,7 +9745,7 @@
         <v>231</v>
       </c>
       <c r="B232" t="s">
-        <v>240</v>
+        <v>239</v>
       </c>
       <c r="C232" t="s">
         <v>355</v>
@@ -9835,7 +9835,7 @@
         <v>354</v>
       </c>
       <c r="D238" t="s">
-        <v>377</v>
+        <v>378</v>
       </c>
     </row>
     <row r="239" spans="1:4">
@@ -9843,13 +9843,13 @@
         <v>238</v>
       </c>
       <c r="B239" t="s">
-        <v>237</v>
+        <v>223</v>
       </c>
       <c r="C239" t="s">
         <v>354</v>
       </c>
       <c r="D239" t="s">
-        <v>373</v>
+        <v>370</v>
       </c>
     </row>
     <row r="240" spans="1:4">
@@ -9857,13 +9857,13 @@
         <v>239</v>
       </c>
       <c r="B240" t="s">
-        <v>223</v>
+        <v>237</v>
       </c>
       <c r="C240" t="s">
         <v>354</v>
       </c>
       <c r="D240" t="s">
-        <v>370</v>
+        <v>373</v>
       </c>
     </row>
     <row r="241" spans="1:4">
@@ -9877,7 +9877,7 @@
         <v>359</v>
       </c>
       <c r="D241" t="s">
-        <v>378</v>
+        <v>377</v>
       </c>
     </row>
     <row r="242" spans="1:4">
@@ -9941,13 +9941,13 @@
         <v>245</v>
       </c>
       <c r="B246" t="s">
-        <v>255</v>
+        <v>254</v>
       </c>
       <c r="C246" t="s">
         <v>359</v>
       </c>
       <c r="D246" t="s">
-        <v>377</v>
+        <v>378</v>
       </c>
     </row>
     <row r="247" spans="1:4">
@@ -9997,13 +9997,13 @@
         <v>249</v>
       </c>
       <c r="B250" t="s">
-        <v>259</v>
+        <v>249</v>
       </c>
       <c r="C250" t="s">
-        <v>359</v>
+        <v>354</v>
       </c>
       <c r="D250" t="s">
-        <v>364</v>
+        <v>361</v>
       </c>
     </row>
     <row r="251" spans="1:4">
@@ -10011,13 +10011,13 @@
         <v>250</v>
       </c>
       <c r="B251" t="s">
-        <v>249</v>
+        <v>259</v>
       </c>
       <c r="C251" t="s">
-        <v>354</v>
+        <v>359</v>
       </c>
       <c r="D251" t="s">
-        <v>361</v>
+        <v>364</v>
       </c>
     </row>
     <row r="252" spans="1:4">
@@ -10025,7 +10025,7 @@
         <v>251</v>
       </c>
       <c r="B252" t="s">
-        <v>254</v>
+        <v>255</v>
       </c>
       <c r="C252" t="s">
         <v>358</v>
@@ -10207,13 +10207,13 @@
         <v>264</v>
       </c>
       <c r="B265" t="s">
-        <v>273</v>
+        <v>268</v>
       </c>
       <c r="C265" t="s">
-        <v>359</v>
+        <v>355</v>
       </c>
       <c r="D265" t="s">
-        <v>366</v>
+        <v>382</v>
       </c>
     </row>
     <row r="266" spans="1:4">
@@ -10221,13 +10221,13 @@
         <v>265</v>
       </c>
       <c r="B266" t="s">
-        <v>268</v>
+        <v>273</v>
       </c>
       <c r="C266" t="s">
-        <v>355</v>
+        <v>359</v>
       </c>
       <c r="D266" t="s">
-        <v>382</v>
+        <v>366</v>
       </c>
     </row>
     <row r="267" spans="1:4">
@@ -10291,13 +10291,13 @@
         <v>270</v>
       </c>
       <c r="B271" t="s">
-        <v>260</v>
+        <v>279</v>
       </c>
       <c r="C271" t="s">
-        <v>356</v>
+        <v>358</v>
       </c>
       <c r="D271" t="s">
-        <v>380</v>
+        <v>385</v>
       </c>
     </row>
     <row r="272" spans="1:4">
@@ -10305,13 +10305,13 @@
         <v>271</v>
       </c>
       <c r="B272" t="s">
-        <v>280</v>
+        <v>260</v>
       </c>
       <c r="C272" t="s">
-        <v>358</v>
+        <v>356</v>
       </c>
       <c r="D272" t="s">
-        <v>385</v>
+        <v>380</v>
       </c>
     </row>
     <row r="273" spans="1:4">
@@ -10431,7 +10431,7 @@
         <v>280</v>
       </c>
       <c r="B281" t="s">
-        <v>308</v>
+        <v>309</v>
       </c>
       <c r="C281" t="s">
         <v>358</v>
@@ -10445,7 +10445,7 @@
         <v>281</v>
       </c>
       <c r="B282" t="s">
-        <v>283</v>
+        <v>284</v>
       </c>
       <c r="C282" t="s">
         <v>354</v>
@@ -10459,7 +10459,7 @@
         <v>282</v>
       </c>
       <c r="B283" t="s">
-        <v>291</v>
+        <v>292</v>
       </c>
       <c r="C283" t="s">
         <v>354</v>
@@ -10501,7 +10501,7 @@
         <v>285</v>
       </c>
       <c r="B286" t="s">
-        <v>298</v>
+        <v>299</v>
       </c>
       <c r="C286" t="s">
         <v>359</v>
@@ -10557,13 +10557,13 @@
         <v>289</v>
       </c>
       <c r="B290" t="s">
-        <v>279</v>
+        <v>291</v>
       </c>
       <c r="C290" t="s">
-        <v>356</v>
+        <v>354</v>
       </c>
       <c r="D290" t="s">
-        <v>388</v>
+        <v>364</v>
       </c>
     </row>
     <row r="291" spans="1:4">
@@ -10571,13 +10571,13 @@
         <v>290</v>
       </c>
       <c r="B291" t="s">
-        <v>293</v>
+        <v>280</v>
       </c>
       <c r="C291" t="s">
-        <v>354</v>
+        <v>356</v>
       </c>
       <c r="D291" t="s">
-        <v>364</v>
+        <v>388</v>
       </c>
     </row>
     <row r="292" spans="1:4">
@@ -10641,7 +10641,7 @@
         <v>295</v>
       </c>
       <c r="B296" t="s">
-        <v>284</v>
+        <v>283</v>
       </c>
       <c r="C296" t="s">
         <v>354</v>
@@ -10683,13 +10683,13 @@
         <v>298</v>
       </c>
       <c r="B299" t="s">
-        <v>294</v>
+        <v>303</v>
       </c>
       <c r="C299" t="s">
-        <v>357</v>
+        <v>355</v>
       </c>
       <c r="D299" t="s">
-        <v>367</v>
+        <v>384</v>
       </c>
     </row>
     <row r="300" spans="1:4">
@@ -10697,13 +10697,13 @@
         <v>299</v>
       </c>
       <c r="B300" t="s">
-        <v>303</v>
+        <v>294</v>
       </c>
       <c r="C300" t="s">
-        <v>355</v>
+        <v>357</v>
       </c>
       <c r="D300" t="s">
-        <v>384</v>
+        <v>367</v>
       </c>
     </row>
     <row r="301" spans="1:4">
@@ -10725,13 +10725,13 @@
         <v>301</v>
       </c>
       <c r="B302" t="s">
-        <v>292</v>
+        <v>312</v>
       </c>
       <c r="C302" t="s">
-        <v>356</v>
+        <v>359</v>
       </c>
       <c r="D302" t="s">
-        <v>383</v>
+        <v>390</v>
       </c>
     </row>
     <row r="303" spans="1:4">
@@ -10739,13 +10739,13 @@
         <v>302</v>
       </c>
       <c r="B303" t="s">
-        <v>312</v>
+        <v>306</v>
       </c>
       <c r="C303" t="s">
-        <v>359</v>
+        <v>354</v>
       </c>
       <c r="D303" t="s">
-        <v>390</v>
+        <v>368</v>
       </c>
     </row>
     <row r="304" spans="1:4">
@@ -10753,13 +10753,13 @@
         <v>303</v>
       </c>
       <c r="B304" t="s">
-        <v>306</v>
+        <v>293</v>
       </c>
       <c r="C304" t="s">
-        <v>354</v>
+        <v>356</v>
       </c>
       <c r="D304" t="s">
-        <v>368</v>
+        <v>383</v>
       </c>
     </row>
     <row r="305" spans="1:4">
@@ -10781,7 +10781,7 @@
         <v>305</v>
       </c>
       <c r="B306" t="s">
-        <v>309</v>
+        <v>308</v>
       </c>
       <c r="C306" t="s">
         <v>355</v>
@@ -10795,7 +10795,7 @@
         <v>306</v>
       </c>
       <c r="B307" t="s">
-        <v>314</v>
+        <v>313</v>
       </c>
       <c r="C307" t="s">
         <v>355</v>
@@ -10823,13 +10823,13 @@
         <v>308</v>
       </c>
       <c r="B309" t="s">
-        <v>313</v>
+        <v>311</v>
       </c>
       <c r="C309" t="s">
-        <v>354</v>
+        <v>356</v>
       </c>
       <c r="D309" t="s">
-        <v>362</v>
+        <v>388</v>
       </c>
     </row>
     <row r="310" spans="1:4">
@@ -10837,13 +10837,13 @@
         <v>309</v>
       </c>
       <c r="B310" t="s">
-        <v>311</v>
+        <v>310</v>
       </c>
       <c r="C310" t="s">
         <v>356</v>
       </c>
       <c r="D310" t="s">
-        <v>388</v>
+        <v>371</v>
       </c>
     </row>
     <row r="311" spans="1:4">
@@ -10851,13 +10851,13 @@
         <v>310</v>
       </c>
       <c r="B311" t="s">
-        <v>310</v>
+        <v>314</v>
       </c>
       <c r="C311" t="s">
-        <v>356</v>
+        <v>354</v>
       </c>
       <c r="D311" t="s">
-        <v>371</v>
+        <v>362</v>
       </c>
     </row>
     <row r="312" spans="1:4">
@@ -10865,7 +10865,7 @@
         <v>311</v>
       </c>
       <c r="B312" t="s">
-        <v>299</v>
+        <v>298</v>
       </c>
       <c r="C312" t="s">
         <v>356</v>
@@ -10893,7 +10893,7 @@
         <v>313</v>
       </c>
       <c r="B314" t="s">
-        <v>315</v>
+        <v>316</v>
       </c>
       <c r="C314" t="s">
         <v>355</v>
@@ -10935,7 +10935,7 @@
         <v>316</v>
       </c>
       <c r="B317" t="s">
-        <v>320</v>
+        <v>321</v>
       </c>
       <c r="C317" t="s">
         <v>355</v>
@@ -11005,7 +11005,7 @@
         <v>321</v>
       </c>
       <c r="B322" t="s">
-        <v>321</v>
+        <v>320</v>
       </c>
       <c r="C322" t="s">
         <v>354</v>
@@ -11081,7 +11081,7 @@
         <v>357</v>
       </c>
       <c r="D327" t="s">
-        <v>377</v>
+        <v>378</v>
       </c>
     </row>
     <row r="328" spans="1:4">
@@ -11089,7 +11089,7 @@
         <v>327</v>
       </c>
       <c r="B328" t="s">
-        <v>316</v>
+        <v>315</v>
       </c>
       <c r="C328" t="s">
         <v>354</v>
@@ -11103,7 +11103,7 @@
         <v>328</v>
       </c>
       <c r="B329" t="s">
-        <v>333</v>
+        <v>334</v>
       </c>
       <c r="C329" t="s">
         <v>355</v>
@@ -11117,13 +11117,13 @@
         <v>329</v>
       </c>
       <c r="B330" t="s">
-        <v>340</v>
+        <v>345</v>
       </c>
       <c r="C330" t="s">
         <v>354</v>
       </c>
       <c r="D330" t="s">
-        <v>391</v>
+        <v>367</v>
       </c>
     </row>
     <row r="331" spans="1:4">
@@ -11131,13 +11131,13 @@
         <v>330</v>
       </c>
       <c r="B331" t="s">
-        <v>345</v>
+        <v>341</v>
       </c>
       <c r="C331" t="s">
         <v>354</v>
       </c>
       <c r="D331" t="s">
-        <v>367</v>
+        <v>391</v>
       </c>
     </row>
     <row r="332" spans="1:4">
@@ -11145,13 +11145,13 @@
         <v>331</v>
       </c>
       <c r="B332" t="s">
-        <v>326</v>
+        <v>338</v>
       </c>
       <c r="C332" t="s">
-        <v>356</v>
+        <v>354</v>
       </c>
       <c r="D332" t="s">
-        <v>378</v>
+        <v>386</v>
       </c>
     </row>
     <row r="333" spans="1:4">
@@ -11159,13 +11159,13 @@
         <v>332</v>
       </c>
       <c r="B333" t="s">
-        <v>338</v>
+        <v>326</v>
       </c>
       <c r="C333" t="s">
-        <v>354</v>
+        <v>356</v>
       </c>
       <c r="D333" t="s">
-        <v>386</v>
+        <v>377</v>
       </c>
     </row>
     <row r="334" spans="1:4">
@@ -11173,13 +11173,13 @@
         <v>333</v>
       </c>
       <c r="B334" t="s">
-        <v>343</v>
+        <v>339</v>
       </c>
       <c r="C334" t="s">
-        <v>354</v>
+        <v>359</v>
       </c>
       <c r="D334" t="s">
-        <v>372</v>
+        <v>367</v>
       </c>
     </row>
     <row r="335" spans="1:4">
@@ -11187,13 +11187,13 @@
         <v>334</v>
       </c>
       <c r="B335" t="s">
-        <v>339</v>
+        <v>343</v>
       </c>
       <c r="C335" t="s">
-        <v>359</v>
+        <v>354</v>
       </c>
       <c r="D335" t="s">
-        <v>367</v>
+        <v>372</v>
       </c>
     </row>
     <row r="336" spans="1:4">
@@ -11229,13 +11229,13 @@
         <v>337</v>
       </c>
       <c r="B338" t="s">
-        <v>347</v>
+        <v>333</v>
       </c>
       <c r="C338" t="s">
         <v>354</v>
       </c>
       <c r="D338" t="s">
-        <v>387</v>
+        <v>360</v>
       </c>
     </row>
     <row r="339" spans="1:4">
@@ -11243,13 +11243,13 @@
         <v>338</v>
       </c>
       <c r="B339" t="s">
-        <v>342</v>
+        <v>347</v>
       </c>
       <c r="C339" t="s">
-        <v>358</v>
+        <v>354</v>
       </c>
       <c r="D339" t="s">
-        <v>375</v>
+        <v>387</v>
       </c>
     </row>
     <row r="340" spans="1:4">
@@ -11257,13 +11257,13 @@
         <v>339</v>
       </c>
       <c r="B340" t="s">
-        <v>334</v>
+        <v>342</v>
       </c>
       <c r="C340" t="s">
-        <v>354</v>
+        <v>358</v>
       </c>
       <c r="D340" t="s">
-        <v>360</v>
+        <v>375</v>
       </c>
     </row>
     <row r="341" spans="1:4">
@@ -11291,7 +11291,7 @@
         <v>355</v>
       </c>
       <c r="D342" t="s">
-        <v>377</v>
+        <v>378</v>
       </c>
     </row>
     <row r="343" spans="1:4">
@@ -11299,13 +11299,13 @@
         <v>342</v>
       </c>
       <c r="B343" t="s">
-        <v>328</v>
+        <v>346</v>
       </c>
       <c r="C343" t="s">
-        <v>356</v>
+        <v>355</v>
       </c>
       <c r="D343" t="s">
-        <v>369</v>
+        <v>373</v>
       </c>
     </row>
     <row r="344" spans="1:4">
@@ -11313,13 +11313,13 @@
         <v>343</v>
       </c>
       <c r="B344" t="s">
-        <v>346</v>
+        <v>328</v>
       </c>
       <c r="C344" t="s">
-        <v>355</v>
+        <v>356</v>
       </c>
       <c r="D344" t="s">
-        <v>373</v>
+        <v>369</v>
       </c>
     </row>
     <row r="345" spans="1:4">
@@ -11355,13 +11355,13 @@
         <v>346</v>
       </c>
       <c r="B347" t="s">
-        <v>393</v>
+        <v>340</v>
       </c>
       <c r="C347" t="s">
-        <v>358</v>
+        <v>356</v>
       </c>
       <c r="D347" t="s">
-        <v>372</v>
+        <v>364</v>
       </c>
     </row>
     <row r="348" spans="1:4">
@@ -11369,13 +11369,13 @@
         <v>347</v>
       </c>
       <c r="B348" t="s">
-        <v>341</v>
+        <v>393</v>
       </c>
       <c r="C348" t="s">
-        <v>356</v>
+        <v>358</v>
       </c>
       <c r="D348" t="s">
-        <v>364</v>
+        <v>372</v>
       </c>
     </row>
     <row r="349" spans="1:4">
@@ -11750,13 +11750,13 @@
         <v>22</v>
       </c>
       <c r="B23" t="s">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="C23" t="s">
         <v>354</v>
       </c>
       <c r="D23" t="s">
-        <v>378</v>
+        <v>377</v>
       </c>
     </row>
     <row r="24" spans="1:4">
@@ -11806,13 +11806,13 @@
         <v>26</v>
       </c>
       <c r="B27" t="s">
-        <v>23</v>
+        <v>24</v>
       </c>
       <c r="C27" t="s">
         <v>355</v>
       </c>
       <c r="D27" t="s">
-        <v>377</v>
+        <v>378</v>
       </c>
     </row>
     <row r="28" spans="1:4">
@@ -11966,7 +11966,7 @@
         <v>355</v>
       </c>
       <c r="D38" t="s">
-        <v>378</v>
+        <v>377</v>
       </c>
     </row>
     <row r="39" spans="1:4">
@@ -12148,7 +12148,7 @@
         <v>354</v>
       </c>
       <c r="D51" t="s">
-        <v>377</v>
+        <v>378</v>
       </c>
     </row>
     <row r="52" spans="1:4">
@@ -12162,7 +12162,7 @@
         <v>356</v>
       </c>
       <c r="D52" t="s">
-        <v>377</v>
+        <v>378</v>
       </c>
     </row>
     <row r="53" spans="1:4">
@@ -12254,7 +12254,7 @@
         <v>58</v>
       </c>
       <c r="B59" t="s">
-        <v>72</v>
+        <v>73</v>
       </c>
       <c r="C59" t="s">
         <v>355</v>
@@ -12296,7 +12296,7 @@
         <v>61</v>
       </c>
       <c r="B62" t="s">
-        <v>73</v>
+        <v>72</v>
       </c>
       <c r="C62" t="s">
         <v>355</v>
@@ -12316,7 +12316,7 @@
         <v>355</v>
       </c>
       <c r="D63" t="s">
-        <v>378</v>
+        <v>377</v>
       </c>
     </row>
     <row r="64" spans="1:4">
@@ -12338,7 +12338,7 @@
         <v>64</v>
       </c>
       <c r="B65" t="s">
-        <v>68</v>
+        <v>69</v>
       </c>
       <c r="C65" t="s">
         <v>354</v>
@@ -12422,7 +12422,7 @@
         <v>70</v>
       </c>
       <c r="B71" t="s">
-        <v>69</v>
+        <v>68</v>
       </c>
       <c r="C71" t="s">
         <v>354</v>
@@ -12450,7 +12450,7 @@
         <v>72</v>
       </c>
       <c r="B73" t="s">
-        <v>94</v>
+        <v>95</v>
       </c>
       <c r="C73" t="s">
         <v>354</v>
@@ -12506,13 +12506,13 @@
         <v>76</v>
       </c>
       <c r="B77" t="s">
-        <v>75</v>
+        <v>87</v>
       </c>
       <c r="C77" t="s">
-        <v>356</v>
+        <v>354</v>
       </c>
       <c r="D77" t="s">
-        <v>384</v>
+        <v>391</v>
       </c>
     </row>
     <row r="78" spans="1:4">
@@ -12520,13 +12520,13 @@
         <v>77</v>
       </c>
       <c r="B78" t="s">
-        <v>87</v>
+        <v>75</v>
       </c>
       <c r="C78" t="s">
-        <v>354</v>
+        <v>356</v>
       </c>
       <c r="D78" t="s">
-        <v>391</v>
+        <v>384</v>
       </c>
     </row>
     <row r="79" spans="1:4">
@@ -12590,13 +12590,13 @@
         <v>82</v>
       </c>
       <c r="B83" t="s">
-        <v>70</v>
+        <v>84</v>
       </c>
       <c r="C83" t="s">
         <v>354</v>
       </c>
       <c r="D83" t="s">
-        <v>391</v>
+        <v>384</v>
       </c>
     </row>
     <row r="84" spans="1:4">
@@ -12604,13 +12604,13 @@
         <v>83</v>
       </c>
       <c r="B84" t="s">
-        <v>84</v>
+        <v>70</v>
       </c>
       <c r="C84" t="s">
         <v>354</v>
       </c>
       <c r="D84" t="s">
-        <v>384</v>
+        <v>391</v>
       </c>
     </row>
     <row r="85" spans="1:4">
@@ -12638,7 +12638,7 @@
         <v>357</v>
       </c>
       <c r="D86" t="s">
-        <v>378</v>
+        <v>377</v>
       </c>
     </row>
     <row r="87" spans="1:4">
@@ -12694,7 +12694,7 @@
         <v>355</v>
       </c>
       <c r="D90" t="s">
-        <v>377</v>
+        <v>378</v>
       </c>
     </row>
     <row r="91" spans="1:4">
@@ -12716,7 +12716,7 @@
         <v>91</v>
       </c>
       <c r="B92" t="s">
-        <v>95</v>
+        <v>94</v>
       </c>
       <c r="C92" t="s">
         <v>357</v>
@@ -12750,7 +12750,7 @@
         <v>354</v>
       </c>
       <c r="D94" t="s">
-        <v>378</v>
+        <v>377</v>
       </c>
     </row>
     <row r="95" spans="1:4">
@@ -12806,7 +12806,7 @@
         <v>357</v>
       </c>
       <c r="D98" t="s">
-        <v>377</v>
+        <v>378</v>
       </c>
     </row>
     <row r="99" spans="1:4">
@@ -12842,13 +12842,13 @@
         <v>100</v>
       </c>
       <c r="B101" t="s">
-        <v>131</v>
+        <v>106</v>
       </c>
       <c r="C101" t="s">
-        <v>354</v>
+        <v>357</v>
       </c>
       <c r="D101" t="s">
-        <v>360</v>
+        <v>376</v>
       </c>
     </row>
     <row r="102" spans="1:4">
@@ -12856,13 +12856,13 @@
         <v>101</v>
       </c>
       <c r="B102" t="s">
-        <v>106</v>
+        <v>131</v>
       </c>
       <c r="C102" t="s">
-        <v>357</v>
+        <v>354</v>
       </c>
       <c r="D102" t="s">
-        <v>376</v>
+        <v>360</v>
       </c>
     </row>
     <row r="103" spans="1:4">
@@ -13094,7 +13094,7 @@
         <v>118</v>
       </c>
       <c r="B119" t="s">
-        <v>155</v>
+        <v>153</v>
       </c>
       <c r="C119" t="s">
         <v>354</v>
@@ -13164,7 +13164,7 @@
         <v>123</v>
       </c>
       <c r="B124" t="s">
-        <v>139</v>
+        <v>138</v>
       </c>
       <c r="C124" t="s">
         <v>355</v>
@@ -13234,7 +13234,7 @@
         <v>128</v>
       </c>
       <c r="B129" t="s">
-        <v>138</v>
+        <v>139</v>
       </c>
       <c r="C129" t="s">
         <v>354</v>
@@ -13276,13 +13276,13 @@
         <v>131</v>
       </c>
       <c r="B132" t="s">
-        <v>129</v>
+        <v>130</v>
       </c>
       <c r="C132" t="s">
         <v>356</v>
       </c>
       <c r="D132" t="s">
-        <v>367</v>
+        <v>363</v>
       </c>
     </row>
     <row r="133" spans="1:4">
@@ -13304,13 +13304,13 @@
         <v>133</v>
       </c>
       <c r="B134" t="s">
-        <v>130</v>
+        <v>129</v>
       </c>
       <c r="C134" t="s">
         <v>356</v>
       </c>
       <c r="D134" t="s">
-        <v>363</v>
+        <v>367</v>
       </c>
     </row>
     <row r="135" spans="1:4">
@@ -13394,7 +13394,7 @@
         <v>356</v>
       </c>
       <c r="D140" t="s">
-        <v>378</v>
+        <v>377</v>
       </c>
     </row>
     <row r="141" spans="1:4">
@@ -13542,7 +13542,7 @@
         <v>150</v>
       </c>
       <c r="B151" t="s">
-        <v>153</v>
+        <v>155</v>
       </c>
       <c r="C151" t="s">
         <v>356</v>
@@ -13584,7 +13584,7 @@
         <v>153</v>
       </c>
       <c r="B154" t="s">
-        <v>152</v>
+        <v>151</v>
       </c>
       <c r="C154" t="s">
         <v>356</v>
@@ -13598,7 +13598,7 @@
         <v>154</v>
       </c>
       <c r="B155" t="s">
-        <v>151</v>
+        <v>152</v>
       </c>
       <c r="C155" t="s">
         <v>358</v>
@@ -13702,7 +13702,7 @@
         <v>358</v>
       </c>
       <c r="D162" t="s">
-        <v>377</v>
+        <v>378</v>
       </c>
     </row>
     <row r="163" spans="1:4">
@@ -13766,13 +13766,13 @@
         <v>166</v>
       </c>
       <c r="B167" t="s">
-        <v>154</v>
+        <v>186</v>
       </c>
       <c r="C167" t="s">
-        <v>357</v>
+        <v>355</v>
       </c>
       <c r="D167" t="s">
-        <v>362</v>
+        <v>361</v>
       </c>
     </row>
     <row r="168" spans="1:4">
@@ -13780,13 +13780,13 @@
         <v>167</v>
       </c>
       <c r="B168" t="s">
-        <v>186</v>
+        <v>154</v>
       </c>
       <c r="C168" t="s">
-        <v>355</v>
+        <v>357</v>
       </c>
       <c r="D168" t="s">
-        <v>361</v>
+        <v>362</v>
       </c>
     </row>
     <row r="169" spans="1:4">
@@ -13808,13 +13808,13 @@
         <v>169</v>
       </c>
       <c r="B170" t="s">
-        <v>179</v>
+        <v>193</v>
       </c>
       <c r="C170" t="s">
         <v>355</v>
       </c>
       <c r="D170" t="s">
-        <v>388</v>
+        <v>371</v>
       </c>
     </row>
     <row r="171" spans="1:4">
@@ -13822,13 +13822,13 @@
         <v>170</v>
       </c>
       <c r="B171" t="s">
-        <v>193</v>
+        <v>181</v>
       </c>
       <c r="C171" t="s">
-        <v>355</v>
+        <v>354</v>
       </c>
       <c r="D171" t="s">
-        <v>371</v>
+        <v>364</v>
       </c>
     </row>
     <row r="172" spans="1:4">
@@ -13836,13 +13836,13 @@
         <v>171</v>
       </c>
       <c r="B172" t="s">
-        <v>181</v>
+        <v>179</v>
       </c>
       <c r="C172" t="s">
-        <v>354</v>
+        <v>355</v>
       </c>
       <c r="D172" t="s">
-        <v>364</v>
+        <v>388</v>
       </c>
     </row>
     <row r="173" spans="1:4">
@@ -13898,7 +13898,7 @@
         <v>358</v>
       </c>
       <c r="D176" t="s">
-        <v>378</v>
+        <v>377</v>
       </c>
     </row>
     <row r="177" spans="1:4">
@@ -14136,7 +14136,7 @@
         <v>354</v>
       </c>
       <c r="D193" t="s">
-        <v>377</v>
+        <v>378</v>
       </c>
     </row>
     <row r="194" spans="1:4">
@@ -14178,7 +14178,7 @@
         <v>355</v>
       </c>
       <c r="D196" t="s">
-        <v>378</v>
+        <v>377</v>
       </c>
     </row>
     <row r="197" spans="1:4">
@@ -14228,13 +14228,13 @@
         <v>199</v>
       </c>
       <c r="B200" t="s">
-        <v>206</v>
+        <v>190</v>
       </c>
       <c r="C200" t="s">
-        <v>359</v>
+        <v>354</v>
       </c>
       <c r="D200" t="s">
-        <v>375</v>
+        <v>361</v>
       </c>
     </row>
     <row r="201" spans="1:4">
@@ -14242,13 +14242,13 @@
         <v>200</v>
       </c>
       <c r="B201" t="s">
-        <v>190</v>
+        <v>206</v>
       </c>
       <c r="C201" t="s">
-        <v>354</v>
+        <v>359</v>
       </c>
       <c r="D201" t="s">
-        <v>361</v>
+        <v>375</v>
       </c>
     </row>
     <row r="202" spans="1:4">
@@ -14466,13 +14466,13 @@
         <v>216</v>
       </c>
       <c r="B217" t="s">
-        <v>231</v>
+        <v>202</v>
       </c>
       <c r="C217" t="s">
         <v>354</v>
       </c>
       <c r="D217" t="s">
-        <v>382</v>
+        <v>373</v>
       </c>
     </row>
     <row r="218" spans="1:4">
@@ -14480,13 +14480,13 @@
         <v>217</v>
       </c>
       <c r="B218" t="s">
-        <v>202</v>
+        <v>232</v>
       </c>
       <c r="C218" t="s">
         <v>354</v>
       </c>
       <c r="D218" t="s">
-        <v>373</v>
+        <v>382</v>
       </c>
     </row>
     <row r="219" spans="1:4">
@@ -14564,13 +14564,13 @@
         <v>223</v>
       </c>
       <c r="B224" t="s">
-        <v>237</v>
+        <v>241</v>
       </c>
       <c r="C224" t="s">
-        <v>354</v>
+        <v>355</v>
       </c>
       <c r="D224" t="s">
-        <v>373</v>
+        <v>374</v>
       </c>
     </row>
     <row r="225" spans="1:4">
@@ -14578,13 +14578,13 @@
         <v>224</v>
       </c>
       <c r="B225" t="s">
-        <v>241</v>
+        <v>237</v>
       </c>
       <c r="C225" t="s">
-        <v>355</v>
+        <v>354</v>
       </c>
       <c r="D225" t="s">
-        <v>374</v>
+        <v>373</v>
       </c>
     </row>
     <row r="226" spans="1:4">
@@ -14592,7 +14592,7 @@
         <v>225</v>
       </c>
       <c r="B226" t="s">
-        <v>239</v>
+        <v>240</v>
       </c>
       <c r="C226" t="s">
         <v>355</v>
@@ -14690,7 +14690,7 @@
         <v>232</v>
       </c>
       <c r="B233" t="s">
-        <v>232</v>
+        <v>231</v>
       </c>
       <c r="C233" t="s">
         <v>354</v>
@@ -14710,7 +14710,7 @@
         <v>354</v>
       </c>
       <c r="D234" t="s">
-        <v>377</v>
+        <v>378</v>
       </c>
     </row>
     <row r="235" spans="1:4">
@@ -14746,7 +14746,7 @@
         <v>236</v>
       </c>
       <c r="B237" t="s">
-        <v>240</v>
+        <v>239</v>
       </c>
       <c r="C237" t="s">
         <v>355</v>
@@ -14794,7 +14794,7 @@
         <v>359</v>
       </c>
       <c r="D240" t="s">
-        <v>378</v>
+        <v>377</v>
       </c>
     </row>
     <row r="241" spans="1:4">
@@ -14886,13 +14886,13 @@
         <v>246</v>
       </c>
       <c r="B247" t="s">
-        <v>258</v>
+        <v>251</v>
       </c>
       <c r="C247" t="s">
-        <v>355</v>
+        <v>358</v>
       </c>
       <c r="D247" t="s">
-        <v>376</v>
+        <v>365</v>
       </c>
     </row>
     <row r="248" spans="1:4">
@@ -14914,13 +14914,13 @@
         <v>248</v>
       </c>
       <c r="B249" t="s">
-        <v>251</v>
+        <v>258</v>
       </c>
       <c r="C249" t="s">
-        <v>358</v>
+        <v>355</v>
       </c>
       <c r="D249" t="s">
-        <v>365</v>
+        <v>376</v>
       </c>
     </row>
     <row r="250" spans="1:4">
@@ -14928,13 +14928,13 @@
         <v>249</v>
       </c>
       <c r="B250" t="s">
-        <v>255</v>
+        <v>254</v>
       </c>
       <c r="C250" t="s">
         <v>359</v>
       </c>
       <c r="D250" t="s">
-        <v>377</v>
+        <v>378</v>
       </c>
     </row>
     <row r="251" spans="1:4">
@@ -14942,7 +14942,7 @@
         <v>250</v>
       </c>
       <c r="B251" t="s">
-        <v>254</v>
+        <v>255</v>
       </c>
       <c r="C251" t="s">
         <v>358</v>
@@ -15012,13 +15012,13 @@
         <v>255</v>
       </c>
       <c r="B256" t="s">
-        <v>261</v>
+        <v>259</v>
       </c>
       <c r="C256" t="s">
-        <v>355</v>
+        <v>359</v>
       </c>
       <c r="D256" t="s">
-        <v>376</v>
+        <v>364</v>
       </c>
     </row>
     <row r="257" spans="1:4">
@@ -15026,13 +15026,13 @@
         <v>256</v>
       </c>
       <c r="B257" t="s">
-        <v>259</v>
+        <v>261</v>
       </c>
       <c r="C257" t="s">
-        <v>359</v>
+        <v>355</v>
       </c>
       <c r="D257" t="s">
-        <v>364</v>
+        <v>376</v>
       </c>
     </row>
     <row r="258" spans="1:4">
@@ -15124,7 +15124,7 @@
         <v>263</v>
       </c>
       <c r="B264" t="s">
-        <v>291</v>
+        <v>292</v>
       </c>
       <c r="C264" t="s">
         <v>354</v>
@@ -15264,7 +15264,7 @@
         <v>273</v>
       </c>
       <c r="B274" t="s">
-        <v>283</v>
+        <v>284</v>
       </c>
       <c r="C274" t="s">
         <v>354</v>
@@ -15292,7 +15292,7 @@
         <v>275</v>
       </c>
       <c r="B276" t="s">
-        <v>279</v>
+        <v>280</v>
       </c>
       <c r="C276" t="s">
         <v>356</v>
@@ -15334,7 +15334,7 @@
         <v>278</v>
       </c>
       <c r="B279" t="s">
-        <v>280</v>
+        <v>279</v>
       </c>
       <c r="C279" t="s">
         <v>358</v>
@@ -15446,7 +15446,7 @@
         <v>286</v>
       </c>
       <c r="B287" t="s">
-        <v>284</v>
+        <v>283</v>
       </c>
       <c r="C287" t="s">
         <v>354</v>
@@ -15460,13 +15460,13 @@
         <v>287</v>
       </c>
       <c r="B288" t="s">
-        <v>313</v>
+        <v>293</v>
       </c>
       <c r="C288" t="s">
-        <v>354</v>
+        <v>356</v>
       </c>
       <c r="D288" t="s">
-        <v>362</v>
+        <v>383</v>
       </c>
     </row>
     <row r="289" spans="1:4">
@@ -15474,13 +15474,13 @@
         <v>288</v>
       </c>
       <c r="B289" t="s">
-        <v>292</v>
+        <v>314</v>
       </c>
       <c r="C289" t="s">
-        <v>356</v>
+        <v>354</v>
       </c>
       <c r="D289" t="s">
-        <v>383</v>
+        <v>362</v>
       </c>
     </row>
     <row r="290" spans="1:4">
@@ -15502,7 +15502,7 @@
         <v>290</v>
       </c>
       <c r="B291" t="s">
-        <v>309</v>
+        <v>308</v>
       </c>
       <c r="C291" t="s">
         <v>355</v>
@@ -15530,13 +15530,13 @@
         <v>292</v>
       </c>
       <c r="B293" t="s">
-        <v>298</v>
+        <v>297</v>
       </c>
       <c r="C293" t="s">
         <v>359</v>
       </c>
       <c r="D293" t="s">
-        <v>389</v>
+        <v>362</v>
       </c>
     </row>
     <row r="294" spans="1:4">
@@ -15544,13 +15544,13 @@
         <v>293</v>
       </c>
       <c r="B294" t="s">
-        <v>297</v>
+        <v>299</v>
       </c>
       <c r="C294" t="s">
         <v>359</v>
       </c>
       <c r="D294" t="s">
-        <v>362</v>
+        <v>389</v>
       </c>
     </row>
     <row r="295" spans="1:4">
@@ -15586,7 +15586,7 @@
         <v>296</v>
       </c>
       <c r="B297" t="s">
-        <v>293</v>
+        <v>291</v>
       </c>
       <c r="C297" t="s">
         <v>354</v>
@@ -15642,13 +15642,13 @@
         <v>300</v>
       </c>
       <c r="B301" t="s">
-        <v>308</v>
+        <v>298</v>
       </c>
       <c r="C301" t="s">
-        <v>358</v>
+        <v>356</v>
       </c>
       <c r="D301" t="s">
-        <v>389</v>
+        <v>380</v>
       </c>
     </row>
     <row r="302" spans="1:4">
@@ -15656,13 +15656,13 @@
         <v>301</v>
       </c>
       <c r="B302" t="s">
-        <v>299</v>
+        <v>309</v>
       </c>
       <c r="C302" t="s">
-        <v>356</v>
+        <v>358</v>
       </c>
       <c r="D302" t="s">
-        <v>380</v>
+        <v>389</v>
       </c>
     </row>
     <row r="303" spans="1:4">
@@ -15684,7 +15684,7 @@
         <v>303</v>
       </c>
       <c r="B304" t="s">
-        <v>314</v>
+        <v>313</v>
       </c>
       <c r="C304" t="s">
         <v>355</v>
@@ -15740,7 +15740,7 @@
         <v>307</v>
       </c>
       <c r="B308" t="s">
-        <v>315</v>
+        <v>316</v>
       </c>
       <c r="C308" t="s">
         <v>355</v>
@@ -15810,7 +15810,7 @@
         <v>312</v>
       </c>
       <c r="B313" t="s">
-        <v>320</v>
+        <v>321</v>
       </c>
       <c r="C313" t="s">
         <v>355</v>
@@ -15908,13 +15908,13 @@
         <v>319</v>
       </c>
       <c r="B320" t="s">
-        <v>290</v>
+        <v>315</v>
       </c>
       <c r="C320" t="s">
-        <v>357</v>
+        <v>354</v>
       </c>
       <c r="D320" t="s">
-        <v>389</v>
+        <v>392</v>
       </c>
     </row>
     <row r="321" spans="1:4">
@@ -15922,13 +15922,13 @@
         <v>320</v>
       </c>
       <c r="B321" t="s">
-        <v>316</v>
+        <v>290</v>
       </c>
       <c r="C321" t="s">
-        <v>354</v>
+        <v>357</v>
       </c>
       <c r="D321" t="s">
-        <v>392</v>
+        <v>389</v>
       </c>
     </row>
     <row r="322" spans="1:4">
@@ -15950,7 +15950,7 @@
         <v>322</v>
       </c>
       <c r="B323" t="s">
-        <v>321</v>
+        <v>320</v>
       </c>
       <c r="C323" t="s">
         <v>354</v>
@@ -15964,7 +15964,7 @@
         <v>323</v>
       </c>
       <c r="B324" t="s">
-        <v>340</v>
+        <v>341</v>
       </c>
       <c r="C324" t="s">
         <v>354</v>
@@ -15984,7 +15984,7 @@
         <v>356</v>
       </c>
       <c r="D325" t="s">
-        <v>378</v>
+        <v>377</v>
       </c>
     </row>
     <row r="326" spans="1:4">
@@ -16006,7 +16006,7 @@
         <v>326</v>
       </c>
       <c r="B327" t="s">
-        <v>333</v>
+        <v>334</v>
       </c>
       <c r="C327" t="s">
         <v>355</v>
@@ -16034,13 +16034,13 @@
         <v>328</v>
       </c>
       <c r="B329" t="s">
-        <v>335</v>
+        <v>336</v>
       </c>
       <c r="C329" t="s">
         <v>356</v>
       </c>
       <c r="D329" t="s">
-        <v>367</v>
+        <v>361</v>
       </c>
     </row>
     <row r="330" spans="1:4">
@@ -16048,13 +16048,13 @@
         <v>329</v>
       </c>
       <c r="B330" t="s">
-        <v>336</v>
+        <v>335</v>
       </c>
       <c r="C330" t="s">
         <v>356</v>
       </c>
       <c r="D330" t="s">
-        <v>361</v>
+        <v>367</v>
       </c>
     </row>
     <row r="331" spans="1:4">
@@ -16118,13 +16118,13 @@
         <v>334</v>
       </c>
       <c r="B335" t="s">
-        <v>347</v>
+        <v>343</v>
       </c>
       <c r="C335" t="s">
         <v>354</v>
       </c>
       <c r="D335" t="s">
-        <v>387</v>
+        <v>372</v>
       </c>
     </row>
     <row r="336" spans="1:4">
@@ -16132,13 +16132,13 @@
         <v>335</v>
       </c>
       <c r="B336" t="s">
-        <v>343</v>
+        <v>347</v>
       </c>
       <c r="C336" t="s">
         <v>354</v>
       </c>
       <c r="D336" t="s">
-        <v>372</v>
+        <v>387</v>
       </c>
     </row>
     <row r="337" spans="1:4">
@@ -16160,13 +16160,13 @@
         <v>337</v>
       </c>
       <c r="B338" t="s">
-        <v>342</v>
+        <v>348</v>
       </c>
       <c r="C338" t="s">
-        <v>358</v>
+        <v>355</v>
       </c>
       <c r="D338" t="s">
-        <v>375</v>
+        <v>378</v>
       </c>
     </row>
     <row r="339" spans="1:4">
@@ -16174,13 +16174,13 @@
         <v>338</v>
       </c>
       <c r="B339" t="s">
-        <v>348</v>
+        <v>342</v>
       </c>
       <c r="C339" t="s">
-        <v>355</v>
+        <v>358</v>
       </c>
       <c r="D339" t="s">
-        <v>377</v>
+        <v>375</v>
       </c>
     </row>
     <row r="340" spans="1:4">
@@ -16230,7 +16230,7 @@
         <v>342</v>
       </c>
       <c r="B343" t="s">
-        <v>341</v>
+        <v>340</v>
       </c>
       <c r="C343" t="s">
         <v>356</v>
@@ -16286,7 +16286,7 @@
         <v>346</v>
       </c>
       <c r="B347" t="s">
-        <v>334</v>
+        <v>333</v>
       </c>
       <c r="C347" t="s">
         <v>354</v>
@@ -16320,7 +16320,7 @@
         <v>357</v>
       </c>
       <c r="D349" t="s">
-        <v>377</v>
+        <v>378</v>
       </c>
     </row>
     <row r="350" spans="1:4">

--- a/docs/FantasyProsFootballDraft.xlsx
+++ b/docs/FantasyProsFootballDraft.xlsx
@@ -455,7 +455,7 @@
     <t>Matt Ryan</t>
   </si>
   <si>
-    <t>DJ Chark Jr.</t>
+    <t>D.J. Chark Jr.</t>
   </si>
   <si>
     <t>Julio Jones</t>

--- a/docs/FantasyProsFootballDraft.xlsx
+++ b/docs/FantasyProsFootballDraft.xlsx
@@ -650,7 +650,7 @@
     <t>Green Bay Packers</t>
   </si>
   <si>
-    <t>KJ Hamler</t>
+    <t>K.J. Hamler</t>
   </si>
   <si>
     <t>Alec Pierce</t>
@@ -4820,7 +4820,7 @@
         <v>359</v>
       </c>
       <c r="D232" t="s">
-        <v>360</v>
+        <v>392</v>
       </c>
     </row>
     <row r="233" spans="1:4">
@@ -5954,7 +5954,7 @@
         <v>354</v>
       </c>
       <c r="D313" t="s">
-        <v>392</v>
+        <v>378</v>
       </c>
     </row>
     <row r="314" spans="1:4">
@@ -6486,7 +6486,7 @@
         <v>359</v>
       </c>
       <c r="D351" t="s">
-        <v>392</v>
+        <v>360</v>
       </c>
     </row>
   </sheetData>
@@ -9891,7 +9891,7 @@
         <v>359</v>
       </c>
       <c r="D242" t="s">
-        <v>360</v>
+        <v>392</v>
       </c>
     </row>
     <row r="243" spans="1:4">
@@ -11095,7 +11095,7 @@
         <v>354</v>
       </c>
       <c r="D328" t="s">
-        <v>392</v>
+        <v>378</v>
       </c>
     </row>
     <row r="329" spans="1:4">
@@ -14738,7 +14738,7 @@
         <v>359</v>
       </c>
       <c r="D236" t="s">
-        <v>360</v>
+        <v>392</v>
       </c>
     </row>
     <row r="237" spans="1:4">
@@ -15914,7 +15914,7 @@
         <v>354</v>
       </c>
       <c r="D320" t="s">
-        <v>392</v>
+        <v>378</v>
       </c>
     </row>
     <row r="321" spans="1:4">
@@ -16334,7 +16334,7 @@
         <v>359</v>
       </c>
       <c r="D350" t="s">
-        <v>392</v>
+        <v>360</v>
       </c>
     </row>
     <row r="351" spans="1:4">

--- a/docs/FantasyProsFootballDraft.xlsx
+++ b/docs/FantasyProsFootballDraft.xlsx
@@ -89,12 +89,12 @@
     <t>Davante Adams</t>
   </si>
   <si>
+    <t>Javonte Williams</t>
+  </si>
+  <si>
     <t>Aaron Jones</t>
   </si>
   <si>
-    <t>Javonte Williams</t>
-  </si>
-  <si>
     <t>Deebo Samuel</t>
   </si>
   <si>
@@ -137,12 +137,12 @@
     <t>DJ Moore</t>
   </si>
   <si>
+    <t>Keenan Allen</t>
+  </si>
+  <si>
     <t>Mike Williams</t>
   </si>
   <si>
-    <t>Keenan Allen</t>
-  </si>
-  <si>
     <t>Terry McLaurin</t>
   </si>
   <si>
@@ -182,18 +182,18 @@
     <t>AJ Dillon</t>
   </si>
   <si>
+    <t>George Kittle</t>
+  </si>
+  <si>
     <t>Diontae Johnson</t>
   </si>
   <si>
-    <t>George Kittle</t>
+    <t>Darren Waller</t>
   </si>
   <si>
     <t>Marquise Brown</t>
   </si>
   <si>
-    <t>Darren Waller</t>
-  </si>
-  <si>
     <t>Patrick Mahomes II</t>
   </si>
   <si>
@@ -221,30 +221,30 @@
     <t>Rashod Bateman</t>
   </si>
   <si>
+    <t>Kyler Murray</t>
+  </si>
+  <si>
     <t>Chris Godwin</t>
   </si>
   <si>
-    <t>Kyler Murray</t>
+    <t>Antonio Gibson</t>
   </si>
   <si>
     <t>Dameon Pierce</t>
   </si>
   <si>
-    <t>Antonio Gibson</t>
-  </si>
-  <si>
     <t>Damien Harris</t>
   </si>
   <si>
     <t>Elijah Moore</t>
   </si>
   <si>
+    <t>Amon-Ra St. Brown</t>
+  </si>
+  <si>
     <t>Michael Thomas</t>
   </si>
   <si>
-    <t>Amon-Ra St. Brown</t>
-  </si>
-  <si>
     <t>JuJu Smith-Schuster</t>
   </si>
   <si>
@@ -278,12 +278,12 @@
     <t>Miles Sanders</t>
   </si>
   <si>
+    <t>Russell Wilson</t>
+  </si>
+  <si>
     <t>DeVonta Smith</t>
   </si>
   <si>
-    <t>Russell Wilson</t>
-  </si>
-  <si>
     <t>Rhamondre Stevenson</t>
   </si>
   <si>
@@ -293,18 +293,18 @@
     <t>Allen Lazard</t>
   </si>
   <si>
+    <t>Christian Kirk</t>
+  </si>
+  <si>
+    <t>Tyler Lockett</t>
+  </si>
+  <si>
+    <t>Dawson Knox</t>
+  </si>
+  <si>
     <t>Drake London</t>
   </si>
   <si>
-    <t>Christian Kirk</t>
-  </si>
-  <si>
-    <t>Tyler Lockett</t>
-  </si>
-  <si>
-    <t>Dawson Knox</t>
-  </si>
-  <si>
     <t>Dak Prescott</t>
   </si>
   <si>
@@ -329,18 +329,18 @@
     <t>Zach Ertz</t>
   </si>
   <si>
+    <t>Melvin Gordon III</t>
+  </si>
+  <si>
     <t>Robert Woods</t>
   </si>
   <si>
-    <t>Melvin Gordon III</t>
+    <t>Matthew Stafford</t>
   </si>
   <si>
     <t>DeAndre Hopkins</t>
   </si>
   <si>
-    <t>Matthew Stafford</t>
-  </si>
-  <si>
     <t>Aaron Rodgers</t>
   </si>
   <si>
@@ -350,33 +350,33 @@
     <t>Kadarius Toney</t>
   </si>
   <si>
+    <t>Kirk Cousins</t>
+  </si>
+  <si>
+    <t>Ken Walker III</t>
+  </si>
+  <si>
+    <t>Darrell Henderson Jr.</t>
+  </si>
+  <si>
+    <t>Derek Carr</t>
+  </si>
+  <si>
     <t>Treylon Burks</t>
   </si>
   <si>
-    <t>Kirk Cousins</t>
-  </si>
-  <si>
-    <t>Ken Walker III</t>
-  </si>
-  <si>
-    <t>Darrell Henderson Jr.</t>
-  </si>
-  <si>
-    <t>Derek Carr</t>
-  </si>
-  <si>
     <t>Cole Kmet</t>
   </si>
   <si>
     <t>Michael Carter</t>
   </si>
   <si>
+    <t>Pat Freiermuth</t>
+  </si>
+  <si>
     <t>Chase Claypool</t>
   </si>
   <si>
-    <t>Pat Freiermuth</t>
-  </si>
-  <si>
     <t>James Cook</t>
   </si>
   <si>
@@ -395,12 +395,12 @@
     <t>Tyler Boyd</t>
   </si>
   <si>
+    <t>Trevor Lawrence</t>
+  </si>
+  <si>
     <t>Marquez Valdes-Scantling</t>
   </si>
   <si>
-    <t>Trevor Lawrence</t>
-  </si>
-  <si>
     <t>Garrett Wilson</t>
   </si>
   <si>
@@ -437,24 +437,24 @@
     <t>Jameis Winston</t>
   </si>
   <si>
+    <t>Khalil Herbert</t>
+  </si>
+  <si>
     <t>Russell Gage</t>
   </si>
   <si>
-    <t>Khalil Herbert</t>
-  </si>
-  <si>
     <t>Jamaal Williams</t>
   </si>
   <si>
     <t>Mike Gesicki</t>
   </si>
   <si>
+    <t>Matt Ryan</t>
+  </si>
+  <si>
     <t>Jakobi Meyers</t>
   </si>
   <si>
-    <t>Matt Ryan</t>
-  </si>
-  <si>
     <t>D.J. Chark Jr.</t>
   </si>
   <si>
@@ -473,6 +473,15 @@
     <t>Gerald Everett</t>
   </si>
   <si>
+    <t>J.D. McKissic</t>
+  </si>
+  <si>
+    <t>Ryan Tannehill</t>
+  </si>
+  <si>
+    <t>Tyler Higbee</t>
+  </si>
+  <si>
     <t>Jahan Dotson</t>
   </si>
   <si>
@@ -482,15 +491,6 @@
     <t>Buffalo Bills</t>
   </si>
   <si>
-    <t>J.D. McKissic</t>
-  </si>
-  <si>
-    <t>Ryan Tannehill</t>
-  </si>
-  <si>
-    <t>Tyler Higbee</t>
-  </si>
-  <si>
     <t>Jarvis Landry</t>
   </si>
   <si>
@@ -506,15 +506,15 @@
     <t>Noah Fant</t>
   </si>
   <si>
+    <t>Daniel Jones</t>
+  </si>
+  <si>
+    <t>Mac Jones</t>
+  </si>
+  <si>
     <t>Evan Engram</t>
   </si>
   <si>
-    <t>Daniel Jones</t>
-  </si>
-  <si>
-    <t>Mac Jones</t>
-  </si>
-  <si>
     <t>San Francisco 49ers</t>
   </si>
   <si>
@@ -527,18 +527,18 @@
     <t>Austin Hooper</t>
   </si>
   <si>
+    <t>Carson Wentz</t>
+  </si>
+  <si>
+    <t>Mark Ingram II</t>
+  </si>
+  <si>
     <t>Indianapolis Colts</t>
   </si>
   <si>
-    <t>Carson Wentz</t>
-  </si>
-  <si>
     <t>Kenny Golladay</t>
   </si>
   <si>
-    <t>Mark Ingram II</t>
-  </si>
-  <si>
     <t>Joshua Palmer</t>
   </si>
   <si>
@@ -548,24 +548,24 @@
     <t>K.J. Osborn</t>
   </si>
   <si>
+    <t>Baker Mayfield</t>
+  </si>
+  <si>
     <t>New Orleans Saints</t>
   </si>
   <si>
     <t>Los Angeles Rams</t>
   </si>
   <si>
-    <t>Baker Mayfield</t>
-  </si>
-  <si>
     <t>Denver Broncos</t>
   </si>
   <si>
+    <t>Brian Robinson Jr.</t>
+  </si>
+  <si>
     <t>Corey Davis</t>
   </si>
   <si>
-    <t>Brian Robinson Jr.</t>
-  </si>
-  <si>
     <t>Isaiah Spiller</t>
   </si>
   <si>
@@ -578,18 +578,18 @@
     <t>New England Patriots</t>
   </si>
   <si>
+    <t>Logan Thomas</t>
+  </si>
+  <si>
     <t>Tyler Bass</t>
   </si>
   <si>
+    <t>Davis Mills</t>
+  </si>
+  <si>
     <t>Robbie Anderson</t>
   </si>
   <si>
-    <t>Logan Thomas</t>
-  </si>
-  <si>
-    <t>Davis Mills</t>
-  </si>
-  <si>
     <t>Isiah Pacheco</t>
   </si>
   <si>
@@ -626,21 +626,21 @@
     <t>Boston Scott</t>
   </si>
   <si>
+    <t>Darrel Williams</t>
+  </si>
+  <si>
     <t>Dallas Cowboys</t>
   </si>
   <si>
     <t>Gus Edwards</t>
   </si>
   <si>
-    <t>Darrel Williams</t>
+    <t>Jeff Wilson Jr.</t>
   </si>
   <si>
     <t>Los Angeles Chargers</t>
   </si>
   <si>
-    <t>Jeff Wilson Jr.</t>
-  </si>
-  <si>
     <t>Daniel Carlson</t>
   </si>
   <si>
@@ -653,46 +653,49 @@
     <t>K.J. Hamler</t>
   </si>
   <si>
+    <t>Sony Michel</t>
+  </si>
+  <si>
     <t>Alec Pierce</t>
   </si>
   <si>
-    <t>Sony Michel</t>
-  </si>
-  <si>
     <t>Miami Dolphins</t>
   </si>
   <si>
+    <t>Zach Wilson</t>
+  </si>
+  <si>
+    <t>Brevin Jordan</t>
+  </si>
+  <si>
     <t>Parris Campbell</t>
   </si>
   <si>
-    <t>Zach Wilson</t>
-  </si>
-  <si>
-    <t>Brevin Jordan</t>
-  </si>
-  <si>
     <t>Donovan Peoples-Jones</t>
   </si>
   <si>
     <t>Harrison Butker</t>
   </si>
   <si>
+    <t>Mo Alie-Cox</t>
+  </si>
+  <si>
     <t>Curtis Samuel</t>
   </si>
   <si>
-    <t>Mo Alie-Cox</t>
+    <t>Marcus Mariota</t>
   </si>
   <si>
     <t>Ryan Succop</t>
   </si>
   <si>
-    <t>Marcus Mariota</t>
+    <t>Ronald Jones II</t>
   </si>
   <si>
     <t>Baltimore Ravens</t>
   </si>
   <si>
-    <t>Ronald Jones II</t>
+    <t>Rex Burkhead</t>
   </si>
   <si>
     <t>Cleveland Browns</t>
@@ -701,40 +704,40 @@
     <t>Philadelphia Eagles</t>
   </si>
   <si>
-    <t>Rex Burkhead</t>
+    <t>Tyrion Davis-Price</t>
   </si>
   <si>
     <t>Kansas City Chiefs</t>
   </si>
   <si>
-    <t>Tyrion Davis-Price</t>
-  </si>
-  <si>
     <t>Matt Prater</t>
   </si>
   <si>
     <t>Pittsburgh Steelers</t>
   </si>
   <si>
+    <t>Damien Williams</t>
+  </si>
+  <si>
+    <t>Jerick McKinnon</t>
+  </si>
+  <si>
     <t>Mike Davis</t>
   </si>
   <si>
-    <t>Damien Williams</t>
-  </si>
-  <si>
-    <t>Jerick McKinnon</t>
+    <t>Samaje Perine</t>
   </si>
   <si>
     <t>Rodrigo Blankenship</t>
   </si>
   <si>
-    <t>Samaje Perine</t>
+    <t>Kenyan Drake</t>
   </si>
   <si>
     <t>A.J. Green</t>
   </si>
   <si>
-    <t>Kenyan Drake</t>
+    <t>Eno Benjamin</t>
   </si>
   <si>
     <t>Brandon McManus</t>
@@ -752,9 +755,6 @@
     <t>Sterling Shepard</t>
   </si>
   <si>
-    <t>Eno Benjamin</t>
-  </si>
-  <si>
     <t>D'Ernest Johnson</t>
   </si>
   <si>
@@ -776,15 +776,15 @@
     <t>Younghoe Koo</t>
   </si>
   <si>
+    <t>Zack Moss</t>
+  </si>
+  <si>
+    <t>Mitch Trubisky</t>
+  </si>
+  <si>
     <t>Cincinnati Bengals</t>
   </si>
   <si>
-    <t>Zack Moss</t>
-  </si>
-  <si>
-    <t>Mitch Trubisky</t>
-  </si>
-  <si>
     <t>Robbie Gould</t>
   </si>
   <si>
@@ -890,15 +890,15 @@
     <t>Marquez Callaway</t>
   </si>
   <si>
+    <t>Geno Smith</t>
+  </si>
+  <si>
+    <t>Joshua Kelley</t>
+  </si>
+  <si>
     <t>Nick Westbrook-Ikhine</t>
   </si>
   <si>
-    <t>Geno Smith</t>
-  </si>
-  <si>
-    <t>Joshua Kelley</t>
-  </si>
-  <si>
     <t>Ameer Abdullah</t>
   </si>
   <si>
@@ -908,12 +908,12 @@
     <t>Jacoby Brissett</t>
   </si>
   <si>
+    <t>Kenny Pickett</t>
+  </si>
+  <si>
     <t>New York Giants</t>
   </si>
   <si>
-    <t>Kenny Pickett</t>
-  </si>
-  <si>
     <t>Randy Bullock</t>
   </si>
   <si>
@@ -938,15 +938,15 @@
     <t>Velus Jones Jr.</t>
   </si>
   <si>
+    <t>Jaylen Warren</t>
+  </si>
+  <si>
     <t>New York Jets</t>
   </si>
   <si>
     <t>Kyren Williams</t>
   </si>
   <si>
-    <t>Jaylen Warren</t>
-  </si>
-  <si>
     <t>Devin Duvernay</t>
   </si>
   <si>
@@ -995,24 +995,24 @@
     <t>O.J. Howard</t>
   </si>
   <si>
+    <t>Drew Lock</t>
+  </si>
+  <si>
     <t>Jalen Reagor</t>
   </si>
   <si>
-    <t>Drew Lock</t>
-  </si>
-  <si>
     <t>Greg Dulcich</t>
   </si>
   <si>
     <t>Giovani Bernard</t>
   </si>
   <si>
+    <t>Jimmy Garoppolo</t>
+  </si>
+  <si>
     <t>Taysom Hill</t>
   </si>
   <si>
-    <t>Jimmy Garoppolo</t>
-  </si>
-  <si>
     <t>Ty Johnson</t>
   </si>
   <si>
@@ -1151,10 +1151,10 @@
     <t>LV</t>
   </si>
   <si>
+    <t>DEN</t>
+  </si>
+  <si>
     <t>GB</t>
-  </si>
-  <si>
-    <t>DEN</t>
   </si>
   <si>
     <t>SF</t>
@@ -2048,7 +2048,7 @@
         <v>355</v>
       </c>
       <c r="D34" t="s">
-        <v>377</v>
+        <v>376</v>
       </c>
     </row>
     <row r="35" spans="1:4">
@@ -2272,7 +2272,7 @@
         <v>354</v>
       </c>
       <c r="D50" t="s">
-        <v>376</v>
+        <v>377</v>
       </c>
     </row>
     <row r="51" spans="1:4">
@@ -2283,10 +2283,10 @@
         <v>53</v>
       </c>
       <c r="C51" t="s">
-        <v>355</v>
+        <v>356</v>
       </c>
       <c r="D51" t="s">
-        <v>366</v>
+        <v>378</v>
       </c>
     </row>
     <row r="52" spans="1:4">
@@ -2297,10 +2297,10 @@
         <v>54</v>
       </c>
       <c r="C52" t="s">
-        <v>356</v>
+        <v>355</v>
       </c>
       <c r="D52" t="s">
-        <v>378</v>
+        <v>366</v>
       </c>
     </row>
     <row r="53" spans="1:4">
@@ -2311,10 +2311,10 @@
         <v>55</v>
       </c>
       <c r="C53" t="s">
-        <v>355</v>
+        <v>356</v>
       </c>
       <c r="D53" t="s">
-        <v>383</v>
+        <v>375</v>
       </c>
     </row>
     <row r="54" spans="1:4">
@@ -2325,10 +2325,10 @@
         <v>56</v>
       </c>
       <c r="C54" t="s">
-        <v>356</v>
+        <v>355</v>
       </c>
       <c r="D54" t="s">
-        <v>375</v>
+        <v>383</v>
       </c>
     </row>
     <row r="55" spans="1:4">
@@ -2370,7 +2370,7 @@
         <v>355</v>
       </c>
       <c r="D57" t="s">
-        <v>377</v>
+        <v>376</v>
       </c>
     </row>
     <row r="58" spans="1:4">
@@ -2465,10 +2465,10 @@
         <v>66</v>
       </c>
       <c r="C64" t="s">
-        <v>355</v>
+        <v>357</v>
       </c>
       <c r="D64" t="s">
-        <v>380</v>
+        <v>383</v>
       </c>
     </row>
     <row r="65" spans="1:4">
@@ -2479,10 +2479,10 @@
         <v>67</v>
       </c>
       <c r="C65" t="s">
-        <v>357</v>
+        <v>355</v>
       </c>
       <c r="D65" t="s">
-        <v>383</v>
+        <v>380</v>
       </c>
     </row>
     <row r="66" spans="1:4">
@@ -2496,7 +2496,7 @@
         <v>354</v>
       </c>
       <c r="D66" t="s">
-        <v>390</v>
+        <v>385</v>
       </c>
     </row>
     <row r="67" spans="1:4">
@@ -2510,7 +2510,7 @@
         <v>354</v>
       </c>
       <c r="D67" t="s">
-        <v>385</v>
+        <v>390</v>
       </c>
     </row>
     <row r="68" spans="1:4">
@@ -2552,7 +2552,7 @@
         <v>355</v>
       </c>
       <c r="D70" t="s">
-        <v>369</v>
+        <v>372</v>
       </c>
     </row>
     <row r="71" spans="1:4">
@@ -2566,7 +2566,7 @@
         <v>355</v>
       </c>
       <c r="D71" t="s">
-        <v>372</v>
+        <v>369</v>
       </c>
     </row>
     <row r="72" spans="1:4">
@@ -2731,10 +2731,10 @@
         <v>85</v>
       </c>
       <c r="C83" t="s">
-        <v>355</v>
+        <v>357</v>
       </c>
       <c r="D83" t="s">
-        <v>384</v>
+        <v>376</v>
       </c>
     </row>
     <row r="84" spans="1:4">
@@ -2745,10 +2745,10 @@
         <v>86</v>
       </c>
       <c r="C84" t="s">
-        <v>357</v>
+        <v>355</v>
       </c>
       <c r="D84" t="s">
-        <v>377</v>
+        <v>384</v>
       </c>
     </row>
     <row r="85" spans="1:4">
@@ -2790,7 +2790,7 @@
         <v>355</v>
       </c>
       <c r="D87" t="s">
-        <v>376</v>
+        <v>377</v>
       </c>
     </row>
     <row r="88" spans="1:4">
@@ -2804,7 +2804,7 @@
         <v>355</v>
       </c>
       <c r="D88" t="s">
-        <v>382</v>
+        <v>386</v>
       </c>
     </row>
     <row r="89" spans="1:4">
@@ -2818,7 +2818,7 @@
         <v>355</v>
       </c>
       <c r="D89" t="s">
-        <v>386</v>
+        <v>389</v>
       </c>
     </row>
     <row r="90" spans="1:4">
@@ -2829,10 +2829,10 @@
         <v>92</v>
       </c>
       <c r="C90" t="s">
-        <v>355</v>
+        <v>356</v>
       </c>
       <c r="D90" t="s">
-        <v>389</v>
+        <v>374</v>
       </c>
     </row>
     <row r="91" spans="1:4">
@@ -2843,10 +2843,10 @@
         <v>93</v>
       </c>
       <c r="C91" t="s">
-        <v>356</v>
+        <v>355</v>
       </c>
       <c r="D91" t="s">
-        <v>374</v>
+        <v>382</v>
       </c>
     </row>
     <row r="92" spans="1:4">
@@ -2969,10 +2969,10 @@
         <v>102</v>
       </c>
       <c r="C100" t="s">
-        <v>355</v>
+        <v>354</v>
       </c>
       <c r="D100" t="s">
-        <v>362</v>
+        <v>376</v>
       </c>
     </row>
     <row r="101" spans="1:4">
@@ -2983,10 +2983,10 @@
         <v>103</v>
       </c>
       <c r="C101" t="s">
-        <v>354</v>
+        <v>355</v>
       </c>
       <c r="D101" t="s">
-        <v>377</v>
+        <v>362</v>
       </c>
     </row>
     <row r="102" spans="1:4">
@@ -2997,10 +2997,10 @@
         <v>104</v>
       </c>
       <c r="C102" t="s">
-        <v>355</v>
+        <v>357</v>
       </c>
       <c r="D102" t="s">
-        <v>383</v>
+        <v>368</v>
       </c>
     </row>
     <row r="103" spans="1:4">
@@ -3011,10 +3011,10 @@
         <v>105</v>
       </c>
       <c r="C103" t="s">
-        <v>357</v>
+        <v>355</v>
       </c>
       <c r="D103" t="s">
-        <v>368</v>
+        <v>383</v>
       </c>
     </row>
     <row r="104" spans="1:4">
@@ -3028,7 +3028,7 @@
         <v>357</v>
       </c>
       <c r="D104" t="s">
-        <v>376</v>
+        <v>377</v>
       </c>
     </row>
     <row r="105" spans="1:4">
@@ -3067,10 +3067,10 @@
         <v>109</v>
       </c>
       <c r="C107" t="s">
-        <v>355</v>
+        <v>357</v>
       </c>
       <c r="D107" t="s">
-        <v>362</v>
+        <v>363</v>
       </c>
     </row>
     <row r="108" spans="1:4">
@@ -3081,10 +3081,10 @@
         <v>110</v>
       </c>
       <c r="C108" t="s">
-        <v>357</v>
+        <v>354</v>
       </c>
       <c r="D108" t="s">
-        <v>363</v>
+        <v>389</v>
       </c>
     </row>
     <row r="109" spans="1:4">
@@ -3098,7 +3098,7 @@
         <v>354</v>
       </c>
       <c r="D109" t="s">
-        <v>389</v>
+        <v>368</v>
       </c>
     </row>
     <row r="110" spans="1:4">
@@ -3109,10 +3109,10 @@
         <v>112</v>
       </c>
       <c r="C110" t="s">
-        <v>354</v>
+        <v>357</v>
       </c>
       <c r="D110" t="s">
-        <v>368</v>
+        <v>375</v>
       </c>
     </row>
     <row r="111" spans="1:4">
@@ -3123,10 +3123,10 @@
         <v>113</v>
       </c>
       <c r="C111" t="s">
-        <v>357</v>
+        <v>355</v>
       </c>
       <c r="D111" t="s">
-        <v>375</v>
+        <v>362</v>
       </c>
     </row>
     <row r="112" spans="1:4">
@@ -3165,7 +3165,7 @@
         <v>116</v>
       </c>
       <c r="C114" t="s">
-        <v>355</v>
+        <v>356</v>
       </c>
       <c r="D114" t="s">
         <v>366</v>
@@ -3179,7 +3179,7 @@
         <v>117</v>
       </c>
       <c r="C115" t="s">
-        <v>356</v>
+        <v>355</v>
       </c>
       <c r="D115" t="s">
         <v>366</v>
@@ -3277,10 +3277,10 @@
         <v>124</v>
       </c>
       <c r="C122" t="s">
-        <v>355</v>
+        <v>357</v>
       </c>
       <c r="D122" t="s">
-        <v>370</v>
+        <v>386</v>
       </c>
     </row>
     <row r="123" spans="1:4">
@@ -3291,10 +3291,10 @@
         <v>125</v>
       </c>
       <c r="C123" t="s">
-        <v>357</v>
+        <v>355</v>
       </c>
       <c r="D123" t="s">
-        <v>386</v>
+        <v>370</v>
       </c>
     </row>
     <row r="124" spans="1:4">
@@ -3434,7 +3434,7 @@
         <v>356</v>
       </c>
       <c r="D133" t="s">
-        <v>377</v>
+        <v>376</v>
       </c>
     </row>
     <row r="134" spans="1:4">
@@ -3473,10 +3473,10 @@
         <v>138</v>
       </c>
       <c r="C136" t="s">
-        <v>355</v>
+        <v>354</v>
       </c>
       <c r="D136" t="s">
-        <v>380</v>
+        <v>387</v>
       </c>
     </row>
     <row r="137" spans="1:4">
@@ -3487,10 +3487,10 @@
         <v>139</v>
       </c>
       <c r="C137" t="s">
-        <v>354</v>
+        <v>355</v>
       </c>
       <c r="D137" t="s">
-        <v>387</v>
+        <v>380</v>
       </c>
     </row>
     <row r="138" spans="1:4">
@@ -3529,10 +3529,10 @@
         <v>142</v>
       </c>
       <c r="C140" t="s">
-        <v>355</v>
+        <v>357</v>
       </c>
       <c r="D140" t="s">
-        <v>391</v>
+        <v>360</v>
       </c>
     </row>
     <row r="141" spans="1:4">
@@ -3543,10 +3543,10 @@
         <v>143</v>
       </c>
       <c r="C141" t="s">
-        <v>357</v>
+        <v>355</v>
       </c>
       <c r="D141" t="s">
-        <v>360</v>
+        <v>391</v>
       </c>
     </row>
     <row r="142" spans="1:4">
@@ -3641,7 +3641,7 @@
         <v>150</v>
       </c>
       <c r="C148" t="s">
-        <v>355</v>
+        <v>354</v>
       </c>
       <c r="D148" t="s">
         <v>385</v>
@@ -3655,10 +3655,10 @@
         <v>151</v>
       </c>
       <c r="C149" t="s">
-        <v>356</v>
+        <v>357</v>
       </c>
       <c r="D149" t="s">
-        <v>376</v>
+        <v>362</v>
       </c>
     </row>
     <row r="150" spans="1:4">
@@ -3669,10 +3669,10 @@
         <v>152</v>
       </c>
       <c r="C150" t="s">
-        <v>358</v>
+        <v>356</v>
       </c>
       <c r="D150" t="s">
-        <v>374</v>
+        <v>368</v>
       </c>
     </row>
     <row r="151" spans="1:4">
@@ -3683,7 +3683,7 @@
         <v>153</v>
       </c>
       <c r="C151" t="s">
-        <v>354</v>
+        <v>355</v>
       </c>
       <c r="D151" t="s">
         <v>385</v>
@@ -3697,10 +3697,10 @@
         <v>154</v>
       </c>
       <c r="C152" t="s">
-        <v>357</v>
+        <v>356</v>
       </c>
       <c r="D152" t="s">
-        <v>362</v>
+        <v>377</v>
       </c>
     </row>
     <row r="153" spans="1:4">
@@ -3711,10 +3711,10 @@
         <v>155</v>
       </c>
       <c r="C153" t="s">
-        <v>356</v>
+        <v>358</v>
       </c>
       <c r="D153" t="s">
-        <v>368</v>
+        <v>374</v>
       </c>
     </row>
     <row r="154" spans="1:4">
@@ -3795,10 +3795,10 @@
         <v>161</v>
       </c>
       <c r="C159" t="s">
-        <v>356</v>
+        <v>357</v>
       </c>
       <c r="D159" t="s">
-        <v>386</v>
+        <v>371</v>
       </c>
     </row>
     <row r="160" spans="1:4">
@@ -3812,7 +3812,7 @@
         <v>357</v>
       </c>
       <c r="D160" t="s">
-        <v>371</v>
+        <v>391</v>
       </c>
     </row>
     <row r="161" spans="1:4">
@@ -3823,10 +3823,10 @@
         <v>163</v>
       </c>
       <c r="C161" t="s">
-        <v>357</v>
+        <v>356</v>
       </c>
       <c r="D161" t="s">
-        <v>391</v>
+        <v>386</v>
       </c>
     </row>
     <row r="162" spans="1:4">
@@ -3893,10 +3893,10 @@
         <v>168</v>
       </c>
       <c r="C166" t="s">
-        <v>358</v>
+        <v>357</v>
       </c>
       <c r="D166" t="s">
-        <v>360</v>
+        <v>385</v>
       </c>
     </row>
     <row r="167" spans="1:4">
@@ -3907,10 +3907,10 @@
         <v>169</v>
       </c>
       <c r="C167" t="s">
-        <v>357</v>
+        <v>354</v>
       </c>
       <c r="D167" t="s">
-        <v>385</v>
+        <v>369</v>
       </c>
     </row>
     <row r="168" spans="1:4">
@@ -3921,10 +3921,10 @@
         <v>170</v>
       </c>
       <c r="C168" t="s">
-        <v>355</v>
+        <v>358</v>
       </c>
       <c r="D168" t="s">
-        <v>371</v>
+        <v>360</v>
       </c>
     </row>
     <row r="169" spans="1:4">
@@ -3935,10 +3935,10 @@
         <v>171</v>
       </c>
       <c r="C169" t="s">
-        <v>354</v>
+        <v>355</v>
       </c>
       <c r="D169" t="s">
-        <v>369</v>
+        <v>371</v>
       </c>
     </row>
     <row r="170" spans="1:4">
@@ -3991,10 +3991,10 @@
         <v>175</v>
       </c>
       <c r="C173" t="s">
-        <v>358</v>
+        <v>357</v>
       </c>
       <c r="D173" t="s">
-        <v>369</v>
+        <v>361</v>
       </c>
     </row>
     <row r="174" spans="1:4">
@@ -4008,7 +4008,7 @@
         <v>358</v>
       </c>
       <c r="D174" t="s">
-        <v>368</v>
+        <v>369</v>
       </c>
     </row>
     <row r="175" spans="1:4">
@@ -4019,10 +4019,10 @@
         <v>177</v>
       </c>
       <c r="C175" t="s">
-        <v>357</v>
+        <v>358</v>
       </c>
       <c r="D175" t="s">
-        <v>361</v>
+        <v>368</v>
       </c>
     </row>
     <row r="176" spans="1:4">
@@ -4036,7 +4036,7 @@
         <v>358</v>
       </c>
       <c r="D176" t="s">
-        <v>377</v>
+        <v>376</v>
       </c>
     </row>
     <row r="177" spans="1:4">
@@ -4047,10 +4047,10 @@
         <v>179</v>
       </c>
       <c r="C177" t="s">
-        <v>355</v>
+        <v>354</v>
       </c>
       <c r="D177" t="s">
-        <v>388</v>
+        <v>385</v>
       </c>
     </row>
     <row r="178" spans="1:4">
@@ -4061,10 +4061,10 @@
         <v>180</v>
       </c>
       <c r="C178" t="s">
-        <v>354</v>
+        <v>355</v>
       </c>
       <c r="D178" t="s">
-        <v>385</v>
+        <v>388</v>
       </c>
     </row>
     <row r="179" spans="1:4">
@@ -4131,10 +4131,10 @@
         <v>185</v>
       </c>
       <c r="C183" t="s">
-        <v>359</v>
+        <v>356</v>
       </c>
       <c r="D183" t="s">
-        <v>374</v>
+        <v>385</v>
       </c>
     </row>
     <row r="184" spans="1:4">
@@ -4145,10 +4145,10 @@
         <v>186</v>
       </c>
       <c r="C184" t="s">
-        <v>355</v>
+        <v>359</v>
       </c>
       <c r="D184" t="s">
-        <v>361</v>
+        <v>374</v>
       </c>
     </row>
     <row r="185" spans="1:4">
@@ -4159,10 +4159,10 @@
         <v>187</v>
       </c>
       <c r="C185" t="s">
-        <v>356</v>
+        <v>357</v>
       </c>
       <c r="D185" t="s">
-        <v>385</v>
+        <v>390</v>
       </c>
     </row>
     <row r="186" spans="1:4">
@@ -4173,10 +4173,10 @@
         <v>188</v>
       </c>
       <c r="C186" t="s">
-        <v>357</v>
+        <v>355</v>
       </c>
       <c r="D186" t="s">
-        <v>390</v>
+        <v>361</v>
       </c>
     </row>
     <row r="187" spans="1:4">
@@ -4218,7 +4218,7 @@
         <v>355</v>
       </c>
       <c r="D189" t="s">
-        <v>376</v>
+        <v>377</v>
       </c>
     </row>
     <row r="190" spans="1:4">
@@ -4316,7 +4316,7 @@
         <v>355</v>
       </c>
       <c r="D196" t="s">
-        <v>376</v>
+        <v>377</v>
       </c>
     </row>
     <row r="197" spans="1:4">
@@ -4355,10 +4355,10 @@
         <v>201</v>
       </c>
       <c r="C199" t="s">
-        <v>358</v>
+        <v>354</v>
       </c>
       <c r="D199" t="s">
-        <v>379</v>
+        <v>383</v>
       </c>
     </row>
     <row r="200" spans="1:4">
@@ -4369,10 +4369,10 @@
         <v>202</v>
       </c>
       <c r="C200" t="s">
-        <v>354</v>
+        <v>358</v>
       </c>
       <c r="D200" t="s">
-        <v>373</v>
+        <v>379</v>
       </c>
     </row>
     <row r="201" spans="1:4">
@@ -4386,7 +4386,7 @@
         <v>354</v>
       </c>
       <c r="D201" t="s">
-        <v>383</v>
+        <v>373</v>
       </c>
     </row>
     <row r="202" spans="1:4">
@@ -4397,10 +4397,10 @@
         <v>204</v>
       </c>
       <c r="C202" t="s">
-        <v>358</v>
+        <v>354</v>
       </c>
       <c r="D202" t="s">
-        <v>364</v>
+        <v>378</v>
       </c>
     </row>
     <row r="203" spans="1:4">
@@ -4411,10 +4411,10 @@
         <v>205</v>
       </c>
       <c r="C203" t="s">
-        <v>354</v>
+        <v>358</v>
       </c>
       <c r="D203" t="s">
-        <v>378</v>
+        <v>364</v>
       </c>
     </row>
     <row r="204" spans="1:4">
@@ -4456,7 +4456,7 @@
         <v>358</v>
       </c>
       <c r="D206" t="s">
-        <v>376</v>
+        <v>377</v>
       </c>
     </row>
     <row r="207" spans="1:4">
@@ -4470,7 +4470,7 @@
         <v>355</v>
       </c>
       <c r="D207" t="s">
-        <v>377</v>
+        <v>376</v>
       </c>
     </row>
     <row r="208" spans="1:4">
@@ -4481,10 +4481,10 @@
         <v>210</v>
       </c>
       <c r="C208" t="s">
-        <v>355</v>
+        <v>354</v>
       </c>
       <c r="D208" t="s">
-        <v>360</v>
+        <v>364</v>
       </c>
     </row>
     <row r="209" spans="1:4">
@@ -4495,10 +4495,10 @@
         <v>211</v>
       </c>
       <c r="C209" t="s">
-        <v>354</v>
+        <v>355</v>
       </c>
       <c r="D209" t="s">
-        <v>364</v>
+        <v>360</v>
       </c>
     </row>
     <row r="210" spans="1:4">
@@ -4523,10 +4523,10 @@
         <v>213</v>
       </c>
       <c r="C211" t="s">
-        <v>355</v>
+        <v>357</v>
       </c>
       <c r="D211" t="s">
-        <v>360</v>
+        <v>388</v>
       </c>
     </row>
     <row r="212" spans="1:4">
@@ -4537,10 +4537,10 @@
         <v>214</v>
       </c>
       <c r="C212" t="s">
-        <v>357</v>
+        <v>356</v>
       </c>
       <c r="D212" t="s">
-        <v>388</v>
+        <v>390</v>
       </c>
     </row>
     <row r="213" spans="1:4">
@@ -4551,10 +4551,10 @@
         <v>215</v>
       </c>
       <c r="C213" t="s">
-        <v>356</v>
+        <v>355</v>
       </c>
       <c r="D213" t="s">
-        <v>390</v>
+        <v>360</v>
       </c>
     </row>
     <row r="214" spans="1:4">
@@ -4593,10 +4593,10 @@
         <v>218</v>
       </c>
       <c r="C216" t="s">
-        <v>355</v>
+        <v>356</v>
       </c>
       <c r="D216" t="s">
-        <v>385</v>
+        <v>360</v>
       </c>
     </row>
     <row r="217" spans="1:4">
@@ -4607,10 +4607,10 @@
         <v>219</v>
       </c>
       <c r="C217" t="s">
-        <v>356</v>
+        <v>355</v>
       </c>
       <c r="D217" t="s">
-        <v>360</v>
+        <v>385</v>
       </c>
     </row>
     <row r="218" spans="1:4">
@@ -4621,10 +4621,10 @@
         <v>220</v>
       </c>
       <c r="C218" t="s">
-        <v>359</v>
+        <v>357</v>
       </c>
       <c r="D218" t="s">
-        <v>380</v>
+        <v>382</v>
       </c>
     </row>
     <row r="219" spans="1:4">
@@ -4635,10 +4635,10 @@
         <v>221</v>
       </c>
       <c r="C219" t="s">
-        <v>357</v>
+        <v>359</v>
       </c>
       <c r="D219" t="s">
-        <v>382</v>
+        <v>380</v>
       </c>
     </row>
     <row r="220" spans="1:4">
@@ -4649,10 +4649,10 @@
         <v>222</v>
       </c>
       <c r="C220" t="s">
-        <v>358</v>
+        <v>354</v>
       </c>
       <c r="D220" t="s">
-        <v>373</v>
+        <v>370</v>
       </c>
     </row>
     <row r="221" spans="1:4">
@@ -4663,10 +4663,10 @@
         <v>223</v>
       </c>
       <c r="C221" t="s">
-        <v>354</v>
+        <v>358</v>
       </c>
       <c r="D221" t="s">
-        <v>370</v>
+        <v>373</v>
       </c>
     </row>
     <row r="222" spans="1:4">
@@ -4677,10 +4677,10 @@
         <v>224</v>
       </c>
       <c r="C222" t="s">
-        <v>358</v>
+        <v>354</v>
       </c>
       <c r="D222" t="s">
-        <v>367</v>
+        <v>390</v>
       </c>
     </row>
     <row r="223" spans="1:4">
@@ -4694,7 +4694,7 @@
         <v>358</v>
       </c>
       <c r="D223" t="s">
-        <v>384</v>
+        <v>367</v>
       </c>
     </row>
     <row r="224" spans="1:4">
@@ -4705,10 +4705,10 @@
         <v>226</v>
       </c>
       <c r="C224" t="s">
-        <v>354</v>
+        <v>358</v>
       </c>
       <c r="D224" t="s">
-        <v>390</v>
+        <v>384</v>
       </c>
     </row>
     <row r="225" spans="1:4">
@@ -4719,10 +4719,10 @@
         <v>227</v>
       </c>
       <c r="C225" t="s">
-        <v>358</v>
+        <v>354</v>
       </c>
       <c r="D225" t="s">
-        <v>370</v>
+        <v>378</v>
       </c>
     </row>
     <row r="226" spans="1:4">
@@ -4733,10 +4733,10 @@
         <v>228</v>
       </c>
       <c r="C226" t="s">
-        <v>354</v>
+        <v>358</v>
       </c>
       <c r="D226" t="s">
-        <v>378</v>
+        <v>370</v>
       </c>
     </row>
     <row r="227" spans="1:4">
@@ -4778,7 +4778,7 @@
         <v>354</v>
       </c>
       <c r="D229" t="s">
-        <v>373</v>
+        <v>382</v>
       </c>
     </row>
     <row r="230" spans="1:4">
@@ -4792,7 +4792,7 @@
         <v>354</v>
       </c>
       <c r="D230" t="s">
-        <v>382</v>
+        <v>370</v>
       </c>
     </row>
     <row r="231" spans="1:4">
@@ -4806,7 +4806,7 @@
         <v>354</v>
       </c>
       <c r="D231" t="s">
-        <v>370</v>
+        <v>373</v>
       </c>
     </row>
     <row r="232" spans="1:4">
@@ -4817,10 +4817,10 @@
         <v>234</v>
       </c>
       <c r="C232" t="s">
-        <v>359</v>
+        <v>354</v>
       </c>
       <c r="D232" t="s">
-        <v>392</v>
+        <v>365</v>
       </c>
     </row>
     <row r="233" spans="1:4">
@@ -4831,10 +4831,10 @@
         <v>235</v>
       </c>
       <c r="C233" t="s">
-        <v>354</v>
+        <v>359</v>
       </c>
       <c r="D233" t="s">
-        <v>365</v>
+        <v>392</v>
       </c>
     </row>
     <row r="234" spans="1:4">
@@ -4845,10 +4845,10 @@
         <v>236</v>
       </c>
       <c r="C234" t="s">
-        <v>355</v>
+        <v>354</v>
       </c>
       <c r="D234" t="s">
-        <v>383</v>
+        <v>373</v>
       </c>
     </row>
     <row r="235" spans="1:4">
@@ -4859,10 +4859,10 @@
         <v>237</v>
       </c>
       <c r="C235" t="s">
-        <v>354</v>
+        <v>355</v>
       </c>
       <c r="D235" t="s">
-        <v>373</v>
+        <v>383</v>
       </c>
     </row>
     <row r="236" spans="1:4">
@@ -4873,10 +4873,10 @@
         <v>238</v>
       </c>
       <c r="C236" t="s">
-        <v>359</v>
+        <v>354</v>
       </c>
       <c r="D236" t="s">
-        <v>377</v>
+        <v>383</v>
       </c>
     </row>
     <row r="237" spans="1:4">
@@ -4887,10 +4887,10 @@
         <v>239</v>
       </c>
       <c r="C237" t="s">
-        <v>355</v>
+        <v>359</v>
       </c>
       <c r="D237" t="s">
-        <v>391</v>
+        <v>376</v>
       </c>
     </row>
     <row r="238" spans="1:4">
@@ -4904,7 +4904,7 @@
         <v>355</v>
       </c>
       <c r="D238" t="s">
-        <v>367</v>
+        <v>391</v>
       </c>
     </row>
     <row r="239" spans="1:4">
@@ -4918,7 +4918,7 @@
         <v>355</v>
       </c>
       <c r="D239" t="s">
-        <v>374</v>
+        <v>367</v>
       </c>
     </row>
     <row r="240" spans="1:4">
@@ -4932,7 +4932,7 @@
         <v>355</v>
       </c>
       <c r="D240" t="s">
-        <v>371</v>
+        <v>374</v>
       </c>
     </row>
     <row r="241" spans="1:4">
@@ -4943,10 +4943,10 @@
         <v>243</v>
       </c>
       <c r="C241" t="s">
-        <v>354</v>
+        <v>355</v>
       </c>
       <c r="D241" t="s">
-        <v>383</v>
+        <v>371</v>
       </c>
     </row>
     <row r="242" spans="1:4">
@@ -5055,10 +5055,10 @@
         <v>251</v>
       </c>
       <c r="C249" t="s">
-        <v>358</v>
+        <v>354</v>
       </c>
       <c r="D249" t="s">
-        <v>365</v>
+        <v>374</v>
       </c>
     </row>
     <row r="250" spans="1:4">
@@ -5069,10 +5069,10 @@
         <v>252</v>
       </c>
       <c r="C250" t="s">
-        <v>354</v>
+        <v>357</v>
       </c>
       <c r="D250" t="s">
-        <v>374</v>
+        <v>366</v>
       </c>
     </row>
     <row r="251" spans="1:4">
@@ -5083,10 +5083,10 @@
         <v>253</v>
       </c>
       <c r="C251" t="s">
-        <v>357</v>
+        <v>358</v>
       </c>
       <c r="D251" t="s">
-        <v>366</v>
+        <v>365</v>
       </c>
     </row>
     <row r="252" spans="1:4">
@@ -5156,7 +5156,7 @@
         <v>355</v>
       </c>
       <c r="D256" t="s">
-        <v>376</v>
+        <v>377</v>
       </c>
     </row>
     <row r="257" spans="1:4">
@@ -5198,7 +5198,7 @@
         <v>355</v>
       </c>
       <c r="D259" t="s">
-        <v>376</v>
+        <v>377</v>
       </c>
     </row>
     <row r="260" spans="1:4">
@@ -5324,7 +5324,7 @@
         <v>359</v>
       </c>
       <c r="D268" t="s">
-        <v>376</v>
+        <v>377</v>
       </c>
     </row>
     <row r="269" spans="1:4">
@@ -5587,10 +5587,10 @@
         <v>289</v>
       </c>
       <c r="C287" t="s">
-        <v>355</v>
+        <v>357</v>
       </c>
       <c r="D287" t="s">
-        <v>362</v>
+        <v>389</v>
       </c>
     </row>
     <row r="288" spans="1:4">
@@ -5601,10 +5601,10 @@
         <v>290</v>
       </c>
       <c r="C288" t="s">
-        <v>357</v>
+        <v>354</v>
       </c>
       <c r="D288" t="s">
-        <v>389</v>
+        <v>364</v>
       </c>
     </row>
     <row r="289" spans="1:4">
@@ -5615,10 +5615,10 @@
         <v>291</v>
       </c>
       <c r="C289" t="s">
-        <v>354</v>
+        <v>355</v>
       </c>
       <c r="D289" t="s">
-        <v>364</v>
+        <v>362</v>
       </c>
     </row>
     <row r="290" spans="1:4">
@@ -5671,10 +5671,10 @@
         <v>295</v>
       </c>
       <c r="C293" t="s">
-        <v>358</v>
+        <v>357</v>
       </c>
       <c r="D293" t="s">
-        <v>371</v>
+        <v>366</v>
       </c>
     </row>
     <row r="294" spans="1:4">
@@ -5685,10 +5685,10 @@
         <v>296</v>
       </c>
       <c r="C294" t="s">
-        <v>357</v>
+        <v>358</v>
       </c>
       <c r="D294" t="s">
-        <v>366</v>
+        <v>371</v>
       </c>
     </row>
     <row r="295" spans="1:4">
@@ -5811,10 +5811,10 @@
         <v>305</v>
       </c>
       <c r="C303" t="s">
-        <v>358</v>
+        <v>354</v>
       </c>
       <c r="D303" t="s">
-        <v>388</v>
+        <v>366</v>
       </c>
     </row>
     <row r="304" spans="1:4">
@@ -5825,10 +5825,10 @@
         <v>306</v>
       </c>
       <c r="C304" t="s">
-        <v>354</v>
+        <v>358</v>
       </c>
       <c r="D304" t="s">
-        <v>368</v>
+        <v>388</v>
       </c>
     </row>
     <row r="305" spans="1:4">
@@ -5842,7 +5842,7 @@
         <v>354</v>
       </c>
       <c r="D305" t="s">
-        <v>366</v>
+        <v>368</v>
       </c>
     </row>
     <row r="306" spans="1:4">
@@ -6077,10 +6077,10 @@
         <v>324</v>
       </c>
       <c r="C322" t="s">
-        <v>355</v>
+        <v>357</v>
       </c>
       <c r="D322" t="s">
-        <v>363</v>
+        <v>389</v>
       </c>
     </row>
     <row r="323" spans="1:4">
@@ -6091,10 +6091,10 @@
         <v>325</v>
       </c>
       <c r="C323" t="s">
-        <v>357</v>
+        <v>355</v>
       </c>
       <c r="D323" t="s">
-        <v>389</v>
+        <v>363</v>
       </c>
     </row>
     <row r="324" spans="1:4">
@@ -6108,7 +6108,7 @@
         <v>356</v>
       </c>
       <c r="D324" t="s">
-        <v>377</v>
+        <v>376</v>
       </c>
     </row>
     <row r="325" spans="1:4">
@@ -6133,10 +6133,10 @@
         <v>328</v>
       </c>
       <c r="C326" t="s">
-        <v>356</v>
+        <v>357</v>
       </c>
       <c r="D326" t="s">
-        <v>369</v>
+        <v>378</v>
       </c>
     </row>
     <row r="327" spans="1:4">
@@ -6147,10 +6147,10 @@
         <v>329</v>
       </c>
       <c r="C327" t="s">
-        <v>357</v>
+        <v>356</v>
       </c>
       <c r="D327" t="s">
-        <v>378</v>
+        <v>369</v>
       </c>
     </row>
     <row r="328" spans="1:4">
@@ -6763,13 +6763,13 @@
         <v>18</v>
       </c>
       <c r="B19" t="s">
-        <v>22</v>
+        <v>23</v>
       </c>
       <c r="C19" t="s">
         <v>354</v>
       </c>
       <c r="D19" t="s">
-        <v>376</v>
+        <v>377</v>
       </c>
     </row>
     <row r="20" spans="1:4">
@@ -6805,13 +6805,13 @@
         <v>21</v>
       </c>
       <c r="B22" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="C22" t="s">
         <v>354</v>
       </c>
       <c r="D22" t="s">
-        <v>377</v>
+        <v>376</v>
       </c>
     </row>
     <row r="23" spans="1:4">
@@ -6931,7 +6931,7 @@
         <v>30</v>
       </c>
       <c r="B31" t="s">
-        <v>39</v>
+        <v>38</v>
       </c>
       <c r="C31" t="s">
         <v>355</v>
@@ -7021,7 +7021,7 @@
         <v>355</v>
       </c>
       <c r="D37" t="s">
-        <v>377</v>
+        <v>376</v>
       </c>
     </row>
     <row r="38" spans="1:4">
@@ -7029,7 +7029,7 @@
         <v>37</v>
       </c>
       <c r="B38" t="s">
-        <v>38</v>
+        <v>39</v>
       </c>
       <c r="C38" t="s">
         <v>355</v>
@@ -7099,7 +7099,7 @@
         <v>42</v>
       </c>
       <c r="B43" t="s">
-        <v>53</v>
+        <v>54</v>
       </c>
       <c r="C43" t="s">
         <v>355</v>
@@ -7133,7 +7133,7 @@
         <v>354</v>
       </c>
       <c r="D45" t="s">
-        <v>376</v>
+        <v>377</v>
       </c>
     </row>
     <row r="46" spans="1:4">
@@ -7239,7 +7239,7 @@
         <v>52</v>
       </c>
       <c r="B53" t="s">
-        <v>54</v>
+        <v>53</v>
       </c>
       <c r="C53" t="s">
         <v>356</v>
@@ -7253,7 +7253,7 @@
         <v>53</v>
       </c>
       <c r="B54" t="s">
-        <v>55</v>
+        <v>56</v>
       </c>
       <c r="C54" t="s">
         <v>355</v>
@@ -7267,7 +7267,7 @@
         <v>54</v>
       </c>
       <c r="B55" t="s">
-        <v>56</v>
+        <v>55</v>
       </c>
       <c r="C55" t="s">
         <v>356</v>
@@ -7337,7 +7337,7 @@
         <v>59</v>
       </c>
       <c r="B60" t="s">
-        <v>68</v>
+        <v>69</v>
       </c>
       <c r="C60" t="s">
         <v>354</v>
@@ -7365,7 +7365,7 @@
         <v>61</v>
       </c>
       <c r="B62" t="s">
-        <v>69</v>
+        <v>68</v>
       </c>
       <c r="C62" t="s">
         <v>354</v>
@@ -7399,7 +7399,7 @@
         <v>355</v>
       </c>
       <c r="D64" t="s">
-        <v>377</v>
+        <v>376</v>
       </c>
     </row>
     <row r="65" spans="1:4">
@@ -7407,7 +7407,7 @@
         <v>64</v>
       </c>
       <c r="B65" t="s">
-        <v>67</v>
+        <v>66</v>
       </c>
       <c r="C65" t="s">
         <v>357</v>
@@ -7435,7 +7435,7 @@
         <v>66</v>
       </c>
       <c r="B67" t="s">
-        <v>73</v>
+        <v>72</v>
       </c>
       <c r="C67" t="s">
         <v>355</v>
@@ -7463,7 +7463,7 @@
         <v>68</v>
       </c>
       <c r="B69" t="s">
-        <v>66</v>
+        <v>67</v>
       </c>
       <c r="C69" t="s">
         <v>355</v>
@@ -7477,7 +7477,7 @@
         <v>69</v>
       </c>
       <c r="B70" t="s">
-        <v>72</v>
+        <v>73</v>
       </c>
       <c r="C70" t="s">
         <v>355</v>
@@ -7533,13 +7533,13 @@
         <v>73</v>
       </c>
       <c r="B74" t="s">
-        <v>76</v>
+        <v>71</v>
       </c>
       <c r="C74" t="s">
-        <v>354</v>
+        <v>355</v>
       </c>
       <c r="D74" t="s">
-        <v>389</v>
+        <v>388</v>
       </c>
     </row>
     <row r="75" spans="1:4">
@@ -7547,13 +7547,13 @@
         <v>74</v>
       </c>
       <c r="B75" t="s">
-        <v>71</v>
+        <v>76</v>
       </c>
       <c r="C75" t="s">
-        <v>355</v>
+        <v>354</v>
       </c>
       <c r="D75" t="s">
-        <v>388</v>
+        <v>389</v>
       </c>
     </row>
     <row r="76" spans="1:4">
@@ -7603,13 +7603,13 @@
         <v>78</v>
       </c>
       <c r="B79" t="s">
-        <v>95</v>
+        <v>97</v>
       </c>
       <c r="C79" t="s">
         <v>354</v>
       </c>
       <c r="D79" t="s">
-        <v>379</v>
+        <v>367</v>
       </c>
     </row>
     <row r="80" spans="1:4">
@@ -7617,13 +7617,13 @@
         <v>79</v>
       </c>
       <c r="B80" t="s">
-        <v>97</v>
+        <v>95</v>
       </c>
       <c r="C80" t="s">
         <v>354</v>
       </c>
       <c r="D80" t="s">
-        <v>367</v>
+        <v>379</v>
       </c>
     </row>
     <row r="81" spans="1:4">
@@ -7673,13 +7673,13 @@
         <v>83</v>
       </c>
       <c r="B84" t="s">
-        <v>86</v>
+        <v>85</v>
       </c>
       <c r="C84" t="s">
         <v>357</v>
       </c>
       <c r="D84" t="s">
-        <v>377</v>
+        <v>376</v>
       </c>
     </row>
     <row r="85" spans="1:4">
@@ -7771,7 +7771,7 @@
         <v>90</v>
       </c>
       <c r="B91" t="s">
-        <v>85</v>
+        <v>86</v>
       </c>
       <c r="C91" t="s">
         <v>355</v>
@@ -7785,13 +7785,13 @@
         <v>91</v>
       </c>
       <c r="B92" t="s">
-        <v>103</v>
+        <v>102</v>
       </c>
       <c r="C92" t="s">
         <v>354</v>
       </c>
       <c r="D92" t="s">
-        <v>377</v>
+        <v>376</v>
       </c>
     </row>
     <row r="93" spans="1:4">
@@ -7799,7 +7799,7 @@
         <v>92</v>
       </c>
       <c r="B93" t="s">
-        <v>91</v>
+        <v>90</v>
       </c>
       <c r="C93" t="s">
         <v>355</v>
@@ -7827,7 +7827,7 @@
         <v>94</v>
       </c>
       <c r="B95" t="s">
-        <v>90</v>
+        <v>93</v>
       </c>
       <c r="C95" t="s">
         <v>355</v>
@@ -7847,7 +7847,7 @@
         <v>355</v>
       </c>
       <c r="D96" t="s">
-        <v>376</v>
+        <v>377</v>
       </c>
     </row>
     <row r="97" spans="1:4">
@@ -7869,7 +7869,7 @@
         <v>97</v>
       </c>
       <c r="B98" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="C98" t="s">
         <v>355</v>
@@ -7897,7 +7897,7 @@
         <v>99</v>
       </c>
       <c r="B100" t="s">
-        <v>105</v>
+        <v>104</v>
       </c>
       <c r="C100" t="s">
         <v>357</v>
@@ -7911,13 +7911,13 @@
         <v>100</v>
       </c>
       <c r="B101" t="s">
-        <v>93</v>
+        <v>106</v>
       </c>
       <c r="C101" t="s">
-        <v>356</v>
+        <v>357</v>
       </c>
       <c r="D101" t="s">
-        <v>374</v>
+        <v>377</v>
       </c>
     </row>
     <row r="102" spans="1:4">
@@ -7925,13 +7925,13 @@
         <v>101</v>
       </c>
       <c r="B102" t="s">
-        <v>106</v>
+        <v>92</v>
       </c>
       <c r="C102" t="s">
-        <v>357</v>
+        <v>356</v>
       </c>
       <c r="D102" t="s">
-        <v>376</v>
+        <v>374</v>
       </c>
     </row>
     <row r="103" spans="1:4">
@@ -7939,7 +7939,7 @@
         <v>102</v>
       </c>
       <c r="B103" t="s">
-        <v>102</v>
+        <v>103</v>
       </c>
       <c r="C103" t="s">
         <v>355</v>
@@ -7953,7 +7953,7 @@
         <v>103</v>
       </c>
       <c r="B104" t="s">
-        <v>112</v>
+        <v>111</v>
       </c>
       <c r="C104" t="s">
         <v>354</v>
@@ -8009,7 +8009,7 @@
         <v>107</v>
       </c>
       <c r="B108" t="s">
-        <v>104</v>
+        <v>105</v>
       </c>
       <c r="C108" t="s">
         <v>355</v>
@@ -8051,7 +8051,7 @@
         <v>110</v>
       </c>
       <c r="B111" t="s">
-        <v>110</v>
+        <v>109</v>
       </c>
       <c r="C111" t="s">
         <v>357</v>
@@ -8065,7 +8065,7 @@
         <v>111</v>
       </c>
       <c r="B112" t="s">
-        <v>117</v>
+        <v>116</v>
       </c>
       <c r="C112" t="s">
         <v>356</v>
@@ -8079,7 +8079,7 @@
         <v>112</v>
       </c>
       <c r="B113" t="s">
-        <v>113</v>
+        <v>112</v>
       </c>
       <c r="C113" t="s">
         <v>357</v>
@@ -8093,7 +8093,7 @@
         <v>113</v>
       </c>
       <c r="B114" t="s">
-        <v>111</v>
+        <v>110</v>
       </c>
       <c r="C114" t="s">
         <v>354</v>
@@ -8121,7 +8121,7 @@
         <v>115</v>
       </c>
       <c r="B116" t="s">
-        <v>109</v>
+        <v>113</v>
       </c>
       <c r="C116" t="s">
         <v>355</v>
@@ -8149,7 +8149,7 @@
         <v>117</v>
       </c>
       <c r="B118" t="s">
-        <v>116</v>
+        <v>117</v>
       </c>
       <c r="C118" t="s">
         <v>355</v>
@@ -8205,7 +8205,7 @@
         <v>121</v>
       </c>
       <c r="B122" t="s">
-        <v>142</v>
+        <v>143</v>
       </c>
       <c r="C122" t="s">
         <v>355</v>
@@ -8247,7 +8247,7 @@
         <v>124</v>
       </c>
       <c r="B125" t="s">
-        <v>153</v>
+        <v>150</v>
       </c>
       <c r="C125" t="s">
         <v>354</v>
@@ -8275,7 +8275,7 @@
         <v>126</v>
       </c>
       <c r="B127" t="s">
-        <v>139</v>
+        <v>138</v>
       </c>
       <c r="C127" t="s">
         <v>354</v>
@@ -8317,7 +8317,7 @@
         <v>129</v>
       </c>
       <c r="B130" t="s">
-        <v>124</v>
+        <v>125</v>
       </c>
       <c r="C130" t="s">
         <v>355</v>
@@ -8359,7 +8359,7 @@
         <v>132</v>
       </c>
       <c r="B133" t="s">
-        <v>138</v>
+        <v>139</v>
       </c>
       <c r="C133" t="s">
         <v>355</v>
@@ -8435,7 +8435,7 @@
         <v>356</v>
       </c>
       <c r="D138" t="s">
-        <v>377</v>
+        <v>376</v>
       </c>
     </row>
     <row r="139" spans="1:4">
@@ -8457,7 +8457,7 @@
         <v>139</v>
       </c>
       <c r="B140" t="s">
-        <v>125</v>
+        <v>124</v>
       </c>
       <c r="C140" t="s">
         <v>357</v>
@@ -8471,13 +8471,13 @@
         <v>140</v>
       </c>
       <c r="B141" t="s">
-        <v>146</v>
+        <v>153</v>
       </c>
       <c r="C141" t="s">
         <v>355</v>
       </c>
       <c r="D141" t="s">
-        <v>391</v>
+        <v>385</v>
       </c>
     </row>
     <row r="142" spans="1:4">
@@ -8485,13 +8485,13 @@
         <v>141</v>
       </c>
       <c r="B142" t="s">
-        <v>150</v>
+        <v>146</v>
       </c>
       <c r="C142" t="s">
         <v>355</v>
       </c>
       <c r="D142" t="s">
-        <v>385</v>
+        <v>391</v>
       </c>
     </row>
     <row r="143" spans="1:4">
@@ -8583,13 +8583,13 @@
         <v>148</v>
       </c>
       <c r="B149" t="s">
-        <v>137</v>
+        <v>149</v>
       </c>
       <c r="C149" t="s">
-        <v>357</v>
+        <v>356</v>
       </c>
       <c r="D149" t="s">
-        <v>369</v>
+        <v>364</v>
       </c>
     </row>
     <row r="150" spans="1:4">
@@ -8597,13 +8597,13 @@
         <v>149</v>
       </c>
       <c r="B150" t="s">
-        <v>149</v>
+        <v>159</v>
       </c>
       <c r="C150" t="s">
-        <v>356</v>
+        <v>355</v>
       </c>
       <c r="D150" t="s">
-        <v>364</v>
+        <v>390</v>
       </c>
     </row>
     <row r="151" spans="1:4">
@@ -8611,13 +8611,13 @@
         <v>150</v>
       </c>
       <c r="B151" t="s">
-        <v>159</v>
+        <v>137</v>
       </c>
       <c r="C151" t="s">
-        <v>355</v>
+        <v>357</v>
       </c>
       <c r="D151" t="s">
-        <v>390</v>
+        <v>369</v>
       </c>
     </row>
     <row r="152" spans="1:4">
@@ -8625,7 +8625,7 @@
         <v>151</v>
       </c>
       <c r="B152" t="s">
-        <v>143</v>
+        <v>142</v>
       </c>
       <c r="C152" t="s">
         <v>357</v>
@@ -8639,7 +8639,7 @@
         <v>152</v>
       </c>
       <c r="B153" t="s">
-        <v>155</v>
+        <v>152</v>
       </c>
       <c r="C153" t="s">
         <v>356</v>
@@ -8653,13 +8653,13 @@
         <v>153</v>
       </c>
       <c r="B154" t="s">
-        <v>151</v>
+        <v>160</v>
       </c>
       <c r="C154" t="s">
         <v>356</v>
       </c>
       <c r="D154" t="s">
-        <v>376</v>
+        <v>389</v>
       </c>
     </row>
     <row r="155" spans="1:4">
@@ -8667,13 +8667,13 @@
         <v>154</v>
       </c>
       <c r="B155" t="s">
-        <v>160</v>
+        <v>154</v>
       </c>
       <c r="C155" t="s">
         <v>356</v>
       </c>
       <c r="D155" t="s">
-        <v>389</v>
+        <v>377</v>
       </c>
     </row>
     <row r="156" spans="1:4">
@@ -8681,13 +8681,13 @@
         <v>155</v>
       </c>
       <c r="B156" t="s">
-        <v>161</v>
+        <v>151</v>
       </c>
       <c r="C156" t="s">
-        <v>356</v>
+        <v>357</v>
       </c>
       <c r="D156" t="s">
-        <v>386</v>
+        <v>362</v>
       </c>
     </row>
     <row r="157" spans="1:4">
@@ -8695,13 +8695,13 @@
         <v>156</v>
       </c>
       <c r="B157" t="s">
-        <v>154</v>
+        <v>163</v>
       </c>
       <c r="C157" t="s">
-        <v>357</v>
+        <v>356</v>
       </c>
       <c r="D157" t="s">
-        <v>362</v>
+        <v>386</v>
       </c>
     </row>
     <row r="158" spans="1:4">
@@ -8723,13 +8723,13 @@
         <v>158</v>
       </c>
       <c r="B159" t="s">
-        <v>172</v>
+        <v>165</v>
       </c>
       <c r="C159" t="s">
-        <v>355</v>
+        <v>354</v>
       </c>
       <c r="D159" t="s">
-        <v>364</v>
+        <v>375</v>
       </c>
     </row>
     <row r="160" spans="1:4">
@@ -8737,13 +8737,13 @@
         <v>159</v>
       </c>
       <c r="B160" t="s">
-        <v>165</v>
+        <v>172</v>
       </c>
       <c r="C160" t="s">
-        <v>354</v>
+        <v>355</v>
       </c>
       <c r="D160" t="s">
-        <v>375</v>
+        <v>364</v>
       </c>
     </row>
     <row r="161" spans="1:4">
@@ -8751,7 +8751,7 @@
         <v>160</v>
       </c>
       <c r="B161" t="s">
-        <v>170</v>
+        <v>171</v>
       </c>
       <c r="C161" t="s">
         <v>355</v>
@@ -8765,7 +8765,7 @@
         <v>161</v>
       </c>
       <c r="B162" t="s">
-        <v>171</v>
+        <v>169</v>
       </c>
       <c r="C162" t="s">
         <v>354</v>
@@ -8793,7 +8793,7 @@
         <v>163</v>
       </c>
       <c r="B164" t="s">
-        <v>152</v>
+        <v>155</v>
       </c>
       <c r="C164" t="s">
         <v>358</v>
@@ -8807,7 +8807,7 @@
         <v>164</v>
       </c>
       <c r="B165" t="s">
-        <v>162</v>
+        <v>161</v>
       </c>
       <c r="C165" t="s">
         <v>357</v>
@@ -8821,7 +8821,7 @@
         <v>165</v>
       </c>
       <c r="B166" t="s">
-        <v>186</v>
+        <v>188</v>
       </c>
       <c r="C166" t="s">
         <v>355</v>
@@ -8835,13 +8835,13 @@
         <v>166</v>
       </c>
       <c r="B167" t="s">
-        <v>158</v>
+        <v>193</v>
       </c>
       <c r="C167" t="s">
-        <v>358</v>
+        <v>355</v>
       </c>
       <c r="D167" t="s">
-        <v>380</v>
+        <v>371</v>
       </c>
     </row>
     <row r="168" spans="1:4">
@@ -8849,13 +8849,13 @@
         <v>167</v>
       </c>
       <c r="B168" t="s">
-        <v>193</v>
+        <v>158</v>
       </c>
       <c r="C168" t="s">
-        <v>355</v>
+        <v>358</v>
       </c>
       <c r="D168" t="s">
-        <v>371</v>
+        <v>380</v>
       </c>
     </row>
     <row r="169" spans="1:4">
@@ -8877,13 +8877,13 @@
         <v>169</v>
       </c>
       <c r="B170" t="s">
-        <v>163</v>
+        <v>183</v>
       </c>
       <c r="C170" t="s">
-        <v>357</v>
+        <v>355</v>
       </c>
       <c r="D170" t="s">
-        <v>391</v>
+        <v>370</v>
       </c>
     </row>
     <row r="171" spans="1:4">
@@ -8891,13 +8891,13 @@
         <v>170</v>
       </c>
       <c r="B171" t="s">
-        <v>183</v>
+        <v>180</v>
       </c>
       <c r="C171" t="s">
         <v>355</v>
       </c>
       <c r="D171" t="s">
-        <v>370</v>
+        <v>388</v>
       </c>
     </row>
     <row r="172" spans="1:4">
@@ -8905,13 +8905,13 @@
         <v>171</v>
       </c>
       <c r="B172" t="s">
-        <v>195</v>
+        <v>162</v>
       </c>
       <c r="C172" t="s">
-        <v>355</v>
+        <v>357</v>
       </c>
       <c r="D172" t="s">
-        <v>374</v>
+        <v>391</v>
       </c>
     </row>
     <row r="173" spans="1:4">
@@ -8919,13 +8919,13 @@
         <v>172</v>
       </c>
       <c r="B173" t="s">
-        <v>182</v>
+        <v>195</v>
       </c>
       <c r="C173" t="s">
-        <v>356</v>
+        <v>355</v>
       </c>
       <c r="D173" t="s">
-        <v>365</v>
+        <v>374</v>
       </c>
     </row>
     <row r="174" spans="1:4">
@@ -8933,13 +8933,13 @@
         <v>173</v>
       </c>
       <c r="B174" t="s">
-        <v>179</v>
+        <v>182</v>
       </c>
       <c r="C174" t="s">
-        <v>355</v>
+        <v>356</v>
       </c>
       <c r="D174" t="s">
-        <v>388</v>
+        <v>365</v>
       </c>
     </row>
     <row r="175" spans="1:4">
@@ -8961,7 +8961,7 @@
         <v>175</v>
       </c>
       <c r="B176" t="s">
-        <v>180</v>
+        <v>179</v>
       </c>
       <c r="C176" t="s">
         <v>354</v>
@@ -8975,13 +8975,13 @@
         <v>176</v>
       </c>
       <c r="B177" t="s">
-        <v>168</v>
+        <v>181</v>
       </c>
       <c r="C177" t="s">
-        <v>358</v>
+        <v>354</v>
       </c>
       <c r="D177" t="s">
-        <v>360</v>
+        <v>364</v>
       </c>
     </row>
     <row r="178" spans="1:4">
@@ -8989,13 +8989,13 @@
         <v>177</v>
       </c>
       <c r="B178" t="s">
-        <v>166</v>
+        <v>170</v>
       </c>
       <c r="C178" t="s">
-        <v>357</v>
+        <v>358</v>
       </c>
       <c r="D178" t="s">
-        <v>372</v>
+        <v>360</v>
       </c>
     </row>
     <row r="179" spans="1:4">
@@ -9003,13 +9003,13 @@
         <v>178</v>
       </c>
       <c r="B179" t="s">
-        <v>181</v>
+        <v>166</v>
       </c>
       <c r="C179" t="s">
-        <v>354</v>
+        <v>357</v>
       </c>
       <c r="D179" t="s">
-        <v>364</v>
+        <v>372</v>
       </c>
     </row>
     <row r="180" spans="1:4">
@@ -9017,7 +9017,7 @@
         <v>179</v>
       </c>
       <c r="B180" t="s">
-        <v>175</v>
+        <v>176</v>
       </c>
       <c r="C180" t="s">
         <v>358</v>
@@ -9031,13 +9031,13 @@
         <v>180</v>
       </c>
       <c r="B181" t="s">
-        <v>173</v>
+        <v>185</v>
       </c>
       <c r="C181" t="s">
-        <v>359</v>
+        <v>356</v>
       </c>
       <c r="D181" t="s">
-        <v>373</v>
+        <v>385</v>
       </c>
     </row>
     <row r="182" spans="1:4">
@@ -9045,13 +9045,13 @@
         <v>181</v>
       </c>
       <c r="B182" t="s">
-        <v>178</v>
+        <v>173</v>
       </c>
       <c r="C182" t="s">
-        <v>358</v>
+        <v>359</v>
       </c>
       <c r="D182" t="s">
-        <v>377</v>
+        <v>373</v>
       </c>
     </row>
     <row r="183" spans="1:4">
@@ -9059,13 +9059,13 @@
         <v>182</v>
       </c>
       <c r="B183" t="s">
-        <v>187</v>
+        <v>178</v>
       </c>
       <c r="C183" t="s">
-        <v>356</v>
+        <v>358</v>
       </c>
       <c r="D183" t="s">
-        <v>385</v>
+        <v>376</v>
       </c>
     </row>
     <row r="184" spans="1:4">
@@ -9073,7 +9073,7 @@
         <v>183</v>
       </c>
       <c r="B184" t="s">
-        <v>169</v>
+        <v>168</v>
       </c>
       <c r="C184" t="s">
         <v>357</v>
@@ -9087,13 +9087,13 @@
         <v>184</v>
       </c>
       <c r="B185" t="s">
-        <v>176</v>
+        <v>204</v>
       </c>
       <c r="C185" t="s">
-        <v>358</v>
+        <v>354</v>
       </c>
       <c r="D185" t="s">
-        <v>368</v>
+        <v>378</v>
       </c>
     </row>
     <row r="186" spans="1:4">
@@ -9104,10 +9104,10 @@
         <v>177</v>
       </c>
       <c r="C186" t="s">
-        <v>357</v>
+        <v>358</v>
       </c>
       <c r="D186" t="s">
-        <v>361</v>
+        <v>368</v>
       </c>
     </row>
     <row r="187" spans="1:4">
@@ -9115,13 +9115,13 @@
         <v>186</v>
       </c>
       <c r="B187" t="s">
-        <v>205</v>
+        <v>194</v>
       </c>
       <c r="C187" t="s">
-        <v>354</v>
+        <v>355</v>
       </c>
       <c r="D187" t="s">
-        <v>378</v>
+        <v>379</v>
       </c>
     </row>
     <row r="188" spans="1:4">
@@ -9129,13 +9129,13 @@
         <v>187</v>
       </c>
       <c r="B188" t="s">
-        <v>194</v>
+        <v>175</v>
       </c>
       <c r="C188" t="s">
-        <v>355</v>
+        <v>357</v>
       </c>
       <c r="D188" t="s">
-        <v>379</v>
+        <v>361</v>
       </c>
     </row>
     <row r="189" spans="1:4">
@@ -9157,13 +9157,13 @@
         <v>189</v>
       </c>
       <c r="B190" t="s">
-        <v>209</v>
+        <v>189</v>
       </c>
       <c r="C190" t="s">
-        <v>355</v>
+        <v>354</v>
       </c>
       <c r="D190" t="s">
-        <v>377</v>
+        <v>370</v>
       </c>
     </row>
     <row r="191" spans="1:4">
@@ -9171,13 +9171,13 @@
         <v>190</v>
       </c>
       <c r="B191" t="s">
-        <v>189</v>
+        <v>191</v>
       </c>
       <c r="C191" t="s">
-        <v>354</v>
+        <v>355</v>
       </c>
       <c r="D191" t="s">
-        <v>370</v>
+        <v>377</v>
       </c>
     </row>
     <row r="192" spans="1:4">
@@ -9185,7 +9185,7 @@
         <v>191</v>
       </c>
       <c r="B192" t="s">
-        <v>191</v>
+        <v>209</v>
       </c>
       <c r="C192" t="s">
         <v>355</v>
@@ -9199,7 +9199,7 @@
         <v>192</v>
       </c>
       <c r="B193" t="s">
-        <v>185</v>
+        <v>186</v>
       </c>
       <c r="C193" t="s">
         <v>359</v>
@@ -9213,13 +9213,13 @@
         <v>193</v>
       </c>
       <c r="B194" t="s">
-        <v>184</v>
+        <v>211</v>
       </c>
       <c r="C194" t="s">
-        <v>358</v>
+        <v>355</v>
       </c>
       <c r="D194" t="s">
-        <v>391</v>
+        <v>360</v>
       </c>
     </row>
     <row r="195" spans="1:4">
@@ -9227,13 +9227,13 @@
         <v>194</v>
       </c>
       <c r="B195" t="s">
-        <v>210</v>
+        <v>198</v>
       </c>
       <c r="C195" t="s">
         <v>355</v>
       </c>
       <c r="D195" t="s">
-        <v>360</v>
+        <v>377</v>
       </c>
     </row>
     <row r="196" spans="1:4">
@@ -9241,13 +9241,13 @@
         <v>195</v>
       </c>
       <c r="B196" t="s">
-        <v>198</v>
+        <v>184</v>
       </c>
       <c r="C196" t="s">
-        <v>355</v>
+        <v>358</v>
       </c>
       <c r="D196" t="s">
-        <v>376</v>
+        <v>391</v>
       </c>
     </row>
     <row r="197" spans="1:4">
@@ -9255,13 +9255,13 @@
         <v>196</v>
       </c>
       <c r="B197" t="s">
-        <v>197</v>
+        <v>200</v>
       </c>
       <c r="C197" t="s">
-        <v>359</v>
+        <v>354</v>
       </c>
       <c r="D197" t="s">
-        <v>368</v>
+        <v>384</v>
       </c>
     </row>
     <row r="198" spans="1:4">
@@ -9269,13 +9269,13 @@
         <v>197</v>
       </c>
       <c r="B198" t="s">
-        <v>200</v>
+        <v>201</v>
       </c>
       <c r="C198" t="s">
         <v>354</v>
       </c>
       <c r="D198" t="s">
-        <v>384</v>
+        <v>383</v>
       </c>
     </row>
     <row r="199" spans="1:4">
@@ -9283,13 +9283,13 @@
         <v>198</v>
       </c>
       <c r="B199" t="s">
-        <v>203</v>
+        <v>207</v>
       </c>
       <c r="C199" t="s">
-        <v>354</v>
+        <v>355</v>
       </c>
       <c r="D199" t="s">
-        <v>383</v>
+        <v>372</v>
       </c>
     </row>
     <row r="200" spans="1:4">
@@ -9297,13 +9297,13 @@
         <v>199</v>
       </c>
       <c r="B200" t="s">
-        <v>213</v>
+        <v>197</v>
       </c>
       <c r="C200" t="s">
-        <v>355</v>
+        <v>359</v>
       </c>
       <c r="D200" t="s">
-        <v>360</v>
+        <v>368</v>
       </c>
     </row>
     <row r="201" spans="1:4">
@@ -9311,13 +9311,13 @@
         <v>200</v>
       </c>
       <c r="B201" t="s">
-        <v>207</v>
+        <v>215</v>
       </c>
       <c r="C201" t="s">
         <v>355</v>
       </c>
       <c r="D201" t="s">
-        <v>372</v>
+        <v>360</v>
       </c>
     </row>
     <row r="202" spans="1:4">
@@ -9325,13 +9325,13 @@
         <v>201</v>
       </c>
       <c r="B202" t="s">
-        <v>196</v>
+        <v>216</v>
       </c>
       <c r="C202" t="s">
-        <v>359</v>
+        <v>355</v>
       </c>
       <c r="D202" t="s">
-        <v>365</v>
+        <v>367</v>
       </c>
     </row>
     <row r="203" spans="1:4">
@@ -9339,13 +9339,13 @@
         <v>202</v>
       </c>
       <c r="B203" t="s">
-        <v>216</v>
+        <v>196</v>
       </c>
       <c r="C203" t="s">
-        <v>355</v>
+        <v>359</v>
       </c>
       <c r="D203" t="s">
-        <v>367</v>
+        <v>365</v>
       </c>
     </row>
     <row r="204" spans="1:4">
@@ -9353,7 +9353,7 @@
         <v>203</v>
       </c>
       <c r="B204" t="s">
-        <v>204</v>
+        <v>205</v>
       </c>
       <c r="C204" t="s">
         <v>358</v>
@@ -9367,13 +9367,13 @@
         <v>204</v>
       </c>
       <c r="B205" t="s">
-        <v>201</v>
+        <v>190</v>
       </c>
       <c r="C205" t="s">
-        <v>358</v>
+        <v>354</v>
       </c>
       <c r="D205" t="s">
-        <v>379</v>
+        <v>361</v>
       </c>
     </row>
     <row r="206" spans="1:4">
@@ -9381,13 +9381,13 @@
         <v>205</v>
       </c>
       <c r="B206" t="s">
-        <v>190</v>
+        <v>214</v>
       </c>
       <c r="C206" t="s">
-        <v>354</v>
+        <v>356</v>
       </c>
       <c r="D206" t="s">
-        <v>361</v>
+        <v>390</v>
       </c>
     </row>
     <row r="207" spans="1:4">
@@ -9395,13 +9395,13 @@
         <v>206</v>
       </c>
       <c r="B207" t="s">
-        <v>215</v>
+        <v>202</v>
       </c>
       <c r="C207" t="s">
-        <v>356</v>
+        <v>358</v>
       </c>
       <c r="D207" t="s">
-        <v>390</v>
+        <v>379</v>
       </c>
     </row>
     <row r="208" spans="1:4">
@@ -9423,7 +9423,7 @@
         <v>208</v>
       </c>
       <c r="B209" t="s">
-        <v>188</v>
+        <v>187</v>
       </c>
       <c r="C209" t="s">
         <v>357</v>
@@ -9437,7 +9437,7 @@
         <v>209</v>
       </c>
       <c r="B210" t="s">
-        <v>218</v>
+        <v>219</v>
       </c>
       <c r="C210" t="s">
         <v>355</v>
@@ -9457,7 +9457,7 @@
         <v>358</v>
       </c>
       <c r="D211" t="s">
-        <v>376</v>
+        <v>377</v>
       </c>
     </row>
     <row r="212" spans="1:4">
@@ -9465,7 +9465,7 @@
         <v>211</v>
       </c>
       <c r="B212" t="s">
-        <v>202</v>
+        <v>203</v>
       </c>
       <c r="C212" t="s">
         <v>354</v>
@@ -9493,7 +9493,7 @@
         <v>213</v>
       </c>
       <c r="B214" t="s">
-        <v>226</v>
+        <v>224</v>
       </c>
       <c r="C214" t="s">
         <v>354</v>
@@ -9521,7 +9521,7 @@
         <v>215</v>
       </c>
       <c r="B216" t="s">
-        <v>220</v>
+        <v>221</v>
       </c>
       <c r="C216" t="s">
         <v>359</v>
@@ -9535,13 +9535,13 @@
         <v>216</v>
       </c>
       <c r="B217" t="s">
-        <v>225</v>
+        <v>243</v>
       </c>
       <c r="C217" t="s">
-        <v>358</v>
+        <v>355</v>
       </c>
       <c r="D217" t="s">
-        <v>384</v>
+        <v>371</v>
       </c>
     </row>
     <row r="218" spans="1:4">
@@ -9549,13 +9549,13 @@
         <v>217</v>
       </c>
       <c r="B218" t="s">
-        <v>242</v>
+        <v>226</v>
       </c>
       <c r="C218" t="s">
-        <v>355</v>
+        <v>358</v>
       </c>
       <c r="D218" t="s">
-        <v>371</v>
+        <v>384</v>
       </c>
     </row>
     <row r="219" spans="1:4">
@@ -9563,13 +9563,13 @@
         <v>218</v>
       </c>
       <c r="B219" t="s">
-        <v>240</v>
+        <v>232</v>
       </c>
       <c r="C219" t="s">
-        <v>355</v>
+        <v>354</v>
       </c>
       <c r="D219" t="s">
-        <v>367</v>
+        <v>370</v>
       </c>
     </row>
     <row r="220" spans="1:4">
@@ -9577,13 +9577,13 @@
         <v>219</v>
       </c>
       <c r="B220" t="s">
-        <v>236</v>
+        <v>231</v>
       </c>
       <c r="C220" t="s">
-        <v>355</v>
+        <v>354</v>
       </c>
       <c r="D220" t="s">
-        <v>383</v>
+        <v>382</v>
       </c>
     </row>
     <row r="221" spans="1:4">
@@ -9591,13 +9591,13 @@
         <v>220</v>
       </c>
       <c r="B221" t="s">
-        <v>233</v>
+        <v>241</v>
       </c>
       <c r="C221" t="s">
-        <v>354</v>
+        <v>355</v>
       </c>
       <c r="D221" t="s">
-        <v>370</v>
+        <v>367</v>
       </c>
     </row>
     <row r="222" spans="1:4">
@@ -9605,13 +9605,13 @@
         <v>221</v>
       </c>
       <c r="B222" t="s">
-        <v>232</v>
+        <v>210</v>
       </c>
       <c r="C222" t="s">
         <v>354</v>
       </c>
       <c r="D222" t="s">
-        <v>382</v>
+        <v>364</v>
       </c>
     </row>
     <row r="223" spans="1:4">
@@ -9619,13 +9619,13 @@
         <v>222</v>
       </c>
       <c r="B223" t="s">
-        <v>222</v>
+        <v>237</v>
       </c>
       <c r="C223" t="s">
-        <v>358</v>
+        <v>355</v>
       </c>
       <c r="D223" t="s">
-        <v>373</v>
+        <v>383</v>
       </c>
     </row>
     <row r="224" spans="1:4">
@@ -9633,13 +9633,13 @@
         <v>223</v>
       </c>
       <c r="B224" t="s">
-        <v>211</v>
+        <v>218</v>
       </c>
       <c r="C224" t="s">
-        <v>354</v>
+        <v>356</v>
       </c>
       <c r="D224" t="s">
-        <v>364</v>
+        <v>360</v>
       </c>
     </row>
     <row r="225" spans="1:4">
@@ -9647,13 +9647,13 @@
         <v>224</v>
       </c>
       <c r="B225" t="s">
-        <v>219</v>
+        <v>223</v>
       </c>
       <c r="C225" t="s">
-        <v>356</v>
+        <v>358</v>
       </c>
       <c r="D225" t="s">
-        <v>360</v>
+        <v>373</v>
       </c>
     </row>
     <row r="226" spans="1:4">
@@ -9661,7 +9661,7 @@
         <v>225</v>
       </c>
       <c r="B226" t="s">
-        <v>224</v>
+        <v>225</v>
       </c>
       <c r="C226" t="s">
         <v>358</v>
@@ -9675,7 +9675,7 @@
         <v>226</v>
       </c>
       <c r="B227" t="s">
-        <v>235</v>
+        <v>234</v>
       </c>
       <c r="C227" t="s">
         <v>354</v>
@@ -9689,13 +9689,13 @@
         <v>227</v>
       </c>
       <c r="B228" t="s">
-        <v>227</v>
+        <v>233</v>
       </c>
       <c r="C228" t="s">
-        <v>358</v>
+        <v>354</v>
       </c>
       <c r="D228" t="s">
-        <v>370</v>
+        <v>373</v>
       </c>
     </row>
     <row r="229" spans="1:4">
@@ -9703,13 +9703,13 @@
         <v>228</v>
       </c>
       <c r="B229" t="s">
-        <v>246</v>
+        <v>228</v>
       </c>
       <c r="C229" t="s">
-        <v>355</v>
+        <v>358</v>
       </c>
       <c r="D229" t="s">
-        <v>386</v>
+        <v>370</v>
       </c>
     </row>
     <row r="230" spans="1:4">
@@ -9717,13 +9717,13 @@
         <v>229</v>
       </c>
       <c r="B230" t="s">
-        <v>221</v>
+        <v>246</v>
       </c>
       <c r="C230" t="s">
-        <v>357</v>
+        <v>355</v>
       </c>
       <c r="D230" t="s">
-        <v>382</v>
+        <v>386</v>
       </c>
     </row>
     <row r="231" spans="1:4">
@@ -9731,13 +9731,13 @@
         <v>230</v>
       </c>
       <c r="B231" t="s">
-        <v>231</v>
+        <v>220</v>
       </c>
       <c r="C231" t="s">
-        <v>354</v>
+        <v>357</v>
       </c>
       <c r="D231" t="s">
-        <v>373</v>
+        <v>382</v>
       </c>
     </row>
     <row r="232" spans="1:4">
@@ -9745,7 +9745,7 @@
         <v>231</v>
       </c>
       <c r="B232" t="s">
-        <v>239</v>
+        <v>240</v>
       </c>
       <c r="C232" t="s">
         <v>355</v>
@@ -9773,13 +9773,13 @@
         <v>233</v>
       </c>
       <c r="B234" t="s">
-        <v>230</v>
+        <v>238</v>
       </c>
       <c r="C234" t="s">
-        <v>358</v>
+        <v>354</v>
       </c>
       <c r="D234" t="s">
-        <v>366</v>
+        <v>383</v>
       </c>
     </row>
     <row r="235" spans="1:4">
@@ -9787,13 +9787,13 @@
         <v>234</v>
       </c>
       <c r="B235" t="s">
-        <v>214</v>
+        <v>227</v>
       </c>
       <c r="C235" t="s">
-        <v>357</v>
+        <v>354</v>
       </c>
       <c r="D235" t="s">
-        <v>388</v>
+        <v>378</v>
       </c>
     </row>
     <row r="236" spans="1:4">
@@ -9801,13 +9801,13 @@
         <v>235</v>
       </c>
       <c r="B236" t="s">
-        <v>241</v>
+        <v>230</v>
       </c>
       <c r="C236" t="s">
-        <v>355</v>
+        <v>358</v>
       </c>
       <c r="D236" t="s">
-        <v>374</v>
+        <v>366</v>
       </c>
     </row>
     <row r="237" spans="1:4">
@@ -9815,13 +9815,13 @@
         <v>236</v>
       </c>
       <c r="B237" t="s">
-        <v>243</v>
+        <v>213</v>
       </c>
       <c r="C237" t="s">
-        <v>354</v>
+        <v>357</v>
       </c>
       <c r="D237" t="s">
-        <v>383</v>
+        <v>388</v>
       </c>
     </row>
     <row r="238" spans="1:4">
@@ -9829,13 +9829,13 @@
         <v>237</v>
       </c>
       <c r="B238" t="s">
-        <v>228</v>
+        <v>242</v>
       </c>
       <c r="C238" t="s">
-        <v>354</v>
+        <v>355</v>
       </c>
       <c r="D238" t="s">
-        <v>378</v>
+        <v>374</v>
       </c>
     </row>
     <row r="239" spans="1:4">
@@ -9843,7 +9843,7 @@
         <v>238</v>
       </c>
       <c r="B239" t="s">
-        <v>223</v>
+        <v>222</v>
       </c>
       <c r="C239" t="s">
         <v>354</v>
@@ -9857,7 +9857,7 @@
         <v>239</v>
       </c>
       <c r="B240" t="s">
-        <v>237</v>
+        <v>236</v>
       </c>
       <c r="C240" t="s">
         <v>354</v>
@@ -9871,13 +9871,13 @@
         <v>240</v>
       </c>
       <c r="B241" t="s">
-        <v>238</v>
+        <v>239</v>
       </c>
       <c r="C241" t="s">
         <v>359</v>
       </c>
       <c r="D241" t="s">
-        <v>377</v>
+        <v>376</v>
       </c>
     </row>
     <row r="242" spans="1:4">
@@ -9885,7 +9885,7 @@
         <v>241</v>
       </c>
       <c r="B242" t="s">
-        <v>234</v>
+        <v>235</v>
       </c>
       <c r="C242" t="s">
         <v>359</v>
@@ -9969,7 +9969,7 @@
         <v>247</v>
       </c>
       <c r="B248" t="s">
-        <v>251</v>
+        <v>253</v>
       </c>
       <c r="C248" t="s">
         <v>358</v>
@@ -10073,7 +10073,7 @@
         <v>355</v>
       </c>
       <c r="D255" t="s">
-        <v>376</v>
+        <v>377</v>
       </c>
     </row>
     <row r="256" spans="1:4">
@@ -10095,13 +10095,13 @@
         <v>256</v>
       </c>
       <c r="B257" t="s">
-        <v>271</v>
+        <v>262</v>
       </c>
       <c r="C257" t="s">
         <v>355</v>
       </c>
       <c r="D257" t="s">
-        <v>388</v>
+        <v>387</v>
       </c>
     </row>
     <row r="258" spans="1:4">
@@ -10109,13 +10109,13 @@
         <v>257</v>
       </c>
       <c r="B258" t="s">
-        <v>266</v>
+        <v>271</v>
       </c>
       <c r="C258" t="s">
-        <v>358</v>
+        <v>355</v>
       </c>
       <c r="D258" t="s">
-        <v>363</v>
+        <v>388</v>
       </c>
     </row>
     <row r="259" spans="1:4">
@@ -10123,13 +10123,13 @@
         <v>258</v>
       </c>
       <c r="B259" t="s">
-        <v>253</v>
+        <v>266</v>
       </c>
       <c r="C259" t="s">
-        <v>357</v>
+        <v>358</v>
       </c>
       <c r="D259" t="s">
-        <v>366</v>
+        <v>363</v>
       </c>
     </row>
     <row r="260" spans="1:4">
@@ -10137,13 +10137,13 @@
         <v>259</v>
       </c>
       <c r="B260" t="s">
-        <v>262</v>
+        <v>252</v>
       </c>
       <c r="C260" t="s">
-        <v>355</v>
+        <v>357</v>
       </c>
       <c r="D260" t="s">
-        <v>387</v>
+        <v>366</v>
       </c>
     </row>
     <row r="261" spans="1:4">
@@ -10185,7 +10185,7 @@
         <v>355</v>
       </c>
       <c r="D263" t="s">
-        <v>376</v>
+        <v>377</v>
       </c>
     </row>
     <row r="264" spans="1:4">
@@ -10193,7 +10193,7 @@
         <v>263</v>
       </c>
       <c r="B264" t="s">
-        <v>252</v>
+        <v>251</v>
       </c>
       <c r="C264" t="s">
         <v>354</v>
@@ -10241,7 +10241,7 @@
         <v>359</v>
       </c>
       <c r="D267" t="s">
-        <v>376</v>
+        <v>377</v>
       </c>
     </row>
     <row r="268" spans="1:4">
@@ -10291,13 +10291,13 @@
         <v>270</v>
       </c>
       <c r="B271" t="s">
-        <v>279</v>
+        <v>260</v>
       </c>
       <c r="C271" t="s">
-        <v>358</v>
+        <v>356</v>
       </c>
       <c r="D271" t="s">
-        <v>385</v>
+        <v>380</v>
       </c>
     </row>
     <row r="272" spans="1:4">
@@ -10305,13 +10305,13 @@
         <v>271</v>
       </c>
       <c r="B272" t="s">
-        <v>260</v>
+        <v>279</v>
       </c>
       <c r="C272" t="s">
-        <v>356</v>
+        <v>358</v>
       </c>
       <c r="D272" t="s">
-        <v>380</v>
+        <v>385</v>
       </c>
     </row>
     <row r="273" spans="1:4">
@@ -10375,7 +10375,7 @@
         <v>276</v>
       </c>
       <c r="B277" t="s">
-        <v>295</v>
+        <v>296</v>
       </c>
       <c r="C277" t="s">
         <v>358</v>
@@ -10487,7 +10487,7 @@
         <v>284</v>
       </c>
       <c r="B285" t="s">
-        <v>305</v>
+        <v>306</v>
       </c>
       <c r="C285" t="s">
         <v>358</v>
@@ -10515,7 +10515,7 @@
         <v>286</v>
       </c>
       <c r="B287" t="s">
-        <v>296</v>
+        <v>295</v>
       </c>
       <c r="C287" t="s">
         <v>357</v>
@@ -10529,13 +10529,13 @@
         <v>287</v>
       </c>
       <c r="B288" t="s">
-        <v>302</v>
+        <v>290</v>
       </c>
       <c r="C288" t="s">
         <v>354</v>
       </c>
       <c r="D288" t="s">
-        <v>365</v>
+        <v>364</v>
       </c>
     </row>
     <row r="289" spans="1:4">
@@ -10543,13 +10543,13 @@
         <v>288</v>
       </c>
       <c r="B289" t="s">
-        <v>301</v>
+        <v>302</v>
       </c>
       <c r="C289" t="s">
-        <v>359</v>
+        <v>354</v>
       </c>
       <c r="D289" t="s">
-        <v>387</v>
+        <v>365</v>
       </c>
     </row>
     <row r="290" spans="1:4">
@@ -10557,13 +10557,13 @@
         <v>289</v>
       </c>
       <c r="B290" t="s">
-        <v>291</v>
+        <v>301</v>
       </c>
       <c r="C290" t="s">
-        <v>354</v>
+        <v>359</v>
       </c>
       <c r="D290" t="s">
-        <v>364</v>
+        <v>387</v>
       </c>
     </row>
     <row r="291" spans="1:4">
@@ -10599,7 +10599,7 @@
         <v>292</v>
       </c>
       <c r="B293" t="s">
-        <v>290</v>
+        <v>289</v>
       </c>
       <c r="C293" t="s">
         <v>357</v>
@@ -10655,7 +10655,7 @@
         <v>296</v>
       </c>
       <c r="B297" t="s">
-        <v>289</v>
+        <v>291</v>
       </c>
       <c r="C297" t="s">
         <v>355</v>
@@ -10739,7 +10739,7 @@
         <v>302</v>
       </c>
       <c r="B303" t="s">
-        <v>306</v>
+        <v>307</v>
       </c>
       <c r="C303" t="s">
         <v>354</v>
@@ -10767,13 +10767,13 @@
         <v>304</v>
       </c>
       <c r="B305" t="s">
-        <v>319</v>
+        <v>308</v>
       </c>
       <c r="C305" t="s">
-        <v>358</v>
+        <v>355</v>
       </c>
       <c r="D305" t="s">
-        <v>386</v>
+        <v>373</v>
       </c>
     </row>
     <row r="306" spans="1:4">
@@ -10781,13 +10781,13 @@
         <v>305</v>
       </c>
       <c r="B306" t="s">
-        <v>308</v>
+        <v>319</v>
       </c>
       <c r="C306" t="s">
-        <v>355</v>
+        <v>358</v>
       </c>
       <c r="D306" t="s">
-        <v>373</v>
+        <v>386</v>
       </c>
     </row>
     <row r="307" spans="1:4">
@@ -10879,7 +10879,7 @@
         <v>312</v>
       </c>
       <c r="B313" t="s">
-        <v>307</v>
+        <v>305</v>
       </c>
       <c r="C313" t="s">
         <v>354</v>
@@ -10921,7 +10921,7 @@
         <v>315</v>
       </c>
       <c r="B316" t="s">
-        <v>324</v>
+        <v>325</v>
       </c>
       <c r="C316" t="s">
         <v>355</v>
@@ -10977,7 +10977,7 @@
         <v>319</v>
       </c>
       <c r="B320" t="s">
-        <v>325</v>
+        <v>324</v>
       </c>
       <c r="C320" t="s">
         <v>357</v>
@@ -11061,13 +11061,13 @@
         <v>325</v>
       </c>
       <c r="B326" t="s">
-        <v>337</v>
+        <v>315</v>
       </c>
       <c r="C326" t="s">
         <v>354</v>
       </c>
       <c r="D326" t="s">
-        <v>381</v>
+        <v>378</v>
       </c>
     </row>
     <row r="327" spans="1:4">
@@ -11075,13 +11075,13 @@
         <v>326</v>
       </c>
       <c r="B327" t="s">
-        <v>329</v>
+        <v>337</v>
       </c>
       <c r="C327" t="s">
-        <v>357</v>
+        <v>354</v>
       </c>
       <c r="D327" t="s">
-        <v>378</v>
+        <v>381</v>
       </c>
     </row>
     <row r="328" spans="1:4">
@@ -11089,10 +11089,10 @@
         <v>327</v>
       </c>
       <c r="B328" t="s">
-        <v>315</v>
+        <v>328</v>
       </c>
       <c r="C328" t="s">
-        <v>354</v>
+        <v>357</v>
       </c>
       <c r="D328" t="s">
         <v>378</v>
@@ -11165,7 +11165,7 @@
         <v>356</v>
       </c>
       <c r="D333" t="s">
-        <v>377</v>
+        <v>376</v>
       </c>
     </row>
     <row r="334" spans="1:4">
@@ -11313,7 +11313,7 @@
         <v>343</v>
       </c>
       <c r="B344" t="s">
-        <v>328</v>
+        <v>329</v>
       </c>
       <c r="C344" t="s">
         <v>356</v>
@@ -11554,13 +11554,13 @@
         <v>8</v>
       </c>
       <c r="B9" t="s">
-        <v>18</v>
+        <v>6</v>
       </c>
       <c r="C9" t="s">
         <v>354</v>
       </c>
       <c r="D9" t="s">
-        <v>372</v>
+        <v>362</v>
       </c>
     </row>
     <row r="10" spans="1:4">
@@ -11568,13 +11568,13 @@
         <v>9</v>
       </c>
       <c r="B10" t="s">
-        <v>6</v>
+        <v>18</v>
       </c>
       <c r="C10" t="s">
         <v>354</v>
       </c>
       <c r="D10" t="s">
-        <v>362</v>
+        <v>372</v>
       </c>
     </row>
     <row r="11" spans="1:4">
@@ -11680,13 +11680,13 @@
         <v>17</v>
       </c>
       <c r="B18" t="s">
-        <v>22</v>
+        <v>23</v>
       </c>
       <c r="C18" t="s">
         <v>354</v>
       </c>
       <c r="D18" t="s">
-        <v>376</v>
+        <v>377</v>
       </c>
     </row>
     <row r="19" spans="1:4">
@@ -11750,13 +11750,13 @@
         <v>22</v>
       </c>
       <c r="B23" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="C23" t="s">
         <v>354</v>
       </c>
       <c r="D23" t="s">
-        <v>377</v>
+        <v>376</v>
       </c>
     </row>
     <row r="24" spans="1:4">
@@ -11778,7 +11778,7 @@
         <v>24</v>
       </c>
       <c r="B25" t="s">
-        <v>39</v>
+        <v>38</v>
       </c>
       <c r="C25" t="s">
         <v>355</v>
@@ -11876,13 +11876,13 @@
         <v>31</v>
       </c>
       <c r="B32" t="s">
-        <v>29</v>
+        <v>37</v>
       </c>
       <c r="C32" t="s">
-        <v>356</v>
+        <v>355</v>
       </c>
       <c r="D32" t="s">
-        <v>382</v>
+        <v>361</v>
       </c>
     </row>
     <row r="33" spans="1:4">
@@ -11890,13 +11890,13 @@
         <v>32</v>
       </c>
       <c r="B33" t="s">
-        <v>37</v>
+        <v>29</v>
       </c>
       <c r="C33" t="s">
-        <v>355</v>
+        <v>356</v>
       </c>
       <c r="D33" t="s">
-        <v>361</v>
+        <v>382</v>
       </c>
     </row>
     <row r="34" spans="1:4">
@@ -11946,7 +11946,7 @@
         <v>36</v>
       </c>
       <c r="B37" t="s">
-        <v>53</v>
+        <v>54</v>
       </c>
       <c r="C37" t="s">
         <v>355</v>
@@ -11966,7 +11966,7 @@
         <v>355</v>
       </c>
       <c r="D38" t="s">
-        <v>377</v>
+        <v>376</v>
       </c>
     </row>
     <row r="39" spans="1:4">
@@ -11974,7 +11974,7 @@
         <v>38</v>
       </c>
       <c r="B39" t="s">
-        <v>38</v>
+        <v>39</v>
       </c>
       <c r="C39" t="s">
         <v>355</v>
@@ -11988,13 +11988,13 @@
         <v>39</v>
       </c>
       <c r="B40" t="s">
-        <v>44</v>
+        <v>48</v>
       </c>
       <c r="C40" t="s">
-        <v>354</v>
+        <v>355</v>
       </c>
       <c r="D40" t="s">
-        <v>387</v>
+        <v>381</v>
       </c>
     </row>
     <row r="41" spans="1:4">
@@ -12002,13 +12002,13 @@
         <v>40</v>
       </c>
       <c r="B41" t="s">
-        <v>48</v>
+        <v>44</v>
       </c>
       <c r="C41" t="s">
-        <v>355</v>
+        <v>354</v>
       </c>
       <c r="D41" t="s">
-        <v>381</v>
+        <v>387</v>
       </c>
     </row>
     <row r="42" spans="1:4">
@@ -12092,7 +12092,7 @@
         <v>354</v>
       </c>
       <c r="D47" t="s">
-        <v>376</v>
+        <v>377</v>
       </c>
     </row>
     <row r="48" spans="1:4">
@@ -12114,13 +12114,13 @@
         <v>48</v>
       </c>
       <c r="B49" t="s">
-        <v>58</v>
+        <v>47</v>
       </c>
       <c r="C49" t="s">
-        <v>357</v>
+        <v>354</v>
       </c>
       <c r="D49" t="s">
-        <v>373</v>
+        <v>368</v>
       </c>
     </row>
     <row r="50" spans="1:4">
@@ -12128,13 +12128,13 @@
         <v>49</v>
       </c>
       <c r="B50" t="s">
-        <v>47</v>
+        <v>58</v>
       </c>
       <c r="C50" t="s">
-        <v>354</v>
+        <v>357</v>
       </c>
       <c r="D50" t="s">
-        <v>368</v>
+        <v>373</v>
       </c>
     </row>
     <row r="51" spans="1:4">
@@ -12156,13 +12156,13 @@
         <v>51</v>
       </c>
       <c r="B52" t="s">
-        <v>54</v>
+        <v>81</v>
       </c>
       <c r="C52" t="s">
-        <v>356</v>
+        <v>354</v>
       </c>
       <c r="D52" t="s">
-        <v>378</v>
+        <v>381</v>
       </c>
     </row>
     <row r="53" spans="1:4">
@@ -12170,13 +12170,13 @@
         <v>52</v>
       </c>
       <c r="B53" t="s">
-        <v>81</v>
+        <v>49</v>
       </c>
       <c r="C53" t="s">
-        <v>354</v>
+        <v>355</v>
       </c>
       <c r="D53" t="s">
-        <v>381</v>
+        <v>389</v>
       </c>
     </row>
     <row r="54" spans="1:4">
@@ -12184,13 +12184,13 @@
         <v>53</v>
       </c>
       <c r="B54" t="s">
-        <v>49</v>
+        <v>56</v>
       </c>
       <c r="C54" t="s">
         <v>355</v>
       </c>
       <c r="D54" t="s">
-        <v>389</v>
+        <v>383</v>
       </c>
     </row>
     <row r="55" spans="1:4">
@@ -12198,13 +12198,13 @@
         <v>54</v>
       </c>
       <c r="B55" t="s">
-        <v>56</v>
+        <v>53</v>
       </c>
       <c r="C55" t="s">
         <v>356</v>
       </c>
       <c r="D55" t="s">
-        <v>375</v>
+        <v>378</v>
       </c>
     </row>
     <row r="56" spans="1:4">
@@ -12215,10 +12215,10 @@
         <v>55</v>
       </c>
       <c r="C56" t="s">
-        <v>355</v>
+        <v>356</v>
       </c>
       <c r="D56" t="s">
-        <v>383</v>
+        <v>375</v>
       </c>
     </row>
     <row r="57" spans="1:4">
@@ -12254,7 +12254,7 @@
         <v>58</v>
       </c>
       <c r="B59" t="s">
-        <v>73</v>
+        <v>72</v>
       </c>
       <c r="C59" t="s">
         <v>355</v>
@@ -12268,7 +12268,7 @@
         <v>59</v>
       </c>
       <c r="B60" t="s">
-        <v>66</v>
+        <v>67</v>
       </c>
       <c r="C60" t="s">
         <v>355</v>
@@ -12296,7 +12296,7 @@
         <v>61</v>
       </c>
       <c r="B62" t="s">
-        <v>72</v>
+        <v>73</v>
       </c>
       <c r="C62" t="s">
         <v>355</v>
@@ -12316,7 +12316,7 @@
         <v>355</v>
       </c>
       <c r="D63" t="s">
-        <v>377</v>
+        <v>376</v>
       </c>
     </row>
     <row r="64" spans="1:4">
@@ -12324,13 +12324,13 @@
         <v>63</v>
       </c>
       <c r="B64" t="s">
-        <v>63</v>
+        <v>68</v>
       </c>
       <c r="C64" t="s">
-        <v>356</v>
+        <v>354</v>
       </c>
       <c r="D64" t="s">
-        <v>379</v>
+        <v>385</v>
       </c>
     </row>
     <row r="65" spans="1:4">
@@ -12338,13 +12338,13 @@
         <v>64</v>
       </c>
       <c r="B65" t="s">
-        <v>69</v>
+        <v>64</v>
       </c>
       <c r="C65" t="s">
-        <v>354</v>
+        <v>357</v>
       </c>
       <c r="D65" t="s">
-        <v>385</v>
+        <v>384</v>
       </c>
     </row>
     <row r="66" spans="1:4">
@@ -12352,13 +12352,13 @@
         <v>65</v>
       </c>
       <c r="B66" t="s">
-        <v>64</v>
+        <v>62</v>
       </c>
       <c r="C66" t="s">
-        <v>357</v>
+        <v>354</v>
       </c>
       <c r="D66" t="s">
-        <v>384</v>
+        <v>373</v>
       </c>
     </row>
     <row r="67" spans="1:4">
@@ -12366,13 +12366,13 @@
         <v>66</v>
       </c>
       <c r="B67" t="s">
-        <v>62</v>
+        <v>63</v>
       </c>
       <c r="C67" t="s">
-        <v>354</v>
+        <v>356</v>
       </c>
       <c r="D67" t="s">
-        <v>373</v>
+        <v>379</v>
       </c>
     </row>
     <row r="68" spans="1:4">
@@ -12380,7 +12380,7 @@
         <v>67</v>
       </c>
       <c r="B68" t="s">
-        <v>67</v>
+        <v>66</v>
       </c>
       <c r="C68" t="s">
         <v>357</v>
@@ -12422,7 +12422,7 @@
         <v>70</v>
       </c>
       <c r="B71" t="s">
-        <v>68</v>
+        <v>69</v>
       </c>
       <c r="C71" t="s">
         <v>354</v>
@@ -12520,13 +12520,13 @@
         <v>77</v>
       </c>
       <c r="B78" t="s">
-        <v>75</v>
+        <v>79</v>
       </c>
       <c r="C78" t="s">
-        <v>356</v>
+        <v>357</v>
       </c>
       <c r="D78" t="s">
-        <v>384</v>
+        <v>365</v>
       </c>
     </row>
     <row r="79" spans="1:4">
@@ -12534,13 +12534,13 @@
         <v>78</v>
       </c>
       <c r="B79" t="s">
-        <v>79</v>
+        <v>78</v>
       </c>
       <c r="C79" t="s">
-        <v>357</v>
+        <v>355</v>
       </c>
       <c r="D79" t="s">
-        <v>365</v>
+        <v>363</v>
       </c>
     </row>
     <row r="80" spans="1:4">
@@ -12548,13 +12548,13 @@
         <v>79</v>
       </c>
       <c r="B80" t="s">
-        <v>78</v>
+        <v>75</v>
       </c>
       <c r="C80" t="s">
-        <v>355</v>
+        <v>356</v>
       </c>
       <c r="D80" t="s">
-        <v>363</v>
+        <v>384</v>
       </c>
     </row>
     <row r="81" spans="1:4">
@@ -12618,13 +12618,13 @@
         <v>84</v>
       </c>
       <c r="B85" t="s">
-        <v>83</v>
+        <v>85</v>
       </c>
       <c r="C85" t="s">
-        <v>356</v>
+        <v>357</v>
       </c>
       <c r="D85" t="s">
-        <v>372</v>
+        <v>376</v>
       </c>
     </row>
     <row r="86" spans="1:4">
@@ -12632,13 +12632,13 @@
         <v>85</v>
       </c>
       <c r="B86" t="s">
-        <v>86</v>
+        <v>88</v>
       </c>
       <c r="C86" t="s">
         <v>357</v>
       </c>
       <c r="D86" t="s">
-        <v>377</v>
+        <v>380</v>
       </c>
     </row>
     <row r="87" spans="1:4">
@@ -12646,13 +12646,13 @@
         <v>86</v>
       </c>
       <c r="B87" t="s">
-        <v>88</v>
+        <v>83</v>
       </c>
       <c r="C87" t="s">
-        <v>357</v>
+        <v>356</v>
       </c>
       <c r="D87" t="s">
-        <v>380</v>
+        <v>372</v>
       </c>
     </row>
     <row r="88" spans="1:4">
@@ -12702,7 +12702,7 @@
         <v>90</v>
       </c>
       <c r="B91" t="s">
-        <v>91</v>
+        <v>90</v>
       </c>
       <c r="C91" t="s">
         <v>355</v>
@@ -12730,7 +12730,7 @@
         <v>92</v>
       </c>
       <c r="B93" t="s">
-        <v>85</v>
+        <v>86</v>
       </c>
       <c r="C93" t="s">
         <v>355</v>
@@ -12744,13 +12744,13 @@
         <v>93</v>
       </c>
       <c r="B94" t="s">
-        <v>103</v>
+        <v>102</v>
       </c>
       <c r="C94" t="s">
         <v>354</v>
       </c>
       <c r="D94" t="s">
-        <v>377</v>
+        <v>376</v>
       </c>
     </row>
     <row r="95" spans="1:4">
@@ -12758,7 +12758,7 @@
         <v>94</v>
       </c>
       <c r="B95" t="s">
-        <v>90</v>
+        <v>93</v>
       </c>
       <c r="C95" t="s">
         <v>355</v>
@@ -12772,13 +12772,13 @@
         <v>95</v>
       </c>
       <c r="B96" t="s">
-        <v>101</v>
+        <v>89</v>
       </c>
       <c r="C96" t="s">
-        <v>356</v>
+        <v>355</v>
       </c>
       <c r="D96" t="s">
-        <v>383</v>
+        <v>377</v>
       </c>
     </row>
     <row r="97" spans="1:4">
@@ -12786,13 +12786,13 @@
         <v>96</v>
       </c>
       <c r="B97" t="s">
-        <v>89</v>
+        <v>101</v>
       </c>
       <c r="C97" t="s">
-        <v>355</v>
+        <v>356</v>
       </c>
       <c r="D97" t="s">
-        <v>376</v>
+        <v>383</v>
       </c>
     </row>
     <row r="98" spans="1:4">
@@ -12814,7 +12814,7 @@
         <v>98</v>
       </c>
       <c r="B99" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="C99" t="s">
         <v>355</v>
@@ -12828,7 +12828,7 @@
         <v>99</v>
       </c>
       <c r="B100" t="s">
-        <v>105</v>
+        <v>104</v>
       </c>
       <c r="C100" t="s">
         <v>357</v>
@@ -12848,7 +12848,7 @@
         <v>357</v>
       </c>
       <c r="D101" t="s">
-        <v>376</v>
+        <v>377</v>
       </c>
     </row>
     <row r="102" spans="1:4">
@@ -12870,7 +12870,7 @@
         <v>102</v>
       </c>
       <c r="B103" t="s">
-        <v>102</v>
+        <v>103</v>
       </c>
       <c r="C103" t="s">
         <v>355</v>
@@ -12884,10 +12884,10 @@
         <v>103</v>
       </c>
       <c r="B104" t="s">
-        <v>93</v>
+        <v>118</v>
       </c>
       <c r="C104" t="s">
-        <v>356</v>
+        <v>354</v>
       </c>
       <c r="D104" t="s">
         <v>374</v>
@@ -12898,13 +12898,13 @@
         <v>104</v>
       </c>
       <c r="B105" t="s">
-        <v>114</v>
+        <v>115</v>
       </c>
       <c r="C105" t="s">
-        <v>356</v>
+        <v>354</v>
       </c>
       <c r="D105" t="s">
-        <v>387</v>
+        <v>388</v>
       </c>
     </row>
     <row r="106" spans="1:4">
@@ -12912,10 +12912,10 @@
         <v>105</v>
       </c>
       <c r="B106" t="s">
-        <v>118</v>
+        <v>92</v>
       </c>
       <c r="C106" t="s">
-        <v>354</v>
+        <v>356</v>
       </c>
       <c r="D106" t="s">
         <v>374</v>
@@ -12926,13 +12926,13 @@
         <v>106</v>
       </c>
       <c r="B107" t="s">
-        <v>115</v>
+        <v>114</v>
       </c>
       <c r="C107" t="s">
-        <v>354</v>
+        <v>356</v>
       </c>
       <c r="D107" t="s">
-        <v>388</v>
+        <v>387</v>
       </c>
     </row>
     <row r="108" spans="1:4">
@@ -12940,7 +12940,7 @@
         <v>107</v>
       </c>
       <c r="B108" t="s">
-        <v>112</v>
+        <v>111</v>
       </c>
       <c r="C108" t="s">
         <v>354</v>
@@ -12968,7 +12968,7 @@
         <v>109</v>
       </c>
       <c r="B110" t="s">
-        <v>104</v>
+        <v>105</v>
       </c>
       <c r="C110" t="s">
         <v>355</v>
@@ -12982,7 +12982,7 @@
         <v>110</v>
       </c>
       <c r="B111" t="s">
-        <v>117</v>
+        <v>116</v>
       </c>
       <c r="C111" t="s">
         <v>356</v>
@@ -12996,7 +12996,7 @@
         <v>111</v>
       </c>
       <c r="B112" t="s">
-        <v>110</v>
+        <v>109</v>
       </c>
       <c r="C112" t="s">
         <v>357</v>
@@ -13024,7 +13024,7 @@
         <v>113</v>
       </c>
       <c r="B114" t="s">
-        <v>111</v>
+        <v>110</v>
       </c>
       <c r="C114" t="s">
         <v>354</v>
@@ -13038,7 +13038,7 @@
         <v>114</v>
       </c>
       <c r="B115" t="s">
-        <v>113</v>
+        <v>112</v>
       </c>
       <c r="C115" t="s">
         <v>357</v>
@@ -13052,7 +13052,7 @@
         <v>115</v>
       </c>
       <c r="B116" t="s">
-        <v>109</v>
+        <v>113</v>
       </c>
       <c r="C116" t="s">
         <v>355</v>
@@ -13080,7 +13080,7 @@
         <v>117</v>
       </c>
       <c r="B118" t="s">
-        <v>116</v>
+        <v>117</v>
       </c>
       <c r="C118" t="s">
         <v>355</v>
@@ -13094,7 +13094,7 @@
         <v>118</v>
       </c>
       <c r="B119" t="s">
-        <v>153</v>
+        <v>150</v>
       </c>
       <c r="C119" t="s">
         <v>354</v>
@@ -13108,13 +13108,13 @@
         <v>119</v>
       </c>
       <c r="B120" t="s">
-        <v>142</v>
+        <v>122</v>
       </c>
       <c r="C120" t="s">
-        <v>355</v>
+        <v>354</v>
       </c>
       <c r="D120" t="s">
-        <v>391</v>
+        <v>386</v>
       </c>
     </row>
     <row r="121" spans="1:4">
@@ -13122,13 +13122,13 @@
         <v>120</v>
       </c>
       <c r="B121" t="s">
-        <v>122</v>
+        <v>143</v>
       </c>
       <c r="C121" t="s">
-        <v>354</v>
+        <v>355</v>
       </c>
       <c r="D121" t="s">
-        <v>386</v>
+        <v>391</v>
       </c>
     </row>
     <row r="122" spans="1:4">
@@ -13164,7 +13164,7 @@
         <v>123</v>
       </c>
       <c r="B124" t="s">
-        <v>138</v>
+        <v>139</v>
       </c>
       <c r="C124" t="s">
         <v>355</v>
@@ -13234,7 +13234,7 @@
         <v>128</v>
       </c>
       <c r="B129" t="s">
-        <v>139</v>
+        <v>138</v>
       </c>
       <c r="C129" t="s">
         <v>354</v>
@@ -13276,13 +13276,13 @@
         <v>131</v>
       </c>
       <c r="B132" t="s">
-        <v>130</v>
+        <v>133</v>
       </c>
       <c r="C132" t="s">
-        <v>356</v>
+        <v>354</v>
       </c>
       <c r="D132" t="s">
-        <v>363</v>
+        <v>381</v>
       </c>
     </row>
     <row r="133" spans="1:4">
@@ -13290,13 +13290,13 @@
         <v>132</v>
       </c>
       <c r="B133" t="s">
-        <v>133</v>
+        <v>125</v>
       </c>
       <c r="C133" t="s">
-        <v>354</v>
+        <v>355</v>
       </c>
       <c r="D133" t="s">
-        <v>381</v>
+        <v>370</v>
       </c>
     </row>
     <row r="134" spans="1:4">
@@ -13304,13 +13304,13 @@
         <v>133</v>
       </c>
       <c r="B134" t="s">
-        <v>129</v>
+        <v>130</v>
       </c>
       <c r="C134" t="s">
         <v>356</v>
       </c>
       <c r="D134" t="s">
-        <v>367</v>
+        <v>363</v>
       </c>
     </row>
     <row r="135" spans="1:4">
@@ -13318,13 +13318,13 @@
         <v>134</v>
       </c>
       <c r="B135" t="s">
-        <v>119</v>
+        <v>157</v>
       </c>
       <c r="C135" t="s">
-        <v>356</v>
+        <v>355</v>
       </c>
       <c r="D135" t="s">
-        <v>391</v>
+        <v>383</v>
       </c>
     </row>
     <row r="136" spans="1:4">
@@ -13332,13 +13332,13 @@
         <v>135</v>
       </c>
       <c r="B136" t="s">
-        <v>124</v>
+        <v>129</v>
       </c>
       <c r="C136" t="s">
-        <v>355</v>
+        <v>356</v>
       </c>
       <c r="D136" t="s">
-        <v>370</v>
+        <v>367</v>
       </c>
     </row>
     <row r="137" spans="1:4">
@@ -13346,13 +13346,13 @@
         <v>136</v>
       </c>
       <c r="B137" t="s">
-        <v>157</v>
+        <v>119</v>
       </c>
       <c r="C137" t="s">
-        <v>355</v>
+        <v>356</v>
       </c>
       <c r="D137" t="s">
-        <v>383</v>
+        <v>391</v>
       </c>
     </row>
     <row r="138" spans="1:4">
@@ -13388,13 +13388,13 @@
         <v>139</v>
       </c>
       <c r="B140" t="s">
-        <v>135</v>
+        <v>148</v>
       </c>
       <c r="C140" t="s">
-        <v>356</v>
+        <v>354</v>
       </c>
       <c r="D140" t="s">
-        <v>377</v>
+        <v>380</v>
       </c>
     </row>
     <row r="141" spans="1:4">
@@ -13402,13 +13402,13 @@
         <v>140</v>
       </c>
       <c r="B141" t="s">
-        <v>148</v>
+        <v>135</v>
       </c>
       <c r="C141" t="s">
-        <v>354</v>
+        <v>356</v>
       </c>
       <c r="D141" t="s">
-        <v>380</v>
+        <v>376</v>
       </c>
     </row>
     <row r="142" spans="1:4">
@@ -13430,13 +13430,13 @@
         <v>142</v>
       </c>
       <c r="B143" t="s">
-        <v>141</v>
+        <v>153</v>
       </c>
       <c r="C143" t="s">
-        <v>356</v>
+        <v>355</v>
       </c>
       <c r="D143" t="s">
-        <v>381</v>
+        <v>385</v>
       </c>
     </row>
     <row r="144" spans="1:4">
@@ -13444,13 +13444,13 @@
         <v>143</v>
       </c>
       <c r="B144" t="s">
-        <v>150</v>
+        <v>141</v>
       </c>
       <c r="C144" t="s">
-        <v>355</v>
+        <v>356</v>
       </c>
       <c r="D144" t="s">
-        <v>385</v>
+        <v>381</v>
       </c>
     </row>
     <row r="145" spans="1:4">
@@ -13472,7 +13472,7 @@
         <v>145</v>
       </c>
       <c r="B146" t="s">
-        <v>125</v>
+        <v>124</v>
       </c>
       <c r="C146" t="s">
         <v>357</v>
@@ -13542,7 +13542,7 @@
         <v>150</v>
       </c>
       <c r="B151" t="s">
-        <v>155</v>
+        <v>152</v>
       </c>
       <c r="C151" t="s">
         <v>356</v>
@@ -13584,13 +13584,13 @@
         <v>153</v>
       </c>
       <c r="B154" t="s">
-        <v>151</v>
+        <v>142</v>
       </c>
       <c r="C154" t="s">
-        <v>356</v>
+        <v>357</v>
       </c>
       <c r="D154" t="s">
-        <v>376</v>
+        <v>360</v>
       </c>
     </row>
     <row r="155" spans="1:4">
@@ -13598,13 +13598,13 @@
         <v>154</v>
       </c>
       <c r="B155" t="s">
-        <v>152</v>
+        <v>154</v>
       </c>
       <c r="C155" t="s">
-        <v>358</v>
+        <v>356</v>
       </c>
       <c r="D155" t="s">
-        <v>374</v>
+        <v>377</v>
       </c>
     </row>
     <row r="156" spans="1:4">
@@ -13612,13 +13612,13 @@
         <v>155</v>
       </c>
       <c r="B156" t="s">
-        <v>143</v>
+        <v>155</v>
       </c>
       <c r="C156" t="s">
-        <v>357</v>
+        <v>358</v>
       </c>
       <c r="D156" t="s">
-        <v>360</v>
+        <v>374</v>
       </c>
     </row>
     <row r="157" spans="1:4">
@@ -13626,7 +13626,7 @@
         <v>156</v>
       </c>
       <c r="B157" t="s">
-        <v>161</v>
+        <v>163</v>
       </c>
       <c r="C157" t="s">
         <v>356</v>
@@ -13696,13 +13696,13 @@
         <v>161</v>
       </c>
       <c r="B162" t="s">
-        <v>164</v>
+        <v>171</v>
       </c>
       <c r="C162" t="s">
-        <v>358</v>
+        <v>355</v>
       </c>
       <c r="D162" t="s">
-        <v>378</v>
+        <v>371</v>
       </c>
     </row>
     <row r="163" spans="1:4">
@@ -13710,13 +13710,13 @@
         <v>162</v>
       </c>
       <c r="B163" t="s">
-        <v>170</v>
+        <v>164</v>
       </c>
       <c r="C163" t="s">
-        <v>355</v>
+        <v>358</v>
       </c>
       <c r="D163" t="s">
-        <v>371</v>
+        <v>378</v>
       </c>
     </row>
     <row r="164" spans="1:4">
@@ -13724,7 +13724,7 @@
         <v>163</v>
       </c>
       <c r="B164" t="s">
-        <v>171</v>
+        <v>169</v>
       </c>
       <c r="C164" t="s">
         <v>354</v>
@@ -13752,7 +13752,7 @@
         <v>165</v>
       </c>
       <c r="B166" t="s">
-        <v>168</v>
+        <v>170</v>
       </c>
       <c r="C166" t="s">
         <v>358</v>
@@ -13766,7 +13766,7 @@
         <v>166</v>
       </c>
       <c r="B167" t="s">
-        <v>186</v>
+        <v>188</v>
       </c>
       <c r="C167" t="s">
         <v>355</v>
@@ -13780,7 +13780,7 @@
         <v>167</v>
       </c>
       <c r="B168" t="s">
-        <v>154</v>
+        <v>151</v>
       </c>
       <c r="C168" t="s">
         <v>357</v>
@@ -13836,7 +13836,7 @@
         <v>171</v>
       </c>
       <c r="B172" t="s">
-        <v>179</v>
+        <v>180</v>
       </c>
       <c r="C172" t="s">
         <v>355</v>
@@ -13850,13 +13850,13 @@
         <v>172</v>
       </c>
       <c r="B173" t="s">
-        <v>173</v>
+        <v>183</v>
       </c>
       <c r="C173" t="s">
-        <v>359</v>
+        <v>355</v>
       </c>
       <c r="D173" t="s">
-        <v>373</v>
+        <v>370</v>
       </c>
     </row>
     <row r="174" spans="1:4">
@@ -13864,13 +13864,13 @@
         <v>173</v>
       </c>
       <c r="B174" t="s">
-        <v>175</v>
+        <v>173</v>
       </c>
       <c r="C174" t="s">
-        <v>358</v>
+        <v>359</v>
       </c>
       <c r="D174" t="s">
-        <v>369</v>
+        <v>373</v>
       </c>
     </row>
     <row r="175" spans="1:4">
@@ -13878,13 +13878,13 @@
         <v>174</v>
       </c>
       <c r="B175" t="s">
-        <v>183</v>
+        <v>176</v>
       </c>
       <c r="C175" t="s">
-        <v>355</v>
+        <v>358</v>
       </c>
       <c r="D175" t="s">
-        <v>370</v>
+        <v>369</v>
       </c>
     </row>
     <row r="176" spans="1:4">
@@ -13892,13 +13892,13 @@
         <v>175</v>
       </c>
       <c r="B176" t="s">
-        <v>178</v>
+        <v>192</v>
       </c>
       <c r="C176" t="s">
-        <v>358</v>
+        <v>355</v>
       </c>
       <c r="D176" t="s">
-        <v>377</v>
+        <v>386</v>
       </c>
     </row>
     <row r="177" spans="1:4">
@@ -13906,13 +13906,13 @@
         <v>176</v>
       </c>
       <c r="B177" t="s">
-        <v>176</v>
+        <v>178</v>
       </c>
       <c r="C177" t="s">
         <v>358</v>
       </c>
       <c r="D177" t="s">
-        <v>368</v>
+        <v>376</v>
       </c>
     </row>
     <row r="178" spans="1:4">
@@ -13920,13 +13920,13 @@
         <v>177</v>
       </c>
       <c r="B178" t="s">
-        <v>192</v>
+        <v>177</v>
       </c>
       <c r="C178" t="s">
-        <v>355</v>
+        <v>358</v>
       </c>
       <c r="D178" t="s">
-        <v>386</v>
+        <v>368</v>
       </c>
     </row>
     <row r="179" spans="1:4">
@@ -13948,7 +13948,7 @@
         <v>179</v>
       </c>
       <c r="B180" t="s">
-        <v>180</v>
+        <v>179</v>
       </c>
       <c r="C180" t="s">
         <v>354</v>
@@ -13962,13 +13962,13 @@
         <v>180</v>
       </c>
       <c r="B181" t="s">
-        <v>182</v>
+        <v>201</v>
       </c>
       <c r="C181" t="s">
-        <v>356</v>
+        <v>354</v>
       </c>
       <c r="D181" t="s">
-        <v>365</v>
+        <v>383</v>
       </c>
     </row>
     <row r="182" spans="1:4">
@@ -13976,13 +13976,13 @@
         <v>181</v>
       </c>
       <c r="B182" t="s">
-        <v>185</v>
+        <v>182</v>
       </c>
       <c r="C182" t="s">
-        <v>359</v>
+        <v>356</v>
       </c>
       <c r="D182" t="s">
-        <v>374</v>
+        <v>365</v>
       </c>
     </row>
     <row r="183" spans="1:4">
@@ -13990,13 +13990,13 @@
         <v>182</v>
       </c>
       <c r="B183" t="s">
-        <v>203</v>
+        <v>194</v>
       </c>
       <c r="C183" t="s">
-        <v>354</v>
+        <v>355</v>
       </c>
       <c r="D183" t="s">
-        <v>383</v>
+        <v>379</v>
       </c>
     </row>
     <row r="184" spans="1:4">
@@ -14004,13 +14004,13 @@
         <v>183</v>
       </c>
       <c r="B184" t="s">
-        <v>184</v>
+        <v>186</v>
       </c>
       <c r="C184" t="s">
-        <v>358</v>
+        <v>359</v>
       </c>
       <c r="D184" t="s">
-        <v>391</v>
+        <v>374</v>
       </c>
     </row>
     <row r="185" spans="1:4">
@@ -14018,13 +14018,13 @@
         <v>184</v>
       </c>
       <c r="B185" t="s">
-        <v>194</v>
+        <v>161</v>
       </c>
       <c r="C185" t="s">
-        <v>355</v>
+        <v>357</v>
       </c>
       <c r="D185" t="s">
-        <v>379</v>
+        <v>371</v>
       </c>
     </row>
     <row r="186" spans="1:4">
@@ -14032,13 +14032,13 @@
         <v>185</v>
       </c>
       <c r="B186" t="s">
-        <v>162</v>
+        <v>184</v>
       </c>
       <c r="C186" t="s">
-        <v>357</v>
+        <v>358</v>
       </c>
       <c r="D186" t="s">
-        <v>371</v>
+        <v>391</v>
       </c>
     </row>
     <row r="187" spans="1:4">
@@ -14052,7 +14052,7 @@
         <v>355</v>
       </c>
       <c r="D187" t="s">
-        <v>376</v>
+        <v>377</v>
       </c>
     </row>
     <row r="188" spans="1:4">
@@ -14060,13 +14060,13 @@
         <v>187</v>
       </c>
       <c r="B188" t="s">
-        <v>187</v>
+        <v>162</v>
       </c>
       <c r="C188" t="s">
-        <v>356</v>
+        <v>357</v>
       </c>
       <c r="D188" t="s">
-        <v>385</v>
+        <v>391</v>
       </c>
     </row>
     <row r="189" spans="1:4">
@@ -14074,13 +14074,13 @@
         <v>188</v>
       </c>
       <c r="B189" t="s">
-        <v>163</v>
+        <v>185</v>
       </c>
       <c r="C189" t="s">
-        <v>357</v>
+        <v>356</v>
       </c>
       <c r="D189" t="s">
-        <v>391</v>
+        <v>385</v>
       </c>
     </row>
     <row r="190" spans="1:4">
@@ -14102,13 +14102,13 @@
         <v>190</v>
       </c>
       <c r="B191" t="s">
-        <v>197</v>
+        <v>204</v>
       </c>
       <c r="C191" t="s">
-        <v>359</v>
+        <v>354</v>
       </c>
       <c r="D191" t="s">
-        <v>368</v>
+        <v>378</v>
       </c>
     </row>
     <row r="192" spans="1:4">
@@ -14116,13 +14116,13 @@
         <v>191</v>
       </c>
       <c r="B192" t="s">
-        <v>196</v>
+        <v>198</v>
       </c>
       <c r="C192" t="s">
-        <v>359</v>
+        <v>355</v>
       </c>
       <c r="D192" t="s">
-        <v>365</v>
+        <v>377</v>
       </c>
     </row>
     <row r="193" spans="1:4">
@@ -14130,13 +14130,13 @@
         <v>192</v>
       </c>
       <c r="B193" t="s">
-        <v>205</v>
+        <v>197</v>
       </c>
       <c r="C193" t="s">
-        <v>354</v>
+        <v>359</v>
       </c>
       <c r="D193" t="s">
-        <v>378</v>
+        <v>368</v>
       </c>
     </row>
     <row r="194" spans="1:4">
@@ -14144,13 +14144,13 @@
         <v>193</v>
       </c>
       <c r="B194" t="s">
-        <v>198</v>
+        <v>196</v>
       </c>
       <c r="C194" t="s">
-        <v>355</v>
+        <v>359</v>
       </c>
       <c r="D194" t="s">
-        <v>376</v>
+        <v>365</v>
       </c>
     </row>
     <row r="195" spans="1:4">
@@ -14158,13 +14158,13 @@
         <v>194</v>
       </c>
       <c r="B195" t="s">
-        <v>201</v>
+        <v>209</v>
       </c>
       <c r="C195" t="s">
-        <v>358</v>
+        <v>355</v>
       </c>
       <c r="D195" t="s">
-        <v>379</v>
+        <v>376</v>
       </c>
     </row>
     <row r="196" spans="1:4">
@@ -14172,13 +14172,13 @@
         <v>195</v>
       </c>
       <c r="B196" t="s">
-        <v>209</v>
+        <v>202</v>
       </c>
       <c r="C196" t="s">
-        <v>355</v>
+        <v>358</v>
       </c>
       <c r="D196" t="s">
-        <v>377</v>
+        <v>379</v>
       </c>
     </row>
     <row r="197" spans="1:4">
@@ -14186,7 +14186,7 @@
         <v>196</v>
       </c>
       <c r="B197" t="s">
-        <v>213</v>
+        <v>215</v>
       </c>
       <c r="C197" t="s">
         <v>355</v>
@@ -14200,13 +14200,13 @@
         <v>197</v>
       </c>
       <c r="B198" t="s">
-        <v>204</v>
+        <v>207</v>
       </c>
       <c r="C198" t="s">
-        <v>358</v>
+        <v>355</v>
       </c>
       <c r="D198" t="s">
-        <v>364</v>
+        <v>372</v>
       </c>
     </row>
     <row r="199" spans="1:4">
@@ -14214,13 +14214,13 @@
         <v>198</v>
       </c>
       <c r="B199" t="s">
-        <v>207</v>
+        <v>190</v>
       </c>
       <c r="C199" t="s">
-        <v>355</v>
+        <v>354</v>
       </c>
       <c r="D199" t="s">
-        <v>372</v>
+        <v>361</v>
       </c>
     </row>
     <row r="200" spans="1:4">
@@ -14228,13 +14228,13 @@
         <v>199</v>
       </c>
       <c r="B200" t="s">
-        <v>190</v>
+        <v>205</v>
       </c>
       <c r="C200" t="s">
-        <v>354</v>
+        <v>358</v>
       </c>
       <c r="D200" t="s">
-        <v>361</v>
+        <v>364</v>
       </c>
     </row>
     <row r="201" spans="1:4">
@@ -14256,13 +14256,13 @@
         <v>201</v>
       </c>
       <c r="B202" t="s">
-        <v>208</v>
+        <v>166</v>
       </c>
       <c r="C202" t="s">
-        <v>358</v>
+        <v>357</v>
       </c>
       <c r="D202" t="s">
-        <v>376</v>
+        <v>372</v>
       </c>
     </row>
     <row r="203" spans="1:4">
@@ -14270,13 +14270,13 @@
         <v>202</v>
       </c>
       <c r="B203" t="s">
-        <v>166</v>
+        <v>208</v>
       </c>
       <c r="C203" t="s">
-        <v>357</v>
+        <v>358</v>
       </c>
       <c r="D203" t="s">
-        <v>372</v>
+        <v>377</v>
       </c>
     </row>
     <row r="204" spans="1:4">
@@ -14284,13 +14284,13 @@
         <v>203</v>
       </c>
       <c r="B204" t="s">
-        <v>215</v>
+        <v>211</v>
       </c>
       <c r="C204" t="s">
-        <v>356</v>
+        <v>355</v>
       </c>
       <c r="D204" t="s">
-        <v>390</v>
+        <v>360</v>
       </c>
     </row>
     <row r="205" spans="1:4">
@@ -14298,13 +14298,13 @@
         <v>204</v>
       </c>
       <c r="B205" t="s">
-        <v>210</v>
+        <v>214</v>
       </c>
       <c r="C205" t="s">
-        <v>355</v>
+        <v>356</v>
       </c>
       <c r="D205" t="s">
-        <v>360</v>
+        <v>390</v>
       </c>
     </row>
     <row r="206" spans="1:4">
@@ -14312,13 +14312,13 @@
         <v>205</v>
       </c>
       <c r="B206" t="s">
-        <v>212</v>
+        <v>232</v>
       </c>
       <c r="C206" t="s">
-        <v>358</v>
+        <v>354</v>
       </c>
       <c r="D206" t="s">
-        <v>381</v>
+        <v>370</v>
       </c>
     </row>
     <row r="207" spans="1:4">
@@ -14340,13 +14340,13 @@
         <v>207</v>
       </c>
       <c r="B208" t="s">
-        <v>233</v>
+        <v>224</v>
       </c>
       <c r="C208" t="s">
         <v>354</v>
       </c>
       <c r="D208" t="s">
-        <v>370</v>
+        <v>390</v>
       </c>
     </row>
     <row r="209" spans="1:4">
@@ -14354,13 +14354,13 @@
         <v>208</v>
       </c>
       <c r="B209" t="s">
-        <v>226</v>
+        <v>212</v>
       </c>
       <c r="C209" t="s">
-        <v>354</v>
+        <v>358</v>
       </c>
       <c r="D209" t="s">
-        <v>390</v>
+        <v>381</v>
       </c>
     </row>
     <row r="210" spans="1:4">
@@ -14368,7 +14368,7 @@
         <v>209</v>
       </c>
       <c r="B210" t="s">
-        <v>169</v>
+        <v>168</v>
       </c>
       <c r="C210" t="s">
         <v>357</v>
@@ -14382,7 +14382,7 @@
         <v>210</v>
       </c>
       <c r="B211" t="s">
-        <v>235</v>
+        <v>234</v>
       </c>
       <c r="C211" t="s">
         <v>354</v>
@@ -14410,7 +14410,7 @@
         <v>212</v>
       </c>
       <c r="B213" t="s">
-        <v>242</v>
+        <v>243</v>
       </c>
       <c r="C213" t="s">
         <v>355</v>
@@ -14424,7 +14424,7 @@
         <v>213</v>
       </c>
       <c r="B214" t="s">
-        <v>218</v>
+        <v>219</v>
       </c>
       <c r="C214" t="s">
         <v>355</v>
@@ -14452,7 +14452,7 @@
         <v>215</v>
       </c>
       <c r="B216" t="s">
-        <v>211</v>
+        <v>210</v>
       </c>
       <c r="C216" t="s">
         <v>354</v>
@@ -14466,13 +14466,13 @@
         <v>216</v>
       </c>
       <c r="B217" t="s">
-        <v>202</v>
+        <v>231</v>
       </c>
       <c r="C217" t="s">
         <v>354</v>
       </c>
       <c r="D217" t="s">
-        <v>373</v>
+        <v>382</v>
       </c>
     </row>
     <row r="218" spans="1:4">
@@ -14480,13 +14480,13 @@
         <v>217</v>
       </c>
       <c r="B218" t="s">
-        <v>232</v>
+        <v>203</v>
       </c>
       <c r="C218" t="s">
         <v>354</v>
       </c>
       <c r="D218" t="s">
-        <v>382</v>
+        <v>373</v>
       </c>
     </row>
     <row r="219" spans="1:4">
@@ -14494,13 +14494,13 @@
         <v>218</v>
       </c>
       <c r="B219" t="s">
-        <v>220</v>
+        <v>175</v>
       </c>
       <c r="C219" t="s">
-        <v>359</v>
+        <v>357</v>
       </c>
       <c r="D219" t="s">
-        <v>380</v>
+        <v>361</v>
       </c>
     </row>
     <row r="220" spans="1:4">
@@ -14508,13 +14508,13 @@
         <v>219</v>
       </c>
       <c r="B220" t="s">
-        <v>177</v>
+        <v>221</v>
       </c>
       <c r="C220" t="s">
-        <v>357</v>
+        <v>359</v>
       </c>
       <c r="D220" t="s">
-        <v>361</v>
+        <v>380</v>
       </c>
     </row>
     <row r="221" spans="1:4">
@@ -14522,7 +14522,7 @@
         <v>220</v>
       </c>
       <c r="B221" t="s">
-        <v>222</v>
+        <v>223</v>
       </c>
       <c r="C221" t="s">
         <v>358</v>
@@ -14536,7 +14536,7 @@
         <v>221</v>
       </c>
       <c r="B222" t="s">
-        <v>224</v>
+        <v>225</v>
       </c>
       <c r="C222" t="s">
         <v>358</v>
@@ -14550,13 +14550,13 @@
         <v>222</v>
       </c>
       <c r="B223" t="s">
-        <v>225</v>
+        <v>242</v>
       </c>
       <c r="C223" t="s">
-        <v>358</v>
+        <v>355</v>
       </c>
       <c r="D223" t="s">
-        <v>384</v>
+        <v>374</v>
       </c>
     </row>
     <row r="224" spans="1:4">
@@ -14564,13 +14564,13 @@
         <v>223</v>
       </c>
       <c r="B224" t="s">
-        <v>241</v>
+        <v>236</v>
       </c>
       <c r="C224" t="s">
-        <v>355</v>
+        <v>354</v>
       </c>
       <c r="D224" t="s">
-        <v>374</v>
+        <v>373</v>
       </c>
     </row>
     <row r="225" spans="1:4">
@@ -14578,13 +14578,13 @@
         <v>224</v>
       </c>
       <c r="B225" t="s">
-        <v>237</v>
+        <v>226</v>
       </c>
       <c r="C225" t="s">
-        <v>354</v>
+        <v>358</v>
       </c>
       <c r="D225" t="s">
-        <v>373</v>
+        <v>384</v>
       </c>
     </row>
     <row r="226" spans="1:4">
@@ -14592,7 +14592,7 @@
         <v>225</v>
       </c>
       <c r="B226" t="s">
-        <v>240</v>
+        <v>241</v>
       </c>
       <c r="C226" t="s">
         <v>355</v>
@@ -14606,7 +14606,7 @@
         <v>226</v>
       </c>
       <c r="B227" t="s">
-        <v>227</v>
+        <v>228</v>
       </c>
       <c r="C227" t="s">
         <v>358</v>
@@ -14634,13 +14634,13 @@
         <v>228</v>
       </c>
       <c r="B229" t="s">
-        <v>230</v>
+        <v>246</v>
       </c>
       <c r="C229" t="s">
-        <v>358</v>
+        <v>355</v>
       </c>
       <c r="D229" t="s">
-        <v>366</v>
+        <v>386</v>
       </c>
     </row>
     <row r="230" spans="1:4">
@@ -14648,13 +14648,13 @@
         <v>229</v>
       </c>
       <c r="B230" t="s">
-        <v>246</v>
+        <v>230</v>
       </c>
       <c r="C230" t="s">
-        <v>355</v>
+        <v>358</v>
       </c>
       <c r="D230" t="s">
-        <v>386</v>
+        <v>366</v>
       </c>
     </row>
     <row r="231" spans="1:4">
@@ -14662,7 +14662,7 @@
         <v>230</v>
       </c>
       <c r="B231" t="s">
-        <v>223</v>
+        <v>222</v>
       </c>
       <c r="C231" t="s">
         <v>354</v>
@@ -14676,7 +14676,7 @@
         <v>231</v>
       </c>
       <c r="B232" t="s">
-        <v>219</v>
+        <v>218</v>
       </c>
       <c r="C232" t="s">
         <v>356</v>
@@ -14690,7 +14690,7 @@
         <v>232</v>
       </c>
       <c r="B233" t="s">
-        <v>231</v>
+        <v>233</v>
       </c>
       <c r="C233" t="s">
         <v>354</v>
@@ -14704,7 +14704,7 @@
         <v>233</v>
       </c>
       <c r="B234" t="s">
-        <v>228</v>
+        <v>227</v>
       </c>
       <c r="C234" t="s">
         <v>354</v>
@@ -14718,7 +14718,7 @@
         <v>234</v>
       </c>
       <c r="B235" t="s">
-        <v>236</v>
+        <v>237</v>
       </c>
       <c r="C235" t="s">
         <v>355</v>
@@ -14732,13 +14732,13 @@
         <v>235</v>
       </c>
       <c r="B236" t="s">
-        <v>234</v>
+        <v>240</v>
       </c>
       <c r="C236" t="s">
-        <v>359</v>
+        <v>355</v>
       </c>
       <c r="D236" t="s">
-        <v>392</v>
+        <v>391</v>
       </c>
     </row>
     <row r="237" spans="1:4">
@@ -14746,13 +14746,13 @@
         <v>236</v>
       </c>
       <c r="B237" t="s">
-        <v>239</v>
+        <v>235</v>
       </c>
       <c r="C237" t="s">
-        <v>355</v>
+        <v>359</v>
       </c>
       <c r="D237" t="s">
-        <v>391</v>
+        <v>392</v>
       </c>
     </row>
     <row r="238" spans="1:4">
@@ -14760,7 +14760,7 @@
         <v>237</v>
       </c>
       <c r="B238" t="s">
-        <v>188</v>
+        <v>187</v>
       </c>
       <c r="C238" t="s">
         <v>357</v>
@@ -14791,10 +14791,10 @@
         <v>238</v>
       </c>
       <c r="C240" t="s">
-        <v>359</v>
+        <v>354</v>
       </c>
       <c r="D240" t="s">
-        <v>377</v>
+        <v>383</v>
       </c>
     </row>
     <row r="241" spans="1:4">
@@ -14802,13 +14802,13 @@
         <v>240</v>
       </c>
       <c r="B241" t="s">
-        <v>243</v>
+        <v>239</v>
       </c>
       <c r="C241" t="s">
-        <v>354</v>
+        <v>359</v>
       </c>
       <c r="D241" t="s">
-        <v>383</v>
+        <v>376</v>
       </c>
     </row>
     <row r="242" spans="1:4">
@@ -14830,13 +14830,13 @@
         <v>242</v>
       </c>
       <c r="B243" t="s">
-        <v>247</v>
+        <v>244</v>
       </c>
       <c r="C243" t="s">
-        <v>356</v>
+        <v>354</v>
       </c>
       <c r="D243" t="s">
-        <v>391</v>
+        <v>367</v>
       </c>
     </row>
     <row r="244" spans="1:4">
@@ -14844,13 +14844,13 @@
         <v>243</v>
       </c>
       <c r="B244" t="s">
-        <v>244</v>
+        <v>247</v>
       </c>
       <c r="C244" t="s">
-        <v>354</v>
+        <v>356</v>
       </c>
       <c r="D244" t="s">
-        <v>367</v>
+        <v>391</v>
       </c>
     </row>
     <row r="245" spans="1:4">
@@ -14886,13 +14886,13 @@
         <v>246</v>
       </c>
       <c r="B247" t="s">
-        <v>251</v>
+        <v>258</v>
       </c>
       <c r="C247" t="s">
-        <v>358</v>
+        <v>355</v>
       </c>
       <c r="D247" t="s">
-        <v>365</v>
+        <v>377</v>
       </c>
     </row>
     <row r="248" spans="1:4">
@@ -14900,13 +14900,13 @@
         <v>247</v>
       </c>
       <c r="B248" t="s">
-        <v>271</v>
+        <v>253</v>
       </c>
       <c r="C248" t="s">
-        <v>355</v>
+        <v>358</v>
       </c>
       <c r="D248" t="s">
-        <v>388</v>
+        <v>365</v>
       </c>
     </row>
     <row r="249" spans="1:4">
@@ -14914,13 +14914,13 @@
         <v>248</v>
       </c>
       <c r="B249" t="s">
-        <v>258</v>
+        <v>271</v>
       </c>
       <c r="C249" t="s">
         <v>355</v>
       </c>
       <c r="D249" t="s">
-        <v>376</v>
+        <v>388</v>
       </c>
     </row>
     <row r="250" spans="1:4">
@@ -14956,13 +14956,13 @@
         <v>251</v>
       </c>
       <c r="B252" t="s">
-        <v>256</v>
+        <v>264</v>
       </c>
       <c r="C252" t="s">
-        <v>358</v>
+        <v>355</v>
       </c>
       <c r="D252" t="s">
-        <v>362</v>
+        <v>361</v>
       </c>
     </row>
     <row r="253" spans="1:4">
@@ -14970,13 +14970,13 @@
         <v>252</v>
       </c>
       <c r="B253" t="s">
-        <v>264</v>
+        <v>256</v>
       </c>
       <c r="C253" t="s">
-        <v>355</v>
+        <v>358</v>
       </c>
       <c r="D253" t="s">
-        <v>361</v>
+        <v>362</v>
       </c>
     </row>
     <row r="254" spans="1:4">
@@ -14998,7 +14998,7 @@
         <v>254</v>
       </c>
       <c r="B255" t="s">
-        <v>214</v>
+        <v>213</v>
       </c>
       <c r="C255" t="s">
         <v>357</v>
@@ -15012,13 +15012,13 @@
         <v>255</v>
       </c>
       <c r="B256" t="s">
-        <v>259</v>
+        <v>261</v>
       </c>
       <c r="C256" t="s">
-        <v>359</v>
+        <v>355</v>
       </c>
       <c r="D256" t="s">
-        <v>364</v>
+        <v>377</v>
       </c>
     </row>
     <row r="257" spans="1:4">
@@ -15026,13 +15026,13 @@
         <v>256</v>
       </c>
       <c r="B257" t="s">
-        <v>261</v>
+        <v>259</v>
       </c>
       <c r="C257" t="s">
-        <v>355</v>
+        <v>359</v>
       </c>
       <c r="D257" t="s">
-        <v>376</v>
+        <v>364</v>
       </c>
     </row>
     <row r="258" spans="1:4">
@@ -15054,13 +15054,13 @@
         <v>258</v>
       </c>
       <c r="B259" t="s">
-        <v>260</v>
+        <v>251</v>
       </c>
       <c r="C259" t="s">
-        <v>356</v>
+        <v>354</v>
       </c>
       <c r="D259" t="s">
-        <v>380</v>
+        <v>374</v>
       </c>
     </row>
     <row r="260" spans="1:4">
@@ -15068,13 +15068,13 @@
         <v>259</v>
       </c>
       <c r="B260" t="s">
-        <v>252</v>
+        <v>260</v>
       </c>
       <c r="C260" t="s">
-        <v>354</v>
+        <v>356</v>
       </c>
       <c r="D260" t="s">
-        <v>374</v>
+        <v>380</v>
       </c>
     </row>
     <row r="261" spans="1:4">
@@ -15082,13 +15082,13 @@
         <v>260</v>
       </c>
       <c r="B261" t="s">
-        <v>221</v>
+        <v>269</v>
       </c>
       <c r="C261" t="s">
-        <v>357</v>
+        <v>355</v>
       </c>
       <c r="D261" t="s">
-        <v>382</v>
+        <v>361</v>
       </c>
     </row>
     <row r="262" spans="1:4">
@@ -15096,13 +15096,13 @@
         <v>261</v>
       </c>
       <c r="B262" t="s">
-        <v>269</v>
+        <v>220</v>
       </c>
       <c r="C262" t="s">
-        <v>355</v>
+        <v>357</v>
       </c>
       <c r="D262" t="s">
-        <v>361</v>
+        <v>382</v>
       </c>
     </row>
     <row r="263" spans="1:4">
@@ -15180,13 +15180,13 @@
         <v>267</v>
       </c>
       <c r="B268" t="s">
-        <v>265</v>
+        <v>275</v>
       </c>
       <c r="C268" t="s">
-        <v>356</v>
+        <v>355</v>
       </c>
       <c r="D268" t="s">
-        <v>369</v>
+        <v>381</v>
       </c>
     </row>
     <row r="269" spans="1:4">
@@ -15194,13 +15194,13 @@
         <v>268</v>
       </c>
       <c r="B269" t="s">
-        <v>275</v>
+        <v>265</v>
       </c>
       <c r="C269" t="s">
-        <v>355</v>
+        <v>356</v>
       </c>
       <c r="D269" t="s">
-        <v>381</v>
+        <v>369</v>
       </c>
     </row>
     <row r="270" spans="1:4">
@@ -15228,7 +15228,7 @@
         <v>359</v>
       </c>
       <c r="D271" t="s">
-        <v>376</v>
+        <v>377</v>
       </c>
     </row>
     <row r="272" spans="1:4">
@@ -15390,13 +15390,13 @@
         <v>282</v>
       </c>
       <c r="B283" t="s">
-        <v>286</v>
+        <v>291</v>
       </c>
       <c r="C283" t="s">
-        <v>359</v>
+        <v>355</v>
       </c>
       <c r="D283" t="s">
-        <v>371</v>
+        <v>362</v>
       </c>
     </row>
     <row r="284" spans="1:4">
@@ -15404,13 +15404,13 @@
         <v>283</v>
       </c>
       <c r="B284" t="s">
-        <v>289</v>
+        <v>286</v>
       </c>
       <c r="C284" t="s">
-        <v>355</v>
+        <v>359</v>
       </c>
       <c r="D284" t="s">
-        <v>362</v>
+        <v>371</v>
       </c>
     </row>
     <row r="285" spans="1:4">
@@ -15418,7 +15418,7 @@
         <v>284</v>
       </c>
       <c r="B285" t="s">
-        <v>253</v>
+        <v>252</v>
       </c>
       <c r="C285" t="s">
         <v>357</v>
@@ -15460,13 +15460,13 @@
         <v>287</v>
       </c>
       <c r="B288" t="s">
-        <v>293</v>
+        <v>314</v>
       </c>
       <c r="C288" t="s">
-        <v>356</v>
+        <v>354</v>
       </c>
       <c r="D288" t="s">
-        <v>383</v>
+        <v>362</v>
       </c>
     </row>
     <row r="289" spans="1:4">
@@ -15474,13 +15474,13 @@
         <v>288</v>
       </c>
       <c r="B289" t="s">
-        <v>314</v>
+        <v>308</v>
       </c>
       <c r="C289" t="s">
-        <v>354</v>
+        <v>355</v>
       </c>
       <c r="D289" t="s">
-        <v>362</v>
+        <v>373</v>
       </c>
     </row>
     <row r="290" spans="1:4">
@@ -15488,13 +15488,13 @@
         <v>289</v>
       </c>
       <c r="B290" t="s">
-        <v>295</v>
+        <v>293</v>
       </c>
       <c r="C290" t="s">
-        <v>358</v>
+        <v>356</v>
       </c>
       <c r="D290" t="s">
-        <v>371</v>
+        <v>383</v>
       </c>
     </row>
     <row r="291" spans="1:4">
@@ -15502,13 +15502,13 @@
         <v>290</v>
       </c>
       <c r="B291" t="s">
-        <v>308</v>
+        <v>296</v>
       </c>
       <c r="C291" t="s">
-        <v>355</v>
+        <v>358</v>
       </c>
       <c r="D291" t="s">
-        <v>373</v>
+        <v>371</v>
       </c>
     </row>
     <row r="292" spans="1:4">
@@ -15558,10 +15558,10 @@
         <v>294</v>
       </c>
       <c r="B295" t="s">
-        <v>301</v>
+        <v>304</v>
       </c>
       <c r="C295" t="s">
-        <v>359</v>
+        <v>355</v>
       </c>
       <c r="D295" t="s">
         <v>387</v>
@@ -15572,10 +15572,10 @@
         <v>295</v>
       </c>
       <c r="B296" t="s">
-        <v>304</v>
+        <v>301</v>
       </c>
       <c r="C296" t="s">
-        <v>355</v>
+        <v>359</v>
       </c>
       <c r="D296" t="s">
         <v>387</v>
@@ -15586,7 +15586,7 @@
         <v>296</v>
       </c>
       <c r="B297" t="s">
-        <v>291</v>
+        <v>290</v>
       </c>
       <c r="C297" t="s">
         <v>354</v>
@@ -15614,7 +15614,7 @@
         <v>298</v>
       </c>
       <c r="B299" t="s">
-        <v>305</v>
+        <v>306</v>
       </c>
       <c r="C299" t="s">
         <v>358</v>
@@ -15642,13 +15642,13 @@
         <v>300</v>
       </c>
       <c r="B301" t="s">
-        <v>298</v>
+        <v>287</v>
       </c>
       <c r="C301" t="s">
-        <v>356</v>
+        <v>354</v>
       </c>
       <c r="D301" t="s">
-        <v>380</v>
+        <v>362</v>
       </c>
     </row>
     <row r="302" spans="1:4">
@@ -15656,13 +15656,13 @@
         <v>301</v>
       </c>
       <c r="B302" t="s">
-        <v>309</v>
+        <v>298</v>
       </c>
       <c r="C302" t="s">
-        <v>358</v>
+        <v>356</v>
       </c>
       <c r="D302" t="s">
-        <v>389</v>
+        <v>380</v>
       </c>
     </row>
     <row r="303" spans="1:4">
@@ -15670,13 +15670,13 @@
         <v>302</v>
       </c>
       <c r="B303" t="s">
-        <v>287</v>
+        <v>309</v>
       </c>
       <c r="C303" t="s">
-        <v>354</v>
+        <v>358</v>
       </c>
       <c r="D303" t="s">
-        <v>362</v>
+        <v>389</v>
       </c>
     </row>
     <row r="304" spans="1:4">
@@ -15684,13 +15684,13 @@
         <v>303</v>
       </c>
       <c r="B304" t="s">
-        <v>313</v>
+        <v>317</v>
       </c>
       <c r="C304" t="s">
         <v>355</v>
       </c>
       <c r="D304" t="s">
-        <v>372</v>
+        <v>362</v>
       </c>
     </row>
     <row r="305" spans="1:4">
@@ -15698,13 +15698,13 @@
         <v>304</v>
       </c>
       <c r="B305" t="s">
-        <v>317</v>
+        <v>313</v>
       </c>
       <c r="C305" t="s">
         <v>355</v>
       </c>
       <c r="D305" t="s">
-        <v>362</v>
+        <v>372</v>
       </c>
     </row>
     <row r="306" spans="1:4">
@@ -15726,7 +15726,7 @@
         <v>306</v>
       </c>
       <c r="B307" t="s">
-        <v>307</v>
+        <v>305</v>
       </c>
       <c r="C307" t="s">
         <v>354</v>
@@ -15782,7 +15782,7 @@
         <v>310</v>
       </c>
       <c r="B311" t="s">
-        <v>306</v>
+        <v>307</v>
       </c>
       <c r="C311" t="s">
         <v>354</v>
@@ -15810,13 +15810,13 @@
         <v>312</v>
       </c>
       <c r="B313" t="s">
-        <v>321</v>
+        <v>325</v>
       </c>
       <c r="C313" t="s">
         <v>355</v>
       </c>
       <c r="D313" t="s">
-        <v>369</v>
+        <v>363</v>
       </c>
     </row>
     <row r="314" spans="1:4">
@@ -15824,13 +15824,13 @@
         <v>313</v>
       </c>
       <c r="B314" t="s">
-        <v>324</v>
+        <v>321</v>
       </c>
       <c r="C314" t="s">
         <v>355</v>
       </c>
       <c r="D314" t="s">
-        <v>363</v>
+        <v>369</v>
       </c>
     </row>
     <row r="315" spans="1:4">
@@ -15880,13 +15880,13 @@
         <v>317</v>
       </c>
       <c r="B318" t="s">
-        <v>330</v>
+        <v>295</v>
       </c>
       <c r="C318" t="s">
-        <v>354</v>
+        <v>357</v>
       </c>
       <c r="D318" t="s">
-        <v>388</v>
+        <v>366</v>
       </c>
     </row>
     <row r="319" spans="1:4">
@@ -15894,13 +15894,13 @@
         <v>318</v>
       </c>
       <c r="B319" t="s">
-        <v>296</v>
+        <v>330</v>
       </c>
       <c r="C319" t="s">
-        <v>357</v>
+        <v>354</v>
       </c>
       <c r="D319" t="s">
-        <v>366</v>
+        <v>388</v>
       </c>
     </row>
     <row r="320" spans="1:4">
@@ -15922,7 +15922,7 @@
         <v>320</v>
       </c>
       <c r="B321" t="s">
-        <v>290</v>
+        <v>289</v>
       </c>
       <c r="C321" t="s">
         <v>357</v>
@@ -15984,7 +15984,7 @@
         <v>356</v>
       </c>
       <c r="D325" t="s">
-        <v>377</v>
+        <v>376</v>
       </c>
     </row>
     <row r="326" spans="1:4">
@@ -16118,13 +16118,13 @@
         <v>334</v>
       </c>
       <c r="B335" t="s">
-        <v>343</v>
+        <v>346</v>
       </c>
       <c r="C335" t="s">
-        <v>354</v>
+        <v>355</v>
       </c>
       <c r="D335" t="s">
-        <v>372</v>
+        <v>373</v>
       </c>
     </row>
     <row r="336" spans="1:4">
@@ -16132,13 +16132,13 @@
         <v>335</v>
       </c>
       <c r="B336" t="s">
-        <v>347</v>
+        <v>343</v>
       </c>
       <c r="C336" t="s">
         <v>354</v>
       </c>
       <c r="D336" t="s">
-        <v>387</v>
+        <v>372</v>
       </c>
     </row>
     <row r="337" spans="1:4">
@@ -16146,13 +16146,13 @@
         <v>336</v>
       </c>
       <c r="B337" t="s">
-        <v>346</v>
+        <v>347</v>
       </c>
       <c r="C337" t="s">
-        <v>355</v>
+        <v>354</v>
       </c>
       <c r="D337" t="s">
-        <v>373</v>
+        <v>387</v>
       </c>
     </row>
     <row r="338" spans="1:4">
@@ -16174,13 +16174,13 @@
         <v>338</v>
       </c>
       <c r="B339" t="s">
-        <v>342</v>
+        <v>324</v>
       </c>
       <c r="C339" t="s">
-        <v>358</v>
+        <v>357</v>
       </c>
       <c r="D339" t="s">
-        <v>375</v>
+        <v>389</v>
       </c>
     </row>
     <row r="340" spans="1:4">
@@ -16188,13 +16188,13 @@
         <v>339</v>
       </c>
       <c r="B340" t="s">
-        <v>325</v>
+        <v>342</v>
       </c>
       <c r="C340" t="s">
-        <v>357</v>
+        <v>358</v>
       </c>
       <c r="D340" t="s">
-        <v>389</v>
+        <v>375</v>
       </c>
     </row>
     <row r="341" spans="1:4">
@@ -16258,7 +16258,7 @@
         <v>344</v>
       </c>
       <c r="B345" t="s">
-        <v>328</v>
+        <v>329</v>
       </c>
       <c r="C345" t="s">
         <v>356</v>
@@ -16286,13 +16286,13 @@
         <v>346</v>
       </c>
       <c r="B347" t="s">
-        <v>333</v>
+        <v>395</v>
       </c>
       <c r="C347" t="s">
         <v>354</v>
       </c>
       <c r="D347" t="s">
-        <v>360</v>
+        <v>389</v>
       </c>
     </row>
     <row r="348" spans="1:4">
@@ -16300,13 +16300,13 @@
         <v>347</v>
       </c>
       <c r="B348" t="s">
-        <v>395</v>
+        <v>333</v>
       </c>
       <c r="C348" t="s">
         <v>354</v>
       </c>
       <c r="D348" t="s">
-        <v>389</v>
+        <v>360</v>
       </c>
     </row>
     <row r="349" spans="1:4">
@@ -16314,7 +16314,7 @@
         <v>348</v>
       </c>
       <c r="B349" t="s">
-        <v>329</v>
+        <v>328</v>
       </c>
       <c r="C349" t="s">
         <v>357</v>
@@ -16328,13 +16328,13 @@
         <v>349</v>
       </c>
       <c r="B350" t="s">
-        <v>353</v>
+        <v>394</v>
       </c>
       <c r="C350" t="s">
-        <v>359</v>
+        <v>354</v>
       </c>
       <c r="D350" t="s">
-        <v>360</v>
+        <v>389</v>
       </c>
     </row>
     <row r="351" spans="1:4">
@@ -16342,13 +16342,13 @@
         <v>350</v>
       </c>
       <c r="B351" t="s">
-        <v>394</v>
+        <v>353</v>
       </c>
       <c r="C351" t="s">
-        <v>354</v>
+        <v>359</v>
       </c>
       <c r="D351" t="s">
-        <v>389</v>
+        <v>360</v>
       </c>
     </row>
   </sheetData>

--- a/docs/FantasyProsFootballDraft.xlsx
+++ b/docs/FantasyProsFootballDraft.xlsx
@@ -89,12 +89,12 @@
     <t>Davante Adams</t>
   </si>
   <si>
+    <t>Aaron Jones</t>
+  </si>
+  <si>
     <t>Javonte Williams</t>
   </si>
   <si>
-    <t>Aaron Jones</t>
-  </si>
-  <si>
     <t>Deebo Samuel</t>
   </si>
   <si>
@@ -122,12 +122,12 @@
     <t>Tee Higgins</t>
   </si>
   <si>
+    <t>Ezekiel Elliott</t>
+  </si>
+  <si>
     <t>Michael Pittman Jr.</t>
   </si>
   <si>
-    <t>Ezekiel Elliott</t>
-  </si>
-  <si>
     <t>Josh Allen</t>
   </si>
   <si>
@@ -179,27 +179,27 @@
     <t>Allen Robinson II</t>
   </si>
   <si>
+    <t>George Kittle</t>
+  </si>
+  <si>
     <t>AJ Dillon</t>
   </si>
   <si>
-    <t>George Kittle</t>
-  </si>
-  <si>
     <t>Diontae Johnson</t>
   </si>
   <si>
     <t>Darren Waller</t>
   </si>
   <si>
+    <t>Patrick Mahomes II</t>
+  </si>
+  <si>
+    <t>Lamar Jackson</t>
+  </si>
+  <si>
     <t>Marquise Brown</t>
   </si>
   <si>
-    <t>Patrick Mahomes II</t>
-  </si>
-  <si>
-    <t>Lamar Jackson</t>
-  </si>
-  <si>
     <t>Jerry Jeudy</t>
   </si>
   <si>
@@ -230,21 +230,21 @@
     <t>Antonio Gibson</t>
   </si>
   <si>
+    <t>Damien Harris</t>
+  </si>
+  <si>
     <t>Dameon Pierce</t>
   </si>
   <si>
-    <t>Damien Harris</t>
-  </si>
-  <si>
     <t>Elijah Moore</t>
   </si>
   <si>
+    <t>Michael Thomas</t>
+  </si>
+  <si>
     <t>Amon-Ra St. Brown</t>
   </si>
   <si>
-    <t>Michael Thomas</t>
-  </si>
-  <si>
     <t>JuJu Smith-Schuster</t>
   </si>
   <si>
@@ -302,21 +302,21 @@
     <t>Dawson Knox</t>
   </si>
   <si>
+    <t>Dak Prescott</t>
+  </si>
+  <si>
+    <t>Tony Pollard</t>
+  </si>
+  <si>
+    <t>Devin Singletary</t>
+  </si>
+  <si>
+    <t>Kareem Hunt</t>
+  </si>
+  <si>
     <t>Drake London</t>
   </si>
   <si>
-    <t>Dak Prescott</t>
-  </si>
-  <si>
-    <t>Tony Pollard</t>
-  </si>
-  <si>
-    <t>Devin Singletary</t>
-  </si>
-  <si>
-    <t>Kareem Hunt</t>
-  </si>
-  <si>
     <t>Hunter Renfrow</t>
   </si>
   <si>
@@ -335,33 +335,33 @@
     <t>Robert Woods</t>
   </si>
   <si>
+    <t>DeAndre Hopkins</t>
+  </si>
+  <si>
     <t>Matthew Stafford</t>
   </si>
   <si>
-    <t>DeAndre Hopkins</t>
-  </si>
-  <si>
     <t>Aaron Rodgers</t>
   </si>
   <si>
+    <t>Kadarius Toney</t>
+  </si>
+  <si>
     <t>Chris Olave</t>
   </si>
   <si>
-    <t>Kadarius Toney</t>
-  </si>
-  <si>
     <t>Kirk Cousins</t>
   </si>
   <si>
+    <t>Darrell Henderson Jr.</t>
+  </si>
+  <si>
+    <t>Derek Carr</t>
+  </si>
+  <si>
     <t>Ken Walker III</t>
   </si>
   <si>
-    <t>Darrell Henderson Jr.</t>
-  </si>
-  <si>
-    <t>Derek Carr</t>
-  </si>
-  <si>
     <t>Treylon Burks</t>
   </si>
   <si>
@@ -371,12 +371,12 @@
     <t>Michael Carter</t>
   </si>
   <si>
+    <t>Chase Claypool</t>
+  </si>
+  <si>
     <t>Pat Freiermuth</t>
   </si>
   <si>
-    <t>Chase Claypool</t>
-  </si>
-  <si>
     <t>James Cook</t>
   </si>
   <si>
@@ -401,27 +401,27 @@
     <t>Marquez Valdes-Scantling</t>
   </si>
   <si>
+    <t>Alexander Mattison</t>
+  </si>
+  <si>
     <t>Garrett Wilson</t>
   </si>
   <si>
-    <t>Alexander Mattison</t>
+    <t>Nyheim Hines</t>
   </si>
   <si>
     <t>Skyy Moore</t>
   </si>
   <si>
+    <t>Kenneth Gainwell</t>
+  </si>
+  <si>
+    <t>Irv Smith Jr.</t>
+  </si>
+  <si>
     <t>David Njoku</t>
   </si>
   <si>
-    <t>Irv Smith Jr.</t>
-  </si>
-  <si>
-    <t>Nyheim Hines</t>
-  </si>
-  <si>
-    <t>Kenneth Gainwell</t>
-  </si>
-  <si>
     <t>Raheem Mostert</t>
   </si>
   <si>
@@ -431,90 +431,90 @@
     <t>Albert Okwuegbunam</t>
   </si>
   <si>
+    <t>Jameis Winston</t>
+  </si>
+  <si>
     <t>George Pickens</t>
   </si>
   <si>
-    <t>Jameis Winston</t>
+    <t>Russell Gage</t>
   </si>
   <si>
     <t>Khalil Herbert</t>
   </si>
   <si>
-    <t>Russell Gage</t>
+    <t>Mike Gesicki</t>
   </si>
   <si>
     <t>Jamaal Williams</t>
   </si>
   <si>
-    <t>Mike Gesicki</t>
-  </si>
-  <si>
     <t>Matt Ryan</t>
   </si>
   <si>
     <t>Jakobi Meyers</t>
   </si>
   <si>
+    <t>DeVante Parker</t>
+  </si>
+  <si>
     <t>D.J. Chark Jr.</t>
   </si>
   <si>
     <t>Julio Jones</t>
   </si>
   <si>
-    <t>DeVante Parker</t>
-  </si>
-  <si>
     <t>Tyler Allgeier</t>
   </si>
   <si>
+    <t>Gerald Everett</t>
+  </si>
+  <si>
     <t>Rachaad White</t>
   </si>
   <si>
-    <t>Gerald Everett</t>
+    <t>Robert Tonyan</t>
+  </si>
+  <si>
+    <t>Ryan Tannehill</t>
+  </si>
+  <si>
+    <t>Tyler Higbee</t>
   </si>
   <si>
     <t>J.D. McKissic</t>
   </si>
   <si>
-    <t>Ryan Tannehill</t>
-  </si>
-  <si>
-    <t>Tyler Higbee</t>
+    <t>Buffalo Bills</t>
   </si>
   <si>
     <t>Jahan Dotson</t>
   </si>
   <si>
-    <t>Robert Tonyan</t>
-  </si>
-  <si>
-    <t>Buffalo Bills</t>
-  </si>
-  <si>
     <t>Jarvis Landry</t>
   </si>
   <si>
     <t>Rondale Moore</t>
   </si>
   <si>
+    <t>Noah Fant</t>
+  </si>
+  <si>
     <t>Tampa Bay Buccaneers</t>
   </si>
   <si>
     <t>Nico Collins</t>
   </si>
   <si>
-    <t>Noah Fant</t>
-  </si>
-  <si>
     <t>Daniel Jones</t>
   </si>
   <si>
+    <t>Evan Engram</t>
+  </si>
+  <si>
     <t>Mac Jones</t>
   </si>
   <si>
-    <t>Evan Engram</t>
-  </si>
-  <si>
     <t>San Francisco 49ers</t>
   </si>
   <si>
@@ -542,15 +542,15 @@
     <t>Joshua Palmer</t>
   </si>
   <si>
+    <t>Baker Mayfield</t>
+  </si>
+  <si>
     <t>Justin Tucker</t>
   </si>
   <si>
     <t>K.J. Osborn</t>
   </si>
   <si>
-    <t>Baker Mayfield</t>
-  </si>
-  <si>
     <t>New Orleans Saints</t>
   </si>
   <si>
@@ -566,10 +566,13 @@
     <t>Corey Davis</t>
   </si>
   <si>
+    <t>Hayden Hurst</t>
+  </si>
+  <si>
     <t>Isaiah Spiller</t>
   </si>
   <si>
-    <t>Hayden Hurst</t>
+    <t>Logan Thomas</t>
   </si>
   <si>
     <t>Mecole Hardman</t>
@@ -578,15 +581,12 @@
     <t>New England Patriots</t>
   </si>
   <si>
-    <t>Logan Thomas</t>
+    <t>Davis Mills</t>
   </si>
   <si>
     <t>Tyler Bass</t>
   </si>
   <si>
-    <t>Davis Mills</t>
-  </si>
-  <si>
     <t>Robbie Anderson</t>
   </si>
   <si>
@@ -596,12 +596,12 @@
     <t>D'Onta Foreman</t>
   </si>
   <si>
+    <t>Marvin Jones Jr.</t>
+  </si>
+  <si>
     <t>Romeo Doubs</t>
   </si>
   <si>
-    <t>Marvin Jones Jr.</t>
-  </si>
-  <si>
     <t>Wan'Dale Robinson</t>
   </si>
   <si>
@@ -617,39 +617,39 @@
     <t>Matt Gay</t>
   </si>
   <si>
+    <t>Van Jefferson</t>
+  </si>
+  <si>
     <t>Christian Watson</t>
   </si>
   <si>
-    <t>Van Jefferson</t>
+    <t>Dallas Cowboys</t>
   </si>
   <si>
     <t>Boston Scott</t>
   </si>
   <si>
+    <t>Gus Edwards</t>
+  </si>
+  <si>
     <t>Darrel Williams</t>
   </si>
   <si>
-    <t>Dallas Cowboys</t>
-  </si>
-  <si>
-    <t>Gus Edwards</t>
+    <t>Los Angeles Chargers</t>
+  </si>
+  <si>
+    <t>Daniel Carlson</t>
+  </si>
+  <si>
+    <t>Green Bay Packers</t>
+  </si>
+  <si>
+    <t>Jameson Williams</t>
   </si>
   <si>
     <t>Jeff Wilson Jr.</t>
   </si>
   <si>
-    <t>Los Angeles Chargers</t>
-  </si>
-  <si>
-    <t>Daniel Carlson</t>
-  </si>
-  <si>
-    <t>Jameson Williams</t>
-  </si>
-  <si>
-    <t>Green Bay Packers</t>
-  </si>
-  <si>
     <t>K.J. Hamler</t>
   </si>
   <si>
@@ -677,39 +677,39 @@
     <t>Harrison Butker</t>
   </si>
   <si>
+    <t>Marcus Mariota</t>
+  </si>
+  <si>
     <t>Mo Alie-Cox</t>
   </si>
   <si>
     <t>Curtis Samuel</t>
   </si>
   <si>
-    <t>Marcus Mariota</t>
-  </si>
-  <si>
     <t>Ryan Succop</t>
   </si>
   <si>
+    <t>Baltimore Ravens</t>
+  </si>
+  <si>
     <t>Ronald Jones II</t>
   </si>
   <si>
-    <t>Baltimore Ravens</t>
+    <t>Cleveland Browns</t>
+  </si>
+  <si>
+    <t>Philadelphia Eagles</t>
   </si>
   <si>
     <t>Rex Burkhead</t>
   </si>
   <si>
-    <t>Cleveland Browns</t>
-  </si>
-  <si>
-    <t>Philadelphia Eagles</t>
+    <t>Kansas City Chiefs</t>
   </si>
   <si>
     <t>Tyrion Davis-Price</t>
   </si>
   <si>
-    <t>Kansas City Chiefs</t>
-  </si>
-  <si>
     <t>Matt Prater</t>
   </si>
   <si>
@@ -719,69 +719,69 @@
     <t>Damien Williams</t>
   </si>
   <si>
+    <t>Mike Davis</t>
+  </si>
+  <si>
     <t>Jerick McKinnon</t>
   </si>
   <si>
-    <t>Mike Davis</t>
+    <t>Rodrigo Blankenship</t>
   </si>
   <si>
     <t>Samaje Perine</t>
   </si>
   <si>
-    <t>Rodrigo Blankenship</t>
-  </si>
-  <si>
     <t>Kenyan Drake</t>
   </si>
   <si>
     <t>A.J. Green</t>
   </si>
   <si>
+    <t>Brandon McManus</t>
+  </si>
+  <si>
     <t>Eno Benjamin</t>
   </si>
   <si>
-    <t>Brandon McManus</t>
+    <t>David Bell</t>
   </si>
   <si>
     <t>Kendrick Bourne</t>
   </si>
   <si>
-    <t>David Bell</t>
-  </si>
-  <si>
     <t>Jamison Crowder</t>
   </si>
   <si>
     <t>Sterling Shepard</t>
   </si>
   <si>
+    <t>Jason Sanders</t>
+  </si>
+  <si>
     <t>D'Ernest Johnson</t>
   </si>
   <si>
-    <t>Jason Sanders</t>
+    <t>Jonnu Smith</t>
   </si>
   <si>
     <t>Zay Jones</t>
   </si>
   <si>
-    <t>Jonnu Smith</t>
-  </si>
-  <si>
     <t>Nick Folk</t>
   </si>
   <si>
+    <t>Younghoe Koo</t>
+  </si>
+  <si>
     <t>Chuba Hubbard</t>
   </si>
   <si>
-    <t>Younghoe Koo</t>
+    <t>Mitch Trubisky</t>
   </si>
   <si>
     <t>Zack Moss</t>
   </si>
   <si>
-    <t>Mitch Trubisky</t>
-  </si>
-  <si>
     <t>Cincinnati Bengals</t>
   </si>
   <si>
@@ -815,12 +815,12 @@
     <t>Wil Lutz</t>
   </si>
   <si>
+    <t>Adam Trautman</t>
+  </si>
+  <si>
     <t>Laviska Shenault Jr.</t>
   </si>
   <si>
-    <t>Adam Trautman</t>
-  </si>
-  <si>
     <t>Minnesota Vikings</t>
   </si>
   <si>
@@ -830,18 +830,18 @@
     <t>Bryan Edwards</t>
   </si>
   <si>
+    <t>Mason Crosby</t>
+  </si>
+  <si>
     <t>Terrace Marshall Jr.</t>
   </si>
   <si>
-    <t>Mason Crosby</t>
+    <t>Greg Joseph</t>
   </si>
   <si>
     <t>Braxton Berrios</t>
   </si>
   <si>
-    <t>Greg Joseph</t>
-  </si>
-  <si>
     <t>Chris Boswell</t>
   </si>
   <si>
@@ -851,12 +851,12 @@
     <t>Cedrick Wilson Jr.</t>
   </si>
   <si>
+    <t>Deshaun Watson</t>
+  </si>
+  <si>
     <t>Matt Breida</t>
   </si>
   <si>
-    <t>Deshaun Watson</t>
-  </si>
-  <si>
     <t>Greg Zuerlein</t>
   </si>
   <si>
@@ -872,12 +872,12 @@
     <t>Isaiah Likely</t>
   </si>
   <si>
+    <t>Myles Gaskin</t>
+  </si>
+  <si>
     <t>Trey Sermon</t>
   </si>
   <si>
-    <t>Myles Gaskin</t>
-  </si>
-  <si>
     <t>Chicago Bears</t>
   </si>
   <si>
@@ -887,16 +887,19 @@
     <t>Hassan Haskins</t>
   </si>
   <si>
+    <t>Geno Smith</t>
+  </si>
+  <si>
+    <t>Nick Westbrook-Ikhine</t>
+  </si>
+  <si>
     <t>Marquez Callaway</t>
   </si>
   <si>
-    <t>Geno Smith</t>
-  </si>
-  <si>
     <t>Joshua Kelley</t>
   </si>
   <si>
-    <t>Nick Westbrook-Ikhine</t>
+    <t>Jacoby Brissett</t>
   </si>
   <si>
     <t>Ameer Abdullah</t>
@@ -905,9 +908,6 @@
     <t>Trey McBride</t>
   </si>
   <si>
-    <t>Jacoby Brissett</t>
-  </si>
-  <si>
     <t>Kenny Pickett</t>
   </si>
   <si>
@@ -935,27 +935,27 @@
     <t>Quez Watkins</t>
   </si>
   <si>
+    <t>New York Jets</t>
+  </si>
+  <si>
+    <t>Jaylen Warren</t>
+  </si>
+  <si>
     <t>Velus Jones Jr.</t>
   </si>
   <si>
-    <t>Jaylen Warren</t>
-  </si>
-  <si>
-    <t>New York Jets</t>
-  </si>
-  <si>
     <t>Kyren Williams</t>
   </si>
   <si>
+    <t>Daniel Bellinger</t>
+  </si>
+  <si>
     <t>Devin Duvernay</t>
   </si>
   <si>
     <t>Seattle Seahawks</t>
   </si>
   <si>
-    <t>Daniel Bellinger</t>
-  </si>
-  <si>
     <t>Tyler Conklin</t>
   </si>
   <si>
@@ -965,12 +965,12 @@
     <t>Josh Reynolds</t>
   </si>
   <si>
+    <t>Marlon Mack</t>
+  </si>
+  <si>
     <t>Dontrell Hilliard</t>
   </si>
   <si>
-    <t>Marlon Mack</t>
-  </si>
-  <si>
     <t>Odell Beckham Jr.</t>
   </si>
   <si>
@@ -983,12 +983,12 @@
     <t>Jacksonville Jaguars</t>
   </si>
   <si>
+    <t>Tre'Quan Smith</t>
+  </si>
+  <si>
     <t>Pierre Strong Jr.</t>
   </si>
   <si>
-    <t>Tre'Quan Smith</t>
-  </si>
-  <si>
     <t>Darius Slayton</t>
   </si>
   <si>
@@ -1010,27 +1010,27 @@
     <t>Jimmy Garoppolo</t>
   </si>
   <si>
+    <t>Dyami Brown</t>
+  </si>
+  <si>
     <t>Taysom Hill</t>
   </si>
   <si>
     <t>Ty Johnson</t>
   </si>
   <si>
-    <t>Dyami Brown</t>
+    <t>Harrison Bryant</t>
+  </si>
+  <si>
+    <t>Quintez Cephus</t>
+  </si>
+  <si>
+    <t>Phillip Lindsay</t>
   </si>
   <si>
     <t>Brett Maher</t>
   </si>
   <si>
-    <t>Phillip Lindsay</t>
-  </si>
-  <si>
-    <t>Quintez Cephus</t>
-  </si>
-  <si>
-    <t>Harrison Bryant</t>
-  </si>
-  <si>
     <t>Tommy Tremble</t>
   </si>
   <si>
@@ -1052,12 +1052,12 @@
     <t>Las Vegas Raiders</t>
   </si>
   <si>
+    <t>Desmond Ridder</t>
+  </si>
+  <si>
     <t>Justin Jackson</t>
   </si>
   <si>
-    <t>Desmond Ridder</t>
-  </si>
-  <si>
     <t>Jerome Ford</t>
   </si>
   <si>
@@ -1079,12 +1079,12 @@
     <t>Olamide Zaccheaus</t>
   </si>
   <si>
+    <t>Chase McLaughlin</t>
+  </si>
+  <si>
     <t>Foster Moreau</t>
   </si>
   <si>
-    <t>Chase McLaughlin</t>
-  </si>
-  <si>
     <t>RB</t>
   </si>
   <si>
@@ -1151,10 +1151,10 @@
     <t>LV</t>
   </si>
   <si>
+    <t>GB</t>
+  </si>
+  <si>
     <t>DEN</t>
-  </si>
-  <si>
-    <t>GB</t>
   </si>
   <si>
     <t>SF</t>
@@ -2003,10 +2003,10 @@
         <v>33</v>
       </c>
       <c r="C31" t="s">
-        <v>355</v>
+        <v>354</v>
       </c>
       <c r="D31" t="s">
-        <v>360</v>
+        <v>379</v>
       </c>
     </row>
     <row r="32" spans="1:4">
@@ -2017,10 +2017,10 @@
         <v>34</v>
       </c>
       <c r="C32" t="s">
-        <v>354</v>
+        <v>355</v>
       </c>
       <c r="D32" t="s">
-        <v>379</v>
+        <v>360</v>
       </c>
     </row>
     <row r="33" spans="1:4">
@@ -2048,7 +2048,7 @@
         <v>355</v>
       </c>
       <c r="D34" t="s">
-        <v>376</v>
+        <v>377</v>
       </c>
     </row>
     <row r="35" spans="1:4">
@@ -2269,10 +2269,10 @@
         <v>52</v>
       </c>
       <c r="C50" t="s">
-        <v>354</v>
+        <v>356</v>
       </c>
       <c r="D50" t="s">
-        <v>377</v>
+        <v>378</v>
       </c>
     </row>
     <row r="51" spans="1:4">
@@ -2283,10 +2283,10 @@
         <v>53</v>
       </c>
       <c r="C51" t="s">
-        <v>356</v>
+        <v>354</v>
       </c>
       <c r="D51" t="s">
-        <v>378</v>
+        <v>376</v>
       </c>
     </row>
     <row r="52" spans="1:4">
@@ -2325,10 +2325,10 @@
         <v>56</v>
       </c>
       <c r="C54" t="s">
-        <v>355</v>
+        <v>357</v>
       </c>
       <c r="D54" t="s">
-        <v>383</v>
+        <v>370</v>
       </c>
     </row>
     <row r="55" spans="1:4">
@@ -2342,7 +2342,7 @@
         <v>357</v>
       </c>
       <c r="D55" t="s">
-        <v>370</v>
+        <v>373</v>
       </c>
     </row>
     <row r="56" spans="1:4">
@@ -2353,10 +2353,10 @@
         <v>58</v>
       </c>
       <c r="C56" t="s">
-        <v>357</v>
+        <v>355</v>
       </c>
       <c r="D56" t="s">
-        <v>373</v>
+        <v>383</v>
       </c>
     </row>
     <row r="57" spans="1:4">
@@ -2370,7 +2370,7 @@
         <v>355</v>
       </c>
       <c r="D57" t="s">
-        <v>376</v>
+        <v>377</v>
       </c>
     </row>
     <row r="58" spans="1:4">
@@ -2510,7 +2510,7 @@
         <v>354</v>
       </c>
       <c r="D67" t="s">
-        <v>390</v>
+        <v>391</v>
       </c>
     </row>
     <row r="68" spans="1:4">
@@ -2524,7 +2524,7 @@
         <v>354</v>
       </c>
       <c r="D68" t="s">
-        <v>391</v>
+        <v>390</v>
       </c>
     </row>
     <row r="69" spans="1:4">
@@ -2552,7 +2552,7 @@
         <v>355</v>
       </c>
       <c r="D70" t="s">
-        <v>372</v>
+        <v>369</v>
       </c>
     </row>
     <row r="71" spans="1:4">
@@ -2566,7 +2566,7 @@
         <v>355</v>
       </c>
       <c r="D71" t="s">
-        <v>369</v>
+        <v>372</v>
       </c>
     </row>
     <row r="72" spans="1:4">
@@ -2734,7 +2734,7 @@
         <v>357</v>
       </c>
       <c r="D83" t="s">
-        <v>376</v>
+        <v>377</v>
       </c>
     </row>
     <row r="84" spans="1:4">
@@ -2790,7 +2790,7 @@
         <v>355</v>
       </c>
       <c r="D87" t="s">
-        <v>377</v>
+        <v>376</v>
       </c>
     </row>
     <row r="88" spans="1:4">
@@ -2843,10 +2843,10 @@
         <v>93</v>
       </c>
       <c r="C91" t="s">
-        <v>355</v>
+        <v>357</v>
       </c>
       <c r="D91" t="s">
-        <v>382</v>
+        <v>379</v>
       </c>
     </row>
     <row r="92" spans="1:4">
@@ -2857,7 +2857,7 @@
         <v>94</v>
       </c>
       <c r="C92" t="s">
-        <v>357</v>
+        <v>354</v>
       </c>
       <c r="D92" t="s">
         <v>379</v>
@@ -2874,7 +2874,7 @@
         <v>354</v>
       </c>
       <c r="D93" t="s">
-        <v>379</v>
+        <v>374</v>
       </c>
     </row>
     <row r="94" spans="1:4">
@@ -2888,7 +2888,7 @@
         <v>354</v>
       </c>
       <c r="D94" t="s">
-        <v>374</v>
+        <v>367</v>
       </c>
     </row>
     <row r="95" spans="1:4">
@@ -2899,10 +2899,10 @@
         <v>97</v>
       </c>
       <c r="C95" t="s">
-        <v>354</v>
+        <v>355</v>
       </c>
       <c r="D95" t="s">
-        <v>367</v>
+        <v>382</v>
       </c>
     </row>
     <row r="96" spans="1:4">
@@ -2972,7 +2972,7 @@
         <v>354</v>
       </c>
       <c r="D100" t="s">
-        <v>376</v>
+        <v>377</v>
       </c>
     </row>
     <row r="101" spans="1:4">
@@ -2997,10 +2997,10 @@
         <v>104</v>
       </c>
       <c r="C102" t="s">
-        <v>357</v>
+        <v>355</v>
       </c>
       <c r="D102" t="s">
-        <v>368</v>
+        <v>383</v>
       </c>
     </row>
     <row r="103" spans="1:4">
@@ -3011,10 +3011,10 @@
         <v>105</v>
       </c>
       <c r="C103" t="s">
-        <v>355</v>
+        <v>357</v>
       </c>
       <c r="D103" t="s">
-        <v>383</v>
+        <v>368</v>
       </c>
     </row>
     <row r="104" spans="1:4">
@@ -3028,7 +3028,7 @@
         <v>357</v>
       </c>
       <c r="D104" t="s">
-        <v>377</v>
+        <v>376</v>
       </c>
     </row>
     <row r="105" spans="1:4">
@@ -3042,7 +3042,7 @@
         <v>355</v>
       </c>
       <c r="D105" t="s">
-        <v>369</v>
+        <v>371</v>
       </c>
     </row>
     <row r="106" spans="1:4">
@@ -3056,7 +3056,7 @@
         <v>355</v>
       </c>
       <c r="D106" t="s">
-        <v>371</v>
+        <v>369</v>
       </c>
     </row>
     <row r="107" spans="1:4">
@@ -3084,7 +3084,7 @@
         <v>354</v>
       </c>
       <c r="D108" t="s">
-        <v>389</v>
+        <v>368</v>
       </c>
     </row>
     <row r="109" spans="1:4">
@@ -3095,10 +3095,10 @@
         <v>111</v>
       </c>
       <c r="C109" t="s">
-        <v>354</v>
+        <v>357</v>
       </c>
       <c r="D109" t="s">
-        <v>368</v>
+        <v>375</v>
       </c>
     </row>
     <row r="110" spans="1:4">
@@ -3109,10 +3109,10 @@
         <v>112</v>
       </c>
       <c r="C110" t="s">
-        <v>357</v>
+        <v>354</v>
       </c>
       <c r="D110" t="s">
-        <v>375</v>
+        <v>389</v>
       </c>
     </row>
     <row r="111" spans="1:4">
@@ -3165,7 +3165,7 @@
         <v>116</v>
       </c>
       <c r="C114" t="s">
-        <v>356</v>
+        <v>355</v>
       </c>
       <c r="D114" t="s">
         <v>366</v>
@@ -3179,7 +3179,7 @@
         <v>117</v>
       </c>
       <c r="C115" t="s">
-        <v>355</v>
+        <v>356</v>
       </c>
       <c r="D115" t="s">
         <v>366</v>
@@ -3305,10 +3305,10 @@
         <v>126</v>
       </c>
       <c r="C124" t="s">
-        <v>355</v>
+        <v>354</v>
       </c>
       <c r="D124" t="s">
-        <v>388</v>
+        <v>363</v>
       </c>
     </row>
     <row r="125" spans="1:4">
@@ -3319,10 +3319,10 @@
         <v>127</v>
       </c>
       <c r="C125" t="s">
-        <v>354</v>
+        <v>355</v>
       </c>
       <c r="D125" t="s">
-        <v>363</v>
+        <v>388</v>
       </c>
     </row>
     <row r="126" spans="1:4">
@@ -3333,10 +3333,10 @@
         <v>128</v>
       </c>
       <c r="C126" t="s">
-        <v>355</v>
+        <v>354</v>
       </c>
       <c r="D126" t="s">
-        <v>370</v>
+        <v>360</v>
       </c>
     </row>
     <row r="127" spans="1:4">
@@ -3347,10 +3347,10 @@
         <v>129</v>
       </c>
       <c r="C127" t="s">
-        <v>356</v>
+        <v>355</v>
       </c>
       <c r="D127" t="s">
-        <v>367</v>
+        <v>370</v>
       </c>
     </row>
     <row r="128" spans="1:4">
@@ -3361,10 +3361,10 @@
         <v>130</v>
       </c>
       <c r="C128" t="s">
-        <v>356</v>
+        <v>354</v>
       </c>
       <c r="D128" t="s">
-        <v>363</v>
+        <v>384</v>
       </c>
     </row>
     <row r="129" spans="1:4">
@@ -3375,10 +3375,10 @@
         <v>131</v>
       </c>
       <c r="C129" t="s">
-        <v>354</v>
+        <v>356</v>
       </c>
       <c r="D129" t="s">
-        <v>360</v>
+        <v>363</v>
       </c>
     </row>
     <row r="130" spans="1:4">
@@ -3389,10 +3389,10 @@
         <v>132</v>
       </c>
       <c r="C130" t="s">
-        <v>354</v>
+        <v>356</v>
       </c>
       <c r="D130" t="s">
-        <v>384</v>
+        <v>367</v>
       </c>
     </row>
     <row r="131" spans="1:4">
@@ -3434,7 +3434,7 @@
         <v>356</v>
       </c>
       <c r="D133" t="s">
-        <v>376</v>
+        <v>377</v>
       </c>
     </row>
     <row r="134" spans="1:4">
@@ -3445,10 +3445,10 @@
         <v>136</v>
       </c>
       <c r="C134" t="s">
-        <v>355</v>
+        <v>357</v>
       </c>
       <c r="D134" t="s">
-        <v>366</v>
+        <v>369</v>
       </c>
     </row>
     <row r="135" spans="1:4">
@@ -3459,10 +3459,10 @@
         <v>137</v>
       </c>
       <c r="C135" t="s">
-        <v>357</v>
+        <v>355</v>
       </c>
       <c r="D135" t="s">
-        <v>369</v>
+        <v>366</v>
       </c>
     </row>
     <row r="136" spans="1:4">
@@ -3473,10 +3473,10 @@
         <v>138</v>
       </c>
       <c r="C136" t="s">
-        <v>354</v>
+        <v>355</v>
       </c>
       <c r="D136" t="s">
-        <v>387</v>
+        <v>380</v>
       </c>
     </row>
     <row r="137" spans="1:4">
@@ -3487,10 +3487,10 @@
         <v>139</v>
       </c>
       <c r="C137" t="s">
-        <v>355</v>
+        <v>354</v>
       </c>
       <c r="D137" t="s">
-        <v>380</v>
+        <v>387</v>
       </c>
     </row>
     <row r="138" spans="1:4">
@@ -3501,10 +3501,10 @@
         <v>140</v>
       </c>
       <c r="C138" t="s">
-        <v>354</v>
+        <v>356</v>
       </c>
       <c r="D138" t="s">
-        <v>372</v>
+        <v>381</v>
       </c>
     </row>
     <row r="139" spans="1:4">
@@ -3515,10 +3515,10 @@
         <v>141</v>
       </c>
       <c r="C139" t="s">
-        <v>356</v>
+        <v>354</v>
       </c>
       <c r="D139" t="s">
-        <v>381</v>
+        <v>372</v>
       </c>
     </row>
     <row r="140" spans="1:4">
@@ -3560,7 +3560,7 @@
         <v>355</v>
       </c>
       <c r="D142" t="s">
-        <v>372</v>
+        <v>391</v>
       </c>
     </row>
     <row r="143" spans="1:4">
@@ -3574,7 +3574,7 @@
         <v>355</v>
       </c>
       <c r="D143" t="s">
-        <v>380</v>
+        <v>372</v>
       </c>
     </row>
     <row r="144" spans="1:4">
@@ -3588,7 +3588,7 @@
         <v>355</v>
       </c>
       <c r="D144" t="s">
-        <v>391</v>
+        <v>380</v>
       </c>
     </row>
     <row r="145" spans="1:4">
@@ -3613,10 +3613,10 @@
         <v>148</v>
       </c>
       <c r="C146" t="s">
-        <v>354</v>
+        <v>356</v>
       </c>
       <c r="D146" t="s">
-        <v>380</v>
+        <v>364</v>
       </c>
     </row>
     <row r="147" spans="1:4">
@@ -3627,10 +3627,10 @@
         <v>149</v>
       </c>
       <c r="C147" t="s">
-        <v>356</v>
+        <v>354</v>
       </c>
       <c r="D147" t="s">
-        <v>364</v>
+        <v>380</v>
       </c>
     </row>
     <row r="148" spans="1:4">
@@ -3641,10 +3641,10 @@
         <v>150</v>
       </c>
       <c r="C148" t="s">
-        <v>354</v>
+        <v>356</v>
       </c>
       <c r="D148" t="s">
-        <v>385</v>
+        <v>376</v>
       </c>
     </row>
     <row r="149" spans="1:4">
@@ -3683,7 +3683,7 @@
         <v>153</v>
       </c>
       <c r="C151" t="s">
-        <v>355</v>
+        <v>354</v>
       </c>
       <c r="D151" t="s">
         <v>385</v>
@@ -3697,10 +3697,10 @@
         <v>154</v>
       </c>
       <c r="C152" t="s">
-        <v>356</v>
+        <v>358</v>
       </c>
       <c r="D152" t="s">
-        <v>377</v>
+        <v>374</v>
       </c>
     </row>
     <row r="153" spans="1:4">
@@ -3711,10 +3711,10 @@
         <v>155</v>
       </c>
       <c r="C153" t="s">
-        <v>358</v>
+        <v>355</v>
       </c>
       <c r="D153" t="s">
-        <v>374</v>
+        <v>385</v>
       </c>
     </row>
     <row r="154" spans="1:4">
@@ -3753,10 +3753,10 @@
         <v>158</v>
       </c>
       <c r="C156" t="s">
-        <v>358</v>
+        <v>356</v>
       </c>
       <c r="D156" t="s">
-        <v>380</v>
+        <v>389</v>
       </c>
     </row>
     <row r="157" spans="1:4">
@@ -3767,10 +3767,10 @@
         <v>159</v>
       </c>
       <c r="C157" t="s">
-        <v>355</v>
+        <v>358</v>
       </c>
       <c r="D157" t="s">
-        <v>390</v>
+        <v>380</v>
       </c>
     </row>
     <row r="158" spans="1:4">
@@ -3781,10 +3781,10 @@
         <v>160</v>
       </c>
       <c r="C158" t="s">
-        <v>356</v>
+        <v>355</v>
       </c>
       <c r="D158" t="s">
-        <v>389</v>
+        <v>390</v>
       </c>
     </row>
     <row r="159" spans="1:4">
@@ -3809,10 +3809,10 @@
         <v>162</v>
       </c>
       <c r="C160" t="s">
-        <v>357</v>
+        <v>356</v>
       </c>
       <c r="D160" t="s">
-        <v>391</v>
+        <v>386</v>
       </c>
     </row>
     <row r="161" spans="1:4">
@@ -3823,10 +3823,10 @@
         <v>163</v>
       </c>
       <c r="C161" t="s">
-        <v>356</v>
+        <v>357</v>
       </c>
       <c r="D161" t="s">
-        <v>386</v>
+        <v>391</v>
       </c>
     </row>
     <row r="162" spans="1:4">
@@ -3963,10 +3963,10 @@
         <v>173</v>
       </c>
       <c r="C171" t="s">
-        <v>359</v>
+        <v>357</v>
       </c>
       <c r="D171" t="s">
-        <v>373</v>
+        <v>361</v>
       </c>
     </row>
     <row r="172" spans="1:4">
@@ -3977,10 +3977,10 @@
         <v>174</v>
       </c>
       <c r="C172" t="s">
-        <v>355</v>
+        <v>359</v>
       </c>
       <c r="D172" t="s">
-        <v>363</v>
+        <v>373</v>
       </c>
     </row>
     <row r="173" spans="1:4">
@@ -3991,10 +3991,10 @@
         <v>175</v>
       </c>
       <c r="C173" t="s">
-        <v>357</v>
+        <v>355</v>
       </c>
       <c r="D173" t="s">
-        <v>361</v>
+        <v>363</v>
       </c>
     </row>
     <row r="174" spans="1:4">
@@ -4036,7 +4036,7 @@
         <v>358</v>
       </c>
       <c r="D176" t="s">
-        <v>376</v>
+        <v>377</v>
       </c>
     </row>
     <row r="177" spans="1:4">
@@ -4075,10 +4075,10 @@
         <v>181</v>
       </c>
       <c r="C179" t="s">
-        <v>354</v>
+        <v>356</v>
       </c>
       <c r="D179" t="s">
-        <v>364</v>
+        <v>365</v>
       </c>
     </row>
     <row r="180" spans="1:4">
@@ -4089,10 +4089,10 @@
         <v>182</v>
       </c>
       <c r="C180" t="s">
-        <v>356</v>
+        <v>354</v>
       </c>
       <c r="D180" t="s">
-        <v>365</v>
+        <v>364</v>
       </c>
     </row>
     <row r="181" spans="1:4">
@@ -4103,10 +4103,10 @@
         <v>183</v>
       </c>
       <c r="C181" t="s">
-        <v>355</v>
+        <v>356</v>
       </c>
       <c r="D181" t="s">
-        <v>370</v>
+        <v>385</v>
       </c>
     </row>
     <row r="182" spans="1:4">
@@ -4117,10 +4117,10 @@
         <v>184</v>
       </c>
       <c r="C182" t="s">
-        <v>358</v>
+        <v>355</v>
       </c>
       <c r="D182" t="s">
-        <v>391</v>
+        <v>370</v>
       </c>
     </row>
     <row r="183" spans="1:4">
@@ -4131,10 +4131,10 @@
         <v>185</v>
       </c>
       <c r="C183" t="s">
-        <v>356</v>
+        <v>358</v>
       </c>
       <c r="D183" t="s">
-        <v>385</v>
+        <v>391</v>
       </c>
     </row>
     <row r="184" spans="1:4">
@@ -4145,10 +4145,10 @@
         <v>186</v>
       </c>
       <c r="C184" t="s">
-        <v>359</v>
+        <v>357</v>
       </c>
       <c r="D184" t="s">
-        <v>374</v>
+        <v>390</v>
       </c>
     </row>
     <row r="185" spans="1:4">
@@ -4159,10 +4159,10 @@
         <v>187</v>
       </c>
       <c r="C185" t="s">
-        <v>357</v>
+        <v>359</v>
       </c>
       <c r="D185" t="s">
-        <v>390</v>
+        <v>374</v>
       </c>
     </row>
     <row r="186" spans="1:4">
@@ -4218,7 +4218,7 @@
         <v>355</v>
       </c>
       <c r="D189" t="s">
-        <v>377</v>
+        <v>386</v>
       </c>
     </row>
     <row r="190" spans="1:4">
@@ -4232,7 +4232,7 @@
         <v>355</v>
       </c>
       <c r="D190" t="s">
-        <v>386</v>
+        <v>376</v>
       </c>
     </row>
     <row r="191" spans="1:4">
@@ -4316,7 +4316,7 @@
         <v>355</v>
       </c>
       <c r="D196" t="s">
-        <v>377</v>
+        <v>368</v>
       </c>
     </row>
     <row r="197" spans="1:4">
@@ -4330,7 +4330,7 @@
         <v>355</v>
       </c>
       <c r="D197" t="s">
-        <v>368</v>
+        <v>376</v>
       </c>
     </row>
     <row r="198" spans="1:4">
@@ -4341,10 +4341,10 @@
         <v>200</v>
       </c>
       <c r="C198" t="s">
-        <v>354</v>
+        <v>358</v>
       </c>
       <c r="D198" t="s">
-        <v>384</v>
+        <v>379</v>
       </c>
     </row>
     <row r="199" spans="1:4">
@@ -4358,7 +4358,7 @@
         <v>354</v>
       </c>
       <c r="D199" t="s">
-        <v>383</v>
+        <v>384</v>
       </c>
     </row>
     <row r="200" spans="1:4">
@@ -4369,10 +4369,10 @@
         <v>202</v>
       </c>
       <c r="C200" t="s">
-        <v>358</v>
+        <v>354</v>
       </c>
       <c r="D200" t="s">
-        <v>379</v>
+        <v>373</v>
       </c>
     </row>
     <row r="201" spans="1:4">
@@ -4386,7 +4386,7 @@
         <v>354</v>
       </c>
       <c r="D201" t="s">
-        <v>373</v>
+        <v>383</v>
       </c>
     </row>
     <row r="202" spans="1:4">
@@ -4397,10 +4397,10 @@
         <v>204</v>
       </c>
       <c r="C202" t="s">
-        <v>354</v>
+        <v>358</v>
       </c>
       <c r="D202" t="s">
-        <v>378</v>
+        <v>364</v>
       </c>
     </row>
     <row r="203" spans="1:4">
@@ -4411,10 +4411,10 @@
         <v>205</v>
       </c>
       <c r="C203" t="s">
-        <v>358</v>
+        <v>359</v>
       </c>
       <c r="D203" t="s">
-        <v>364</v>
+        <v>375</v>
       </c>
     </row>
     <row r="204" spans="1:4">
@@ -4425,10 +4425,10 @@
         <v>206</v>
       </c>
       <c r="C204" t="s">
-        <v>359</v>
+        <v>358</v>
       </c>
       <c r="D204" t="s">
-        <v>375</v>
+        <v>376</v>
       </c>
     </row>
     <row r="205" spans="1:4">
@@ -4453,10 +4453,10 @@
         <v>208</v>
       </c>
       <c r="C206" t="s">
-        <v>358</v>
+        <v>354</v>
       </c>
       <c r="D206" t="s">
-        <v>377</v>
+        <v>378</v>
       </c>
     </row>
     <row r="207" spans="1:4">
@@ -4470,7 +4470,7 @@
         <v>355</v>
       </c>
       <c r="D207" t="s">
-        <v>376</v>
+        <v>377</v>
       </c>
     </row>
     <row r="208" spans="1:4">
@@ -4593,10 +4593,10 @@
         <v>218</v>
       </c>
       <c r="C216" t="s">
-        <v>356</v>
+        <v>357</v>
       </c>
       <c r="D216" t="s">
-        <v>360</v>
+        <v>382</v>
       </c>
     </row>
     <row r="217" spans="1:4">
@@ -4607,10 +4607,10 @@
         <v>219</v>
       </c>
       <c r="C217" t="s">
-        <v>355</v>
+        <v>356</v>
       </c>
       <c r="D217" t="s">
-        <v>385</v>
+        <v>360</v>
       </c>
     </row>
     <row r="218" spans="1:4">
@@ -4621,10 +4621,10 @@
         <v>220</v>
       </c>
       <c r="C218" t="s">
-        <v>357</v>
+        <v>355</v>
       </c>
       <c r="D218" t="s">
-        <v>382</v>
+        <v>385</v>
       </c>
     </row>
     <row r="219" spans="1:4">
@@ -4649,10 +4649,10 @@
         <v>222</v>
       </c>
       <c r="C220" t="s">
-        <v>354</v>
+        <v>358</v>
       </c>
       <c r="D220" t="s">
-        <v>370</v>
+        <v>373</v>
       </c>
     </row>
     <row r="221" spans="1:4">
@@ -4663,10 +4663,10 @@
         <v>223</v>
       </c>
       <c r="C221" t="s">
-        <v>358</v>
+        <v>354</v>
       </c>
       <c r="D221" t="s">
-        <v>373</v>
+        <v>370</v>
       </c>
     </row>
     <row r="222" spans="1:4">
@@ -4677,10 +4677,10 @@
         <v>224</v>
       </c>
       <c r="C222" t="s">
-        <v>354</v>
+        <v>358</v>
       </c>
       <c r="D222" t="s">
-        <v>390</v>
+        <v>367</v>
       </c>
     </row>
     <row r="223" spans="1:4">
@@ -4694,7 +4694,7 @@
         <v>358</v>
       </c>
       <c r="D223" t="s">
-        <v>367</v>
+        <v>384</v>
       </c>
     </row>
     <row r="224" spans="1:4">
@@ -4705,10 +4705,10 @@
         <v>226</v>
       </c>
       <c r="C224" t="s">
-        <v>358</v>
+        <v>354</v>
       </c>
       <c r="D224" t="s">
-        <v>384</v>
+        <v>390</v>
       </c>
     </row>
     <row r="225" spans="1:4">
@@ -4719,10 +4719,10 @@
         <v>227</v>
       </c>
       <c r="C225" t="s">
-        <v>354</v>
+        <v>358</v>
       </c>
       <c r="D225" t="s">
-        <v>378</v>
+        <v>370</v>
       </c>
     </row>
     <row r="226" spans="1:4">
@@ -4733,10 +4733,10 @@
         <v>228</v>
       </c>
       <c r="C226" t="s">
-        <v>358</v>
+        <v>354</v>
       </c>
       <c r="D226" t="s">
-        <v>370</v>
+        <v>378</v>
       </c>
     </row>
     <row r="227" spans="1:4">
@@ -4792,7 +4792,7 @@
         <v>354</v>
       </c>
       <c r="D230" t="s">
-        <v>370</v>
+        <v>373</v>
       </c>
     </row>
     <row r="231" spans="1:4">
@@ -4806,7 +4806,7 @@
         <v>354</v>
       </c>
       <c r="D231" t="s">
-        <v>373</v>
+        <v>370</v>
       </c>
     </row>
     <row r="232" spans="1:4">
@@ -4817,10 +4817,10 @@
         <v>234</v>
       </c>
       <c r="C232" t="s">
-        <v>354</v>
+        <v>359</v>
       </c>
       <c r="D232" t="s">
-        <v>365</v>
+        <v>392</v>
       </c>
     </row>
     <row r="233" spans="1:4">
@@ -4831,10 +4831,10 @@
         <v>235</v>
       </c>
       <c r="C233" t="s">
-        <v>359</v>
+        <v>354</v>
       </c>
       <c r="D233" t="s">
-        <v>392</v>
+        <v>365</v>
       </c>
     </row>
     <row r="234" spans="1:4">
@@ -4873,10 +4873,10 @@
         <v>238</v>
       </c>
       <c r="C236" t="s">
-        <v>354</v>
+        <v>359</v>
       </c>
       <c r="D236" t="s">
-        <v>383</v>
+        <v>377</v>
       </c>
     </row>
     <row r="237" spans="1:4">
@@ -4887,10 +4887,10 @@
         <v>239</v>
       </c>
       <c r="C237" t="s">
-        <v>359</v>
+        <v>354</v>
       </c>
       <c r="D237" t="s">
-        <v>376</v>
+        <v>383</v>
       </c>
     </row>
     <row r="238" spans="1:4">
@@ -4904,7 +4904,7 @@
         <v>355</v>
       </c>
       <c r="D238" t="s">
-        <v>391</v>
+        <v>367</v>
       </c>
     </row>
     <row r="239" spans="1:4">
@@ -4918,7 +4918,7 @@
         <v>355</v>
       </c>
       <c r="D239" t="s">
-        <v>367</v>
+        <v>391</v>
       </c>
     </row>
     <row r="240" spans="1:4">
@@ -4957,10 +4957,10 @@
         <v>244</v>
       </c>
       <c r="C242" t="s">
-        <v>354</v>
+        <v>359</v>
       </c>
       <c r="D242" t="s">
-        <v>367</v>
+        <v>381</v>
       </c>
     </row>
     <row r="243" spans="1:4">
@@ -4971,10 +4971,10 @@
         <v>245</v>
       </c>
       <c r="C243" t="s">
-        <v>359</v>
+        <v>354</v>
       </c>
       <c r="D243" t="s">
-        <v>381</v>
+        <v>367</v>
       </c>
     </row>
     <row r="244" spans="1:4">
@@ -4985,10 +4985,10 @@
         <v>246</v>
       </c>
       <c r="C244" t="s">
-        <v>355</v>
+        <v>356</v>
       </c>
       <c r="D244" t="s">
-        <v>386</v>
+        <v>391</v>
       </c>
     </row>
     <row r="245" spans="1:4">
@@ -4999,10 +4999,10 @@
         <v>247</v>
       </c>
       <c r="C245" t="s">
-        <v>356</v>
+        <v>355</v>
       </c>
       <c r="D245" t="s">
-        <v>391</v>
+        <v>386</v>
       </c>
     </row>
     <row r="246" spans="1:4">
@@ -5027,10 +5027,10 @@
         <v>249</v>
       </c>
       <c r="C247" t="s">
-        <v>354</v>
+        <v>359</v>
       </c>
       <c r="D247" t="s">
-        <v>361</v>
+        <v>382</v>
       </c>
     </row>
     <row r="248" spans="1:4">
@@ -5041,10 +5041,10 @@
         <v>250</v>
       </c>
       <c r="C248" t="s">
-        <v>359</v>
+        <v>354</v>
       </c>
       <c r="D248" t="s">
-        <v>382</v>
+        <v>361</v>
       </c>
     </row>
     <row r="249" spans="1:4">
@@ -5055,10 +5055,10 @@
         <v>251</v>
       </c>
       <c r="C249" t="s">
-        <v>354</v>
+        <v>357</v>
       </c>
       <c r="D249" t="s">
-        <v>374</v>
+        <v>366</v>
       </c>
     </row>
     <row r="250" spans="1:4">
@@ -5069,10 +5069,10 @@
         <v>252</v>
       </c>
       <c r="C250" t="s">
-        <v>357</v>
+        <v>354</v>
       </c>
       <c r="D250" t="s">
-        <v>366</v>
+        <v>374</v>
       </c>
     </row>
     <row r="251" spans="1:4">
@@ -5156,7 +5156,7 @@
         <v>355</v>
       </c>
       <c r="D256" t="s">
-        <v>377</v>
+        <v>376</v>
       </c>
     </row>
     <row r="257" spans="1:4">
@@ -5198,7 +5198,7 @@
         <v>355</v>
       </c>
       <c r="D259" t="s">
-        <v>377</v>
+        <v>376</v>
       </c>
     </row>
     <row r="260" spans="1:4">
@@ -5237,10 +5237,10 @@
         <v>264</v>
       </c>
       <c r="C262" t="s">
-        <v>355</v>
+        <v>356</v>
       </c>
       <c r="D262" t="s">
-        <v>361</v>
+        <v>369</v>
       </c>
     </row>
     <row r="263" spans="1:4">
@@ -5251,10 +5251,10 @@
         <v>265</v>
       </c>
       <c r="C263" t="s">
-        <v>356</v>
+        <v>355</v>
       </c>
       <c r="D263" t="s">
-        <v>369</v>
+        <v>361</v>
       </c>
     </row>
     <row r="264" spans="1:4">
@@ -5307,10 +5307,10 @@
         <v>269</v>
       </c>
       <c r="C267" t="s">
-        <v>355</v>
+        <v>359</v>
       </c>
       <c r="D267" t="s">
-        <v>361</v>
+        <v>376</v>
       </c>
     </row>
     <row r="268" spans="1:4">
@@ -5321,10 +5321,10 @@
         <v>270</v>
       </c>
       <c r="C268" t="s">
-        <v>359</v>
+        <v>355</v>
       </c>
       <c r="D268" t="s">
-        <v>377</v>
+        <v>361</v>
       </c>
     </row>
     <row r="269" spans="1:4">
@@ -5335,10 +5335,10 @@
         <v>271</v>
       </c>
       <c r="C269" t="s">
-        <v>355</v>
+        <v>359</v>
       </c>
       <c r="D269" t="s">
-        <v>388</v>
+        <v>363</v>
       </c>
     </row>
     <row r="270" spans="1:4">
@@ -5349,10 +5349,10 @@
         <v>272</v>
       </c>
       <c r="C270" t="s">
-        <v>359</v>
+        <v>355</v>
       </c>
       <c r="D270" t="s">
-        <v>363</v>
+        <v>388</v>
       </c>
     </row>
     <row r="271" spans="1:4">
@@ -5405,10 +5405,10 @@
         <v>276</v>
       </c>
       <c r="C274" t="s">
-        <v>354</v>
+        <v>357</v>
       </c>
       <c r="D274" t="s">
-        <v>371</v>
+        <v>367</v>
       </c>
     </row>
     <row r="275" spans="1:4">
@@ -5419,10 +5419,10 @@
         <v>277</v>
       </c>
       <c r="C275" t="s">
-        <v>357</v>
+        <v>354</v>
       </c>
       <c r="D275" t="s">
-        <v>367</v>
+        <v>371</v>
       </c>
     </row>
     <row r="276" spans="1:4">
@@ -5506,7 +5506,7 @@
         <v>354</v>
       </c>
       <c r="D281" t="s">
-        <v>384</v>
+        <v>381</v>
       </c>
     </row>
     <row r="282" spans="1:4">
@@ -5520,7 +5520,7 @@
         <v>354</v>
       </c>
       <c r="D282" t="s">
-        <v>381</v>
+        <v>384</v>
       </c>
     </row>
     <row r="283" spans="1:4">
@@ -5573,10 +5573,10 @@
         <v>288</v>
       </c>
       <c r="C286" t="s">
-        <v>355</v>
+        <v>357</v>
       </c>
       <c r="D286" t="s">
-        <v>369</v>
+        <v>389</v>
       </c>
     </row>
     <row r="287" spans="1:4">
@@ -5587,10 +5587,10 @@
         <v>289</v>
       </c>
       <c r="C287" t="s">
-        <v>357</v>
+        <v>355</v>
       </c>
       <c r="D287" t="s">
-        <v>389</v>
+        <v>362</v>
       </c>
     </row>
     <row r="288" spans="1:4">
@@ -5601,10 +5601,10 @@
         <v>290</v>
       </c>
       <c r="C288" t="s">
-        <v>354</v>
+        <v>355</v>
       </c>
       <c r="D288" t="s">
-        <v>364</v>
+        <v>369</v>
       </c>
     </row>
     <row r="289" spans="1:4">
@@ -5615,10 +5615,10 @@
         <v>291</v>
       </c>
       <c r="C289" t="s">
-        <v>355</v>
+        <v>354</v>
       </c>
       <c r="D289" t="s">
-        <v>362</v>
+        <v>364</v>
       </c>
     </row>
     <row r="290" spans="1:4">
@@ -5629,10 +5629,10 @@
         <v>292</v>
       </c>
       <c r="C290" t="s">
-        <v>354</v>
+        <v>357</v>
       </c>
       <c r="D290" t="s">
-        <v>375</v>
+        <v>367</v>
       </c>
     </row>
     <row r="291" spans="1:4">
@@ -5643,10 +5643,10 @@
         <v>293</v>
       </c>
       <c r="C291" t="s">
-        <v>356</v>
+        <v>354</v>
       </c>
       <c r="D291" t="s">
-        <v>383</v>
+        <v>375</v>
       </c>
     </row>
     <row r="292" spans="1:4">
@@ -5657,10 +5657,10 @@
         <v>294</v>
       </c>
       <c r="C292" t="s">
-        <v>357</v>
+        <v>356</v>
       </c>
       <c r="D292" t="s">
-        <v>367</v>
+        <v>383</v>
       </c>
     </row>
     <row r="293" spans="1:4">
@@ -5797,10 +5797,10 @@
         <v>304</v>
       </c>
       <c r="C302" t="s">
-        <v>355</v>
+        <v>358</v>
       </c>
       <c r="D302" t="s">
-        <v>387</v>
+        <v>388</v>
       </c>
     </row>
     <row r="303" spans="1:4">
@@ -5825,10 +5825,10 @@
         <v>306</v>
       </c>
       <c r="C304" t="s">
-        <v>358</v>
+        <v>355</v>
       </c>
       <c r="D304" t="s">
-        <v>388</v>
+        <v>387</v>
       </c>
     </row>
     <row r="305" spans="1:4">
@@ -5853,10 +5853,10 @@
         <v>308</v>
       </c>
       <c r="C306" t="s">
-        <v>355</v>
+        <v>356</v>
       </c>
       <c r="D306" t="s">
-        <v>373</v>
+        <v>371</v>
       </c>
     </row>
     <row r="307" spans="1:4">
@@ -5867,10 +5867,10 @@
         <v>309</v>
       </c>
       <c r="C307" t="s">
-        <v>358</v>
+        <v>355</v>
       </c>
       <c r="D307" t="s">
-        <v>389</v>
+        <v>373</v>
       </c>
     </row>
     <row r="308" spans="1:4">
@@ -5881,10 +5881,10 @@
         <v>310</v>
       </c>
       <c r="C308" t="s">
-        <v>356</v>
+        <v>358</v>
       </c>
       <c r="D308" t="s">
-        <v>371</v>
+        <v>389</v>
       </c>
     </row>
     <row r="309" spans="1:4">
@@ -5940,7 +5940,7 @@
         <v>354</v>
       </c>
       <c r="D312" t="s">
-        <v>362</v>
+        <v>378</v>
       </c>
     </row>
     <row r="313" spans="1:4">
@@ -5954,7 +5954,7 @@
         <v>354</v>
       </c>
       <c r="D313" t="s">
-        <v>378</v>
+        <v>362</v>
       </c>
     </row>
     <row r="314" spans="1:4">
@@ -6021,10 +6021,10 @@
         <v>320</v>
       </c>
       <c r="C318" t="s">
-        <v>354</v>
+        <v>355</v>
       </c>
       <c r="D318" t="s">
-        <v>391</v>
+        <v>369</v>
       </c>
     </row>
     <row r="319" spans="1:4">
@@ -6035,10 +6035,10 @@
         <v>321</v>
       </c>
       <c r="C319" t="s">
-        <v>355</v>
+        <v>354</v>
       </c>
       <c r="D319" t="s">
-        <v>369</v>
+        <v>391</v>
       </c>
     </row>
     <row r="320" spans="1:4">
@@ -6108,7 +6108,7 @@
         <v>356</v>
       </c>
       <c r="D324" t="s">
-        <v>376</v>
+        <v>377</v>
       </c>
     </row>
     <row r="325" spans="1:4">
@@ -6147,10 +6147,10 @@
         <v>329</v>
       </c>
       <c r="C327" t="s">
-        <v>356</v>
+        <v>355</v>
       </c>
       <c r="D327" t="s">
-        <v>369</v>
+        <v>385</v>
       </c>
     </row>
     <row r="328" spans="1:4">
@@ -6161,10 +6161,10 @@
         <v>330</v>
       </c>
       <c r="C328" t="s">
-        <v>354</v>
+        <v>356</v>
       </c>
       <c r="D328" t="s">
-        <v>388</v>
+        <v>369</v>
       </c>
     </row>
     <row r="329" spans="1:4">
@@ -6175,10 +6175,10 @@
         <v>331</v>
       </c>
       <c r="C329" t="s">
-        <v>355</v>
+        <v>354</v>
       </c>
       <c r="D329" t="s">
-        <v>385</v>
+        <v>388</v>
       </c>
     </row>
     <row r="330" spans="1:4">
@@ -6189,10 +6189,10 @@
         <v>332</v>
       </c>
       <c r="C330" t="s">
-        <v>359</v>
+        <v>356</v>
       </c>
       <c r="D330" t="s">
-        <v>379</v>
+        <v>367</v>
       </c>
     </row>
     <row r="331" spans="1:4">
@@ -6203,10 +6203,10 @@
         <v>333</v>
       </c>
       <c r="C331" t="s">
-        <v>354</v>
+        <v>355</v>
       </c>
       <c r="D331" t="s">
-        <v>360</v>
+        <v>372</v>
       </c>
     </row>
     <row r="332" spans="1:4">
@@ -6217,10 +6217,10 @@
         <v>334</v>
       </c>
       <c r="C332" t="s">
-        <v>355</v>
+        <v>354</v>
       </c>
       <c r="D332" t="s">
-        <v>372</v>
+        <v>360</v>
       </c>
     </row>
     <row r="333" spans="1:4">
@@ -6231,10 +6231,10 @@
         <v>335</v>
       </c>
       <c r="C333" t="s">
-        <v>356</v>
+        <v>359</v>
       </c>
       <c r="D333" t="s">
-        <v>367</v>
+        <v>379</v>
       </c>
     </row>
     <row r="334" spans="1:4">
@@ -6343,10 +6343,10 @@
         <v>343</v>
       </c>
       <c r="C341" t="s">
-        <v>354</v>
+        <v>357</v>
       </c>
       <c r="D341" t="s">
-        <v>372</v>
+        <v>382</v>
       </c>
     </row>
     <row r="342" spans="1:4">
@@ -6357,10 +6357,10 @@
         <v>344</v>
       </c>
       <c r="C342" t="s">
-        <v>357</v>
+        <v>354</v>
       </c>
       <c r="D342" t="s">
-        <v>382</v>
+        <v>372</v>
       </c>
     </row>
     <row r="343" spans="1:4">
@@ -6469,10 +6469,10 @@
         <v>352</v>
       </c>
       <c r="C350" t="s">
-        <v>356</v>
+        <v>359</v>
       </c>
       <c r="D350" t="s">
-        <v>375</v>
+        <v>360</v>
       </c>
     </row>
     <row r="351" spans="1:4">
@@ -6483,10 +6483,10 @@
         <v>353</v>
       </c>
       <c r="C351" t="s">
-        <v>359</v>
+        <v>356</v>
       </c>
       <c r="D351" t="s">
-        <v>360</v>
+        <v>375</v>
       </c>
     </row>
   </sheetData>
@@ -6749,13 +6749,13 @@
         <v>17</v>
       </c>
       <c r="B18" t="s">
-        <v>25</v>
+        <v>22</v>
       </c>
       <c r="C18" t="s">
-        <v>355</v>
+        <v>354</v>
       </c>
       <c r="D18" t="s">
-        <v>379</v>
+        <v>376</v>
       </c>
     </row>
     <row r="19" spans="1:4">
@@ -6763,13 +6763,13 @@
         <v>18</v>
       </c>
       <c r="B19" t="s">
-        <v>23</v>
+        <v>25</v>
       </c>
       <c r="C19" t="s">
-        <v>354</v>
+        <v>355</v>
       </c>
       <c r="D19" t="s">
-        <v>377</v>
+        <v>379</v>
       </c>
     </row>
     <row r="20" spans="1:4">
@@ -6777,13 +6777,13 @@
         <v>19</v>
       </c>
       <c r="B20" t="s">
-        <v>26</v>
+        <v>19</v>
       </c>
       <c r="C20" t="s">
-        <v>354</v>
+        <v>356</v>
       </c>
       <c r="D20" t="s">
-        <v>380</v>
+        <v>373</v>
       </c>
     </row>
     <row r="21" spans="1:4">
@@ -6791,13 +6791,13 @@
         <v>20</v>
       </c>
       <c r="B21" t="s">
-        <v>19</v>
+        <v>26</v>
       </c>
       <c r="C21" t="s">
-        <v>356</v>
+        <v>354</v>
       </c>
       <c r="D21" t="s">
-        <v>373</v>
+        <v>380</v>
       </c>
     </row>
     <row r="22" spans="1:4">
@@ -6805,13 +6805,13 @@
         <v>21</v>
       </c>
       <c r="B22" t="s">
-        <v>22</v>
+        <v>23</v>
       </c>
       <c r="C22" t="s">
         <v>354</v>
       </c>
       <c r="D22" t="s">
-        <v>376</v>
+        <v>377</v>
       </c>
     </row>
     <row r="23" spans="1:4">
@@ -6889,7 +6889,7 @@
         <v>27</v>
       </c>
       <c r="B28" t="s">
-        <v>33</v>
+        <v>34</v>
       </c>
       <c r="C28" t="s">
         <v>355</v>
@@ -6903,13 +6903,13 @@
         <v>28</v>
       </c>
       <c r="B29" t="s">
-        <v>30</v>
+        <v>32</v>
       </c>
       <c r="C29" t="s">
-        <v>354</v>
+        <v>355</v>
       </c>
       <c r="D29" t="s">
-        <v>383</v>
+        <v>365</v>
       </c>
     </row>
     <row r="30" spans="1:4">
@@ -6917,13 +6917,13 @@
         <v>29</v>
       </c>
       <c r="B30" t="s">
-        <v>32</v>
+        <v>30</v>
       </c>
       <c r="C30" t="s">
-        <v>355</v>
+        <v>354</v>
       </c>
       <c r="D30" t="s">
-        <v>365</v>
+        <v>383</v>
       </c>
     </row>
     <row r="31" spans="1:4">
@@ -6945,7 +6945,7 @@
         <v>31</v>
       </c>
       <c r="B32" t="s">
-        <v>34</v>
+        <v>33</v>
       </c>
       <c r="C32" t="s">
         <v>354</v>
@@ -7021,7 +7021,7 @@
         <v>355</v>
       </c>
       <c r="D37" t="s">
-        <v>376</v>
+        <v>377</v>
       </c>
     </row>
     <row r="38" spans="1:4">
@@ -7127,13 +7127,13 @@
         <v>44</v>
       </c>
       <c r="B45" t="s">
-        <v>52</v>
+        <v>53</v>
       </c>
       <c r="C45" t="s">
         <v>354</v>
       </c>
       <c r="D45" t="s">
-        <v>377</v>
+        <v>376</v>
       </c>
     </row>
     <row r="46" spans="1:4">
@@ -7197,7 +7197,7 @@
         <v>49</v>
       </c>
       <c r="B50" t="s">
-        <v>57</v>
+        <v>56</v>
       </c>
       <c r="C50" t="s">
         <v>357</v>
@@ -7211,7 +7211,7 @@
         <v>50</v>
       </c>
       <c r="B51" t="s">
-        <v>58</v>
+        <v>57</v>
       </c>
       <c r="C51" t="s">
         <v>357</v>
@@ -7239,7 +7239,7 @@
         <v>52</v>
       </c>
       <c r="B53" t="s">
-        <v>53</v>
+        <v>52</v>
       </c>
       <c r="C53" t="s">
         <v>356</v>
@@ -7253,7 +7253,7 @@
         <v>53</v>
       </c>
       <c r="B54" t="s">
-        <v>56</v>
+        <v>58</v>
       </c>
       <c r="C54" t="s">
         <v>355</v>
@@ -7337,7 +7337,7 @@
         <v>59</v>
       </c>
       <c r="B60" t="s">
-        <v>69</v>
+        <v>70</v>
       </c>
       <c r="C60" t="s">
         <v>354</v>
@@ -7399,7 +7399,7 @@
         <v>355</v>
       </c>
       <c r="D64" t="s">
-        <v>376</v>
+        <v>377</v>
       </c>
     </row>
     <row r="65" spans="1:4">
@@ -7435,7 +7435,7 @@
         <v>66</v>
       </c>
       <c r="B67" t="s">
-        <v>72</v>
+        <v>73</v>
       </c>
       <c r="C67" t="s">
         <v>355</v>
@@ -7477,7 +7477,7 @@
         <v>69</v>
       </c>
       <c r="B70" t="s">
-        <v>73</v>
+        <v>72</v>
       </c>
       <c r="C70" t="s">
         <v>355</v>
@@ -7519,7 +7519,7 @@
         <v>72</v>
       </c>
       <c r="B73" t="s">
-        <v>70</v>
+        <v>69</v>
       </c>
       <c r="C73" t="s">
         <v>354</v>
@@ -7533,13 +7533,13 @@
         <v>73</v>
       </c>
       <c r="B74" t="s">
-        <v>71</v>
+        <v>76</v>
       </c>
       <c r="C74" t="s">
-        <v>355</v>
+        <v>354</v>
       </c>
       <c r="D74" t="s">
-        <v>388</v>
+        <v>389</v>
       </c>
     </row>
     <row r="75" spans="1:4">
@@ -7547,13 +7547,13 @@
         <v>74</v>
       </c>
       <c r="B75" t="s">
-        <v>76</v>
+        <v>71</v>
       </c>
       <c r="C75" t="s">
-        <v>354</v>
+        <v>355</v>
       </c>
       <c r="D75" t="s">
-        <v>389</v>
+        <v>388</v>
       </c>
     </row>
     <row r="76" spans="1:4">
@@ -7603,7 +7603,7 @@
         <v>78</v>
       </c>
       <c r="B79" t="s">
-        <v>97</v>
+        <v>96</v>
       </c>
       <c r="C79" t="s">
         <v>354</v>
@@ -7617,7 +7617,7 @@
         <v>79</v>
       </c>
       <c r="B80" t="s">
-        <v>95</v>
+        <v>94</v>
       </c>
       <c r="C80" t="s">
         <v>354</v>
@@ -7679,7 +7679,7 @@
         <v>357</v>
       </c>
       <c r="D84" t="s">
-        <v>376</v>
+        <v>377</v>
       </c>
     </row>
     <row r="85" spans="1:4">
@@ -7715,13 +7715,13 @@
         <v>86</v>
       </c>
       <c r="B87" t="s">
-        <v>96</v>
+        <v>82</v>
       </c>
       <c r="C87" t="s">
-        <v>354</v>
+        <v>355</v>
       </c>
       <c r="D87" t="s">
-        <v>374</v>
+        <v>378</v>
       </c>
     </row>
     <row r="88" spans="1:4">
@@ -7729,13 +7729,13 @@
         <v>87</v>
       </c>
       <c r="B88" t="s">
-        <v>82</v>
+        <v>100</v>
       </c>
       <c r="C88" t="s">
-        <v>355</v>
+        <v>354</v>
       </c>
       <c r="D88" t="s">
-        <v>378</v>
+        <v>382</v>
       </c>
     </row>
     <row r="89" spans="1:4">
@@ -7743,13 +7743,13 @@
         <v>88</v>
       </c>
       <c r="B89" t="s">
-        <v>100</v>
+        <v>95</v>
       </c>
       <c r="C89" t="s">
         <v>354</v>
       </c>
       <c r="D89" t="s">
-        <v>382</v>
+        <v>374</v>
       </c>
     </row>
     <row r="90" spans="1:4">
@@ -7757,7 +7757,7 @@
         <v>89</v>
       </c>
       <c r="B90" t="s">
-        <v>94</v>
+        <v>93</v>
       </c>
       <c r="C90" t="s">
         <v>357</v>
@@ -7791,7 +7791,7 @@
         <v>354</v>
       </c>
       <c r="D92" t="s">
-        <v>376</v>
+        <v>377</v>
       </c>
     </row>
     <row r="93" spans="1:4">
@@ -7827,7 +7827,7 @@
         <v>94</v>
       </c>
       <c r="B95" t="s">
-        <v>93</v>
+        <v>97</v>
       </c>
       <c r="C95" t="s">
         <v>355</v>
@@ -7847,7 +7847,7 @@
         <v>355</v>
       </c>
       <c r="D96" t="s">
-        <v>377</v>
+        <v>376</v>
       </c>
     </row>
     <row r="97" spans="1:4">
@@ -7869,13 +7869,13 @@
         <v>97</v>
       </c>
       <c r="B98" t="s">
-        <v>91</v>
+        <v>101</v>
       </c>
       <c r="C98" t="s">
-        <v>355</v>
+        <v>356</v>
       </c>
       <c r="D98" t="s">
-        <v>389</v>
+        <v>383</v>
       </c>
     </row>
     <row r="99" spans="1:4">
@@ -7883,13 +7883,13 @@
         <v>98</v>
       </c>
       <c r="B99" t="s">
-        <v>101</v>
+        <v>91</v>
       </c>
       <c r="C99" t="s">
-        <v>356</v>
+        <v>355</v>
       </c>
       <c r="D99" t="s">
-        <v>383</v>
+        <v>389</v>
       </c>
     </row>
     <row r="100" spans="1:4">
@@ -7897,7 +7897,7 @@
         <v>99</v>
       </c>
       <c r="B100" t="s">
-        <v>104</v>
+        <v>105</v>
       </c>
       <c r="C100" t="s">
         <v>357</v>
@@ -7917,7 +7917,7 @@
         <v>357</v>
       </c>
       <c r="D101" t="s">
-        <v>377</v>
+        <v>376</v>
       </c>
     </row>
     <row r="102" spans="1:4">
@@ -7953,7 +7953,7 @@
         <v>103</v>
       </c>
       <c r="B104" t="s">
-        <v>111</v>
+        <v>110</v>
       </c>
       <c r="C104" t="s">
         <v>354</v>
@@ -7995,7 +7995,7 @@
         <v>106</v>
       </c>
       <c r="B107" t="s">
-        <v>108</v>
+        <v>107</v>
       </c>
       <c r="C107" t="s">
         <v>355</v>
@@ -8009,7 +8009,7 @@
         <v>107</v>
       </c>
       <c r="B108" t="s">
-        <v>105</v>
+        <v>104</v>
       </c>
       <c r="C108" t="s">
         <v>355</v>
@@ -8037,7 +8037,7 @@
         <v>109</v>
       </c>
       <c r="B110" t="s">
-        <v>107</v>
+        <v>108</v>
       </c>
       <c r="C110" t="s">
         <v>355</v>
@@ -8065,7 +8065,7 @@
         <v>111</v>
       </c>
       <c r="B112" t="s">
-        <v>116</v>
+        <v>117</v>
       </c>
       <c r="C112" t="s">
         <v>356</v>
@@ -8079,7 +8079,7 @@
         <v>112</v>
       </c>
       <c r="B113" t="s">
-        <v>112</v>
+        <v>111</v>
       </c>
       <c r="C113" t="s">
         <v>357</v>
@@ -8093,7 +8093,7 @@
         <v>113</v>
       </c>
       <c r="B114" t="s">
-        <v>110</v>
+        <v>112</v>
       </c>
       <c r="C114" t="s">
         <v>354</v>
@@ -8107,13 +8107,13 @@
         <v>114</v>
       </c>
       <c r="B115" t="s">
-        <v>131</v>
+        <v>113</v>
       </c>
       <c r="C115" t="s">
-        <v>354</v>
+        <v>355</v>
       </c>
       <c r="D115" t="s">
-        <v>360</v>
+        <v>362</v>
       </c>
     </row>
     <row r="116" spans="1:4">
@@ -8121,13 +8121,13 @@
         <v>115</v>
       </c>
       <c r="B116" t="s">
-        <v>113</v>
+        <v>122</v>
       </c>
       <c r="C116" t="s">
-        <v>355</v>
+        <v>354</v>
       </c>
       <c r="D116" t="s">
-        <v>362</v>
+        <v>386</v>
       </c>
     </row>
     <row r="117" spans="1:4">
@@ -8135,13 +8135,13 @@
         <v>116</v>
       </c>
       <c r="B117" t="s">
-        <v>122</v>
+        <v>128</v>
       </c>
       <c r="C117" t="s">
         <v>354</v>
       </c>
       <c r="D117" t="s">
-        <v>386</v>
+        <v>360</v>
       </c>
     </row>
     <row r="118" spans="1:4">
@@ -8149,7 +8149,7 @@
         <v>117</v>
       </c>
       <c r="B118" t="s">
-        <v>117</v>
+        <v>116</v>
       </c>
       <c r="C118" t="s">
         <v>355</v>
@@ -8177,7 +8177,7 @@
         <v>119</v>
       </c>
       <c r="B120" t="s">
-        <v>132</v>
+        <v>130</v>
       </c>
       <c r="C120" t="s">
         <v>354</v>
@@ -8191,7 +8191,7 @@
         <v>120</v>
       </c>
       <c r="B121" t="s">
-        <v>127</v>
+        <v>126</v>
       </c>
       <c r="C121" t="s">
         <v>354</v>
@@ -8205,13 +8205,13 @@
         <v>121</v>
       </c>
       <c r="B122" t="s">
-        <v>143</v>
+        <v>127</v>
       </c>
       <c r="C122" t="s">
         <v>355</v>
       </c>
       <c r="D122" t="s">
-        <v>391</v>
+        <v>388</v>
       </c>
     </row>
     <row r="123" spans="1:4">
@@ -8219,13 +8219,13 @@
         <v>122</v>
       </c>
       <c r="B123" t="s">
-        <v>126</v>
+        <v>143</v>
       </c>
       <c r="C123" t="s">
         <v>355</v>
       </c>
       <c r="D123" t="s">
-        <v>388</v>
+        <v>391</v>
       </c>
     </row>
     <row r="124" spans="1:4">
@@ -8233,7 +8233,7 @@
         <v>123</v>
       </c>
       <c r="B124" t="s">
-        <v>136</v>
+        <v>137</v>
       </c>
       <c r="C124" t="s">
         <v>355</v>
@@ -8247,13 +8247,13 @@
         <v>124</v>
       </c>
       <c r="B125" t="s">
-        <v>150</v>
+        <v>121</v>
       </c>
       <c r="C125" t="s">
-        <v>354</v>
+        <v>357</v>
       </c>
       <c r="D125" t="s">
-        <v>385</v>
+        <v>381</v>
       </c>
     </row>
     <row r="126" spans="1:4">
@@ -8261,13 +8261,13 @@
         <v>125</v>
       </c>
       <c r="B126" t="s">
-        <v>121</v>
+        <v>139</v>
       </c>
       <c r="C126" t="s">
-        <v>357</v>
+        <v>354</v>
       </c>
       <c r="D126" t="s">
-        <v>381</v>
+        <v>387</v>
       </c>
     </row>
     <row r="127" spans="1:4">
@@ -8275,13 +8275,13 @@
         <v>126</v>
       </c>
       <c r="B127" t="s">
-        <v>138</v>
+        <v>119</v>
       </c>
       <c r="C127" t="s">
-        <v>354</v>
+        <v>356</v>
       </c>
       <c r="D127" t="s">
-        <v>387</v>
+        <v>391</v>
       </c>
     </row>
     <row r="128" spans="1:4">
@@ -8289,7 +8289,7 @@
         <v>127</v>
       </c>
       <c r="B128" t="s">
-        <v>128</v>
+        <v>129</v>
       </c>
       <c r="C128" t="s">
         <v>355</v>
@@ -8303,13 +8303,13 @@
         <v>128</v>
       </c>
       <c r="B129" t="s">
-        <v>133</v>
+        <v>125</v>
       </c>
       <c r="C129" t="s">
-        <v>354</v>
+        <v>355</v>
       </c>
       <c r="D129" t="s">
-        <v>381</v>
+        <v>370</v>
       </c>
     </row>
     <row r="130" spans="1:4">
@@ -8317,13 +8317,13 @@
         <v>129</v>
       </c>
       <c r="B130" t="s">
-        <v>125</v>
+        <v>120</v>
       </c>
       <c r="C130" t="s">
-        <v>355</v>
+        <v>357</v>
       </c>
       <c r="D130" t="s">
-        <v>370</v>
+        <v>387</v>
       </c>
     </row>
     <row r="131" spans="1:4">
@@ -8331,13 +8331,13 @@
         <v>130</v>
       </c>
       <c r="B131" t="s">
-        <v>119</v>
+        <v>138</v>
       </c>
       <c r="C131" t="s">
-        <v>356</v>
+        <v>355</v>
       </c>
       <c r="D131" t="s">
-        <v>391</v>
+        <v>380</v>
       </c>
     </row>
     <row r="132" spans="1:4">
@@ -8345,13 +8345,13 @@
         <v>131</v>
       </c>
       <c r="B132" t="s">
-        <v>120</v>
+        <v>153</v>
       </c>
       <c r="C132" t="s">
-        <v>357</v>
+        <v>354</v>
       </c>
       <c r="D132" t="s">
-        <v>387</v>
+        <v>385</v>
       </c>
     </row>
     <row r="133" spans="1:4">
@@ -8359,13 +8359,13 @@
         <v>132</v>
       </c>
       <c r="B133" t="s">
-        <v>139</v>
+        <v>133</v>
       </c>
       <c r="C133" t="s">
-        <v>355</v>
+        <v>354</v>
       </c>
       <c r="D133" t="s">
-        <v>380</v>
+        <v>381</v>
       </c>
     </row>
     <row r="134" spans="1:4">
@@ -8373,7 +8373,7 @@
         <v>133</v>
       </c>
       <c r="B134" t="s">
-        <v>129</v>
+        <v>132</v>
       </c>
       <c r="C134" t="s">
         <v>356</v>
@@ -8387,7 +8387,7 @@
         <v>134</v>
       </c>
       <c r="B135" t="s">
-        <v>130</v>
+        <v>131</v>
       </c>
       <c r="C135" t="s">
         <v>356</v>
@@ -8415,13 +8415,13 @@
         <v>136</v>
       </c>
       <c r="B137" t="s">
-        <v>140</v>
+        <v>124</v>
       </c>
       <c r="C137" t="s">
-        <v>354</v>
+        <v>357</v>
       </c>
       <c r="D137" t="s">
-        <v>372</v>
+        <v>386</v>
       </c>
     </row>
     <row r="138" spans="1:4">
@@ -8429,13 +8429,13 @@
         <v>137</v>
       </c>
       <c r="B138" t="s">
-        <v>135</v>
+        <v>141</v>
       </c>
       <c r="C138" t="s">
-        <v>356</v>
+        <v>354</v>
       </c>
       <c r="D138" t="s">
-        <v>376</v>
+        <v>372</v>
       </c>
     </row>
     <row r="139" spans="1:4">
@@ -8443,13 +8443,13 @@
         <v>138</v>
       </c>
       <c r="B139" t="s">
-        <v>145</v>
+        <v>144</v>
       </c>
       <c r="C139" t="s">
         <v>355</v>
       </c>
       <c r="D139" t="s">
-        <v>380</v>
+        <v>391</v>
       </c>
     </row>
     <row r="140" spans="1:4">
@@ -8457,13 +8457,13 @@
         <v>139</v>
       </c>
       <c r="B140" t="s">
-        <v>124</v>
+        <v>155</v>
       </c>
       <c r="C140" t="s">
-        <v>357</v>
+        <v>355</v>
       </c>
       <c r="D140" t="s">
-        <v>386</v>
+        <v>385</v>
       </c>
     </row>
     <row r="141" spans="1:4">
@@ -8471,13 +8471,13 @@
         <v>140</v>
       </c>
       <c r="B141" t="s">
-        <v>153</v>
+        <v>135</v>
       </c>
       <c r="C141" t="s">
-        <v>355</v>
+        <v>356</v>
       </c>
       <c r="D141" t="s">
-        <v>385</v>
+        <v>377</v>
       </c>
     </row>
     <row r="142" spans="1:4">
@@ -8491,7 +8491,7 @@
         <v>355</v>
       </c>
       <c r="D142" t="s">
-        <v>391</v>
+        <v>380</v>
       </c>
     </row>
     <row r="143" spans="1:4">
@@ -8499,13 +8499,13 @@
         <v>142</v>
       </c>
       <c r="B143" t="s">
-        <v>157</v>
+        <v>156</v>
       </c>
       <c r="C143" t="s">
         <v>355</v>
       </c>
       <c r="D143" t="s">
-        <v>383</v>
+        <v>369</v>
       </c>
     </row>
     <row r="144" spans="1:4">
@@ -8513,13 +8513,13 @@
         <v>143</v>
       </c>
       <c r="B144" t="s">
-        <v>141</v>
+        <v>157</v>
       </c>
       <c r="C144" t="s">
-        <v>356</v>
+        <v>355</v>
       </c>
       <c r="D144" t="s">
-        <v>381</v>
+        <v>383</v>
       </c>
     </row>
     <row r="145" spans="1:4">
@@ -8527,13 +8527,13 @@
         <v>144</v>
       </c>
       <c r="B145" t="s">
-        <v>147</v>
+        <v>140</v>
       </c>
       <c r="C145" t="s">
-        <v>354</v>
+        <v>356</v>
       </c>
       <c r="D145" t="s">
-        <v>382</v>
+        <v>381</v>
       </c>
     </row>
     <row r="146" spans="1:4">
@@ -8541,13 +8541,13 @@
         <v>145</v>
       </c>
       <c r="B146" t="s">
-        <v>156</v>
+        <v>147</v>
       </c>
       <c r="C146" t="s">
-        <v>355</v>
+        <v>354</v>
       </c>
       <c r="D146" t="s">
-        <v>369</v>
+        <v>382</v>
       </c>
     </row>
     <row r="147" spans="1:4">
@@ -8555,7 +8555,7 @@
         <v>146</v>
       </c>
       <c r="B147" t="s">
-        <v>144</v>
+        <v>145</v>
       </c>
       <c r="C147" t="s">
         <v>355</v>
@@ -8569,7 +8569,7 @@
         <v>147</v>
       </c>
       <c r="B148" t="s">
-        <v>148</v>
+        <v>149</v>
       </c>
       <c r="C148" t="s">
         <v>354</v>
@@ -8583,13 +8583,13 @@
         <v>148</v>
       </c>
       <c r="B149" t="s">
-        <v>149</v>
+        <v>136</v>
       </c>
       <c r="C149" t="s">
-        <v>356</v>
+        <v>357</v>
       </c>
       <c r="D149" t="s">
-        <v>364</v>
+        <v>369</v>
       </c>
     </row>
     <row r="150" spans="1:4">
@@ -8597,13 +8597,13 @@
         <v>149</v>
       </c>
       <c r="B150" t="s">
-        <v>159</v>
+        <v>148</v>
       </c>
       <c r="C150" t="s">
-        <v>355</v>
+        <v>356</v>
       </c>
       <c r="D150" t="s">
-        <v>390</v>
+        <v>364</v>
       </c>
     </row>
     <row r="151" spans="1:4">
@@ -8611,13 +8611,13 @@
         <v>150</v>
       </c>
       <c r="B151" t="s">
-        <v>137</v>
+        <v>142</v>
       </c>
       <c r="C151" t="s">
         <v>357</v>
       </c>
       <c r="D151" t="s">
-        <v>369</v>
+        <v>360</v>
       </c>
     </row>
     <row r="152" spans="1:4">
@@ -8625,13 +8625,13 @@
         <v>151</v>
       </c>
       <c r="B152" t="s">
-        <v>142</v>
+        <v>160</v>
       </c>
       <c r="C152" t="s">
-        <v>357</v>
+        <v>355</v>
       </c>
       <c r="D152" t="s">
-        <v>360</v>
+        <v>390</v>
       </c>
     </row>
     <row r="153" spans="1:4">
@@ -8653,13 +8653,13 @@
         <v>153</v>
       </c>
       <c r="B154" t="s">
-        <v>160</v>
+        <v>150</v>
       </c>
       <c r="C154" t="s">
         <v>356</v>
       </c>
       <c r="D154" t="s">
-        <v>389</v>
+        <v>376</v>
       </c>
     </row>
     <row r="155" spans="1:4">
@@ -8667,13 +8667,13 @@
         <v>154</v>
       </c>
       <c r="B155" t="s">
-        <v>154</v>
+        <v>158</v>
       </c>
       <c r="C155" t="s">
         <v>356</v>
       </c>
       <c r="D155" t="s">
-        <v>377</v>
+        <v>389</v>
       </c>
     </row>
     <row r="156" spans="1:4">
@@ -8695,7 +8695,7 @@
         <v>156</v>
       </c>
       <c r="B157" t="s">
-        <v>163</v>
+        <v>162</v>
       </c>
       <c r="C157" t="s">
         <v>356</v>
@@ -8723,13 +8723,13 @@
         <v>158</v>
       </c>
       <c r="B159" t="s">
-        <v>165</v>
+        <v>172</v>
       </c>
       <c r="C159" t="s">
-        <v>354</v>
+        <v>355</v>
       </c>
       <c r="D159" t="s">
-        <v>375</v>
+        <v>364</v>
       </c>
     </row>
     <row r="160" spans="1:4">
@@ -8737,13 +8737,13 @@
         <v>159</v>
       </c>
       <c r="B160" t="s">
-        <v>172</v>
+        <v>171</v>
       </c>
       <c r="C160" t="s">
         <v>355</v>
       </c>
       <c r="D160" t="s">
-        <v>364</v>
+        <v>371</v>
       </c>
     </row>
     <row r="161" spans="1:4">
@@ -8751,13 +8751,13 @@
         <v>160</v>
       </c>
       <c r="B161" t="s">
-        <v>171</v>
+        <v>165</v>
       </c>
       <c r="C161" t="s">
-        <v>355</v>
+        <v>354</v>
       </c>
       <c r="D161" t="s">
-        <v>371</v>
+        <v>375</v>
       </c>
     </row>
     <row r="162" spans="1:4">
@@ -8765,13 +8765,13 @@
         <v>161</v>
       </c>
       <c r="B162" t="s">
-        <v>169</v>
+        <v>175</v>
       </c>
       <c r="C162" t="s">
-        <v>354</v>
+        <v>355</v>
       </c>
       <c r="D162" t="s">
-        <v>369</v>
+        <v>363</v>
       </c>
     </row>
     <row r="163" spans="1:4">
@@ -8779,13 +8779,13 @@
         <v>162</v>
       </c>
       <c r="B163" t="s">
-        <v>174</v>
+        <v>169</v>
       </c>
       <c r="C163" t="s">
-        <v>355</v>
+        <v>354</v>
       </c>
       <c r="D163" t="s">
-        <v>363</v>
+        <v>369</v>
       </c>
     </row>
     <row r="164" spans="1:4">
@@ -8793,13 +8793,13 @@
         <v>163</v>
       </c>
       <c r="B164" t="s">
-        <v>155</v>
+        <v>161</v>
       </c>
       <c r="C164" t="s">
-        <v>358</v>
+        <v>357</v>
       </c>
       <c r="D164" t="s">
-        <v>374</v>
+        <v>371</v>
       </c>
     </row>
     <row r="165" spans="1:4">
@@ -8807,13 +8807,13 @@
         <v>164</v>
       </c>
       <c r="B165" t="s">
-        <v>161</v>
+        <v>154</v>
       </c>
       <c r="C165" t="s">
-        <v>357</v>
+        <v>358</v>
       </c>
       <c r="D165" t="s">
-        <v>371</v>
+        <v>374</v>
       </c>
     </row>
     <row r="166" spans="1:4">
@@ -8821,13 +8821,13 @@
         <v>165</v>
       </c>
       <c r="B166" t="s">
-        <v>188</v>
+        <v>193</v>
       </c>
       <c r="C166" t="s">
         <v>355</v>
       </c>
       <c r="D166" t="s">
-        <v>361</v>
+        <v>371</v>
       </c>
     </row>
     <row r="167" spans="1:4">
@@ -8835,13 +8835,13 @@
         <v>166</v>
       </c>
       <c r="B167" t="s">
-        <v>193</v>
+        <v>188</v>
       </c>
       <c r="C167" t="s">
         <v>355</v>
       </c>
       <c r="D167" t="s">
-        <v>371</v>
+        <v>361</v>
       </c>
     </row>
     <row r="168" spans="1:4">
@@ -8849,7 +8849,7 @@
         <v>167</v>
       </c>
       <c r="B168" t="s">
-        <v>158</v>
+        <v>159</v>
       </c>
       <c r="C168" t="s">
         <v>358</v>
@@ -8863,13 +8863,13 @@
         <v>168</v>
       </c>
       <c r="B169" t="s">
-        <v>164</v>
+        <v>163</v>
       </c>
       <c r="C169" t="s">
-        <v>358</v>
+        <v>357</v>
       </c>
       <c r="D169" t="s">
-        <v>378</v>
+        <v>391</v>
       </c>
     </row>
     <row r="170" spans="1:4">
@@ -8877,13 +8877,13 @@
         <v>169</v>
       </c>
       <c r="B170" t="s">
-        <v>183</v>
+        <v>164</v>
       </c>
       <c r="C170" t="s">
-        <v>355</v>
+        <v>358</v>
       </c>
       <c r="D170" t="s">
-        <v>370</v>
+        <v>378</v>
       </c>
     </row>
     <row r="171" spans="1:4">
@@ -8905,13 +8905,13 @@
         <v>171</v>
       </c>
       <c r="B172" t="s">
-        <v>162</v>
+        <v>181</v>
       </c>
       <c r="C172" t="s">
-        <v>357</v>
+        <v>356</v>
       </c>
       <c r="D172" t="s">
-        <v>391</v>
+        <v>365</v>
       </c>
     </row>
     <row r="173" spans="1:4">
@@ -8919,13 +8919,13 @@
         <v>172</v>
       </c>
       <c r="B173" t="s">
-        <v>195</v>
+        <v>184</v>
       </c>
       <c r="C173" t="s">
         <v>355</v>
       </c>
       <c r="D173" t="s">
-        <v>374</v>
+        <v>370</v>
       </c>
     </row>
     <row r="174" spans="1:4">
@@ -8933,13 +8933,13 @@
         <v>173</v>
       </c>
       <c r="B174" t="s">
-        <v>182</v>
+        <v>195</v>
       </c>
       <c r="C174" t="s">
-        <v>356</v>
+        <v>355</v>
       </c>
       <c r="D174" t="s">
-        <v>365</v>
+        <v>374</v>
       </c>
     </row>
     <row r="175" spans="1:4">
@@ -8947,7 +8947,7 @@
         <v>174</v>
       </c>
       <c r="B175" t="s">
-        <v>192</v>
+        <v>191</v>
       </c>
       <c r="C175" t="s">
         <v>355</v>
@@ -8961,13 +8961,13 @@
         <v>175</v>
       </c>
       <c r="B176" t="s">
-        <v>179</v>
+        <v>166</v>
       </c>
       <c r="C176" t="s">
-        <v>354</v>
+        <v>357</v>
       </c>
       <c r="D176" t="s">
-        <v>385</v>
+        <v>372</v>
       </c>
     </row>
     <row r="177" spans="1:4">
@@ -8975,13 +8975,13 @@
         <v>176</v>
       </c>
       <c r="B177" t="s">
-        <v>181</v>
+        <v>183</v>
       </c>
       <c r="C177" t="s">
-        <v>354</v>
+        <v>356</v>
       </c>
       <c r="D177" t="s">
-        <v>364</v>
+        <v>385</v>
       </c>
     </row>
     <row r="178" spans="1:4">
@@ -9003,13 +9003,13 @@
         <v>178</v>
       </c>
       <c r="B179" t="s">
-        <v>166</v>
+        <v>179</v>
       </c>
       <c r="C179" t="s">
-        <v>357</v>
+        <v>354</v>
       </c>
       <c r="D179" t="s">
-        <v>372</v>
+        <v>385</v>
       </c>
     </row>
     <row r="180" spans="1:4">
@@ -9031,13 +9031,13 @@
         <v>180</v>
       </c>
       <c r="B181" t="s">
-        <v>185</v>
+        <v>174</v>
       </c>
       <c r="C181" t="s">
-        <v>356</v>
+        <v>359</v>
       </c>
       <c r="D181" t="s">
-        <v>385</v>
+        <v>373</v>
       </c>
     </row>
     <row r="182" spans="1:4">
@@ -9045,13 +9045,13 @@
         <v>181</v>
       </c>
       <c r="B182" t="s">
-        <v>173</v>
+        <v>168</v>
       </c>
       <c r="C182" t="s">
-        <v>359</v>
+        <v>357</v>
       </c>
       <c r="D182" t="s">
-        <v>373</v>
+        <v>385</v>
       </c>
     </row>
     <row r="183" spans="1:4">
@@ -9065,7 +9065,7 @@
         <v>358</v>
       </c>
       <c r="D183" t="s">
-        <v>376</v>
+        <v>377</v>
       </c>
     </row>
     <row r="184" spans="1:4">
@@ -9073,13 +9073,13 @@
         <v>183</v>
       </c>
       <c r="B184" t="s">
-        <v>168</v>
+        <v>182</v>
       </c>
       <c r="C184" t="s">
-        <v>357</v>
+        <v>354</v>
       </c>
       <c r="D184" t="s">
-        <v>385</v>
+        <v>364</v>
       </c>
     </row>
     <row r="185" spans="1:4">
@@ -9087,13 +9087,13 @@
         <v>184</v>
       </c>
       <c r="B185" t="s">
-        <v>204</v>
+        <v>198</v>
       </c>
       <c r="C185" t="s">
-        <v>354</v>
+        <v>355</v>
       </c>
       <c r="D185" t="s">
-        <v>378</v>
+        <v>368</v>
       </c>
     </row>
     <row r="186" spans="1:4">
@@ -9101,13 +9101,13 @@
         <v>185</v>
       </c>
       <c r="B186" t="s">
-        <v>177</v>
+        <v>173</v>
       </c>
       <c r="C186" t="s">
-        <v>358</v>
+        <v>357</v>
       </c>
       <c r="D186" t="s">
-        <v>368</v>
+        <v>361</v>
       </c>
     </row>
     <row r="187" spans="1:4">
@@ -9115,13 +9115,13 @@
         <v>186</v>
       </c>
       <c r="B187" t="s">
-        <v>194</v>
+        <v>177</v>
       </c>
       <c r="C187" t="s">
-        <v>355</v>
+        <v>358</v>
       </c>
       <c r="D187" t="s">
-        <v>379</v>
+        <v>368</v>
       </c>
     </row>
     <row r="188" spans="1:4">
@@ -9129,13 +9129,13 @@
         <v>187</v>
       </c>
       <c r="B188" t="s">
-        <v>175</v>
+        <v>194</v>
       </c>
       <c r="C188" t="s">
-        <v>357</v>
+        <v>355</v>
       </c>
       <c r="D188" t="s">
-        <v>361</v>
+        <v>379</v>
       </c>
     </row>
     <row r="189" spans="1:4">
@@ -9143,13 +9143,13 @@
         <v>188</v>
       </c>
       <c r="B189" t="s">
-        <v>199</v>
+        <v>192</v>
       </c>
       <c r="C189" t="s">
         <v>355</v>
       </c>
       <c r="D189" t="s">
-        <v>368</v>
+        <v>376</v>
       </c>
     </row>
     <row r="190" spans="1:4">
@@ -9157,13 +9157,13 @@
         <v>189</v>
       </c>
       <c r="B190" t="s">
-        <v>189</v>
+        <v>208</v>
       </c>
       <c r="C190" t="s">
         <v>354</v>
       </c>
       <c r="D190" t="s">
-        <v>370</v>
+        <v>378</v>
       </c>
     </row>
     <row r="191" spans="1:4">
@@ -9171,13 +9171,13 @@
         <v>190</v>
       </c>
       <c r="B191" t="s">
-        <v>191</v>
+        <v>189</v>
       </c>
       <c r="C191" t="s">
-        <v>355</v>
+        <v>354</v>
       </c>
       <c r="D191" t="s">
-        <v>377</v>
+        <v>370</v>
       </c>
     </row>
     <row r="192" spans="1:4">
@@ -9191,7 +9191,7 @@
         <v>355</v>
       </c>
       <c r="D192" t="s">
-        <v>376</v>
+        <v>377</v>
       </c>
     </row>
     <row r="193" spans="1:4">
@@ -9199,7 +9199,7 @@
         <v>192</v>
       </c>
       <c r="B193" t="s">
-        <v>186</v>
+        <v>187</v>
       </c>
       <c r="C193" t="s">
         <v>359</v>
@@ -9227,13 +9227,13 @@
         <v>194</v>
       </c>
       <c r="B195" t="s">
-        <v>198</v>
+        <v>199</v>
       </c>
       <c r="C195" t="s">
         <v>355</v>
       </c>
       <c r="D195" t="s">
-        <v>377</v>
+        <v>376</v>
       </c>
     </row>
     <row r="196" spans="1:4">
@@ -9241,7 +9241,7 @@
         <v>195</v>
       </c>
       <c r="B196" t="s">
-        <v>184</v>
+        <v>185</v>
       </c>
       <c r="C196" t="s">
         <v>358</v>
@@ -9255,13 +9255,13 @@
         <v>196</v>
       </c>
       <c r="B197" t="s">
-        <v>200</v>
+        <v>197</v>
       </c>
       <c r="C197" t="s">
-        <v>354</v>
+        <v>359</v>
       </c>
       <c r="D197" t="s">
-        <v>384</v>
+        <v>368</v>
       </c>
     </row>
     <row r="198" spans="1:4">
@@ -9269,13 +9269,13 @@
         <v>197</v>
       </c>
       <c r="B198" t="s">
-        <v>201</v>
+        <v>207</v>
       </c>
       <c r="C198" t="s">
-        <v>354</v>
+        <v>355</v>
       </c>
       <c r="D198" t="s">
-        <v>383</v>
+        <v>372</v>
       </c>
     </row>
     <row r="199" spans="1:4">
@@ -9283,13 +9283,13 @@
         <v>198</v>
       </c>
       <c r="B199" t="s">
-        <v>207</v>
+        <v>201</v>
       </c>
       <c r="C199" t="s">
-        <v>355</v>
+        <v>354</v>
       </c>
       <c r="D199" t="s">
-        <v>372</v>
+        <v>384</v>
       </c>
     </row>
     <row r="200" spans="1:4">
@@ -9297,13 +9297,13 @@
         <v>199</v>
       </c>
       <c r="B200" t="s">
-        <v>197</v>
+        <v>203</v>
       </c>
       <c r="C200" t="s">
-        <v>359</v>
+        <v>354</v>
       </c>
       <c r="D200" t="s">
-        <v>368</v>
+        <v>383</v>
       </c>
     </row>
     <row r="201" spans="1:4">
@@ -9311,13 +9311,13 @@
         <v>200</v>
       </c>
       <c r="B201" t="s">
-        <v>215</v>
+        <v>216</v>
       </c>
       <c r="C201" t="s">
         <v>355</v>
       </c>
       <c r="D201" t="s">
-        <v>360</v>
+        <v>367</v>
       </c>
     </row>
     <row r="202" spans="1:4">
@@ -9325,13 +9325,13 @@
         <v>201</v>
       </c>
       <c r="B202" t="s">
-        <v>216</v>
+        <v>215</v>
       </c>
       <c r="C202" t="s">
         <v>355</v>
       </c>
       <c r="D202" t="s">
-        <v>367</v>
+        <v>360</v>
       </c>
     </row>
     <row r="203" spans="1:4">
@@ -9339,13 +9339,13 @@
         <v>202</v>
       </c>
       <c r="B203" t="s">
-        <v>196</v>
+        <v>214</v>
       </c>
       <c r="C203" t="s">
-        <v>359</v>
+        <v>356</v>
       </c>
       <c r="D203" t="s">
-        <v>365</v>
+        <v>390</v>
       </c>
     </row>
     <row r="204" spans="1:4">
@@ -9353,13 +9353,13 @@
         <v>203</v>
       </c>
       <c r="B204" t="s">
-        <v>205</v>
+        <v>196</v>
       </c>
       <c r="C204" t="s">
-        <v>358</v>
+        <v>359</v>
       </c>
       <c r="D204" t="s">
-        <v>364</v>
+        <v>365</v>
       </c>
     </row>
     <row r="205" spans="1:4">
@@ -9367,13 +9367,13 @@
         <v>204</v>
       </c>
       <c r="B205" t="s">
-        <v>190</v>
+        <v>204</v>
       </c>
       <c r="C205" t="s">
-        <v>354</v>
+        <v>358</v>
       </c>
       <c r="D205" t="s">
-        <v>361</v>
+        <v>364</v>
       </c>
     </row>
     <row r="206" spans="1:4">
@@ -9381,13 +9381,13 @@
         <v>205</v>
       </c>
       <c r="B206" t="s">
-        <v>214</v>
+        <v>200</v>
       </c>
       <c r="C206" t="s">
-        <v>356</v>
+        <v>358</v>
       </c>
       <c r="D206" t="s">
-        <v>390</v>
+        <v>379</v>
       </c>
     </row>
     <row r="207" spans="1:4">
@@ -9395,13 +9395,13 @@
         <v>206</v>
       </c>
       <c r="B207" t="s">
-        <v>202</v>
+        <v>190</v>
       </c>
       <c r="C207" t="s">
-        <v>358</v>
+        <v>354</v>
       </c>
       <c r="D207" t="s">
-        <v>379</v>
+        <v>361</v>
       </c>
     </row>
     <row r="208" spans="1:4">
@@ -9409,13 +9409,13 @@
         <v>207</v>
       </c>
       <c r="B208" t="s">
-        <v>206</v>
+        <v>186</v>
       </c>
       <c r="C208" t="s">
-        <v>359</v>
+        <v>357</v>
       </c>
       <c r="D208" t="s">
-        <v>375</v>
+        <v>390</v>
       </c>
     </row>
     <row r="209" spans="1:4">
@@ -9423,13 +9423,13 @@
         <v>208</v>
       </c>
       <c r="B209" t="s">
-        <v>187</v>
+        <v>205</v>
       </c>
       <c r="C209" t="s">
-        <v>357</v>
+        <v>359</v>
       </c>
       <c r="D209" t="s">
-        <v>390</v>
+        <v>375</v>
       </c>
     </row>
     <row r="210" spans="1:4">
@@ -9437,13 +9437,13 @@
         <v>209</v>
       </c>
       <c r="B210" t="s">
-        <v>219</v>
+        <v>206</v>
       </c>
       <c r="C210" t="s">
-        <v>355</v>
+        <v>358</v>
       </c>
       <c r="D210" t="s">
-        <v>385</v>
+        <v>376</v>
       </c>
     </row>
     <row r="211" spans="1:4">
@@ -9451,13 +9451,13 @@
         <v>210</v>
       </c>
       <c r="B211" t="s">
-        <v>208</v>
+        <v>220</v>
       </c>
       <c r="C211" t="s">
-        <v>358</v>
+        <v>355</v>
       </c>
       <c r="D211" t="s">
-        <v>377</v>
+        <v>385</v>
       </c>
     </row>
     <row r="212" spans="1:4">
@@ -9465,7 +9465,7 @@
         <v>211</v>
       </c>
       <c r="B212" t="s">
-        <v>203</v>
+        <v>202</v>
       </c>
       <c r="C212" t="s">
         <v>354</v>
@@ -9493,7 +9493,7 @@
         <v>213</v>
       </c>
       <c r="B214" t="s">
-        <v>224</v>
+        <v>226</v>
       </c>
       <c r="C214" t="s">
         <v>354</v>
@@ -9535,13 +9535,13 @@
         <v>216</v>
       </c>
       <c r="B217" t="s">
-        <v>243</v>
+        <v>225</v>
       </c>
       <c r="C217" t="s">
-        <v>355</v>
+        <v>358</v>
       </c>
       <c r="D217" t="s">
-        <v>371</v>
+        <v>384</v>
       </c>
     </row>
     <row r="218" spans="1:4">
@@ -9549,13 +9549,13 @@
         <v>217</v>
       </c>
       <c r="B218" t="s">
-        <v>226</v>
+        <v>243</v>
       </c>
       <c r="C218" t="s">
-        <v>358</v>
+        <v>355</v>
       </c>
       <c r="D218" t="s">
-        <v>384</v>
+        <v>371</v>
       </c>
     </row>
     <row r="219" spans="1:4">
@@ -9563,13 +9563,13 @@
         <v>218</v>
       </c>
       <c r="B219" t="s">
-        <v>232</v>
+        <v>240</v>
       </c>
       <c r="C219" t="s">
-        <v>354</v>
+        <v>355</v>
       </c>
       <c r="D219" t="s">
-        <v>370</v>
+        <v>367</v>
       </c>
     </row>
     <row r="220" spans="1:4">
@@ -9591,13 +9591,13 @@
         <v>220</v>
       </c>
       <c r="B221" t="s">
-        <v>241</v>
+        <v>219</v>
       </c>
       <c r="C221" t="s">
-        <v>355</v>
+        <v>356</v>
       </c>
       <c r="D221" t="s">
-        <v>367</v>
+        <v>360</v>
       </c>
     </row>
     <row r="222" spans="1:4">
@@ -9605,13 +9605,13 @@
         <v>221</v>
       </c>
       <c r="B222" t="s">
-        <v>210</v>
+        <v>222</v>
       </c>
       <c r="C222" t="s">
-        <v>354</v>
+        <v>358</v>
       </c>
       <c r="D222" t="s">
-        <v>364</v>
+        <v>373</v>
       </c>
     </row>
     <row r="223" spans="1:4">
@@ -9619,13 +9619,13 @@
         <v>222</v>
       </c>
       <c r="B223" t="s">
-        <v>237</v>
+        <v>210</v>
       </c>
       <c r="C223" t="s">
-        <v>355</v>
+        <v>354</v>
       </c>
       <c r="D223" t="s">
-        <v>383</v>
+        <v>364</v>
       </c>
     </row>
     <row r="224" spans="1:4">
@@ -9633,13 +9633,13 @@
         <v>223</v>
       </c>
       <c r="B224" t="s">
-        <v>218</v>
+        <v>233</v>
       </c>
       <c r="C224" t="s">
-        <v>356</v>
+        <v>354</v>
       </c>
       <c r="D224" t="s">
-        <v>360</v>
+        <v>370</v>
       </c>
     </row>
     <row r="225" spans="1:4">
@@ -9647,13 +9647,13 @@
         <v>224</v>
       </c>
       <c r="B225" t="s">
-        <v>223</v>
+        <v>224</v>
       </c>
       <c r="C225" t="s">
         <v>358</v>
       </c>
       <c r="D225" t="s">
-        <v>373</v>
+        <v>367</v>
       </c>
     </row>
     <row r="226" spans="1:4">
@@ -9661,13 +9661,13 @@
         <v>225</v>
       </c>
       <c r="B226" t="s">
-        <v>225</v>
+        <v>237</v>
       </c>
       <c r="C226" t="s">
-        <v>358</v>
+        <v>355</v>
       </c>
       <c r="D226" t="s">
-        <v>367</v>
+        <v>383</v>
       </c>
     </row>
     <row r="227" spans="1:4">
@@ -9675,13 +9675,13 @@
         <v>226</v>
       </c>
       <c r="B227" t="s">
-        <v>234</v>
+        <v>218</v>
       </c>
       <c r="C227" t="s">
-        <v>354</v>
+        <v>357</v>
       </c>
       <c r="D227" t="s">
-        <v>365</v>
+        <v>382</v>
       </c>
     </row>
     <row r="228" spans="1:4">
@@ -9689,13 +9689,13 @@
         <v>227</v>
       </c>
       <c r="B228" t="s">
-        <v>233</v>
+        <v>227</v>
       </c>
       <c r="C228" t="s">
-        <v>354</v>
+        <v>358</v>
       </c>
       <c r="D228" t="s">
-        <v>373</v>
+        <v>370</v>
       </c>
     </row>
     <row r="229" spans="1:4">
@@ -9703,13 +9703,13 @@
         <v>228</v>
       </c>
       <c r="B229" t="s">
-        <v>228</v>
+        <v>235</v>
       </c>
       <c r="C229" t="s">
-        <v>358</v>
+        <v>354</v>
       </c>
       <c r="D229" t="s">
-        <v>370</v>
+        <v>365</v>
       </c>
     </row>
     <row r="230" spans="1:4">
@@ -9717,7 +9717,7 @@
         <v>229</v>
       </c>
       <c r="B230" t="s">
-        <v>246</v>
+        <v>247</v>
       </c>
       <c r="C230" t="s">
         <v>355</v>
@@ -9731,13 +9731,13 @@
         <v>230</v>
       </c>
       <c r="B231" t="s">
-        <v>220</v>
+        <v>232</v>
       </c>
       <c r="C231" t="s">
-        <v>357</v>
+        <v>354</v>
       </c>
       <c r="D231" t="s">
-        <v>382</v>
+        <v>373</v>
       </c>
     </row>
     <row r="232" spans="1:4">
@@ -9745,13 +9745,13 @@
         <v>231</v>
       </c>
       <c r="B232" t="s">
-        <v>240</v>
+        <v>229</v>
       </c>
       <c r="C232" t="s">
-        <v>355</v>
+        <v>359</v>
       </c>
       <c r="D232" t="s">
-        <v>391</v>
+        <v>383</v>
       </c>
     </row>
     <row r="233" spans="1:4">
@@ -9759,13 +9759,13 @@
         <v>232</v>
       </c>
       <c r="B233" t="s">
-        <v>229</v>
+        <v>230</v>
       </c>
       <c r="C233" t="s">
-        <v>359</v>
+        <v>358</v>
       </c>
       <c r="D233" t="s">
-        <v>383</v>
+        <v>366</v>
       </c>
     </row>
     <row r="234" spans="1:4">
@@ -9773,13 +9773,13 @@
         <v>233</v>
       </c>
       <c r="B234" t="s">
-        <v>238</v>
+        <v>213</v>
       </c>
       <c r="C234" t="s">
-        <v>354</v>
+        <v>357</v>
       </c>
       <c r="D234" t="s">
-        <v>383</v>
+        <v>388</v>
       </c>
     </row>
     <row r="235" spans="1:4">
@@ -9787,13 +9787,13 @@
         <v>234</v>
       </c>
       <c r="B235" t="s">
-        <v>227</v>
+        <v>241</v>
       </c>
       <c r="C235" t="s">
-        <v>354</v>
+        <v>355</v>
       </c>
       <c r="D235" t="s">
-        <v>378</v>
+        <v>391</v>
       </c>
     </row>
     <row r="236" spans="1:4">
@@ -9801,13 +9801,13 @@
         <v>235</v>
       </c>
       <c r="B236" t="s">
-        <v>230</v>
+        <v>239</v>
       </c>
       <c r="C236" t="s">
-        <v>358</v>
+        <v>354</v>
       </c>
       <c r="D236" t="s">
-        <v>366</v>
+        <v>383</v>
       </c>
     </row>
     <row r="237" spans="1:4">
@@ -9815,13 +9815,13 @@
         <v>236</v>
       </c>
       <c r="B237" t="s">
-        <v>213</v>
+        <v>223</v>
       </c>
       <c r="C237" t="s">
-        <v>357</v>
+        <v>354</v>
       </c>
       <c r="D237" t="s">
-        <v>388</v>
+        <v>370</v>
       </c>
     </row>
     <row r="238" spans="1:4">
@@ -9843,13 +9843,13 @@
         <v>238</v>
       </c>
       <c r="B239" t="s">
-        <v>222</v>
+        <v>228</v>
       </c>
       <c r="C239" t="s">
         <v>354</v>
       </c>
       <c r="D239" t="s">
-        <v>370</v>
+        <v>378</v>
       </c>
     </row>
     <row r="240" spans="1:4">
@@ -9871,13 +9871,13 @@
         <v>240</v>
       </c>
       <c r="B241" t="s">
-        <v>239</v>
+        <v>238</v>
       </c>
       <c r="C241" t="s">
         <v>359</v>
       </c>
       <c r="D241" t="s">
-        <v>376</v>
+        <v>377</v>
       </c>
     </row>
     <row r="242" spans="1:4">
@@ -9885,7 +9885,7 @@
         <v>241</v>
       </c>
       <c r="B242" t="s">
-        <v>235</v>
+        <v>234</v>
       </c>
       <c r="C242" t="s">
         <v>359</v>
@@ -9899,7 +9899,7 @@
         <v>242</v>
       </c>
       <c r="B243" t="s">
-        <v>245</v>
+        <v>244</v>
       </c>
       <c r="C243" t="s">
         <v>359</v>
@@ -9927,7 +9927,7 @@
         <v>244</v>
       </c>
       <c r="B245" t="s">
-        <v>250</v>
+        <v>249</v>
       </c>
       <c r="C245" t="s">
         <v>359</v>
@@ -9969,13 +9969,13 @@
         <v>247</v>
       </c>
       <c r="B248" t="s">
-        <v>253</v>
+        <v>256</v>
       </c>
       <c r="C248" t="s">
         <v>358</v>
       </c>
       <c r="D248" t="s">
-        <v>365</v>
+        <v>362</v>
       </c>
     </row>
     <row r="249" spans="1:4">
@@ -9983,13 +9983,13 @@
         <v>248</v>
       </c>
       <c r="B249" t="s">
-        <v>256</v>
+        <v>253</v>
       </c>
       <c r="C249" t="s">
         <v>358</v>
       </c>
       <c r="D249" t="s">
-        <v>362</v>
+        <v>365</v>
       </c>
     </row>
     <row r="250" spans="1:4">
@@ -9997,13 +9997,13 @@
         <v>249</v>
       </c>
       <c r="B250" t="s">
-        <v>249</v>
+        <v>259</v>
       </c>
       <c r="C250" t="s">
-        <v>354</v>
+        <v>359</v>
       </c>
       <c r="D250" t="s">
-        <v>361</v>
+        <v>364</v>
       </c>
     </row>
     <row r="251" spans="1:4">
@@ -10011,13 +10011,13 @@
         <v>250</v>
       </c>
       <c r="B251" t="s">
-        <v>259</v>
+        <v>255</v>
       </c>
       <c r="C251" t="s">
-        <v>359</v>
+        <v>358</v>
       </c>
       <c r="D251" t="s">
-        <v>364</v>
+        <v>383</v>
       </c>
     </row>
     <row r="252" spans="1:4">
@@ -10025,13 +10025,13 @@
         <v>251</v>
       </c>
       <c r="B252" t="s">
-        <v>255</v>
+        <v>246</v>
       </c>
       <c r="C252" t="s">
-        <v>358</v>
+        <v>356</v>
       </c>
       <c r="D252" t="s">
-        <v>383</v>
+        <v>391</v>
       </c>
     </row>
     <row r="253" spans="1:4">
@@ -10039,13 +10039,13 @@
         <v>252</v>
       </c>
       <c r="B253" t="s">
-        <v>247</v>
+        <v>250</v>
       </c>
       <c r="C253" t="s">
-        <v>356</v>
+        <v>354</v>
       </c>
       <c r="D253" t="s">
-        <v>391</v>
+        <v>361</v>
       </c>
     </row>
     <row r="254" spans="1:4">
@@ -10053,13 +10053,13 @@
         <v>253</v>
       </c>
       <c r="B254" t="s">
-        <v>244</v>
+        <v>258</v>
       </c>
       <c r="C254" t="s">
-        <v>354</v>
+        <v>355</v>
       </c>
       <c r="D254" t="s">
-        <v>367</v>
+        <v>376</v>
       </c>
     </row>
     <row r="255" spans="1:4">
@@ -10067,13 +10067,13 @@
         <v>254</v>
       </c>
       <c r="B255" t="s">
-        <v>258</v>
+        <v>245</v>
       </c>
       <c r="C255" t="s">
-        <v>355</v>
+        <v>354</v>
       </c>
       <c r="D255" t="s">
-        <v>377</v>
+        <v>367</v>
       </c>
     </row>
     <row r="256" spans="1:4">
@@ -10081,7 +10081,7 @@
         <v>255</v>
       </c>
       <c r="B256" t="s">
-        <v>264</v>
+        <v>265</v>
       </c>
       <c r="C256" t="s">
         <v>355</v>
@@ -10109,13 +10109,13 @@
         <v>257</v>
       </c>
       <c r="B258" t="s">
-        <v>271</v>
+        <v>251</v>
       </c>
       <c r="C258" t="s">
-        <v>355</v>
+        <v>357</v>
       </c>
       <c r="D258" t="s">
-        <v>388</v>
+        <v>366</v>
       </c>
     </row>
     <row r="259" spans="1:4">
@@ -10137,13 +10137,13 @@
         <v>259</v>
       </c>
       <c r="B260" t="s">
-        <v>252</v>
+        <v>272</v>
       </c>
       <c r="C260" t="s">
-        <v>357</v>
+        <v>355</v>
       </c>
       <c r="D260" t="s">
-        <v>366</v>
+        <v>388</v>
       </c>
     </row>
     <row r="261" spans="1:4">
@@ -10185,7 +10185,7 @@
         <v>355</v>
       </c>
       <c r="D263" t="s">
-        <v>377</v>
+        <v>376</v>
       </c>
     </row>
     <row r="264" spans="1:4">
@@ -10193,7 +10193,7 @@
         <v>263</v>
       </c>
       <c r="B264" t="s">
-        <v>251</v>
+        <v>252</v>
       </c>
       <c r="C264" t="s">
         <v>354</v>
@@ -10221,13 +10221,13 @@
         <v>265</v>
       </c>
       <c r="B266" t="s">
-        <v>273</v>
+        <v>269</v>
       </c>
       <c r="C266" t="s">
         <v>359</v>
       </c>
       <c r="D266" t="s">
-        <v>366</v>
+        <v>376</v>
       </c>
     </row>
     <row r="267" spans="1:4">
@@ -10235,13 +10235,13 @@
         <v>266</v>
       </c>
       <c r="B267" t="s">
-        <v>270</v>
+        <v>273</v>
       </c>
       <c r="C267" t="s">
         <v>359</v>
       </c>
       <c r="D267" t="s">
-        <v>377</v>
+        <v>366</v>
       </c>
     </row>
     <row r="268" spans="1:4">
@@ -10249,13 +10249,13 @@
         <v>267</v>
       </c>
       <c r="B268" t="s">
-        <v>269</v>
+        <v>274</v>
       </c>
       <c r="C268" t="s">
         <v>355</v>
       </c>
       <c r="D268" t="s">
-        <v>361</v>
+        <v>391</v>
       </c>
     </row>
     <row r="269" spans="1:4">
@@ -10263,13 +10263,13 @@
         <v>268</v>
       </c>
       <c r="B269" t="s">
-        <v>274</v>
+        <v>270</v>
       </c>
       <c r="C269" t="s">
         <v>355</v>
       </c>
       <c r="D269" t="s">
-        <v>391</v>
+        <v>361</v>
       </c>
     </row>
     <row r="270" spans="1:4">
@@ -10277,7 +10277,7 @@
         <v>269</v>
       </c>
       <c r="B270" t="s">
-        <v>272</v>
+        <v>271</v>
       </c>
       <c r="C270" t="s">
         <v>359</v>
@@ -10389,7 +10389,7 @@
         <v>277</v>
       </c>
       <c r="B278" t="s">
-        <v>265</v>
+        <v>264</v>
       </c>
       <c r="C278" t="s">
         <v>356</v>
@@ -10403,7 +10403,7 @@
         <v>278</v>
       </c>
       <c r="B279" t="s">
-        <v>277</v>
+        <v>276</v>
       </c>
       <c r="C279" t="s">
         <v>357</v>
@@ -10417,7 +10417,7 @@
         <v>279</v>
       </c>
       <c r="B280" t="s">
-        <v>276</v>
+        <v>277</v>
       </c>
       <c r="C280" t="s">
         <v>354</v>
@@ -10431,7 +10431,7 @@
         <v>280</v>
       </c>
       <c r="B281" t="s">
-        <v>309</v>
+        <v>310</v>
       </c>
       <c r="C281" t="s">
         <v>358</v>
@@ -10445,13 +10445,13 @@
         <v>281</v>
       </c>
       <c r="B282" t="s">
-        <v>284</v>
+        <v>297</v>
       </c>
       <c r="C282" t="s">
-        <v>354</v>
+        <v>359</v>
       </c>
       <c r="D282" t="s">
-        <v>381</v>
+        <v>362</v>
       </c>
     </row>
     <row r="283" spans="1:4">
@@ -10459,13 +10459,13 @@
         <v>282</v>
       </c>
       <c r="B283" t="s">
-        <v>292</v>
+        <v>283</v>
       </c>
       <c r="C283" t="s">
         <v>354</v>
       </c>
       <c r="D283" t="s">
-        <v>375</v>
+        <v>381</v>
       </c>
     </row>
     <row r="284" spans="1:4">
@@ -10473,13 +10473,13 @@
         <v>283</v>
       </c>
       <c r="B284" t="s">
-        <v>297</v>
+        <v>304</v>
       </c>
       <c r="C284" t="s">
-        <v>359</v>
+        <v>358</v>
       </c>
       <c r="D284" t="s">
-        <v>362</v>
+        <v>388</v>
       </c>
     </row>
     <row r="285" spans="1:4">
@@ -10487,13 +10487,13 @@
         <v>284</v>
       </c>
       <c r="B285" t="s">
-        <v>306</v>
+        <v>293</v>
       </c>
       <c r="C285" t="s">
-        <v>358</v>
+        <v>354</v>
       </c>
       <c r="D285" t="s">
-        <v>388</v>
+        <v>375</v>
       </c>
     </row>
     <row r="286" spans="1:4">
@@ -10529,7 +10529,7 @@
         <v>287</v>
       </c>
       <c r="B288" t="s">
-        <v>290</v>
+        <v>291</v>
       </c>
       <c r="C288" t="s">
         <v>354</v>
@@ -10543,13 +10543,13 @@
         <v>288</v>
       </c>
       <c r="B289" t="s">
-        <v>302</v>
+        <v>301</v>
       </c>
       <c r="C289" t="s">
-        <v>354</v>
+        <v>359</v>
       </c>
       <c r="D289" t="s">
-        <v>365</v>
+        <v>387</v>
       </c>
     </row>
     <row r="290" spans="1:4">
@@ -10557,13 +10557,13 @@
         <v>289</v>
       </c>
       <c r="B290" t="s">
-        <v>301</v>
+        <v>280</v>
       </c>
       <c r="C290" t="s">
-        <v>359</v>
+        <v>356</v>
       </c>
       <c r="D290" t="s">
-        <v>387</v>
+        <v>388</v>
       </c>
     </row>
     <row r="291" spans="1:4">
@@ -10571,13 +10571,13 @@
         <v>290</v>
       </c>
       <c r="B291" t="s">
-        <v>280</v>
+        <v>302</v>
       </c>
       <c r="C291" t="s">
-        <v>356</v>
+        <v>354</v>
       </c>
       <c r="D291" t="s">
-        <v>388</v>
+        <v>365</v>
       </c>
     </row>
     <row r="292" spans="1:4">
@@ -10588,10 +10588,10 @@
         <v>288</v>
       </c>
       <c r="C292" t="s">
-        <v>355</v>
+        <v>357</v>
       </c>
       <c r="D292" t="s">
-        <v>369</v>
+        <v>389</v>
       </c>
     </row>
     <row r="293" spans="1:4">
@@ -10599,13 +10599,13 @@
         <v>292</v>
       </c>
       <c r="B293" t="s">
-        <v>289</v>
+        <v>290</v>
       </c>
       <c r="C293" t="s">
-        <v>357</v>
+        <v>355</v>
       </c>
       <c r="D293" t="s">
-        <v>389</v>
+        <v>369</v>
       </c>
     </row>
     <row r="294" spans="1:4">
@@ -10641,13 +10641,13 @@
         <v>295</v>
       </c>
       <c r="B296" t="s">
-        <v>283</v>
+        <v>289</v>
       </c>
       <c r="C296" t="s">
-        <v>354</v>
+        <v>355</v>
       </c>
       <c r="D296" t="s">
-        <v>384</v>
+        <v>362</v>
       </c>
     </row>
     <row r="297" spans="1:4">
@@ -10655,13 +10655,13 @@
         <v>296</v>
       </c>
       <c r="B297" t="s">
-        <v>291</v>
+        <v>284</v>
       </c>
       <c r="C297" t="s">
-        <v>355</v>
+        <v>354</v>
       </c>
       <c r="D297" t="s">
-        <v>362</v>
+        <v>384</v>
       </c>
     </row>
     <row r="298" spans="1:4">
@@ -10697,7 +10697,7 @@
         <v>299</v>
       </c>
       <c r="B300" t="s">
-        <v>294</v>
+        <v>292</v>
       </c>
       <c r="C300" t="s">
         <v>357</v>
@@ -10739,13 +10739,13 @@
         <v>302</v>
       </c>
       <c r="B303" t="s">
-        <v>307</v>
+        <v>294</v>
       </c>
       <c r="C303" t="s">
-        <v>354</v>
+        <v>356</v>
       </c>
       <c r="D303" t="s">
-        <v>368</v>
+        <v>383</v>
       </c>
     </row>
     <row r="304" spans="1:4">
@@ -10753,13 +10753,13 @@
         <v>303</v>
       </c>
       <c r="B304" t="s">
-        <v>293</v>
+        <v>319</v>
       </c>
       <c r="C304" t="s">
-        <v>356</v>
+        <v>358</v>
       </c>
       <c r="D304" t="s">
-        <v>383</v>
+        <v>386</v>
       </c>
     </row>
     <row r="305" spans="1:4">
@@ -10767,13 +10767,13 @@
         <v>304</v>
       </c>
       <c r="B305" t="s">
-        <v>308</v>
+        <v>307</v>
       </c>
       <c r="C305" t="s">
-        <v>355</v>
+        <v>354</v>
       </c>
       <c r="D305" t="s">
-        <v>373</v>
+        <v>368</v>
       </c>
     </row>
     <row r="306" spans="1:4">
@@ -10781,13 +10781,13 @@
         <v>305</v>
       </c>
       <c r="B306" t="s">
-        <v>319</v>
+        <v>309</v>
       </c>
       <c r="C306" t="s">
-        <v>358</v>
+        <v>355</v>
       </c>
       <c r="D306" t="s">
-        <v>386</v>
+        <v>373</v>
       </c>
     </row>
     <row r="307" spans="1:4">
@@ -10809,7 +10809,7 @@
         <v>307</v>
       </c>
       <c r="B308" t="s">
-        <v>304</v>
+        <v>306</v>
       </c>
       <c r="C308" t="s">
         <v>355</v>
@@ -10823,13 +10823,13 @@
         <v>308</v>
       </c>
       <c r="B309" t="s">
-        <v>311</v>
+        <v>308</v>
       </c>
       <c r="C309" t="s">
         <v>356</v>
       </c>
       <c r="D309" t="s">
-        <v>388</v>
+        <v>371</v>
       </c>
     </row>
     <row r="310" spans="1:4">
@@ -10837,13 +10837,13 @@
         <v>309</v>
       </c>
       <c r="B310" t="s">
-        <v>310</v>
+        <v>311</v>
       </c>
       <c r="C310" t="s">
         <v>356</v>
       </c>
       <c r="D310" t="s">
-        <v>371</v>
+        <v>388</v>
       </c>
     </row>
     <row r="311" spans="1:4">
@@ -10851,13 +10851,13 @@
         <v>310</v>
       </c>
       <c r="B311" t="s">
-        <v>314</v>
+        <v>298</v>
       </c>
       <c r="C311" t="s">
-        <v>354</v>
+        <v>356</v>
       </c>
       <c r="D311" t="s">
-        <v>362</v>
+        <v>380</v>
       </c>
     </row>
     <row r="312" spans="1:4">
@@ -10865,13 +10865,13 @@
         <v>311</v>
       </c>
       <c r="B312" t="s">
-        <v>298</v>
+        <v>315</v>
       </c>
       <c r="C312" t="s">
-        <v>356</v>
+        <v>354</v>
       </c>
       <c r="D312" t="s">
-        <v>380</v>
+        <v>362</v>
       </c>
     </row>
     <row r="313" spans="1:4">
@@ -10935,7 +10935,7 @@
         <v>316</v>
       </c>
       <c r="B317" t="s">
-        <v>321</v>
+        <v>320</v>
       </c>
       <c r="C317" t="s">
         <v>355</v>
@@ -10991,7 +10991,7 @@
         <v>320</v>
       </c>
       <c r="B321" t="s">
-        <v>330</v>
+        <v>331</v>
       </c>
       <c r="C321" t="s">
         <v>354</v>
@@ -11005,7 +11005,7 @@
         <v>321</v>
       </c>
       <c r="B322" t="s">
-        <v>320</v>
+        <v>321</v>
       </c>
       <c r="C322" t="s">
         <v>354</v>
@@ -11033,7 +11033,7 @@
         <v>323</v>
       </c>
       <c r="B324" t="s">
-        <v>331</v>
+        <v>329</v>
       </c>
       <c r="C324" t="s">
         <v>355</v>
@@ -11061,7 +11061,7 @@
         <v>325</v>
       </c>
       <c r="B326" t="s">
-        <v>315</v>
+        <v>314</v>
       </c>
       <c r="C326" t="s">
         <v>354</v>
@@ -11075,13 +11075,13 @@
         <v>326</v>
       </c>
       <c r="B327" t="s">
-        <v>337</v>
+        <v>328</v>
       </c>
       <c r="C327" t="s">
-        <v>354</v>
+        <v>357</v>
       </c>
       <c r="D327" t="s">
-        <v>381</v>
+        <v>378</v>
       </c>
     </row>
     <row r="328" spans="1:4">
@@ -11089,13 +11089,13 @@
         <v>327</v>
       </c>
       <c r="B328" t="s">
-        <v>328</v>
+        <v>337</v>
       </c>
       <c r="C328" t="s">
-        <v>357</v>
+        <v>354</v>
       </c>
       <c r="D328" t="s">
-        <v>378</v>
+        <v>381</v>
       </c>
     </row>
     <row r="329" spans="1:4">
@@ -11103,7 +11103,7 @@
         <v>328</v>
       </c>
       <c r="B329" t="s">
-        <v>334</v>
+        <v>333</v>
       </c>
       <c r="C329" t="s">
         <v>355</v>
@@ -11117,13 +11117,13 @@
         <v>329</v>
       </c>
       <c r="B330" t="s">
-        <v>345</v>
+        <v>341</v>
       </c>
       <c r="C330" t="s">
         <v>354</v>
       </c>
       <c r="D330" t="s">
-        <v>367</v>
+        <v>391</v>
       </c>
     </row>
     <row r="331" spans="1:4">
@@ -11131,13 +11131,13 @@
         <v>330</v>
       </c>
       <c r="B331" t="s">
-        <v>341</v>
+        <v>345</v>
       </c>
       <c r="C331" t="s">
         <v>354</v>
       </c>
       <c r="D331" t="s">
-        <v>391</v>
+        <v>367</v>
       </c>
     </row>
     <row r="332" spans="1:4">
@@ -11145,13 +11145,13 @@
         <v>331</v>
       </c>
       <c r="B332" t="s">
-        <v>338</v>
+        <v>326</v>
       </c>
       <c r="C332" t="s">
-        <v>354</v>
+        <v>356</v>
       </c>
       <c r="D332" t="s">
-        <v>386</v>
+        <v>377</v>
       </c>
     </row>
     <row r="333" spans="1:4">
@@ -11159,13 +11159,13 @@
         <v>332</v>
       </c>
       <c r="B333" t="s">
-        <v>326</v>
+        <v>338</v>
       </c>
       <c r="C333" t="s">
-        <v>356</v>
+        <v>354</v>
       </c>
       <c r="D333" t="s">
-        <v>376</v>
+        <v>386</v>
       </c>
     </row>
     <row r="334" spans="1:4">
@@ -11187,7 +11187,7 @@
         <v>334</v>
       </c>
       <c r="B335" t="s">
-        <v>343</v>
+        <v>344</v>
       </c>
       <c r="C335" t="s">
         <v>354</v>
@@ -11204,10 +11204,10 @@
         <v>332</v>
       </c>
       <c r="C336" t="s">
-        <v>359</v>
+        <v>356</v>
       </c>
       <c r="D336" t="s">
-        <v>379</v>
+        <v>367</v>
       </c>
     </row>
     <row r="337" spans="1:4">
@@ -11218,10 +11218,10 @@
         <v>335</v>
       </c>
       <c r="C337" t="s">
-        <v>356</v>
+        <v>359</v>
       </c>
       <c r="D337" t="s">
-        <v>367</v>
+        <v>379</v>
       </c>
     </row>
     <row r="338" spans="1:4">
@@ -11229,13 +11229,13 @@
         <v>337</v>
       </c>
       <c r="B338" t="s">
-        <v>333</v>
+        <v>342</v>
       </c>
       <c r="C338" t="s">
-        <v>354</v>
+        <v>358</v>
       </c>
       <c r="D338" t="s">
-        <v>360</v>
+        <v>375</v>
       </c>
     </row>
     <row r="339" spans="1:4">
@@ -11243,13 +11243,13 @@
         <v>338</v>
       </c>
       <c r="B339" t="s">
-        <v>347</v>
+        <v>334</v>
       </c>
       <c r="C339" t="s">
         <v>354</v>
       </c>
       <c r="D339" t="s">
-        <v>387</v>
+        <v>360</v>
       </c>
     </row>
     <row r="340" spans="1:4">
@@ -11257,13 +11257,13 @@
         <v>339</v>
       </c>
       <c r="B340" t="s">
-        <v>342</v>
+        <v>347</v>
       </c>
       <c r="C340" t="s">
-        <v>358</v>
+        <v>354</v>
       </c>
       <c r="D340" t="s">
-        <v>375</v>
+        <v>387</v>
       </c>
     </row>
     <row r="341" spans="1:4">
@@ -11313,13 +11313,13 @@
         <v>343</v>
       </c>
       <c r="B344" t="s">
-        <v>329</v>
+        <v>343</v>
       </c>
       <c r="C344" t="s">
-        <v>356</v>
+        <v>357</v>
       </c>
       <c r="D344" t="s">
-        <v>369</v>
+        <v>382</v>
       </c>
     </row>
     <row r="345" spans="1:4">
@@ -11341,13 +11341,13 @@
         <v>345</v>
       </c>
       <c r="B346" t="s">
-        <v>344</v>
+        <v>340</v>
       </c>
       <c r="C346" t="s">
-        <v>357</v>
+        <v>356</v>
       </c>
       <c r="D346" t="s">
-        <v>382</v>
+        <v>364</v>
       </c>
     </row>
     <row r="347" spans="1:4">
@@ -11355,13 +11355,13 @@
         <v>346</v>
       </c>
       <c r="B347" t="s">
-        <v>340</v>
+        <v>330</v>
       </c>
       <c r="C347" t="s">
         <v>356</v>
       </c>
       <c r="D347" t="s">
-        <v>364</v>
+        <v>369</v>
       </c>
     </row>
     <row r="348" spans="1:4">
@@ -11680,13 +11680,13 @@
         <v>17</v>
       </c>
       <c r="B18" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="C18" t="s">
         <v>354</v>
       </c>
       <c r="D18" t="s">
-        <v>377</v>
+        <v>376</v>
       </c>
     </row>
     <row r="19" spans="1:4">
@@ -11750,13 +11750,13 @@
         <v>22</v>
       </c>
       <c r="B23" t="s">
-        <v>22</v>
+        <v>23</v>
       </c>
       <c r="C23" t="s">
         <v>354</v>
       </c>
       <c r="D23" t="s">
-        <v>376</v>
+        <v>377</v>
       </c>
     </row>
     <row r="24" spans="1:4">
@@ -11792,7 +11792,7 @@
         <v>25</v>
       </c>
       <c r="B26" t="s">
-        <v>33</v>
+        <v>34</v>
       </c>
       <c r="C26" t="s">
         <v>355</v>
@@ -11904,7 +11904,7 @@
         <v>33</v>
       </c>
       <c r="B34" t="s">
-        <v>34</v>
+        <v>33</v>
       </c>
       <c r="C34" t="s">
         <v>354</v>
@@ -11918,13 +11918,13 @@
         <v>34</v>
       </c>
       <c r="B35" t="s">
-        <v>41</v>
+        <v>35</v>
       </c>
       <c r="C35" t="s">
-        <v>354</v>
+        <v>357</v>
       </c>
       <c r="D35" t="s">
-        <v>386</v>
+        <v>374</v>
       </c>
     </row>
     <row r="36" spans="1:4">
@@ -11932,13 +11932,13 @@
         <v>35</v>
       </c>
       <c r="B36" t="s">
-        <v>35</v>
+        <v>41</v>
       </c>
       <c r="C36" t="s">
-        <v>357</v>
+        <v>354</v>
       </c>
       <c r="D36" t="s">
-        <v>374</v>
+        <v>386</v>
       </c>
     </row>
     <row r="37" spans="1:4">
@@ -11966,7 +11966,7 @@
         <v>355</v>
       </c>
       <c r="D38" t="s">
-        <v>376</v>
+        <v>377</v>
       </c>
     </row>
     <row r="39" spans="1:4">
@@ -11988,13 +11988,13 @@
         <v>39</v>
       </c>
       <c r="B40" t="s">
-        <v>48</v>
+        <v>44</v>
       </c>
       <c r="C40" t="s">
-        <v>355</v>
+        <v>354</v>
       </c>
       <c r="D40" t="s">
-        <v>381</v>
+        <v>387</v>
       </c>
     </row>
     <row r="41" spans="1:4">
@@ -12002,13 +12002,13 @@
         <v>40</v>
       </c>
       <c r="B41" t="s">
-        <v>44</v>
+        <v>48</v>
       </c>
       <c r="C41" t="s">
-        <v>354</v>
+        <v>355</v>
       </c>
       <c r="D41" t="s">
-        <v>387</v>
+        <v>381</v>
       </c>
     </row>
     <row r="42" spans="1:4">
@@ -12058,13 +12058,13 @@
         <v>44</v>
       </c>
       <c r="B45" t="s">
-        <v>45</v>
+        <v>51</v>
       </c>
       <c r="C45" t="s">
-        <v>354</v>
+        <v>355</v>
       </c>
       <c r="D45" t="s">
-        <v>388</v>
+        <v>368</v>
       </c>
     </row>
     <row r="46" spans="1:4">
@@ -12072,13 +12072,13 @@
         <v>45</v>
       </c>
       <c r="B46" t="s">
-        <v>51</v>
+        <v>45</v>
       </c>
       <c r="C46" t="s">
-        <v>355</v>
+        <v>354</v>
       </c>
       <c r="D46" t="s">
-        <v>368</v>
+        <v>388</v>
       </c>
     </row>
     <row r="47" spans="1:4">
@@ -12086,13 +12086,13 @@
         <v>46</v>
       </c>
       <c r="B47" t="s">
-        <v>52</v>
+        <v>53</v>
       </c>
       <c r="C47" t="s">
         <v>354</v>
       </c>
       <c r="D47" t="s">
-        <v>377</v>
+        <v>376</v>
       </c>
     </row>
     <row r="48" spans="1:4">
@@ -12100,7 +12100,7 @@
         <v>47</v>
       </c>
       <c r="B48" t="s">
-        <v>57</v>
+        <v>56</v>
       </c>
       <c r="C48" t="s">
         <v>357</v>
@@ -12114,13 +12114,13 @@
         <v>48</v>
       </c>
       <c r="B49" t="s">
-        <v>47</v>
+        <v>57</v>
       </c>
       <c r="C49" t="s">
-        <v>354</v>
+        <v>357</v>
       </c>
       <c r="D49" t="s">
-        <v>368</v>
+        <v>373</v>
       </c>
     </row>
     <row r="50" spans="1:4">
@@ -12128,13 +12128,13 @@
         <v>49</v>
       </c>
       <c r="B50" t="s">
-        <v>58</v>
+        <v>47</v>
       </c>
       <c r="C50" t="s">
-        <v>357</v>
+        <v>354</v>
       </c>
       <c r="D50" t="s">
-        <v>373</v>
+        <v>368</v>
       </c>
     </row>
     <row r="51" spans="1:4">
@@ -12156,13 +12156,13 @@
         <v>51</v>
       </c>
       <c r="B52" t="s">
-        <v>81</v>
+        <v>49</v>
       </c>
       <c r="C52" t="s">
-        <v>354</v>
+        <v>355</v>
       </c>
       <c r="D52" t="s">
-        <v>381</v>
+        <v>389</v>
       </c>
     </row>
     <row r="53" spans="1:4">
@@ -12170,13 +12170,13 @@
         <v>52</v>
       </c>
       <c r="B53" t="s">
-        <v>49</v>
+        <v>81</v>
       </c>
       <c r="C53" t="s">
-        <v>355</v>
+        <v>354</v>
       </c>
       <c r="D53" t="s">
-        <v>389</v>
+        <v>381</v>
       </c>
     </row>
     <row r="54" spans="1:4">
@@ -12184,13 +12184,13 @@
         <v>53</v>
       </c>
       <c r="B54" t="s">
-        <v>56</v>
+        <v>52</v>
       </c>
       <c r="C54" t="s">
-        <v>355</v>
+        <v>356</v>
       </c>
       <c r="D54" t="s">
-        <v>383</v>
+        <v>378</v>
       </c>
     </row>
     <row r="55" spans="1:4">
@@ -12198,13 +12198,13 @@
         <v>54</v>
       </c>
       <c r="B55" t="s">
-        <v>53</v>
+        <v>58</v>
       </c>
       <c r="C55" t="s">
-        <v>356</v>
+        <v>355</v>
       </c>
       <c r="D55" t="s">
-        <v>378</v>
+        <v>383</v>
       </c>
     </row>
     <row r="56" spans="1:4">
@@ -12226,13 +12226,13 @@
         <v>56</v>
       </c>
       <c r="B57" t="s">
-        <v>61</v>
+        <v>60</v>
       </c>
       <c r="C57" t="s">
-        <v>355</v>
+        <v>354</v>
       </c>
       <c r="D57" t="s">
-        <v>387</v>
+        <v>375</v>
       </c>
     </row>
     <row r="58" spans="1:4">
@@ -12240,13 +12240,13 @@
         <v>57</v>
       </c>
       <c r="B58" t="s">
-        <v>60</v>
+        <v>61</v>
       </c>
       <c r="C58" t="s">
-        <v>354</v>
+        <v>355</v>
       </c>
       <c r="D58" t="s">
-        <v>375</v>
+        <v>387</v>
       </c>
     </row>
     <row r="59" spans="1:4">
@@ -12254,7 +12254,7 @@
         <v>58</v>
       </c>
       <c r="B59" t="s">
-        <v>72</v>
+        <v>73</v>
       </c>
       <c r="C59" t="s">
         <v>355</v>
@@ -12296,7 +12296,7 @@
         <v>61</v>
       </c>
       <c r="B62" t="s">
-        <v>73</v>
+        <v>72</v>
       </c>
       <c r="C62" t="s">
         <v>355</v>
@@ -12316,7 +12316,7 @@
         <v>355</v>
       </c>
       <c r="D63" t="s">
-        <v>376</v>
+        <v>377</v>
       </c>
     </row>
     <row r="64" spans="1:4">
@@ -12352,13 +12352,13 @@
         <v>65</v>
       </c>
       <c r="B66" t="s">
-        <v>62</v>
+        <v>66</v>
       </c>
       <c r="C66" t="s">
-        <v>354</v>
+        <v>357</v>
       </c>
       <c r="D66" t="s">
-        <v>373</v>
+        <v>383</v>
       </c>
     </row>
     <row r="67" spans="1:4">
@@ -12380,13 +12380,13 @@
         <v>67</v>
       </c>
       <c r="B68" t="s">
-        <v>66</v>
+        <v>74</v>
       </c>
       <c r="C68" t="s">
-        <v>357</v>
+        <v>355</v>
       </c>
       <c r="D68" t="s">
-        <v>383</v>
+        <v>370</v>
       </c>
     </row>
     <row r="69" spans="1:4">
@@ -12394,13 +12394,13 @@
         <v>68</v>
       </c>
       <c r="B69" t="s">
-        <v>74</v>
+        <v>62</v>
       </c>
       <c r="C69" t="s">
-        <v>355</v>
+        <v>354</v>
       </c>
       <c r="D69" t="s">
-        <v>370</v>
+        <v>373</v>
       </c>
     </row>
     <row r="70" spans="1:4">
@@ -12422,13 +12422,13 @@
         <v>70</v>
       </c>
       <c r="B71" t="s">
-        <v>69</v>
+        <v>46</v>
       </c>
       <c r="C71" t="s">
-        <v>354</v>
+        <v>355</v>
       </c>
       <c r="D71" t="s">
-        <v>390</v>
+        <v>374</v>
       </c>
     </row>
     <row r="72" spans="1:4">
@@ -12436,13 +12436,13 @@
         <v>71</v>
       </c>
       <c r="B72" t="s">
-        <v>46</v>
+        <v>70</v>
       </c>
       <c r="C72" t="s">
-        <v>355</v>
+        <v>354</v>
       </c>
       <c r="D72" t="s">
-        <v>374</v>
+        <v>390</v>
       </c>
     </row>
     <row r="73" spans="1:4">
@@ -12450,7 +12450,7 @@
         <v>72</v>
       </c>
       <c r="B73" t="s">
-        <v>95</v>
+        <v>94</v>
       </c>
       <c r="C73" t="s">
         <v>354</v>
@@ -12464,13 +12464,13 @@
         <v>73</v>
       </c>
       <c r="B74" t="s">
-        <v>71</v>
+        <v>96</v>
       </c>
       <c r="C74" t="s">
-        <v>355</v>
+        <v>354</v>
       </c>
       <c r="D74" t="s">
-        <v>388</v>
+        <v>367</v>
       </c>
     </row>
     <row r="75" spans="1:4">
@@ -12478,13 +12478,13 @@
         <v>74</v>
       </c>
       <c r="B75" t="s">
-        <v>97</v>
+        <v>71</v>
       </c>
       <c r="C75" t="s">
-        <v>354</v>
+        <v>355</v>
       </c>
       <c r="D75" t="s">
-        <v>367</v>
+        <v>388</v>
       </c>
     </row>
     <row r="76" spans="1:4">
@@ -12506,13 +12506,13 @@
         <v>76</v>
       </c>
       <c r="B77" t="s">
-        <v>87</v>
+        <v>79</v>
       </c>
       <c r="C77" t="s">
-        <v>354</v>
+        <v>357</v>
       </c>
       <c r="D77" t="s">
-        <v>391</v>
+        <v>365</v>
       </c>
     </row>
     <row r="78" spans="1:4">
@@ -12520,13 +12520,13 @@
         <v>77</v>
       </c>
       <c r="B78" t="s">
-        <v>79</v>
+        <v>78</v>
       </c>
       <c r="C78" t="s">
-        <v>357</v>
+        <v>355</v>
       </c>
       <c r="D78" t="s">
-        <v>365</v>
+        <v>363</v>
       </c>
     </row>
     <row r="79" spans="1:4">
@@ -12534,13 +12534,13 @@
         <v>78</v>
       </c>
       <c r="B79" t="s">
-        <v>78</v>
+        <v>87</v>
       </c>
       <c r="C79" t="s">
-        <v>355</v>
+        <v>354</v>
       </c>
       <c r="D79" t="s">
-        <v>363</v>
+        <v>391</v>
       </c>
     </row>
     <row r="80" spans="1:4">
@@ -12576,13 +12576,13 @@
         <v>81</v>
       </c>
       <c r="B82" t="s">
-        <v>100</v>
+        <v>84</v>
       </c>
       <c r="C82" t="s">
         <v>354</v>
       </c>
       <c r="D82" t="s">
-        <v>382</v>
+        <v>384</v>
       </c>
     </row>
     <row r="83" spans="1:4">
@@ -12590,13 +12590,13 @@
         <v>82</v>
       </c>
       <c r="B83" t="s">
-        <v>84</v>
+        <v>69</v>
       </c>
       <c r="C83" t="s">
         <v>354</v>
       </c>
       <c r="D83" t="s">
-        <v>384</v>
+        <v>391</v>
       </c>
     </row>
     <row r="84" spans="1:4">
@@ -12604,13 +12604,13 @@
         <v>83</v>
       </c>
       <c r="B84" t="s">
-        <v>70</v>
+        <v>100</v>
       </c>
       <c r="C84" t="s">
         <v>354</v>
       </c>
       <c r="D84" t="s">
-        <v>391</v>
+        <v>382</v>
       </c>
     </row>
     <row r="85" spans="1:4">
@@ -12624,7 +12624,7 @@
         <v>357</v>
       </c>
       <c r="D85" t="s">
-        <v>376</v>
+        <v>377</v>
       </c>
     </row>
     <row r="86" spans="1:4">
@@ -12660,7 +12660,7 @@
         <v>87</v>
       </c>
       <c r="B88" t="s">
-        <v>96</v>
+        <v>95</v>
       </c>
       <c r="C88" t="s">
         <v>354</v>
@@ -12674,13 +12674,13 @@
         <v>88</v>
       </c>
       <c r="B89" t="s">
-        <v>98</v>
+        <v>82</v>
       </c>
       <c r="C89" t="s">
         <v>355</v>
       </c>
       <c r="D89" t="s">
-        <v>375</v>
+        <v>378</v>
       </c>
     </row>
     <row r="90" spans="1:4">
@@ -12688,13 +12688,13 @@
         <v>89</v>
       </c>
       <c r="B90" t="s">
-        <v>82</v>
+        <v>90</v>
       </c>
       <c r="C90" t="s">
         <v>355</v>
       </c>
       <c r="D90" t="s">
-        <v>378</v>
+        <v>386</v>
       </c>
     </row>
     <row r="91" spans="1:4">
@@ -12702,13 +12702,13 @@
         <v>90</v>
       </c>
       <c r="B91" t="s">
-        <v>90</v>
+        <v>98</v>
       </c>
       <c r="C91" t="s">
         <v>355</v>
       </c>
       <c r="D91" t="s">
-        <v>386</v>
+        <v>375</v>
       </c>
     </row>
     <row r="92" spans="1:4">
@@ -12716,7 +12716,7 @@
         <v>91</v>
       </c>
       <c r="B92" t="s">
-        <v>94</v>
+        <v>93</v>
       </c>
       <c r="C92" t="s">
         <v>357</v>
@@ -12750,7 +12750,7 @@
         <v>354</v>
       </c>
       <c r="D94" t="s">
-        <v>376</v>
+        <v>377</v>
       </c>
     </row>
     <row r="95" spans="1:4">
@@ -12758,13 +12758,13 @@
         <v>94</v>
       </c>
       <c r="B95" t="s">
-        <v>93</v>
+        <v>89</v>
       </c>
       <c r="C95" t="s">
         <v>355</v>
       </c>
       <c r="D95" t="s">
-        <v>382</v>
+        <v>376</v>
       </c>
     </row>
     <row r="96" spans="1:4">
@@ -12772,13 +12772,13 @@
         <v>95</v>
       </c>
       <c r="B96" t="s">
-        <v>89</v>
+        <v>97</v>
       </c>
       <c r="C96" t="s">
         <v>355</v>
       </c>
       <c r="D96" t="s">
-        <v>377</v>
+        <v>382</v>
       </c>
     </row>
     <row r="97" spans="1:4">
@@ -12828,7 +12828,7 @@
         <v>99</v>
       </c>
       <c r="B100" t="s">
-        <v>104</v>
+        <v>105</v>
       </c>
       <c r="C100" t="s">
         <v>357</v>
@@ -12842,13 +12842,13 @@
         <v>100</v>
       </c>
       <c r="B101" t="s">
-        <v>106</v>
+        <v>128</v>
       </c>
       <c r="C101" t="s">
-        <v>357</v>
+        <v>354</v>
       </c>
       <c r="D101" t="s">
-        <v>377</v>
+        <v>360</v>
       </c>
     </row>
     <row r="102" spans="1:4">
@@ -12856,13 +12856,13 @@
         <v>101</v>
       </c>
       <c r="B102" t="s">
-        <v>131</v>
+        <v>106</v>
       </c>
       <c r="C102" t="s">
-        <v>354</v>
+        <v>357</v>
       </c>
       <c r="D102" t="s">
-        <v>360</v>
+        <v>376</v>
       </c>
     </row>
     <row r="103" spans="1:4">
@@ -12884,13 +12884,13 @@
         <v>103</v>
       </c>
       <c r="B104" t="s">
-        <v>118</v>
+        <v>115</v>
       </c>
       <c r="C104" t="s">
         <v>354</v>
       </c>
       <c r="D104" t="s">
-        <v>374</v>
+        <v>388</v>
       </c>
     </row>
     <row r="105" spans="1:4">
@@ -12898,13 +12898,13 @@
         <v>104</v>
       </c>
       <c r="B105" t="s">
-        <v>115</v>
+        <v>110</v>
       </c>
       <c r="C105" t="s">
         <v>354</v>
       </c>
       <c r="D105" t="s">
-        <v>388</v>
+        <v>368</v>
       </c>
     </row>
     <row r="106" spans="1:4">
@@ -12940,13 +12940,13 @@
         <v>107</v>
       </c>
       <c r="B108" t="s">
-        <v>111</v>
+        <v>107</v>
       </c>
       <c r="C108" t="s">
-        <v>354</v>
+        <v>355</v>
       </c>
       <c r="D108" t="s">
-        <v>368</v>
+        <v>371</v>
       </c>
     </row>
     <row r="109" spans="1:4">
@@ -12954,13 +12954,13 @@
         <v>108</v>
       </c>
       <c r="B109" t="s">
-        <v>108</v>
+        <v>104</v>
       </c>
       <c r="C109" t="s">
         <v>355</v>
       </c>
       <c r="D109" t="s">
-        <v>371</v>
+        <v>383</v>
       </c>
     </row>
     <row r="110" spans="1:4">
@@ -12968,13 +12968,13 @@
         <v>109</v>
       </c>
       <c r="B110" t="s">
-        <v>105</v>
+        <v>118</v>
       </c>
       <c r="C110" t="s">
-        <v>355</v>
+        <v>354</v>
       </c>
       <c r="D110" t="s">
-        <v>383</v>
+        <v>374</v>
       </c>
     </row>
     <row r="111" spans="1:4">
@@ -12982,7 +12982,7 @@
         <v>110</v>
       </c>
       <c r="B111" t="s">
-        <v>116</v>
+        <v>117</v>
       </c>
       <c r="C111" t="s">
         <v>356</v>
@@ -13010,7 +13010,7 @@
         <v>112</v>
       </c>
       <c r="B113" t="s">
-        <v>107</v>
+        <v>108</v>
       </c>
       <c r="C113" t="s">
         <v>355</v>
@@ -13024,13 +13024,13 @@
         <v>113</v>
       </c>
       <c r="B114" t="s">
-        <v>110</v>
+        <v>111</v>
       </c>
       <c r="C114" t="s">
-        <v>354</v>
+        <v>357</v>
       </c>
       <c r="D114" t="s">
-        <v>389</v>
+        <v>375</v>
       </c>
     </row>
     <row r="115" spans="1:4">
@@ -13041,10 +13041,10 @@
         <v>112</v>
       </c>
       <c r="C115" t="s">
-        <v>357</v>
+        <v>354</v>
       </c>
       <c r="D115" t="s">
-        <v>375</v>
+        <v>389</v>
       </c>
     </row>
     <row r="116" spans="1:4">
@@ -13052,13 +13052,13 @@
         <v>115</v>
       </c>
       <c r="B116" t="s">
-        <v>113</v>
+        <v>123</v>
       </c>
       <c r="C116" t="s">
         <v>355</v>
       </c>
       <c r="D116" t="s">
-        <v>362</v>
+        <v>365</v>
       </c>
     </row>
     <row r="117" spans="1:4">
@@ -13066,13 +13066,13 @@
         <v>116</v>
       </c>
       <c r="B117" t="s">
-        <v>123</v>
+        <v>116</v>
       </c>
       <c r="C117" t="s">
         <v>355</v>
       </c>
       <c r="D117" t="s">
-        <v>365</v>
+        <v>366</v>
       </c>
     </row>
     <row r="118" spans="1:4">
@@ -13080,13 +13080,13 @@
         <v>117</v>
       </c>
       <c r="B118" t="s">
-        <v>117</v>
+        <v>113</v>
       </c>
       <c r="C118" t="s">
         <v>355</v>
       </c>
       <c r="D118" t="s">
-        <v>366</v>
+        <v>362</v>
       </c>
     </row>
     <row r="119" spans="1:4">
@@ -13094,7 +13094,7 @@
         <v>118</v>
       </c>
       <c r="B119" t="s">
-        <v>150</v>
+        <v>153</v>
       </c>
       <c r="C119" t="s">
         <v>354</v>
@@ -13122,13 +13122,13 @@
         <v>120</v>
       </c>
       <c r="B121" t="s">
-        <v>143</v>
+        <v>130</v>
       </c>
       <c r="C121" t="s">
-        <v>355</v>
+        <v>354</v>
       </c>
       <c r="D121" t="s">
-        <v>391</v>
+        <v>384</v>
       </c>
     </row>
     <row r="122" spans="1:4">
@@ -13136,13 +13136,13 @@
         <v>121</v>
       </c>
       <c r="B122" t="s">
-        <v>132</v>
+        <v>143</v>
       </c>
       <c r="C122" t="s">
-        <v>354</v>
+        <v>355</v>
       </c>
       <c r="D122" t="s">
-        <v>384</v>
+        <v>391</v>
       </c>
     </row>
     <row r="123" spans="1:4">
@@ -13150,7 +13150,7 @@
         <v>122</v>
       </c>
       <c r="B123" t="s">
-        <v>127</v>
+        <v>126</v>
       </c>
       <c r="C123" t="s">
         <v>354</v>
@@ -13164,7 +13164,7 @@
         <v>123</v>
       </c>
       <c r="B124" t="s">
-        <v>139</v>
+        <v>138</v>
       </c>
       <c r="C124" t="s">
         <v>355</v>
@@ -13178,7 +13178,7 @@
         <v>124</v>
       </c>
       <c r="B125" t="s">
-        <v>126</v>
+        <v>127</v>
       </c>
       <c r="C125" t="s">
         <v>355</v>
@@ -13192,7 +13192,7 @@
         <v>125</v>
       </c>
       <c r="B126" t="s">
-        <v>128</v>
+        <v>129</v>
       </c>
       <c r="C126" t="s">
         <v>355</v>
@@ -13206,7 +13206,7 @@
         <v>126</v>
       </c>
       <c r="B127" t="s">
-        <v>136</v>
+        <v>137</v>
       </c>
       <c r="C127" t="s">
         <v>355</v>
@@ -13234,7 +13234,7 @@
         <v>128</v>
       </c>
       <c r="B129" t="s">
-        <v>138</v>
+        <v>139</v>
       </c>
       <c r="C129" t="s">
         <v>354</v>
@@ -13262,13 +13262,13 @@
         <v>130</v>
       </c>
       <c r="B131" t="s">
-        <v>140</v>
+        <v>125</v>
       </c>
       <c r="C131" t="s">
-        <v>354</v>
+        <v>355</v>
       </c>
       <c r="D131" t="s">
-        <v>372</v>
+        <v>370</v>
       </c>
     </row>
     <row r="132" spans="1:4">
@@ -13276,13 +13276,13 @@
         <v>131</v>
       </c>
       <c r="B132" t="s">
-        <v>133</v>
+        <v>141</v>
       </c>
       <c r="C132" t="s">
         <v>354</v>
       </c>
       <c r="D132" t="s">
-        <v>381</v>
+        <v>372</v>
       </c>
     </row>
     <row r="133" spans="1:4">
@@ -13290,13 +13290,13 @@
         <v>132</v>
       </c>
       <c r="B133" t="s">
-        <v>125</v>
+        <v>133</v>
       </c>
       <c r="C133" t="s">
-        <v>355</v>
+        <v>354</v>
       </c>
       <c r="D133" t="s">
-        <v>370</v>
+        <v>381</v>
       </c>
     </row>
     <row r="134" spans="1:4">
@@ -13304,13 +13304,13 @@
         <v>133</v>
       </c>
       <c r="B134" t="s">
-        <v>130</v>
+        <v>119</v>
       </c>
       <c r="C134" t="s">
         <v>356</v>
       </c>
       <c r="D134" t="s">
-        <v>363</v>
+        <v>391</v>
       </c>
     </row>
     <row r="135" spans="1:4">
@@ -13332,13 +13332,13 @@
         <v>135</v>
       </c>
       <c r="B136" t="s">
-        <v>129</v>
+        <v>131</v>
       </c>
       <c r="C136" t="s">
         <v>356</v>
       </c>
       <c r="D136" t="s">
-        <v>367</v>
+        <v>363</v>
       </c>
     </row>
     <row r="137" spans="1:4">
@@ -13346,13 +13346,13 @@
         <v>136</v>
       </c>
       <c r="B137" t="s">
-        <v>119</v>
+        <v>132</v>
       </c>
       <c r="C137" t="s">
         <v>356</v>
       </c>
       <c r="D137" t="s">
-        <v>391</v>
+        <v>367</v>
       </c>
     </row>
     <row r="138" spans="1:4">
@@ -13374,7 +13374,7 @@
         <v>138</v>
       </c>
       <c r="B139" t="s">
-        <v>146</v>
+        <v>144</v>
       </c>
       <c r="C139" t="s">
         <v>355</v>
@@ -13388,13 +13388,13 @@
         <v>139</v>
       </c>
       <c r="B140" t="s">
-        <v>148</v>
+        <v>156</v>
       </c>
       <c r="C140" t="s">
-        <v>354</v>
+        <v>355</v>
       </c>
       <c r="D140" t="s">
-        <v>380</v>
+        <v>369</v>
       </c>
     </row>
     <row r="141" spans="1:4">
@@ -13402,13 +13402,13 @@
         <v>140</v>
       </c>
       <c r="B141" t="s">
-        <v>135</v>
+        <v>149</v>
       </c>
       <c r="C141" t="s">
-        <v>356</v>
+        <v>354</v>
       </c>
       <c r="D141" t="s">
-        <v>376</v>
+        <v>380</v>
       </c>
     </row>
     <row r="142" spans="1:4">
@@ -13416,13 +13416,13 @@
         <v>141</v>
       </c>
       <c r="B142" t="s">
-        <v>156</v>
+        <v>135</v>
       </c>
       <c r="C142" t="s">
-        <v>355</v>
+        <v>356</v>
       </c>
       <c r="D142" t="s">
-        <v>369</v>
+        <v>377</v>
       </c>
     </row>
     <row r="143" spans="1:4">
@@ -13430,13 +13430,13 @@
         <v>142</v>
       </c>
       <c r="B143" t="s">
-        <v>153</v>
+        <v>140</v>
       </c>
       <c r="C143" t="s">
-        <v>355</v>
+        <v>356</v>
       </c>
       <c r="D143" t="s">
-        <v>385</v>
+        <v>381</v>
       </c>
     </row>
     <row r="144" spans="1:4">
@@ -13444,13 +13444,13 @@
         <v>143</v>
       </c>
       <c r="B144" t="s">
-        <v>141</v>
+        <v>155</v>
       </c>
       <c r="C144" t="s">
-        <v>356</v>
+        <v>355</v>
       </c>
       <c r="D144" t="s">
-        <v>381</v>
+        <v>385</v>
       </c>
     </row>
     <row r="145" spans="1:4">
@@ -13458,13 +13458,13 @@
         <v>144</v>
       </c>
       <c r="B145" t="s">
-        <v>145</v>
+        <v>124</v>
       </c>
       <c r="C145" t="s">
-        <v>355</v>
+        <v>357</v>
       </c>
       <c r="D145" t="s">
-        <v>380</v>
+        <v>386</v>
       </c>
     </row>
     <row r="146" spans="1:4">
@@ -13472,13 +13472,13 @@
         <v>145</v>
       </c>
       <c r="B146" t="s">
-        <v>124</v>
+        <v>146</v>
       </c>
       <c r="C146" t="s">
-        <v>357</v>
+        <v>355</v>
       </c>
       <c r="D146" t="s">
-        <v>386</v>
+        <v>380</v>
       </c>
     </row>
     <row r="147" spans="1:4">
@@ -13486,7 +13486,7 @@
         <v>146</v>
       </c>
       <c r="B147" t="s">
-        <v>144</v>
+        <v>145</v>
       </c>
       <c r="C147" t="s">
         <v>355</v>
@@ -13514,7 +13514,7 @@
         <v>148</v>
       </c>
       <c r="B149" t="s">
-        <v>159</v>
+        <v>160</v>
       </c>
       <c r="C149" t="s">
         <v>355</v>
@@ -13528,7 +13528,7 @@
         <v>149</v>
       </c>
       <c r="B150" t="s">
-        <v>149</v>
+        <v>148</v>
       </c>
       <c r="C150" t="s">
         <v>356</v>
@@ -13556,7 +13556,7 @@
         <v>151</v>
       </c>
       <c r="B152" t="s">
-        <v>137</v>
+        <v>136</v>
       </c>
       <c r="C152" t="s">
         <v>357</v>
@@ -13570,7 +13570,7 @@
         <v>152</v>
       </c>
       <c r="B153" t="s">
-        <v>160</v>
+        <v>158</v>
       </c>
       <c r="C153" t="s">
         <v>356</v>
@@ -13584,13 +13584,13 @@
         <v>153</v>
       </c>
       <c r="B154" t="s">
-        <v>142</v>
+        <v>150</v>
       </c>
       <c r="C154" t="s">
-        <v>357</v>
+        <v>356</v>
       </c>
       <c r="D154" t="s">
-        <v>360</v>
+        <v>376</v>
       </c>
     </row>
     <row r="155" spans="1:4">
@@ -13598,13 +13598,13 @@
         <v>154</v>
       </c>
       <c r="B155" t="s">
-        <v>154</v>
+        <v>142</v>
       </c>
       <c r="C155" t="s">
-        <v>356</v>
+        <v>357</v>
       </c>
       <c r="D155" t="s">
-        <v>377</v>
+        <v>360</v>
       </c>
     </row>
     <row r="156" spans="1:4">
@@ -13612,13 +13612,13 @@
         <v>155</v>
       </c>
       <c r="B156" t="s">
-        <v>155</v>
+        <v>162</v>
       </c>
       <c r="C156" t="s">
-        <v>358</v>
+        <v>356</v>
       </c>
       <c r="D156" t="s">
-        <v>374</v>
+        <v>386</v>
       </c>
     </row>
     <row r="157" spans="1:4">
@@ -13626,13 +13626,13 @@
         <v>156</v>
       </c>
       <c r="B157" t="s">
-        <v>163</v>
+        <v>154</v>
       </c>
       <c r="C157" t="s">
-        <v>356</v>
+        <v>358</v>
       </c>
       <c r="D157" t="s">
-        <v>386</v>
+        <v>374</v>
       </c>
     </row>
     <row r="158" spans="1:4">
@@ -13654,7 +13654,7 @@
         <v>158</v>
       </c>
       <c r="B159" t="s">
-        <v>158</v>
+        <v>159</v>
       </c>
       <c r="C159" t="s">
         <v>358</v>
@@ -13696,13 +13696,13 @@
         <v>161</v>
       </c>
       <c r="B162" t="s">
-        <v>171</v>
+        <v>169</v>
       </c>
       <c r="C162" t="s">
-        <v>355</v>
+        <v>354</v>
       </c>
       <c r="D162" t="s">
-        <v>371</v>
+        <v>369</v>
       </c>
     </row>
     <row r="163" spans="1:4">
@@ -13710,13 +13710,13 @@
         <v>162</v>
       </c>
       <c r="B163" t="s">
-        <v>164</v>
+        <v>171</v>
       </c>
       <c r="C163" t="s">
-        <v>358</v>
+        <v>355</v>
       </c>
       <c r="D163" t="s">
-        <v>378</v>
+        <v>371</v>
       </c>
     </row>
     <row r="164" spans="1:4">
@@ -13724,13 +13724,13 @@
         <v>163</v>
       </c>
       <c r="B164" t="s">
-        <v>169</v>
+        <v>164</v>
       </c>
       <c r="C164" t="s">
-        <v>354</v>
+        <v>358</v>
       </c>
       <c r="D164" t="s">
-        <v>369</v>
+        <v>378</v>
       </c>
     </row>
     <row r="165" spans="1:4">
@@ -13738,7 +13738,7 @@
         <v>164</v>
       </c>
       <c r="B165" t="s">
-        <v>174</v>
+        <v>175</v>
       </c>
       <c r="C165" t="s">
         <v>355</v>
@@ -13752,13 +13752,13 @@
         <v>165</v>
       </c>
       <c r="B166" t="s">
-        <v>170</v>
+        <v>151</v>
       </c>
       <c r="C166" t="s">
-        <v>358</v>
+        <v>357</v>
       </c>
       <c r="D166" t="s">
-        <v>360</v>
+        <v>362</v>
       </c>
     </row>
     <row r="167" spans="1:4">
@@ -13766,13 +13766,13 @@
         <v>166</v>
       </c>
       <c r="B167" t="s">
-        <v>188</v>
+        <v>170</v>
       </c>
       <c r="C167" t="s">
-        <v>355</v>
+        <v>358</v>
       </c>
       <c r="D167" t="s">
-        <v>361</v>
+        <v>360</v>
       </c>
     </row>
     <row r="168" spans="1:4">
@@ -13780,13 +13780,13 @@
         <v>167</v>
       </c>
       <c r="B168" t="s">
-        <v>151</v>
+        <v>188</v>
       </c>
       <c r="C168" t="s">
-        <v>357</v>
+        <v>355</v>
       </c>
       <c r="D168" t="s">
-        <v>362</v>
+        <v>361</v>
       </c>
     </row>
     <row r="169" spans="1:4">
@@ -13822,13 +13822,13 @@
         <v>170</v>
       </c>
       <c r="B171" t="s">
-        <v>181</v>
+        <v>180</v>
       </c>
       <c r="C171" t="s">
-        <v>354</v>
+        <v>355</v>
       </c>
       <c r="D171" t="s">
-        <v>364</v>
+        <v>388</v>
       </c>
     </row>
     <row r="172" spans="1:4">
@@ -13836,13 +13836,13 @@
         <v>171</v>
       </c>
       <c r="B172" t="s">
-        <v>180</v>
+        <v>182</v>
       </c>
       <c r="C172" t="s">
-        <v>355</v>
+        <v>354</v>
       </c>
       <c r="D172" t="s">
-        <v>388</v>
+        <v>364</v>
       </c>
     </row>
     <row r="173" spans="1:4">
@@ -13850,13 +13850,13 @@
         <v>172</v>
       </c>
       <c r="B173" t="s">
-        <v>183</v>
+        <v>174</v>
       </c>
       <c r="C173" t="s">
-        <v>355</v>
+        <v>359</v>
       </c>
       <c r="D173" t="s">
-        <v>370</v>
+        <v>373</v>
       </c>
     </row>
     <row r="174" spans="1:4">
@@ -13864,13 +13864,13 @@
         <v>173</v>
       </c>
       <c r="B174" t="s">
-        <v>173</v>
+        <v>191</v>
       </c>
       <c r="C174" t="s">
-        <v>359</v>
+        <v>355</v>
       </c>
       <c r="D174" t="s">
-        <v>373</v>
+        <v>386</v>
       </c>
     </row>
     <row r="175" spans="1:4">
@@ -13892,13 +13892,13 @@
         <v>175</v>
       </c>
       <c r="B176" t="s">
-        <v>192</v>
+        <v>184</v>
       </c>
       <c r="C176" t="s">
         <v>355</v>
       </c>
       <c r="D176" t="s">
-        <v>386</v>
+        <v>370</v>
       </c>
     </row>
     <row r="177" spans="1:4">
@@ -13912,7 +13912,7 @@
         <v>358</v>
       </c>
       <c r="D177" t="s">
-        <v>376</v>
+        <v>377</v>
       </c>
     </row>
     <row r="178" spans="1:4">
@@ -13962,13 +13962,13 @@
         <v>180</v>
       </c>
       <c r="B181" t="s">
-        <v>201</v>
+        <v>181</v>
       </c>
       <c r="C181" t="s">
-        <v>354</v>
+        <v>356</v>
       </c>
       <c r="D181" t="s">
-        <v>383</v>
+        <v>365</v>
       </c>
     </row>
     <row r="182" spans="1:4">
@@ -13976,13 +13976,13 @@
         <v>181</v>
       </c>
       <c r="B182" t="s">
-        <v>182</v>
+        <v>203</v>
       </c>
       <c r="C182" t="s">
-        <v>356</v>
+        <v>354</v>
       </c>
       <c r="D182" t="s">
-        <v>365</v>
+        <v>383</v>
       </c>
     </row>
     <row r="183" spans="1:4">
@@ -13990,13 +13990,13 @@
         <v>182</v>
       </c>
       <c r="B183" t="s">
-        <v>194</v>
+        <v>161</v>
       </c>
       <c r="C183" t="s">
-        <v>355</v>
+        <v>357</v>
       </c>
       <c r="D183" t="s">
-        <v>379</v>
+        <v>371</v>
       </c>
     </row>
     <row r="184" spans="1:4">
@@ -14004,7 +14004,7 @@
         <v>183</v>
       </c>
       <c r="B184" t="s">
-        <v>186</v>
+        <v>187</v>
       </c>
       <c r="C184" t="s">
         <v>359</v>
@@ -14018,13 +14018,13 @@
         <v>184</v>
       </c>
       <c r="B185" t="s">
-        <v>161</v>
+        <v>194</v>
       </c>
       <c r="C185" t="s">
-        <v>357</v>
+        <v>355</v>
       </c>
       <c r="D185" t="s">
-        <v>371</v>
+        <v>379</v>
       </c>
     </row>
     <row r="186" spans="1:4">
@@ -14032,7 +14032,7 @@
         <v>185</v>
       </c>
       <c r="B186" t="s">
-        <v>184</v>
+        <v>185</v>
       </c>
       <c r="C186" t="s">
         <v>358</v>
@@ -14046,13 +14046,13 @@
         <v>186</v>
       </c>
       <c r="B187" t="s">
-        <v>191</v>
+        <v>163</v>
       </c>
       <c r="C187" t="s">
-        <v>355</v>
+        <v>357</v>
       </c>
       <c r="D187" t="s">
-        <v>377</v>
+        <v>391</v>
       </c>
     </row>
     <row r="188" spans="1:4">
@@ -14060,13 +14060,13 @@
         <v>187</v>
       </c>
       <c r="B188" t="s">
-        <v>162</v>
+        <v>183</v>
       </c>
       <c r="C188" t="s">
-        <v>357</v>
+        <v>356</v>
       </c>
       <c r="D188" t="s">
-        <v>391</v>
+        <v>385</v>
       </c>
     </row>
     <row r="189" spans="1:4">
@@ -14074,13 +14074,13 @@
         <v>188</v>
       </c>
       <c r="B189" t="s">
-        <v>185</v>
+        <v>198</v>
       </c>
       <c r="C189" t="s">
-        <v>356</v>
+        <v>355</v>
       </c>
       <c r="D189" t="s">
-        <v>385</v>
+        <v>368</v>
       </c>
     </row>
     <row r="190" spans="1:4">
@@ -14088,13 +14088,13 @@
         <v>189</v>
       </c>
       <c r="B190" t="s">
-        <v>199</v>
+        <v>192</v>
       </c>
       <c r="C190" t="s">
         <v>355</v>
       </c>
       <c r="D190" t="s">
-        <v>368</v>
+        <v>376</v>
       </c>
     </row>
     <row r="191" spans="1:4">
@@ -14102,13 +14102,13 @@
         <v>190</v>
       </c>
       <c r="B191" t="s">
-        <v>204</v>
+        <v>197</v>
       </c>
       <c r="C191" t="s">
-        <v>354</v>
+        <v>359</v>
       </c>
       <c r="D191" t="s">
-        <v>378</v>
+        <v>368</v>
       </c>
     </row>
     <row r="192" spans="1:4">
@@ -14116,13 +14116,13 @@
         <v>191</v>
       </c>
       <c r="B192" t="s">
-        <v>198</v>
+        <v>196</v>
       </c>
       <c r="C192" t="s">
-        <v>355</v>
+        <v>359</v>
       </c>
       <c r="D192" t="s">
-        <v>377</v>
+        <v>365</v>
       </c>
     </row>
     <row r="193" spans="1:4">
@@ -14130,13 +14130,13 @@
         <v>192</v>
       </c>
       <c r="B193" t="s">
-        <v>197</v>
+        <v>199</v>
       </c>
       <c r="C193" t="s">
-        <v>359</v>
+        <v>355</v>
       </c>
       <c r="D193" t="s">
-        <v>368</v>
+        <v>376</v>
       </c>
     </row>
     <row r="194" spans="1:4">
@@ -14144,13 +14144,13 @@
         <v>193</v>
       </c>
       <c r="B194" t="s">
-        <v>196</v>
+        <v>208</v>
       </c>
       <c r="C194" t="s">
-        <v>359</v>
+        <v>354</v>
       </c>
       <c r="D194" t="s">
-        <v>365</v>
+        <v>378</v>
       </c>
     </row>
     <row r="195" spans="1:4">
@@ -14158,13 +14158,13 @@
         <v>194</v>
       </c>
       <c r="B195" t="s">
-        <v>209</v>
+        <v>200</v>
       </c>
       <c r="C195" t="s">
-        <v>355</v>
+        <v>358</v>
       </c>
       <c r="D195" t="s">
-        <v>376</v>
+        <v>379</v>
       </c>
     </row>
     <row r="196" spans="1:4">
@@ -14172,13 +14172,13 @@
         <v>195</v>
       </c>
       <c r="B196" t="s">
-        <v>202</v>
+        <v>209</v>
       </c>
       <c r="C196" t="s">
-        <v>358</v>
+        <v>355</v>
       </c>
       <c r="D196" t="s">
-        <v>379</v>
+        <v>377</v>
       </c>
     </row>
     <row r="197" spans="1:4">
@@ -14228,7 +14228,7 @@
         <v>199</v>
       </c>
       <c r="B200" t="s">
-        <v>205</v>
+        <v>204</v>
       </c>
       <c r="C200" t="s">
         <v>358</v>
@@ -14242,13 +14242,13 @@
         <v>200</v>
       </c>
       <c r="B201" t="s">
-        <v>206</v>
+        <v>166</v>
       </c>
       <c r="C201" t="s">
-        <v>359</v>
+        <v>357</v>
       </c>
       <c r="D201" t="s">
-        <v>375</v>
+        <v>372</v>
       </c>
     </row>
     <row r="202" spans="1:4">
@@ -14256,13 +14256,13 @@
         <v>201</v>
       </c>
       <c r="B202" t="s">
-        <v>166</v>
+        <v>205</v>
       </c>
       <c r="C202" t="s">
-        <v>357</v>
+        <v>359</v>
       </c>
       <c r="D202" t="s">
-        <v>372</v>
+        <v>375</v>
       </c>
     </row>
     <row r="203" spans="1:4">
@@ -14270,13 +14270,13 @@
         <v>202</v>
       </c>
       <c r="B203" t="s">
-        <v>208</v>
+        <v>206</v>
       </c>
       <c r="C203" t="s">
         <v>358</v>
       </c>
       <c r="D203" t="s">
-        <v>377</v>
+        <v>376</v>
       </c>
     </row>
     <row r="204" spans="1:4">
@@ -14312,13 +14312,13 @@
         <v>205</v>
       </c>
       <c r="B206" t="s">
-        <v>232</v>
+        <v>201</v>
       </c>
       <c r="C206" t="s">
         <v>354</v>
       </c>
       <c r="D206" t="s">
-        <v>370</v>
+        <v>384</v>
       </c>
     </row>
     <row r="207" spans="1:4">
@@ -14326,13 +14326,13 @@
         <v>206</v>
       </c>
       <c r="B207" t="s">
-        <v>200</v>
+        <v>212</v>
       </c>
       <c r="C207" t="s">
-        <v>354</v>
+        <v>358</v>
       </c>
       <c r="D207" t="s">
-        <v>384</v>
+        <v>381</v>
       </c>
     </row>
     <row r="208" spans="1:4">
@@ -14340,13 +14340,13 @@
         <v>207</v>
       </c>
       <c r="B208" t="s">
-        <v>224</v>
+        <v>233</v>
       </c>
       <c r="C208" t="s">
         <v>354</v>
       </c>
       <c r="D208" t="s">
-        <v>390</v>
+        <v>370</v>
       </c>
     </row>
     <row r="209" spans="1:4">
@@ -14354,13 +14354,13 @@
         <v>208</v>
       </c>
       <c r="B209" t="s">
-        <v>212</v>
+        <v>226</v>
       </c>
       <c r="C209" t="s">
-        <v>358</v>
+        <v>354</v>
       </c>
       <c r="D209" t="s">
-        <v>381</v>
+        <v>390</v>
       </c>
     </row>
     <row r="210" spans="1:4">
@@ -14382,13 +14382,13 @@
         <v>210</v>
       </c>
       <c r="B211" t="s">
-        <v>234</v>
+        <v>216</v>
       </c>
       <c r="C211" t="s">
-        <v>354</v>
+        <v>355</v>
       </c>
       <c r="D211" t="s">
-        <v>365</v>
+        <v>367</v>
       </c>
     </row>
     <row r="212" spans="1:4">
@@ -14396,13 +14396,13 @@
         <v>211</v>
       </c>
       <c r="B212" t="s">
-        <v>216</v>
+        <v>235</v>
       </c>
       <c r="C212" t="s">
-        <v>355</v>
+        <v>354</v>
       </c>
       <c r="D212" t="s">
-        <v>367</v>
+        <v>365</v>
       </c>
     </row>
     <row r="213" spans="1:4">
@@ -14410,13 +14410,13 @@
         <v>212</v>
       </c>
       <c r="B213" t="s">
-        <v>243</v>
+        <v>220</v>
       </c>
       <c r="C213" t="s">
         <v>355</v>
       </c>
       <c r="D213" t="s">
-        <v>371</v>
+        <v>385</v>
       </c>
     </row>
     <row r="214" spans="1:4">
@@ -14424,13 +14424,13 @@
         <v>213</v>
       </c>
       <c r="B214" t="s">
-        <v>219</v>
+        <v>243</v>
       </c>
       <c r="C214" t="s">
         <v>355</v>
       </c>
       <c r="D214" t="s">
-        <v>385</v>
+        <v>371</v>
       </c>
     </row>
     <row r="215" spans="1:4">
@@ -14480,7 +14480,7 @@
         <v>217</v>
       </c>
       <c r="B218" t="s">
-        <v>203</v>
+        <v>202</v>
       </c>
       <c r="C218" t="s">
         <v>354</v>
@@ -14494,7 +14494,7 @@
         <v>218</v>
       </c>
       <c r="B219" t="s">
-        <v>175</v>
+        <v>173</v>
       </c>
       <c r="C219" t="s">
         <v>357</v>
@@ -14522,7 +14522,7 @@
         <v>220</v>
       </c>
       <c r="B221" t="s">
-        <v>223</v>
+        <v>222</v>
       </c>
       <c r="C221" t="s">
         <v>358</v>
@@ -14536,7 +14536,7 @@
         <v>221</v>
       </c>
       <c r="B222" t="s">
-        <v>225</v>
+        <v>224</v>
       </c>
       <c r="C222" t="s">
         <v>358</v>
@@ -14550,13 +14550,13 @@
         <v>222</v>
       </c>
       <c r="B223" t="s">
-        <v>242</v>
+        <v>236</v>
       </c>
       <c r="C223" t="s">
-        <v>355</v>
+        <v>354</v>
       </c>
       <c r="D223" t="s">
-        <v>374</v>
+        <v>373</v>
       </c>
     </row>
     <row r="224" spans="1:4">
@@ -14564,13 +14564,13 @@
         <v>223</v>
       </c>
       <c r="B224" t="s">
-        <v>236</v>
+        <v>225</v>
       </c>
       <c r="C224" t="s">
-        <v>354</v>
+        <v>358</v>
       </c>
       <c r="D224" t="s">
-        <v>373</v>
+        <v>384</v>
       </c>
     </row>
     <row r="225" spans="1:4">
@@ -14578,13 +14578,13 @@
         <v>224</v>
       </c>
       <c r="B225" t="s">
-        <v>226</v>
+        <v>240</v>
       </c>
       <c r="C225" t="s">
-        <v>358</v>
+        <v>355</v>
       </c>
       <c r="D225" t="s">
-        <v>384</v>
+        <v>367</v>
       </c>
     </row>
     <row r="226" spans="1:4">
@@ -14592,13 +14592,13 @@
         <v>225</v>
       </c>
       <c r="B226" t="s">
-        <v>241</v>
+        <v>242</v>
       </c>
       <c r="C226" t="s">
         <v>355</v>
       </c>
       <c r="D226" t="s">
-        <v>367</v>
+        <v>374</v>
       </c>
     </row>
     <row r="227" spans="1:4">
@@ -14606,7 +14606,7 @@
         <v>226</v>
       </c>
       <c r="B227" t="s">
-        <v>228</v>
+        <v>227</v>
       </c>
       <c r="C227" t="s">
         <v>358</v>
@@ -14634,7 +14634,7 @@
         <v>228</v>
       </c>
       <c r="B229" t="s">
-        <v>246</v>
+        <v>247</v>
       </c>
       <c r="C229" t="s">
         <v>355</v>
@@ -14662,7 +14662,7 @@
         <v>230</v>
       </c>
       <c r="B231" t="s">
-        <v>222</v>
+        <v>223</v>
       </c>
       <c r="C231" t="s">
         <v>354</v>
@@ -14676,7 +14676,7 @@
         <v>231</v>
       </c>
       <c r="B232" t="s">
-        <v>218</v>
+        <v>219</v>
       </c>
       <c r="C232" t="s">
         <v>356</v>
@@ -14690,7 +14690,7 @@
         <v>232</v>
       </c>
       <c r="B233" t="s">
-        <v>233</v>
+        <v>232</v>
       </c>
       <c r="C233" t="s">
         <v>354</v>
@@ -14704,7 +14704,7 @@
         <v>233</v>
       </c>
       <c r="B234" t="s">
-        <v>227</v>
+        <v>228</v>
       </c>
       <c r="C234" t="s">
         <v>354</v>
@@ -14732,13 +14732,13 @@
         <v>235</v>
       </c>
       <c r="B236" t="s">
-        <v>240</v>
+        <v>186</v>
       </c>
       <c r="C236" t="s">
-        <v>355</v>
+        <v>357</v>
       </c>
       <c r="D236" t="s">
-        <v>391</v>
+        <v>390</v>
       </c>
     </row>
     <row r="237" spans="1:4">
@@ -14746,7 +14746,7 @@
         <v>236</v>
       </c>
       <c r="B237" t="s">
-        <v>235</v>
+        <v>234</v>
       </c>
       <c r="C237" t="s">
         <v>359</v>
@@ -14760,13 +14760,13 @@
         <v>237</v>
       </c>
       <c r="B238" t="s">
-        <v>187</v>
+        <v>241</v>
       </c>
       <c r="C238" t="s">
-        <v>357</v>
+        <v>355</v>
       </c>
       <c r="D238" t="s">
-        <v>390</v>
+        <v>391</v>
       </c>
     </row>
     <row r="239" spans="1:4">
@@ -14774,7 +14774,7 @@
         <v>238</v>
       </c>
       <c r="B239" t="s">
-        <v>249</v>
+        <v>250</v>
       </c>
       <c r="C239" t="s">
         <v>354</v>
@@ -14788,7 +14788,7 @@
         <v>239</v>
       </c>
       <c r="B240" t="s">
-        <v>238</v>
+        <v>239</v>
       </c>
       <c r="C240" t="s">
         <v>354</v>
@@ -14802,13 +14802,13 @@
         <v>240</v>
       </c>
       <c r="B241" t="s">
-        <v>239</v>
+        <v>238</v>
       </c>
       <c r="C241" t="s">
         <v>359</v>
       </c>
       <c r="D241" t="s">
-        <v>376</v>
+        <v>377</v>
       </c>
     </row>
     <row r="242" spans="1:4">
@@ -14816,7 +14816,7 @@
         <v>241</v>
       </c>
       <c r="B242" t="s">
-        <v>245</v>
+        <v>244</v>
       </c>
       <c r="C242" t="s">
         <v>359</v>
@@ -14830,13 +14830,13 @@
         <v>242</v>
       </c>
       <c r="B243" t="s">
-        <v>244</v>
+        <v>246</v>
       </c>
       <c r="C243" t="s">
-        <v>354</v>
+        <v>356</v>
       </c>
       <c r="D243" t="s">
-        <v>367</v>
+        <v>391</v>
       </c>
     </row>
     <row r="244" spans="1:4">
@@ -14844,13 +14844,13 @@
         <v>243</v>
       </c>
       <c r="B244" t="s">
-        <v>247</v>
+        <v>245</v>
       </c>
       <c r="C244" t="s">
-        <v>356</v>
+        <v>354</v>
       </c>
       <c r="D244" t="s">
-        <v>391</v>
+        <v>367</v>
       </c>
     </row>
     <row r="245" spans="1:4">
@@ -14872,7 +14872,7 @@
         <v>245</v>
       </c>
       <c r="B246" t="s">
-        <v>250</v>
+        <v>249</v>
       </c>
       <c r="C246" t="s">
         <v>359</v>
@@ -14892,7 +14892,7 @@
         <v>355</v>
       </c>
       <c r="D247" t="s">
-        <v>377</v>
+        <v>376</v>
       </c>
     </row>
     <row r="248" spans="1:4">
@@ -14900,13 +14900,13 @@
         <v>247</v>
       </c>
       <c r="B248" t="s">
-        <v>253</v>
+        <v>272</v>
       </c>
       <c r="C248" t="s">
-        <v>358</v>
+        <v>355</v>
       </c>
       <c r="D248" t="s">
-        <v>365</v>
+        <v>388</v>
       </c>
     </row>
     <row r="249" spans="1:4">
@@ -14914,13 +14914,13 @@
         <v>248</v>
       </c>
       <c r="B249" t="s">
-        <v>271</v>
+        <v>254</v>
       </c>
       <c r="C249" t="s">
-        <v>355</v>
+        <v>359</v>
       </c>
       <c r="D249" t="s">
-        <v>388</v>
+        <v>378</v>
       </c>
     </row>
     <row r="250" spans="1:4">
@@ -14928,13 +14928,13 @@
         <v>249</v>
       </c>
       <c r="B250" t="s">
-        <v>254</v>
+        <v>253</v>
       </c>
       <c r="C250" t="s">
-        <v>359</v>
+        <v>358</v>
       </c>
       <c r="D250" t="s">
-        <v>378</v>
+        <v>365</v>
       </c>
     </row>
     <row r="251" spans="1:4">
@@ -14956,13 +14956,13 @@
         <v>251</v>
       </c>
       <c r="B252" t="s">
-        <v>264</v>
+        <v>256</v>
       </c>
       <c r="C252" t="s">
-        <v>355</v>
+        <v>358</v>
       </c>
       <c r="D252" t="s">
-        <v>361</v>
+        <v>362</v>
       </c>
     </row>
     <row r="253" spans="1:4">
@@ -14970,13 +14970,13 @@
         <v>252</v>
       </c>
       <c r="B253" t="s">
-        <v>256</v>
+        <v>265</v>
       </c>
       <c r="C253" t="s">
-        <v>358</v>
+        <v>355</v>
       </c>
       <c r="D253" t="s">
-        <v>362</v>
+        <v>361</v>
       </c>
     </row>
     <row r="254" spans="1:4">
@@ -14984,13 +14984,13 @@
         <v>253</v>
       </c>
       <c r="B254" t="s">
-        <v>257</v>
+        <v>213</v>
       </c>
       <c r="C254" t="s">
-        <v>359</v>
+        <v>357</v>
       </c>
       <c r="D254" t="s">
-        <v>384</v>
+        <v>388</v>
       </c>
     </row>
     <row r="255" spans="1:4">
@@ -14998,13 +14998,13 @@
         <v>254</v>
       </c>
       <c r="B255" t="s">
-        <v>213</v>
+        <v>257</v>
       </c>
       <c r="C255" t="s">
-        <v>357</v>
+        <v>359</v>
       </c>
       <c r="D255" t="s">
-        <v>388</v>
+        <v>384</v>
       </c>
     </row>
     <row r="256" spans="1:4">
@@ -15018,7 +15018,7 @@
         <v>355</v>
       </c>
       <c r="D256" t="s">
-        <v>377</v>
+        <v>376</v>
       </c>
     </row>
     <row r="257" spans="1:4">
@@ -15054,13 +15054,13 @@
         <v>258</v>
       </c>
       <c r="B259" t="s">
-        <v>251</v>
+        <v>218</v>
       </c>
       <c r="C259" t="s">
-        <v>354</v>
+        <v>357</v>
       </c>
       <c r="D259" t="s">
-        <v>374</v>
+        <v>382</v>
       </c>
     </row>
     <row r="260" spans="1:4">
@@ -15068,13 +15068,13 @@
         <v>259</v>
       </c>
       <c r="B260" t="s">
-        <v>260</v>
+        <v>252</v>
       </c>
       <c r="C260" t="s">
-        <v>356</v>
+        <v>354</v>
       </c>
       <c r="D260" t="s">
-        <v>380</v>
+        <v>374</v>
       </c>
     </row>
     <row r="261" spans="1:4">
@@ -15082,13 +15082,13 @@
         <v>260</v>
       </c>
       <c r="B261" t="s">
-        <v>269</v>
+        <v>260</v>
       </c>
       <c r="C261" t="s">
-        <v>355</v>
+        <v>356</v>
       </c>
       <c r="D261" t="s">
-        <v>361</v>
+        <v>380</v>
       </c>
     </row>
     <row r="262" spans="1:4">
@@ -15096,13 +15096,13 @@
         <v>261</v>
       </c>
       <c r="B262" t="s">
-        <v>220</v>
+        <v>270</v>
       </c>
       <c r="C262" t="s">
-        <v>357</v>
+        <v>355</v>
       </c>
       <c r="D262" t="s">
-        <v>382</v>
+        <v>361</v>
       </c>
     </row>
     <row r="263" spans="1:4">
@@ -15110,13 +15110,13 @@
         <v>262</v>
       </c>
       <c r="B263" t="s">
-        <v>268</v>
+        <v>293</v>
       </c>
       <c r="C263" t="s">
-        <v>355</v>
+        <v>354</v>
       </c>
       <c r="D263" t="s">
-        <v>382</v>
+        <v>375</v>
       </c>
     </row>
     <row r="264" spans="1:4">
@@ -15124,13 +15124,13 @@
         <v>263</v>
       </c>
       <c r="B264" t="s">
-        <v>292</v>
+        <v>268</v>
       </c>
       <c r="C264" t="s">
-        <v>354</v>
+        <v>355</v>
       </c>
       <c r="D264" t="s">
-        <v>375</v>
+        <v>382</v>
       </c>
     </row>
     <row r="265" spans="1:4">
@@ -15194,7 +15194,7 @@
         <v>268</v>
       </c>
       <c r="B269" t="s">
-        <v>265</v>
+        <v>264</v>
       </c>
       <c r="C269" t="s">
         <v>356</v>
@@ -15222,13 +15222,13 @@
         <v>270</v>
       </c>
       <c r="B271" t="s">
-        <v>270</v>
+        <v>269</v>
       </c>
       <c r="C271" t="s">
         <v>359</v>
       </c>
       <c r="D271" t="s">
-        <v>377</v>
+        <v>376</v>
       </c>
     </row>
     <row r="272" spans="1:4">
@@ -15236,7 +15236,7 @@
         <v>271</v>
       </c>
       <c r="B272" t="s">
-        <v>272</v>
+        <v>271</v>
       </c>
       <c r="C272" t="s">
         <v>359</v>
@@ -15264,7 +15264,7 @@
         <v>273</v>
       </c>
       <c r="B274" t="s">
-        <v>284</v>
+        <v>283</v>
       </c>
       <c r="C274" t="s">
         <v>354</v>
@@ -15320,7 +15320,7 @@
         <v>277</v>
       </c>
       <c r="B278" t="s">
-        <v>276</v>
+        <v>277</v>
       </c>
       <c r="C278" t="s">
         <v>354</v>
@@ -15376,13 +15376,13 @@
         <v>281</v>
       </c>
       <c r="B282" t="s">
-        <v>282</v>
+        <v>289</v>
       </c>
       <c r="C282" t="s">
-        <v>356</v>
+        <v>355</v>
       </c>
       <c r="D282" t="s">
-        <v>373</v>
+        <v>362</v>
       </c>
     </row>
     <row r="283" spans="1:4">
@@ -15390,13 +15390,13 @@
         <v>282</v>
       </c>
       <c r="B283" t="s">
-        <v>291</v>
+        <v>282</v>
       </c>
       <c r="C283" t="s">
-        <v>355</v>
+        <v>356</v>
       </c>
       <c r="D283" t="s">
-        <v>362</v>
+        <v>373</v>
       </c>
     </row>
     <row r="284" spans="1:4">
@@ -15418,7 +15418,7 @@
         <v>284</v>
       </c>
       <c r="B285" t="s">
-        <v>252</v>
+        <v>251</v>
       </c>
       <c r="C285" t="s">
         <v>357</v>
@@ -15432,7 +15432,7 @@
         <v>285</v>
       </c>
       <c r="B286" t="s">
-        <v>288</v>
+        <v>290</v>
       </c>
       <c r="C286" t="s">
         <v>355</v>
@@ -15446,7 +15446,7 @@
         <v>286</v>
       </c>
       <c r="B287" t="s">
-        <v>283</v>
+        <v>284</v>
       </c>
       <c r="C287" t="s">
         <v>354</v>
@@ -15460,13 +15460,13 @@
         <v>287</v>
       </c>
       <c r="B288" t="s">
-        <v>314</v>
+        <v>309</v>
       </c>
       <c r="C288" t="s">
-        <v>354</v>
+        <v>355</v>
       </c>
       <c r="D288" t="s">
-        <v>362</v>
+        <v>373</v>
       </c>
     </row>
     <row r="289" spans="1:4">
@@ -15474,13 +15474,13 @@
         <v>288</v>
       </c>
       <c r="B289" t="s">
-        <v>308</v>
+        <v>315</v>
       </c>
       <c r="C289" t="s">
-        <v>355</v>
+        <v>354</v>
       </c>
       <c r="D289" t="s">
-        <v>373</v>
+        <v>362</v>
       </c>
     </row>
     <row r="290" spans="1:4">
@@ -15488,13 +15488,13 @@
         <v>289</v>
       </c>
       <c r="B290" t="s">
-        <v>293</v>
+        <v>296</v>
       </c>
       <c r="C290" t="s">
-        <v>356</v>
+        <v>358</v>
       </c>
       <c r="D290" t="s">
-        <v>383</v>
+        <v>371</v>
       </c>
     </row>
     <row r="291" spans="1:4">
@@ -15502,13 +15502,13 @@
         <v>290</v>
       </c>
       <c r="B291" t="s">
-        <v>296</v>
+        <v>303</v>
       </c>
       <c r="C291" t="s">
-        <v>358</v>
+        <v>355</v>
       </c>
       <c r="D291" t="s">
-        <v>371</v>
+        <v>384</v>
       </c>
     </row>
     <row r="292" spans="1:4">
@@ -15516,13 +15516,13 @@
         <v>291</v>
       </c>
       <c r="B292" t="s">
-        <v>303</v>
+        <v>294</v>
       </c>
       <c r="C292" t="s">
-        <v>355</v>
+        <v>356</v>
       </c>
       <c r="D292" t="s">
-        <v>384</v>
+        <v>383</v>
       </c>
     </row>
     <row r="293" spans="1:4">
@@ -15530,13 +15530,13 @@
         <v>292</v>
       </c>
       <c r="B293" t="s">
-        <v>297</v>
+        <v>299</v>
       </c>
       <c r="C293" t="s">
         <v>359</v>
       </c>
       <c r="D293" t="s">
-        <v>362</v>
+        <v>389</v>
       </c>
     </row>
     <row r="294" spans="1:4">
@@ -15544,13 +15544,13 @@
         <v>293</v>
       </c>
       <c r="B294" t="s">
-        <v>299</v>
+        <v>297</v>
       </c>
       <c r="C294" t="s">
         <v>359</v>
       </c>
       <c r="D294" t="s">
-        <v>389</v>
+        <v>362</v>
       </c>
     </row>
     <row r="295" spans="1:4">
@@ -15558,10 +15558,10 @@
         <v>294</v>
       </c>
       <c r="B295" t="s">
-        <v>304</v>
+        <v>301</v>
       </c>
       <c r="C295" t="s">
-        <v>355</v>
+        <v>359</v>
       </c>
       <c r="D295" t="s">
         <v>387</v>
@@ -15572,10 +15572,10 @@
         <v>295</v>
       </c>
       <c r="B296" t="s">
-        <v>301</v>
+        <v>306</v>
       </c>
       <c r="C296" t="s">
-        <v>359</v>
+        <v>355</v>
       </c>
       <c r="D296" t="s">
         <v>387</v>
@@ -15586,7 +15586,7 @@
         <v>296</v>
       </c>
       <c r="B297" t="s">
-        <v>290</v>
+        <v>291</v>
       </c>
       <c r="C297" t="s">
         <v>354</v>
@@ -15600,13 +15600,13 @@
         <v>297</v>
       </c>
       <c r="B298" t="s">
-        <v>311</v>
+        <v>308</v>
       </c>
       <c r="C298" t="s">
         <v>356</v>
       </c>
       <c r="D298" t="s">
-        <v>388</v>
+        <v>371</v>
       </c>
     </row>
     <row r="299" spans="1:4">
@@ -15614,7 +15614,7 @@
         <v>298</v>
       </c>
       <c r="B299" t="s">
-        <v>306</v>
+        <v>304</v>
       </c>
       <c r="C299" t="s">
         <v>358</v>
@@ -15628,13 +15628,13 @@
         <v>299</v>
       </c>
       <c r="B300" t="s">
-        <v>310</v>
+        <v>311</v>
       </c>
       <c r="C300" t="s">
         <v>356</v>
       </c>
       <c r="D300" t="s">
-        <v>371</v>
+        <v>388</v>
       </c>
     </row>
     <row r="301" spans="1:4">
@@ -15656,13 +15656,13 @@
         <v>301</v>
       </c>
       <c r="B302" t="s">
-        <v>298</v>
+        <v>310</v>
       </c>
       <c r="C302" t="s">
-        <v>356</v>
+        <v>358</v>
       </c>
       <c r="D302" t="s">
-        <v>380</v>
+        <v>389</v>
       </c>
     </row>
     <row r="303" spans="1:4">
@@ -15670,13 +15670,13 @@
         <v>302</v>
       </c>
       <c r="B303" t="s">
-        <v>309</v>
+        <v>298</v>
       </c>
       <c r="C303" t="s">
-        <v>358</v>
+        <v>356</v>
       </c>
       <c r="D303" t="s">
-        <v>389</v>
+        <v>380</v>
       </c>
     </row>
     <row r="304" spans="1:4">
@@ -15740,13 +15740,13 @@
         <v>307</v>
       </c>
       <c r="B308" t="s">
-        <v>316</v>
+        <v>276</v>
       </c>
       <c r="C308" t="s">
-        <v>355</v>
+        <v>357</v>
       </c>
       <c r="D308" t="s">
-        <v>392</v>
+        <v>367</v>
       </c>
     </row>
     <row r="309" spans="1:4">
@@ -15754,13 +15754,13 @@
         <v>308</v>
       </c>
       <c r="B309" t="s">
-        <v>277</v>
+        <v>316</v>
       </c>
       <c r="C309" t="s">
-        <v>357</v>
+        <v>355</v>
       </c>
       <c r="D309" t="s">
-        <v>367</v>
+        <v>392</v>
       </c>
     </row>
     <row r="310" spans="1:4">
@@ -15824,7 +15824,7 @@
         <v>313</v>
       </c>
       <c r="B314" t="s">
-        <v>321</v>
+        <v>320</v>
       </c>
       <c r="C314" t="s">
         <v>355</v>
@@ -15894,13 +15894,13 @@
         <v>318</v>
       </c>
       <c r="B319" t="s">
-        <v>330</v>
+        <v>288</v>
       </c>
       <c r="C319" t="s">
-        <v>354</v>
+        <v>357</v>
       </c>
       <c r="D319" t="s">
-        <v>388</v>
+        <v>389</v>
       </c>
     </row>
     <row r="320" spans="1:4">
@@ -15908,13 +15908,13 @@
         <v>319</v>
       </c>
       <c r="B320" t="s">
-        <v>315</v>
+        <v>331</v>
       </c>
       <c r="C320" t="s">
         <v>354</v>
       </c>
       <c r="D320" t="s">
-        <v>378</v>
+        <v>388</v>
       </c>
     </row>
     <row r="321" spans="1:4">
@@ -15922,13 +15922,13 @@
         <v>320</v>
       </c>
       <c r="B321" t="s">
-        <v>289</v>
+        <v>314</v>
       </c>
       <c r="C321" t="s">
-        <v>357</v>
+        <v>354</v>
       </c>
       <c r="D321" t="s">
-        <v>389</v>
+        <v>378</v>
       </c>
     </row>
     <row r="322" spans="1:4">
@@ -15936,7 +15936,7 @@
         <v>321</v>
       </c>
       <c r="B322" t="s">
-        <v>294</v>
+        <v>292</v>
       </c>
       <c r="C322" t="s">
         <v>357</v>
@@ -15950,7 +15950,7 @@
         <v>322</v>
       </c>
       <c r="B323" t="s">
-        <v>320</v>
+        <v>321</v>
       </c>
       <c r="C323" t="s">
         <v>354</v>
@@ -15984,7 +15984,7 @@
         <v>356</v>
       </c>
       <c r="D325" t="s">
-        <v>376</v>
+        <v>377</v>
       </c>
     </row>
     <row r="326" spans="1:4">
@@ -16006,7 +16006,7 @@
         <v>326</v>
       </c>
       <c r="B327" t="s">
-        <v>334</v>
+        <v>333</v>
       </c>
       <c r="C327" t="s">
         <v>355</v>
@@ -16020,7 +16020,7 @@
         <v>327</v>
       </c>
       <c r="B328" t="s">
-        <v>331</v>
+        <v>329</v>
       </c>
       <c r="C328" t="s">
         <v>355</v>
@@ -16048,7 +16048,7 @@
         <v>329</v>
       </c>
       <c r="B330" t="s">
-        <v>335</v>
+        <v>332</v>
       </c>
       <c r="C330" t="s">
         <v>356</v>
@@ -16062,7 +16062,7 @@
         <v>330</v>
       </c>
       <c r="B331" t="s">
-        <v>332</v>
+        <v>335</v>
       </c>
       <c r="C331" t="s">
         <v>359</v>
@@ -16076,10 +16076,10 @@
         <v>331</v>
       </c>
       <c r="B332" t="s">
-        <v>345</v>
+        <v>339</v>
       </c>
       <c r="C332" t="s">
-        <v>354</v>
+        <v>359</v>
       </c>
       <c r="D332" t="s">
         <v>367</v>
@@ -16090,10 +16090,10 @@
         <v>332</v>
       </c>
       <c r="B333" t="s">
-        <v>339</v>
+        <v>345</v>
       </c>
       <c r="C333" t="s">
-        <v>359</v>
+        <v>354</v>
       </c>
       <c r="D333" t="s">
         <v>367</v>
@@ -16104,13 +16104,13 @@
         <v>333</v>
       </c>
       <c r="B334" t="s">
-        <v>337</v>
+        <v>346</v>
       </c>
       <c r="C334" t="s">
-        <v>354</v>
+        <v>355</v>
       </c>
       <c r="D334" t="s">
-        <v>381</v>
+        <v>373</v>
       </c>
     </row>
     <row r="335" spans="1:4">
@@ -16118,13 +16118,13 @@
         <v>334</v>
       </c>
       <c r="B335" t="s">
-        <v>346</v>
+        <v>337</v>
       </c>
       <c r="C335" t="s">
-        <v>355</v>
+        <v>354</v>
       </c>
       <c r="D335" t="s">
-        <v>373</v>
+        <v>381</v>
       </c>
     </row>
     <row r="336" spans="1:4">
@@ -16132,13 +16132,13 @@
         <v>335</v>
       </c>
       <c r="B336" t="s">
-        <v>343</v>
+        <v>347</v>
       </c>
       <c r="C336" t="s">
         <v>354</v>
       </c>
       <c r="D336" t="s">
-        <v>372</v>
+        <v>387</v>
       </c>
     </row>
     <row r="337" spans="1:4">
@@ -16146,13 +16146,13 @@
         <v>336</v>
       </c>
       <c r="B337" t="s">
-        <v>347</v>
+        <v>348</v>
       </c>
       <c r="C337" t="s">
-        <v>354</v>
+        <v>355</v>
       </c>
       <c r="D337" t="s">
-        <v>387</v>
+        <v>378</v>
       </c>
     </row>
     <row r="338" spans="1:4">
@@ -16160,13 +16160,13 @@
         <v>337</v>
       </c>
       <c r="B338" t="s">
-        <v>348</v>
+        <v>344</v>
       </c>
       <c r="C338" t="s">
-        <v>355</v>
+        <v>354</v>
       </c>
       <c r="D338" t="s">
-        <v>378</v>
+        <v>372</v>
       </c>
     </row>
     <row r="339" spans="1:4">
@@ -16216,13 +16216,13 @@
         <v>341</v>
       </c>
       <c r="B342" t="s">
-        <v>350</v>
+        <v>351</v>
       </c>
       <c r="C342" t="s">
         <v>355</v>
       </c>
       <c r="D342" t="s">
-        <v>374</v>
+        <v>382</v>
       </c>
     </row>
     <row r="343" spans="1:4">
@@ -16244,13 +16244,13 @@
         <v>343</v>
       </c>
       <c r="B344" t="s">
-        <v>351</v>
+        <v>350</v>
       </c>
       <c r="C344" t="s">
         <v>355</v>
       </c>
       <c r="D344" t="s">
-        <v>382</v>
+        <v>374</v>
       </c>
     </row>
     <row r="345" spans="1:4">
@@ -16258,13 +16258,13 @@
         <v>344</v>
       </c>
       <c r="B345" t="s">
-        <v>329</v>
+        <v>349</v>
       </c>
       <c r="C345" t="s">
-        <v>356</v>
+        <v>355</v>
       </c>
       <c r="D345" t="s">
-        <v>369</v>
+        <v>364</v>
       </c>
     </row>
     <row r="346" spans="1:4">
@@ -16272,13 +16272,13 @@
         <v>345</v>
       </c>
       <c r="B346" t="s">
-        <v>349</v>
+        <v>330</v>
       </c>
       <c r="C346" t="s">
-        <v>355</v>
+        <v>356</v>
       </c>
       <c r="D346" t="s">
-        <v>364</v>
+        <v>369</v>
       </c>
     </row>
     <row r="347" spans="1:4">
@@ -16300,7 +16300,7 @@
         <v>347</v>
       </c>
       <c r="B348" t="s">
-        <v>333</v>
+        <v>334</v>
       </c>
       <c r="C348" t="s">
         <v>354</v>
@@ -16314,13 +16314,13 @@
         <v>348</v>
       </c>
       <c r="B349" t="s">
-        <v>328</v>
+        <v>394</v>
       </c>
       <c r="C349" t="s">
-        <v>357</v>
+        <v>354</v>
       </c>
       <c r="D349" t="s">
-        <v>378</v>
+        <v>389</v>
       </c>
     </row>
     <row r="350" spans="1:4">
@@ -16328,13 +16328,13 @@
         <v>349</v>
       </c>
       <c r="B350" t="s">
-        <v>394</v>
+        <v>328</v>
       </c>
       <c r="C350" t="s">
-        <v>354</v>
+        <v>357</v>
       </c>
       <c r="D350" t="s">
-        <v>389</v>
+        <v>378</v>
       </c>
     </row>
     <row r="351" spans="1:4">
@@ -16342,7 +16342,7 @@
         <v>350</v>
       </c>
       <c r="B351" t="s">
-        <v>353</v>
+        <v>352</v>
       </c>
       <c r="C351" t="s">
         <v>359</v>

--- a/docs/FantasyProsFootballDraft.xlsx
+++ b/docs/FantasyProsFootballDraft.xlsx
@@ -161,7 +161,7 @@
     <t>Breece Hall</t>
   </si>
   <si>
-    <t>Gabriel Davis</t>
+    <t>Gabe Davis</t>
   </si>
   <si>
     <t>Cam Akers</t>

--- a/docs/FantasyProsFootballDraft.xlsx
+++ b/docs/FantasyProsFootballDraft.xlsx
@@ -233,12 +233,12 @@
     <t>Damien Harris</t>
   </si>
   <si>
+    <t>Elijah Moore</t>
+  </si>
+  <si>
     <t>Dameon Pierce</t>
   </si>
   <si>
-    <t>Elijah Moore</t>
-  </si>
-  <si>
     <t>Michael Thomas</t>
   </si>
   <si>
@@ -338,12 +338,12 @@
     <t>DeAndre Hopkins</t>
   </si>
   <si>
+    <t>Aaron Rodgers</t>
+  </si>
+  <si>
     <t>Matthew Stafford</t>
   </si>
   <si>
-    <t>Aaron Rodgers</t>
-  </si>
-  <si>
     <t>Kadarius Toney</t>
   </si>
   <si>
@@ -434,12 +434,12 @@
     <t>Jameis Winston</t>
   </si>
   <si>
+    <t>Russell Gage</t>
+  </si>
+  <si>
     <t>George Pickens</t>
   </si>
   <si>
-    <t>Russell Gage</t>
-  </si>
-  <si>
     <t>Khalil Herbert</t>
   </si>
   <si>
@@ -605,30 +605,30 @@
     <t>Wan'Dale Robinson</t>
   </si>
   <si>
+    <t>Evan McPherson</t>
+  </si>
+  <si>
+    <t>Van Jefferson</t>
+  </si>
+  <si>
+    <t>Isaiah McKenzie</t>
+  </si>
+  <si>
+    <t>Matt Gay</t>
+  </si>
+  <si>
     <t>Jalen Tolbert</t>
   </si>
   <si>
-    <t>Isaiah McKenzie</t>
-  </si>
-  <si>
-    <t>Evan McPherson</t>
-  </si>
-  <si>
-    <t>Matt Gay</t>
-  </si>
-  <si>
-    <t>Van Jefferson</t>
-  </si>
-  <si>
     <t>Christian Watson</t>
   </si>
   <si>
+    <t>Boston Scott</t>
+  </si>
+  <si>
     <t>Dallas Cowboys</t>
   </si>
   <si>
-    <t>Boston Scott</t>
-  </si>
-  <si>
     <t>Gus Edwards</t>
   </si>
   <si>
@@ -641,12 +641,12 @@
     <t>Daniel Carlson</t>
   </si>
   <si>
+    <t>Jameson Williams</t>
+  </si>
+  <si>
     <t>Green Bay Packers</t>
   </si>
   <si>
-    <t>Jameson Williams</t>
-  </si>
-  <si>
     <t>Jeff Wilson Jr.</t>
   </si>
   <si>
@@ -677,24 +677,24 @@
     <t>Harrison Butker</t>
   </si>
   <si>
+    <t>Curtis Samuel</t>
+  </si>
+  <si>
+    <t>Mo Alie-Cox</t>
+  </si>
+  <si>
     <t>Marcus Mariota</t>
   </si>
   <si>
-    <t>Mo Alie-Cox</t>
-  </si>
-  <si>
-    <t>Curtis Samuel</t>
-  </si>
-  <si>
     <t>Ryan Succop</t>
   </si>
   <si>
+    <t>Ronald Jones II</t>
+  </si>
+  <si>
     <t>Baltimore Ravens</t>
   </si>
   <si>
-    <t>Ronald Jones II</t>
-  </si>
-  <si>
     <t>Cleveland Browns</t>
   </si>
   <si>
@@ -740,12 +740,12 @@
     <t>Brandon McManus</t>
   </si>
   <si>
+    <t>David Bell</t>
+  </si>
+  <si>
     <t>Eno Benjamin</t>
   </si>
   <si>
-    <t>David Bell</t>
-  </si>
-  <si>
     <t>Kendrick Bourne</t>
   </si>
   <si>
@@ -836,12 +836,12 @@
     <t>Terrace Marshall Jr.</t>
   </si>
   <si>
+    <t>Braxton Berrios</t>
+  </si>
+  <si>
     <t>Greg Joseph</t>
   </si>
   <si>
-    <t>Braxton Berrios</t>
-  </si>
-  <si>
     <t>Chris Boswell</t>
   </si>
   <si>
@@ -866,15 +866,15 @@
     <t>C.J. Uzomah</t>
   </si>
   <si>
+    <t>Isaiah Likely</t>
+  </si>
+  <si>
+    <t>Myles Gaskin</t>
+  </si>
+  <si>
     <t>Dan Arnold</t>
   </si>
   <si>
-    <t>Isaiah Likely</t>
-  </si>
-  <si>
-    <t>Myles Gaskin</t>
-  </si>
-  <si>
     <t>Trey Sermon</t>
   </si>
   <si>
@@ -887,33 +887,33 @@
     <t>Hassan Haskins</t>
   </si>
   <si>
+    <t>Nick Westbrook-Ikhine</t>
+  </si>
+  <si>
+    <t>Marquez Callaway</t>
+  </si>
+  <si>
     <t>Geno Smith</t>
   </si>
   <si>
-    <t>Nick Westbrook-Ikhine</t>
-  </si>
-  <si>
-    <t>Marquez Callaway</t>
-  </si>
-  <si>
     <t>Joshua Kelley</t>
   </si>
   <si>
+    <t>Ameer Abdullah</t>
+  </si>
+  <si>
     <t>Jacoby Brissett</t>
   </si>
   <si>
-    <t>Ameer Abdullah</t>
-  </si>
-  <si>
     <t>Trey McBride</t>
   </si>
   <si>
+    <t>New York Giants</t>
+  </si>
+  <si>
     <t>Kenny Pickett</t>
   </si>
   <si>
-    <t>New York Giants</t>
-  </si>
-  <si>
     <t>Randy Bullock</t>
   </si>
   <si>
@@ -974,12 +974,12 @@
     <t>Odell Beckham Jr.</t>
   </si>
   <si>
+    <t>William Fuller V</t>
+  </si>
+  <si>
     <t>Kyle Philips</t>
   </si>
   <si>
-    <t>William Fuller V</t>
-  </si>
-  <si>
     <t>Jacksonville Jaguars</t>
   </si>
   <si>
@@ -989,12 +989,12 @@
     <t>Pierre Strong Jr.</t>
   </si>
   <si>
+    <t>O.J. Howard</t>
+  </si>
+  <si>
     <t>Darius Slayton</t>
   </si>
   <si>
-    <t>O.J. Howard</t>
-  </si>
-  <si>
     <t>Drew Lock</t>
   </si>
   <si>
@@ -1004,30 +1004,30 @@
     <t>Greg Dulcich</t>
   </si>
   <si>
+    <t>Jimmy Garoppolo</t>
+  </si>
+  <si>
     <t>Giovani Bernard</t>
   </si>
   <si>
-    <t>Jimmy Garoppolo</t>
-  </si>
-  <si>
     <t>Dyami Brown</t>
   </si>
   <si>
+    <t>Ty Johnson</t>
+  </si>
+  <si>
     <t>Taysom Hill</t>
   </si>
   <si>
-    <t>Ty Johnson</t>
+    <t>Phillip Lindsay</t>
+  </si>
+  <si>
+    <t>Quintez Cephus</t>
   </si>
   <si>
     <t>Harrison Bryant</t>
   </si>
   <si>
-    <t>Quintez Cephus</t>
-  </si>
-  <si>
-    <t>Phillip Lindsay</t>
-  </si>
-  <si>
     <t>Brett Maher</t>
   </si>
   <si>
@@ -1052,12 +1052,12 @@
     <t>Las Vegas Raiders</t>
   </si>
   <si>
+    <t>Justin Jackson</t>
+  </si>
+  <si>
     <t>Desmond Ridder</t>
   </si>
   <si>
-    <t>Justin Jackson</t>
-  </si>
-  <si>
     <t>Jerome Ford</t>
   </si>
   <si>
@@ -1079,10 +1079,10 @@
     <t>Olamide Zaccheaus</t>
   </si>
   <si>
+    <t>Foster Moreau</t>
+  </si>
+  <si>
     <t>Chase McLaughlin</t>
-  </si>
-  <si>
-    <t>Foster Moreau</t>
   </si>
   <si>
     <t>RB</t>
@@ -2521,10 +2521,10 @@
         <v>70</v>
       </c>
       <c r="C68" t="s">
-        <v>354</v>
+        <v>355</v>
       </c>
       <c r="D68" t="s">
-        <v>390</v>
+        <v>388</v>
       </c>
     </row>
     <row r="69" spans="1:4">
@@ -2535,10 +2535,10 @@
         <v>71</v>
       </c>
       <c r="C69" t="s">
-        <v>355</v>
+        <v>354</v>
       </c>
       <c r="D69" t="s">
-        <v>388</v>
+        <v>390</v>
       </c>
     </row>
     <row r="70" spans="1:4">
@@ -3014,7 +3014,7 @@
         <v>357</v>
       </c>
       <c r="D103" t="s">
-        <v>368</v>
+        <v>376</v>
       </c>
     </row>
     <row r="104" spans="1:4">
@@ -3028,7 +3028,7 @@
         <v>357</v>
       </c>
       <c r="D104" t="s">
-        <v>376</v>
+        <v>368</v>
       </c>
     </row>
     <row r="105" spans="1:4">
@@ -3462,7 +3462,7 @@
         <v>355</v>
       </c>
       <c r="D135" t="s">
-        <v>366</v>
+        <v>380</v>
       </c>
     </row>
     <row r="136" spans="1:4">
@@ -3476,7 +3476,7 @@
         <v>355</v>
       </c>
       <c r="D136" t="s">
-        <v>380</v>
+        <v>366</v>
       </c>
     </row>
     <row r="137" spans="1:4">
@@ -4257,10 +4257,10 @@
         <v>194</v>
       </c>
       <c r="C192" t="s">
-        <v>355</v>
+        <v>359</v>
       </c>
       <c r="D192" t="s">
-        <v>379</v>
+        <v>365</v>
       </c>
     </row>
     <row r="193" spans="1:4">
@@ -4274,7 +4274,7 @@
         <v>355</v>
       </c>
       <c r="D193" t="s">
-        <v>374</v>
+        <v>368</v>
       </c>
     </row>
     <row r="194" spans="1:4">
@@ -4285,10 +4285,10 @@
         <v>196</v>
       </c>
       <c r="C194" t="s">
-        <v>359</v>
+        <v>355</v>
       </c>
       <c r="D194" t="s">
-        <v>365</v>
+        <v>374</v>
       </c>
     </row>
     <row r="195" spans="1:4">
@@ -4316,7 +4316,7 @@
         <v>355</v>
       </c>
       <c r="D196" t="s">
-        <v>368</v>
+        <v>379</v>
       </c>
     </row>
     <row r="197" spans="1:4">
@@ -4341,10 +4341,10 @@
         <v>200</v>
       </c>
       <c r="C198" t="s">
-        <v>358</v>
+        <v>354</v>
       </c>
       <c r="D198" t="s">
-        <v>379</v>
+        <v>384</v>
       </c>
     </row>
     <row r="199" spans="1:4">
@@ -4355,10 +4355,10 @@
         <v>201</v>
       </c>
       <c r="C199" t="s">
-        <v>354</v>
+        <v>358</v>
       </c>
       <c r="D199" t="s">
-        <v>384</v>
+        <v>379</v>
       </c>
     </row>
     <row r="200" spans="1:4">
@@ -4425,10 +4425,10 @@
         <v>206</v>
       </c>
       <c r="C204" t="s">
-        <v>358</v>
+        <v>355</v>
       </c>
       <c r="D204" t="s">
-        <v>376</v>
+        <v>372</v>
       </c>
     </row>
     <row r="205" spans="1:4">
@@ -4439,10 +4439,10 @@
         <v>207</v>
       </c>
       <c r="C205" t="s">
-        <v>355</v>
+        <v>358</v>
       </c>
       <c r="D205" t="s">
-        <v>372</v>
+        <v>376</v>
       </c>
     </row>
     <row r="206" spans="1:4">
@@ -4593,10 +4593,10 @@
         <v>218</v>
       </c>
       <c r="C216" t="s">
-        <v>357</v>
+        <v>355</v>
       </c>
       <c r="D216" t="s">
-        <v>382</v>
+        <v>385</v>
       </c>
     </row>
     <row r="217" spans="1:4">
@@ -4621,10 +4621,10 @@
         <v>220</v>
       </c>
       <c r="C218" t="s">
-        <v>355</v>
+        <v>357</v>
       </c>
       <c r="D218" t="s">
-        <v>385</v>
+        <v>382</v>
       </c>
     </row>
     <row r="219" spans="1:4">
@@ -4649,10 +4649,10 @@
         <v>222</v>
       </c>
       <c r="C220" t="s">
-        <v>358</v>
+        <v>354</v>
       </c>
       <c r="D220" t="s">
-        <v>373</v>
+        <v>370</v>
       </c>
     </row>
     <row r="221" spans="1:4">
@@ -4663,10 +4663,10 @@
         <v>223</v>
       </c>
       <c r="C221" t="s">
-        <v>354</v>
+        <v>358</v>
       </c>
       <c r="D221" t="s">
-        <v>370</v>
+        <v>373</v>
       </c>
     </row>
     <row r="222" spans="1:4">
@@ -4887,10 +4887,10 @@
         <v>239</v>
       </c>
       <c r="C237" t="s">
-        <v>354</v>
+        <v>355</v>
       </c>
       <c r="D237" t="s">
-        <v>383</v>
+        <v>367</v>
       </c>
     </row>
     <row r="238" spans="1:4">
@@ -4901,10 +4901,10 @@
         <v>240</v>
       </c>
       <c r="C238" t="s">
-        <v>355</v>
+        <v>354</v>
       </c>
       <c r="D238" t="s">
-        <v>367</v>
+        <v>383</v>
       </c>
     </row>
     <row r="239" spans="1:4">
@@ -5335,10 +5335,10 @@
         <v>271</v>
       </c>
       <c r="C269" t="s">
-        <v>359</v>
+        <v>355</v>
       </c>
       <c r="D269" t="s">
-        <v>363</v>
+        <v>388</v>
       </c>
     </row>
     <row r="270" spans="1:4">
@@ -5349,10 +5349,10 @@
         <v>272</v>
       </c>
       <c r="C270" t="s">
-        <v>355</v>
+        <v>359</v>
       </c>
       <c r="D270" t="s">
-        <v>388</v>
+        <v>363</v>
       </c>
     </row>
     <row r="271" spans="1:4">
@@ -5478,7 +5478,7 @@
         <v>356</v>
       </c>
       <c r="D279" t="s">
-        <v>386</v>
+        <v>373</v>
       </c>
     </row>
     <row r="280" spans="1:4">
@@ -5489,10 +5489,10 @@
         <v>282</v>
       </c>
       <c r="C280" t="s">
-        <v>356</v>
+        <v>354</v>
       </c>
       <c r="D280" t="s">
-        <v>373</v>
+        <v>381</v>
       </c>
     </row>
     <row r="281" spans="1:4">
@@ -5503,10 +5503,10 @@
         <v>283</v>
       </c>
       <c r="C281" t="s">
-        <v>354</v>
+        <v>356</v>
       </c>
       <c r="D281" t="s">
-        <v>381</v>
+        <v>386</v>
       </c>
     </row>
     <row r="282" spans="1:4">
@@ -5573,10 +5573,10 @@
         <v>288</v>
       </c>
       <c r="C286" t="s">
-        <v>357</v>
+        <v>355</v>
       </c>
       <c r="D286" t="s">
-        <v>389</v>
+        <v>362</v>
       </c>
     </row>
     <row r="287" spans="1:4">
@@ -5590,7 +5590,7 @@
         <v>355</v>
       </c>
       <c r="D287" t="s">
-        <v>362</v>
+        <v>369</v>
       </c>
     </row>
     <row r="288" spans="1:4">
@@ -5601,10 +5601,10 @@
         <v>290</v>
       </c>
       <c r="C288" t="s">
-        <v>355</v>
+        <v>357</v>
       </c>
       <c r="D288" t="s">
-        <v>369</v>
+        <v>389</v>
       </c>
     </row>
     <row r="289" spans="1:4">
@@ -5629,10 +5629,10 @@
         <v>292</v>
       </c>
       <c r="C290" t="s">
-        <v>357</v>
+        <v>354</v>
       </c>
       <c r="D290" t="s">
-        <v>367</v>
+        <v>375</v>
       </c>
     </row>
     <row r="291" spans="1:4">
@@ -5643,10 +5643,10 @@
         <v>293</v>
       </c>
       <c r="C291" t="s">
-        <v>354</v>
+        <v>357</v>
       </c>
       <c r="D291" t="s">
-        <v>375</v>
+        <v>367</v>
       </c>
     </row>
     <row r="292" spans="1:4">
@@ -5671,10 +5671,10 @@
         <v>295</v>
       </c>
       <c r="C293" t="s">
-        <v>357</v>
+        <v>358</v>
       </c>
       <c r="D293" t="s">
-        <v>366</v>
+        <v>371</v>
       </c>
     </row>
     <row r="294" spans="1:4">
@@ -5685,10 +5685,10 @@
         <v>296</v>
       </c>
       <c r="C294" t="s">
-        <v>358</v>
+        <v>357</v>
       </c>
       <c r="D294" t="s">
-        <v>371</v>
+        <v>366</v>
       </c>
     </row>
     <row r="295" spans="1:4">
@@ -5982,7 +5982,7 @@
         <v>355</v>
       </c>
       <c r="D315" t="s">
-        <v>362</v>
+        <v>392</v>
       </c>
     </row>
     <row r="316" spans="1:4">
@@ -5996,7 +5996,7 @@
         <v>355</v>
       </c>
       <c r="D316" t="s">
-        <v>392</v>
+        <v>362</v>
       </c>
     </row>
     <row r="317" spans="1:4">
@@ -6049,10 +6049,10 @@
         <v>322</v>
       </c>
       <c r="C320" t="s">
-        <v>355</v>
+        <v>356</v>
       </c>
       <c r="D320" t="s">
-        <v>371</v>
+        <v>390</v>
       </c>
     </row>
     <row r="321" spans="1:4">
@@ -6063,10 +6063,10 @@
         <v>323</v>
       </c>
       <c r="C321" t="s">
-        <v>356</v>
+        <v>355</v>
       </c>
       <c r="D321" t="s">
-        <v>390</v>
+        <v>371</v>
       </c>
     </row>
     <row r="322" spans="1:4">
@@ -6119,10 +6119,10 @@
         <v>327</v>
       </c>
       <c r="C325" t="s">
-        <v>354</v>
+        <v>357</v>
       </c>
       <c r="D325" t="s">
-        <v>380</v>
+        <v>378</v>
       </c>
     </row>
     <row r="326" spans="1:4">
@@ -6133,10 +6133,10 @@
         <v>328</v>
       </c>
       <c r="C326" t="s">
-        <v>357</v>
+        <v>354</v>
       </c>
       <c r="D326" t="s">
-        <v>378</v>
+        <v>380</v>
       </c>
     </row>
     <row r="327" spans="1:4">
@@ -6161,10 +6161,10 @@
         <v>330</v>
       </c>
       <c r="C328" t="s">
-        <v>356</v>
+        <v>354</v>
       </c>
       <c r="D328" t="s">
-        <v>369</v>
+        <v>388</v>
       </c>
     </row>
     <row r="329" spans="1:4">
@@ -6175,10 +6175,10 @@
         <v>331</v>
       </c>
       <c r="C329" t="s">
-        <v>354</v>
+        <v>356</v>
       </c>
       <c r="D329" t="s">
-        <v>388</v>
+        <v>369</v>
       </c>
     </row>
     <row r="330" spans="1:4">
@@ -6189,10 +6189,10 @@
         <v>332</v>
       </c>
       <c r="C330" t="s">
-        <v>356</v>
+        <v>354</v>
       </c>
       <c r="D330" t="s">
-        <v>367</v>
+        <v>360</v>
       </c>
     </row>
     <row r="331" spans="1:4">
@@ -6217,10 +6217,10 @@
         <v>334</v>
       </c>
       <c r="C332" t="s">
-        <v>354</v>
+        <v>356</v>
       </c>
       <c r="D332" t="s">
-        <v>360</v>
+        <v>367</v>
       </c>
     </row>
     <row r="333" spans="1:4">
@@ -6343,10 +6343,10 @@
         <v>343</v>
       </c>
       <c r="C341" t="s">
-        <v>357</v>
+        <v>354</v>
       </c>
       <c r="D341" t="s">
-        <v>382</v>
+        <v>372</v>
       </c>
     </row>
     <row r="342" spans="1:4">
@@ -6357,10 +6357,10 @@
         <v>344</v>
       </c>
       <c r="C342" t="s">
-        <v>354</v>
+        <v>357</v>
       </c>
       <c r="D342" t="s">
-        <v>372</v>
+        <v>382</v>
       </c>
     </row>
     <row r="343" spans="1:4">
@@ -6469,10 +6469,10 @@
         <v>352</v>
       </c>
       <c r="C350" t="s">
-        <v>359</v>
+        <v>356</v>
       </c>
       <c r="D350" t="s">
-        <v>360</v>
+        <v>375</v>
       </c>
     </row>
     <row r="351" spans="1:4">
@@ -6483,10 +6483,10 @@
         <v>353</v>
       </c>
       <c r="C351" t="s">
-        <v>356</v>
+        <v>359</v>
       </c>
       <c r="D351" t="s">
-        <v>375</v>
+        <v>360</v>
       </c>
     </row>
   </sheetData>
@@ -7337,13 +7337,13 @@
         <v>59</v>
       </c>
       <c r="B60" t="s">
-        <v>70</v>
+        <v>62</v>
       </c>
       <c r="C60" t="s">
         <v>354</v>
       </c>
       <c r="D60" t="s">
-        <v>390</v>
+        <v>373</v>
       </c>
     </row>
     <row r="61" spans="1:4">
@@ -7351,13 +7351,13 @@
         <v>60</v>
       </c>
       <c r="B61" t="s">
-        <v>62</v>
+        <v>71</v>
       </c>
       <c r="C61" t="s">
         <v>354</v>
       </c>
       <c r="D61" t="s">
-        <v>373</v>
+        <v>390</v>
       </c>
     </row>
     <row r="62" spans="1:4">
@@ -7421,13 +7421,13 @@
         <v>65</v>
       </c>
       <c r="B66" t="s">
-        <v>65</v>
+        <v>73</v>
       </c>
       <c r="C66" t="s">
         <v>355</v>
       </c>
       <c r="D66" t="s">
-        <v>373</v>
+        <v>372</v>
       </c>
     </row>
     <row r="67" spans="1:4">
@@ -7435,13 +7435,13 @@
         <v>66</v>
       </c>
       <c r="B67" t="s">
-        <v>73</v>
+        <v>65</v>
       </c>
       <c r="C67" t="s">
         <v>355</v>
       </c>
       <c r="D67" t="s">
-        <v>372</v>
+        <v>373</v>
       </c>
     </row>
     <row r="68" spans="1:4">
@@ -7547,7 +7547,7 @@
         <v>74</v>
       </c>
       <c r="B75" t="s">
-        <v>71</v>
+        <v>70</v>
       </c>
       <c r="C75" t="s">
         <v>355</v>
@@ -7687,13 +7687,13 @@
         <v>84</v>
       </c>
       <c r="B85" t="s">
-        <v>88</v>
+        <v>83</v>
       </c>
       <c r="C85" t="s">
-        <v>357</v>
+        <v>356</v>
       </c>
       <c r="D85" t="s">
-        <v>380</v>
+        <v>372</v>
       </c>
     </row>
     <row r="86" spans="1:4">
@@ -7701,13 +7701,13 @@
         <v>85</v>
       </c>
       <c r="B86" t="s">
-        <v>83</v>
+        <v>88</v>
       </c>
       <c r="C86" t="s">
-        <v>356</v>
+        <v>357</v>
       </c>
       <c r="D86" t="s">
-        <v>372</v>
+        <v>380</v>
       </c>
     </row>
     <row r="87" spans="1:4">
@@ -7897,7 +7897,7 @@
         <v>99</v>
       </c>
       <c r="B100" t="s">
-        <v>105</v>
+        <v>106</v>
       </c>
       <c r="C100" t="s">
         <v>357</v>
@@ -7911,7 +7911,7 @@
         <v>100</v>
       </c>
       <c r="B101" t="s">
-        <v>106</v>
+        <v>105</v>
       </c>
       <c r="C101" t="s">
         <v>357</v>
@@ -8233,7 +8233,7 @@
         <v>123</v>
       </c>
       <c r="B124" t="s">
-        <v>137</v>
+        <v>138</v>
       </c>
       <c r="C124" t="s">
         <v>355</v>
@@ -8331,7 +8331,7 @@
         <v>130</v>
       </c>
       <c r="B131" t="s">
-        <v>138</v>
+        <v>137</v>
       </c>
       <c r="C131" t="s">
         <v>355</v>
@@ -8429,13 +8429,13 @@
         <v>137</v>
       </c>
       <c r="B138" t="s">
-        <v>141</v>
+        <v>144</v>
       </c>
       <c r="C138" t="s">
-        <v>354</v>
+        <v>355</v>
       </c>
       <c r="D138" t="s">
-        <v>372</v>
+        <v>391</v>
       </c>
     </row>
     <row r="139" spans="1:4">
@@ -8443,13 +8443,13 @@
         <v>138</v>
       </c>
       <c r="B139" t="s">
-        <v>144</v>
+        <v>141</v>
       </c>
       <c r="C139" t="s">
-        <v>355</v>
+        <v>354</v>
       </c>
       <c r="D139" t="s">
-        <v>391</v>
+        <v>372</v>
       </c>
     </row>
     <row r="140" spans="1:4">
@@ -8457,13 +8457,13 @@
         <v>139</v>
       </c>
       <c r="B140" t="s">
-        <v>155</v>
+        <v>135</v>
       </c>
       <c r="C140" t="s">
-        <v>355</v>
+        <v>356</v>
       </c>
       <c r="D140" t="s">
-        <v>385</v>
+        <v>377</v>
       </c>
     </row>
     <row r="141" spans="1:4">
@@ -8471,13 +8471,13 @@
         <v>140</v>
       </c>
       <c r="B141" t="s">
-        <v>135</v>
+        <v>155</v>
       </c>
       <c r="C141" t="s">
-        <v>356</v>
+        <v>355</v>
       </c>
       <c r="D141" t="s">
-        <v>377</v>
+        <v>385</v>
       </c>
     </row>
     <row r="142" spans="1:4">
@@ -8933,7 +8933,7 @@
         <v>173</v>
       </c>
       <c r="B174" t="s">
-        <v>195</v>
+        <v>196</v>
       </c>
       <c r="C174" t="s">
         <v>355</v>
@@ -9087,7 +9087,7 @@
         <v>184</v>
       </c>
       <c r="B185" t="s">
-        <v>198</v>
+        <v>195</v>
       </c>
       <c r="C185" t="s">
         <v>355</v>
@@ -9129,7 +9129,7 @@
         <v>187</v>
       </c>
       <c r="B188" t="s">
-        <v>194</v>
+        <v>198</v>
       </c>
       <c r="C188" t="s">
         <v>355</v>
@@ -9143,13 +9143,13 @@
         <v>188</v>
       </c>
       <c r="B189" t="s">
-        <v>192</v>
+        <v>208</v>
       </c>
       <c r="C189" t="s">
-        <v>355</v>
+        <v>354</v>
       </c>
       <c r="D189" t="s">
-        <v>376</v>
+        <v>378</v>
       </c>
     </row>
     <row r="190" spans="1:4">
@@ -9157,13 +9157,13 @@
         <v>189</v>
       </c>
       <c r="B190" t="s">
-        <v>208</v>
+        <v>189</v>
       </c>
       <c r="C190" t="s">
         <v>354</v>
       </c>
       <c r="D190" t="s">
-        <v>378</v>
+        <v>370</v>
       </c>
     </row>
     <row r="191" spans="1:4">
@@ -9171,13 +9171,13 @@
         <v>190</v>
       </c>
       <c r="B191" t="s">
-        <v>189</v>
+        <v>209</v>
       </c>
       <c r="C191" t="s">
-        <v>354</v>
+        <v>355</v>
       </c>
       <c r="D191" t="s">
-        <v>370</v>
+        <v>377</v>
       </c>
     </row>
     <row r="192" spans="1:4">
@@ -9185,13 +9185,13 @@
         <v>191</v>
       </c>
       <c r="B192" t="s">
-        <v>209</v>
+        <v>187</v>
       </c>
       <c r="C192" t="s">
-        <v>355</v>
+        <v>359</v>
       </c>
       <c r="D192" t="s">
-        <v>377</v>
+        <v>374</v>
       </c>
     </row>
     <row r="193" spans="1:4">
@@ -9199,13 +9199,13 @@
         <v>192</v>
       </c>
       <c r="B193" t="s">
-        <v>187</v>
+        <v>192</v>
       </c>
       <c r="C193" t="s">
-        <v>359</v>
+        <v>355</v>
       </c>
       <c r="D193" t="s">
-        <v>374</v>
+        <v>376</v>
       </c>
     </row>
     <row r="194" spans="1:4">
@@ -9269,7 +9269,7 @@
         <v>197</v>
       </c>
       <c r="B198" t="s">
-        <v>207</v>
+        <v>206</v>
       </c>
       <c r="C198" t="s">
         <v>355</v>
@@ -9283,7 +9283,7 @@
         <v>198</v>
       </c>
       <c r="B199" t="s">
-        <v>201</v>
+        <v>200</v>
       </c>
       <c r="C199" t="s">
         <v>354</v>
@@ -9353,7 +9353,7 @@
         <v>203</v>
       </c>
       <c r="B204" t="s">
-        <v>196</v>
+        <v>194</v>
       </c>
       <c r="C204" t="s">
         <v>359</v>
@@ -9381,7 +9381,7 @@
         <v>205</v>
       </c>
       <c r="B206" t="s">
-        <v>200</v>
+        <v>201</v>
       </c>
       <c r="C206" t="s">
         <v>358</v>
@@ -9409,13 +9409,13 @@
         <v>207</v>
       </c>
       <c r="B208" t="s">
-        <v>186</v>
+        <v>205</v>
       </c>
       <c r="C208" t="s">
-        <v>357</v>
+        <v>359</v>
       </c>
       <c r="D208" t="s">
-        <v>390</v>
+        <v>375</v>
       </c>
     </row>
     <row r="209" spans="1:4">
@@ -9423,13 +9423,13 @@
         <v>208</v>
       </c>
       <c r="B209" t="s">
-        <v>205</v>
+        <v>186</v>
       </c>
       <c r="C209" t="s">
-        <v>359</v>
+        <v>357</v>
       </c>
       <c r="D209" t="s">
-        <v>375</v>
+        <v>390</v>
       </c>
     </row>
     <row r="210" spans="1:4">
@@ -9437,7 +9437,7 @@
         <v>209</v>
       </c>
       <c r="B210" t="s">
-        <v>206</v>
+        <v>207</v>
       </c>
       <c r="C210" t="s">
         <v>358</v>
@@ -9451,7 +9451,7 @@
         <v>210</v>
       </c>
       <c r="B211" t="s">
-        <v>220</v>
+        <v>218</v>
       </c>
       <c r="C211" t="s">
         <v>355</v>
@@ -9563,7 +9563,7 @@
         <v>218</v>
       </c>
       <c r="B219" t="s">
-        <v>240</v>
+        <v>239</v>
       </c>
       <c r="C219" t="s">
         <v>355</v>
@@ -9605,7 +9605,7 @@
         <v>221</v>
       </c>
       <c r="B222" t="s">
-        <v>222</v>
+        <v>223</v>
       </c>
       <c r="C222" t="s">
         <v>358</v>
@@ -9633,13 +9633,13 @@
         <v>223</v>
       </c>
       <c r="B224" t="s">
-        <v>233</v>
+        <v>224</v>
       </c>
       <c r="C224" t="s">
-        <v>354</v>
+        <v>358</v>
       </c>
       <c r="D224" t="s">
-        <v>370</v>
+        <v>367</v>
       </c>
     </row>
     <row r="225" spans="1:4">
@@ -9647,13 +9647,13 @@
         <v>224</v>
       </c>
       <c r="B225" t="s">
-        <v>224</v>
+        <v>233</v>
       </c>
       <c r="C225" t="s">
-        <v>358</v>
+        <v>354</v>
       </c>
       <c r="D225" t="s">
-        <v>367</v>
+        <v>370</v>
       </c>
     </row>
     <row r="226" spans="1:4">
@@ -9675,13 +9675,13 @@
         <v>226</v>
       </c>
       <c r="B227" t="s">
-        <v>218</v>
+        <v>227</v>
       </c>
       <c r="C227" t="s">
-        <v>357</v>
+        <v>358</v>
       </c>
       <c r="D227" t="s">
-        <v>382</v>
+        <v>370</v>
       </c>
     </row>
     <row r="228" spans="1:4">
@@ -9689,13 +9689,13 @@
         <v>227</v>
       </c>
       <c r="B228" t="s">
-        <v>227</v>
+        <v>235</v>
       </c>
       <c r="C228" t="s">
-        <v>358</v>
+        <v>354</v>
       </c>
       <c r="D228" t="s">
-        <v>370</v>
+        <v>365</v>
       </c>
     </row>
     <row r="229" spans="1:4">
@@ -9703,13 +9703,13 @@
         <v>228</v>
       </c>
       <c r="B229" t="s">
-        <v>235</v>
+        <v>220</v>
       </c>
       <c r="C229" t="s">
-        <v>354</v>
+        <v>357</v>
       </c>
       <c r="D229" t="s">
-        <v>365</v>
+        <v>382</v>
       </c>
     </row>
     <row r="230" spans="1:4">
@@ -9801,13 +9801,13 @@
         <v>235</v>
       </c>
       <c r="B236" t="s">
-        <v>239</v>
+        <v>222</v>
       </c>
       <c r="C236" t="s">
         <v>354</v>
       </c>
       <c r="D236" t="s">
-        <v>383</v>
+        <v>370</v>
       </c>
     </row>
     <row r="237" spans="1:4">
@@ -9815,13 +9815,13 @@
         <v>236</v>
       </c>
       <c r="B237" t="s">
-        <v>223</v>
+        <v>242</v>
       </c>
       <c r="C237" t="s">
-        <v>354</v>
+        <v>355</v>
       </c>
       <c r="D237" t="s">
-        <v>370</v>
+        <v>374</v>
       </c>
     </row>
     <row r="238" spans="1:4">
@@ -9829,13 +9829,13 @@
         <v>237</v>
       </c>
       <c r="B238" t="s">
-        <v>242</v>
+        <v>240</v>
       </c>
       <c r="C238" t="s">
-        <v>355</v>
+        <v>354</v>
       </c>
       <c r="D238" t="s">
-        <v>374</v>
+        <v>383</v>
       </c>
     </row>
     <row r="239" spans="1:4">
@@ -10109,13 +10109,13 @@
         <v>257</v>
       </c>
       <c r="B258" t="s">
-        <v>251</v>
+        <v>266</v>
       </c>
       <c r="C258" t="s">
-        <v>357</v>
+        <v>358</v>
       </c>
       <c r="D258" t="s">
-        <v>366</v>
+        <v>363</v>
       </c>
     </row>
     <row r="259" spans="1:4">
@@ -10123,13 +10123,13 @@
         <v>258</v>
       </c>
       <c r="B259" t="s">
-        <v>266</v>
+        <v>251</v>
       </c>
       <c r="C259" t="s">
-        <v>358</v>
+        <v>357</v>
       </c>
       <c r="D259" t="s">
-        <v>363</v>
+        <v>366</v>
       </c>
     </row>
     <row r="260" spans="1:4">
@@ -10137,7 +10137,7 @@
         <v>259</v>
       </c>
       <c r="B260" t="s">
-        <v>272</v>
+        <v>271</v>
       </c>
       <c r="C260" t="s">
         <v>355</v>
@@ -10277,7 +10277,7 @@
         <v>269</v>
       </c>
       <c r="B270" t="s">
-        <v>271</v>
+        <v>272</v>
       </c>
       <c r="C270" t="s">
         <v>359</v>
@@ -10319,13 +10319,13 @@
         <v>272</v>
       </c>
       <c r="B273" t="s">
-        <v>285</v>
+        <v>278</v>
       </c>
       <c r="C273" t="s">
-        <v>358</v>
+        <v>359</v>
       </c>
       <c r="D273" t="s">
-        <v>387</v>
+        <v>388</v>
       </c>
     </row>
     <row r="274" spans="1:4">
@@ -10333,13 +10333,13 @@
         <v>273</v>
       </c>
       <c r="B274" t="s">
-        <v>278</v>
+        <v>285</v>
       </c>
       <c r="C274" t="s">
-        <v>359</v>
+        <v>358</v>
       </c>
       <c r="D274" t="s">
-        <v>388</v>
+        <v>387</v>
       </c>
     </row>
     <row r="275" spans="1:4">
@@ -10375,7 +10375,7 @@
         <v>276</v>
       </c>
       <c r="B277" t="s">
-        <v>296</v>
+        <v>295</v>
       </c>
       <c r="C277" t="s">
         <v>358</v>
@@ -10445,13 +10445,13 @@
         <v>281</v>
       </c>
       <c r="B282" t="s">
-        <v>297</v>
+        <v>282</v>
       </c>
       <c r="C282" t="s">
-        <v>359</v>
+        <v>354</v>
       </c>
       <c r="D282" t="s">
-        <v>362</v>
+        <v>381</v>
       </c>
     </row>
     <row r="283" spans="1:4">
@@ -10459,13 +10459,13 @@
         <v>282</v>
       </c>
       <c r="B283" t="s">
-        <v>283</v>
+        <v>297</v>
       </c>
       <c r="C283" t="s">
-        <v>354</v>
+        <v>359</v>
       </c>
       <c r="D283" t="s">
-        <v>381</v>
+        <v>362</v>
       </c>
     </row>
     <row r="284" spans="1:4">
@@ -10487,7 +10487,7 @@
         <v>284</v>
       </c>
       <c r="B285" t="s">
-        <v>293</v>
+        <v>292</v>
       </c>
       <c r="C285" t="s">
         <v>354</v>
@@ -10515,7 +10515,7 @@
         <v>286</v>
       </c>
       <c r="B287" t="s">
-        <v>295</v>
+        <v>296</v>
       </c>
       <c r="C287" t="s">
         <v>357</v>
@@ -10529,13 +10529,13 @@
         <v>287</v>
       </c>
       <c r="B288" t="s">
-        <v>291</v>
+        <v>280</v>
       </c>
       <c r="C288" t="s">
-        <v>354</v>
+        <v>356</v>
       </c>
       <c r="D288" t="s">
-        <v>364</v>
+        <v>388</v>
       </c>
     </row>
     <row r="289" spans="1:4">
@@ -10543,13 +10543,13 @@
         <v>288</v>
       </c>
       <c r="B289" t="s">
-        <v>301</v>
+        <v>291</v>
       </c>
       <c r="C289" t="s">
-        <v>359</v>
+        <v>354</v>
       </c>
       <c r="D289" t="s">
-        <v>387</v>
+        <v>364</v>
       </c>
     </row>
     <row r="290" spans="1:4">
@@ -10557,13 +10557,13 @@
         <v>289</v>
       </c>
       <c r="B290" t="s">
-        <v>280</v>
+        <v>301</v>
       </c>
       <c r="C290" t="s">
-        <v>356</v>
+        <v>359</v>
       </c>
       <c r="D290" t="s">
-        <v>388</v>
+        <v>387</v>
       </c>
     </row>
     <row r="291" spans="1:4">
@@ -10585,13 +10585,13 @@
         <v>291</v>
       </c>
       <c r="B292" t="s">
-        <v>288</v>
+        <v>289</v>
       </c>
       <c r="C292" t="s">
-        <v>357</v>
+        <v>355</v>
       </c>
       <c r="D292" t="s">
-        <v>389</v>
+        <v>369</v>
       </c>
     </row>
     <row r="293" spans="1:4">
@@ -10602,10 +10602,10 @@
         <v>290</v>
       </c>
       <c r="C293" t="s">
-        <v>355</v>
+        <v>357</v>
       </c>
       <c r="D293" t="s">
-        <v>369</v>
+        <v>389</v>
       </c>
     </row>
     <row r="294" spans="1:4">
@@ -10613,7 +10613,7 @@
         <v>293</v>
       </c>
       <c r="B294" t="s">
-        <v>281</v>
+        <v>283</v>
       </c>
       <c r="C294" t="s">
         <v>356</v>
@@ -10627,7 +10627,7 @@
         <v>294</v>
       </c>
       <c r="B295" t="s">
-        <v>282</v>
+        <v>281</v>
       </c>
       <c r="C295" t="s">
         <v>356</v>
@@ -10641,13 +10641,13 @@
         <v>295</v>
       </c>
       <c r="B296" t="s">
-        <v>289</v>
+        <v>284</v>
       </c>
       <c r="C296" t="s">
-        <v>355</v>
+        <v>354</v>
       </c>
       <c r="D296" t="s">
-        <v>362</v>
+        <v>384</v>
       </c>
     </row>
     <row r="297" spans="1:4">
@@ -10655,13 +10655,13 @@
         <v>296</v>
       </c>
       <c r="B297" t="s">
-        <v>284</v>
+        <v>288</v>
       </c>
       <c r="C297" t="s">
-        <v>354</v>
+        <v>355</v>
       </c>
       <c r="D297" t="s">
-        <v>384</v>
+        <v>362</v>
       </c>
     </row>
     <row r="298" spans="1:4">
@@ -10697,7 +10697,7 @@
         <v>299</v>
       </c>
       <c r="B300" t="s">
-        <v>292</v>
+        <v>293</v>
       </c>
       <c r="C300" t="s">
         <v>357</v>
@@ -10725,13 +10725,13 @@
         <v>301</v>
       </c>
       <c r="B302" t="s">
-        <v>312</v>
+        <v>294</v>
       </c>
       <c r="C302" t="s">
-        <v>359</v>
+        <v>356</v>
       </c>
       <c r="D302" t="s">
-        <v>390</v>
+        <v>383</v>
       </c>
     </row>
     <row r="303" spans="1:4">
@@ -10739,13 +10739,13 @@
         <v>302</v>
       </c>
       <c r="B303" t="s">
-        <v>294</v>
+        <v>312</v>
       </c>
       <c r="C303" t="s">
-        <v>356</v>
+        <v>359</v>
       </c>
       <c r="D303" t="s">
-        <v>383</v>
+        <v>390</v>
       </c>
     </row>
     <row r="304" spans="1:4">
@@ -10767,13 +10767,13 @@
         <v>304</v>
       </c>
       <c r="B305" t="s">
-        <v>307</v>
+        <v>313</v>
       </c>
       <c r="C305" t="s">
-        <v>354</v>
+        <v>355</v>
       </c>
       <c r="D305" t="s">
-        <v>368</v>
+        <v>372</v>
       </c>
     </row>
     <row r="306" spans="1:4">
@@ -10781,13 +10781,13 @@
         <v>305</v>
       </c>
       <c r="B306" t="s">
-        <v>309</v>
+        <v>307</v>
       </c>
       <c r="C306" t="s">
-        <v>355</v>
+        <v>354</v>
       </c>
       <c r="D306" t="s">
-        <v>373</v>
+        <v>368</v>
       </c>
     </row>
     <row r="307" spans="1:4">
@@ -10795,13 +10795,13 @@
         <v>306</v>
       </c>
       <c r="B307" t="s">
-        <v>313</v>
+        <v>309</v>
       </c>
       <c r="C307" t="s">
         <v>355</v>
       </c>
       <c r="D307" t="s">
-        <v>372</v>
+        <v>373</v>
       </c>
     </row>
     <row r="308" spans="1:4">
@@ -10879,13 +10879,13 @@
         <v>312</v>
       </c>
       <c r="B313" t="s">
-        <v>305</v>
+        <v>316</v>
       </c>
       <c r="C313" t="s">
-        <v>354</v>
+        <v>355</v>
       </c>
       <c r="D313" t="s">
-        <v>366</v>
+        <v>392</v>
       </c>
     </row>
     <row r="314" spans="1:4">
@@ -10893,13 +10893,13 @@
         <v>313</v>
       </c>
       <c r="B314" t="s">
-        <v>316</v>
+        <v>305</v>
       </c>
       <c r="C314" t="s">
-        <v>355</v>
+        <v>354</v>
       </c>
       <c r="D314" t="s">
-        <v>392</v>
+        <v>366</v>
       </c>
     </row>
     <row r="315" spans="1:4">
@@ -10907,13 +10907,13 @@
         <v>314</v>
       </c>
       <c r="B315" t="s">
-        <v>327</v>
+        <v>325</v>
       </c>
       <c r="C315" t="s">
-        <v>354</v>
+        <v>355</v>
       </c>
       <c r="D315" t="s">
-        <v>380</v>
+        <v>363</v>
       </c>
     </row>
     <row r="316" spans="1:4">
@@ -10921,13 +10921,13 @@
         <v>315</v>
       </c>
       <c r="B316" t="s">
-        <v>325</v>
+        <v>328</v>
       </c>
       <c r="C316" t="s">
-        <v>355</v>
+        <v>354</v>
       </c>
       <c r="D316" t="s">
-        <v>363</v>
+        <v>380</v>
       </c>
     </row>
     <row r="317" spans="1:4">
@@ -10949,7 +10949,7 @@
         <v>317</v>
       </c>
       <c r="B318" t="s">
-        <v>317</v>
+        <v>318</v>
       </c>
       <c r="C318" t="s">
         <v>355</v>
@@ -10963,7 +10963,7 @@
         <v>318</v>
       </c>
       <c r="B319" t="s">
-        <v>322</v>
+        <v>323</v>
       </c>
       <c r="C319" t="s">
         <v>355</v>
@@ -10991,7 +10991,7 @@
         <v>320</v>
       </c>
       <c r="B321" t="s">
-        <v>331</v>
+        <v>330</v>
       </c>
       <c r="C321" t="s">
         <v>354</v>
@@ -11019,7 +11019,7 @@
         <v>322</v>
       </c>
       <c r="B323" t="s">
-        <v>318</v>
+        <v>317</v>
       </c>
       <c r="C323" t="s">
         <v>355</v>
@@ -11033,13 +11033,13 @@
         <v>323</v>
       </c>
       <c r="B324" t="s">
-        <v>329</v>
+        <v>322</v>
       </c>
       <c r="C324" t="s">
-        <v>355</v>
+        <v>356</v>
       </c>
       <c r="D324" t="s">
-        <v>385</v>
+        <v>390</v>
       </c>
     </row>
     <row r="325" spans="1:4">
@@ -11047,13 +11047,13 @@
         <v>324</v>
       </c>
       <c r="B325" t="s">
-        <v>323</v>
+        <v>329</v>
       </c>
       <c r="C325" t="s">
-        <v>356</v>
+        <v>355</v>
       </c>
       <c r="D325" t="s">
-        <v>390</v>
+        <v>385</v>
       </c>
     </row>
     <row r="326" spans="1:4">
@@ -11075,7 +11075,7 @@
         <v>326</v>
       </c>
       <c r="B327" t="s">
-        <v>328</v>
+        <v>327</v>
       </c>
       <c r="C327" t="s">
         <v>357</v>
@@ -11173,13 +11173,13 @@
         <v>333</v>
       </c>
       <c r="B334" t="s">
-        <v>339</v>
+        <v>343</v>
       </c>
       <c r="C334" t="s">
-        <v>359</v>
+        <v>354</v>
       </c>
       <c r="D334" t="s">
-        <v>367</v>
+        <v>372</v>
       </c>
     </row>
     <row r="335" spans="1:4">
@@ -11187,13 +11187,13 @@
         <v>334</v>
       </c>
       <c r="B335" t="s">
-        <v>344</v>
+        <v>339</v>
       </c>
       <c r="C335" t="s">
-        <v>354</v>
+        <v>359</v>
       </c>
       <c r="D335" t="s">
-        <v>372</v>
+        <v>367</v>
       </c>
     </row>
     <row r="336" spans="1:4">
@@ -11201,7 +11201,7 @@
         <v>335</v>
       </c>
       <c r="B336" t="s">
-        <v>332</v>
+        <v>334</v>
       </c>
       <c r="C336" t="s">
         <v>356</v>
@@ -11229,13 +11229,13 @@
         <v>337</v>
       </c>
       <c r="B338" t="s">
-        <v>342</v>
+        <v>332</v>
       </c>
       <c r="C338" t="s">
-        <v>358</v>
+        <v>354</v>
       </c>
       <c r="D338" t="s">
-        <v>375</v>
+        <v>360</v>
       </c>
     </row>
     <row r="339" spans="1:4">
@@ -11243,13 +11243,13 @@
         <v>338</v>
       </c>
       <c r="B339" t="s">
-        <v>334</v>
+        <v>342</v>
       </c>
       <c r="C339" t="s">
-        <v>354</v>
+        <v>358</v>
       </c>
       <c r="D339" t="s">
-        <v>360</v>
+        <v>375</v>
       </c>
     </row>
     <row r="340" spans="1:4">
@@ -11313,7 +11313,7 @@
         <v>343</v>
       </c>
       <c r="B344" t="s">
-        <v>343</v>
+        <v>344</v>
       </c>
       <c r="C344" t="s">
         <v>357</v>
@@ -11327,13 +11327,13 @@
         <v>344</v>
       </c>
       <c r="B345" t="s">
-        <v>349</v>
+        <v>331</v>
       </c>
       <c r="C345" t="s">
-        <v>355</v>
+        <v>356</v>
       </c>
       <c r="D345" t="s">
-        <v>364</v>
+        <v>369</v>
       </c>
     </row>
     <row r="346" spans="1:4">
@@ -11341,10 +11341,10 @@
         <v>345</v>
       </c>
       <c r="B346" t="s">
-        <v>340</v>
+        <v>349</v>
       </c>
       <c r="C346" t="s">
-        <v>356</v>
+        <v>355</v>
       </c>
       <c r="D346" t="s">
         <v>364</v>
@@ -11355,13 +11355,13 @@
         <v>346</v>
       </c>
       <c r="B347" t="s">
-        <v>330</v>
+        <v>340</v>
       </c>
       <c r="C347" t="s">
         <v>356</v>
       </c>
       <c r="D347" t="s">
-        <v>369</v>
+        <v>364</v>
       </c>
     </row>
     <row r="348" spans="1:4">
@@ -11596,13 +11596,13 @@
         <v>11</v>
       </c>
       <c r="B12" t="s">
-        <v>15</v>
+        <v>16</v>
       </c>
       <c r="C12" t="s">
-        <v>355</v>
+        <v>356</v>
       </c>
       <c r="D12" t="s">
-        <v>365</v>
+        <v>370</v>
       </c>
     </row>
     <row r="13" spans="1:4">
@@ -11610,13 +11610,13 @@
         <v>12</v>
       </c>
       <c r="B13" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="C13" t="s">
-        <v>356</v>
+        <v>355</v>
       </c>
       <c r="D13" t="s">
-        <v>370</v>
+        <v>365</v>
       </c>
     </row>
     <row r="14" spans="1:4">
@@ -12366,13 +12366,13 @@
         <v>66</v>
       </c>
       <c r="B67" t="s">
-        <v>63</v>
+        <v>74</v>
       </c>
       <c r="C67" t="s">
-        <v>356</v>
+        <v>355</v>
       </c>
       <c r="D67" t="s">
-        <v>379</v>
+        <v>370</v>
       </c>
     </row>
     <row r="68" spans="1:4">
@@ -12380,13 +12380,13 @@
         <v>67</v>
       </c>
       <c r="B68" t="s">
-        <v>74</v>
+        <v>63</v>
       </c>
       <c r="C68" t="s">
-        <v>355</v>
+        <v>356</v>
       </c>
       <c r="D68" t="s">
-        <v>370</v>
+        <v>379</v>
       </c>
     </row>
     <row r="69" spans="1:4">
@@ -12436,7 +12436,7 @@
         <v>71</v>
       </c>
       <c r="B72" t="s">
-        <v>70</v>
+        <v>71</v>
       </c>
       <c r="C72" t="s">
         <v>354</v>
@@ -12478,7 +12478,7 @@
         <v>74</v>
       </c>
       <c r="B75" t="s">
-        <v>71</v>
+        <v>70</v>
       </c>
       <c r="C75" t="s">
         <v>355</v>
@@ -12534,13 +12534,13 @@
         <v>78</v>
       </c>
       <c r="B79" t="s">
-        <v>87</v>
+        <v>75</v>
       </c>
       <c r="C79" t="s">
-        <v>354</v>
+        <v>356</v>
       </c>
       <c r="D79" t="s">
-        <v>391</v>
+        <v>384</v>
       </c>
     </row>
     <row r="80" spans="1:4">
@@ -12548,13 +12548,13 @@
         <v>79</v>
       </c>
       <c r="B80" t="s">
-        <v>75</v>
+        <v>87</v>
       </c>
       <c r="C80" t="s">
-        <v>356</v>
+        <v>354</v>
       </c>
       <c r="D80" t="s">
-        <v>384</v>
+        <v>391</v>
       </c>
     </row>
     <row r="81" spans="1:4">
@@ -12632,13 +12632,13 @@
         <v>85</v>
       </c>
       <c r="B86" t="s">
-        <v>88</v>
+        <v>83</v>
       </c>
       <c r="C86" t="s">
-        <v>357</v>
+        <v>356</v>
       </c>
       <c r="D86" t="s">
-        <v>380</v>
+        <v>372</v>
       </c>
     </row>
     <row r="87" spans="1:4">
@@ -12646,13 +12646,13 @@
         <v>86</v>
       </c>
       <c r="B87" t="s">
-        <v>83</v>
+        <v>88</v>
       </c>
       <c r="C87" t="s">
-        <v>356</v>
+        <v>357</v>
       </c>
       <c r="D87" t="s">
-        <v>372</v>
+        <v>380</v>
       </c>
     </row>
     <row r="88" spans="1:4">
@@ -12758,13 +12758,13 @@
         <v>94</v>
       </c>
       <c r="B95" t="s">
-        <v>89</v>
+        <v>97</v>
       </c>
       <c r="C95" t="s">
         <v>355</v>
       </c>
       <c r="D95" t="s">
-        <v>376</v>
+        <v>382</v>
       </c>
     </row>
     <row r="96" spans="1:4">
@@ -12772,13 +12772,13 @@
         <v>95</v>
       </c>
       <c r="B96" t="s">
-        <v>97</v>
+        <v>89</v>
       </c>
       <c r="C96" t="s">
         <v>355</v>
       </c>
       <c r="D96" t="s">
-        <v>382</v>
+        <v>376</v>
       </c>
     </row>
     <row r="97" spans="1:4">
@@ -12828,7 +12828,7 @@
         <v>99</v>
       </c>
       <c r="B100" t="s">
-        <v>105</v>
+        <v>106</v>
       </c>
       <c r="C100" t="s">
         <v>357</v>
@@ -12842,13 +12842,13 @@
         <v>100</v>
       </c>
       <c r="B101" t="s">
-        <v>128</v>
+        <v>105</v>
       </c>
       <c r="C101" t="s">
-        <v>354</v>
+        <v>357</v>
       </c>
       <c r="D101" t="s">
-        <v>360</v>
+        <v>376</v>
       </c>
     </row>
     <row r="102" spans="1:4">
@@ -12856,13 +12856,13 @@
         <v>101</v>
       </c>
       <c r="B102" t="s">
-        <v>106</v>
+        <v>128</v>
       </c>
       <c r="C102" t="s">
-        <v>357</v>
+        <v>354</v>
       </c>
       <c r="D102" t="s">
-        <v>376</v>
+        <v>360</v>
       </c>
     </row>
     <row r="103" spans="1:4">
@@ -12940,13 +12940,13 @@
         <v>107</v>
       </c>
       <c r="B108" t="s">
-        <v>107</v>
+        <v>104</v>
       </c>
       <c r="C108" t="s">
         <v>355</v>
       </c>
       <c r="D108" t="s">
-        <v>371</v>
+        <v>383</v>
       </c>
     </row>
     <row r="109" spans="1:4">
@@ -12954,13 +12954,13 @@
         <v>108</v>
       </c>
       <c r="B109" t="s">
-        <v>104</v>
+        <v>107</v>
       </c>
       <c r="C109" t="s">
         <v>355</v>
       </c>
       <c r="D109" t="s">
-        <v>383</v>
+        <v>371</v>
       </c>
     </row>
     <row r="110" spans="1:4">
@@ -13164,7 +13164,7 @@
         <v>123</v>
       </c>
       <c r="B124" t="s">
-        <v>138</v>
+        <v>137</v>
       </c>
       <c r="C124" t="s">
         <v>355</v>
@@ -13206,7 +13206,7 @@
         <v>126</v>
       </c>
       <c r="B127" t="s">
-        <v>137</v>
+        <v>138</v>
       </c>
       <c r="C127" t="s">
         <v>355</v>
@@ -13234,10 +13234,10 @@
         <v>128</v>
       </c>
       <c r="B129" t="s">
-        <v>139</v>
+        <v>120</v>
       </c>
       <c r="C129" t="s">
-        <v>354</v>
+        <v>357</v>
       </c>
       <c r="D129" t="s">
         <v>387</v>
@@ -13248,10 +13248,10 @@
         <v>129</v>
       </c>
       <c r="B130" t="s">
-        <v>120</v>
+        <v>139</v>
       </c>
       <c r="C130" t="s">
-        <v>357</v>
+        <v>354</v>
       </c>
       <c r="D130" t="s">
         <v>387</v>
@@ -13668,13 +13668,13 @@
         <v>159</v>
       </c>
       <c r="B160" t="s">
-        <v>165</v>
+        <v>167</v>
       </c>
       <c r="C160" t="s">
-        <v>354</v>
+        <v>356</v>
       </c>
       <c r="D160" t="s">
-        <v>375</v>
+        <v>362</v>
       </c>
     </row>
     <row r="161" spans="1:4">
@@ -13682,13 +13682,13 @@
         <v>160</v>
       </c>
       <c r="B161" t="s">
-        <v>167</v>
+        <v>165</v>
       </c>
       <c r="C161" t="s">
-        <v>356</v>
+        <v>354</v>
       </c>
       <c r="D161" t="s">
-        <v>362</v>
+        <v>375</v>
       </c>
     </row>
     <row r="162" spans="1:4">
@@ -13696,13 +13696,13 @@
         <v>161</v>
       </c>
       <c r="B162" t="s">
-        <v>169</v>
+        <v>171</v>
       </c>
       <c r="C162" t="s">
-        <v>354</v>
+        <v>355</v>
       </c>
       <c r="D162" t="s">
-        <v>369</v>
+        <v>371</v>
       </c>
     </row>
     <row r="163" spans="1:4">
@@ -13710,13 +13710,13 @@
         <v>162</v>
       </c>
       <c r="B163" t="s">
-        <v>171</v>
+        <v>169</v>
       </c>
       <c r="C163" t="s">
-        <v>355</v>
+        <v>354</v>
       </c>
       <c r="D163" t="s">
-        <v>371</v>
+        <v>369</v>
       </c>
     </row>
     <row r="164" spans="1:4">
@@ -13794,7 +13794,7 @@
         <v>168</v>
       </c>
       <c r="B169" t="s">
-        <v>195</v>
+        <v>196</v>
       </c>
       <c r="C169" t="s">
         <v>355</v>
@@ -13990,13 +13990,13 @@
         <v>182</v>
       </c>
       <c r="B183" t="s">
-        <v>161</v>
+        <v>187</v>
       </c>
       <c r="C183" t="s">
-        <v>357</v>
+        <v>359</v>
       </c>
       <c r="D183" t="s">
-        <v>371</v>
+        <v>374</v>
       </c>
     </row>
     <row r="184" spans="1:4">
@@ -14004,13 +14004,13 @@
         <v>183</v>
       </c>
       <c r="B184" t="s">
-        <v>187</v>
+        <v>161</v>
       </c>
       <c r="C184" t="s">
-        <v>359</v>
+        <v>357</v>
       </c>
       <c r="D184" t="s">
-        <v>374</v>
+        <v>371</v>
       </c>
     </row>
     <row r="185" spans="1:4">
@@ -14018,7 +14018,7 @@
         <v>184</v>
       </c>
       <c r="B185" t="s">
-        <v>194</v>
+        <v>198</v>
       </c>
       <c r="C185" t="s">
         <v>355</v>
@@ -14074,7 +14074,7 @@
         <v>188</v>
       </c>
       <c r="B189" t="s">
-        <v>198</v>
+        <v>195</v>
       </c>
       <c r="C189" t="s">
         <v>355</v>
@@ -14116,13 +14116,13 @@
         <v>191</v>
       </c>
       <c r="B192" t="s">
-        <v>196</v>
+        <v>199</v>
       </c>
       <c r="C192" t="s">
-        <v>359</v>
+        <v>355</v>
       </c>
       <c r="D192" t="s">
-        <v>365</v>
+        <v>376</v>
       </c>
     </row>
     <row r="193" spans="1:4">
@@ -14130,13 +14130,13 @@
         <v>192</v>
       </c>
       <c r="B193" t="s">
-        <v>199</v>
+        <v>194</v>
       </c>
       <c r="C193" t="s">
-        <v>355</v>
+        <v>359</v>
       </c>
       <c r="D193" t="s">
-        <v>376</v>
+        <v>365</v>
       </c>
     </row>
     <row r="194" spans="1:4">
@@ -14158,7 +14158,7 @@
         <v>194</v>
       </c>
       <c r="B195" t="s">
-        <v>200</v>
+        <v>201</v>
       </c>
       <c r="C195" t="s">
         <v>358</v>
@@ -14186,13 +14186,13 @@
         <v>196</v>
       </c>
       <c r="B197" t="s">
-        <v>215</v>
+        <v>206</v>
       </c>
       <c r="C197" t="s">
         <v>355</v>
       </c>
       <c r="D197" t="s">
-        <v>360</v>
+        <v>372</v>
       </c>
     </row>
     <row r="198" spans="1:4">
@@ -14200,13 +14200,13 @@
         <v>197</v>
       </c>
       <c r="B198" t="s">
-        <v>207</v>
+        <v>215</v>
       </c>
       <c r="C198" t="s">
         <v>355</v>
       </c>
       <c r="D198" t="s">
-        <v>372</v>
+        <v>360</v>
       </c>
     </row>
     <row r="199" spans="1:4">
@@ -14270,7 +14270,7 @@
         <v>202</v>
       </c>
       <c r="B203" t="s">
-        <v>206</v>
+        <v>207</v>
       </c>
       <c r="C203" t="s">
         <v>358</v>
@@ -14312,7 +14312,7 @@
         <v>205</v>
       </c>
       <c r="B206" t="s">
-        <v>201</v>
+        <v>200</v>
       </c>
       <c r="C206" t="s">
         <v>354</v>
@@ -14410,7 +14410,7 @@
         <v>212</v>
       </c>
       <c r="B213" t="s">
-        <v>220</v>
+        <v>218</v>
       </c>
       <c r="C213" t="s">
         <v>355</v>
@@ -14466,13 +14466,13 @@
         <v>216</v>
       </c>
       <c r="B217" t="s">
-        <v>231</v>
+        <v>202</v>
       </c>
       <c r="C217" t="s">
         <v>354</v>
       </c>
       <c r="D217" t="s">
-        <v>382</v>
+        <v>373</v>
       </c>
     </row>
     <row r="218" spans="1:4">
@@ -14480,13 +14480,13 @@
         <v>217</v>
       </c>
       <c r="B218" t="s">
-        <v>202</v>
+        <v>231</v>
       </c>
       <c r="C218" t="s">
         <v>354</v>
       </c>
       <c r="D218" t="s">
-        <v>373</v>
+        <v>382</v>
       </c>
     </row>
     <row r="219" spans="1:4">
@@ -14522,7 +14522,7 @@
         <v>220</v>
       </c>
       <c r="B221" t="s">
-        <v>222</v>
+        <v>223</v>
       </c>
       <c r="C221" t="s">
         <v>358</v>
@@ -14578,13 +14578,13 @@
         <v>224</v>
       </c>
       <c r="B225" t="s">
-        <v>240</v>
+        <v>242</v>
       </c>
       <c r="C225" t="s">
         <v>355</v>
       </c>
       <c r="D225" t="s">
-        <v>367</v>
+        <v>374</v>
       </c>
     </row>
     <row r="226" spans="1:4">
@@ -14592,13 +14592,13 @@
         <v>225</v>
       </c>
       <c r="B226" t="s">
-        <v>242</v>
+        <v>239</v>
       </c>
       <c r="C226" t="s">
         <v>355</v>
       </c>
       <c r="D226" t="s">
-        <v>374</v>
+        <v>367</v>
       </c>
     </row>
     <row r="227" spans="1:4">
@@ -14662,7 +14662,7 @@
         <v>230</v>
       </c>
       <c r="B231" t="s">
-        <v>223</v>
+        <v>222</v>
       </c>
       <c r="C231" t="s">
         <v>354</v>
@@ -14746,13 +14746,13 @@
         <v>236</v>
       </c>
       <c r="B237" t="s">
-        <v>234</v>
+        <v>241</v>
       </c>
       <c r="C237" t="s">
-        <v>359</v>
+        <v>355</v>
       </c>
       <c r="D237" t="s">
-        <v>392</v>
+        <v>391</v>
       </c>
     </row>
     <row r="238" spans="1:4">
@@ -14760,13 +14760,13 @@
         <v>237</v>
       </c>
       <c r="B238" t="s">
-        <v>241</v>
+        <v>234</v>
       </c>
       <c r="C238" t="s">
-        <v>355</v>
+        <v>359</v>
       </c>
       <c r="D238" t="s">
-        <v>391</v>
+        <v>392</v>
       </c>
     </row>
     <row r="239" spans="1:4">
@@ -14788,7 +14788,7 @@
         <v>239</v>
       </c>
       <c r="B240" t="s">
-        <v>239</v>
+        <v>240</v>
       </c>
       <c r="C240" t="s">
         <v>354</v>
@@ -14900,7 +14900,7 @@
         <v>247</v>
       </c>
       <c r="B248" t="s">
-        <v>272</v>
+        <v>271</v>
       </c>
       <c r="C248" t="s">
         <v>355</v>
@@ -15054,13 +15054,13 @@
         <v>258</v>
       </c>
       <c r="B259" t="s">
-        <v>218</v>
+        <v>252</v>
       </c>
       <c r="C259" t="s">
-        <v>357</v>
+        <v>354</v>
       </c>
       <c r="D259" t="s">
-        <v>382</v>
+        <v>374</v>
       </c>
     </row>
     <row r="260" spans="1:4">
@@ -15068,13 +15068,13 @@
         <v>259</v>
       </c>
       <c r="B260" t="s">
-        <v>252</v>
+        <v>220</v>
       </c>
       <c r="C260" t="s">
-        <v>354</v>
+        <v>357</v>
       </c>
       <c r="D260" t="s">
-        <v>374</v>
+        <v>382</v>
       </c>
     </row>
     <row r="261" spans="1:4">
@@ -15110,7 +15110,7 @@
         <v>262</v>
       </c>
       <c r="B263" t="s">
-        <v>293</v>
+        <v>292</v>
       </c>
       <c r="C263" t="s">
         <v>354</v>
@@ -15236,7 +15236,7 @@
         <v>271</v>
       </c>
       <c r="B272" t="s">
-        <v>271</v>
+        <v>272</v>
       </c>
       <c r="C272" t="s">
         <v>359</v>
@@ -15264,7 +15264,7 @@
         <v>273</v>
       </c>
       <c r="B274" t="s">
-        <v>283</v>
+        <v>282</v>
       </c>
       <c r="C274" t="s">
         <v>354</v>
@@ -15348,7 +15348,7 @@
         <v>279</v>
       </c>
       <c r="B280" t="s">
-        <v>281</v>
+        <v>283</v>
       </c>
       <c r="C280" t="s">
         <v>356</v>
@@ -15376,7 +15376,7 @@
         <v>281</v>
       </c>
       <c r="B282" t="s">
-        <v>289</v>
+        <v>288</v>
       </c>
       <c r="C282" t="s">
         <v>355</v>
@@ -15390,7 +15390,7 @@
         <v>282</v>
       </c>
       <c r="B283" t="s">
-        <v>282</v>
+        <v>281</v>
       </c>
       <c r="C283" t="s">
         <v>356</v>
@@ -15432,7 +15432,7 @@
         <v>285</v>
       </c>
       <c r="B286" t="s">
-        <v>290</v>
+        <v>289</v>
       </c>
       <c r="C286" t="s">
         <v>355</v>
@@ -15488,7 +15488,7 @@
         <v>289</v>
       </c>
       <c r="B290" t="s">
-        <v>296</v>
+        <v>295</v>
       </c>
       <c r="C290" t="s">
         <v>358</v>
@@ -15684,13 +15684,13 @@
         <v>303</v>
       </c>
       <c r="B304" t="s">
-        <v>317</v>
+        <v>313</v>
       </c>
       <c r="C304" t="s">
         <v>355</v>
       </c>
       <c r="D304" t="s">
-        <v>362</v>
+        <v>372</v>
       </c>
     </row>
     <row r="305" spans="1:4">
@@ -15698,13 +15698,13 @@
         <v>304</v>
       </c>
       <c r="B305" t="s">
-        <v>313</v>
+        <v>318</v>
       </c>
       <c r="C305" t="s">
         <v>355</v>
       </c>
       <c r="D305" t="s">
-        <v>372</v>
+        <v>362</v>
       </c>
     </row>
     <row r="306" spans="1:4">
@@ -15768,7 +15768,7 @@
         <v>309</v>
       </c>
       <c r="B310" t="s">
-        <v>327</v>
+        <v>328</v>
       </c>
       <c r="C310" t="s">
         <v>354</v>
@@ -15796,7 +15796,7 @@
         <v>311</v>
       </c>
       <c r="B312" t="s">
-        <v>318</v>
+        <v>317</v>
       </c>
       <c r="C312" t="s">
         <v>355</v>
@@ -15810,13 +15810,13 @@
         <v>312</v>
       </c>
       <c r="B313" t="s">
-        <v>325</v>
+        <v>320</v>
       </c>
       <c r="C313" t="s">
         <v>355</v>
       </c>
       <c r="D313" t="s">
-        <v>363</v>
+        <v>369</v>
       </c>
     </row>
     <row r="314" spans="1:4">
@@ -15824,13 +15824,13 @@
         <v>313</v>
       </c>
       <c r="B314" t="s">
-        <v>320</v>
+        <v>325</v>
       </c>
       <c r="C314" t="s">
         <v>355</v>
       </c>
       <c r="D314" t="s">
-        <v>369</v>
+        <v>363</v>
       </c>
     </row>
     <row r="315" spans="1:4">
@@ -15866,7 +15866,7 @@
         <v>316</v>
       </c>
       <c r="B317" t="s">
-        <v>322</v>
+        <v>323</v>
       </c>
       <c r="C317" t="s">
         <v>355</v>
@@ -15880,13 +15880,13 @@
         <v>317</v>
       </c>
       <c r="B318" t="s">
-        <v>295</v>
+        <v>314</v>
       </c>
       <c r="C318" t="s">
-        <v>357</v>
+        <v>354</v>
       </c>
       <c r="D318" t="s">
-        <v>366</v>
+        <v>378</v>
       </c>
     </row>
     <row r="319" spans="1:4">
@@ -15894,13 +15894,13 @@
         <v>318</v>
       </c>
       <c r="B319" t="s">
-        <v>288</v>
+        <v>296</v>
       </c>
       <c r="C319" t="s">
         <v>357</v>
       </c>
       <c r="D319" t="s">
-        <v>389</v>
+        <v>366</v>
       </c>
     </row>
     <row r="320" spans="1:4">
@@ -15908,13 +15908,13 @@
         <v>319</v>
       </c>
       <c r="B320" t="s">
-        <v>331</v>
+        <v>290</v>
       </c>
       <c r="C320" t="s">
-        <v>354</v>
+        <v>357</v>
       </c>
       <c r="D320" t="s">
-        <v>388</v>
+        <v>389</v>
       </c>
     </row>
     <row r="321" spans="1:4">
@@ -15922,13 +15922,13 @@
         <v>320</v>
       </c>
       <c r="B321" t="s">
-        <v>314</v>
+        <v>330</v>
       </c>
       <c r="C321" t="s">
         <v>354</v>
       </c>
       <c r="D321" t="s">
-        <v>378</v>
+        <v>388</v>
       </c>
     </row>
     <row r="322" spans="1:4">
@@ -15936,7 +15936,7 @@
         <v>321</v>
       </c>
       <c r="B322" t="s">
-        <v>292</v>
+        <v>293</v>
       </c>
       <c r="C322" t="s">
         <v>357</v>
@@ -15992,7 +15992,7 @@
         <v>325</v>
       </c>
       <c r="B326" t="s">
-        <v>323</v>
+        <v>322</v>
       </c>
       <c r="C326" t="s">
         <v>356</v>
@@ -16048,7 +16048,7 @@
         <v>329</v>
       </c>
       <c r="B330" t="s">
-        <v>332</v>
+        <v>334</v>
       </c>
       <c r="C330" t="s">
         <v>356</v>
@@ -16146,13 +16146,13 @@
         <v>336</v>
       </c>
       <c r="B337" t="s">
-        <v>348</v>
+        <v>343</v>
       </c>
       <c r="C337" t="s">
-        <v>355</v>
+        <v>354</v>
       </c>
       <c r="D337" t="s">
-        <v>378</v>
+        <v>372</v>
       </c>
     </row>
     <row r="338" spans="1:4">
@@ -16160,13 +16160,13 @@
         <v>337</v>
       </c>
       <c r="B338" t="s">
-        <v>344</v>
+        <v>348</v>
       </c>
       <c r="C338" t="s">
-        <v>354</v>
+        <v>355</v>
       </c>
       <c r="D338" t="s">
-        <v>372</v>
+        <v>378</v>
       </c>
     </row>
     <row r="339" spans="1:4">
@@ -16188,13 +16188,13 @@
         <v>339</v>
       </c>
       <c r="B340" t="s">
-        <v>342</v>
+        <v>338</v>
       </c>
       <c r="C340" t="s">
-        <v>358</v>
+        <v>354</v>
       </c>
       <c r="D340" t="s">
-        <v>375</v>
+        <v>386</v>
       </c>
     </row>
     <row r="341" spans="1:4">
@@ -16202,13 +16202,13 @@
         <v>340</v>
       </c>
       <c r="B341" t="s">
-        <v>338</v>
+        <v>342</v>
       </c>
       <c r="C341" t="s">
-        <v>354</v>
+        <v>358</v>
       </c>
       <c r="D341" t="s">
-        <v>386</v>
+        <v>375</v>
       </c>
     </row>
     <row r="342" spans="1:4">
@@ -16216,13 +16216,13 @@
         <v>341</v>
       </c>
       <c r="B342" t="s">
-        <v>351</v>
+        <v>340</v>
       </c>
       <c r="C342" t="s">
-        <v>355</v>
+        <v>356</v>
       </c>
       <c r="D342" t="s">
-        <v>382</v>
+        <v>364</v>
       </c>
     </row>
     <row r="343" spans="1:4">
@@ -16230,13 +16230,13 @@
         <v>342</v>
       </c>
       <c r="B343" t="s">
-        <v>340</v>
+        <v>351</v>
       </c>
       <c r="C343" t="s">
-        <v>356</v>
+        <v>355</v>
       </c>
       <c r="D343" t="s">
-        <v>364</v>
+        <v>382</v>
       </c>
     </row>
     <row r="344" spans="1:4">
@@ -16272,7 +16272,7 @@
         <v>345</v>
       </c>
       <c r="B346" t="s">
-        <v>330</v>
+        <v>331</v>
       </c>
       <c r="C346" t="s">
         <v>356</v>
@@ -16300,7 +16300,7 @@
         <v>347</v>
       </c>
       <c r="B348" t="s">
-        <v>334</v>
+        <v>332</v>
       </c>
       <c r="C348" t="s">
         <v>354</v>
@@ -16314,13 +16314,13 @@
         <v>348</v>
       </c>
       <c r="B349" t="s">
-        <v>394</v>
+        <v>327</v>
       </c>
       <c r="C349" t="s">
-        <v>354</v>
+        <v>357</v>
       </c>
       <c r="D349" t="s">
-        <v>389</v>
+        <v>378</v>
       </c>
     </row>
     <row r="350" spans="1:4">
@@ -16328,13 +16328,13 @@
         <v>349</v>
       </c>
       <c r="B350" t="s">
-        <v>328</v>
+        <v>394</v>
       </c>
       <c r="C350" t="s">
-        <v>357</v>
+        <v>354</v>
       </c>
       <c r="D350" t="s">
-        <v>378</v>
+        <v>389</v>
       </c>
     </row>
     <row r="351" spans="1:4">
@@ -16342,7 +16342,7 @@
         <v>350</v>
       </c>
       <c r="B351" t="s">
-        <v>352</v>
+        <v>353</v>
       </c>
       <c r="C351" t="s">
         <v>359</v>

--- a/docs/FantasyProsFootballDraft.xlsx
+++ b/docs/FantasyProsFootballDraft.xlsx
@@ -5940,7 +5940,7 @@
         <v>354</v>
       </c>
       <c r="D312" t="s">
-        <v>378</v>
+        <v>392</v>
       </c>
     </row>
     <row r="313" spans="1:4">
@@ -11067,7 +11067,7 @@
         <v>354</v>
       </c>
       <c r="D326" t="s">
-        <v>378</v>
+        <v>392</v>
       </c>
     </row>
     <row r="327" spans="1:4">
@@ -15886,7 +15886,7 @@
         <v>354</v>
       </c>
       <c r="D318" t="s">
-        <v>378</v>
+        <v>392</v>
       </c>
     </row>
     <row r="319" spans="1:4">

--- a/docs/FantasyProsFootballDraft.xlsx
+++ b/docs/FantasyProsFootballDraft.xlsx
@@ -5940,7 +5940,7 @@
         <v>354</v>
       </c>
       <c r="D312" t="s">
-        <v>392</v>
+        <v>378</v>
       </c>
     </row>
     <row r="313" spans="1:4">
@@ -11067,7 +11067,7 @@
         <v>354</v>
       </c>
       <c r="D326" t="s">
-        <v>392</v>
+        <v>378</v>
       </c>
     </row>
     <row r="327" spans="1:4">
@@ -15886,7 +15886,7 @@
         <v>354</v>
       </c>
       <c r="D318" t="s">
-        <v>392</v>
+        <v>378</v>
       </c>
     </row>
     <row r="319" spans="1:4">

--- a/docs/FantasyProsFootballDraft.xlsx
+++ b/docs/FantasyProsFootballDraft.xlsx
@@ -359,7 +359,7 @@
     <t>Derek Carr</t>
   </si>
   <si>
-    <t>Ken Walker III</t>
+    <t>Kenneth Walker III</t>
   </si>
   <si>
     <t>Treylon Burks</t>

--- a/docs/FantasyProsFootballDraft.xlsx
+++ b/docs/FantasyProsFootballDraft.xlsx
@@ -4176,7 +4176,7 @@
         <v>355</v>
       </c>
       <c r="D186" t="s">
-        <v>361</v>
+        <v>383</v>
       </c>
     </row>
     <row r="187" spans="1:4">
@@ -8841,7 +8841,7 @@
         <v>355</v>
       </c>
       <c r="D167" t="s">
-        <v>361</v>
+        <v>383</v>
       </c>
     </row>
     <row r="168" spans="1:4">
@@ -13786,7 +13786,7 @@
         <v>355</v>
       </c>
       <c r="D168" t="s">
-        <v>361</v>
+        <v>383</v>
       </c>
     </row>
     <row r="169" spans="1:4">

--- a/docs/FantasyProsFootballDraft.xlsx
+++ b/docs/FantasyProsFootballDraft.xlsx
@@ -4820,7 +4820,7 @@
         <v>359</v>
       </c>
       <c r="D232" t="s">
-        <v>392</v>
+        <v>383</v>
       </c>
     </row>
     <row r="233" spans="1:4">
@@ -9891,7 +9891,7 @@
         <v>359</v>
       </c>
       <c r="D242" t="s">
-        <v>392</v>
+        <v>383</v>
       </c>
     </row>
     <row r="243" spans="1:4">
@@ -14766,7 +14766,7 @@
         <v>359</v>
       </c>
       <c r="D238" t="s">
-        <v>392</v>
+        <v>383</v>
       </c>
     </row>
     <row r="239" spans="1:4">

--- a/docs/FantasyProsFootballDraft.xlsx
+++ b/docs/FantasyProsFootballDraft.xlsx
@@ -71,12 +71,12 @@
     <t>Ja'Marr Chase</t>
   </si>
   <si>
+    <t>Saquon Barkley</t>
+  </si>
+  <si>
     <t>Travis Kelce</t>
   </si>
   <si>
-    <t>Saquon Barkley</t>
-  </si>
-  <si>
     <t>D'Andre Swift</t>
   </si>
   <si>
@@ -167,12 +167,12 @@
     <t>Cam Akers</t>
   </si>
   <si>
+    <t>DK Metcalf</t>
+  </si>
+  <si>
     <t>Jaylen Waddle</t>
   </si>
   <si>
-    <t>DK Metcalf</t>
-  </si>
-  <si>
     <t>Brandin Cooks</t>
   </si>
   <si>
@@ -224,12 +224,12 @@
     <t>Kyler Murray</t>
   </si>
   <si>
+    <t>Antonio Gibson</t>
+  </si>
+  <si>
     <t>Chris Godwin</t>
   </si>
   <si>
-    <t>Antonio Gibson</t>
-  </si>
-  <si>
     <t>Damien Harris</t>
   </si>
   <si>
@@ -305,12 +305,12 @@
     <t>Dak Prescott</t>
   </si>
   <si>
+    <t>Devin Singletary</t>
+  </si>
+  <si>
     <t>Tony Pollard</t>
   </si>
   <si>
-    <t>Devin Singletary</t>
-  </si>
-  <si>
     <t>Kareem Hunt</t>
   </si>
   <si>
@@ -323,27 +323,27 @@
     <t>Trey Lance</t>
   </si>
   <si>
+    <t>Zach Ertz</t>
+  </si>
+  <si>
     <t>Cordarrelle Patterson</t>
   </si>
   <si>
-    <t>Zach Ertz</t>
-  </si>
-  <si>
     <t>Melvin Gordon III</t>
   </si>
   <si>
     <t>Robert Woods</t>
   </si>
   <si>
+    <t>Matthew Stafford</t>
+  </si>
+  <si>
     <t>DeAndre Hopkins</t>
   </si>
   <si>
     <t>Aaron Rodgers</t>
   </si>
   <si>
-    <t>Matthew Stafford</t>
-  </si>
-  <si>
     <t>Kadarius Toney</t>
   </si>
   <si>
@@ -359,15 +359,15 @@
     <t>Derek Carr</t>
   </si>
   <si>
+    <t>Cole Kmet</t>
+  </si>
+  <si>
     <t>Kenneth Walker III</t>
   </si>
   <si>
     <t>Treylon Burks</t>
   </si>
   <si>
-    <t>Cole Kmet</t>
-  </si>
-  <si>
     <t>Michael Carter</t>
   </si>
   <si>
@@ -380,16 +380,19 @@
     <t>James Cook</t>
   </si>
   <si>
+    <t>Justin Fields</t>
+  </si>
+  <si>
     <t>Hunter Henry</t>
   </si>
   <si>
-    <t>Justin Fields</t>
+    <t>James Robinson</t>
   </si>
   <si>
     <t>Tua Tagovailoa</t>
   </si>
   <si>
-    <t>James Robinson</t>
+    <t>Marquez Valdes-Scantling</t>
   </si>
   <si>
     <t>Tyler Boyd</t>
@@ -398,9 +401,6 @@
     <t>Trevor Lawrence</t>
   </si>
   <si>
-    <t>Marquez Valdes-Scantling</t>
-  </si>
-  <si>
     <t>Alexander Mattison</t>
   </si>
   <si>
@@ -410,12 +410,12 @@
     <t>Nyheim Hines</t>
   </si>
   <si>
+    <t>Kenneth Gainwell</t>
+  </si>
+  <si>
     <t>Skyy Moore</t>
   </si>
   <si>
-    <t>Kenneth Gainwell</t>
-  </si>
-  <si>
     <t>Irv Smith Jr.</t>
   </si>
   <si>
@@ -425,12 +425,12 @@
     <t>Raheem Mostert</t>
   </si>
   <si>
+    <t>Albert Okwuegbunam</t>
+  </si>
+  <si>
     <t>Michael Gallup</t>
   </si>
   <si>
-    <t>Albert Okwuegbunam</t>
-  </si>
-  <si>
     <t>Jameis Winston</t>
   </si>
   <si>
@@ -473,33 +473,33 @@
     <t>Rachaad White</t>
   </si>
   <si>
+    <t>Ryan Tannehill</t>
+  </si>
+  <si>
+    <t>Tyler Higbee</t>
+  </si>
+  <si>
     <t>Robert Tonyan</t>
   </si>
   <si>
-    <t>Ryan Tannehill</t>
-  </si>
-  <si>
-    <t>Tyler Higbee</t>
-  </si>
-  <si>
     <t>J.D. McKissic</t>
   </si>
   <si>
+    <t>Jahan Dotson</t>
+  </si>
+  <si>
     <t>Buffalo Bills</t>
   </si>
   <si>
-    <t>Jahan Dotson</t>
-  </si>
-  <si>
     <t>Jarvis Landry</t>
   </si>
   <si>
+    <t>Noah Fant</t>
+  </si>
+  <si>
     <t>Rondale Moore</t>
   </si>
   <si>
-    <t>Noah Fant</t>
-  </si>
-  <si>
     <t>Tampa Bay Buccaneers</t>
   </si>
   <si>
@@ -533,12 +533,12 @@
     <t>Mark Ingram II</t>
   </si>
   <si>
+    <t>Kenny Golladay</t>
+  </si>
+  <si>
     <t>Indianapolis Colts</t>
   </si>
   <si>
-    <t>Kenny Golladay</t>
-  </si>
-  <si>
     <t>Joshua Palmer</t>
   </si>
   <si>
@@ -605,21 +605,21 @@
     <t>Wan'Dale Robinson</t>
   </si>
   <si>
+    <t>Van Jefferson</t>
+  </si>
+  <si>
+    <t>Matt Gay</t>
+  </si>
+  <si>
     <t>Evan McPherson</t>
   </si>
   <si>
-    <t>Van Jefferson</t>
+    <t>Jalen Tolbert</t>
   </si>
   <si>
     <t>Isaiah McKenzie</t>
   </si>
   <si>
-    <t>Matt Gay</t>
-  </si>
-  <si>
-    <t>Jalen Tolbert</t>
-  </si>
-  <si>
     <t>Christian Watson</t>
   </si>
   <si>
@@ -638,12 +638,12 @@
     <t>Los Angeles Chargers</t>
   </si>
   <si>
+    <t>Jameson Williams</t>
+  </si>
+  <si>
     <t>Daniel Carlson</t>
   </si>
   <si>
-    <t>Jameson Williams</t>
-  </si>
-  <si>
     <t>Green Bay Packers</t>
   </si>
   <si>
@@ -659,15 +659,15 @@
     <t>Alec Pierce</t>
   </si>
   <si>
+    <t>Brevin Jordan</t>
+  </si>
+  <si>
     <t>Miami Dolphins</t>
   </si>
   <si>
     <t>Zach Wilson</t>
   </si>
   <si>
-    <t>Brevin Jordan</t>
-  </si>
-  <si>
     <t>Parris Campbell</t>
   </si>
   <si>
@@ -677,15 +677,15 @@
     <t>Harrison Butker</t>
   </si>
   <si>
+    <t>Marcus Mariota</t>
+  </si>
+  <si>
     <t>Curtis Samuel</t>
   </si>
   <si>
     <t>Mo Alie-Cox</t>
   </si>
   <si>
-    <t>Marcus Mariota</t>
-  </si>
-  <si>
     <t>Ryan Succop</t>
   </si>
   <si>
@@ -731,18 +731,18 @@
     <t>Samaje Perine</t>
   </si>
   <si>
+    <t>Brandon McManus</t>
+  </si>
+  <si>
+    <t>A.J. Green</t>
+  </si>
+  <si>
+    <t>David Bell</t>
+  </si>
+  <si>
     <t>Kenyan Drake</t>
   </si>
   <si>
-    <t>A.J. Green</t>
-  </si>
-  <si>
-    <t>Brandon McManus</t>
-  </si>
-  <si>
-    <t>David Bell</t>
-  </si>
-  <si>
     <t>Eno Benjamin</t>
   </si>
   <si>
@@ -785,39 +785,39 @@
     <t>Cincinnati Bengals</t>
   </si>
   <si>
+    <t>Arizona Cardinals</t>
+  </si>
+  <si>
     <t>Robbie Gould</t>
   </si>
   <si>
-    <t>Arizona Cardinals</t>
-  </si>
-  <si>
     <t>Tennessee Titans</t>
   </si>
   <si>
     <t>Jake Elliott</t>
   </si>
   <si>
+    <t>Dustin Hopkins</t>
+  </si>
+  <si>
     <t>Sammy Watkins</t>
   </si>
   <si>
-    <t>Dustin Hopkins</t>
-  </si>
-  <si>
     <t>Cameron Brate</t>
   </si>
   <si>
     <t>Randall Cobb</t>
   </si>
   <si>
+    <t>Adam Trautman</t>
+  </si>
+  <si>
     <t>Byron Pringle</t>
   </si>
   <si>
     <t>Wil Lutz</t>
   </si>
   <si>
-    <t>Adam Trautman</t>
-  </si>
-  <si>
     <t>Laviska Shenault Jr.</t>
   </si>
   <si>
@@ -854,16 +854,19 @@
     <t>Deshaun Watson</t>
   </si>
   <si>
+    <t>Greg Zuerlein</t>
+  </si>
+  <si>
     <t>Matt Breida</t>
   </si>
   <si>
-    <t>Greg Zuerlein</t>
+    <t>C.J. Uzomah</t>
   </si>
   <si>
     <t>Washington Commanders</t>
   </si>
   <si>
-    <t>C.J. Uzomah</t>
+    <t>Dan Arnold</t>
   </si>
   <si>
     <t>Isaiah Likely</t>
@@ -872,9 +875,6 @@
     <t>Myles Gaskin</t>
   </si>
   <si>
-    <t>Dan Arnold</t>
-  </si>
-  <si>
     <t>Trey Sermon</t>
   </si>
   <si>
@@ -887,15 +887,15 @@
     <t>Hassan Haskins</t>
   </si>
   <si>
+    <t>Geno Smith</t>
+  </si>
+  <si>
     <t>Nick Westbrook-Ikhine</t>
   </si>
   <si>
     <t>Marquez Callaway</t>
   </si>
   <si>
-    <t>Geno Smith</t>
-  </si>
-  <si>
     <t>Joshua Kelley</t>
   </si>
   <si>
@@ -917,18 +917,18 @@
     <t>Randy Bullock</t>
   </si>
   <si>
+    <t>Jason Myers</t>
+  </si>
+  <si>
     <t>Kyle Rudolph</t>
   </si>
   <si>
-    <t>Jason Myers</t>
+    <t>Cairo Santos</t>
   </si>
   <si>
     <t>Ke'Shawn Vaughn</t>
   </si>
   <si>
-    <t>Cairo Santos</t>
-  </si>
-  <si>
     <t>Chris Evans</t>
   </si>
   <si>
@@ -944,18 +944,18 @@
     <t>Velus Jones Jr.</t>
   </si>
   <si>
+    <t>Daniel Bellinger</t>
+  </si>
+  <si>
+    <t>Seattle Seahawks</t>
+  </si>
+  <si>
     <t>Kyren Williams</t>
   </si>
   <si>
-    <t>Daniel Bellinger</t>
-  </si>
-  <si>
     <t>Devin Duvernay</t>
   </si>
   <si>
-    <t>Seattle Seahawks</t>
-  </si>
-  <si>
     <t>Tyler Conklin</t>
   </si>
   <si>
@@ -989,12 +989,12 @@
     <t>Pierre Strong Jr.</t>
   </si>
   <si>
+    <t>Darius Slayton</t>
+  </si>
+  <si>
     <t>O.J. Howard</t>
   </si>
   <si>
-    <t>Darius Slayton</t>
-  </si>
-  <si>
     <t>Drew Lock</t>
   </si>
   <si>
@@ -1019,21 +1019,21 @@
     <t>Taysom Hill</t>
   </si>
   <si>
+    <t>Quintez Cephus</t>
+  </si>
+  <si>
+    <t>Harrison Bryant</t>
+  </si>
+  <si>
     <t>Phillip Lindsay</t>
   </si>
   <si>
-    <t>Quintez Cephus</t>
-  </si>
-  <si>
-    <t>Harrison Bryant</t>
+    <t>Tommy Tremble</t>
   </si>
   <si>
     <t>Brett Maher</t>
   </si>
   <si>
-    <t>Tommy Tremble</t>
-  </si>
-  <si>
     <t>Salvon Ahmed</t>
   </si>
   <si>
@@ -1046,15 +1046,15 @@
     <t>Donald Parham Jr.</t>
   </si>
   <si>
+    <t>Justin Jackson</t>
+  </si>
+  <si>
     <t>Ty Montgomery</t>
   </si>
   <si>
     <t>Las Vegas Raiders</t>
   </si>
   <si>
-    <t>Justin Jackson</t>
-  </si>
-  <si>
     <t>Desmond Ridder</t>
   </si>
   <si>
@@ -1073,12 +1073,12 @@
     <t>Jalen Guyton</t>
   </si>
   <si>
+    <t>Olamide Zaccheaus</t>
+  </si>
+  <si>
     <t>Khalil Shakir</t>
   </si>
   <si>
-    <t>Olamide Zaccheaus</t>
-  </si>
-  <si>
     <t>Foster Moreau</t>
   </si>
   <si>
@@ -1133,10 +1133,10 @@
     <t>NO</t>
   </si>
   <si>
+    <t>NYG</t>
+  </si>
+  <si>
     <t>KC</t>
-  </si>
-  <si>
-    <t>NYG</t>
   </si>
   <si>
     <t>DET</t>
@@ -1765,7 +1765,7 @@
         <v>16</v>
       </c>
       <c r="C14" t="s">
-        <v>356</v>
+        <v>354</v>
       </c>
       <c r="D14" t="s">
         <v>370</v>
@@ -1779,7 +1779,7 @@
         <v>17</v>
       </c>
       <c r="C15" t="s">
-        <v>354</v>
+        <v>356</v>
       </c>
       <c r="D15" t="s">
         <v>371</v>
@@ -2216,7 +2216,7 @@
         <v>355</v>
       </c>
       <c r="D46" t="s">
-        <v>381</v>
+        <v>389</v>
       </c>
     </row>
     <row r="47" spans="1:4">
@@ -2230,7 +2230,7 @@
         <v>355</v>
       </c>
       <c r="D47" t="s">
-        <v>389</v>
+        <v>381</v>
       </c>
     </row>
     <row r="48" spans="1:4">
@@ -2328,7 +2328,7 @@
         <v>357</v>
       </c>
       <c r="D54" t="s">
-        <v>370</v>
+        <v>371</v>
       </c>
     </row>
     <row r="55" spans="1:4">
@@ -2479,10 +2479,10 @@
         <v>67</v>
       </c>
       <c r="C65" t="s">
-        <v>355</v>
+        <v>354</v>
       </c>
       <c r="D65" t="s">
-        <v>380</v>
+        <v>385</v>
       </c>
     </row>
     <row r="66" spans="1:4">
@@ -2493,10 +2493,10 @@
         <v>68</v>
       </c>
       <c r="C66" t="s">
-        <v>354</v>
+        <v>355</v>
       </c>
       <c r="D66" t="s">
-        <v>385</v>
+        <v>380</v>
       </c>
     </row>
     <row r="67" spans="1:4">
@@ -2580,7 +2580,7 @@
         <v>355</v>
       </c>
       <c r="D72" t="s">
-        <v>370</v>
+        <v>371</v>
       </c>
     </row>
     <row r="73" spans="1:4">
@@ -2664,7 +2664,7 @@
         <v>354</v>
       </c>
       <c r="D78" t="s">
-        <v>370</v>
+        <v>371</v>
       </c>
     </row>
     <row r="79" spans="1:4">
@@ -2860,7 +2860,7 @@
         <v>354</v>
       </c>
       <c r="D92" t="s">
-        <v>379</v>
+        <v>374</v>
       </c>
     </row>
     <row r="93" spans="1:4">
@@ -2874,7 +2874,7 @@
         <v>354</v>
       </c>
       <c r="D93" t="s">
-        <v>374</v>
+        <v>379</v>
       </c>
     </row>
     <row r="94" spans="1:4">
@@ -2941,10 +2941,10 @@
         <v>100</v>
       </c>
       <c r="C98" t="s">
-        <v>354</v>
+        <v>356</v>
       </c>
       <c r="D98" t="s">
-        <v>382</v>
+        <v>383</v>
       </c>
     </row>
     <row r="99" spans="1:4">
@@ -2955,10 +2955,10 @@
         <v>101</v>
       </c>
       <c r="C99" t="s">
-        <v>356</v>
+        <v>354</v>
       </c>
       <c r="D99" t="s">
-        <v>383</v>
+        <v>382</v>
       </c>
     </row>
     <row r="100" spans="1:4">
@@ -2997,10 +2997,10 @@
         <v>104</v>
       </c>
       <c r="C102" t="s">
-        <v>355</v>
+        <v>357</v>
       </c>
       <c r="D102" t="s">
-        <v>383</v>
+        <v>368</v>
       </c>
     </row>
     <row r="103" spans="1:4">
@@ -3011,10 +3011,10 @@
         <v>105</v>
       </c>
       <c r="C103" t="s">
-        <v>357</v>
+        <v>355</v>
       </c>
       <c r="D103" t="s">
-        <v>376</v>
+        <v>383</v>
       </c>
     </row>
     <row r="104" spans="1:4">
@@ -3028,7 +3028,7 @@
         <v>357</v>
       </c>
       <c r="D104" t="s">
-        <v>368</v>
+        <v>376</v>
       </c>
     </row>
     <row r="105" spans="1:4">
@@ -3042,7 +3042,7 @@
         <v>355</v>
       </c>
       <c r="D105" t="s">
-        <v>371</v>
+        <v>370</v>
       </c>
     </row>
     <row r="106" spans="1:4">
@@ -3109,10 +3109,10 @@
         <v>112</v>
       </c>
       <c r="C110" t="s">
-        <v>354</v>
+        <v>356</v>
       </c>
       <c r="D110" t="s">
-        <v>389</v>
+        <v>387</v>
       </c>
     </row>
     <row r="111" spans="1:4">
@@ -3123,10 +3123,10 @@
         <v>113</v>
       </c>
       <c r="C111" t="s">
-        <v>355</v>
+        <v>354</v>
       </c>
       <c r="D111" t="s">
-        <v>362</v>
+        <v>389</v>
       </c>
     </row>
     <row r="112" spans="1:4">
@@ -3137,10 +3137,10 @@
         <v>114</v>
       </c>
       <c r="C112" t="s">
-        <v>356</v>
+        <v>355</v>
       </c>
       <c r="D112" t="s">
-        <v>387</v>
+        <v>362</v>
       </c>
     </row>
     <row r="113" spans="1:4">
@@ -3207,10 +3207,10 @@
         <v>119</v>
       </c>
       <c r="C117" t="s">
-        <v>356</v>
+        <v>357</v>
       </c>
       <c r="D117" t="s">
-        <v>391</v>
+        <v>387</v>
       </c>
     </row>
     <row r="118" spans="1:4">
@@ -3221,10 +3221,10 @@
         <v>120</v>
       </c>
       <c r="C118" t="s">
-        <v>357</v>
+        <v>356</v>
       </c>
       <c r="D118" t="s">
-        <v>387</v>
+        <v>391</v>
       </c>
     </row>
     <row r="119" spans="1:4">
@@ -3235,10 +3235,10 @@
         <v>121</v>
       </c>
       <c r="C119" t="s">
-        <v>357</v>
+        <v>354</v>
       </c>
       <c r="D119" t="s">
-        <v>381</v>
+        <v>386</v>
       </c>
     </row>
     <row r="120" spans="1:4">
@@ -3249,10 +3249,10 @@
         <v>122</v>
       </c>
       <c r="C120" t="s">
-        <v>354</v>
+        <v>357</v>
       </c>
       <c r="D120" t="s">
-        <v>386</v>
+        <v>381</v>
       </c>
     </row>
     <row r="121" spans="1:4">
@@ -3266,7 +3266,7 @@
         <v>355</v>
       </c>
       <c r="D121" t="s">
-        <v>365</v>
+        <v>371</v>
       </c>
     </row>
     <row r="122" spans="1:4">
@@ -3277,10 +3277,10 @@
         <v>124</v>
       </c>
       <c r="C122" t="s">
-        <v>357</v>
+        <v>355</v>
       </c>
       <c r="D122" t="s">
-        <v>386</v>
+        <v>365</v>
       </c>
     </row>
     <row r="123" spans="1:4">
@@ -3291,10 +3291,10 @@
         <v>125</v>
       </c>
       <c r="C123" t="s">
-        <v>355</v>
+        <v>357</v>
       </c>
       <c r="D123" t="s">
-        <v>370</v>
+        <v>386</v>
       </c>
     </row>
     <row r="124" spans="1:4">
@@ -3347,10 +3347,10 @@
         <v>129</v>
       </c>
       <c r="C127" t="s">
-        <v>355</v>
+        <v>354</v>
       </c>
       <c r="D127" t="s">
-        <v>370</v>
+        <v>384</v>
       </c>
     </row>
     <row r="128" spans="1:4">
@@ -3361,10 +3361,10 @@
         <v>130</v>
       </c>
       <c r="C128" t="s">
-        <v>354</v>
+        <v>355</v>
       </c>
       <c r="D128" t="s">
-        <v>384</v>
+        <v>371</v>
       </c>
     </row>
     <row r="129" spans="1:4">
@@ -3417,10 +3417,10 @@
         <v>134</v>
       </c>
       <c r="C132" t="s">
-        <v>355</v>
+        <v>356</v>
       </c>
       <c r="D132" t="s">
-        <v>379</v>
+        <v>377</v>
       </c>
     </row>
     <row r="133" spans="1:4">
@@ -3431,10 +3431,10 @@
         <v>135</v>
       </c>
       <c r="C133" t="s">
-        <v>356</v>
+        <v>355</v>
       </c>
       <c r="D133" t="s">
-        <v>377</v>
+        <v>379</v>
       </c>
     </row>
     <row r="134" spans="1:4">
@@ -3641,10 +3641,10 @@
         <v>150</v>
       </c>
       <c r="C148" t="s">
-        <v>356</v>
+        <v>357</v>
       </c>
       <c r="D148" t="s">
-        <v>376</v>
+        <v>362</v>
       </c>
     </row>
     <row r="149" spans="1:4">
@@ -3655,10 +3655,10 @@
         <v>151</v>
       </c>
       <c r="C149" t="s">
-        <v>357</v>
+        <v>356</v>
       </c>
       <c r="D149" t="s">
-        <v>362</v>
+        <v>368</v>
       </c>
     </row>
     <row r="150" spans="1:4">
@@ -3672,7 +3672,7 @@
         <v>356</v>
       </c>
       <c r="D150" t="s">
-        <v>368</v>
+        <v>376</v>
       </c>
     </row>
     <row r="151" spans="1:4">
@@ -3697,10 +3697,10 @@
         <v>154</v>
       </c>
       <c r="C152" t="s">
-        <v>358</v>
+        <v>355</v>
       </c>
       <c r="D152" t="s">
-        <v>374</v>
+        <v>385</v>
       </c>
     </row>
     <row r="153" spans="1:4">
@@ -3711,10 +3711,10 @@
         <v>155</v>
       </c>
       <c r="C153" t="s">
-        <v>355</v>
+        <v>358</v>
       </c>
       <c r="D153" t="s">
-        <v>385</v>
+        <v>374</v>
       </c>
     </row>
     <row r="154" spans="1:4">
@@ -3739,10 +3739,10 @@
         <v>157</v>
       </c>
       <c r="C155" t="s">
-        <v>355</v>
+        <v>356</v>
       </c>
       <c r="D155" t="s">
-        <v>383</v>
+        <v>389</v>
       </c>
     </row>
     <row r="156" spans="1:4">
@@ -3753,10 +3753,10 @@
         <v>158</v>
       </c>
       <c r="C156" t="s">
-        <v>356</v>
+        <v>355</v>
       </c>
       <c r="D156" t="s">
-        <v>389</v>
+        <v>383</v>
       </c>
     </row>
     <row r="157" spans="1:4">
@@ -3798,7 +3798,7 @@
         <v>357</v>
       </c>
       <c r="D159" t="s">
-        <v>371</v>
+        <v>370</v>
       </c>
     </row>
     <row r="160" spans="1:4">
@@ -3921,10 +3921,10 @@
         <v>170</v>
       </c>
       <c r="C168" t="s">
-        <v>358</v>
+        <v>355</v>
       </c>
       <c r="D168" t="s">
-        <v>360</v>
+        <v>370</v>
       </c>
     </row>
     <row r="169" spans="1:4">
@@ -3935,10 +3935,10 @@
         <v>171</v>
       </c>
       <c r="C169" t="s">
-        <v>355</v>
+        <v>358</v>
       </c>
       <c r="D169" t="s">
-        <v>371</v>
+        <v>360</v>
       </c>
     </row>
     <row r="170" spans="1:4">
@@ -4120,7 +4120,7 @@
         <v>355</v>
       </c>
       <c r="D182" t="s">
-        <v>370</v>
+        <v>371</v>
       </c>
     </row>
     <row r="183" spans="1:4">
@@ -4190,7 +4190,7 @@
         <v>354</v>
       </c>
       <c r="D187" t="s">
-        <v>370</v>
+        <v>371</v>
       </c>
     </row>
     <row r="188" spans="1:4">
@@ -4246,7 +4246,7 @@
         <v>355</v>
       </c>
       <c r="D191" t="s">
-        <v>371</v>
+        <v>370</v>
       </c>
     </row>
     <row r="192" spans="1:4">
@@ -4257,10 +4257,10 @@
         <v>194</v>
       </c>
       <c r="C192" t="s">
-        <v>359</v>
+        <v>355</v>
       </c>
       <c r="D192" t="s">
-        <v>365</v>
+        <v>368</v>
       </c>
     </row>
     <row r="193" spans="1:4">
@@ -4271,7 +4271,7 @@
         <v>195</v>
       </c>
       <c r="C193" t="s">
-        <v>355</v>
+        <v>359</v>
       </c>
       <c r="D193" t="s">
         <v>368</v>
@@ -4285,10 +4285,10 @@
         <v>196</v>
       </c>
       <c r="C194" t="s">
-        <v>355</v>
+        <v>359</v>
       </c>
       <c r="D194" t="s">
-        <v>374</v>
+        <v>365</v>
       </c>
     </row>
     <row r="195" spans="1:4">
@@ -4299,10 +4299,10 @@
         <v>197</v>
       </c>
       <c r="C195" t="s">
-        <v>359</v>
+        <v>355</v>
       </c>
       <c r="D195" t="s">
-        <v>368</v>
+        <v>379</v>
       </c>
     </row>
     <row r="196" spans="1:4">
@@ -4316,7 +4316,7 @@
         <v>355</v>
       </c>
       <c r="D196" t="s">
-        <v>379</v>
+        <v>374</v>
       </c>
     </row>
     <row r="197" spans="1:4">
@@ -4411,10 +4411,10 @@
         <v>205</v>
       </c>
       <c r="C203" t="s">
-        <v>359</v>
+        <v>355</v>
       </c>
       <c r="D203" t="s">
-        <v>375</v>
+        <v>372</v>
       </c>
     </row>
     <row r="204" spans="1:4">
@@ -4425,10 +4425,10 @@
         <v>206</v>
       </c>
       <c r="C204" t="s">
-        <v>355</v>
+        <v>359</v>
       </c>
       <c r="D204" t="s">
-        <v>372</v>
+        <v>375</v>
       </c>
     </row>
     <row r="205" spans="1:4">
@@ -4509,10 +4509,10 @@
         <v>212</v>
       </c>
       <c r="C210" t="s">
-        <v>358</v>
+        <v>356</v>
       </c>
       <c r="D210" t="s">
-        <v>381</v>
+        <v>390</v>
       </c>
     </row>
     <row r="211" spans="1:4">
@@ -4523,10 +4523,10 @@
         <v>213</v>
       </c>
       <c r="C211" t="s">
-        <v>357</v>
+        <v>358</v>
       </c>
       <c r="D211" t="s">
-        <v>388</v>
+        <v>381</v>
       </c>
     </row>
     <row r="212" spans="1:4">
@@ -4537,10 +4537,10 @@
         <v>214</v>
       </c>
       <c r="C212" t="s">
-        <v>356</v>
+        <v>357</v>
       </c>
       <c r="D212" t="s">
-        <v>390</v>
+        <v>388</v>
       </c>
     </row>
     <row r="213" spans="1:4">
@@ -4582,7 +4582,7 @@
         <v>359</v>
       </c>
       <c r="D215" t="s">
-        <v>370</v>
+        <v>371</v>
       </c>
     </row>
     <row r="216" spans="1:4">
@@ -4593,10 +4593,10 @@
         <v>218</v>
       </c>
       <c r="C216" t="s">
-        <v>355</v>
+        <v>357</v>
       </c>
       <c r="D216" t="s">
-        <v>385</v>
+        <v>382</v>
       </c>
     </row>
     <row r="217" spans="1:4">
@@ -4607,10 +4607,10 @@
         <v>219</v>
       </c>
       <c r="C217" t="s">
-        <v>356</v>
+        <v>355</v>
       </c>
       <c r="D217" t="s">
-        <v>360</v>
+        <v>385</v>
       </c>
     </row>
     <row r="218" spans="1:4">
@@ -4621,10 +4621,10 @@
         <v>220</v>
       </c>
       <c r="C218" t="s">
-        <v>357</v>
+        <v>356</v>
       </c>
       <c r="D218" t="s">
-        <v>382</v>
+        <v>360</v>
       </c>
     </row>
     <row r="219" spans="1:4">
@@ -4652,7 +4652,7 @@
         <v>354</v>
       </c>
       <c r="D220" t="s">
-        <v>370</v>
+        <v>371</v>
       </c>
     </row>
     <row r="221" spans="1:4">
@@ -4722,7 +4722,7 @@
         <v>358</v>
       </c>
       <c r="D225" t="s">
-        <v>370</v>
+        <v>371</v>
       </c>
     </row>
     <row r="226" spans="1:4">
@@ -4806,7 +4806,7 @@
         <v>354</v>
       </c>
       <c r="D231" t="s">
-        <v>370</v>
+        <v>371</v>
       </c>
     </row>
     <row r="232" spans="1:4">
@@ -4845,10 +4845,10 @@
         <v>236</v>
       </c>
       <c r="C234" t="s">
-        <v>354</v>
+        <v>359</v>
       </c>
       <c r="D234" t="s">
-        <v>373</v>
+        <v>377</v>
       </c>
     </row>
     <row r="235" spans="1:4">
@@ -4873,10 +4873,10 @@
         <v>238</v>
       </c>
       <c r="C236" t="s">
-        <v>359</v>
+        <v>355</v>
       </c>
       <c r="D236" t="s">
-        <v>377</v>
+        <v>367</v>
       </c>
     </row>
     <row r="237" spans="1:4">
@@ -4887,10 +4887,10 @@
         <v>239</v>
       </c>
       <c r="C237" t="s">
-        <v>355</v>
+        <v>354</v>
       </c>
       <c r="D237" t="s">
-        <v>367</v>
+        <v>373</v>
       </c>
     </row>
     <row r="238" spans="1:4">
@@ -4946,7 +4946,7 @@
         <v>355</v>
       </c>
       <c r="D241" t="s">
-        <v>371</v>
+        <v>370</v>
       </c>
     </row>
     <row r="242" spans="1:4">
@@ -5097,10 +5097,10 @@
         <v>254</v>
       </c>
       <c r="C252" t="s">
-        <v>359</v>
+        <v>358</v>
       </c>
       <c r="D252" t="s">
-        <v>378</v>
+        <v>383</v>
       </c>
     </row>
     <row r="253" spans="1:4">
@@ -5111,10 +5111,10 @@
         <v>255</v>
       </c>
       <c r="C253" t="s">
-        <v>358</v>
+        <v>359</v>
       </c>
       <c r="D253" t="s">
-        <v>383</v>
+        <v>378</v>
       </c>
     </row>
     <row r="254" spans="1:4">
@@ -5153,10 +5153,10 @@
         <v>258</v>
       </c>
       <c r="C256" t="s">
-        <v>355</v>
+        <v>359</v>
       </c>
       <c r="D256" t="s">
-        <v>376</v>
+        <v>364</v>
       </c>
     </row>
     <row r="257" spans="1:4">
@@ -5167,10 +5167,10 @@
         <v>259</v>
       </c>
       <c r="C257" t="s">
-        <v>359</v>
+        <v>355</v>
       </c>
       <c r="D257" t="s">
-        <v>364</v>
+        <v>376</v>
       </c>
     </row>
     <row r="258" spans="1:4">
@@ -5209,10 +5209,10 @@
         <v>262</v>
       </c>
       <c r="C260" t="s">
-        <v>355</v>
+        <v>356</v>
       </c>
       <c r="D260" t="s">
-        <v>387</v>
+        <v>369</v>
       </c>
     </row>
     <row r="261" spans="1:4">
@@ -5223,10 +5223,10 @@
         <v>263</v>
       </c>
       <c r="C261" t="s">
-        <v>359</v>
+        <v>355</v>
       </c>
       <c r="D261" t="s">
-        <v>369</v>
+        <v>387</v>
       </c>
     </row>
     <row r="262" spans="1:4">
@@ -5237,7 +5237,7 @@
         <v>264</v>
       </c>
       <c r="C262" t="s">
-        <v>356</v>
+        <v>359</v>
       </c>
       <c r="D262" t="s">
         <v>369</v>
@@ -5419,10 +5419,10 @@
         <v>277</v>
       </c>
       <c r="C275" t="s">
-        <v>354</v>
+        <v>359</v>
       </c>
       <c r="D275" t="s">
-        <v>371</v>
+        <v>388</v>
       </c>
     </row>
     <row r="276" spans="1:4">
@@ -5433,10 +5433,10 @@
         <v>278</v>
       </c>
       <c r="C276" t="s">
-        <v>359</v>
+        <v>354</v>
       </c>
       <c r="D276" t="s">
-        <v>388</v>
+        <v>370</v>
       </c>
     </row>
     <row r="277" spans="1:4">
@@ -5447,10 +5447,10 @@
         <v>279</v>
       </c>
       <c r="C277" t="s">
-        <v>358</v>
+        <v>356</v>
       </c>
       <c r="D277" t="s">
-        <v>385</v>
+        <v>388</v>
       </c>
     </row>
     <row r="278" spans="1:4">
@@ -5461,10 +5461,10 @@
         <v>280</v>
       </c>
       <c r="C278" t="s">
-        <v>356</v>
+        <v>358</v>
       </c>
       <c r="D278" t="s">
-        <v>388</v>
+        <v>385</v>
       </c>
     </row>
     <row r="279" spans="1:4">
@@ -5478,7 +5478,7 @@
         <v>356</v>
       </c>
       <c r="D279" t="s">
-        <v>373</v>
+        <v>386</v>
       </c>
     </row>
     <row r="280" spans="1:4">
@@ -5489,10 +5489,10 @@
         <v>282</v>
       </c>
       <c r="C280" t="s">
-        <v>354</v>
+        <v>356</v>
       </c>
       <c r="D280" t="s">
-        <v>381</v>
+        <v>373</v>
       </c>
     </row>
     <row r="281" spans="1:4">
@@ -5503,10 +5503,10 @@
         <v>283</v>
       </c>
       <c r="C281" t="s">
-        <v>356</v>
+        <v>354</v>
       </c>
       <c r="D281" t="s">
-        <v>386</v>
+        <v>381</v>
       </c>
     </row>
     <row r="282" spans="1:4">
@@ -5548,7 +5548,7 @@
         <v>359</v>
       </c>
       <c r="D284" t="s">
-        <v>371</v>
+        <v>370</v>
       </c>
     </row>
     <row r="285" spans="1:4">
@@ -5573,10 +5573,10 @@
         <v>288</v>
       </c>
       <c r="C286" t="s">
-        <v>355</v>
+        <v>357</v>
       </c>
       <c r="D286" t="s">
-        <v>362</v>
+        <v>389</v>
       </c>
     </row>
     <row r="287" spans="1:4">
@@ -5590,7 +5590,7 @@
         <v>355</v>
       </c>
       <c r="D287" t="s">
-        <v>369</v>
+        <v>362</v>
       </c>
     </row>
     <row r="288" spans="1:4">
@@ -5601,10 +5601,10 @@
         <v>290</v>
       </c>
       <c r="C288" t="s">
-        <v>357</v>
+        <v>355</v>
       </c>
       <c r="D288" t="s">
-        <v>389</v>
+        <v>369</v>
       </c>
     </row>
     <row r="289" spans="1:4">
@@ -5674,7 +5674,7 @@
         <v>358</v>
       </c>
       <c r="D293" t="s">
-        <v>371</v>
+        <v>370</v>
       </c>
     </row>
     <row r="294" spans="1:4">
@@ -5713,10 +5713,10 @@
         <v>298</v>
       </c>
       <c r="C296" t="s">
-        <v>356</v>
+        <v>359</v>
       </c>
       <c r="D296" t="s">
-        <v>380</v>
+        <v>389</v>
       </c>
     </row>
     <row r="297" spans="1:4">
@@ -5727,10 +5727,10 @@
         <v>299</v>
       </c>
       <c r="C297" t="s">
-        <v>359</v>
+        <v>356</v>
       </c>
       <c r="D297" t="s">
-        <v>389</v>
+        <v>380</v>
       </c>
     </row>
     <row r="298" spans="1:4">
@@ -5741,10 +5741,10 @@
         <v>300</v>
       </c>
       <c r="C298" t="s">
-        <v>354</v>
+        <v>359</v>
       </c>
       <c r="D298" t="s">
-        <v>380</v>
+        <v>387</v>
       </c>
     </row>
     <row r="299" spans="1:4">
@@ -5755,10 +5755,10 @@
         <v>301</v>
       </c>
       <c r="C299" t="s">
-        <v>359</v>
+        <v>354</v>
       </c>
       <c r="D299" t="s">
-        <v>387</v>
+        <v>380</v>
       </c>
     </row>
     <row r="300" spans="1:4">
@@ -5839,10 +5839,10 @@
         <v>307</v>
       </c>
       <c r="C305" t="s">
-        <v>354</v>
+        <v>356</v>
       </c>
       <c r="D305" t="s">
-        <v>368</v>
+        <v>370</v>
       </c>
     </row>
     <row r="306" spans="1:4">
@@ -5853,10 +5853,10 @@
         <v>308</v>
       </c>
       <c r="C306" t="s">
-        <v>356</v>
+        <v>358</v>
       </c>
       <c r="D306" t="s">
-        <v>371</v>
+        <v>389</v>
       </c>
     </row>
     <row r="307" spans="1:4">
@@ -5867,10 +5867,10 @@
         <v>309</v>
       </c>
       <c r="C307" t="s">
-        <v>355</v>
+        <v>354</v>
       </c>
       <c r="D307" t="s">
-        <v>373</v>
+        <v>368</v>
       </c>
     </row>
     <row r="308" spans="1:4">
@@ -5881,10 +5881,10 @@
         <v>310</v>
       </c>
       <c r="C308" t="s">
-        <v>358</v>
+        <v>355</v>
       </c>
       <c r="D308" t="s">
-        <v>389</v>
+        <v>373</v>
       </c>
     </row>
     <row r="309" spans="1:4">
@@ -6049,10 +6049,10 @@
         <v>322</v>
       </c>
       <c r="C320" t="s">
-        <v>356</v>
+        <v>355</v>
       </c>
       <c r="D320" t="s">
-        <v>390</v>
+        <v>370</v>
       </c>
     </row>
     <row r="321" spans="1:4">
@@ -6063,10 +6063,10 @@
         <v>323</v>
       </c>
       <c r="C321" t="s">
-        <v>355</v>
+        <v>356</v>
       </c>
       <c r="D321" t="s">
-        <v>371</v>
+        <v>390</v>
       </c>
     </row>
     <row r="322" spans="1:4">
@@ -6189,10 +6189,10 @@
         <v>332</v>
       </c>
       <c r="C330" t="s">
-        <v>354</v>
+        <v>355</v>
       </c>
       <c r="D330" t="s">
-        <v>360</v>
+        <v>372</v>
       </c>
     </row>
     <row r="331" spans="1:4">
@@ -6203,10 +6203,10 @@
         <v>333</v>
       </c>
       <c r="C331" t="s">
-        <v>355</v>
+        <v>356</v>
       </c>
       <c r="D331" t="s">
-        <v>372</v>
+        <v>367</v>
       </c>
     </row>
     <row r="332" spans="1:4">
@@ -6217,10 +6217,10 @@
         <v>334</v>
       </c>
       <c r="C332" t="s">
-        <v>356</v>
+        <v>354</v>
       </c>
       <c r="D332" t="s">
-        <v>367</v>
+        <v>360</v>
       </c>
     </row>
     <row r="333" spans="1:4">
@@ -6231,10 +6231,10 @@
         <v>335</v>
       </c>
       <c r="C333" t="s">
-        <v>359</v>
+        <v>356</v>
       </c>
       <c r="D333" t="s">
-        <v>379</v>
+        <v>361</v>
       </c>
     </row>
     <row r="334" spans="1:4">
@@ -6245,10 +6245,10 @@
         <v>336</v>
       </c>
       <c r="C334" t="s">
-        <v>356</v>
+        <v>359</v>
       </c>
       <c r="D334" t="s">
-        <v>361</v>
+        <v>379</v>
       </c>
     </row>
     <row r="335" spans="1:4">
@@ -6318,7 +6318,7 @@
         <v>354</v>
       </c>
       <c r="D339" t="s">
-        <v>391</v>
+        <v>372</v>
       </c>
     </row>
     <row r="340" spans="1:4">
@@ -6329,10 +6329,10 @@
         <v>342</v>
       </c>
       <c r="C340" t="s">
-        <v>358</v>
+        <v>354</v>
       </c>
       <c r="D340" t="s">
-        <v>375</v>
+        <v>391</v>
       </c>
     </row>
     <row r="341" spans="1:4">
@@ -6343,10 +6343,10 @@
         <v>343</v>
       </c>
       <c r="C341" t="s">
-        <v>354</v>
+        <v>358</v>
       </c>
       <c r="D341" t="s">
-        <v>372</v>
+        <v>375</v>
       </c>
     </row>
     <row r="342" spans="1:4">
@@ -6444,7 +6444,7 @@
         <v>355</v>
       </c>
       <c r="D348" t="s">
-        <v>374</v>
+        <v>382</v>
       </c>
     </row>
     <row r="349" spans="1:4">
@@ -6458,7 +6458,7 @@
         <v>355</v>
       </c>
       <c r="D349" t="s">
-        <v>382</v>
+        <v>374</v>
       </c>
     </row>
     <row r="350" spans="1:4">
@@ -6707,13 +6707,13 @@
         <v>14</v>
       </c>
       <c r="B15" t="s">
-        <v>16</v>
+        <v>17</v>
       </c>
       <c r="C15" t="s">
         <v>356</v>
       </c>
       <c r="D15" t="s">
-        <v>370</v>
+        <v>371</v>
       </c>
     </row>
     <row r="16" spans="1:4">
@@ -6735,13 +6735,13 @@
         <v>16</v>
       </c>
       <c r="B17" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="C17" t="s">
         <v>354</v>
       </c>
       <c r="D17" t="s">
-        <v>371</v>
+        <v>370</v>
       </c>
     </row>
     <row r="18" spans="1:4">
@@ -6749,13 +6749,13 @@
         <v>17</v>
       </c>
       <c r="B18" t="s">
-        <v>22</v>
+        <v>25</v>
       </c>
       <c r="C18" t="s">
-        <v>354</v>
+        <v>355</v>
       </c>
       <c r="D18" t="s">
-        <v>376</v>
+        <v>379</v>
       </c>
     </row>
     <row r="19" spans="1:4">
@@ -6763,13 +6763,13 @@
         <v>18</v>
       </c>
       <c r="B19" t="s">
-        <v>25</v>
+        <v>22</v>
       </c>
       <c r="C19" t="s">
-        <v>355</v>
+        <v>354</v>
       </c>
       <c r="D19" t="s">
-        <v>379</v>
+        <v>376</v>
       </c>
     </row>
     <row r="20" spans="1:4">
@@ -7113,7 +7113,7 @@
         <v>43</v>
       </c>
       <c r="B44" t="s">
-        <v>48</v>
+        <v>49</v>
       </c>
       <c r="C44" t="s">
         <v>355</v>
@@ -7203,7 +7203,7 @@
         <v>357</v>
       </c>
       <c r="D50" t="s">
-        <v>370</v>
+        <v>371</v>
       </c>
     </row>
     <row r="51" spans="1:4">
@@ -7225,7 +7225,7 @@
         <v>51</v>
       </c>
       <c r="B52" t="s">
-        <v>49</v>
+        <v>48</v>
       </c>
       <c r="C52" t="s">
         <v>355</v>
@@ -7309,13 +7309,13 @@
         <v>57</v>
       </c>
       <c r="B58" t="s">
-        <v>61</v>
+        <v>46</v>
       </c>
       <c r="C58" t="s">
         <v>355</v>
       </c>
       <c r="D58" t="s">
-        <v>387</v>
+        <v>374</v>
       </c>
     </row>
     <row r="59" spans="1:4">
@@ -7323,13 +7323,13 @@
         <v>58</v>
       </c>
       <c r="B59" t="s">
-        <v>46</v>
+        <v>61</v>
       </c>
       <c r="C59" t="s">
         <v>355</v>
       </c>
       <c r="D59" t="s">
-        <v>374</v>
+        <v>387</v>
       </c>
     </row>
     <row r="60" spans="1:4">
@@ -7337,13 +7337,13 @@
         <v>59</v>
       </c>
       <c r="B60" t="s">
-        <v>62</v>
+        <v>71</v>
       </c>
       <c r="C60" t="s">
         <v>354</v>
       </c>
       <c r="D60" t="s">
-        <v>373</v>
+        <v>390</v>
       </c>
     </row>
     <row r="61" spans="1:4">
@@ -7351,13 +7351,13 @@
         <v>60</v>
       </c>
       <c r="B61" t="s">
-        <v>71</v>
+        <v>62</v>
       </c>
       <c r="C61" t="s">
         <v>354</v>
       </c>
       <c r="D61" t="s">
-        <v>390</v>
+        <v>373</v>
       </c>
     </row>
     <row r="62" spans="1:4">
@@ -7365,7 +7365,7 @@
         <v>61</v>
       </c>
       <c r="B62" t="s">
-        <v>68</v>
+        <v>67</v>
       </c>
       <c r="C62" t="s">
         <v>354</v>
@@ -7421,13 +7421,13 @@
         <v>65</v>
       </c>
       <c r="B66" t="s">
-        <v>73</v>
+        <v>65</v>
       </c>
       <c r="C66" t="s">
         <v>355</v>
       </c>
       <c r="D66" t="s">
-        <v>372</v>
+        <v>373</v>
       </c>
     </row>
     <row r="67" spans="1:4">
@@ -7435,13 +7435,13 @@
         <v>66</v>
       </c>
       <c r="B67" t="s">
-        <v>65</v>
+        <v>73</v>
       </c>
       <c r="C67" t="s">
         <v>355</v>
       </c>
       <c r="D67" t="s">
-        <v>373</v>
+        <v>372</v>
       </c>
     </row>
     <row r="68" spans="1:4">
@@ -7463,7 +7463,7 @@
         <v>68</v>
       </c>
       <c r="B69" t="s">
-        <v>67</v>
+        <v>68</v>
       </c>
       <c r="C69" t="s">
         <v>355</v>
@@ -7497,7 +7497,7 @@
         <v>354</v>
       </c>
       <c r="D71" t="s">
-        <v>370</v>
+        <v>371</v>
       </c>
     </row>
     <row r="72" spans="1:4">
@@ -7511,7 +7511,7 @@
         <v>355</v>
       </c>
       <c r="D72" t="s">
-        <v>370</v>
+        <v>371</v>
       </c>
     </row>
     <row r="73" spans="1:4">
@@ -7533,13 +7533,13 @@
         <v>73</v>
       </c>
       <c r="B74" t="s">
-        <v>76</v>
+        <v>70</v>
       </c>
       <c r="C74" t="s">
-        <v>354</v>
+        <v>355</v>
       </c>
       <c r="D74" t="s">
-        <v>389</v>
+        <v>388</v>
       </c>
     </row>
     <row r="75" spans="1:4">
@@ -7547,13 +7547,13 @@
         <v>74</v>
       </c>
       <c r="B75" t="s">
-        <v>70</v>
+        <v>76</v>
       </c>
       <c r="C75" t="s">
-        <v>355</v>
+        <v>354</v>
       </c>
       <c r="D75" t="s">
-        <v>388</v>
+        <v>389</v>
       </c>
     </row>
     <row r="76" spans="1:4">
@@ -7617,13 +7617,13 @@
         <v>79</v>
       </c>
       <c r="B80" t="s">
-        <v>94</v>
+        <v>77</v>
       </c>
       <c r="C80" t="s">
-        <v>354</v>
+        <v>355</v>
       </c>
       <c r="D80" t="s">
-        <v>379</v>
+        <v>367</v>
       </c>
     </row>
     <row r="81" spans="1:4">
@@ -7631,13 +7631,13 @@
         <v>80</v>
       </c>
       <c r="B81" t="s">
-        <v>77</v>
+        <v>95</v>
       </c>
       <c r="C81" t="s">
-        <v>355</v>
+        <v>354</v>
       </c>
       <c r="D81" t="s">
-        <v>367</v>
+        <v>379</v>
       </c>
     </row>
     <row r="82" spans="1:4">
@@ -7729,7 +7729,7 @@
         <v>87</v>
       </c>
       <c r="B88" t="s">
-        <v>100</v>
+        <v>101</v>
       </c>
       <c r="C88" t="s">
         <v>354</v>
@@ -7743,7 +7743,7 @@
         <v>88</v>
       </c>
       <c r="B89" t="s">
-        <v>95</v>
+        <v>94</v>
       </c>
       <c r="C89" t="s">
         <v>354</v>
@@ -7813,13 +7813,13 @@
         <v>93</v>
       </c>
       <c r="B94" t="s">
-        <v>98</v>
+        <v>97</v>
       </c>
       <c r="C94" t="s">
         <v>355</v>
       </c>
       <c r="D94" t="s">
-        <v>375</v>
+        <v>382</v>
       </c>
     </row>
     <row r="95" spans="1:4">
@@ -7827,13 +7827,13 @@
         <v>94</v>
       </c>
       <c r="B95" t="s">
-        <v>97</v>
+        <v>98</v>
       </c>
       <c r="C95" t="s">
         <v>355</v>
       </c>
       <c r="D95" t="s">
-        <v>382</v>
+        <v>375</v>
       </c>
     </row>
     <row r="96" spans="1:4">
@@ -7869,7 +7869,7 @@
         <v>97</v>
       </c>
       <c r="B98" t="s">
-        <v>101</v>
+        <v>100</v>
       </c>
       <c r="C98" t="s">
         <v>356</v>
@@ -7897,7 +7897,7 @@
         <v>99</v>
       </c>
       <c r="B100" t="s">
-        <v>106</v>
+        <v>104</v>
       </c>
       <c r="C100" t="s">
         <v>357</v>
@@ -7911,13 +7911,13 @@
         <v>100</v>
       </c>
       <c r="B101" t="s">
-        <v>105</v>
+        <v>92</v>
       </c>
       <c r="C101" t="s">
-        <v>357</v>
+        <v>356</v>
       </c>
       <c r="D101" t="s">
-        <v>376</v>
+        <v>374</v>
       </c>
     </row>
     <row r="102" spans="1:4">
@@ -7925,13 +7925,13 @@
         <v>101</v>
       </c>
       <c r="B102" t="s">
-        <v>92</v>
+        <v>106</v>
       </c>
       <c r="C102" t="s">
-        <v>356</v>
+        <v>357</v>
       </c>
       <c r="D102" t="s">
-        <v>374</v>
+        <v>376</v>
       </c>
     </row>
     <row r="103" spans="1:4">
@@ -8001,7 +8001,7 @@
         <v>355</v>
       </c>
       <c r="D107" t="s">
-        <v>371</v>
+        <v>370</v>
       </c>
     </row>
     <row r="108" spans="1:4">
@@ -8009,13 +8009,13 @@
         <v>107</v>
       </c>
       <c r="B108" t="s">
-        <v>104</v>
+        <v>112</v>
       </c>
       <c r="C108" t="s">
-        <v>355</v>
+        <v>356</v>
       </c>
       <c r="D108" t="s">
-        <v>383</v>
+        <v>387</v>
       </c>
     </row>
     <row r="109" spans="1:4">
@@ -8023,13 +8023,13 @@
         <v>108</v>
       </c>
       <c r="B109" t="s">
-        <v>114</v>
+        <v>105</v>
       </c>
       <c r="C109" t="s">
-        <v>356</v>
+        <v>355</v>
       </c>
       <c r="D109" t="s">
-        <v>387</v>
+        <v>383</v>
       </c>
     </row>
     <row r="110" spans="1:4">
@@ -8065,13 +8065,13 @@
         <v>111</v>
       </c>
       <c r="B112" t="s">
-        <v>117</v>
+        <v>111</v>
       </c>
       <c r="C112" t="s">
-        <v>356</v>
+        <v>357</v>
       </c>
       <c r="D112" t="s">
-        <v>366</v>
+        <v>375</v>
       </c>
     </row>
     <row r="113" spans="1:4">
@@ -8079,13 +8079,13 @@
         <v>112</v>
       </c>
       <c r="B113" t="s">
-        <v>111</v>
+        <v>117</v>
       </c>
       <c r="C113" t="s">
-        <v>357</v>
+        <v>356</v>
       </c>
       <c r="D113" t="s">
-        <v>375</v>
+        <v>366</v>
       </c>
     </row>
     <row r="114" spans="1:4">
@@ -8093,7 +8093,7 @@
         <v>113</v>
       </c>
       <c r="B114" t="s">
-        <v>112</v>
+        <v>113</v>
       </c>
       <c r="C114" t="s">
         <v>354</v>
@@ -8107,7 +8107,7 @@
         <v>114</v>
       </c>
       <c r="B115" t="s">
-        <v>113</v>
+        <v>114</v>
       </c>
       <c r="C115" t="s">
         <v>355</v>
@@ -8121,7 +8121,7 @@
         <v>115</v>
       </c>
       <c r="B116" t="s">
-        <v>122</v>
+        <v>121</v>
       </c>
       <c r="C116" t="s">
         <v>354</v>
@@ -8163,7 +8163,7 @@
         <v>118</v>
       </c>
       <c r="B119" t="s">
-        <v>123</v>
+        <v>124</v>
       </c>
       <c r="C119" t="s">
         <v>355</v>
@@ -8177,7 +8177,7 @@
         <v>119</v>
       </c>
       <c r="B120" t="s">
-        <v>130</v>
+        <v>129</v>
       </c>
       <c r="C120" t="s">
         <v>354</v>
@@ -8247,7 +8247,7 @@
         <v>124</v>
       </c>
       <c r="B125" t="s">
-        <v>121</v>
+        <v>122</v>
       </c>
       <c r="C125" t="s">
         <v>357</v>
@@ -8275,13 +8275,13 @@
         <v>126</v>
       </c>
       <c r="B127" t="s">
-        <v>119</v>
+        <v>123</v>
       </c>
       <c r="C127" t="s">
-        <v>356</v>
+        <v>355</v>
       </c>
       <c r="D127" t="s">
-        <v>391</v>
+        <v>371</v>
       </c>
     </row>
     <row r="128" spans="1:4">
@@ -8289,13 +8289,13 @@
         <v>127</v>
       </c>
       <c r="B128" t="s">
-        <v>129</v>
+        <v>130</v>
       </c>
       <c r="C128" t="s">
         <v>355</v>
       </c>
       <c r="D128" t="s">
-        <v>370</v>
+        <v>371</v>
       </c>
     </row>
     <row r="129" spans="1:4">
@@ -8303,13 +8303,13 @@
         <v>128</v>
       </c>
       <c r="B129" t="s">
-        <v>125</v>
+        <v>120</v>
       </c>
       <c r="C129" t="s">
-        <v>355</v>
+        <v>356</v>
       </c>
       <c r="D129" t="s">
-        <v>370</v>
+        <v>391</v>
       </c>
     </row>
     <row r="130" spans="1:4">
@@ -8317,7 +8317,7 @@
         <v>129</v>
       </c>
       <c r="B130" t="s">
-        <v>120</v>
+        <v>119</v>
       </c>
       <c r="C130" t="s">
         <v>357</v>
@@ -8373,13 +8373,13 @@
         <v>133</v>
       </c>
       <c r="B134" t="s">
-        <v>132</v>
+        <v>131</v>
       </c>
       <c r="C134" t="s">
         <v>356</v>
       </c>
       <c r="D134" t="s">
-        <v>367</v>
+        <v>363</v>
       </c>
     </row>
     <row r="135" spans="1:4">
@@ -8387,13 +8387,13 @@
         <v>134</v>
       </c>
       <c r="B135" t="s">
-        <v>131</v>
+        <v>132</v>
       </c>
       <c r="C135" t="s">
         <v>356</v>
       </c>
       <c r="D135" t="s">
-        <v>363</v>
+        <v>367</v>
       </c>
     </row>
     <row r="136" spans="1:4">
@@ -8401,7 +8401,7 @@
         <v>135</v>
       </c>
       <c r="B136" t="s">
-        <v>134</v>
+        <v>135</v>
       </c>
       <c r="C136" t="s">
         <v>355</v>
@@ -8415,7 +8415,7 @@
         <v>136</v>
       </c>
       <c r="B137" t="s">
-        <v>124</v>
+        <v>125</v>
       </c>
       <c r="C137" t="s">
         <v>357</v>
@@ -8429,13 +8429,13 @@
         <v>137</v>
       </c>
       <c r="B138" t="s">
-        <v>144</v>
+        <v>134</v>
       </c>
       <c r="C138" t="s">
-        <v>355</v>
+        <v>356</v>
       </c>
       <c r="D138" t="s">
-        <v>391</v>
+        <v>377</v>
       </c>
     </row>
     <row r="139" spans="1:4">
@@ -8443,13 +8443,13 @@
         <v>138</v>
       </c>
       <c r="B139" t="s">
-        <v>141</v>
+        <v>144</v>
       </c>
       <c r="C139" t="s">
-        <v>354</v>
+        <v>355</v>
       </c>
       <c r="D139" t="s">
-        <v>372</v>
+        <v>391</v>
       </c>
     </row>
     <row r="140" spans="1:4">
@@ -8457,13 +8457,13 @@
         <v>139</v>
       </c>
       <c r="B140" t="s">
-        <v>135</v>
+        <v>154</v>
       </c>
       <c r="C140" t="s">
-        <v>356</v>
+        <v>355</v>
       </c>
       <c r="D140" t="s">
-        <v>377</v>
+        <v>385</v>
       </c>
     </row>
     <row r="141" spans="1:4">
@@ -8471,13 +8471,13 @@
         <v>140</v>
       </c>
       <c r="B141" t="s">
-        <v>155</v>
+        <v>141</v>
       </c>
       <c r="C141" t="s">
-        <v>355</v>
+        <v>354</v>
       </c>
       <c r="D141" t="s">
-        <v>385</v>
+        <v>372</v>
       </c>
     </row>
     <row r="142" spans="1:4">
@@ -8499,13 +8499,13 @@
         <v>142</v>
       </c>
       <c r="B143" t="s">
-        <v>156</v>
+        <v>158</v>
       </c>
       <c r="C143" t="s">
         <v>355</v>
       </c>
       <c r="D143" t="s">
-        <v>369</v>
+        <v>383</v>
       </c>
     </row>
     <row r="144" spans="1:4">
@@ -8513,13 +8513,13 @@
         <v>143</v>
       </c>
       <c r="B144" t="s">
-        <v>157</v>
+        <v>140</v>
       </c>
       <c r="C144" t="s">
-        <v>355</v>
+        <v>356</v>
       </c>
       <c r="D144" t="s">
-        <v>383</v>
+        <v>381</v>
       </c>
     </row>
     <row r="145" spans="1:4">
@@ -8527,13 +8527,13 @@
         <v>144</v>
       </c>
       <c r="B145" t="s">
-        <v>140</v>
+        <v>156</v>
       </c>
       <c r="C145" t="s">
-        <v>356</v>
+        <v>355</v>
       </c>
       <c r="D145" t="s">
-        <v>381</v>
+        <v>369</v>
       </c>
     </row>
     <row r="146" spans="1:4">
@@ -8569,13 +8569,13 @@
         <v>147</v>
       </c>
       <c r="B148" t="s">
-        <v>149</v>
+        <v>148</v>
       </c>
       <c r="C148" t="s">
-        <v>354</v>
+        <v>356</v>
       </c>
       <c r="D148" t="s">
-        <v>380</v>
+        <v>364</v>
       </c>
     </row>
     <row r="149" spans="1:4">
@@ -8597,13 +8597,13 @@
         <v>149</v>
       </c>
       <c r="B150" t="s">
-        <v>148</v>
+        <v>149</v>
       </c>
       <c r="C150" t="s">
-        <v>356</v>
+        <v>354</v>
       </c>
       <c r="D150" t="s">
-        <v>364</v>
+        <v>380</v>
       </c>
     </row>
     <row r="151" spans="1:4">
@@ -8639,7 +8639,7 @@
         <v>152</v>
       </c>
       <c r="B153" t="s">
-        <v>152</v>
+        <v>151</v>
       </c>
       <c r="C153" t="s">
         <v>356</v>
@@ -8653,7 +8653,7 @@
         <v>153</v>
       </c>
       <c r="B154" t="s">
-        <v>150</v>
+        <v>152</v>
       </c>
       <c r="C154" t="s">
         <v>356</v>
@@ -8667,7 +8667,7 @@
         <v>154</v>
       </c>
       <c r="B155" t="s">
-        <v>158</v>
+        <v>157</v>
       </c>
       <c r="C155" t="s">
         <v>356</v>
@@ -8681,7 +8681,7 @@
         <v>155</v>
       </c>
       <c r="B156" t="s">
-        <v>151</v>
+        <v>150</v>
       </c>
       <c r="C156" t="s">
         <v>357</v>
@@ -8737,13 +8737,13 @@
         <v>159</v>
       </c>
       <c r="B160" t="s">
-        <v>171</v>
+        <v>170</v>
       </c>
       <c r="C160" t="s">
         <v>355</v>
       </c>
       <c r="D160" t="s">
-        <v>371</v>
+        <v>370</v>
       </c>
     </row>
     <row r="161" spans="1:4">
@@ -8799,7 +8799,7 @@
         <v>357</v>
       </c>
       <c r="D164" t="s">
-        <v>371</v>
+        <v>370</v>
       </c>
     </row>
     <row r="165" spans="1:4">
@@ -8807,7 +8807,7 @@
         <v>164</v>
       </c>
       <c r="B165" t="s">
-        <v>154</v>
+        <v>155</v>
       </c>
       <c r="C165" t="s">
         <v>358</v>
@@ -8827,7 +8827,7 @@
         <v>355</v>
       </c>
       <c r="D166" t="s">
-        <v>371</v>
+        <v>370</v>
       </c>
     </row>
     <row r="167" spans="1:4">
@@ -8891,13 +8891,13 @@
         <v>170</v>
       </c>
       <c r="B171" t="s">
-        <v>180</v>
+        <v>181</v>
       </c>
       <c r="C171" t="s">
-        <v>355</v>
+        <v>356</v>
       </c>
       <c r="D171" t="s">
-        <v>388</v>
+        <v>365</v>
       </c>
     </row>
     <row r="172" spans="1:4">
@@ -8905,13 +8905,13 @@
         <v>171</v>
       </c>
       <c r="B172" t="s">
-        <v>181</v>
+        <v>180</v>
       </c>
       <c r="C172" t="s">
-        <v>356</v>
+        <v>355</v>
       </c>
       <c r="D172" t="s">
-        <v>365</v>
+        <v>388</v>
       </c>
     </row>
     <row r="173" spans="1:4">
@@ -8925,7 +8925,7 @@
         <v>355</v>
       </c>
       <c r="D173" t="s">
-        <v>370</v>
+        <v>371</v>
       </c>
     </row>
     <row r="174" spans="1:4">
@@ -8933,7 +8933,7 @@
         <v>173</v>
       </c>
       <c r="B174" t="s">
-        <v>196</v>
+        <v>198</v>
       </c>
       <c r="C174" t="s">
         <v>355</v>
@@ -8989,7 +8989,7 @@
         <v>177</v>
       </c>
       <c r="B178" t="s">
-        <v>170</v>
+        <v>171</v>
       </c>
       <c r="C178" t="s">
         <v>358</v>
@@ -9031,13 +9031,13 @@
         <v>180</v>
       </c>
       <c r="B181" t="s">
-        <v>174</v>
+        <v>168</v>
       </c>
       <c r="C181" t="s">
-        <v>359</v>
+        <v>357</v>
       </c>
       <c r="D181" t="s">
-        <v>373</v>
+        <v>385</v>
       </c>
     </row>
     <row r="182" spans="1:4">
@@ -9045,13 +9045,13 @@
         <v>181</v>
       </c>
       <c r="B182" t="s">
-        <v>168</v>
+        <v>174</v>
       </c>
       <c r="C182" t="s">
-        <v>357</v>
+        <v>359</v>
       </c>
       <c r="D182" t="s">
-        <v>385</v>
+        <v>373</v>
       </c>
     </row>
     <row r="183" spans="1:4">
@@ -9087,7 +9087,7 @@
         <v>184</v>
       </c>
       <c r="B185" t="s">
-        <v>195</v>
+        <v>194</v>
       </c>
       <c r="C185" t="s">
         <v>355</v>
@@ -9129,7 +9129,7 @@
         <v>187</v>
       </c>
       <c r="B188" t="s">
-        <v>198</v>
+        <v>197</v>
       </c>
       <c r="C188" t="s">
         <v>355</v>
@@ -9143,13 +9143,13 @@
         <v>188</v>
       </c>
       <c r="B189" t="s">
-        <v>208</v>
+        <v>189</v>
       </c>
       <c r="C189" t="s">
         <v>354</v>
       </c>
       <c r="D189" t="s">
-        <v>378</v>
+        <v>371</v>
       </c>
     </row>
     <row r="190" spans="1:4">
@@ -9157,13 +9157,13 @@
         <v>189</v>
       </c>
       <c r="B190" t="s">
-        <v>189</v>
+        <v>208</v>
       </c>
       <c r="C190" t="s">
         <v>354</v>
       </c>
       <c r="D190" t="s">
-        <v>370</v>
+        <v>378</v>
       </c>
     </row>
     <row r="191" spans="1:4">
@@ -9255,13 +9255,13 @@
         <v>196</v>
       </c>
       <c r="B197" t="s">
-        <v>197</v>
+        <v>205</v>
       </c>
       <c r="C197" t="s">
-        <v>359</v>
+        <v>355</v>
       </c>
       <c r="D197" t="s">
-        <v>368</v>
+        <v>372</v>
       </c>
     </row>
     <row r="198" spans="1:4">
@@ -9269,13 +9269,13 @@
         <v>197</v>
       </c>
       <c r="B198" t="s">
-        <v>206</v>
+        <v>195</v>
       </c>
       <c r="C198" t="s">
-        <v>355</v>
+        <v>359</v>
       </c>
       <c r="D198" t="s">
-        <v>372</v>
+        <v>368</v>
       </c>
     </row>
     <row r="199" spans="1:4">
@@ -9297,13 +9297,13 @@
         <v>199</v>
       </c>
       <c r="B200" t="s">
-        <v>203</v>
+        <v>212</v>
       </c>
       <c r="C200" t="s">
-        <v>354</v>
+        <v>356</v>
       </c>
       <c r="D200" t="s">
-        <v>383</v>
+        <v>390</v>
       </c>
     </row>
     <row r="201" spans="1:4">
@@ -9311,13 +9311,13 @@
         <v>200</v>
       </c>
       <c r="B201" t="s">
-        <v>216</v>
+        <v>215</v>
       </c>
       <c r="C201" t="s">
         <v>355</v>
       </c>
       <c r="D201" t="s">
-        <v>367</v>
+        <v>360</v>
       </c>
     </row>
     <row r="202" spans="1:4">
@@ -9325,13 +9325,13 @@
         <v>201</v>
       </c>
       <c r="B202" t="s">
-        <v>215</v>
+        <v>216</v>
       </c>
       <c r="C202" t="s">
         <v>355</v>
       </c>
       <c r="D202" t="s">
-        <v>360</v>
+        <v>367</v>
       </c>
     </row>
     <row r="203" spans="1:4">
@@ -9339,13 +9339,13 @@
         <v>202</v>
       </c>
       <c r="B203" t="s">
-        <v>214</v>
+        <v>203</v>
       </c>
       <c r="C203" t="s">
-        <v>356</v>
+        <v>354</v>
       </c>
       <c r="D203" t="s">
-        <v>390</v>
+        <v>383</v>
       </c>
     </row>
     <row r="204" spans="1:4">
@@ -9353,7 +9353,7 @@
         <v>203</v>
       </c>
       <c r="B204" t="s">
-        <v>194</v>
+        <v>196</v>
       </c>
       <c r="C204" t="s">
         <v>359</v>
@@ -9409,13 +9409,13 @@
         <v>207</v>
       </c>
       <c r="B208" t="s">
-        <v>205</v>
+        <v>186</v>
       </c>
       <c r="C208" t="s">
-        <v>359</v>
+        <v>357</v>
       </c>
       <c r="D208" t="s">
-        <v>375</v>
+        <v>390</v>
       </c>
     </row>
     <row r="209" spans="1:4">
@@ -9423,13 +9423,13 @@
         <v>208</v>
       </c>
       <c r="B209" t="s">
-        <v>186</v>
+        <v>206</v>
       </c>
       <c r="C209" t="s">
-        <v>357</v>
+        <v>359</v>
       </c>
       <c r="D209" t="s">
-        <v>390</v>
+        <v>375</v>
       </c>
     </row>
     <row r="210" spans="1:4">
@@ -9451,7 +9451,7 @@
         <v>210</v>
       </c>
       <c r="B211" t="s">
-        <v>218</v>
+        <v>219</v>
       </c>
       <c r="C211" t="s">
         <v>355</v>
@@ -9479,7 +9479,7 @@
         <v>212</v>
       </c>
       <c r="B213" t="s">
-        <v>212</v>
+        <v>213</v>
       </c>
       <c r="C213" t="s">
         <v>358</v>
@@ -9513,7 +9513,7 @@
         <v>359</v>
       </c>
       <c r="D215" t="s">
-        <v>370</v>
+        <v>371</v>
       </c>
     </row>
     <row r="216" spans="1:4">
@@ -9555,7 +9555,7 @@
         <v>355</v>
       </c>
       <c r="D218" t="s">
-        <v>371</v>
+        <v>370</v>
       </c>
     </row>
     <row r="219" spans="1:4">
@@ -9563,7 +9563,7 @@
         <v>218</v>
       </c>
       <c r="B219" t="s">
-        <v>239</v>
+        <v>238</v>
       </c>
       <c r="C219" t="s">
         <v>355</v>
@@ -9577,13 +9577,13 @@
         <v>219</v>
       </c>
       <c r="B220" t="s">
-        <v>231</v>
+        <v>220</v>
       </c>
       <c r="C220" t="s">
-        <v>354</v>
+        <v>356</v>
       </c>
       <c r="D220" t="s">
-        <v>382</v>
+        <v>360</v>
       </c>
     </row>
     <row r="221" spans="1:4">
@@ -9591,13 +9591,13 @@
         <v>220</v>
       </c>
       <c r="B221" t="s">
-        <v>219</v>
+        <v>223</v>
       </c>
       <c r="C221" t="s">
-        <v>356</v>
+        <v>358</v>
       </c>
       <c r="D221" t="s">
-        <v>360</v>
+        <v>373</v>
       </c>
     </row>
     <row r="222" spans="1:4">
@@ -9605,13 +9605,13 @@
         <v>221</v>
       </c>
       <c r="B222" t="s">
-        <v>223</v>
+        <v>231</v>
       </c>
       <c r="C222" t="s">
-        <v>358</v>
+        <v>354</v>
       </c>
       <c r="D222" t="s">
-        <v>373</v>
+        <v>382</v>
       </c>
     </row>
     <row r="223" spans="1:4">
@@ -9619,13 +9619,13 @@
         <v>222</v>
       </c>
       <c r="B223" t="s">
-        <v>210</v>
+        <v>233</v>
       </c>
       <c r="C223" t="s">
         <v>354</v>
       </c>
       <c r="D223" t="s">
-        <v>364</v>
+        <v>371</v>
       </c>
     </row>
     <row r="224" spans="1:4">
@@ -9633,13 +9633,13 @@
         <v>223</v>
       </c>
       <c r="B224" t="s">
-        <v>224</v>
+        <v>210</v>
       </c>
       <c r="C224" t="s">
-        <v>358</v>
+        <v>354</v>
       </c>
       <c r="D224" t="s">
-        <v>367</v>
+        <v>364</v>
       </c>
     </row>
     <row r="225" spans="1:4">
@@ -9647,13 +9647,13 @@
         <v>224</v>
       </c>
       <c r="B225" t="s">
-        <v>233</v>
+        <v>224</v>
       </c>
       <c r="C225" t="s">
-        <v>354</v>
+        <v>358</v>
       </c>
       <c r="D225" t="s">
-        <v>370</v>
+        <v>367</v>
       </c>
     </row>
     <row r="226" spans="1:4">
@@ -9675,13 +9675,13 @@
         <v>226</v>
       </c>
       <c r="B227" t="s">
-        <v>227</v>
+        <v>247</v>
       </c>
       <c r="C227" t="s">
-        <v>358</v>
+        <v>355</v>
       </c>
       <c r="D227" t="s">
-        <v>370</v>
+        <v>386</v>
       </c>
     </row>
     <row r="228" spans="1:4">
@@ -9689,13 +9689,13 @@
         <v>227</v>
       </c>
       <c r="B228" t="s">
-        <v>235</v>
+        <v>218</v>
       </c>
       <c r="C228" t="s">
-        <v>354</v>
+        <v>357</v>
       </c>
       <c r="D228" t="s">
-        <v>365</v>
+        <v>382</v>
       </c>
     </row>
     <row r="229" spans="1:4">
@@ -9703,13 +9703,13 @@
         <v>228</v>
       </c>
       <c r="B229" t="s">
-        <v>220</v>
+        <v>227</v>
       </c>
       <c r="C229" t="s">
-        <v>357</v>
+        <v>358</v>
       </c>
       <c r="D229" t="s">
-        <v>382</v>
+        <v>371</v>
       </c>
     </row>
     <row r="230" spans="1:4">
@@ -9717,13 +9717,13 @@
         <v>229</v>
       </c>
       <c r="B230" t="s">
-        <v>247</v>
+        <v>235</v>
       </c>
       <c r="C230" t="s">
-        <v>355</v>
+        <v>354</v>
       </c>
       <c r="D230" t="s">
-        <v>386</v>
+        <v>365</v>
       </c>
     </row>
     <row r="231" spans="1:4">
@@ -9759,13 +9759,13 @@
         <v>232</v>
       </c>
       <c r="B233" t="s">
-        <v>230</v>
+        <v>214</v>
       </c>
       <c r="C233" t="s">
-        <v>358</v>
+        <v>357</v>
       </c>
       <c r="D233" t="s">
-        <v>366</v>
+        <v>388</v>
       </c>
     </row>
     <row r="234" spans="1:4">
@@ -9773,13 +9773,13 @@
         <v>233</v>
       </c>
       <c r="B234" t="s">
-        <v>213</v>
+        <v>230</v>
       </c>
       <c r="C234" t="s">
-        <v>357</v>
+        <v>358</v>
       </c>
       <c r="D234" t="s">
-        <v>388</v>
+        <v>366</v>
       </c>
     </row>
     <row r="235" spans="1:4">
@@ -9807,7 +9807,7 @@
         <v>354</v>
       </c>
       <c r="D236" t="s">
-        <v>370</v>
+        <v>371</v>
       </c>
     </row>
     <row r="237" spans="1:4">
@@ -9815,13 +9815,13 @@
         <v>236</v>
       </c>
       <c r="B237" t="s">
-        <v>242</v>
+        <v>240</v>
       </c>
       <c r="C237" t="s">
-        <v>355</v>
+        <v>354</v>
       </c>
       <c r="D237" t="s">
-        <v>374</v>
+        <v>383</v>
       </c>
     </row>
     <row r="238" spans="1:4">
@@ -9829,13 +9829,13 @@
         <v>237</v>
       </c>
       <c r="B238" t="s">
-        <v>240</v>
+        <v>242</v>
       </c>
       <c r="C238" t="s">
-        <v>354</v>
+        <v>355</v>
       </c>
       <c r="D238" t="s">
-        <v>383</v>
+        <v>374</v>
       </c>
     </row>
     <row r="239" spans="1:4">
@@ -9857,7 +9857,7 @@
         <v>239</v>
       </c>
       <c r="B240" t="s">
-        <v>236</v>
+        <v>239</v>
       </c>
       <c r="C240" t="s">
         <v>354</v>
@@ -9871,7 +9871,7 @@
         <v>240</v>
       </c>
       <c r="B241" t="s">
-        <v>238</v>
+        <v>236</v>
       </c>
       <c r="C241" t="s">
         <v>359</v>
@@ -9927,13 +9927,13 @@
         <v>244</v>
       </c>
       <c r="B245" t="s">
-        <v>249</v>
+        <v>255</v>
       </c>
       <c r="C245" t="s">
         <v>359</v>
       </c>
       <c r="D245" t="s">
-        <v>382</v>
+        <v>378</v>
       </c>
     </row>
     <row r="246" spans="1:4">
@@ -9941,13 +9941,13 @@
         <v>245</v>
       </c>
       <c r="B246" t="s">
-        <v>254</v>
+        <v>249</v>
       </c>
       <c r="C246" t="s">
         <v>359</v>
       </c>
       <c r="D246" t="s">
-        <v>378</v>
+        <v>382</v>
       </c>
     </row>
     <row r="247" spans="1:4">
@@ -9997,7 +9997,7 @@
         <v>249</v>
       </c>
       <c r="B250" t="s">
-        <v>259</v>
+        <v>258</v>
       </c>
       <c r="C250" t="s">
         <v>359</v>
@@ -10011,7 +10011,7 @@
         <v>250</v>
       </c>
       <c r="B251" t="s">
-        <v>255</v>
+        <v>254</v>
       </c>
       <c r="C251" t="s">
         <v>358</v>
@@ -10053,7 +10053,7 @@
         <v>253</v>
       </c>
       <c r="B254" t="s">
-        <v>258</v>
+        <v>259</v>
       </c>
       <c r="C254" t="s">
         <v>355</v>
@@ -10067,13 +10067,13 @@
         <v>254</v>
       </c>
       <c r="B255" t="s">
-        <v>245</v>
+        <v>265</v>
       </c>
       <c r="C255" t="s">
-        <v>354</v>
+        <v>355</v>
       </c>
       <c r="D255" t="s">
-        <v>367</v>
+        <v>361</v>
       </c>
     </row>
     <row r="256" spans="1:4">
@@ -10081,13 +10081,13 @@
         <v>255</v>
       </c>
       <c r="B256" t="s">
-        <v>265</v>
+        <v>245</v>
       </c>
       <c r="C256" t="s">
-        <v>355</v>
+        <v>354</v>
       </c>
       <c r="D256" t="s">
-        <v>361</v>
+        <v>367</v>
       </c>
     </row>
     <row r="257" spans="1:4">
@@ -10095,13 +10095,13 @@
         <v>256</v>
       </c>
       <c r="B257" t="s">
-        <v>262</v>
+        <v>266</v>
       </c>
       <c r="C257" t="s">
-        <v>355</v>
+        <v>358</v>
       </c>
       <c r="D257" t="s">
-        <v>387</v>
+        <v>363</v>
       </c>
     </row>
     <row r="258" spans="1:4">
@@ -10109,13 +10109,13 @@
         <v>257</v>
       </c>
       <c r="B258" t="s">
-        <v>266</v>
+        <v>271</v>
       </c>
       <c r="C258" t="s">
-        <v>358</v>
+        <v>355</v>
       </c>
       <c r="D258" t="s">
-        <v>363</v>
+        <v>388</v>
       </c>
     </row>
     <row r="259" spans="1:4">
@@ -10123,13 +10123,13 @@
         <v>258</v>
       </c>
       <c r="B259" t="s">
-        <v>251</v>
+        <v>263</v>
       </c>
       <c r="C259" t="s">
-        <v>357</v>
+        <v>355</v>
       </c>
       <c r="D259" t="s">
-        <v>366</v>
+        <v>387</v>
       </c>
     </row>
     <row r="260" spans="1:4">
@@ -10137,13 +10137,13 @@
         <v>259</v>
       </c>
       <c r="B260" t="s">
-        <v>271</v>
+        <v>251</v>
       </c>
       <c r="C260" t="s">
-        <v>355</v>
+        <v>357</v>
       </c>
       <c r="D260" t="s">
-        <v>388</v>
+        <v>366</v>
       </c>
     </row>
     <row r="261" spans="1:4">
@@ -10151,7 +10151,7 @@
         <v>260</v>
       </c>
       <c r="B261" t="s">
-        <v>263</v>
+        <v>264</v>
       </c>
       <c r="C261" t="s">
         <v>359</v>
@@ -10249,13 +10249,13 @@
         <v>267</v>
       </c>
       <c r="B268" t="s">
-        <v>274</v>
+        <v>270</v>
       </c>
       <c r="C268" t="s">
         <v>355</v>
       </c>
       <c r="D268" t="s">
-        <v>391</v>
+        <v>361</v>
       </c>
     </row>
     <row r="269" spans="1:4">
@@ -10263,13 +10263,13 @@
         <v>268</v>
       </c>
       <c r="B269" t="s">
-        <v>270</v>
+        <v>274</v>
       </c>
       <c r="C269" t="s">
         <v>355</v>
       </c>
       <c r="D269" t="s">
-        <v>361</v>
+        <v>391</v>
       </c>
     </row>
     <row r="270" spans="1:4">
@@ -10291,13 +10291,13 @@
         <v>270</v>
       </c>
       <c r="B271" t="s">
-        <v>260</v>
+        <v>280</v>
       </c>
       <c r="C271" t="s">
-        <v>356</v>
+        <v>358</v>
       </c>
       <c r="D271" t="s">
-        <v>380</v>
+        <v>385</v>
       </c>
     </row>
     <row r="272" spans="1:4">
@@ -10305,13 +10305,13 @@
         <v>271</v>
       </c>
       <c r="B272" t="s">
-        <v>279</v>
+        <v>260</v>
       </c>
       <c r="C272" t="s">
-        <v>358</v>
+        <v>356</v>
       </c>
       <c r="D272" t="s">
-        <v>385</v>
+        <v>380</v>
       </c>
     </row>
     <row r="273" spans="1:4">
@@ -10319,7 +10319,7 @@
         <v>272</v>
       </c>
       <c r="B273" t="s">
-        <v>278</v>
+        <v>277</v>
       </c>
       <c r="C273" t="s">
         <v>359</v>
@@ -10367,7 +10367,7 @@
         <v>359</v>
       </c>
       <c r="D276" t="s">
-        <v>371</v>
+        <v>370</v>
       </c>
     </row>
     <row r="277" spans="1:4">
@@ -10381,7 +10381,7 @@
         <v>358</v>
       </c>
       <c r="D277" t="s">
-        <v>371</v>
+        <v>370</v>
       </c>
     </row>
     <row r="278" spans="1:4">
@@ -10389,7 +10389,7 @@
         <v>277</v>
       </c>
       <c r="B278" t="s">
-        <v>264</v>
+        <v>262</v>
       </c>
       <c r="C278" t="s">
         <v>356</v>
@@ -10417,13 +10417,13 @@
         <v>279</v>
       </c>
       <c r="B280" t="s">
-        <v>277</v>
+        <v>278</v>
       </c>
       <c r="C280" t="s">
         <v>354</v>
       </c>
       <c r="D280" t="s">
-        <v>371</v>
+        <v>370</v>
       </c>
     </row>
     <row r="281" spans="1:4">
@@ -10431,7 +10431,7 @@
         <v>280</v>
       </c>
       <c r="B281" t="s">
-        <v>310</v>
+        <v>308</v>
       </c>
       <c r="C281" t="s">
         <v>358</v>
@@ -10445,13 +10445,13 @@
         <v>281</v>
       </c>
       <c r="B282" t="s">
-        <v>282</v>
+        <v>297</v>
       </c>
       <c r="C282" t="s">
-        <v>354</v>
+        <v>359</v>
       </c>
       <c r="D282" t="s">
-        <v>381</v>
+        <v>362</v>
       </c>
     </row>
     <row r="283" spans="1:4">
@@ -10459,13 +10459,13 @@
         <v>282</v>
       </c>
       <c r="B283" t="s">
-        <v>297</v>
+        <v>304</v>
       </c>
       <c r="C283" t="s">
-        <v>359</v>
+        <v>358</v>
       </c>
       <c r="D283" t="s">
-        <v>362</v>
+        <v>388</v>
       </c>
     </row>
     <row r="284" spans="1:4">
@@ -10473,13 +10473,13 @@
         <v>283</v>
       </c>
       <c r="B284" t="s">
-        <v>304</v>
+        <v>292</v>
       </c>
       <c r="C284" t="s">
-        <v>358</v>
+        <v>354</v>
       </c>
       <c r="D284" t="s">
-        <v>388</v>
+        <v>375</v>
       </c>
     </row>
     <row r="285" spans="1:4">
@@ -10487,13 +10487,13 @@
         <v>284</v>
       </c>
       <c r="B285" t="s">
-        <v>292</v>
+        <v>283</v>
       </c>
       <c r="C285" t="s">
         <v>354</v>
       </c>
       <c r="D285" t="s">
-        <v>375</v>
+        <v>381</v>
       </c>
     </row>
     <row r="286" spans="1:4">
@@ -10501,7 +10501,7 @@
         <v>285</v>
       </c>
       <c r="B286" t="s">
-        <v>299</v>
+        <v>298</v>
       </c>
       <c r="C286" t="s">
         <v>359</v>
@@ -10529,13 +10529,13 @@
         <v>287</v>
       </c>
       <c r="B288" t="s">
-        <v>280</v>
+        <v>300</v>
       </c>
       <c r="C288" t="s">
-        <v>356</v>
+        <v>359</v>
       </c>
       <c r="D288" t="s">
-        <v>388</v>
+        <v>387</v>
       </c>
     </row>
     <row r="289" spans="1:4">
@@ -10543,13 +10543,13 @@
         <v>288</v>
       </c>
       <c r="B289" t="s">
-        <v>291</v>
+        <v>279</v>
       </c>
       <c r="C289" t="s">
-        <v>354</v>
+        <v>356</v>
       </c>
       <c r="D289" t="s">
-        <v>364</v>
+        <v>388</v>
       </c>
     </row>
     <row r="290" spans="1:4">
@@ -10557,13 +10557,13 @@
         <v>289</v>
       </c>
       <c r="B290" t="s">
-        <v>301</v>
+        <v>291</v>
       </c>
       <c r="C290" t="s">
-        <v>359</v>
+        <v>354</v>
       </c>
       <c r="D290" t="s">
-        <v>387</v>
+        <v>364</v>
       </c>
     </row>
     <row r="291" spans="1:4">
@@ -10585,13 +10585,13 @@
         <v>291</v>
       </c>
       <c r="B292" t="s">
-        <v>289</v>
+        <v>288</v>
       </c>
       <c r="C292" t="s">
-        <v>355</v>
+        <v>357</v>
       </c>
       <c r="D292" t="s">
-        <v>369</v>
+        <v>389</v>
       </c>
     </row>
     <row r="293" spans="1:4">
@@ -10602,10 +10602,10 @@
         <v>290</v>
       </c>
       <c r="C293" t="s">
-        <v>357</v>
+        <v>355</v>
       </c>
       <c r="D293" t="s">
-        <v>389</v>
+        <v>369</v>
       </c>
     </row>
     <row r="294" spans="1:4">
@@ -10613,7 +10613,7 @@
         <v>293</v>
       </c>
       <c r="B294" t="s">
-        <v>283</v>
+        <v>281</v>
       </c>
       <c r="C294" t="s">
         <v>356</v>
@@ -10627,7 +10627,7 @@
         <v>294</v>
       </c>
       <c r="B295" t="s">
-        <v>281</v>
+        <v>282</v>
       </c>
       <c r="C295" t="s">
         <v>356</v>
@@ -10641,13 +10641,13 @@
         <v>295</v>
       </c>
       <c r="B296" t="s">
-        <v>284</v>
+        <v>289</v>
       </c>
       <c r="C296" t="s">
-        <v>354</v>
+        <v>355</v>
       </c>
       <c r="D296" t="s">
-        <v>384</v>
+        <v>362</v>
       </c>
     </row>
     <row r="297" spans="1:4">
@@ -10655,13 +10655,13 @@
         <v>296</v>
       </c>
       <c r="B297" t="s">
-        <v>288</v>
+        <v>284</v>
       </c>
       <c r="C297" t="s">
-        <v>355</v>
+        <v>354</v>
       </c>
       <c r="D297" t="s">
-        <v>362</v>
+        <v>384</v>
       </c>
     </row>
     <row r="298" spans="1:4">
@@ -10711,13 +10711,13 @@
         <v>300</v>
       </c>
       <c r="B301" t="s">
-        <v>300</v>
+        <v>294</v>
       </c>
       <c r="C301" t="s">
-        <v>354</v>
+        <v>356</v>
       </c>
       <c r="D301" t="s">
-        <v>380</v>
+        <v>383</v>
       </c>
     </row>
     <row r="302" spans="1:4">
@@ -10725,13 +10725,13 @@
         <v>301</v>
       </c>
       <c r="B302" t="s">
-        <v>294</v>
+        <v>312</v>
       </c>
       <c r="C302" t="s">
-        <v>356</v>
+        <v>359</v>
       </c>
       <c r="D302" t="s">
-        <v>383</v>
+        <v>390</v>
       </c>
     </row>
     <row r="303" spans="1:4">
@@ -10739,13 +10739,13 @@
         <v>302</v>
       </c>
       <c r="B303" t="s">
-        <v>312</v>
+        <v>301</v>
       </c>
       <c r="C303" t="s">
-        <v>359</v>
+        <v>354</v>
       </c>
       <c r="D303" t="s">
-        <v>390</v>
+        <v>380</v>
       </c>
     </row>
     <row r="304" spans="1:4">
@@ -10767,13 +10767,13 @@
         <v>304</v>
       </c>
       <c r="B305" t="s">
-        <v>313</v>
+        <v>310</v>
       </c>
       <c r="C305" t="s">
         <v>355</v>
       </c>
       <c r="D305" t="s">
-        <v>372</v>
+        <v>373</v>
       </c>
     </row>
     <row r="306" spans="1:4">
@@ -10781,13 +10781,13 @@
         <v>305</v>
       </c>
       <c r="B306" t="s">
-        <v>307</v>
+        <v>313</v>
       </c>
       <c r="C306" t="s">
-        <v>354</v>
+        <v>355</v>
       </c>
       <c r="D306" t="s">
-        <v>368</v>
+        <v>372</v>
       </c>
     </row>
     <row r="307" spans="1:4">
@@ -10798,10 +10798,10 @@
         <v>309</v>
       </c>
       <c r="C307" t="s">
-        <v>355</v>
+        <v>354</v>
       </c>
       <c r="D307" t="s">
-        <v>373</v>
+        <v>368</v>
       </c>
     </row>
     <row r="308" spans="1:4">
@@ -10809,13 +10809,13 @@
         <v>307</v>
       </c>
       <c r="B308" t="s">
-        <v>306</v>
+        <v>307</v>
       </c>
       <c r="C308" t="s">
-        <v>355</v>
+        <v>356</v>
       </c>
       <c r="D308" t="s">
-        <v>387</v>
+        <v>370</v>
       </c>
     </row>
     <row r="309" spans="1:4">
@@ -10823,13 +10823,13 @@
         <v>308</v>
       </c>
       <c r="B309" t="s">
-        <v>308</v>
+        <v>306</v>
       </c>
       <c r="C309" t="s">
-        <v>356</v>
+        <v>355</v>
       </c>
       <c r="D309" t="s">
-        <v>371</v>
+        <v>387</v>
       </c>
     </row>
     <row r="310" spans="1:4">
@@ -10851,13 +10851,13 @@
         <v>310</v>
       </c>
       <c r="B311" t="s">
-        <v>298</v>
+        <v>315</v>
       </c>
       <c r="C311" t="s">
-        <v>356</v>
+        <v>354</v>
       </c>
       <c r="D311" t="s">
-        <v>380</v>
+        <v>362</v>
       </c>
     </row>
     <row r="312" spans="1:4">
@@ -10865,13 +10865,13 @@
         <v>311</v>
       </c>
       <c r="B312" t="s">
-        <v>315</v>
+        <v>299</v>
       </c>
       <c r="C312" t="s">
-        <v>354</v>
+        <v>356</v>
       </c>
       <c r="D312" t="s">
-        <v>362</v>
+        <v>380</v>
       </c>
     </row>
     <row r="313" spans="1:4">
@@ -10907,13 +10907,13 @@
         <v>314</v>
       </c>
       <c r="B315" t="s">
-        <v>325</v>
+        <v>320</v>
       </c>
       <c r="C315" t="s">
         <v>355</v>
       </c>
       <c r="D315" t="s">
-        <v>363</v>
+        <v>369</v>
       </c>
     </row>
     <row r="316" spans="1:4">
@@ -10921,13 +10921,13 @@
         <v>315</v>
       </c>
       <c r="B316" t="s">
-        <v>328</v>
+        <v>325</v>
       </c>
       <c r="C316" t="s">
-        <v>354</v>
+        <v>355</v>
       </c>
       <c r="D316" t="s">
-        <v>380</v>
+        <v>363</v>
       </c>
     </row>
     <row r="317" spans="1:4">
@@ -10935,13 +10935,13 @@
         <v>316</v>
       </c>
       <c r="B317" t="s">
-        <v>320</v>
+        <v>328</v>
       </c>
       <c r="C317" t="s">
-        <v>355</v>
+        <v>354</v>
       </c>
       <c r="D317" t="s">
-        <v>369</v>
+        <v>380</v>
       </c>
     </row>
     <row r="318" spans="1:4">
@@ -10963,13 +10963,13 @@
         <v>318</v>
       </c>
       <c r="B319" t="s">
-        <v>323</v>
+        <v>322</v>
       </c>
       <c r="C319" t="s">
         <v>355</v>
       </c>
       <c r="D319" t="s">
-        <v>371</v>
+        <v>370</v>
       </c>
     </row>
     <row r="320" spans="1:4">
@@ -11005,13 +11005,13 @@
         <v>321</v>
       </c>
       <c r="B322" t="s">
-        <v>321</v>
+        <v>317</v>
       </c>
       <c r="C322" t="s">
-        <v>354</v>
+        <v>355</v>
       </c>
       <c r="D322" t="s">
-        <v>391</v>
+        <v>392</v>
       </c>
     </row>
     <row r="323" spans="1:4">
@@ -11019,13 +11019,13 @@
         <v>322</v>
       </c>
       <c r="B323" t="s">
-        <v>317</v>
+        <v>321</v>
       </c>
       <c r="C323" t="s">
-        <v>355</v>
+        <v>354</v>
       </c>
       <c r="D323" t="s">
-        <v>392</v>
+        <v>391</v>
       </c>
     </row>
     <row r="324" spans="1:4">
@@ -11033,13 +11033,13 @@
         <v>323</v>
       </c>
       <c r="B324" t="s">
-        <v>322</v>
+        <v>327</v>
       </c>
       <c r="C324" t="s">
-        <v>356</v>
+        <v>357</v>
       </c>
       <c r="D324" t="s">
-        <v>390</v>
+        <v>378</v>
       </c>
     </row>
     <row r="325" spans="1:4">
@@ -11047,13 +11047,13 @@
         <v>324</v>
       </c>
       <c r="B325" t="s">
-        <v>329</v>
+        <v>323</v>
       </c>
       <c r="C325" t="s">
-        <v>355</v>
+        <v>356</v>
       </c>
       <c r="D325" t="s">
-        <v>385</v>
+        <v>390</v>
       </c>
     </row>
     <row r="326" spans="1:4">
@@ -11061,13 +11061,13 @@
         <v>325</v>
       </c>
       <c r="B326" t="s">
-        <v>314</v>
+        <v>329</v>
       </c>
       <c r="C326" t="s">
-        <v>354</v>
+        <v>355</v>
       </c>
       <c r="D326" t="s">
-        <v>378</v>
+        <v>385</v>
       </c>
     </row>
     <row r="327" spans="1:4">
@@ -11075,10 +11075,10 @@
         <v>326</v>
       </c>
       <c r="B327" t="s">
-        <v>327</v>
+        <v>314</v>
       </c>
       <c r="C327" t="s">
-        <v>357</v>
+        <v>354</v>
       </c>
       <c r="D327" t="s">
         <v>378</v>
@@ -11103,7 +11103,7 @@
         <v>328</v>
       </c>
       <c r="B329" t="s">
-        <v>333</v>
+        <v>332</v>
       </c>
       <c r="C329" t="s">
         <v>355</v>
@@ -11117,13 +11117,13 @@
         <v>329</v>
       </c>
       <c r="B330" t="s">
-        <v>341</v>
+        <v>345</v>
       </c>
       <c r="C330" t="s">
         <v>354</v>
       </c>
       <c r="D330" t="s">
-        <v>391</v>
+        <v>367</v>
       </c>
     </row>
     <row r="331" spans="1:4">
@@ -11131,13 +11131,13 @@
         <v>330</v>
       </c>
       <c r="B331" t="s">
-        <v>345</v>
+        <v>342</v>
       </c>
       <c r="C331" t="s">
         <v>354</v>
       </c>
       <c r="D331" t="s">
-        <v>367</v>
+        <v>391</v>
       </c>
     </row>
     <row r="332" spans="1:4">
@@ -11145,13 +11145,13 @@
         <v>331</v>
       </c>
       <c r="B332" t="s">
-        <v>326</v>
+        <v>338</v>
       </c>
       <c r="C332" t="s">
-        <v>356</v>
+        <v>354</v>
       </c>
       <c r="D332" t="s">
-        <v>377</v>
+        <v>386</v>
       </c>
     </row>
     <row r="333" spans="1:4">
@@ -11159,13 +11159,13 @@
         <v>332</v>
       </c>
       <c r="B333" t="s">
-        <v>338</v>
+        <v>326</v>
       </c>
       <c r="C333" t="s">
-        <v>354</v>
+        <v>356</v>
       </c>
       <c r="D333" t="s">
-        <v>386</v>
+        <v>377</v>
       </c>
     </row>
     <row r="334" spans="1:4">
@@ -11173,7 +11173,7 @@
         <v>333</v>
       </c>
       <c r="B334" t="s">
-        <v>343</v>
+        <v>341</v>
       </c>
       <c r="C334" t="s">
         <v>354</v>
@@ -11201,7 +11201,7 @@
         <v>335</v>
       </c>
       <c r="B336" t="s">
-        <v>334</v>
+        <v>333</v>
       </c>
       <c r="C336" t="s">
         <v>356</v>
@@ -11215,7 +11215,7 @@
         <v>336</v>
       </c>
       <c r="B337" t="s">
-        <v>335</v>
+        <v>336</v>
       </c>
       <c r="C337" t="s">
         <v>359</v>
@@ -11229,13 +11229,13 @@
         <v>337</v>
       </c>
       <c r="B338" t="s">
-        <v>332</v>
+        <v>343</v>
       </c>
       <c r="C338" t="s">
-        <v>354</v>
+        <v>358</v>
       </c>
       <c r="D338" t="s">
-        <v>360</v>
+        <v>375</v>
       </c>
     </row>
     <row r="339" spans="1:4">
@@ -11243,13 +11243,13 @@
         <v>338</v>
       </c>
       <c r="B339" t="s">
-        <v>342</v>
+        <v>334</v>
       </c>
       <c r="C339" t="s">
-        <v>358</v>
+        <v>354</v>
       </c>
       <c r="D339" t="s">
-        <v>375</v>
+        <v>360</v>
       </c>
     </row>
     <row r="340" spans="1:4">
@@ -11271,7 +11271,7 @@
         <v>340</v>
       </c>
       <c r="B341" t="s">
-        <v>336</v>
+        <v>335</v>
       </c>
       <c r="C341" t="s">
         <v>356</v>
@@ -11285,13 +11285,13 @@
         <v>341</v>
       </c>
       <c r="B342" t="s">
-        <v>348</v>
+        <v>346</v>
       </c>
       <c r="C342" t="s">
         <v>355</v>
       </c>
       <c r="D342" t="s">
-        <v>378</v>
+        <v>373</v>
       </c>
     </row>
     <row r="343" spans="1:4">
@@ -11299,13 +11299,13 @@
         <v>342</v>
       </c>
       <c r="B343" t="s">
-        <v>346</v>
+        <v>348</v>
       </c>
       <c r="C343" t="s">
         <v>355</v>
       </c>
       <c r="D343" t="s">
-        <v>373</v>
+        <v>378</v>
       </c>
     </row>
     <row r="344" spans="1:4">
@@ -11327,13 +11327,13 @@
         <v>344</v>
       </c>
       <c r="B345" t="s">
-        <v>331</v>
+        <v>340</v>
       </c>
       <c r="C345" t="s">
         <v>356</v>
       </c>
       <c r="D345" t="s">
-        <v>369</v>
+        <v>364</v>
       </c>
     </row>
     <row r="346" spans="1:4">
@@ -11341,13 +11341,13 @@
         <v>345</v>
       </c>
       <c r="B346" t="s">
-        <v>349</v>
+        <v>331</v>
       </c>
       <c r="C346" t="s">
-        <v>355</v>
+        <v>356</v>
       </c>
       <c r="D346" t="s">
-        <v>364</v>
+        <v>369</v>
       </c>
     </row>
     <row r="347" spans="1:4">
@@ -11355,13 +11355,13 @@
         <v>346</v>
       </c>
       <c r="B347" t="s">
-        <v>340</v>
+        <v>393</v>
       </c>
       <c r="C347" t="s">
-        <v>356</v>
+        <v>358</v>
       </c>
       <c r="D347" t="s">
-        <v>364</v>
+        <v>372</v>
       </c>
     </row>
     <row r="348" spans="1:4">
@@ -11369,13 +11369,13 @@
         <v>347</v>
       </c>
       <c r="B348" t="s">
-        <v>393</v>
+        <v>349</v>
       </c>
       <c r="C348" t="s">
-        <v>358</v>
+        <v>355</v>
       </c>
       <c r="D348" t="s">
-        <v>372</v>
+        <v>364</v>
       </c>
     </row>
     <row r="349" spans="1:4">
@@ -11383,7 +11383,7 @@
         <v>348</v>
       </c>
       <c r="B349" t="s">
-        <v>351</v>
+        <v>350</v>
       </c>
       <c r="C349" t="s">
         <v>355</v>
@@ -11411,13 +11411,13 @@
         <v>350</v>
       </c>
       <c r="B351" t="s">
-        <v>350</v>
+        <v>352</v>
       </c>
       <c r="C351" t="s">
-        <v>355</v>
+        <v>356</v>
       </c>
       <c r="D351" t="s">
-        <v>374</v>
+        <v>375</v>
       </c>
     </row>
   </sheetData>
@@ -11596,13 +11596,13 @@
         <v>11</v>
       </c>
       <c r="B12" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="C12" t="s">
-        <v>356</v>
+        <v>355</v>
       </c>
       <c r="D12" t="s">
-        <v>370</v>
+        <v>365</v>
       </c>
     </row>
     <row r="13" spans="1:4">
@@ -11610,13 +11610,13 @@
         <v>12</v>
       </c>
       <c r="B13" t="s">
-        <v>15</v>
+        <v>17</v>
       </c>
       <c r="C13" t="s">
-        <v>355</v>
+        <v>356</v>
       </c>
       <c r="D13" t="s">
-        <v>365</v>
+        <v>371</v>
       </c>
     </row>
     <row r="14" spans="1:4">
@@ -11666,13 +11666,13 @@
         <v>16</v>
       </c>
       <c r="B17" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="C17" t="s">
         <v>354</v>
       </c>
       <c r="D17" t="s">
-        <v>371</v>
+        <v>370</v>
       </c>
     </row>
     <row r="18" spans="1:4">
@@ -11988,13 +11988,13 @@
         <v>39</v>
       </c>
       <c r="B40" t="s">
-        <v>44</v>
+        <v>49</v>
       </c>
       <c r="C40" t="s">
-        <v>354</v>
+        <v>355</v>
       </c>
       <c r="D40" t="s">
-        <v>387</v>
+        <v>381</v>
       </c>
     </row>
     <row r="41" spans="1:4">
@@ -12002,13 +12002,13 @@
         <v>40</v>
       </c>
       <c r="B41" t="s">
-        <v>48</v>
+        <v>44</v>
       </c>
       <c r="C41" t="s">
-        <v>355</v>
+        <v>354</v>
       </c>
       <c r="D41" t="s">
-        <v>381</v>
+        <v>387</v>
       </c>
     </row>
     <row r="42" spans="1:4">
@@ -12106,7 +12106,7 @@
         <v>357</v>
       </c>
       <c r="D48" t="s">
-        <v>370</v>
+        <v>371</v>
       </c>
     </row>
     <row r="49" spans="1:4">
@@ -12156,7 +12156,7 @@
         <v>51</v>
       </c>
       <c r="B52" t="s">
-        <v>49</v>
+        <v>48</v>
       </c>
       <c r="C52" t="s">
         <v>355</v>
@@ -12226,13 +12226,13 @@
         <v>56</v>
       </c>
       <c r="B57" t="s">
-        <v>60</v>
+        <v>61</v>
       </c>
       <c r="C57" t="s">
-        <v>354</v>
+        <v>355</v>
       </c>
       <c r="D57" t="s">
-        <v>375</v>
+        <v>387</v>
       </c>
     </row>
     <row r="58" spans="1:4">
@@ -12240,13 +12240,13 @@
         <v>57</v>
       </c>
       <c r="B58" t="s">
-        <v>61</v>
+        <v>60</v>
       </c>
       <c r="C58" t="s">
-        <v>355</v>
+        <v>354</v>
       </c>
       <c r="D58" t="s">
-        <v>387</v>
+        <v>375</v>
       </c>
     </row>
     <row r="59" spans="1:4">
@@ -12268,7 +12268,7 @@
         <v>59</v>
       </c>
       <c r="B60" t="s">
-        <v>67</v>
+        <v>68</v>
       </c>
       <c r="C60" t="s">
         <v>355</v>
@@ -12324,7 +12324,7 @@
         <v>63</v>
       </c>
       <c r="B64" t="s">
-        <v>68</v>
+        <v>67</v>
       </c>
       <c r="C64" t="s">
         <v>354</v>
@@ -12366,13 +12366,13 @@
         <v>66</v>
       </c>
       <c r="B67" t="s">
-        <v>74</v>
+        <v>63</v>
       </c>
       <c r="C67" t="s">
-        <v>355</v>
+        <v>356</v>
       </c>
       <c r="D67" t="s">
-        <v>370</v>
+        <v>379</v>
       </c>
     </row>
     <row r="68" spans="1:4">
@@ -12380,13 +12380,13 @@
         <v>67</v>
       </c>
       <c r="B68" t="s">
-        <v>63</v>
+        <v>74</v>
       </c>
       <c r="C68" t="s">
-        <v>356</v>
+        <v>355</v>
       </c>
       <c r="D68" t="s">
-        <v>379</v>
+        <v>371</v>
       </c>
     </row>
     <row r="69" spans="1:4">
@@ -12414,7 +12414,7 @@
         <v>354</v>
       </c>
       <c r="D70" t="s">
-        <v>370</v>
+        <v>371</v>
       </c>
     </row>
     <row r="71" spans="1:4">
@@ -12450,7 +12450,7 @@
         <v>72</v>
       </c>
       <c r="B73" t="s">
-        <v>94</v>
+        <v>95</v>
       </c>
       <c r="C73" t="s">
         <v>354</v>
@@ -12534,13 +12534,13 @@
         <v>78</v>
       </c>
       <c r="B79" t="s">
-        <v>75</v>
+        <v>87</v>
       </c>
       <c r="C79" t="s">
-        <v>356</v>
+        <v>354</v>
       </c>
       <c r="D79" t="s">
-        <v>384</v>
+        <v>391</v>
       </c>
     </row>
     <row r="80" spans="1:4">
@@ -12548,13 +12548,13 @@
         <v>79</v>
       </c>
       <c r="B80" t="s">
-        <v>87</v>
+        <v>75</v>
       </c>
       <c r="C80" t="s">
-        <v>354</v>
+        <v>356</v>
       </c>
       <c r="D80" t="s">
-        <v>391</v>
+        <v>384</v>
       </c>
     </row>
     <row r="81" spans="1:4">
@@ -12604,7 +12604,7 @@
         <v>83</v>
       </c>
       <c r="B84" t="s">
-        <v>100</v>
+        <v>101</v>
       </c>
       <c r="C84" t="s">
         <v>354</v>
@@ -12646,13 +12646,13 @@
         <v>86</v>
       </c>
       <c r="B87" t="s">
-        <v>88</v>
+        <v>94</v>
       </c>
       <c r="C87" t="s">
-        <v>357</v>
+        <v>354</v>
       </c>
       <c r="D87" t="s">
-        <v>380</v>
+        <v>374</v>
       </c>
     </row>
     <row r="88" spans="1:4">
@@ -12660,13 +12660,13 @@
         <v>87</v>
       </c>
       <c r="B88" t="s">
-        <v>95</v>
+        <v>88</v>
       </c>
       <c r="C88" t="s">
-        <v>354</v>
+        <v>357</v>
       </c>
       <c r="D88" t="s">
-        <v>374</v>
+        <v>380</v>
       </c>
     </row>
     <row r="89" spans="1:4">
@@ -12786,7 +12786,7 @@
         <v>96</v>
       </c>
       <c r="B97" t="s">
-        <v>101</v>
+        <v>100</v>
       </c>
       <c r="C97" t="s">
         <v>356</v>
@@ -12828,7 +12828,7 @@
         <v>99</v>
       </c>
       <c r="B100" t="s">
-        <v>106</v>
+        <v>104</v>
       </c>
       <c r="C100" t="s">
         <v>357</v>
@@ -12842,13 +12842,13 @@
         <v>100</v>
       </c>
       <c r="B101" t="s">
-        <v>105</v>
+        <v>128</v>
       </c>
       <c r="C101" t="s">
-        <v>357</v>
+        <v>354</v>
       </c>
       <c r="D101" t="s">
-        <v>376</v>
+        <v>360</v>
       </c>
     </row>
     <row r="102" spans="1:4">
@@ -12856,13 +12856,13 @@
         <v>101</v>
       </c>
       <c r="B102" t="s">
-        <v>128</v>
+        <v>106</v>
       </c>
       <c r="C102" t="s">
-        <v>354</v>
+        <v>357</v>
       </c>
       <c r="D102" t="s">
-        <v>360</v>
+        <v>376</v>
       </c>
     </row>
     <row r="103" spans="1:4">
@@ -12926,7 +12926,7 @@
         <v>106</v>
       </c>
       <c r="B107" t="s">
-        <v>114</v>
+        <v>112</v>
       </c>
       <c r="C107" t="s">
         <v>356</v>
@@ -12940,13 +12940,13 @@
         <v>107</v>
       </c>
       <c r="B108" t="s">
-        <v>104</v>
+        <v>107</v>
       </c>
       <c r="C108" t="s">
         <v>355</v>
       </c>
       <c r="D108" t="s">
-        <v>383</v>
+        <v>370</v>
       </c>
     </row>
     <row r="109" spans="1:4">
@@ -12954,13 +12954,13 @@
         <v>108</v>
       </c>
       <c r="B109" t="s">
-        <v>107</v>
+        <v>105</v>
       </c>
       <c r="C109" t="s">
         <v>355</v>
       </c>
       <c r="D109" t="s">
-        <v>371</v>
+        <v>383</v>
       </c>
     </row>
     <row r="110" spans="1:4">
@@ -13038,7 +13038,7 @@
         <v>114</v>
       </c>
       <c r="B115" t="s">
-        <v>112</v>
+        <v>113</v>
       </c>
       <c r="C115" t="s">
         <v>354</v>
@@ -13052,13 +13052,13 @@
         <v>115</v>
       </c>
       <c r="B116" t="s">
-        <v>123</v>
+        <v>121</v>
       </c>
       <c r="C116" t="s">
-        <v>355</v>
+        <v>354</v>
       </c>
       <c r="D116" t="s">
-        <v>365</v>
+        <v>386</v>
       </c>
     </row>
     <row r="117" spans="1:4">
@@ -13066,13 +13066,13 @@
         <v>116</v>
       </c>
       <c r="B117" t="s">
-        <v>116</v>
+        <v>124</v>
       </c>
       <c r="C117" t="s">
         <v>355</v>
       </c>
       <c r="D117" t="s">
-        <v>366</v>
+        <v>365</v>
       </c>
     </row>
     <row r="118" spans="1:4">
@@ -13080,13 +13080,13 @@
         <v>117</v>
       </c>
       <c r="B118" t="s">
-        <v>113</v>
+        <v>116</v>
       </c>
       <c r="C118" t="s">
         <v>355</v>
       </c>
       <c r="D118" t="s">
-        <v>362</v>
+        <v>366</v>
       </c>
     </row>
     <row r="119" spans="1:4">
@@ -13094,13 +13094,13 @@
         <v>118</v>
       </c>
       <c r="B119" t="s">
-        <v>153</v>
+        <v>114</v>
       </c>
       <c r="C119" t="s">
-        <v>354</v>
+        <v>355</v>
       </c>
       <c r="D119" t="s">
-        <v>385</v>
+        <v>362</v>
       </c>
     </row>
     <row r="120" spans="1:4">
@@ -13108,13 +13108,13 @@
         <v>119</v>
       </c>
       <c r="B120" t="s">
-        <v>122</v>
+        <v>153</v>
       </c>
       <c r="C120" t="s">
         <v>354</v>
       </c>
       <c r="D120" t="s">
-        <v>386</v>
+        <v>385</v>
       </c>
     </row>
     <row r="121" spans="1:4">
@@ -13122,7 +13122,7 @@
         <v>120</v>
       </c>
       <c r="B121" t="s">
-        <v>130</v>
+        <v>129</v>
       </c>
       <c r="C121" t="s">
         <v>354</v>
@@ -13192,13 +13192,13 @@
         <v>125</v>
       </c>
       <c r="B126" t="s">
-        <v>129</v>
+        <v>130</v>
       </c>
       <c r="C126" t="s">
         <v>355</v>
       </c>
       <c r="D126" t="s">
-        <v>370</v>
+        <v>371</v>
       </c>
     </row>
     <row r="127" spans="1:4">
@@ -13220,7 +13220,7 @@
         <v>127</v>
       </c>
       <c r="B128" t="s">
-        <v>121</v>
+        <v>122</v>
       </c>
       <c r="C128" t="s">
         <v>357</v>
@@ -13234,7 +13234,7 @@
         <v>128</v>
       </c>
       <c r="B129" t="s">
-        <v>120</v>
+        <v>119</v>
       </c>
       <c r="C129" t="s">
         <v>357</v>
@@ -13262,13 +13262,13 @@
         <v>130</v>
       </c>
       <c r="B131" t="s">
-        <v>125</v>
+        <v>123</v>
       </c>
       <c r="C131" t="s">
         <v>355</v>
       </c>
       <c r="D131" t="s">
-        <v>370</v>
+        <v>371</v>
       </c>
     </row>
     <row r="132" spans="1:4">
@@ -13304,7 +13304,7 @@
         <v>133</v>
       </c>
       <c r="B134" t="s">
-        <v>119</v>
+        <v>120</v>
       </c>
       <c r="C134" t="s">
         <v>356</v>
@@ -13318,7 +13318,7 @@
         <v>134</v>
       </c>
       <c r="B135" t="s">
-        <v>157</v>
+        <v>158</v>
       </c>
       <c r="C135" t="s">
         <v>355</v>
@@ -13360,13 +13360,13 @@
         <v>137</v>
       </c>
       <c r="B138" t="s">
-        <v>134</v>
+        <v>144</v>
       </c>
       <c r="C138" t="s">
         <v>355</v>
       </c>
       <c r="D138" t="s">
-        <v>379</v>
+        <v>391</v>
       </c>
     </row>
     <row r="139" spans="1:4">
@@ -13374,13 +13374,13 @@
         <v>138</v>
       </c>
       <c r="B139" t="s">
-        <v>144</v>
+        <v>135</v>
       </c>
       <c r="C139" t="s">
         <v>355</v>
       </c>
       <c r="D139" t="s">
-        <v>391</v>
+        <v>379</v>
       </c>
     </row>
     <row r="140" spans="1:4">
@@ -13402,13 +13402,13 @@
         <v>140</v>
       </c>
       <c r="B141" t="s">
-        <v>149</v>
+        <v>134</v>
       </c>
       <c r="C141" t="s">
-        <v>354</v>
+        <v>356</v>
       </c>
       <c r="D141" t="s">
-        <v>380</v>
+        <v>377</v>
       </c>
     </row>
     <row r="142" spans="1:4">
@@ -13416,13 +13416,13 @@
         <v>141</v>
       </c>
       <c r="B142" t="s">
-        <v>135</v>
+        <v>149</v>
       </c>
       <c r="C142" t="s">
-        <v>356</v>
+        <v>354</v>
       </c>
       <c r="D142" t="s">
-        <v>377</v>
+        <v>380</v>
       </c>
     </row>
     <row r="143" spans="1:4">
@@ -13444,7 +13444,7 @@
         <v>143</v>
       </c>
       <c r="B144" t="s">
-        <v>155</v>
+        <v>154</v>
       </c>
       <c r="C144" t="s">
         <v>355</v>
@@ -13458,7 +13458,7 @@
         <v>144</v>
       </c>
       <c r="B145" t="s">
-        <v>124</v>
+        <v>125</v>
       </c>
       <c r="C145" t="s">
         <v>357</v>
@@ -13472,13 +13472,13 @@
         <v>145</v>
       </c>
       <c r="B146" t="s">
-        <v>146</v>
+        <v>145</v>
       </c>
       <c r="C146" t="s">
         <v>355</v>
       </c>
       <c r="D146" t="s">
-        <v>380</v>
+        <v>372</v>
       </c>
     </row>
     <row r="147" spans="1:4">
@@ -13486,13 +13486,13 @@
         <v>146</v>
       </c>
       <c r="B147" t="s">
-        <v>145</v>
+        <v>146</v>
       </c>
       <c r="C147" t="s">
         <v>355</v>
       </c>
       <c r="D147" t="s">
-        <v>372</v>
+        <v>380</v>
       </c>
     </row>
     <row r="148" spans="1:4">
@@ -13542,7 +13542,7 @@
         <v>150</v>
       </c>
       <c r="B151" t="s">
-        <v>152</v>
+        <v>151</v>
       </c>
       <c r="C151" t="s">
         <v>356</v>
@@ -13570,7 +13570,7 @@
         <v>152</v>
       </c>
       <c r="B153" t="s">
-        <v>158</v>
+        <v>157</v>
       </c>
       <c r="C153" t="s">
         <v>356</v>
@@ -13584,7 +13584,7 @@
         <v>153</v>
       </c>
       <c r="B154" t="s">
-        <v>150</v>
+        <v>152</v>
       </c>
       <c r="C154" t="s">
         <v>356</v>
@@ -13626,7 +13626,7 @@
         <v>156</v>
       </c>
       <c r="B157" t="s">
-        <v>154</v>
+        <v>155</v>
       </c>
       <c r="C157" t="s">
         <v>358</v>
@@ -13682,13 +13682,13 @@
         <v>160</v>
       </c>
       <c r="B161" t="s">
-        <v>165</v>
+        <v>170</v>
       </c>
       <c r="C161" t="s">
-        <v>354</v>
+        <v>355</v>
       </c>
       <c r="D161" t="s">
-        <v>375</v>
+        <v>370</v>
       </c>
     </row>
     <row r="162" spans="1:4">
@@ -13696,13 +13696,13 @@
         <v>161</v>
       </c>
       <c r="B162" t="s">
-        <v>171</v>
+        <v>165</v>
       </c>
       <c r="C162" t="s">
-        <v>355</v>
+        <v>354</v>
       </c>
       <c r="D162" t="s">
-        <v>371</v>
+        <v>375</v>
       </c>
     </row>
     <row r="163" spans="1:4">
@@ -13710,13 +13710,13 @@
         <v>162</v>
       </c>
       <c r="B163" t="s">
-        <v>169</v>
+        <v>164</v>
       </c>
       <c r="C163" t="s">
-        <v>354</v>
+        <v>358</v>
       </c>
       <c r="D163" t="s">
-        <v>369</v>
+        <v>378</v>
       </c>
     </row>
     <row r="164" spans="1:4">
@@ -13724,13 +13724,13 @@
         <v>163</v>
       </c>
       <c r="B164" t="s">
-        <v>164</v>
+        <v>169</v>
       </c>
       <c r="C164" t="s">
-        <v>358</v>
+        <v>354</v>
       </c>
       <c r="D164" t="s">
-        <v>378</v>
+        <v>369</v>
       </c>
     </row>
     <row r="165" spans="1:4">
@@ -13752,7 +13752,7 @@
         <v>165</v>
       </c>
       <c r="B166" t="s">
-        <v>151</v>
+        <v>150</v>
       </c>
       <c r="C166" t="s">
         <v>357</v>
@@ -13766,7 +13766,7 @@
         <v>166</v>
       </c>
       <c r="B167" t="s">
-        <v>170</v>
+        <v>171</v>
       </c>
       <c r="C167" t="s">
         <v>358</v>
@@ -13794,7 +13794,7 @@
         <v>168</v>
       </c>
       <c r="B169" t="s">
-        <v>196</v>
+        <v>198</v>
       </c>
       <c r="C169" t="s">
         <v>355</v>
@@ -13814,7 +13814,7 @@
         <v>355</v>
       </c>
       <c r="D170" t="s">
-        <v>371</v>
+        <v>370</v>
       </c>
     </row>
     <row r="171" spans="1:4">
@@ -13864,13 +13864,13 @@
         <v>173</v>
       </c>
       <c r="B174" t="s">
-        <v>191</v>
+        <v>176</v>
       </c>
       <c r="C174" t="s">
-        <v>355</v>
+        <v>358</v>
       </c>
       <c r="D174" t="s">
-        <v>386</v>
+        <v>369</v>
       </c>
     </row>
     <row r="175" spans="1:4">
@@ -13878,13 +13878,13 @@
         <v>174</v>
       </c>
       <c r="B175" t="s">
-        <v>176</v>
+        <v>184</v>
       </c>
       <c r="C175" t="s">
-        <v>358</v>
+        <v>355</v>
       </c>
       <c r="D175" t="s">
-        <v>369</v>
+        <v>371</v>
       </c>
     </row>
     <row r="176" spans="1:4">
@@ -13892,13 +13892,13 @@
         <v>175</v>
       </c>
       <c r="B176" t="s">
-        <v>184</v>
+        <v>191</v>
       </c>
       <c r="C176" t="s">
         <v>355</v>
       </c>
       <c r="D176" t="s">
-        <v>370</v>
+        <v>386</v>
       </c>
     </row>
     <row r="177" spans="1:4">
@@ -13940,7 +13940,7 @@
         <v>354</v>
       </c>
       <c r="D179" t="s">
-        <v>370</v>
+        <v>371</v>
       </c>
     </row>
     <row r="180" spans="1:4">
@@ -13990,13 +13990,13 @@
         <v>182</v>
       </c>
       <c r="B183" t="s">
-        <v>187</v>
+        <v>161</v>
       </c>
       <c r="C183" t="s">
-        <v>359</v>
+        <v>357</v>
       </c>
       <c r="D183" t="s">
-        <v>374</v>
+        <v>370</v>
       </c>
     </row>
     <row r="184" spans="1:4">
@@ -14004,13 +14004,13 @@
         <v>183</v>
       </c>
       <c r="B184" t="s">
-        <v>161</v>
+        <v>187</v>
       </c>
       <c r="C184" t="s">
-        <v>357</v>
+        <v>359</v>
       </c>
       <c r="D184" t="s">
-        <v>371</v>
+        <v>374</v>
       </c>
     </row>
     <row r="185" spans="1:4">
@@ -14018,7 +14018,7 @@
         <v>184</v>
       </c>
       <c r="B185" t="s">
-        <v>198</v>
+        <v>197</v>
       </c>
       <c r="C185" t="s">
         <v>355</v>
@@ -14046,13 +14046,13 @@
         <v>186</v>
       </c>
       <c r="B187" t="s">
-        <v>163</v>
+        <v>183</v>
       </c>
       <c r="C187" t="s">
-        <v>357</v>
+        <v>356</v>
       </c>
       <c r="D187" t="s">
-        <v>391</v>
+        <v>385</v>
       </c>
     </row>
     <row r="188" spans="1:4">
@@ -14060,13 +14060,13 @@
         <v>187</v>
       </c>
       <c r="B188" t="s">
-        <v>183</v>
+        <v>163</v>
       </c>
       <c r="C188" t="s">
-        <v>356</v>
+        <v>357</v>
       </c>
       <c r="D188" t="s">
-        <v>385</v>
+        <v>391</v>
       </c>
     </row>
     <row r="189" spans="1:4">
@@ -14074,7 +14074,7 @@
         <v>188</v>
       </c>
       <c r="B189" t="s">
-        <v>195</v>
+        <v>194</v>
       </c>
       <c r="C189" t="s">
         <v>355</v>
@@ -14102,13 +14102,13 @@
         <v>190</v>
       </c>
       <c r="B191" t="s">
-        <v>197</v>
+        <v>199</v>
       </c>
       <c r="C191" t="s">
-        <v>359</v>
+        <v>355</v>
       </c>
       <c r="D191" t="s">
-        <v>368</v>
+        <v>376</v>
       </c>
     </row>
     <row r="192" spans="1:4">
@@ -14116,13 +14116,13 @@
         <v>191</v>
       </c>
       <c r="B192" t="s">
-        <v>199</v>
+        <v>195</v>
       </c>
       <c r="C192" t="s">
-        <v>355</v>
+        <v>359</v>
       </c>
       <c r="D192" t="s">
-        <v>376</v>
+        <v>368</v>
       </c>
     </row>
     <row r="193" spans="1:4">
@@ -14130,7 +14130,7 @@
         <v>192</v>
       </c>
       <c r="B193" t="s">
-        <v>194</v>
+        <v>196</v>
       </c>
       <c r="C193" t="s">
         <v>359</v>
@@ -14172,13 +14172,13 @@
         <v>195</v>
       </c>
       <c r="B196" t="s">
-        <v>209</v>
+        <v>190</v>
       </c>
       <c r="C196" t="s">
-        <v>355</v>
+        <v>354</v>
       </c>
       <c r="D196" t="s">
-        <v>377</v>
+        <v>361</v>
       </c>
     </row>
     <row r="197" spans="1:4">
@@ -14186,13 +14186,13 @@
         <v>196</v>
       </c>
       <c r="B197" t="s">
-        <v>206</v>
+        <v>215</v>
       </c>
       <c r="C197" t="s">
         <v>355</v>
       </c>
       <c r="D197" t="s">
-        <v>372</v>
+        <v>360</v>
       </c>
     </row>
     <row r="198" spans="1:4">
@@ -14200,13 +14200,13 @@
         <v>197</v>
       </c>
       <c r="B198" t="s">
-        <v>215</v>
+        <v>205</v>
       </c>
       <c r="C198" t="s">
         <v>355</v>
       </c>
       <c r="D198" t="s">
-        <v>360</v>
+        <v>372</v>
       </c>
     </row>
     <row r="199" spans="1:4">
@@ -14214,13 +14214,13 @@
         <v>198</v>
       </c>
       <c r="B199" t="s">
-        <v>190</v>
+        <v>209</v>
       </c>
       <c r="C199" t="s">
-        <v>354</v>
+        <v>355</v>
       </c>
       <c r="D199" t="s">
-        <v>361</v>
+        <v>377</v>
       </c>
     </row>
     <row r="200" spans="1:4">
@@ -14256,7 +14256,7 @@
         <v>201</v>
       </c>
       <c r="B202" t="s">
-        <v>205</v>
+        <v>206</v>
       </c>
       <c r="C202" t="s">
         <v>359</v>
@@ -14298,7 +14298,7 @@
         <v>204</v>
       </c>
       <c r="B205" t="s">
-        <v>214</v>
+        <v>212</v>
       </c>
       <c r="C205" t="s">
         <v>356</v>
@@ -14326,13 +14326,13 @@
         <v>206</v>
       </c>
       <c r="B207" t="s">
-        <v>212</v>
+        <v>233</v>
       </c>
       <c r="C207" t="s">
-        <v>358</v>
+        <v>354</v>
       </c>
       <c r="D207" t="s">
-        <v>381</v>
+        <v>371</v>
       </c>
     </row>
     <row r="208" spans="1:4">
@@ -14340,13 +14340,13 @@
         <v>207</v>
       </c>
       <c r="B208" t="s">
-        <v>233</v>
+        <v>213</v>
       </c>
       <c r="C208" t="s">
-        <v>354</v>
+        <v>358</v>
       </c>
       <c r="D208" t="s">
-        <v>370</v>
+        <v>381</v>
       </c>
     </row>
     <row r="209" spans="1:4">
@@ -14354,13 +14354,13 @@
         <v>208</v>
       </c>
       <c r="B209" t="s">
-        <v>226</v>
+        <v>168</v>
       </c>
       <c r="C209" t="s">
-        <v>354</v>
+        <v>357</v>
       </c>
       <c r="D209" t="s">
-        <v>390</v>
+        <v>385</v>
       </c>
     </row>
     <row r="210" spans="1:4">
@@ -14368,13 +14368,13 @@
         <v>209</v>
       </c>
       <c r="B210" t="s">
-        <v>168</v>
+        <v>226</v>
       </c>
       <c r="C210" t="s">
-        <v>357</v>
+        <v>354</v>
       </c>
       <c r="D210" t="s">
-        <v>385</v>
+        <v>390</v>
       </c>
     </row>
     <row r="211" spans="1:4">
@@ -14410,7 +14410,7 @@
         <v>212</v>
       </c>
       <c r="B213" t="s">
-        <v>218</v>
+        <v>219</v>
       </c>
       <c r="C213" t="s">
         <v>355</v>
@@ -14430,7 +14430,7 @@
         <v>355</v>
       </c>
       <c r="D214" t="s">
-        <v>371</v>
+        <v>370</v>
       </c>
     </row>
     <row r="215" spans="1:4">
@@ -14444,7 +14444,7 @@
         <v>359</v>
       </c>
       <c r="D215" t="s">
-        <v>370</v>
+        <v>371</v>
       </c>
     </row>
     <row r="216" spans="1:4">
@@ -14550,13 +14550,13 @@
         <v>222</v>
       </c>
       <c r="B223" t="s">
-        <v>236</v>
+        <v>225</v>
       </c>
       <c r="C223" t="s">
-        <v>354</v>
+        <v>358</v>
       </c>
       <c r="D223" t="s">
-        <v>373</v>
+        <v>384</v>
       </c>
     </row>
     <row r="224" spans="1:4">
@@ -14564,13 +14564,13 @@
         <v>223</v>
       </c>
       <c r="B224" t="s">
-        <v>225</v>
+        <v>238</v>
       </c>
       <c r="C224" t="s">
-        <v>358</v>
+        <v>355</v>
       </c>
       <c r="D224" t="s">
-        <v>384</v>
+        <v>367</v>
       </c>
     </row>
     <row r="225" spans="1:4">
@@ -14578,13 +14578,13 @@
         <v>224</v>
       </c>
       <c r="B225" t="s">
-        <v>242</v>
+        <v>239</v>
       </c>
       <c r="C225" t="s">
-        <v>355</v>
+        <v>354</v>
       </c>
       <c r="D225" t="s">
-        <v>374</v>
+        <v>373</v>
       </c>
     </row>
     <row r="226" spans="1:4">
@@ -14592,13 +14592,13 @@
         <v>225</v>
       </c>
       <c r="B226" t="s">
-        <v>239</v>
+        <v>242</v>
       </c>
       <c r="C226" t="s">
         <v>355</v>
       </c>
       <c r="D226" t="s">
-        <v>367</v>
+        <v>374</v>
       </c>
     </row>
     <row r="227" spans="1:4">
@@ -14612,7 +14612,7 @@
         <v>358</v>
       </c>
       <c r="D227" t="s">
-        <v>370</v>
+        <v>371</v>
       </c>
     </row>
     <row r="228" spans="1:4">
@@ -14634,13 +14634,13 @@
         <v>228</v>
       </c>
       <c r="B229" t="s">
-        <v>247</v>
+        <v>230</v>
       </c>
       <c r="C229" t="s">
-        <v>355</v>
+        <v>358</v>
       </c>
       <c r="D229" t="s">
-        <v>386</v>
+        <v>366</v>
       </c>
     </row>
     <row r="230" spans="1:4">
@@ -14648,13 +14648,13 @@
         <v>229</v>
       </c>
       <c r="B230" t="s">
-        <v>230</v>
+        <v>247</v>
       </c>
       <c r="C230" t="s">
-        <v>358</v>
+        <v>355</v>
       </c>
       <c r="D230" t="s">
-        <v>366</v>
+        <v>386</v>
       </c>
     </row>
     <row r="231" spans="1:4">
@@ -14668,7 +14668,7 @@
         <v>354</v>
       </c>
       <c r="D231" t="s">
-        <v>370</v>
+        <v>371</v>
       </c>
     </row>
     <row r="232" spans="1:4">
@@ -14676,7 +14676,7 @@
         <v>231</v>
       </c>
       <c r="B232" t="s">
-        <v>219</v>
+        <v>220</v>
       </c>
       <c r="C232" t="s">
         <v>356</v>
@@ -14802,7 +14802,7 @@
         <v>240</v>
       </c>
       <c r="B241" t="s">
-        <v>238</v>
+        <v>236</v>
       </c>
       <c r="C241" t="s">
         <v>359</v>
@@ -14886,7 +14886,7 @@
         <v>246</v>
       </c>
       <c r="B247" t="s">
-        <v>258</v>
+        <v>259</v>
       </c>
       <c r="C247" t="s">
         <v>355</v>
@@ -14900,13 +14900,13 @@
         <v>247</v>
       </c>
       <c r="B248" t="s">
-        <v>271</v>
+        <v>255</v>
       </c>
       <c r="C248" t="s">
-        <v>355</v>
+        <v>359</v>
       </c>
       <c r="D248" t="s">
-        <v>388</v>
+        <v>378</v>
       </c>
     </row>
     <row r="249" spans="1:4">
@@ -14914,13 +14914,13 @@
         <v>248</v>
       </c>
       <c r="B249" t="s">
-        <v>254</v>
+        <v>271</v>
       </c>
       <c r="C249" t="s">
-        <v>359</v>
+        <v>355</v>
       </c>
       <c r="D249" t="s">
-        <v>378</v>
+        <v>388</v>
       </c>
     </row>
     <row r="250" spans="1:4">
@@ -14928,13 +14928,13 @@
         <v>249</v>
       </c>
       <c r="B250" t="s">
-        <v>253</v>
+        <v>254</v>
       </c>
       <c r="C250" t="s">
         <v>358</v>
       </c>
       <c r="D250" t="s">
-        <v>365</v>
+        <v>383</v>
       </c>
     </row>
     <row r="251" spans="1:4">
@@ -14942,13 +14942,13 @@
         <v>250</v>
       </c>
       <c r="B251" t="s">
-        <v>255</v>
+        <v>253</v>
       </c>
       <c r="C251" t="s">
         <v>358</v>
       </c>
       <c r="D251" t="s">
-        <v>383</v>
+        <v>365</v>
       </c>
     </row>
     <row r="252" spans="1:4">
@@ -14956,13 +14956,13 @@
         <v>251</v>
       </c>
       <c r="B252" t="s">
-        <v>256</v>
+        <v>265</v>
       </c>
       <c r="C252" t="s">
-        <v>358</v>
+        <v>355</v>
       </c>
       <c r="D252" t="s">
-        <v>362</v>
+        <v>361</v>
       </c>
     </row>
     <row r="253" spans="1:4">
@@ -14970,13 +14970,13 @@
         <v>252</v>
       </c>
       <c r="B253" t="s">
-        <v>265</v>
+        <v>256</v>
       </c>
       <c r="C253" t="s">
-        <v>355</v>
+        <v>358</v>
       </c>
       <c r="D253" t="s">
-        <v>361</v>
+        <v>362</v>
       </c>
     </row>
     <row r="254" spans="1:4">
@@ -14984,7 +14984,7 @@
         <v>253</v>
       </c>
       <c r="B254" t="s">
-        <v>213</v>
+        <v>214</v>
       </c>
       <c r="C254" t="s">
         <v>357</v>
@@ -15026,7 +15026,7 @@
         <v>256</v>
       </c>
       <c r="B257" t="s">
-        <v>259</v>
+        <v>258</v>
       </c>
       <c r="C257" t="s">
         <v>359</v>
@@ -15040,7 +15040,7 @@
         <v>257</v>
       </c>
       <c r="B258" t="s">
-        <v>262</v>
+        <v>263</v>
       </c>
       <c r="C258" t="s">
         <v>355</v>
@@ -15054,13 +15054,13 @@
         <v>258</v>
       </c>
       <c r="B259" t="s">
-        <v>252</v>
+        <v>218</v>
       </c>
       <c r="C259" t="s">
-        <v>354</v>
+        <v>357</v>
       </c>
       <c r="D259" t="s">
-        <v>374</v>
+        <v>382</v>
       </c>
     </row>
     <row r="260" spans="1:4">
@@ -15068,13 +15068,13 @@
         <v>259</v>
       </c>
       <c r="B260" t="s">
-        <v>220</v>
+        <v>252</v>
       </c>
       <c r="C260" t="s">
-        <v>357</v>
+        <v>354</v>
       </c>
       <c r="D260" t="s">
-        <v>382</v>
+        <v>374</v>
       </c>
     </row>
     <row r="261" spans="1:4">
@@ -15082,13 +15082,13 @@
         <v>260</v>
       </c>
       <c r="B261" t="s">
-        <v>260</v>
+        <v>270</v>
       </c>
       <c r="C261" t="s">
-        <v>356</v>
+        <v>355</v>
       </c>
       <c r="D261" t="s">
-        <v>380</v>
+        <v>361</v>
       </c>
     </row>
     <row r="262" spans="1:4">
@@ -15096,13 +15096,13 @@
         <v>261</v>
       </c>
       <c r="B262" t="s">
-        <v>270</v>
+        <v>260</v>
       </c>
       <c r="C262" t="s">
-        <v>355</v>
+        <v>356</v>
       </c>
       <c r="D262" t="s">
-        <v>361</v>
+        <v>380</v>
       </c>
     </row>
     <row r="263" spans="1:4">
@@ -15138,7 +15138,7 @@
         <v>264</v>
       </c>
       <c r="B265" t="s">
-        <v>263</v>
+        <v>264</v>
       </c>
       <c r="C265" t="s">
         <v>359</v>
@@ -15180,13 +15180,13 @@
         <v>267</v>
       </c>
       <c r="B268" t="s">
-        <v>275</v>
+        <v>262</v>
       </c>
       <c r="C268" t="s">
-        <v>355</v>
+        <v>356</v>
       </c>
       <c r="D268" t="s">
-        <v>381</v>
+        <v>369</v>
       </c>
     </row>
     <row r="269" spans="1:4">
@@ -15194,13 +15194,13 @@
         <v>268</v>
       </c>
       <c r="B269" t="s">
-        <v>264</v>
+        <v>275</v>
       </c>
       <c r="C269" t="s">
-        <v>356</v>
+        <v>355</v>
       </c>
       <c r="D269" t="s">
-        <v>369</v>
+        <v>381</v>
       </c>
     </row>
     <row r="270" spans="1:4">
@@ -15264,7 +15264,7 @@
         <v>273</v>
       </c>
       <c r="B274" t="s">
-        <v>282</v>
+        <v>283</v>
       </c>
       <c r="C274" t="s">
         <v>354</v>
@@ -15292,7 +15292,7 @@
         <v>275</v>
       </c>
       <c r="B276" t="s">
-        <v>280</v>
+        <v>279</v>
       </c>
       <c r="C276" t="s">
         <v>356</v>
@@ -15306,7 +15306,7 @@
         <v>276</v>
       </c>
       <c r="B277" t="s">
-        <v>278</v>
+        <v>277</v>
       </c>
       <c r="C277" t="s">
         <v>359</v>
@@ -15320,13 +15320,13 @@
         <v>277</v>
       </c>
       <c r="B278" t="s">
-        <v>277</v>
+        <v>278</v>
       </c>
       <c r="C278" t="s">
         <v>354</v>
       </c>
       <c r="D278" t="s">
-        <v>371</v>
+        <v>370</v>
       </c>
     </row>
     <row r="279" spans="1:4">
@@ -15334,7 +15334,7 @@
         <v>278</v>
       </c>
       <c r="B279" t="s">
-        <v>279</v>
+        <v>280</v>
       </c>
       <c r="C279" t="s">
         <v>358</v>
@@ -15348,7 +15348,7 @@
         <v>279</v>
       </c>
       <c r="B280" t="s">
-        <v>283</v>
+        <v>281</v>
       </c>
       <c r="C280" t="s">
         <v>356</v>
@@ -15376,7 +15376,7 @@
         <v>281</v>
       </c>
       <c r="B282" t="s">
-        <v>288</v>
+        <v>289</v>
       </c>
       <c r="C282" t="s">
         <v>355</v>
@@ -15390,7 +15390,7 @@
         <v>282</v>
       </c>
       <c r="B283" t="s">
-        <v>281</v>
+        <v>282</v>
       </c>
       <c r="C283" t="s">
         <v>356</v>
@@ -15410,7 +15410,7 @@
         <v>359</v>
       </c>
       <c r="D284" t="s">
-        <v>371</v>
+        <v>370</v>
       </c>
     </row>
     <row r="285" spans="1:4">
@@ -15432,7 +15432,7 @@
         <v>285</v>
       </c>
       <c r="B286" t="s">
-        <v>289</v>
+        <v>290</v>
       </c>
       <c r="C286" t="s">
         <v>355</v>
@@ -15460,13 +15460,13 @@
         <v>287</v>
       </c>
       <c r="B288" t="s">
-        <v>309</v>
+        <v>315</v>
       </c>
       <c r="C288" t="s">
-        <v>355</v>
+        <v>354</v>
       </c>
       <c r="D288" t="s">
-        <v>373</v>
+        <v>362</v>
       </c>
     </row>
     <row r="289" spans="1:4">
@@ -15474,13 +15474,13 @@
         <v>288</v>
       </c>
       <c r="B289" t="s">
-        <v>315</v>
+        <v>310</v>
       </c>
       <c r="C289" t="s">
-        <v>354</v>
+        <v>355</v>
       </c>
       <c r="D289" t="s">
-        <v>362</v>
+        <v>373</v>
       </c>
     </row>
     <row r="290" spans="1:4">
@@ -15494,7 +15494,7 @@
         <v>358</v>
       </c>
       <c r="D290" t="s">
-        <v>371</v>
+        <v>370</v>
       </c>
     </row>
     <row r="291" spans="1:4">
@@ -15502,13 +15502,13 @@
         <v>290</v>
       </c>
       <c r="B291" t="s">
-        <v>303</v>
+        <v>294</v>
       </c>
       <c r="C291" t="s">
-        <v>355</v>
+        <v>356</v>
       </c>
       <c r="D291" t="s">
-        <v>384</v>
+        <v>383</v>
       </c>
     </row>
     <row r="292" spans="1:4">
@@ -15516,13 +15516,13 @@
         <v>291</v>
       </c>
       <c r="B292" t="s">
-        <v>294</v>
+        <v>303</v>
       </c>
       <c r="C292" t="s">
-        <v>356</v>
+        <v>355</v>
       </c>
       <c r="D292" t="s">
-        <v>383</v>
+        <v>384</v>
       </c>
     </row>
     <row r="293" spans="1:4">
@@ -15530,13 +15530,13 @@
         <v>292</v>
       </c>
       <c r="B293" t="s">
-        <v>299</v>
+        <v>297</v>
       </c>
       <c r="C293" t="s">
         <v>359</v>
       </c>
       <c r="D293" t="s">
-        <v>389</v>
+        <v>362</v>
       </c>
     </row>
     <row r="294" spans="1:4">
@@ -15544,13 +15544,13 @@
         <v>293</v>
       </c>
       <c r="B294" t="s">
-        <v>297</v>
+        <v>298</v>
       </c>
       <c r="C294" t="s">
         <v>359</v>
       </c>
       <c r="D294" t="s">
-        <v>362</v>
+        <v>389</v>
       </c>
     </row>
     <row r="295" spans="1:4">
@@ -15558,7 +15558,7 @@
         <v>294</v>
       </c>
       <c r="B295" t="s">
-        <v>301</v>
+        <v>300</v>
       </c>
       <c r="C295" t="s">
         <v>359</v>
@@ -15600,13 +15600,13 @@
         <v>297</v>
       </c>
       <c r="B298" t="s">
-        <v>308</v>
+        <v>307</v>
       </c>
       <c r="C298" t="s">
         <v>356</v>
       </c>
       <c r="D298" t="s">
-        <v>371</v>
+        <v>370</v>
       </c>
     </row>
     <row r="299" spans="1:4">
@@ -15656,7 +15656,7 @@
         <v>301</v>
       </c>
       <c r="B302" t="s">
-        <v>310</v>
+        <v>308</v>
       </c>
       <c r="C302" t="s">
         <v>358</v>
@@ -15670,7 +15670,7 @@
         <v>302</v>
       </c>
       <c r="B303" t="s">
-        <v>298</v>
+        <v>299</v>
       </c>
       <c r="C303" t="s">
         <v>356</v>
@@ -15726,13 +15726,13 @@
         <v>306</v>
       </c>
       <c r="B307" t="s">
-        <v>305</v>
+        <v>276</v>
       </c>
       <c r="C307" t="s">
-        <v>354</v>
+        <v>357</v>
       </c>
       <c r="D307" t="s">
-        <v>366</v>
+        <v>367</v>
       </c>
     </row>
     <row r="308" spans="1:4">
@@ -15740,13 +15740,13 @@
         <v>307</v>
       </c>
       <c r="B308" t="s">
-        <v>276</v>
+        <v>305</v>
       </c>
       <c r="C308" t="s">
-        <v>357</v>
+        <v>354</v>
       </c>
       <c r="D308" t="s">
-        <v>367</v>
+        <v>366</v>
       </c>
     </row>
     <row r="309" spans="1:4">
@@ -15768,13 +15768,13 @@
         <v>309</v>
       </c>
       <c r="B310" t="s">
-        <v>328</v>
+        <v>317</v>
       </c>
       <c r="C310" t="s">
-        <v>354</v>
+        <v>355</v>
       </c>
       <c r="D310" t="s">
-        <v>380</v>
+        <v>392</v>
       </c>
     </row>
     <row r="311" spans="1:4">
@@ -15782,13 +15782,13 @@
         <v>310</v>
       </c>
       <c r="B311" t="s">
-        <v>307</v>
+        <v>328</v>
       </c>
       <c r="C311" t="s">
         <v>354</v>
       </c>
       <c r="D311" t="s">
-        <v>368</v>
+        <v>380</v>
       </c>
     </row>
     <row r="312" spans="1:4">
@@ -15796,13 +15796,13 @@
         <v>311</v>
       </c>
       <c r="B312" t="s">
-        <v>317</v>
+        <v>309</v>
       </c>
       <c r="C312" t="s">
-        <v>355</v>
+        <v>354</v>
       </c>
       <c r="D312" t="s">
-        <v>392</v>
+        <v>368</v>
       </c>
     </row>
     <row r="313" spans="1:4">
@@ -15838,7 +15838,7 @@
         <v>314</v>
       </c>
       <c r="B315" t="s">
-        <v>300</v>
+        <v>301</v>
       </c>
       <c r="C315" t="s">
         <v>354</v>
@@ -15866,13 +15866,13 @@
         <v>316</v>
       </c>
       <c r="B317" t="s">
-        <v>323</v>
+        <v>322</v>
       </c>
       <c r="C317" t="s">
         <v>355</v>
       </c>
       <c r="D317" t="s">
-        <v>371</v>
+        <v>370</v>
       </c>
     </row>
     <row r="318" spans="1:4">
@@ -15894,13 +15894,13 @@
         <v>318</v>
       </c>
       <c r="B319" t="s">
-        <v>296</v>
+        <v>288</v>
       </c>
       <c r="C319" t="s">
         <v>357</v>
       </c>
       <c r="D319" t="s">
-        <v>366</v>
+        <v>389</v>
       </c>
     </row>
     <row r="320" spans="1:4">
@@ -15908,13 +15908,13 @@
         <v>319</v>
       </c>
       <c r="B320" t="s">
-        <v>290</v>
+        <v>296</v>
       </c>
       <c r="C320" t="s">
         <v>357</v>
       </c>
       <c r="D320" t="s">
-        <v>389</v>
+        <v>366</v>
       </c>
     </row>
     <row r="321" spans="1:4">
@@ -15964,7 +15964,7 @@
         <v>323</v>
       </c>
       <c r="B324" t="s">
-        <v>341</v>
+        <v>342</v>
       </c>
       <c r="C324" t="s">
         <v>354</v>
@@ -15992,7 +15992,7 @@
         <v>325</v>
       </c>
       <c r="B326" t="s">
-        <v>322</v>
+        <v>323</v>
       </c>
       <c r="C326" t="s">
         <v>356</v>
@@ -16006,7 +16006,7 @@
         <v>326</v>
       </c>
       <c r="B327" t="s">
-        <v>333</v>
+        <v>332</v>
       </c>
       <c r="C327" t="s">
         <v>355</v>
@@ -16034,7 +16034,7 @@
         <v>328</v>
       </c>
       <c r="B329" t="s">
-        <v>336</v>
+        <v>335</v>
       </c>
       <c r="C329" t="s">
         <v>356</v>
@@ -16048,7 +16048,7 @@
         <v>329</v>
       </c>
       <c r="B330" t="s">
-        <v>334</v>
+        <v>333</v>
       </c>
       <c r="C330" t="s">
         <v>356</v>
@@ -16062,7 +16062,7 @@
         <v>330</v>
       </c>
       <c r="B331" t="s">
-        <v>335</v>
+        <v>336</v>
       </c>
       <c r="C331" t="s">
         <v>359</v>
@@ -16076,13 +16076,13 @@
         <v>331</v>
       </c>
       <c r="B332" t="s">
-        <v>339</v>
+        <v>346</v>
       </c>
       <c r="C332" t="s">
-        <v>359</v>
+        <v>355</v>
       </c>
       <c r="D332" t="s">
-        <v>367</v>
+        <v>373</v>
       </c>
     </row>
     <row r="333" spans="1:4">
@@ -16104,13 +16104,13 @@
         <v>333</v>
       </c>
       <c r="B334" t="s">
-        <v>346</v>
+        <v>339</v>
       </c>
       <c r="C334" t="s">
-        <v>355</v>
+        <v>359</v>
       </c>
       <c r="D334" t="s">
-        <v>373</v>
+        <v>367</v>
       </c>
     </row>
     <row r="335" spans="1:4">
@@ -16118,13 +16118,13 @@
         <v>334</v>
       </c>
       <c r="B335" t="s">
-        <v>337</v>
+        <v>341</v>
       </c>
       <c r="C335" t="s">
         <v>354</v>
       </c>
       <c r="D335" t="s">
-        <v>381</v>
+        <v>372</v>
       </c>
     </row>
     <row r="336" spans="1:4">
@@ -16132,13 +16132,13 @@
         <v>335</v>
       </c>
       <c r="B336" t="s">
-        <v>347</v>
+        <v>337</v>
       </c>
       <c r="C336" t="s">
         <v>354</v>
       </c>
       <c r="D336" t="s">
-        <v>387</v>
+        <v>381</v>
       </c>
     </row>
     <row r="337" spans="1:4">
@@ -16146,13 +16146,13 @@
         <v>336</v>
       </c>
       <c r="B337" t="s">
-        <v>343</v>
+        <v>347</v>
       </c>
       <c r="C337" t="s">
         <v>354</v>
       </c>
       <c r="D337" t="s">
-        <v>372</v>
+        <v>387</v>
       </c>
     </row>
     <row r="338" spans="1:4">
@@ -16160,13 +16160,13 @@
         <v>337</v>
       </c>
       <c r="B338" t="s">
-        <v>348</v>
+        <v>324</v>
       </c>
       <c r="C338" t="s">
-        <v>355</v>
+        <v>357</v>
       </c>
       <c r="D338" t="s">
-        <v>378</v>
+        <v>389</v>
       </c>
     </row>
     <row r="339" spans="1:4">
@@ -16174,13 +16174,13 @@
         <v>338</v>
       </c>
       <c r="B339" t="s">
-        <v>324</v>
+        <v>348</v>
       </c>
       <c r="C339" t="s">
-        <v>357</v>
+        <v>355</v>
       </c>
       <c r="D339" t="s">
-        <v>389</v>
+        <v>378</v>
       </c>
     </row>
     <row r="340" spans="1:4">
@@ -16202,7 +16202,7 @@
         <v>340</v>
       </c>
       <c r="B341" t="s">
-        <v>342</v>
+        <v>343</v>
       </c>
       <c r="C341" t="s">
         <v>358</v>
@@ -16230,7 +16230,7 @@
         <v>342</v>
       </c>
       <c r="B343" t="s">
-        <v>351</v>
+        <v>350</v>
       </c>
       <c r="C343" t="s">
         <v>355</v>
@@ -16244,7 +16244,7 @@
         <v>343</v>
       </c>
       <c r="B344" t="s">
-        <v>350</v>
+        <v>351</v>
       </c>
       <c r="C344" t="s">
         <v>355</v>
@@ -16286,13 +16286,13 @@
         <v>346</v>
       </c>
       <c r="B347" t="s">
-        <v>395</v>
+        <v>327</v>
       </c>
       <c r="C347" t="s">
-        <v>354</v>
+        <v>357</v>
       </c>
       <c r="D347" t="s">
-        <v>389</v>
+        <v>378</v>
       </c>
     </row>
     <row r="348" spans="1:4">
@@ -16300,7 +16300,7 @@
         <v>347</v>
       </c>
       <c r="B348" t="s">
-        <v>332</v>
+        <v>334</v>
       </c>
       <c r="C348" t="s">
         <v>354</v>
@@ -16314,13 +16314,13 @@
         <v>348</v>
       </c>
       <c r="B349" t="s">
-        <v>327</v>
+        <v>395</v>
       </c>
       <c r="C349" t="s">
-        <v>357</v>
+        <v>354</v>
       </c>
       <c r="D349" t="s">
-        <v>378</v>
+        <v>389</v>
       </c>
     </row>
     <row r="350" spans="1:4">

--- a/docs/FantasyProsFootballDraft.xlsx
+++ b/docs/FantasyProsFootballDraft.xlsx
@@ -167,12 +167,12 @@
     <t>Cam Akers</t>
   </si>
   <si>
+    <t>Jaylen Waddle</t>
+  </si>
+  <si>
     <t>DK Metcalf</t>
   </si>
   <si>
-    <t>Jaylen Waddle</t>
-  </si>
-  <si>
     <t>Brandin Cooks</t>
   </si>
   <si>
@@ -386,12 +386,12 @@
     <t>Hunter Henry</t>
   </si>
   <si>
+    <t>Tua Tagovailoa</t>
+  </si>
+  <si>
     <t>James Robinson</t>
   </si>
   <si>
-    <t>Tua Tagovailoa</t>
-  </si>
-  <si>
     <t>Marquez Valdes-Scantling</t>
   </si>
   <si>
@@ -560,12 +560,12 @@
     <t>Denver Broncos</t>
   </si>
   <si>
+    <t>Corey Davis</t>
+  </si>
+  <si>
     <t>Brian Robinson Jr.</t>
   </si>
   <si>
-    <t>Corey Davis</t>
-  </si>
-  <si>
     <t>Hayden Hurst</t>
   </si>
   <si>
@@ -644,12 +644,12 @@
     <t>Daniel Carlson</t>
   </si>
   <si>
+    <t>Jeff Wilson Jr.</t>
+  </si>
+  <si>
     <t>Green Bay Packers</t>
   </si>
   <si>
-    <t>Jeff Wilson Jr.</t>
-  </si>
-  <si>
     <t>K.J. Hamler</t>
   </si>
   <si>
@@ -797,24 +797,24 @@
     <t>Jake Elliott</t>
   </si>
   <si>
+    <t>Sammy Watkins</t>
+  </si>
+  <si>
     <t>Dustin Hopkins</t>
   </si>
   <si>
-    <t>Sammy Watkins</t>
-  </si>
-  <si>
     <t>Cameron Brate</t>
   </si>
   <si>
     <t>Randall Cobb</t>
   </si>
   <si>
+    <t>Byron Pringle</t>
+  </si>
+  <si>
     <t>Adam Trautman</t>
   </si>
   <si>
-    <t>Byron Pringle</t>
-  </si>
-  <si>
     <t>Wil Lutz</t>
   </si>
   <si>
@@ -854,24 +854,24 @@
     <t>Deshaun Watson</t>
   </si>
   <si>
+    <t>Matt Breida</t>
+  </si>
+  <si>
     <t>Greg Zuerlein</t>
   </si>
   <si>
-    <t>Matt Breida</t>
-  </si>
-  <si>
     <t>C.J. Uzomah</t>
   </si>
   <si>
     <t>Washington Commanders</t>
   </si>
   <si>
+    <t>Isaiah Likely</t>
+  </si>
+  <si>
     <t>Dan Arnold</t>
   </si>
   <si>
-    <t>Isaiah Likely</t>
-  </si>
-  <si>
     <t>Myles Gaskin</t>
   </si>
   <si>
@@ -965,12 +965,12 @@
     <t>Josh Reynolds</t>
   </si>
   <si>
+    <t>Dontrell Hilliard</t>
+  </si>
+  <si>
     <t>Marlon Mack</t>
   </si>
   <si>
-    <t>Dontrell Hilliard</t>
-  </si>
-  <si>
     <t>Odell Beckham Jr.</t>
   </si>
   <si>
@@ -992,12 +992,12 @@
     <t>Darius Slayton</t>
   </si>
   <si>
+    <t>Drew Lock</t>
+  </si>
+  <si>
     <t>O.J. Howard</t>
   </si>
   <si>
-    <t>Drew Lock</t>
-  </si>
-  <si>
     <t>Jalen Reagor</t>
   </si>
   <si>
@@ -1019,18 +1019,18 @@
     <t>Taysom Hill</t>
   </si>
   <si>
+    <t>Harrison Bryant</t>
+  </si>
+  <si>
     <t>Quintez Cephus</t>
   </si>
   <si>
-    <t>Harrison Bryant</t>
+    <t>Tommy Tremble</t>
   </si>
   <si>
     <t>Phillip Lindsay</t>
   </si>
   <si>
-    <t>Tommy Tremble</t>
-  </si>
-  <si>
     <t>Brett Maher</t>
   </si>
   <si>
@@ -1040,18 +1040,18 @@
     <t>Snoop Conner</t>
   </si>
   <si>
+    <t>Donald Parham Jr.</t>
+  </si>
+  <si>
     <t>Cade York</t>
   </si>
   <si>
-    <t>Donald Parham Jr.</t>
+    <t>Ty Montgomery</t>
   </si>
   <si>
     <t>Justin Jackson</t>
   </si>
   <si>
-    <t>Ty Montgomery</t>
-  </si>
-  <si>
     <t>Las Vegas Raiders</t>
   </si>
   <si>
@@ -1079,10 +1079,10 @@
     <t>Khalil Shakir</t>
   </si>
   <si>
+    <t>Chase McLaughlin</t>
+  </si>
+  <si>
     <t>Foster Moreau</t>
-  </si>
-  <si>
-    <t>Chase McLaughlin</t>
   </si>
   <si>
     <t>RB</t>
@@ -2216,7 +2216,7 @@
         <v>355</v>
       </c>
       <c r="D46" t="s">
-        <v>389</v>
+        <v>381</v>
       </c>
     </row>
     <row r="47" spans="1:4">
@@ -2230,7 +2230,7 @@
         <v>355</v>
       </c>
       <c r="D47" t="s">
-        <v>381</v>
+        <v>389</v>
       </c>
     </row>
     <row r="48" spans="1:4">
@@ -3235,10 +3235,10 @@
         <v>121</v>
       </c>
       <c r="C119" t="s">
-        <v>354</v>
+        <v>357</v>
       </c>
       <c r="D119" t="s">
-        <v>386</v>
+        <v>381</v>
       </c>
     </row>
     <row r="120" spans="1:4">
@@ -3249,10 +3249,10 @@
         <v>122</v>
       </c>
       <c r="C120" t="s">
-        <v>357</v>
+        <v>354</v>
       </c>
       <c r="D120" t="s">
-        <v>381</v>
+        <v>386</v>
       </c>
     </row>
     <row r="121" spans="1:4">
@@ -4047,10 +4047,10 @@
         <v>179</v>
       </c>
       <c r="C177" t="s">
-        <v>354</v>
+        <v>355</v>
       </c>
       <c r="D177" t="s">
-        <v>385</v>
+        <v>388</v>
       </c>
     </row>
     <row r="178" spans="1:4">
@@ -4061,10 +4061,10 @@
         <v>180</v>
       </c>
       <c r="C178" t="s">
-        <v>355</v>
+        <v>354</v>
       </c>
       <c r="D178" t="s">
-        <v>388</v>
+        <v>385</v>
       </c>
     </row>
     <row r="179" spans="1:4">
@@ -4439,10 +4439,10 @@
         <v>207</v>
       </c>
       <c r="C205" t="s">
-        <v>358</v>
+        <v>354</v>
       </c>
       <c r="D205" t="s">
-        <v>376</v>
+        <v>378</v>
       </c>
     </row>
     <row r="206" spans="1:4">
@@ -4453,10 +4453,10 @@
         <v>208</v>
       </c>
       <c r="C206" t="s">
-        <v>354</v>
+        <v>358</v>
       </c>
       <c r="D206" t="s">
-        <v>378</v>
+        <v>376</v>
       </c>
     </row>
     <row r="207" spans="1:4">
@@ -5153,10 +5153,10 @@
         <v>258</v>
       </c>
       <c r="C256" t="s">
-        <v>359</v>
+        <v>355</v>
       </c>
       <c r="D256" t="s">
-        <v>364</v>
+        <v>376</v>
       </c>
     </row>
     <row r="257" spans="1:4">
@@ -5167,10 +5167,10 @@
         <v>259</v>
       </c>
       <c r="C257" t="s">
-        <v>355</v>
+        <v>359</v>
       </c>
       <c r="D257" t="s">
-        <v>376</v>
+        <v>364</v>
       </c>
     </row>
     <row r="258" spans="1:4">
@@ -5209,10 +5209,10 @@
         <v>262</v>
       </c>
       <c r="C260" t="s">
-        <v>356</v>
+        <v>355</v>
       </c>
       <c r="D260" t="s">
-        <v>369</v>
+        <v>387</v>
       </c>
     </row>
     <row r="261" spans="1:4">
@@ -5223,10 +5223,10 @@
         <v>263</v>
       </c>
       <c r="C261" t="s">
-        <v>355</v>
+        <v>356</v>
       </c>
       <c r="D261" t="s">
-        <v>387</v>
+        <v>369</v>
       </c>
     </row>
     <row r="262" spans="1:4">
@@ -5419,10 +5419,10 @@
         <v>277</v>
       </c>
       <c r="C275" t="s">
-        <v>359</v>
+        <v>354</v>
       </c>
       <c r="D275" t="s">
-        <v>388</v>
+        <v>370</v>
       </c>
     </row>
     <row r="276" spans="1:4">
@@ -5433,10 +5433,10 @@
         <v>278</v>
       </c>
       <c r="C276" t="s">
-        <v>354</v>
+        <v>359</v>
       </c>
       <c r="D276" t="s">
-        <v>370</v>
+        <v>388</v>
       </c>
     </row>
     <row r="277" spans="1:4">
@@ -5478,7 +5478,7 @@
         <v>356</v>
       </c>
       <c r="D279" t="s">
-        <v>386</v>
+        <v>373</v>
       </c>
     </row>
     <row r="280" spans="1:4">
@@ -5492,7 +5492,7 @@
         <v>356</v>
       </c>
       <c r="D280" t="s">
-        <v>373</v>
+        <v>386</v>
       </c>
     </row>
     <row r="281" spans="1:4">
@@ -5940,7 +5940,7 @@
         <v>354</v>
       </c>
       <c r="D312" t="s">
-        <v>378</v>
+        <v>362</v>
       </c>
     </row>
     <row r="313" spans="1:4">
@@ -5954,7 +5954,7 @@
         <v>354</v>
       </c>
       <c r="D313" t="s">
-        <v>362</v>
+        <v>378</v>
       </c>
     </row>
     <row r="314" spans="1:4">
@@ -6063,10 +6063,10 @@
         <v>323</v>
       </c>
       <c r="C321" t="s">
-        <v>356</v>
+        <v>357</v>
       </c>
       <c r="D321" t="s">
-        <v>390</v>
+        <v>389</v>
       </c>
     </row>
     <row r="322" spans="1:4">
@@ -6077,10 +6077,10 @@
         <v>324</v>
       </c>
       <c r="C322" t="s">
-        <v>357</v>
+        <v>356</v>
       </c>
       <c r="D322" t="s">
-        <v>389</v>
+        <v>390</v>
       </c>
     </row>
     <row r="323" spans="1:4">
@@ -6189,10 +6189,10 @@
         <v>332</v>
       </c>
       <c r="C330" t="s">
-        <v>355</v>
+        <v>356</v>
       </c>
       <c r="D330" t="s">
-        <v>372</v>
+        <v>367</v>
       </c>
     </row>
     <row r="331" spans="1:4">
@@ -6203,10 +6203,10 @@
         <v>333</v>
       </c>
       <c r="C331" t="s">
-        <v>356</v>
+        <v>355</v>
       </c>
       <c r="D331" t="s">
-        <v>367</v>
+        <v>372</v>
       </c>
     </row>
     <row r="332" spans="1:4">
@@ -6217,10 +6217,10 @@
         <v>334</v>
       </c>
       <c r="C332" t="s">
-        <v>354</v>
+        <v>356</v>
       </c>
       <c r="D332" t="s">
-        <v>360</v>
+        <v>361</v>
       </c>
     </row>
     <row r="333" spans="1:4">
@@ -6231,10 +6231,10 @@
         <v>335</v>
       </c>
       <c r="C333" t="s">
-        <v>356</v>
+        <v>354</v>
       </c>
       <c r="D333" t="s">
-        <v>361</v>
+        <v>360</v>
       </c>
     </row>
     <row r="334" spans="1:4">
@@ -6287,10 +6287,10 @@
         <v>339</v>
       </c>
       <c r="C337" t="s">
-        <v>359</v>
+        <v>356</v>
       </c>
       <c r="D337" t="s">
-        <v>367</v>
+        <v>364</v>
       </c>
     </row>
     <row r="338" spans="1:4">
@@ -6301,10 +6301,10 @@
         <v>340</v>
       </c>
       <c r="C338" t="s">
-        <v>356</v>
+        <v>359</v>
       </c>
       <c r="D338" t="s">
-        <v>364</v>
+        <v>367</v>
       </c>
     </row>
     <row r="339" spans="1:4">
@@ -6318,7 +6318,7 @@
         <v>354</v>
       </c>
       <c r="D339" t="s">
-        <v>372</v>
+        <v>391</v>
       </c>
     </row>
     <row r="340" spans="1:4">
@@ -6332,7 +6332,7 @@
         <v>354</v>
       </c>
       <c r="D340" t="s">
-        <v>391</v>
+        <v>372</v>
       </c>
     </row>
     <row r="341" spans="1:4">
@@ -6469,10 +6469,10 @@
         <v>352</v>
       </c>
       <c r="C350" t="s">
-        <v>356</v>
+        <v>359</v>
       </c>
       <c r="D350" t="s">
-        <v>375</v>
+        <v>360</v>
       </c>
     </row>
     <row r="351" spans="1:4">
@@ -6483,10 +6483,10 @@
         <v>353</v>
       </c>
       <c r="C351" t="s">
-        <v>359</v>
+        <v>356</v>
       </c>
       <c r="D351" t="s">
-        <v>360</v>
+        <v>375</v>
       </c>
     </row>
   </sheetData>
@@ -7113,7 +7113,7 @@
         <v>43</v>
       </c>
       <c r="B44" t="s">
-        <v>49</v>
+        <v>48</v>
       </c>
       <c r="C44" t="s">
         <v>355</v>
@@ -7225,7 +7225,7 @@
         <v>51</v>
       </c>
       <c r="B52" t="s">
-        <v>48</v>
+        <v>49</v>
       </c>
       <c r="C52" t="s">
         <v>355</v>
@@ -7729,13 +7729,13 @@
         <v>87</v>
       </c>
       <c r="B88" t="s">
-        <v>101</v>
+        <v>94</v>
       </c>
       <c r="C88" t="s">
         <v>354</v>
       </c>
       <c r="D88" t="s">
-        <v>382</v>
+        <v>374</v>
       </c>
     </row>
     <row r="89" spans="1:4">
@@ -7743,13 +7743,13 @@
         <v>88</v>
       </c>
       <c r="B89" t="s">
-        <v>94</v>
+        <v>101</v>
       </c>
       <c r="C89" t="s">
         <v>354</v>
       </c>
       <c r="D89" t="s">
-        <v>374</v>
+        <v>382</v>
       </c>
     </row>
     <row r="90" spans="1:4">
@@ -8121,7 +8121,7 @@
         <v>115</v>
       </c>
       <c r="B116" t="s">
-        <v>121</v>
+        <v>122</v>
       </c>
       <c r="C116" t="s">
         <v>354</v>
@@ -8247,7 +8247,7 @@
         <v>124</v>
       </c>
       <c r="B125" t="s">
-        <v>122</v>
+        <v>121</v>
       </c>
       <c r="C125" t="s">
         <v>357</v>
@@ -8443,13 +8443,13 @@
         <v>138</v>
       </c>
       <c r="B139" t="s">
-        <v>144</v>
+        <v>154</v>
       </c>
       <c r="C139" t="s">
         <v>355</v>
       </c>
       <c r="D139" t="s">
-        <v>391</v>
+        <v>385</v>
       </c>
     </row>
     <row r="140" spans="1:4">
@@ -8457,13 +8457,13 @@
         <v>139</v>
       </c>
       <c r="B140" t="s">
-        <v>154</v>
+        <v>144</v>
       </c>
       <c r="C140" t="s">
         <v>355</v>
       </c>
       <c r="D140" t="s">
-        <v>385</v>
+        <v>391</v>
       </c>
     </row>
     <row r="141" spans="1:4">
@@ -8905,7 +8905,7 @@
         <v>171</v>
       </c>
       <c r="B172" t="s">
-        <v>180</v>
+        <v>179</v>
       </c>
       <c r="C172" t="s">
         <v>355</v>
@@ -9003,7 +9003,7 @@
         <v>178</v>
       </c>
       <c r="B179" t="s">
-        <v>179</v>
+        <v>180</v>
       </c>
       <c r="C179" t="s">
         <v>354</v>
@@ -9157,7 +9157,7 @@
         <v>189</v>
       </c>
       <c r="B190" t="s">
-        <v>208</v>
+        <v>207</v>
       </c>
       <c r="C190" t="s">
         <v>354</v>
@@ -9171,13 +9171,13 @@
         <v>190</v>
       </c>
       <c r="B191" t="s">
-        <v>209</v>
+        <v>192</v>
       </c>
       <c r="C191" t="s">
         <v>355</v>
       </c>
       <c r="D191" t="s">
-        <v>377</v>
+        <v>376</v>
       </c>
     </row>
     <row r="192" spans="1:4">
@@ -9199,13 +9199,13 @@
         <v>192</v>
       </c>
       <c r="B193" t="s">
-        <v>192</v>
+        <v>209</v>
       </c>
       <c r="C193" t="s">
         <v>355</v>
       </c>
       <c r="D193" t="s">
-        <v>376</v>
+        <v>377</v>
       </c>
     </row>
     <row r="194" spans="1:4">
@@ -9325,13 +9325,13 @@
         <v>201</v>
       </c>
       <c r="B202" t="s">
-        <v>216</v>
+        <v>203</v>
       </c>
       <c r="C202" t="s">
-        <v>355</v>
+        <v>354</v>
       </c>
       <c r="D202" t="s">
-        <v>367</v>
+        <v>383</v>
       </c>
     </row>
     <row r="203" spans="1:4">
@@ -9339,13 +9339,13 @@
         <v>202</v>
       </c>
       <c r="B203" t="s">
-        <v>203</v>
+        <v>216</v>
       </c>
       <c r="C203" t="s">
-        <v>354</v>
+        <v>355</v>
       </c>
       <c r="D203" t="s">
-        <v>383</v>
+        <v>367</v>
       </c>
     </row>
     <row r="204" spans="1:4">
@@ -9409,13 +9409,13 @@
         <v>207</v>
       </c>
       <c r="B208" t="s">
-        <v>186</v>
+        <v>206</v>
       </c>
       <c r="C208" t="s">
-        <v>357</v>
+        <v>359</v>
       </c>
       <c r="D208" t="s">
-        <v>390</v>
+        <v>375</v>
       </c>
     </row>
     <row r="209" spans="1:4">
@@ -9423,13 +9423,13 @@
         <v>208</v>
       </c>
       <c r="B209" t="s">
-        <v>206</v>
+        <v>186</v>
       </c>
       <c r="C209" t="s">
-        <v>359</v>
+        <v>357</v>
       </c>
       <c r="D209" t="s">
-        <v>375</v>
+        <v>390</v>
       </c>
     </row>
     <row r="210" spans="1:4">
@@ -9437,7 +9437,7 @@
         <v>209</v>
       </c>
       <c r="B210" t="s">
-        <v>207</v>
+        <v>208</v>
       </c>
       <c r="C210" t="s">
         <v>358</v>
@@ -9577,13 +9577,13 @@
         <v>219</v>
       </c>
       <c r="B220" t="s">
-        <v>220</v>
+        <v>231</v>
       </c>
       <c r="C220" t="s">
-        <v>356</v>
+        <v>354</v>
       </c>
       <c r="D220" t="s">
-        <v>360</v>
+        <v>382</v>
       </c>
     </row>
     <row r="221" spans="1:4">
@@ -9591,13 +9591,13 @@
         <v>220</v>
       </c>
       <c r="B221" t="s">
-        <v>223</v>
+        <v>220</v>
       </c>
       <c r="C221" t="s">
-        <v>358</v>
+        <v>356</v>
       </c>
       <c r="D221" t="s">
-        <v>373</v>
+        <v>360</v>
       </c>
     </row>
     <row r="222" spans="1:4">
@@ -9605,13 +9605,13 @@
         <v>221</v>
       </c>
       <c r="B222" t="s">
-        <v>231</v>
+        <v>223</v>
       </c>
       <c r="C222" t="s">
-        <v>354</v>
+        <v>358</v>
       </c>
       <c r="D222" t="s">
-        <v>382</v>
+        <v>373</v>
       </c>
     </row>
     <row r="223" spans="1:4">
@@ -9689,13 +9689,13 @@
         <v>227</v>
       </c>
       <c r="B228" t="s">
-        <v>218</v>
+        <v>227</v>
       </c>
       <c r="C228" t="s">
-        <v>357</v>
+        <v>358</v>
       </c>
       <c r="D228" t="s">
-        <v>382</v>
+        <v>371</v>
       </c>
     </row>
     <row r="229" spans="1:4">
@@ -9703,13 +9703,13 @@
         <v>228</v>
       </c>
       <c r="B229" t="s">
-        <v>227</v>
+        <v>218</v>
       </c>
       <c r="C229" t="s">
-        <v>358</v>
+        <v>357</v>
       </c>
       <c r="D229" t="s">
-        <v>371</v>
+        <v>382</v>
       </c>
     </row>
     <row r="230" spans="1:4">
@@ -9759,13 +9759,13 @@
         <v>232</v>
       </c>
       <c r="B233" t="s">
-        <v>214</v>
+        <v>230</v>
       </c>
       <c r="C233" t="s">
-        <v>357</v>
+        <v>358</v>
       </c>
       <c r="D233" t="s">
-        <v>388</v>
+        <v>366</v>
       </c>
     </row>
     <row r="234" spans="1:4">
@@ -9773,13 +9773,13 @@
         <v>233</v>
       </c>
       <c r="B234" t="s">
-        <v>230</v>
+        <v>214</v>
       </c>
       <c r="C234" t="s">
-        <v>358</v>
+        <v>357</v>
       </c>
       <c r="D234" t="s">
-        <v>366</v>
+        <v>388</v>
       </c>
     </row>
     <row r="235" spans="1:4">
@@ -9997,7 +9997,7 @@
         <v>249</v>
       </c>
       <c r="B250" t="s">
-        <v>258</v>
+        <v>259</v>
       </c>
       <c r="C250" t="s">
         <v>359</v>
@@ -10053,7 +10053,7 @@
         <v>253</v>
       </c>
       <c r="B254" t="s">
-        <v>259</v>
+        <v>258</v>
       </c>
       <c r="C254" t="s">
         <v>355</v>
@@ -10095,13 +10095,13 @@
         <v>256</v>
       </c>
       <c r="B257" t="s">
-        <v>266</v>
+        <v>271</v>
       </c>
       <c r="C257" t="s">
-        <v>358</v>
+        <v>355</v>
       </c>
       <c r="D257" t="s">
-        <v>363</v>
+        <v>388</v>
       </c>
     </row>
     <row r="258" spans="1:4">
@@ -10109,13 +10109,13 @@
         <v>257</v>
       </c>
       <c r="B258" t="s">
-        <v>271</v>
+        <v>266</v>
       </c>
       <c r="C258" t="s">
-        <v>355</v>
+        <v>358</v>
       </c>
       <c r="D258" t="s">
-        <v>388</v>
+        <v>363</v>
       </c>
     </row>
     <row r="259" spans="1:4">
@@ -10123,7 +10123,7 @@
         <v>258</v>
       </c>
       <c r="B259" t="s">
-        <v>263</v>
+        <v>262</v>
       </c>
       <c r="C259" t="s">
         <v>355</v>
@@ -10151,13 +10151,13 @@
         <v>260</v>
       </c>
       <c r="B261" t="s">
-        <v>264</v>
+        <v>267</v>
       </c>
       <c r="C261" t="s">
-        <v>359</v>
+        <v>358</v>
       </c>
       <c r="D261" t="s">
-        <v>369</v>
+        <v>361</v>
       </c>
     </row>
     <row r="262" spans="1:4">
@@ -10165,13 +10165,13 @@
         <v>261</v>
       </c>
       <c r="B262" t="s">
-        <v>267</v>
+        <v>264</v>
       </c>
       <c r="C262" t="s">
-        <v>358</v>
+        <v>359</v>
       </c>
       <c r="D262" t="s">
-        <v>361</v>
+        <v>369</v>
       </c>
     </row>
     <row r="263" spans="1:4">
@@ -10319,7 +10319,7 @@
         <v>272</v>
       </c>
       <c r="B273" t="s">
-        <v>277</v>
+        <v>278</v>
       </c>
       <c r="C273" t="s">
         <v>359</v>
@@ -10389,7 +10389,7 @@
         <v>277</v>
       </c>
       <c r="B278" t="s">
-        <v>262</v>
+        <v>263</v>
       </c>
       <c r="C278" t="s">
         <v>356</v>
@@ -10417,7 +10417,7 @@
         <v>279</v>
       </c>
       <c r="B280" t="s">
-        <v>278</v>
+        <v>277</v>
       </c>
       <c r="C280" t="s">
         <v>354</v>
@@ -10459,13 +10459,13 @@
         <v>282</v>
       </c>
       <c r="B283" t="s">
-        <v>304</v>
+        <v>292</v>
       </c>
       <c r="C283" t="s">
-        <v>358</v>
+        <v>354</v>
       </c>
       <c r="D283" t="s">
-        <v>388</v>
+        <v>375</v>
       </c>
     </row>
     <row r="284" spans="1:4">
@@ -10473,13 +10473,13 @@
         <v>283</v>
       </c>
       <c r="B284" t="s">
-        <v>292</v>
+        <v>304</v>
       </c>
       <c r="C284" t="s">
-        <v>354</v>
+        <v>358</v>
       </c>
       <c r="D284" t="s">
-        <v>375</v>
+        <v>388</v>
       </c>
     </row>
     <row r="285" spans="1:4">
@@ -10613,7 +10613,7 @@
         <v>293</v>
       </c>
       <c r="B294" t="s">
-        <v>281</v>
+        <v>282</v>
       </c>
       <c r="C294" t="s">
         <v>356</v>
@@ -10627,7 +10627,7 @@
         <v>294</v>
       </c>
       <c r="B295" t="s">
-        <v>282</v>
+        <v>281</v>
       </c>
       <c r="C295" t="s">
         <v>356</v>
@@ -10851,7 +10851,7 @@
         <v>310</v>
       </c>
       <c r="B311" t="s">
-        <v>315</v>
+        <v>314</v>
       </c>
       <c r="C311" t="s">
         <v>354</v>
@@ -10907,13 +10907,13 @@
         <v>314</v>
       </c>
       <c r="B315" t="s">
-        <v>320</v>
+        <v>325</v>
       </c>
       <c r="C315" t="s">
         <v>355</v>
       </c>
       <c r="D315" t="s">
-        <v>369</v>
+        <v>363</v>
       </c>
     </row>
     <row r="316" spans="1:4">
@@ -10921,13 +10921,13 @@
         <v>315</v>
       </c>
       <c r="B316" t="s">
-        <v>325</v>
+        <v>320</v>
       </c>
       <c r="C316" t="s">
         <v>355</v>
       </c>
       <c r="D316" t="s">
-        <v>363</v>
+        <v>369</v>
       </c>
     </row>
     <row r="317" spans="1:4">
@@ -10977,7 +10977,7 @@
         <v>319</v>
       </c>
       <c r="B320" t="s">
-        <v>324</v>
+        <v>323</v>
       </c>
       <c r="C320" t="s">
         <v>357</v>
@@ -11047,13 +11047,13 @@
         <v>324</v>
       </c>
       <c r="B325" t="s">
-        <v>323</v>
+        <v>329</v>
       </c>
       <c r="C325" t="s">
-        <v>356</v>
+        <v>355</v>
       </c>
       <c r="D325" t="s">
-        <v>390</v>
+        <v>385</v>
       </c>
     </row>
     <row r="326" spans="1:4">
@@ -11061,13 +11061,13 @@
         <v>325</v>
       </c>
       <c r="B326" t="s">
-        <v>329</v>
+        <v>315</v>
       </c>
       <c r="C326" t="s">
-        <v>355</v>
+        <v>354</v>
       </c>
       <c r="D326" t="s">
-        <v>385</v>
+        <v>378</v>
       </c>
     </row>
     <row r="327" spans="1:4">
@@ -11075,13 +11075,13 @@
         <v>326</v>
       </c>
       <c r="B327" t="s">
-        <v>314</v>
+        <v>324</v>
       </c>
       <c r="C327" t="s">
-        <v>354</v>
+        <v>356</v>
       </c>
       <c r="D327" t="s">
-        <v>378</v>
+        <v>390</v>
       </c>
     </row>
     <row r="328" spans="1:4">
@@ -11103,7 +11103,7 @@
         <v>328</v>
       </c>
       <c r="B329" t="s">
-        <v>332</v>
+        <v>333</v>
       </c>
       <c r="C329" t="s">
         <v>355</v>
@@ -11131,7 +11131,7 @@
         <v>330</v>
       </c>
       <c r="B331" t="s">
-        <v>342</v>
+        <v>341</v>
       </c>
       <c r="C331" t="s">
         <v>354</v>
@@ -11173,7 +11173,7 @@
         <v>333</v>
       </c>
       <c r="B334" t="s">
-        <v>341</v>
+        <v>342</v>
       </c>
       <c r="C334" t="s">
         <v>354</v>
@@ -11187,7 +11187,7 @@
         <v>334</v>
       </c>
       <c r="B335" t="s">
-        <v>339</v>
+        <v>340</v>
       </c>
       <c r="C335" t="s">
         <v>359</v>
@@ -11201,7 +11201,7 @@
         <v>335</v>
       </c>
       <c r="B336" t="s">
-        <v>333</v>
+        <v>332</v>
       </c>
       <c r="C336" t="s">
         <v>356</v>
@@ -11243,7 +11243,7 @@
         <v>338</v>
       </c>
       <c r="B339" t="s">
-        <v>334</v>
+        <v>335</v>
       </c>
       <c r="C339" t="s">
         <v>354</v>
@@ -11271,7 +11271,7 @@
         <v>340</v>
       </c>
       <c r="B341" t="s">
-        <v>335</v>
+        <v>334</v>
       </c>
       <c r="C341" t="s">
         <v>356</v>
@@ -11285,13 +11285,13 @@
         <v>341</v>
       </c>
       <c r="B342" t="s">
-        <v>346</v>
+        <v>348</v>
       </c>
       <c r="C342" t="s">
         <v>355</v>
       </c>
       <c r="D342" t="s">
-        <v>373</v>
+        <v>378</v>
       </c>
     </row>
     <row r="343" spans="1:4">
@@ -11299,13 +11299,13 @@
         <v>342</v>
       </c>
       <c r="B343" t="s">
-        <v>348</v>
+        <v>346</v>
       </c>
       <c r="C343" t="s">
         <v>355</v>
       </c>
       <c r="D343" t="s">
-        <v>378</v>
+        <v>373</v>
       </c>
     </row>
     <row r="344" spans="1:4">
@@ -11327,7 +11327,7 @@
         <v>344</v>
       </c>
       <c r="B345" t="s">
-        <v>340</v>
+        <v>339</v>
       </c>
       <c r="C345" t="s">
         <v>356</v>
@@ -11355,13 +11355,13 @@
         <v>346</v>
       </c>
       <c r="B347" t="s">
-        <v>393</v>
+        <v>349</v>
       </c>
       <c r="C347" t="s">
-        <v>358</v>
+        <v>355</v>
       </c>
       <c r="D347" t="s">
-        <v>372</v>
+        <v>364</v>
       </c>
     </row>
     <row r="348" spans="1:4">
@@ -11369,13 +11369,13 @@
         <v>347</v>
       </c>
       <c r="B348" t="s">
-        <v>349</v>
+        <v>350</v>
       </c>
       <c r="C348" t="s">
         <v>355</v>
       </c>
       <c r="D348" t="s">
-        <v>364</v>
+        <v>382</v>
       </c>
     </row>
     <row r="349" spans="1:4">
@@ -11383,13 +11383,13 @@
         <v>348</v>
       </c>
       <c r="B349" t="s">
-        <v>350</v>
+        <v>393</v>
       </c>
       <c r="C349" t="s">
-        <v>355</v>
+        <v>358</v>
       </c>
       <c r="D349" t="s">
-        <v>382</v>
+        <v>372</v>
       </c>
     </row>
     <row r="350" spans="1:4">
@@ -11414,10 +11414,10 @@
         <v>352</v>
       </c>
       <c r="C351" t="s">
-        <v>356</v>
+        <v>359</v>
       </c>
       <c r="D351" t="s">
-        <v>375</v>
+        <v>360</v>
       </c>
     </row>
   </sheetData>
@@ -11988,7 +11988,7 @@
         <v>39</v>
       </c>
       <c r="B40" t="s">
-        <v>49</v>
+        <v>48</v>
       </c>
       <c r="C40" t="s">
         <v>355</v>
@@ -12156,7 +12156,7 @@
         <v>51</v>
       </c>
       <c r="B52" t="s">
-        <v>48</v>
+        <v>49</v>
       </c>
       <c r="C52" t="s">
         <v>355</v>
@@ -12226,13 +12226,13 @@
         <v>56</v>
       </c>
       <c r="B57" t="s">
-        <v>61</v>
+        <v>60</v>
       </c>
       <c r="C57" t="s">
-        <v>355</v>
+        <v>354</v>
       </c>
       <c r="D57" t="s">
-        <v>387</v>
+        <v>375</v>
       </c>
     </row>
     <row r="58" spans="1:4">
@@ -12240,13 +12240,13 @@
         <v>57</v>
       </c>
       <c r="B58" t="s">
-        <v>60</v>
+        <v>61</v>
       </c>
       <c r="C58" t="s">
-        <v>354</v>
+        <v>355</v>
       </c>
       <c r="D58" t="s">
-        <v>375</v>
+        <v>387</v>
       </c>
     </row>
     <row r="59" spans="1:4">
@@ -12926,13 +12926,13 @@
         <v>106</v>
       </c>
       <c r="B107" t="s">
-        <v>112</v>
+        <v>107</v>
       </c>
       <c r="C107" t="s">
-        <v>356</v>
+        <v>355</v>
       </c>
       <c r="D107" t="s">
-        <v>387</v>
+        <v>370</v>
       </c>
     </row>
     <row r="108" spans="1:4">
@@ -12940,13 +12940,13 @@
         <v>107</v>
       </c>
       <c r="B108" t="s">
-        <v>107</v>
+        <v>112</v>
       </c>
       <c r="C108" t="s">
-        <v>355</v>
+        <v>356</v>
       </c>
       <c r="D108" t="s">
-        <v>370</v>
+        <v>387</v>
       </c>
     </row>
     <row r="109" spans="1:4">
@@ -13052,13 +13052,13 @@
         <v>115</v>
       </c>
       <c r="B116" t="s">
-        <v>121</v>
+        <v>124</v>
       </c>
       <c r="C116" t="s">
-        <v>354</v>
+        <v>355</v>
       </c>
       <c r="D116" t="s">
-        <v>386</v>
+        <v>365</v>
       </c>
     </row>
     <row r="117" spans="1:4">
@@ -13066,13 +13066,13 @@
         <v>116</v>
       </c>
       <c r="B117" t="s">
-        <v>124</v>
+        <v>116</v>
       </c>
       <c r="C117" t="s">
         <v>355</v>
       </c>
       <c r="D117" t="s">
-        <v>365</v>
+        <v>366</v>
       </c>
     </row>
     <row r="118" spans="1:4">
@@ -13080,13 +13080,13 @@
         <v>117</v>
       </c>
       <c r="B118" t="s">
-        <v>116</v>
+        <v>114</v>
       </c>
       <c r="C118" t="s">
         <v>355</v>
       </c>
       <c r="D118" t="s">
-        <v>366</v>
+        <v>362</v>
       </c>
     </row>
     <row r="119" spans="1:4">
@@ -13094,13 +13094,13 @@
         <v>118</v>
       </c>
       <c r="B119" t="s">
-        <v>114</v>
+        <v>122</v>
       </c>
       <c r="C119" t="s">
-        <v>355</v>
+        <v>354</v>
       </c>
       <c r="D119" t="s">
-        <v>362</v>
+        <v>386</v>
       </c>
     </row>
     <row r="120" spans="1:4">
@@ -13220,7 +13220,7 @@
         <v>127</v>
       </c>
       <c r="B128" t="s">
-        <v>122</v>
+        <v>121</v>
       </c>
       <c r="C128" t="s">
         <v>357</v>
@@ -13318,13 +13318,13 @@
         <v>134</v>
       </c>
       <c r="B135" t="s">
-        <v>158</v>
+        <v>131</v>
       </c>
       <c r="C135" t="s">
-        <v>355</v>
+        <v>356</v>
       </c>
       <c r="D135" t="s">
-        <v>383</v>
+        <v>363</v>
       </c>
     </row>
     <row r="136" spans="1:4">
@@ -13332,13 +13332,13 @@
         <v>135</v>
       </c>
       <c r="B136" t="s">
-        <v>131</v>
+        <v>158</v>
       </c>
       <c r="C136" t="s">
-        <v>356</v>
+        <v>355</v>
       </c>
       <c r="D136" t="s">
-        <v>363</v>
+        <v>383</v>
       </c>
     </row>
     <row r="137" spans="1:4">
@@ -13682,13 +13682,13 @@
         <v>160</v>
       </c>
       <c r="B161" t="s">
-        <v>170</v>
+        <v>165</v>
       </c>
       <c r="C161" t="s">
-        <v>355</v>
+        <v>354</v>
       </c>
       <c r="D161" t="s">
-        <v>370</v>
+        <v>375</v>
       </c>
     </row>
     <row r="162" spans="1:4">
@@ -13696,13 +13696,13 @@
         <v>161</v>
       </c>
       <c r="B162" t="s">
-        <v>165</v>
+        <v>170</v>
       </c>
       <c r="C162" t="s">
-        <v>354</v>
+        <v>355</v>
       </c>
       <c r="D162" t="s">
-        <v>375</v>
+        <v>370</v>
       </c>
     </row>
     <row r="163" spans="1:4">
@@ -13710,13 +13710,13 @@
         <v>162</v>
       </c>
       <c r="B163" t="s">
-        <v>164</v>
+        <v>169</v>
       </c>
       <c r="C163" t="s">
-        <v>358</v>
+        <v>354</v>
       </c>
       <c r="D163" t="s">
-        <v>378</v>
+        <v>369</v>
       </c>
     </row>
     <row r="164" spans="1:4">
@@ -13724,13 +13724,13 @@
         <v>163</v>
       </c>
       <c r="B164" t="s">
-        <v>169</v>
+        <v>164</v>
       </c>
       <c r="C164" t="s">
-        <v>354</v>
+        <v>358</v>
       </c>
       <c r="D164" t="s">
-        <v>369</v>
+        <v>378</v>
       </c>
     </row>
     <row r="165" spans="1:4">
@@ -13822,7 +13822,7 @@
         <v>170</v>
       </c>
       <c r="B171" t="s">
-        <v>180</v>
+        <v>179</v>
       </c>
       <c r="C171" t="s">
         <v>355</v>
@@ -13878,13 +13878,13 @@
         <v>174</v>
       </c>
       <c r="B175" t="s">
-        <v>184</v>
+        <v>191</v>
       </c>
       <c r="C175" t="s">
         <v>355</v>
       </c>
       <c r="D175" t="s">
-        <v>371</v>
+        <v>386</v>
       </c>
     </row>
     <row r="176" spans="1:4">
@@ -13892,13 +13892,13 @@
         <v>175</v>
       </c>
       <c r="B176" t="s">
-        <v>191</v>
+        <v>184</v>
       </c>
       <c r="C176" t="s">
         <v>355</v>
       </c>
       <c r="D176" t="s">
-        <v>386</v>
+        <v>371</v>
       </c>
     </row>
     <row r="177" spans="1:4">
@@ -13948,7 +13948,7 @@
         <v>179</v>
       </c>
       <c r="B180" t="s">
-        <v>179</v>
+        <v>180</v>
       </c>
       <c r="C180" t="s">
         <v>354</v>
@@ -14046,13 +14046,13 @@
         <v>186</v>
       </c>
       <c r="B187" t="s">
-        <v>183</v>
+        <v>163</v>
       </c>
       <c r="C187" t="s">
-        <v>356</v>
+        <v>357</v>
       </c>
       <c r="D187" t="s">
-        <v>385</v>
+        <v>391</v>
       </c>
     </row>
     <row r="188" spans="1:4">
@@ -14060,13 +14060,13 @@
         <v>187</v>
       </c>
       <c r="B188" t="s">
-        <v>163</v>
+        <v>183</v>
       </c>
       <c r="C188" t="s">
-        <v>357</v>
+        <v>356</v>
       </c>
       <c r="D188" t="s">
-        <v>391</v>
+        <v>385</v>
       </c>
     </row>
     <row r="189" spans="1:4">
@@ -14102,13 +14102,13 @@
         <v>190</v>
       </c>
       <c r="B191" t="s">
-        <v>199</v>
+        <v>195</v>
       </c>
       <c r="C191" t="s">
-        <v>355</v>
+        <v>359</v>
       </c>
       <c r="D191" t="s">
-        <v>376</v>
+        <v>368</v>
       </c>
     </row>
     <row r="192" spans="1:4">
@@ -14116,13 +14116,13 @@
         <v>191</v>
       </c>
       <c r="B192" t="s">
-        <v>195</v>
+        <v>199</v>
       </c>
       <c r="C192" t="s">
-        <v>359</v>
+        <v>355</v>
       </c>
       <c r="D192" t="s">
-        <v>368</v>
+        <v>376</v>
       </c>
     </row>
     <row r="193" spans="1:4">
@@ -14144,7 +14144,7 @@
         <v>193</v>
       </c>
       <c r="B194" t="s">
-        <v>208</v>
+        <v>207</v>
       </c>
       <c r="C194" t="s">
         <v>354</v>
@@ -14270,7 +14270,7 @@
         <v>202</v>
       </c>
       <c r="B203" t="s">
-        <v>207</v>
+        <v>208</v>
       </c>
       <c r="C203" t="s">
         <v>358</v>
@@ -14354,13 +14354,13 @@
         <v>208</v>
       </c>
       <c r="B209" t="s">
-        <v>168</v>
+        <v>226</v>
       </c>
       <c r="C209" t="s">
-        <v>357</v>
+        <v>354</v>
       </c>
       <c r="D209" t="s">
-        <v>385</v>
+        <v>390</v>
       </c>
     </row>
     <row r="210" spans="1:4">
@@ -14368,13 +14368,13 @@
         <v>209</v>
       </c>
       <c r="B210" t="s">
-        <v>226</v>
+        <v>168</v>
       </c>
       <c r="C210" t="s">
-        <v>354</v>
+        <v>357</v>
       </c>
       <c r="D210" t="s">
-        <v>390</v>
+        <v>385</v>
       </c>
     </row>
     <row r="211" spans="1:4">
@@ -14550,13 +14550,13 @@
         <v>222</v>
       </c>
       <c r="B223" t="s">
-        <v>225</v>
+        <v>239</v>
       </c>
       <c r="C223" t="s">
-        <v>358</v>
+        <v>354</v>
       </c>
       <c r="D223" t="s">
-        <v>384</v>
+        <v>373</v>
       </c>
     </row>
     <row r="224" spans="1:4">
@@ -14564,13 +14564,13 @@
         <v>223</v>
       </c>
       <c r="B224" t="s">
-        <v>238</v>
+        <v>225</v>
       </c>
       <c r="C224" t="s">
-        <v>355</v>
+        <v>358</v>
       </c>
       <c r="D224" t="s">
-        <v>367</v>
+        <v>384</v>
       </c>
     </row>
     <row r="225" spans="1:4">
@@ -14578,13 +14578,13 @@
         <v>224</v>
       </c>
       <c r="B225" t="s">
-        <v>239</v>
+        <v>238</v>
       </c>
       <c r="C225" t="s">
-        <v>354</v>
+        <v>355</v>
       </c>
       <c r="D225" t="s">
-        <v>373</v>
+        <v>367</v>
       </c>
     </row>
     <row r="226" spans="1:4">
@@ -14746,13 +14746,13 @@
         <v>236</v>
       </c>
       <c r="B237" t="s">
-        <v>241</v>
+        <v>234</v>
       </c>
       <c r="C237" t="s">
-        <v>355</v>
+        <v>359</v>
       </c>
       <c r="D237" t="s">
-        <v>391</v>
+        <v>383</v>
       </c>
     </row>
     <row r="238" spans="1:4">
@@ -14760,13 +14760,13 @@
         <v>237</v>
       </c>
       <c r="B238" t="s">
-        <v>234</v>
+        <v>241</v>
       </c>
       <c r="C238" t="s">
-        <v>359</v>
+        <v>355</v>
       </c>
       <c r="D238" t="s">
-        <v>383</v>
+        <v>391</v>
       </c>
     </row>
     <row r="239" spans="1:4">
@@ -14886,7 +14886,7 @@
         <v>246</v>
       </c>
       <c r="B247" t="s">
-        <v>259</v>
+        <v>258</v>
       </c>
       <c r="C247" t="s">
         <v>355</v>
@@ -14900,13 +14900,13 @@
         <v>247</v>
       </c>
       <c r="B248" t="s">
-        <v>255</v>
+        <v>271</v>
       </c>
       <c r="C248" t="s">
-        <v>359</v>
+        <v>355</v>
       </c>
       <c r="D248" t="s">
-        <v>378</v>
+        <v>388</v>
       </c>
     </row>
     <row r="249" spans="1:4">
@@ -14914,13 +14914,13 @@
         <v>248</v>
       </c>
       <c r="B249" t="s">
-        <v>271</v>
+        <v>255</v>
       </c>
       <c r="C249" t="s">
-        <v>355</v>
+        <v>359</v>
       </c>
       <c r="D249" t="s">
-        <v>388</v>
+        <v>378</v>
       </c>
     </row>
     <row r="250" spans="1:4">
@@ -14984,13 +14984,13 @@
         <v>253</v>
       </c>
       <c r="B254" t="s">
-        <v>214</v>
+        <v>257</v>
       </c>
       <c r="C254" t="s">
-        <v>357</v>
+        <v>359</v>
       </c>
       <c r="D254" t="s">
-        <v>388</v>
+        <v>384</v>
       </c>
     </row>
     <row r="255" spans="1:4">
@@ -14998,13 +14998,13 @@
         <v>254</v>
       </c>
       <c r="B255" t="s">
-        <v>257</v>
+        <v>214</v>
       </c>
       <c r="C255" t="s">
-        <v>359</v>
+        <v>357</v>
       </c>
       <c r="D255" t="s">
-        <v>384</v>
+        <v>388</v>
       </c>
     </row>
     <row r="256" spans="1:4">
@@ -15026,7 +15026,7 @@
         <v>256</v>
       </c>
       <c r="B257" t="s">
-        <v>258</v>
+        <v>259</v>
       </c>
       <c r="C257" t="s">
         <v>359</v>
@@ -15040,7 +15040,7 @@
         <v>257</v>
       </c>
       <c r="B258" t="s">
-        <v>263</v>
+        <v>262</v>
       </c>
       <c r="C258" t="s">
         <v>355</v>
@@ -15180,13 +15180,13 @@
         <v>267</v>
       </c>
       <c r="B268" t="s">
-        <v>262</v>
+        <v>275</v>
       </c>
       <c r="C268" t="s">
-        <v>356</v>
+        <v>355</v>
       </c>
       <c r="D268" t="s">
-        <v>369</v>
+        <v>381</v>
       </c>
     </row>
     <row r="269" spans="1:4">
@@ -15194,13 +15194,13 @@
         <v>268</v>
       </c>
       <c r="B269" t="s">
-        <v>275</v>
+        <v>263</v>
       </c>
       <c r="C269" t="s">
-        <v>355</v>
+        <v>356</v>
       </c>
       <c r="D269" t="s">
-        <v>381</v>
+        <v>369</v>
       </c>
     </row>
     <row r="270" spans="1:4">
@@ -15306,7 +15306,7 @@
         <v>276</v>
       </c>
       <c r="B277" t="s">
-        <v>277</v>
+        <v>278</v>
       </c>
       <c r="C277" t="s">
         <v>359</v>
@@ -15320,7 +15320,7 @@
         <v>277</v>
       </c>
       <c r="B278" t="s">
-        <v>278</v>
+        <v>277</v>
       </c>
       <c r="C278" t="s">
         <v>354</v>
@@ -15348,7 +15348,7 @@
         <v>279</v>
       </c>
       <c r="B280" t="s">
-        <v>281</v>
+        <v>282</v>
       </c>
       <c r="C280" t="s">
         <v>356</v>
@@ -15390,7 +15390,7 @@
         <v>282</v>
       </c>
       <c r="B283" t="s">
-        <v>282</v>
+        <v>281</v>
       </c>
       <c r="C283" t="s">
         <v>356</v>
@@ -15460,7 +15460,7 @@
         <v>287</v>
       </c>
       <c r="B288" t="s">
-        <v>315</v>
+        <v>314</v>
       </c>
       <c r="C288" t="s">
         <v>354</v>
@@ -15880,7 +15880,7 @@
         <v>317</v>
       </c>
       <c r="B318" t="s">
-        <v>314</v>
+        <v>315</v>
       </c>
       <c r="C318" t="s">
         <v>354</v>
@@ -15964,7 +15964,7 @@
         <v>323</v>
       </c>
       <c r="B324" t="s">
-        <v>342</v>
+        <v>341</v>
       </c>
       <c r="C324" t="s">
         <v>354</v>
@@ -15992,7 +15992,7 @@
         <v>325</v>
       </c>
       <c r="B326" t="s">
-        <v>323</v>
+        <v>324</v>
       </c>
       <c r="C326" t="s">
         <v>356</v>
@@ -16006,13 +16006,13 @@
         <v>326</v>
       </c>
       <c r="B327" t="s">
-        <v>332</v>
+        <v>329</v>
       </c>
       <c r="C327" t="s">
         <v>355</v>
       </c>
       <c r="D327" t="s">
-        <v>372</v>
+        <v>385</v>
       </c>
     </row>
     <row r="328" spans="1:4">
@@ -16020,13 +16020,13 @@
         <v>327</v>
       </c>
       <c r="B328" t="s">
-        <v>329</v>
+        <v>333</v>
       </c>
       <c r="C328" t="s">
         <v>355</v>
       </c>
       <c r="D328" t="s">
-        <v>385</v>
+        <v>372</v>
       </c>
     </row>
     <row r="329" spans="1:4">
@@ -16034,7 +16034,7 @@
         <v>328</v>
       </c>
       <c r="B329" t="s">
-        <v>335</v>
+        <v>334</v>
       </c>
       <c r="C329" t="s">
         <v>356</v>
@@ -16048,7 +16048,7 @@
         <v>329</v>
       </c>
       <c r="B330" t="s">
-        <v>333</v>
+        <v>332</v>
       </c>
       <c r="C330" t="s">
         <v>356</v>
@@ -16076,13 +16076,13 @@
         <v>331</v>
       </c>
       <c r="B332" t="s">
-        <v>346</v>
+        <v>345</v>
       </c>
       <c r="C332" t="s">
-        <v>355</v>
+        <v>354</v>
       </c>
       <c r="D332" t="s">
-        <v>373</v>
+        <v>367</v>
       </c>
     </row>
     <row r="333" spans="1:4">
@@ -16090,13 +16090,13 @@
         <v>332</v>
       </c>
       <c r="B333" t="s">
-        <v>345</v>
+        <v>346</v>
       </c>
       <c r="C333" t="s">
-        <v>354</v>
+        <v>355</v>
       </c>
       <c r="D333" t="s">
-        <v>367</v>
+        <v>373</v>
       </c>
     </row>
     <row r="334" spans="1:4">
@@ -16104,7 +16104,7 @@
         <v>333</v>
       </c>
       <c r="B334" t="s">
-        <v>339</v>
+        <v>340</v>
       </c>
       <c r="C334" t="s">
         <v>359</v>
@@ -16118,13 +16118,13 @@
         <v>334</v>
       </c>
       <c r="B335" t="s">
-        <v>341</v>
+        <v>337</v>
       </c>
       <c r="C335" t="s">
         <v>354</v>
       </c>
       <c r="D335" t="s">
-        <v>372</v>
+        <v>381</v>
       </c>
     </row>
     <row r="336" spans="1:4">
@@ -16132,13 +16132,13 @@
         <v>335</v>
       </c>
       <c r="B336" t="s">
-        <v>337</v>
+        <v>342</v>
       </c>
       <c r="C336" t="s">
         <v>354</v>
       </c>
       <c r="D336" t="s">
-        <v>381</v>
+        <v>372</v>
       </c>
     </row>
     <row r="337" spans="1:4">
@@ -16160,13 +16160,13 @@
         <v>337</v>
       </c>
       <c r="B338" t="s">
-        <v>324</v>
+        <v>348</v>
       </c>
       <c r="C338" t="s">
-        <v>357</v>
+        <v>355</v>
       </c>
       <c r="D338" t="s">
-        <v>389</v>
+        <v>378</v>
       </c>
     </row>
     <row r="339" spans="1:4">
@@ -16174,13 +16174,13 @@
         <v>338</v>
       </c>
       <c r="B339" t="s">
-        <v>348</v>
+        <v>323</v>
       </c>
       <c r="C339" t="s">
-        <v>355</v>
+        <v>357</v>
       </c>
       <c r="D339" t="s">
-        <v>378</v>
+        <v>389</v>
       </c>
     </row>
     <row r="340" spans="1:4">
@@ -16216,7 +16216,7 @@
         <v>341</v>
       </c>
       <c r="B342" t="s">
-        <v>340</v>
+        <v>339</v>
       </c>
       <c r="C342" t="s">
         <v>356</v>
@@ -16286,13 +16286,13 @@
         <v>346</v>
       </c>
       <c r="B347" t="s">
-        <v>327</v>
+        <v>395</v>
       </c>
       <c r="C347" t="s">
-        <v>357</v>
+        <v>354</v>
       </c>
       <c r="D347" t="s">
-        <v>378</v>
+        <v>389</v>
       </c>
     </row>
     <row r="348" spans="1:4">
@@ -16300,13 +16300,13 @@
         <v>347</v>
       </c>
       <c r="B348" t="s">
-        <v>334</v>
+        <v>327</v>
       </c>
       <c r="C348" t="s">
-        <v>354</v>
+        <v>357</v>
       </c>
       <c r="D348" t="s">
-        <v>360</v>
+        <v>378</v>
       </c>
     </row>
     <row r="349" spans="1:4">
@@ -16314,13 +16314,13 @@
         <v>348</v>
       </c>
       <c r="B349" t="s">
-        <v>395</v>
+        <v>335</v>
       </c>
       <c r="C349" t="s">
         <v>354</v>
       </c>
       <c r="D349" t="s">
-        <v>389</v>
+        <v>360</v>
       </c>
     </row>
     <row r="350" spans="1:4">
@@ -16342,7 +16342,7 @@
         <v>350</v>
       </c>
       <c r="B351" t="s">
-        <v>353</v>
+        <v>352</v>
       </c>
       <c r="C351" t="s">
         <v>359</v>

--- a/docs/FantasyProsFootballDraft.xlsx
+++ b/docs/FantasyProsFootballDraft.xlsx
@@ -149,12 +149,12 @@
     <t>Travis Etienne Jr.</t>
   </si>
   <si>
+    <t>Justin Herbert</t>
+  </si>
+  <si>
     <t>Elijah Mitchell</t>
   </si>
   <si>
-    <t>Justin Herbert</t>
-  </si>
-  <si>
     <t>David Montgomery</t>
   </si>
   <si>
@@ -224,12 +224,12 @@
     <t>Kyler Murray</t>
   </si>
   <si>
+    <t>Chris Godwin</t>
+  </si>
+  <si>
     <t>Antonio Gibson</t>
   </si>
   <si>
-    <t>Chris Godwin</t>
-  </si>
-  <si>
     <t>Damien Harris</t>
   </si>
   <si>
@@ -323,12 +323,12 @@
     <t>Trey Lance</t>
   </si>
   <si>
+    <t>Cordarrelle Patterson</t>
+  </si>
+  <si>
     <t>Zach Ertz</t>
   </si>
   <si>
-    <t>Cordarrelle Patterson</t>
-  </si>
-  <si>
     <t>Melvin Gordon III</t>
   </si>
   <si>
@@ -380,24 +380,24 @@
     <t>James Cook</t>
   </si>
   <si>
+    <t>Hunter Henry</t>
+  </si>
+  <si>
     <t>Justin Fields</t>
   </si>
   <si>
-    <t>Hunter Henry</t>
-  </si>
-  <si>
     <t>Tua Tagovailoa</t>
   </si>
   <si>
     <t>James Robinson</t>
   </si>
   <si>
+    <t>Tyler Boyd</t>
+  </si>
+  <si>
     <t>Marquez Valdes-Scantling</t>
   </si>
   <si>
-    <t>Tyler Boyd</t>
-  </si>
-  <si>
     <t>Trevor Lawrence</t>
   </si>
   <si>
@@ -533,12 +533,12 @@
     <t>Mark Ingram II</t>
   </si>
   <si>
+    <t>Indianapolis Colts</t>
+  </si>
+  <si>
     <t>Kenny Golladay</t>
   </si>
   <si>
-    <t>Indianapolis Colts</t>
-  </si>
-  <si>
     <t>Joshua Palmer</t>
   </si>
   <si>
@@ -611,12 +611,12 @@
     <t>Matt Gay</t>
   </si>
   <si>
+    <t>Jalen Tolbert</t>
+  </si>
+  <si>
     <t>Evan McPherson</t>
   </si>
   <si>
-    <t>Jalen Tolbert</t>
-  </si>
-  <si>
     <t>Isaiah McKenzie</t>
   </si>
   <si>
@@ -629,27 +629,27 @@
     <t>Dallas Cowboys</t>
   </si>
   <si>
+    <t>Darrel Williams</t>
+  </si>
+  <si>
     <t>Gus Edwards</t>
   </si>
   <si>
-    <t>Darrel Williams</t>
-  </si>
-  <si>
     <t>Los Angeles Chargers</t>
   </si>
   <si>
+    <t>Daniel Carlson</t>
+  </si>
+  <si>
     <t>Jameson Williams</t>
   </si>
   <si>
-    <t>Daniel Carlson</t>
+    <t>Green Bay Packers</t>
   </si>
   <si>
     <t>Jeff Wilson Jr.</t>
   </si>
   <si>
-    <t>Green Bay Packers</t>
-  </si>
-  <si>
     <t>K.J. Hamler</t>
   </si>
   <si>
@@ -731,18 +731,18 @@
     <t>Samaje Perine</t>
   </si>
   <si>
+    <t>A.J. Green</t>
+  </si>
+  <si>
+    <t>Kenyan Drake</t>
+  </si>
+  <si>
     <t>Brandon McManus</t>
   </si>
   <si>
-    <t>A.J. Green</t>
-  </si>
-  <si>
     <t>David Bell</t>
   </si>
   <si>
-    <t>Kenyan Drake</t>
-  </si>
-  <si>
     <t>Eno Benjamin</t>
   </si>
   <si>
@@ -761,12 +761,12 @@
     <t>D'Ernest Johnson</t>
   </si>
   <si>
+    <t>Zay Jones</t>
+  </si>
+  <si>
     <t>Jonnu Smith</t>
   </si>
   <si>
-    <t>Zay Jones</t>
-  </si>
-  <si>
     <t>Nick Folk</t>
   </si>
   <si>
@@ -809,15 +809,15 @@
     <t>Randall Cobb</t>
   </si>
   <si>
+    <t>Adam Trautman</t>
+  </si>
+  <si>
+    <t>Wil Lutz</t>
+  </si>
+  <si>
     <t>Byron Pringle</t>
   </si>
   <si>
-    <t>Adam Trautman</t>
-  </si>
-  <si>
-    <t>Wil Lutz</t>
-  </si>
-  <si>
     <t>Laviska Shenault Jr.</t>
   </si>
   <si>
@@ -887,12 +887,12 @@
     <t>Hassan Haskins</t>
   </si>
   <si>
+    <t>Nick Westbrook-Ikhine</t>
+  </si>
+  <si>
     <t>Geno Smith</t>
   </si>
   <si>
-    <t>Nick Westbrook-Ikhine</t>
-  </si>
-  <si>
     <t>Marquez Callaway</t>
   </si>
   <si>
@@ -923,24 +923,24 @@
     <t>Kyle Rudolph</t>
   </si>
   <si>
+    <t>Ke'Shawn Vaughn</t>
+  </si>
+  <si>
     <t>Cairo Santos</t>
   </si>
   <si>
-    <t>Ke'Shawn Vaughn</t>
-  </si>
-  <si>
     <t>Chris Evans</t>
   </si>
   <si>
     <t>Quez Watkins</t>
   </si>
   <si>
+    <t>Jaylen Warren</t>
+  </si>
+  <si>
     <t>New York Jets</t>
   </si>
   <si>
-    <t>Jaylen Warren</t>
-  </si>
-  <si>
     <t>Velus Jones Jr.</t>
   </si>
   <si>
@@ -950,12 +950,12 @@
     <t>Seattle Seahawks</t>
   </si>
   <si>
+    <t>Devin Duvernay</t>
+  </si>
+  <si>
     <t>Kyren Williams</t>
   </si>
   <si>
-    <t>Devin Duvernay</t>
-  </si>
-  <si>
     <t>Tyler Conklin</t>
   </si>
   <si>
@@ -992,12 +992,12 @@
     <t>Darius Slayton</t>
   </si>
   <si>
+    <t>O.J. Howard</t>
+  </si>
+  <si>
     <t>Drew Lock</t>
   </si>
   <si>
-    <t>O.J. Howard</t>
-  </si>
-  <si>
     <t>Jalen Reagor</t>
   </si>
   <si>
@@ -1010,15 +1010,15 @@
     <t>Giovani Bernard</t>
   </si>
   <si>
+    <t>Taysom Hill</t>
+  </si>
+  <si>
     <t>Dyami Brown</t>
   </si>
   <si>
     <t>Ty Johnson</t>
   </si>
   <si>
-    <t>Taysom Hill</t>
-  </si>
-  <si>
     <t>Harrison Bryant</t>
   </si>
   <si>
@@ -1028,12 +1028,12 @@
     <t>Tommy Tremble</t>
   </si>
   <si>
+    <t>Brett Maher</t>
+  </si>
+  <si>
     <t>Phillip Lindsay</t>
   </si>
   <si>
-    <t>Brett Maher</t>
-  </si>
-  <si>
     <t>Salvon Ahmed</t>
   </si>
   <si>
@@ -1064,12 +1064,12 @@
     <t>James Proche II</t>
   </si>
   <si>
+    <t>Danny Gray</t>
+  </si>
+  <si>
     <t>Darrynton Evans</t>
   </si>
   <si>
-    <t>Danny Gray</t>
-  </si>
-  <si>
     <t>Jalen Guyton</t>
   </si>
   <si>
@@ -1079,12 +1079,12 @@
     <t>Khalil Shakir</t>
   </si>
   <si>
+    <t>Foster Moreau</t>
+  </si>
+  <si>
     <t>Chase McLaughlin</t>
   </si>
   <si>
-    <t>Foster Moreau</t>
-  </si>
-  <si>
     <t>RB</t>
   </si>
   <si>
@@ -1106,76 +1106,76 @@
     <t>IND</t>
   </si>
   <si>
+    <t>SF</t>
+  </si>
+  <si>
+    <t>TEN</t>
+  </si>
+  <si>
+    <t>MIN</t>
+  </si>
+  <si>
+    <t>LAC</t>
+  </si>
+  <si>
+    <t>CIN</t>
+  </si>
+  <si>
+    <t>PIT</t>
+  </si>
+  <si>
+    <t>CLE</t>
+  </si>
+  <si>
+    <t>LAR</t>
+  </si>
+  <si>
+    <t>NO</t>
+  </si>
+  <si>
+    <t>NYG</t>
+  </si>
+  <si>
+    <t>KC</t>
+  </si>
+  <si>
+    <t>DET</t>
+  </si>
+  <si>
+    <t>BAL</t>
+  </si>
+  <si>
+    <t>BUF</t>
+  </si>
+  <si>
+    <t>LV</t>
+  </si>
+  <si>
+    <t>GB</t>
+  </si>
+  <si>
+    <t>DEN</t>
+  </si>
+  <si>
+    <t>DAL</t>
+  </si>
+  <si>
+    <t>TB</t>
+  </si>
+  <si>
+    <t>MIA</t>
+  </si>
+  <si>
+    <t>ATL</t>
+  </si>
+  <si>
+    <t>ARI</t>
+  </si>
+  <si>
+    <t>PHI</t>
+  </si>
+  <si>
     <t>CAR</t>
-  </si>
-  <si>
-    <t>TEN</t>
-  </si>
-  <si>
-    <t>MIN</t>
-  </si>
-  <si>
-    <t>LAC</t>
-  </si>
-  <si>
-    <t>CIN</t>
-  </si>
-  <si>
-    <t>PIT</t>
-  </si>
-  <si>
-    <t>CLE</t>
-  </si>
-  <si>
-    <t>LAR</t>
-  </si>
-  <si>
-    <t>NO</t>
-  </si>
-  <si>
-    <t>NYG</t>
-  </si>
-  <si>
-    <t>KC</t>
-  </si>
-  <si>
-    <t>DET</t>
-  </si>
-  <si>
-    <t>BAL</t>
-  </si>
-  <si>
-    <t>BUF</t>
-  </si>
-  <si>
-    <t>LV</t>
-  </si>
-  <si>
-    <t>GB</t>
-  </si>
-  <si>
-    <t>DEN</t>
-  </si>
-  <si>
-    <t>SF</t>
-  </si>
-  <si>
-    <t>DAL</t>
-  </si>
-  <si>
-    <t>TB</t>
-  </si>
-  <si>
-    <t>MIA</t>
-  </si>
-  <si>
-    <t>ATL</t>
-  </si>
-  <si>
-    <t>ARI</t>
-  </si>
-  <si>
-    <t>PHI</t>
   </si>
   <si>
     <t>WAS</t>
@@ -1880,7 +1880,7 @@
         <v>355</v>
       </c>
       <c r="D22" t="s">
-        <v>378</v>
+        <v>361</v>
       </c>
     </row>
     <row r="23" spans="1:4">
@@ -1894,7 +1894,7 @@
         <v>355</v>
       </c>
       <c r="D23" t="s">
-        <v>379</v>
+        <v>378</v>
       </c>
     </row>
     <row r="24" spans="1:4">
@@ -1908,7 +1908,7 @@
         <v>354</v>
       </c>
       <c r="D24" t="s">
-        <v>380</v>
+        <v>379</v>
       </c>
     </row>
     <row r="25" spans="1:4">
@@ -1922,7 +1922,7 @@
         <v>355</v>
       </c>
       <c r="D25" t="s">
-        <v>380</v>
+        <v>379</v>
       </c>
     </row>
     <row r="26" spans="1:4">
@@ -1936,7 +1936,7 @@
         <v>355</v>
       </c>
       <c r="D26" t="s">
-        <v>381</v>
+        <v>380</v>
       </c>
     </row>
     <row r="27" spans="1:4">
@@ -1950,7 +1950,7 @@
         <v>356</v>
       </c>
       <c r="D27" t="s">
-        <v>382</v>
+        <v>381</v>
       </c>
     </row>
     <row r="28" spans="1:4">
@@ -1964,7 +1964,7 @@
         <v>354</v>
       </c>
       <c r="D28" t="s">
-        <v>383</v>
+        <v>382</v>
       </c>
     </row>
     <row r="29" spans="1:4">
@@ -1978,7 +1978,7 @@
         <v>355</v>
       </c>
       <c r="D29" t="s">
-        <v>384</v>
+        <v>383</v>
       </c>
     </row>
     <row r="30" spans="1:4">
@@ -2006,7 +2006,7 @@
         <v>354</v>
       </c>
       <c r="D31" t="s">
-        <v>379</v>
+        <v>378</v>
       </c>
     </row>
     <row r="32" spans="1:4">
@@ -2062,7 +2062,7 @@
         <v>355</v>
       </c>
       <c r="D35" t="s">
-        <v>361</v>
+        <v>384</v>
       </c>
     </row>
     <row r="36" spans="1:4">
@@ -2129,10 +2129,10 @@
         <v>42</v>
       </c>
       <c r="C40" t="s">
-        <v>354</v>
+        <v>357</v>
       </c>
       <c r="D40" t="s">
-        <v>378</v>
+        <v>364</v>
       </c>
     </row>
     <row r="41" spans="1:4">
@@ -2143,10 +2143,10 @@
         <v>43</v>
       </c>
       <c r="C41" t="s">
-        <v>357</v>
+        <v>354</v>
       </c>
       <c r="D41" t="s">
-        <v>364</v>
+        <v>361</v>
       </c>
     </row>
     <row r="42" spans="1:4">
@@ -2216,7 +2216,7 @@
         <v>355</v>
       </c>
       <c r="D46" t="s">
-        <v>381</v>
+        <v>380</v>
       </c>
     </row>
     <row r="47" spans="1:4">
@@ -2272,7 +2272,7 @@
         <v>356</v>
       </c>
       <c r="D50" t="s">
-        <v>378</v>
+        <v>361</v>
       </c>
     </row>
     <row r="51" spans="1:4">
@@ -2356,7 +2356,7 @@
         <v>355</v>
       </c>
       <c r="D56" t="s">
-        <v>383</v>
+        <v>382</v>
       </c>
     </row>
     <row r="57" spans="1:4">
@@ -2426,7 +2426,7 @@
         <v>356</v>
       </c>
       <c r="D61" t="s">
-        <v>379</v>
+        <v>378</v>
       </c>
     </row>
     <row r="62" spans="1:4">
@@ -2440,7 +2440,7 @@
         <v>357</v>
       </c>
       <c r="D62" t="s">
-        <v>384</v>
+        <v>383</v>
       </c>
     </row>
     <row r="63" spans="1:4">
@@ -2468,7 +2468,7 @@
         <v>357</v>
       </c>
       <c r="D64" t="s">
-        <v>383</v>
+        <v>382</v>
       </c>
     </row>
     <row r="65" spans="1:4">
@@ -2479,10 +2479,10 @@
         <v>67</v>
       </c>
       <c r="C65" t="s">
-        <v>354</v>
+        <v>355</v>
       </c>
       <c r="D65" t="s">
-        <v>385</v>
+        <v>379</v>
       </c>
     </row>
     <row r="66" spans="1:4">
@@ -2493,10 +2493,10 @@
         <v>68</v>
       </c>
       <c r="C66" t="s">
-        <v>355</v>
+        <v>354</v>
       </c>
       <c r="D66" t="s">
-        <v>380</v>
+        <v>385</v>
       </c>
     </row>
     <row r="67" spans="1:4">
@@ -2594,7 +2594,7 @@
         <v>356</v>
       </c>
       <c r="D73" t="s">
-        <v>384</v>
+        <v>383</v>
       </c>
     </row>
     <row r="74" spans="1:4">
@@ -2678,7 +2678,7 @@
         <v>354</v>
       </c>
       <c r="D79" t="s">
-        <v>381</v>
+        <v>380</v>
       </c>
     </row>
     <row r="80" spans="1:4">
@@ -2692,7 +2692,7 @@
         <v>355</v>
       </c>
       <c r="D80" t="s">
-        <v>378</v>
+        <v>361</v>
       </c>
     </row>
     <row r="81" spans="1:4">
@@ -2720,7 +2720,7 @@
         <v>354</v>
       </c>
       <c r="D82" t="s">
-        <v>384</v>
+        <v>383</v>
       </c>
     </row>
     <row r="83" spans="1:4">
@@ -2748,7 +2748,7 @@
         <v>355</v>
       </c>
       <c r="D84" t="s">
-        <v>384</v>
+        <v>383</v>
       </c>
     </row>
     <row r="85" spans="1:4">
@@ -2776,7 +2776,7 @@
         <v>357</v>
       </c>
       <c r="D86" t="s">
-        <v>380</v>
+        <v>379</v>
       </c>
     </row>
     <row r="87" spans="1:4">
@@ -2846,7 +2846,7 @@
         <v>357</v>
       </c>
       <c r="D91" t="s">
-        <v>379</v>
+        <v>378</v>
       </c>
     </row>
     <row r="92" spans="1:4">
@@ -2874,7 +2874,7 @@
         <v>354</v>
       </c>
       <c r="D93" t="s">
-        <v>379</v>
+        <v>378</v>
       </c>
     </row>
     <row r="94" spans="1:4">
@@ -2902,7 +2902,7 @@
         <v>355</v>
       </c>
       <c r="D95" t="s">
-        <v>382</v>
+        <v>381</v>
       </c>
     </row>
     <row r="96" spans="1:4">
@@ -2930,7 +2930,7 @@
         <v>357</v>
       </c>
       <c r="D97" t="s">
-        <v>378</v>
+        <v>361</v>
       </c>
     </row>
     <row r="98" spans="1:4">
@@ -2941,10 +2941,10 @@
         <v>100</v>
       </c>
       <c r="C98" t="s">
-        <v>356</v>
+        <v>354</v>
       </c>
       <c r="D98" t="s">
-        <v>383</v>
+        <v>381</v>
       </c>
     </row>
     <row r="99" spans="1:4">
@@ -2955,7 +2955,7 @@
         <v>101</v>
       </c>
       <c r="C99" t="s">
-        <v>354</v>
+        <v>356</v>
       </c>
       <c r="D99" t="s">
         <v>382</v>
@@ -3014,7 +3014,7 @@
         <v>355</v>
       </c>
       <c r="D103" t="s">
-        <v>383</v>
+        <v>382</v>
       </c>
     </row>
     <row r="104" spans="1:4">
@@ -3207,10 +3207,10 @@
         <v>119</v>
       </c>
       <c r="C117" t="s">
-        <v>357</v>
+        <v>356</v>
       </c>
       <c r="D117" t="s">
-        <v>387</v>
+        <v>391</v>
       </c>
     </row>
     <row r="118" spans="1:4">
@@ -3221,10 +3221,10 @@
         <v>120</v>
       </c>
       <c r="C118" t="s">
-        <v>356</v>
+        <v>357</v>
       </c>
       <c r="D118" t="s">
-        <v>391</v>
+        <v>387</v>
       </c>
     </row>
     <row r="119" spans="1:4">
@@ -3238,7 +3238,7 @@
         <v>357</v>
       </c>
       <c r="D119" t="s">
-        <v>381</v>
+        <v>380</v>
       </c>
     </row>
     <row r="120" spans="1:4">
@@ -3266,7 +3266,7 @@
         <v>355</v>
       </c>
       <c r="D121" t="s">
-        <v>371</v>
+        <v>365</v>
       </c>
     </row>
     <row r="122" spans="1:4">
@@ -3280,7 +3280,7 @@
         <v>355</v>
       </c>
       <c r="D122" t="s">
-        <v>365</v>
+        <v>371</v>
       </c>
     </row>
     <row r="123" spans="1:4">
@@ -3350,7 +3350,7 @@
         <v>354</v>
       </c>
       <c r="D127" t="s">
-        <v>384</v>
+        <v>383</v>
       </c>
     </row>
     <row r="128" spans="1:4">
@@ -3406,7 +3406,7 @@
         <v>354</v>
       </c>
       <c r="D131" t="s">
-        <v>381</v>
+        <v>380</v>
       </c>
     </row>
     <row r="132" spans="1:4">
@@ -3434,7 +3434,7 @@
         <v>355</v>
       </c>
       <c r="D133" t="s">
-        <v>379</v>
+        <v>378</v>
       </c>
     </row>
     <row r="134" spans="1:4">
@@ -3462,7 +3462,7 @@
         <v>355</v>
       </c>
       <c r="D135" t="s">
-        <v>380</v>
+        <v>379</v>
       </c>
     </row>
     <row r="136" spans="1:4">
@@ -3504,7 +3504,7 @@
         <v>356</v>
       </c>
       <c r="D138" t="s">
-        <v>381</v>
+        <v>380</v>
       </c>
     </row>
     <row r="139" spans="1:4">
@@ -3588,7 +3588,7 @@
         <v>355</v>
       </c>
       <c r="D144" t="s">
-        <v>380</v>
+        <v>379</v>
       </c>
     </row>
     <row r="145" spans="1:4">
@@ -3602,7 +3602,7 @@
         <v>354</v>
       </c>
       <c r="D145" t="s">
-        <v>382</v>
+        <v>381</v>
       </c>
     </row>
     <row r="146" spans="1:4">
@@ -3630,7 +3630,7 @@
         <v>354</v>
       </c>
       <c r="D147" t="s">
-        <v>380</v>
+        <v>379</v>
       </c>
     </row>
     <row r="148" spans="1:4">
@@ -3756,7 +3756,7 @@
         <v>355</v>
       </c>
       <c r="D156" t="s">
-        <v>383</v>
+        <v>382</v>
       </c>
     </row>
     <row r="157" spans="1:4">
@@ -3770,7 +3770,7 @@
         <v>358</v>
       </c>
       <c r="D157" t="s">
-        <v>380</v>
+        <v>379</v>
       </c>
     </row>
     <row r="158" spans="1:4">
@@ -3840,7 +3840,7 @@
         <v>358</v>
       </c>
       <c r="D162" t="s">
-        <v>378</v>
+        <v>361</v>
       </c>
     </row>
     <row r="163" spans="1:4">
@@ -3921,10 +3921,10 @@
         <v>170</v>
       </c>
       <c r="C168" t="s">
-        <v>355</v>
+        <v>358</v>
       </c>
       <c r="D168" t="s">
-        <v>370</v>
+        <v>360</v>
       </c>
     </row>
     <row r="169" spans="1:4">
@@ -3935,10 +3935,10 @@
         <v>171</v>
       </c>
       <c r="C169" t="s">
-        <v>358</v>
+        <v>355</v>
       </c>
       <c r="D169" t="s">
-        <v>360</v>
+        <v>370</v>
       </c>
     </row>
     <row r="170" spans="1:4">
@@ -3966,7 +3966,7 @@
         <v>357</v>
       </c>
       <c r="D171" t="s">
-        <v>361</v>
+        <v>384</v>
       </c>
     </row>
     <row r="172" spans="1:4">
@@ -4176,7 +4176,7 @@
         <v>355</v>
       </c>
       <c r="D186" t="s">
-        <v>383</v>
+        <v>382</v>
       </c>
     </row>
     <row r="187" spans="1:4">
@@ -4204,7 +4204,7 @@
         <v>354</v>
       </c>
       <c r="D188" t="s">
-        <v>361</v>
+        <v>384</v>
       </c>
     </row>
     <row r="189" spans="1:4">
@@ -4285,10 +4285,10 @@
         <v>196</v>
       </c>
       <c r="C194" t="s">
-        <v>359</v>
+        <v>355</v>
       </c>
       <c r="D194" t="s">
-        <v>365</v>
+        <v>378</v>
       </c>
     </row>
     <row r="195" spans="1:4">
@@ -4299,10 +4299,10 @@
         <v>197</v>
       </c>
       <c r="C195" t="s">
-        <v>355</v>
+        <v>359</v>
       </c>
       <c r="D195" t="s">
-        <v>379</v>
+        <v>365</v>
       </c>
     </row>
     <row r="196" spans="1:4">
@@ -4344,7 +4344,7 @@
         <v>354</v>
       </c>
       <c r="D198" t="s">
-        <v>384</v>
+        <v>383</v>
       </c>
     </row>
     <row r="199" spans="1:4">
@@ -4358,7 +4358,7 @@
         <v>358</v>
       </c>
       <c r="D199" t="s">
-        <v>379</v>
+        <v>378</v>
       </c>
     </row>
     <row r="200" spans="1:4">
@@ -4372,7 +4372,7 @@
         <v>354</v>
       </c>
       <c r="D200" t="s">
-        <v>373</v>
+        <v>382</v>
       </c>
     </row>
     <row r="201" spans="1:4">
@@ -4386,7 +4386,7 @@
         <v>354</v>
       </c>
       <c r="D201" t="s">
-        <v>383</v>
+        <v>373</v>
       </c>
     </row>
     <row r="202" spans="1:4">
@@ -4411,10 +4411,10 @@
         <v>205</v>
       </c>
       <c r="C203" t="s">
-        <v>355</v>
+        <v>359</v>
       </c>
       <c r="D203" t="s">
-        <v>372</v>
+        <v>375</v>
       </c>
     </row>
     <row r="204" spans="1:4">
@@ -4425,10 +4425,10 @@
         <v>206</v>
       </c>
       <c r="C204" t="s">
-        <v>359</v>
+        <v>355</v>
       </c>
       <c r="D204" t="s">
-        <v>375</v>
+        <v>372</v>
       </c>
     </row>
     <row r="205" spans="1:4">
@@ -4439,10 +4439,10 @@
         <v>207</v>
       </c>
       <c r="C205" t="s">
-        <v>354</v>
+        <v>358</v>
       </c>
       <c r="D205" t="s">
-        <v>378</v>
+        <v>376</v>
       </c>
     </row>
     <row r="206" spans="1:4">
@@ -4453,10 +4453,10 @@
         <v>208</v>
       </c>
       <c r="C206" t="s">
-        <v>358</v>
+        <v>354</v>
       </c>
       <c r="D206" t="s">
-        <v>376</v>
+        <v>361</v>
       </c>
     </row>
     <row r="207" spans="1:4">
@@ -4526,7 +4526,7 @@
         <v>358</v>
       </c>
       <c r="D211" t="s">
-        <v>381</v>
+        <v>380</v>
       </c>
     </row>
     <row r="212" spans="1:4">
@@ -4596,7 +4596,7 @@
         <v>357</v>
       </c>
       <c r="D216" t="s">
-        <v>382</v>
+        <v>381</v>
       </c>
     </row>
     <row r="217" spans="1:4">
@@ -4638,7 +4638,7 @@
         <v>359</v>
       </c>
       <c r="D219" t="s">
-        <v>380</v>
+        <v>379</v>
       </c>
     </row>
     <row r="220" spans="1:4">
@@ -4694,7 +4694,7 @@
         <v>358</v>
       </c>
       <c r="D223" t="s">
-        <v>384</v>
+        <v>383</v>
       </c>
     </row>
     <row r="224" spans="1:4">
@@ -4736,7 +4736,7 @@
         <v>354</v>
       </c>
       <c r="D226" t="s">
-        <v>378</v>
+        <v>361</v>
       </c>
     </row>
     <row r="227" spans="1:4">
@@ -4750,7 +4750,7 @@
         <v>359</v>
       </c>
       <c r="D227" t="s">
-        <v>383</v>
+        <v>382</v>
       </c>
     </row>
     <row r="228" spans="1:4">
@@ -4778,7 +4778,7 @@
         <v>354</v>
       </c>
       <c r="D229" t="s">
-        <v>382</v>
+        <v>381</v>
       </c>
     </row>
     <row r="230" spans="1:4">
@@ -4820,7 +4820,7 @@
         <v>359</v>
       </c>
       <c r="D232" t="s">
-        <v>383</v>
+        <v>382</v>
       </c>
     </row>
     <row r="233" spans="1:4">
@@ -4845,10 +4845,10 @@
         <v>236</v>
       </c>
       <c r="C234" t="s">
-        <v>359</v>
+        <v>355</v>
       </c>
       <c r="D234" t="s">
-        <v>377</v>
+        <v>382</v>
       </c>
     </row>
     <row r="235" spans="1:4">
@@ -4859,10 +4859,10 @@
         <v>237</v>
       </c>
       <c r="C235" t="s">
-        <v>355</v>
+        <v>354</v>
       </c>
       <c r="D235" t="s">
-        <v>383</v>
+        <v>373</v>
       </c>
     </row>
     <row r="236" spans="1:4">
@@ -4873,10 +4873,10 @@
         <v>238</v>
       </c>
       <c r="C236" t="s">
-        <v>355</v>
+        <v>359</v>
       </c>
       <c r="D236" t="s">
-        <v>367</v>
+        <v>377</v>
       </c>
     </row>
     <row r="237" spans="1:4">
@@ -4887,10 +4887,10 @@
         <v>239</v>
       </c>
       <c r="C237" t="s">
-        <v>354</v>
+        <v>355</v>
       </c>
       <c r="D237" t="s">
-        <v>373</v>
+        <v>367</v>
       </c>
     </row>
     <row r="238" spans="1:4">
@@ -4904,7 +4904,7 @@
         <v>354</v>
       </c>
       <c r="D238" t="s">
-        <v>383</v>
+        <v>382</v>
       </c>
     </row>
     <row r="239" spans="1:4">
@@ -4960,7 +4960,7 @@
         <v>359</v>
       </c>
       <c r="D242" t="s">
-        <v>381</v>
+        <v>380</v>
       </c>
     </row>
     <row r="243" spans="1:4">
@@ -4985,10 +4985,10 @@
         <v>246</v>
       </c>
       <c r="C244" t="s">
-        <v>356</v>
+        <v>355</v>
       </c>
       <c r="D244" t="s">
-        <v>391</v>
+        <v>386</v>
       </c>
     </row>
     <row r="245" spans="1:4">
@@ -4999,10 +4999,10 @@
         <v>247</v>
       </c>
       <c r="C245" t="s">
-        <v>355</v>
+        <v>356</v>
       </c>
       <c r="D245" t="s">
-        <v>386</v>
+        <v>391</v>
       </c>
     </row>
     <row r="246" spans="1:4">
@@ -5030,7 +5030,7 @@
         <v>359</v>
       </c>
       <c r="D247" t="s">
-        <v>382</v>
+        <v>381</v>
       </c>
     </row>
     <row r="248" spans="1:4">
@@ -5044,7 +5044,7 @@
         <v>354</v>
       </c>
       <c r="D248" t="s">
-        <v>361</v>
+        <v>384</v>
       </c>
     </row>
     <row r="249" spans="1:4">
@@ -5100,7 +5100,7 @@
         <v>358</v>
       </c>
       <c r="D252" t="s">
-        <v>383</v>
+        <v>382</v>
       </c>
     </row>
     <row r="253" spans="1:4">
@@ -5114,7 +5114,7 @@
         <v>359</v>
       </c>
       <c r="D253" t="s">
-        <v>378</v>
+        <v>361</v>
       </c>
     </row>
     <row r="254" spans="1:4">
@@ -5142,7 +5142,7 @@
         <v>359</v>
       </c>
       <c r="D255" t="s">
-        <v>384</v>
+        <v>383</v>
       </c>
     </row>
     <row r="256" spans="1:4">
@@ -5184,7 +5184,7 @@
         <v>356</v>
       </c>
       <c r="D258" t="s">
-        <v>380</v>
+        <v>379</v>
       </c>
     </row>
     <row r="259" spans="1:4">
@@ -5209,10 +5209,10 @@
         <v>262</v>
       </c>
       <c r="C260" t="s">
-        <v>355</v>
+        <v>356</v>
       </c>
       <c r="D260" t="s">
-        <v>387</v>
+        <v>369</v>
       </c>
     </row>
     <row r="261" spans="1:4">
@@ -5223,7 +5223,7 @@
         <v>263</v>
       </c>
       <c r="C261" t="s">
-        <v>356</v>
+        <v>359</v>
       </c>
       <c r="D261" t="s">
         <v>369</v>
@@ -5237,10 +5237,10 @@
         <v>264</v>
       </c>
       <c r="C262" t="s">
-        <v>359</v>
+        <v>355</v>
       </c>
       <c r="D262" t="s">
-        <v>369</v>
+        <v>387</v>
       </c>
     </row>
     <row r="263" spans="1:4">
@@ -5254,7 +5254,7 @@
         <v>355</v>
       </c>
       <c r="D263" t="s">
-        <v>361</v>
+        <v>384</v>
       </c>
     </row>
     <row r="264" spans="1:4">
@@ -5282,7 +5282,7 @@
         <v>358</v>
       </c>
       <c r="D265" t="s">
-        <v>361</v>
+        <v>384</v>
       </c>
     </row>
     <row r="266" spans="1:4">
@@ -5296,7 +5296,7 @@
         <v>355</v>
       </c>
       <c r="D266" t="s">
-        <v>382</v>
+        <v>381</v>
       </c>
     </row>
     <row r="267" spans="1:4">
@@ -5324,7 +5324,7 @@
         <v>355</v>
       </c>
       <c r="D268" t="s">
-        <v>361</v>
+        <v>384</v>
       </c>
     </row>
     <row r="269" spans="1:4">
@@ -5394,7 +5394,7 @@
         <v>355</v>
       </c>
       <c r="D273" t="s">
-        <v>381</v>
+        <v>380</v>
       </c>
     </row>
     <row r="274" spans="1:4">
@@ -5506,7 +5506,7 @@
         <v>354</v>
       </c>
       <c r="D281" t="s">
-        <v>381</v>
+        <v>380</v>
       </c>
     </row>
     <row r="282" spans="1:4">
@@ -5520,7 +5520,7 @@
         <v>354</v>
       </c>
       <c r="D282" t="s">
-        <v>384</v>
+        <v>383</v>
       </c>
     </row>
     <row r="283" spans="1:4">
@@ -5573,10 +5573,10 @@
         <v>288</v>
       </c>
       <c r="C286" t="s">
-        <v>357</v>
+        <v>355</v>
       </c>
       <c r="D286" t="s">
-        <v>389</v>
+        <v>362</v>
       </c>
     </row>
     <row r="287" spans="1:4">
@@ -5587,10 +5587,10 @@
         <v>289</v>
       </c>
       <c r="C287" t="s">
-        <v>355</v>
+        <v>357</v>
       </c>
       <c r="D287" t="s">
-        <v>362</v>
+        <v>389</v>
       </c>
     </row>
     <row r="288" spans="1:4">
@@ -5660,7 +5660,7 @@
         <v>356</v>
       </c>
       <c r="D292" t="s">
-        <v>383</v>
+        <v>382</v>
       </c>
     </row>
     <row r="293" spans="1:4">
@@ -5730,7 +5730,7 @@
         <v>356</v>
       </c>
       <c r="D297" t="s">
-        <v>380</v>
+        <v>379</v>
       </c>
     </row>
     <row r="298" spans="1:4">
@@ -5741,10 +5741,10 @@
         <v>300</v>
       </c>
       <c r="C298" t="s">
-        <v>359</v>
+        <v>354</v>
       </c>
       <c r="D298" t="s">
-        <v>387</v>
+        <v>379</v>
       </c>
     </row>
     <row r="299" spans="1:4">
@@ -5755,10 +5755,10 @@
         <v>301</v>
       </c>
       <c r="C299" t="s">
-        <v>354</v>
+        <v>359</v>
       </c>
       <c r="D299" t="s">
-        <v>380</v>
+        <v>387</v>
       </c>
     </row>
     <row r="300" spans="1:4">
@@ -5786,7 +5786,7 @@
         <v>355</v>
       </c>
       <c r="D301" t="s">
-        <v>384</v>
+        <v>383</v>
       </c>
     </row>
     <row r="302" spans="1:4">
@@ -5797,10 +5797,10 @@
         <v>304</v>
       </c>
       <c r="C302" t="s">
-        <v>358</v>
+        <v>354</v>
       </c>
       <c r="D302" t="s">
-        <v>388</v>
+        <v>366</v>
       </c>
     </row>
     <row r="303" spans="1:4">
@@ -5811,10 +5811,10 @@
         <v>305</v>
       </c>
       <c r="C303" t="s">
-        <v>354</v>
+        <v>358</v>
       </c>
       <c r="D303" t="s">
-        <v>366</v>
+        <v>388</v>
       </c>
     </row>
     <row r="304" spans="1:4">
@@ -5867,10 +5867,10 @@
         <v>309</v>
       </c>
       <c r="C307" t="s">
-        <v>354</v>
+        <v>355</v>
       </c>
       <c r="D307" t="s">
-        <v>368</v>
+        <v>373</v>
       </c>
     </row>
     <row r="308" spans="1:4">
@@ -5881,10 +5881,10 @@
         <v>310</v>
       </c>
       <c r="C308" t="s">
-        <v>355</v>
+        <v>354</v>
       </c>
       <c r="D308" t="s">
-        <v>373</v>
+        <v>368</v>
       </c>
     </row>
     <row r="309" spans="1:4">
@@ -5954,7 +5954,7 @@
         <v>354</v>
       </c>
       <c r="D313" t="s">
-        <v>378</v>
+        <v>361</v>
       </c>
     </row>
     <row r="314" spans="1:4">
@@ -6063,10 +6063,10 @@
         <v>323</v>
       </c>
       <c r="C321" t="s">
-        <v>357</v>
+        <v>356</v>
       </c>
       <c r="D321" t="s">
-        <v>389</v>
+        <v>390</v>
       </c>
     </row>
     <row r="322" spans="1:4">
@@ -6077,10 +6077,10 @@
         <v>324</v>
       </c>
       <c r="C322" t="s">
-        <v>356</v>
+        <v>357</v>
       </c>
       <c r="D322" t="s">
-        <v>390</v>
+        <v>389</v>
       </c>
     </row>
     <row r="323" spans="1:4">
@@ -6122,7 +6122,7 @@
         <v>357</v>
       </c>
       <c r="D325" t="s">
-        <v>378</v>
+        <v>361</v>
       </c>
     </row>
     <row r="326" spans="1:4">
@@ -6136,7 +6136,7 @@
         <v>354</v>
       </c>
       <c r="D326" t="s">
-        <v>380</v>
+        <v>379</v>
       </c>
     </row>
     <row r="327" spans="1:4">
@@ -6147,10 +6147,10 @@
         <v>329</v>
       </c>
       <c r="C327" t="s">
-        <v>355</v>
+        <v>356</v>
       </c>
       <c r="D327" t="s">
-        <v>385</v>
+        <v>369</v>
       </c>
     </row>
     <row r="328" spans="1:4">
@@ -6161,10 +6161,10 @@
         <v>330</v>
       </c>
       <c r="C328" t="s">
-        <v>354</v>
+        <v>355</v>
       </c>
       <c r="D328" t="s">
-        <v>388</v>
+        <v>385</v>
       </c>
     </row>
     <row r="329" spans="1:4">
@@ -6175,10 +6175,10 @@
         <v>331</v>
       </c>
       <c r="C329" t="s">
-        <v>356</v>
+        <v>354</v>
       </c>
       <c r="D329" t="s">
-        <v>369</v>
+        <v>388</v>
       </c>
     </row>
     <row r="330" spans="1:4">
@@ -6220,7 +6220,7 @@
         <v>356</v>
       </c>
       <c r="D332" t="s">
-        <v>361</v>
+        <v>384</v>
       </c>
     </row>
     <row r="333" spans="1:4">
@@ -6231,10 +6231,10 @@
         <v>335</v>
       </c>
       <c r="C333" t="s">
-        <v>354</v>
+        <v>359</v>
       </c>
       <c r="D333" t="s">
-        <v>360</v>
+        <v>378</v>
       </c>
     </row>
     <row r="334" spans="1:4">
@@ -6245,10 +6245,10 @@
         <v>336</v>
       </c>
       <c r="C334" t="s">
-        <v>359</v>
+        <v>354</v>
       </c>
       <c r="D334" t="s">
-        <v>379</v>
+        <v>360</v>
       </c>
     </row>
     <row r="335" spans="1:4">
@@ -6262,7 +6262,7 @@
         <v>354</v>
       </c>
       <c r="D335" t="s">
-        <v>381</v>
+        <v>380</v>
       </c>
     </row>
     <row r="336" spans="1:4">
@@ -6360,7 +6360,7 @@
         <v>357</v>
       </c>
       <c r="D342" t="s">
-        <v>382</v>
+        <v>381</v>
       </c>
     </row>
     <row r="343" spans="1:4">
@@ -6399,10 +6399,10 @@
         <v>347</v>
       </c>
       <c r="C345" t="s">
-        <v>354</v>
+        <v>355</v>
       </c>
       <c r="D345" t="s">
-        <v>387</v>
+        <v>361</v>
       </c>
     </row>
     <row r="346" spans="1:4">
@@ -6413,10 +6413,10 @@
         <v>348</v>
       </c>
       <c r="C346" t="s">
-        <v>355</v>
+        <v>354</v>
       </c>
       <c r="D346" t="s">
-        <v>378</v>
+        <v>387</v>
       </c>
     </row>
     <row r="347" spans="1:4">
@@ -6444,7 +6444,7 @@
         <v>355</v>
       </c>
       <c r="D348" t="s">
-        <v>382</v>
+        <v>381</v>
       </c>
     </row>
     <row r="349" spans="1:4">
@@ -6469,10 +6469,10 @@
         <v>352</v>
       </c>
       <c r="C350" t="s">
-        <v>359</v>
+        <v>356</v>
       </c>
       <c r="D350" t="s">
-        <v>360</v>
+        <v>375</v>
       </c>
     </row>
     <row r="351" spans="1:4">
@@ -6483,10 +6483,10 @@
         <v>353</v>
       </c>
       <c r="C351" t="s">
-        <v>356</v>
+        <v>359</v>
       </c>
       <c r="D351" t="s">
-        <v>375</v>
+        <v>360</v>
       </c>
     </row>
   </sheetData>
@@ -6755,7 +6755,7 @@
         <v>355</v>
       </c>
       <c r="D18" t="s">
-        <v>379</v>
+        <v>378</v>
       </c>
     </row>
     <row r="19" spans="1:4">
@@ -6797,7 +6797,7 @@
         <v>354</v>
       </c>
       <c r="D21" t="s">
-        <v>380</v>
+        <v>379</v>
       </c>
     </row>
     <row r="22" spans="1:4">
@@ -6839,7 +6839,7 @@
         <v>355</v>
       </c>
       <c r="D24" t="s">
-        <v>378</v>
+        <v>361</v>
       </c>
     </row>
     <row r="25" spans="1:4">
@@ -6853,7 +6853,7 @@
         <v>355</v>
       </c>
       <c r="D25" t="s">
-        <v>380</v>
+        <v>379</v>
       </c>
     </row>
     <row r="26" spans="1:4">
@@ -6867,7 +6867,7 @@
         <v>355</v>
       </c>
       <c r="D26" t="s">
-        <v>381</v>
+        <v>380</v>
       </c>
     </row>
     <row r="27" spans="1:4">
@@ -6881,7 +6881,7 @@
         <v>355</v>
       </c>
       <c r="D27" t="s">
-        <v>384</v>
+        <v>383</v>
       </c>
     </row>
     <row r="28" spans="1:4">
@@ -6923,7 +6923,7 @@
         <v>354</v>
       </c>
       <c r="D30" t="s">
-        <v>383</v>
+        <v>382</v>
       </c>
     </row>
     <row r="31" spans="1:4">
@@ -6951,7 +6951,7 @@
         <v>354</v>
       </c>
       <c r="D32" t="s">
-        <v>379</v>
+        <v>378</v>
       </c>
     </row>
     <row r="33" spans="1:4">
@@ -6965,7 +6965,7 @@
         <v>356</v>
       </c>
       <c r="D33" t="s">
-        <v>382</v>
+        <v>381</v>
       </c>
     </row>
     <row r="34" spans="1:4">
@@ -6979,7 +6979,7 @@
         <v>355</v>
       </c>
       <c r="D34" t="s">
-        <v>361</v>
+        <v>384</v>
       </c>
     </row>
     <row r="35" spans="1:4">
@@ -7071,7 +7071,7 @@
         <v>40</v>
       </c>
       <c r="B41" t="s">
-        <v>43</v>
+        <v>42</v>
       </c>
       <c r="C41" t="s">
         <v>357</v>
@@ -7119,7 +7119,7 @@
         <v>355</v>
       </c>
       <c r="D44" t="s">
-        <v>381</v>
+        <v>380</v>
       </c>
     </row>
     <row r="45" spans="1:4">
@@ -7141,13 +7141,13 @@
         <v>45</v>
       </c>
       <c r="B46" t="s">
-        <v>42</v>
+        <v>43</v>
       </c>
       <c r="C46" t="s">
         <v>354</v>
       </c>
       <c r="D46" t="s">
-        <v>378</v>
+        <v>361</v>
       </c>
     </row>
     <row r="47" spans="1:4">
@@ -7245,7 +7245,7 @@
         <v>356</v>
       </c>
       <c r="D53" t="s">
-        <v>378</v>
+        <v>361</v>
       </c>
     </row>
     <row r="54" spans="1:4">
@@ -7253,13 +7253,13 @@
         <v>53</v>
       </c>
       <c r="B54" t="s">
-        <v>58</v>
+        <v>55</v>
       </c>
       <c r="C54" t="s">
-        <v>355</v>
+        <v>356</v>
       </c>
       <c r="D54" t="s">
-        <v>383</v>
+        <v>375</v>
       </c>
     </row>
     <row r="55" spans="1:4">
@@ -7267,13 +7267,13 @@
         <v>54</v>
       </c>
       <c r="B55" t="s">
-        <v>55</v>
+        <v>58</v>
       </c>
       <c r="C55" t="s">
-        <v>356</v>
+        <v>355</v>
       </c>
       <c r="D55" t="s">
-        <v>375</v>
+        <v>382</v>
       </c>
     </row>
     <row r="56" spans="1:4">
@@ -7301,7 +7301,7 @@
         <v>354</v>
       </c>
       <c r="D57" t="s">
-        <v>381</v>
+        <v>380</v>
       </c>
     </row>
     <row r="58" spans="1:4">
@@ -7365,7 +7365,7 @@
         <v>61</v>
       </c>
       <c r="B62" t="s">
-        <v>67</v>
+        <v>68</v>
       </c>
       <c r="C62" t="s">
         <v>354</v>
@@ -7385,7 +7385,7 @@
         <v>357</v>
       </c>
       <c r="D63" t="s">
-        <v>384</v>
+        <v>383</v>
       </c>
     </row>
     <row r="64" spans="1:4">
@@ -7413,7 +7413,7 @@
         <v>357</v>
       </c>
       <c r="D65" t="s">
-        <v>383</v>
+        <v>382</v>
       </c>
     </row>
     <row r="66" spans="1:4">
@@ -7455,7 +7455,7 @@
         <v>356</v>
       </c>
       <c r="D68" t="s">
-        <v>379</v>
+        <v>378</v>
       </c>
     </row>
     <row r="69" spans="1:4">
@@ -7463,13 +7463,13 @@
         <v>68</v>
       </c>
       <c r="B69" t="s">
-        <v>68</v>
+        <v>67</v>
       </c>
       <c r="C69" t="s">
         <v>355</v>
       </c>
       <c r="D69" t="s">
-        <v>380</v>
+        <v>379</v>
       </c>
     </row>
     <row r="70" spans="1:4">
@@ -7595,7 +7595,7 @@
         <v>356</v>
       </c>
       <c r="D78" t="s">
-        <v>384</v>
+        <v>383</v>
       </c>
     </row>
     <row r="79" spans="1:4">
@@ -7637,7 +7637,7 @@
         <v>354</v>
       </c>
       <c r="D81" t="s">
-        <v>379</v>
+        <v>378</v>
       </c>
     </row>
     <row r="82" spans="1:4">
@@ -7665,7 +7665,7 @@
         <v>354</v>
       </c>
       <c r="D83" t="s">
-        <v>384</v>
+        <v>383</v>
       </c>
     </row>
     <row r="84" spans="1:4">
@@ -7707,7 +7707,7 @@
         <v>357</v>
       </c>
       <c r="D86" t="s">
-        <v>380</v>
+        <v>379</v>
       </c>
     </row>
     <row r="87" spans="1:4">
@@ -7721,7 +7721,7 @@
         <v>355</v>
       </c>
       <c r="D87" t="s">
-        <v>378</v>
+        <v>361</v>
       </c>
     </row>
     <row r="88" spans="1:4">
@@ -7729,13 +7729,13 @@
         <v>87</v>
       </c>
       <c r="B88" t="s">
-        <v>94</v>
+        <v>100</v>
       </c>
       <c r="C88" t="s">
         <v>354</v>
       </c>
       <c r="D88" t="s">
-        <v>374</v>
+        <v>381</v>
       </c>
     </row>
     <row r="89" spans="1:4">
@@ -7743,13 +7743,13 @@
         <v>88</v>
       </c>
       <c r="B89" t="s">
-        <v>101</v>
+        <v>94</v>
       </c>
       <c r="C89" t="s">
         <v>354</v>
       </c>
       <c r="D89" t="s">
-        <v>382</v>
+        <v>374</v>
       </c>
     </row>
     <row r="90" spans="1:4">
@@ -7763,7 +7763,7 @@
         <v>357</v>
       </c>
       <c r="D90" t="s">
-        <v>379</v>
+        <v>378</v>
       </c>
     </row>
     <row r="91" spans="1:4">
@@ -7777,7 +7777,7 @@
         <v>355</v>
       </c>
       <c r="D91" t="s">
-        <v>384</v>
+        <v>383</v>
       </c>
     </row>
     <row r="92" spans="1:4">
@@ -7813,13 +7813,13 @@
         <v>93</v>
       </c>
       <c r="B94" t="s">
-        <v>97</v>
+        <v>98</v>
       </c>
       <c r="C94" t="s">
         <v>355</v>
       </c>
       <c r="D94" t="s">
-        <v>382</v>
+        <v>375</v>
       </c>
     </row>
     <row r="95" spans="1:4">
@@ -7827,13 +7827,13 @@
         <v>94</v>
       </c>
       <c r="B95" t="s">
-        <v>98</v>
+        <v>97</v>
       </c>
       <c r="C95" t="s">
         <v>355</v>
       </c>
       <c r="D95" t="s">
-        <v>375</v>
+        <v>381</v>
       </c>
     </row>
     <row r="96" spans="1:4">
@@ -7861,7 +7861,7 @@
         <v>357</v>
       </c>
       <c r="D97" t="s">
-        <v>378</v>
+        <v>361</v>
       </c>
     </row>
     <row r="98" spans="1:4">
@@ -7869,13 +7869,13 @@
         <v>97</v>
       </c>
       <c r="B98" t="s">
-        <v>100</v>
+        <v>101</v>
       </c>
       <c r="C98" t="s">
         <v>356</v>
       </c>
       <c r="D98" t="s">
-        <v>383</v>
+        <v>382</v>
       </c>
     </row>
     <row r="99" spans="1:4">
@@ -7911,13 +7911,13 @@
         <v>100</v>
       </c>
       <c r="B101" t="s">
-        <v>92</v>
+        <v>106</v>
       </c>
       <c r="C101" t="s">
-        <v>356</v>
+        <v>357</v>
       </c>
       <c r="D101" t="s">
-        <v>374</v>
+        <v>376</v>
       </c>
     </row>
     <row r="102" spans="1:4">
@@ -7925,13 +7925,13 @@
         <v>101</v>
       </c>
       <c r="B102" t="s">
-        <v>106</v>
+        <v>92</v>
       </c>
       <c r="C102" t="s">
-        <v>357</v>
+        <v>356</v>
       </c>
       <c r="D102" t="s">
-        <v>376</v>
+        <v>374</v>
       </c>
     </row>
     <row r="103" spans="1:4">
@@ -8029,7 +8029,7 @@
         <v>355</v>
       </c>
       <c r="D109" t="s">
-        <v>383</v>
+        <v>382</v>
       </c>
     </row>
     <row r="110" spans="1:4">
@@ -8065,13 +8065,13 @@
         <v>111</v>
       </c>
       <c r="B112" t="s">
-        <v>111</v>
+        <v>117</v>
       </c>
       <c r="C112" t="s">
-        <v>357</v>
+        <v>356</v>
       </c>
       <c r="D112" t="s">
-        <v>375</v>
+        <v>366</v>
       </c>
     </row>
     <row r="113" spans="1:4">
@@ -8079,13 +8079,13 @@
         <v>112</v>
       </c>
       <c r="B113" t="s">
-        <v>117</v>
+        <v>111</v>
       </c>
       <c r="C113" t="s">
-        <v>356</v>
+        <v>357</v>
       </c>
       <c r="D113" t="s">
-        <v>366</v>
+        <v>375</v>
       </c>
     </row>
     <row r="114" spans="1:4">
@@ -8163,7 +8163,7 @@
         <v>118</v>
       </c>
       <c r="B119" t="s">
-        <v>124</v>
+        <v>123</v>
       </c>
       <c r="C119" t="s">
         <v>355</v>
@@ -8183,7 +8183,7 @@
         <v>354</v>
       </c>
       <c r="D120" t="s">
-        <v>384</v>
+        <v>383</v>
       </c>
     </row>
     <row r="121" spans="1:4">
@@ -8253,7 +8253,7 @@
         <v>357</v>
       </c>
       <c r="D125" t="s">
-        <v>381</v>
+        <v>380</v>
       </c>
     </row>
     <row r="126" spans="1:4">
@@ -8275,7 +8275,7 @@
         <v>126</v>
       </c>
       <c r="B127" t="s">
-        <v>123</v>
+        <v>124</v>
       </c>
       <c r="C127" t="s">
         <v>355</v>
@@ -8303,7 +8303,7 @@
         <v>128</v>
       </c>
       <c r="B129" t="s">
-        <v>120</v>
+        <v>119</v>
       </c>
       <c r="C129" t="s">
         <v>356</v>
@@ -8317,7 +8317,7 @@
         <v>129</v>
       </c>
       <c r="B130" t="s">
-        <v>119</v>
+        <v>120</v>
       </c>
       <c r="C130" t="s">
         <v>357</v>
@@ -8337,7 +8337,7 @@
         <v>355</v>
       </c>
       <c r="D131" t="s">
-        <v>380</v>
+        <v>379</v>
       </c>
     </row>
     <row r="132" spans="1:4">
@@ -8365,7 +8365,7 @@
         <v>354</v>
       </c>
       <c r="D133" t="s">
-        <v>381</v>
+        <v>380</v>
       </c>
     </row>
     <row r="134" spans="1:4">
@@ -8407,7 +8407,7 @@
         <v>355</v>
       </c>
       <c r="D136" t="s">
-        <v>379</v>
+        <v>378</v>
       </c>
     </row>
     <row r="137" spans="1:4">
@@ -8443,13 +8443,13 @@
         <v>138</v>
       </c>
       <c r="B139" t="s">
-        <v>154</v>
+        <v>144</v>
       </c>
       <c r="C139" t="s">
         <v>355</v>
       </c>
       <c r="D139" t="s">
-        <v>385</v>
+        <v>391</v>
       </c>
     </row>
     <row r="140" spans="1:4">
@@ -8457,13 +8457,13 @@
         <v>139</v>
       </c>
       <c r="B140" t="s">
-        <v>144</v>
+        <v>154</v>
       </c>
       <c r="C140" t="s">
         <v>355</v>
       </c>
       <c r="D140" t="s">
-        <v>391</v>
+        <v>385</v>
       </c>
     </row>
     <row r="141" spans="1:4">
@@ -8491,7 +8491,7 @@
         <v>355</v>
       </c>
       <c r="D142" t="s">
-        <v>380</v>
+        <v>379</v>
       </c>
     </row>
     <row r="143" spans="1:4">
@@ -8505,7 +8505,7 @@
         <v>355</v>
       </c>
       <c r="D143" t="s">
-        <v>383</v>
+        <v>382</v>
       </c>
     </row>
     <row r="144" spans="1:4">
@@ -8513,13 +8513,13 @@
         <v>143</v>
       </c>
       <c r="B144" t="s">
-        <v>140</v>
+        <v>156</v>
       </c>
       <c r="C144" t="s">
-        <v>356</v>
+        <v>355</v>
       </c>
       <c r="D144" t="s">
-        <v>381</v>
+        <v>369</v>
       </c>
     </row>
     <row r="145" spans="1:4">
@@ -8527,13 +8527,13 @@
         <v>144</v>
       </c>
       <c r="B145" t="s">
-        <v>156</v>
+        <v>140</v>
       </c>
       <c r="C145" t="s">
-        <v>355</v>
+        <v>356</v>
       </c>
       <c r="D145" t="s">
-        <v>369</v>
+        <v>380</v>
       </c>
     </row>
     <row r="146" spans="1:4">
@@ -8547,7 +8547,7 @@
         <v>354</v>
       </c>
       <c r="D146" t="s">
-        <v>382</v>
+        <v>381</v>
       </c>
     </row>
     <row r="147" spans="1:4">
@@ -8569,13 +8569,13 @@
         <v>147</v>
       </c>
       <c r="B148" t="s">
-        <v>148</v>
+        <v>136</v>
       </c>
       <c r="C148" t="s">
-        <v>356</v>
+        <v>357</v>
       </c>
       <c r="D148" t="s">
-        <v>364</v>
+        <v>369</v>
       </c>
     </row>
     <row r="149" spans="1:4">
@@ -8583,13 +8583,13 @@
         <v>148</v>
       </c>
       <c r="B149" t="s">
-        <v>136</v>
+        <v>148</v>
       </c>
       <c r="C149" t="s">
-        <v>357</v>
+        <v>356</v>
       </c>
       <c r="D149" t="s">
-        <v>369</v>
+        <v>364</v>
       </c>
     </row>
     <row r="150" spans="1:4">
@@ -8603,7 +8603,7 @@
         <v>354</v>
       </c>
       <c r="D150" t="s">
-        <v>380</v>
+        <v>379</v>
       </c>
     </row>
     <row r="151" spans="1:4">
@@ -8737,7 +8737,7 @@
         <v>159</v>
       </c>
       <c r="B160" t="s">
-        <v>170</v>
+        <v>171</v>
       </c>
       <c r="C160" t="s">
         <v>355</v>
@@ -8841,7 +8841,7 @@
         <v>355</v>
       </c>
       <c r="D167" t="s">
-        <v>383</v>
+        <v>382</v>
       </c>
     </row>
     <row r="168" spans="1:4">
@@ -8855,7 +8855,7 @@
         <v>358</v>
       </c>
       <c r="D168" t="s">
-        <v>380</v>
+        <v>379</v>
       </c>
     </row>
     <row r="169" spans="1:4">
@@ -8883,7 +8883,7 @@
         <v>358</v>
       </c>
       <c r="D170" t="s">
-        <v>378</v>
+        <v>361</v>
       </c>
     </row>
     <row r="171" spans="1:4">
@@ -8989,7 +8989,7 @@
         <v>177</v>
       </c>
       <c r="B178" t="s">
-        <v>171</v>
+        <v>170</v>
       </c>
       <c r="C178" t="s">
         <v>358</v>
@@ -9003,13 +9003,13 @@
         <v>178</v>
       </c>
       <c r="B179" t="s">
-        <v>180</v>
+        <v>176</v>
       </c>
       <c r="C179" t="s">
-        <v>354</v>
+        <v>358</v>
       </c>
       <c r="D179" t="s">
-        <v>385</v>
+        <v>369</v>
       </c>
     </row>
     <row r="180" spans="1:4">
@@ -9017,13 +9017,13 @@
         <v>179</v>
       </c>
       <c r="B180" t="s">
-        <v>176</v>
+        <v>180</v>
       </c>
       <c r="C180" t="s">
-        <v>358</v>
+        <v>354</v>
       </c>
       <c r="D180" t="s">
-        <v>369</v>
+        <v>385</v>
       </c>
     </row>
     <row r="181" spans="1:4">
@@ -9031,13 +9031,13 @@
         <v>180</v>
       </c>
       <c r="B181" t="s">
-        <v>168</v>
+        <v>174</v>
       </c>
       <c r="C181" t="s">
-        <v>357</v>
+        <v>359</v>
       </c>
       <c r="D181" t="s">
-        <v>385</v>
+        <v>373</v>
       </c>
     </row>
     <row r="182" spans="1:4">
@@ -9045,13 +9045,13 @@
         <v>181</v>
       </c>
       <c r="B182" t="s">
-        <v>174</v>
+        <v>168</v>
       </c>
       <c r="C182" t="s">
-        <v>359</v>
+        <v>357</v>
       </c>
       <c r="D182" t="s">
-        <v>373</v>
+        <v>385</v>
       </c>
     </row>
     <row r="183" spans="1:4">
@@ -9107,7 +9107,7 @@
         <v>357</v>
       </c>
       <c r="D186" t="s">
-        <v>361</v>
+        <v>384</v>
       </c>
     </row>
     <row r="187" spans="1:4">
@@ -9129,13 +9129,13 @@
         <v>187</v>
       </c>
       <c r="B188" t="s">
-        <v>197</v>
+        <v>196</v>
       </c>
       <c r="C188" t="s">
         <v>355</v>
       </c>
       <c r="D188" t="s">
-        <v>379</v>
+        <v>378</v>
       </c>
     </row>
     <row r="189" spans="1:4">
@@ -9157,13 +9157,13 @@
         <v>189</v>
       </c>
       <c r="B190" t="s">
-        <v>207</v>
+        <v>208</v>
       </c>
       <c r="C190" t="s">
         <v>354</v>
       </c>
       <c r="D190" t="s">
-        <v>378</v>
+        <v>361</v>
       </c>
     </row>
     <row r="191" spans="1:4">
@@ -9255,7 +9255,7 @@
         <v>196</v>
       </c>
       <c r="B197" t="s">
-        <v>205</v>
+        <v>206</v>
       </c>
       <c r="C197" t="s">
         <v>355</v>
@@ -9283,13 +9283,13 @@
         <v>198</v>
       </c>
       <c r="B199" t="s">
-        <v>200</v>
+        <v>212</v>
       </c>
       <c r="C199" t="s">
-        <v>354</v>
+        <v>356</v>
       </c>
       <c r="D199" t="s">
-        <v>384</v>
+        <v>390</v>
       </c>
     </row>
     <row r="200" spans="1:4">
@@ -9297,13 +9297,13 @@
         <v>199</v>
       </c>
       <c r="B200" t="s">
-        <v>212</v>
+        <v>200</v>
       </c>
       <c r="C200" t="s">
-        <v>356</v>
+        <v>354</v>
       </c>
       <c r="D200" t="s">
-        <v>390</v>
+        <v>383</v>
       </c>
     </row>
     <row r="201" spans="1:4">
@@ -9325,13 +9325,13 @@
         <v>201</v>
       </c>
       <c r="B202" t="s">
-        <v>203</v>
+        <v>202</v>
       </c>
       <c r="C202" t="s">
         <v>354</v>
       </c>
       <c r="D202" t="s">
-        <v>383</v>
+        <v>382</v>
       </c>
     </row>
     <row r="203" spans="1:4">
@@ -9353,7 +9353,7 @@
         <v>203</v>
       </c>
       <c r="B204" t="s">
-        <v>196</v>
+        <v>197</v>
       </c>
       <c r="C204" t="s">
         <v>359</v>
@@ -9387,7 +9387,7 @@
         <v>358</v>
       </c>
       <c r="D206" t="s">
-        <v>379</v>
+        <v>378</v>
       </c>
     </row>
     <row r="207" spans="1:4">
@@ -9401,7 +9401,7 @@
         <v>354</v>
       </c>
       <c r="D207" t="s">
-        <v>361</v>
+        <v>384</v>
       </c>
     </row>
     <row r="208" spans="1:4">
@@ -9409,7 +9409,7 @@
         <v>207</v>
       </c>
       <c r="B208" t="s">
-        <v>206</v>
+        <v>205</v>
       </c>
       <c r="C208" t="s">
         <v>359</v>
@@ -9437,7 +9437,7 @@
         <v>209</v>
       </c>
       <c r="B210" t="s">
-        <v>208</v>
+        <v>207</v>
       </c>
       <c r="C210" t="s">
         <v>358</v>
@@ -9465,7 +9465,7 @@
         <v>211</v>
       </c>
       <c r="B212" t="s">
-        <v>202</v>
+        <v>203</v>
       </c>
       <c r="C212" t="s">
         <v>354</v>
@@ -9485,7 +9485,7 @@
         <v>358</v>
       </c>
       <c r="D213" t="s">
-        <v>381</v>
+        <v>380</v>
       </c>
     </row>
     <row r="214" spans="1:4">
@@ -9527,7 +9527,7 @@
         <v>359</v>
       </c>
       <c r="D216" t="s">
-        <v>380</v>
+        <v>379</v>
       </c>
     </row>
     <row r="217" spans="1:4">
@@ -9541,7 +9541,7 @@
         <v>358</v>
       </c>
       <c r="D217" t="s">
-        <v>384</v>
+        <v>383</v>
       </c>
     </row>
     <row r="218" spans="1:4">
@@ -9563,7 +9563,7 @@
         <v>218</v>
       </c>
       <c r="B219" t="s">
-        <v>238</v>
+        <v>239</v>
       </c>
       <c r="C219" t="s">
         <v>355</v>
@@ -9577,13 +9577,13 @@
         <v>219</v>
       </c>
       <c r="B220" t="s">
-        <v>231</v>
+        <v>220</v>
       </c>
       <c r="C220" t="s">
-        <v>354</v>
+        <v>356</v>
       </c>
       <c r="D220" t="s">
-        <v>382</v>
+        <v>360</v>
       </c>
     </row>
     <row r="221" spans="1:4">
@@ -9591,13 +9591,13 @@
         <v>220</v>
       </c>
       <c r="B221" t="s">
-        <v>220</v>
+        <v>231</v>
       </c>
       <c r="C221" t="s">
-        <v>356</v>
+        <v>354</v>
       </c>
       <c r="D221" t="s">
-        <v>360</v>
+        <v>381</v>
       </c>
     </row>
     <row r="222" spans="1:4">
@@ -9661,13 +9661,13 @@
         <v>225</v>
       </c>
       <c r="B226" t="s">
-        <v>237</v>
+        <v>236</v>
       </c>
       <c r="C226" t="s">
         <v>355</v>
       </c>
       <c r="D226" t="s">
-        <v>383</v>
+        <v>382</v>
       </c>
     </row>
     <row r="227" spans="1:4">
@@ -9675,7 +9675,7 @@
         <v>226</v>
       </c>
       <c r="B227" t="s">
-        <v>247</v>
+        <v>246</v>
       </c>
       <c r="C227" t="s">
         <v>355</v>
@@ -9709,7 +9709,7 @@
         <v>357</v>
       </c>
       <c r="D229" t="s">
-        <v>382</v>
+        <v>381</v>
       </c>
     </row>
     <row r="230" spans="1:4">
@@ -9751,7 +9751,7 @@
         <v>359</v>
       </c>
       <c r="D232" t="s">
-        <v>383</v>
+        <v>382</v>
       </c>
     </row>
     <row r="233" spans="1:4">
@@ -9821,7 +9821,7 @@
         <v>354</v>
       </c>
       <c r="D237" t="s">
-        <v>383</v>
+        <v>382</v>
       </c>
     </row>
     <row r="238" spans="1:4">
@@ -9849,7 +9849,7 @@
         <v>354</v>
       </c>
       <c r="D239" t="s">
-        <v>378</v>
+        <v>361</v>
       </c>
     </row>
     <row r="240" spans="1:4">
@@ -9857,7 +9857,7 @@
         <v>239</v>
       </c>
       <c r="B240" t="s">
-        <v>239</v>
+        <v>237</v>
       </c>
       <c r="C240" t="s">
         <v>354</v>
@@ -9871,7 +9871,7 @@
         <v>240</v>
       </c>
       <c r="B241" t="s">
-        <v>236</v>
+        <v>238</v>
       </c>
       <c r="C241" t="s">
         <v>359</v>
@@ -9891,7 +9891,7 @@
         <v>359</v>
       </c>
       <c r="D242" t="s">
-        <v>383</v>
+        <v>382</v>
       </c>
     </row>
     <row r="243" spans="1:4">
@@ -9905,7 +9905,7 @@
         <v>359</v>
       </c>
       <c r="D243" t="s">
-        <v>381</v>
+        <v>380</v>
       </c>
     </row>
     <row r="244" spans="1:4">
@@ -9927,13 +9927,13 @@
         <v>244</v>
       </c>
       <c r="B245" t="s">
-        <v>255</v>
+        <v>249</v>
       </c>
       <c r="C245" t="s">
         <v>359</v>
       </c>
       <c r="D245" t="s">
-        <v>378</v>
+        <v>381</v>
       </c>
     </row>
     <row r="246" spans="1:4">
@@ -9941,13 +9941,13 @@
         <v>245</v>
       </c>
       <c r="B246" t="s">
-        <v>249</v>
+        <v>255</v>
       </c>
       <c r="C246" t="s">
         <v>359</v>
       </c>
       <c r="D246" t="s">
-        <v>382</v>
+        <v>361</v>
       </c>
     </row>
     <row r="247" spans="1:4">
@@ -9961,7 +9961,7 @@
         <v>359</v>
       </c>
       <c r="D247" t="s">
-        <v>384</v>
+        <v>383</v>
       </c>
     </row>
     <row r="248" spans="1:4">
@@ -10017,7 +10017,7 @@
         <v>358</v>
       </c>
       <c r="D251" t="s">
-        <v>383</v>
+        <v>382</v>
       </c>
     </row>
     <row r="252" spans="1:4">
@@ -10025,7 +10025,7 @@
         <v>251</v>
       </c>
       <c r="B252" t="s">
-        <v>246</v>
+        <v>247</v>
       </c>
       <c r="C252" t="s">
         <v>356</v>
@@ -10045,7 +10045,7 @@
         <v>354</v>
       </c>
       <c r="D253" t="s">
-        <v>361</v>
+        <v>384</v>
       </c>
     </row>
     <row r="254" spans="1:4">
@@ -10067,13 +10067,13 @@
         <v>254</v>
       </c>
       <c r="B255" t="s">
-        <v>265</v>
+        <v>245</v>
       </c>
       <c r="C255" t="s">
-        <v>355</v>
+        <v>354</v>
       </c>
       <c r="D255" t="s">
-        <v>361</v>
+        <v>367</v>
       </c>
     </row>
     <row r="256" spans="1:4">
@@ -10081,13 +10081,13 @@
         <v>255</v>
       </c>
       <c r="B256" t="s">
-        <v>245</v>
+        <v>265</v>
       </c>
       <c r="C256" t="s">
-        <v>354</v>
+        <v>355</v>
       </c>
       <c r="D256" t="s">
-        <v>367</v>
+        <v>384</v>
       </c>
     </row>
     <row r="257" spans="1:4">
@@ -10123,7 +10123,7 @@
         <v>258</v>
       </c>
       <c r="B259" t="s">
-        <v>262</v>
+        <v>264</v>
       </c>
       <c r="C259" t="s">
         <v>355</v>
@@ -10151,13 +10151,13 @@
         <v>260</v>
       </c>
       <c r="B261" t="s">
-        <v>267</v>
+        <v>263</v>
       </c>
       <c r="C261" t="s">
-        <v>358</v>
+        <v>359</v>
       </c>
       <c r="D261" t="s">
-        <v>361</v>
+        <v>369</v>
       </c>
     </row>
     <row r="262" spans="1:4">
@@ -10165,13 +10165,13 @@
         <v>261</v>
       </c>
       <c r="B262" t="s">
-        <v>264</v>
+        <v>267</v>
       </c>
       <c r="C262" t="s">
-        <v>359</v>
+        <v>358</v>
       </c>
       <c r="D262" t="s">
-        <v>369</v>
+        <v>384</v>
       </c>
     </row>
     <row r="263" spans="1:4">
@@ -10213,7 +10213,7 @@
         <v>355</v>
       </c>
       <c r="D265" t="s">
-        <v>382</v>
+        <v>381</v>
       </c>
     </row>
     <row r="266" spans="1:4">
@@ -10249,13 +10249,13 @@
         <v>267</v>
       </c>
       <c r="B268" t="s">
-        <v>270</v>
+        <v>274</v>
       </c>
       <c r="C268" t="s">
         <v>355</v>
       </c>
       <c r="D268" t="s">
-        <v>361</v>
+        <v>391</v>
       </c>
     </row>
     <row r="269" spans="1:4">
@@ -10263,13 +10263,13 @@
         <v>268</v>
       </c>
       <c r="B269" t="s">
-        <v>274</v>
+        <v>270</v>
       </c>
       <c r="C269" t="s">
         <v>355</v>
       </c>
       <c r="D269" t="s">
-        <v>391</v>
+        <v>384</v>
       </c>
     </row>
     <row r="270" spans="1:4">
@@ -10311,7 +10311,7 @@
         <v>356</v>
       </c>
       <c r="D272" t="s">
-        <v>380</v>
+        <v>379</v>
       </c>
     </row>
     <row r="273" spans="1:4">
@@ -10353,7 +10353,7 @@
         <v>355</v>
       </c>
       <c r="D275" t="s">
-        <v>381</v>
+        <v>380</v>
       </c>
     </row>
     <row r="276" spans="1:4">
@@ -10389,7 +10389,7 @@
         <v>277</v>
       </c>
       <c r="B278" t="s">
-        <v>263</v>
+        <v>262</v>
       </c>
       <c r="C278" t="s">
         <v>356</v>
@@ -10445,13 +10445,13 @@
         <v>281</v>
       </c>
       <c r="B282" t="s">
-        <v>297</v>
+        <v>292</v>
       </c>
       <c r="C282" t="s">
-        <v>359</v>
+        <v>354</v>
       </c>
       <c r="D282" t="s">
-        <v>362</v>
+        <v>375</v>
       </c>
     </row>
     <row r="283" spans="1:4">
@@ -10459,13 +10459,13 @@
         <v>282</v>
       </c>
       <c r="B283" t="s">
-        <v>292</v>
+        <v>297</v>
       </c>
       <c r="C283" t="s">
-        <v>354</v>
+        <v>359</v>
       </c>
       <c r="D283" t="s">
-        <v>375</v>
+        <v>362</v>
       </c>
     </row>
     <row r="284" spans="1:4">
@@ -10473,7 +10473,7 @@
         <v>283</v>
       </c>
       <c r="B284" t="s">
-        <v>304</v>
+        <v>305</v>
       </c>
       <c r="C284" t="s">
         <v>358</v>
@@ -10493,7 +10493,7 @@
         <v>354</v>
       </c>
       <c r="D285" t="s">
-        <v>381</v>
+        <v>380</v>
       </c>
     </row>
     <row r="286" spans="1:4">
@@ -10529,7 +10529,7 @@
         <v>287</v>
       </c>
       <c r="B288" t="s">
-        <v>300</v>
+        <v>301</v>
       </c>
       <c r="C288" t="s">
         <v>359</v>
@@ -10585,7 +10585,7 @@
         <v>291</v>
       </c>
       <c r="B292" t="s">
-        <v>288</v>
+        <v>289</v>
       </c>
       <c r="C292" t="s">
         <v>357</v>
@@ -10641,7 +10641,7 @@
         <v>295</v>
       </c>
       <c r="B296" t="s">
-        <v>289</v>
+        <v>288</v>
       </c>
       <c r="C296" t="s">
         <v>355</v>
@@ -10661,7 +10661,7 @@
         <v>354</v>
       </c>
       <c r="D297" t="s">
-        <v>384</v>
+        <v>383</v>
       </c>
     </row>
     <row r="298" spans="1:4">
@@ -10689,7 +10689,7 @@
         <v>355</v>
       </c>
       <c r="D299" t="s">
-        <v>384</v>
+        <v>383</v>
       </c>
     </row>
     <row r="300" spans="1:4">
@@ -10717,7 +10717,7 @@
         <v>356</v>
       </c>
       <c r="D301" t="s">
-        <v>383</v>
+        <v>382</v>
       </c>
     </row>
     <row r="302" spans="1:4">
@@ -10725,13 +10725,13 @@
         <v>301</v>
       </c>
       <c r="B302" t="s">
-        <v>312</v>
+        <v>300</v>
       </c>
       <c r="C302" t="s">
-        <v>359</v>
+        <v>354</v>
       </c>
       <c r="D302" t="s">
-        <v>390</v>
+        <v>379</v>
       </c>
     </row>
     <row r="303" spans="1:4">
@@ -10739,13 +10739,13 @@
         <v>302</v>
       </c>
       <c r="B303" t="s">
-        <v>301</v>
+        <v>312</v>
       </c>
       <c r="C303" t="s">
-        <v>354</v>
+        <v>359</v>
       </c>
       <c r="D303" t="s">
-        <v>380</v>
+        <v>390</v>
       </c>
     </row>
     <row r="304" spans="1:4">
@@ -10767,7 +10767,7 @@
         <v>304</v>
       </c>
       <c r="B305" t="s">
-        <v>310</v>
+        <v>309</v>
       </c>
       <c r="C305" t="s">
         <v>355</v>
@@ -10795,7 +10795,7 @@
         <v>306</v>
       </c>
       <c r="B307" t="s">
-        <v>309</v>
+        <v>310</v>
       </c>
       <c r="C307" t="s">
         <v>354</v>
@@ -10871,7 +10871,7 @@
         <v>356</v>
       </c>
       <c r="D312" t="s">
-        <v>380</v>
+        <v>379</v>
       </c>
     </row>
     <row r="313" spans="1:4">
@@ -10893,7 +10893,7 @@
         <v>313</v>
       </c>
       <c r="B314" t="s">
-        <v>305</v>
+        <v>304</v>
       </c>
       <c r="C314" t="s">
         <v>354</v>
@@ -10921,13 +10921,13 @@
         <v>315</v>
       </c>
       <c r="B316" t="s">
-        <v>320</v>
+        <v>328</v>
       </c>
       <c r="C316" t="s">
-        <v>355</v>
+        <v>354</v>
       </c>
       <c r="D316" t="s">
-        <v>369</v>
+        <v>379</v>
       </c>
     </row>
     <row r="317" spans="1:4">
@@ -10935,13 +10935,13 @@
         <v>316</v>
       </c>
       <c r="B317" t="s">
-        <v>328</v>
+        <v>320</v>
       </c>
       <c r="C317" t="s">
-        <v>354</v>
+        <v>355</v>
       </c>
       <c r="D317" t="s">
-        <v>380</v>
+        <v>369</v>
       </c>
     </row>
     <row r="318" spans="1:4">
@@ -10977,7 +10977,7 @@
         <v>319</v>
       </c>
       <c r="B320" t="s">
-        <v>323</v>
+        <v>324</v>
       </c>
       <c r="C320" t="s">
         <v>357</v>
@@ -10991,7 +10991,7 @@
         <v>320</v>
       </c>
       <c r="B321" t="s">
-        <v>330</v>
+        <v>331</v>
       </c>
       <c r="C321" t="s">
         <v>354</v>
@@ -11005,13 +11005,13 @@
         <v>321</v>
       </c>
       <c r="B322" t="s">
-        <v>317</v>
+        <v>321</v>
       </c>
       <c r="C322" t="s">
-        <v>355</v>
+        <v>354</v>
       </c>
       <c r="D322" t="s">
-        <v>392</v>
+        <v>391</v>
       </c>
     </row>
     <row r="323" spans="1:4">
@@ -11019,13 +11019,13 @@
         <v>322</v>
       </c>
       <c r="B323" t="s">
-        <v>321</v>
+        <v>317</v>
       </c>
       <c r="C323" t="s">
-        <v>354</v>
+        <v>355</v>
       </c>
       <c r="D323" t="s">
-        <v>391</v>
+        <v>392</v>
       </c>
     </row>
     <row r="324" spans="1:4">
@@ -11039,7 +11039,7 @@
         <v>357</v>
       </c>
       <c r="D324" t="s">
-        <v>378</v>
+        <v>361</v>
       </c>
     </row>
     <row r="325" spans="1:4">
@@ -11047,7 +11047,7 @@
         <v>324</v>
       </c>
       <c r="B325" t="s">
-        <v>329</v>
+        <v>330</v>
       </c>
       <c r="C325" t="s">
         <v>355</v>
@@ -11061,13 +11061,13 @@
         <v>325</v>
       </c>
       <c r="B326" t="s">
-        <v>315</v>
+        <v>323</v>
       </c>
       <c r="C326" t="s">
-        <v>354</v>
+        <v>356</v>
       </c>
       <c r="D326" t="s">
-        <v>378</v>
+        <v>390</v>
       </c>
     </row>
     <row r="327" spans="1:4">
@@ -11075,13 +11075,13 @@
         <v>326</v>
       </c>
       <c r="B327" t="s">
-        <v>324</v>
+        <v>315</v>
       </c>
       <c r="C327" t="s">
-        <v>356</v>
+        <v>354</v>
       </c>
       <c r="D327" t="s">
-        <v>390</v>
+        <v>361</v>
       </c>
     </row>
     <row r="328" spans="1:4">
@@ -11095,7 +11095,7 @@
         <v>354</v>
       </c>
       <c r="D328" t="s">
-        <v>381</v>
+        <v>380</v>
       </c>
     </row>
     <row r="329" spans="1:4">
@@ -11103,13 +11103,13 @@
         <v>328</v>
       </c>
       <c r="B329" t="s">
-        <v>333</v>
+        <v>341</v>
       </c>
       <c r="C329" t="s">
-        <v>355</v>
+        <v>354</v>
       </c>
       <c r="D329" t="s">
-        <v>372</v>
+        <v>391</v>
       </c>
     </row>
     <row r="330" spans="1:4">
@@ -11131,13 +11131,13 @@
         <v>330</v>
       </c>
       <c r="B331" t="s">
-        <v>341</v>
+        <v>333</v>
       </c>
       <c r="C331" t="s">
-        <v>354</v>
+        <v>355</v>
       </c>
       <c r="D331" t="s">
-        <v>391</v>
+        <v>372</v>
       </c>
     </row>
     <row r="332" spans="1:4">
@@ -11215,13 +11215,13 @@
         <v>336</v>
       </c>
       <c r="B337" t="s">
-        <v>336</v>
+        <v>335</v>
       </c>
       <c r="C337" t="s">
         <v>359</v>
       </c>
       <c r="D337" t="s">
-        <v>379</v>
+        <v>378</v>
       </c>
     </row>
     <row r="338" spans="1:4">
@@ -11243,7 +11243,7 @@
         <v>338</v>
       </c>
       <c r="B339" t="s">
-        <v>335</v>
+        <v>336</v>
       </c>
       <c r="C339" t="s">
         <v>354</v>
@@ -11257,7 +11257,7 @@
         <v>339</v>
       </c>
       <c r="B340" t="s">
-        <v>347</v>
+        <v>348</v>
       </c>
       <c r="C340" t="s">
         <v>354</v>
@@ -11277,7 +11277,7 @@
         <v>356</v>
       </c>
       <c r="D341" t="s">
-        <v>361</v>
+        <v>384</v>
       </c>
     </row>
     <row r="342" spans="1:4">
@@ -11285,13 +11285,13 @@
         <v>341</v>
       </c>
       <c r="B342" t="s">
-        <v>348</v>
+        <v>347</v>
       </c>
       <c r="C342" t="s">
         <v>355</v>
       </c>
       <c r="D342" t="s">
-        <v>378</v>
+        <v>361</v>
       </c>
     </row>
     <row r="343" spans="1:4">
@@ -11313,13 +11313,13 @@
         <v>343</v>
       </c>
       <c r="B344" t="s">
-        <v>344</v>
+        <v>329</v>
       </c>
       <c r="C344" t="s">
-        <v>357</v>
+        <v>356</v>
       </c>
       <c r="D344" t="s">
-        <v>382</v>
+        <v>369</v>
       </c>
     </row>
     <row r="345" spans="1:4">
@@ -11341,13 +11341,13 @@
         <v>345</v>
       </c>
       <c r="B346" t="s">
-        <v>331</v>
+        <v>344</v>
       </c>
       <c r="C346" t="s">
-        <v>356</v>
+        <v>357</v>
       </c>
       <c r="D346" t="s">
-        <v>369</v>
+        <v>381</v>
       </c>
     </row>
     <row r="347" spans="1:4">
@@ -11375,7 +11375,7 @@
         <v>355</v>
       </c>
       <c r="D348" t="s">
-        <v>382</v>
+        <v>381</v>
       </c>
     </row>
     <row r="349" spans="1:4">
@@ -11411,13 +11411,13 @@
         <v>350</v>
       </c>
       <c r="B351" t="s">
-        <v>352</v>
+        <v>351</v>
       </c>
       <c r="C351" t="s">
-        <v>359</v>
+        <v>355</v>
       </c>
       <c r="D351" t="s">
-        <v>360</v>
+        <v>374</v>
       </c>
     </row>
   </sheetData>
@@ -11700,7 +11700,7 @@
         <v>355</v>
       </c>
       <c r="D19" t="s">
-        <v>379</v>
+        <v>378</v>
       </c>
     </row>
     <row r="20" spans="1:4">
@@ -11728,7 +11728,7 @@
         <v>354</v>
       </c>
       <c r="D21" t="s">
-        <v>380</v>
+        <v>379</v>
       </c>
     </row>
     <row r="22" spans="1:4">
@@ -11742,7 +11742,7 @@
         <v>355</v>
       </c>
       <c r="D22" t="s">
-        <v>381</v>
+        <v>380</v>
       </c>
     </row>
     <row r="23" spans="1:4">
@@ -11770,7 +11770,7 @@
         <v>355</v>
       </c>
       <c r="D24" t="s">
-        <v>380</v>
+        <v>379</v>
       </c>
     </row>
     <row r="25" spans="1:4">
@@ -11812,7 +11812,7 @@
         <v>355</v>
       </c>
       <c r="D27" t="s">
-        <v>378</v>
+        <v>361</v>
       </c>
     </row>
     <row r="28" spans="1:4">
@@ -11826,7 +11826,7 @@
         <v>355</v>
       </c>
       <c r="D28" t="s">
-        <v>384</v>
+        <v>383</v>
       </c>
     </row>
     <row r="29" spans="1:4">
@@ -11868,7 +11868,7 @@
         <v>354</v>
       </c>
       <c r="D31" t="s">
-        <v>383</v>
+        <v>382</v>
       </c>
     </row>
     <row r="32" spans="1:4">
@@ -11882,7 +11882,7 @@
         <v>355</v>
       </c>
       <c r="D32" t="s">
-        <v>361</v>
+        <v>384</v>
       </c>
     </row>
     <row r="33" spans="1:4">
@@ -11896,7 +11896,7 @@
         <v>356</v>
       </c>
       <c r="D33" t="s">
-        <v>382</v>
+        <v>381</v>
       </c>
     </row>
     <row r="34" spans="1:4">
@@ -11910,7 +11910,7 @@
         <v>354</v>
       </c>
       <c r="D34" t="s">
-        <v>379</v>
+        <v>378</v>
       </c>
     </row>
     <row r="35" spans="1:4">
@@ -11988,13 +11988,13 @@
         <v>39</v>
       </c>
       <c r="B40" t="s">
-        <v>48</v>
+        <v>44</v>
       </c>
       <c r="C40" t="s">
-        <v>355</v>
+        <v>354</v>
       </c>
       <c r="D40" t="s">
-        <v>381</v>
+        <v>387</v>
       </c>
     </row>
     <row r="41" spans="1:4">
@@ -12002,13 +12002,13 @@
         <v>40</v>
       </c>
       <c r="B41" t="s">
-        <v>44</v>
+        <v>48</v>
       </c>
       <c r="C41" t="s">
-        <v>354</v>
+        <v>355</v>
       </c>
       <c r="D41" t="s">
-        <v>387</v>
+        <v>380</v>
       </c>
     </row>
     <row r="42" spans="1:4">
@@ -12030,7 +12030,7 @@
         <v>42</v>
       </c>
       <c r="B43" t="s">
-        <v>43</v>
+        <v>42</v>
       </c>
       <c r="C43" t="s">
         <v>357</v>
@@ -12142,13 +12142,13 @@
         <v>50</v>
       </c>
       <c r="B51" t="s">
-        <v>42</v>
+        <v>43</v>
       </c>
       <c r="C51" t="s">
         <v>354</v>
       </c>
       <c r="D51" t="s">
-        <v>378</v>
+        <v>361</v>
       </c>
     </row>
     <row r="52" spans="1:4">
@@ -12176,7 +12176,7 @@
         <v>354</v>
       </c>
       <c r="D53" t="s">
-        <v>381</v>
+        <v>380</v>
       </c>
     </row>
     <row r="54" spans="1:4">
@@ -12190,7 +12190,7 @@
         <v>356</v>
       </c>
       <c r="D54" t="s">
-        <v>378</v>
+        <v>361</v>
       </c>
     </row>
     <row r="55" spans="1:4">
@@ -12204,7 +12204,7 @@
         <v>355</v>
       </c>
       <c r="D55" t="s">
-        <v>383</v>
+        <v>382</v>
       </c>
     </row>
     <row r="56" spans="1:4">
@@ -12226,13 +12226,13 @@
         <v>56</v>
       </c>
       <c r="B57" t="s">
-        <v>60</v>
+        <v>61</v>
       </c>
       <c r="C57" t="s">
-        <v>354</v>
+        <v>355</v>
       </c>
       <c r="D57" t="s">
-        <v>375</v>
+        <v>387</v>
       </c>
     </row>
     <row r="58" spans="1:4">
@@ -12240,13 +12240,13 @@
         <v>57</v>
       </c>
       <c r="B58" t="s">
-        <v>61</v>
+        <v>60</v>
       </c>
       <c r="C58" t="s">
-        <v>355</v>
+        <v>354</v>
       </c>
       <c r="D58" t="s">
-        <v>387</v>
+        <v>375</v>
       </c>
     </row>
     <row r="59" spans="1:4">
@@ -12268,13 +12268,13 @@
         <v>59</v>
       </c>
       <c r="B60" t="s">
-        <v>68</v>
+        <v>67</v>
       </c>
       <c r="C60" t="s">
         <v>355</v>
       </c>
       <c r="D60" t="s">
-        <v>380</v>
+        <v>379</v>
       </c>
     </row>
     <row r="61" spans="1:4">
@@ -12324,7 +12324,7 @@
         <v>63</v>
       </c>
       <c r="B64" t="s">
-        <v>67</v>
+        <v>68</v>
       </c>
       <c r="C64" t="s">
         <v>354</v>
@@ -12344,7 +12344,7 @@
         <v>357</v>
       </c>
       <c r="D65" t="s">
-        <v>384</v>
+        <v>383</v>
       </c>
     </row>
     <row r="66" spans="1:4">
@@ -12358,7 +12358,7 @@
         <v>357</v>
       </c>
       <c r="D66" t="s">
-        <v>383</v>
+        <v>382</v>
       </c>
     </row>
     <row r="67" spans="1:4">
@@ -12372,7 +12372,7 @@
         <v>356</v>
       </c>
       <c r="D67" t="s">
-        <v>379</v>
+        <v>378</v>
       </c>
     </row>
     <row r="68" spans="1:4">
@@ -12456,7 +12456,7 @@
         <v>354</v>
       </c>
       <c r="D73" t="s">
-        <v>379</v>
+        <v>378</v>
       </c>
     </row>
     <row r="74" spans="1:4">
@@ -12554,7 +12554,7 @@
         <v>356</v>
       </c>
       <c r="D80" t="s">
-        <v>384</v>
+        <v>383</v>
       </c>
     </row>
     <row r="81" spans="1:4">
@@ -12582,7 +12582,7 @@
         <v>354</v>
       </c>
       <c r="D82" t="s">
-        <v>384</v>
+        <v>383</v>
       </c>
     </row>
     <row r="83" spans="1:4">
@@ -12604,13 +12604,13 @@
         <v>83</v>
       </c>
       <c r="B84" t="s">
-        <v>101</v>
+        <v>100</v>
       </c>
       <c r="C84" t="s">
         <v>354</v>
       </c>
       <c r="D84" t="s">
-        <v>382</v>
+        <v>381</v>
       </c>
     </row>
     <row r="85" spans="1:4">
@@ -12666,7 +12666,7 @@
         <v>357</v>
       </c>
       <c r="D88" t="s">
-        <v>380</v>
+        <v>379</v>
       </c>
     </row>
     <row r="89" spans="1:4">
@@ -12680,7 +12680,7 @@
         <v>355</v>
       </c>
       <c r="D89" t="s">
-        <v>378</v>
+        <v>361</v>
       </c>
     </row>
     <row r="90" spans="1:4">
@@ -12722,7 +12722,7 @@
         <v>357</v>
       </c>
       <c r="D92" t="s">
-        <v>379</v>
+        <v>378</v>
       </c>
     </row>
     <row r="93" spans="1:4">
@@ -12736,7 +12736,7 @@
         <v>355</v>
       </c>
       <c r="D93" t="s">
-        <v>384</v>
+        <v>383</v>
       </c>
     </row>
     <row r="94" spans="1:4">
@@ -12764,7 +12764,7 @@
         <v>355</v>
       </c>
       <c r="D95" t="s">
-        <v>382</v>
+        <v>381</v>
       </c>
     </row>
     <row r="96" spans="1:4">
@@ -12786,13 +12786,13 @@
         <v>96</v>
       </c>
       <c r="B97" t="s">
-        <v>100</v>
+        <v>101</v>
       </c>
       <c r="C97" t="s">
         <v>356</v>
       </c>
       <c r="D97" t="s">
-        <v>383</v>
+        <v>382</v>
       </c>
     </row>
     <row r="98" spans="1:4">
@@ -12806,7 +12806,7 @@
         <v>357</v>
       </c>
       <c r="D98" t="s">
-        <v>378</v>
+        <v>361</v>
       </c>
     </row>
     <row r="99" spans="1:4">
@@ -12926,13 +12926,13 @@
         <v>106</v>
       </c>
       <c r="B107" t="s">
-        <v>107</v>
+        <v>112</v>
       </c>
       <c r="C107" t="s">
-        <v>355</v>
+        <v>356</v>
       </c>
       <c r="D107" t="s">
-        <v>370</v>
+        <v>387</v>
       </c>
     </row>
     <row r="108" spans="1:4">
@@ -12940,13 +12940,13 @@
         <v>107</v>
       </c>
       <c r="B108" t="s">
-        <v>112</v>
+        <v>107</v>
       </c>
       <c r="C108" t="s">
-        <v>356</v>
+        <v>355</v>
       </c>
       <c r="D108" t="s">
-        <v>387</v>
+        <v>370</v>
       </c>
     </row>
     <row r="109" spans="1:4">
@@ -12960,7 +12960,7 @@
         <v>355</v>
       </c>
       <c r="D109" t="s">
-        <v>383</v>
+        <v>382</v>
       </c>
     </row>
     <row r="110" spans="1:4">
@@ -13052,7 +13052,7 @@
         <v>115</v>
       </c>
       <c r="B116" t="s">
-        <v>124</v>
+        <v>123</v>
       </c>
       <c r="C116" t="s">
         <v>355</v>
@@ -13128,7 +13128,7 @@
         <v>354</v>
       </c>
       <c r="D121" t="s">
-        <v>384</v>
+        <v>383</v>
       </c>
     </row>
     <row r="122" spans="1:4">
@@ -13170,7 +13170,7 @@
         <v>355</v>
       </c>
       <c r="D124" t="s">
-        <v>380</v>
+        <v>379</v>
       </c>
     </row>
     <row r="125" spans="1:4">
@@ -13226,7 +13226,7 @@
         <v>357</v>
       </c>
       <c r="D128" t="s">
-        <v>381</v>
+        <v>380</v>
       </c>
     </row>
     <row r="129" spans="1:4">
@@ -13234,7 +13234,7 @@
         <v>128</v>
       </c>
       <c r="B129" t="s">
-        <v>119</v>
+        <v>120</v>
       </c>
       <c r="C129" t="s">
         <v>357</v>
@@ -13262,7 +13262,7 @@
         <v>130</v>
       </c>
       <c r="B131" t="s">
-        <v>123</v>
+        <v>124</v>
       </c>
       <c r="C131" t="s">
         <v>355</v>
@@ -13296,7 +13296,7 @@
         <v>354</v>
       </c>
       <c r="D133" t="s">
-        <v>381</v>
+        <v>380</v>
       </c>
     </row>
     <row r="134" spans="1:4">
@@ -13304,7 +13304,7 @@
         <v>133</v>
       </c>
       <c r="B134" t="s">
-        <v>120</v>
+        <v>119</v>
       </c>
       <c r="C134" t="s">
         <v>356</v>
@@ -13338,7 +13338,7 @@
         <v>355</v>
       </c>
       <c r="D136" t="s">
-        <v>383</v>
+        <v>382</v>
       </c>
     </row>
     <row r="137" spans="1:4">
@@ -13380,7 +13380,7 @@
         <v>355</v>
       </c>
       <c r="D139" t="s">
-        <v>379</v>
+        <v>378</v>
       </c>
     </row>
     <row r="140" spans="1:4">
@@ -13422,7 +13422,7 @@
         <v>354</v>
       </c>
       <c r="D142" t="s">
-        <v>380</v>
+        <v>379</v>
       </c>
     </row>
     <row r="143" spans="1:4">
@@ -13436,7 +13436,7 @@
         <v>356</v>
       </c>
       <c r="D143" t="s">
-        <v>381</v>
+        <v>380</v>
       </c>
     </row>
     <row r="144" spans="1:4">
@@ -13492,7 +13492,7 @@
         <v>355</v>
       </c>
       <c r="D147" t="s">
-        <v>380</v>
+        <v>379</v>
       </c>
     </row>
     <row r="148" spans="1:4">
@@ -13506,7 +13506,7 @@
         <v>354</v>
       </c>
       <c r="D148" t="s">
-        <v>382</v>
+        <v>381</v>
       </c>
     </row>
     <row r="149" spans="1:4">
@@ -13660,7 +13660,7 @@
         <v>358</v>
       </c>
       <c r="D159" t="s">
-        <v>380</v>
+        <v>379</v>
       </c>
     </row>
     <row r="160" spans="1:4">
@@ -13668,13 +13668,13 @@
         <v>159</v>
       </c>
       <c r="B160" t="s">
-        <v>167</v>
+        <v>165</v>
       </c>
       <c r="C160" t="s">
-        <v>356</v>
+        <v>354</v>
       </c>
       <c r="D160" t="s">
-        <v>362</v>
+        <v>375</v>
       </c>
     </row>
     <row r="161" spans="1:4">
@@ -13682,13 +13682,13 @@
         <v>160</v>
       </c>
       <c r="B161" t="s">
-        <v>165</v>
+        <v>167</v>
       </c>
       <c r="C161" t="s">
-        <v>354</v>
+        <v>356</v>
       </c>
       <c r="D161" t="s">
-        <v>375</v>
+        <v>362</v>
       </c>
     </row>
     <row r="162" spans="1:4">
@@ -13696,7 +13696,7 @@
         <v>161</v>
       </c>
       <c r="B162" t="s">
-        <v>170</v>
+        <v>171</v>
       </c>
       <c r="C162" t="s">
         <v>355</v>
@@ -13730,7 +13730,7 @@
         <v>358</v>
       </c>
       <c r="D164" t="s">
-        <v>378</v>
+        <v>361</v>
       </c>
     </row>
     <row r="165" spans="1:4">
@@ -13766,7 +13766,7 @@
         <v>166</v>
       </c>
       <c r="B167" t="s">
-        <v>171</v>
+        <v>170</v>
       </c>
       <c r="C167" t="s">
         <v>358</v>
@@ -13786,7 +13786,7 @@
         <v>355</v>
       </c>
       <c r="D168" t="s">
-        <v>383</v>
+        <v>382</v>
       </c>
     </row>
     <row r="169" spans="1:4">
@@ -13976,13 +13976,13 @@
         <v>181</v>
       </c>
       <c r="B182" t="s">
-        <v>203</v>
+        <v>202</v>
       </c>
       <c r="C182" t="s">
         <v>354</v>
       </c>
       <c r="D182" t="s">
-        <v>383</v>
+        <v>382</v>
       </c>
     </row>
     <row r="183" spans="1:4">
@@ -14018,13 +14018,13 @@
         <v>184</v>
       </c>
       <c r="B185" t="s">
-        <v>197</v>
+        <v>196</v>
       </c>
       <c r="C185" t="s">
         <v>355</v>
       </c>
       <c r="D185" t="s">
-        <v>379</v>
+        <v>378</v>
       </c>
     </row>
     <row r="186" spans="1:4">
@@ -14060,13 +14060,13 @@
         <v>187</v>
       </c>
       <c r="B188" t="s">
-        <v>183</v>
+        <v>194</v>
       </c>
       <c r="C188" t="s">
-        <v>356</v>
+        <v>355</v>
       </c>
       <c r="D188" t="s">
-        <v>385</v>
+        <v>368</v>
       </c>
     </row>
     <row r="189" spans="1:4">
@@ -14074,13 +14074,13 @@
         <v>188</v>
       </c>
       <c r="B189" t="s">
-        <v>194</v>
+        <v>183</v>
       </c>
       <c r="C189" t="s">
-        <v>355</v>
+        <v>356</v>
       </c>
       <c r="D189" t="s">
-        <v>368</v>
+        <v>385</v>
       </c>
     </row>
     <row r="190" spans="1:4">
@@ -14130,7 +14130,7 @@
         <v>192</v>
       </c>
       <c r="B193" t="s">
-        <v>196</v>
+        <v>197</v>
       </c>
       <c r="C193" t="s">
         <v>359</v>
@@ -14144,13 +14144,13 @@
         <v>193</v>
       </c>
       <c r="B194" t="s">
-        <v>207</v>
+        <v>208</v>
       </c>
       <c r="C194" t="s">
         <v>354</v>
       </c>
       <c r="D194" t="s">
-        <v>378</v>
+        <v>361</v>
       </c>
     </row>
     <row r="195" spans="1:4">
@@ -14164,7 +14164,7 @@
         <v>358</v>
       </c>
       <c r="D195" t="s">
-        <v>379</v>
+        <v>378</v>
       </c>
     </row>
     <row r="196" spans="1:4">
@@ -14172,13 +14172,13 @@
         <v>195</v>
       </c>
       <c r="B196" t="s">
-        <v>190</v>
+        <v>215</v>
       </c>
       <c r="C196" t="s">
-        <v>354</v>
+        <v>355</v>
       </c>
       <c r="D196" t="s">
-        <v>361</v>
+        <v>360</v>
       </c>
     </row>
     <row r="197" spans="1:4">
@@ -14186,13 +14186,13 @@
         <v>196</v>
       </c>
       <c r="B197" t="s">
-        <v>215</v>
+        <v>190</v>
       </c>
       <c r="C197" t="s">
-        <v>355</v>
+        <v>354</v>
       </c>
       <c r="D197" t="s">
-        <v>360</v>
+        <v>384</v>
       </c>
     </row>
     <row r="198" spans="1:4">
@@ -14200,13 +14200,13 @@
         <v>197</v>
       </c>
       <c r="B198" t="s">
-        <v>205</v>
+        <v>209</v>
       </c>
       <c r="C198" t="s">
         <v>355</v>
       </c>
       <c r="D198" t="s">
-        <v>372</v>
+        <v>377</v>
       </c>
     </row>
     <row r="199" spans="1:4">
@@ -14214,13 +14214,13 @@
         <v>198</v>
       </c>
       <c r="B199" t="s">
-        <v>209</v>
+        <v>206</v>
       </c>
       <c r="C199" t="s">
         <v>355</v>
       </c>
       <c r="D199" t="s">
-        <v>377</v>
+        <v>372</v>
       </c>
     </row>
     <row r="200" spans="1:4">
@@ -14256,7 +14256,7 @@
         <v>201</v>
       </c>
       <c r="B202" t="s">
-        <v>206</v>
+        <v>205</v>
       </c>
       <c r="C202" t="s">
         <v>359</v>
@@ -14270,7 +14270,7 @@
         <v>202</v>
       </c>
       <c r="B203" t="s">
-        <v>208</v>
+        <v>207</v>
       </c>
       <c r="C203" t="s">
         <v>358</v>
@@ -14318,7 +14318,7 @@
         <v>354</v>
       </c>
       <c r="D206" t="s">
-        <v>384</v>
+        <v>383</v>
       </c>
     </row>
     <row r="207" spans="1:4">
@@ -14340,13 +14340,13 @@
         <v>207</v>
       </c>
       <c r="B208" t="s">
-        <v>213</v>
+        <v>226</v>
       </c>
       <c r="C208" t="s">
-        <v>358</v>
+        <v>354</v>
       </c>
       <c r="D208" t="s">
-        <v>381</v>
+        <v>390</v>
       </c>
     </row>
     <row r="209" spans="1:4">
@@ -14354,13 +14354,13 @@
         <v>208</v>
       </c>
       <c r="B209" t="s">
-        <v>226</v>
+        <v>213</v>
       </c>
       <c r="C209" t="s">
-        <v>354</v>
+        <v>358</v>
       </c>
       <c r="D209" t="s">
-        <v>390</v>
+        <v>380</v>
       </c>
     </row>
     <row r="210" spans="1:4">
@@ -14466,7 +14466,7 @@
         <v>216</v>
       </c>
       <c r="B217" t="s">
-        <v>202</v>
+        <v>203</v>
       </c>
       <c r="C217" t="s">
         <v>354</v>
@@ -14486,7 +14486,7 @@
         <v>354</v>
       </c>
       <c r="D218" t="s">
-        <v>382</v>
+        <v>381</v>
       </c>
     </row>
     <row r="219" spans="1:4">
@@ -14500,7 +14500,7 @@
         <v>357</v>
       </c>
       <c r="D219" t="s">
-        <v>361</v>
+        <v>384</v>
       </c>
     </row>
     <row r="220" spans="1:4">
@@ -14514,7 +14514,7 @@
         <v>359</v>
       </c>
       <c r="D220" t="s">
-        <v>380</v>
+        <v>379</v>
       </c>
     </row>
     <row r="221" spans="1:4">
@@ -14550,7 +14550,7 @@
         <v>222</v>
       </c>
       <c r="B223" t="s">
-        <v>239</v>
+        <v>237</v>
       </c>
       <c r="C223" t="s">
         <v>354</v>
@@ -14570,7 +14570,7 @@
         <v>358</v>
       </c>
       <c r="D224" t="s">
-        <v>384</v>
+        <v>383</v>
       </c>
     </row>
     <row r="225" spans="1:4">
@@ -14578,7 +14578,7 @@
         <v>224</v>
       </c>
       <c r="B225" t="s">
-        <v>238</v>
+        <v>239</v>
       </c>
       <c r="C225" t="s">
         <v>355</v>
@@ -14626,7 +14626,7 @@
         <v>359</v>
       </c>
       <c r="D228" t="s">
-        <v>383</v>
+        <v>382</v>
       </c>
     </row>
     <row r="229" spans="1:4">
@@ -14634,13 +14634,13 @@
         <v>228</v>
       </c>
       <c r="B229" t="s">
-        <v>230</v>
+        <v>246</v>
       </c>
       <c r="C229" t="s">
-        <v>358</v>
+        <v>355</v>
       </c>
       <c r="D229" t="s">
-        <v>366</v>
+        <v>386</v>
       </c>
     </row>
     <row r="230" spans="1:4">
@@ -14648,13 +14648,13 @@
         <v>229</v>
       </c>
       <c r="B230" t="s">
-        <v>247</v>
+        <v>230</v>
       </c>
       <c r="C230" t="s">
-        <v>355</v>
+        <v>358</v>
       </c>
       <c r="D230" t="s">
-        <v>386</v>
+        <v>366</v>
       </c>
     </row>
     <row r="231" spans="1:4">
@@ -14710,7 +14710,7 @@
         <v>354</v>
       </c>
       <c r="D234" t="s">
-        <v>378</v>
+        <v>361</v>
       </c>
     </row>
     <row r="235" spans="1:4">
@@ -14718,13 +14718,13 @@
         <v>234</v>
       </c>
       <c r="B235" t="s">
-        <v>237</v>
+        <v>236</v>
       </c>
       <c r="C235" t="s">
         <v>355</v>
       </c>
       <c r="D235" t="s">
-        <v>383</v>
+        <v>382</v>
       </c>
     </row>
     <row r="236" spans="1:4">
@@ -14752,7 +14752,7 @@
         <v>359</v>
       </c>
       <c r="D237" t="s">
-        <v>383</v>
+        <v>382</v>
       </c>
     </row>
     <row r="238" spans="1:4">
@@ -14780,7 +14780,7 @@
         <v>354</v>
       </c>
       <c r="D239" t="s">
-        <v>361</v>
+        <v>384</v>
       </c>
     </row>
     <row r="240" spans="1:4">
@@ -14794,7 +14794,7 @@
         <v>354</v>
       </c>
       <c r="D240" t="s">
-        <v>383</v>
+        <v>382</v>
       </c>
     </row>
     <row r="241" spans="1:4">
@@ -14802,7 +14802,7 @@
         <v>240</v>
       </c>
       <c r="B241" t="s">
-        <v>236</v>
+        <v>238</v>
       </c>
       <c r="C241" t="s">
         <v>359</v>
@@ -14822,7 +14822,7 @@
         <v>359</v>
       </c>
       <c r="D242" t="s">
-        <v>381</v>
+        <v>380</v>
       </c>
     </row>
     <row r="243" spans="1:4">
@@ -14830,7 +14830,7 @@
         <v>242</v>
       </c>
       <c r="B243" t="s">
-        <v>246</v>
+        <v>247</v>
       </c>
       <c r="C243" t="s">
         <v>356</v>
@@ -14878,7 +14878,7 @@
         <v>359</v>
       </c>
       <c r="D246" t="s">
-        <v>382</v>
+        <v>381</v>
       </c>
     </row>
     <row r="247" spans="1:4">
@@ -14914,13 +14914,13 @@
         <v>248</v>
       </c>
       <c r="B249" t="s">
-        <v>255</v>
+        <v>254</v>
       </c>
       <c r="C249" t="s">
-        <v>359</v>
+        <v>358</v>
       </c>
       <c r="D249" t="s">
-        <v>378</v>
+        <v>382</v>
       </c>
     </row>
     <row r="250" spans="1:4">
@@ -14928,13 +14928,13 @@
         <v>249</v>
       </c>
       <c r="B250" t="s">
-        <v>254</v>
+        <v>253</v>
       </c>
       <c r="C250" t="s">
         <v>358</v>
       </c>
       <c r="D250" t="s">
-        <v>383</v>
+        <v>365</v>
       </c>
     </row>
     <row r="251" spans="1:4">
@@ -14942,13 +14942,13 @@
         <v>250</v>
       </c>
       <c r="B251" t="s">
-        <v>253</v>
+        <v>255</v>
       </c>
       <c r="C251" t="s">
-        <v>358</v>
+        <v>359</v>
       </c>
       <c r="D251" t="s">
-        <v>365</v>
+        <v>361</v>
       </c>
     </row>
     <row r="252" spans="1:4">
@@ -14962,7 +14962,7 @@
         <v>355</v>
       </c>
       <c r="D252" t="s">
-        <v>361</v>
+        <v>384</v>
       </c>
     </row>
     <row r="253" spans="1:4">
@@ -14984,13 +14984,13 @@
         <v>253</v>
       </c>
       <c r="B254" t="s">
-        <v>257</v>
+        <v>214</v>
       </c>
       <c r="C254" t="s">
-        <v>359</v>
+        <v>357</v>
       </c>
       <c r="D254" t="s">
-        <v>384</v>
+        <v>388</v>
       </c>
     </row>
     <row r="255" spans="1:4">
@@ -14998,13 +14998,13 @@
         <v>254</v>
       </c>
       <c r="B255" t="s">
-        <v>214</v>
+        <v>257</v>
       </c>
       <c r="C255" t="s">
-        <v>357</v>
+        <v>359</v>
       </c>
       <c r="D255" t="s">
-        <v>388</v>
+        <v>383</v>
       </c>
     </row>
     <row r="256" spans="1:4">
@@ -15040,7 +15040,7 @@
         <v>257</v>
       </c>
       <c r="B258" t="s">
-        <v>262</v>
+        <v>264</v>
       </c>
       <c r="C258" t="s">
         <v>355</v>
@@ -15060,7 +15060,7 @@
         <v>357</v>
       </c>
       <c r="D259" t="s">
-        <v>382</v>
+        <v>381</v>
       </c>
     </row>
     <row r="260" spans="1:4">
@@ -15082,13 +15082,13 @@
         <v>260</v>
       </c>
       <c r="B261" t="s">
-        <v>270</v>
+        <v>260</v>
       </c>
       <c r="C261" t="s">
-        <v>355</v>
+        <v>356</v>
       </c>
       <c r="D261" t="s">
-        <v>361</v>
+        <v>379</v>
       </c>
     </row>
     <row r="262" spans="1:4">
@@ -15096,13 +15096,13 @@
         <v>261</v>
       </c>
       <c r="B262" t="s">
-        <v>260</v>
+        <v>270</v>
       </c>
       <c r="C262" t="s">
-        <v>356</v>
+        <v>355</v>
       </c>
       <c r="D262" t="s">
-        <v>380</v>
+        <v>384</v>
       </c>
     </row>
     <row r="263" spans="1:4">
@@ -15130,7 +15130,7 @@
         <v>355</v>
       </c>
       <c r="D264" t="s">
-        <v>382</v>
+        <v>381</v>
       </c>
     </row>
     <row r="265" spans="1:4">
@@ -15138,7 +15138,7 @@
         <v>264</v>
       </c>
       <c r="B265" t="s">
-        <v>264</v>
+        <v>263</v>
       </c>
       <c r="C265" t="s">
         <v>359</v>
@@ -15172,7 +15172,7 @@
         <v>358</v>
       </c>
       <c r="D267" t="s">
-        <v>361</v>
+        <v>384</v>
       </c>
     </row>
     <row r="268" spans="1:4">
@@ -15180,13 +15180,13 @@
         <v>267</v>
       </c>
       <c r="B268" t="s">
-        <v>275</v>
+        <v>262</v>
       </c>
       <c r="C268" t="s">
-        <v>355</v>
+        <v>356</v>
       </c>
       <c r="D268" t="s">
-        <v>381</v>
+        <v>369</v>
       </c>
     </row>
     <row r="269" spans="1:4">
@@ -15194,13 +15194,13 @@
         <v>268</v>
       </c>
       <c r="B269" t="s">
-        <v>263</v>
+        <v>275</v>
       </c>
       <c r="C269" t="s">
-        <v>356</v>
+        <v>355</v>
       </c>
       <c r="D269" t="s">
-        <v>369</v>
+        <v>380</v>
       </c>
     </row>
     <row r="270" spans="1:4">
@@ -15270,7 +15270,7 @@
         <v>354</v>
       </c>
       <c r="D274" t="s">
-        <v>381</v>
+        <v>380</v>
       </c>
     </row>
     <row r="275" spans="1:4">
@@ -15376,7 +15376,7 @@
         <v>281</v>
       </c>
       <c r="B282" t="s">
-        <v>289</v>
+        <v>288</v>
       </c>
       <c r="C282" t="s">
         <v>355</v>
@@ -15452,7 +15452,7 @@
         <v>354</v>
       </c>
       <c r="D287" t="s">
-        <v>384</v>
+        <v>383</v>
       </c>
     </row>
     <row r="288" spans="1:4">
@@ -15474,7 +15474,7 @@
         <v>288</v>
       </c>
       <c r="B289" t="s">
-        <v>310</v>
+        <v>309</v>
       </c>
       <c r="C289" t="s">
         <v>355</v>
@@ -15502,10 +15502,10 @@
         <v>290</v>
       </c>
       <c r="B291" t="s">
-        <v>294</v>
+        <v>303</v>
       </c>
       <c r="C291" t="s">
-        <v>356</v>
+        <v>355</v>
       </c>
       <c r="D291" t="s">
         <v>383</v>
@@ -15516,13 +15516,13 @@
         <v>291</v>
       </c>
       <c r="B292" t="s">
-        <v>303</v>
+        <v>294</v>
       </c>
       <c r="C292" t="s">
-        <v>355</v>
+        <v>356</v>
       </c>
       <c r="D292" t="s">
-        <v>384</v>
+        <v>382</v>
       </c>
     </row>
     <row r="293" spans="1:4">
@@ -15558,7 +15558,7 @@
         <v>294</v>
       </c>
       <c r="B295" t="s">
-        <v>300</v>
+        <v>301</v>
       </c>
       <c r="C295" t="s">
         <v>359</v>
@@ -15614,7 +15614,7 @@
         <v>298</v>
       </c>
       <c r="B299" t="s">
-        <v>304</v>
+        <v>305</v>
       </c>
       <c r="C299" t="s">
         <v>358</v>
@@ -15676,7 +15676,7 @@
         <v>356</v>
       </c>
       <c r="D303" t="s">
-        <v>380</v>
+        <v>379</v>
       </c>
     </row>
     <row r="304" spans="1:4">
@@ -15684,13 +15684,13 @@
         <v>303</v>
       </c>
       <c r="B304" t="s">
-        <v>313</v>
+        <v>318</v>
       </c>
       <c r="C304" t="s">
         <v>355</v>
       </c>
       <c r="D304" t="s">
-        <v>372</v>
+        <v>362</v>
       </c>
     </row>
     <row r="305" spans="1:4">
@@ -15698,13 +15698,13 @@
         <v>304</v>
       </c>
       <c r="B305" t="s">
-        <v>318</v>
+        <v>313</v>
       </c>
       <c r="C305" t="s">
         <v>355</v>
       </c>
       <c r="D305" t="s">
-        <v>362</v>
+        <v>372</v>
       </c>
     </row>
     <row r="306" spans="1:4">
@@ -15726,13 +15726,13 @@
         <v>306</v>
       </c>
       <c r="B307" t="s">
-        <v>276</v>
+        <v>304</v>
       </c>
       <c r="C307" t="s">
-        <v>357</v>
+        <v>354</v>
       </c>
       <c r="D307" t="s">
-        <v>367</v>
+        <v>366</v>
       </c>
     </row>
     <row r="308" spans="1:4">
@@ -15740,13 +15740,13 @@
         <v>307</v>
       </c>
       <c r="B308" t="s">
-        <v>305</v>
+        <v>276</v>
       </c>
       <c r="C308" t="s">
-        <v>354</v>
+        <v>357</v>
       </c>
       <c r="D308" t="s">
-        <v>366</v>
+        <v>367</v>
       </c>
     </row>
     <row r="309" spans="1:4">
@@ -15768,13 +15768,13 @@
         <v>309</v>
       </c>
       <c r="B310" t="s">
-        <v>317</v>
+        <v>328</v>
       </c>
       <c r="C310" t="s">
-        <v>355</v>
+        <v>354</v>
       </c>
       <c r="D310" t="s">
-        <v>392</v>
+        <v>379</v>
       </c>
     </row>
     <row r="311" spans="1:4">
@@ -15782,13 +15782,13 @@
         <v>310</v>
       </c>
       <c r="B311" t="s">
-        <v>328</v>
+        <v>317</v>
       </c>
       <c r="C311" t="s">
-        <v>354</v>
+        <v>355</v>
       </c>
       <c r="D311" t="s">
-        <v>380</v>
+        <v>392</v>
       </c>
     </row>
     <row r="312" spans="1:4">
@@ -15796,7 +15796,7 @@
         <v>311</v>
       </c>
       <c r="B312" t="s">
-        <v>309</v>
+        <v>310</v>
       </c>
       <c r="C312" t="s">
         <v>354</v>
@@ -15838,13 +15838,13 @@
         <v>314</v>
       </c>
       <c r="B315" t="s">
-        <v>301</v>
+        <v>300</v>
       </c>
       <c r="C315" t="s">
         <v>354</v>
       </c>
       <c r="D315" t="s">
-        <v>380</v>
+        <v>379</v>
       </c>
     </row>
     <row r="316" spans="1:4">
@@ -15886,7 +15886,7 @@
         <v>354</v>
       </c>
       <c r="D318" t="s">
-        <v>378</v>
+        <v>361</v>
       </c>
     </row>
     <row r="319" spans="1:4">
@@ -15894,7 +15894,7 @@
         <v>318</v>
       </c>
       <c r="B319" t="s">
-        <v>288</v>
+        <v>289</v>
       </c>
       <c r="C319" t="s">
         <v>357</v>
@@ -15922,7 +15922,7 @@
         <v>320</v>
       </c>
       <c r="B321" t="s">
-        <v>330</v>
+        <v>331</v>
       </c>
       <c r="C321" t="s">
         <v>354</v>
@@ -15992,7 +15992,7 @@
         <v>325</v>
       </c>
       <c r="B326" t="s">
-        <v>324</v>
+        <v>323</v>
       </c>
       <c r="C326" t="s">
         <v>356</v>
@@ -16006,7 +16006,7 @@
         <v>326</v>
       </c>
       <c r="B327" t="s">
-        <v>329</v>
+        <v>330</v>
       </c>
       <c r="C327" t="s">
         <v>355</v>
@@ -16040,7 +16040,7 @@
         <v>356</v>
       </c>
       <c r="D329" t="s">
-        <v>361</v>
+        <v>384</v>
       </c>
     </row>
     <row r="330" spans="1:4">
@@ -16062,13 +16062,13 @@
         <v>330</v>
       </c>
       <c r="B331" t="s">
-        <v>336</v>
+        <v>335</v>
       </c>
       <c r="C331" t="s">
         <v>359</v>
       </c>
       <c r="D331" t="s">
-        <v>379</v>
+        <v>378</v>
       </c>
     </row>
     <row r="332" spans="1:4">
@@ -16124,7 +16124,7 @@
         <v>354</v>
       </c>
       <c r="D335" t="s">
-        <v>381</v>
+        <v>380</v>
       </c>
     </row>
     <row r="336" spans="1:4">
@@ -16146,7 +16146,7 @@
         <v>336</v>
       </c>
       <c r="B337" t="s">
-        <v>347</v>
+        <v>348</v>
       </c>
       <c r="C337" t="s">
         <v>354</v>
@@ -16160,13 +16160,13 @@
         <v>337</v>
       </c>
       <c r="B338" t="s">
-        <v>348</v>
+        <v>347</v>
       </c>
       <c r="C338" t="s">
         <v>355</v>
       </c>
       <c r="D338" t="s">
-        <v>378</v>
+        <v>361</v>
       </c>
     </row>
     <row r="339" spans="1:4">
@@ -16174,7 +16174,7 @@
         <v>338</v>
       </c>
       <c r="B339" t="s">
-        <v>323</v>
+        <v>324</v>
       </c>
       <c r="C339" t="s">
         <v>357</v>
@@ -16236,7 +16236,7 @@
         <v>355</v>
       </c>
       <c r="D343" t="s">
-        <v>382</v>
+        <v>381</v>
       </c>
     </row>
     <row r="344" spans="1:4">
@@ -16258,13 +16258,13 @@
         <v>344</v>
       </c>
       <c r="B345" t="s">
-        <v>349</v>
+        <v>329</v>
       </c>
       <c r="C345" t="s">
-        <v>355</v>
+        <v>356</v>
       </c>
       <c r="D345" t="s">
-        <v>364</v>
+        <v>369</v>
       </c>
     </row>
     <row r="346" spans="1:4">
@@ -16272,13 +16272,13 @@
         <v>345</v>
       </c>
       <c r="B346" t="s">
-        <v>331</v>
+        <v>349</v>
       </c>
       <c r="C346" t="s">
-        <v>356</v>
+        <v>355</v>
       </c>
       <c r="D346" t="s">
-        <v>369</v>
+        <v>364</v>
       </c>
     </row>
     <row r="347" spans="1:4">
@@ -16306,7 +16306,7 @@
         <v>357</v>
       </c>
       <c r="D348" t="s">
-        <v>378</v>
+        <v>361</v>
       </c>
     </row>
     <row r="349" spans="1:4">
@@ -16314,13 +16314,13 @@
         <v>348</v>
       </c>
       <c r="B349" t="s">
-        <v>335</v>
+        <v>394</v>
       </c>
       <c r="C349" t="s">
         <v>354</v>
       </c>
       <c r="D349" t="s">
-        <v>360</v>
+        <v>389</v>
       </c>
     </row>
     <row r="350" spans="1:4">
@@ -16328,13 +16328,13 @@
         <v>349</v>
       </c>
       <c r="B350" t="s">
-        <v>394</v>
+        <v>336</v>
       </c>
       <c r="C350" t="s">
         <v>354</v>
       </c>
       <c r="D350" t="s">
-        <v>389</v>
+        <v>360</v>
       </c>
     </row>
     <row r="351" spans="1:4">
@@ -16342,7 +16342,7 @@
         <v>350</v>
       </c>
       <c r="B351" t="s">
-        <v>352</v>
+        <v>353</v>
       </c>
       <c r="C351" t="s">
         <v>359</v>

--- a/docs/FantasyProsFootballDraft.xlsx
+++ b/docs/FantasyProsFootballDraft.xlsx
@@ -3252,7 +3252,7 @@
         <v>354</v>
       </c>
       <c r="D120" t="s">
-        <v>386</v>
+        <v>388</v>
       </c>
     </row>
     <row r="121" spans="1:4">
@@ -5954,7 +5954,7 @@
         <v>354</v>
       </c>
       <c r="D313" t="s">
-        <v>361</v>
+        <v>377</v>
       </c>
     </row>
     <row r="314" spans="1:4">
@@ -8127,7 +8127,7 @@
         <v>354</v>
       </c>
       <c r="D116" t="s">
-        <v>386</v>
+        <v>388</v>
       </c>
     </row>
     <row r="117" spans="1:4">
@@ -11081,7 +11081,7 @@
         <v>354</v>
       </c>
       <c r="D327" t="s">
-        <v>361</v>
+        <v>377</v>
       </c>
     </row>
     <row r="328" spans="1:4">
@@ -13100,7 +13100,7 @@
         <v>354</v>
       </c>
       <c r="D119" t="s">
-        <v>386</v>
+        <v>388</v>
       </c>
     </row>
     <row r="120" spans="1:4">
@@ -15886,7 +15886,7 @@
         <v>354</v>
       </c>
       <c r="D318" t="s">
-        <v>361</v>
+        <v>377</v>
       </c>
     </row>
     <row r="319" spans="1:4">

--- a/docs/FantasyProsFootballDraft.xlsx
+++ b/docs/FantasyProsFootballDraft.xlsx
@@ -149,12 +149,12 @@
     <t>Travis Etienne Jr.</t>
   </si>
   <si>
+    <t>Elijah Mitchell</t>
+  </si>
+  <si>
     <t>Justin Herbert</t>
   </si>
   <si>
-    <t>Elijah Mitchell</t>
-  </si>
-  <si>
     <t>David Montgomery</t>
   </si>
   <si>
@@ -224,12 +224,12 @@
     <t>Kyler Murray</t>
   </si>
   <si>
+    <t>Antonio Gibson</t>
+  </si>
+  <si>
     <t>Chris Godwin</t>
   </si>
   <si>
-    <t>Antonio Gibson</t>
-  </si>
-  <si>
     <t>Damien Harris</t>
   </si>
   <si>
@@ -251,12 +251,12 @@
     <t>Dallas Goedert</t>
   </si>
   <si>
+    <t>Amari Cooper</t>
+  </si>
+  <si>
     <t>Rashaad Penny</t>
   </si>
   <si>
-    <t>Amari Cooper</t>
-  </si>
-  <si>
     <t>Adam Thielen</t>
   </si>
   <si>
@@ -335,15 +335,15 @@
     <t>Robert Woods</t>
   </si>
   <si>
+    <t>DeAndre Hopkins</t>
+  </si>
+  <si>
+    <t>Aaron Rodgers</t>
+  </si>
+  <si>
     <t>Matthew Stafford</t>
   </si>
   <si>
-    <t>DeAndre Hopkins</t>
-  </si>
-  <si>
-    <t>Aaron Rodgers</t>
-  </si>
-  <si>
     <t>Kadarius Toney</t>
   </si>
   <si>
@@ -359,15 +359,15 @@
     <t>Derek Carr</t>
   </si>
   <si>
+    <t>Kenneth Walker III</t>
+  </si>
+  <si>
+    <t>Treylon Burks</t>
+  </si>
+  <si>
     <t>Cole Kmet</t>
   </si>
   <si>
-    <t>Kenneth Walker III</t>
-  </si>
-  <si>
-    <t>Treylon Burks</t>
-  </si>
-  <si>
     <t>Michael Carter</t>
   </si>
   <si>
@@ -395,12 +395,12 @@
     <t>Tyler Boyd</t>
   </si>
   <si>
+    <t>Trevor Lawrence</t>
+  </si>
+  <si>
     <t>Marquez Valdes-Scantling</t>
   </si>
   <si>
-    <t>Trevor Lawrence</t>
-  </si>
-  <si>
     <t>Alexander Mattison</t>
   </si>
   <si>
@@ -410,12 +410,12 @@
     <t>Nyheim Hines</t>
   </si>
   <si>
+    <t>Skyy Moore</t>
+  </si>
+  <si>
     <t>Kenneth Gainwell</t>
   </si>
   <si>
-    <t>Skyy Moore</t>
-  </si>
-  <si>
     <t>Irv Smith Jr.</t>
   </si>
   <si>
@@ -485,21 +485,21 @@
     <t>J.D. McKissic</t>
   </si>
   <si>
+    <t>Buffalo Bills</t>
+  </si>
+  <si>
     <t>Jahan Dotson</t>
   </si>
   <si>
-    <t>Buffalo Bills</t>
-  </si>
-  <si>
     <t>Jarvis Landry</t>
   </si>
   <si>
+    <t>Rondale Moore</t>
+  </si>
+  <si>
     <t>Noah Fant</t>
   </si>
   <si>
-    <t>Rondale Moore</t>
-  </si>
-  <si>
     <t>Tampa Bay Buccaneers</t>
   </si>
   <si>
@@ -599,27 +599,27 @@
     <t>Marvin Jones Jr.</t>
   </si>
   <si>
+    <t>Wan'Dale Robinson</t>
+  </si>
+  <si>
     <t>Romeo Doubs</t>
   </si>
   <si>
-    <t>Wan'Dale Robinson</t>
+    <t>Jalen Tolbert</t>
+  </si>
+  <si>
+    <t>Isaiah McKenzie</t>
+  </si>
+  <si>
+    <t>Evan McPherson</t>
+  </si>
+  <si>
+    <t>Matt Gay</t>
   </si>
   <si>
     <t>Van Jefferson</t>
   </si>
   <si>
-    <t>Matt Gay</t>
-  </si>
-  <si>
-    <t>Jalen Tolbert</t>
-  </si>
-  <si>
-    <t>Evan McPherson</t>
-  </si>
-  <si>
-    <t>Isaiah McKenzie</t>
-  </si>
-  <si>
     <t>Christian Watson</t>
   </si>
   <si>
@@ -629,24 +629,24 @@
     <t>Dallas Cowboys</t>
   </si>
   <si>
+    <t>Gus Edwards</t>
+  </si>
+  <si>
     <t>Darrel Williams</t>
   </si>
   <si>
-    <t>Gus Edwards</t>
-  </si>
-  <si>
     <t>Los Angeles Chargers</t>
   </si>
   <si>
     <t>Daniel Carlson</t>
   </si>
   <si>
+    <t>Green Bay Packers</t>
+  </si>
+  <si>
     <t>Jameson Williams</t>
   </si>
   <si>
-    <t>Green Bay Packers</t>
-  </si>
-  <si>
     <t>Jeff Wilson Jr.</t>
   </si>
   <si>
@@ -662,12 +662,12 @@
     <t>Brevin Jordan</t>
   </si>
   <si>
+    <t>Zach Wilson</t>
+  </si>
+  <si>
     <t>Miami Dolphins</t>
   </si>
   <si>
-    <t>Zach Wilson</t>
-  </si>
-  <si>
     <t>Parris Campbell</t>
   </si>
   <si>
@@ -677,15 +677,15 @@
     <t>Harrison Butker</t>
   </si>
   <si>
+    <t>Mo Alie-Cox</t>
+  </si>
+  <si>
+    <t>Curtis Samuel</t>
+  </si>
+  <si>
     <t>Marcus Mariota</t>
   </si>
   <si>
-    <t>Curtis Samuel</t>
-  </si>
-  <si>
-    <t>Mo Alie-Cox</t>
-  </si>
-  <si>
     <t>Ryan Succop</t>
   </si>
   <si>
@@ -704,12 +704,12 @@
     <t>Rex Burkhead</t>
   </si>
   <si>
+    <t>Tyrion Davis-Price</t>
+  </si>
+  <si>
     <t>Kansas City Chiefs</t>
   </si>
   <si>
-    <t>Tyrion Davis-Price</t>
-  </si>
-  <si>
     <t>Matt Prater</t>
   </si>
   <si>
@@ -731,12 +731,12 @@
     <t>Samaje Perine</t>
   </si>
   <si>
+    <t>Kenyan Drake</t>
+  </si>
+  <si>
     <t>A.J. Green</t>
   </si>
   <si>
-    <t>Kenyan Drake</t>
-  </si>
-  <si>
     <t>Brandon McManus</t>
   </si>
   <si>
@@ -809,15 +809,15 @@
     <t>Randall Cobb</t>
   </si>
   <si>
+    <t>Byron Pringle</t>
+  </si>
+  <si>
     <t>Adam Trautman</t>
   </si>
   <si>
     <t>Wil Lutz</t>
   </si>
   <si>
-    <t>Byron Pringle</t>
-  </si>
-  <si>
     <t>Laviska Shenault Jr.</t>
   </si>
   <si>
@@ -860,12 +860,12 @@
     <t>Greg Zuerlein</t>
   </si>
   <si>
+    <t>Washington Commanders</t>
+  </si>
+  <si>
     <t>C.J. Uzomah</t>
   </si>
   <si>
-    <t>Washington Commanders</t>
-  </si>
-  <si>
     <t>Isaiah Likely</t>
   </si>
   <si>
@@ -875,12 +875,12 @@
     <t>Myles Gaskin</t>
   </si>
   <si>
+    <t>Chicago Bears</t>
+  </si>
+  <si>
     <t>Trey Sermon</t>
   </si>
   <si>
-    <t>Chicago Bears</t>
-  </si>
-  <si>
     <t>Graham Gano</t>
   </si>
   <si>
@@ -935,24 +935,24 @@
     <t>Quez Watkins</t>
   </si>
   <si>
+    <t>New York Jets</t>
+  </si>
+  <si>
     <t>Jaylen Warren</t>
   </si>
   <si>
-    <t>New York Jets</t>
-  </si>
-  <si>
     <t>Velus Jones Jr.</t>
   </si>
   <si>
     <t>Daniel Bellinger</t>
   </si>
   <si>
+    <t>Devin Duvernay</t>
+  </si>
+  <si>
     <t>Seattle Seahawks</t>
   </si>
   <si>
-    <t>Devin Duvernay</t>
-  </si>
-  <si>
     <t>Kyren Williams</t>
   </si>
   <si>
@@ -965,12 +965,12 @@
     <t>Josh Reynolds</t>
   </si>
   <si>
+    <t>Marlon Mack</t>
+  </si>
+  <si>
     <t>Dontrell Hilliard</t>
   </si>
   <si>
-    <t>Marlon Mack</t>
-  </si>
-  <si>
     <t>Odell Beckham Jr.</t>
   </si>
   <si>
@@ -1019,42 +1019,42 @@
     <t>Ty Johnson</t>
   </si>
   <si>
+    <t>Quintez Cephus</t>
+  </si>
+  <si>
     <t>Harrison Bryant</t>
   </si>
   <si>
-    <t>Quintez Cephus</t>
+    <t>Phillip Lindsay</t>
+  </si>
+  <si>
+    <t>Brett Maher</t>
   </si>
   <si>
     <t>Tommy Tremble</t>
   </si>
   <si>
-    <t>Brett Maher</t>
-  </si>
-  <si>
-    <t>Phillip Lindsay</t>
-  </si>
-  <si>
     <t>Salvon Ahmed</t>
   </si>
   <si>
     <t>Snoop Conner</t>
   </si>
   <si>
+    <t>Cade York</t>
+  </si>
+  <si>
     <t>Donald Parham Jr.</t>
   </si>
   <si>
-    <t>Cade York</t>
-  </si>
-  <si>
     <t>Ty Montgomery</t>
   </si>
   <si>
+    <t>Las Vegas Raiders</t>
+  </si>
+  <si>
     <t>Justin Jackson</t>
   </si>
   <si>
-    <t>Las Vegas Raiders</t>
-  </si>
-  <si>
     <t>Desmond Ridder</t>
   </si>
   <si>
@@ -1073,10 +1073,10 @@
     <t>Jalen Guyton</t>
   </si>
   <si>
+    <t>Khalil Shakir</t>
+  </si>
+  <si>
     <t>Olamide Zaccheaus</t>
-  </si>
-  <si>
-    <t>Khalil Shakir</t>
   </si>
   <si>
     <t>Foster Moreau</t>
@@ -2129,10 +2129,10 @@
         <v>42</v>
       </c>
       <c r="C40" t="s">
-        <v>357</v>
+        <v>354</v>
       </c>
       <c r="D40" t="s">
-        <v>364</v>
+        <v>361</v>
       </c>
     </row>
     <row r="41" spans="1:4">
@@ -2143,10 +2143,10 @@
         <v>43</v>
       </c>
       <c r="C41" t="s">
-        <v>354</v>
+        <v>357</v>
       </c>
       <c r="D41" t="s">
-        <v>361</v>
+        <v>364</v>
       </c>
     </row>
     <row r="42" spans="1:4">
@@ -2479,10 +2479,10 @@
         <v>67</v>
       </c>
       <c r="C65" t="s">
-        <v>355</v>
+        <v>354</v>
       </c>
       <c r="D65" t="s">
-        <v>379</v>
+        <v>385</v>
       </c>
     </row>
     <row r="66" spans="1:4">
@@ -2493,10 +2493,10 @@
         <v>68</v>
       </c>
       <c r="C66" t="s">
-        <v>354</v>
+        <v>355</v>
       </c>
       <c r="D66" t="s">
-        <v>385</v>
+        <v>379</v>
       </c>
     </row>
     <row r="67" spans="1:4">
@@ -2605,10 +2605,10 @@
         <v>76</v>
       </c>
       <c r="C74" t="s">
-        <v>354</v>
+        <v>355</v>
       </c>
       <c r="D74" t="s">
-        <v>389</v>
+        <v>367</v>
       </c>
     </row>
     <row r="75" spans="1:4">
@@ -2619,10 +2619,10 @@
         <v>77</v>
       </c>
       <c r="C75" t="s">
-        <v>355</v>
+        <v>354</v>
       </c>
       <c r="D75" t="s">
-        <v>367</v>
+        <v>389</v>
       </c>
     </row>
     <row r="76" spans="1:4">
@@ -2997,10 +2997,10 @@
         <v>104</v>
       </c>
       <c r="C102" t="s">
-        <v>357</v>
+        <v>355</v>
       </c>
       <c r="D102" t="s">
-        <v>368</v>
+        <v>382</v>
       </c>
     </row>
     <row r="103" spans="1:4">
@@ -3011,10 +3011,10 @@
         <v>105</v>
       </c>
       <c r="C103" t="s">
-        <v>355</v>
+        <v>357</v>
       </c>
       <c r="D103" t="s">
-        <v>382</v>
+        <v>376</v>
       </c>
     </row>
     <row r="104" spans="1:4">
@@ -3028,7 +3028,7 @@
         <v>357</v>
       </c>
       <c r="D104" t="s">
-        <v>376</v>
+        <v>368</v>
       </c>
     </row>
     <row r="105" spans="1:4">
@@ -3109,10 +3109,10 @@
         <v>112</v>
       </c>
       <c r="C110" t="s">
-        <v>356</v>
+        <v>354</v>
       </c>
       <c r="D110" t="s">
-        <v>387</v>
+        <v>389</v>
       </c>
     </row>
     <row r="111" spans="1:4">
@@ -3123,10 +3123,10 @@
         <v>113</v>
       </c>
       <c r="C111" t="s">
-        <v>354</v>
+        <v>355</v>
       </c>
       <c r="D111" t="s">
-        <v>389</v>
+        <v>362</v>
       </c>
     </row>
     <row r="112" spans="1:4">
@@ -3137,10 +3137,10 @@
         <v>114</v>
       </c>
       <c r="C112" t="s">
-        <v>355</v>
+        <v>356</v>
       </c>
       <c r="D112" t="s">
-        <v>362</v>
+        <v>387</v>
       </c>
     </row>
     <row r="113" spans="1:4">
@@ -3277,10 +3277,10 @@
         <v>124</v>
       </c>
       <c r="C122" t="s">
-        <v>355</v>
+        <v>357</v>
       </c>
       <c r="D122" t="s">
-        <v>371</v>
+        <v>386</v>
       </c>
     </row>
     <row r="123" spans="1:4">
@@ -3291,10 +3291,10 @@
         <v>125</v>
       </c>
       <c r="C123" t="s">
-        <v>357</v>
+        <v>355</v>
       </c>
       <c r="D123" t="s">
-        <v>386</v>
+        <v>371</v>
       </c>
     </row>
     <row r="124" spans="1:4">
@@ -3347,10 +3347,10 @@
         <v>129</v>
       </c>
       <c r="C127" t="s">
-        <v>354</v>
+        <v>355</v>
       </c>
       <c r="D127" t="s">
-        <v>383</v>
+        <v>371</v>
       </c>
     </row>
     <row r="128" spans="1:4">
@@ -3361,10 +3361,10 @@
         <v>130</v>
       </c>
       <c r="C128" t="s">
-        <v>355</v>
+        <v>354</v>
       </c>
       <c r="D128" t="s">
-        <v>371</v>
+        <v>383</v>
       </c>
     </row>
     <row r="129" spans="1:4">
@@ -3697,10 +3697,10 @@
         <v>154</v>
       </c>
       <c r="C152" t="s">
-        <v>355</v>
+        <v>358</v>
       </c>
       <c r="D152" t="s">
-        <v>385</v>
+        <v>374</v>
       </c>
     </row>
     <row r="153" spans="1:4">
@@ -3711,10 +3711,10 @@
         <v>155</v>
       </c>
       <c r="C153" t="s">
-        <v>358</v>
+        <v>355</v>
       </c>
       <c r="D153" t="s">
-        <v>374</v>
+        <v>385</v>
       </c>
     </row>
     <row r="154" spans="1:4">
@@ -3739,10 +3739,10 @@
         <v>157</v>
       </c>
       <c r="C155" t="s">
-        <v>356</v>
+        <v>355</v>
       </c>
       <c r="D155" t="s">
-        <v>389</v>
+        <v>382</v>
       </c>
     </row>
     <row r="156" spans="1:4">
@@ -3753,10 +3753,10 @@
         <v>158</v>
       </c>
       <c r="C156" t="s">
-        <v>355</v>
+        <v>356</v>
       </c>
       <c r="D156" t="s">
-        <v>382</v>
+        <v>389</v>
       </c>
     </row>
     <row r="157" spans="1:4">
@@ -4232,7 +4232,7 @@
         <v>355</v>
       </c>
       <c r="D190" t="s">
-        <v>376</v>
+        <v>370</v>
       </c>
     </row>
     <row r="191" spans="1:4">
@@ -4246,7 +4246,7 @@
         <v>355</v>
       </c>
       <c r="D191" t="s">
-        <v>370</v>
+        <v>376</v>
       </c>
     </row>
     <row r="192" spans="1:4">
@@ -4260,7 +4260,7 @@
         <v>355</v>
       </c>
       <c r="D192" t="s">
-        <v>368</v>
+        <v>378</v>
       </c>
     </row>
     <row r="193" spans="1:4">
@@ -4271,10 +4271,10 @@
         <v>195</v>
       </c>
       <c r="C193" t="s">
-        <v>359</v>
+        <v>355</v>
       </c>
       <c r="D193" t="s">
-        <v>368</v>
+        <v>374</v>
       </c>
     </row>
     <row r="194" spans="1:4">
@@ -4285,10 +4285,10 @@
         <v>196</v>
       </c>
       <c r="C194" t="s">
-        <v>355</v>
+        <v>359</v>
       </c>
       <c r="D194" t="s">
-        <v>378</v>
+        <v>365</v>
       </c>
     </row>
     <row r="195" spans="1:4">
@@ -4302,7 +4302,7 @@
         <v>359</v>
       </c>
       <c r="D195" t="s">
-        <v>365</v>
+        <v>368</v>
       </c>
     </row>
     <row r="196" spans="1:4">
@@ -4316,7 +4316,7 @@
         <v>355</v>
       </c>
       <c r="D196" t="s">
-        <v>374</v>
+        <v>368</v>
       </c>
     </row>
     <row r="197" spans="1:4">
@@ -4372,7 +4372,7 @@
         <v>354</v>
       </c>
       <c r="D200" t="s">
-        <v>382</v>
+        <v>373</v>
       </c>
     </row>
     <row r="201" spans="1:4">
@@ -4386,7 +4386,7 @@
         <v>354</v>
       </c>
       <c r="D201" t="s">
-        <v>373</v>
+        <v>382</v>
       </c>
     </row>
     <row r="202" spans="1:4">
@@ -4425,10 +4425,10 @@
         <v>206</v>
       </c>
       <c r="C204" t="s">
-        <v>355</v>
+        <v>358</v>
       </c>
       <c r="D204" t="s">
-        <v>372</v>
+        <v>376</v>
       </c>
     </row>
     <row r="205" spans="1:4">
@@ -4439,10 +4439,10 @@
         <v>207</v>
       </c>
       <c r="C205" t="s">
-        <v>358</v>
+        <v>355</v>
       </c>
       <c r="D205" t="s">
-        <v>376</v>
+        <v>372</v>
       </c>
     </row>
     <row r="206" spans="1:4">
@@ -4523,10 +4523,10 @@
         <v>213</v>
       </c>
       <c r="C211" t="s">
-        <v>358</v>
+        <v>357</v>
       </c>
       <c r="D211" t="s">
-        <v>380</v>
+        <v>388</v>
       </c>
     </row>
     <row r="212" spans="1:4">
@@ -4537,10 +4537,10 @@
         <v>214</v>
       </c>
       <c r="C212" t="s">
-        <v>357</v>
+        <v>358</v>
       </c>
       <c r="D212" t="s">
-        <v>388</v>
+        <v>380</v>
       </c>
     </row>
     <row r="213" spans="1:4">
@@ -4593,10 +4593,10 @@
         <v>218</v>
       </c>
       <c r="C216" t="s">
-        <v>357</v>
+        <v>356</v>
       </c>
       <c r="D216" t="s">
-        <v>381</v>
+        <v>360</v>
       </c>
     </row>
     <row r="217" spans="1:4">
@@ -4621,10 +4621,10 @@
         <v>220</v>
       </c>
       <c r="C218" t="s">
-        <v>356</v>
+        <v>357</v>
       </c>
       <c r="D218" t="s">
-        <v>360</v>
+        <v>381</v>
       </c>
     </row>
     <row r="219" spans="1:4">
@@ -4719,10 +4719,10 @@
         <v>227</v>
       </c>
       <c r="C225" t="s">
-        <v>358</v>
+        <v>354</v>
       </c>
       <c r="D225" t="s">
-        <v>371</v>
+        <v>361</v>
       </c>
     </row>
     <row r="226" spans="1:4">
@@ -4733,10 +4733,10 @@
         <v>228</v>
       </c>
       <c r="C226" t="s">
-        <v>354</v>
+        <v>358</v>
       </c>
       <c r="D226" t="s">
-        <v>361</v>
+        <v>371</v>
       </c>
     </row>
     <row r="227" spans="1:4">
@@ -4845,10 +4845,10 @@
         <v>236</v>
       </c>
       <c r="C234" t="s">
-        <v>355</v>
+        <v>354</v>
       </c>
       <c r="D234" t="s">
-        <v>382</v>
+        <v>373</v>
       </c>
     </row>
     <row r="235" spans="1:4">
@@ -4859,10 +4859,10 @@
         <v>237</v>
       </c>
       <c r="C235" t="s">
-        <v>354</v>
+        <v>355</v>
       </c>
       <c r="D235" t="s">
-        <v>373</v>
+        <v>382</v>
       </c>
     </row>
     <row r="236" spans="1:4">
@@ -5209,10 +5209,10 @@
         <v>262</v>
       </c>
       <c r="C260" t="s">
-        <v>356</v>
+        <v>355</v>
       </c>
       <c r="D260" t="s">
-        <v>369</v>
+        <v>387</v>
       </c>
     </row>
     <row r="261" spans="1:4">
@@ -5223,7 +5223,7 @@
         <v>263</v>
       </c>
       <c r="C261" t="s">
-        <v>359</v>
+        <v>356</v>
       </c>
       <c r="D261" t="s">
         <v>369</v>
@@ -5237,10 +5237,10 @@
         <v>264</v>
       </c>
       <c r="C262" t="s">
-        <v>355</v>
+        <v>359</v>
       </c>
       <c r="D262" t="s">
-        <v>387</v>
+        <v>369</v>
       </c>
     </row>
     <row r="263" spans="1:4">
@@ -5447,10 +5447,10 @@
         <v>279</v>
       </c>
       <c r="C277" t="s">
-        <v>356</v>
+        <v>358</v>
       </c>
       <c r="D277" t="s">
-        <v>388</v>
+        <v>385</v>
       </c>
     </row>
     <row r="278" spans="1:4">
@@ -5461,10 +5461,10 @@
         <v>280</v>
       </c>
       <c r="C278" t="s">
-        <v>358</v>
+        <v>356</v>
       </c>
       <c r="D278" t="s">
-        <v>385</v>
+        <v>388</v>
       </c>
     </row>
     <row r="279" spans="1:4">
@@ -5517,10 +5517,10 @@
         <v>284</v>
       </c>
       <c r="C282" t="s">
-        <v>354</v>
+        <v>358</v>
       </c>
       <c r="D282" t="s">
-        <v>383</v>
+        <v>387</v>
       </c>
     </row>
     <row r="283" spans="1:4">
@@ -5531,10 +5531,10 @@
         <v>285</v>
       </c>
       <c r="C283" t="s">
-        <v>358</v>
+        <v>354</v>
       </c>
       <c r="D283" t="s">
-        <v>387</v>
+        <v>383</v>
       </c>
     </row>
     <row r="284" spans="1:4">
@@ -5797,10 +5797,10 @@
         <v>304</v>
       </c>
       <c r="C302" t="s">
-        <v>354</v>
+        <v>358</v>
       </c>
       <c r="D302" t="s">
-        <v>366</v>
+        <v>388</v>
       </c>
     </row>
     <row r="303" spans="1:4">
@@ -5811,10 +5811,10 @@
         <v>305</v>
       </c>
       <c r="C303" t="s">
-        <v>358</v>
+        <v>354</v>
       </c>
       <c r="D303" t="s">
-        <v>388</v>
+        <v>366</v>
       </c>
     </row>
     <row r="304" spans="1:4">
@@ -5853,10 +5853,10 @@
         <v>308</v>
       </c>
       <c r="C306" t="s">
-        <v>358</v>
+        <v>355</v>
       </c>
       <c r="D306" t="s">
-        <v>389</v>
+        <v>373</v>
       </c>
     </row>
     <row r="307" spans="1:4">
@@ -5867,10 +5867,10 @@
         <v>309</v>
       </c>
       <c r="C307" t="s">
-        <v>355</v>
+        <v>358</v>
       </c>
       <c r="D307" t="s">
-        <v>373</v>
+        <v>389</v>
       </c>
     </row>
     <row r="308" spans="1:4">
@@ -5940,7 +5940,7 @@
         <v>354</v>
       </c>
       <c r="D312" t="s">
-        <v>362</v>
+        <v>377</v>
       </c>
     </row>
     <row r="313" spans="1:4">
@@ -5954,7 +5954,7 @@
         <v>354</v>
       </c>
       <c r="D313" t="s">
-        <v>377</v>
+        <v>362</v>
       </c>
     </row>
     <row r="314" spans="1:4">
@@ -6189,10 +6189,10 @@
         <v>332</v>
       </c>
       <c r="C330" t="s">
-        <v>356</v>
+        <v>355</v>
       </c>
       <c r="D330" t="s">
-        <v>367</v>
+        <v>372</v>
       </c>
     </row>
     <row r="331" spans="1:4">
@@ -6203,10 +6203,10 @@
         <v>333</v>
       </c>
       <c r="C331" t="s">
-        <v>355</v>
+        <v>356</v>
       </c>
       <c r="D331" t="s">
-        <v>372</v>
+        <v>367</v>
       </c>
     </row>
     <row r="332" spans="1:4">
@@ -6217,10 +6217,10 @@
         <v>334</v>
       </c>
       <c r="C332" t="s">
-        <v>356</v>
+        <v>354</v>
       </c>
       <c r="D332" t="s">
-        <v>384</v>
+        <v>360</v>
       </c>
     </row>
     <row r="333" spans="1:4">
@@ -6245,10 +6245,10 @@
         <v>336</v>
       </c>
       <c r="C334" t="s">
-        <v>354</v>
+        <v>356</v>
       </c>
       <c r="D334" t="s">
-        <v>360</v>
+        <v>384</v>
       </c>
     </row>
     <row r="335" spans="1:4">
@@ -6287,10 +6287,10 @@
         <v>339</v>
       </c>
       <c r="C337" t="s">
-        <v>356</v>
+        <v>359</v>
       </c>
       <c r="D337" t="s">
-        <v>364</v>
+        <v>367</v>
       </c>
     </row>
     <row r="338" spans="1:4">
@@ -6301,10 +6301,10 @@
         <v>340</v>
       </c>
       <c r="C338" t="s">
-        <v>359</v>
+        <v>356</v>
       </c>
       <c r="D338" t="s">
-        <v>367</v>
+        <v>364</v>
       </c>
     </row>
     <row r="339" spans="1:4">
@@ -6329,10 +6329,10 @@
         <v>342</v>
       </c>
       <c r="C340" t="s">
-        <v>354</v>
+        <v>358</v>
       </c>
       <c r="D340" t="s">
-        <v>372</v>
+        <v>375</v>
       </c>
     </row>
     <row r="341" spans="1:4">
@@ -6343,10 +6343,10 @@
         <v>343</v>
       </c>
       <c r="C341" t="s">
-        <v>358</v>
+        <v>354</v>
       </c>
       <c r="D341" t="s">
-        <v>375</v>
+        <v>372</v>
       </c>
     </row>
     <row r="342" spans="1:4">
@@ -6444,7 +6444,7 @@
         <v>355</v>
       </c>
       <c r="D348" t="s">
-        <v>381</v>
+        <v>374</v>
       </c>
     </row>
     <row r="349" spans="1:4">
@@ -6458,7 +6458,7 @@
         <v>355</v>
       </c>
       <c r="D349" t="s">
-        <v>374</v>
+        <v>381</v>
       </c>
     </row>
     <row r="350" spans="1:4">
@@ -7071,7 +7071,7 @@
         <v>40</v>
       </c>
       <c r="B41" t="s">
-        <v>42</v>
+        <v>43</v>
       </c>
       <c r="C41" t="s">
         <v>357</v>
@@ -7141,7 +7141,7 @@
         <v>45</v>
       </c>
       <c r="B46" t="s">
-        <v>43</v>
+        <v>42</v>
       </c>
       <c r="C46" t="s">
         <v>354</v>
@@ -7253,13 +7253,13 @@
         <v>53</v>
       </c>
       <c r="B54" t="s">
-        <v>55</v>
+        <v>58</v>
       </c>
       <c r="C54" t="s">
-        <v>356</v>
+        <v>355</v>
       </c>
       <c r="D54" t="s">
-        <v>375</v>
+        <v>382</v>
       </c>
     </row>
     <row r="55" spans="1:4">
@@ -7267,13 +7267,13 @@
         <v>54</v>
       </c>
       <c r="B55" t="s">
-        <v>58</v>
+        <v>55</v>
       </c>
       <c r="C55" t="s">
-        <v>355</v>
+        <v>356</v>
       </c>
       <c r="D55" t="s">
-        <v>382</v>
+        <v>375</v>
       </c>
     </row>
     <row r="56" spans="1:4">
@@ -7365,7 +7365,7 @@
         <v>61</v>
       </c>
       <c r="B62" t="s">
-        <v>68</v>
+        <v>67</v>
       </c>
       <c r="C62" t="s">
         <v>354</v>
@@ -7463,7 +7463,7 @@
         <v>68</v>
       </c>
       <c r="B69" t="s">
-        <v>67</v>
+        <v>68</v>
       </c>
       <c r="C69" t="s">
         <v>355</v>
@@ -7547,7 +7547,7 @@
         <v>74</v>
       </c>
       <c r="B75" t="s">
-        <v>76</v>
+        <v>77</v>
       </c>
       <c r="C75" t="s">
         <v>354</v>
@@ -7617,7 +7617,7 @@
         <v>79</v>
       </c>
       <c r="B80" t="s">
-        <v>77</v>
+        <v>76</v>
       </c>
       <c r="C80" t="s">
         <v>355</v>
@@ -7897,7 +7897,7 @@
         <v>99</v>
       </c>
       <c r="B100" t="s">
-        <v>104</v>
+        <v>106</v>
       </c>
       <c r="C100" t="s">
         <v>357</v>
@@ -7911,7 +7911,7 @@
         <v>100</v>
       </c>
       <c r="B101" t="s">
-        <v>106</v>
+        <v>105</v>
       </c>
       <c r="C101" t="s">
         <v>357</v>
@@ -8009,7 +8009,7 @@
         <v>107</v>
       </c>
       <c r="B108" t="s">
-        <v>112</v>
+        <v>114</v>
       </c>
       <c r="C108" t="s">
         <v>356</v>
@@ -8023,7 +8023,7 @@
         <v>108</v>
       </c>
       <c r="B109" t="s">
-        <v>105</v>
+        <v>104</v>
       </c>
       <c r="C109" t="s">
         <v>355</v>
@@ -8093,7 +8093,7 @@
         <v>113</v>
       </c>
       <c r="B114" t="s">
-        <v>113</v>
+        <v>112</v>
       </c>
       <c r="C114" t="s">
         <v>354</v>
@@ -8107,7 +8107,7 @@
         <v>114</v>
       </c>
       <c r="B115" t="s">
-        <v>114</v>
+        <v>113</v>
       </c>
       <c r="C115" t="s">
         <v>355</v>
@@ -8177,7 +8177,7 @@
         <v>119</v>
       </c>
       <c r="B120" t="s">
-        <v>129</v>
+        <v>130</v>
       </c>
       <c r="C120" t="s">
         <v>354</v>
@@ -8275,7 +8275,7 @@
         <v>126</v>
       </c>
       <c r="B127" t="s">
-        <v>124</v>
+        <v>129</v>
       </c>
       <c r="C127" t="s">
         <v>355</v>
@@ -8289,13 +8289,13 @@
         <v>127</v>
       </c>
       <c r="B128" t="s">
-        <v>130</v>
+        <v>119</v>
       </c>
       <c r="C128" t="s">
-        <v>355</v>
+        <v>356</v>
       </c>
       <c r="D128" t="s">
-        <v>371</v>
+        <v>391</v>
       </c>
     </row>
     <row r="129" spans="1:4">
@@ -8303,13 +8303,13 @@
         <v>128</v>
       </c>
       <c r="B129" t="s">
-        <v>119</v>
+        <v>125</v>
       </c>
       <c r="C129" t="s">
-        <v>356</v>
+        <v>355</v>
       </c>
       <c r="D129" t="s">
-        <v>391</v>
+        <v>371</v>
       </c>
     </row>
     <row r="130" spans="1:4">
@@ -8373,13 +8373,13 @@
         <v>133</v>
       </c>
       <c r="B134" t="s">
-        <v>131</v>
+        <v>132</v>
       </c>
       <c r="C134" t="s">
         <v>356</v>
       </c>
       <c r="D134" t="s">
-        <v>363</v>
+        <v>367</v>
       </c>
     </row>
     <row r="135" spans="1:4">
@@ -8387,13 +8387,13 @@
         <v>134</v>
       </c>
       <c r="B135" t="s">
-        <v>132</v>
+        <v>131</v>
       </c>
       <c r="C135" t="s">
         <v>356</v>
       </c>
       <c r="D135" t="s">
-        <v>367</v>
+        <v>363</v>
       </c>
     </row>
     <row r="136" spans="1:4">
@@ -8415,7 +8415,7 @@
         <v>136</v>
       </c>
       <c r="B137" t="s">
-        <v>125</v>
+        <v>124</v>
       </c>
       <c r="C137" t="s">
         <v>357</v>
@@ -8443,13 +8443,13 @@
         <v>138</v>
       </c>
       <c r="B139" t="s">
-        <v>144</v>
+        <v>141</v>
       </c>
       <c r="C139" t="s">
-        <v>355</v>
+        <v>354</v>
       </c>
       <c r="D139" t="s">
-        <v>391</v>
+        <v>372</v>
       </c>
     </row>
     <row r="140" spans="1:4">
@@ -8457,13 +8457,13 @@
         <v>139</v>
       </c>
       <c r="B140" t="s">
-        <v>154</v>
+        <v>144</v>
       </c>
       <c r="C140" t="s">
         <v>355</v>
       </c>
       <c r="D140" t="s">
-        <v>385</v>
+        <v>391</v>
       </c>
     </row>
     <row r="141" spans="1:4">
@@ -8471,13 +8471,13 @@
         <v>140</v>
       </c>
       <c r="B141" t="s">
-        <v>141</v>
+        <v>155</v>
       </c>
       <c r="C141" t="s">
-        <v>354</v>
+        <v>355</v>
       </c>
       <c r="D141" t="s">
-        <v>372</v>
+        <v>385</v>
       </c>
     </row>
     <row r="142" spans="1:4">
@@ -8499,13 +8499,13 @@
         <v>142</v>
       </c>
       <c r="B143" t="s">
-        <v>158</v>
+        <v>140</v>
       </c>
       <c r="C143" t="s">
-        <v>355</v>
+        <v>356</v>
       </c>
       <c r="D143" t="s">
-        <v>382</v>
+        <v>380</v>
       </c>
     </row>
     <row r="144" spans="1:4">
@@ -8527,13 +8527,13 @@
         <v>144</v>
       </c>
       <c r="B145" t="s">
-        <v>140</v>
+        <v>157</v>
       </c>
       <c r="C145" t="s">
-        <v>356</v>
+        <v>355</v>
       </c>
       <c r="D145" t="s">
-        <v>380</v>
+        <v>382</v>
       </c>
     </row>
     <row r="146" spans="1:4">
@@ -8569,13 +8569,13 @@
         <v>147</v>
       </c>
       <c r="B148" t="s">
-        <v>136</v>
+        <v>149</v>
       </c>
       <c r="C148" t="s">
-        <v>357</v>
+        <v>354</v>
       </c>
       <c r="D148" t="s">
-        <v>369</v>
+        <v>379</v>
       </c>
     </row>
     <row r="149" spans="1:4">
@@ -8583,13 +8583,13 @@
         <v>148</v>
       </c>
       <c r="B149" t="s">
-        <v>148</v>
+        <v>136</v>
       </c>
       <c r="C149" t="s">
-        <v>356</v>
+        <v>357</v>
       </c>
       <c r="D149" t="s">
-        <v>364</v>
+        <v>369</v>
       </c>
     </row>
     <row r="150" spans="1:4">
@@ -8597,13 +8597,13 @@
         <v>149</v>
       </c>
       <c r="B150" t="s">
-        <v>149</v>
+        <v>148</v>
       </c>
       <c r="C150" t="s">
-        <v>354</v>
+        <v>356</v>
       </c>
       <c r="D150" t="s">
-        <v>379</v>
+        <v>364</v>
       </c>
     </row>
     <row r="151" spans="1:4">
@@ -8667,7 +8667,7 @@
         <v>154</v>
       </c>
       <c r="B155" t="s">
-        <v>157</v>
+        <v>158</v>
       </c>
       <c r="C155" t="s">
         <v>356</v>
@@ -8807,7 +8807,7 @@
         <v>164</v>
       </c>
       <c r="B165" t="s">
-        <v>155</v>
+        <v>154</v>
       </c>
       <c r="C165" t="s">
         <v>358</v>
@@ -8821,7 +8821,7 @@
         <v>165</v>
       </c>
       <c r="B166" t="s">
-        <v>193</v>
+        <v>192</v>
       </c>
       <c r="C166" t="s">
         <v>355</v>
@@ -8933,7 +8933,7 @@
         <v>173</v>
       </c>
       <c r="B174" t="s">
-        <v>198</v>
+        <v>195</v>
       </c>
       <c r="C174" t="s">
         <v>355</v>
@@ -9003,13 +9003,13 @@
         <v>178</v>
       </c>
       <c r="B179" t="s">
-        <v>176</v>
+        <v>180</v>
       </c>
       <c r="C179" t="s">
-        <v>358</v>
+        <v>354</v>
       </c>
       <c r="D179" t="s">
-        <v>369</v>
+        <v>385</v>
       </c>
     </row>
     <row r="180" spans="1:4">
@@ -9017,13 +9017,13 @@
         <v>179</v>
       </c>
       <c r="B180" t="s">
-        <v>180</v>
+        <v>176</v>
       </c>
       <c r="C180" t="s">
-        <v>354</v>
+        <v>358</v>
       </c>
       <c r="D180" t="s">
-        <v>385</v>
+        <v>369</v>
       </c>
     </row>
     <row r="181" spans="1:4">
@@ -9087,13 +9087,13 @@
         <v>184</v>
       </c>
       <c r="B185" t="s">
-        <v>194</v>
+        <v>173</v>
       </c>
       <c r="C185" t="s">
-        <v>355</v>
+        <v>357</v>
       </c>
       <c r="D185" t="s">
-        <v>368</v>
+        <v>384</v>
       </c>
     </row>
     <row r="186" spans="1:4">
@@ -9101,13 +9101,13 @@
         <v>185</v>
       </c>
       <c r="B186" t="s">
-        <v>173</v>
+        <v>198</v>
       </c>
       <c r="C186" t="s">
-        <v>357</v>
+        <v>355</v>
       </c>
       <c r="D186" t="s">
-        <v>384</v>
+        <v>368</v>
       </c>
     </row>
     <row r="187" spans="1:4">
@@ -9129,7 +9129,7 @@
         <v>187</v>
       </c>
       <c r="B188" t="s">
-        <v>196</v>
+        <v>194</v>
       </c>
       <c r="C188" t="s">
         <v>355</v>
@@ -9143,13 +9143,13 @@
         <v>188</v>
       </c>
       <c r="B189" t="s">
-        <v>189</v>
+        <v>208</v>
       </c>
       <c r="C189" t="s">
         <v>354</v>
       </c>
       <c r="D189" t="s">
-        <v>371</v>
+        <v>361</v>
       </c>
     </row>
     <row r="190" spans="1:4">
@@ -9157,13 +9157,13 @@
         <v>189</v>
       </c>
       <c r="B190" t="s">
-        <v>208</v>
+        <v>189</v>
       </c>
       <c r="C190" t="s">
         <v>354</v>
       </c>
       <c r="D190" t="s">
-        <v>361</v>
+        <v>371</v>
       </c>
     </row>
     <row r="191" spans="1:4">
@@ -9171,13 +9171,13 @@
         <v>190</v>
       </c>
       <c r="B191" t="s">
-        <v>192</v>
+        <v>209</v>
       </c>
       <c r="C191" t="s">
         <v>355</v>
       </c>
       <c r="D191" t="s">
-        <v>376</v>
+        <v>377</v>
       </c>
     </row>
     <row r="192" spans="1:4">
@@ -9199,13 +9199,13 @@
         <v>192</v>
       </c>
       <c r="B193" t="s">
-        <v>209</v>
+        <v>193</v>
       </c>
       <c r="C193" t="s">
         <v>355</v>
       </c>
       <c r="D193" t="s">
-        <v>377</v>
+        <v>376</v>
       </c>
     </row>
     <row r="194" spans="1:4">
@@ -9255,13 +9255,13 @@
         <v>196</v>
       </c>
       <c r="B197" t="s">
-        <v>206</v>
+        <v>197</v>
       </c>
       <c r="C197" t="s">
-        <v>355</v>
+        <v>359</v>
       </c>
       <c r="D197" t="s">
-        <v>372</v>
+        <v>368</v>
       </c>
     </row>
     <row r="198" spans="1:4">
@@ -9269,13 +9269,13 @@
         <v>197</v>
       </c>
       <c r="B198" t="s">
-        <v>195</v>
+        <v>207</v>
       </c>
       <c r="C198" t="s">
-        <v>359</v>
+        <v>355</v>
       </c>
       <c r="D198" t="s">
-        <v>368</v>
+        <v>372</v>
       </c>
     </row>
     <row r="199" spans="1:4">
@@ -9311,13 +9311,13 @@
         <v>200</v>
       </c>
       <c r="B201" t="s">
-        <v>215</v>
+        <v>203</v>
       </c>
       <c r="C201" t="s">
-        <v>355</v>
+        <v>354</v>
       </c>
       <c r="D201" t="s">
-        <v>360</v>
+        <v>382</v>
       </c>
     </row>
     <row r="202" spans="1:4">
@@ -9325,13 +9325,13 @@
         <v>201</v>
       </c>
       <c r="B202" t="s">
-        <v>202</v>
+        <v>216</v>
       </c>
       <c r="C202" t="s">
-        <v>354</v>
+        <v>355</v>
       </c>
       <c r="D202" t="s">
-        <v>382</v>
+        <v>367</v>
       </c>
     </row>
     <row r="203" spans="1:4">
@@ -9339,13 +9339,13 @@
         <v>202</v>
       </c>
       <c r="B203" t="s">
-        <v>216</v>
+        <v>215</v>
       </c>
       <c r="C203" t="s">
         <v>355</v>
       </c>
       <c r="D203" t="s">
-        <v>367</v>
+        <v>360</v>
       </c>
     </row>
     <row r="204" spans="1:4">
@@ -9353,7 +9353,7 @@
         <v>203</v>
       </c>
       <c r="B204" t="s">
-        <v>197</v>
+        <v>196</v>
       </c>
       <c r="C204" t="s">
         <v>359</v>
@@ -9437,7 +9437,7 @@
         <v>209</v>
       </c>
       <c r="B210" t="s">
-        <v>207</v>
+        <v>206</v>
       </c>
       <c r="C210" t="s">
         <v>358</v>
@@ -9465,7 +9465,7 @@
         <v>211</v>
       </c>
       <c r="B212" t="s">
-        <v>203</v>
+        <v>202</v>
       </c>
       <c r="C212" t="s">
         <v>354</v>
@@ -9479,7 +9479,7 @@
         <v>212</v>
       </c>
       <c r="B213" t="s">
-        <v>213</v>
+        <v>214</v>
       </c>
       <c r="C213" t="s">
         <v>358</v>
@@ -9577,7 +9577,7 @@
         <v>219</v>
       </c>
       <c r="B220" t="s">
-        <v>220</v>
+        <v>218</v>
       </c>
       <c r="C220" t="s">
         <v>356</v>
@@ -9619,13 +9619,13 @@
         <v>222</v>
       </c>
       <c r="B223" t="s">
-        <v>233</v>
+        <v>210</v>
       </c>
       <c r="C223" t="s">
         <v>354</v>
       </c>
       <c r="D223" t="s">
-        <v>371</v>
+        <v>364</v>
       </c>
     </row>
     <row r="224" spans="1:4">
@@ -9633,13 +9633,13 @@
         <v>223</v>
       </c>
       <c r="B224" t="s">
-        <v>210</v>
+        <v>233</v>
       </c>
       <c r="C224" t="s">
         <v>354</v>
       </c>
       <c r="D224" t="s">
-        <v>364</v>
+        <v>371</v>
       </c>
     </row>
     <row r="225" spans="1:4">
@@ -9661,7 +9661,7 @@
         <v>225</v>
       </c>
       <c r="B226" t="s">
-        <v>236</v>
+        <v>237</v>
       </c>
       <c r="C226" t="s">
         <v>355</v>
@@ -9689,7 +9689,7 @@
         <v>227</v>
       </c>
       <c r="B228" t="s">
-        <v>227</v>
+        <v>228</v>
       </c>
       <c r="C228" t="s">
         <v>358</v>
@@ -9703,7 +9703,7 @@
         <v>228</v>
       </c>
       <c r="B229" t="s">
-        <v>218</v>
+        <v>220</v>
       </c>
       <c r="C229" t="s">
         <v>357</v>
@@ -9759,13 +9759,13 @@
         <v>232</v>
       </c>
       <c r="B233" t="s">
-        <v>230</v>
+        <v>213</v>
       </c>
       <c r="C233" t="s">
-        <v>358</v>
+        <v>357</v>
       </c>
       <c r="D233" t="s">
-        <v>366</v>
+        <v>388</v>
       </c>
     </row>
     <row r="234" spans="1:4">
@@ -9773,13 +9773,13 @@
         <v>233</v>
       </c>
       <c r="B234" t="s">
-        <v>214</v>
+        <v>230</v>
       </c>
       <c r="C234" t="s">
-        <v>357</v>
+        <v>358</v>
       </c>
       <c r="D234" t="s">
-        <v>388</v>
+        <v>366</v>
       </c>
     </row>
     <row r="235" spans="1:4">
@@ -9815,13 +9815,13 @@
         <v>236</v>
       </c>
       <c r="B237" t="s">
-        <v>240</v>
+        <v>242</v>
       </c>
       <c r="C237" t="s">
-        <v>354</v>
+        <v>355</v>
       </c>
       <c r="D237" t="s">
-        <v>382</v>
+        <v>374</v>
       </c>
     </row>
     <row r="238" spans="1:4">
@@ -9829,13 +9829,13 @@
         <v>237</v>
       </c>
       <c r="B238" t="s">
-        <v>242</v>
+        <v>240</v>
       </c>
       <c r="C238" t="s">
-        <v>355</v>
+        <v>354</v>
       </c>
       <c r="D238" t="s">
-        <v>374</v>
+        <v>382</v>
       </c>
     </row>
     <row r="239" spans="1:4">
@@ -9843,7 +9843,7 @@
         <v>238</v>
       </c>
       <c r="B239" t="s">
-        <v>228</v>
+        <v>227</v>
       </c>
       <c r="C239" t="s">
         <v>354</v>
@@ -9857,7 +9857,7 @@
         <v>239</v>
       </c>
       <c r="B240" t="s">
-        <v>237</v>
+        <v>236</v>
       </c>
       <c r="C240" t="s">
         <v>354</v>
@@ -10095,13 +10095,13 @@
         <v>256</v>
       </c>
       <c r="B257" t="s">
-        <v>271</v>
+        <v>262</v>
       </c>
       <c r="C257" t="s">
         <v>355</v>
       </c>
       <c r="D257" t="s">
-        <v>388</v>
+        <v>387</v>
       </c>
     </row>
     <row r="258" spans="1:4">
@@ -10109,13 +10109,13 @@
         <v>257</v>
       </c>
       <c r="B258" t="s">
-        <v>266</v>
+        <v>271</v>
       </c>
       <c r="C258" t="s">
-        <v>358</v>
+        <v>355</v>
       </c>
       <c r="D258" t="s">
-        <v>363</v>
+        <v>388</v>
       </c>
     </row>
     <row r="259" spans="1:4">
@@ -10123,13 +10123,13 @@
         <v>258</v>
       </c>
       <c r="B259" t="s">
-        <v>264</v>
+        <v>266</v>
       </c>
       <c r="C259" t="s">
-        <v>355</v>
+        <v>358</v>
       </c>
       <c r="D259" t="s">
-        <v>387</v>
+        <v>363</v>
       </c>
     </row>
     <row r="260" spans="1:4">
@@ -10151,7 +10151,7 @@
         <v>260</v>
       </c>
       <c r="B261" t="s">
-        <v>263</v>
+        <v>264</v>
       </c>
       <c r="C261" t="s">
         <v>359</v>
@@ -10291,13 +10291,13 @@
         <v>270</v>
       </c>
       <c r="B271" t="s">
-        <v>280</v>
+        <v>260</v>
       </c>
       <c r="C271" t="s">
-        <v>358</v>
+        <v>356</v>
       </c>
       <c r="D271" t="s">
-        <v>385</v>
+        <v>379</v>
       </c>
     </row>
     <row r="272" spans="1:4">
@@ -10305,13 +10305,13 @@
         <v>271</v>
       </c>
       <c r="B272" t="s">
-        <v>260</v>
+        <v>279</v>
       </c>
       <c r="C272" t="s">
-        <v>356</v>
+        <v>358</v>
       </c>
       <c r="D272" t="s">
-        <v>379</v>
+        <v>385</v>
       </c>
     </row>
     <row r="273" spans="1:4">
@@ -10319,13 +10319,13 @@
         <v>272</v>
       </c>
       <c r="B273" t="s">
-        <v>278</v>
+        <v>284</v>
       </c>
       <c r="C273" t="s">
-        <v>359</v>
+        <v>358</v>
       </c>
       <c r="D273" t="s">
-        <v>388</v>
+        <v>387</v>
       </c>
     </row>
     <row r="274" spans="1:4">
@@ -10333,13 +10333,13 @@
         <v>273</v>
       </c>
       <c r="B274" t="s">
-        <v>285</v>
+        <v>278</v>
       </c>
       <c r="C274" t="s">
-        <v>358</v>
+        <v>359</v>
       </c>
       <c r="D274" t="s">
-        <v>387</v>
+        <v>388</v>
       </c>
     </row>
     <row r="275" spans="1:4">
@@ -10389,7 +10389,7 @@
         <v>277</v>
       </c>
       <c r="B278" t="s">
-        <v>262</v>
+        <v>263</v>
       </c>
       <c r="C278" t="s">
         <v>356</v>
@@ -10431,7 +10431,7 @@
         <v>280</v>
       </c>
       <c r="B281" t="s">
-        <v>308</v>
+        <v>309</v>
       </c>
       <c r="C281" t="s">
         <v>358</v>
@@ -10445,13 +10445,13 @@
         <v>281</v>
       </c>
       <c r="B282" t="s">
-        <v>292</v>
+        <v>283</v>
       </c>
       <c r="C282" t="s">
         <v>354</v>
       </c>
       <c r="D282" t="s">
-        <v>375</v>
+        <v>380</v>
       </c>
     </row>
     <row r="283" spans="1:4">
@@ -10473,7 +10473,7 @@
         <v>283</v>
       </c>
       <c r="B284" t="s">
-        <v>305</v>
+        <v>304</v>
       </c>
       <c r="C284" t="s">
         <v>358</v>
@@ -10487,13 +10487,13 @@
         <v>284</v>
       </c>
       <c r="B285" t="s">
-        <v>283</v>
+        <v>292</v>
       </c>
       <c r="C285" t="s">
         <v>354</v>
       </c>
       <c r="D285" t="s">
-        <v>380</v>
+        <v>375</v>
       </c>
     </row>
     <row r="286" spans="1:4">
@@ -10529,13 +10529,13 @@
         <v>287</v>
       </c>
       <c r="B288" t="s">
-        <v>301</v>
+        <v>280</v>
       </c>
       <c r="C288" t="s">
-        <v>359</v>
+        <v>356</v>
       </c>
       <c r="D288" t="s">
-        <v>387</v>
+        <v>388</v>
       </c>
     </row>
     <row r="289" spans="1:4">
@@ -10543,13 +10543,13 @@
         <v>288</v>
       </c>
       <c r="B289" t="s">
-        <v>279</v>
+        <v>301</v>
       </c>
       <c r="C289" t="s">
-        <v>356</v>
+        <v>359</v>
       </c>
       <c r="D289" t="s">
-        <v>388</v>
+        <v>387</v>
       </c>
     </row>
     <row r="290" spans="1:4">
@@ -10655,7 +10655,7 @@
         <v>296</v>
       </c>
       <c r="B297" t="s">
-        <v>284</v>
+        <v>285</v>
       </c>
       <c r="C297" t="s">
         <v>354</v>
@@ -10753,13 +10753,13 @@
         <v>303</v>
       </c>
       <c r="B304" t="s">
-        <v>319</v>
+        <v>308</v>
       </c>
       <c r="C304" t="s">
-        <v>358</v>
+        <v>355</v>
       </c>
       <c r="D304" t="s">
-        <v>386</v>
+        <v>373</v>
       </c>
     </row>
     <row r="305" spans="1:4">
@@ -10767,13 +10767,13 @@
         <v>304</v>
       </c>
       <c r="B305" t="s">
-        <v>309</v>
+        <v>319</v>
       </c>
       <c r="C305" t="s">
-        <v>355</v>
+        <v>358</v>
       </c>
       <c r="D305" t="s">
-        <v>373</v>
+        <v>386</v>
       </c>
     </row>
     <row r="306" spans="1:4">
@@ -10809,13 +10809,13 @@
         <v>307</v>
       </c>
       <c r="B308" t="s">
-        <v>307</v>
+        <v>306</v>
       </c>
       <c r="C308" t="s">
-        <v>356</v>
+        <v>355</v>
       </c>
       <c r="D308" t="s">
-        <v>370</v>
+        <v>387</v>
       </c>
     </row>
     <row r="309" spans="1:4">
@@ -10823,13 +10823,13 @@
         <v>308</v>
       </c>
       <c r="B309" t="s">
-        <v>306</v>
+        <v>307</v>
       </c>
       <c r="C309" t="s">
-        <v>355</v>
+        <v>356</v>
       </c>
       <c r="D309" t="s">
-        <v>387</v>
+        <v>370</v>
       </c>
     </row>
     <row r="310" spans="1:4">
@@ -10851,13 +10851,13 @@
         <v>310</v>
       </c>
       <c r="B311" t="s">
-        <v>314</v>
+        <v>299</v>
       </c>
       <c r="C311" t="s">
-        <v>354</v>
+        <v>356</v>
       </c>
       <c r="D311" t="s">
-        <v>362</v>
+        <v>379</v>
       </c>
     </row>
     <row r="312" spans="1:4">
@@ -10865,13 +10865,13 @@
         <v>311</v>
       </c>
       <c r="B312" t="s">
-        <v>299</v>
+        <v>315</v>
       </c>
       <c r="C312" t="s">
-        <v>356</v>
+        <v>354</v>
       </c>
       <c r="D312" t="s">
-        <v>379</v>
+        <v>362</v>
       </c>
     </row>
     <row r="313" spans="1:4">
@@ -10893,7 +10893,7 @@
         <v>313</v>
       </c>
       <c r="B314" t="s">
-        <v>304</v>
+        <v>305</v>
       </c>
       <c r="C314" t="s">
         <v>354</v>
@@ -11033,13 +11033,13 @@
         <v>323</v>
       </c>
       <c r="B324" t="s">
-        <v>327</v>
+        <v>330</v>
       </c>
       <c r="C324" t="s">
-        <v>357</v>
+        <v>355</v>
       </c>
       <c r="D324" t="s">
-        <v>361</v>
+        <v>385</v>
       </c>
     </row>
     <row r="325" spans="1:4">
@@ -11047,13 +11047,13 @@
         <v>324</v>
       </c>
       <c r="B325" t="s">
-        <v>330</v>
+        <v>323</v>
       </c>
       <c r="C325" t="s">
-        <v>355</v>
+        <v>356</v>
       </c>
       <c r="D325" t="s">
-        <v>385</v>
+        <v>390</v>
       </c>
     </row>
     <row r="326" spans="1:4">
@@ -11061,13 +11061,13 @@
         <v>325</v>
       </c>
       <c r="B326" t="s">
-        <v>323</v>
+        <v>327</v>
       </c>
       <c r="C326" t="s">
-        <v>356</v>
+        <v>357</v>
       </c>
       <c r="D326" t="s">
-        <v>390</v>
+        <v>361</v>
       </c>
     </row>
     <row r="327" spans="1:4">
@@ -11075,7 +11075,7 @@
         <v>326</v>
       </c>
       <c r="B327" t="s">
-        <v>315</v>
+        <v>314</v>
       </c>
       <c r="C327" t="s">
         <v>354</v>
@@ -11103,13 +11103,13 @@
         <v>328</v>
       </c>
       <c r="B329" t="s">
-        <v>341</v>
+        <v>332</v>
       </c>
       <c r="C329" t="s">
-        <v>354</v>
+        <v>355</v>
       </c>
       <c r="D329" t="s">
-        <v>391</v>
+        <v>372</v>
       </c>
     </row>
     <row r="330" spans="1:4">
@@ -11117,13 +11117,13 @@
         <v>329</v>
       </c>
       <c r="B330" t="s">
-        <v>345</v>
+        <v>341</v>
       </c>
       <c r="C330" t="s">
         <v>354</v>
       </c>
       <c r="D330" t="s">
-        <v>367</v>
+        <v>391</v>
       </c>
     </row>
     <row r="331" spans="1:4">
@@ -11131,13 +11131,13 @@
         <v>330</v>
       </c>
       <c r="B331" t="s">
-        <v>333</v>
+        <v>345</v>
       </c>
       <c r="C331" t="s">
-        <v>355</v>
+        <v>354</v>
       </c>
       <c r="D331" t="s">
-        <v>372</v>
+        <v>367</v>
       </c>
     </row>
     <row r="332" spans="1:4">
@@ -11145,13 +11145,13 @@
         <v>331</v>
       </c>
       <c r="B332" t="s">
-        <v>338</v>
+        <v>326</v>
       </c>
       <c r="C332" t="s">
-        <v>354</v>
+        <v>356</v>
       </c>
       <c r="D332" t="s">
-        <v>386</v>
+        <v>377</v>
       </c>
     </row>
     <row r="333" spans="1:4">
@@ -11159,13 +11159,13 @@
         <v>332</v>
       </c>
       <c r="B333" t="s">
-        <v>326</v>
+        <v>338</v>
       </c>
       <c r="C333" t="s">
-        <v>356</v>
+        <v>354</v>
       </c>
       <c r="D333" t="s">
-        <v>377</v>
+        <v>386</v>
       </c>
     </row>
     <row r="334" spans="1:4">
@@ -11173,7 +11173,7 @@
         <v>333</v>
       </c>
       <c r="B334" t="s">
-        <v>342</v>
+        <v>343</v>
       </c>
       <c r="C334" t="s">
         <v>354</v>
@@ -11187,7 +11187,7 @@
         <v>334</v>
       </c>
       <c r="B335" t="s">
-        <v>340</v>
+        <v>339</v>
       </c>
       <c r="C335" t="s">
         <v>359</v>
@@ -11201,7 +11201,7 @@
         <v>335</v>
       </c>
       <c r="B336" t="s">
-        <v>332</v>
+        <v>333</v>
       </c>
       <c r="C336" t="s">
         <v>356</v>
@@ -11229,7 +11229,7 @@
         <v>337</v>
       </c>
       <c r="B338" t="s">
-        <v>343</v>
+        <v>342</v>
       </c>
       <c r="C338" t="s">
         <v>358</v>
@@ -11243,7 +11243,7 @@
         <v>338</v>
       </c>
       <c r="B339" t="s">
-        <v>336</v>
+        <v>334</v>
       </c>
       <c r="C339" t="s">
         <v>354</v>
@@ -11271,7 +11271,7 @@
         <v>340</v>
       </c>
       <c r="B341" t="s">
-        <v>334</v>
+        <v>336</v>
       </c>
       <c r="C341" t="s">
         <v>356</v>
@@ -11313,13 +11313,13 @@
         <v>343</v>
       </c>
       <c r="B344" t="s">
-        <v>329</v>
+        <v>344</v>
       </c>
       <c r="C344" t="s">
-        <v>356</v>
+        <v>357</v>
       </c>
       <c r="D344" t="s">
-        <v>369</v>
+        <v>381</v>
       </c>
     </row>
     <row r="345" spans="1:4">
@@ -11327,13 +11327,13 @@
         <v>344</v>
       </c>
       <c r="B345" t="s">
-        <v>339</v>
+        <v>329</v>
       </c>
       <c r="C345" t="s">
         <v>356</v>
       </c>
       <c r="D345" t="s">
-        <v>364</v>
+        <v>369</v>
       </c>
     </row>
     <row r="346" spans="1:4">
@@ -11341,13 +11341,13 @@
         <v>345</v>
       </c>
       <c r="B346" t="s">
-        <v>344</v>
+        <v>349</v>
       </c>
       <c r="C346" t="s">
-        <v>357</v>
+        <v>355</v>
       </c>
       <c r="D346" t="s">
-        <v>381</v>
+        <v>364</v>
       </c>
     </row>
     <row r="347" spans="1:4">
@@ -11355,10 +11355,10 @@
         <v>346</v>
       </c>
       <c r="B347" t="s">
-        <v>349</v>
+        <v>340</v>
       </c>
       <c r="C347" t="s">
-        <v>355</v>
+        <v>356</v>
       </c>
       <c r="D347" t="s">
         <v>364</v>
@@ -11369,13 +11369,13 @@
         <v>347</v>
       </c>
       <c r="B348" t="s">
-        <v>350</v>
+        <v>393</v>
       </c>
       <c r="C348" t="s">
-        <v>355</v>
+        <v>358</v>
       </c>
       <c r="D348" t="s">
-        <v>381</v>
+        <v>372</v>
       </c>
     </row>
     <row r="349" spans="1:4">
@@ -11383,13 +11383,13 @@
         <v>348</v>
       </c>
       <c r="B349" t="s">
-        <v>393</v>
+        <v>351</v>
       </c>
       <c r="C349" t="s">
-        <v>358</v>
+        <v>355</v>
       </c>
       <c r="D349" t="s">
-        <v>372</v>
+        <v>381</v>
       </c>
     </row>
     <row r="350" spans="1:4">
@@ -11411,7 +11411,7 @@
         <v>350</v>
       </c>
       <c r="B351" t="s">
-        <v>351</v>
+        <v>350</v>
       </c>
       <c r="C351" t="s">
         <v>355</v>
@@ -11596,13 +11596,13 @@
         <v>11</v>
       </c>
       <c r="B12" t="s">
-        <v>15</v>
+        <v>17</v>
       </c>
       <c r="C12" t="s">
-        <v>355</v>
+        <v>356</v>
       </c>
       <c r="D12" t="s">
-        <v>365</v>
+        <v>371</v>
       </c>
     </row>
     <row r="13" spans="1:4">
@@ -11610,13 +11610,13 @@
         <v>12</v>
       </c>
       <c r="B13" t="s">
-        <v>17</v>
+        <v>15</v>
       </c>
       <c r="C13" t="s">
-        <v>356</v>
+        <v>355</v>
       </c>
       <c r="D13" t="s">
-        <v>371</v>
+        <v>365</v>
       </c>
     </row>
     <row r="14" spans="1:4">
@@ -12030,7 +12030,7 @@
         <v>42</v>
       </c>
       <c r="B43" t="s">
-        <v>42</v>
+        <v>43</v>
       </c>
       <c r="C43" t="s">
         <v>357</v>
@@ -12142,7 +12142,7 @@
         <v>50</v>
       </c>
       <c r="B51" t="s">
-        <v>43</v>
+        <v>42</v>
       </c>
       <c r="C51" t="s">
         <v>354</v>
@@ -12226,13 +12226,13 @@
         <v>56</v>
       </c>
       <c r="B57" t="s">
-        <v>61</v>
+        <v>60</v>
       </c>
       <c r="C57" t="s">
-        <v>355</v>
+        <v>354</v>
       </c>
       <c r="D57" t="s">
-        <v>387</v>
+        <v>375</v>
       </c>
     </row>
     <row r="58" spans="1:4">
@@ -12240,13 +12240,13 @@
         <v>57</v>
       </c>
       <c r="B58" t="s">
-        <v>60</v>
+        <v>61</v>
       </c>
       <c r="C58" t="s">
-        <v>354</v>
+        <v>355</v>
       </c>
       <c r="D58" t="s">
-        <v>375</v>
+        <v>387</v>
       </c>
     </row>
     <row r="59" spans="1:4">
@@ -12268,7 +12268,7 @@
         <v>59</v>
       </c>
       <c r="B60" t="s">
-        <v>67</v>
+        <v>68</v>
       </c>
       <c r="C60" t="s">
         <v>355</v>
@@ -12324,7 +12324,7 @@
         <v>63</v>
       </c>
       <c r="B64" t="s">
-        <v>68</v>
+        <v>67</v>
       </c>
       <c r="C64" t="s">
         <v>354</v>
@@ -12366,13 +12366,13 @@
         <v>66</v>
       </c>
       <c r="B67" t="s">
-        <v>63</v>
+        <v>74</v>
       </c>
       <c r="C67" t="s">
-        <v>356</v>
+        <v>355</v>
       </c>
       <c r="D67" t="s">
-        <v>378</v>
+        <v>371</v>
       </c>
     </row>
     <row r="68" spans="1:4">
@@ -12380,13 +12380,13 @@
         <v>67</v>
       </c>
       <c r="B68" t="s">
-        <v>74</v>
+        <v>63</v>
       </c>
       <c r="C68" t="s">
-        <v>355</v>
+        <v>356</v>
       </c>
       <c r="D68" t="s">
-        <v>371</v>
+        <v>378</v>
       </c>
     </row>
     <row r="69" spans="1:4">
@@ -12492,7 +12492,7 @@
         <v>75</v>
       </c>
       <c r="B76" t="s">
-        <v>77</v>
+        <v>76</v>
       </c>
       <c r="C76" t="s">
         <v>355</v>
@@ -12534,13 +12534,13 @@
         <v>78</v>
       </c>
       <c r="B79" t="s">
-        <v>87</v>
+        <v>75</v>
       </c>
       <c r="C79" t="s">
-        <v>354</v>
+        <v>356</v>
       </c>
       <c r="D79" t="s">
-        <v>391</v>
+        <v>383</v>
       </c>
     </row>
     <row r="80" spans="1:4">
@@ -12548,13 +12548,13 @@
         <v>79</v>
       </c>
       <c r="B80" t="s">
-        <v>75</v>
+        <v>87</v>
       </c>
       <c r="C80" t="s">
-        <v>356</v>
+        <v>354</v>
       </c>
       <c r="D80" t="s">
-        <v>383</v>
+        <v>391</v>
       </c>
     </row>
     <row r="81" spans="1:4">
@@ -12562,7 +12562,7 @@
         <v>80</v>
       </c>
       <c r="B81" t="s">
-        <v>76</v>
+        <v>77</v>
       </c>
       <c r="C81" t="s">
         <v>354</v>
@@ -12646,13 +12646,13 @@
         <v>86</v>
       </c>
       <c r="B87" t="s">
-        <v>94</v>
+        <v>88</v>
       </c>
       <c r="C87" t="s">
-        <v>354</v>
+        <v>357</v>
       </c>
       <c r="D87" t="s">
-        <v>374</v>
+        <v>379</v>
       </c>
     </row>
     <row r="88" spans="1:4">
@@ -12660,13 +12660,13 @@
         <v>87</v>
       </c>
       <c r="B88" t="s">
-        <v>88</v>
+        <v>94</v>
       </c>
       <c r="C88" t="s">
-        <v>357</v>
+        <v>354</v>
       </c>
       <c r="D88" t="s">
-        <v>379</v>
+        <v>374</v>
       </c>
     </row>
     <row r="89" spans="1:4">
@@ -12828,7 +12828,7 @@
         <v>99</v>
       </c>
       <c r="B100" t="s">
-        <v>104</v>
+        <v>106</v>
       </c>
       <c r="C100" t="s">
         <v>357</v>
@@ -12842,13 +12842,13 @@
         <v>100</v>
       </c>
       <c r="B101" t="s">
-        <v>128</v>
+        <v>105</v>
       </c>
       <c r="C101" t="s">
-        <v>354</v>
+        <v>357</v>
       </c>
       <c r="D101" t="s">
-        <v>360</v>
+        <v>376</v>
       </c>
     </row>
     <row r="102" spans="1:4">
@@ -12856,13 +12856,13 @@
         <v>101</v>
       </c>
       <c r="B102" t="s">
-        <v>106</v>
+        <v>128</v>
       </c>
       <c r="C102" t="s">
-        <v>357</v>
+        <v>354</v>
       </c>
       <c r="D102" t="s">
-        <v>376</v>
+        <v>360</v>
       </c>
     </row>
     <row r="103" spans="1:4">
@@ -12926,7 +12926,7 @@
         <v>106</v>
       </c>
       <c r="B107" t="s">
-        <v>112</v>
+        <v>114</v>
       </c>
       <c r="C107" t="s">
         <v>356</v>
@@ -12940,13 +12940,13 @@
         <v>107</v>
       </c>
       <c r="B108" t="s">
-        <v>107</v>
+        <v>104</v>
       </c>
       <c r="C108" t="s">
         <v>355</v>
       </c>
       <c r="D108" t="s">
-        <v>370</v>
+        <v>382</v>
       </c>
     </row>
     <row r="109" spans="1:4">
@@ -12954,13 +12954,13 @@
         <v>108</v>
       </c>
       <c r="B109" t="s">
-        <v>105</v>
+        <v>107</v>
       </c>
       <c r="C109" t="s">
         <v>355</v>
       </c>
       <c r="D109" t="s">
-        <v>382</v>
+        <v>370</v>
       </c>
     </row>
     <row r="110" spans="1:4">
@@ -13038,7 +13038,7 @@
         <v>114</v>
       </c>
       <c r="B115" t="s">
-        <v>113</v>
+        <v>112</v>
       </c>
       <c r="C115" t="s">
         <v>354</v>
@@ -13080,7 +13080,7 @@
         <v>117</v>
       </c>
       <c r="B118" t="s">
-        <v>114</v>
+        <v>113</v>
       </c>
       <c r="C118" t="s">
         <v>355</v>
@@ -13094,13 +13094,13 @@
         <v>118</v>
       </c>
       <c r="B119" t="s">
-        <v>122</v>
+        <v>153</v>
       </c>
       <c r="C119" t="s">
         <v>354</v>
       </c>
       <c r="D119" t="s">
-        <v>388</v>
+        <v>385</v>
       </c>
     </row>
     <row r="120" spans="1:4">
@@ -13108,13 +13108,13 @@
         <v>119</v>
       </c>
       <c r="B120" t="s">
-        <v>153</v>
+        <v>122</v>
       </c>
       <c r="C120" t="s">
         <v>354</v>
       </c>
       <c r="D120" t="s">
-        <v>385</v>
+        <v>388</v>
       </c>
     </row>
     <row r="121" spans="1:4">
@@ -13122,7 +13122,7 @@
         <v>120</v>
       </c>
       <c r="B121" t="s">
-        <v>129</v>
+        <v>130</v>
       </c>
       <c r="C121" t="s">
         <v>354</v>
@@ -13192,7 +13192,7 @@
         <v>125</v>
       </c>
       <c r="B126" t="s">
-        <v>130</v>
+        <v>129</v>
       </c>
       <c r="C126" t="s">
         <v>355</v>
@@ -13262,7 +13262,7 @@
         <v>130</v>
       </c>
       <c r="B131" t="s">
-        <v>124</v>
+        <v>125</v>
       </c>
       <c r="C131" t="s">
         <v>355</v>
@@ -13318,13 +13318,13 @@
         <v>134</v>
       </c>
       <c r="B135" t="s">
-        <v>131</v>
+        <v>157</v>
       </c>
       <c r="C135" t="s">
-        <v>356</v>
+        <v>355</v>
       </c>
       <c r="D135" t="s">
-        <v>363</v>
+        <v>382</v>
       </c>
     </row>
     <row r="136" spans="1:4">
@@ -13332,13 +13332,13 @@
         <v>135</v>
       </c>
       <c r="B136" t="s">
-        <v>158</v>
+        <v>131</v>
       </c>
       <c r="C136" t="s">
-        <v>355</v>
+        <v>356</v>
       </c>
       <c r="D136" t="s">
-        <v>382</v>
+        <v>363</v>
       </c>
     </row>
     <row r="137" spans="1:4">
@@ -13360,13 +13360,13 @@
         <v>137</v>
       </c>
       <c r="B138" t="s">
-        <v>144</v>
+        <v>135</v>
       </c>
       <c r="C138" t="s">
         <v>355</v>
       </c>
       <c r="D138" t="s">
-        <v>391</v>
+        <v>378</v>
       </c>
     </row>
     <row r="139" spans="1:4">
@@ -13374,13 +13374,13 @@
         <v>138</v>
       </c>
       <c r="B139" t="s">
-        <v>135</v>
+        <v>144</v>
       </c>
       <c r="C139" t="s">
         <v>355</v>
       </c>
       <c r="D139" t="s">
-        <v>378</v>
+        <v>391</v>
       </c>
     </row>
     <row r="140" spans="1:4">
@@ -13402,13 +13402,13 @@
         <v>140</v>
       </c>
       <c r="B141" t="s">
-        <v>134</v>
+        <v>149</v>
       </c>
       <c r="C141" t="s">
-        <v>356</v>
+        <v>354</v>
       </c>
       <c r="D141" t="s">
-        <v>377</v>
+        <v>379</v>
       </c>
     </row>
     <row r="142" spans="1:4">
@@ -13416,13 +13416,13 @@
         <v>141</v>
       </c>
       <c r="B142" t="s">
-        <v>149</v>
+        <v>134</v>
       </c>
       <c r="C142" t="s">
-        <v>354</v>
+        <v>356</v>
       </c>
       <c r="D142" t="s">
-        <v>379</v>
+        <v>377</v>
       </c>
     </row>
     <row r="143" spans="1:4">
@@ -13444,7 +13444,7 @@
         <v>143</v>
       </c>
       <c r="B144" t="s">
-        <v>154</v>
+        <v>155</v>
       </c>
       <c r="C144" t="s">
         <v>355</v>
@@ -13458,7 +13458,7 @@
         <v>144</v>
       </c>
       <c r="B145" t="s">
-        <v>125</v>
+        <v>124</v>
       </c>
       <c r="C145" t="s">
         <v>357</v>
@@ -13472,13 +13472,13 @@
         <v>145</v>
       </c>
       <c r="B146" t="s">
-        <v>145</v>
+        <v>146</v>
       </c>
       <c r="C146" t="s">
         <v>355</v>
       </c>
       <c r="D146" t="s">
-        <v>372</v>
+        <v>379</v>
       </c>
     </row>
     <row r="147" spans="1:4">
@@ -13486,13 +13486,13 @@
         <v>146</v>
       </c>
       <c r="B147" t="s">
-        <v>146</v>
+        <v>145</v>
       </c>
       <c r="C147" t="s">
         <v>355</v>
       </c>
       <c r="D147" t="s">
-        <v>379</v>
+        <v>372</v>
       </c>
     </row>
     <row r="148" spans="1:4">
@@ -13570,7 +13570,7 @@
         <v>152</v>
       </c>
       <c r="B153" t="s">
-        <v>157</v>
+        <v>158</v>
       </c>
       <c r="C153" t="s">
         <v>356</v>
@@ -13626,7 +13626,7 @@
         <v>156</v>
       </c>
       <c r="B157" t="s">
-        <v>155</v>
+        <v>154</v>
       </c>
       <c r="C157" t="s">
         <v>358</v>
@@ -13668,13 +13668,13 @@
         <v>159</v>
       </c>
       <c r="B160" t="s">
-        <v>165</v>
+        <v>167</v>
       </c>
       <c r="C160" t="s">
-        <v>354</v>
+        <v>356</v>
       </c>
       <c r="D160" t="s">
-        <v>375</v>
+        <v>362</v>
       </c>
     </row>
     <row r="161" spans="1:4">
@@ -13682,13 +13682,13 @@
         <v>160</v>
       </c>
       <c r="B161" t="s">
-        <v>167</v>
+        <v>165</v>
       </c>
       <c r="C161" t="s">
-        <v>356</v>
+        <v>354</v>
       </c>
       <c r="D161" t="s">
-        <v>362</v>
+        <v>375</v>
       </c>
     </row>
     <row r="162" spans="1:4">
@@ -13794,7 +13794,7 @@
         <v>168</v>
       </c>
       <c r="B169" t="s">
-        <v>198</v>
+        <v>195</v>
       </c>
       <c r="C169" t="s">
         <v>355</v>
@@ -13808,7 +13808,7 @@
         <v>169</v>
       </c>
       <c r="B170" t="s">
-        <v>193</v>
+        <v>192</v>
       </c>
       <c r="C170" t="s">
         <v>355</v>
@@ -13864,13 +13864,13 @@
         <v>173</v>
       </c>
       <c r="B174" t="s">
-        <v>176</v>
+        <v>191</v>
       </c>
       <c r="C174" t="s">
-        <v>358</v>
+        <v>355</v>
       </c>
       <c r="D174" t="s">
-        <v>369</v>
+        <v>386</v>
       </c>
     </row>
     <row r="175" spans="1:4">
@@ -13878,13 +13878,13 @@
         <v>174</v>
       </c>
       <c r="B175" t="s">
-        <v>191</v>
+        <v>176</v>
       </c>
       <c r="C175" t="s">
-        <v>355</v>
+        <v>358</v>
       </c>
       <c r="D175" t="s">
-        <v>386</v>
+        <v>369</v>
       </c>
     </row>
     <row r="176" spans="1:4">
@@ -13976,7 +13976,7 @@
         <v>181</v>
       </c>
       <c r="B182" t="s">
-        <v>202</v>
+        <v>203</v>
       </c>
       <c r="C182" t="s">
         <v>354</v>
@@ -13990,13 +13990,13 @@
         <v>182</v>
       </c>
       <c r="B183" t="s">
-        <v>161</v>
+        <v>187</v>
       </c>
       <c r="C183" t="s">
-        <v>357</v>
+        <v>359</v>
       </c>
       <c r="D183" t="s">
-        <v>370</v>
+        <v>374</v>
       </c>
     </row>
     <row r="184" spans="1:4">
@@ -14004,13 +14004,13 @@
         <v>183</v>
       </c>
       <c r="B184" t="s">
-        <v>187</v>
+        <v>161</v>
       </c>
       <c r="C184" t="s">
-        <v>359</v>
+        <v>357</v>
       </c>
       <c r="D184" t="s">
-        <v>374</v>
+        <v>370</v>
       </c>
     </row>
     <row r="185" spans="1:4">
@@ -14018,7 +14018,7 @@
         <v>184</v>
       </c>
       <c r="B185" t="s">
-        <v>196</v>
+        <v>194</v>
       </c>
       <c r="C185" t="s">
         <v>355</v>
@@ -14060,13 +14060,13 @@
         <v>187</v>
       </c>
       <c r="B188" t="s">
-        <v>194</v>
+        <v>183</v>
       </c>
       <c r="C188" t="s">
-        <v>355</v>
+        <v>356</v>
       </c>
       <c r="D188" t="s">
-        <v>368</v>
+        <v>385</v>
       </c>
     </row>
     <row r="189" spans="1:4">
@@ -14074,13 +14074,13 @@
         <v>188</v>
       </c>
       <c r="B189" t="s">
-        <v>183</v>
+        <v>198</v>
       </c>
       <c r="C189" t="s">
-        <v>356</v>
+        <v>355</v>
       </c>
       <c r="D189" t="s">
-        <v>385</v>
+        <v>368</v>
       </c>
     </row>
     <row r="190" spans="1:4">
@@ -14088,7 +14088,7 @@
         <v>189</v>
       </c>
       <c r="B190" t="s">
-        <v>192</v>
+        <v>193</v>
       </c>
       <c r="C190" t="s">
         <v>355</v>
@@ -14102,7 +14102,7 @@
         <v>190</v>
       </c>
       <c r="B191" t="s">
-        <v>195</v>
+        <v>197</v>
       </c>
       <c r="C191" t="s">
         <v>359</v>
@@ -14130,7 +14130,7 @@
         <v>192</v>
       </c>
       <c r="B193" t="s">
-        <v>197</v>
+        <v>196</v>
       </c>
       <c r="C193" t="s">
         <v>359</v>
@@ -14172,13 +14172,13 @@
         <v>195</v>
       </c>
       <c r="B196" t="s">
-        <v>215</v>
+        <v>209</v>
       </c>
       <c r="C196" t="s">
         <v>355</v>
       </c>
       <c r="D196" t="s">
-        <v>360</v>
+        <v>377</v>
       </c>
     </row>
     <row r="197" spans="1:4">
@@ -14186,13 +14186,13 @@
         <v>196</v>
       </c>
       <c r="B197" t="s">
-        <v>190</v>
+        <v>207</v>
       </c>
       <c r="C197" t="s">
-        <v>354</v>
+        <v>355</v>
       </c>
       <c r="D197" t="s">
-        <v>384</v>
+        <v>372</v>
       </c>
     </row>
     <row r="198" spans="1:4">
@@ -14200,13 +14200,13 @@
         <v>197</v>
       </c>
       <c r="B198" t="s">
-        <v>209</v>
+        <v>215</v>
       </c>
       <c r="C198" t="s">
         <v>355</v>
       </c>
       <c r="D198" t="s">
-        <v>377</v>
+        <v>360</v>
       </c>
     </row>
     <row r="199" spans="1:4">
@@ -14214,13 +14214,13 @@
         <v>198</v>
       </c>
       <c r="B199" t="s">
-        <v>206</v>
+        <v>190</v>
       </c>
       <c r="C199" t="s">
-        <v>355</v>
+        <v>354</v>
       </c>
       <c r="D199" t="s">
-        <v>372</v>
+        <v>384</v>
       </c>
     </row>
     <row r="200" spans="1:4">
@@ -14270,7 +14270,7 @@
         <v>202</v>
       </c>
       <c r="B203" t="s">
-        <v>207</v>
+        <v>206</v>
       </c>
       <c r="C203" t="s">
         <v>358</v>
@@ -14326,13 +14326,13 @@
         <v>206</v>
       </c>
       <c r="B207" t="s">
-        <v>233</v>
+        <v>214</v>
       </c>
       <c r="C207" t="s">
-        <v>354</v>
+        <v>358</v>
       </c>
       <c r="D207" t="s">
-        <v>371</v>
+        <v>380</v>
       </c>
     </row>
     <row r="208" spans="1:4">
@@ -14340,13 +14340,13 @@
         <v>207</v>
       </c>
       <c r="B208" t="s">
-        <v>226</v>
+        <v>233</v>
       </c>
       <c r="C208" t="s">
         <v>354</v>
       </c>
       <c r="D208" t="s">
-        <v>390</v>
+        <v>371</v>
       </c>
     </row>
     <row r="209" spans="1:4">
@@ -14354,13 +14354,13 @@
         <v>208</v>
       </c>
       <c r="B209" t="s">
-        <v>213</v>
+        <v>226</v>
       </c>
       <c r="C209" t="s">
-        <v>358</v>
+        <v>354</v>
       </c>
       <c r="D209" t="s">
-        <v>380</v>
+        <v>390</v>
       </c>
     </row>
     <row r="210" spans="1:4">
@@ -14466,7 +14466,7 @@
         <v>216</v>
       </c>
       <c r="B217" t="s">
-        <v>203</v>
+        <v>202</v>
       </c>
       <c r="C217" t="s">
         <v>354</v>
@@ -14550,7 +14550,7 @@
         <v>222</v>
       </c>
       <c r="B223" t="s">
-        <v>237</v>
+        <v>236</v>
       </c>
       <c r="C223" t="s">
         <v>354</v>
@@ -14578,13 +14578,13 @@
         <v>224</v>
       </c>
       <c r="B225" t="s">
-        <v>239</v>
+        <v>242</v>
       </c>
       <c r="C225" t="s">
         <v>355</v>
       </c>
       <c r="D225" t="s">
-        <v>367</v>
+        <v>374</v>
       </c>
     </row>
     <row r="226" spans="1:4">
@@ -14592,13 +14592,13 @@
         <v>225</v>
       </c>
       <c r="B226" t="s">
-        <v>242</v>
+        <v>239</v>
       </c>
       <c r="C226" t="s">
         <v>355</v>
       </c>
       <c r="D226" t="s">
-        <v>374</v>
+        <v>367</v>
       </c>
     </row>
     <row r="227" spans="1:4">
@@ -14606,7 +14606,7 @@
         <v>226</v>
       </c>
       <c r="B227" t="s">
-        <v>227</v>
+        <v>228</v>
       </c>
       <c r="C227" t="s">
         <v>358</v>
@@ -14676,7 +14676,7 @@
         <v>231</v>
       </c>
       <c r="B232" t="s">
-        <v>220</v>
+        <v>218</v>
       </c>
       <c r="C232" t="s">
         <v>356</v>
@@ -14704,7 +14704,7 @@
         <v>233</v>
       </c>
       <c r="B234" t="s">
-        <v>228</v>
+        <v>227</v>
       </c>
       <c r="C234" t="s">
         <v>354</v>
@@ -14718,7 +14718,7 @@
         <v>234</v>
       </c>
       <c r="B235" t="s">
-        <v>236</v>
+        <v>237</v>
       </c>
       <c r="C235" t="s">
         <v>355</v>
@@ -14746,13 +14746,13 @@
         <v>236</v>
       </c>
       <c r="B237" t="s">
-        <v>234</v>
+        <v>241</v>
       </c>
       <c r="C237" t="s">
-        <v>359</v>
+        <v>355</v>
       </c>
       <c r="D237" t="s">
-        <v>382</v>
+        <v>391</v>
       </c>
     </row>
     <row r="238" spans="1:4">
@@ -14760,13 +14760,13 @@
         <v>237</v>
       </c>
       <c r="B238" t="s">
-        <v>241</v>
+        <v>234</v>
       </c>
       <c r="C238" t="s">
-        <v>355</v>
+        <v>359</v>
       </c>
       <c r="D238" t="s">
-        <v>391</v>
+        <v>382</v>
       </c>
     </row>
     <row r="239" spans="1:4">
@@ -14914,13 +14914,13 @@
         <v>248</v>
       </c>
       <c r="B249" t="s">
-        <v>254</v>
+        <v>255</v>
       </c>
       <c r="C249" t="s">
-        <v>358</v>
+        <v>359</v>
       </c>
       <c r="D249" t="s">
-        <v>382</v>
+        <v>361</v>
       </c>
     </row>
     <row r="250" spans="1:4">
@@ -14942,13 +14942,13 @@
         <v>250</v>
       </c>
       <c r="B251" t="s">
-        <v>255</v>
+        <v>254</v>
       </c>
       <c r="C251" t="s">
-        <v>359</v>
+        <v>358</v>
       </c>
       <c r="D251" t="s">
-        <v>361</v>
+        <v>382</v>
       </c>
     </row>
     <row r="252" spans="1:4">
@@ -14956,13 +14956,13 @@
         <v>251</v>
       </c>
       <c r="B252" t="s">
-        <v>265</v>
+        <v>256</v>
       </c>
       <c r="C252" t="s">
-        <v>355</v>
+        <v>358</v>
       </c>
       <c r="D252" t="s">
-        <v>384</v>
+        <v>362</v>
       </c>
     </row>
     <row r="253" spans="1:4">
@@ -14970,13 +14970,13 @@
         <v>252</v>
       </c>
       <c r="B253" t="s">
-        <v>256</v>
+        <v>265</v>
       </c>
       <c r="C253" t="s">
-        <v>358</v>
+        <v>355</v>
       </c>
       <c r="D253" t="s">
-        <v>362</v>
+        <v>384</v>
       </c>
     </row>
     <row r="254" spans="1:4">
@@ -14984,7 +14984,7 @@
         <v>253</v>
       </c>
       <c r="B254" t="s">
-        <v>214</v>
+        <v>213</v>
       </c>
       <c r="C254" t="s">
         <v>357</v>
@@ -15040,7 +15040,7 @@
         <v>257</v>
       </c>
       <c r="B258" t="s">
-        <v>264</v>
+        <v>262</v>
       </c>
       <c r="C258" t="s">
         <v>355</v>
@@ -15054,13 +15054,13 @@
         <v>258</v>
       </c>
       <c r="B259" t="s">
-        <v>218</v>
+        <v>252</v>
       </c>
       <c r="C259" t="s">
-        <v>357</v>
+        <v>354</v>
       </c>
       <c r="D259" t="s">
-        <v>381</v>
+        <v>374</v>
       </c>
     </row>
     <row r="260" spans="1:4">
@@ -15068,13 +15068,13 @@
         <v>259</v>
       </c>
       <c r="B260" t="s">
-        <v>252</v>
+        <v>220</v>
       </c>
       <c r="C260" t="s">
-        <v>354</v>
+        <v>357</v>
       </c>
       <c r="D260" t="s">
-        <v>374</v>
+        <v>381</v>
       </c>
     </row>
     <row r="261" spans="1:4">
@@ -15138,7 +15138,7 @@
         <v>264</v>
       </c>
       <c r="B265" t="s">
-        <v>263</v>
+        <v>264</v>
       </c>
       <c r="C265" t="s">
         <v>359</v>
@@ -15180,13 +15180,13 @@
         <v>267</v>
       </c>
       <c r="B268" t="s">
-        <v>262</v>
+        <v>275</v>
       </c>
       <c r="C268" t="s">
-        <v>356</v>
+        <v>355</v>
       </c>
       <c r="D268" t="s">
-        <v>369</v>
+        <v>380</v>
       </c>
     </row>
     <row r="269" spans="1:4">
@@ -15194,13 +15194,13 @@
         <v>268</v>
       </c>
       <c r="B269" t="s">
-        <v>275</v>
+        <v>263</v>
       </c>
       <c r="C269" t="s">
-        <v>355</v>
+        <v>356</v>
       </c>
       <c r="D269" t="s">
-        <v>380</v>
+        <v>369</v>
       </c>
     </row>
     <row r="270" spans="1:4">
@@ -15292,7 +15292,7 @@
         <v>275</v>
       </c>
       <c r="B276" t="s">
-        <v>279</v>
+        <v>280</v>
       </c>
       <c r="C276" t="s">
         <v>356</v>
@@ -15334,7 +15334,7 @@
         <v>278</v>
       </c>
       <c r="B279" t="s">
-        <v>280</v>
+        <v>279</v>
       </c>
       <c r="C279" t="s">
         <v>358</v>
@@ -15362,7 +15362,7 @@
         <v>280</v>
       </c>
       <c r="B281" t="s">
-        <v>285</v>
+        <v>284</v>
       </c>
       <c r="C281" t="s">
         <v>358</v>
@@ -15446,7 +15446,7 @@
         <v>286</v>
       </c>
       <c r="B287" t="s">
-        <v>284</v>
+        <v>285</v>
       </c>
       <c r="C287" t="s">
         <v>354</v>
@@ -15460,13 +15460,13 @@
         <v>287</v>
       </c>
       <c r="B288" t="s">
-        <v>314</v>
+        <v>308</v>
       </c>
       <c r="C288" t="s">
-        <v>354</v>
+        <v>355</v>
       </c>
       <c r="D288" t="s">
-        <v>362</v>
+        <v>373</v>
       </c>
     </row>
     <row r="289" spans="1:4">
@@ -15474,13 +15474,13 @@
         <v>288</v>
       </c>
       <c r="B289" t="s">
-        <v>309</v>
+        <v>315</v>
       </c>
       <c r="C289" t="s">
-        <v>355</v>
+        <v>354</v>
       </c>
       <c r="D289" t="s">
-        <v>373</v>
+        <v>362</v>
       </c>
     </row>
     <row r="290" spans="1:4">
@@ -15530,13 +15530,13 @@
         <v>292</v>
       </c>
       <c r="B293" t="s">
-        <v>297</v>
+        <v>298</v>
       </c>
       <c r="C293" t="s">
         <v>359</v>
       </c>
       <c r="D293" t="s">
-        <v>362</v>
+        <v>389</v>
       </c>
     </row>
     <row r="294" spans="1:4">
@@ -15544,13 +15544,13 @@
         <v>293</v>
       </c>
       <c r="B294" t="s">
-        <v>298</v>
+        <v>297</v>
       </c>
       <c r="C294" t="s">
         <v>359</v>
       </c>
       <c r="D294" t="s">
-        <v>389</v>
+        <v>362</v>
       </c>
     </row>
     <row r="295" spans="1:4">
@@ -15614,7 +15614,7 @@
         <v>298</v>
       </c>
       <c r="B299" t="s">
-        <v>305</v>
+        <v>304</v>
       </c>
       <c r="C299" t="s">
         <v>358</v>
@@ -15656,7 +15656,7 @@
         <v>301</v>
       </c>
       <c r="B302" t="s">
-        <v>308</v>
+        <v>309</v>
       </c>
       <c r="C302" t="s">
         <v>358</v>
@@ -15684,13 +15684,13 @@
         <v>303</v>
       </c>
       <c r="B304" t="s">
-        <v>318</v>
+        <v>313</v>
       </c>
       <c r="C304" t="s">
         <v>355</v>
       </c>
       <c r="D304" t="s">
-        <v>362</v>
+        <v>372</v>
       </c>
     </row>
     <row r="305" spans="1:4">
@@ -15698,13 +15698,13 @@
         <v>304</v>
       </c>
       <c r="B305" t="s">
-        <v>313</v>
+        <v>318</v>
       </c>
       <c r="C305" t="s">
         <v>355</v>
       </c>
       <c r="D305" t="s">
-        <v>372</v>
+        <v>362</v>
       </c>
     </row>
     <row r="306" spans="1:4">
@@ -15726,7 +15726,7 @@
         <v>306</v>
       </c>
       <c r="B307" t="s">
-        <v>304</v>
+        <v>305</v>
       </c>
       <c r="C307" t="s">
         <v>354</v>
@@ -15782,13 +15782,13 @@
         <v>310</v>
       </c>
       <c r="B311" t="s">
-        <v>317</v>
+        <v>310</v>
       </c>
       <c r="C311" t="s">
-        <v>355</v>
+        <v>354</v>
       </c>
       <c r="D311" t="s">
-        <v>392</v>
+        <v>368</v>
       </c>
     </row>
     <row r="312" spans="1:4">
@@ -15796,13 +15796,13 @@
         <v>311</v>
       </c>
       <c r="B312" t="s">
-        <v>310</v>
+        <v>317</v>
       </c>
       <c r="C312" t="s">
-        <v>354</v>
+        <v>355</v>
       </c>
       <c r="D312" t="s">
-        <v>368</v>
+        <v>392</v>
       </c>
     </row>
     <row r="313" spans="1:4">
@@ -15880,7 +15880,7 @@
         <v>317</v>
       </c>
       <c r="B318" t="s">
-        <v>315</v>
+        <v>314</v>
       </c>
       <c r="C318" t="s">
         <v>354</v>
@@ -15894,13 +15894,13 @@
         <v>318</v>
       </c>
       <c r="B319" t="s">
-        <v>289</v>
+        <v>296</v>
       </c>
       <c r="C319" t="s">
         <v>357</v>
       </c>
       <c r="D319" t="s">
-        <v>389</v>
+        <v>366</v>
       </c>
     </row>
     <row r="320" spans="1:4">
@@ -15908,13 +15908,13 @@
         <v>319</v>
       </c>
       <c r="B320" t="s">
-        <v>296</v>
+        <v>289</v>
       </c>
       <c r="C320" t="s">
         <v>357</v>
       </c>
       <c r="D320" t="s">
-        <v>366</v>
+        <v>389</v>
       </c>
     </row>
     <row r="321" spans="1:4">
@@ -16006,13 +16006,13 @@
         <v>326</v>
       </c>
       <c r="B327" t="s">
-        <v>330</v>
+        <v>332</v>
       </c>
       <c r="C327" t="s">
         <v>355</v>
       </c>
       <c r="D327" t="s">
-        <v>385</v>
+        <v>372</v>
       </c>
     </row>
     <row r="328" spans="1:4">
@@ -16020,13 +16020,13 @@
         <v>327</v>
       </c>
       <c r="B328" t="s">
-        <v>333</v>
+        <v>330</v>
       </c>
       <c r="C328" t="s">
         <v>355</v>
       </c>
       <c r="D328" t="s">
-        <v>372</v>
+        <v>385</v>
       </c>
     </row>
     <row r="329" spans="1:4">
@@ -16034,7 +16034,7 @@
         <v>328</v>
       </c>
       <c r="B329" t="s">
-        <v>334</v>
+        <v>336</v>
       </c>
       <c r="C329" t="s">
         <v>356</v>
@@ -16048,7 +16048,7 @@
         <v>329</v>
       </c>
       <c r="B330" t="s">
-        <v>332</v>
+        <v>333</v>
       </c>
       <c r="C330" t="s">
         <v>356</v>
@@ -16076,10 +16076,10 @@
         <v>331</v>
       </c>
       <c r="B332" t="s">
-        <v>345</v>
+        <v>339</v>
       </c>
       <c r="C332" t="s">
-        <v>354</v>
+        <v>359</v>
       </c>
       <c r="D332" t="s">
         <v>367</v>
@@ -16090,13 +16090,13 @@
         <v>332</v>
       </c>
       <c r="B333" t="s">
-        <v>346</v>
+        <v>345</v>
       </c>
       <c r="C333" t="s">
-        <v>355</v>
+        <v>354</v>
       </c>
       <c r="D333" t="s">
-        <v>373</v>
+        <v>367</v>
       </c>
     </row>
     <row r="334" spans="1:4">
@@ -16104,13 +16104,13 @@
         <v>333</v>
       </c>
       <c r="B334" t="s">
-        <v>340</v>
+        <v>346</v>
       </c>
       <c r="C334" t="s">
-        <v>359</v>
+        <v>355</v>
       </c>
       <c r="D334" t="s">
-        <v>367</v>
+        <v>373</v>
       </c>
     </row>
     <row r="335" spans="1:4">
@@ -16132,13 +16132,13 @@
         <v>335</v>
       </c>
       <c r="B336" t="s">
-        <v>342</v>
+        <v>348</v>
       </c>
       <c r="C336" t="s">
         <v>354</v>
       </c>
       <c r="D336" t="s">
-        <v>372</v>
+        <v>387</v>
       </c>
     </row>
     <row r="337" spans="1:4">
@@ -16146,13 +16146,13 @@
         <v>336</v>
       </c>
       <c r="B337" t="s">
-        <v>348</v>
+        <v>343</v>
       </c>
       <c r="C337" t="s">
         <v>354</v>
       </c>
       <c r="D337" t="s">
-        <v>387</v>
+        <v>372</v>
       </c>
     </row>
     <row r="338" spans="1:4">
@@ -16202,7 +16202,7 @@
         <v>340</v>
       </c>
       <c r="B341" t="s">
-        <v>343</v>
+        <v>342</v>
       </c>
       <c r="C341" t="s">
         <v>358</v>
@@ -16216,7 +16216,7 @@
         <v>341</v>
       </c>
       <c r="B342" t="s">
-        <v>339</v>
+        <v>340</v>
       </c>
       <c r="C342" t="s">
         <v>356</v>
@@ -16230,7 +16230,7 @@
         <v>342</v>
       </c>
       <c r="B343" t="s">
-        <v>350</v>
+        <v>351</v>
       </c>
       <c r="C343" t="s">
         <v>355</v>
@@ -16244,7 +16244,7 @@
         <v>343</v>
       </c>
       <c r="B344" t="s">
-        <v>351</v>
+        <v>350</v>
       </c>
       <c r="C344" t="s">
         <v>355</v>
@@ -16258,13 +16258,13 @@
         <v>344</v>
       </c>
       <c r="B345" t="s">
-        <v>329</v>
+        <v>349</v>
       </c>
       <c r="C345" t="s">
-        <v>356</v>
+        <v>355</v>
       </c>
       <c r="D345" t="s">
-        <v>369</v>
+        <v>364</v>
       </c>
     </row>
     <row r="346" spans="1:4">
@@ -16272,13 +16272,13 @@
         <v>345</v>
       </c>
       <c r="B346" t="s">
-        <v>349</v>
+        <v>329</v>
       </c>
       <c r="C346" t="s">
-        <v>355</v>
+        <v>356</v>
       </c>
       <c r="D346" t="s">
-        <v>364</v>
+        <v>369</v>
       </c>
     </row>
     <row r="347" spans="1:4">
@@ -16300,13 +16300,13 @@
         <v>347</v>
       </c>
       <c r="B348" t="s">
-        <v>327</v>
+        <v>334</v>
       </c>
       <c r="C348" t="s">
-        <v>357</v>
+        <v>354</v>
       </c>
       <c r="D348" t="s">
-        <v>361</v>
+        <v>360</v>
       </c>
     </row>
     <row r="349" spans="1:4">
@@ -16314,13 +16314,13 @@
         <v>348</v>
       </c>
       <c r="B349" t="s">
-        <v>394</v>
+        <v>327</v>
       </c>
       <c r="C349" t="s">
-        <v>354</v>
+        <v>357</v>
       </c>
       <c r="D349" t="s">
-        <v>389</v>
+        <v>361</v>
       </c>
     </row>
     <row r="350" spans="1:4">
@@ -16328,13 +16328,13 @@
         <v>349</v>
       </c>
       <c r="B350" t="s">
-        <v>336</v>
+        <v>394</v>
       </c>
       <c r="C350" t="s">
         <v>354</v>
       </c>
       <c r="D350" t="s">
-        <v>360</v>
+        <v>389</v>
       </c>
     </row>
     <row r="351" spans="1:4">

--- a/docs/FantasyProsFootballDraft.xlsx
+++ b/docs/FantasyProsFootballDraft.xlsx
@@ -3042,7 +3042,7 @@
         <v>355</v>
       </c>
       <c r="D105" t="s">
-        <v>370</v>
+        <v>371</v>
       </c>
     </row>
     <row r="106" spans="1:4">
@@ -8001,7 +8001,7 @@
         <v>355</v>
       </c>
       <c r="D107" t="s">
-        <v>370</v>
+        <v>371</v>
       </c>
     </row>
     <row r="108" spans="1:4">
@@ -12960,7 +12960,7 @@
         <v>355</v>
       </c>
       <c r="D109" t="s">
-        <v>370</v>
+        <v>371</v>
       </c>
     </row>
     <row r="110" spans="1:4">

--- a/docs/FantasyProsFootballDraft.xlsx
+++ b/docs/FantasyProsFootballDraft.xlsx
@@ -2678,7 +2678,7 @@
         <v>354</v>
       </c>
       <c r="D79" t="s">
-        <v>380</v>
+        <v>377</v>
       </c>
     </row>
     <row r="80" spans="1:4">
@@ -2706,7 +2706,7 @@
         <v>356</v>
       </c>
       <c r="D81" t="s">
-        <v>372</v>
+        <v>363</v>
       </c>
     </row>
     <row r="82" spans="1:4">
@@ -3168,7 +3168,7 @@
         <v>355</v>
       </c>
       <c r="D114" t="s">
-        <v>366</v>
+        <v>387</v>
       </c>
     </row>
     <row r="115" spans="1:4">
@@ -3336,7 +3336,7 @@
         <v>354</v>
       </c>
       <c r="D126" t="s">
-        <v>360</v>
+        <v>374</v>
       </c>
     </row>
     <row r="127" spans="1:4">
@@ -4456,7 +4456,7 @@
         <v>354</v>
       </c>
       <c r="D206" t="s">
-        <v>361</v>
+        <v>380</v>
       </c>
     </row>
     <row r="207" spans="1:4">
@@ -5072,7 +5072,7 @@
         <v>354</v>
       </c>
       <c r="D250" t="s">
-        <v>374</v>
+        <v>360</v>
       </c>
     </row>
     <row r="251" spans="1:4">
@@ -7301,7 +7301,7 @@
         <v>354</v>
       </c>
       <c r="D57" t="s">
-        <v>380</v>
+        <v>377</v>
       </c>
     </row>
     <row r="58" spans="1:4">
@@ -7693,7 +7693,7 @@
         <v>356</v>
       </c>
       <c r="D85" t="s">
-        <v>372</v>
+        <v>363</v>
       </c>
     </row>
     <row r="86" spans="1:4">
@@ -8141,7 +8141,7 @@
         <v>354</v>
       </c>
       <c r="D117" t="s">
-        <v>360</v>
+        <v>374</v>
       </c>
     </row>
     <row r="118" spans="1:4">
@@ -8155,7 +8155,7 @@
         <v>355</v>
       </c>
       <c r="D118" t="s">
-        <v>366</v>
+        <v>387</v>
       </c>
     </row>
     <row r="119" spans="1:4">
@@ -9149,7 +9149,7 @@
         <v>354</v>
       </c>
       <c r="D189" t="s">
-        <v>361</v>
+        <v>380</v>
       </c>
     </row>
     <row r="190" spans="1:4">
@@ -10199,7 +10199,7 @@
         <v>354</v>
       </c>
       <c r="D264" t="s">
-        <v>374</v>
+        <v>360</v>
       </c>
     </row>
     <row r="265" spans="1:4">
@@ -12176,7 +12176,7 @@
         <v>354</v>
       </c>
       <c r="D53" t="s">
-        <v>380</v>
+        <v>377</v>
       </c>
     </row>
     <row r="54" spans="1:4">
@@ -12638,7 +12638,7 @@
         <v>356</v>
       </c>
       <c r="D86" t="s">
-        <v>372</v>
+        <v>363</v>
       </c>
     </row>
     <row r="87" spans="1:4">
@@ -12862,7 +12862,7 @@
         <v>354</v>
       </c>
       <c r="D102" t="s">
-        <v>360</v>
+        <v>374</v>
       </c>
     </row>
     <row r="103" spans="1:4">
@@ -13072,7 +13072,7 @@
         <v>355</v>
       </c>
       <c r="D117" t="s">
-        <v>366</v>
+        <v>387</v>
       </c>
     </row>
     <row r="118" spans="1:4">
@@ -14150,7 +14150,7 @@
         <v>354</v>
       </c>
       <c r="D194" t="s">
-        <v>361</v>
+        <v>380</v>
       </c>
     </row>
     <row r="195" spans="1:4">
@@ -15060,7 +15060,7 @@
         <v>354</v>
       </c>
       <c r="D259" t="s">
-        <v>374</v>
+        <v>360</v>
       </c>
     </row>
     <row r="260" spans="1:4">

--- a/docs/FantasyProsFootballDraft.xlsx
+++ b/docs/FantasyProsFootballDraft.xlsx
@@ -4820,7 +4820,7 @@
         <v>359</v>
       </c>
       <c r="D232" t="s">
-        <v>382</v>
+        <v>392</v>
       </c>
     </row>
     <row r="233" spans="1:4">
@@ -9891,7 +9891,7 @@
         <v>359</v>
       </c>
       <c r="D242" t="s">
-        <v>382</v>
+        <v>392</v>
       </c>
     </row>
     <row r="243" spans="1:4">
@@ -14766,7 +14766,7 @@
         <v>359</v>
       </c>
       <c r="D238" t="s">
-        <v>382</v>
+        <v>392</v>
       </c>
     </row>
     <row r="239" spans="1:4">

--- a/docs/FantasyProsFootballDraft.xlsx
+++ b/docs/FantasyProsFootballDraft.xlsx
@@ -179,12 +179,12 @@
     <t>Allen Robinson II</t>
   </si>
   <si>
+    <t>AJ Dillon</t>
+  </si>
+  <si>
     <t>George Kittle</t>
   </si>
   <si>
-    <t>AJ Dillon</t>
-  </si>
-  <si>
     <t>Diontae Johnson</t>
   </si>
   <si>
@@ -224,10 +224,13 @@
     <t>Kyler Murray</t>
   </si>
   <si>
+    <t>Chris Godwin</t>
+  </si>
+  <si>
     <t>Antonio Gibson</t>
   </si>
   <si>
-    <t>Chris Godwin</t>
+    <t>Dameon Pierce</t>
   </si>
   <si>
     <t>Damien Harris</t>
@@ -236,9 +239,6 @@
     <t>Elijah Moore</t>
   </si>
   <si>
-    <t>Dameon Pierce</t>
-  </si>
-  <si>
     <t>Michael Thomas</t>
   </si>
   <si>
@@ -251,12 +251,12 @@
     <t>Dallas Goedert</t>
   </si>
   <si>
+    <t>Rashaad Penny</t>
+  </si>
+  <si>
     <t>Amari Cooper</t>
   </si>
   <si>
-    <t>Rashaad Penny</t>
-  </si>
-  <si>
     <t>Adam Thielen</t>
   </si>
   <si>
@@ -299,6 +299,9 @@
     <t>Tyler Lockett</t>
   </si>
   <si>
+    <t>Drake London</t>
+  </si>
+  <si>
     <t>Dawson Knox</t>
   </si>
   <si>
@@ -314,9 +317,6 @@
     <t>Kareem Hunt</t>
   </si>
   <si>
-    <t>Drake London</t>
-  </si>
-  <si>
     <t>Hunter Renfrow</t>
   </si>
   <si>
@@ -335,36 +335,36 @@
     <t>Robert Woods</t>
   </si>
   <si>
+    <t>Aaron Rodgers</t>
+  </si>
+  <si>
+    <t>Matthew Stafford</t>
+  </si>
+  <si>
     <t>DeAndre Hopkins</t>
   </si>
   <si>
-    <t>Aaron Rodgers</t>
-  </si>
-  <si>
-    <t>Matthew Stafford</t>
+    <t>Chris Olave</t>
   </si>
   <si>
     <t>Kadarius Toney</t>
   </si>
   <si>
-    <t>Chris Olave</t>
-  </si>
-  <si>
     <t>Kirk Cousins</t>
   </si>
   <si>
+    <t>Kenneth Walker III</t>
+  </si>
+  <si>
+    <t>Treylon Burks</t>
+  </si>
+  <si>
     <t>Darrell Henderson Jr.</t>
   </si>
   <si>
     <t>Derek Carr</t>
   </si>
   <si>
-    <t>Kenneth Walker III</t>
-  </si>
-  <si>
-    <t>Treylon Burks</t>
-  </si>
-  <si>
     <t>Cole Kmet</t>
   </si>
   <si>
@@ -392,36 +392,36 @@
     <t>James Robinson</t>
   </si>
   <si>
+    <t>Trevor Lawrence</t>
+  </si>
+  <si>
     <t>Tyler Boyd</t>
   </si>
   <si>
-    <t>Trevor Lawrence</t>
-  </si>
-  <si>
     <t>Marquez Valdes-Scantling</t>
   </si>
   <si>
+    <t>Garrett Wilson</t>
+  </si>
+  <si>
     <t>Alexander Mattison</t>
   </si>
   <si>
-    <t>Garrett Wilson</t>
+    <t>Skyy Moore</t>
+  </si>
+  <si>
+    <t>Irv Smith Jr.</t>
+  </si>
+  <si>
+    <t>David Njoku</t>
   </si>
   <si>
     <t>Nyheim Hines</t>
   </si>
   <si>
-    <t>Skyy Moore</t>
-  </si>
-  <si>
     <t>Kenneth Gainwell</t>
   </si>
   <si>
-    <t>Irv Smith Jr.</t>
-  </si>
-  <si>
-    <t>David Njoku</t>
-  </si>
-  <si>
     <t>Raheem Mostert</t>
   </si>
   <si>
@@ -431,39 +431,39 @@
     <t>Michael Gallup</t>
   </si>
   <si>
+    <t>George Pickens</t>
+  </si>
+  <si>
+    <t>Khalil Herbert</t>
+  </si>
+  <si>
     <t>Jameis Winston</t>
   </si>
   <si>
     <t>Russell Gage</t>
   </si>
   <si>
-    <t>George Pickens</t>
-  </si>
-  <si>
-    <t>Khalil Herbert</t>
-  </si>
-  <si>
     <t>Mike Gesicki</t>
   </si>
   <si>
     <t>Jamaal Williams</t>
   </si>
   <si>
+    <t>Jakobi Meyers</t>
+  </si>
+  <si>
     <t>Matt Ryan</t>
   </si>
   <si>
-    <t>Jakobi Meyers</t>
+    <t>D.J. Chark Jr.</t>
+  </si>
+  <si>
+    <t>Julio Jones</t>
   </si>
   <si>
     <t>DeVante Parker</t>
   </si>
   <si>
-    <t>D.J. Chark Jr.</t>
-  </si>
-  <si>
-    <t>Julio Jones</t>
-  </si>
-  <si>
     <t>Tyler Allgeier</t>
   </si>
   <si>
@@ -482,15 +482,15 @@
     <t>Robert Tonyan</t>
   </si>
   <si>
+    <t>Jahan Dotson</t>
+  </si>
+  <si>
     <t>J.D. McKissic</t>
   </si>
   <si>
     <t>Buffalo Bills</t>
   </si>
   <si>
-    <t>Jahan Dotson</t>
-  </si>
-  <si>
     <t>Jarvis Landry</t>
   </si>
   <si>
@@ -500,21 +500,21 @@
     <t>Noah Fant</t>
   </si>
   <si>
+    <t>Nico Collins</t>
+  </si>
+  <si>
     <t>Tampa Bay Buccaneers</t>
   </si>
   <si>
-    <t>Nico Collins</t>
-  </si>
-  <si>
     <t>Daniel Jones</t>
   </si>
   <si>
+    <t>Mac Jones</t>
+  </si>
+  <si>
     <t>Evan Engram</t>
   </si>
   <si>
-    <t>Mac Jones</t>
-  </si>
-  <si>
     <t>San Francisco 49ers</t>
   </si>
   <si>
@@ -533,13 +533,16 @@
     <t>Mark Ingram II</t>
   </si>
   <si>
+    <t>Kenny Golladay</t>
+  </si>
+  <si>
+    <t>Joshua Palmer</t>
+  </si>
+  <si>
     <t>Indianapolis Colts</t>
   </si>
   <si>
-    <t>Kenny Golladay</t>
-  </si>
-  <si>
-    <t>Joshua Palmer</t>
+    <t>K.J. Osborn</t>
   </si>
   <si>
     <t>Baker Mayfield</t>
@@ -548,9 +551,6 @@
     <t>Justin Tucker</t>
   </si>
   <si>
-    <t>K.J. Osborn</t>
-  </si>
-  <si>
     <t>New Orleans Saints</t>
   </si>
   <si>
@@ -566,30 +566,30 @@
     <t>Brian Robinson Jr.</t>
   </si>
   <si>
+    <t>Isaiah Spiller</t>
+  </si>
+  <si>
     <t>Hayden Hurst</t>
   </si>
   <si>
-    <t>Isaiah Spiller</t>
+    <t>Mecole Hardman</t>
   </si>
   <si>
     <t>Logan Thomas</t>
   </si>
   <si>
-    <t>Mecole Hardman</t>
-  </si>
-  <si>
     <t>New England Patriots</t>
   </si>
   <si>
+    <t>Robbie Anderson</t>
+  </si>
+  <si>
     <t>Davis Mills</t>
   </si>
   <si>
     <t>Tyler Bass</t>
   </si>
   <si>
-    <t>Robbie Anderson</t>
-  </si>
-  <si>
     <t>Isiah Pacheco</t>
   </si>
   <si>
@@ -614,42 +614,42 @@
     <t>Evan McPherson</t>
   </si>
   <si>
+    <t>Van Jefferson</t>
+  </si>
+  <si>
     <t>Matt Gay</t>
   </si>
   <si>
-    <t>Van Jefferson</t>
-  </si>
-  <si>
     <t>Christian Watson</t>
   </si>
   <si>
     <t>Boston Scott</t>
   </si>
   <si>
+    <t>Gus Edwards</t>
+  </si>
+  <si>
+    <t>Darrel Williams</t>
+  </si>
+  <si>
     <t>Dallas Cowboys</t>
   </si>
   <si>
-    <t>Gus Edwards</t>
-  </si>
-  <si>
-    <t>Darrel Williams</t>
-  </si>
-  <si>
     <t>Los Angeles Chargers</t>
   </si>
   <si>
+    <t>Jameson Williams</t>
+  </si>
+  <si>
+    <t>Jeff Wilson Jr.</t>
+  </si>
+  <si>
     <t>Daniel Carlson</t>
   </si>
   <si>
     <t>Green Bay Packers</t>
   </si>
   <si>
-    <t>Jameson Williams</t>
-  </si>
-  <si>
-    <t>Jeff Wilson Jr.</t>
-  </si>
-  <si>
     <t>K.J. Hamler</t>
   </si>
   <si>
@@ -686,12 +686,12 @@
     <t>Marcus Mariota</t>
   </si>
   <si>
+    <t>Ronald Jones II</t>
+  </si>
+  <si>
     <t>Ryan Succop</t>
   </si>
   <si>
-    <t>Ronald Jones II</t>
-  </si>
-  <si>
     <t>Baltimore Ravens</t>
   </si>
   <si>
@@ -737,33 +737,33 @@
     <t>A.J. Green</t>
   </si>
   <si>
+    <t>David Bell</t>
+  </si>
+  <si>
+    <t>Eno Benjamin</t>
+  </si>
+  <si>
+    <t>Kendrick Bourne</t>
+  </si>
+  <si>
     <t>Brandon McManus</t>
   </si>
   <si>
-    <t>David Bell</t>
-  </si>
-  <si>
-    <t>Eno Benjamin</t>
-  </si>
-  <si>
-    <t>Kendrick Bourne</t>
-  </si>
-  <si>
     <t>Jamison Crowder</t>
   </si>
   <si>
     <t>Sterling Shepard</t>
   </si>
   <si>
+    <t>D'Ernest Johnson</t>
+  </si>
+  <si>
+    <t>Zay Jones</t>
+  </si>
+  <si>
     <t>Jason Sanders</t>
   </si>
   <si>
-    <t>D'Ernest Johnson</t>
-  </si>
-  <si>
-    <t>Zay Jones</t>
-  </si>
-  <si>
     <t>Jonnu Smith</t>
   </si>
   <si>
@@ -776,12 +776,12 @@
     <t>Chuba Hubbard</t>
   </si>
   <si>
+    <t>Zack Moss</t>
+  </si>
+  <si>
     <t>Mitch Trubisky</t>
   </si>
   <si>
-    <t>Zack Moss</t>
-  </si>
-  <si>
     <t>Cincinnati Bengals</t>
   </si>
   <si>
@@ -821,24 +821,24 @@
     <t>Laviska Shenault Jr.</t>
   </si>
   <si>
+    <t>Bryan Edwards</t>
+  </si>
+  <si>
     <t>Minnesota Vikings</t>
   </si>
   <si>
     <t>Carolina Panthers</t>
   </si>
   <si>
-    <t>Bryan Edwards</t>
+    <t>Terrace Marshall Jr.</t>
+  </si>
+  <si>
+    <t>Braxton Berrios</t>
   </si>
   <si>
     <t>Mason Crosby</t>
   </si>
   <si>
-    <t>Terrace Marshall Jr.</t>
-  </si>
-  <si>
-    <t>Braxton Berrios</t>
-  </si>
-  <si>
     <t>Greg Joseph</t>
   </si>
   <si>
@@ -860,12 +860,12 @@
     <t>Greg Zuerlein</t>
   </si>
   <si>
+    <t>C.J. Uzomah</t>
+  </si>
+  <si>
     <t>Washington Commanders</t>
   </si>
   <si>
-    <t>C.J. Uzomah</t>
-  </si>
-  <si>
     <t>Isaiah Likely</t>
   </si>
   <si>
@@ -875,12 +875,12 @@
     <t>Myles Gaskin</t>
   </si>
   <si>
+    <t>Trey Sermon</t>
+  </si>
+  <si>
     <t>Chicago Bears</t>
   </si>
   <si>
-    <t>Trey Sermon</t>
-  </si>
-  <si>
     <t>Graham Gano</t>
   </si>
   <si>
@@ -908,12 +908,12 @@
     <t>Trey McBride</t>
   </si>
   <si>
+    <t>Kenny Pickett</t>
+  </si>
+  <si>
     <t>New York Giants</t>
   </si>
   <si>
-    <t>Kenny Pickett</t>
-  </si>
-  <si>
     <t>Randy Bullock</t>
   </si>
   <si>
@@ -935,25 +935,25 @@
     <t>Quez Watkins</t>
   </si>
   <si>
+    <t>Jaylen Warren</t>
+  </si>
+  <si>
+    <t>Velus Jones Jr.</t>
+  </si>
+  <si>
     <t>New York Jets</t>
   </si>
   <si>
-    <t>Jaylen Warren</t>
-  </si>
-  <si>
-    <t>Velus Jones Jr.</t>
-  </si>
-  <si>
     <t>Daniel Bellinger</t>
   </si>
   <si>
     <t>Devin Duvernay</t>
   </si>
   <si>
+    <t>Kyren Williams</t>
+  </si>
+  <si>
     <t>Seattle Seahawks</t>
-  </si>
-  <si>
-    <t>Kyren Williams</t>
   </si>
   <si>
     <t>Tyler Conklin</t>
@@ -2269,10 +2269,10 @@
         <v>52</v>
       </c>
       <c r="C50" t="s">
-        <v>356</v>
+        <v>354</v>
       </c>
       <c r="D50" t="s">
-        <v>361</v>
+        <v>376</v>
       </c>
     </row>
     <row r="51" spans="1:4">
@@ -2283,10 +2283,10 @@
         <v>53</v>
       </c>
       <c r="C51" t="s">
-        <v>354</v>
+        <v>356</v>
       </c>
       <c r="D51" t="s">
-        <v>376</v>
+        <v>361</v>
       </c>
     </row>
     <row r="52" spans="1:4">
@@ -2479,10 +2479,10 @@
         <v>67</v>
       </c>
       <c r="C65" t="s">
-        <v>354</v>
+        <v>355</v>
       </c>
       <c r="D65" t="s">
-        <v>385</v>
+        <v>379</v>
       </c>
     </row>
     <row r="66" spans="1:4">
@@ -2493,10 +2493,10 @@
         <v>68</v>
       </c>
       <c r="C66" t="s">
-        <v>355</v>
+        <v>354</v>
       </c>
       <c r="D66" t="s">
-        <v>379</v>
+        <v>385</v>
       </c>
     </row>
     <row r="67" spans="1:4">
@@ -2510,7 +2510,7 @@
         <v>354</v>
       </c>
       <c r="D67" t="s">
-        <v>391</v>
+        <v>390</v>
       </c>
     </row>
     <row r="68" spans="1:4">
@@ -2521,10 +2521,10 @@
         <v>70</v>
       </c>
       <c r="C68" t="s">
-        <v>355</v>
+        <v>354</v>
       </c>
       <c r="D68" t="s">
-        <v>388</v>
+        <v>391</v>
       </c>
     </row>
     <row r="69" spans="1:4">
@@ -2535,10 +2535,10 @@
         <v>71</v>
       </c>
       <c r="C69" t="s">
-        <v>354</v>
+        <v>355</v>
       </c>
       <c r="D69" t="s">
-        <v>390</v>
+        <v>388</v>
       </c>
     </row>
     <row r="70" spans="1:4">
@@ -2605,10 +2605,10 @@
         <v>76</v>
       </c>
       <c r="C74" t="s">
-        <v>355</v>
+        <v>354</v>
       </c>
       <c r="D74" t="s">
-        <v>367</v>
+        <v>389</v>
       </c>
     </row>
     <row r="75" spans="1:4">
@@ -2619,10 +2619,10 @@
         <v>77</v>
       </c>
       <c r="C75" t="s">
-        <v>354</v>
+        <v>355</v>
       </c>
       <c r="D75" t="s">
-        <v>389</v>
+        <v>367</v>
       </c>
     </row>
     <row r="76" spans="1:4">
@@ -2829,10 +2829,10 @@
         <v>92</v>
       </c>
       <c r="C90" t="s">
-        <v>356</v>
+        <v>355</v>
       </c>
       <c r="D90" t="s">
-        <v>374</v>
+        <v>381</v>
       </c>
     </row>
     <row r="91" spans="1:4">
@@ -2843,10 +2843,10 @@
         <v>93</v>
       </c>
       <c r="C91" t="s">
-        <v>357</v>
+        <v>356</v>
       </c>
       <c r="D91" t="s">
-        <v>378</v>
+        <v>374</v>
       </c>
     </row>
     <row r="92" spans="1:4">
@@ -2857,10 +2857,10 @@
         <v>94</v>
       </c>
       <c r="C92" t="s">
-        <v>354</v>
+        <v>357</v>
       </c>
       <c r="D92" t="s">
-        <v>374</v>
+        <v>378</v>
       </c>
     </row>
     <row r="93" spans="1:4">
@@ -2874,7 +2874,7 @@
         <v>354</v>
       </c>
       <c r="D93" t="s">
-        <v>378</v>
+        <v>374</v>
       </c>
     </row>
     <row r="94" spans="1:4">
@@ -2888,7 +2888,7 @@
         <v>354</v>
       </c>
       <c r="D94" t="s">
-        <v>367</v>
+        <v>378</v>
       </c>
     </row>
     <row r="95" spans="1:4">
@@ -2899,10 +2899,10 @@
         <v>97</v>
       </c>
       <c r="C95" t="s">
-        <v>355</v>
+        <v>354</v>
       </c>
       <c r="D95" t="s">
-        <v>381</v>
+        <v>367</v>
       </c>
     </row>
     <row r="96" spans="1:4">
@@ -2997,10 +2997,10 @@
         <v>104</v>
       </c>
       <c r="C102" t="s">
-        <v>355</v>
+        <v>357</v>
       </c>
       <c r="D102" t="s">
-        <v>382</v>
+        <v>376</v>
       </c>
     </row>
     <row r="103" spans="1:4">
@@ -3014,7 +3014,7 @@
         <v>357</v>
       </c>
       <c r="D103" t="s">
-        <v>376</v>
+        <v>368</v>
       </c>
     </row>
     <row r="104" spans="1:4">
@@ -3025,10 +3025,10 @@
         <v>106</v>
       </c>
       <c r="C104" t="s">
-        <v>357</v>
+        <v>355</v>
       </c>
       <c r="D104" t="s">
-        <v>368</v>
+        <v>382</v>
       </c>
     </row>
     <row r="105" spans="1:4">
@@ -3042,7 +3042,7 @@
         <v>355</v>
       </c>
       <c r="D105" t="s">
-        <v>371</v>
+        <v>369</v>
       </c>
     </row>
     <row r="106" spans="1:4">
@@ -3056,7 +3056,7 @@
         <v>355</v>
       </c>
       <c r="D106" t="s">
-        <v>369</v>
+        <v>371</v>
       </c>
     </row>
     <row r="107" spans="1:4">
@@ -3084,7 +3084,7 @@
         <v>354</v>
       </c>
       <c r="D108" t="s">
-        <v>368</v>
+        <v>389</v>
       </c>
     </row>
     <row r="109" spans="1:4">
@@ -3095,10 +3095,10 @@
         <v>111</v>
       </c>
       <c r="C109" t="s">
-        <v>357</v>
+        <v>355</v>
       </c>
       <c r="D109" t="s">
-        <v>375</v>
+        <v>362</v>
       </c>
     </row>
     <row r="110" spans="1:4">
@@ -3112,7 +3112,7 @@
         <v>354</v>
       </c>
       <c r="D110" t="s">
-        <v>389</v>
+        <v>368</v>
       </c>
     </row>
     <row r="111" spans="1:4">
@@ -3123,10 +3123,10 @@
         <v>113</v>
       </c>
       <c r="C111" t="s">
-        <v>355</v>
+        <v>357</v>
       </c>
       <c r="D111" t="s">
-        <v>362</v>
+        <v>375</v>
       </c>
     </row>
     <row r="112" spans="1:4">
@@ -3263,10 +3263,10 @@
         <v>123</v>
       </c>
       <c r="C121" t="s">
-        <v>355</v>
+        <v>357</v>
       </c>
       <c r="D121" t="s">
-        <v>365</v>
+        <v>386</v>
       </c>
     </row>
     <row r="122" spans="1:4">
@@ -3277,10 +3277,10 @@
         <v>124</v>
       </c>
       <c r="C122" t="s">
-        <v>357</v>
+        <v>355</v>
       </c>
       <c r="D122" t="s">
-        <v>386</v>
+        <v>365</v>
       </c>
     </row>
     <row r="123" spans="1:4">
@@ -3305,10 +3305,10 @@
         <v>126</v>
       </c>
       <c r="C124" t="s">
-        <v>354</v>
+        <v>355</v>
       </c>
       <c r="D124" t="s">
-        <v>363</v>
+        <v>388</v>
       </c>
     </row>
     <row r="125" spans="1:4">
@@ -3319,10 +3319,10 @@
         <v>127</v>
       </c>
       <c r="C125" t="s">
-        <v>355</v>
+        <v>354</v>
       </c>
       <c r="D125" t="s">
-        <v>388</v>
+        <v>363</v>
       </c>
     </row>
     <row r="126" spans="1:4">
@@ -3333,10 +3333,10 @@
         <v>128</v>
       </c>
       <c r="C126" t="s">
-        <v>354</v>
+        <v>355</v>
       </c>
       <c r="D126" t="s">
-        <v>374</v>
+        <v>371</v>
       </c>
     </row>
     <row r="127" spans="1:4">
@@ -3347,10 +3347,10 @@
         <v>129</v>
       </c>
       <c r="C127" t="s">
-        <v>355</v>
+        <v>356</v>
       </c>
       <c r="D127" t="s">
-        <v>371</v>
+        <v>363</v>
       </c>
     </row>
     <row r="128" spans="1:4">
@@ -3361,10 +3361,10 @@
         <v>130</v>
       </c>
       <c r="C128" t="s">
-        <v>354</v>
+        <v>356</v>
       </c>
       <c r="D128" t="s">
-        <v>383</v>
+        <v>367</v>
       </c>
     </row>
     <row r="129" spans="1:4">
@@ -3375,10 +3375,10 @@
         <v>131</v>
       </c>
       <c r="C129" t="s">
-        <v>356</v>
+        <v>354</v>
       </c>
       <c r="D129" t="s">
-        <v>363</v>
+        <v>374</v>
       </c>
     </row>
     <row r="130" spans="1:4">
@@ -3389,10 +3389,10 @@
         <v>132</v>
       </c>
       <c r="C130" t="s">
-        <v>356</v>
+        <v>354</v>
       </c>
       <c r="D130" t="s">
-        <v>367</v>
+        <v>383</v>
       </c>
     </row>
     <row r="131" spans="1:4">
@@ -3445,10 +3445,10 @@
         <v>136</v>
       </c>
       <c r="C134" t="s">
-        <v>357</v>
+        <v>355</v>
       </c>
       <c r="D134" t="s">
-        <v>369</v>
+        <v>366</v>
       </c>
     </row>
     <row r="135" spans="1:4">
@@ -3459,10 +3459,10 @@
         <v>137</v>
       </c>
       <c r="C135" t="s">
-        <v>355</v>
+        <v>354</v>
       </c>
       <c r="D135" t="s">
-        <v>379</v>
+        <v>387</v>
       </c>
     </row>
     <row r="136" spans="1:4">
@@ -3473,10 +3473,10 @@
         <v>138</v>
       </c>
       <c r="C136" t="s">
-        <v>355</v>
+        <v>357</v>
       </c>
       <c r="D136" t="s">
-        <v>366</v>
+        <v>369</v>
       </c>
     </row>
     <row r="137" spans="1:4">
@@ -3487,10 +3487,10 @@
         <v>139</v>
       </c>
       <c r="C137" t="s">
-        <v>354</v>
+        <v>355</v>
       </c>
       <c r="D137" t="s">
-        <v>387</v>
+        <v>379</v>
       </c>
     </row>
     <row r="138" spans="1:4">
@@ -3529,10 +3529,10 @@
         <v>142</v>
       </c>
       <c r="C140" t="s">
-        <v>357</v>
+        <v>355</v>
       </c>
       <c r="D140" t="s">
-        <v>360</v>
+        <v>391</v>
       </c>
     </row>
     <row r="141" spans="1:4">
@@ -3543,10 +3543,10 @@
         <v>143</v>
       </c>
       <c r="C141" t="s">
-        <v>355</v>
+        <v>357</v>
       </c>
       <c r="D141" t="s">
-        <v>391</v>
+        <v>360</v>
       </c>
     </row>
     <row r="142" spans="1:4">
@@ -3560,7 +3560,7 @@
         <v>355</v>
       </c>
       <c r="D142" t="s">
-        <v>391</v>
+        <v>372</v>
       </c>
     </row>
     <row r="143" spans="1:4">
@@ -3574,7 +3574,7 @@
         <v>355</v>
       </c>
       <c r="D143" t="s">
-        <v>372</v>
+        <v>379</v>
       </c>
     </row>
     <row r="144" spans="1:4">
@@ -3588,7 +3588,7 @@
         <v>355</v>
       </c>
       <c r="D144" t="s">
-        <v>379</v>
+        <v>391</v>
       </c>
     </row>
     <row r="145" spans="1:4">
@@ -3683,7 +3683,7 @@
         <v>153</v>
       </c>
       <c r="C151" t="s">
-        <v>354</v>
+        <v>355</v>
       </c>
       <c r="D151" t="s">
         <v>385</v>
@@ -3697,10 +3697,10 @@
         <v>154</v>
       </c>
       <c r="C152" t="s">
-        <v>358</v>
+        <v>354</v>
       </c>
       <c r="D152" t="s">
-        <v>374</v>
+        <v>385</v>
       </c>
     </row>
     <row r="153" spans="1:4">
@@ -3711,10 +3711,10 @@
         <v>155</v>
       </c>
       <c r="C153" t="s">
-        <v>355</v>
+        <v>358</v>
       </c>
       <c r="D153" t="s">
-        <v>385</v>
+        <v>374</v>
       </c>
     </row>
     <row r="154" spans="1:4">
@@ -3767,10 +3767,10 @@
         <v>159</v>
       </c>
       <c r="C157" t="s">
-        <v>358</v>
+        <v>355</v>
       </c>
       <c r="D157" t="s">
-        <v>379</v>
+        <v>390</v>
       </c>
     </row>
     <row r="158" spans="1:4">
@@ -3781,10 +3781,10 @@
         <v>160</v>
       </c>
       <c r="C158" t="s">
-        <v>355</v>
+        <v>358</v>
       </c>
       <c r="D158" t="s">
-        <v>390</v>
+        <v>379</v>
       </c>
     </row>
     <row r="159" spans="1:4">
@@ -3809,10 +3809,10 @@
         <v>162</v>
       </c>
       <c r="C160" t="s">
-        <v>356</v>
+        <v>357</v>
       </c>
       <c r="D160" t="s">
-        <v>386</v>
+        <v>391</v>
       </c>
     </row>
     <row r="161" spans="1:4">
@@ -3823,10 +3823,10 @@
         <v>163</v>
       </c>
       <c r="C161" t="s">
-        <v>357</v>
+        <v>356</v>
       </c>
       <c r="D161" t="s">
-        <v>391</v>
+        <v>386</v>
       </c>
     </row>
     <row r="162" spans="1:4">
@@ -3921,10 +3921,10 @@
         <v>170</v>
       </c>
       <c r="C168" t="s">
-        <v>358</v>
+        <v>355</v>
       </c>
       <c r="D168" t="s">
-        <v>360</v>
+        <v>370</v>
       </c>
     </row>
     <row r="169" spans="1:4">
@@ -3938,7 +3938,7 @@
         <v>355</v>
       </c>
       <c r="D169" t="s">
-        <v>370</v>
+        <v>364</v>
       </c>
     </row>
     <row r="170" spans="1:4">
@@ -3949,10 +3949,10 @@
         <v>172</v>
       </c>
       <c r="C170" t="s">
-        <v>355</v>
+        <v>358</v>
       </c>
       <c r="D170" t="s">
-        <v>364</v>
+        <v>360</v>
       </c>
     </row>
     <row r="171" spans="1:4">
@@ -3963,10 +3963,10 @@
         <v>173</v>
       </c>
       <c r="C171" t="s">
-        <v>357</v>
+        <v>355</v>
       </c>
       <c r="D171" t="s">
-        <v>384</v>
+        <v>363</v>
       </c>
     </row>
     <row r="172" spans="1:4">
@@ -3977,10 +3977,10 @@
         <v>174</v>
       </c>
       <c r="C172" t="s">
-        <v>359</v>
+        <v>357</v>
       </c>
       <c r="D172" t="s">
-        <v>373</v>
+        <v>384</v>
       </c>
     </row>
     <row r="173" spans="1:4">
@@ -3991,10 +3991,10 @@
         <v>175</v>
       </c>
       <c r="C173" t="s">
-        <v>355</v>
+        <v>359</v>
       </c>
       <c r="D173" t="s">
-        <v>363</v>
+        <v>373</v>
       </c>
     </row>
     <row r="174" spans="1:4">
@@ -4075,10 +4075,10 @@
         <v>181</v>
       </c>
       <c r="C179" t="s">
-        <v>356</v>
+        <v>354</v>
       </c>
       <c r="D179" t="s">
-        <v>365</v>
+        <v>364</v>
       </c>
     </row>
     <row r="180" spans="1:4">
@@ -4089,10 +4089,10 @@
         <v>182</v>
       </c>
       <c r="C180" t="s">
-        <v>354</v>
+        <v>356</v>
       </c>
       <c r="D180" t="s">
-        <v>364</v>
+        <v>365</v>
       </c>
     </row>
     <row r="181" spans="1:4">
@@ -4103,10 +4103,10 @@
         <v>183</v>
       </c>
       <c r="C181" t="s">
-        <v>356</v>
+        <v>355</v>
       </c>
       <c r="D181" t="s">
-        <v>385</v>
+        <v>371</v>
       </c>
     </row>
     <row r="182" spans="1:4">
@@ -4117,10 +4117,10 @@
         <v>184</v>
       </c>
       <c r="C182" t="s">
-        <v>355</v>
+        <v>356</v>
       </c>
       <c r="D182" t="s">
-        <v>371</v>
+        <v>385</v>
       </c>
     </row>
     <row r="183" spans="1:4">
@@ -4145,10 +4145,10 @@
         <v>186</v>
       </c>
       <c r="C184" t="s">
-        <v>357</v>
+        <v>355</v>
       </c>
       <c r="D184" t="s">
-        <v>390</v>
+        <v>382</v>
       </c>
     </row>
     <row r="185" spans="1:4">
@@ -4159,10 +4159,10 @@
         <v>187</v>
       </c>
       <c r="C185" t="s">
-        <v>359</v>
+        <v>357</v>
       </c>
       <c r="D185" t="s">
-        <v>374</v>
+        <v>390</v>
       </c>
     </row>
     <row r="186" spans="1:4">
@@ -4173,10 +4173,10 @@
         <v>188</v>
       </c>
       <c r="C186" t="s">
-        <v>355</v>
+        <v>359</v>
       </c>
       <c r="D186" t="s">
-        <v>382</v>
+        <v>374</v>
       </c>
     </row>
     <row r="187" spans="1:4">
@@ -4299,7 +4299,7 @@
         <v>197</v>
       </c>
       <c r="C195" t="s">
-        <v>359</v>
+        <v>355</v>
       </c>
       <c r="D195" t="s">
         <v>368</v>
@@ -4313,7 +4313,7 @@
         <v>198</v>
       </c>
       <c r="C196" t="s">
-        <v>355</v>
+        <v>359</v>
       </c>
       <c r="D196" t="s">
         <v>368</v>
@@ -4355,10 +4355,10 @@
         <v>201</v>
       </c>
       <c r="C199" t="s">
-        <v>358</v>
+        <v>354</v>
       </c>
       <c r="D199" t="s">
-        <v>378</v>
+        <v>373</v>
       </c>
     </row>
     <row r="200" spans="1:4">
@@ -4372,7 +4372,7 @@
         <v>354</v>
       </c>
       <c r="D200" t="s">
-        <v>373</v>
+        <v>382</v>
       </c>
     </row>
     <row r="201" spans="1:4">
@@ -4383,10 +4383,10 @@
         <v>203</v>
       </c>
       <c r="C201" t="s">
-        <v>354</v>
+        <v>358</v>
       </c>
       <c r="D201" t="s">
-        <v>382</v>
+        <v>378</v>
       </c>
     </row>
     <row r="202" spans="1:4">
@@ -4411,10 +4411,10 @@
         <v>205</v>
       </c>
       <c r="C203" t="s">
-        <v>359</v>
+        <v>355</v>
       </c>
       <c r="D203" t="s">
-        <v>375</v>
+        <v>372</v>
       </c>
     </row>
     <row r="204" spans="1:4">
@@ -4425,10 +4425,10 @@
         <v>206</v>
       </c>
       <c r="C204" t="s">
-        <v>358</v>
+        <v>354</v>
       </c>
       <c r="D204" t="s">
-        <v>376</v>
+        <v>380</v>
       </c>
     </row>
     <row r="205" spans="1:4">
@@ -4439,10 +4439,10 @@
         <v>207</v>
       </c>
       <c r="C205" t="s">
-        <v>355</v>
+        <v>359</v>
       </c>
       <c r="D205" t="s">
-        <v>372</v>
+        <v>375</v>
       </c>
     </row>
     <row r="206" spans="1:4">
@@ -4453,10 +4453,10 @@
         <v>208</v>
       </c>
       <c r="C206" t="s">
-        <v>354</v>
+        <v>358</v>
       </c>
       <c r="D206" t="s">
-        <v>380</v>
+        <v>376</v>
       </c>
     </row>
     <row r="207" spans="1:4">
@@ -4635,10 +4635,10 @@
         <v>221</v>
       </c>
       <c r="C219" t="s">
-        <v>359</v>
+        <v>354</v>
       </c>
       <c r="D219" t="s">
-        <v>379</v>
+        <v>371</v>
       </c>
     </row>
     <row r="220" spans="1:4">
@@ -4649,10 +4649,10 @@
         <v>222</v>
       </c>
       <c r="C220" t="s">
-        <v>354</v>
+        <v>359</v>
       </c>
       <c r="D220" t="s">
-        <v>371</v>
+        <v>379</v>
       </c>
     </row>
     <row r="221" spans="1:4">
@@ -4873,10 +4873,10 @@
         <v>238</v>
       </c>
       <c r="C236" t="s">
-        <v>359</v>
+        <v>355</v>
       </c>
       <c r="D236" t="s">
-        <v>377</v>
+        <v>367</v>
       </c>
     </row>
     <row r="237" spans="1:4">
@@ -4887,10 +4887,10 @@
         <v>239</v>
       </c>
       <c r="C237" t="s">
-        <v>355</v>
+        <v>354</v>
       </c>
       <c r="D237" t="s">
-        <v>367</v>
+        <v>382</v>
       </c>
     </row>
     <row r="238" spans="1:4">
@@ -4901,10 +4901,10 @@
         <v>240</v>
       </c>
       <c r="C238" t="s">
-        <v>354</v>
+        <v>355</v>
       </c>
       <c r="D238" t="s">
-        <v>382</v>
+        <v>391</v>
       </c>
     </row>
     <row r="239" spans="1:4">
@@ -4915,10 +4915,10 @@
         <v>241</v>
       </c>
       <c r="C239" t="s">
-        <v>355</v>
+        <v>359</v>
       </c>
       <c r="D239" t="s">
-        <v>391</v>
+        <v>377</v>
       </c>
     </row>
     <row r="240" spans="1:4">
@@ -4957,10 +4957,10 @@
         <v>244</v>
       </c>
       <c r="C242" t="s">
-        <v>359</v>
+        <v>354</v>
       </c>
       <c r="D242" t="s">
-        <v>380</v>
+        <v>367</v>
       </c>
     </row>
     <row r="243" spans="1:4">
@@ -4971,10 +4971,10 @@
         <v>245</v>
       </c>
       <c r="C243" t="s">
-        <v>354</v>
+        <v>355</v>
       </c>
       <c r="D243" t="s">
-        <v>367</v>
+        <v>386</v>
       </c>
     </row>
     <row r="244" spans="1:4">
@@ -4985,10 +4985,10 @@
         <v>246</v>
       </c>
       <c r="C244" t="s">
-        <v>355</v>
+        <v>359</v>
       </c>
       <c r="D244" t="s">
-        <v>386</v>
+        <v>380</v>
       </c>
     </row>
     <row r="245" spans="1:4">
@@ -5055,10 +5055,10 @@
         <v>251</v>
       </c>
       <c r="C249" t="s">
-        <v>357</v>
+        <v>354</v>
       </c>
       <c r="D249" t="s">
-        <v>366</v>
+        <v>360</v>
       </c>
     </row>
     <row r="250" spans="1:4">
@@ -5069,10 +5069,10 @@
         <v>252</v>
       </c>
       <c r="C250" t="s">
-        <v>354</v>
+        <v>357</v>
       </c>
       <c r="D250" t="s">
-        <v>360</v>
+        <v>366</v>
       </c>
     </row>
     <row r="251" spans="1:4">
@@ -5265,10 +5265,10 @@
         <v>266</v>
       </c>
       <c r="C264" t="s">
-        <v>358</v>
+        <v>355</v>
       </c>
       <c r="D264" t="s">
-        <v>363</v>
+        <v>381</v>
       </c>
     </row>
     <row r="265" spans="1:4">
@@ -5282,7 +5282,7 @@
         <v>358</v>
       </c>
       <c r="D265" t="s">
-        <v>384</v>
+        <v>363</v>
       </c>
     </row>
     <row r="266" spans="1:4">
@@ -5293,10 +5293,10 @@
         <v>268</v>
       </c>
       <c r="C266" t="s">
-        <v>355</v>
+        <v>358</v>
       </c>
       <c r="D266" t="s">
-        <v>381</v>
+        <v>384</v>
       </c>
     </row>
     <row r="267" spans="1:4">
@@ -5307,10 +5307,10 @@
         <v>269</v>
       </c>
       <c r="C267" t="s">
-        <v>359</v>
+        <v>355</v>
       </c>
       <c r="D267" t="s">
-        <v>376</v>
+        <v>384</v>
       </c>
     </row>
     <row r="268" spans="1:4">
@@ -5324,7 +5324,7 @@
         <v>355</v>
       </c>
       <c r="D268" t="s">
-        <v>384</v>
+        <v>388</v>
       </c>
     </row>
     <row r="269" spans="1:4">
@@ -5335,10 +5335,10 @@
         <v>271</v>
       </c>
       <c r="C269" t="s">
-        <v>355</v>
+        <v>359</v>
       </c>
       <c r="D269" t="s">
-        <v>388</v>
+        <v>376</v>
       </c>
     </row>
     <row r="270" spans="1:4">
@@ -5447,10 +5447,10 @@
         <v>279</v>
       </c>
       <c r="C277" t="s">
-        <v>358</v>
+        <v>356</v>
       </c>
       <c r="D277" t="s">
-        <v>385</v>
+        <v>388</v>
       </c>
     </row>
     <row r="278" spans="1:4">
@@ -5461,10 +5461,10 @@
         <v>280</v>
       </c>
       <c r="C278" t="s">
-        <v>356</v>
+        <v>358</v>
       </c>
       <c r="D278" t="s">
-        <v>388</v>
+        <v>385</v>
       </c>
     </row>
     <row r="279" spans="1:4">
@@ -5517,10 +5517,10 @@
         <v>284</v>
       </c>
       <c r="C282" t="s">
-        <v>358</v>
+        <v>354</v>
       </c>
       <c r="D282" t="s">
-        <v>387</v>
+        <v>383</v>
       </c>
     </row>
     <row r="283" spans="1:4">
@@ -5531,10 +5531,10 @@
         <v>285</v>
       </c>
       <c r="C283" t="s">
-        <v>354</v>
+        <v>358</v>
       </c>
       <c r="D283" t="s">
-        <v>383</v>
+        <v>387</v>
       </c>
     </row>
     <row r="284" spans="1:4">
@@ -5671,10 +5671,10 @@
         <v>295</v>
       </c>
       <c r="C293" t="s">
-        <v>358</v>
+        <v>357</v>
       </c>
       <c r="D293" t="s">
-        <v>370</v>
+        <v>366</v>
       </c>
     </row>
     <row r="294" spans="1:4">
@@ -5685,10 +5685,10 @@
         <v>296</v>
       </c>
       <c r="C294" t="s">
-        <v>357</v>
+        <v>358</v>
       </c>
       <c r="D294" t="s">
-        <v>366</v>
+        <v>370</v>
       </c>
     </row>
     <row r="295" spans="1:4">
@@ -5797,10 +5797,10 @@
         <v>304</v>
       </c>
       <c r="C302" t="s">
-        <v>358</v>
+        <v>354</v>
       </c>
       <c r="D302" t="s">
-        <v>388</v>
+        <v>366</v>
       </c>
     </row>
     <row r="303" spans="1:4">
@@ -5811,10 +5811,10 @@
         <v>305</v>
       </c>
       <c r="C303" t="s">
-        <v>354</v>
+        <v>355</v>
       </c>
       <c r="D303" t="s">
-        <v>366</v>
+        <v>387</v>
       </c>
     </row>
     <row r="304" spans="1:4">
@@ -5825,10 +5825,10 @@
         <v>306</v>
       </c>
       <c r="C304" t="s">
-        <v>355</v>
+        <v>358</v>
       </c>
       <c r="D304" t="s">
-        <v>387</v>
+        <v>388</v>
       </c>
     </row>
     <row r="305" spans="1:4">
@@ -5867,10 +5867,10 @@
         <v>309</v>
       </c>
       <c r="C307" t="s">
-        <v>358</v>
+        <v>354</v>
       </c>
       <c r="D307" t="s">
-        <v>389</v>
+        <v>368</v>
       </c>
     </row>
     <row r="308" spans="1:4">
@@ -5881,10 +5881,10 @@
         <v>310</v>
       </c>
       <c r="C308" t="s">
-        <v>354</v>
+        <v>358</v>
       </c>
       <c r="D308" t="s">
-        <v>368</v>
+        <v>389</v>
       </c>
     </row>
     <row r="309" spans="1:4">
@@ -7127,7 +7127,7 @@
         <v>44</v>
       </c>
       <c r="B45" t="s">
-        <v>53</v>
+        <v>52</v>
       </c>
       <c r="C45" t="s">
         <v>354</v>
@@ -7239,7 +7239,7 @@
         <v>52</v>
       </c>
       <c r="B53" t="s">
-        <v>52</v>
+        <v>53</v>
       </c>
       <c r="C53" t="s">
         <v>356</v>
@@ -7337,13 +7337,13 @@
         <v>59</v>
       </c>
       <c r="B60" t="s">
-        <v>71</v>
+        <v>62</v>
       </c>
       <c r="C60" t="s">
         <v>354</v>
       </c>
       <c r="D60" t="s">
-        <v>390</v>
+        <v>373</v>
       </c>
     </row>
     <row r="61" spans="1:4">
@@ -7351,13 +7351,13 @@
         <v>60</v>
       </c>
       <c r="B61" t="s">
-        <v>62</v>
+        <v>69</v>
       </c>
       <c r="C61" t="s">
         <v>354</v>
       </c>
       <c r="D61" t="s">
-        <v>373</v>
+        <v>390</v>
       </c>
     </row>
     <row r="62" spans="1:4">
@@ -7365,7 +7365,7 @@
         <v>61</v>
       </c>
       <c r="B62" t="s">
-        <v>67</v>
+        <v>68</v>
       </c>
       <c r="C62" t="s">
         <v>354</v>
@@ -7463,7 +7463,7 @@
         <v>68</v>
       </c>
       <c r="B69" t="s">
-        <v>68</v>
+        <v>67</v>
       </c>
       <c r="C69" t="s">
         <v>355</v>
@@ -7519,7 +7519,7 @@
         <v>72</v>
       </c>
       <c r="B73" t="s">
-        <v>69</v>
+        <v>70</v>
       </c>
       <c r="C73" t="s">
         <v>354</v>
@@ -7533,7 +7533,7 @@
         <v>73</v>
       </c>
       <c r="B74" t="s">
-        <v>70</v>
+        <v>71</v>
       </c>
       <c r="C74" t="s">
         <v>355</v>
@@ -7547,7 +7547,7 @@
         <v>74</v>
       </c>
       <c r="B75" t="s">
-        <v>77</v>
+        <v>76</v>
       </c>
       <c r="C75" t="s">
         <v>354</v>
@@ -7603,7 +7603,7 @@
         <v>78</v>
       </c>
       <c r="B79" t="s">
-        <v>96</v>
+        <v>97</v>
       </c>
       <c r="C79" t="s">
         <v>354</v>
@@ -7617,7 +7617,7 @@
         <v>79</v>
       </c>
       <c r="B80" t="s">
-        <v>76</v>
+        <v>77</v>
       </c>
       <c r="C80" t="s">
         <v>355</v>
@@ -7631,7 +7631,7 @@
         <v>80</v>
       </c>
       <c r="B81" t="s">
-        <v>95</v>
+        <v>96</v>
       </c>
       <c r="C81" t="s">
         <v>354</v>
@@ -7701,13 +7701,13 @@
         <v>85</v>
       </c>
       <c r="B86" t="s">
-        <v>88</v>
+        <v>95</v>
       </c>
       <c r="C86" t="s">
-        <v>357</v>
+        <v>354</v>
       </c>
       <c r="D86" t="s">
-        <v>379</v>
+        <v>374</v>
       </c>
     </row>
     <row r="87" spans="1:4">
@@ -7715,13 +7715,13 @@
         <v>86</v>
       </c>
       <c r="B87" t="s">
-        <v>82</v>
+        <v>88</v>
       </c>
       <c r="C87" t="s">
-        <v>355</v>
+        <v>357</v>
       </c>
       <c r="D87" t="s">
-        <v>361</v>
+        <v>379</v>
       </c>
     </row>
     <row r="88" spans="1:4">
@@ -7729,13 +7729,13 @@
         <v>87</v>
       </c>
       <c r="B88" t="s">
-        <v>100</v>
+        <v>82</v>
       </c>
       <c r="C88" t="s">
-        <v>354</v>
+        <v>355</v>
       </c>
       <c r="D88" t="s">
-        <v>381</v>
+        <v>361</v>
       </c>
     </row>
     <row r="89" spans="1:4">
@@ -7743,13 +7743,13 @@
         <v>88</v>
       </c>
       <c r="B89" t="s">
-        <v>94</v>
+        <v>100</v>
       </c>
       <c r="C89" t="s">
         <v>354</v>
       </c>
       <c r="D89" t="s">
-        <v>374</v>
+        <v>381</v>
       </c>
     </row>
     <row r="90" spans="1:4">
@@ -7757,7 +7757,7 @@
         <v>89</v>
       </c>
       <c r="B90" t="s">
-        <v>93</v>
+        <v>94</v>
       </c>
       <c r="C90" t="s">
         <v>357</v>
@@ -7827,7 +7827,7 @@
         <v>94</v>
       </c>
       <c r="B95" t="s">
-        <v>97</v>
+        <v>92</v>
       </c>
       <c r="C95" t="s">
         <v>355</v>
@@ -7869,13 +7869,13 @@
         <v>97</v>
       </c>
       <c r="B98" t="s">
-        <v>101</v>
+        <v>91</v>
       </c>
       <c r="C98" t="s">
-        <v>356</v>
+        <v>355</v>
       </c>
       <c r="D98" t="s">
-        <v>382</v>
+        <v>389</v>
       </c>
     </row>
     <row r="99" spans="1:4">
@@ -7883,13 +7883,13 @@
         <v>98</v>
       </c>
       <c r="B99" t="s">
-        <v>91</v>
+        <v>101</v>
       </c>
       <c r="C99" t="s">
-        <v>355</v>
+        <v>356</v>
       </c>
       <c r="D99" t="s">
-        <v>389</v>
+        <v>382</v>
       </c>
     </row>
     <row r="100" spans="1:4">
@@ -7897,7 +7897,7 @@
         <v>99</v>
       </c>
       <c r="B100" t="s">
-        <v>106</v>
+        <v>105</v>
       </c>
       <c r="C100" t="s">
         <v>357</v>
@@ -7911,7 +7911,7 @@
         <v>100</v>
       </c>
       <c r="B101" t="s">
-        <v>105</v>
+        <v>104</v>
       </c>
       <c r="C101" t="s">
         <v>357</v>
@@ -7925,7 +7925,7 @@
         <v>101</v>
       </c>
       <c r="B102" t="s">
-        <v>92</v>
+        <v>93</v>
       </c>
       <c r="C102" t="s">
         <v>356</v>
@@ -7953,7 +7953,7 @@
         <v>103</v>
       </c>
       <c r="B104" t="s">
-        <v>110</v>
+        <v>112</v>
       </c>
       <c r="C104" t="s">
         <v>354</v>
@@ -7995,7 +7995,7 @@
         <v>106</v>
       </c>
       <c r="B107" t="s">
-        <v>107</v>
+        <v>108</v>
       </c>
       <c r="C107" t="s">
         <v>355</v>
@@ -8009,13 +8009,13 @@
         <v>107</v>
       </c>
       <c r="B108" t="s">
-        <v>114</v>
+        <v>106</v>
       </c>
       <c r="C108" t="s">
-        <v>356</v>
+        <v>355</v>
       </c>
       <c r="D108" t="s">
-        <v>387</v>
+        <v>382</v>
       </c>
     </row>
     <row r="109" spans="1:4">
@@ -8023,13 +8023,13 @@
         <v>108</v>
       </c>
       <c r="B109" t="s">
-        <v>104</v>
+        <v>114</v>
       </c>
       <c r="C109" t="s">
-        <v>355</v>
+        <v>356</v>
       </c>
       <c r="D109" t="s">
-        <v>382</v>
+        <v>387</v>
       </c>
     </row>
     <row r="110" spans="1:4">
@@ -8037,7 +8037,7 @@
         <v>109</v>
       </c>
       <c r="B110" t="s">
-        <v>108</v>
+        <v>107</v>
       </c>
       <c r="C110" t="s">
         <v>355</v>
@@ -8079,7 +8079,7 @@
         <v>112</v>
       </c>
       <c r="B113" t="s">
-        <v>111</v>
+        <v>113</v>
       </c>
       <c r="C113" t="s">
         <v>357</v>
@@ -8093,7 +8093,7 @@
         <v>113</v>
       </c>
       <c r="B114" t="s">
-        <v>112</v>
+        <v>110</v>
       </c>
       <c r="C114" t="s">
         <v>354</v>
@@ -8107,13 +8107,13 @@
         <v>114</v>
       </c>
       <c r="B115" t="s">
-        <v>113</v>
+        <v>131</v>
       </c>
       <c r="C115" t="s">
-        <v>355</v>
+        <v>354</v>
       </c>
       <c r="D115" t="s">
-        <v>362</v>
+        <v>374</v>
       </c>
     </row>
     <row r="116" spans="1:4">
@@ -8121,13 +8121,13 @@
         <v>115</v>
       </c>
       <c r="B116" t="s">
-        <v>122</v>
+        <v>111</v>
       </c>
       <c r="C116" t="s">
-        <v>354</v>
+        <v>355</v>
       </c>
       <c r="D116" t="s">
-        <v>388</v>
+        <v>362</v>
       </c>
     </row>
     <row r="117" spans="1:4">
@@ -8135,13 +8135,13 @@
         <v>116</v>
       </c>
       <c r="B117" t="s">
-        <v>128</v>
+        <v>122</v>
       </c>
       <c r="C117" t="s">
         <v>354</v>
       </c>
       <c r="D117" t="s">
-        <v>374</v>
+        <v>388</v>
       </c>
     </row>
     <row r="118" spans="1:4">
@@ -8163,7 +8163,7 @@
         <v>118</v>
       </c>
       <c r="B119" t="s">
-        <v>123</v>
+        <v>124</v>
       </c>
       <c r="C119" t="s">
         <v>355</v>
@@ -8177,7 +8177,7 @@
         <v>119</v>
       </c>
       <c r="B120" t="s">
-        <v>130</v>
+        <v>132</v>
       </c>
       <c r="C120" t="s">
         <v>354</v>
@@ -8191,7 +8191,7 @@
         <v>120</v>
       </c>
       <c r="B121" t="s">
-        <v>126</v>
+        <v>127</v>
       </c>
       <c r="C121" t="s">
         <v>354</v>
@@ -8205,13 +8205,13 @@
         <v>121</v>
       </c>
       <c r="B122" t="s">
-        <v>127</v>
+        <v>142</v>
       </c>
       <c r="C122" t="s">
         <v>355</v>
       </c>
       <c r="D122" t="s">
-        <v>388</v>
+        <v>391</v>
       </c>
     </row>
     <row r="123" spans="1:4">
@@ -8219,13 +8219,13 @@
         <v>122</v>
       </c>
       <c r="B123" t="s">
-        <v>143</v>
+        <v>126</v>
       </c>
       <c r="C123" t="s">
         <v>355</v>
       </c>
       <c r="D123" t="s">
-        <v>391</v>
+        <v>388</v>
       </c>
     </row>
     <row r="124" spans="1:4">
@@ -8233,7 +8233,7 @@
         <v>123</v>
       </c>
       <c r="B124" t="s">
-        <v>138</v>
+        <v>136</v>
       </c>
       <c r="C124" t="s">
         <v>355</v>
@@ -8261,7 +8261,7 @@
         <v>125</v>
       </c>
       <c r="B126" t="s">
-        <v>139</v>
+        <v>137</v>
       </c>
       <c r="C126" t="s">
         <v>354</v>
@@ -8275,7 +8275,7 @@
         <v>126</v>
       </c>
       <c r="B127" t="s">
-        <v>129</v>
+        <v>128</v>
       </c>
       <c r="C127" t="s">
         <v>355</v>
@@ -8289,13 +8289,13 @@
         <v>127</v>
       </c>
       <c r="B128" t="s">
-        <v>119</v>
+        <v>125</v>
       </c>
       <c r="C128" t="s">
-        <v>356</v>
+        <v>355</v>
       </c>
       <c r="D128" t="s">
-        <v>391</v>
+        <v>371</v>
       </c>
     </row>
     <row r="129" spans="1:4">
@@ -8303,13 +8303,13 @@
         <v>128</v>
       </c>
       <c r="B129" t="s">
-        <v>125</v>
+        <v>119</v>
       </c>
       <c r="C129" t="s">
-        <v>355</v>
+        <v>356</v>
       </c>
       <c r="D129" t="s">
-        <v>371</v>
+        <v>391</v>
       </c>
     </row>
     <row r="130" spans="1:4">
@@ -8331,13 +8331,13 @@
         <v>130</v>
       </c>
       <c r="B131" t="s">
-        <v>137</v>
+        <v>154</v>
       </c>
       <c r="C131" t="s">
-        <v>355</v>
+        <v>354</v>
       </c>
       <c r="D131" t="s">
-        <v>379</v>
+        <v>385</v>
       </c>
     </row>
     <row r="132" spans="1:4">
@@ -8345,13 +8345,13 @@
         <v>131</v>
       </c>
       <c r="B132" t="s">
-        <v>153</v>
+        <v>139</v>
       </c>
       <c r="C132" t="s">
-        <v>354</v>
+        <v>355</v>
       </c>
       <c r="D132" t="s">
-        <v>385</v>
+        <v>379</v>
       </c>
     </row>
     <row r="133" spans="1:4">
@@ -8373,7 +8373,7 @@
         <v>133</v>
       </c>
       <c r="B134" t="s">
-        <v>132</v>
+        <v>130</v>
       </c>
       <c r="C134" t="s">
         <v>356</v>
@@ -8387,7 +8387,7 @@
         <v>134</v>
       </c>
       <c r="B135" t="s">
-        <v>131</v>
+        <v>129</v>
       </c>
       <c r="C135" t="s">
         <v>356</v>
@@ -8415,13 +8415,13 @@
         <v>136</v>
       </c>
       <c r="B137" t="s">
-        <v>124</v>
+        <v>134</v>
       </c>
       <c r="C137" t="s">
-        <v>357</v>
+        <v>356</v>
       </c>
       <c r="D137" t="s">
-        <v>386</v>
+        <v>377</v>
       </c>
     </row>
     <row r="138" spans="1:4">
@@ -8429,13 +8429,13 @@
         <v>137</v>
       </c>
       <c r="B138" t="s">
-        <v>134</v>
+        <v>141</v>
       </c>
       <c r="C138" t="s">
-        <v>356</v>
+        <v>354</v>
       </c>
       <c r="D138" t="s">
-        <v>377</v>
+        <v>372</v>
       </c>
     </row>
     <row r="139" spans="1:4">
@@ -8443,13 +8443,13 @@
         <v>138</v>
       </c>
       <c r="B139" t="s">
-        <v>141</v>
+        <v>123</v>
       </c>
       <c r="C139" t="s">
-        <v>354</v>
+        <v>357</v>
       </c>
       <c r="D139" t="s">
-        <v>372</v>
+        <v>386</v>
       </c>
     </row>
     <row r="140" spans="1:4">
@@ -8457,13 +8457,13 @@
         <v>139</v>
       </c>
       <c r="B140" t="s">
-        <v>144</v>
+        <v>145</v>
       </c>
       <c r="C140" t="s">
         <v>355</v>
       </c>
       <c r="D140" t="s">
-        <v>391</v>
+        <v>379</v>
       </c>
     </row>
     <row r="141" spans="1:4">
@@ -8471,7 +8471,7 @@
         <v>140</v>
       </c>
       <c r="B141" t="s">
-        <v>155</v>
+        <v>153</v>
       </c>
       <c r="C141" t="s">
         <v>355</v>
@@ -8491,7 +8491,7 @@
         <v>355</v>
       </c>
       <c r="D142" t="s">
-        <v>379</v>
+        <v>391</v>
       </c>
     </row>
     <row r="143" spans="1:4">
@@ -8513,13 +8513,13 @@
         <v>143</v>
       </c>
       <c r="B144" t="s">
-        <v>156</v>
+        <v>157</v>
       </c>
       <c r="C144" t="s">
         <v>355</v>
       </c>
       <c r="D144" t="s">
-        <v>369</v>
+        <v>382</v>
       </c>
     </row>
     <row r="145" spans="1:4">
@@ -8527,13 +8527,13 @@
         <v>144</v>
       </c>
       <c r="B145" t="s">
-        <v>157</v>
+        <v>156</v>
       </c>
       <c r="C145" t="s">
         <v>355</v>
       </c>
       <c r="D145" t="s">
-        <v>382</v>
+        <v>369</v>
       </c>
     </row>
     <row r="146" spans="1:4">
@@ -8555,7 +8555,7 @@
         <v>146</v>
       </c>
       <c r="B147" t="s">
-        <v>145</v>
+        <v>144</v>
       </c>
       <c r="C147" t="s">
         <v>355</v>
@@ -8583,13 +8583,13 @@
         <v>148</v>
       </c>
       <c r="B149" t="s">
-        <v>136</v>
+        <v>148</v>
       </c>
       <c r="C149" t="s">
-        <v>357</v>
+        <v>356</v>
       </c>
       <c r="D149" t="s">
-        <v>369</v>
+        <v>364</v>
       </c>
     </row>
     <row r="150" spans="1:4">
@@ -8597,13 +8597,13 @@
         <v>149</v>
       </c>
       <c r="B150" t="s">
-        <v>148</v>
+        <v>159</v>
       </c>
       <c r="C150" t="s">
-        <v>356</v>
+        <v>355</v>
       </c>
       <c r="D150" t="s">
-        <v>364</v>
+        <v>390</v>
       </c>
     </row>
     <row r="151" spans="1:4">
@@ -8611,13 +8611,13 @@
         <v>150</v>
       </c>
       <c r="B151" t="s">
-        <v>142</v>
+        <v>138</v>
       </c>
       <c r="C151" t="s">
         <v>357</v>
       </c>
       <c r="D151" t="s">
-        <v>360</v>
+        <v>369</v>
       </c>
     </row>
     <row r="152" spans="1:4">
@@ -8625,13 +8625,13 @@
         <v>151</v>
       </c>
       <c r="B152" t="s">
-        <v>160</v>
+        <v>143</v>
       </c>
       <c r="C152" t="s">
-        <v>355</v>
+        <v>357</v>
       </c>
       <c r="D152" t="s">
-        <v>390</v>
+        <v>360</v>
       </c>
     </row>
     <row r="153" spans="1:4">
@@ -8653,13 +8653,13 @@
         <v>153</v>
       </c>
       <c r="B154" t="s">
-        <v>152</v>
+        <v>158</v>
       </c>
       <c r="C154" t="s">
         <v>356</v>
       </c>
       <c r="D154" t="s">
-        <v>376</v>
+        <v>389</v>
       </c>
     </row>
     <row r="155" spans="1:4">
@@ -8667,13 +8667,13 @@
         <v>154</v>
       </c>
       <c r="B155" t="s">
-        <v>158</v>
+        <v>152</v>
       </c>
       <c r="C155" t="s">
         <v>356</v>
       </c>
       <c r="D155" t="s">
-        <v>389</v>
+        <v>376</v>
       </c>
     </row>
     <row r="156" spans="1:4">
@@ -8695,7 +8695,7 @@
         <v>156</v>
       </c>
       <c r="B157" t="s">
-        <v>162</v>
+        <v>163</v>
       </c>
       <c r="C157" t="s">
         <v>356</v>
@@ -8723,7 +8723,7 @@
         <v>158</v>
       </c>
       <c r="B159" t="s">
-        <v>172</v>
+        <v>171</v>
       </c>
       <c r="C159" t="s">
         <v>355</v>
@@ -8737,7 +8737,7 @@
         <v>159</v>
       </c>
       <c r="B160" t="s">
-        <v>171</v>
+        <v>170</v>
       </c>
       <c r="C160" t="s">
         <v>355</v>
@@ -8765,7 +8765,7 @@
         <v>161</v>
       </c>
       <c r="B162" t="s">
-        <v>175</v>
+        <v>173</v>
       </c>
       <c r="C162" t="s">
         <v>355</v>
@@ -8807,7 +8807,7 @@
         <v>164</v>
       </c>
       <c r="B165" t="s">
-        <v>154</v>
+        <v>155</v>
       </c>
       <c r="C165" t="s">
         <v>358</v>
@@ -8821,13 +8821,13 @@
         <v>165</v>
       </c>
       <c r="B166" t="s">
-        <v>192</v>
+        <v>186</v>
       </c>
       <c r="C166" t="s">
         <v>355</v>
       </c>
       <c r="D166" t="s">
-        <v>370</v>
+        <v>382</v>
       </c>
     </row>
     <row r="167" spans="1:4">
@@ -8835,13 +8835,13 @@
         <v>166</v>
       </c>
       <c r="B167" t="s">
-        <v>188</v>
+        <v>192</v>
       </c>
       <c r="C167" t="s">
         <v>355</v>
       </c>
       <c r="D167" t="s">
-        <v>382</v>
+        <v>370</v>
       </c>
     </row>
     <row r="168" spans="1:4">
@@ -8849,7 +8849,7 @@
         <v>167</v>
       </c>
       <c r="B168" t="s">
-        <v>159</v>
+        <v>160</v>
       </c>
       <c r="C168" t="s">
         <v>358</v>
@@ -8863,13 +8863,13 @@
         <v>168</v>
       </c>
       <c r="B169" t="s">
-        <v>163</v>
+        <v>179</v>
       </c>
       <c r="C169" t="s">
-        <v>357</v>
+        <v>355</v>
       </c>
       <c r="D169" t="s">
-        <v>391</v>
+        <v>388</v>
       </c>
     </row>
     <row r="170" spans="1:4">
@@ -8877,13 +8877,13 @@
         <v>169</v>
       </c>
       <c r="B170" t="s">
-        <v>164</v>
+        <v>162</v>
       </c>
       <c r="C170" t="s">
-        <v>358</v>
+        <v>357</v>
       </c>
       <c r="D170" t="s">
-        <v>361</v>
+        <v>391</v>
       </c>
     </row>
     <row r="171" spans="1:4">
@@ -8891,13 +8891,13 @@
         <v>170</v>
       </c>
       <c r="B171" t="s">
-        <v>181</v>
+        <v>164</v>
       </c>
       <c r="C171" t="s">
-        <v>356</v>
+        <v>358</v>
       </c>
       <c r="D171" t="s">
-        <v>365</v>
+        <v>361</v>
       </c>
     </row>
     <row r="172" spans="1:4">
@@ -8905,13 +8905,13 @@
         <v>171</v>
       </c>
       <c r="B172" t="s">
-        <v>179</v>
+        <v>183</v>
       </c>
       <c r="C172" t="s">
         <v>355</v>
       </c>
       <c r="D172" t="s">
-        <v>388</v>
+        <v>371</v>
       </c>
     </row>
     <row r="173" spans="1:4">
@@ -8919,13 +8919,13 @@
         <v>172</v>
       </c>
       <c r="B173" t="s">
-        <v>184</v>
+        <v>195</v>
       </c>
       <c r="C173" t="s">
         <v>355</v>
       </c>
       <c r="D173" t="s">
-        <v>371</v>
+        <v>374</v>
       </c>
     </row>
     <row r="174" spans="1:4">
@@ -8933,13 +8933,13 @@
         <v>173</v>
       </c>
       <c r="B174" t="s">
-        <v>195</v>
+        <v>182</v>
       </c>
       <c r="C174" t="s">
-        <v>355</v>
+        <v>356</v>
       </c>
       <c r="D174" t="s">
-        <v>374</v>
+        <v>365</v>
       </c>
     </row>
     <row r="175" spans="1:4">
@@ -8975,10 +8975,10 @@
         <v>176</v>
       </c>
       <c r="B177" t="s">
-        <v>183</v>
+        <v>180</v>
       </c>
       <c r="C177" t="s">
-        <v>356</v>
+        <v>354</v>
       </c>
       <c r="D177" t="s">
         <v>385</v>
@@ -8989,13 +8989,13 @@
         <v>177</v>
       </c>
       <c r="B178" t="s">
-        <v>170</v>
+        <v>184</v>
       </c>
       <c r="C178" t="s">
-        <v>358</v>
+        <v>356</v>
       </c>
       <c r="D178" t="s">
-        <v>360</v>
+        <v>385</v>
       </c>
     </row>
     <row r="179" spans="1:4">
@@ -9003,13 +9003,13 @@
         <v>178</v>
       </c>
       <c r="B179" t="s">
-        <v>180</v>
+        <v>172</v>
       </c>
       <c r="C179" t="s">
-        <v>354</v>
+        <v>358</v>
       </c>
       <c r="D179" t="s">
-        <v>385</v>
+        <v>360</v>
       </c>
     </row>
     <row r="180" spans="1:4">
@@ -9017,13 +9017,13 @@
         <v>179</v>
       </c>
       <c r="B180" t="s">
-        <v>176</v>
+        <v>181</v>
       </c>
       <c r="C180" t="s">
-        <v>358</v>
+        <v>354</v>
       </c>
       <c r="D180" t="s">
-        <v>369</v>
+        <v>364</v>
       </c>
     </row>
     <row r="181" spans="1:4">
@@ -9031,13 +9031,13 @@
         <v>180</v>
       </c>
       <c r="B181" t="s">
-        <v>174</v>
+        <v>176</v>
       </c>
       <c r="C181" t="s">
-        <v>359</v>
+        <v>358</v>
       </c>
       <c r="D181" t="s">
-        <v>373</v>
+        <v>369</v>
       </c>
     </row>
     <row r="182" spans="1:4">
@@ -9045,13 +9045,13 @@
         <v>181</v>
       </c>
       <c r="B182" t="s">
-        <v>168</v>
+        <v>175</v>
       </c>
       <c r="C182" t="s">
-        <v>357</v>
+        <v>359</v>
       </c>
       <c r="D182" t="s">
-        <v>385</v>
+        <v>373</v>
       </c>
     </row>
     <row r="183" spans="1:4">
@@ -9059,13 +9059,13 @@
         <v>182</v>
       </c>
       <c r="B183" t="s">
-        <v>178</v>
+        <v>168</v>
       </c>
       <c r="C183" t="s">
-        <v>358</v>
+        <v>357</v>
       </c>
       <c r="D183" t="s">
-        <v>377</v>
+        <v>385</v>
       </c>
     </row>
     <row r="184" spans="1:4">
@@ -9073,13 +9073,13 @@
         <v>183</v>
       </c>
       <c r="B184" t="s">
-        <v>182</v>
+        <v>178</v>
       </c>
       <c r="C184" t="s">
-        <v>354</v>
+        <v>358</v>
       </c>
       <c r="D184" t="s">
-        <v>364</v>
+        <v>377</v>
       </c>
     </row>
     <row r="185" spans="1:4">
@@ -9087,7 +9087,7 @@
         <v>184</v>
       </c>
       <c r="B185" t="s">
-        <v>173</v>
+        <v>174</v>
       </c>
       <c r="C185" t="s">
         <v>357</v>
@@ -9101,7 +9101,7 @@
         <v>185</v>
       </c>
       <c r="B186" t="s">
-        <v>198</v>
+        <v>197</v>
       </c>
       <c r="C186" t="s">
         <v>355</v>
@@ -9115,13 +9115,13 @@
         <v>186</v>
       </c>
       <c r="B187" t="s">
-        <v>177</v>
+        <v>194</v>
       </c>
       <c r="C187" t="s">
-        <v>358</v>
+        <v>355</v>
       </c>
       <c r="D187" t="s">
-        <v>368</v>
+        <v>378</v>
       </c>
     </row>
     <row r="188" spans="1:4">
@@ -9129,13 +9129,13 @@
         <v>187</v>
       </c>
       <c r="B188" t="s">
-        <v>194</v>
+        <v>177</v>
       </c>
       <c r="C188" t="s">
-        <v>355</v>
+        <v>358</v>
       </c>
       <c r="D188" t="s">
-        <v>378</v>
+        <v>368</v>
       </c>
     </row>
     <row r="189" spans="1:4">
@@ -9143,7 +9143,7 @@
         <v>188</v>
       </c>
       <c r="B189" t="s">
-        <v>208</v>
+        <v>206</v>
       </c>
       <c r="C189" t="s">
         <v>354</v>
@@ -9185,13 +9185,13 @@
         <v>191</v>
       </c>
       <c r="B192" t="s">
-        <v>187</v>
+        <v>211</v>
       </c>
       <c r="C192" t="s">
-        <v>359</v>
+        <v>355</v>
       </c>
       <c r="D192" t="s">
-        <v>374</v>
+        <v>360</v>
       </c>
     </row>
     <row r="193" spans="1:4">
@@ -9199,13 +9199,13 @@
         <v>192</v>
       </c>
       <c r="B193" t="s">
-        <v>193</v>
+        <v>188</v>
       </c>
       <c r="C193" t="s">
-        <v>355</v>
+        <v>359</v>
       </c>
       <c r="D193" t="s">
-        <v>376</v>
+        <v>374</v>
       </c>
     </row>
     <row r="194" spans="1:4">
@@ -9213,13 +9213,13 @@
         <v>193</v>
       </c>
       <c r="B194" t="s">
-        <v>211</v>
+        <v>193</v>
       </c>
       <c r="C194" t="s">
         <v>355</v>
       </c>
       <c r="D194" t="s">
-        <v>360</v>
+        <v>376</v>
       </c>
     </row>
     <row r="195" spans="1:4">
@@ -9241,13 +9241,13 @@
         <v>195</v>
       </c>
       <c r="B196" t="s">
-        <v>185</v>
+        <v>205</v>
       </c>
       <c r="C196" t="s">
-        <v>358</v>
+        <v>355</v>
       </c>
       <c r="D196" t="s">
-        <v>391</v>
+        <v>372</v>
       </c>
     </row>
     <row r="197" spans="1:4">
@@ -9255,13 +9255,13 @@
         <v>196</v>
       </c>
       <c r="B197" t="s">
-        <v>197</v>
+        <v>185</v>
       </c>
       <c r="C197" t="s">
-        <v>359</v>
+        <v>358</v>
       </c>
       <c r="D197" t="s">
-        <v>368</v>
+        <v>391</v>
       </c>
     </row>
     <row r="198" spans="1:4">
@@ -9269,13 +9269,13 @@
         <v>197</v>
       </c>
       <c r="B198" t="s">
-        <v>207</v>
+        <v>200</v>
       </c>
       <c r="C198" t="s">
-        <v>355</v>
+        <v>354</v>
       </c>
       <c r="D198" t="s">
-        <v>372</v>
+        <v>383</v>
       </c>
     </row>
     <row r="199" spans="1:4">
@@ -9283,13 +9283,13 @@
         <v>198</v>
       </c>
       <c r="B199" t="s">
-        <v>212</v>
+        <v>202</v>
       </c>
       <c r="C199" t="s">
-        <v>356</v>
+        <v>354</v>
       </c>
       <c r="D199" t="s">
-        <v>390</v>
+        <v>382</v>
       </c>
     </row>
     <row r="200" spans="1:4">
@@ -9297,13 +9297,13 @@
         <v>199</v>
       </c>
       <c r="B200" t="s">
-        <v>200</v>
+        <v>216</v>
       </c>
       <c r="C200" t="s">
-        <v>354</v>
+        <v>355</v>
       </c>
       <c r="D200" t="s">
-        <v>383</v>
+        <v>367</v>
       </c>
     </row>
     <row r="201" spans="1:4">
@@ -9311,13 +9311,13 @@
         <v>200</v>
       </c>
       <c r="B201" t="s">
-        <v>203</v>
+        <v>215</v>
       </c>
       <c r="C201" t="s">
-        <v>354</v>
+        <v>355</v>
       </c>
       <c r="D201" t="s">
-        <v>382</v>
+        <v>360</v>
       </c>
     </row>
     <row r="202" spans="1:4">
@@ -9325,13 +9325,13 @@
         <v>201</v>
       </c>
       <c r="B202" t="s">
-        <v>216</v>
+        <v>198</v>
       </c>
       <c r="C202" t="s">
-        <v>355</v>
+        <v>359</v>
       </c>
       <c r="D202" t="s">
-        <v>367</v>
+        <v>368</v>
       </c>
     </row>
     <row r="203" spans="1:4">
@@ -9339,13 +9339,13 @@
         <v>202</v>
       </c>
       <c r="B203" t="s">
-        <v>215</v>
+        <v>212</v>
       </c>
       <c r="C203" t="s">
-        <v>355</v>
+        <v>356</v>
       </c>
       <c r="D203" t="s">
-        <v>360</v>
+        <v>390</v>
       </c>
     </row>
     <row r="204" spans="1:4">
@@ -9381,13 +9381,13 @@
         <v>205</v>
       </c>
       <c r="B206" t="s">
-        <v>201</v>
+        <v>190</v>
       </c>
       <c r="C206" t="s">
-        <v>358</v>
+        <v>354</v>
       </c>
       <c r="D206" t="s">
-        <v>378</v>
+        <v>384</v>
       </c>
     </row>
     <row r="207" spans="1:4">
@@ -9395,13 +9395,13 @@
         <v>206</v>
       </c>
       <c r="B207" t="s">
-        <v>190</v>
+        <v>203</v>
       </c>
       <c r="C207" t="s">
-        <v>354</v>
+        <v>358</v>
       </c>
       <c r="D207" t="s">
-        <v>384</v>
+        <v>378</v>
       </c>
     </row>
     <row r="208" spans="1:4">
@@ -9409,13 +9409,13 @@
         <v>207</v>
       </c>
       <c r="B208" t="s">
-        <v>205</v>
+        <v>219</v>
       </c>
       <c r="C208" t="s">
-        <v>359</v>
+        <v>355</v>
       </c>
       <c r="D208" t="s">
-        <v>375</v>
+        <v>385</v>
       </c>
     </row>
     <row r="209" spans="1:4">
@@ -9423,13 +9423,13 @@
         <v>208</v>
       </c>
       <c r="B209" t="s">
-        <v>186</v>
+        <v>207</v>
       </c>
       <c r="C209" t="s">
-        <v>357</v>
+        <v>359</v>
       </c>
       <c r="D209" t="s">
-        <v>390</v>
+        <v>375</v>
       </c>
     </row>
     <row r="210" spans="1:4">
@@ -9437,13 +9437,13 @@
         <v>209</v>
       </c>
       <c r="B210" t="s">
-        <v>206</v>
+        <v>187</v>
       </c>
       <c r="C210" t="s">
-        <v>358</v>
+        <v>357</v>
       </c>
       <c r="D210" t="s">
-        <v>376</v>
+        <v>390</v>
       </c>
     </row>
     <row r="211" spans="1:4">
@@ -9451,13 +9451,13 @@
         <v>210</v>
       </c>
       <c r="B211" t="s">
-        <v>219</v>
+        <v>208</v>
       </c>
       <c r="C211" t="s">
-        <v>355</v>
+        <v>358</v>
       </c>
       <c r="D211" t="s">
-        <v>385</v>
+        <v>376</v>
       </c>
     </row>
     <row r="212" spans="1:4">
@@ -9465,7 +9465,7 @@
         <v>211</v>
       </c>
       <c r="B212" t="s">
-        <v>202</v>
+        <v>201</v>
       </c>
       <c r="C212" t="s">
         <v>354</v>
@@ -9521,7 +9521,7 @@
         <v>215</v>
       </c>
       <c r="B216" t="s">
-        <v>221</v>
+        <v>222</v>
       </c>
       <c r="C216" t="s">
         <v>359</v>
@@ -9535,13 +9535,13 @@
         <v>216</v>
       </c>
       <c r="B217" t="s">
-        <v>225</v>
+        <v>243</v>
       </c>
       <c r="C217" t="s">
-        <v>358</v>
+        <v>355</v>
       </c>
       <c r="D217" t="s">
-        <v>383</v>
+        <v>370</v>
       </c>
     </row>
     <row r="218" spans="1:4">
@@ -9549,13 +9549,13 @@
         <v>217</v>
       </c>
       <c r="B218" t="s">
-        <v>243</v>
+        <v>238</v>
       </c>
       <c r="C218" t="s">
         <v>355</v>
       </c>
       <c r="D218" t="s">
-        <v>370</v>
+        <v>367</v>
       </c>
     </row>
     <row r="219" spans="1:4">
@@ -9563,13 +9563,13 @@
         <v>218</v>
       </c>
       <c r="B219" t="s">
-        <v>239</v>
+        <v>225</v>
       </c>
       <c r="C219" t="s">
-        <v>355</v>
+        <v>358</v>
       </c>
       <c r="D219" t="s">
-        <v>367</v>
+        <v>383</v>
       </c>
     </row>
     <row r="220" spans="1:4">
@@ -9605,13 +9605,13 @@
         <v>221</v>
       </c>
       <c r="B222" t="s">
-        <v>223</v>
+        <v>210</v>
       </c>
       <c r="C222" t="s">
-        <v>358</v>
+        <v>354</v>
       </c>
       <c r="D222" t="s">
-        <v>373</v>
+        <v>364</v>
       </c>
     </row>
     <row r="223" spans="1:4">
@@ -9619,13 +9619,13 @@
         <v>222</v>
       </c>
       <c r="B223" t="s">
-        <v>210</v>
+        <v>233</v>
       </c>
       <c r="C223" t="s">
         <v>354</v>
       </c>
       <c r="D223" t="s">
-        <v>364</v>
+        <v>371</v>
       </c>
     </row>
     <row r="224" spans="1:4">
@@ -9633,13 +9633,13 @@
         <v>223</v>
       </c>
       <c r="B224" t="s">
-        <v>233</v>
+        <v>237</v>
       </c>
       <c r="C224" t="s">
-        <v>354</v>
+        <v>355</v>
       </c>
       <c r="D224" t="s">
-        <v>371</v>
+        <v>382</v>
       </c>
     </row>
     <row r="225" spans="1:4">
@@ -9647,13 +9647,13 @@
         <v>224</v>
       </c>
       <c r="B225" t="s">
-        <v>224</v>
+        <v>223</v>
       </c>
       <c r="C225" t="s">
         <v>358</v>
       </c>
       <c r="D225" t="s">
-        <v>367</v>
+        <v>373</v>
       </c>
     </row>
     <row r="226" spans="1:4">
@@ -9661,13 +9661,13 @@
         <v>225</v>
       </c>
       <c r="B226" t="s">
-        <v>237</v>
+        <v>245</v>
       </c>
       <c r="C226" t="s">
         <v>355</v>
       </c>
       <c r="D226" t="s">
-        <v>382</v>
+        <v>386</v>
       </c>
     </row>
     <row r="227" spans="1:4">
@@ -9675,13 +9675,13 @@
         <v>226</v>
       </c>
       <c r="B227" t="s">
-        <v>246</v>
+        <v>224</v>
       </c>
       <c r="C227" t="s">
-        <v>355</v>
+        <v>358</v>
       </c>
       <c r="D227" t="s">
-        <v>386</v>
+        <v>367</v>
       </c>
     </row>
     <row r="228" spans="1:4">
@@ -9689,13 +9689,13 @@
         <v>227</v>
       </c>
       <c r="B228" t="s">
-        <v>228</v>
+        <v>235</v>
       </c>
       <c r="C228" t="s">
-        <v>358</v>
+        <v>354</v>
       </c>
       <c r="D228" t="s">
-        <v>371</v>
+        <v>365</v>
       </c>
     </row>
     <row r="229" spans="1:4">
@@ -9703,13 +9703,13 @@
         <v>228</v>
       </c>
       <c r="B229" t="s">
-        <v>220</v>
+        <v>232</v>
       </c>
       <c r="C229" t="s">
-        <v>357</v>
+        <v>354</v>
       </c>
       <c r="D229" t="s">
-        <v>381</v>
+        <v>373</v>
       </c>
     </row>
     <row r="230" spans="1:4">
@@ -9717,13 +9717,13 @@
         <v>229</v>
       </c>
       <c r="B230" t="s">
-        <v>235</v>
+        <v>228</v>
       </c>
       <c r="C230" t="s">
-        <v>354</v>
+        <v>358</v>
       </c>
       <c r="D230" t="s">
-        <v>365</v>
+        <v>371</v>
       </c>
     </row>
     <row r="231" spans="1:4">
@@ -9731,13 +9731,13 @@
         <v>230</v>
       </c>
       <c r="B231" t="s">
-        <v>232</v>
+        <v>213</v>
       </c>
       <c r="C231" t="s">
-        <v>354</v>
+        <v>357</v>
       </c>
       <c r="D231" t="s">
-        <v>373</v>
+        <v>388</v>
       </c>
     </row>
     <row r="232" spans="1:4">
@@ -9745,13 +9745,13 @@
         <v>231</v>
       </c>
       <c r="B232" t="s">
-        <v>229</v>
+        <v>220</v>
       </c>
       <c r="C232" t="s">
-        <v>359</v>
+        <v>357</v>
       </c>
       <c r="D232" t="s">
-        <v>382</v>
+        <v>381</v>
       </c>
     </row>
     <row r="233" spans="1:4">
@@ -9759,13 +9759,13 @@
         <v>232</v>
       </c>
       <c r="B233" t="s">
-        <v>213</v>
+        <v>240</v>
       </c>
       <c r="C233" t="s">
-        <v>357</v>
+        <v>355</v>
       </c>
       <c r="D233" t="s">
-        <v>388</v>
+        <v>391</v>
       </c>
     </row>
     <row r="234" spans="1:4">
@@ -9773,13 +9773,13 @@
         <v>233</v>
       </c>
       <c r="B234" t="s">
-        <v>230</v>
+        <v>229</v>
       </c>
       <c r="C234" t="s">
-        <v>358</v>
+        <v>359</v>
       </c>
       <c r="D234" t="s">
-        <v>366</v>
+        <v>382</v>
       </c>
     </row>
     <row r="235" spans="1:4">
@@ -9787,13 +9787,13 @@
         <v>234</v>
       </c>
       <c r="B235" t="s">
-        <v>241</v>
+        <v>221</v>
       </c>
       <c r="C235" t="s">
-        <v>355</v>
+        <v>354</v>
       </c>
       <c r="D235" t="s">
-        <v>391</v>
+        <v>371</v>
       </c>
     </row>
     <row r="236" spans="1:4">
@@ -9801,13 +9801,13 @@
         <v>235</v>
       </c>
       <c r="B236" t="s">
-        <v>222</v>
+        <v>230</v>
       </c>
       <c r="C236" t="s">
-        <v>354</v>
+        <v>358</v>
       </c>
       <c r="D236" t="s">
-        <v>371</v>
+        <v>366</v>
       </c>
     </row>
     <row r="237" spans="1:4">
@@ -9829,7 +9829,7 @@
         <v>237</v>
       </c>
       <c r="B238" t="s">
-        <v>240</v>
+        <v>239</v>
       </c>
       <c r="C238" t="s">
         <v>354</v>
@@ -9871,7 +9871,7 @@
         <v>240</v>
       </c>
       <c r="B241" t="s">
-        <v>238</v>
+        <v>241</v>
       </c>
       <c r="C241" t="s">
         <v>359</v>
@@ -9899,7 +9899,7 @@
         <v>242</v>
       </c>
       <c r="B243" t="s">
-        <v>244</v>
+        <v>246</v>
       </c>
       <c r="C243" t="s">
         <v>359</v>
@@ -9969,13 +9969,13 @@
         <v>247</v>
       </c>
       <c r="B248" t="s">
-        <v>256</v>
+        <v>253</v>
       </c>
       <c r="C248" t="s">
         <v>358</v>
       </c>
       <c r="D248" t="s">
-        <v>362</v>
+        <v>365</v>
       </c>
     </row>
     <row r="249" spans="1:4">
@@ -9983,13 +9983,13 @@
         <v>248</v>
       </c>
       <c r="B249" t="s">
-        <v>253</v>
+        <v>256</v>
       </c>
       <c r="C249" t="s">
         <v>358</v>
       </c>
       <c r="D249" t="s">
-        <v>365</v>
+        <v>362</v>
       </c>
     </row>
     <row r="250" spans="1:4">
@@ -10067,7 +10067,7 @@
         <v>254</v>
       </c>
       <c r="B255" t="s">
-        <v>245</v>
+        <v>244</v>
       </c>
       <c r="C255" t="s">
         <v>354</v>
@@ -10109,7 +10109,7 @@
         <v>257</v>
       </c>
       <c r="B258" t="s">
-        <v>271</v>
+        <v>270</v>
       </c>
       <c r="C258" t="s">
         <v>355</v>
@@ -10123,7 +10123,7 @@
         <v>258</v>
       </c>
       <c r="B259" t="s">
-        <v>266</v>
+        <v>267</v>
       </c>
       <c r="C259" t="s">
         <v>358</v>
@@ -10137,13 +10137,13 @@
         <v>259</v>
       </c>
       <c r="B260" t="s">
-        <v>251</v>
+        <v>261</v>
       </c>
       <c r="C260" t="s">
-        <v>357</v>
+        <v>355</v>
       </c>
       <c r="D260" t="s">
-        <v>366</v>
+        <v>376</v>
       </c>
     </row>
     <row r="261" spans="1:4">
@@ -10151,13 +10151,13 @@
         <v>260</v>
       </c>
       <c r="B261" t="s">
-        <v>264</v>
+        <v>252</v>
       </c>
       <c r="C261" t="s">
-        <v>359</v>
+        <v>357</v>
       </c>
       <c r="D261" t="s">
-        <v>369</v>
+        <v>366</v>
       </c>
     </row>
     <row r="262" spans="1:4">
@@ -10165,13 +10165,13 @@
         <v>261</v>
       </c>
       <c r="B262" t="s">
-        <v>267</v>
+        <v>264</v>
       </c>
       <c r="C262" t="s">
-        <v>358</v>
+        <v>359</v>
       </c>
       <c r="D262" t="s">
-        <v>384</v>
+        <v>369</v>
       </c>
     </row>
     <row r="263" spans="1:4">
@@ -10179,13 +10179,13 @@
         <v>262</v>
       </c>
       <c r="B263" t="s">
-        <v>261</v>
+        <v>268</v>
       </c>
       <c r="C263" t="s">
-        <v>355</v>
+        <v>358</v>
       </c>
       <c r="D263" t="s">
-        <v>376</v>
+        <v>384</v>
       </c>
     </row>
     <row r="264" spans="1:4">
@@ -10193,7 +10193,7 @@
         <v>263</v>
       </c>
       <c r="B264" t="s">
-        <v>252</v>
+        <v>251</v>
       </c>
       <c r="C264" t="s">
         <v>354</v>
@@ -10207,7 +10207,7 @@
         <v>264</v>
       </c>
       <c r="B265" t="s">
-        <v>268</v>
+        <v>266</v>
       </c>
       <c r="C265" t="s">
         <v>355</v>
@@ -10221,13 +10221,13 @@
         <v>265</v>
       </c>
       <c r="B266" t="s">
-        <v>269</v>
+        <v>273</v>
       </c>
       <c r="C266" t="s">
         <v>359</v>
       </c>
       <c r="D266" t="s">
-        <v>376</v>
+        <v>366</v>
       </c>
     </row>
     <row r="267" spans="1:4">
@@ -10235,13 +10235,13 @@
         <v>266</v>
       </c>
       <c r="B267" t="s">
-        <v>273</v>
+        <v>271</v>
       </c>
       <c r="C267" t="s">
         <v>359</v>
       </c>
       <c r="D267" t="s">
-        <v>366</v>
+        <v>376</v>
       </c>
     </row>
     <row r="268" spans="1:4">
@@ -10263,7 +10263,7 @@
         <v>268</v>
       </c>
       <c r="B269" t="s">
-        <v>270</v>
+        <v>269</v>
       </c>
       <c r="C269" t="s">
         <v>355</v>
@@ -10305,7 +10305,7 @@
         <v>271</v>
       </c>
       <c r="B272" t="s">
-        <v>279</v>
+        <v>280</v>
       </c>
       <c r="C272" t="s">
         <v>358</v>
@@ -10319,7 +10319,7 @@
         <v>272</v>
       </c>
       <c r="B273" t="s">
-        <v>284</v>
+        <v>285</v>
       </c>
       <c r="C273" t="s">
         <v>358</v>
@@ -10375,13 +10375,13 @@
         <v>276</v>
       </c>
       <c r="B277" t="s">
-        <v>295</v>
+        <v>263</v>
       </c>
       <c r="C277" t="s">
-        <v>358</v>
+        <v>356</v>
       </c>
       <c r="D277" t="s">
-        <v>370</v>
+        <v>369</v>
       </c>
     </row>
     <row r="278" spans="1:4">
@@ -10389,13 +10389,13 @@
         <v>277</v>
       </c>
       <c r="B278" t="s">
-        <v>263</v>
+        <v>296</v>
       </c>
       <c r="C278" t="s">
-        <v>356</v>
+        <v>358</v>
       </c>
       <c r="D278" t="s">
-        <v>369</v>
+        <v>370</v>
       </c>
     </row>
     <row r="279" spans="1:4">
@@ -10431,7 +10431,7 @@
         <v>280</v>
       </c>
       <c r="B281" t="s">
-        <v>309</v>
+        <v>310</v>
       </c>
       <c r="C281" t="s">
         <v>358</v>
@@ -10459,13 +10459,13 @@
         <v>282</v>
       </c>
       <c r="B283" t="s">
-        <v>297</v>
+        <v>292</v>
       </c>
       <c r="C283" t="s">
-        <v>359</v>
+        <v>354</v>
       </c>
       <c r="D283" t="s">
-        <v>362</v>
+        <v>375</v>
       </c>
     </row>
     <row r="284" spans="1:4">
@@ -10473,13 +10473,13 @@
         <v>283</v>
       </c>
       <c r="B284" t="s">
-        <v>304</v>
+        <v>297</v>
       </c>
       <c r="C284" t="s">
-        <v>358</v>
+        <v>359</v>
       </c>
       <c r="D284" t="s">
-        <v>388</v>
+        <v>362</v>
       </c>
     </row>
     <row r="285" spans="1:4">
@@ -10487,13 +10487,13 @@
         <v>284</v>
       </c>
       <c r="B285" t="s">
-        <v>292</v>
+        <v>306</v>
       </c>
       <c r="C285" t="s">
-        <v>354</v>
+        <v>358</v>
       </c>
       <c r="D285" t="s">
-        <v>375</v>
+        <v>388</v>
       </c>
     </row>
     <row r="286" spans="1:4">
@@ -10515,7 +10515,7 @@
         <v>286</v>
       </c>
       <c r="B287" t="s">
-        <v>296</v>
+        <v>295</v>
       </c>
       <c r="C287" t="s">
         <v>357</v>
@@ -10529,7 +10529,7 @@
         <v>287</v>
       </c>
       <c r="B288" t="s">
-        <v>280</v>
+        <v>279</v>
       </c>
       <c r="C288" t="s">
         <v>356</v>
@@ -10655,7 +10655,7 @@
         <v>296</v>
       </c>
       <c r="B297" t="s">
-        <v>285</v>
+        <v>284</v>
       </c>
       <c r="C297" t="s">
         <v>354</v>
@@ -10767,13 +10767,13 @@
         <v>304</v>
       </c>
       <c r="B305" t="s">
-        <v>319</v>
+        <v>313</v>
       </c>
       <c r="C305" t="s">
-        <v>358</v>
+        <v>355</v>
       </c>
       <c r="D305" t="s">
-        <v>386</v>
+        <v>372</v>
       </c>
     </row>
     <row r="306" spans="1:4">
@@ -10781,13 +10781,13 @@
         <v>305</v>
       </c>
       <c r="B306" t="s">
-        <v>313</v>
+        <v>309</v>
       </c>
       <c r="C306" t="s">
-        <v>355</v>
+        <v>354</v>
       </c>
       <c r="D306" t="s">
-        <v>372</v>
+        <v>368</v>
       </c>
     </row>
     <row r="307" spans="1:4">
@@ -10795,13 +10795,13 @@
         <v>306</v>
       </c>
       <c r="B307" t="s">
-        <v>310</v>
+        <v>319</v>
       </c>
       <c r="C307" t="s">
-        <v>354</v>
+        <v>358</v>
       </c>
       <c r="D307" t="s">
-        <v>368</v>
+        <v>386</v>
       </c>
     </row>
     <row r="308" spans="1:4">
@@ -10809,7 +10809,7 @@
         <v>307</v>
       </c>
       <c r="B308" t="s">
-        <v>306</v>
+        <v>305</v>
       </c>
       <c r="C308" t="s">
         <v>355</v>
@@ -10851,13 +10851,13 @@
         <v>310</v>
       </c>
       <c r="B311" t="s">
-        <v>299</v>
+        <v>315</v>
       </c>
       <c r="C311" t="s">
-        <v>356</v>
+        <v>354</v>
       </c>
       <c r="D311" t="s">
-        <v>379</v>
+        <v>362</v>
       </c>
     </row>
     <row r="312" spans="1:4">
@@ -10865,13 +10865,13 @@
         <v>311</v>
       </c>
       <c r="B312" t="s">
-        <v>315</v>
+        <v>299</v>
       </c>
       <c r="C312" t="s">
-        <v>354</v>
+        <v>356</v>
       </c>
       <c r="D312" t="s">
-        <v>362</v>
+        <v>379</v>
       </c>
     </row>
     <row r="313" spans="1:4">
@@ -10893,7 +10893,7 @@
         <v>313</v>
       </c>
       <c r="B314" t="s">
-        <v>305</v>
+        <v>304</v>
       </c>
       <c r="C314" t="s">
         <v>354</v>
@@ -11596,13 +11596,13 @@
         <v>11</v>
       </c>
       <c r="B12" t="s">
-        <v>17</v>
+        <v>15</v>
       </c>
       <c r="C12" t="s">
-        <v>356</v>
+        <v>355</v>
       </c>
       <c r="D12" t="s">
-        <v>371</v>
+        <v>365</v>
       </c>
     </row>
     <row r="13" spans="1:4">
@@ -11610,13 +11610,13 @@
         <v>12</v>
       </c>
       <c r="B13" t="s">
-        <v>15</v>
+        <v>17</v>
       </c>
       <c r="C13" t="s">
-        <v>355</v>
+        <v>356</v>
       </c>
       <c r="D13" t="s">
-        <v>365</v>
+        <v>371</v>
       </c>
     </row>
     <row r="14" spans="1:4">
@@ -11918,13 +11918,13 @@
         <v>34</v>
       </c>
       <c r="B35" t="s">
-        <v>35</v>
+        <v>41</v>
       </c>
       <c r="C35" t="s">
-        <v>357</v>
+        <v>354</v>
       </c>
       <c r="D35" t="s">
-        <v>374</v>
+        <v>386</v>
       </c>
     </row>
     <row r="36" spans="1:4">
@@ -11932,13 +11932,13 @@
         <v>35</v>
       </c>
       <c r="B36" t="s">
-        <v>41</v>
+        <v>35</v>
       </c>
       <c r="C36" t="s">
-        <v>354</v>
+        <v>357</v>
       </c>
       <c r="D36" t="s">
-        <v>386</v>
+        <v>374</v>
       </c>
     </row>
     <row r="37" spans="1:4">
@@ -11988,13 +11988,13 @@
         <v>39</v>
       </c>
       <c r="B40" t="s">
-        <v>44</v>
+        <v>48</v>
       </c>
       <c r="C40" t="s">
-        <v>354</v>
+        <v>355</v>
       </c>
       <c r="D40" t="s">
-        <v>387</v>
+        <v>380</v>
       </c>
     </row>
     <row r="41" spans="1:4">
@@ -12002,13 +12002,13 @@
         <v>40</v>
       </c>
       <c r="B41" t="s">
-        <v>48</v>
+        <v>44</v>
       </c>
       <c r="C41" t="s">
-        <v>355</v>
+        <v>354</v>
       </c>
       <c r="D41" t="s">
-        <v>380</v>
+        <v>387</v>
       </c>
     </row>
     <row r="42" spans="1:4">
@@ -12058,13 +12058,13 @@
         <v>44</v>
       </c>
       <c r="B45" t="s">
-        <v>51</v>
+        <v>45</v>
       </c>
       <c r="C45" t="s">
-        <v>355</v>
+        <v>354</v>
       </c>
       <c r="D45" t="s">
-        <v>368</v>
+        <v>388</v>
       </c>
     </row>
     <row r="46" spans="1:4">
@@ -12072,13 +12072,13 @@
         <v>45</v>
       </c>
       <c r="B46" t="s">
-        <v>45</v>
+        <v>51</v>
       </c>
       <c r="C46" t="s">
-        <v>354</v>
+        <v>355</v>
       </c>
       <c r="D46" t="s">
-        <v>388</v>
+        <v>368</v>
       </c>
     </row>
     <row r="47" spans="1:4">
@@ -12086,7 +12086,7 @@
         <v>46</v>
       </c>
       <c r="B47" t="s">
-        <v>53</v>
+        <v>52</v>
       </c>
       <c r="C47" t="s">
         <v>354</v>
@@ -12114,13 +12114,13 @@
         <v>48</v>
       </c>
       <c r="B49" t="s">
-        <v>57</v>
+        <v>47</v>
       </c>
       <c r="C49" t="s">
-        <v>357</v>
+        <v>354</v>
       </c>
       <c r="D49" t="s">
-        <v>373</v>
+        <v>368</v>
       </c>
     </row>
     <row r="50" spans="1:4">
@@ -12128,13 +12128,13 @@
         <v>49</v>
       </c>
       <c r="B50" t="s">
-        <v>47</v>
+        <v>57</v>
       </c>
       <c r="C50" t="s">
-        <v>354</v>
+        <v>357</v>
       </c>
       <c r="D50" t="s">
-        <v>368</v>
+        <v>373</v>
       </c>
     </row>
     <row r="51" spans="1:4">
@@ -12184,7 +12184,7 @@
         <v>53</v>
       </c>
       <c r="B54" t="s">
-        <v>52</v>
+        <v>53</v>
       </c>
       <c r="C54" t="s">
         <v>356</v>
@@ -12226,13 +12226,13 @@
         <v>56</v>
       </c>
       <c r="B57" t="s">
-        <v>60</v>
+        <v>61</v>
       </c>
       <c r="C57" t="s">
-        <v>354</v>
+        <v>355</v>
       </c>
       <c r="D57" t="s">
-        <v>375</v>
+        <v>387</v>
       </c>
     </row>
     <row r="58" spans="1:4">
@@ -12240,13 +12240,13 @@
         <v>57</v>
       </c>
       <c r="B58" t="s">
-        <v>61</v>
+        <v>60</v>
       </c>
       <c r="C58" t="s">
-        <v>355</v>
+        <v>354</v>
       </c>
       <c r="D58" t="s">
-        <v>387</v>
+        <v>375</v>
       </c>
     </row>
     <row r="59" spans="1:4">
@@ -12268,7 +12268,7 @@
         <v>59</v>
       </c>
       <c r="B60" t="s">
-        <v>68</v>
+        <v>67</v>
       </c>
       <c r="C60" t="s">
         <v>355</v>
@@ -12324,7 +12324,7 @@
         <v>63</v>
       </c>
       <c r="B64" t="s">
-        <v>67</v>
+        <v>68</v>
       </c>
       <c r="C64" t="s">
         <v>354</v>
@@ -12338,13 +12338,13 @@
         <v>64</v>
       </c>
       <c r="B65" t="s">
-        <v>64</v>
+        <v>62</v>
       </c>
       <c r="C65" t="s">
-        <v>357</v>
+        <v>354</v>
       </c>
       <c r="D65" t="s">
-        <v>383</v>
+        <v>373</v>
       </c>
     </row>
     <row r="66" spans="1:4">
@@ -12352,13 +12352,13 @@
         <v>65</v>
       </c>
       <c r="B66" t="s">
-        <v>66</v>
+        <v>64</v>
       </c>
       <c r="C66" t="s">
         <v>357</v>
       </c>
       <c r="D66" t="s">
-        <v>382</v>
+        <v>383</v>
       </c>
     </row>
     <row r="67" spans="1:4">
@@ -12366,13 +12366,13 @@
         <v>66</v>
       </c>
       <c r="B67" t="s">
-        <v>74</v>
+        <v>66</v>
       </c>
       <c r="C67" t="s">
-        <v>355</v>
+        <v>357</v>
       </c>
       <c r="D67" t="s">
-        <v>371</v>
+        <v>382</v>
       </c>
     </row>
     <row r="68" spans="1:4">
@@ -12394,13 +12394,13 @@
         <v>68</v>
       </c>
       <c r="B69" t="s">
-        <v>62</v>
+        <v>74</v>
       </c>
       <c r="C69" t="s">
-        <v>354</v>
+        <v>355</v>
       </c>
       <c r="D69" t="s">
-        <v>373</v>
+        <v>371</v>
       </c>
     </row>
     <row r="70" spans="1:4">
@@ -12422,13 +12422,13 @@
         <v>70</v>
       </c>
       <c r="B71" t="s">
-        <v>46</v>
+        <v>69</v>
       </c>
       <c r="C71" t="s">
-        <v>355</v>
+        <v>354</v>
       </c>
       <c r="D71" t="s">
-        <v>374</v>
+        <v>390</v>
       </c>
     </row>
     <row r="72" spans="1:4">
@@ -12436,13 +12436,13 @@
         <v>71</v>
       </c>
       <c r="B72" t="s">
-        <v>71</v>
+        <v>46</v>
       </c>
       <c r="C72" t="s">
-        <v>354</v>
+        <v>355</v>
       </c>
       <c r="D72" t="s">
-        <v>390</v>
+        <v>374</v>
       </c>
     </row>
     <row r="73" spans="1:4">
@@ -12450,7 +12450,7 @@
         <v>72</v>
       </c>
       <c r="B73" t="s">
-        <v>95</v>
+        <v>96</v>
       </c>
       <c r="C73" t="s">
         <v>354</v>
@@ -12464,13 +12464,13 @@
         <v>73</v>
       </c>
       <c r="B74" t="s">
-        <v>96</v>
+        <v>71</v>
       </c>
       <c r="C74" t="s">
-        <v>354</v>
+        <v>355</v>
       </c>
       <c r="D74" t="s">
-        <v>367</v>
+        <v>388</v>
       </c>
     </row>
     <row r="75" spans="1:4">
@@ -12478,13 +12478,13 @@
         <v>74</v>
       </c>
       <c r="B75" t="s">
-        <v>70</v>
+        <v>97</v>
       </c>
       <c r="C75" t="s">
-        <v>355</v>
+        <v>354</v>
       </c>
       <c r="D75" t="s">
-        <v>388</v>
+        <v>367</v>
       </c>
     </row>
     <row r="76" spans="1:4">
@@ -12492,7 +12492,7 @@
         <v>75</v>
       </c>
       <c r="B76" t="s">
-        <v>76</v>
+        <v>77</v>
       </c>
       <c r="C76" t="s">
         <v>355</v>
@@ -12506,13 +12506,13 @@
         <v>76</v>
       </c>
       <c r="B77" t="s">
-        <v>79</v>
+        <v>87</v>
       </c>
       <c r="C77" t="s">
-        <v>357</v>
+        <v>354</v>
       </c>
       <c r="D77" t="s">
-        <v>365</v>
+        <v>391</v>
       </c>
     </row>
     <row r="78" spans="1:4">
@@ -12520,13 +12520,13 @@
         <v>77</v>
       </c>
       <c r="B78" t="s">
-        <v>78</v>
+        <v>79</v>
       </c>
       <c r="C78" t="s">
-        <v>355</v>
+        <v>357</v>
       </c>
       <c r="D78" t="s">
-        <v>363</v>
+        <v>365</v>
       </c>
     </row>
     <row r="79" spans="1:4">
@@ -12534,13 +12534,13 @@
         <v>78</v>
       </c>
       <c r="B79" t="s">
-        <v>75</v>
+        <v>78</v>
       </c>
       <c r="C79" t="s">
-        <v>356</v>
+        <v>355</v>
       </c>
       <c r="D79" t="s">
-        <v>383</v>
+        <v>363</v>
       </c>
     </row>
     <row r="80" spans="1:4">
@@ -12548,13 +12548,13 @@
         <v>79</v>
       </c>
       <c r="B80" t="s">
-        <v>87</v>
+        <v>75</v>
       </c>
       <c r="C80" t="s">
-        <v>354</v>
+        <v>356</v>
       </c>
       <c r="D80" t="s">
-        <v>391</v>
+        <v>383</v>
       </c>
     </row>
     <row r="81" spans="1:4">
@@ -12562,7 +12562,7 @@
         <v>80</v>
       </c>
       <c r="B81" t="s">
-        <v>77</v>
+        <v>76</v>
       </c>
       <c r="C81" t="s">
         <v>354</v>
@@ -12576,13 +12576,13 @@
         <v>81</v>
       </c>
       <c r="B82" t="s">
-        <v>84</v>
+        <v>100</v>
       </c>
       <c r="C82" t="s">
         <v>354</v>
       </c>
       <c r="D82" t="s">
-        <v>383</v>
+        <v>381</v>
       </c>
     </row>
     <row r="83" spans="1:4">
@@ -12590,13 +12590,13 @@
         <v>82</v>
       </c>
       <c r="B83" t="s">
-        <v>69</v>
+        <v>84</v>
       </c>
       <c r="C83" t="s">
         <v>354</v>
       </c>
       <c r="D83" t="s">
-        <v>391</v>
+        <v>383</v>
       </c>
     </row>
     <row r="84" spans="1:4">
@@ -12604,13 +12604,13 @@
         <v>83</v>
       </c>
       <c r="B84" t="s">
-        <v>100</v>
+        <v>70</v>
       </c>
       <c r="C84" t="s">
         <v>354</v>
       </c>
       <c r="D84" t="s">
-        <v>381</v>
+        <v>391</v>
       </c>
     </row>
     <row r="85" spans="1:4">
@@ -12660,7 +12660,7 @@
         <v>87</v>
       </c>
       <c r="B88" t="s">
-        <v>94</v>
+        <v>95</v>
       </c>
       <c r="C88" t="s">
         <v>354</v>
@@ -12716,7 +12716,7 @@
         <v>91</v>
       </c>
       <c r="B92" t="s">
-        <v>93</v>
+        <v>94</v>
       </c>
       <c r="C92" t="s">
         <v>357</v>
@@ -12758,7 +12758,7 @@
         <v>94</v>
       </c>
       <c r="B95" t="s">
-        <v>97</v>
+        <v>92</v>
       </c>
       <c r="C95" t="s">
         <v>355</v>
@@ -12828,7 +12828,7 @@
         <v>99</v>
       </c>
       <c r="B100" t="s">
-        <v>106</v>
+        <v>105</v>
       </c>
       <c r="C100" t="s">
         <v>357</v>
@@ -12842,7 +12842,7 @@
         <v>100</v>
       </c>
       <c r="B101" t="s">
-        <v>105</v>
+        <v>104</v>
       </c>
       <c r="C101" t="s">
         <v>357</v>
@@ -12856,7 +12856,7 @@
         <v>101</v>
       </c>
       <c r="B102" t="s">
-        <v>128</v>
+        <v>131</v>
       </c>
       <c r="C102" t="s">
         <v>354</v>
@@ -12898,13 +12898,13 @@
         <v>104</v>
       </c>
       <c r="B105" t="s">
-        <v>110</v>
+        <v>118</v>
       </c>
       <c r="C105" t="s">
         <v>354</v>
       </c>
       <c r="D105" t="s">
-        <v>368</v>
+        <v>374</v>
       </c>
     </row>
     <row r="106" spans="1:4">
@@ -12912,7 +12912,7 @@
         <v>105</v>
       </c>
       <c r="B106" t="s">
-        <v>92</v>
+        <v>93</v>
       </c>
       <c r="C106" t="s">
         <v>356</v>
@@ -12926,13 +12926,13 @@
         <v>106</v>
       </c>
       <c r="B107" t="s">
-        <v>114</v>
+        <v>112</v>
       </c>
       <c r="C107" t="s">
-        <v>356</v>
+        <v>354</v>
       </c>
       <c r="D107" t="s">
-        <v>387</v>
+        <v>368</v>
       </c>
     </row>
     <row r="108" spans="1:4">
@@ -12940,13 +12940,13 @@
         <v>107</v>
       </c>
       <c r="B108" t="s">
-        <v>104</v>
+        <v>114</v>
       </c>
       <c r="C108" t="s">
-        <v>355</v>
+        <v>356</v>
       </c>
       <c r="D108" t="s">
-        <v>382</v>
+        <v>387</v>
       </c>
     </row>
     <row r="109" spans="1:4">
@@ -12954,7 +12954,7 @@
         <v>108</v>
       </c>
       <c r="B109" t="s">
-        <v>107</v>
+        <v>108</v>
       </c>
       <c r="C109" t="s">
         <v>355</v>
@@ -12968,13 +12968,13 @@
         <v>109</v>
       </c>
       <c r="B110" t="s">
-        <v>118</v>
+        <v>106</v>
       </c>
       <c r="C110" t="s">
-        <v>354</v>
+        <v>355</v>
       </c>
       <c r="D110" t="s">
-        <v>374</v>
+        <v>382</v>
       </c>
     </row>
     <row r="111" spans="1:4">
@@ -13010,7 +13010,7 @@
         <v>112</v>
       </c>
       <c r="B113" t="s">
-        <v>108</v>
+        <v>107</v>
       </c>
       <c r="C113" t="s">
         <v>355</v>
@@ -13024,13 +13024,13 @@
         <v>113</v>
       </c>
       <c r="B114" t="s">
-        <v>111</v>
+        <v>110</v>
       </c>
       <c r="C114" t="s">
-        <v>357</v>
+        <v>354</v>
       </c>
       <c r="D114" t="s">
-        <v>375</v>
+        <v>389</v>
       </c>
     </row>
     <row r="115" spans="1:4">
@@ -13038,13 +13038,13 @@
         <v>114</v>
       </c>
       <c r="B115" t="s">
-        <v>112</v>
+        <v>113</v>
       </c>
       <c r="C115" t="s">
-        <v>354</v>
+        <v>357</v>
       </c>
       <c r="D115" t="s">
-        <v>389</v>
+        <v>375</v>
       </c>
     </row>
     <row r="116" spans="1:4">
@@ -13052,13 +13052,13 @@
         <v>115</v>
       </c>
       <c r="B116" t="s">
-        <v>123</v>
+        <v>111</v>
       </c>
       <c r="C116" t="s">
         <v>355</v>
       </c>
       <c r="D116" t="s">
-        <v>365</v>
+        <v>362</v>
       </c>
     </row>
     <row r="117" spans="1:4">
@@ -13066,13 +13066,13 @@
         <v>116</v>
       </c>
       <c r="B117" t="s">
-        <v>116</v>
+        <v>124</v>
       </c>
       <c r="C117" t="s">
         <v>355</v>
       </c>
       <c r="D117" t="s">
-        <v>387</v>
+        <v>365</v>
       </c>
     </row>
     <row r="118" spans="1:4">
@@ -13080,13 +13080,13 @@
         <v>117</v>
       </c>
       <c r="B118" t="s">
-        <v>113</v>
+        <v>116</v>
       </c>
       <c r="C118" t="s">
         <v>355</v>
       </c>
       <c r="D118" t="s">
-        <v>362</v>
+        <v>387</v>
       </c>
     </row>
     <row r="119" spans="1:4">
@@ -13094,7 +13094,7 @@
         <v>118</v>
       </c>
       <c r="B119" t="s">
-        <v>153</v>
+        <v>154</v>
       </c>
       <c r="C119" t="s">
         <v>354</v>
@@ -13122,13 +13122,13 @@
         <v>120</v>
       </c>
       <c r="B121" t="s">
-        <v>130</v>
+        <v>142</v>
       </c>
       <c r="C121" t="s">
-        <v>354</v>
+        <v>355</v>
       </c>
       <c r="D121" t="s">
-        <v>383</v>
+        <v>391</v>
       </c>
     </row>
     <row r="122" spans="1:4">
@@ -13136,13 +13136,13 @@
         <v>121</v>
       </c>
       <c r="B122" t="s">
-        <v>143</v>
+        <v>132</v>
       </c>
       <c r="C122" t="s">
-        <v>355</v>
+        <v>354</v>
       </c>
       <c r="D122" t="s">
-        <v>391</v>
+        <v>383</v>
       </c>
     </row>
     <row r="123" spans="1:4">
@@ -13150,7 +13150,7 @@
         <v>122</v>
       </c>
       <c r="B123" t="s">
-        <v>126</v>
+        <v>127</v>
       </c>
       <c r="C123" t="s">
         <v>354</v>
@@ -13164,13 +13164,13 @@
         <v>123</v>
       </c>
       <c r="B124" t="s">
-        <v>137</v>
+        <v>126</v>
       </c>
       <c r="C124" t="s">
         <v>355</v>
       </c>
       <c r="D124" t="s">
-        <v>379</v>
+        <v>388</v>
       </c>
     </row>
     <row r="125" spans="1:4">
@@ -13178,13 +13178,13 @@
         <v>124</v>
       </c>
       <c r="B125" t="s">
-        <v>127</v>
+        <v>139</v>
       </c>
       <c r="C125" t="s">
         <v>355</v>
       </c>
       <c r="D125" t="s">
-        <v>388</v>
+        <v>379</v>
       </c>
     </row>
     <row r="126" spans="1:4">
@@ -13192,7 +13192,7 @@
         <v>125</v>
       </c>
       <c r="B126" t="s">
-        <v>129</v>
+        <v>128</v>
       </c>
       <c r="C126" t="s">
         <v>355</v>
@@ -13206,7 +13206,7 @@
         <v>126</v>
       </c>
       <c r="B127" t="s">
-        <v>138</v>
+        <v>136</v>
       </c>
       <c r="C127" t="s">
         <v>355</v>
@@ -13234,10 +13234,10 @@
         <v>128</v>
       </c>
       <c r="B129" t="s">
-        <v>120</v>
+        <v>137</v>
       </c>
       <c r="C129" t="s">
-        <v>357</v>
+        <v>354</v>
       </c>
       <c r="D129" t="s">
         <v>387</v>
@@ -13248,10 +13248,10 @@
         <v>129</v>
       </c>
       <c r="B130" t="s">
-        <v>139</v>
+        <v>120</v>
       </c>
       <c r="C130" t="s">
-        <v>354</v>
+        <v>357</v>
       </c>
       <c r="D130" t="s">
         <v>387</v>
@@ -13262,13 +13262,13 @@
         <v>130</v>
       </c>
       <c r="B131" t="s">
-        <v>125</v>
+        <v>141</v>
       </c>
       <c r="C131" t="s">
-        <v>355</v>
+        <v>354</v>
       </c>
       <c r="D131" t="s">
-        <v>371</v>
+        <v>372</v>
       </c>
     </row>
     <row r="132" spans="1:4">
@@ -13276,13 +13276,13 @@
         <v>131</v>
       </c>
       <c r="B132" t="s">
-        <v>141</v>
+        <v>133</v>
       </c>
       <c r="C132" t="s">
         <v>354</v>
       </c>
       <c r="D132" t="s">
-        <v>372</v>
+        <v>380</v>
       </c>
     </row>
     <row r="133" spans="1:4">
@@ -13290,13 +13290,13 @@
         <v>132</v>
       </c>
       <c r="B133" t="s">
-        <v>133</v>
+        <v>125</v>
       </c>
       <c r="C133" t="s">
-        <v>354</v>
+        <v>355</v>
       </c>
       <c r="D133" t="s">
-        <v>380</v>
+        <v>371</v>
       </c>
     </row>
     <row r="134" spans="1:4">
@@ -13304,13 +13304,13 @@
         <v>133</v>
       </c>
       <c r="B134" t="s">
-        <v>119</v>
+        <v>157</v>
       </c>
       <c r="C134" t="s">
-        <v>356</v>
+        <v>355</v>
       </c>
       <c r="D134" t="s">
-        <v>391</v>
+        <v>382</v>
       </c>
     </row>
     <row r="135" spans="1:4">
@@ -13318,13 +13318,13 @@
         <v>134</v>
       </c>
       <c r="B135" t="s">
-        <v>157</v>
+        <v>129</v>
       </c>
       <c r="C135" t="s">
-        <v>355</v>
+        <v>356</v>
       </c>
       <c r="D135" t="s">
-        <v>382</v>
+        <v>363</v>
       </c>
     </row>
     <row r="136" spans="1:4">
@@ -13332,13 +13332,13 @@
         <v>135</v>
       </c>
       <c r="B136" t="s">
-        <v>131</v>
+        <v>119</v>
       </c>
       <c r="C136" t="s">
         <v>356</v>
       </c>
       <c r="D136" t="s">
-        <v>363</v>
+        <v>391</v>
       </c>
     </row>
     <row r="137" spans="1:4">
@@ -13346,7 +13346,7 @@
         <v>136</v>
       </c>
       <c r="B137" t="s">
-        <v>132</v>
+        <v>130</v>
       </c>
       <c r="C137" t="s">
         <v>356</v>
@@ -13374,7 +13374,7 @@
         <v>138</v>
       </c>
       <c r="B139" t="s">
-        <v>144</v>
+        <v>146</v>
       </c>
       <c r="C139" t="s">
         <v>355</v>
@@ -13388,13 +13388,13 @@
         <v>139</v>
       </c>
       <c r="B140" t="s">
-        <v>156</v>
+        <v>149</v>
       </c>
       <c r="C140" t="s">
-        <v>355</v>
+        <v>354</v>
       </c>
       <c r="D140" t="s">
-        <v>369</v>
+        <v>379</v>
       </c>
     </row>
     <row r="141" spans="1:4">
@@ -13402,13 +13402,13 @@
         <v>140</v>
       </c>
       <c r="B141" t="s">
-        <v>149</v>
+        <v>134</v>
       </c>
       <c r="C141" t="s">
-        <v>354</v>
+        <v>356</v>
       </c>
       <c r="D141" t="s">
-        <v>379</v>
+        <v>377</v>
       </c>
     </row>
     <row r="142" spans="1:4">
@@ -13416,13 +13416,13 @@
         <v>141</v>
       </c>
       <c r="B142" t="s">
-        <v>134</v>
+        <v>156</v>
       </c>
       <c r="C142" t="s">
-        <v>356</v>
+        <v>355</v>
       </c>
       <c r="D142" t="s">
-        <v>377</v>
+        <v>369</v>
       </c>
     </row>
     <row r="143" spans="1:4">
@@ -13430,13 +13430,13 @@
         <v>142</v>
       </c>
       <c r="B143" t="s">
-        <v>140</v>
+        <v>153</v>
       </c>
       <c r="C143" t="s">
-        <v>356</v>
+        <v>355</v>
       </c>
       <c r="D143" t="s">
-        <v>380</v>
+        <v>385</v>
       </c>
     </row>
     <row r="144" spans="1:4">
@@ -13444,13 +13444,13 @@
         <v>143</v>
       </c>
       <c r="B144" t="s">
-        <v>155</v>
+        <v>140</v>
       </c>
       <c r="C144" t="s">
-        <v>355</v>
+        <v>356</v>
       </c>
       <c r="D144" t="s">
-        <v>385</v>
+        <v>380</v>
       </c>
     </row>
     <row r="145" spans="1:4">
@@ -13458,7 +13458,7 @@
         <v>144</v>
       </c>
       <c r="B145" t="s">
-        <v>124</v>
+        <v>123</v>
       </c>
       <c r="C145" t="s">
         <v>357</v>
@@ -13472,7 +13472,7 @@
         <v>145</v>
       </c>
       <c r="B146" t="s">
-        <v>146</v>
+        <v>145</v>
       </c>
       <c r="C146" t="s">
         <v>355</v>
@@ -13486,7 +13486,7 @@
         <v>146</v>
       </c>
       <c r="B147" t="s">
-        <v>145</v>
+        <v>144</v>
       </c>
       <c r="C147" t="s">
         <v>355</v>
@@ -13514,7 +13514,7 @@
         <v>148</v>
       </c>
       <c r="B149" t="s">
-        <v>160</v>
+        <v>159</v>
       </c>
       <c r="C149" t="s">
         <v>355</v>
@@ -13556,7 +13556,7 @@
         <v>151</v>
       </c>
       <c r="B152" t="s">
-        <v>136</v>
+        <v>138</v>
       </c>
       <c r="C152" t="s">
         <v>357</v>
@@ -13598,7 +13598,7 @@
         <v>154</v>
       </c>
       <c r="B155" t="s">
-        <v>142</v>
+        <v>143</v>
       </c>
       <c r="C155" t="s">
         <v>357</v>
@@ -13612,7 +13612,7 @@
         <v>155</v>
       </c>
       <c r="B156" t="s">
-        <v>162</v>
+        <v>163</v>
       </c>
       <c r="C156" t="s">
         <v>356</v>
@@ -13626,7 +13626,7 @@
         <v>156</v>
       </c>
       <c r="B157" t="s">
-        <v>154</v>
+        <v>155</v>
       </c>
       <c r="C157" t="s">
         <v>358</v>
@@ -13640,7 +13640,7 @@
         <v>157</v>
       </c>
       <c r="B158" t="s">
-        <v>172</v>
+        <v>171</v>
       </c>
       <c r="C158" t="s">
         <v>355</v>
@@ -13654,7 +13654,7 @@
         <v>158</v>
       </c>
       <c r="B159" t="s">
-        <v>159</v>
+        <v>160</v>
       </c>
       <c r="C159" t="s">
         <v>358</v>
@@ -13668,13 +13668,13 @@
         <v>159</v>
       </c>
       <c r="B160" t="s">
-        <v>167</v>
+        <v>165</v>
       </c>
       <c r="C160" t="s">
-        <v>356</v>
+        <v>354</v>
       </c>
       <c r="D160" t="s">
-        <v>362</v>
+        <v>375</v>
       </c>
     </row>
     <row r="161" spans="1:4">
@@ -13682,13 +13682,13 @@
         <v>160</v>
       </c>
       <c r="B161" t="s">
-        <v>165</v>
+        <v>170</v>
       </c>
       <c r="C161" t="s">
-        <v>354</v>
+        <v>355</v>
       </c>
       <c r="D161" t="s">
-        <v>375</v>
+        <v>370</v>
       </c>
     </row>
     <row r="162" spans="1:4">
@@ -13696,13 +13696,13 @@
         <v>161</v>
       </c>
       <c r="B162" t="s">
-        <v>171</v>
+        <v>167</v>
       </c>
       <c r="C162" t="s">
-        <v>355</v>
+        <v>356</v>
       </c>
       <c r="D162" t="s">
-        <v>370</v>
+        <v>362</v>
       </c>
     </row>
     <row r="163" spans="1:4">
@@ -13738,7 +13738,7 @@
         <v>164</v>
       </c>
       <c r="B165" t="s">
-        <v>175</v>
+        <v>173</v>
       </c>
       <c r="C165" t="s">
         <v>355</v>
@@ -13766,13 +13766,13 @@
         <v>166</v>
       </c>
       <c r="B167" t="s">
-        <v>170</v>
+        <v>186</v>
       </c>
       <c r="C167" t="s">
-        <v>358</v>
+        <v>355</v>
       </c>
       <c r="D167" t="s">
-        <v>360</v>
+        <v>382</v>
       </c>
     </row>
     <row r="168" spans="1:4">
@@ -13780,13 +13780,13 @@
         <v>167</v>
       </c>
       <c r="B168" t="s">
-        <v>188</v>
+        <v>172</v>
       </c>
       <c r="C168" t="s">
-        <v>355</v>
+        <v>358</v>
       </c>
       <c r="D168" t="s">
-        <v>382</v>
+        <v>360</v>
       </c>
     </row>
     <row r="169" spans="1:4">
@@ -13836,7 +13836,7 @@
         <v>171</v>
       </c>
       <c r="B172" t="s">
-        <v>182</v>
+        <v>181</v>
       </c>
       <c r="C172" t="s">
         <v>354</v>
@@ -13850,13 +13850,13 @@
         <v>172</v>
       </c>
       <c r="B173" t="s">
-        <v>174</v>
+        <v>183</v>
       </c>
       <c r="C173" t="s">
-        <v>359</v>
+        <v>355</v>
       </c>
       <c r="D173" t="s">
-        <v>373</v>
+        <v>371</v>
       </c>
     </row>
     <row r="174" spans="1:4">
@@ -13864,13 +13864,13 @@
         <v>173</v>
       </c>
       <c r="B174" t="s">
-        <v>191</v>
+        <v>175</v>
       </c>
       <c r="C174" t="s">
-        <v>355</v>
+        <v>359</v>
       </c>
       <c r="D174" t="s">
-        <v>386</v>
+        <v>373</v>
       </c>
     </row>
     <row r="175" spans="1:4">
@@ -13892,13 +13892,13 @@
         <v>175</v>
       </c>
       <c r="B176" t="s">
-        <v>184</v>
+        <v>191</v>
       </c>
       <c r="C176" t="s">
         <v>355</v>
       </c>
       <c r="D176" t="s">
-        <v>371</v>
+        <v>386</v>
       </c>
     </row>
     <row r="177" spans="1:4">
@@ -13962,13 +13962,13 @@
         <v>180</v>
       </c>
       <c r="B181" t="s">
-        <v>181</v>
+        <v>202</v>
       </c>
       <c r="C181" t="s">
-        <v>356</v>
+        <v>354</v>
       </c>
       <c r="D181" t="s">
-        <v>365</v>
+        <v>382</v>
       </c>
     </row>
     <row r="182" spans="1:4">
@@ -13976,13 +13976,13 @@
         <v>181</v>
       </c>
       <c r="B182" t="s">
-        <v>203</v>
+        <v>182</v>
       </c>
       <c r="C182" t="s">
-        <v>354</v>
+        <v>356</v>
       </c>
       <c r="D182" t="s">
-        <v>382</v>
+        <v>365</v>
       </c>
     </row>
     <row r="183" spans="1:4">
@@ -13990,13 +13990,13 @@
         <v>182</v>
       </c>
       <c r="B183" t="s">
-        <v>187</v>
+        <v>194</v>
       </c>
       <c r="C183" t="s">
-        <v>359</v>
+        <v>355</v>
       </c>
       <c r="D183" t="s">
-        <v>374</v>
+        <v>378</v>
       </c>
     </row>
     <row r="184" spans="1:4">
@@ -14004,13 +14004,13 @@
         <v>183</v>
       </c>
       <c r="B184" t="s">
-        <v>161</v>
+        <v>188</v>
       </c>
       <c r="C184" t="s">
-        <v>357</v>
+        <v>359</v>
       </c>
       <c r="D184" t="s">
-        <v>370</v>
+        <v>374</v>
       </c>
     </row>
     <row r="185" spans="1:4">
@@ -14018,13 +14018,13 @@
         <v>184</v>
       </c>
       <c r="B185" t="s">
-        <v>194</v>
+        <v>161</v>
       </c>
       <c r="C185" t="s">
-        <v>355</v>
+        <v>357</v>
       </c>
       <c r="D185" t="s">
-        <v>378</v>
+        <v>370</v>
       </c>
     </row>
     <row r="186" spans="1:4">
@@ -14046,7 +14046,7 @@
         <v>186</v>
       </c>
       <c r="B187" t="s">
-        <v>163</v>
+        <v>162</v>
       </c>
       <c r="C187" t="s">
         <v>357</v>
@@ -14060,13 +14060,13 @@
         <v>187</v>
       </c>
       <c r="B188" t="s">
-        <v>183</v>
+        <v>193</v>
       </c>
       <c r="C188" t="s">
-        <v>356</v>
+        <v>355</v>
       </c>
       <c r="D188" t="s">
-        <v>385</v>
+        <v>376</v>
       </c>
     </row>
     <row r="189" spans="1:4">
@@ -14074,13 +14074,13 @@
         <v>188</v>
       </c>
       <c r="B189" t="s">
-        <v>198</v>
+        <v>184</v>
       </c>
       <c r="C189" t="s">
-        <v>355</v>
+        <v>356</v>
       </c>
       <c r="D189" t="s">
-        <v>368</v>
+        <v>385</v>
       </c>
     </row>
     <row r="190" spans="1:4">
@@ -14088,13 +14088,13 @@
         <v>189</v>
       </c>
       <c r="B190" t="s">
-        <v>193</v>
+        <v>197</v>
       </c>
       <c r="C190" t="s">
         <v>355</v>
       </c>
       <c r="D190" t="s">
-        <v>376</v>
+        <v>368</v>
       </c>
     </row>
     <row r="191" spans="1:4">
@@ -14102,13 +14102,13 @@
         <v>190</v>
       </c>
       <c r="B191" t="s">
-        <v>197</v>
+        <v>199</v>
       </c>
       <c r="C191" t="s">
-        <v>359</v>
+        <v>355</v>
       </c>
       <c r="D191" t="s">
-        <v>368</v>
+        <v>376</v>
       </c>
     </row>
     <row r="192" spans="1:4">
@@ -14116,13 +14116,13 @@
         <v>191</v>
       </c>
       <c r="B192" t="s">
-        <v>199</v>
+        <v>198</v>
       </c>
       <c r="C192" t="s">
-        <v>355</v>
+        <v>359</v>
       </c>
       <c r="D192" t="s">
-        <v>376</v>
+        <v>368</v>
       </c>
     </row>
     <row r="193" spans="1:4">
@@ -14144,7 +14144,7 @@
         <v>193</v>
       </c>
       <c r="B194" t="s">
-        <v>208</v>
+        <v>206</v>
       </c>
       <c r="C194" t="s">
         <v>354</v>
@@ -14158,13 +14158,13 @@
         <v>194</v>
       </c>
       <c r="B195" t="s">
-        <v>201</v>
+        <v>209</v>
       </c>
       <c r="C195" t="s">
-        <v>358</v>
+        <v>355</v>
       </c>
       <c r="D195" t="s">
-        <v>378</v>
+        <v>377</v>
       </c>
     </row>
     <row r="196" spans="1:4">
@@ -14172,13 +14172,13 @@
         <v>195</v>
       </c>
       <c r="B196" t="s">
-        <v>209</v>
+        <v>205</v>
       </c>
       <c r="C196" t="s">
         <v>355</v>
       </c>
       <c r="D196" t="s">
-        <v>377</v>
+        <v>372</v>
       </c>
     </row>
     <row r="197" spans="1:4">
@@ -14186,13 +14186,13 @@
         <v>196</v>
       </c>
       <c r="B197" t="s">
-        <v>207</v>
+        <v>215</v>
       </c>
       <c r="C197" t="s">
         <v>355</v>
       </c>
       <c r="D197" t="s">
-        <v>372</v>
+        <v>360</v>
       </c>
     </row>
     <row r="198" spans="1:4">
@@ -14200,13 +14200,13 @@
         <v>197</v>
       </c>
       <c r="B198" t="s">
-        <v>215</v>
+        <v>203</v>
       </c>
       <c r="C198" t="s">
-        <v>355</v>
+        <v>358</v>
       </c>
       <c r="D198" t="s">
-        <v>360</v>
+        <v>378</v>
       </c>
     </row>
     <row r="199" spans="1:4">
@@ -14256,7 +14256,7 @@
         <v>201</v>
       </c>
       <c r="B202" t="s">
-        <v>205</v>
+        <v>207</v>
       </c>
       <c r="C202" t="s">
         <v>359</v>
@@ -14270,7 +14270,7 @@
         <v>202</v>
       </c>
       <c r="B203" t="s">
-        <v>206</v>
+        <v>208</v>
       </c>
       <c r="C203" t="s">
         <v>358</v>
@@ -14326,13 +14326,13 @@
         <v>206</v>
       </c>
       <c r="B207" t="s">
-        <v>214</v>
+        <v>233</v>
       </c>
       <c r="C207" t="s">
-        <v>358</v>
+        <v>354</v>
       </c>
       <c r="D207" t="s">
-        <v>380</v>
+        <v>371</v>
       </c>
     </row>
     <row r="208" spans="1:4">
@@ -14340,13 +14340,13 @@
         <v>207</v>
       </c>
       <c r="B208" t="s">
-        <v>233</v>
+        <v>226</v>
       </c>
       <c r="C208" t="s">
         <v>354</v>
       </c>
       <c r="D208" t="s">
-        <v>371</v>
+        <v>390</v>
       </c>
     </row>
     <row r="209" spans="1:4">
@@ -14354,13 +14354,13 @@
         <v>208</v>
       </c>
       <c r="B209" t="s">
-        <v>226</v>
+        <v>214</v>
       </c>
       <c r="C209" t="s">
-        <v>354</v>
+        <v>358</v>
       </c>
       <c r="D209" t="s">
-        <v>390</v>
+        <v>380</v>
       </c>
     </row>
     <row r="210" spans="1:4">
@@ -14438,13 +14438,13 @@
         <v>214</v>
       </c>
       <c r="B215" t="s">
-        <v>217</v>
+        <v>210</v>
       </c>
       <c r="C215" t="s">
-        <v>359</v>
+        <v>354</v>
       </c>
       <c r="D215" t="s">
-        <v>371</v>
+        <v>364</v>
       </c>
     </row>
     <row r="216" spans="1:4">
@@ -14452,13 +14452,13 @@
         <v>215</v>
       </c>
       <c r="B216" t="s">
-        <v>210</v>
+        <v>201</v>
       </c>
       <c r="C216" t="s">
         <v>354</v>
       </c>
       <c r="D216" t="s">
-        <v>364</v>
+        <v>373</v>
       </c>
     </row>
     <row r="217" spans="1:4">
@@ -14466,13 +14466,13 @@
         <v>216</v>
       </c>
       <c r="B217" t="s">
-        <v>202</v>
+        <v>217</v>
       </c>
       <c r="C217" t="s">
-        <v>354</v>
+        <v>359</v>
       </c>
       <c r="D217" t="s">
-        <v>373</v>
+        <v>371</v>
       </c>
     </row>
     <row r="218" spans="1:4">
@@ -14494,7 +14494,7 @@
         <v>218</v>
       </c>
       <c r="B219" t="s">
-        <v>173</v>
+        <v>174</v>
       </c>
       <c r="C219" t="s">
         <v>357</v>
@@ -14508,7 +14508,7 @@
         <v>219</v>
       </c>
       <c r="B220" t="s">
-        <v>221</v>
+        <v>222</v>
       </c>
       <c r="C220" t="s">
         <v>359</v>
@@ -14522,10 +14522,10 @@
         <v>220</v>
       </c>
       <c r="B221" t="s">
-        <v>223</v>
+        <v>236</v>
       </c>
       <c r="C221" t="s">
-        <v>358</v>
+        <v>354</v>
       </c>
       <c r="D221" t="s">
         <v>373</v>
@@ -14536,13 +14536,13 @@
         <v>221</v>
       </c>
       <c r="B222" t="s">
-        <v>224</v>
+        <v>223</v>
       </c>
       <c r="C222" t="s">
         <v>358</v>
       </c>
       <c r="D222" t="s">
-        <v>367</v>
+        <v>373</v>
       </c>
     </row>
     <row r="223" spans="1:4">
@@ -14550,13 +14550,13 @@
         <v>222</v>
       </c>
       <c r="B223" t="s">
-        <v>236</v>
+        <v>224</v>
       </c>
       <c r="C223" t="s">
-        <v>354</v>
+        <v>358</v>
       </c>
       <c r="D223" t="s">
-        <v>373</v>
+        <v>367</v>
       </c>
     </row>
     <row r="224" spans="1:4">
@@ -14564,13 +14564,13 @@
         <v>223</v>
       </c>
       <c r="B224" t="s">
-        <v>225</v>
+        <v>242</v>
       </c>
       <c r="C224" t="s">
-        <v>358</v>
+        <v>355</v>
       </c>
       <c r="D224" t="s">
-        <v>383</v>
+        <v>374</v>
       </c>
     </row>
     <row r="225" spans="1:4">
@@ -14578,13 +14578,13 @@
         <v>224</v>
       </c>
       <c r="B225" t="s">
-        <v>242</v>
+        <v>238</v>
       </c>
       <c r="C225" t="s">
         <v>355</v>
       </c>
       <c r="D225" t="s">
-        <v>374</v>
+        <v>367</v>
       </c>
     </row>
     <row r="226" spans="1:4">
@@ -14592,13 +14592,13 @@
         <v>225</v>
       </c>
       <c r="B226" t="s">
-        <v>239</v>
+        <v>225</v>
       </c>
       <c r="C226" t="s">
-        <v>355</v>
+        <v>358</v>
       </c>
       <c r="D226" t="s">
-        <v>367</v>
+        <v>383</v>
       </c>
     </row>
     <row r="227" spans="1:4">
@@ -14634,7 +14634,7 @@
         <v>228</v>
       </c>
       <c r="B229" t="s">
-        <v>246</v>
+        <v>245</v>
       </c>
       <c r="C229" t="s">
         <v>355</v>
@@ -14648,13 +14648,13 @@
         <v>229</v>
       </c>
       <c r="B230" t="s">
-        <v>230</v>
+        <v>221</v>
       </c>
       <c r="C230" t="s">
-        <v>358</v>
+        <v>354</v>
       </c>
       <c r="D230" t="s">
-        <v>366</v>
+        <v>371</v>
       </c>
     </row>
     <row r="231" spans="1:4">
@@ -14662,13 +14662,13 @@
         <v>230</v>
       </c>
       <c r="B231" t="s">
-        <v>222</v>
+        <v>230</v>
       </c>
       <c r="C231" t="s">
-        <v>354</v>
+        <v>358</v>
       </c>
       <c r="D231" t="s">
-        <v>371</v>
+        <v>366</v>
       </c>
     </row>
     <row r="232" spans="1:4">
@@ -14732,13 +14732,13 @@
         <v>235</v>
       </c>
       <c r="B236" t="s">
-        <v>186</v>
+        <v>240</v>
       </c>
       <c r="C236" t="s">
-        <v>357</v>
+        <v>355</v>
       </c>
       <c r="D236" t="s">
-        <v>390</v>
+        <v>391</v>
       </c>
     </row>
     <row r="237" spans="1:4">
@@ -14746,13 +14746,13 @@
         <v>236</v>
       </c>
       <c r="B237" t="s">
-        <v>241</v>
+        <v>187</v>
       </c>
       <c r="C237" t="s">
-        <v>355</v>
+        <v>357</v>
       </c>
       <c r="D237" t="s">
-        <v>391</v>
+        <v>390</v>
       </c>
     </row>
     <row r="238" spans="1:4">
@@ -14788,7 +14788,7 @@
         <v>239</v>
       </c>
       <c r="B240" t="s">
-        <v>240</v>
+        <v>239</v>
       </c>
       <c r="C240" t="s">
         <v>354</v>
@@ -14802,7 +14802,7 @@
         <v>240</v>
       </c>
       <c r="B241" t="s">
-        <v>238</v>
+        <v>241</v>
       </c>
       <c r="C241" t="s">
         <v>359</v>
@@ -14816,7 +14816,7 @@
         <v>241</v>
       </c>
       <c r="B242" t="s">
-        <v>244</v>
+        <v>246</v>
       </c>
       <c r="C242" t="s">
         <v>359</v>
@@ -14844,7 +14844,7 @@
         <v>243</v>
       </c>
       <c r="B244" t="s">
-        <v>245</v>
+        <v>244</v>
       </c>
       <c r="C244" t="s">
         <v>354</v>
@@ -14900,7 +14900,7 @@
         <v>247</v>
       </c>
       <c r="B248" t="s">
-        <v>271</v>
+        <v>270</v>
       </c>
       <c r="C248" t="s">
         <v>355</v>
@@ -14914,13 +14914,13 @@
         <v>248</v>
       </c>
       <c r="B249" t="s">
-        <v>255</v>
+        <v>253</v>
       </c>
       <c r="C249" t="s">
-        <v>359</v>
+        <v>358</v>
       </c>
       <c r="D249" t="s">
-        <v>361</v>
+        <v>365</v>
       </c>
     </row>
     <row r="250" spans="1:4">
@@ -14928,13 +14928,13 @@
         <v>249</v>
       </c>
       <c r="B250" t="s">
-        <v>253</v>
+        <v>255</v>
       </c>
       <c r="C250" t="s">
-        <v>358</v>
+        <v>359</v>
       </c>
       <c r="D250" t="s">
-        <v>365</v>
+        <v>361</v>
       </c>
     </row>
     <row r="251" spans="1:4">
@@ -14956,13 +14956,13 @@
         <v>251</v>
       </c>
       <c r="B252" t="s">
-        <v>256</v>
+        <v>265</v>
       </c>
       <c r="C252" t="s">
-        <v>358</v>
+        <v>355</v>
       </c>
       <c r="D252" t="s">
-        <v>362</v>
+        <v>384</v>
       </c>
     </row>
     <row r="253" spans="1:4">
@@ -14970,13 +14970,13 @@
         <v>252</v>
       </c>
       <c r="B253" t="s">
-        <v>265</v>
+        <v>256</v>
       </c>
       <c r="C253" t="s">
-        <v>355</v>
+        <v>358</v>
       </c>
       <c r="D253" t="s">
-        <v>384</v>
+        <v>362</v>
       </c>
     </row>
     <row r="254" spans="1:4">
@@ -15026,13 +15026,13 @@
         <v>256</v>
       </c>
       <c r="B257" t="s">
-        <v>259</v>
+        <v>262</v>
       </c>
       <c r="C257" t="s">
-        <v>359</v>
+        <v>355</v>
       </c>
       <c r="D257" t="s">
-        <v>364</v>
+        <v>387</v>
       </c>
     </row>
     <row r="258" spans="1:4">
@@ -15040,13 +15040,13 @@
         <v>257</v>
       </c>
       <c r="B258" t="s">
-        <v>262</v>
+        <v>259</v>
       </c>
       <c r="C258" t="s">
-        <v>355</v>
+        <v>359</v>
       </c>
       <c r="D258" t="s">
-        <v>387</v>
+        <v>364</v>
       </c>
     </row>
     <row r="259" spans="1:4">
@@ -15054,7 +15054,7 @@
         <v>258</v>
       </c>
       <c r="B259" t="s">
-        <v>252</v>
+        <v>251</v>
       </c>
       <c r="C259" t="s">
         <v>354</v>
@@ -15068,13 +15068,13 @@
         <v>259</v>
       </c>
       <c r="B260" t="s">
-        <v>220</v>
+        <v>260</v>
       </c>
       <c r="C260" t="s">
-        <v>357</v>
+        <v>356</v>
       </c>
       <c r="D260" t="s">
-        <v>381</v>
+        <v>379</v>
       </c>
     </row>
     <row r="261" spans="1:4">
@@ -15082,13 +15082,13 @@
         <v>260</v>
       </c>
       <c r="B261" t="s">
-        <v>260</v>
+        <v>220</v>
       </c>
       <c r="C261" t="s">
-        <v>356</v>
+        <v>357</v>
       </c>
       <c r="D261" t="s">
-        <v>379</v>
+        <v>381</v>
       </c>
     </row>
     <row r="262" spans="1:4">
@@ -15096,7 +15096,7 @@
         <v>261</v>
       </c>
       <c r="B262" t="s">
-        <v>270</v>
+        <v>269</v>
       </c>
       <c r="C262" t="s">
         <v>355</v>
@@ -15124,7 +15124,7 @@
         <v>263</v>
       </c>
       <c r="B264" t="s">
-        <v>268</v>
+        <v>266</v>
       </c>
       <c r="C264" t="s">
         <v>355</v>
@@ -15152,7 +15152,7 @@
         <v>265</v>
       </c>
       <c r="B266" t="s">
-        <v>266</v>
+        <v>267</v>
       </c>
       <c r="C266" t="s">
         <v>358</v>
@@ -15166,7 +15166,7 @@
         <v>266</v>
       </c>
       <c r="B267" t="s">
-        <v>267</v>
+        <v>268</v>
       </c>
       <c r="C267" t="s">
         <v>358</v>
@@ -15222,7 +15222,7 @@
         <v>270</v>
       </c>
       <c r="B271" t="s">
-        <v>269</v>
+        <v>271</v>
       </c>
       <c r="C271" t="s">
         <v>359</v>
@@ -15292,7 +15292,7 @@
         <v>275</v>
       </c>
       <c r="B276" t="s">
-        <v>280</v>
+        <v>279</v>
       </c>
       <c r="C276" t="s">
         <v>356</v>
@@ -15334,7 +15334,7 @@
         <v>278</v>
       </c>
       <c r="B279" t="s">
-        <v>279</v>
+        <v>280</v>
       </c>
       <c r="C279" t="s">
         <v>358</v>
@@ -15362,7 +15362,7 @@
         <v>280</v>
       </c>
       <c r="B281" t="s">
-        <v>284</v>
+        <v>285</v>
       </c>
       <c r="C281" t="s">
         <v>358</v>
@@ -15418,7 +15418,7 @@
         <v>284</v>
       </c>
       <c r="B285" t="s">
-        <v>251</v>
+        <v>252</v>
       </c>
       <c r="C285" t="s">
         <v>357</v>
@@ -15446,7 +15446,7 @@
         <v>286</v>
       </c>
       <c r="B287" t="s">
-        <v>285</v>
+        <v>284</v>
       </c>
       <c r="C287" t="s">
         <v>354</v>
@@ -15488,13 +15488,13 @@
         <v>289</v>
       </c>
       <c r="B290" t="s">
-        <v>295</v>
+        <v>303</v>
       </c>
       <c r="C290" t="s">
-        <v>358</v>
+        <v>355</v>
       </c>
       <c r="D290" t="s">
-        <v>370</v>
+        <v>383</v>
       </c>
     </row>
     <row r="291" spans="1:4">
@@ -15502,13 +15502,13 @@
         <v>290</v>
       </c>
       <c r="B291" t="s">
-        <v>303</v>
+        <v>294</v>
       </c>
       <c r="C291" t="s">
-        <v>355</v>
+        <v>356</v>
       </c>
       <c r="D291" t="s">
-        <v>383</v>
+        <v>382</v>
       </c>
     </row>
     <row r="292" spans="1:4">
@@ -15516,13 +15516,13 @@
         <v>291</v>
       </c>
       <c r="B292" t="s">
-        <v>294</v>
+        <v>296</v>
       </c>
       <c r="C292" t="s">
-        <v>356</v>
+        <v>358</v>
       </c>
       <c r="D292" t="s">
-        <v>382</v>
+        <v>370</v>
       </c>
     </row>
     <row r="293" spans="1:4">
@@ -15558,10 +15558,10 @@
         <v>294</v>
       </c>
       <c r="B295" t="s">
-        <v>301</v>
+        <v>305</v>
       </c>
       <c r="C295" t="s">
-        <v>359</v>
+        <v>355</v>
       </c>
       <c r="D295" t="s">
         <v>387</v>
@@ -15572,10 +15572,10 @@
         <v>295</v>
       </c>
       <c r="B296" t="s">
-        <v>306</v>
+        <v>301</v>
       </c>
       <c r="C296" t="s">
-        <v>355</v>
+        <v>359</v>
       </c>
       <c r="D296" t="s">
         <v>387</v>
@@ -15614,10 +15614,10 @@
         <v>298</v>
       </c>
       <c r="B299" t="s">
-        <v>304</v>
+        <v>311</v>
       </c>
       <c r="C299" t="s">
-        <v>358</v>
+        <v>356</v>
       </c>
       <c r="D299" t="s">
         <v>388</v>
@@ -15628,13 +15628,13 @@
         <v>299</v>
       </c>
       <c r="B300" t="s">
-        <v>311</v>
+        <v>287</v>
       </c>
       <c r="C300" t="s">
-        <v>356</v>
+        <v>354</v>
       </c>
       <c r="D300" t="s">
-        <v>388</v>
+        <v>362</v>
       </c>
     </row>
     <row r="301" spans="1:4">
@@ -15642,13 +15642,13 @@
         <v>300</v>
       </c>
       <c r="B301" t="s">
-        <v>287</v>
+        <v>306</v>
       </c>
       <c r="C301" t="s">
-        <v>354</v>
+        <v>358</v>
       </c>
       <c r="D301" t="s">
-        <v>362</v>
+        <v>388</v>
       </c>
     </row>
     <row r="302" spans="1:4">
@@ -15656,13 +15656,13 @@
         <v>301</v>
       </c>
       <c r="B302" t="s">
-        <v>309</v>
+        <v>299</v>
       </c>
       <c r="C302" t="s">
-        <v>358</v>
+        <v>356</v>
       </c>
       <c r="D302" t="s">
-        <v>389</v>
+        <v>379</v>
       </c>
     </row>
     <row r="303" spans="1:4">
@@ -15670,13 +15670,13 @@
         <v>302</v>
       </c>
       <c r="B303" t="s">
-        <v>299</v>
+        <v>310</v>
       </c>
       <c r="C303" t="s">
-        <v>356</v>
+        <v>358</v>
       </c>
       <c r="D303" t="s">
-        <v>379</v>
+        <v>389</v>
       </c>
     </row>
     <row r="304" spans="1:4">
@@ -15726,7 +15726,7 @@
         <v>306</v>
       </c>
       <c r="B307" t="s">
-        <v>305</v>
+        <v>304</v>
       </c>
       <c r="C307" t="s">
         <v>354</v>
@@ -15740,13 +15740,13 @@
         <v>307</v>
       </c>
       <c r="B308" t="s">
-        <v>276</v>
+        <v>316</v>
       </c>
       <c r="C308" t="s">
-        <v>357</v>
+        <v>355</v>
       </c>
       <c r="D308" t="s">
-        <v>367</v>
+        <v>392</v>
       </c>
     </row>
     <row r="309" spans="1:4">
@@ -15754,13 +15754,13 @@
         <v>308</v>
       </c>
       <c r="B309" t="s">
-        <v>316</v>
+        <v>276</v>
       </c>
       <c r="C309" t="s">
-        <v>355</v>
+        <v>357</v>
       </c>
       <c r="D309" t="s">
-        <v>392</v>
+        <v>367</v>
       </c>
     </row>
     <row r="310" spans="1:4">
@@ -15782,7 +15782,7 @@
         <v>310</v>
       </c>
       <c r="B311" t="s">
-        <v>310</v>
+        <v>309</v>
       </c>
       <c r="C311" t="s">
         <v>354</v>
@@ -15852,13 +15852,13 @@
         <v>315</v>
       </c>
       <c r="B316" t="s">
-        <v>319</v>
+        <v>322</v>
       </c>
       <c r="C316" t="s">
-        <v>358</v>
+        <v>355</v>
       </c>
       <c r="D316" t="s">
-        <v>386</v>
+        <v>370</v>
       </c>
     </row>
     <row r="317" spans="1:4">
@@ -15866,13 +15866,13 @@
         <v>316</v>
       </c>
       <c r="B317" t="s">
-        <v>322</v>
+        <v>319</v>
       </c>
       <c r="C317" t="s">
-        <v>355</v>
+        <v>358</v>
       </c>
       <c r="D317" t="s">
-        <v>370</v>
+        <v>386</v>
       </c>
     </row>
     <row r="318" spans="1:4">
@@ -15894,7 +15894,7 @@
         <v>318</v>
       </c>
       <c r="B319" t="s">
-        <v>296</v>
+        <v>295</v>
       </c>
       <c r="C319" t="s">
         <v>357</v>
@@ -15908,13 +15908,13 @@
         <v>319</v>
       </c>
       <c r="B320" t="s">
-        <v>289</v>
+        <v>331</v>
       </c>
       <c r="C320" t="s">
-        <v>357</v>
+        <v>354</v>
       </c>
       <c r="D320" t="s">
-        <v>389</v>
+        <v>388</v>
       </c>
     </row>
     <row r="321" spans="1:4">
@@ -15922,13 +15922,13 @@
         <v>320</v>
       </c>
       <c r="B321" t="s">
-        <v>331</v>
+        <v>289</v>
       </c>
       <c r="C321" t="s">
-        <v>354</v>
+        <v>357</v>
       </c>
       <c r="D321" t="s">
-        <v>388</v>
+        <v>389</v>
       </c>
     </row>
     <row r="322" spans="1:4">
@@ -16076,10 +16076,10 @@
         <v>331</v>
       </c>
       <c r="B332" t="s">
-        <v>339</v>
+        <v>345</v>
       </c>
       <c r="C332" t="s">
-        <v>359</v>
+        <v>354</v>
       </c>
       <c r="D332" t="s">
         <v>367</v>
@@ -16090,13 +16090,13 @@
         <v>332</v>
       </c>
       <c r="B333" t="s">
-        <v>345</v>
+        <v>346</v>
       </c>
       <c r="C333" t="s">
-        <v>354</v>
+        <v>355</v>
       </c>
       <c r="D333" t="s">
-        <v>367</v>
+        <v>373</v>
       </c>
     </row>
     <row r="334" spans="1:4">
@@ -16104,13 +16104,13 @@
         <v>333</v>
       </c>
       <c r="B334" t="s">
-        <v>346</v>
+        <v>337</v>
       </c>
       <c r="C334" t="s">
-        <v>355</v>
+        <v>354</v>
       </c>
       <c r="D334" t="s">
-        <v>373</v>
+        <v>380</v>
       </c>
     </row>
     <row r="335" spans="1:4">
@@ -16118,13 +16118,13 @@
         <v>334</v>
       </c>
       <c r="B335" t="s">
-        <v>337</v>
+        <v>339</v>
       </c>
       <c r="C335" t="s">
-        <v>354</v>
+        <v>359</v>
       </c>
       <c r="D335" t="s">
-        <v>380</v>
+        <v>367</v>
       </c>
     </row>
     <row r="336" spans="1:4">
@@ -16174,13 +16174,13 @@
         <v>338</v>
       </c>
       <c r="B339" t="s">
-        <v>324</v>
+        <v>338</v>
       </c>
       <c r="C339" t="s">
-        <v>357</v>
+        <v>354</v>
       </c>
       <c r="D339" t="s">
-        <v>389</v>
+        <v>386</v>
       </c>
     </row>
     <row r="340" spans="1:4">
@@ -16188,13 +16188,13 @@
         <v>339</v>
       </c>
       <c r="B340" t="s">
-        <v>338</v>
+        <v>324</v>
       </c>
       <c r="C340" t="s">
-        <v>354</v>
+        <v>357</v>
       </c>
       <c r="D340" t="s">
-        <v>386</v>
+        <v>389</v>
       </c>
     </row>
     <row r="341" spans="1:4">

--- a/docs/FantasyProsFootballDraft.xlsx
+++ b/docs/FantasyProsFootballDraft.xlsx
@@ -6220,7 +6220,7 @@
         <v>354</v>
       </c>
       <c r="D332" t="s">
-        <v>360</v>
+        <v>392</v>
       </c>
     </row>
     <row r="333" spans="1:4">
@@ -11249,7 +11249,7 @@
         <v>354</v>
       </c>
       <c r="D339" t="s">
-        <v>360</v>
+        <v>392</v>
       </c>
     </row>
     <row r="340" spans="1:4">
@@ -16306,7 +16306,7 @@
         <v>354</v>
       </c>
       <c r="D348" t="s">
-        <v>360</v>
+        <v>392</v>
       </c>
     </row>
     <row r="349" spans="1:4">

--- a/docs/FantasyProsFootballDraft.xlsx
+++ b/docs/FantasyProsFootballDraft.xlsx
@@ -4890,7 +4890,7 @@
         <v>354</v>
       </c>
       <c r="D237" t="s">
-        <v>382</v>
+        <v>392</v>
       </c>
     </row>
     <row r="238" spans="1:4">
@@ -9835,7 +9835,7 @@
         <v>354</v>
       </c>
       <c r="D238" t="s">
-        <v>382</v>
+        <v>392</v>
       </c>
     </row>
     <row r="239" spans="1:4">
@@ -14794,7 +14794,7 @@
         <v>354</v>
       </c>
       <c r="D240" t="s">
-        <v>382</v>
+        <v>392</v>
       </c>
     </row>
     <row r="241" spans="1:4">

--- a/docs/FantasyProsFootballDraft.xlsx
+++ b/docs/FantasyProsFootballDraft.xlsx
@@ -179,12 +179,12 @@
     <t>Allen Robinson II</t>
   </si>
   <si>
+    <t>George Kittle</t>
+  </si>
+  <si>
     <t>AJ Dillon</t>
   </si>
   <si>
-    <t>George Kittle</t>
-  </si>
-  <si>
     <t>Diontae Johnson</t>
   </si>
   <si>
@@ -224,21 +224,21 @@
     <t>Kyler Murray</t>
   </si>
   <si>
+    <t>Antonio Gibson</t>
+  </si>
+  <si>
     <t>Chris Godwin</t>
   </si>
   <si>
-    <t>Antonio Gibson</t>
+    <t>Damien Harris</t>
+  </si>
+  <si>
+    <t>Elijah Moore</t>
   </si>
   <si>
     <t>Dameon Pierce</t>
   </si>
   <si>
-    <t>Damien Harris</t>
-  </si>
-  <si>
-    <t>Elijah Moore</t>
-  </si>
-  <si>
     <t>Michael Thomas</t>
   </si>
   <si>
@@ -251,12 +251,12 @@
     <t>Dallas Goedert</t>
   </si>
   <si>
+    <t>Amari Cooper</t>
+  </si>
+  <si>
     <t>Rashaad Penny</t>
   </si>
   <si>
-    <t>Amari Cooper</t>
-  </si>
-  <si>
     <t>Adam Thielen</t>
   </si>
   <si>
@@ -299,24 +299,24 @@
     <t>Tyler Lockett</t>
   </si>
   <si>
+    <t>Dawson Knox</t>
+  </si>
+  <si>
+    <t>Dak Prescott</t>
+  </si>
+  <si>
+    <t>Devin Singletary</t>
+  </si>
+  <si>
+    <t>Tony Pollard</t>
+  </si>
+  <si>
+    <t>Kareem Hunt</t>
+  </si>
+  <si>
     <t>Drake London</t>
   </si>
   <si>
-    <t>Dawson Knox</t>
-  </si>
-  <si>
-    <t>Dak Prescott</t>
-  </si>
-  <si>
-    <t>Devin Singletary</t>
-  </si>
-  <si>
-    <t>Tony Pollard</t>
-  </si>
-  <si>
-    <t>Kareem Hunt</t>
-  </si>
-  <si>
     <t>Hunter Renfrow</t>
   </si>
   <si>
@@ -335,36 +335,36 @@
     <t>Robert Woods</t>
   </si>
   <si>
+    <t>DeAndre Hopkins</t>
+  </si>
+  <si>
     <t>Aaron Rodgers</t>
   </si>
   <si>
     <t>Matthew Stafford</t>
   </si>
   <si>
-    <t>DeAndre Hopkins</t>
+    <t>Kadarius Toney</t>
   </si>
   <si>
     <t>Chris Olave</t>
   </si>
   <si>
-    <t>Kadarius Toney</t>
-  </si>
-  <si>
     <t>Kirk Cousins</t>
   </si>
   <si>
+    <t>Darrell Henderson Jr.</t>
+  </si>
+  <si>
+    <t>Derek Carr</t>
+  </si>
+  <si>
     <t>Kenneth Walker III</t>
   </si>
   <si>
     <t>Treylon Burks</t>
   </si>
   <si>
-    <t>Darrell Henderson Jr.</t>
-  </si>
-  <si>
-    <t>Derek Carr</t>
-  </si>
-  <si>
     <t>Cole Kmet</t>
   </si>
   <si>
@@ -392,36 +392,36 @@
     <t>James Robinson</t>
   </si>
   <si>
+    <t>Tyler Boyd</t>
+  </si>
+  <si>
     <t>Trevor Lawrence</t>
   </si>
   <si>
-    <t>Tyler Boyd</t>
-  </si>
-  <si>
     <t>Marquez Valdes-Scantling</t>
   </si>
   <si>
+    <t>Alexander Mattison</t>
+  </si>
+  <si>
     <t>Garrett Wilson</t>
   </si>
   <si>
-    <t>Alexander Mattison</t>
+    <t>Nyheim Hines</t>
   </si>
   <si>
     <t>Skyy Moore</t>
   </si>
   <si>
+    <t>Kenneth Gainwell</t>
+  </si>
+  <si>
     <t>Irv Smith Jr.</t>
   </si>
   <si>
     <t>David Njoku</t>
   </si>
   <si>
-    <t>Nyheim Hines</t>
-  </si>
-  <si>
-    <t>Kenneth Gainwell</t>
-  </si>
-  <si>
     <t>Raheem Mostert</t>
   </si>
   <si>
@@ -431,28 +431,31 @@
     <t>Michael Gallup</t>
   </si>
   <si>
+    <t>Jameis Winston</t>
+  </si>
+  <si>
+    <t>Russell Gage</t>
+  </si>
+  <si>
     <t>George Pickens</t>
   </si>
   <si>
     <t>Khalil Herbert</t>
   </si>
   <si>
-    <t>Jameis Winston</t>
-  </si>
-  <si>
-    <t>Russell Gage</t>
-  </si>
-  <si>
     <t>Mike Gesicki</t>
   </si>
   <si>
     <t>Jamaal Williams</t>
   </si>
   <si>
+    <t>Matt Ryan</t>
+  </si>
+  <si>
     <t>Jakobi Meyers</t>
   </si>
   <si>
-    <t>Matt Ryan</t>
+    <t>DeVante Parker</t>
   </si>
   <si>
     <t>D.J. Chark Jr.</t>
@@ -461,9 +464,6 @@
     <t>Julio Jones</t>
   </si>
   <si>
-    <t>DeVante Parker</t>
-  </si>
-  <si>
     <t>Tyler Allgeier</t>
   </si>
   <si>
@@ -482,15 +482,15 @@
     <t>Robert Tonyan</t>
   </si>
   <si>
+    <t>J.D. McKissic</t>
+  </si>
+  <si>
+    <t>Buffalo Bills</t>
+  </si>
+  <si>
     <t>Jahan Dotson</t>
   </si>
   <si>
-    <t>J.D. McKissic</t>
-  </si>
-  <si>
-    <t>Buffalo Bills</t>
-  </si>
-  <si>
     <t>Jarvis Landry</t>
   </si>
   <si>
@@ -500,21 +500,21 @@
     <t>Noah Fant</t>
   </si>
   <si>
+    <t>Tampa Bay Buccaneers</t>
+  </si>
+  <si>
     <t>Nico Collins</t>
   </si>
   <si>
-    <t>Tampa Bay Buccaneers</t>
-  </si>
-  <si>
     <t>Daniel Jones</t>
   </si>
   <si>
+    <t>Evan Engram</t>
+  </si>
+  <si>
     <t>Mac Jones</t>
   </si>
   <si>
-    <t>Evan Engram</t>
-  </si>
-  <si>
     <t>San Francisco 49ers</t>
   </si>
   <si>
@@ -533,24 +533,24 @@
     <t>Mark Ingram II</t>
   </si>
   <si>
+    <t>Indianapolis Colts</t>
+  </si>
+  <si>
     <t>Kenny Golladay</t>
   </si>
   <si>
     <t>Joshua Palmer</t>
   </si>
   <si>
-    <t>Indianapolis Colts</t>
+    <t>Baker Mayfield</t>
+  </si>
+  <si>
+    <t>Justin Tucker</t>
   </si>
   <si>
     <t>K.J. Osborn</t>
   </si>
   <si>
-    <t>Baker Mayfield</t>
-  </si>
-  <si>
-    <t>Justin Tucker</t>
-  </si>
-  <si>
     <t>New Orleans Saints</t>
   </si>
   <si>
@@ -566,30 +566,30 @@
     <t>Brian Robinson Jr.</t>
   </si>
   <si>
+    <t>Hayden Hurst</t>
+  </si>
+  <si>
     <t>Isaiah Spiller</t>
   </si>
   <si>
-    <t>Hayden Hurst</t>
+    <t>Logan Thomas</t>
   </si>
   <si>
     <t>Mecole Hardman</t>
   </si>
   <si>
-    <t>Logan Thomas</t>
-  </si>
-  <si>
     <t>New England Patriots</t>
   </si>
   <si>
+    <t>Davis Mills</t>
+  </si>
+  <si>
+    <t>Tyler Bass</t>
+  </si>
+  <si>
     <t>Robbie Anderson</t>
   </si>
   <si>
-    <t>Davis Mills</t>
-  </si>
-  <si>
-    <t>Tyler Bass</t>
-  </si>
-  <si>
     <t>Isiah Pacheco</t>
   </si>
   <si>
@@ -614,42 +614,42 @@
     <t>Evan McPherson</t>
   </si>
   <si>
+    <t>Matt Gay</t>
+  </si>
+  <si>
     <t>Van Jefferson</t>
   </si>
   <si>
-    <t>Matt Gay</t>
-  </si>
-  <si>
     <t>Christian Watson</t>
   </si>
   <si>
     <t>Boston Scott</t>
   </si>
   <si>
+    <t>Dallas Cowboys</t>
+  </si>
+  <si>
     <t>Gus Edwards</t>
   </si>
   <si>
     <t>Darrel Williams</t>
   </si>
   <si>
-    <t>Dallas Cowboys</t>
-  </si>
-  <si>
     <t>Los Angeles Chargers</t>
   </si>
   <si>
+    <t>Daniel Carlson</t>
+  </si>
+  <si>
+    <t>Green Bay Packers</t>
+  </si>
+  <si>
     <t>Jameson Williams</t>
   </si>
   <si>
     <t>Jeff Wilson Jr.</t>
   </si>
   <si>
-    <t>Daniel Carlson</t>
-  </si>
-  <si>
-    <t>Green Bay Packers</t>
-  </si>
-  <si>
     <t>K.J. Hamler</t>
   </si>
   <si>
@@ -686,12 +686,12 @@
     <t>Marcus Mariota</t>
   </si>
   <si>
+    <t>Ryan Succop</t>
+  </si>
+  <si>
     <t>Ronald Jones II</t>
   </si>
   <si>
-    <t>Ryan Succop</t>
-  </si>
-  <si>
     <t>Baltimore Ravens</t>
   </si>
   <si>
@@ -737,6 +737,9 @@
     <t>A.J. Green</t>
   </si>
   <si>
+    <t>Brandon McManus</t>
+  </si>
+  <si>
     <t>David Bell</t>
   </si>
   <si>
@@ -746,24 +749,21 @@
     <t>Kendrick Bourne</t>
   </si>
   <si>
-    <t>Brandon McManus</t>
-  </si>
-  <si>
     <t>Jamison Crowder</t>
   </si>
   <si>
     <t>Sterling Shepard</t>
   </si>
   <si>
+    <t>Jason Sanders</t>
+  </si>
+  <si>
     <t>D'Ernest Johnson</t>
   </si>
   <si>
     <t>Zay Jones</t>
   </si>
   <si>
-    <t>Jason Sanders</t>
-  </si>
-  <si>
     <t>Jonnu Smith</t>
   </si>
   <si>
@@ -776,12 +776,12 @@
     <t>Chuba Hubbard</t>
   </si>
   <si>
+    <t>Mitch Trubisky</t>
+  </si>
+  <si>
     <t>Zack Moss</t>
   </si>
   <si>
-    <t>Mitch Trubisky</t>
-  </si>
-  <si>
     <t>Cincinnati Bengals</t>
   </si>
   <si>
@@ -821,13 +821,16 @@
     <t>Laviska Shenault Jr.</t>
   </si>
   <si>
+    <t>Minnesota Vikings</t>
+  </si>
+  <si>
+    <t>Carolina Panthers</t>
+  </si>
+  <si>
     <t>Bryan Edwards</t>
   </si>
   <si>
-    <t>Minnesota Vikings</t>
-  </si>
-  <si>
-    <t>Carolina Panthers</t>
+    <t>Mason Crosby</t>
   </si>
   <si>
     <t>Terrace Marshall Jr.</t>
@@ -836,9 +839,6 @@
     <t>Braxton Berrios</t>
   </si>
   <si>
-    <t>Mason Crosby</t>
-  </si>
-  <si>
     <t>Greg Joseph</t>
   </si>
   <si>
@@ -860,12 +860,12 @@
     <t>Greg Zuerlein</t>
   </si>
   <si>
+    <t>Washington Commanders</t>
+  </si>
+  <si>
     <t>C.J. Uzomah</t>
   </si>
   <si>
-    <t>Washington Commanders</t>
-  </si>
-  <si>
     <t>Isaiah Likely</t>
   </si>
   <si>
@@ -875,12 +875,12 @@
     <t>Myles Gaskin</t>
   </si>
   <si>
+    <t>Chicago Bears</t>
+  </si>
+  <si>
     <t>Trey Sermon</t>
   </si>
   <si>
-    <t>Chicago Bears</t>
-  </si>
-  <si>
     <t>Graham Gano</t>
   </si>
   <si>
@@ -908,12 +908,12 @@
     <t>Trey McBride</t>
   </si>
   <si>
+    <t>New York Giants</t>
+  </si>
+  <si>
     <t>Kenny Pickett</t>
   </si>
   <si>
-    <t>New York Giants</t>
-  </si>
-  <si>
     <t>Randy Bullock</t>
   </si>
   <si>
@@ -935,25 +935,25 @@
     <t>Quez Watkins</t>
   </si>
   <si>
+    <t>New York Jets</t>
+  </si>
+  <si>
     <t>Jaylen Warren</t>
   </si>
   <si>
     <t>Velus Jones Jr.</t>
   </si>
   <si>
-    <t>New York Jets</t>
-  </si>
-  <si>
     <t>Daniel Bellinger</t>
   </si>
   <si>
     <t>Devin Duvernay</t>
   </si>
   <si>
+    <t>Seattle Seahawks</t>
+  </si>
+  <si>
     <t>Kyren Williams</t>
-  </si>
-  <si>
-    <t>Seattle Seahawks</t>
   </si>
   <si>
     <t>Tyler Conklin</t>
@@ -2269,10 +2269,10 @@
         <v>52</v>
       </c>
       <c r="C50" t="s">
-        <v>354</v>
+        <v>356</v>
       </c>
       <c r="D50" t="s">
-        <v>376</v>
+        <v>361</v>
       </c>
     </row>
     <row r="51" spans="1:4">
@@ -2283,10 +2283,10 @@
         <v>53</v>
       </c>
       <c r="C51" t="s">
-        <v>356</v>
+        <v>354</v>
       </c>
       <c r="D51" t="s">
-        <v>361</v>
+        <v>376</v>
       </c>
     </row>
     <row r="52" spans="1:4">
@@ -2479,10 +2479,10 @@
         <v>67</v>
       </c>
       <c r="C65" t="s">
-        <v>355</v>
+        <v>354</v>
       </c>
       <c r="D65" t="s">
-        <v>379</v>
+        <v>385</v>
       </c>
     </row>
     <row r="66" spans="1:4">
@@ -2493,10 +2493,10 @@
         <v>68</v>
       </c>
       <c r="C66" t="s">
-        <v>354</v>
+        <v>355</v>
       </c>
       <c r="D66" t="s">
-        <v>385</v>
+        <v>379</v>
       </c>
     </row>
     <row r="67" spans="1:4">
@@ -2510,7 +2510,7 @@
         <v>354</v>
       </c>
       <c r="D67" t="s">
-        <v>390</v>
+        <v>391</v>
       </c>
     </row>
     <row r="68" spans="1:4">
@@ -2521,10 +2521,10 @@
         <v>70</v>
       </c>
       <c r="C68" t="s">
-        <v>354</v>
+        <v>355</v>
       </c>
       <c r="D68" t="s">
-        <v>391</v>
+        <v>388</v>
       </c>
     </row>
     <row r="69" spans="1:4">
@@ -2535,10 +2535,10 @@
         <v>71</v>
       </c>
       <c r="C69" t="s">
-        <v>355</v>
+        <v>354</v>
       </c>
       <c r="D69" t="s">
-        <v>388</v>
+        <v>390</v>
       </c>
     </row>
     <row r="70" spans="1:4">
@@ -2605,10 +2605,10 @@
         <v>76</v>
       </c>
       <c r="C74" t="s">
-        <v>354</v>
+        <v>355</v>
       </c>
       <c r="D74" t="s">
-        <v>389</v>
+        <v>367</v>
       </c>
     </row>
     <row r="75" spans="1:4">
@@ -2619,10 +2619,10 @@
         <v>77</v>
       </c>
       <c r="C75" t="s">
-        <v>355</v>
+        <v>354</v>
       </c>
       <c r="D75" t="s">
-        <v>367</v>
+        <v>389</v>
       </c>
     </row>
     <row r="76" spans="1:4">
@@ -2829,10 +2829,10 @@
         <v>92</v>
       </c>
       <c r="C90" t="s">
-        <v>355</v>
+        <v>356</v>
       </c>
       <c r="D90" t="s">
-        <v>381</v>
+        <v>374</v>
       </c>
     </row>
     <row r="91" spans="1:4">
@@ -2843,10 +2843,10 @@
         <v>93</v>
       </c>
       <c r="C91" t="s">
-        <v>356</v>
+        <v>357</v>
       </c>
       <c r="D91" t="s">
-        <v>374</v>
+        <v>378</v>
       </c>
     </row>
     <row r="92" spans="1:4">
@@ -2857,10 +2857,10 @@
         <v>94</v>
       </c>
       <c r="C92" t="s">
-        <v>357</v>
+        <v>354</v>
       </c>
       <c r="D92" t="s">
-        <v>378</v>
+        <v>374</v>
       </c>
     </row>
     <row r="93" spans="1:4">
@@ -2874,7 +2874,7 @@
         <v>354</v>
       </c>
       <c r="D93" t="s">
-        <v>374</v>
+        <v>378</v>
       </c>
     </row>
     <row r="94" spans="1:4">
@@ -2888,7 +2888,7 @@
         <v>354</v>
       </c>
       <c r="D94" t="s">
-        <v>378</v>
+        <v>367</v>
       </c>
     </row>
     <row r="95" spans="1:4">
@@ -2899,10 +2899,10 @@
         <v>97</v>
       </c>
       <c r="C95" t="s">
-        <v>354</v>
+        <v>355</v>
       </c>
       <c r="D95" t="s">
-        <v>367</v>
+        <v>381</v>
       </c>
     </row>
     <row r="96" spans="1:4">
@@ -2997,10 +2997,10 @@
         <v>104</v>
       </c>
       <c r="C102" t="s">
-        <v>357</v>
+        <v>355</v>
       </c>
       <c r="D102" t="s">
-        <v>376</v>
+        <v>382</v>
       </c>
     </row>
     <row r="103" spans="1:4">
@@ -3014,7 +3014,7 @@
         <v>357</v>
       </c>
       <c r="D103" t="s">
-        <v>368</v>
+        <v>376</v>
       </c>
     </row>
     <row r="104" spans="1:4">
@@ -3025,10 +3025,10 @@
         <v>106</v>
       </c>
       <c r="C104" t="s">
-        <v>355</v>
+        <v>357</v>
       </c>
       <c r="D104" t="s">
-        <v>382</v>
+        <v>368</v>
       </c>
     </row>
     <row r="105" spans="1:4">
@@ -3042,7 +3042,7 @@
         <v>355</v>
       </c>
       <c r="D105" t="s">
-        <v>369</v>
+        <v>371</v>
       </c>
     </row>
     <row r="106" spans="1:4">
@@ -3056,7 +3056,7 @@
         <v>355</v>
       </c>
       <c r="D106" t="s">
-        <v>371</v>
+        <v>369</v>
       </c>
     </row>
     <row r="107" spans="1:4">
@@ -3084,7 +3084,7 @@
         <v>354</v>
       </c>
       <c r="D108" t="s">
-        <v>389</v>
+        <v>368</v>
       </c>
     </row>
     <row r="109" spans="1:4">
@@ -3095,10 +3095,10 @@
         <v>111</v>
       </c>
       <c r="C109" t="s">
-        <v>355</v>
+        <v>357</v>
       </c>
       <c r="D109" t="s">
-        <v>362</v>
+        <v>375</v>
       </c>
     </row>
     <row r="110" spans="1:4">
@@ -3112,7 +3112,7 @@
         <v>354</v>
       </c>
       <c r="D110" t="s">
-        <v>368</v>
+        <v>389</v>
       </c>
     </row>
     <row r="111" spans="1:4">
@@ -3123,10 +3123,10 @@
         <v>113</v>
       </c>
       <c r="C111" t="s">
-        <v>357</v>
+        <v>355</v>
       </c>
       <c r="D111" t="s">
-        <v>375</v>
+        <v>362</v>
       </c>
     </row>
     <row r="112" spans="1:4">
@@ -3263,10 +3263,10 @@
         <v>123</v>
       </c>
       <c r="C121" t="s">
-        <v>357</v>
+        <v>355</v>
       </c>
       <c r="D121" t="s">
-        <v>386</v>
+        <v>365</v>
       </c>
     </row>
     <row r="122" spans="1:4">
@@ -3277,10 +3277,10 @@
         <v>124</v>
       </c>
       <c r="C122" t="s">
-        <v>355</v>
+        <v>357</v>
       </c>
       <c r="D122" t="s">
-        <v>365</v>
+        <v>386</v>
       </c>
     </row>
     <row r="123" spans="1:4">
@@ -3305,10 +3305,10 @@
         <v>126</v>
       </c>
       <c r="C124" t="s">
-        <v>355</v>
+        <v>354</v>
       </c>
       <c r="D124" t="s">
-        <v>388</v>
+        <v>363</v>
       </c>
     </row>
     <row r="125" spans="1:4">
@@ -3319,10 +3319,10 @@
         <v>127</v>
       </c>
       <c r="C125" t="s">
-        <v>354</v>
+        <v>355</v>
       </c>
       <c r="D125" t="s">
-        <v>363</v>
+        <v>388</v>
       </c>
     </row>
     <row r="126" spans="1:4">
@@ -3333,10 +3333,10 @@
         <v>128</v>
       </c>
       <c r="C126" t="s">
-        <v>355</v>
+        <v>354</v>
       </c>
       <c r="D126" t="s">
-        <v>371</v>
+        <v>374</v>
       </c>
     </row>
     <row r="127" spans="1:4">
@@ -3347,10 +3347,10 @@
         <v>129</v>
       </c>
       <c r="C127" t="s">
-        <v>356</v>
+        <v>355</v>
       </c>
       <c r="D127" t="s">
-        <v>363</v>
+        <v>371</v>
       </c>
     </row>
     <row r="128" spans="1:4">
@@ -3361,10 +3361,10 @@
         <v>130</v>
       </c>
       <c r="C128" t="s">
-        <v>356</v>
+        <v>354</v>
       </c>
       <c r="D128" t="s">
-        <v>367</v>
+        <v>383</v>
       </c>
     </row>
     <row r="129" spans="1:4">
@@ -3375,10 +3375,10 @@
         <v>131</v>
       </c>
       <c r="C129" t="s">
-        <v>354</v>
+        <v>356</v>
       </c>
       <c r="D129" t="s">
-        <v>374</v>
+        <v>363</v>
       </c>
     </row>
     <row r="130" spans="1:4">
@@ -3389,10 +3389,10 @@
         <v>132</v>
       </c>
       <c r="C130" t="s">
-        <v>354</v>
+        <v>356</v>
       </c>
       <c r="D130" t="s">
-        <v>383</v>
+        <v>367</v>
       </c>
     </row>
     <row r="131" spans="1:4">
@@ -3445,10 +3445,10 @@
         <v>136</v>
       </c>
       <c r="C134" t="s">
-        <v>355</v>
+        <v>357</v>
       </c>
       <c r="D134" t="s">
-        <v>366</v>
+        <v>369</v>
       </c>
     </row>
     <row r="135" spans="1:4">
@@ -3459,10 +3459,10 @@
         <v>137</v>
       </c>
       <c r="C135" t="s">
-        <v>354</v>
+        <v>355</v>
       </c>
       <c r="D135" t="s">
-        <v>387</v>
+        <v>379</v>
       </c>
     </row>
     <row r="136" spans="1:4">
@@ -3473,10 +3473,10 @@
         <v>138</v>
       </c>
       <c r="C136" t="s">
-        <v>357</v>
+        <v>355</v>
       </c>
       <c r="D136" t="s">
-        <v>369</v>
+        <v>366</v>
       </c>
     </row>
     <row r="137" spans="1:4">
@@ -3487,10 +3487,10 @@
         <v>139</v>
       </c>
       <c r="C137" t="s">
-        <v>355</v>
+        <v>354</v>
       </c>
       <c r="D137" t="s">
-        <v>379</v>
+        <v>387</v>
       </c>
     </row>
     <row r="138" spans="1:4">
@@ -3529,10 +3529,10 @@
         <v>142</v>
       </c>
       <c r="C140" t="s">
-        <v>355</v>
+        <v>357</v>
       </c>
       <c r="D140" t="s">
-        <v>391</v>
+        <v>360</v>
       </c>
     </row>
     <row r="141" spans="1:4">
@@ -3543,10 +3543,10 @@
         <v>143</v>
       </c>
       <c r="C141" t="s">
-        <v>357</v>
+        <v>355</v>
       </c>
       <c r="D141" t="s">
-        <v>360</v>
+        <v>391</v>
       </c>
     </row>
     <row r="142" spans="1:4">
@@ -3560,7 +3560,7 @@
         <v>355</v>
       </c>
       <c r="D142" t="s">
-        <v>372</v>
+        <v>391</v>
       </c>
     </row>
     <row r="143" spans="1:4">
@@ -3574,7 +3574,7 @@
         <v>355</v>
       </c>
       <c r="D143" t="s">
-        <v>379</v>
+        <v>372</v>
       </c>
     </row>
     <row r="144" spans="1:4">
@@ -3588,7 +3588,7 @@
         <v>355</v>
       </c>
       <c r="D144" t="s">
-        <v>391</v>
+        <v>379</v>
       </c>
     </row>
     <row r="145" spans="1:4">
@@ -3683,7 +3683,7 @@
         <v>153</v>
       </c>
       <c r="C151" t="s">
-        <v>355</v>
+        <v>354</v>
       </c>
       <c r="D151" t="s">
         <v>385</v>
@@ -3697,10 +3697,10 @@
         <v>154</v>
       </c>
       <c r="C152" t="s">
-        <v>354</v>
+        <v>358</v>
       </c>
       <c r="D152" t="s">
-        <v>385</v>
+        <v>374</v>
       </c>
     </row>
     <row r="153" spans="1:4">
@@ -3711,10 +3711,10 @@
         <v>155</v>
       </c>
       <c r="C153" t="s">
-        <v>358</v>
+        <v>355</v>
       </c>
       <c r="D153" t="s">
-        <v>374</v>
+        <v>385</v>
       </c>
     </row>
     <row r="154" spans="1:4">
@@ -3767,10 +3767,10 @@
         <v>159</v>
       </c>
       <c r="C157" t="s">
-        <v>355</v>
+        <v>358</v>
       </c>
       <c r="D157" t="s">
-        <v>390</v>
+        <v>379</v>
       </c>
     </row>
     <row r="158" spans="1:4">
@@ -3781,10 +3781,10 @@
         <v>160</v>
       </c>
       <c r="C158" t="s">
-        <v>358</v>
+        <v>355</v>
       </c>
       <c r="D158" t="s">
-        <v>379</v>
+        <v>390</v>
       </c>
     </row>
     <row r="159" spans="1:4">
@@ -3809,10 +3809,10 @@
         <v>162</v>
       </c>
       <c r="C160" t="s">
-        <v>357</v>
+        <v>356</v>
       </c>
       <c r="D160" t="s">
-        <v>391</v>
+        <v>386</v>
       </c>
     </row>
     <row r="161" spans="1:4">
@@ -3823,10 +3823,10 @@
         <v>163</v>
       </c>
       <c r="C161" t="s">
-        <v>356</v>
+        <v>357</v>
       </c>
       <c r="D161" t="s">
-        <v>386</v>
+        <v>391</v>
       </c>
     </row>
     <row r="162" spans="1:4">
@@ -3921,10 +3921,10 @@
         <v>170</v>
       </c>
       <c r="C168" t="s">
-        <v>355</v>
+        <v>358</v>
       </c>
       <c r="D168" t="s">
-        <v>370</v>
+        <v>360</v>
       </c>
     </row>
     <row r="169" spans="1:4">
@@ -3938,7 +3938,7 @@
         <v>355</v>
       </c>
       <c r="D169" t="s">
-        <v>364</v>
+        <v>370</v>
       </c>
     </row>
     <row r="170" spans="1:4">
@@ -3949,10 +3949,10 @@
         <v>172</v>
       </c>
       <c r="C170" t="s">
-        <v>358</v>
+        <v>355</v>
       </c>
       <c r="D170" t="s">
-        <v>360</v>
+        <v>364</v>
       </c>
     </row>
     <row r="171" spans="1:4">
@@ -3963,10 +3963,10 @@
         <v>173</v>
       </c>
       <c r="C171" t="s">
-        <v>355</v>
+        <v>357</v>
       </c>
       <c r="D171" t="s">
-        <v>363</v>
+        <v>384</v>
       </c>
     </row>
     <row r="172" spans="1:4">
@@ -3977,10 +3977,10 @@
         <v>174</v>
       </c>
       <c r="C172" t="s">
-        <v>357</v>
+        <v>359</v>
       </c>
       <c r="D172" t="s">
-        <v>384</v>
+        <v>373</v>
       </c>
     </row>
     <row r="173" spans="1:4">
@@ -3991,10 +3991,10 @@
         <v>175</v>
       </c>
       <c r="C173" t="s">
-        <v>359</v>
+        <v>355</v>
       </c>
       <c r="D173" t="s">
-        <v>373</v>
+        <v>363</v>
       </c>
     </row>
     <row r="174" spans="1:4">
@@ -4075,10 +4075,10 @@
         <v>181</v>
       </c>
       <c r="C179" t="s">
-        <v>354</v>
+        <v>356</v>
       </c>
       <c r="D179" t="s">
-        <v>364</v>
+        <v>365</v>
       </c>
     </row>
     <row r="180" spans="1:4">
@@ -4089,10 +4089,10 @@
         <v>182</v>
       </c>
       <c r="C180" t="s">
-        <v>356</v>
+        <v>354</v>
       </c>
       <c r="D180" t="s">
-        <v>365</v>
+        <v>364</v>
       </c>
     </row>
     <row r="181" spans="1:4">
@@ -4103,10 +4103,10 @@
         <v>183</v>
       </c>
       <c r="C181" t="s">
-        <v>355</v>
+        <v>356</v>
       </c>
       <c r="D181" t="s">
-        <v>371</v>
+        <v>385</v>
       </c>
     </row>
     <row r="182" spans="1:4">
@@ -4117,10 +4117,10 @@
         <v>184</v>
       </c>
       <c r="C182" t="s">
-        <v>356</v>
+        <v>355</v>
       </c>
       <c r="D182" t="s">
-        <v>385</v>
+        <v>371</v>
       </c>
     </row>
     <row r="183" spans="1:4">
@@ -4145,10 +4145,10 @@
         <v>186</v>
       </c>
       <c r="C184" t="s">
-        <v>355</v>
+        <v>357</v>
       </c>
       <c r="D184" t="s">
-        <v>382</v>
+        <v>390</v>
       </c>
     </row>
     <row r="185" spans="1:4">
@@ -4159,10 +4159,10 @@
         <v>187</v>
       </c>
       <c r="C185" t="s">
-        <v>357</v>
+        <v>359</v>
       </c>
       <c r="D185" t="s">
-        <v>390</v>
+        <v>374</v>
       </c>
     </row>
     <row r="186" spans="1:4">
@@ -4173,10 +4173,10 @@
         <v>188</v>
       </c>
       <c r="C186" t="s">
-        <v>359</v>
+        <v>355</v>
       </c>
       <c r="D186" t="s">
-        <v>374</v>
+        <v>382</v>
       </c>
     </row>
     <row r="187" spans="1:4">
@@ -4299,7 +4299,7 @@
         <v>197</v>
       </c>
       <c r="C195" t="s">
-        <v>355</v>
+        <v>359</v>
       </c>
       <c r="D195" t="s">
         <v>368</v>
@@ -4313,7 +4313,7 @@
         <v>198</v>
       </c>
       <c r="C196" t="s">
-        <v>359</v>
+        <v>355</v>
       </c>
       <c r="D196" t="s">
         <v>368</v>
@@ -4355,10 +4355,10 @@
         <v>201</v>
       </c>
       <c r="C199" t="s">
-        <v>354</v>
+        <v>358</v>
       </c>
       <c r="D199" t="s">
-        <v>373</v>
+        <v>378</v>
       </c>
     </row>
     <row r="200" spans="1:4">
@@ -4372,7 +4372,7 @@
         <v>354</v>
       </c>
       <c r="D200" t="s">
-        <v>382</v>
+        <v>373</v>
       </c>
     </row>
     <row r="201" spans="1:4">
@@ -4383,10 +4383,10 @@
         <v>203</v>
       </c>
       <c r="C201" t="s">
-        <v>358</v>
+        <v>354</v>
       </c>
       <c r="D201" t="s">
-        <v>378</v>
+        <v>382</v>
       </c>
     </row>
     <row r="202" spans="1:4">
@@ -4411,10 +4411,10 @@
         <v>205</v>
       </c>
       <c r="C203" t="s">
-        <v>355</v>
+        <v>359</v>
       </c>
       <c r="D203" t="s">
-        <v>372</v>
+        <v>375</v>
       </c>
     </row>
     <row r="204" spans="1:4">
@@ -4425,10 +4425,10 @@
         <v>206</v>
       </c>
       <c r="C204" t="s">
-        <v>354</v>
+        <v>358</v>
       </c>
       <c r="D204" t="s">
-        <v>380</v>
+        <v>376</v>
       </c>
     </row>
     <row r="205" spans="1:4">
@@ -4439,10 +4439,10 @@
         <v>207</v>
       </c>
       <c r="C205" t="s">
-        <v>359</v>
+        <v>355</v>
       </c>
       <c r="D205" t="s">
-        <v>375</v>
+        <v>372</v>
       </c>
     </row>
     <row r="206" spans="1:4">
@@ -4453,10 +4453,10 @@
         <v>208</v>
       </c>
       <c r="C206" t="s">
-        <v>358</v>
+        <v>354</v>
       </c>
       <c r="D206" t="s">
-        <v>376</v>
+        <v>380</v>
       </c>
     </row>
     <row r="207" spans="1:4">
@@ -4635,10 +4635,10 @@
         <v>221</v>
       </c>
       <c r="C219" t="s">
-        <v>354</v>
+        <v>359</v>
       </c>
       <c r="D219" t="s">
-        <v>371</v>
+        <v>379</v>
       </c>
     </row>
     <row r="220" spans="1:4">
@@ -4649,10 +4649,10 @@
         <v>222</v>
       </c>
       <c r="C220" t="s">
-        <v>359</v>
+        <v>354</v>
       </c>
       <c r="D220" t="s">
-        <v>379</v>
+        <v>371</v>
       </c>
     </row>
     <row r="221" spans="1:4">
@@ -4873,10 +4873,10 @@
         <v>238</v>
       </c>
       <c r="C236" t="s">
-        <v>355</v>
+        <v>359</v>
       </c>
       <c r="D236" t="s">
-        <v>367</v>
+        <v>377</v>
       </c>
     </row>
     <row r="237" spans="1:4">
@@ -4887,10 +4887,10 @@
         <v>239</v>
       </c>
       <c r="C237" t="s">
-        <v>354</v>
+        <v>355</v>
       </c>
       <c r="D237" t="s">
-        <v>392</v>
+        <v>367</v>
       </c>
     </row>
     <row r="238" spans="1:4">
@@ -4901,10 +4901,10 @@
         <v>240</v>
       </c>
       <c r="C238" t="s">
-        <v>355</v>
+        <v>354</v>
       </c>
       <c r="D238" t="s">
-        <v>391</v>
+        <v>390</v>
       </c>
     </row>
     <row r="239" spans="1:4">
@@ -4915,10 +4915,10 @@
         <v>241</v>
       </c>
       <c r="C239" t="s">
-        <v>359</v>
+        <v>355</v>
       </c>
       <c r="D239" t="s">
-        <v>377</v>
+        <v>391</v>
       </c>
     </row>
     <row r="240" spans="1:4">
@@ -4957,10 +4957,10 @@
         <v>244</v>
       </c>
       <c r="C242" t="s">
-        <v>354</v>
+        <v>359</v>
       </c>
       <c r="D242" t="s">
-        <v>367</v>
+        <v>380</v>
       </c>
     </row>
     <row r="243" spans="1:4">
@@ -4971,10 +4971,10 @@
         <v>245</v>
       </c>
       <c r="C243" t="s">
-        <v>355</v>
+        <v>354</v>
       </c>
       <c r="D243" t="s">
-        <v>386</v>
+        <v>367</v>
       </c>
     </row>
     <row r="244" spans="1:4">
@@ -4985,10 +4985,10 @@
         <v>246</v>
       </c>
       <c r="C244" t="s">
-        <v>359</v>
+        <v>355</v>
       </c>
       <c r="D244" t="s">
-        <v>380</v>
+        <v>386</v>
       </c>
     </row>
     <row r="245" spans="1:4">
@@ -5055,10 +5055,10 @@
         <v>251</v>
       </c>
       <c r="C249" t="s">
-        <v>354</v>
+        <v>357</v>
       </c>
       <c r="D249" t="s">
-        <v>360</v>
+        <v>366</v>
       </c>
     </row>
     <row r="250" spans="1:4">
@@ -5069,10 +5069,10 @@
         <v>252</v>
       </c>
       <c r="C250" t="s">
-        <v>357</v>
+        <v>354</v>
       </c>
       <c r="D250" t="s">
-        <v>366</v>
+        <v>360</v>
       </c>
     </row>
     <row r="251" spans="1:4">
@@ -5265,10 +5265,10 @@
         <v>266</v>
       </c>
       <c r="C264" t="s">
-        <v>355</v>
+        <v>358</v>
       </c>
       <c r="D264" t="s">
-        <v>381</v>
+        <v>363</v>
       </c>
     </row>
     <row r="265" spans="1:4">
@@ -5282,7 +5282,7 @@
         <v>358</v>
       </c>
       <c r="D265" t="s">
-        <v>363</v>
+        <v>384</v>
       </c>
     </row>
     <row r="266" spans="1:4">
@@ -5293,10 +5293,10 @@
         <v>268</v>
       </c>
       <c r="C266" t="s">
-        <v>358</v>
+        <v>355</v>
       </c>
       <c r="D266" t="s">
-        <v>384</v>
+        <v>381</v>
       </c>
     </row>
     <row r="267" spans="1:4">
@@ -5307,10 +5307,10 @@
         <v>269</v>
       </c>
       <c r="C267" t="s">
-        <v>355</v>
+        <v>359</v>
       </c>
       <c r="D267" t="s">
-        <v>384</v>
+        <v>376</v>
       </c>
     </row>
     <row r="268" spans="1:4">
@@ -5324,7 +5324,7 @@
         <v>355</v>
       </c>
       <c r="D268" t="s">
-        <v>388</v>
+        <v>384</v>
       </c>
     </row>
     <row r="269" spans="1:4">
@@ -5335,10 +5335,10 @@
         <v>271</v>
       </c>
       <c r="C269" t="s">
-        <v>359</v>
+        <v>355</v>
       </c>
       <c r="D269" t="s">
-        <v>376</v>
+        <v>388</v>
       </c>
     </row>
     <row r="270" spans="1:4">
@@ -5447,10 +5447,10 @@
         <v>279</v>
       </c>
       <c r="C277" t="s">
-        <v>356</v>
+        <v>358</v>
       </c>
       <c r="D277" t="s">
-        <v>388</v>
+        <v>385</v>
       </c>
     </row>
     <row r="278" spans="1:4">
@@ -5461,10 +5461,10 @@
         <v>280</v>
       </c>
       <c r="C278" t="s">
-        <v>358</v>
+        <v>356</v>
       </c>
       <c r="D278" t="s">
-        <v>385</v>
+        <v>388</v>
       </c>
     </row>
     <row r="279" spans="1:4">
@@ -5517,10 +5517,10 @@
         <v>284</v>
       </c>
       <c r="C282" t="s">
-        <v>354</v>
+        <v>358</v>
       </c>
       <c r="D282" t="s">
-        <v>383</v>
+        <v>387</v>
       </c>
     </row>
     <row r="283" spans="1:4">
@@ -5531,10 +5531,10 @@
         <v>285</v>
       </c>
       <c r="C283" t="s">
-        <v>358</v>
+        <v>354</v>
       </c>
       <c r="D283" t="s">
-        <v>387</v>
+        <v>383</v>
       </c>
     </row>
     <row r="284" spans="1:4">
@@ -5671,10 +5671,10 @@
         <v>295</v>
       </c>
       <c r="C293" t="s">
-        <v>357</v>
+        <v>358</v>
       </c>
       <c r="D293" t="s">
-        <v>366</v>
+        <v>370</v>
       </c>
     </row>
     <row r="294" spans="1:4">
@@ -5685,10 +5685,10 @@
         <v>296</v>
       </c>
       <c r="C294" t="s">
-        <v>358</v>
+        <v>357</v>
       </c>
       <c r="D294" t="s">
-        <v>370</v>
+        <v>366</v>
       </c>
     </row>
     <row r="295" spans="1:4">
@@ -5797,10 +5797,10 @@
         <v>304</v>
       </c>
       <c r="C302" t="s">
-        <v>354</v>
+        <v>358</v>
       </c>
       <c r="D302" t="s">
-        <v>366</v>
+        <v>388</v>
       </c>
     </row>
     <row r="303" spans="1:4">
@@ -5811,10 +5811,10 @@
         <v>305</v>
       </c>
       <c r="C303" t="s">
-        <v>355</v>
+        <v>354</v>
       </c>
       <c r="D303" t="s">
-        <v>387</v>
+        <v>366</v>
       </c>
     </row>
     <row r="304" spans="1:4">
@@ -5825,10 +5825,10 @@
         <v>306</v>
       </c>
       <c r="C304" t="s">
-        <v>358</v>
+        <v>355</v>
       </c>
       <c r="D304" t="s">
-        <v>388</v>
+        <v>387</v>
       </c>
     </row>
     <row r="305" spans="1:4">
@@ -5867,10 +5867,10 @@
         <v>309</v>
       </c>
       <c r="C307" t="s">
-        <v>354</v>
+        <v>358</v>
       </c>
       <c r="D307" t="s">
-        <v>368</v>
+        <v>389</v>
       </c>
     </row>
     <row r="308" spans="1:4">
@@ -5881,10 +5881,10 @@
         <v>310</v>
       </c>
       <c r="C308" t="s">
-        <v>358</v>
+        <v>354</v>
       </c>
       <c r="D308" t="s">
-        <v>389</v>
+        <v>368</v>
       </c>
     </row>
     <row r="309" spans="1:4">
@@ -7127,7 +7127,7 @@
         <v>44</v>
       </c>
       <c r="B45" t="s">
-        <v>52</v>
+        <v>53</v>
       </c>
       <c r="C45" t="s">
         <v>354</v>
@@ -7239,7 +7239,7 @@
         <v>52</v>
       </c>
       <c r="B53" t="s">
-        <v>53</v>
+        <v>52</v>
       </c>
       <c r="C53" t="s">
         <v>356</v>
@@ -7337,13 +7337,13 @@
         <v>59</v>
       </c>
       <c r="B60" t="s">
-        <v>62</v>
+        <v>71</v>
       </c>
       <c r="C60" t="s">
         <v>354</v>
       </c>
       <c r="D60" t="s">
-        <v>373</v>
+        <v>390</v>
       </c>
     </row>
     <row r="61" spans="1:4">
@@ -7351,13 +7351,13 @@
         <v>60</v>
       </c>
       <c r="B61" t="s">
-        <v>69</v>
+        <v>62</v>
       </c>
       <c r="C61" t="s">
         <v>354</v>
       </c>
       <c r="D61" t="s">
-        <v>390</v>
+        <v>373</v>
       </c>
     </row>
     <row r="62" spans="1:4">
@@ -7365,7 +7365,7 @@
         <v>61</v>
       </c>
       <c r="B62" t="s">
-        <v>68</v>
+        <v>67</v>
       </c>
       <c r="C62" t="s">
         <v>354</v>
@@ -7463,7 +7463,7 @@
         <v>68</v>
       </c>
       <c r="B69" t="s">
-        <v>67</v>
+        <v>68</v>
       </c>
       <c r="C69" t="s">
         <v>355</v>
@@ -7519,7 +7519,7 @@
         <v>72</v>
       </c>
       <c r="B73" t="s">
-        <v>70</v>
+        <v>69</v>
       </c>
       <c r="C73" t="s">
         <v>354</v>
@@ -7533,7 +7533,7 @@
         <v>73</v>
       </c>
       <c r="B74" t="s">
-        <v>71</v>
+        <v>70</v>
       </c>
       <c r="C74" t="s">
         <v>355</v>
@@ -7547,7 +7547,7 @@
         <v>74</v>
       </c>
       <c r="B75" t="s">
-        <v>76</v>
+        <v>77</v>
       </c>
       <c r="C75" t="s">
         <v>354</v>
@@ -7603,7 +7603,7 @@
         <v>78</v>
       </c>
       <c r="B79" t="s">
-        <v>97</v>
+        <v>96</v>
       </c>
       <c r="C79" t="s">
         <v>354</v>
@@ -7617,7 +7617,7 @@
         <v>79</v>
       </c>
       <c r="B80" t="s">
-        <v>77</v>
+        <v>76</v>
       </c>
       <c r="C80" t="s">
         <v>355</v>
@@ -7631,7 +7631,7 @@
         <v>80</v>
       </c>
       <c r="B81" t="s">
-        <v>96</v>
+        <v>95</v>
       </c>
       <c r="C81" t="s">
         <v>354</v>
@@ -7701,13 +7701,13 @@
         <v>85</v>
       </c>
       <c r="B86" t="s">
-        <v>95</v>
+        <v>88</v>
       </c>
       <c r="C86" t="s">
-        <v>354</v>
+        <v>357</v>
       </c>
       <c r="D86" t="s">
-        <v>374</v>
+        <v>379</v>
       </c>
     </row>
     <row r="87" spans="1:4">
@@ -7715,13 +7715,13 @@
         <v>86</v>
       </c>
       <c r="B87" t="s">
-        <v>88</v>
+        <v>82</v>
       </c>
       <c r="C87" t="s">
-        <v>357</v>
+        <v>355</v>
       </c>
       <c r="D87" t="s">
-        <v>379</v>
+        <v>361</v>
       </c>
     </row>
     <row r="88" spans="1:4">
@@ -7729,13 +7729,13 @@
         <v>87</v>
       </c>
       <c r="B88" t="s">
-        <v>82</v>
+        <v>100</v>
       </c>
       <c r="C88" t="s">
-        <v>355</v>
+        <v>354</v>
       </c>
       <c r="D88" t="s">
-        <v>361</v>
+        <v>381</v>
       </c>
     </row>
     <row r="89" spans="1:4">
@@ -7743,13 +7743,13 @@
         <v>88</v>
       </c>
       <c r="B89" t="s">
-        <v>100</v>
+        <v>94</v>
       </c>
       <c r="C89" t="s">
         <v>354</v>
       </c>
       <c r="D89" t="s">
-        <v>381</v>
+        <v>374</v>
       </c>
     </row>
     <row r="90" spans="1:4">
@@ -7757,7 +7757,7 @@
         <v>89</v>
       </c>
       <c r="B90" t="s">
-        <v>94</v>
+        <v>93</v>
       </c>
       <c r="C90" t="s">
         <v>357</v>
@@ -7827,7 +7827,7 @@
         <v>94</v>
       </c>
       <c r="B95" t="s">
-        <v>92</v>
+        <v>97</v>
       </c>
       <c r="C95" t="s">
         <v>355</v>
@@ -7869,13 +7869,13 @@
         <v>97</v>
       </c>
       <c r="B98" t="s">
-        <v>91</v>
+        <v>101</v>
       </c>
       <c r="C98" t="s">
-        <v>355</v>
+        <v>356</v>
       </c>
       <c r="D98" t="s">
-        <v>389</v>
+        <v>382</v>
       </c>
     </row>
     <row r="99" spans="1:4">
@@ -7883,13 +7883,13 @@
         <v>98</v>
       </c>
       <c r="B99" t="s">
-        <v>101</v>
+        <v>91</v>
       </c>
       <c r="C99" t="s">
-        <v>356</v>
+        <v>355</v>
       </c>
       <c r="D99" t="s">
-        <v>382</v>
+        <v>389</v>
       </c>
     </row>
     <row r="100" spans="1:4">
@@ -7897,7 +7897,7 @@
         <v>99</v>
       </c>
       <c r="B100" t="s">
-        <v>105</v>
+        <v>106</v>
       </c>
       <c r="C100" t="s">
         <v>357</v>
@@ -7911,7 +7911,7 @@
         <v>100</v>
       </c>
       <c r="B101" t="s">
-        <v>104</v>
+        <v>105</v>
       </c>
       <c r="C101" t="s">
         <v>357</v>
@@ -7925,7 +7925,7 @@
         <v>101</v>
       </c>
       <c r="B102" t="s">
-        <v>93</v>
+        <v>92</v>
       </c>
       <c r="C102" t="s">
         <v>356</v>
@@ -7953,7 +7953,7 @@
         <v>103</v>
       </c>
       <c r="B104" t="s">
-        <v>112</v>
+        <v>110</v>
       </c>
       <c r="C104" t="s">
         <v>354</v>
@@ -7995,7 +7995,7 @@
         <v>106</v>
       </c>
       <c r="B107" t="s">
-        <v>108</v>
+        <v>107</v>
       </c>
       <c r="C107" t="s">
         <v>355</v>
@@ -8009,13 +8009,13 @@
         <v>107</v>
       </c>
       <c r="B108" t="s">
-        <v>106</v>
+        <v>114</v>
       </c>
       <c r="C108" t="s">
-        <v>355</v>
+        <v>356</v>
       </c>
       <c r="D108" t="s">
-        <v>382</v>
+        <v>387</v>
       </c>
     </row>
     <row r="109" spans="1:4">
@@ -8023,13 +8023,13 @@
         <v>108</v>
       </c>
       <c r="B109" t="s">
-        <v>114</v>
+        <v>104</v>
       </c>
       <c r="C109" t="s">
-        <v>356</v>
+        <v>355</v>
       </c>
       <c r="D109" t="s">
-        <v>387</v>
+        <v>382</v>
       </c>
     </row>
     <row r="110" spans="1:4">
@@ -8037,7 +8037,7 @@
         <v>109</v>
       </c>
       <c r="B110" t="s">
-        <v>107</v>
+        <v>108</v>
       </c>
       <c r="C110" t="s">
         <v>355</v>
@@ -8079,7 +8079,7 @@
         <v>112</v>
       </c>
       <c r="B113" t="s">
-        <v>113</v>
+        <v>111</v>
       </c>
       <c r="C113" t="s">
         <v>357</v>
@@ -8093,7 +8093,7 @@
         <v>113</v>
       </c>
       <c r="B114" t="s">
-        <v>110</v>
+        <v>112</v>
       </c>
       <c r="C114" t="s">
         <v>354</v>
@@ -8107,13 +8107,13 @@
         <v>114</v>
       </c>
       <c r="B115" t="s">
-        <v>131</v>
+        <v>113</v>
       </c>
       <c r="C115" t="s">
-        <v>354</v>
+        <v>355</v>
       </c>
       <c r="D115" t="s">
-        <v>374</v>
+        <v>362</v>
       </c>
     </row>
     <row r="116" spans="1:4">
@@ -8121,13 +8121,13 @@
         <v>115</v>
       </c>
       <c r="B116" t="s">
-        <v>111</v>
+        <v>122</v>
       </c>
       <c r="C116" t="s">
-        <v>355</v>
+        <v>354</v>
       </c>
       <c r="D116" t="s">
-        <v>362</v>
+        <v>388</v>
       </c>
     </row>
     <row r="117" spans="1:4">
@@ -8135,13 +8135,13 @@
         <v>116</v>
       </c>
       <c r="B117" t="s">
-        <v>122</v>
+        <v>128</v>
       </c>
       <c r="C117" t="s">
         <v>354</v>
       </c>
       <c r="D117" t="s">
-        <v>388</v>
+        <v>374</v>
       </c>
     </row>
     <row r="118" spans="1:4">
@@ -8163,7 +8163,7 @@
         <v>118</v>
       </c>
       <c r="B119" t="s">
-        <v>124</v>
+        <v>123</v>
       </c>
       <c r="C119" t="s">
         <v>355</v>
@@ -8177,7 +8177,7 @@
         <v>119</v>
       </c>
       <c r="B120" t="s">
-        <v>132</v>
+        <v>130</v>
       </c>
       <c r="C120" t="s">
         <v>354</v>
@@ -8191,7 +8191,7 @@
         <v>120</v>
       </c>
       <c r="B121" t="s">
-        <v>127</v>
+        <v>126</v>
       </c>
       <c r="C121" t="s">
         <v>354</v>
@@ -8205,13 +8205,13 @@
         <v>121</v>
       </c>
       <c r="B122" t="s">
-        <v>142</v>
+        <v>127</v>
       </c>
       <c r="C122" t="s">
         <v>355</v>
       </c>
       <c r="D122" t="s">
-        <v>391</v>
+        <v>388</v>
       </c>
     </row>
     <row r="123" spans="1:4">
@@ -8219,13 +8219,13 @@
         <v>122</v>
       </c>
       <c r="B123" t="s">
-        <v>126</v>
+        <v>143</v>
       </c>
       <c r="C123" t="s">
         <v>355</v>
       </c>
       <c r="D123" t="s">
-        <v>388</v>
+        <v>391</v>
       </c>
     </row>
     <row r="124" spans="1:4">
@@ -8233,7 +8233,7 @@
         <v>123</v>
       </c>
       <c r="B124" t="s">
-        <v>136</v>
+        <v>138</v>
       </c>
       <c r="C124" t="s">
         <v>355</v>
@@ -8261,7 +8261,7 @@
         <v>125</v>
       </c>
       <c r="B126" t="s">
-        <v>137</v>
+        <v>139</v>
       </c>
       <c r="C126" t="s">
         <v>354</v>
@@ -8275,7 +8275,7 @@
         <v>126</v>
       </c>
       <c r="B127" t="s">
-        <v>128</v>
+        <v>129</v>
       </c>
       <c r="C127" t="s">
         <v>355</v>
@@ -8289,13 +8289,13 @@
         <v>127</v>
       </c>
       <c r="B128" t="s">
-        <v>125</v>
+        <v>119</v>
       </c>
       <c r="C128" t="s">
-        <v>355</v>
+        <v>356</v>
       </c>
       <c r="D128" t="s">
-        <v>371</v>
+        <v>391</v>
       </c>
     </row>
     <row r="129" spans="1:4">
@@ -8303,13 +8303,13 @@
         <v>128</v>
       </c>
       <c r="B129" t="s">
-        <v>119</v>
+        <v>125</v>
       </c>
       <c r="C129" t="s">
-        <v>356</v>
+        <v>355</v>
       </c>
       <c r="D129" t="s">
-        <v>391</v>
+        <v>371</v>
       </c>
     </row>
     <row r="130" spans="1:4">
@@ -8331,13 +8331,13 @@
         <v>130</v>
       </c>
       <c r="B131" t="s">
-        <v>154</v>
+        <v>137</v>
       </c>
       <c r="C131" t="s">
-        <v>354</v>
+        <v>355</v>
       </c>
       <c r="D131" t="s">
-        <v>385</v>
+        <v>379</v>
       </c>
     </row>
     <row r="132" spans="1:4">
@@ -8345,13 +8345,13 @@
         <v>131</v>
       </c>
       <c r="B132" t="s">
-        <v>139</v>
+        <v>153</v>
       </c>
       <c r="C132" t="s">
-        <v>355</v>
+        <v>354</v>
       </c>
       <c r="D132" t="s">
-        <v>379</v>
+        <v>385</v>
       </c>
     </row>
     <row r="133" spans="1:4">
@@ -8373,7 +8373,7 @@
         <v>133</v>
       </c>
       <c r="B134" t="s">
-        <v>130</v>
+        <v>132</v>
       </c>
       <c r="C134" t="s">
         <v>356</v>
@@ -8387,7 +8387,7 @@
         <v>134</v>
       </c>
       <c r="B135" t="s">
-        <v>129</v>
+        <v>131</v>
       </c>
       <c r="C135" t="s">
         <v>356</v>
@@ -8415,13 +8415,13 @@
         <v>136</v>
       </c>
       <c r="B137" t="s">
-        <v>134</v>
+        <v>124</v>
       </c>
       <c r="C137" t="s">
-        <v>356</v>
+        <v>357</v>
       </c>
       <c r="D137" t="s">
-        <v>377</v>
+        <v>386</v>
       </c>
     </row>
     <row r="138" spans="1:4">
@@ -8429,13 +8429,13 @@
         <v>137</v>
       </c>
       <c r="B138" t="s">
-        <v>141</v>
+        <v>134</v>
       </c>
       <c r="C138" t="s">
-        <v>354</v>
+        <v>356</v>
       </c>
       <c r="D138" t="s">
-        <v>372</v>
+        <v>377</v>
       </c>
     </row>
     <row r="139" spans="1:4">
@@ -8443,13 +8443,13 @@
         <v>138</v>
       </c>
       <c r="B139" t="s">
-        <v>123</v>
+        <v>141</v>
       </c>
       <c r="C139" t="s">
-        <v>357</v>
+        <v>354</v>
       </c>
       <c r="D139" t="s">
-        <v>386</v>
+        <v>372</v>
       </c>
     </row>
     <row r="140" spans="1:4">
@@ -8457,13 +8457,13 @@
         <v>139</v>
       </c>
       <c r="B140" t="s">
-        <v>145</v>
+        <v>144</v>
       </c>
       <c r="C140" t="s">
         <v>355</v>
       </c>
       <c r="D140" t="s">
-        <v>379</v>
+        <v>391</v>
       </c>
     </row>
     <row r="141" spans="1:4">
@@ -8471,7 +8471,7 @@
         <v>140</v>
       </c>
       <c r="B141" t="s">
-        <v>153</v>
+        <v>155</v>
       </c>
       <c r="C141" t="s">
         <v>355</v>
@@ -8491,7 +8491,7 @@
         <v>355</v>
       </c>
       <c r="D142" t="s">
-        <v>391</v>
+        <v>379</v>
       </c>
     </row>
     <row r="143" spans="1:4">
@@ -8513,13 +8513,13 @@
         <v>143</v>
       </c>
       <c r="B144" t="s">
-        <v>157</v>
+        <v>156</v>
       </c>
       <c r="C144" t="s">
         <v>355</v>
       </c>
       <c r="D144" t="s">
-        <v>382</v>
+        <v>369</v>
       </c>
     </row>
     <row r="145" spans="1:4">
@@ -8527,13 +8527,13 @@
         <v>144</v>
       </c>
       <c r="B145" t="s">
-        <v>156</v>
+        <v>157</v>
       </c>
       <c r="C145" t="s">
         <v>355</v>
       </c>
       <c r="D145" t="s">
-        <v>369</v>
+        <v>382</v>
       </c>
     </row>
     <row r="146" spans="1:4">
@@ -8555,7 +8555,7 @@
         <v>146</v>
       </c>
       <c r="B147" t="s">
-        <v>144</v>
+        <v>145</v>
       </c>
       <c r="C147" t="s">
         <v>355</v>
@@ -8583,13 +8583,13 @@
         <v>148</v>
       </c>
       <c r="B149" t="s">
-        <v>148</v>
+        <v>136</v>
       </c>
       <c r="C149" t="s">
-        <v>356</v>
+        <v>357</v>
       </c>
       <c r="D149" t="s">
-        <v>364</v>
+        <v>369</v>
       </c>
     </row>
     <row r="150" spans="1:4">
@@ -8597,13 +8597,13 @@
         <v>149</v>
       </c>
       <c r="B150" t="s">
-        <v>159</v>
+        <v>148</v>
       </c>
       <c r="C150" t="s">
-        <v>355</v>
+        <v>356</v>
       </c>
       <c r="D150" t="s">
-        <v>390</v>
+        <v>364</v>
       </c>
     </row>
     <row r="151" spans="1:4">
@@ -8611,13 +8611,13 @@
         <v>150</v>
       </c>
       <c r="B151" t="s">
-        <v>138</v>
+        <v>142</v>
       </c>
       <c r="C151" t="s">
         <v>357</v>
       </c>
       <c r="D151" t="s">
-        <v>369</v>
+        <v>360</v>
       </c>
     </row>
     <row r="152" spans="1:4">
@@ -8625,13 +8625,13 @@
         <v>151</v>
       </c>
       <c r="B152" t="s">
-        <v>143</v>
+        <v>160</v>
       </c>
       <c r="C152" t="s">
-        <v>357</v>
+        <v>355</v>
       </c>
       <c r="D152" t="s">
-        <v>360</v>
+        <v>390</v>
       </c>
     </row>
     <row r="153" spans="1:4">
@@ -8653,13 +8653,13 @@
         <v>153</v>
       </c>
       <c r="B154" t="s">
-        <v>158</v>
+        <v>152</v>
       </c>
       <c r="C154" t="s">
         <v>356</v>
       </c>
       <c r="D154" t="s">
-        <v>389</v>
+        <v>376</v>
       </c>
     </row>
     <row r="155" spans="1:4">
@@ -8667,13 +8667,13 @@
         <v>154</v>
       </c>
       <c r="B155" t="s">
-        <v>152</v>
+        <v>158</v>
       </c>
       <c r="C155" t="s">
         <v>356</v>
       </c>
       <c r="D155" t="s">
-        <v>376</v>
+        <v>389</v>
       </c>
     </row>
     <row r="156" spans="1:4">
@@ -8695,7 +8695,7 @@
         <v>156</v>
       </c>
       <c r="B157" t="s">
-        <v>163</v>
+        <v>162</v>
       </c>
       <c r="C157" t="s">
         <v>356</v>
@@ -8723,7 +8723,7 @@
         <v>158</v>
       </c>
       <c r="B159" t="s">
-        <v>171</v>
+        <v>172</v>
       </c>
       <c r="C159" t="s">
         <v>355</v>
@@ -8737,7 +8737,7 @@
         <v>159</v>
       </c>
       <c r="B160" t="s">
-        <v>170</v>
+        <v>171</v>
       </c>
       <c r="C160" t="s">
         <v>355</v>
@@ -8765,7 +8765,7 @@
         <v>161</v>
       </c>
       <c r="B162" t="s">
-        <v>173</v>
+        <v>175</v>
       </c>
       <c r="C162" t="s">
         <v>355</v>
@@ -8807,7 +8807,7 @@
         <v>164</v>
       </c>
       <c r="B165" t="s">
-        <v>155</v>
+        <v>154</v>
       </c>
       <c r="C165" t="s">
         <v>358</v>
@@ -8821,13 +8821,13 @@
         <v>165</v>
       </c>
       <c r="B166" t="s">
-        <v>186</v>
+        <v>192</v>
       </c>
       <c r="C166" t="s">
         <v>355</v>
       </c>
       <c r="D166" t="s">
-        <v>382</v>
+        <v>370</v>
       </c>
     </row>
     <row r="167" spans="1:4">
@@ -8835,13 +8835,13 @@
         <v>166</v>
       </c>
       <c r="B167" t="s">
-        <v>192</v>
+        <v>188</v>
       </c>
       <c r="C167" t="s">
         <v>355</v>
       </c>
       <c r="D167" t="s">
-        <v>370</v>
+        <v>382</v>
       </c>
     </row>
     <row r="168" spans="1:4">
@@ -8849,7 +8849,7 @@
         <v>167</v>
       </c>
       <c r="B168" t="s">
-        <v>160</v>
+        <v>159</v>
       </c>
       <c r="C168" t="s">
         <v>358</v>
@@ -8863,13 +8863,13 @@
         <v>168</v>
       </c>
       <c r="B169" t="s">
-        <v>179</v>
+        <v>163</v>
       </c>
       <c r="C169" t="s">
-        <v>355</v>
+        <v>357</v>
       </c>
       <c r="D169" t="s">
-        <v>388</v>
+        <v>391</v>
       </c>
     </row>
     <row r="170" spans="1:4">
@@ -8877,13 +8877,13 @@
         <v>169</v>
       </c>
       <c r="B170" t="s">
-        <v>162</v>
+        <v>164</v>
       </c>
       <c r="C170" t="s">
-        <v>357</v>
+        <v>358</v>
       </c>
       <c r="D170" t="s">
-        <v>391</v>
+        <v>361</v>
       </c>
     </row>
     <row r="171" spans="1:4">
@@ -8891,13 +8891,13 @@
         <v>170</v>
       </c>
       <c r="B171" t="s">
-        <v>164</v>
+        <v>181</v>
       </c>
       <c r="C171" t="s">
-        <v>358</v>
+        <v>356</v>
       </c>
       <c r="D171" t="s">
-        <v>361</v>
+        <v>365</v>
       </c>
     </row>
     <row r="172" spans="1:4">
@@ -8905,13 +8905,13 @@
         <v>171</v>
       </c>
       <c r="B172" t="s">
-        <v>183</v>
+        <v>179</v>
       </c>
       <c r="C172" t="s">
         <v>355</v>
       </c>
       <c r="D172" t="s">
-        <v>371</v>
+        <v>388</v>
       </c>
     </row>
     <row r="173" spans="1:4">
@@ -8919,13 +8919,13 @@
         <v>172</v>
       </c>
       <c r="B173" t="s">
-        <v>195</v>
+        <v>184</v>
       </c>
       <c r="C173" t="s">
         <v>355</v>
       </c>
       <c r="D173" t="s">
-        <v>374</v>
+        <v>371</v>
       </c>
     </row>
     <row r="174" spans="1:4">
@@ -8933,13 +8933,13 @@
         <v>173</v>
       </c>
       <c r="B174" t="s">
-        <v>182</v>
+        <v>195</v>
       </c>
       <c r="C174" t="s">
-        <v>356</v>
+        <v>355</v>
       </c>
       <c r="D174" t="s">
-        <v>365</v>
+        <v>374</v>
       </c>
     </row>
     <row r="175" spans="1:4">
@@ -8975,10 +8975,10 @@
         <v>176</v>
       </c>
       <c r="B177" t="s">
-        <v>180</v>
+        <v>183</v>
       </c>
       <c r="C177" t="s">
-        <v>354</v>
+        <v>356</v>
       </c>
       <c r="D177" t="s">
         <v>385</v>
@@ -8989,13 +8989,13 @@
         <v>177</v>
       </c>
       <c r="B178" t="s">
-        <v>184</v>
+        <v>170</v>
       </c>
       <c r="C178" t="s">
-        <v>356</v>
+        <v>358</v>
       </c>
       <c r="D178" t="s">
-        <v>385</v>
+        <v>360</v>
       </c>
     </row>
     <row r="179" spans="1:4">
@@ -9003,13 +9003,13 @@
         <v>178</v>
       </c>
       <c r="B179" t="s">
-        <v>172</v>
+        <v>180</v>
       </c>
       <c r="C179" t="s">
-        <v>358</v>
+        <v>354</v>
       </c>
       <c r="D179" t="s">
-        <v>360</v>
+        <v>385</v>
       </c>
     </row>
     <row r="180" spans="1:4">
@@ -9017,13 +9017,13 @@
         <v>179</v>
       </c>
       <c r="B180" t="s">
-        <v>181</v>
+        <v>176</v>
       </c>
       <c r="C180" t="s">
-        <v>354</v>
+        <v>358</v>
       </c>
       <c r="D180" t="s">
-        <v>364</v>
+        <v>369</v>
       </c>
     </row>
     <row r="181" spans="1:4">
@@ -9031,13 +9031,13 @@
         <v>180</v>
       </c>
       <c r="B181" t="s">
-        <v>176</v>
+        <v>174</v>
       </c>
       <c r="C181" t="s">
-        <v>358</v>
+        <v>359</v>
       </c>
       <c r="D181" t="s">
-        <v>369</v>
+        <v>373</v>
       </c>
     </row>
     <row r="182" spans="1:4">
@@ -9045,13 +9045,13 @@
         <v>181</v>
       </c>
       <c r="B182" t="s">
-        <v>175</v>
+        <v>168</v>
       </c>
       <c r="C182" t="s">
-        <v>359</v>
+        <v>357</v>
       </c>
       <c r="D182" t="s">
-        <v>373</v>
+        <v>385</v>
       </c>
     </row>
     <row r="183" spans="1:4">
@@ -9059,13 +9059,13 @@
         <v>182</v>
       </c>
       <c r="B183" t="s">
-        <v>168</v>
+        <v>178</v>
       </c>
       <c r="C183" t="s">
-        <v>357</v>
+        <v>358</v>
       </c>
       <c r="D183" t="s">
-        <v>385</v>
+        <v>377</v>
       </c>
     </row>
     <row r="184" spans="1:4">
@@ -9073,13 +9073,13 @@
         <v>183</v>
       </c>
       <c r="B184" t="s">
-        <v>178</v>
+        <v>182</v>
       </c>
       <c r="C184" t="s">
-        <v>358</v>
+        <v>354</v>
       </c>
       <c r="D184" t="s">
-        <v>377</v>
+        <v>364</v>
       </c>
     </row>
     <row r="185" spans="1:4">
@@ -9087,7 +9087,7 @@
         <v>184</v>
       </c>
       <c r="B185" t="s">
-        <v>174</v>
+        <v>173</v>
       </c>
       <c r="C185" t="s">
         <v>357</v>
@@ -9101,7 +9101,7 @@
         <v>185</v>
       </c>
       <c r="B186" t="s">
-        <v>197</v>
+        <v>198</v>
       </c>
       <c r="C186" t="s">
         <v>355</v>
@@ -9115,13 +9115,13 @@
         <v>186</v>
       </c>
       <c r="B187" t="s">
-        <v>194</v>
+        <v>177</v>
       </c>
       <c r="C187" t="s">
-        <v>355</v>
+        <v>358</v>
       </c>
       <c r="D187" t="s">
-        <v>378</v>
+        <v>368</v>
       </c>
     </row>
     <row r="188" spans="1:4">
@@ -9129,13 +9129,13 @@
         <v>187</v>
       </c>
       <c r="B188" t="s">
-        <v>177</v>
+        <v>194</v>
       </c>
       <c r="C188" t="s">
-        <v>358</v>
+        <v>355</v>
       </c>
       <c r="D188" t="s">
-        <v>368</v>
+        <v>378</v>
       </c>
     </row>
     <row r="189" spans="1:4">
@@ -9143,7 +9143,7 @@
         <v>188</v>
       </c>
       <c r="B189" t="s">
-        <v>206</v>
+        <v>208</v>
       </c>
       <c r="C189" t="s">
         <v>354</v>
@@ -9185,13 +9185,13 @@
         <v>191</v>
       </c>
       <c r="B192" t="s">
-        <v>211</v>
+        <v>187</v>
       </c>
       <c r="C192" t="s">
-        <v>355</v>
+        <v>359</v>
       </c>
       <c r="D192" t="s">
-        <v>360</v>
+        <v>374</v>
       </c>
     </row>
     <row r="193" spans="1:4">
@@ -9199,13 +9199,13 @@
         <v>192</v>
       </c>
       <c r="B193" t="s">
-        <v>188</v>
+        <v>193</v>
       </c>
       <c r="C193" t="s">
-        <v>359</v>
+        <v>355</v>
       </c>
       <c r="D193" t="s">
-        <v>374</v>
+        <v>376</v>
       </c>
     </row>
     <row r="194" spans="1:4">
@@ -9213,13 +9213,13 @@
         <v>193</v>
       </c>
       <c r="B194" t="s">
-        <v>193</v>
+        <v>211</v>
       </c>
       <c r="C194" t="s">
         <v>355</v>
       </c>
       <c r="D194" t="s">
-        <v>376</v>
+        <v>360</v>
       </c>
     </row>
     <row r="195" spans="1:4">
@@ -9241,13 +9241,13 @@
         <v>195</v>
       </c>
       <c r="B196" t="s">
-        <v>205</v>
+        <v>185</v>
       </c>
       <c r="C196" t="s">
-        <v>355</v>
+        <v>358</v>
       </c>
       <c r="D196" t="s">
-        <v>372</v>
+        <v>391</v>
       </c>
     </row>
     <row r="197" spans="1:4">
@@ -9255,13 +9255,13 @@
         <v>196</v>
       </c>
       <c r="B197" t="s">
-        <v>185</v>
+        <v>197</v>
       </c>
       <c r="C197" t="s">
-        <v>358</v>
+        <v>359</v>
       </c>
       <c r="D197" t="s">
-        <v>391</v>
+        <v>368</v>
       </c>
     </row>
     <row r="198" spans="1:4">
@@ -9269,13 +9269,13 @@
         <v>197</v>
       </c>
       <c r="B198" t="s">
-        <v>200</v>
+        <v>207</v>
       </c>
       <c r="C198" t="s">
-        <v>354</v>
+        <v>355</v>
       </c>
       <c r="D198" t="s">
-        <v>383</v>
+        <v>372</v>
       </c>
     </row>
     <row r="199" spans="1:4">
@@ -9283,13 +9283,13 @@
         <v>198</v>
       </c>
       <c r="B199" t="s">
-        <v>202</v>
+        <v>212</v>
       </c>
       <c r="C199" t="s">
-        <v>354</v>
+        <v>356</v>
       </c>
       <c r="D199" t="s">
-        <v>382</v>
+        <v>390</v>
       </c>
     </row>
     <row r="200" spans="1:4">
@@ -9297,13 +9297,13 @@
         <v>199</v>
       </c>
       <c r="B200" t="s">
-        <v>216</v>
+        <v>200</v>
       </c>
       <c r="C200" t="s">
-        <v>355</v>
+        <v>354</v>
       </c>
       <c r="D200" t="s">
-        <v>367</v>
+        <v>383</v>
       </c>
     </row>
     <row r="201" spans="1:4">
@@ -9311,13 +9311,13 @@
         <v>200</v>
       </c>
       <c r="B201" t="s">
-        <v>215</v>
+        <v>203</v>
       </c>
       <c r="C201" t="s">
-        <v>355</v>
+        <v>354</v>
       </c>
       <c r="D201" t="s">
-        <v>360</v>
+        <v>382</v>
       </c>
     </row>
     <row r="202" spans="1:4">
@@ -9325,13 +9325,13 @@
         <v>201</v>
       </c>
       <c r="B202" t="s">
-        <v>198</v>
+        <v>216</v>
       </c>
       <c r="C202" t="s">
-        <v>359</v>
+        <v>355</v>
       </c>
       <c r="D202" t="s">
-        <v>368</v>
+        <v>367</v>
       </c>
     </row>
     <row r="203" spans="1:4">
@@ -9339,13 +9339,13 @@
         <v>202</v>
       </c>
       <c r="B203" t="s">
-        <v>212</v>
+        <v>215</v>
       </c>
       <c r="C203" t="s">
-        <v>356</v>
+        <v>355</v>
       </c>
       <c r="D203" t="s">
-        <v>390</v>
+        <v>360</v>
       </c>
     </row>
     <row r="204" spans="1:4">
@@ -9381,13 +9381,13 @@
         <v>205</v>
       </c>
       <c r="B206" t="s">
-        <v>190</v>
+        <v>201</v>
       </c>
       <c r="C206" t="s">
-        <v>354</v>
+        <v>358</v>
       </c>
       <c r="D206" t="s">
-        <v>384</v>
+        <v>378</v>
       </c>
     </row>
     <row r="207" spans="1:4">
@@ -9395,13 +9395,13 @@
         <v>206</v>
       </c>
       <c r="B207" t="s">
-        <v>203</v>
+        <v>190</v>
       </c>
       <c r="C207" t="s">
-        <v>358</v>
+        <v>354</v>
       </c>
       <c r="D207" t="s">
-        <v>378</v>
+        <v>384</v>
       </c>
     </row>
     <row r="208" spans="1:4">
@@ -9409,13 +9409,13 @@
         <v>207</v>
       </c>
       <c r="B208" t="s">
-        <v>219</v>
+        <v>205</v>
       </c>
       <c r="C208" t="s">
-        <v>355</v>
+        <v>359</v>
       </c>
       <c r="D208" t="s">
-        <v>385</v>
+        <v>375</v>
       </c>
     </row>
     <row r="209" spans="1:4">
@@ -9423,13 +9423,13 @@
         <v>208</v>
       </c>
       <c r="B209" t="s">
-        <v>207</v>
+        <v>186</v>
       </c>
       <c r="C209" t="s">
-        <v>359</v>
+        <v>357</v>
       </c>
       <c r="D209" t="s">
-        <v>375</v>
+        <v>390</v>
       </c>
     </row>
     <row r="210" spans="1:4">
@@ -9437,13 +9437,13 @@
         <v>209</v>
       </c>
       <c r="B210" t="s">
-        <v>187</v>
+        <v>206</v>
       </c>
       <c r="C210" t="s">
-        <v>357</v>
+        <v>358</v>
       </c>
       <c r="D210" t="s">
-        <v>390</v>
+        <v>376</v>
       </c>
     </row>
     <row r="211" spans="1:4">
@@ -9451,13 +9451,13 @@
         <v>210</v>
       </c>
       <c r="B211" t="s">
-        <v>208</v>
+        <v>219</v>
       </c>
       <c r="C211" t="s">
-        <v>358</v>
+        <v>355</v>
       </c>
       <c r="D211" t="s">
-        <v>376</v>
+        <v>385</v>
       </c>
     </row>
     <row r="212" spans="1:4">
@@ -9465,7 +9465,7 @@
         <v>211</v>
       </c>
       <c r="B212" t="s">
-        <v>201</v>
+        <v>202</v>
       </c>
       <c r="C212" t="s">
         <v>354</v>
@@ -9521,7 +9521,7 @@
         <v>215</v>
       </c>
       <c r="B216" t="s">
-        <v>222</v>
+        <v>221</v>
       </c>
       <c r="C216" t="s">
         <v>359</v>
@@ -9535,13 +9535,13 @@
         <v>216</v>
       </c>
       <c r="B217" t="s">
-        <v>243</v>
+        <v>225</v>
       </c>
       <c r="C217" t="s">
-        <v>355</v>
+        <v>358</v>
       </c>
       <c r="D217" t="s">
-        <v>370</v>
+        <v>383</v>
       </c>
     </row>
     <row r="218" spans="1:4">
@@ -9549,13 +9549,13 @@
         <v>217</v>
       </c>
       <c r="B218" t="s">
-        <v>238</v>
+        <v>243</v>
       </c>
       <c r="C218" t="s">
         <v>355</v>
       </c>
       <c r="D218" t="s">
-        <v>367</v>
+        <v>370</v>
       </c>
     </row>
     <row r="219" spans="1:4">
@@ -9563,13 +9563,13 @@
         <v>218</v>
       </c>
       <c r="B219" t="s">
-        <v>225</v>
+        <v>239</v>
       </c>
       <c r="C219" t="s">
-        <v>358</v>
+        <v>355</v>
       </c>
       <c r="D219" t="s">
-        <v>383</v>
+        <v>367</v>
       </c>
     </row>
     <row r="220" spans="1:4">
@@ -9605,13 +9605,13 @@
         <v>221</v>
       </c>
       <c r="B222" t="s">
-        <v>210</v>
+        <v>223</v>
       </c>
       <c r="C222" t="s">
-        <v>354</v>
+        <v>358</v>
       </c>
       <c r="D222" t="s">
-        <v>364</v>
+        <v>373</v>
       </c>
     </row>
     <row r="223" spans="1:4">
@@ -9619,13 +9619,13 @@
         <v>222</v>
       </c>
       <c r="B223" t="s">
-        <v>233</v>
+        <v>210</v>
       </c>
       <c r="C223" t="s">
         <v>354</v>
       </c>
       <c r="D223" t="s">
-        <v>371</v>
+        <v>364</v>
       </c>
     </row>
     <row r="224" spans="1:4">
@@ -9633,13 +9633,13 @@
         <v>223</v>
       </c>
       <c r="B224" t="s">
-        <v>237</v>
+        <v>233</v>
       </c>
       <c r="C224" t="s">
-        <v>355</v>
+        <v>354</v>
       </c>
       <c r="D224" t="s">
-        <v>382</v>
+        <v>371</v>
       </c>
     </row>
     <row r="225" spans="1:4">
@@ -9647,13 +9647,13 @@
         <v>224</v>
       </c>
       <c r="B225" t="s">
-        <v>223</v>
+        <v>224</v>
       </c>
       <c r="C225" t="s">
         <v>358</v>
       </c>
       <c r="D225" t="s">
-        <v>373</v>
+        <v>367</v>
       </c>
     </row>
     <row r="226" spans="1:4">
@@ -9661,13 +9661,13 @@
         <v>225</v>
       </c>
       <c r="B226" t="s">
-        <v>245</v>
+        <v>237</v>
       </c>
       <c r="C226" t="s">
         <v>355</v>
       </c>
       <c r="D226" t="s">
-        <v>386</v>
+        <v>382</v>
       </c>
     </row>
     <row r="227" spans="1:4">
@@ -9675,13 +9675,13 @@
         <v>226</v>
       </c>
       <c r="B227" t="s">
-        <v>224</v>
+        <v>246</v>
       </c>
       <c r="C227" t="s">
-        <v>358</v>
+        <v>355</v>
       </c>
       <c r="D227" t="s">
-        <v>367</v>
+        <v>386</v>
       </c>
     </row>
     <row r="228" spans="1:4">
@@ -9689,13 +9689,13 @@
         <v>227</v>
       </c>
       <c r="B228" t="s">
-        <v>235</v>
+        <v>228</v>
       </c>
       <c r="C228" t="s">
-        <v>354</v>
+        <v>358</v>
       </c>
       <c r="D228" t="s">
-        <v>365</v>
+        <v>371</v>
       </c>
     </row>
     <row r="229" spans="1:4">
@@ -9703,13 +9703,13 @@
         <v>228</v>
       </c>
       <c r="B229" t="s">
-        <v>232</v>
+        <v>220</v>
       </c>
       <c r="C229" t="s">
-        <v>354</v>
+        <v>357</v>
       </c>
       <c r="D229" t="s">
-        <v>373</v>
+        <v>381</v>
       </c>
     </row>
     <row r="230" spans="1:4">
@@ -9717,13 +9717,13 @@
         <v>229</v>
       </c>
       <c r="B230" t="s">
-        <v>228</v>
+        <v>235</v>
       </c>
       <c r="C230" t="s">
-        <v>358</v>
+        <v>354</v>
       </c>
       <c r="D230" t="s">
-        <v>371</v>
+        <v>365</v>
       </c>
     </row>
     <row r="231" spans="1:4">
@@ -9731,13 +9731,13 @@
         <v>230</v>
       </c>
       <c r="B231" t="s">
-        <v>213</v>
+        <v>232</v>
       </c>
       <c r="C231" t="s">
-        <v>357</v>
+        <v>354</v>
       </c>
       <c r="D231" t="s">
-        <v>388</v>
+        <v>373</v>
       </c>
     </row>
     <row r="232" spans="1:4">
@@ -9745,13 +9745,13 @@
         <v>231</v>
       </c>
       <c r="B232" t="s">
-        <v>220</v>
+        <v>229</v>
       </c>
       <c r="C232" t="s">
-        <v>357</v>
+        <v>359</v>
       </c>
       <c r="D232" t="s">
-        <v>381</v>
+        <v>382</v>
       </c>
     </row>
     <row r="233" spans="1:4">
@@ -9759,13 +9759,13 @@
         <v>232</v>
       </c>
       <c r="B233" t="s">
-        <v>240</v>
+        <v>213</v>
       </c>
       <c r="C233" t="s">
-        <v>355</v>
+        <v>357</v>
       </c>
       <c r="D233" t="s">
-        <v>391</v>
+        <v>388</v>
       </c>
     </row>
     <row r="234" spans="1:4">
@@ -9773,13 +9773,13 @@
         <v>233</v>
       </c>
       <c r="B234" t="s">
-        <v>229</v>
+        <v>230</v>
       </c>
       <c r="C234" t="s">
-        <v>359</v>
+        <v>358</v>
       </c>
       <c r="D234" t="s">
-        <v>382</v>
+        <v>366</v>
       </c>
     </row>
     <row r="235" spans="1:4">
@@ -9787,13 +9787,13 @@
         <v>234</v>
       </c>
       <c r="B235" t="s">
-        <v>221</v>
+        <v>241</v>
       </c>
       <c r="C235" t="s">
-        <v>354</v>
+        <v>355</v>
       </c>
       <c r="D235" t="s">
-        <v>371</v>
+        <v>391</v>
       </c>
     </row>
     <row r="236" spans="1:4">
@@ -9801,13 +9801,13 @@
         <v>235</v>
       </c>
       <c r="B236" t="s">
-        <v>230</v>
+        <v>222</v>
       </c>
       <c r="C236" t="s">
-        <v>358</v>
+        <v>354</v>
       </c>
       <c r="D236" t="s">
-        <v>366</v>
+        <v>371</v>
       </c>
     </row>
     <row r="237" spans="1:4">
@@ -9829,13 +9829,13 @@
         <v>237</v>
       </c>
       <c r="B238" t="s">
-        <v>239</v>
+        <v>240</v>
       </c>
       <c r="C238" t="s">
         <v>354</v>
       </c>
       <c r="D238" t="s">
-        <v>392</v>
+        <v>390</v>
       </c>
     </row>
     <row r="239" spans="1:4">
@@ -9871,7 +9871,7 @@
         <v>240</v>
       </c>
       <c r="B241" t="s">
-        <v>241</v>
+        <v>238</v>
       </c>
       <c r="C241" t="s">
         <v>359</v>
@@ -9899,7 +9899,7 @@
         <v>242</v>
       </c>
       <c r="B243" t="s">
-        <v>246</v>
+        <v>244</v>
       </c>
       <c r="C243" t="s">
         <v>359</v>
@@ -9969,13 +9969,13 @@
         <v>247</v>
       </c>
       <c r="B248" t="s">
-        <v>253</v>
+        <v>256</v>
       </c>
       <c r="C248" t="s">
         <v>358</v>
       </c>
       <c r="D248" t="s">
-        <v>365</v>
+        <v>362</v>
       </c>
     </row>
     <row r="249" spans="1:4">
@@ -9983,13 +9983,13 @@
         <v>248</v>
       </c>
       <c r="B249" t="s">
-        <v>256</v>
+        <v>253</v>
       </c>
       <c r="C249" t="s">
         <v>358</v>
       </c>
       <c r="D249" t="s">
-        <v>362</v>
+        <v>365</v>
       </c>
     </row>
     <row r="250" spans="1:4">
@@ -10067,7 +10067,7 @@
         <v>254</v>
       </c>
       <c r="B255" t="s">
-        <v>244</v>
+        <v>245</v>
       </c>
       <c r="C255" t="s">
         <v>354</v>
@@ -10109,7 +10109,7 @@
         <v>257</v>
       </c>
       <c r="B258" t="s">
-        <v>270</v>
+        <v>271</v>
       </c>
       <c r="C258" t="s">
         <v>355</v>
@@ -10123,7 +10123,7 @@
         <v>258</v>
       </c>
       <c r="B259" t="s">
-        <v>267</v>
+        <v>266</v>
       </c>
       <c r="C259" t="s">
         <v>358</v>
@@ -10137,13 +10137,13 @@
         <v>259</v>
       </c>
       <c r="B260" t="s">
-        <v>261</v>
+        <v>251</v>
       </c>
       <c r="C260" t="s">
-        <v>355</v>
+        <v>357</v>
       </c>
       <c r="D260" t="s">
-        <v>376</v>
+        <v>366</v>
       </c>
     </row>
     <row r="261" spans="1:4">
@@ -10151,13 +10151,13 @@
         <v>260</v>
       </c>
       <c r="B261" t="s">
-        <v>252</v>
+        <v>264</v>
       </c>
       <c r="C261" t="s">
-        <v>357</v>
+        <v>359</v>
       </c>
       <c r="D261" t="s">
-        <v>366</v>
+        <v>369</v>
       </c>
     </row>
     <row r="262" spans="1:4">
@@ -10165,13 +10165,13 @@
         <v>261</v>
       </c>
       <c r="B262" t="s">
-        <v>264</v>
+        <v>267</v>
       </c>
       <c r="C262" t="s">
-        <v>359</v>
+        <v>358</v>
       </c>
       <c r="D262" t="s">
-        <v>369</v>
+        <v>384</v>
       </c>
     </row>
     <row r="263" spans="1:4">
@@ -10179,13 +10179,13 @@
         <v>262</v>
       </c>
       <c r="B263" t="s">
-        <v>268</v>
+        <v>261</v>
       </c>
       <c r="C263" t="s">
-        <v>358</v>
+        <v>355</v>
       </c>
       <c r="D263" t="s">
-        <v>384</v>
+        <v>376</v>
       </c>
     </row>
     <row r="264" spans="1:4">
@@ -10193,7 +10193,7 @@
         <v>263</v>
       </c>
       <c r="B264" t="s">
-        <v>251</v>
+        <v>252</v>
       </c>
       <c r="C264" t="s">
         <v>354</v>
@@ -10207,7 +10207,7 @@
         <v>264</v>
       </c>
       <c r="B265" t="s">
-        <v>266</v>
+        <v>268</v>
       </c>
       <c r="C265" t="s">
         <v>355</v>
@@ -10221,13 +10221,13 @@
         <v>265</v>
       </c>
       <c r="B266" t="s">
-        <v>273</v>
+        <v>269</v>
       </c>
       <c r="C266" t="s">
         <v>359</v>
       </c>
       <c r="D266" t="s">
-        <v>366</v>
+        <v>376</v>
       </c>
     </row>
     <row r="267" spans="1:4">
@@ -10235,13 +10235,13 @@
         <v>266</v>
       </c>
       <c r="B267" t="s">
-        <v>271</v>
+        <v>273</v>
       </c>
       <c r="C267" t="s">
         <v>359</v>
       </c>
       <c r="D267" t="s">
-        <v>376</v>
+        <v>366</v>
       </c>
     </row>
     <row r="268" spans="1:4">
@@ -10263,7 +10263,7 @@
         <v>268</v>
       </c>
       <c r="B269" t="s">
-        <v>269</v>
+        <v>270</v>
       </c>
       <c r="C269" t="s">
         <v>355</v>
@@ -10305,7 +10305,7 @@
         <v>271</v>
       </c>
       <c r="B272" t="s">
-        <v>280</v>
+        <v>279</v>
       </c>
       <c r="C272" t="s">
         <v>358</v>
@@ -10319,7 +10319,7 @@
         <v>272</v>
       </c>
       <c r="B273" t="s">
-        <v>285</v>
+        <v>284</v>
       </c>
       <c r="C273" t="s">
         <v>358</v>
@@ -10375,13 +10375,13 @@
         <v>276</v>
       </c>
       <c r="B277" t="s">
-        <v>263</v>
+        <v>295</v>
       </c>
       <c r="C277" t="s">
-        <v>356</v>
+        <v>358</v>
       </c>
       <c r="D277" t="s">
-        <v>369</v>
+        <v>370</v>
       </c>
     </row>
     <row r="278" spans="1:4">
@@ -10389,13 +10389,13 @@
         <v>277</v>
       </c>
       <c r="B278" t="s">
-        <v>296</v>
+        <v>263</v>
       </c>
       <c r="C278" t="s">
-        <v>358</v>
+        <v>356</v>
       </c>
       <c r="D278" t="s">
-        <v>370</v>
+        <v>369</v>
       </c>
     </row>
     <row r="279" spans="1:4">
@@ -10431,7 +10431,7 @@
         <v>280</v>
       </c>
       <c r="B281" t="s">
-        <v>310</v>
+        <v>309</v>
       </c>
       <c r="C281" t="s">
         <v>358</v>
@@ -10459,13 +10459,13 @@
         <v>282</v>
       </c>
       <c r="B283" t="s">
-        <v>292</v>
+        <v>297</v>
       </c>
       <c r="C283" t="s">
-        <v>354</v>
+        <v>359</v>
       </c>
       <c r="D283" t="s">
-        <v>375</v>
+        <v>362</v>
       </c>
     </row>
     <row r="284" spans="1:4">
@@ -10473,13 +10473,13 @@
         <v>283</v>
       </c>
       <c r="B284" t="s">
-        <v>297</v>
+        <v>304</v>
       </c>
       <c r="C284" t="s">
-        <v>359</v>
+        <v>358</v>
       </c>
       <c r="D284" t="s">
-        <v>362</v>
+        <v>388</v>
       </c>
     </row>
     <row r="285" spans="1:4">
@@ -10487,13 +10487,13 @@
         <v>284</v>
       </c>
       <c r="B285" t="s">
-        <v>306</v>
+        <v>292</v>
       </c>
       <c r="C285" t="s">
-        <v>358</v>
+        <v>354</v>
       </c>
       <c r="D285" t="s">
-        <v>388</v>
+        <v>375</v>
       </c>
     </row>
     <row r="286" spans="1:4">
@@ -10515,7 +10515,7 @@
         <v>286</v>
       </c>
       <c r="B287" t="s">
-        <v>295</v>
+        <v>296</v>
       </c>
       <c r="C287" t="s">
         <v>357</v>
@@ -10529,7 +10529,7 @@
         <v>287</v>
       </c>
       <c r="B288" t="s">
-        <v>279</v>
+        <v>280</v>
       </c>
       <c r="C288" t="s">
         <v>356</v>
@@ -10655,7 +10655,7 @@
         <v>296</v>
       </c>
       <c r="B297" t="s">
-        <v>284</v>
+        <v>285</v>
       </c>
       <c r="C297" t="s">
         <v>354</v>
@@ -10767,13 +10767,13 @@
         <v>304</v>
       </c>
       <c r="B305" t="s">
-        <v>313</v>
+        <v>319</v>
       </c>
       <c r="C305" t="s">
-        <v>355</v>
+        <v>358</v>
       </c>
       <c r="D305" t="s">
-        <v>372</v>
+        <v>386</v>
       </c>
     </row>
     <row r="306" spans="1:4">
@@ -10781,13 +10781,13 @@
         <v>305</v>
       </c>
       <c r="B306" t="s">
-        <v>309</v>
+        <v>313</v>
       </c>
       <c r="C306" t="s">
-        <v>354</v>
+        <v>355</v>
       </c>
       <c r="D306" t="s">
-        <v>368</v>
+        <v>372</v>
       </c>
     </row>
     <row r="307" spans="1:4">
@@ -10795,13 +10795,13 @@
         <v>306</v>
       </c>
       <c r="B307" t="s">
-        <v>319</v>
+        <v>310</v>
       </c>
       <c r="C307" t="s">
-        <v>358</v>
+        <v>354</v>
       </c>
       <c r="D307" t="s">
-        <v>386</v>
+        <v>368</v>
       </c>
     </row>
     <row r="308" spans="1:4">
@@ -10809,7 +10809,7 @@
         <v>307</v>
       </c>
       <c r="B308" t="s">
-        <v>305</v>
+        <v>306</v>
       </c>
       <c r="C308" t="s">
         <v>355</v>
@@ -10851,13 +10851,13 @@
         <v>310</v>
       </c>
       <c r="B311" t="s">
-        <v>315</v>
+        <v>299</v>
       </c>
       <c r="C311" t="s">
-        <v>354</v>
+        <v>356</v>
       </c>
       <c r="D311" t="s">
-        <v>362</v>
+        <v>379</v>
       </c>
     </row>
     <row r="312" spans="1:4">
@@ -10865,13 +10865,13 @@
         <v>311</v>
       </c>
       <c r="B312" t="s">
-        <v>299</v>
+        <v>315</v>
       </c>
       <c r="C312" t="s">
-        <v>356</v>
+        <v>354</v>
       </c>
       <c r="D312" t="s">
-        <v>379</v>
+        <v>362</v>
       </c>
     </row>
     <row r="313" spans="1:4">
@@ -10893,7 +10893,7 @@
         <v>313</v>
       </c>
       <c r="B314" t="s">
-        <v>304</v>
+        <v>305</v>
       </c>
       <c r="C314" t="s">
         <v>354</v>
@@ -11596,13 +11596,13 @@
         <v>11</v>
       </c>
       <c r="B12" t="s">
-        <v>15</v>
+        <v>17</v>
       </c>
       <c r="C12" t="s">
-        <v>355</v>
+        <v>356</v>
       </c>
       <c r="D12" t="s">
-        <v>365</v>
+        <v>371</v>
       </c>
     </row>
     <row r="13" spans="1:4">
@@ -11610,13 +11610,13 @@
         <v>12</v>
       </c>
       <c r="B13" t="s">
-        <v>17</v>
+        <v>15</v>
       </c>
       <c r="C13" t="s">
-        <v>356</v>
+        <v>355</v>
       </c>
       <c r="D13" t="s">
-        <v>371</v>
+        <v>365</v>
       </c>
     </row>
     <row r="14" spans="1:4">
@@ -11918,13 +11918,13 @@
         <v>34</v>
       </c>
       <c r="B35" t="s">
-        <v>41</v>
+        <v>35</v>
       </c>
       <c r="C35" t="s">
-        <v>354</v>
+        <v>357</v>
       </c>
       <c r="D35" t="s">
-        <v>386</v>
+        <v>374</v>
       </c>
     </row>
     <row r="36" spans="1:4">
@@ -11932,13 +11932,13 @@
         <v>35</v>
       </c>
       <c r="B36" t="s">
-        <v>35</v>
+        <v>41</v>
       </c>
       <c r="C36" t="s">
-        <v>357</v>
+        <v>354</v>
       </c>
       <c r="D36" t="s">
-        <v>374</v>
+        <v>386</v>
       </c>
     </row>
     <row r="37" spans="1:4">
@@ -11988,13 +11988,13 @@
         <v>39</v>
       </c>
       <c r="B40" t="s">
-        <v>48</v>
+        <v>44</v>
       </c>
       <c r="C40" t="s">
-        <v>355</v>
+        <v>354</v>
       </c>
       <c r="D40" t="s">
-        <v>380</v>
+        <v>387</v>
       </c>
     </row>
     <row r="41" spans="1:4">
@@ -12002,13 +12002,13 @@
         <v>40</v>
       </c>
       <c r="B41" t="s">
-        <v>44</v>
+        <v>48</v>
       </c>
       <c r="C41" t="s">
-        <v>354</v>
+        <v>355</v>
       </c>
       <c r="D41" t="s">
-        <v>387</v>
+        <v>380</v>
       </c>
     </row>
     <row r="42" spans="1:4">
@@ -12058,13 +12058,13 @@
         <v>44</v>
       </c>
       <c r="B45" t="s">
-        <v>45</v>
+        <v>51</v>
       </c>
       <c r="C45" t="s">
-        <v>354</v>
+        <v>355</v>
       </c>
       <c r="D45" t="s">
-        <v>388</v>
+        <v>368</v>
       </c>
     </row>
     <row r="46" spans="1:4">
@@ -12072,13 +12072,13 @@
         <v>45</v>
       </c>
       <c r="B46" t="s">
-        <v>51</v>
+        <v>45</v>
       </c>
       <c r="C46" t="s">
-        <v>355</v>
+        <v>354</v>
       </c>
       <c r="D46" t="s">
-        <v>368</v>
+        <v>388</v>
       </c>
     </row>
     <row r="47" spans="1:4">
@@ -12086,7 +12086,7 @@
         <v>46</v>
       </c>
       <c r="B47" t="s">
-        <v>52</v>
+        <v>53</v>
       </c>
       <c r="C47" t="s">
         <v>354</v>
@@ -12114,13 +12114,13 @@
         <v>48</v>
       </c>
       <c r="B49" t="s">
-        <v>47</v>
+        <v>57</v>
       </c>
       <c r="C49" t="s">
-        <v>354</v>
+        <v>357</v>
       </c>
       <c r="D49" t="s">
-        <v>368</v>
+        <v>373</v>
       </c>
     </row>
     <row r="50" spans="1:4">
@@ -12128,13 +12128,13 @@
         <v>49</v>
       </c>
       <c r="B50" t="s">
-        <v>57</v>
+        <v>47</v>
       </c>
       <c r="C50" t="s">
-        <v>357</v>
+        <v>354</v>
       </c>
       <c r="D50" t="s">
-        <v>373</v>
+        <v>368</v>
       </c>
     </row>
     <row r="51" spans="1:4">
@@ -12184,7 +12184,7 @@
         <v>53</v>
       </c>
       <c r="B54" t="s">
-        <v>53</v>
+        <v>52</v>
       </c>
       <c r="C54" t="s">
         <v>356</v>
@@ -12226,13 +12226,13 @@
         <v>56</v>
       </c>
       <c r="B57" t="s">
-        <v>61</v>
+        <v>60</v>
       </c>
       <c r="C57" t="s">
-        <v>355</v>
+        <v>354</v>
       </c>
       <c r="D57" t="s">
-        <v>387</v>
+        <v>375</v>
       </c>
     </row>
     <row r="58" spans="1:4">
@@ -12240,13 +12240,13 @@
         <v>57</v>
       </c>
       <c r="B58" t="s">
-        <v>60</v>
+        <v>61</v>
       </c>
       <c r="C58" t="s">
-        <v>354</v>
+        <v>355</v>
       </c>
       <c r="D58" t="s">
-        <v>375</v>
+        <v>387</v>
       </c>
     </row>
     <row r="59" spans="1:4">
@@ -12268,7 +12268,7 @@
         <v>59</v>
       </c>
       <c r="B60" t="s">
-        <v>67</v>
+        <v>68</v>
       </c>
       <c r="C60" t="s">
         <v>355</v>
@@ -12324,7 +12324,7 @@
         <v>63</v>
       </c>
       <c r="B64" t="s">
-        <v>68</v>
+        <v>67</v>
       </c>
       <c r="C64" t="s">
         <v>354</v>
@@ -12338,13 +12338,13 @@
         <v>64</v>
       </c>
       <c r="B65" t="s">
-        <v>62</v>
+        <v>64</v>
       </c>
       <c r="C65" t="s">
-        <v>354</v>
+        <v>357</v>
       </c>
       <c r="D65" t="s">
-        <v>373</v>
+        <v>383</v>
       </c>
     </row>
     <row r="66" spans="1:4">
@@ -12352,13 +12352,13 @@
         <v>65</v>
       </c>
       <c r="B66" t="s">
-        <v>64</v>
+        <v>66</v>
       </c>
       <c r="C66" t="s">
         <v>357</v>
       </c>
       <c r="D66" t="s">
-        <v>383</v>
+        <v>382</v>
       </c>
     </row>
     <row r="67" spans="1:4">
@@ -12366,13 +12366,13 @@
         <v>66</v>
       </c>
       <c r="B67" t="s">
-        <v>66</v>
+        <v>74</v>
       </c>
       <c r="C67" t="s">
-        <v>357</v>
+        <v>355</v>
       </c>
       <c r="D67" t="s">
-        <v>382</v>
+        <v>371</v>
       </c>
     </row>
     <row r="68" spans="1:4">
@@ -12394,13 +12394,13 @@
         <v>68</v>
       </c>
       <c r="B69" t="s">
-        <v>74</v>
+        <v>62</v>
       </c>
       <c r="C69" t="s">
-        <v>355</v>
+        <v>354</v>
       </c>
       <c r="D69" t="s">
-        <v>371</v>
+        <v>373</v>
       </c>
     </row>
     <row r="70" spans="1:4">
@@ -12422,13 +12422,13 @@
         <v>70</v>
       </c>
       <c r="B71" t="s">
-        <v>69</v>
+        <v>46</v>
       </c>
       <c r="C71" t="s">
-        <v>354</v>
+        <v>355</v>
       </c>
       <c r="D71" t="s">
-        <v>390</v>
+        <v>374</v>
       </c>
     </row>
     <row r="72" spans="1:4">
@@ -12436,13 +12436,13 @@
         <v>71</v>
       </c>
       <c r="B72" t="s">
-        <v>46</v>
+        <v>71</v>
       </c>
       <c r="C72" t="s">
-        <v>355</v>
+        <v>354</v>
       </c>
       <c r="D72" t="s">
-        <v>374</v>
+        <v>390</v>
       </c>
     </row>
     <row r="73" spans="1:4">
@@ -12450,7 +12450,7 @@
         <v>72</v>
       </c>
       <c r="B73" t="s">
-        <v>96</v>
+        <v>95</v>
       </c>
       <c r="C73" t="s">
         <v>354</v>
@@ -12464,13 +12464,13 @@
         <v>73</v>
       </c>
       <c r="B74" t="s">
-        <v>71</v>
+        <v>96</v>
       </c>
       <c r="C74" t="s">
-        <v>355</v>
+        <v>354</v>
       </c>
       <c r="D74" t="s">
-        <v>388</v>
+        <v>367</v>
       </c>
     </row>
     <row r="75" spans="1:4">
@@ -12478,13 +12478,13 @@
         <v>74</v>
       </c>
       <c r="B75" t="s">
-        <v>97</v>
+        <v>70</v>
       </c>
       <c r="C75" t="s">
-        <v>354</v>
+        <v>355</v>
       </c>
       <c r="D75" t="s">
-        <v>367</v>
+        <v>388</v>
       </c>
     </row>
     <row r="76" spans="1:4">
@@ -12492,7 +12492,7 @@
         <v>75</v>
       </c>
       <c r="B76" t="s">
-        <v>77</v>
+        <v>76</v>
       </c>
       <c r="C76" t="s">
         <v>355</v>
@@ -12506,13 +12506,13 @@
         <v>76</v>
       </c>
       <c r="B77" t="s">
-        <v>87</v>
+        <v>79</v>
       </c>
       <c r="C77" t="s">
-        <v>354</v>
+        <v>357</v>
       </c>
       <c r="D77" t="s">
-        <v>391</v>
+        <v>365</v>
       </c>
     </row>
     <row r="78" spans="1:4">
@@ -12520,13 +12520,13 @@
         <v>77</v>
       </c>
       <c r="B78" t="s">
-        <v>79</v>
+        <v>78</v>
       </c>
       <c r="C78" t="s">
-        <v>357</v>
+        <v>355</v>
       </c>
       <c r="D78" t="s">
-        <v>365</v>
+        <v>363</v>
       </c>
     </row>
     <row r="79" spans="1:4">
@@ -12534,13 +12534,13 @@
         <v>78</v>
       </c>
       <c r="B79" t="s">
-        <v>78</v>
+        <v>75</v>
       </c>
       <c r="C79" t="s">
-        <v>355</v>
+        <v>356</v>
       </c>
       <c r="D79" t="s">
-        <v>363</v>
+        <v>383</v>
       </c>
     </row>
     <row r="80" spans="1:4">
@@ -12548,13 +12548,13 @@
         <v>79</v>
       </c>
       <c r="B80" t="s">
-        <v>75</v>
+        <v>87</v>
       </c>
       <c r="C80" t="s">
-        <v>356</v>
+        <v>354</v>
       </c>
       <c r="D80" t="s">
-        <v>383</v>
+        <v>391</v>
       </c>
     </row>
     <row r="81" spans="1:4">
@@ -12562,7 +12562,7 @@
         <v>80</v>
       </c>
       <c r="B81" t="s">
-        <v>76</v>
+        <v>77</v>
       </c>
       <c r="C81" t="s">
         <v>354</v>
@@ -12576,13 +12576,13 @@
         <v>81</v>
       </c>
       <c r="B82" t="s">
-        <v>100</v>
+        <v>84</v>
       </c>
       <c r="C82" t="s">
         <v>354</v>
       </c>
       <c r="D82" t="s">
-        <v>381</v>
+        <v>383</v>
       </c>
     </row>
     <row r="83" spans="1:4">
@@ -12590,13 +12590,13 @@
         <v>82</v>
       </c>
       <c r="B83" t="s">
-        <v>84</v>
+        <v>69</v>
       </c>
       <c r="C83" t="s">
         <v>354</v>
       </c>
       <c r="D83" t="s">
-        <v>383</v>
+        <v>391</v>
       </c>
     </row>
     <row r="84" spans="1:4">
@@ -12604,13 +12604,13 @@
         <v>83</v>
       </c>
       <c r="B84" t="s">
-        <v>70</v>
+        <v>100</v>
       </c>
       <c r="C84" t="s">
         <v>354</v>
       </c>
       <c r="D84" t="s">
-        <v>391</v>
+        <v>381</v>
       </c>
     </row>
     <row r="85" spans="1:4">
@@ -12660,7 +12660,7 @@
         <v>87</v>
       </c>
       <c r="B88" t="s">
-        <v>95</v>
+        <v>94</v>
       </c>
       <c r="C88" t="s">
         <v>354</v>
@@ -12716,7 +12716,7 @@
         <v>91</v>
       </c>
       <c r="B92" t="s">
-        <v>94</v>
+        <v>93</v>
       </c>
       <c r="C92" t="s">
         <v>357</v>
@@ -12758,7 +12758,7 @@
         <v>94</v>
       </c>
       <c r="B95" t="s">
-        <v>92</v>
+        <v>97</v>
       </c>
       <c r="C95" t="s">
         <v>355</v>
@@ -12828,7 +12828,7 @@
         <v>99</v>
       </c>
       <c r="B100" t="s">
-        <v>105</v>
+        <v>106</v>
       </c>
       <c r="C100" t="s">
         <v>357</v>
@@ -12842,7 +12842,7 @@
         <v>100</v>
       </c>
       <c r="B101" t="s">
-        <v>104</v>
+        <v>105</v>
       </c>
       <c r="C101" t="s">
         <v>357</v>
@@ -12856,7 +12856,7 @@
         <v>101</v>
       </c>
       <c r="B102" t="s">
-        <v>131</v>
+        <v>128</v>
       </c>
       <c r="C102" t="s">
         <v>354</v>
@@ -12898,13 +12898,13 @@
         <v>104</v>
       </c>
       <c r="B105" t="s">
-        <v>118</v>
+        <v>110</v>
       </c>
       <c r="C105" t="s">
         <v>354</v>
       </c>
       <c r="D105" t="s">
-        <v>374</v>
+        <v>368</v>
       </c>
     </row>
     <row r="106" spans="1:4">
@@ -12912,7 +12912,7 @@
         <v>105</v>
       </c>
       <c r="B106" t="s">
-        <v>93</v>
+        <v>92</v>
       </c>
       <c r="C106" t="s">
         <v>356</v>
@@ -12926,13 +12926,13 @@
         <v>106</v>
       </c>
       <c r="B107" t="s">
-        <v>112</v>
+        <v>114</v>
       </c>
       <c r="C107" t="s">
-        <v>354</v>
+        <v>356</v>
       </c>
       <c r="D107" t="s">
-        <v>368</v>
+        <v>387</v>
       </c>
     </row>
     <row r="108" spans="1:4">
@@ -12940,13 +12940,13 @@
         <v>107</v>
       </c>
       <c r="B108" t="s">
-        <v>114</v>
+        <v>104</v>
       </c>
       <c r="C108" t="s">
-        <v>356</v>
+        <v>355</v>
       </c>
       <c r="D108" t="s">
-        <v>387</v>
+        <v>382</v>
       </c>
     </row>
     <row r="109" spans="1:4">
@@ -12954,7 +12954,7 @@
         <v>108</v>
       </c>
       <c r="B109" t="s">
-        <v>108</v>
+        <v>107</v>
       </c>
       <c r="C109" t="s">
         <v>355</v>
@@ -12968,13 +12968,13 @@
         <v>109</v>
       </c>
       <c r="B110" t="s">
-        <v>106</v>
+        <v>118</v>
       </c>
       <c r="C110" t="s">
-        <v>355</v>
+        <v>354</v>
       </c>
       <c r="D110" t="s">
-        <v>382</v>
+        <v>374</v>
       </c>
     </row>
     <row r="111" spans="1:4">
@@ -13010,7 +13010,7 @@
         <v>112</v>
       </c>
       <c r="B113" t="s">
-        <v>107</v>
+        <v>108</v>
       </c>
       <c r="C113" t="s">
         <v>355</v>
@@ -13024,13 +13024,13 @@
         <v>113</v>
       </c>
       <c r="B114" t="s">
-        <v>110</v>
+        <v>111</v>
       </c>
       <c r="C114" t="s">
-        <v>354</v>
+        <v>357</v>
       </c>
       <c r="D114" t="s">
-        <v>389</v>
+        <v>375</v>
       </c>
     </row>
     <row r="115" spans="1:4">
@@ -13038,13 +13038,13 @@
         <v>114</v>
       </c>
       <c r="B115" t="s">
-        <v>113</v>
+        <v>112</v>
       </c>
       <c r="C115" t="s">
-        <v>357</v>
+        <v>354</v>
       </c>
       <c r="D115" t="s">
-        <v>375</v>
+        <v>389</v>
       </c>
     </row>
     <row r="116" spans="1:4">
@@ -13052,13 +13052,13 @@
         <v>115</v>
       </c>
       <c r="B116" t="s">
-        <v>111</v>
+        <v>123</v>
       </c>
       <c r="C116" t="s">
         <v>355</v>
       </c>
       <c r="D116" t="s">
-        <v>362</v>
+        <v>365</v>
       </c>
     </row>
     <row r="117" spans="1:4">
@@ -13066,13 +13066,13 @@
         <v>116</v>
       </c>
       <c r="B117" t="s">
-        <v>124</v>
+        <v>116</v>
       </c>
       <c r="C117" t="s">
         <v>355</v>
       </c>
       <c r="D117" t="s">
-        <v>365</v>
+        <v>387</v>
       </c>
     </row>
     <row r="118" spans="1:4">
@@ -13080,13 +13080,13 @@
         <v>117</v>
       </c>
       <c r="B118" t="s">
-        <v>116</v>
+        <v>113</v>
       </c>
       <c r="C118" t="s">
         <v>355</v>
       </c>
       <c r="D118" t="s">
-        <v>387</v>
+        <v>362</v>
       </c>
     </row>
     <row r="119" spans="1:4">
@@ -13094,7 +13094,7 @@
         <v>118</v>
       </c>
       <c r="B119" t="s">
-        <v>154</v>
+        <v>153</v>
       </c>
       <c r="C119" t="s">
         <v>354</v>
@@ -13122,13 +13122,13 @@
         <v>120</v>
       </c>
       <c r="B121" t="s">
-        <v>142</v>
+        <v>130</v>
       </c>
       <c r="C121" t="s">
-        <v>355</v>
+        <v>354</v>
       </c>
       <c r="D121" t="s">
-        <v>391</v>
+        <v>383</v>
       </c>
     </row>
     <row r="122" spans="1:4">
@@ -13136,13 +13136,13 @@
         <v>121</v>
       </c>
       <c r="B122" t="s">
-        <v>132</v>
+        <v>143</v>
       </c>
       <c r="C122" t="s">
-        <v>354</v>
+        <v>355</v>
       </c>
       <c r="D122" t="s">
-        <v>383</v>
+        <v>391</v>
       </c>
     </row>
     <row r="123" spans="1:4">
@@ -13150,7 +13150,7 @@
         <v>122</v>
       </c>
       <c r="B123" t="s">
-        <v>127</v>
+        <v>126</v>
       </c>
       <c r="C123" t="s">
         <v>354</v>
@@ -13164,13 +13164,13 @@
         <v>123</v>
       </c>
       <c r="B124" t="s">
-        <v>126</v>
+        <v>137</v>
       </c>
       <c r="C124" t="s">
         <v>355</v>
       </c>
       <c r="D124" t="s">
-        <v>388</v>
+        <v>379</v>
       </c>
     </row>
     <row r="125" spans="1:4">
@@ -13178,13 +13178,13 @@
         <v>124</v>
       </c>
       <c r="B125" t="s">
-        <v>139</v>
+        <v>127</v>
       </c>
       <c r="C125" t="s">
         <v>355</v>
       </c>
       <c r="D125" t="s">
-        <v>379</v>
+        <v>388</v>
       </c>
     </row>
     <row r="126" spans="1:4">
@@ -13192,7 +13192,7 @@
         <v>125</v>
       </c>
       <c r="B126" t="s">
-        <v>128</v>
+        <v>129</v>
       </c>
       <c r="C126" t="s">
         <v>355</v>
@@ -13206,7 +13206,7 @@
         <v>126</v>
       </c>
       <c r="B127" t="s">
-        <v>136</v>
+        <v>138</v>
       </c>
       <c r="C127" t="s">
         <v>355</v>
@@ -13234,10 +13234,10 @@
         <v>128</v>
       </c>
       <c r="B129" t="s">
-        <v>137</v>
+        <v>120</v>
       </c>
       <c r="C129" t="s">
-        <v>354</v>
+        <v>357</v>
       </c>
       <c r="D129" t="s">
         <v>387</v>
@@ -13248,10 +13248,10 @@
         <v>129</v>
       </c>
       <c r="B130" t="s">
-        <v>120</v>
+        <v>139</v>
       </c>
       <c r="C130" t="s">
-        <v>357</v>
+        <v>354</v>
       </c>
       <c r="D130" t="s">
         <v>387</v>
@@ -13262,13 +13262,13 @@
         <v>130</v>
       </c>
       <c r="B131" t="s">
-        <v>141</v>
+        <v>125</v>
       </c>
       <c r="C131" t="s">
-        <v>354</v>
+        <v>355</v>
       </c>
       <c r="D131" t="s">
-        <v>372</v>
+        <v>371</v>
       </c>
     </row>
     <row r="132" spans="1:4">
@@ -13276,13 +13276,13 @@
         <v>131</v>
       </c>
       <c r="B132" t="s">
-        <v>133</v>
+        <v>141</v>
       </c>
       <c r="C132" t="s">
         <v>354</v>
       </c>
       <c r="D132" t="s">
-        <v>380</v>
+        <v>372</v>
       </c>
     </row>
     <row r="133" spans="1:4">
@@ -13290,13 +13290,13 @@
         <v>132</v>
       </c>
       <c r="B133" t="s">
-        <v>125</v>
+        <v>133</v>
       </c>
       <c r="C133" t="s">
-        <v>355</v>
+        <v>354</v>
       </c>
       <c r="D133" t="s">
-        <v>371</v>
+        <v>380</v>
       </c>
     </row>
     <row r="134" spans="1:4">
@@ -13304,13 +13304,13 @@
         <v>133</v>
       </c>
       <c r="B134" t="s">
-        <v>157</v>
+        <v>119</v>
       </c>
       <c r="C134" t="s">
-        <v>355</v>
+        <v>356</v>
       </c>
       <c r="D134" t="s">
-        <v>382</v>
+        <v>391</v>
       </c>
     </row>
     <row r="135" spans="1:4">
@@ -13318,13 +13318,13 @@
         <v>134</v>
       </c>
       <c r="B135" t="s">
-        <v>129</v>
+        <v>157</v>
       </c>
       <c r="C135" t="s">
-        <v>356</v>
+        <v>355</v>
       </c>
       <c r="D135" t="s">
-        <v>363</v>
+        <v>382</v>
       </c>
     </row>
     <row r="136" spans="1:4">
@@ -13332,13 +13332,13 @@
         <v>135</v>
       </c>
       <c r="B136" t="s">
-        <v>119</v>
+        <v>131</v>
       </c>
       <c r="C136" t="s">
         <v>356</v>
       </c>
       <c r="D136" t="s">
-        <v>391</v>
+        <v>363</v>
       </c>
     </row>
     <row r="137" spans="1:4">
@@ -13346,7 +13346,7 @@
         <v>136</v>
       </c>
       <c r="B137" t="s">
-        <v>130</v>
+        <v>132</v>
       </c>
       <c r="C137" t="s">
         <v>356</v>
@@ -13374,7 +13374,7 @@
         <v>138</v>
       </c>
       <c r="B139" t="s">
-        <v>146</v>
+        <v>144</v>
       </c>
       <c r="C139" t="s">
         <v>355</v>
@@ -13388,13 +13388,13 @@
         <v>139</v>
       </c>
       <c r="B140" t="s">
-        <v>149</v>
+        <v>156</v>
       </c>
       <c r="C140" t="s">
-        <v>354</v>
+        <v>355</v>
       </c>
       <c r="D140" t="s">
-        <v>379</v>
+        <v>369</v>
       </c>
     </row>
     <row r="141" spans="1:4">
@@ -13402,13 +13402,13 @@
         <v>140</v>
       </c>
       <c r="B141" t="s">
-        <v>134</v>
+        <v>149</v>
       </c>
       <c r="C141" t="s">
-        <v>356</v>
+        <v>354</v>
       </c>
       <c r="D141" t="s">
-        <v>377</v>
+        <v>379</v>
       </c>
     </row>
     <row r="142" spans="1:4">
@@ -13416,13 +13416,13 @@
         <v>141</v>
       </c>
       <c r="B142" t="s">
-        <v>156</v>
+        <v>134</v>
       </c>
       <c r="C142" t="s">
-        <v>355</v>
+        <v>356</v>
       </c>
       <c r="D142" t="s">
-        <v>369</v>
+        <v>377</v>
       </c>
     </row>
     <row r="143" spans="1:4">
@@ -13430,13 +13430,13 @@
         <v>142</v>
       </c>
       <c r="B143" t="s">
-        <v>153</v>
+        <v>140</v>
       </c>
       <c r="C143" t="s">
-        <v>355</v>
+        <v>356</v>
       </c>
       <c r="D143" t="s">
-        <v>385</v>
+        <v>380</v>
       </c>
     </row>
     <row r="144" spans="1:4">
@@ -13444,13 +13444,13 @@
         <v>143</v>
       </c>
       <c r="B144" t="s">
-        <v>140</v>
+        <v>155</v>
       </c>
       <c r="C144" t="s">
-        <v>356</v>
+        <v>355</v>
       </c>
       <c r="D144" t="s">
-        <v>380</v>
+        <v>385</v>
       </c>
     </row>
     <row r="145" spans="1:4">
@@ -13458,7 +13458,7 @@
         <v>144</v>
       </c>
       <c r="B145" t="s">
-        <v>123</v>
+        <v>124</v>
       </c>
       <c r="C145" t="s">
         <v>357</v>
@@ -13472,7 +13472,7 @@
         <v>145</v>
       </c>
       <c r="B146" t="s">
-        <v>145</v>
+        <v>146</v>
       </c>
       <c r="C146" t="s">
         <v>355</v>
@@ -13486,7 +13486,7 @@
         <v>146</v>
       </c>
       <c r="B147" t="s">
-        <v>144</v>
+        <v>145</v>
       </c>
       <c r="C147" t="s">
         <v>355</v>
@@ -13514,7 +13514,7 @@
         <v>148</v>
       </c>
       <c r="B149" t="s">
-        <v>159</v>
+        <v>160</v>
       </c>
       <c r="C149" t="s">
         <v>355</v>
@@ -13556,7 +13556,7 @@
         <v>151</v>
       </c>
       <c r="B152" t="s">
-        <v>138</v>
+        <v>136</v>
       </c>
       <c r="C152" t="s">
         <v>357</v>
@@ -13598,7 +13598,7 @@
         <v>154</v>
       </c>
       <c r="B155" t="s">
-        <v>143</v>
+        <v>142</v>
       </c>
       <c r="C155" t="s">
         <v>357</v>
@@ -13612,7 +13612,7 @@
         <v>155</v>
       </c>
       <c r="B156" t="s">
-        <v>163</v>
+        <v>162</v>
       </c>
       <c r="C156" t="s">
         <v>356</v>
@@ -13626,7 +13626,7 @@
         <v>156</v>
       </c>
       <c r="B157" t="s">
-        <v>155</v>
+        <v>154</v>
       </c>
       <c r="C157" t="s">
         <v>358</v>
@@ -13640,7 +13640,7 @@
         <v>157</v>
       </c>
       <c r="B158" t="s">
-        <v>171</v>
+        <v>172</v>
       </c>
       <c r="C158" t="s">
         <v>355</v>
@@ -13654,7 +13654,7 @@
         <v>158</v>
       </c>
       <c r="B159" t="s">
-        <v>160</v>
+        <v>159</v>
       </c>
       <c r="C159" t="s">
         <v>358</v>
@@ -13668,13 +13668,13 @@
         <v>159</v>
       </c>
       <c r="B160" t="s">
-        <v>165</v>
+        <v>167</v>
       </c>
       <c r="C160" t="s">
-        <v>354</v>
+        <v>356</v>
       </c>
       <c r="D160" t="s">
-        <v>375</v>
+        <v>362</v>
       </c>
     </row>
     <row r="161" spans="1:4">
@@ -13682,13 +13682,13 @@
         <v>160</v>
       </c>
       <c r="B161" t="s">
-        <v>170</v>
+        <v>165</v>
       </c>
       <c r="C161" t="s">
-        <v>355</v>
+        <v>354</v>
       </c>
       <c r="D161" t="s">
-        <v>370</v>
+        <v>375</v>
       </c>
     </row>
     <row r="162" spans="1:4">
@@ -13696,13 +13696,13 @@
         <v>161</v>
       </c>
       <c r="B162" t="s">
-        <v>167</v>
+        <v>171</v>
       </c>
       <c r="C162" t="s">
-        <v>356</v>
+        <v>355</v>
       </c>
       <c r="D162" t="s">
-        <v>362</v>
+        <v>370</v>
       </c>
     </row>
     <row r="163" spans="1:4">
@@ -13738,7 +13738,7 @@
         <v>164</v>
       </c>
       <c r="B165" t="s">
-        <v>173</v>
+        <v>175</v>
       </c>
       <c r="C165" t="s">
         <v>355</v>
@@ -13766,13 +13766,13 @@
         <v>166</v>
       </c>
       <c r="B167" t="s">
-        <v>186</v>
+        <v>170</v>
       </c>
       <c r="C167" t="s">
-        <v>355</v>
+        <v>358</v>
       </c>
       <c r="D167" t="s">
-        <v>382</v>
+        <v>360</v>
       </c>
     </row>
     <row r="168" spans="1:4">
@@ -13780,13 +13780,13 @@
         <v>167</v>
       </c>
       <c r="B168" t="s">
-        <v>172</v>
+        <v>188</v>
       </c>
       <c r="C168" t="s">
-        <v>358</v>
+        <v>355</v>
       </c>
       <c r="D168" t="s">
-        <v>360</v>
+        <v>382</v>
       </c>
     </row>
     <row r="169" spans="1:4">
@@ -13836,7 +13836,7 @@
         <v>171</v>
       </c>
       <c r="B172" t="s">
-        <v>181</v>
+        <v>182</v>
       </c>
       <c r="C172" t="s">
         <v>354</v>
@@ -13850,13 +13850,13 @@
         <v>172</v>
       </c>
       <c r="B173" t="s">
-        <v>183</v>
+        <v>174</v>
       </c>
       <c r="C173" t="s">
-        <v>355</v>
+        <v>359</v>
       </c>
       <c r="D173" t="s">
-        <v>371</v>
+        <v>373</v>
       </c>
     </row>
     <row r="174" spans="1:4">
@@ -13864,13 +13864,13 @@
         <v>173</v>
       </c>
       <c r="B174" t="s">
-        <v>175</v>
+        <v>191</v>
       </c>
       <c r="C174" t="s">
-        <v>359</v>
+        <v>355</v>
       </c>
       <c r="D174" t="s">
-        <v>373</v>
+        <v>386</v>
       </c>
     </row>
     <row r="175" spans="1:4">
@@ -13892,13 +13892,13 @@
         <v>175</v>
       </c>
       <c r="B176" t="s">
-        <v>191</v>
+        <v>184</v>
       </c>
       <c r="C176" t="s">
         <v>355</v>
       </c>
       <c r="D176" t="s">
-        <v>386</v>
+        <v>371</v>
       </c>
     </row>
     <row r="177" spans="1:4">
@@ -13962,13 +13962,13 @@
         <v>180</v>
       </c>
       <c r="B181" t="s">
-        <v>202</v>
+        <v>181</v>
       </c>
       <c r="C181" t="s">
-        <v>354</v>
+        <v>356</v>
       </c>
       <c r="D181" t="s">
-        <v>382</v>
+        <v>365</v>
       </c>
     </row>
     <row r="182" spans="1:4">
@@ -13976,13 +13976,13 @@
         <v>181</v>
       </c>
       <c r="B182" t="s">
-        <v>182</v>
+        <v>203</v>
       </c>
       <c r="C182" t="s">
-        <v>356</v>
+        <v>354</v>
       </c>
       <c r="D182" t="s">
-        <v>365</v>
+        <v>382</v>
       </c>
     </row>
     <row r="183" spans="1:4">
@@ -13990,13 +13990,13 @@
         <v>182</v>
       </c>
       <c r="B183" t="s">
-        <v>194</v>
+        <v>187</v>
       </c>
       <c r="C183" t="s">
-        <v>355</v>
+        <v>359</v>
       </c>
       <c r="D183" t="s">
-        <v>378</v>
+        <v>374</v>
       </c>
     </row>
     <row r="184" spans="1:4">
@@ -14004,13 +14004,13 @@
         <v>183</v>
       </c>
       <c r="B184" t="s">
-        <v>188</v>
+        <v>161</v>
       </c>
       <c r="C184" t="s">
-        <v>359</v>
+        <v>357</v>
       </c>
       <c r="D184" t="s">
-        <v>374</v>
+        <v>370</v>
       </c>
     </row>
     <row r="185" spans="1:4">
@@ -14018,13 +14018,13 @@
         <v>184</v>
       </c>
       <c r="B185" t="s">
-        <v>161</v>
+        <v>194</v>
       </c>
       <c r="C185" t="s">
-        <v>357</v>
+        <v>355</v>
       </c>
       <c r="D185" t="s">
-        <v>370</v>
+        <v>378</v>
       </c>
     </row>
     <row r="186" spans="1:4">
@@ -14046,7 +14046,7 @@
         <v>186</v>
       </c>
       <c r="B187" t="s">
-        <v>162</v>
+        <v>163</v>
       </c>
       <c r="C187" t="s">
         <v>357</v>
@@ -14060,13 +14060,13 @@
         <v>187</v>
       </c>
       <c r="B188" t="s">
-        <v>193</v>
+        <v>183</v>
       </c>
       <c r="C188" t="s">
-        <v>355</v>
+        <v>356</v>
       </c>
       <c r="D188" t="s">
-        <v>376</v>
+        <v>385</v>
       </c>
     </row>
     <row r="189" spans="1:4">
@@ -14074,13 +14074,13 @@
         <v>188</v>
       </c>
       <c r="B189" t="s">
-        <v>184</v>
+        <v>198</v>
       </c>
       <c r="C189" t="s">
-        <v>356</v>
+        <v>355</v>
       </c>
       <c r="D189" t="s">
-        <v>385</v>
+        <v>368</v>
       </c>
     </row>
     <row r="190" spans="1:4">
@@ -14088,13 +14088,13 @@
         <v>189</v>
       </c>
       <c r="B190" t="s">
-        <v>197</v>
+        <v>193</v>
       </c>
       <c r="C190" t="s">
         <v>355</v>
       </c>
       <c r="D190" t="s">
-        <v>368</v>
+        <v>376</v>
       </c>
     </row>
     <row r="191" spans="1:4">
@@ -14102,13 +14102,13 @@
         <v>190</v>
       </c>
       <c r="B191" t="s">
-        <v>199</v>
+        <v>197</v>
       </c>
       <c r="C191" t="s">
-        <v>355</v>
+        <v>359</v>
       </c>
       <c r="D191" t="s">
-        <v>376</v>
+        <v>368</v>
       </c>
     </row>
     <row r="192" spans="1:4">
@@ -14116,13 +14116,13 @@
         <v>191</v>
       </c>
       <c r="B192" t="s">
-        <v>198</v>
+        <v>199</v>
       </c>
       <c r="C192" t="s">
-        <v>359</v>
+        <v>355</v>
       </c>
       <c r="D192" t="s">
-        <v>368</v>
+        <v>376</v>
       </c>
     </row>
     <row r="193" spans="1:4">
@@ -14144,7 +14144,7 @@
         <v>193</v>
       </c>
       <c r="B194" t="s">
-        <v>206</v>
+        <v>208</v>
       </c>
       <c r="C194" t="s">
         <v>354</v>
@@ -14158,13 +14158,13 @@
         <v>194</v>
       </c>
       <c r="B195" t="s">
-        <v>209</v>
+        <v>201</v>
       </c>
       <c r="C195" t="s">
-        <v>355</v>
+        <v>358</v>
       </c>
       <c r="D195" t="s">
-        <v>377</v>
+        <v>378</v>
       </c>
     </row>
     <row r="196" spans="1:4">
@@ -14172,13 +14172,13 @@
         <v>195</v>
       </c>
       <c r="B196" t="s">
-        <v>205</v>
+        <v>209</v>
       </c>
       <c r="C196" t="s">
         <v>355</v>
       </c>
       <c r="D196" t="s">
-        <v>372</v>
+        <v>377</v>
       </c>
     </row>
     <row r="197" spans="1:4">
@@ -14186,13 +14186,13 @@
         <v>196</v>
       </c>
       <c r="B197" t="s">
-        <v>215</v>
+        <v>207</v>
       </c>
       <c r="C197" t="s">
         <v>355</v>
       </c>
       <c r="D197" t="s">
-        <v>360</v>
+        <v>372</v>
       </c>
     </row>
     <row r="198" spans="1:4">
@@ -14200,13 +14200,13 @@
         <v>197</v>
       </c>
       <c r="B198" t="s">
-        <v>203</v>
+        <v>215</v>
       </c>
       <c r="C198" t="s">
-        <v>358</v>
+        <v>355</v>
       </c>
       <c r="D198" t="s">
-        <v>378</v>
+        <v>360</v>
       </c>
     </row>
     <row r="199" spans="1:4">
@@ -14256,7 +14256,7 @@
         <v>201</v>
       </c>
       <c r="B202" t="s">
-        <v>207</v>
+        <v>205</v>
       </c>
       <c r="C202" t="s">
         <v>359</v>
@@ -14270,7 +14270,7 @@
         <v>202</v>
       </c>
       <c r="B203" t="s">
-        <v>208</v>
+        <v>206</v>
       </c>
       <c r="C203" t="s">
         <v>358</v>
@@ -14326,13 +14326,13 @@
         <v>206</v>
       </c>
       <c r="B207" t="s">
-        <v>233</v>
+        <v>214</v>
       </c>
       <c r="C207" t="s">
-        <v>354</v>
+        <v>358</v>
       </c>
       <c r="D207" t="s">
-        <v>371</v>
+        <v>380</v>
       </c>
     </row>
     <row r="208" spans="1:4">
@@ -14340,13 +14340,13 @@
         <v>207</v>
       </c>
       <c r="B208" t="s">
-        <v>226</v>
+        <v>233</v>
       </c>
       <c r="C208" t="s">
         <v>354</v>
       </c>
       <c r="D208" t="s">
-        <v>390</v>
+        <v>371</v>
       </c>
     </row>
     <row r="209" spans="1:4">
@@ -14354,13 +14354,13 @@
         <v>208</v>
       </c>
       <c r="B209" t="s">
-        <v>214</v>
+        <v>226</v>
       </c>
       <c r="C209" t="s">
-        <v>358</v>
+        <v>354</v>
       </c>
       <c r="D209" t="s">
-        <v>380</v>
+        <v>390</v>
       </c>
     </row>
     <row r="210" spans="1:4">
@@ -14438,13 +14438,13 @@
         <v>214</v>
       </c>
       <c r="B215" t="s">
-        <v>210</v>
+        <v>217</v>
       </c>
       <c r="C215" t="s">
-        <v>354</v>
+        <v>359</v>
       </c>
       <c r="D215" t="s">
-        <v>364</v>
+        <v>371</v>
       </c>
     </row>
     <row r="216" spans="1:4">
@@ -14452,13 +14452,13 @@
         <v>215</v>
       </c>
       <c r="B216" t="s">
-        <v>201</v>
+        <v>210</v>
       </c>
       <c r="C216" t="s">
         <v>354</v>
       </c>
       <c r="D216" t="s">
-        <v>373</v>
+        <v>364</v>
       </c>
     </row>
     <row r="217" spans="1:4">
@@ -14466,13 +14466,13 @@
         <v>216</v>
       </c>
       <c r="B217" t="s">
-        <v>217</v>
+        <v>202</v>
       </c>
       <c r="C217" t="s">
-        <v>359</v>
+        <v>354</v>
       </c>
       <c r="D217" t="s">
-        <v>371</v>
+        <v>373</v>
       </c>
     </row>
     <row r="218" spans="1:4">
@@ -14494,7 +14494,7 @@
         <v>218</v>
       </c>
       <c r="B219" t="s">
-        <v>174</v>
+        <v>173</v>
       </c>
       <c r="C219" t="s">
         <v>357</v>
@@ -14508,7 +14508,7 @@
         <v>219</v>
       </c>
       <c r="B220" t="s">
-        <v>222</v>
+        <v>221</v>
       </c>
       <c r="C220" t="s">
         <v>359</v>
@@ -14522,10 +14522,10 @@
         <v>220</v>
       </c>
       <c r="B221" t="s">
-        <v>236</v>
+        <v>223</v>
       </c>
       <c r="C221" t="s">
-        <v>354</v>
+        <v>358</v>
       </c>
       <c r="D221" t="s">
         <v>373</v>
@@ -14536,13 +14536,13 @@
         <v>221</v>
       </c>
       <c r="B222" t="s">
-        <v>223</v>
+        <v>224</v>
       </c>
       <c r="C222" t="s">
         <v>358</v>
       </c>
       <c r="D222" t="s">
-        <v>373</v>
+        <v>367</v>
       </c>
     </row>
     <row r="223" spans="1:4">
@@ -14550,13 +14550,13 @@
         <v>222</v>
       </c>
       <c r="B223" t="s">
-        <v>224</v>
+        <v>236</v>
       </c>
       <c r="C223" t="s">
-        <v>358</v>
+        <v>354</v>
       </c>
       <c r="D223" t="s">
-        <v>367</v>
+        <v>373</v>
       </c>
     </row>
     <row r="224" spans="1:4">
@@ -14564,13 +14564,13 @@
         <v>223</v>
       </c>
       <c r="B224" t="s">
-        <v>242</v>
+        <v>225</v>
       </c>
       <c r="C224" t="s">
-        <v>355</v>
+        <v>358</v>
       </c>
       <c r="D224" t="s">
-        <v>374</v>
+        <v>383</v>
       </c>
     </row>
     <row r="225" spans="1:4">
@@ -14578,13 +14578,13 @@
         <v>224</v>
       </c>
       <c r="B225" t="s">
-        <v>238</v>
+        <v>242</v>
       </c>
       <c r="C225" t="s">
         <v>355</v>
       </c>
       <c r="D225" t="s">
-        <v>367</v>
+        <v>374</v>
       </c>
     </row>
     <row r="226" spans="1:4">
@@ -14592,13 +14592,13 @@
         <v>225</v>
       </c>
       <c r="B226" t="s">
-        <v>225</v>
+        <v>239</v>
       </c>
       <c r="C226" t="s">
-        <v>358</v>
+        <v>355</v>
       </c>
       <c r="D226" t="s">
-        <v>383</v>
+        <v>367</v>
       </c>
     </row>
     <row r="227" spans="1:4">
@@ -14634,7 +14634,7 @@
         <v>228</v>
       </c>
       <c r="B229" t="s">
-        <v>245</v>
+        <v>246</v>
       </c>
       <c r="C229" t="s">
         <v>355</v>
@@ -14648,13 +14648,13 @@
         <v>229</v>
       </c>
       <c r="B230" t="s">
-        <v>221</v>
+        <v>230</v>
       </c>
       <c r="C230" t="s">
-        <v>354</v>
+        <v>358</v>
       </c>
       <c r="D230" t="s">
-        <v>371</v>
+        <v>366</v>
       </c>
     </row>
     <row r="231" spans="1:4">
@@ -14662,13 +14662,13 @@
         <v>230</v>
       </c>
       <c r="B231" t="s">
-        <v>230</v>
+        <v>222</v>
       </c>
       <c r="C231" t="s">
-        <v>358</v>
+        <v>354</v>
       </c>
       <c r="D231" t="s">
-        <v>366</v>
+        <v>371</v>
       </c>
     </row>
     <row r="232" spans="1:4">
@@ -14732,13 +14732,13 @@
         <v>235</v>
       </c>
       <c r="B236" t="s">
-        <v>240</v>
+        <v>186</v>
       </c>
       <c r="C236" t="s">
-        <v>355</v>
+        <v>357</v>
       </c>
       <c r="D236" t="s">
-        <v>391</v>
+        <v>390</v>
       </c>
     </row>
     <row r="237" spans="1:4">
@@ -14746,13 +14746,13 @@
         <v>236</v>
       </c>
       <c r="B237" t="s">
-        <v>187</v>
+        <v>241</v>
       </c>
       <c r="C237" t="s">
-        <v>357</v>
+        <v>355</v>
       </c>
       <c r="D237" t="s">
-        <v>390</v>
+        <v>391</v>
       </c>
     </row>
     <row r="238" spans="1:4">
@@ -14788,13 +14788,13 @@
         <v>239</v>
       </c>
       <c r="B240" t="s">
-        <v>239</v>
+        <v>240</v>
       </c>
       <c r="C240" t="s">
         <v>354</v>
       </c>
       <c r="D240" t="s">
-        <v>392</v>
+        <v>390</v>
       </c>
     </row>
     <row r="241" spans="1:4">
@@ -14802,7 +14802,7 @@
         <v>240</v>
       </c>
       <c r="B241" t="s">
-        <v>241</v>
+        <v>238</v>
       </c>
       <c r="C241" t="s">
         <v>359</v>
@@ -14816,7 +14816,7 @@
         <v>241</v>
       </c>
       <c r="B242" t="s">
-        <v>246</v>
+        <v>244</v>
       </c>
       <c r="C242" t="s">
         <v>359</v>
@@ -14844,7 +14844,7 @@
         <v>243</v>
       </c>
       <c r="B244" t="s">
-        <v>244</v>
+        <v>245</v>
       </c>
       <c r="C244" t="s">
         <v>354</v>
@@ -14900,7 +14900,7 @@
         <v>247</v>
       </c>
       <c r="B248" t="s">
-        <v>270</v>
+        <v>271</v>
       </c>
       <c r="C248" t="s">
         <v>355</v>
@@ -14914,13 +14914,13 @@
         <v>248</v>
       </c>
       <c r="B249" t="s">
-        <v>253</v>
+        <v>255</v>
       </c>
       <c r="C249" t="s">
-        <v>358</v>
+        <v>359</v>
       </c>
       <c r="D249" t="s">
-        <v>365</v>
+        <v>361</v>
       </c>
     </row>
     <row r="250" spans="1:4">
@@ -14928,13 +14928,13 @@
         <v>249</v>
       </c>
       <c r="B250" t="s">
-        <v>255</v>
+        <v>253</v>
       </c>
       <c r="C250" t="s">
-        <v>359</v>
+        <v>358</v>
       </c>
       <c r="D250" t="s">
-        <v>361</v>
+        <v>365</v>
       </c>
     </row>
     <row r="251" spans="1:4">
@@ -14956,13 +14956,13 @@
         <v>251</v>
       </c>
       <c r="B252" t="s">
-        <v>265</v>
+        <v>256</v>
       </c>
       <c r="C252" t="s">
-        <v>355</v>
+        <v>358</v>
       </c>
       <c r="D252" t="s">
-        <v>384</v>
+        <v>362</v>
       </c>
     </row>
     <row r="253" spans="1:4">
@@ -14970,13 +14970,13 @@
         <v>252</v>
       </c>
       <c r="B253" t="s">
-        <v>256</v>
+        <v>265</v>
       </c>
       <c r="C253" t="s">
-        <v>358</v>
+        <v>355</v>
       </c>
       <c r="D253" t="s">
-        <v>362</v>
+        <v>384</v>
       </c>
     </row>
     <row r="254" spans="1:4">
@@ -15026,13 +15026,13 @@
         <v>256</v>
       </c>
       <c r="B257" t="s">
-        <v>262</v>
+        <v>259</v>
       </c>
       <c r="C257" t="s">
-        <v>355</v>
+        <v>359</v>
       </c>
       <c r="D257" t="s">
-        <v>387</v>
+        <v>364</v>
       </c>
     </row>
     <row r="258" spans="1:4">
@@ -15040,13 +15040,13 @@
         <v>257</v>
       </c>
       <c r="B258" t="s">
-        <v>259</v>
+        <v>262</v>
       </c>
       <c r="C258" t="s">
-        <v>359</v>
+        <v>355</v>
       </c>
       <c r="D258" t="s">
-        <v>364</v>
+        <v>387</v>
       </c>
     </row>
     <row r="259" spans="1:4">
@@ -15054,7 +15054,7 @@
         <v>258</v>
       </c>
       <c r="B259" t="s">
-        <v>251</v>
+        <v>252</v>
       </c>
       <c r="C259" t="s">
         <v>354</v>
@@ -15068,13 +15068,13 @@
         <v>259</v>
       </c>
       <c r="B260" t="s">
-        <v>260</v>
+        <v>220</v>
       </c>
       <c r="C260" t="s">
-        <v>356</v>
+        <v>357</v>
       </c>
       <c r="D260" t="s">
-        <v>379</v>
+        <v>381</v>
       </c>
     </row>
     <row r="261" spans="1:4">
@@ -15082,13 +15082,13 @@
         <v>260</v>
       </c>
       <c r="B261" t="s">
-        <v>220</v>
+        <v>260</v>
       </c>
       <c r="C261" t="s">
-        <v>357</v>
+        <v>356</v>
       </c>
       <c r="D261" t="s">
-        <v>381</v>
+        <v>379</v>
       </c>
     </row>
     <row r="262" spans="1:4">
@@ -15096,7 +15096,7 @@
         <v>261</v>
       </c>
       <c r="B262" t="s">
-        <v>269</v>
+        <v>270</v>
       </c>
       <c r="C262" t="s">
         <v>355</v>
@@ -15124,7 +15124,7 @@
         <v>263</v>
       </c>
       <c r="B264" t="s">
-        <v>266</v>
+        <v>268</v>
       </c>
       <c r="C264" t="s">
         <v>355</v>
@@ -15152,7 +15152,7 @@
         <v>265</v>
       </c>
       <c r="B266" t="s">
-        <v>267</v>
+        <v>266</v>
       </c>
       <c r="C266" t="s">
         <v>358</v>
@@ -15166,7 +15166,7 @@
         <v>266</v>
       </c>
       <c r="B267" t="s">
-        <v>268</v>
+        <v>267</v>
       </c>
       <c r="C267" t="s">
         <v>358</v>
@@ -15222,7 +15222,7 @@
         <v>270</v>
       </c>
       <c r="B271" t="s">
-        <v>271</v>
+        <v>269</v>
       </c>
       <c r="C271" t="s">
         <v>359</v>
@@ -15292,7 +15292,7 @@
         <v>275</v>
       </c>
       <c r="B276" t="s">
-        <v>279</v>
+        <v>280</v>
       </c>
       <c r="C276" t="s">
         <v>356</v>
@@ -15334,7 +15334,7 @@
         <v>278</v>
       </c>
       <c r="B279" t="s">
-        <v>280</v>
+        <v>279</v>
       </c>
       <c r="C279" t="s">
         <v>358</v>
@@ -15362,7 +15362,7 @@
         <v>280</v>
       </c>
       <c r="B281" t="s">
-        <v>285</v>
+        <v>284</v>
       </c>
       <c r="C281" t="s">
         <v>358</v>
@@ -15418,7 +15418,7 @@
         <v>284</v>
       </c>
       <c r="B285" t="s">
-        <v>252</v>
+        <v>251</v>
       </c>
       <c r="C285" t="s">
         <v>357</v>
@@ -15446,7 +15446,7 @@
         <v>286</v>
       </c>
       <c r="B287" t="s">
-        <v>284</v>
+        <v>285</v>
       </c>
       <c r="C287" t="s">
         <v>354</v>
@@ -15488,13 +15488,13 @@
         <v>289</v>
       </c>
       <c r="B290" t="s">
-        <v>303</v>
+        <v>295</v>
       </c>
       <c r="C290" t="s">
-        <v>355</v>
+        <v>358</v>
       </c>
       <c r="D290" t="s">
-        <v>383</v>
+        <v>370</v>
       </c>
     </row>
     <row r="291" spans="1:4">
@@ -15502,13 +15502,13 @@
         <v>290</v>
       </c>
       <c r="B291" t="s">
-        <v>294</v>
+        <v>303</v>
       </c>
       <c r="C291" t="s">
-        <v>356</v>
+        <v>355</v>
       </c>
       <c r="D291" t="s">
-        <v>382</v>
+        <v>383</v>
       </c>
     </row>
     <row r="292" spans="1:4">
@@ -15516,13 +15516,13 @@
         <v>291</v>
       </c>
       <c r="B292" t="s">
-        <v>296</v>
+        <v>294</v>
       </c>
       <c r="C292" t="s">
-        <v>358</v>
+        <v>356</v>
       </c>
       <c r="D292" t="s">
-        <v>370</v>
+        <v>382</v>
       </c>
     </row>
     <row r="293" spans="1:4">
@@ -15558,10 +15558,10 @@
         <v>294</v>
       </c>
       <c r="B295" t="s">
-        <v>305</v>
+        <v>301</v>
       </c>
       <c r="C295" t="s">
-        <v>355</v>
+        <v>359</v>
       </c>
       <c r="D295" t="s">
         <v>387</v>
@@ -15572,10 +15572,10 @@
         <v>295</v>
       </c>
       <c r="B296" t="s">
-        <v>301</v>
+        <v>306</v>
       </c>
       <c r="C296" t="s">
-        <v>359</v>
+        <v>355</v>
       </c>
       <c r="D296" t="s">
         <v>387</v>
@@ -15614,10 +15614,10 @@
         <v>298</v>
       </c>
       <c r="B299" t="s">
-        <v>311</v>
+        <v>304</v>
       </c>
       <c r="C299" t="s">
-        <v>356</v>
+        <v>358</v>
       </c>
       <c r="D299" t="s">
         <v>388</v>
@@ -15628,13 +15628,13 @@
         <v>299</v>
       </c>
       <c r="B300" t="s">
-        <v>287</v>
+        <v>311</v>
       </c>
       <c r="C300" t="s">
-        <v>354</v>
+        <v>356</v>
       </c>
       <c r="D300" t="s">
-        <v>362</v>
+        <v>388</v>
       </c>
     </row>
     <row r="301" spans="1:4">
@@ -15642,13 +15642,13 @@
         <v>300</v>
       </c>
       <c r="B301" t="s">
-        <v>306</v>
+        <v>287</v>
       </c>
       <c r="C301" t="s">
-        <v>358</v>
+        <v>354</v>
       </c>
       <c r="D301" t="s">
-        <v>388</v>
+        <v>362</v>
       </c>
     </row>
     <row r="302" spans="1:4">
@@ -15656,13 +15656,13 @@
         <v>301</v>
       </c>
       <c r="B302" t="s">
-        <v>299</v>
+        <v>309</v>
       </c>
       <c r="C302" t="s">
-        <v>356</v>
+        <v>358</v>
       </c>
       <c r="D302" t="s">
-        <v>379</v>
+        <v>389</v>
       </c>
     </row>
     <row r="303" spans="1:4">
@@ -15670,13 +15670,13 @@
         <v>302</v>
       </c>
       <c r="B303" t="s">
-        <v>310</v>
+        <v>299</v>
       </c>
       <c r="C303" t="s">
-        <v>358</v>
+        <v>356</v>
       </c>
       <c r="D303" t="s">
-        <v>389</v>
+        <v>379</v>
       </c>
     </row>
     <row r="304" spans="1:4">
@@ -15726,7 +15726,7 @@
         <v>306</v>
       </c>
       <c r="B307" t="s">
-        <v>304</v>
+        <v>305</v>
       </c>
       <c r="C307" t="s">
         <v>354</v>
@@ -15740,13 +15740,13 @@
         <v>307</v>
       </c>
       <c r="B308" t="s">
-        <v>316</v>
+        <v>276</v>
       </c>
       <c r="C308" t="s">
-        <v>355</v>
+        <v>357</v>
       </c>
       <c r="D308" t="s">
-        <v>392</v>
+        <v>367</v>
       </c>
     </row>
     <row r="309" spans="1:4">
@@ -15754,13 +15754,13 @@
         <v>308</v>
       </c>
       <c r="B309" t="s">
-        <v>276</v>
+        <v>316</v>
       </c>
       <c r="C309" t="s">
-        <v>357</v>
+        <v>355</v>
       </c>
       <c r="D309" t="s">
-        <v>367</v>
+        <v>392</v>
       </c>
     </row>
     <row r="310" spans="1:4">
@@ -15782,7 +15782,7 @@
         <v>310</v>
       </c>
       <c r="B311" t="s">
-        <v>309</v>
+        <v>310</v>
       </c>
       <c r="C311" t="s">
         <v>354</v>
@@ -15852,13 +15852,13 @@
         <v>315</v>
       </c>
       <c r="B316" t="s">
-        <v>322</v>
+        <v>319</v>
       </c>
       <c r="C316" t="s">
-        <v>355</v>
+        <v>358</v>
       </c>
       <c r="D316" t="s">
-        <v>370</v>
+        <v>386</v>
       </c>
     </row>
     <row r="317" spans="1:4">
@@ -15866,13 +15866,13 @@
         <v>316</v>
       </c>
       <c r="B317" t="s">
-        <v>319</v>
+        <v>322</v>
       </c>
       <c r="C317" t="s">
-        <v>358</v>
+        <v>355</v>
       </c>
       <c r="D317" t="s">
-        <v>386</v>
+        <v>370</v>
       </c>
     </row>
     <row r="318" spans="1:4">
@@ -15894,7 +15894,7 @@
         <v>318</v>
       </c>
       <c r="B319" t="s">
-        <v>295</v>
+        <v>296</v>
       </c>
       <c r="C319" t="s">
         <v>357</v>
@@ -15908,13 +15908,13 @@
         <v>319</v>
       </c>
       <c r="B320" t="s">
-        <v>331</v>
+        <v>289</v>
       </c>
       <c r="C320" t="s">
-        <v>354</v>
+        <v>357</v>
       </c>
       <c r="D320" t="s">
-        <v>388</v>
+        <v>389</v>
       </c>
     </row>
     <row r="321" spans="1:4">
@@ -15922,13 +15922,13 @@
         <v>320</v>
       </c>
       <c r="B321" t="s">
-        <v>289</v>
+        <v>331</v>
       </c>
       <c r="C321" t="s">
-        <v>357</v>
+        <v>354</v>
       </c>
       <c r="D321" t="s">
-        <v>389</v>
+        <v>388</v>
       </c>
     </row>
     <row r="322" spans="1:4">
@@ -16076,10 +16076,10 @@
         <v>331</v>
       </c>
       <c r="B332" t="s">
-        <v>345</v>
+        <v>339</v>
       </c>
       <c r="C332" t="s">
-        <v>354</v>
+        <v>359</v>
       </c>
       <c r="D332" t="s">
         <v>367</v>
@@ -16090,13 +16090,13 @@
         <v>332</v>
       </c>
       <c r="B333" t="s">
-        <v>346</v>
+        <v>345</v>
       </c>
       <c r="C333" t="s">
-        <v>355</v>
+        <v>354</v>
       </c>
       <c r="D333" t="s">
-        <v>373</v>
+        <v>367</v>
       </c>
     </row>
     <row r="334" spans="1:4">
@@ -16104,13 +16104,13 @@
         <v>333</v>
       </c>
       <c r="B334" t="s">
-        <v>337</v>
+        <v>346</v>
       </c>
       <c r="C334" t="s">
-        <v>354</v>
+        <v>355</v>
       </c>
       <c r="D334" t="s">
-        <v>380</v>
+        <v>373</v>
       </c>
     </row>
     <row r="335" spans="1:4">
@@ -16118,13 +16118,13 @@
         <v>334</v>
       </c>
       <c r="B335" t="s">
-        <v>339</v>
+        <v>337</v>
       </c>
       <c r="C335" t="s">
-        <v>359</v>
+        <v>354</v>
       </c>
       <c r="D335" t="s">
-        <v>367</v>
+        <v>380</v>
       </c>
     </row>
     <row r="336" spans="1:4">
@@ -16174,13 +16174,13 @@
         <v>338</v>
       </c>
       <c r="B339" t="s">
-        <v>338</v>
+        <v>324</v>
       </c>
       <c r="C339" t="s">
-        <v>354</v>
+        <v>357</v>
       </c>
       <c r="D339" t="s">
-        <v>386</v>
+        <v>389</v>
       </c>
     </row>
     <row r="340" spans="1:4">
@@ -16188,13 +16188,13 @@
         <v>339</v>
       </c>
       <c r="B340" t="s">
-        <v>324</v>
+        <v>338</v>
       </c>
       <c r="C340" t="s">
-        <v>357</v>
+        <v>354</v>
       </c>
       <c r="D340" t="s">
-        <v>389</v>
+        <v>386</v>
       </c>
     </row>
     <row r="341" spans="1:4">

--- a/docs/FantasyProsFootballDraft.xlsx
+++ b/docs/FantasyProsFootballDraft.xlsx
@@ -2972,7 +2972,7 @@
         <v>354</v>
       </c>
       <c r="D100" t="s">
-        <v>377</v>
+        <v>392</v>
       </c>
     </row>
     <row r="101" spans="1:4">
@@ -7791,7 +7791,7 @@
         <v>354</v>
       </c>
       <c r="D92" t="s">
-        <v>377</v>
+        <v>392</v>
       </c>
     </row>
     <row r="93" spans="1:4">
@@ -12750,7 +12750,7 @@
         <v>354</v>
       </c>
       <c r="D94" t="s">
-        <v>377</v>
+        <v>392</v>
       </c>
     </row>
     <row r="95" spans="1:4">

--- a/docs/FantasyProsFootballDraft.xlsx
+++ b/docs/FantasyProsFootballDraft.xlsx
@@ -3084,7 +3084,7 @@
         <v>354</v>
       </c>
       <c r="D108" t="s">
-        <v>368</v>
+        <v>392</v>
       </c>
     </row>
     <row r="109" spans="1:4">
@@ -7959,7 +7959,7 @@
         <v>354</v>
       </c>
       <c r="D104" t="s">
-        <v>368</v>
+        <v>392</v>
       </c>
     </row>
     <row r="105" spans="1:4">
@@ -12904,7 +12904,7 @@
         <v>354</v>
       </c>
       <c r="D105" t="s">
-        <v>368</v>
+        <v>392</v>
       </c>
     </row>
     <row r="106" spans="1:4">

--- a/docs/FantasyProsFootballDraft.xlsx
+++ b/docs/FantasyProsFootballDraft.xlsx
@@ -3084,7 +3084,7 @@
         <v>354</v>
       </c>
       <c r="D108" t="s">
-        <v>392</v>
+        <v>386</v>
       </c>
     </row>
     <row r="109" spans="1:4">
@@ -7959,7 +7959,7 @@
         <v>354</v>
       </c>
       <c r="D104" t="s">
-        <v>392</v>
+        <v>386</v>
       </c>
     </row>
     <row r="105" spans="1:4">
@@ -12904,7 +12904,7 @@
         <v>354</v>
       </c>
       <c r="D105" t="s">
-        <v>392</v>
+        <v>386</v>
       </c>
     </row>
     <row r="106" spans="1:4">

--- a/docs/FantasyProsFootballDraft.xlsx
+++ b/docs/FantasyProsFootballDraft.xlsx
@@ -5296,7 +5296,7 @@
         <v>355</v>
       </c>
       <c r="D266" t="s">
-        <v>381</v>
+        <v>392</v>
       </c>
     </row>
     <row r="267" spans="1:4">
@@ -10213,7 +10213,7 @@
         <v>355</v>
       </c>
       <c r="D265" t="s">
-        <v>381</v>
+        <v>392</v>
       </c>
     </row>
     <row r="266" spans="1:4">
@@ -15130,7 +15130,7 @@
         <v>355</v>
       </c>
       <c r="D264" t="s">
-        <v>381</v>
+        <v>392</v>
       </c>
     </row>
     <row r="265" spans="1:4">

--- a/docs/FantasyProsFootballDraft.xlsx
+++ b/docs/FantasyProsFootballDraft.xlsx
@@ -2972,7 +2972,7 @@
         <v>354</v>
       </c>
       <c r="D100" t="s">
-        <v>392</v>
+        <v>371</v>
       </c>
     </row>
     <row r="101" spans="1:4">
@@ -5296,7 +5296,7 @@
         <v>355</v>
       </c>
       <c r="D266" t="s">
-        <v>392</v>
+        <v>371</v>
       </c>
     </row>
     <row r="267" spans="1:4">
@@ -7791,7 +7791,7 @@
         <v>354</v>
       </c>
       <c r="D92" t="s">
-        <v>392</v>
+        <v>371</v>
       </c>
     </row>
     <row r="93" spans="1:4">
@@ -10213,7 +10213,7 @@
         <v>355</v>
       </c>
       <c r="D265" t="s">
-        <v>392</v>
+        <v>371</v>
       </c>
     </row>
     <row r="266" spans="1:4">
@@ -12750,7 +12750,7 @@
         <v>354</v>
       </c>
       <c r="D94" t="s">
-        <v>392</v>
+        <v>371</v>
       </c>
     </row>
     <row r="95" spans="1:4">
@@ -15130,7 +15130,7 @@
         <v>355</v>
       </c>
       <c r="D264" t="s">
-        <v>392</v>
+        <v>371</v>
       </c>
     </row>
     <row r="265" spans="1:4">

--- a/docs/FantasyProsFootballDraft.xlsx
+++ b/docs/FantasyProsFootballDraft.xlsx
@@ -3966,7 +3966,7 @@
         <v>357</v>
       </c>
       <c r="D171" t="s">
-        <v>384</v>
+        <v>392</v>
       </c>
     </row>
     <row r="172" spans="1:4">
@@ -9093,7 +9093,7 @@
         <v>357</v>
       </c>
       <c r="D185" t="s">
-        <v>384</v>
+        <v>392</v>
       </c>
     </row>
     <row r="186" spans="1:4">
@@ -14500,7 +14500,7 @@
         <v>357</v>
       </c>
       <c r="D219" t="s">
-        <v>384</v>
+        <v>392</v>
       </c>
     </row>
     <row r="220" spans="1:4">

--- a/docs/FantasyProsFootballDraft.xlsx
+++ b/docs/FantasyProsFootballDraft.xlsx
@@ -3966,7 +3966,7 @@
         <v>357</v>
       </c>
       <c r="D171" t="s">
-        <v>392</v>
+        <v>368</v>
       </c>
     </row>
     <row r="172" spans="1:4">
@@ -9093,7 +9093,7 @@
         <v>357</v>
       </c>
       <c r="D185" t="s">
-        <v>392</v>
+        <v>368</v>
       </c>
     </row>
     <row r="186" spans="1:4">
@@ -14500,7 +14500,7 @@
         <v>357</v>
       </c>
       <c r="D219" t="s">
-        <v>392</v>
+        <v>368</v>
       </c>
     </row>
     <row r="220" spans="1:4">

--- a/docs/FantasyProsFootballDraft.xlsx
+++ b/docs/FantasyProsFootballDraft.xlsx
@@ -3084,7 +3084,7 @@
         <v>354</v>
       </c>
       <c r="D108" t="s">
-        <v>386</v>
+        <v>392</v>
       </c>
     </row>
     <row r="109" spans="1:4">
@@ -7959,7 +7959,7 @@
         <v>354</v>
       </c>
       <c r="D104" t="s">
-        <v>386</v>
+        <v>392</v>
       </c>
     </row>
     <row r="105" spans="1:4">
@@ -12904,7 +12904,7 @@
         <v>354</v>
       </c>
       <c r="D105" t="s">
-        <v>386</v>
+        <v>392</v>
       </c>
     </row>
     <row r="106" spans="1:4">

--- a/docs/FantasyProsFootballDraft.xlsx
+++ b/docs/FantasyProsFootballDraft.xlsx
@@ -4792,7 +4792,7 @@
         <v>354</v>
       </c>
       <c r="D230" t="s">
-        <v>373</v>
+        <v>392</v>
       </c>
     </row>
     <row r="231" spans="1:4">
@@ -9737,7 +9737,7 @@
         <v>354</v>
       </c>
       <c r="D231" t="s">
-        <v>373</v>
+        <v>392</v>
       </c>
     </row>
     <row r="232" spans="1:4">
@@ -14696,7 +14696,7 @@
         <v>354</v>
       </c>
       <c r="D233" t="s">
-        <v>373</v>
+        <v>392</v>
       </c>
     </row>
     <row r="234" spans="1:4">

--- a/docs/FantasyProsFootballDraft.xlsx
+++ b/docs/FantasyProsFootballDraft.xlsx
@@ -4778,7 +4778,7 @@
         <v>354</v>
       </c>
       <c r="D229" t="s">
-        <v>381</v>
+        <v>392</v>
       </c>
     </row>
     <row r="230" spans="1:4">
@@ -9597,7 +9597,7 @@
         <v>354</v>
       </c>
       <c r="D221" t="s">
-        <v>381</v>
+        <v>392</v>
       </c>
     </row>
     <row r="222" spans="1:4">
@@ -14486,7 +14486,7 @@
         <v>354</v>
       </c>
       <c r="D218" t="s">
-        <v>381</v>
+        <v>392</v>
       </c>
     </row>
     <row r="219" spans="1:4">

--- a/docs/FantasyProsFootballDraft.xlsx
+++ b/docs/FantasyProsFootballDraft.xlsx
@@ -458,7 +458,7 @@
     <t>DeVante Parker</t>
   </si>
   <si>
-    <t>D.J. Chark Jr.</t>
+    <t>DJ Chark Jr.</t>
   </si>
   <si>
     <t>Julio Jones</t>
@@ -650,7 +650,7 @@
     <t>Jeff Wilson Jr.</t>
   </si>
   <si>
-    <t>K.J. Hamler</t>
+    <t>KJ Hamler</t>
   </si>
   <si>
     <t>Sony Michel</t>
@@ -4484,7 +4484,7 @@
         <v>354</v>
       </c>
       <c r="D208" t="s">
-        <v>364</v>
+        <v>392</v>
       </c>
     </row>
     <row r="209" spans="1:4">
@@ -4904,7 +4904,7 @@
         <v>354</v>
       </c>
       <c r="D238" t="s">
-        <v>390</v>
+        <v>369</v>
       </c>
     </row>
     <row r="239" spans="1:4">
@@ -5156,7 +5156,7 @@
         <v>355</v>
       </c>
       <c r="D256" t="s">
-        <v>376</v>
+        <v>373</v>
       </c>
     </row>
     <row r="257" spans="1:4">
@@ -9625,7 +9625,7 @@
         <v>354</v>
       </c>
       <c r="D223" t="s">
-        <v>364</v>
+        <v>392</v>
       </c>
     </row>
     <row r="224" spans="1:4">
@@ -9835,7 +9835,7 @@
         <v>354</v>
       </c>
       <c r="D238" t="s">
-        <v>390</v>
+        <v>369</v>
       </c>
     </row>
     <row r="239" spans="1:4">
@@ -10059,7 +10059,7 @@
         <v>355</v>
       </c>
       <c r="D254" t="s">
-        <v>376</v>
+        <v>373</v>
       </c>
     </row>
     <row r="255" spans="1:4">
@@ -14458,7 +14458,7 @@
         <v>354</v>
       </c>
       <c r="D216" t="s">
-        <v>364</v>
+        <v>392</v>
       </c>
     </row>
     <row r="217" spans="1:4">
@@ -14794,7 +14794,7 @@
         <v>354</v>
       </c>
       <c r="D240" t="s">
-        <v>390</v>
+        <v>369</v>
       </c>
     </row>
     <row r="241" spans="1:4">
@@ -14892,7 +14892,7 @@
         <v>355</v>
       </c>
       <c r="D247" t="s">
-        <v>376</v>
+        <v>373</v>
       </c>
     </row>
     <row r="248" spans="1:4">

--- a/docs/FantasyProsFootballDraft.xlsx
+++ b/docs/FantasyProsFootballDraft.xlsx
@@ -5296,7 +5296,7 @@
         <v>355</v>
       </c>
       <c r="D266" t="s">
-        <v>371</v>
+        <v>392</v>
       </c>
     </row>
     <row r="267" spans="1:4">
@@ -10213,7 +10213,7 @@
         <v>355</v>
       </c>
       <c r="D265" t="s">
-        <v>371</v>
+        <v>392</v>
       </c>
     </row>
     <row r="266" spans="1:4">
@@ -15130,7 +15130,7 @@
         <v>355</v>
       </c>
       <c r="D264" t="s">
-        <v>371</v>
+        <v>392</v>
       </c>
     </row>
     <row r="265" spans="1:4">

--- a/docs/FantasyProsFootballDraft.xlsx
+++ b/docs/FantasyProsFootballDraft.xlsx
@@ -113,12 +113,12 @@
     <t>Kyle Pitts</t>
   </si>
   <si>
+    <t>A.J. Brown</t>
+  </si>
+  <si>
     <t>James Conner</t>
   </si>
   <si>
-    <t>A.J. Brown</t>
-  </si>
-  <si>
     <t>Tee Higgins</t>
   </si>
   <si>
@@ -149,12 +149,12 @@
     <t>Travis Etienne Jr.</t>
   </si>
   <si>
+    <t>Justin Herbert</t>
+  </si>
+  <si>
     <t>Elijah Mitchell</t>
   </si>
   <si>
-    <t>Justin Herbert</t>
-  </si>
-  <si>
     <t>David Montgomery</t>
   </si>
   <si>
@@ -473,15 +473,15 @@
     <t>Rachaad White</t>
   </si>
   <si>
+    <t>Robert Tonyan</t>
+  </si>
+  <si>
     <t>Ryan Tannehill</t>
   </si>
   <si>
     <t>Tyler Higbee</t>
   </si>
   <si>
-    <t>Robert Tonyan</t>
-  </si>
-  <si>
     <t>J.D. McKissic</t>
   </si>
   <si>
@@ -599,36 +599,36 @@
     <t>Marvin Jones Jr.</t>
   </si>
   <si>
+    <t>Romeo Doubs</t>
+  </si>
+  <si>
     <t>Wan'Dale Robinson</t>
   </si>
   <si>
-    <t>Romeo Doubs</t>
-  </si>
-  <si>
     <t>Jalen Tolbert</t>
   </si>
   <si>
     <t>Isaiah McKenzie</t>
   </si>
   <si>
+    <t>Matt Gay</t>
+  </si>
+  <si>
     <t>Evan McPherson</t>
   </si>
   <si>
-    <t>Matt Gay</t>
-  </si>
-  <si>
     <t>Van Jefferson</t>
   </si>
   <si>
     <t>Christian Watson</t>
   </si>
   <si>
+    <t>Dallas Cowboys</t>
+  </si>
+  <si>
     <t>Boston Scott</t>
   </si>
   <si>
-    <t>Dallas Cowboys</t>
-  </si>
-  <si>
     <t>Gus Edwards</t>
   </si>
   <si>
@@ -641,12 +641,12 @@
     <t>Daniel Carlson</t>
   </si>
   <si>
+    <t>Jameson Williams</t>
+  </si>
+  <si>
     <t>Green Bay Packers</t>
   </si>
   <si>
-    <t>Jameson Williams</t>
-  </si>
-  <si>
     <t>Jeff Wilson Jr.</t>
   </si>
   <si>
@@ -680,12 +680,12 @@
     <t>Mo Alie-Cox</t>
   </si>
   <si>
+    <t>Marcus Mariota</t>
+  </si>
+  <si>
     <t>Curtis Samuel</t>
   </si>
   <si>
-    <t>Marcus Mariota</t>
-  </si>
-  <si>
     <t>Ryan Succop</t>
   </si>
   <si>
@@ -740,18 +740,18 @@
     <t>Brandon McManus</t>
   </si>
   <si>
+    <t>Eno Benjamin</t>
+  </si>
+  <si>
     <t>David Bell</t>
   </si>
   <si>
-    <t>Eno Benjamin</t>
+    <t>Jamison Crowder</t>
   </si>
   <si>
     <t>Kendrick Bourne</t>
   </si>
   <si>
-    <t>Jamison Crowder</t>
-  </si>
-  <si>
     <t>Sterling Shepard</t>
   </si>
   <si>
@@ -845,12 +845,12 @@
     <t>Chris Boswell</t>
   </si>
   <si>
+    <t>Cedrick Wilson Jr.</t>
+  </si>
+  <si>
     <t>Nelson Agholor</t>
   </si>
   <si>
-    <t>Cedrick Wilson Jr.</t>
-  </si>
-  <si>
     <t>Deshaun Watson</t>
   </si>
   <si>
@@ -881,24 +881,24 @@
     <t>Trey Sermon</t>
   </si>
   <si>
+    <t>Hassan Haskins</t>
+  </si>
+  <si>
     <t>Graham Gano</t>
   </si>
   <si>
-    <t>Hassan Haskins</t>
-  </si>
-  <si>
     <t>Nick Westbrook-Ikhine</t>
   </si>
   <si>
     <t>Geno Smith</t>
   </si>
   <si>
+    <t>Joshua Kelley</t>
+  </si>
+  <si>
     <t>Marquez Callaway</t>
   </si>
   <si>
-    <t>Joshua Kelley</t>
-  </si>
-  <si>
     <t>Ameer Abdullah</t>
   </si>
   <si>
@@ -908,24 +908,24 @@
     <t>Trey McBride</t>
   </si>
   <si>
+    <t>Kenny Pickett</t>
+  </si>
+  <si>
     <t>New York Giants</t>
   </si>
   <si>
-    <t>Kenny Pickett</t>
-  </si>
-  <si>
     <t>Randy Bullock</t>
   </si>
   <si>
+    <t>Kyle Rudolph</t>
+  </si>
+  <si>
+    <t>Ke'Shawn Vaughn</t>
+  </si>
+  <si>
     <t>Jason Myers</t>
   </si>
   <si>
-    <t>Kyle Rudolph</t>
-  </si>
-  <si>
-    <t>Ke'Shawn Vaughn</t>
-  </si>
-  <si>
     <t>Cairo Santos</t>
   </si>
   <si>
@@ -935,12 +935,12 @@
     <t>Quez Watkins</t>
   </si>
   <si>
+    <t>Jaylen Warren</t>
+  </si>
+  <si>
     <t>New York Jets</t>
   </si>
   <si>
-    <t>Jaylen Warren</t>
-  </si>
-  <si>
     <t>Velus Jones Jr.</t>
   </si>
   <si>
@@ -962,15 +962,15 @@
     <t>Ka'imi Fairbairn</t>
   </si>
   <si>
+    <t>Dontrell Hilliard</t>
+  </si>
+  <si>
     <t>Josh Reynolds</t>
   </si>
   <si>
     <t>Marlon Mack</t>
   </si>
   <si>
-    <t>Dontrell Hilliard</t>
-  </si>
-  <si>
     <t>Odell Beckham Jr.</t>
   </si>
   <si>
@@ -983,18 +983,18 @@
     <t>Jacksonville Jaguars</t>
   </si>
   <si>
+    <t>Pierre Strong Jr.</t>
+  </si>
+  <si>
     <t>Tre'Quan Smith</t>
   </si>
   <si>
-    <t>Pierre Strong Jr.</t>
+    <t>O.J. Howard</t>
   </si>
   <si>
     <t>Darius Slayton</t>
   </si>
   <si>
-    <t>O.J. Howard</t>
-  </si>
-  <si>
     <t>Drew Lock</t>
   </si>
   <si>
@@ -1169,10 +1169,10 @@
     <t>ATL</t>
   </si>
   <si>
+    <t>PHI</t>
+  </si>
+  <si>
     <t>ARI</t>
-  </si>
-  <si>
-    <t>PHI</t>
   </si>
   <si>
     <t>CAR</t>
@@ -1961,7 +1961,7 @@
         <v>30</v>
       </c>
       <c r="C28" t="s">
-        <v>354</v>
+        <v>355</v>
       </c>
       <c r="D28" t="s">
         <v>382</v>
@@ -1975,7 +1975,7 @@
         <v>31</v>
       </c>
       <c r="C29" t="s">
-        <v>355</v>
+        <v>354</v>
       </c>
       <c r="D29" t="s">
         <v>383</v>
@@ -2129,10 +2129,10 @@
         <v>42</v>
       </c>
       <c r="C40" t="s">
-        <v>354</v>
+        <v>357</v>
       </c>
       <c r="D40" t="s">
-        <v>361</v>
+        <v>364</v>
       </c>
     </row>
     <row r="41" spans="1:4">
@@ -2143,10 +2143,10 @@
         <v>43</v>
       </c>
       <c r="C41" t="s">
-        <v>357</v>
+        <v>354</v>
       </c>
       <c r="D41" t="s">
-        <v>364</v>
+        <v>361</v>
       </c>
     </row>
     <row r="42" spans="1:4">
@@ -2356,7 +2356,7 @@
         <v>355</v>
       </c>
       <c r="D56" t="s">
-        <v>382</v>
+        <v>383</v>
       </c>
     </row>
     <row r="57" spans="1:4">
@@ -2440,7 +2440,7 @@
         <v>357</v>
       </c>
       <c r="D62" t="s">
-        <v>383</v>
+        <v>382</v>
       </c>
     </row>
     <row r="63" spans="1:4">
@@ -2468,7 +2468,7 @@
         <v>357</v>
       </c>
       <c r="D64" t="s">
-        <v>382</v>
+        <v>383</v>
       </c>
     </row>
     <row r="65" spans="1:4">
@@ -2594,7 +2594,7 @@
         <v>356</v>
       </c>
       <c r="D73" t="s">
-        <v>383</v>
+        <v>382</v>
       </c>
     </row>
     <row r="74" spans="1:4">
@@ -2720,7 +2720,7 @@
         <v>354</v>
       </c>
       <c r="D82" t="s">
-        <v>383</v>
+        <v>382</v>
       </c>
     </row>
     <row r="83" spans="1:4">
@@ -2748,7 +2748,7 @@
         <v>355</v>
       </c>
       <c r="D84" t="s">
-        <v>383</v>
+        <v>382</v>
       </c>
     </row>
     <row r="85" spans="1:4">
@@ -2958,7 +2958,7 @@
         <v>356</v>
       </c>
       <c r="D99" t="s">
-        <v>382</v>
+        <v>383</v>
       </c>
     </row>
     <row r="100" spans="1:4">
@@ -3000,7 +3000,7 @@
         <v>355</v>
       </c>
       <c r="D102" t="s">
-        <v>382</v>
+        <v>383</v>
       </c>
     </row>
     <row r="103" spans="1:4">
@@ -3364,7 +3364,7 @@
         <v>354</v>
       </c>
       <c r="D128" t="s">
-        <v>383</v>
+        <v>382</v>
       </c>
     </row>
     <row r="129" spans="1:4">
@@ -3641,10 +3641,10 @@
         <v>150</v>
       </c>
       <c r="C148" t="s">
-        <v>357</v>
+        <v>356</v>
       </c>
       <c r="D148" t="s">
-        <v>362</v>
+        <v>376</v>
       </c>
     </row>
     <row r="149" spans="1:4">
@@ -3655,10 +3655,10 @@
         <v>151</v>
       </c>
       <c r="C149" t="s">
-        <v>356</v>
+        <v>357</v>
       </c>
       <c r="D149" t="s">
-        <v>368</v>
+        <v>362</v>
       </c>
     </row>
     <row r="150" spans="1:4">
@@ -3672,7 +3672,7 @@
         <v>356</v>
       </c>
       <c r="D150" t="s">
-        <v>376</v>
+        <v>368</v>
       </c>
     </row>
     <row r="151" spans="1:4">
@@ -3742,7 +3742,7 @@
         <v>355</v>
       </c>
       <c r="D155" t="s">
-        <v>382</v>
+        <v>383</v>
       </c>
     </row>
     <row r="156" spans="1:4">
@@ -4176,7 +4176,7 @@
         <v>355</v>
       </c>
       <c r="D186" t="s">
-        <v>382</v>
+        <v>383</v>
       </c>
     </row>
     <row r="187" spans="1:4">
@@ -4232,7 +4232,7 @@
         <v>355</v>
       </c>
       <c r="D190" t="s">
-        <v>370</v>
+        <v>376</v>
       </c>
     </row>
     <row r="191" spans="1:4">
@@ -4246,7 +4246,7 @@
         <v>355</v>
       </c>
       <c r="D191" t="s">
-        <v>376</v>
+        <v>370</v>
       </c>
     </row>
     <row r="192" spans="1:4">
@@ -4288,7 +4288,7 @@
         <v>359</v>
       </c>
       <c r="D194" t="s">
-        <v>365</v>
+        <v>368</v>
       </c>
     </row>
     <row r="195" spans="1:4">
@@ -4302,7 +4302,7 @@
         <v>359</v>
       </c>
       <c r="D195" t="s">
-        <v>368</v>
+        <v>365</v>
       </c>
     </row>
     <row r="196" spans="1:4">
@@ -4341,10 +4341,10 @@
         <v>200</v>
       </c>
       <c r="C198" t="s">
-        <v>354</v>
+        <v>358</v>
       </c>
       <c r="D198" t="s">
-        <v>383</v>
+        <v>378</v>
       </c>
     </row>
     <row r="199" spans="1:4">
@@ -4355,10 +4355,10 @@
         <v>201</v>
       </c>
       <c r="C199" t="s">
-        <v>358</v>
+        <v>354</v>
       </c>
       <c r="D199" t="s">
-        <v>378</v>
+        <v>382</v>
       </c>
     </row>
     <row r="200" spans="1:4">
@@ -4386,7 +4386,7 @@
         <v>354</v>
       </c>
       <c r="D201" t="s">
-        <v>382</v>
+        <v>383</v>
       </c>
     </row>
     <row r="202" spans="1:4">
@@ -4425,10 +4425,10 @@
         <v>206</v>
       </c>
       <c r="C204" t="s">
-        <v>358</v>
+        <v>355</v>
       </c>
       <c r="D204" t="s">
-        <v>376</v>
+        <v>372</v>
       </c>
     </row>
     <row r="205" spans="1:4">
@@ -4439,10 +4439,10 @@
         <v>207</v>
       </c>
       <c r="C205" t="s">
-        <v>355</v>
+        <v>358</v>
       </c>
       <c r="D205" t="s">
-        <v>372</v>
+        <v>376</v>
       </c>
     </row>
     <row r="206" spans="1:4">
@@ -4607,10 +4607,10 @@
         <v>219</v>
       </c>
       <c r="C217" t="s">
-        <v>355</v>
+        <v>357</v>
       </c>
       <c r="D217" t="s">
-        <v>385</v>
+        <v>381</v>
       </c>
     </row>
     <row r="218" spans="1:4">
@@ -4621,10 +4621,10 @@
         <v>220</v>
       </c>
       <c r="C218" t="s">
-        <v>357</v>
+        <v>355</v>
       </c>
       <c r="D218" t="s">
-        <v>381</v>
+        <v>385</v>
       </c>
     </row>
     <row r="219" spans="1:4">
@@ -4694,7 +4694,7 @@
         <v>358</v>
       </c>
       <c r="D223" t="s">
-        <v>383</v>
+        <v>382</v>
       </c>
     </row>
     <row r="224" spans="1:4">
@@ -4750,7 +4750,7 @@
         <v>359</v>
       </c>
       <c r="D227" t="s">
-        <v>382</v>
+        <v>383</v>
       </c>
     </row>
     <row r="228" spans="1:4">
@@ -4862,7 +4862,7 @@
         <v>355</v>
       </c>
       <c r="D235" t="s">
-        <v>382</v>
+        <v>383</v>
       </c>
     </row>
     <row r="236" spans="1:4">
@@ -4887,10 +4887,10 @@
         <v>239</v>
       </c>
       <c r="C237" t="s">
-        <v>355</v>
+        <v>354</v>
       </c>
       <c r="D237" t="s">
-        <v>367</v>
+        <v>369</v>
       </c>
     </row>
     <row r="238" spans="1:4">
@@ -4901,10 +4901,10 @@
         <v>240</v>
       </c>
       <c r="C238" t="s">
-        <v>354</v>
+        <v>355</v>
       </c>
       <c r="D238" t="s">
-        <v>369</v>
+        <v>367</v>
       </c>
     </row>
     <row r="239" spans="1:4">
@@ -4918,7 +4918,7 @@
         <v>355</v>
       </c>
       <c r="D239" t="s">
-        <v>391</v>
+        <v>374</v>
       </c>
     </row>
     <row r="240" spans="1:4">
@@ -4932,7 +4932,7 @@
         <v>355</v>
       </c>
       <c r="D240" t="s">
-        <v>374</v>
+        <v>391</v>
       </c>
     </row>
     <row r="241" spans="1:4">
@@ -5100,7 +5100,7 @@
         <v>358</v>
       </c>
       <c r="D252" t="s">
-        <v>382</v>
+        <v>383</v>
       </c>
     </row>
     <row r="253" spans="1:4">
@@ -5142,7 +5142,7 @@
         <v>359</v>
       </c>
       <c r="D255" t="s">
-        <v>383</v>
+        <v>382</v>
       </c>
     </row>
     <row r="256" spans="1:4">
@@ -5380,7 +5380,7 @@
         <v>355</v>
       </c>
       <c r="D272" t="s">
-        <v>391</v>
+        <v>380</v>
       </c>
     </row>
     <row r="273" spans="1:4">
@@ -5394,7 +5394,7 @@
         <v>355</v>
       </c>
       <c r="D273" t="s">
-        <v>380</v>
+        <v>391</v>
       </c>
     </row>
     <row r="274" spans="1:4">
@@ -5534,7 +5534,7 @@
         <v>354</v>
       </c>
       <c r="D283" t="s">
-        <v>383</v>
+        <v>382</v>
       </c>
     </row>
     <row r="284" spans="1:4">
@@ -5545,10 +5545,10 @@
         <v>286</v>
       </c>
       <c r="C284" t="s">
-        <v>359</v>
+        <v>354</v>
       </c>
       <c r="D284" t="s">
-        <v>370</v>
+        <v>362</v>
       </c>
     </row>
     <row r="285" spans="1:4">
@@ -5559,10 +5559,10 @@
         <v>287</v>
       </c>
       <c r="C285" t="s">
-        <v>354</v>
+        <v>359</v>
       </c>
       <c r="D285" t="s">
-        <v>362</v>
+        <v>370</v>
       </c>
     </row>
     <row r="286" spans="1:4">
@@ -5601,10 +5601,10 @@
         <v>290</v>
       </c>
       <c r="C288" t="s">
-        <v>355</v>
+        <v>354</v>
       </c>
       <c r="D288" t="s">
-        <v>369</v>
+        <v>364</v>
       </c>
     </row>
     <row r="289" spans="1:4">
@@ -5615,10 +5615,10 @@
         <v>291</v>
       </c>
       <c r="C289" t="s">
-        <v>354</v>
+        <v>355</v>
       </c>
       <c r="D289" t="s">
-        <v>364</v>
+        <v>369</v>
       </c>
     </row>
     <row r="290" spans="1:4">
@@ -5660,7 +5660,7 @@
         <v>356</v>
       </c>
       <c r="D292" t="s">
-        <v>382</v>
+        <v>383</v>
       </c>
     </row>
     <row r="293" spans="1:4">
@@ -5671,10 +5671,10 @@
         <v>295</v>
       </c>
       <c r="C293" t="s">
-        <v>358</v>
+        <v>357</v>
       </c>
       <c r="D293" t="s">
-        <v>370</v>
+        <v>366</v>
       </c>
     </row>
     <row r="294" spans="1:4">
@@ -5685,10 +5685,10 @@
         <v>296</v>
       </c>
       <c r="C294" t="s">
-        <v>357</v>
+        <v>358</v>
       </c>
       <c r="D294" t="s">
-        <v>366</v>
+        <v>370</v>
       </c>
     </row>
     <row r="295" spans="1:4">
@@ -5713,10 +5713,10 @@
         <v>298</v>
       </c>
       <c r="C296" t="s">
-        <v>359</v>
+        <v>356</v>
       </c>
       <c r="D296" t="s">
-        <v>389</v>
+        <v>379</v>
       </c>
     </row>
     <row r="297" spans="1:4">
@@ -5727,7 +5727,7 @@
         <v>299</v>
       </c>
       <c r="C297" t="s">
-        <v>356</v>
+        <v>354</v>
       </c>
       <c r="D297" t="s">
         <v>379</v>
@@ -5741,10 +5741,10 @@
         <v>300</v>
       </c>
       <c r="C298" t="s">
-        <v>354</v>
+        <v>359</v>
       </c>
       <c r="D298" t="s">
-        <v>379</v>
+        <v>389</v>
       </c>
     </row>
     <row r="299" spans="1:4">
@@ -5786,7 +5786,7 @@
         <v>355</v>
       </c>
       <c r="D301" t="s">
-        <v>383</v>
+        <v>382</v>
       </c>
     </row>
     <row r="302" spans="1:4">
@@ -5797,10 +5797,10 @@
         <v>304</v>
       </c>
       <c r="C302" t="s">
-        <v>358</v>
+        <v>354</v>
       </c>
       <c r="D302" t="s">
-        <v>388</v>
+        <v>366</v>
       </c>
     </row>
     <row r="303" spans="1:4">
@@ -5811,10 +5811,10 @@
         <v>305</v>
       </c>
       <c r="C303" t="s">
-        <v>354</v>
+        <v>358</v>
       </c>
       <c r="D303" t="s">
-        <v>366</v>
+        <v>388</v>
       </c>
     </row>
     <row r="304" spans="1:4">
@@ -5923,10 +5923,10 @@
         <v>313</v>
       </c>
       <c r="C311" t="s">
-        <v>355</v>
+        <v>354</v>
       </c>
       <c r="D311" t="s">
-        <v>372</v>
+        <v>362</v>
       </c>
     </row>
     <row r="312" spans="1:4">
@@ -5937,10 +5937,10 @@
         <v>314</v>
       </c>
       <c r="C312" t="s">
-        <v>354</v>
+        <v>355</v>
       </c>
       <c r="D312" t="s">
-        <v>377</v>
+        <v>372</v>
       </c>
     </row>
     <row r="313" spans="1:4">
@@ -5954,7 +5954,7 @@
         <v>354</v>
       </c>
       <c r="D313" t="s">
-        <v>362</v>
+        <v>377</v>
       </c>
     </row>
     <row r="314" spans="1:4">
@@ -6021,10 +6021,10 @@
         <v>320</v>
       </c>
       <c r="C318" t="s">
-        <v>355</v>
+        <v>354</v>
       </c>
       <c r="D318" t="s">
-        <v>369</v>
+        <v>391</v>
       </c>
     </row>
     <row r="319" spans="1:4">
@@ -6035,10 +6035,10 @@
         <v>321</v>
       </c>
       <c r="C319" t="s">
-        <v>354</v>
+        <v>355</v>
       </c>
       <c r="D319" t="s">
-        <v>391</v>
+        <v>369</v>
       </c>
     </row>
     <row r="320" spans="1:4">
@@ -6049,10 +6049,10 @@
         <v>322</v>
       </c>
       <c r="C320" t="s">
-        <v>355</v>
+        <v>356</v>
       </c>
       <c r="D320" t="s">
-        <v>370</v>
+        <v>390</v>
       </c>
     </row>
     <row r="321" spans="1:4">
@@ -6063,10 +6063,10 @@
         <v>323</v>
       </c>
       <c r="C321" t="s">
-        <v>356</v>
+        <v>355</v>
       </c>
       <c r="D321" t="s">
-        <v>390</v>
+        <v>370</v>
       </c>
     </row>
     <row r="322" spans="1:4">
@@ -6875,13 +6875,13 @@
         <v>26</v>
       </c>
       <c r="B27" t="s">
-        <v>31</v>
+        <v>30</v>
       </c>
       <c r="C27" t="s">
         <v>355</v>
       </c>
       <c r="D27" t="s">
-        <v>383</v>
+        <v>382</v>
       </c>
     </row>
     <row r="28" spans="1:4">
@@ -6917,13 +6917,13 @@
         <v>29</v>
       </c>
       <c r="B30" t="s">
-        <v>30</v>
+        <v>31</v>
       </c>
       <c r="C30" t="s">
         <v>354</v>
       </c>
       <c r="D30" t="s">
-        <v>382</v>
+        <v>383</v>
       </c>
     </row>
     <row r="31" spans="1:4">
@@ -7071,7 +7071,7 @@
         <v>40</v>
       </c>
       <c r="B41" t="s">
-        <v>43</v>
+        <v>42</v>
       </c>
       <c r="C41" t="s">
         <v>357</v>
@@ -7141,7 +7141,7 @@
         <v>45</v>
       </c>
       <c r="B46" t="s">
-        <v>42</v>
+        <v>43</v>
       </c>
       <c r="C46" t="s">
         <v>354</v>
@@ -7259,7 +7259,7 @@
         <v>355</v>
       </c>
       <c r="D54" t="s">
-        <v>382</v>
+        <v>383</v>
       </c>
     </row>
     <row r="55" spans="1:4">
@@ -7385,7 +7385,7 @@
         <v>357</v>
       </c>
       <c r="D63" t="s">
-        <v>383</v>
+        <v>382</v>
       </c>
     </row>
     <row r="64" spans="1:4">
@@ -7413,7 +7413,7 @@
         <v>357</v>
       </c>
       <c r="D65" t="s">
-        <v>382</v>
+        <v>383</v>
       </c>
     </row>
     <row r="66" spans="1:4">
@@ -7595,7 +7595,7 @@
         <v>356</v>
       </c>
       <c r="D78" t="s">
-        <v>383</v>
+        <v>382</v>
       </c>
     </row>
     <row r="79" spans="1:4">
@@ -7665,7 +7665,7 @@
         <v>354</v>
       </c>
       <c r="D83" t="s">
-        <v>383</v>
+        <v>382</v>
       </c>
     </row>
     <row r="84" spans="1:4">
@@ -7777,7 +7777,7 @@
         <v>355</v>
       </c>
       <c r="D91" t="s">
-        <v>383</v>
+        <v>382</v>
       </c>
     </row>
     <row r="92" spans="1:4">
@@ -7875,7 +7875,7 @@
         <v>356</v>
       </c>
       <c r="D98" t="s">
-        <v>382</v>
+        <v>383</v>
       </c>
     </row>
     <row r="99" spans="1:4">
@@ -8009,13 +8009,13 @@
         <v>107</v>
       </c>
       <c r="B108" t="s">
-        <v>114</v>
+        <v>104</v>
       </c>
       <c r="C108" t="s">
-        <v>356</v>
+        <v>355</v>
       </c>
       <c r="D108" t="s">
-        <v>387</v>
+        <v>383</v>
       </c>
     </row>
     <row r="109" spans="1:4">
@@ -8023,13 +8023,13 @@
         <v>108</v>
       </c>
       <c r="B109" t="s">
-        <v>104</v>
+        <v>114</v>
       </c>
       <c r="C109" t="s">
-        <v>355</v>
+        <v>356</v>
       </c>
       <c r="D109" t="s">
-        <v>382</v>
+        <v>387</v>
       </c>
     </row>
     <row r="110" spans="1:4">
@@ -8183,7 +8183,7 @@
         <v>354</v>
       </c>
       <c r="D120" t="s">
-        <v>383</v>
+        <v>382</v>
       </c>
     </row>
     <row r="121" spans="1:4">
@@ -8289,13 +8289,13 @@
         <v>127</v>
       </c>
       <c r="B128" t="s">
-        <v>119</v>
+        <v>125</v>
       </c>
       <c r="C128" t="s">
-        <v>356</v>
+        <v>355</v>
       </c>
       <c r="D128" t="s">
-        <v>391</v>
+        <v>371</v>
       </c>
     </row>
     <row r="129" spans="1:4">
@@ -8303,13 +8303,13 @@
         <v>128</v>
       </c>
       <c r="B129" t="s">
-        <v>125</v>
+        <v>119</v>
       </c>
       <c r="C129" t="s">
-        <v>355</v>
+        <v>356</v>
       </c>
       <c r="D129" t="s">
-        <v>371</v>
+        <v>391</v>
       </c>
     </row>
     <row r="130" spans="1:4">
@@ -8499,13 +8499,13 @@
         <v>142</v>
       </c>
       <c r="B143" t="s">
-        <v>140</v>
+        <v>157</v>
       </c>
       <c r="C143" t="s">
-        <v>356</v>
+        <v>355</v>
       </c>
       <c r="D143" t="s">
-        <v>380</v>
+        <v>383</v>
       </c>
     </row>
     <row r="144" spans="1:4">
@@ -8527,13 +8527,13 @@
         <v>144</v>
       </c>
       <c r="B145" t="s">
-        <v>157</v>
+        <v>140</v>
       </c>
       <c r="C145" t="s">
-        <v>355</v>
+        <v>356</v>
       </c>
       <c r="D145" t="s">
-        <v>382</v>
+        <v>380</v>
       </c>
     </row>
     <row r="146" spans="1:4">
@@ -8639,7 +8639,7 @@
         <v>152</v>
       </c>
       <c r="B153" t="s">
-        <v>151</v>
+        <v>152</v>
       </c>
       <c r="C153" t="s">
         <v>356</v>
@@ -8653,7 +8653,7 @@
         <v>153</v>
       </c>
       <c r="B154" t="s">
-        <v>152</v>
+        <v>150</v>
       </c>
       <c r="C154" t="s">
         <v>356</v>
@@ -8681,7 +8681,7 @@
         <v>155</v>
       </c>
       <c r="B156" t="s">
-        <v>150</v>
+        <v>151</v>
       </c>
       <c r="C156" t="s">
         <v>357</v>
@@ -8821,7 +8821,7 @@
         <v>165</v>
       </c>
       <c r="B166" t="s">
-        <v>192</v>
+        <v>193</v>
       </c>
       <c r="C166" t="s">
         <v>355</v>
@@ -8841,7 +8841,7 @@
         <v>355</v>
       </c>
       <c r="D167" t="s">
-        <v>382</v>
+        <v>383</v>
       </c>
     </row>
     <row r="168" spans="1:4">
@@ -8891,13 +8891,13 @@
         <v>170</v>
       </c>
       <c r="B171" t="s">
-        <v>181</v>
+        <v>179</v>
       </c>
       <c r="C171" t="s">
-        <v>356</v>
+        <v>355</v>
       </c>
       <c r="D171" t="s">
-        <v>365</v>
+        <v>388</v>
       </c>
     </row>
     <row r="172" spans="1:4">
@@ -8905,13 +8905,13 @@
         <v>171</v>
       </c>
       <c r="B172" t="s">
-        <v>179</v>
+        <v>181</v>
       </c>
       <c r="C172" t="s">
-        <v>355</v>
+        <v>356</v>
       </c>
       <c r="D172" t="s">
-        <v>388</v>
+        <v>365</v>
       </c>
     </row>
     <row r="173" spans="1:4">
@@ -9171,13 +9171,13 @@
         <v>190</v>
       </c>
       <c r="B191" t="s">
-        <v>209</v>
+        <v>187</v>
       </c>
       <c r="C191" t="s">
-        <v>355</v>
+        <v>359</v>
       </c>
       <c r="D191" t="s">
-        <v>377</v>
+        <v>374</v>
       </c>
     </row>
     <row r="192" spans="1:4">
@@ -9185,13 +9185,13 @@
         <v>191</v>
       </c>
       <c r="B192" t="s">
-        <v>187</v>
+        <v>209</v>
       </c>
       <c r="C192" t="s">
-        <v>359</v>
+        <v>355</v>
       </c>
       <c r="D192" t="s">
-        <v>374</v>
+        <v>377</v>
       </c>
     </row>
     <row r="193" spans="1:4">
@@ -9199,7 +9199,7 @@
         <v>192</v>
       </c>
       <c r="B193" t="s">
-        <v>193</v>
+        <v>192</v>
       </c>
       <c r="C193" t="s">
         <v>355</v>
@@ -9255,7 +9255,7 @@
         <v>196</v>
       </c>
       <c r="B197" t="s">
-        <v>197</v>
+        <v>196</v>
       </c>
       <c r="C197" t="s">
         <v>359</v>
@@ -9269,7 +9269,7 @@
         <v>197</v>
       </c>
       <c r="B198" t="s">
-        <v>207</v>
+        <v>206</v>
       </c>
       <c r="C198" t="s">
         <v>355</v>
@@ -9297,7 +9297,7 @@
         <v>199</v>
       </c>
       <c r="B200" t="s">
-        <v>200</v>
+        <v>203</v>
       </c>
       <c r="C200" t="s">
         <v>354</v>
@@ -9311,13 +9311,13 @@
         <v>200</v>
       </c>
       <c r="B201" t="s">
-        <v>203</v>
+        <v>215</v>
       </c>
       <c r="C201" t="s">
-        <v>354</v>
+        <v>355</v>
       </c>
       <c r="D201" t="s">
-        <v>382</v>
+        <v>360</v>
       </c>
     </row>
     <row r="202" spans="1:4">
@@ -9325,13 +9325,13 @@
         <v>201</v>
       </c>
       <c r="B202" t="s">
-        <v>216</v>
+        <v>201</v>
       </c>
       <c r="C202" t="s">
-        <v>355</v>
+        <v>354</v>
       </c>
       <c r="D202" t="s">
-        <v>367</v>
+        <v>382</v>
       </c>
     </row>
     <row r="203" spans="1:4">
@@ -9339,13 +9339,13 @@
         <v>202</v>
       </c>
       <c r="B203" t="s">
-        <v>215</v>
+        <v>216</v>
       </c>
       <c r="C203" t="s">
         <v>355</v>
       </c>
       <c r="D203" t="s">
-        <v>360</v>
+        <v>367</v>
       </c>
     </row>
     <row r="204" spans="1:4">
@@ -9353,7 +9353,7 @@
         <v>203</v>
       </c>
       <c r="B204" t="s">
-        <v>196</v>
+        <v>197</v>
       </c>
       <c r="C204" t="s">
         <v>359</v>
@@ -9381,7 +9381,7 @@
         <v>205</v>
       </c>
       <c r="B206" t="s">
-        <v>201</v>
+        <v>200</v>
       </c>
       <c r="C206" t="s">
         <v>358</v>
@@ -9437,7 +9437,7 @@
         <v>209</v>
       </c>
       <c r="B210" t="s">
-        <v>206</v>
+        <v>207</v>
       </c>
       <c r="C210" t="s">
         <v>358</v>
@@ -9451,7 +9451,7 @@
         <v>210</v>
       </c>
       <c r="B211" t="s">
-        <v>219</v>
+        <v>220</v>
       </c>
       <c r="C211" t="s">
         <v>355</v>
@@ -9541,7 +9541,7 @@
         <v>358</v>
       </c>
       <c r="D217" t="s">
-        <v>383</v>
+        <v>382</v>
       </c>
     </row>
     <row r="218" spans="1:4">
@@ -9549,13 +9549,13 @@
         <v>217</v>
       </c>
       <c r="B218" t="s">
-        <v>243</v>
+        <v>240</v>
       </c>
       <c r="C218" t="s">
         <v>355</v>
       </c>
       <c r="D218" t="s">
-        <v>370</v>
+        <v>367</v>
       </c>
     </row>
     <row r="219" spans="1:4">
@@ -9563,13 +9563,13 @@
         <v>218</v>
       </c>
       <c r="B219" t="s">
-        <v>239</v>
+        <v>243</v>
       </c>
       <c r="C219" t="s">
         <v>355</v>
       </c>
       <c r="D219" t="s">
-        <v>367</v>
+        <v>370</v>
       </c>
     </row>
     <row r="220" spans="1:4">
@@ -9577,13 +9577,13 @@
         <v>219</v>
       </c>
       <c r="B220" t="s">
-        <v>218</v>
+        <v>231</v>
       </c>
       <c r="C220" t="s">
-        <v>356</v>
+        <v>354</v>
       </c>
       <c r="D220" t="s">
-        <v>360</v>
+        <v>392</v>
       </c>
     </row>
     <row r="221" spans="1:4">
@@ -9591,13 +9591,13 @@
         <v>220</v>
       </c>
       <c r="B221" t="s">
-        <v>231</v>
+        <v>218</v>
       </c>
       <c r="C221" t="s">
-        <v>354</v>
+        <v>356</v>
       </c>
       <c r="D221" t="s">
-        <v>392</v>
+        <v>360</v>
       </c>
     </row>
     <row r="222" spans="1:4">
@@ -9633,13 +9633,13 @@
         <v>223</v>
       </c>
       <c r="B224" t="s">
-        <v>233</v>
+        <v>224</v>
       </c>
       <c r="C224" t="s">
-        <v>354</v>
+        <v>358</v>
       </c>
       <c r="D224" t="s">
-        <v>371</v>
+        <v>367</v>
       </c>
     </row>
     <row r="225" spans="1:4">
@@ -9647,13 +9647,13 @@
         <v>224</v>
       </c>
       <c r="B225" t="s">
-        <v>224</v>
+        <v>233</v>
       </c>
       <c r="C225" t="s">
-        <v>358</v>
+        <v>354</v>
       </c>
       <c r="D225" t="s">
-        <v>367</v>
+        <v>371</v>
       </c>
     </row>
     <row r="226" spans="1:4">
@@ -9667,7 +9667,7 @@
         <v>355</v>
       </c>
       <c r="D226" t="s">
-        <v>382</v>
+        <v>383</v>
       </c>
     </row>
     <row r="227" spans="1:4">
@@ -9703,7 +9703,7 @@
         <v>228</v>
       </c>
       <c r="B229" t="s">
-        <v>220</v>
+        <v>219</v>
       </c>
       <c r="C229" t="s">
         <v>357</v>
@@ -9751,7 +9751,7 @@
         <v>359</v>
       </c>
       <c r="D232" t="s">
-        <v>382</v>
+        <v>383</v>
       </c>
     </row>
     <row r="233" spans="1:4">
@@ -9787,7 +9787,7 @@
         <v>234</v>
       </c>
       <c r="B235" t="s">
-        <v>241</v>
+        <v>242</v>
       </c>
       <c r="C235" t="s">
         <v>355</v>
@@ -9815,13 +9815,13 @@
         <v>236</v>
       </c>
       <c r="B237" t="s">
-        <v>242</v>
+        <v>239</v>
       </c>
       <c r="C237" t="s">
-        <v>355</v>
+        <v>354</v>
       </c>
       <c r="D237" t="s">
-        <v>374</v>
+        <v>369</v>
       </c>
     </row>
     <row r="238" spans="1:4">
@@ -9829,13 +9829,13 @@
         <v>237</v>
       </c>
       <c r="B238" t="s">
-        <v>240</v>
+        <v>241</v>
       </c>
       <c r="C238" t="s">
-        <v>354</v>
+        <v>355</v>
       </c>
       <c r="D238" t="s">
-        <v>369</v>
+        <v>374</v>
       </c>
     </row>
     <row r="239" spans="1:4">
@@ -9961,7 +9961,7 @@
         <v>359</v>
       </c>
       <c r="D247" t="s">
-        <v>383</v>
+        <v>382</v>
       </c>
     </row>
     <row r="248" spans="1:4">
@@ -9997,13 +9997,13 @@
         <v>249</v>
       </c>
       <c r="B250" t="s">
-        <v>259</v>
+        <v>254</v>
       </c>
       <c r="C250" t="s">
-        <v>359</v>
+        <v>358</v>
       </c>
       <c r="D250" t="s">
-        <v>364</v>
+        <v>383</v>
       </c>
     </row>
     <row r="251" spans="1:4">
@@ -10011,13 +10011,13 @@
         <v>250</v>
       </c>
       <c r="B251" t="s">
-        <v>254</v>
+        <v>259</v>
       </c>
       <c r="C251" t="s">
-        <v>358</v>
+        <v>359</v>
       </c>
       <c r="D251" t="s">
-        <v>382</v>
+        <v>364</v>
       </c>
     </row>
     <row r="252" spans="1:4">
@@ -10249,13 +10249,13 @@
         <v>267</v>
       </c>
       <c r="B268" t="s">
-        <v>274</v>
+        <v>270</v>
       </c>
       <c r="C268" t="s">
         <v>355</v>
       </c>
       <c r="D268" t="s">
-        <v>391</v>
+        <v>384</v>
       </c>
     </row>
     <row r="269" spans="1:4">
@@ -10263,13 +10263,13 @@
         <v>268</v>
       </c>
       <c r="B269" t="s">
-        <v>270</v>
+        <v>275</v>
       </c>
       <c r="C269" t="s">
         <v>355</v>
       </c>
       <c r="D269" t="s">
-        <v>384</v>
+        <v>391</v>
       </c>
     </row>
     <row r="270" spans="1:4">
@@ -10347,7 +10347,7 @@
         <v>274</v>
       </c>
       <c r="B275" t="s">
-        <v>275</v>
+        <v>274</v>
       </c>
       <c r="C275" t="s">
         <v>355</v>
@@ -10361,7 +10361,7 @@
         <v>275</v>
       </c>
       <c r="B276" t="s">
-        <v>286</v>
+        <v>287</v>
       </c>
       <c r="C276" t="s">
         <v>359</v>
@@ -10375,13 +10375,13 @@
         <v>276</v>
       </c>
       <c r="B277" t="s">
-        <v>295</v>
+        <v>263</v>
       </c>
       <c r="C277" t="s">
-        <v>358</v>
+        <v>356</v>
       </c>
       <c r="D277" t="s">
-        <v>370</v>
+        <v>369</v>
       </c>
     </row>
     <row r="278" spans="1:4">
@@ -10389,13 +10389,13 @@
         <v>277</v>
       </c>
       <c r="B278" t="s">
-        <v>263</v>
+        <v>296</v>
       </c>
       <c r="C278" t="s">
-        <v>356</v>
+        <v>358</v>
       </c>
       <c r="D278" t="s">
-        <v>369</v>
+        <v>370</v>
       </c>
     </row>
     <row r="279" spans="1:4">
@@ -10445,13 +10445,13 @@
         <v>281</v>
       </c>
       <c r="B282" t="s">
-        <v>283</v>
+        <v>305</v>
       </c>
       <c r="C282" t="s">
-        <v>354</v>
+        <v>358</v>
       </c>
       <c r="D282" t="s">
-        <v>380</v>
+        <v>388</v>
       </c>
     </row>
     <row r="283" spans="1:4">
@@ -10459,13 +10459,13 @@
         <v>282</v>
       </c>
       <c r="B283" t="s">
-        <v>297</v>
+        <v>292</v>
       </c>
       <c r="C283" t="s">
-        <v>359</v>
+        <v>354</v>
       </c>
       <c r="D283" t="s">
-        <v>362</v>
+        <v>375</v>
       </c>
     </row>
     <row r="284" spans="1:4">
@@ -10473,13 +10473,13 @@
         <v>283</v>
       </c>
       <c r="B284" t="s">
-        <v>304</v>
+        <v>283</v>
       </c>
       <c r="C284" t="s">
-        <v>358</v>
+        <v>354</v>
       </c>
       <c r="D284" t="s">
-        <v>388</v>
+        <v>380</v>
       </c>
     </row>
     <row r="285" spans="1:4">
@@ -10487,13 +10487,13 @@
         <v>284</v>
       </c>
       <c r="B285" t="s">
-        <v>292</v>
+        <v>297</v>
       </c>
       <c r="C285" t="s">
-        <v>354</v>
+        <v>359</v>
       </c>
       <c r="D285" t="s">
-        <v>375</v>
+        <v>362</v>
       </c>
     </row>
     <row r="286" spans="1:4">
@@ -10501,13 +10501,13 @@
         <v>285</v>
       </c>
       <c r="B286" t="s">
-        <v>298</v>
+        <v>295</v>
       </c>
       <c r="C286" t="s">
-        <v>359</v>
+        <v>357</v>
       </c>
       <c r="D286" t="s">
-        <v>389</v>
+        <v>366</v>
       </c>
     </row>
     <row r="287" spans="1:4">
@@ -10515,13 +10515,13 @@
         <v>286</v>
       </c>
       <c r="B287" t="s">
-        <v>296</v>
+        <v>300</v>
       </c>
       <c r="C287" t="s">
-        <v>357</v>
+        <v>359</v>
       </c>
       <c r="D287" t="s">
-        <v>366</v>
+        <v>389</v>
       </c>
     </row>
     <row r="288" spans="1:4">
@@ -10543,13 +10543,13 @@
         <v>288</v>
       </c>
       <c r="B289" t="s">
-        <v>301</v>
+        <v>290</v>
       </c>
       <c r="C289" t="s">
-        <v>359</v>
+        <v>354</v>
       </c>
       <c r="D289" t="s">
-        <v>387</v>
+        <v>364</v>
       </c>
     </row>
     <row r="290" spans="1:4">
@@ -10557,13 +10557,13 @@
         <v>289</v>
       </c>
       <c r="B290" t="s">
-        <v>291</v>
+        <v>301</v>
       </c>
       <c r="C290" t="s">
-        <v>354</v>
+        <v>359</v>
       </c>
       <c r="D290" t="s">
-        <v>364</v>
+        <v>387</v>
       </c>
     </row>
     <row r="291" spans="1:4">
@@ -10599,7 +10599,7 @@
         <v>292</v>
       </c>
       <c r="B293" t="s">
-        <v>290</v>
+        <v>291</v>
       </c>
       <c r="C293" t="s">
         <v>355</v>
@@ -10661,7 +10661,7 @@
         <v>354</v>
       </c>
       <c r="D297" t="s">
-        <v>383</v>
+        <v>382</v>
       </c>
     </row>
     <row r="298" spans="1:4">
@@ -10669,7 +10669,7 @@
         <v>297</v>
       </c>
       <c r="B298" t="s">
-        <v>287</v>
+        <v>286</v>
       </c>
       <c r="C298" t="s">
         <v>354</v>
@@ -10689,7 +10689,7 @@
         <v>355</v>
       </c>
       <c r="D299" t="s">
-        <v>383</v>
+        <v>382</v>
       </c>
     </row>
     <row r="300" spans="1:4">
@@ -10717,7 +10717,7 @@
         <v>356</v>
       </c>
       <c r="D301" t="s">
-        <v>382</v>
+        <v>383</v>
       </c>
     </row>
     <row r="302" spans="1:4">
@@ -10725,7 +10725,7 @@
         <v>301</v>
       </c>
       <c r="B302" t="s">
-        <v>300</v>
+        <v>299</v>
       </c>
       <c r="C302" t="s">
         <v>354</v>
@@ -10767,13 +10767,13 @@
         <v>304</v>
       </c>
       <c r="B305" t="s">
-        <v>319</v>
+        <v>310</v>
       </c>
       <c r="C305" t="s">
-        <v>358</v>
+        <v>354</v>
       </c>
       <c r="D305" t="s">
-        <v>386</v>
+        <v>368</v>
       </c>
     </row>
     <row r="306" spans="1:4">
@@ -10781,13 +10781,13 @@
         <v>305</v>
       </c>
       <c r="B306" t="s">
-        <v>313</v>
+        <v>319</v>
       </c>
       <c r="C306" t="s">
-        <v>355</v>
+        <v>358</v>
       </c>
       <c r="D306" t="s">
-        <v>372</v>
+        <v>386</v>
       </c>
     </row>
     <row r="307" spans="1:4">
@@ -10795,13 +10795,13 @@
         <v>306</v>
       </c>
       <c r="B307" t="s">
-        <v>310</v>
+        <v>314</v>
       </c>
       <c r="C307" t="s">
-        <v>354</v>
+        <v>355</v>
       </c>
       <c r="D307" t="s">
-        <v>368</v>
+        <v>372</v>
       </c>
     </row>
     <row r="308" spans="1:4">
@@ -10851,13 +10851,13 @@
         <v>310</v>
       </c>
       <c r="B311" t="s">
-        <v>299</v>
+        <v>313</v>
       </c>
       <c r="C311" t="s">
-        <v>356</v>
+        <v>354</v>
       </c>
       <c r="D311" t="s">
-        <v>379</v>
+        <v>362</v>
       </c>
     </row>
     <row r="312" spans="1:4">
@@ -10865,13 +10865,13 @@
         <v>311</v>
       </c>
       <c r="B312" t="s">
-        <v>315</v>
+        <v>298</v>
       </c>
       <c r="C312" t="s">
-        <v>354</v>
+        <v>356</v>
       </c>
       <c r="D312" t="s">
-        <v>362</v>
+        <v>379</v>
       </c>
     </row>
     <row r="313" spans="1:4">
@@ -10893,7 +10893,7 @@
         <v>313</v>
       </c>
       <c r="B314" t="s">
-        <v>305</v>
+        <v>304</v>
       </c>
       <c r="C314" t="s">
         <v>354</v>
@@ -10935,7 +10935,7 @@
         <v>316</v>
       </c>
       <c r="B317" t="s">
-        <v>320</v>
+        <v>321</v>
       </c>
       <c r="C317" t="s">
         <v>355</v>
@@ -10963,7 +10963,7 @@
         <v>318</v>
       </c>
       <c r="B319" t="s">
-        <v>322</v>
+        <v>323</v>
       </c>
       <c r="C319" t="s">
         <v>355</v>
@@ -11005,7 +11005,7 @@
         <v>321</v>
       </c>
       <c r="B322" t="s">
-        <v>321</v>
+        <v>320</v>
       </c>
       <c r="C322" t="s">
         <v>354</v>
@@ -11033,13 +11033,13 @@
         <v>323</v>
       </c>
       <c r="B324" t="s">
-        <v>330</v>
+        <v>322</v>
       </c>
       <c r="C324" t="s">
-        <v>355</v>
+        <v>356</v>
       </c>
       <c r="D324" t="s">
-        <v>385</v>
+        <v>390</v>
       </c>
     </row>
     <row r="325" spans="1:4">
@@ -11047,13 +11047,13 @@
         <v>324</v>
       </c>
       <c r="B325" t="s">
-        <v>323</v>
+        <v>330</v>
       </c>
       <c r="C325" t="s">
-        <v>356</v>
+        <v>355</v>
       </c>
       <c r="D325" t="s">
-        <v>390</v>
+        <v>385</v>
       </c>
     </row>
     <row r="326" spans="1:4">
@@ -11075,7 +11075,7 @@
         <v>326</v>
       </c>
       <c r="B327" t="s">
-        <v>314</v>
+        <v>315</v>
       </c>
       <c r="C327" t="s">
         <v>354</v>
@@ -11103,13 +11103,13 @@
         <v>328</v>
       </c>
       <c r="B329" t="s">
-        <v>332</v>
+        <v>341</v>
       </c>
       <c r="C329" t="s">
-        <v>355</v>
+        <v>354</v>
       </c>
       <c r="D329" t="s">
-        <v>372</v>
+        <v>391</v>
       </c>
     </row>
     <row r="330" spans="1:4">
@@ -11117,13 +11117,13 @@
         <v>329</v>
       </c>
       <c r="B330" t="s">
-        <v>341</v>
+        <v>345</v>
       </c>
       <c r="C330" t="s">
         <v>354</v>
       </c>
       <c r="D330" t="s">
-        <v>391</v>
+        <v>367</v>
       </c>
     </row>
     <row r="331" spans="1:4">
@@ -11131,13 +11131,13 @@
         <v>330</v>
       </c>
       <c r="B331" t="s">
-        <v>345</v>
+        <v>332</v>
       </c>
       <c r="C331" t="s">
-        <v>354</v>
+        <v>355</v>
       </c>
       <c r="D331" t="s">
-        <v>367</v>
+        <v>372</v>
       </c>
     </row>
     <row r="332" spans="1:4">
@@ -11397,13 +11397,13 @@
         <v>349</v>
       </c>
       <c r="B350" t="s">
-        <v>394</v>
+        <v>350</v>
       </c>
       <c r="C350" t="s">
-        <v>354</v>
+        <v>355</v>
       </c>
       <c r="D350" t="s">
-        <v>389</v>
+        <v>374</v>
       </c>
     </row>
     <row r="351" spans="1:4">
@@ -11411,13 +11411,13 @@
         <v>350</v>
       </c>
       <c r="B351" t="s">
-        <v>350</v>
+        <v>394</v>
       </c>
       <c r="C351" t="s">
-        <v>355</v>
+        <v>354</v>
       </c>
       <c r="D351" t="s">
-        <v>374</v>
+        <v>389</v>
       </c>
     </row>
   </sheetData>
@@ -11596,13 +11596,13 @@
         <v>11</v>
       </c>
       <c r="B12" t="s">
-        <v>17</v>
+        <v>15</v>
       </c>
       <c r="C12" t="s">
-        <v>356</v>
+        <v>355</v>
       </c>
       <c r="D12" t="s">
-        <v>371</v>
+        <v>365</v>
       </c>
     </row>
     <row r="13" spans="1:4">
@@ -11610,13 +11610,13 @@
         <v>12</v>
       </c>
       <c r="B13" t="s">
-        <v>15</v>
+        <v>17</v>
       </c>
       <c r="C13" t="s">
-        <v>355</v>
+        <v>356</v>
       </c>
       <c r="D13" t="s">
-        <v>365</v>
+        <v>371</v>
       </c>
     </row>
     <row r="14" spans="1:4">
@@ -11820,13 +11820,13 @@
         <v>27</v>
       </c>
       <c r="B28" t="s">
-        <v>31</v>
+        <v>30</v>
       </c>
       <c r="C28" t="s">
         <v>355</v>
       </c>
       <c r="D28" t="s">
-        <v>383</v>
+        <v>382</v>
       </c>
     </row>
     <row r="29" spans="1:4">
@@ -11862,13 +11862,13 @@
         <v>30</v>
       </c>
       <c r="B31" t="s">
-        <v>30</v>
+        <v>31</v>
       </c>
       <c r="C31" t="s">
         <v>354</v>
       </c>
       <c r="D31" t="s">
-        <v>382</v>
+        <v>383</v>
       </c>
     </row>
     <row r="32" spans="1:4">
@@ -11988,13 +11988,13 @@
         <v>39</v>
       </c>
       <c r="B40" t="s">
-        <v>44</v>
+        <v>48</v>
       </c>
       <c r="C40" t="s">
-        <v>354</v>
+        <v>355</v>
       </c>
       <c r="D40" t="s">
-        <v>387</v>
+        <v>380</v>
       </c>
     </row>
     <row r="41" spans="1:4">
@@ -12002,13 +12002,13 @@
         <v>40</v>
       </c>
       <c r="B41" t="s">
-        <v>48</v>
+        <v>44</v>
       </c>
       <c r="C41" t="s">
-        <v>355</v>
+        <v>354</v>
       </c>
       <c r="D41" t="s">
-        <v>380</v>
+        <v>387</v>
       </c>
     </row>
     <row r="42" spans="1:4">
@@ -12030,7 +12030,7 @@
         <v>42</v>
       </c>
       <c r="B43" t="s">
-        <v>43</v>
+        <v>42</v>
       </c>
       <c r="C43" t="s">
         <v>357</v>
@@ -12142,7 +12142,7 @@
         <v>50</v>
       </c>
       <c r="B51" t="s">
-        <v>42</v>
+        <v>43</v>
       </c>
       <c r="C51" t="s">
         <v>354</v>
@@ -12204,7 +12204,7 @@
         <v>355</v>
       </c>
       <c r="D55" t="s">
-        <v>382</v>
+        <v>383</v>
       </c>
     </row>
     <row r="56" spans="1:4">
@@ -12344,7 +12344,7 @@
         <v>357</v>
       </c>
       <c r="D65" t="s">
-        <v>383</v>
+        <v>382</v>
       </c>
     </row>
     <row r="66" spans="1:4">
@@ -12358,7 +12358,7 @@
         <v>357</v>
       </c>
       <c r="D66" t="s">
-        <v>382</v>
+        <v>383</v>
       </c>
     </row>
     <row r="67" spans="1:4">
@@ -12534,13 +12534,13 @@
         <v>78</v>
       </c>
       <c r="B79" t="s">
-        <v>75</v>
+        <v>87</v>
       </c>
       <c r="C79" t="s">
-        <v>356</v>
+        <v>354</v>
       </c>
       <c r="D79" t="s">
-        <v>383</v>
+        <v>391</v>
       </c>
     </row>
     <row r="80" spans="1:4">
@@ -12548,13 +12548,13 @@
         <v>79</v>
       </c>
       <c r="B80" t="s">
-        <v>87</v>
+        <v>75</v>
       </c>
       <c r="C80" t="s">
-        <v>354</v>
+        <v>356</v>
       </c>
       <c r="D80" t="s">
-        <v>391</v>
+        <v>382</v>
       </c>
     </row>
     <row r="81" spans="1:4">
@@ -12582,7 +12582,7 @@
         <v>354</v>
       </c>
       <c r="D82" t="s">
-        <v>383</v>
+        <v>382</v>
       </c>
     </row>
     <row r="83" spans="1:4">
@@ -12736,7 +12736,7 @@
         <v>355</v>
       </c>
       <c r="D93" t="s">
-        <v>383</v>
+        <v>382</v>
       </c>
     </row>
     <row r="94" spans="1:4">
@@ -12792,7 +12792,7 @@
         <v>356</v>
       </c>
       <c r="D97" t="s">
-        <v>382</v>
+        <v>383</v>
       </c>
     </row>
     <row r="98" spans="1:4">
@@ -12842,13 +12842,13 @@
         <v>100</v>
       </c>
       <c r="B101" t="s">
-        <v>105</v>
+        <v>128</v>
       </c>
       <c r="C101" t="s">
-        <v>357</v>
+        <v>354</v>
       </c>
       <c r="D101" t="s">
-        <v>376</v>
+        <v>374</v>
       </c>
     </row>
     <row r="102" spans="1:4">
@@ -12856,13 +12856,13 @@
         <v>101</v>
       </c>
       <c r="B102" t="s">
-        <v>128</v>
+        <v>105</v>
       </c>
       <c r="C102" t="s">
-        <v>354</v>
+        <v>357</v>
       </c>
       <c r="D102" t="s">
-        <v>374</v>
+        <v>376</v>
       </c>
     </row>
     <row r="103" spans="1:4">
@@ -12898,13 +12898,13 @@
         <v>104</v>
       </c>
       <c r="B105" t="s">
-        <v>110</v>
+        <v>92</v>
       </c>
       <c r="C105" t="s">
-        <v>354</v>
+        <v>356</v>
       </c>
       <c r="D105" t="s">
-        <v>392</v>
+        <v>374</v>
       </c>
     </row>
     <row r="106" spans="1:4">
@@ -12912,13 +12912,13 @@
         <v>105</v>
       </c>
       <c r="B106" t="s">
-        <v>92</v>
+        <v>110</v>
       </c>
       <c r="C106" t="s">
-        <v>356</v>
+        <v>354</v>
       </c>
       <c r="D106" t="s">
-        <v>374</v>
+        <v>392</v>
       </c>
     </row>
     <row r="107" spans="1:4">
@@ -12940,13 +12940,13 @@
         <v>107</v>
       </c>
       <c r="B108" t="s">
-        <v>104</v>
+        <v>107</v>
       </c>
       <c r="C108" t="s">
         <v>355</v>
       </c>
       <c r="D108" t="s">
-        <v>382</v>
+        <v>371</v>
       </c>
     </row>
     <row r="109" spans="1:4">
@@ -12954,13 +12954,13 @@
         <v>108</v>
       </c>
       <c r="B109" t="s">
-        <v>107</v>
+        <v>104</v>
       </c>
       <c r="C109" t="s">
         <v>355</v>
       </c>
       <c r="D109" t="s">
-        <v>371</v>
+        <v>383</v>
       </c>
     </row>
     <row r="110" spans="1:4">
@@ -13094,13 +13094,13 @@
         <v>118</v>
       </c>
       <c r="B119" t="s">
-        <v>153</v>
+        <v>122</v>
       </c>
       <c r="C119" t="s">
         <v>354</v>
       </c>
       <c r="D119" t="s">
-        <v>385</v>
+        <v>388</v>
       </c>
     </row>
     <row r="120" spans="1:4">
@@ -13108,13 +13108,13 @@
         <v>119</v>
       </c>
       <c r="B120" t="s">
-        <v>122</v>
+        <v>153</v>
       </c>
       <c r="C120" t="s">
         <v>354</v>
       </c>
       <c r="D120" t="s">
-        <v>388</v>
+        <v>385</v>
       </c>
     </row>
     <row r="121" spans="1:4">
@@ -13128,7 +13128,7 @@
         <v>354</v>
       </c>
       <c r="D121" t="s">
-        <v>383</v>
+        <v>382</v>
       </c>
     </row>
     <row r="122" spans="1:4">
@@ -13234,10 +13234,10 @@
         <v>128</v>
       </c>
       <c r="B129" t="s">
-        <v>120</v>
+        <v>139</v>
       </c>
       <c r="C129" t="s">
-        <v>357</v>
+        <v>354</v>
       </c>
       <c r="D129" t="s">
         <v>387</v>
@@ -13248,10 +13248,10 @@
         <v>129</v>
       </c>
       <c r="B130" t="s">
-        <v>139</v>
+        <v>120</v>
       </c>
       <c r="C130" t="s">
-        <v>354</v>
+        <v>357</v>
       </c>
       <c r="D130" t="s">
         <v>387</v>
@@ -13324,7 +13324,7 @@
         <v>355</v>
       </c>
       <c r="D135" t="s">
-        <v>382</v>
+        <v>383</v>
       </c>
     </row>
     <row r="136" spans="1:4">
@@ -13542,7 +13542,7 @@
         <v>150</v>
       </c>
       <c r="B151" t="s">
-        <v>151</v>
+        <v>152</v>
       </c>
       <c r="C151" t="s">
         <v>356</v>
@@ -13584,7 +13584,7 @@
         <v>153</v>
       </c>
       <c r="B154" t="s">
-        <v>152</v>
+        <v>150</v>
       </c>
       <c r="C154" t="s">
         <v>356</v>
@@ -13710,13 +13710,13 @@
         <v>162</v>
       </c>
       <c r="B163" t="s">
-        <v>169</v>
+        <v>164</v>
       </c>
       <c r="C163" t="s">
-        <v>354</v>
+        <v>358</v>
       </c>
       <c r="D163" t="s">
-        <v>369</v>
+        <v>361</v>
       </c>
     </row>
     <row r="164" spans="1:4">
@@ -13724,13 +13724,13 @@
         <v>163</v>
       </c>
       <c r="B164" t="s">
-        <v>164</v>
+        <v>169</v>
       </c>
       <c r="C164" t="s">
-        <v>358</v>
+        <v>354</v>
       </c>
       <c r="D164" t="s">
-        <v>361</v>
+        <v>369</v>
       </c>
     </row>
     <row r="165" spans="1:4">
@@ -13752,7 +13752,7 @@
         <v>165</v>
       </c>
       <c r="B166" t="s">
-        <v>150</v>
+        <v>151</v>
       </c>
       <c r="C166" t="s">
         <v>357</v>
@@ -13786,7 +13786,7 @@
         <v>355</v>
       </c>
       <c r="D168" t="s">
-        <v>382</v>
+        <v>383</v>
       </c>
     </row>
     <row r="169" spans="1:4">
@@ -13808,7 +13808,7 @@
         <v>169</v>
       </c>
       <c r="B170" t="s">
-        <v>192</v>
+        <v>193</v>
       </c>
       <c r="C170" t="s">
         <v>355</v>
@@ -13864,13 +13864,13 @@
         <v>173</v>
       </c>
       <c r="B174" t="s">
-        <v>191</v>
+        <v>176</v>
       </c>
       <c r="C174" t="s">
-        <v>355</v>
+        <v>358</v>
       </c>
       <c r="D174" t="s">
-        <v>386</v>
+        <v>369</v>
       </c>
     </row>
     <row r="175" spans="1:4">
@@ -13878,13 +13878,13 @@
         <v>174</v>
       </c>
       <c r="B175" t="s">
-        <v>176</v>
+        <v>191</v>
       </c>
       <c r="C175" t="s">
-        <v>358</v>
+        <v>355</v>
       </c>
       <c r="D175" t="s">
-        <v>369</v>
+        <v>386</v>
       </c>
     </row>
     <row r="176" spans="1:4">
@@ -13982,7 +13982,7 @@
         <v>354</v>
       </c>
       <c r="D182" t="s">
-        <v>382</v>
+        <v>383</v>
       </c>
     </row>
     <row r="183" spans="1:4">
@@ -14088,7 +14088,7 @@
         <v>189</v>
       </c>
       <c r="B190" t="s">
-        <v>193</v>
+        <v>192</v>
       </c>
       <c r="C190" t="s">
         <v>355</v>
@@ -14102,13 +14102,13 @@
         <v>190</v>
       </c>
       <c r="B191" t="s">
-        <v>197</v>
+        <v>199</v>
       </c>
       <c r="C191" t="s">
-        <v>359</v>
+        <v>355</v>
       </c>
       <c r="D191" t="s">
-        <v>368</v>
+        <v>376</v>
       </c>
     </row>
     <row r="192" spans="1:4">
@@ -14116,13 +14116,13 @@
         <v>191</v>
       </c>
       <c r="B192" t="s">
-        <v>199</v>
+        <v>196</v>
       </c>
       <c r="C192" t="s">
-        <v>355</v>
+        <v>359</v>
       </c>
       <c r="D192" t="s">
-        <v>376</v>
+        <v>368</v>
       </c>
     </row>
     <row r="193" spans="1:4">
@@ -14130,7 +14130,7 @@
         <v>192</v>
       </c>
       <c r="B193" t="s">
-        <v>196</v>
+        <v>197</v>
       </c>
       <c r="C193" t="s">
         <v>359</v>
@@ -14158,7 +14158,7 @@
         <v>194</v>
       </c>
       <c r="B195" t="s">
-        <v>201</v>
+        <v>200</v>
       </c>
       <c r="C195" t="s">
         <v>358</v>
@@ -14186,13 +14186,13 @@
         <v>196</v>
       </c>
       <c r="B197" t="s">
-        <v>207</v>
+        <v>215</v>
       </c>
       <c r="C197" t="s">
         <v>355</v>
       </c>
       <c r="D197" t="s">
-        <v>372</v>
+        <v>360</v>
       </c>
     </row>
     <row r="198" spans="1:4">
@@ -14200,13 +14200,13 @@
         <v>197</v>
       </c>
       <c r="B198" t="s">
-        <v>215</v>
+        <v>206</v>
       </c>
       <c r="C198" t="s">
         <v>355</v>
       </c>
       <c r="D198" t="s">
-        <v>360</v>
+        <v>372</v>
       </c>
     </row>
     <row r="199" spans="1:4">
@@ -14242,13 +14242,13 @@
         <v>200</v>
       </c>
       <c r="B201" t="s">
-        <v>166</v>
+        <v>205</v>
       </c>
       <c r="C201" t="s">
-        <v>357</v>
+        <v>359</v>
       </c>
       <c r="D201" t="s">
-        <v>372</v>
+        <v>375</v>
       </c>
     </row>
     <row r="202" spans="1:4">
@@ -14256,13 +14256,13 @@
         <v>201</v>
       </c>
       <c r="B202" t="s">
-        <v>205</v>
+        <v>166</v>
       </c>
       <c r="C202" t="s">
-        <v>359</v>
+        <v>357</v>
       </c>
       <c r="D202" t="s">
-        <v>375</v>
+        <v>372</v>
       </c>
     </row>
     <row r="203" spans="1:4">
@@ -14270,7 +14270,7 @@
         <v>202</v>
       </c>
       <c r="B203" t="s">
-        <v>206</v>
+        <v>207</v>
       </c>
       <c r="C203" t="s">
         <v>358</v>
@@ -14312,13 +14312,13 @@
         <v>205</v>
       </c>
       <c r="B206" t="s">
-        <v>200</v>
+        <v>214</v>
       </c>
       <c r="C206" t="s">
-        <v>354</v>
+        <v>358</v>
       </c>
       <c r="D206" t="s">
-        <v>383</v>
+        <v>380</v>
       </c>
     </row>
     <row r="207" spans="1:4">
@@ -14326,13 +14326,13 @@
         <v>206</v>
       </c>
       <c r="B207" t="s">
-        <v>214</v>
+        <v>201</v>
       </c>
       <c r="C207" t="s">
-        <v>358</v>
+        <v>354</v>
       </c>
       <c r="D207" t="s">
-        <v>380</v>
+        <v>382</v>
       </c>
     </row>
     <row r="208" spans="1:4">
@@ -14410,7 +14410,7 @@
         <v>212</v>
       </c>
       <c r="B213" t="s">
-        <v>219</v>
+        <v>220</v>
       </c>
       <c r="C213" t="s">
         <v>355</v>
@@ -14424,13 +14424,13 @@
         <v>213</v>
       </c>
       <c r="B214" t="s">
-        <v>243</v>
+        <v>217</v>
       </c>
       <c r="C214" t="s">
-        <v>355</v>
+        <v>359</v>
       </c>
       <c r="D214" t="s">
-        <v>370</v>
+        <v>371</v>
       </c>
     </row>
     <row r="215" spans="1:4">
@@ -14438,13 +14438,13 @@
         <v>214</v>
       </c>
       <c r="B215" t="s">
-        <v>217</v>
+        <v>210</v>
       </c>
       <c r="C215" t="s">
-        <v>359</v>
+        <v>354</v>
       </c>
       <c r="D215" t="s">
-        <v>371</v>
+        <v>392</v>
       </c>
     </row>
     <row r="216" spans="1:4">
@@ -14452,13 +14452,13 @@
         <v>215</v>
       </c>
       <c r="B216" t="s">
-        <v>210</v>
+        <v>243</v>
       </c>
       <c r="C216" t="s">
-        <v>354</v>
+        <v>355</v>
       </c>
       <c r="D216" t="s">
-        <v>392</v>
+        <v>370</v>
       </c>
     </row>
     <row r="217" spans="1:4">
@@ -14570,7 +14570,7 @@
         <v>358</v>
       </c>
       <c r="D224" t="s">
-        <v>383</v>
+        <v>382</v>
       </c>
     </row>
     <row r="225" spans="1:4">
@@ -14578,7 +14578,7 @@
         <v>224</v>
       </c>
       <c r="B225" t="s">
-        <v>242</v>
+        <v>241</v>
       </c>
       <c r="C225" t="s">
         <v>355</v>
@@ -14592,7 +14592,7 @@
         <v>225</v>
       </c>
       <c r="B226" t="s">
-        <v>239</v>
+        <v>240</v>
       </c>
       <c r="C226" t="s">
         <v>355</v>
@@ -14626,7 +14626,7 @@
         <v>359</v>
       </c>
       <c r="D228" t="s">
-        <v>382</v>
+        <v>383</v>
       </c>
     </row>
     <row r="229" spans="1:4">
@@ -14648,13 +14648,13 @@
         <v>229</v>
       </c>
       <c r="B230" t="s">
-        <v>230</v>
+        <v>222</v>
       </c>
       <c r="C230" t="s">
-        <v>358</v>
+        <v>354</v>
       </c>
       <c r="D230" t="s">
-        <v>366</v>
+        <v>371</v>
       </c>
     </row>
     <row r="231" spans="1:4">
@@ -14662,13 +14662,13 @@
         <v>230</v>
       </c>
       <c r="B231" t="s">
-        <v>222</v>
+        <v>230</v>
       </c>
       <c r="C231" t="s">
-        <v>354</v>
+        <v>358</v>
       </c>
       <c r="D231" t="s">
-        <v>371</v>
+        <v>366</v>
       </c>
     </row>
     <row r="232" spans="1:4">
@@ -14690,13 +14690,13 @@
         <v>232</v>
       </c>
       <c r="B233" t="s">
-        <v>232</v>
+        <v>227</v>
       </c>
       <c r="C233" t="s">
         <v>354</v>
       </c>
       <c r="D233" t="s">
-        <v>392</v>
+        <v>361</v>
       </c>
     </row>
     <row r="234" spans="1:4">
@@ -14704,13 +14704,13 @@
         <v>233</v>
       </c>
       <c r="B234" t="s">
-        <v>227</v>
+        <v>232</v>
       </c>
       <c r="C234" t="s">
         <v>354</v>
       </c>
       <c r="D234" t="s">
-        <v>361</v>
+        <v>392</v>
       </c>
     </row>
     <row r="235" spans="1:4">
@@ -14724,7 +14724,7 @@
         <v>355</v>
       </c>
       <c r="D235" t="s">
-        <v>382</v>
+        <v>383</v>
       </c>
     </row>
     <row r="236" spans="1:4">
@@ -14746,13 +14746,13 @@
         <v>236</v>
       </c>
       <c r="B237" t="s">
-        <v>241</v>
+        <v>234</v>
       </c>
       <c r="C237" t="s">
-        <v>355</v>
+        <v>359</v>
       </c>
       <c r="D237" t="s">
-        <v>391</v>
+        <v>392</v>
       </c>
     </row>
     <row r="238" spans="1:4">
@@ -14760,13 +14760,13 @@
         <v>237</v>
       </c>
       <c r="B238" t="s">
-        <v>234</v>
+        <v>242</v>
       </c>
       <c r="C238" t="s">
-        <v>359</v>
+        <v>355</v>
       </c>
       <c r="D238" t="s">
-        <v>392</v>
+        <v>391</v>
       </c>
     </row>
     <row r="239" spans="1:4">
@@ -14788,7 +14788,7 @@
         <v>239</v>
       </c>
       <c r="B240" t="s">
-        <v>240</v>
+        <v>239</v>
       </c>
       <c r="C240" t="s">
         <v>354</v>
@@ -14948,7 +14948,7 @@
         <v>358</v>
       </c>
       <c r="D251" t="s">
-        <v>382</v>
+        <v>383</v>
       </c>
     </row>
     <row r="252" spans="1:4">
@@ -15004,7 +15004,7 @@
         <v>359</v>
       </c>
       <c r="D255" t="s">
-        <v>383</v>
+        <v>382</v>
       </c>
     </row>
     <row r="256" spans="1:4">
@@ -15026,13 +15026,13 @@
         <v>256</v>
       </c>
       <c r="B257" t="s">
-        <v>259</v>
+        <v>262</v>
       </c>
       <c r="C257" t="s">
-        <v>359</v>
+        <v>355</v>
       </c>
       <c r="D257" t="s">
-        <v>364</v>
+        <v>387</v>
       </c>
     </row>
     <row r="258" spans="1:4">
@@ -15040,13 +15040,13 @@
         <v>257</v>
       </c>
       <c r="B258" t="s">
-        <v>262</v>
+        <v>259</v>
       </c>
       <c r="C258" t="s">
-        <v>355</v>
+        <v>359</v>
       </c>
       <c r="D258" t="s">
-        <v>387</v>
+        <v>364</v>
       </c>
     </row>
     <row r="259" spans="1:4">
@@ -15054,13 +15054,13 @@
         <v>258</v>
       </c>
       <c r="B259" t="s">
-        <v>252</v>
+        <v>219</v>
       </c>
       <c r="C259" t="s">
-        <v>354</v>
+        <v>357</v>
       </c>
       <c r="D259" t="s">
-        <v>360</v>
+        <v>381</v>
       </c>
     </row>
     <row r="260" spans="1:4">
@@ -15068,13 +15068,13 @@
         <v>259</v>
       </c>
       <c r="B260" t="s">
-        <v>220</v>
+        <v>260</v>
       </c>
       <c r="C260" t="s">
-        <v>357</v>
+        <v>356</v>
       </c>
       <c r="D260" t="s">
-        <v>381</v>
+        <v>379</v>
       </c>
     </row>
     <row r="261" spans="1:4">
@@ -15082,13 +15082,13 @@
         <v>260</v>
       </c>
       <c r="B261" t="s">
-        <v>260</v>
+        <v>252</v>
       </c>
       <c r="C261" t="s">
-        <v>356</v>
+        <v>354</v>
       </c>
       <c r="D261" t="s">
-        <v>379</v>
+        <v>360</v>
       </c>
     </row>
     <row r="262" spans="1:4">
@@ -15180,7 +15180,7 @@
         <v>267</v>
       </c>
       <c r="B268" t="s">
-        <v>275</v>
+        <v>274</v>
       </c>
       <c r="C268" t="s">
         <v>355</v>
@@ -15208,7 +15208,7 @@
         <v>269</v>
       </c>
       <c r="B270" t="s">
-        <v>274</v>
+        <v>275</v>
       </c>
       <c r="C270" t="s">
         <v>355</v>
@@ -15348,13 +15348,13 @@
         <v>279</v>
       </c>
       <c r="B280" t="s">
-        <v>282</v>
+        <v>284</v>
       </c>
       <c r="C280" t="s">
-        <v>356</v>
+        <v>358</v>
       </c>
       <c r="D280" t="s">
-        <v>386</v>
+        <v>387</v>
       </c>
     </row>
     <row r="281" spans="1:4">
@@ -15362,13 +15362,13 @@
         <v>280</v>
       </c>
       <c r="B281" t="s">
-        <v>284</v>
+        <v>282</v>
       </c>
       <c r="C281" t="s">
-        <v>358</v>
+        <v>356</v>
       </c>
       <c r="D281" t="s">
-        <v>387</v>
+        <v>386</v>
       </c>
     </row>
     <row r="282" spans="1:4">
@@ -15404,7 +15404,7 @@
         <v>283</v>
       </c>
       <c r="B284" t="s">
-        <v>286</v>
+        <v>287</v>
       </c>
       <c r="C284" t="s">
         <v>359</v>
@@ -15432,13 +15432,13 @@
         <v>285</v>
       </c>
       <c r="B286" t="s">
-        <v>290</v>
+        <v>285</v>
       </c>
       <c r="C286" t="s">
-        <v>355</v>
+        <v>354</v>
       </c>
       <c r="D286" t="s">
-        <v>369</v>
+        <v>382</v>
       </c>
     </row>
     <row r="287" spans="1:4">
@@ -15446,13 +15446,13 @@
         <v>286</v>
       </c>
       <c r="B287" t="s">
-        <v>285</v>
+        <v>291</v>
       </c>
       <c r="C287" t="s">
-        <v>354</v>
+        <v>355</v>
       </c>
       <c r="D287" t="s">
-        <v>383</v>
+        <v>369</v>
       </c>
     </row>
     <row r="288" spans="1:4">
@@ -15474,7 +15474,7 @@
         <v>288</v>
       </c>
       <c r="B289" t="s">
-        <v>315</v>
+        <v>313</v>
       </c>
       <c r="C289" t="s">
         <v>354</v>
@@ -15488,13 +15488,13 @@
         <v>289</v>
       </c>
       <c r="B290" t="s">
-        <v>295</v>
+        <v>303</v>
       </c>
       <c r="C290" t="s">
-        <v>358</v>
+        <v>355</v>
       </c>
       <c r="D290" t="s">
-        <v>370</v>
+        <v>382</v>
       </c>
     </row>
     <row r="291" spans="1:4">
@@ -15502,10 +15502,10 @@
         <v>290</v>
       </c>
       <c r="B291" t="s">
-        <v>303</v>
+        <v>294</v>
       </c>
       <c r="C291" t="s">
-        <v>355</v>
+        <v>356</v>
       </c>
       <c r="D291" t="s">
         <v>383</v>
@@ -15516,13 +15516,13 @@
         <v>291</v>
       </c>
       <c r="B292" t="s">
-        <v>294</v>
+        <v>296</v>
       </c>
       <c r="C292" t="s">
-        <v>356</v>
+        <v>358</v>
       </c>
       <c r="D292" t="s">
-        <v>382</v>
+        <v>370</v>
       </c>
     </row>
     <row r="293" spans="1:4">
@@ -15530,7 +15530,7 @@
         <v>292</v>
       </c>
       <c r="B293" t="s">
-        <v>298</v>
+        <v>300</v>
       </c>
       <c r="C293" t="s">
         <v>359</v>
@@ -15586,7 +15586,7 @@
         <v>296</v>
       </c>
       <c r="B297" t="s">
-        <v>291</v>
+        <v>290</v>
       </c>
       <c r="C297" t="s">
         <v>354</v>
@@ -15614,10 +15614,10 @@
         <v>298</v>
       </c>
       <c r="B299" t="s">
-        <v>304</v>
+        <v>311</v>
       </c>
       <c r="C299" t="s">
-        <v>358</v>
+        <v>356</v>
       </c>
       <c r="D299" t="s">
         <v>388</v>
@@ -15628,10 +15628,10 @@
         <v>299</v>
       </c>
       <c r="B300" t="s">
-        <v>311</v>
+        <v>305</v>
       </c>
       <c r="C300" t="s">
-        <v>356</v>
+        <v>358</v>
       </c>
       <c r="D300" t="s">
         <v>388</v>
@@ -15642,7 +15642,7 @@
         <v>300</v>
       </c>
       <c r="B301" t="s">
-        <v>287</v>
+        <v>286</v>
       </c>
       <c r="C301" t="s">
         <v>354</v>
@@ -15656,13 +15656,13 @@
         <v>301</v>
       </c>
       <c r="B302" t="s">
-        <v>309</v>
+        <v>298</v>
       </c>
       <c r="C302" t="s">
-        <v>358</v>
+        <v>356</v>
       </c>
       <c r="D302" t="s">
-        <v>389</v>
+        <v>379</v>
       </c>
     </row>
     <row r="303" spans="1:4">
@@ -15670,13 +15670,13 @@
         <v>302</v>
       </c>
       <c r="B303" t="s">
-        <v>299</v>
+        <v>309</v>
       </c>
       <c r="C303" t="s">
-        <v>356</v>
+        <v>358</v>
       </c>
       <c r="D303" t="s">
-        <v>379</v>
+        <v>389</v>
       </c>
     </row>
     <row r="304" spans="1:4">
@@ -15684,13 +15684,13 @@
         <v>303</v>
       </c>
       <c r="B304" t="s">
-        <v>313</v>
+        <v>318</v>
       </c>
       <c r="C304" t="s">
         <v>355</v>
       </c>
       <c r="D304" t="s">
-        <v>372</v>
+        <v>362</v>
       </c>
     </row>
     <row r="305" spans="1:4">
@@ -15698,13 +15698,13 @@
         <v>304</v>
       </c>
       <c r="B305" t="s">
-        <v>318</v>
+        <v>314</v>
       </c>
       <c r="C305" t="s">
         <v>355</v>
       </c>
       <c r="D305" t="s">
-        <v>362</v>
+        <v>372</v>
       </c>
     </row>
     <row r="306" spans="1:4">
@@ -15726,7 +15726,7 @@
         <v>306</v>
       </c>
       <c r="B307" t="s">
-        <v>305</v>
+        <v>304</v>
       </c>
       <c r="C307" t="s">
         <v>354</v>
@@ -15810,13 +15810,13 @@
         <v>312</v>
       </c>
       <c r="B313" t="s">
-        <v>320</v>
+        <v>325</v>
       </c>
       <c r="C313" t="s">
         <v>355</v>
       </c>
       <c r="D313" t="s">
-        <v>369</v>
+        <v>363</v>
       </c>
     </row>
     <row r="314" spans="1:4">
@@ -15824,13 +15824,13 @@
         <v>313</v>
       </c>
       <c r="B314" t="s">
-        <v>325</v>
+        <v>299</v>
       </c>
       <c r="C314" t="s">
-        <v>355</v>
+        <v>354</v>
       </c>
       <c r="D314" t="s">
-        <v>363</v>
+        <v>379</v>
       </c>
     </row>
     <row r="315" spans="1:4">
@@ -15838,13 +15838,13 @@
         <v>314</v>
       </c>
       <c r="B315" t="s">
-        <v>300</v>
+        <v>321</v>
       </c>
       <c r="C315" t="s">
-        <v>354</v>
+        <v>355</v>
       </c>
       <c r="D315" t="s">
-        <v>379</v>
+        <v>369</v>
       </c>
     </row>
     <row r="316" spans="1:4">
@@ -15866,7 +15866,7 @@
         <v>316</v>
       </c>
       <c r="B317" t="s">
-        <v>322</v>
+        <v>323</v>
       </c>
       <c r="C317" t="s">
         <v>355</v>
@@ -15880,13 +15880,13 @@
         <v>317</v>
       </c>
       <c r="B318" t="s">
-        <v>314</v>
+        <v>295</v>
       </c>
       <c r="C318" t="s">
-        <v>354</v>
+        <v>357</v>
       </c>
       <c r="D318" t="s">
-        <v>377</v>
+        <v>366</v>
       </c>
     </row>
     <row r="319" spans="1:4">
@@ -15894,13 +15894,13 @@
         <v>318</v>
       </c>
       <c r="B319" t="s">
-        <v>296</v>
+        <v>315</v>
       </c>
       <c r="C319" t="s">
-        <v>357</v>
+        <v>354</v>
       </c>
       <c r="D319" t="s">
-        <v>366</v>
+        <v>377</v>
       </c>
     </row>
     <row r="320" spans="1:4">
@@ -15950,7 +15950,7 @@
         <v>322</v>
       </c>
       <c r="B323" t="s">
-        <v>321</v>
+        <v>320</v>
       </c>
       <c r="C323" t="s">
         <v>354</v>
@@ -15978,13 +15978,13 @@
         <v>324</v>
       </c>
       <c r="B325" t="s">
-        <v>326</v>
+        <v>322</v>
       </c>
       <c r="C325" t="s">
         <v>356</v>
       </c>
       <c r="D325" t="s">
-        <v>377</v>
+        <v>390</v>
       </c>
     </row>
     <row r="326" spans="1:4">
@@ -15992,13 +15992,13 @@
         <v>325</v>
       </c>
       <c r="B326" t="s">
-        <v>323</v>
+        <v>326</v>
       </c>
       <c r="C326" t="s">
         <v>356</v>
       </c>
       <c r="D326" t="s">
-        <v>390</v>
+        <v>377</v>
       </c>
     </row>
     <row r="327" spans="1:4">
@@ -16076,10 +16076,10 @@
         <v>331</v>
       </c>
       <c r="B332" t="s">
-        <v>339</v>
+        <v>345</v>
       </c>
       <c r="C332" t="s">
-        <v>359</v>
+        <v>354</v>
       </c>
       <c r="D332" t="s">
         <v>367</v>
@@ -16090,13 +16090,13 @@
         <v>332</v>
       </c>
       <c r="B333" t="s">
-        <v>345</v>
+        <v>346</v>
       </c>
       <c r="C333" t="s">
-        <v>354</v>
+        <v>355</v>
       </c>
       <c r="D333" t="s">
-        <v>367</v>
+        <v>373</v>
       </c>
     </row>
     <row r="334" spans="1:4">
@@ -16104,13 +16104,13 @@
         <v>333</v>
       </c>
       <c r="B334" t="s">
-        <v>346</v>
+        <v>339</v>
       </c>
       <c r="C334" t="s">
-        <v>355</v>
+        <v>359</v>
       </c>
       <c r="D334" t="s">
-        <v>373</v>
+        <v>367</v>
       </c>
     </row>
     <row r="335" spans="1:4">
@@ -16132,13 +16132,13 @@
         <v>335</v>
       </c>
       <c r="B336" t="s">
-        <v>348</v>
+        <v>347</v>
       </c>
       <c r="C336" t="s">
-        <v>354</v>
+        <v>355</v>
       </c>
       <c r="D336" t="s">
-        <v>387</v>
+        <v>361</v>
       </c>
     </row>
     <row r="337" spans="1:4">
@@ -16146,13 +16146,13 @@
         <v>336</v>
       </c>
       <c r="B337" t="s">
-        <v>343</v>
+        <v>348</v>
       </c>
       <c r="C337" t="s">
         <v>354</v>
       </c>
       <c r="D337" t="s">
-        <v>372</v>
+        <v>387</v>
       </c>
     </row>
     <row r="338" spans="1:4">
@@ -16160,13 +16160,13 @@
         <v>337</v>
       </c>
       <c r="B338" t="s">
-        <v>347</v>
+        <v>343</v>
       </c>
       <c r="C338" t="s">
-        <v>355</v>
+        <v>354</v>
       </c>
       <c r="D338" t="s">
-        <v>361</v>
+        <v>372</v>
       </c>
     </row>
     <row r="339" spans="1:4">
@@ -16216,13 +16216,13 @@
         <v>341</v>
       </c>
       <c r="B342" t="s">
-        <v>340</v>
+        <v>350</v>
       </c>
       <c r="C342" t="s">
-        <v>356</v>
+        <v>355</v>
       </c>
       <c r="D342" t="s">
-        <v>364</v>
+        <v>374</v>
       </c>
     </row>
     <row r="343" spans="1:4">
@@ -16230,13 +16230,13 @@
         <v>342</v>
       </c>
       <c r="B343" t="s">
-        <v>351</v>
+        <v>340</v>
       </c>
       <c r="C343" t="s">
-        <v>355</v>
+        <v>356</v>
       </c>
       <c r="D343" t="s">
-        <v>381</v>
+        <v>364</v>
       </c>
     </row>
     <row r="344" spans="1:4">
@@ -16244,13 +16244,13 @@
         <v>343</v>
       </c>
       <c r="B344" t="s">
-        <v>350</v>
+        <v>351</v>
       </c>
       <c r="C344" t="s">
         <v>355</v>
       </c>
       <c r="D344" t="s">
-        <v>374</v>
+        <v>381</v>
       </c>
     </row>
     <row r="345" spans="1:4">
@@ -16258,13 +16258,13 @@
         <v>344</v>
       </c>
       <c r="B345" t="s">
-        <v>349</v>
+        <v>329</v>
       </c>
       <c r="C345" t="s">
-        <v>355</v>
+        <v>356</v>
       </c>
       <c r="D345" t="s">
-        <v>364</v>
+        <v>369</v>
       </c>
     </row>
     <row r="346" spans="1:4">
@@ -16272,13 +16272,13 @@
         <v>345</v>
       </c>
       <c r="B346" t="s">
-        <v>329</v>
+        <v>349</v>
       </c>
       <c r="C346" t="s">
-        <v>356</v>
+        <v>355</v>
       </c>
       <c r="D346" t="s">
-        <v>369</v>
+        <v>364</v>
       </c>
     </row>
     <row r="347" spans="1:4">

--- a/docs/FantasyProsFootballDraft.xlsx
+++ b/docs/FantasyProsFootballDraft.xlsx
@@ -21,7 +21,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="3162" uniqueCount="406">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="3162" uniqueCount="405">
   <si>
     <t>Overall Rank</t>
   </si>
@@ -104,12 +104,12 @@
     <t>Breece Hall</t>
   </si>
   <si>
+    <t>Bijan Robinson</t>
+  </si>
+  <si>
     <t>Tony Pollard</t>
   </si>
   <si>
-    <t>Bijan Robinson</t>
-  </si>
-  <si>
     <t>Jaylen Waddle</t>
   </si>
   <si>
@@ -146,12 +146,12 @@
     <t>Keenan Allen</t>
   </si>
   <si>
+    <t>Rhamondre Stevenson</t>
+  </si>
+  <si>
     <t>Patrick Mahomes II</t>
   </si>
   <si>
-    <t>Rhamondre Stevenson</t>
-  </si>
-  <si>
     <t>Terry McLaurin</t>
   </si>
   <si>
@@ -161,12 +161,12 @@
     <t>Jalen Hurts</t>
   </si>
   <si>
+    <t>Cam Akers</t>
+  </si>
+  <si>
     <t>Kyle Pitts</t>
   </si>
   <si>
-    <t>Cam Akers</t>
-  </si>
-  <si>
     <t>J.K. Dobbins</t>
   </si>
   <si>
@@ -278,12 +278,12 @@
     <t>Darnell Mooney</t>
   </si>
   <si>
+    <t>Brandin Cooks</t>
+  </si>
+  <si>
     <t>Trevor Lawrence</t>
   </si>
   <si>
-    <t>Brandin Cooks</t>
-  </si>
-  <si>
     <t>Dalton Schultz</t>
   </si>
   <si>
@@ -326,15 +326,18 @@
     <t>Treylon Burks</t>
   </si>
   <si>
+    <t>Cole Kmet</t>
+  </si>
+  <si>
     <t>JuJu Smith-Schuster</t>
   </si>
   <si>
-    <t>Cole Kmet</t>
-  </si>
-  <si>
     <t>Evan Engram</t>
   </si>
   <si>
+    <t>Jahan Dotson</t>
+  </si>
+  <si>
     <t>Kyler Murray</t>
   </si>
   <si>
@@ -344,18 +347,18 @@
     <t>Tua Tagovailoa</t>
   </si>
   <si>
-    <t>Jahan Dotson</t>
+    <t>Kadarius Toney</t>
   </si>
   <si>
     <t>Kirk Cousins</t>
   </si>
   <si>
-    <t>Kadarius Toney</t>
-  </si>
-  <si>
     <t>Calvin Ridley</t>
   </si>
   <si>
+    <t>Daniel Jones</t>
+  </si>
+  <si>
     <t>Dawson Knox</t>
   </si>
   <si>
@@ -371,9 +374,6 @@
     <t>Damien Harris</t>
   </si>
   <si>
-    <t>Daniel Jones</t>
-  </si>
-  <si>
     <t>Elijah Moore</t>
   </si>
   <si>
@@ -458,15 +458,15 @@
     <t>Jerick McKinnon</t>
   </si>
   <si>
+    <t>Clyde Edwards-Helaire</t>
+  </si>
+  <si>
+    <t>Adam Thielen</t>
+  </si>
+  <si>
     <t>Hunter Renfrow</t>
   </si>
   <si>
-    <t>Clyde Edwards-Helaire</t>
-  </si>
-  <si>
-    <t>Adam Thielen</t>
-  </si>
-  <si>
     <t>Derek Carr</t>
   </si>
   <si>
@@ -506,12 +506,12 @@
     <t>Kenneth Gainwell</t>
   </si>
   <si>
+    <t>Taysom Hill</t>
+  </si>
+  <si>
     <t>Kenny Pickett</t>
   </si>
   <si>
-    <t>Taysom Hill</t>
-  </si>
-  <si>
     <t>Denver Broncos</t>
   </si>
   <si>
@@ -530,6 +530,9 @@
     <t>Justin Tucker</t>
   </si>
   <si>
+    <t>Ryan Tannehill</t>
+  </si>
+  <si>
     <t>New Orleans Saints</t>
   </si>
   <si>
@@ -539,21 +542,18 @@
     <t>New England Patriots</t>
   </si>
   <si>
-    <t>Ryan Tannehill</t>
-  </si>
-  <si>
     <t>Mac Jones</t>
   </si>
   <si>
     <t>Tyler Bass</t>
   </si>
   <si>
+    <t>Donovan Peoples-Jones</t>
+  </si>
+  <si>
     <t>Zay Jones</t>
   </si>
   <si>
-    <t>Donovan Peoples-Jones</t>
-  </si>
-  <si>
     <t>Zach Charbonnet</t>
   </si>
   <si>
@@ -572,24 +572,24 @@
     <t>Hayden Hurst</t>
   </si>
   <si>
+    <t>Michael Carter</t>
+  </si>
+  <si>
     <t>Joshua Palmer</t>
   </si>
   <si>
-    <t>Michael Carter</t>
-  </si>
-  <si>
     <t>Dallas Cowboys</t>
   </si>
   <si>
+    <t>Mecole Hardman</t>
+  </si>
+  <si>
     <t>Evan McPherson</t>
   </si>
   <si>
     <t>Marquez Valdes-Scantling</t>
   </si>
   <si>
-    <t>Mecole Hardman</t>
-  </si>
-  <si>
     <t>Robert Woods</t>
   </si>
   <si>
@@ -626,21 +626,21 @@
     <t>Green Bay Packers</t>
   </si>
   <si>
+    <t>Albert Okwuegbunam</t>
+  </si>
+  <si>
+    <t>Corey Davis</t>
+  </si>
+  <si>
+    <t>Alec Pierce</t>
+  </si>
+  <si>
+    <t>Matt Gay</t>
+  </si>
+  <si>
     <t>Romeo Doubs</t>
   </si>
   <si>
-    <t>Albert Okwuegbunam</t>
-  </si>
-  <si>
-    <t>Corey Davis</t>
-  </si>
-  <si>
-    <t>Alec Pierce</t>
-  </si>
-  <si>
-    <t>Matt Gay</t>
-  </si>
-  <si>
     <t>Curtis Samuel</t>
   </si>
   <si>
@@ -734,51 +734,54 @@
     <t>Jarvis Landry</t>
   </si>
   <si>
+    <t>Brandon McManus</t>
+  </si>
+  <si>
+    <t>Matt Prater</t>
+  </si>
+  <si>
+    <t>Nyheim Hines</t>
+  </si>
+  <si>
+    <t>Kenny Golladay</t>
+  </si>
+  <si>
+    <t>Robbie Anderson</t>
+  </si>
+  <si>
+    <t>Marvin Jones Jr.</t>
+  </si>
+  <si>
+    <t>Rodrigo Blankenship</t>
+  </si>
+  <si>
+    <t>Sean Tucker</t>
+  </si>
+  <si>
+    <t>Kenyan Drake</t>
+  </si>
+  <si>
+    <t>Younghoe Koo</t>
+  </si>
+  <si>
+    <t>Robbie Gould</t>
+  </si>
+  <si>
+    <t>Cincinnati Bengals</t>
+  </si>
+  <si>
     <t>Jimmy Garoppolo</t>
   </si>
   <si>
-    <t>Brandon McManus</t>
-  </si>
-  <si>
-    <t>Matt Prater</t>
-  </si>
-  <si>
-    <t>Nyheim Hines</t>
-  </si>
-  <si>
-    <t>Kenny Golladay</t>
-  </si>
-  <si>
-    <t>Robbie Anderson</t>
-  </si>
-  <si>
-    <t>Marvin Jones Jr.</t>
-  </si>
-  <si>
-    <t>Rodrigo Blankenship</t>
-  </si>
-  <si>
-    <t>Sean Tucker</t>
-  </si>
-  <si>
-    <t>Kenyan Drake</t>
-  </si>
-  <si>
-    <t>Younghoe Koo</t>
-  </si>
-  <si>
-    <t>Robbie Gould</t>
-  </si>
-  <si>
-    <t>Cincinnati Bengals</t>
-  </si>
-  <si>
     <t>KJ Hamler</t>
   </si>
   <si>
     <t>Jason Sanders</t>
   </si>
   <si>
+    <t>Brock Purdy</t>
+  </si>
+  <si>
     <t>Terrace Marshall Jr.</t>
   </si>
   <si>
@@ -830,18 +833,18 @@
     <t>Dustin Hopkins</t>
   </si>
   <si>
+    <t>Kendrick Bourne</t>
+  </si>
+  <si>
+    <t>David Bell</t>
+  </si>
+  <si>
+    <t>Darrel Williams</t>
+  </si>
+  <si>
     <t>Matt Ryan</t>
   </si>
   <si>
-    <t>Kendrick Bourne</t>
-  </si>
-  <si>
-    <t>David Bell</t>
-  </si>
-  <si>
-    <t>Darrel Williams</t>
-  </si>
-  <si>
     <t>Arizona Cardinals</t>
   </si>
   <si>
@@ -851,12 +854,12 @@
     <t>Jason Myers</t>
   </si>
   <si>
+    <t>Sam Howell</t>
+  </si>
+  <si>
     <t>Tyler Davis</t>
   </si>
   <si>
-    <t>Sam Howell</t>
-  </si>
-  <si>
     <t>Carolina Panthers</t>
   </si>
   <si>
@@ -908,75 +911,72 @@
     <t>New York Jets</t>
   </si>
   <si>
+    <t>Josh Reynolds</t>
+  </si>
+  <si>
+    <t>J.D. McKissic</t>
+  </si>
+  <si>
+    <t>Minnesota Vikings</t>
+  </si>
+  <si>
+    <t>Jerome Ford</t>
+  </si>
+  <si>
+    <t>Braxton Berrios</t>
+  </si>
+  <si>
+    <t>Devin Duvernay</t>
+  </si>
+  <si>
+    <t>Isaiah Hodgins</t>
+  </si>
+  <si>
+    <t>Quez Watkins</t>
+  </si>
+  <si>
+    <t>Mark Ingram II</t>
+  </si>
+  <si>
+    <t>Israel Abanikanda</t>
+  </si>
+  <si>
     <t>Brett Maher</t>
   </si>
   <si>
-    <t>Josh Reynolds</t>
-  </si>
-  <si>
-    <t>J.D. McKissic</t>
-  </si>
-  <si>
-    <t>Minnesota Vikings</t>
-  </si>
-  <si>
-    <t>Jerome Ford</t>
-  </si>
-  <si>
-    <t>Braxton Berrios</t>
-  </si>
-  <si>
-    <t>Devin Duvernay</t>
-  </si>
-  <si>
-    <t>Isaiah Hodgins</t>
-  </si>
-  <si>
-    <t>Quez Watkins</t>
-  </si>
-  <si>
-    <t>Mark Ingram II</t>
-  </si>
-  <si>
-    <t>Israel Abanikanda</t>
+    <t>D'Ernest Johnson</t>
+  </si>
+  <si>
+    <t>Chris Boswell</t>
+  </si>
+  <si>
+    <t>Nick Westbrook-Ikhine</t>
+  </si>
+  <si>
+    <t>Mason Crosby</t>
+  </si>
+  <si>
+    <t>Brevin Jordan</t>
+  </si>
+  <si>
+    <t>Randall Cobb</t>
+  </si>
+  <si>
+    <t>Salvon Ahmed</t>
+  </si>
+  <si>
+    <t>Zach Evans</t>
+  </si>
+  <si>
+    <t>Chris Evans</t>
+  </si>
+  <si>
+    <t>Jelani Woods</t>
   </si>
   <si>
     <t>Desmond Ridder</t>
   </si>
   <si>
-    <t>D'Ernest Johnson</t>
-  </si>
-  <si>
-    <t>Chris Boswell</t>
-  </si>
-  <si>
-    <t>Nick Westbrook-Ikhine</t>
-  </si>
-  <si>
-    <t>Mason Crosby</t>
-  </si>
-  <si>
-    <t>Brevin Jordan</t>
-  </si>
-  <si>
-    <t>Randall Cobb</t>
-  </si>
-  <si>
-    <t>Salvon Ahmed</t>
-  </si>
-  <si>
-    <t>Zach Evans</t>
-  </si>
-  <si>
-    <t>Chris Evans</t>
-  </si>
-  <si>
-    <t>Jelani Woods</t>
-  </si>
-  <si>
-    <t>Brock Purdy</t>
-  </si>
-  <si>
     <t>Jonnu Smith</t>
   </si>
   <si>
@@ -1043,12 +1043,12 @@
     <t>Dyami Brown</t>
   </si>
   <si>
-    <t>Zach Wilson</t>
-  </si>
-  <si>
     <t>Jacksonville Jaguars</t>
   </si>
   <si>
+    <t>Carson Wentz</t>
+  </si>
+  <si>
     <t>Hassan Haskins</t>
   </si>
   <si>
@@ -1082,7 +1082,7 @@
     <t>Adam Trautman</t>
   </si>
   <si>
-    <t>Carson Wentz</t>
+    <t>Velus Jones Jr.</t>
   </si>
   <si>
     <t>RB</t>
@@ -1226,16 +1226,13 @@
     <t>Mike Davis</t>
   </si>
   <si>
-    <t>Jacoby Brissett</t>
+    <t>Mike White</t>
   </si>
   <si>
     <t>Ameer Abdullah</t>
   </si>
   <si>
     <t>Jalen Reagor</t>
-  </si>
-  <si>
-    <t>Velus Jones Jr.</t>
   </si>
   <si>
     <t>Dontrell Hilliard</t>
@@ -1952,7 +1949,7 @@
         <v>354</v>
       </c>
       <c r="D25" t="s">
-        <v>376</v>
+        <v>379</v>
       </c>
     </row>
     <row r="26" spans="1:4">
@@ -1966,7 +1963,7 @@
         <v>354</v>
       </c>
       <c r="D26" t="s">
-        <v>379</v>
+        <v>376</v>
       </c>
     </row>
     <row r="27" spans="1:4">
@@ -2145,10 +2142,10 @@
         <v>41</v>
       </c>
       <c r="C39" t="s">
-        <v>357</v>
+        <v>354</v>
       </c>
       <c r="D39" t="s">
-        <v>368</v>
+        <v>385</v>
       </c>
     </row>
     <row r="40" spans="1:4">
@@ -2159,10 +2156,10 @@
         <v>42</v>
       </c>
       <c r="C40" t="s">
-        <v>354</v>
+        <v>357</v>
       </c>
       <c r="D40" t="s">
-        <v>385</v>
+        <v>368</v>
       </c>
     </row>
     <row r="41" spans="1:4">
@@ -2215,10 +2212,10 @@
         <v>46</v>
       </c>
       <c r="C44" t="s">
-        <v>356</v>
+        <v>354</v>
       </c>
       <c r="D44" t="s">
-        <v>387</v>
+        <v>370</v>
       </c>
     </row>
     <row r="45" spans="1:4">
@@ -2229,10 +2226,10 @@
         <v>47</v>
       </c>
       <c r="C45" t="s">
-        <v>354</v>
+        <v>356</v>
       </c>
       <c r="D45" t="s">
-        <v>370</v>
+        <v>387</v>
       </c>
     </row>
     <row r="46" spans="1:4">
@@ -2761,10 +2758,10 @@
         <v>85</v>
       </c>
       <c r="C83" t="s">
-        <v>357</v>
+        <v>355</v>
       </c>
       <c r="D83" t="s">
-        <v>374</v>
+        <v>388</v>
       </c>
     </row>
     <row r="84" spans="1:4">
@@ -2775,10 +2772,10 @@
         <v>86</v>
       </c>
       <c r="C84" t="s">
-        <v>355</v>
+        <v>357</v>
       </c>
       <c r="D84" t="s">
-        <v>388</v>
+        <v>374</v>
       </c>
     </row>
     <row r="85" spans="1:4">
@@ -2985,10 +2982,10 @@
         <v>101</v>
       </c>
       <c r="C99" t="s">
-        <v>355</v>
+        <v>356</v>
       </c>
       <c r="D99" t="s">
-        <v>368</v>
+        <v>391</v>
       </c>
     </row>
     <row r="100" spans="1:4">
@@ -2999,10 +2996,10 @@
         <v>102</v>
       </c>
       <c r="C100" t="s">
-        <v>356</v>
+        <v>355</v>
       </c>
       <c r="D100" t="s">
-        <v>391</v>
+        <v>368</v>
       </c>
     </row>
     <row r="101" spans="1:4">
@@ -3027,10 +3024,10 @@
         <v>104</v>
       </c>
       <c r="C102" t="s">
-        <v>357</v>
+        <v>355</v>
       </c>
       <c r="D102" t="s">
-        <v>392</v>
+        <v>386</v>
       </c>
     </row>
     <row r="103" spans="1:4">
@@ -3041,10 +3038,10 @@
         <v>105</v>
       </c>
       <c r="C103" t="s">
-        <v>356</v>
+        <v>357</v>
       </c>
       <c r="D103" t="s">
-        <v>373</v>
+        <v>392</v>
       </c>
     </row>
     <row r="104" spans="1:4">
@@ -3055,10 +3052,10 @@
         <v>106</v>
       </c>
       <c r="C104" t="s">
-        <v>357</v>
+        <v>356</v>
       </c>
       <c r="D104" t="s">
-        <v>375</v>
+        <v>373</v>
       </c>
     </row>
     <row r="105" spans="1:4">
@@ -3069,10 +3066,10 @@
         <v>107</v>
       </c>
       <c r="C105" t="s">
-        <v>355</v>
+        <v>357</v>
       </c>
       <c r="D105" t="s">
-        <v>386</v>
+        <v>375</v>
       </c>
     </row>
     <row r="106" spans="1:4">
@@ -3083,10 +3080,10 @@
         <v>108</v>
       </c>
       <c r="C106" t="s">
-        <v>357</v>
+        <v>355</v>
       </c>
       <c r="D106" t="s">
-        <v>366</v>
+        <v>368</v>
       </c>
     </row>
     <row r="107" spans="1:4">
@@ -3097,10 +3094,10 @@
         <v>109</v>
       </c>
       <c r="C107" t="s">
-        <v>355</v>
+        <v>357</v>
       </c>
       <c r="D107" t="s">
-        <v>368</v>
+        <v>366</v>
       </c>
     </row>
     <row r="108" spans="1:4">
@@ -3125,10 +3122,10 @@
         <v>111</v>
       </c>
       <c r="C109" t="s">
-        <v>356</v>
+        <v>357</v>
       </c>
       <c r="D109" t="s">
-        <v>372</v>
+        <v>363</v>
       </c>
     </row>
     <row r="110" spans="1:4">
@@ -3139,10 +3136,10 @@
         <v>112</v>
       </c>
       <c r="C110" t="s">
-        <v>357</v>
+        <v>356</v>
       </c>
       <c r="D110" t="s">
-        <v>360</v>
+        <v>372</v>
       </c>
     </row>
     <row r="111" spans="1:4">
@@ -3156,7 +3153,7 @@
         <v>357</v>
       </c>
       <c r="D111" t="s">
-        <v>390</v>
+        <v>360</v>
       </c>
     </row>
     <row r="112" spans="1:4">
@@ -3167,10 +3164,10 @@
         <v>114</v>
       </c>
       <c r="C112" t="s">
-        <v>354</v>
+        <v>357</v>
       </c>
       <c r="D112" t="s">
-        <v>386</v>
+        <v>390</v>
       </c>
     </row>
     <row r="113" spans="1:4">
@@ -3184,7 +3181,7 @@
         <v>354</v>
       </c>
       <c r="D113" t="s">
-        <v>385</v>
+        <v>386</v>
       </c>
     </row>
     <row r="114" spans="1:4">
@@ -3195,10 +3192,10 @@
         <v>116</v>
       </c>
       <c r="C114" t="s">
-        <v>357</v>
+        <v>354</v>
       </c>
       <c r="D114" t="s">
-        <v>363</v>
+        <v>385</v>
       </c>
     </row>
     <row r="115" spans="1:4">
@@ -3601,10 +3598,10 @@
         <v>145</v>
       </c>
       <c r="C143" t="s">
-        <v>355</v>
+        <v>354</v>
       </c>
       <c r="D143" t="s">
-        <v>369</v>
+        <v>368</v>
       </c>
     </row>
     <row r="144" spans="1:4">
@@ -3615,10 +3612,10 @@
         <v>146</v>
       </c>
       <c r="C144" t="s">
-        <v>354</v>
+        <v>355</v>
       </c>
       <c r="D144" t="s">
-        <v>368</v>
+        <v>366</v>
       </c>
     </row>
     <row r="145" spans="1:4">
@@ -3632,7 +3629,7 @@
         <v>355</v>
       </c>
       <c r="D145" t="s">
-        <v>366</v>
+        <v>369</v>
       </c>
     </row>
     <row r="146" spans="1:4">
@@ -3825,10 +3822,10 @@
         <v>161</v>
       </c>
       <c r="C159" t="s">
-        <v>357</v>
+        <v>356</v>
       </c>
       <c r="D159" t="s">
-        <v>373</v>
+        <v>389</v>
       </c>
     </row>
     <row r="160" spans="1:4">
@@ -3839,10 +3836,10 @@
         <v>162</v>
       </c>
       <c r="C160" t="s">
-        <v>356</v>
+        <v>357</v>
       </c>
       <c r="D160" t="s">
-        <v>389</v>
+        <v>373</v>
       </c>
     </row>
     <row r="161" spans="1:4">
@@ -3937,10 +3934,10 @@
         <v>169</v>
       </c>
       <c r="C167" t="s">
-        <v>358</v>
+        <v>357</v>
       </c>
       <c r="D167" t="s">
-        <v>389</v>
+        <v>364</v>
       </c>
     </row>
     <row r="168" spans="1:4">
@@ -3954,7 +3951,7 @@
         <v>358</v>
       </c>
       <c r="D168" t="s">
-        <v>362</v>
+        <v>389</v>
       </c>
     </row>
     <row r="169" spans="1:4">
@@ -3968,7 +3965,7 @@
         <v>358</v>
       </c>
       <c r="D169" t="s">
-        <v>385</v>
+        <v>362</v>
       </c>
     </row>
     <row r="170" spans="1:4">
@@ -3979,10 +3976,10 @@
         <v>172</v>
       </c>
       <c r="C170" t="s">
-        <v>357</v>
+        <v>358</v>
       </c>
       <c r="D170" t="s">
-        <v>364</v>
+        <v>385</v>
       </c>
     </row>
     <row r="171" spans="1:4">
@@ -4024,7 +4021,7 @@
         <v>355</v>
       </c>
       <c r="D173" t="s">
-        <v>374</v>
+        <v>365</v>
       </c>
     </row>
     <row r="174" spans="1:4">
@@ -4038,7 +4035,7 @@
         <v>355</v>
       </c>
       <c r="D174" t="s">
-        <v>365</v>
+        <v>374</v>
       </c>
     </row>
     <row r="175" spans="1:4">
@@ -4133,10 +4130,10 @@
         <v>183</v>
       </c>
       <c r="C181" t="s">
-        <v>355</v>
+        <v>354</v>
       </c>
       <c r="D181" t="s">
-        <v>361</v>
+        <v>378</v>
       </c>
     </row>
     <row r="182" spans="1:4">
@@ -4147,10 +4144,10 @@
         <v>184</v>
       </c>
       <c r="C182" t="s">
-        <v>354</v>
+        <v>355</v>
       </c>
       <c r="D182" t="s">
-        <v>378</v>
+        <v>361</v>
       </c>
     </row>
     <row r="183" spans="1:4">
@@ -4175,10 +4172,10 @@
         <v>186</v>
       </c>
       <c r="C184" t="s">
-        <v>359</v>
+        <v>355</v>
       </c>
       <c r="D184" t="s">
-        <v>371</v>
+        <v>368</v>
       </c>
     </row>
     <row r="185" spans="1:4">
@@ -4189,10 +4186,10 @@
         <v>187</v>
       </c>
       <c r="C185" t="s">
-        <v>355</v>
+        <v>359</v>
       </c>
       <c r="D185" t="s">
-        <v>368</v>
+        <v>371</v>
       </c>
     </row>
     <row r="186" spans="1:4">
@@ -4385,10 +4382,10 @@
         <v>201</v>
       </c>
       <c r="C199" t="s">
-        <v>355</v>
+        <v>356</v>
       </c>
       <c r="D199" t="s">
-        <v>383</v>
+        <v>390</v>
       </c>
     </row>
     <row r="200" spans="1:4">
@@ -4399,10 +4396,10 @@
         <v>202</v>
       </c>
       <c r="C200" t="s">
-        <v>356</v>
+        <v>355</v>
       </c>
       <c r="D200" t="s">
-        <v>390</v>
+        <v>378</v>
       </c>
     </row>
     <row r="201" spans="1:4">
@@ -4416,7 +4413,7 @@
         <v>355</v>
       </c>
       <c r="D201" t="s">
-        <v>378</v>
+        <v>362</v>
       </c>
     </row>
     <row r="202" spans="1:4">
@@ -4427,10 +4424,10 @@
         <v>204</v>
       </c>
       <c r="C202" t="s">
-        <v>355</v>
+        <v>359</v>
       </c>
       <c r="D202" t="s">
-        <v>362</v>
+        <v>370</v>
       </c>
     </row>
     <row r="203" spans="1:4">
@@ -4441,10 +4438,10 @@
         <v>205</v>
       </c>
       <c r="C203" t="s">
-        <v>359</v>
+        <v>355</v>
       </c>
       <c r="D203" t="s">
-        <v>370</v>
+        <v>383</v>
       </c>
     </row>
     <row r="204" spans="1:4">
@@ -4889,10 +4886,10 @@
         <v>237</v>
       </c>
       <c r="C235" t="s">
-        <v>357</v>
+        <v>359</v>
       </c>
       <c r="D235" t="s">
-        <v>360</v>
+        <v>390</v>
       </c>
     </row>
     <row r="236" spans="1:4">
@@ -4906,7 +4903,7 @@
         <v>359</v>
       </c>
       <c r="D236" t="s">
-        <v>390</v>
+        <v>392</v>
       </c>
     </row>
     <row r="237" spans="1:4">
@@ -4917,10 +4914,10 @@
         <v>239</v>
       </c>
       <c r="C237" t="s">
-        <v>359</v>
+        <v>354</v>
       </c>
       <c r="D237" t="s">
-        <v>392</v>
+        <v>372</v>
       </c>
     </row>
     <row r="238" spans="1:4">
@@ -4931,10 +4928,10 @@
         <v>240</v>
       </c>
       <c r="C238" t="s">
-        <v>354</v>
+        <v>355</v>
       </c>
       <c r="D238" t="s">
-        <v>372</v>
+        <v>363</v>
       </c>
     </row>
     <row r="239" spans="1:4">
@@ -4948,7 +4945,7 @@
         <v>355</v>
       </c>
       <c r="D239" t="s">
-        <v>363</v>
+        <v>392</v>
       </c>
     </row>
     <row r="240" spans="1:4">
@@ -4962,7 +4959,7 @@
         <v>355</v>
       </c>
       <c r="D240" t="s">
-        <v>392</v>
+        <v>374</v>
       </c>
     </row>
     <row r="241" spans="1:4">
@@ -4973,10 +4970,10 @@
         <v>243</v>
       </c>
       <c r="C241" t="s">
-        <v>355</v>
+        <v>359</v>
       </c>
       <c r="D241" t="s">
-        <v>374</v>
+        <v>379</v>
       </c>
     </row>
     <row r="242" spans="1:4">
@@ -4987,7 +4984,7 @@
         <v>244</v>
       </c>
       <c r="C242" t="s">
-        <v>359</v>
+        <v>354</v>
       </c>
       <c r="D242" t="s">
         <v>379</v>
@@ -5004,7 +5001,7 @@
         <v>354</v>
       </c>
       <c r="D243" t="s">
-        <v>379</v>
+        <v>380</v>
       </c>
     </row>
     <row r="244" spans="1:4">
@@ -5015,10 +5012,10 @@
         <v>246</v>
       </c>
       <c r="C244" t="s">
-        <v>354</v>
+        <v>359</v>
       </c>
       <c r="D244" t="s">
-        <v>380</v>
+        <v>387</v>
       </c>
     </row>
     <row r="245" spans="1:4">
@@ -5032,7 +5029,7 @@
         <v>359</v>
       </c>
       <c r="D245" t="s">
-        <v>387</v>
+        <v>360</v>
       </c>
     </row>
     <row r="246" spans="1:4">
@@ -5043,10 +5040,10 @@
         <v>248</v>
       </c>
       <c r="C246" t="s">
-        <v>359</v>
+        <v>358</v>
       </c>
       <c r="D246" t="s">
-        <v>360</v>
+        <v>371</v>
       </c>
     </row>
     <row r="247" spans="1:4">
@@ -5057,10 +5054,10 @@
         <v>249</v>
       </c>
       <c r="C247" t="s">
-        <v>358</v>
+        <v>357</v>
       </c>
       <c r="D247" t="s">
-        <v>371</v>
+        <v>360</v>
       </c>
     </row>
     <row r="248" spans="1:4">
@@ -5099,10 +5096,10 @@
         <v>252</v>
       </c>
       <c r="C250" t="s">
-        <v>355</v>
+        <v>357</v>
       </c>
       <c r="D250" t="s">
-        <v>382</v>
+        <v>360</v>
       </c>
     </row>
     <row r="251" spans="1:4">
@@ -5116,7 +5113,7 @@
         <v>355</v>
       </c>
       <c r="D251" t="s">
-        <v>363</v>
+        <v>382</v>
       </c>
     </row>
     <row r="252" spans="1:4">
@@ -5127,10 +5124,10 @@
         <v>254</v>
       </c>
       <c r="C252" t="s">
-        <v>357</v>
+        <v>355</v>
       </c>
       <c r="D252" t="s">
-        <v>379</v>
+        <v>363</v>
       </c>
     </row>
     <row r="253" spans="1:4">
@@ -5141,10 +5138,10 @@
         <v>255</v>
       </c>
       <c r="C253" t="s">
-        <v>358</v>
+        <v>357</v>
       </c>
       <c r="D253" t="s">
-        <v>364</v>
+        <v>379</v>
       </c>
     </row>
     <row r="254" spans="1:4">
@@ -5155,10 +5152,10 @@
         <v>256</v>
       </c>
       <c r="C254" t="s">
-        <v>354</v>
+        <v>358</v>
       </c>
       <c r="D254" t="s">
-        <v>378</v>
+        <v>364</v>
       </c>
     </row>
     <row r="255" spans="1:4">
@@ -5169,10 +5166,10 @@
         <v>257</v>
       </c>
       <c r="C255" t="s">
-        <v>357</v>
+        <v>354</v>
       </c>
       <c r="D255" t="s">
-        <v>379</v>
+        <v>378</v>
       </c>
     </row>
     <row r="256" spans="1:4">
@@ -5183,10 +5180,10 @@
         <v>258</v>
       </c>
       <c r="C256" t="s">
-        <v>355</v>
+        <v>357</v>
       </c>
       <c r="D256" t="s">
-        <v>388</v>
+        <v>379</v>
       </c>
     </row>
     <row r="257" spans="1:4">
@@ -5197,10 +5194,10 @@
         <v>259</v>
       </c>
       <c r="C257" t="s">
-        <v>356</v>
+        <v>355</v>
       </c>
       <c r="D257" t="s">
-        <v>363</v>
+        <v>388</v>
       </c>
     </row>
     <row r="258" spans="1:4">
@@ -5211,10 +5208,10 @@
         <v>260</v>
       </c>
       <c r="C258" t="s">
-        <v>354</v>
+        <v>356</v>
       </c>
       <c r="D258" t="s">
-        <v>385</v>
+        <v>363</v>
       </c>
     </row>
     <row r="259" spans="1:4">
@@ -5228,7 +5225,7 @@
         <v>354</v>
       </c>
       <c r="D259" t="s">
-        <v>360</v>
+        <v>385</v>
       </c>
     </row>
     <row r="260" spans="1:4">
@@ -5242,7 +5239,7 @@
         <v>354</v>
       </c>
       <c r="D260" t="s">
-        <v>389</v>
+        <v>360</v>
       </c>
     </row>
     <row r="261" spans="1:4">
@@ -5253,10 +5250,10 @@
         <v>263</v>
       </c>
       <c r="C261" t="s">
-        <v>359</v>
+        <v>354</v>
       </c>
       <c r="D261" t="s">
-        <v>377</v>
+        <v>389</v>
       </c>
     </row>
     <row r="262" spans="1:4">
@@ -5267,10 +5264,10 @@
         <v>264</v>
       </c>
       <c r="C262" t="s">
-        <v>354</v>
+        <v>359</v>
       </c>
       <c r="D262" t="s">
-        <v>390</v>
+        <v>377</v>
       </c>
     </row>
     <row r="263" spans="1:4">
@@ -5281,10 +5278,10 @@
         <v>265</v>
       </c>
       <c r="C263" t="s">
-        <v>355</v>
+        <v>354</v>
       </c>
       <c r="D263" t="s">
-        <v>379</v>
+        <v>390</v>
       </c>
     </row>
     <row r="264" spans="1:4">
@@ -5295,7 +5292,7 @@
         <v>266</v>
       </c>
       <c r="C264" t="s">
-        <v>354</v>
+        <v>355</v>
       </c>
       <c r="D264" t="s">
         <v>379</v>
@@ -5309,10 +5306,10 @@
         <v>267</v>
       </c>
       <c r="C265" t="s">
-        <v>356</v>
+        <v>354</v>
       </c>
       <c r="D265" t="s">
-        <v>386</v>
+        <v>379</v>
       </c>
     </row>
     <row r="266" spans="1:4">
@@ -5323,10 +5320,10 @@
         <v>268</v>
       </c>
       <c r="C266" t="s">
-        <v>359</v>
+        <v>356</v>
       </c>
       <c r="D266" t="s">
-        <v>361</v>
+        <v>386</v>
       </c>
     </row>
     <row r="267" spans="1:4">
@@ -5337,10 +5334,10 @@
         <v>269</v>
       </c>
       <c r="C267" t="s">
-        <v>357</v>
+        <v>359</v>
       </c>
       <c r="D267" t="s">
-        <v>362</v>
+        <v>361</v>
       </c>
     </row>
     <row r="268" spans="1:4">
@@ -5393,10 +5390,10 @@
         <v>273</v>
       </c>
       <c r="C271" t="s">
-        <v>358</v>
+        <v>357</v>
       </c>
       <c r="D271" t="s">
-        <v>392</v>
+        <v>362</v>
       </c>
     </row>
     <row r="272" spans="1:4">
@@ -5407,10 +5404,10 @@
         <v>274</v>
       </c>
       <c r="C272" t="s">
-        <v>357</v>
+        <v>358</v>
       </c>
       <c r="D272" t="s">
-        <v>389</v>
+        <v>392</v>
       </c>
     </row>
     <row r="273" spans="1:4">
@@ -5421,10 +5418,10 @@
         <v>275</v>
       </c>
       <c r="C273" t="s">
-        <v>359</v>
+        <v>357</v>
       </c>
       <c r="D273" t="s">
-        <v>367</v>
+        <v>389</v>
       </c>
     </row>
     <row r="274" spans="1:4">
@@ -5438,7 +5435,7 @@
         <v>359</v>
       </c>
       <c r="D274" t="s">
-        <v>379</v>
+        <v>367</v>
       </c>
     </row>
     <row r="275" spans="1:4">
@@ -5463,10 +5460,10 @@
         <v>278</v>
       </c>
       <c r="C276" t="s">
-        <v>358</v>
+        <v>359</v>
       </c>
       <c r="D276" t="s">
-        <v>382</v>
+        <v>379</v>
       </c>
     </row>
     <row r="277" spans="1:4">
@@ -5477,10 +5474,10 @@
         <v>279</v>
       </c>
       <c r="C277" t="s">
-        <v>354</v>
+        <v>358</v>
       </c>
       <c r="D277" t="s">
-        <v>374</v>
+        <v>382</v>
       </c>
     </row>
     <row r="278" spans="1:4">
@@ -5491,10 +5488,10 @@
         <v>280</v>
       </c>
       <c r="C278" t="s">
-        <v>355</v>
+        <v>354</v>
       </c>
       <c r="D278" t="s">
-        <v>389</v>
+        <v>374</v>
       </c>
     </row>
     <row r="279" spans="1:4">
@@ -5505,10 +5502,10 @@
         <v>281</v>
       </c>
       <c r="C279" t="s">
-        <v>359</v>
+        <v>355</v>
       </c>
       <c r="D279" t="s">
-        <v>363</v>
+        <v>389</v>
       </c>
     </row>
     <row r="280" spans="1:4">
@@ -5522,7 +5519,7 @@
         <v>359</v>
       </c>
       <c r="D280" t="s">
-        <v>366</v>
+        <v>363</v>
       </c>
     </row>
     <row r="281" spans="1:4">
@@ -5533,10 +5530,10 @@
         <v>283</v>
       </c>
       <c r="C281" t="s">
-        <v>355</v>
+        <v>359</v>
       </c>
       <c r="D281" t="s">
-        <v>385</v>
+        <v>366</v>
       </c>
     </row>
     <row r="282" spans="1:4">
@@ -5547,10 +5544,10 @@
         <v>284</v>
       </c>
       <c r="C282" t="s">
-        <v>354</v>
+        <v>355</v>
       </c>
       <c r="D282" t="s">
-        <v>379</v>
+        <v>385</v>
       </c>
     </row>
     <row r="283" spans="1:4">
@@ -5561,10 +5558,10 @@
         <v>285</v>
       </c>
       <c r="C283" t="s">
-        <v>355</v>
+        <v>354</v>
       </c>
       <c r="D283" t="s">
-        <v>382</v>
+        <v>379</v>
       </c>
     </row>
     <row r="284" spans="1:4">
@@ -5575,10 +5572,10 @@
         <v>286</v>
       </c>
       <c r="C284" t="s">
-        <v>357</v>
+        <v>355</v>
       </c>
       <c r="D284" t="s">
-        <v>370</v>
+        <v>382</v>
       </c>
     </row>
     <row r="285" spans="1:4">
@@ -5589,10 +5586,10 @@
         <v>287</v>
       </c>
       <c r="C285" t="s">
-        <v>355</v>
+        <v>357</v>
       </c>
       <c r="D285" t="s">
-        <v>390</v>
+        <v>370</v>
       </c>
     </row>
     <row r="286" spans="1:4">
@@ -5603,10 +5600,10 @@
         <v>288</v>
       </c>
       <c r="C286" t="s">
-        <v>359</v>
+        <v>355</v>
       </c>
       <c r="D286" t="s">
-        <v>389</v>
+        <v>390</v>
       </c>
     </row>
     <row r="287" spans="1:4">
@@ -5617,10 +5614,10 @@
         <v>289</v>
       </c>
       <c r="C287" t="s">
-        <v>358</v>
+        <v>359</v>
       </c>
       <c r="D287" t="s">
-        <v>386</v>
+        <v>389</v>
       </c>
     </row>
     <row r="288" spans="1:4">
@@ -5631,10 +5628,10 @@
         <v>290</v>
       </c>
       <c r="C288" t="s">
-        <v>355</v>
+        <v>358</v>
       </c>
       <c r="D288" t="s">
-        <v>379</v>
+        <v>386</v>
       </c>
     </row>
     <row r="289" spans="1:4">
@@ -5645,10 +5642,10 @@
         <v>291</v>
       </c>
       <c r="C289" t="s">
-        <v>354</v>
+        <v>355</v>
       </c>
       <c r="D289" t="s">
-        <v>370</v>
+        <v>379</v>
       </c>
     </row>
     <row r="290" spans="1:4">
@@ -5662,7 +5659,7 @@
         <v>354</v>
       </c>
       <c r="D290" t="s">
-        <v>379</v>
+        <v>370</v>
       </c>
     </row>
     <row r="291" spans="1:4">
@@ -5673,10 +5670,10 @@
         <v>293</v>
       </c>
       <c r="C291" t="s">
-        <v>359</v>
+        <v>354</v>
       </c>
       <c r="D291" t="s">
-        <v>378</v>
+        <v>379</v>
       </c>
     </row>
     <row r="292" spans="1:4">
@@ -5687,7 +5684,7 @@
         <v>294</v>
       </c>
       <c r="C292" t="s">
-        <v>358</v>
+        <v>359</v>
       </c>
       <c r="D292" t="s">
         <v>378</v>
@@ -5701,10 +5698,10 @@
         <v>295</v>
       </c>
       <c r="C293" t="s">
-        <v>359</v>
+        <v>358</v>
       </c>
       <c r="D293" t="s">
-        <v>376</v>
+        <v>378</v>
       </c>
     </row>
     <row r="294" spans="1:4">
@@ -5855,10 +5852,10 @@
         <v>306</v>
       </c>
       <c r="C304" t="s">
-        <v>357</v>
+        <v>359</v>
       </c>
       <c r="D304" t="s">
-        <v>387</v>
+        <v>376</v>
       </c>
     </row>
     <row r="305" spans="1:4">
@@ -6012,7 +6009,7 @@
         <v>357</v>
       </c>
       <c r="D315" t="s">
-        <v>360</v>
+        <v>387</v>
       </c>
     </row>
     <row r="316" spans="1:4">
@@ -6331,10 +6328,10 @@
         <v>340</v>
       </c>
       <c r="C338" t="s">
-        <v>357</v>
+        <v>358</v>
       </c>
       <c r="D338" t="s">
-        <v>378</v>
+        <v>374</v>
       </c>
     </row>
     <row r="339" spans="1:4">
@@ -6345,10 +6342,10 @@
         <v>341</v>
       </c>
       <c r="C339" t="s">
-        <v>358</v>
+        <v>357</v>
       </c>
       <c r="D339" t="s">
-        <v>374</v>
+        <v>386</v>
       </c>
     </row>
     <row r="340" spans="1:4">
@@ -6513,10 +6510,10 @@
         <v>353</v>
       </c>
       <c r="C351" t="s">
-        <v>357</v>
+        <v>355</v>
       </c>
       <c r="D351" t="s">
-        <v>386</v>
+        <v>391</v>
       </c>
     </row>
   </sheetData>
@@ -6933,7 +6930,7 @@
         <v>28</v>
       </c>
       <c r="B29" t="s">
-        <v>27</v>
+        <v>28</v>
       </c>
       <c r="C29" t="s">
         <v>354</v>
@@ -6975,7 +6972,7 @@
         <v>31</v>
       </c>
       <c r="B32" t="s">
-        <v>42</v>
+        <v>41</v>
       </c>
       <c r="C32" t="s">
         <v>354</v>
@@ -7017,7 +7014,7 @@
         <v>34</v>
       </c>
       <c r="B35" t="s">
-        <v>28</v>
+        <v>27</v>
       </c>
       <c r="C35" t="s">
         <v>354</v>
@@ -7031,7 +7028,7 @@
         <v>35</v>
       </c>
       <c r="B36" t="s">
-        <v>41</v>
+        <v>42</v>
       </c>
       <c r="C36" t="s">
         <v>357</v>
@@ -7269,7 +7266,7 @@
         <v>52</v>
       </c>
       <c r="B53" t="s">
-        <v>47</v>
+        <v>46</v>
       </c>
       <c r="C53" t="s">
         <v>354</v>
@@ -7353,7 +7350,7 @@
         <v>58</v>
       </c>
       <c r="B59" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="C59" t="s">
         <v>356</v>
@@ -7633,7 +7630,7 @@
         <v>78</v>
       </c>
       <c r="B79" t="s">
-        <v>85</v>
+        <v>86</v>
       </c>
       <c r="C79" t="s">
         <v>357</v>
@@ -7815,7 +7812,7 @@
         <v>91</v>
       </c>
       <c r="B92" t="s">
-        <v>114</v>
+        <v>115</v>
       </c>
       <c r="C92" t="s">
         <v>354</v>
@@ -7829,7 +7826,7 @@
         <v>92</v>
       </c>
       <c r="B93" t="s">
-        <v>105</v>
+        <v>106</v>
       </c>
       <c r="C93" t="s">
         <v>356</v>
@@ -7913,7 +7910,7 @@
         <v>98</v>
       </c>
       <c r="B99" t="s">
-        <v>104</v>
+        <v>105</v>
       </c>
       <c r="C99" t="s">
         <v>357</v>
@@ -7927,7 +7924,7 @@
         <v>99</v>
       </c>
       <c r="B100" t="s">
-        <v>86</v>
+        <v>85</v>
       </c>
       <c r="C100" t="s">
         <v>355</v>
@@ -7941,7 +7938,7 @@
         <v>100</v>
       </c>
       <c r="B101" t="s">
-        <v>101</v>
+        <v>102</v>
       </c>
       <c r="C101" t="s">
         <v>355</v>
@@ -7969,7 +7966,7 @@
         <v>102</v>
       </c>
       <c r="B103" t="s">
-        <v>107</v>
+        <v>104</v>
       </c>
       <c r="C103" t="s">
         <v>355</v>
@@ -8025,13 +8022,13 @@
         <v>106</v>
       </c>
       <c r="B107" t="s">
-        <v>108</v>
+        <v>95</v>
       </c>
       <c r="C107" t="s">
-        <v>357</v>
+        <v>354</v>
       </c>
       <c r="D107" t="s">
-        <v>366</v>
+        <v>381</v>
       </c>
     </row>
     <row r="108" spans="1:4">
@@ -8039,13 +8036,13 @@
         <v>107</v>
       </c>
       <c r="B108" t="s">
-        <v>95</v>
+        <v>107</v>
       </c>
       <c r="C108" t="s">
-        <v>354</v>
+        <v>357</v>
       </c>
       <c r="D108" t="s">
-        <v>381</v>
+        <v>375</v>
       </c>
     </row>
     <row r="109" spans="1:4">
@@ -8053,13 +8050,13 @@
         <v>108</v>
       </c>
       <c r="B109" t="s">
-        <v>106</v>
+        <v>101</v>
       </c>
       <c r="C109" t="s">
-        <v>357</v>
+        <v>356</v>
       </c>
       <c r="D109" t="s">
-        <v>375</v>
+        <v>391</v>
       </c>
     </row>
     <row r="110" spans="1:4">
@@ -8067,13 +8064,13 @@
         <v>109</v>
       </c>
       <c r="B110" t="s">
-        <v>102</v>
+        <v>109</v>
       </c>
       <c r="C110" t="s">
-        <v>356</v>
+        <v>357</v>
       </c>
       <c r="D110" t="s">
-        <v>391</v>
+        <v>366</v>
       </c>
     </row>
     <row r="111" spans="1:4">
@@ -8081,7 +8078,7 @@
         <v>110</v>
       </c>
       <c r="B111" t="s">
-        <v>115</v>
+        <v>116</v>
       </c>
       <c r="C111" t="s">
         <v>354</v>
@@ -8151,13 +8148,13 @@
         <v>115</v>
       </c>
       <c r="B116" t="s">
-        <v>109</v>
+        <v>111</v>
       </c>
       <c r="C116" t="s">
-        <v>355</v>
+        <v>357</v>
       </c>
       <c r="D116" t="s">
-        <v>368</v>
+        <v>363</v>
       </c>
     </row>
     <row r="117" spans="1:4">
@@ -8165,13 +8162,13 @@
         <v>116</v>
       </c>
       <c r="B117" t="s">
-        <v>123</v>
+        <v>108</v>
       </c>
       <c r="C117" t="s">
-        <v>354</v>
+        <v>355</v>
       </c>
       <c r="D117" t="s">
-        <v>366</v>
+        <v>368</v>
       </c>
     </row>
     <row r="118" spans="1:4">
@@ -8179,13 +8176,13 @@
         <v>117</v>
       </c>
       <c r="B118" t="s">
-        <v>145</v>
+        <v>123</v>
       </c>
       <c r="C118" t="s">
-        <v>355</v>
+        <v>354</v>
       </c>
       <c r="D118" t="s">
-        <v>369</v>
+        <v>366</v>
       </c>
     </row>
     <row r="119" spans="1:4">
@@ -8193,13 +8190,13 @@
         <v>118</v>
       </c>
       <c r="B119" t="s">
-        <v>116</v>
+        <v>147</v>
       </c>
       <c r="C119" t="s">
-        <v>357</v>
+        <v>355</v>
       </c>
       <c r="D119" t="s">
-        <v>363</v>
+        <v>369</v>
       </c>
     </row>
     <row r="120" spans="1:4">
@@ -8224,10 +8221,10 @@
         <v>112</v>
       </c>
       <c r="C121" t="s">
-        <v>357</v>
+        <v>356</v>
       </c>
       <c r="D121" t="s">
-        <v>360</v>
+        <v>372</v>
       </c>
     </row>
     <row r="122" spans="1:4">
@@ -8235,13 +8232,13 @@
         <v>121</v>
       </c>
       <c r="B122" t="s">
-        <v>111</v>
+        <v>113</v>
       </c>
       <c r="C122" t="s">
-        <v>356</v>
+        <v>357</v>
       </c>
       <c r="D122" t="s">
-        <v>372</v>
+        <v>360</v>
       </c>
     </row>
     <row r="123" spans="1:4">
@@ -8249,13 +8246,13 @@
         <v>122</v>
       </c>
       <c r="B123" t="s">
-        <v>113</v>
+        <v>121</v>
       </c>
       <c r="C123" t="s">
-        <v>357</v>
+        <v>355</v>
       </c>
       <c r="D123" t="s">
-        <v>390</v>
+        <v>383</v>
       </c>
     </row>
     <row r="124" spans="1:4">
@@ -8263,13 +8260,13 @@
         <v>123</v>
       </c>
       <c r="B124" t="s">
-        <v>121</v>
+        <v>158</v>
       </c>
       <c r="C124" t="s">
         <v>355</v>
       </c>
       <c r="D124" t="s">
-        <v>383</v>
+        <v>392</v>
       </c>
     </row>
     <row r="125" spans="1:4">
@@ -8277,13 +8274,13 @@
         <v>124</v>
       </c>
       <c r="B125" t="s">
-        <v>158</v>
+        <v>144</v>
       </c>
       <c r="C125" t="s">
-        <v>355</v>
+        <v>354</v>
       </c>
       <c r="D125" t="s">
-        <v>392</v>
+        <v>368</v>
       </c>
     </row>
     <row r="126" spans="1:4">
@@ -8291,13 +8288,13 @@
         <v>125</v>
       </c>
       <c r="B126" t="s">
-        <v>144</v>
+        <v>114</v>
       </c>
       <c r="C126" t="s">
-        <v>354</v>
+        <v>357</v>
       </c>
       <c r="D126" t="s">
-        <v>368</v>
+        <v>390</v>
       </c>
     </row>
     <row r="127" spans="1:4">
@@ -8403,7 +8400,7 @@
         <v>133</v>
       </c>
       <c r="B134" t="s">
-        <v>175</v>
+        <v>176</v>
       </c>
       <c r="C134" t="s">
         <v>355</v>
@@ -8431,7 +8428,7 @@
         <v>135</v>
       </c>
       <c r="B136" t="s">
-        <v>146</v>
+        <v>145</v>
       </c>
       <c r="C136" t="s">
         <v>354</v>
@@ -8473,7 +8470,7 @@
         <v>138</v>
       </c>
       <c r="B139" t="s">
-        <v>147</v>
+        <v>146</v>
       </c>
       <c r="C139" t="s">
         <v>355</v>
@@ -8557,13 +8554,13 @@
         <v>144</v>
       </c>
       <c r="B145" t="s">
-        <v>183</v>
+        <v>138</v>
       </c>
       <c r="C145" t="s">
-        <v>355</v>
+        <v>357</v>
       </c>
       <c r="D145" t="s">
-        <v>361</v>
+        <v>383</v>
       </c>
     </row>
     <row r="146" spans="1:4">
@@ -8571,13 +8568,13 @@
         <v>145</v>
       </c>
       <c r="B146" t="s">
-        <v>138</v>
+        <v>175</v>
       </c>
       <c r="C146" t="s">
-        <v>357</v>
+        <v>355</v>
       </c>
       <c r="D146" t="s">
-        <v>383</v>
+        <v>365</v>
       </c>
     </row>
     <row r="147" spans="1:4">
@@ -8585,13 +8582,13 @@
         <v>146</v>
       </c>
       <c r="B147" t="s">
-        <v>176</v>
+        <v>190</v>
       </c>
       <c r="C147" t="s">
         <v>355</v>
       </c>
       <c r="D147" t="s">
-        <v>365</v>
+        <v>363</v>
       </c>
     </row>
     <row r="148" spans="1:4">
@@ -8599,13 +8596,13 @@
         <v>147</v>
       </c>
       <c r="B148" t="s">
-        <v>190</v>
+        <v>149</v>
       </c>
       <c r="C148" t="s">
-        <v>355</v>
+        <v>354</v>
       </c>
       <c r="D148" t="s">
-        <v>363</v>
+        <v>382</v>
       </c>
     </row>
     <row r="149" spans="1:4">
@@ -8613,13 +8610,13 @@
         <v>148</v>
       </c>
       <c r="B149" t="s">
-        <v>149</v>
+        <v>160</v>
       </c>
       <c r="C149" t="s">
         <v>354</v>
       </c>
       <c r="D149" t="s">
-        <v>382</v>
+        <v>377</v>
       </c>
     </row>
     <row r="150" spans="1:4">
@@ -8627,13 +8624,13 @@
         <v>149</v>
       </c>
       <c r="B150" t="s">
-        <v>124</v>
+        <v>154</v>
       </c>
       <c r="C150" t="s">
-        <v>355</v>
+        <v>354</v>
       </c>
       <c r="D150" t="s">
-        <v>379</v>
+        <v>369</v>
       </c>
     </row>
     <row r="151" spans="1:4">
@@ -8641,13 +8638,13 @@
         <v>150</v>
       </c>
       <c r="B151" t="s">
-        <v>160</v>
+        <v>139</v>
       </c>
       <c r="C151" t="s">
-        <v>354</v>
+        <v>358</v>
       </c>
       <c r="D151" t="s">
-        <v>377</v>
+        <v>372</v>
       </c>
     </row>
     <row r="152" spans="1:4">
@@ -8655,13 +8652,13 @@
         <v>151</v>
       </c>
       <c r="B152" t="s">
-        <v>154</v>
+        <v>184</v>
       </c>
       <c r="C152" t="s">
-        <v>354</v>
+        <v>355</v>
       </c>
       <c r="D152" t="s">
-        <v>369</v>
+        <v>361</v>
       </c>
     </row>
     <row r="153" spans="1:4">
@@ -8669,13 +8666,13 @@
         <v>152</v>
       </c>
       <c r="B153" t="s">
-        <v>139</v>
+        <v>124</v>
       </c>
       <c r="C153" t="s">
-        <v>358</v>
+        <v>355</v>
       </c>
       <c r="D153" t="s">
-        <v>372</v>
+        <v>379</v>
       </c>
     </row>
     <row r="154" spans="1:4">
@@ -8739,7 +8736,7 @@
         <v>157</v>
       </c>
       <c r="B158" t="s">
-        <v>184</v>
+        <v>183</v>
       </c>
       <c r="C158" t="s">
         <v>354</v>
@@ -8907,7 +8904,7 @@
         <v>169</v>
       </c>
       <c r="B170" t="s">
-        <v>201</v>
+        <v>205</v>
       </c>
       <c r="C170" t="s">
         <v>355</v>
@@ -8935,7 +8932,7 @@
         <v>171</v>
       </c>
       <c r="B172" t="s">
-        <v>171</v>
+        <v>172</v>
       </c>
       <c r="C172" t="s">
         <v>358</v>
@@ -9033,7 +9030,7 @@
         <v>178</v>
       </c>
       <c r="B179" t="s">
-        <v>169</v>
+        <v>170</v>
       </c>
       <c r="C179" t="s">
         <v>358</v>
@@ -9047,7 +9044,7 @@
         <v>179</v>
       </c>
       <c r="B180" t="s">
-        <v>204</v>
+        <v>203</v>
       </c>
       <c r="C180" t="s">
         <v>355</v>
@@ -9061,7 +9058,7 @@
         <v>180</v>
       </c>
       <c r="B181" t="s">
-        <v>170</v>
+        <v>171</v>
       </c>
       <c r="C181" t="s">
         <v>358</v>
@@ -9103,7 +9100,7 @@
         <v>183</v>
       </c>
       <c r="B184" t="s">
-        <v>162</v>
+        <v>161</v>
       </c>
       <c r="C184" t="s">
         <v>356</v>
@@ -9117,7 +9114,7 @@
         <v>184</v>
       </c>
       <c r="B185" t="s">
-        <v>161</v>
+        <v>162</v>
       </c>
       <c r="C185" t="s">
         <v>357</v>
@@ -9145,7 +9142,7 @@
         <v>186</v>
       </c>
       <c r="B187" t="s">
-        <v>188</v>
+        <v>186</v>
       </c>
       <c r="C187" t="s">
         <v>355</v>
@@ -9257,7 +9254,7 @@
         <v>194</v>
       </c>
       <c r="B195" t="s">
-        <v>186</v>
+        <v>187</v>
       </c>
       <c r="C195" t="s">
         <v>359</v>
@@ -9271,7 +9268,7 @@
         <v>195</v>
       </c>
       <c r="B196" t="s">
-        <v>172</v>
+        <v>169</v>
       </c>
       <c r="C196" t="s">
         <v>357</v>
@@ -9341,7 +9338,7 @@
         <v>200</v>
       </c>
       <c r="B201" t="s">
-        <v>187</v>
+        <v>188</v>
       </c>
       <c r="C201" t="s">
         <v>355</v>
@@ -9425,7 +9422,7 @@
         <v>206</v>
       </c>
       <c r="B207" t="s">
-        <v>203</v>
+        <v>202</v>
       </c>
       <c r="C207" t="s">
         <v>355</v>
@@ -9439,7 +9436,7 @@
         <v>207</v>
       </c>
       <c r="B208" t="s">
-        <v>240</v>
+        <v>239</v>
       </c>
       <c r="C208" t="s">
         <v>354</v>
@@ -9481,7 +9478,7 @@
         <v>210</v>
       </c>
       <c r="B211" t="s">
-        <v>253</v>
+        <v>254</v>
       </c>
       <c r="C211" t="s">
         <v>355</v>
@@ -9593,7 +9590,7 @@
         <v>218</v>
       </c>
       <c r="B219" t="s">
-        <v>202</v>
+        <v>201</v>
       </c>
       <c r="C219" t="s">
         <v>356</v>
@@ -9621,13 +9618,13 @@
         <v>220</v>
       </c>
       <c r="B221" t="s">
-        <v>173</v>
+        <v>204</v>
       </c>
       <c r="C221" t="s">
-        <v>357</v>
+        <v>359</v>
       </c>
       <c r="D221" t="s">
-        <v>385</v>
+        <v>370</v>
       </c>
     </row>
     <row r="222" spans="1:4">
@@ -9635,13 +9632,13 @@
         <v>221</v>
       </c>
       <c r="B222" t="s">
-        <v>205</v>
+        <v>173</v>
       </c>
       <c r="C222" t="s">
-        <v>359</v>
+        <v>357</v>
       </c>
       <c r="D222" t="s">
-        <v>370</v>
+        <v>385</v>
       </c>
     </row>
     <row r="223" spans="1:4">
@@ -9705,13 +9702,13 @@
         <v>226</v>
       </c>
       <c r="B227" t="s">
-        <v>237</v>
+        <v>253</v>
       </c>
       <c r="C227" t="s">
-        <v>357</v>
+        <v>355</v>
       </c>
       <c r="D227" t="s">
-        <v>360</v>
+        <v>382</v>
       </c>
     </row>
     <row r="228" spans="1:4">
@@ -9719,13 +9716,13 @@
         <v>227</v>
       </c>
       <c r="B228" t="s">
-        <v>252</v>
+        <v>260</v>
       </c>
       <c r="C228" t="s">
-        <v>355</v>
+        <v>356</v>
       </c>
       <c r="D228" t="s">
-        <v>382</v>
+        <v>363</v>
       </c>
     </row>
     <row r="229" spans="1:4">
@@ -9733,13 +9730,13 @@
         <v>228</v>
       </c>
       <c r="B229" t="s">
-        <v>259</v>
+        <v>249</v>
       </c>
       <c r="C229" t="s">
-        <v>356</v>
+        <v>357</v>
       </c>
       <c r="D229" t="s">
-        <v>363</v>
+        <v>360</v>
       </c>
     </row>
     <row r="230" spans="1:4">
@@ -9789,7 +9786,7 @@
         <v>232</v>
       </c>
       <c r="B233" t="s">
-        <v>243</v>
+        <v>242</v>
       </c>
       <c r="C233" t="s">
         <v>355</v>
@@ -9817,7 +9814,7 @@
         <v>234</v>
       </c>
       <c r="B235" t="s">
-        <v>283</v>
+        <v>284</v>
       </c>
       <c r="C235" t="s">
         <v>355</v>
@@ -9873,7 +9870,7 @@
         <v>238</v>
       </c>
       <c r="B239" t="s">
-        <v>247</v>
+        <v>246</v>
       </c>
       <c r="C239" t="s">
         <v>359</v>
@@ -9901,7 +9898,7 @@
         <v>240</v>
       </c>
       <c r="B241" t="s">
-        <v>248</v>
+        <v>247</v>
       </c>
       <c r="C241" t="s">
         <v>359</v>
@@ -9915,7 +9912,7 @@
         <v>241</v>
       </c>
       <c r="B242" t="s">
-        <v>258</v>
+        <v>259</v>
       </c>
       <c r="C242" t="s">
         <v>355</v>
@@ -9929,7 +9926,7 @@
         <v>242</v>
       </c>
       <c r="B243" t="s">
-        <v>249</v>
+        <v>248</v>
       </c>
       <c r="C243" t="s">
         <v>358</v>
@@ -9943,7 +9940,7 @@
         <v>243</v>
       </c>
       <c r="B244" t="s">
-        <v>245</v>
+        <v>244</v>
       </c>
       <c r="C244" t="s">
         <v>354</v>
@@ -9971,7 +9968,7 @@
         <v>245</v>
       </c>
       <c r="B246" t="s">
-        <v>280</v>
+        <v>281</v>
       </c>
       <c r="C246" t="s">
         <v>355</v>
@@ -10013,7 +10010,7 @@
         <v>248</v>
       </c>
       <c r="B249" t="s">
-        <v>242</v>
+        <v>241</v>
       </c>
       <c r="C249" t="s">
         <v>355</v>
@@ -10027,7 +10024,7 @@
         <v>249</v>
       </c>
       <c r="B250" t="s">
-        <v>238</v>
+        <v>237</v>
       </c>
       <c r="C250" t="s">
         <v>359</v>
@@ -10069,7 +10066,7 @@
         <v>252</v>
       </c>
       <c r="B253" t="s">
-        <v>239</v>
+        <v>238</v>
       </c>
       <c r="C253" t="s">
         <v>359</v>
@@ -10097,7 +10094,7 @@
         <v>254</v>
       </c>
       <c r="B255" t="s">
-        <v>256</v>
+        <v>257</v>
       </c>
       <c r="C255" t="s">
         <v>354</v>
@@ -10139,7 +10136,7 @@
         <v>257</v>
       </c>
       <c r="B258" t="s">
-        <v>262</v>
+        <v>263</v>
       </c>
       <c r="C258" t="s">
         <v>354</v>
@@ -10153,7 +10150,7 @@
         <v>258</v>
       </c>
       <c r="B259" t="s">
-        <v>266</v>
+        <v>267</v>
       </c>
       <c r="C259" t="s">
         <v>354</v>
@@ -10167,7 +10164,7 @@
         <v>259</v>
       </c>
       <c r="B260" t="s">
-        <v>260</v>
+        <v>261</v>
       </c>
       <c r="C260" t="s">
         <v>354</v>
@@ -10181,7 +10178,7 @@
         <v>260</v>
       </c>
       <c r="B261" t="s">
-        <v>246</v>
+        <v>245</v>
       </c>
       <c r="C261" t="s">
         <v>354</v>
@@ -10195,7 +10192,7 @@
         <v>261</v>
       </c>
       <c r="B262" t="s">
-        <v>267</v>
+        <v>268</v>
       </c>
       <c r="C262" t="s">
         <v>356</v>
@@ -10209,7 +10206,7 @@
         <v>262</v>
       </c>
       <c r="B263" t="s">
-        <v>255</v>
+        <v>256</v>
       </c>
       <c r="C263" t="s">
         <v>358</v>
@@ -10251,7 +10248,7 @@
         <v>265</v>
       </c>
       <c r="B266" t="s">
-        <v>287</v>
+        <v>288</v>
       </c>
       <c r="C266" t="s">
         <v>355</v>
@@ -10279,7 +10276,7 @@
         <v>267</v>
       </c>
       <c r="B268" t="s">
-        <v>265</v>
+        <v>266</v>
       </c>
       <c r="C268" t="s">
         <v>355</v>
@@ -10293,7 +10290,7 @@
         <v>268</v>
       </c>
       <c r="B269" t="s">
-        <v>263</v>
+        <v>264</v>
       </c>
       <c r="C269" t="s">
         <v>359</v>
@@ -10321,7 +10318,7 @@
         <v>270</v>
       </c>
       <c r="B271" t="s">
-        <v>257</v>
+        <v>258</v>
       </c>
       <c r="C271" t="s">
         <v>357</v>
@@ -10363,7 +10360,7 @@
         <v>273</v>
       </c>
       <c r="B274" t="s">
-        <v>279</v>
+        <v>280</v>
       </c>
       <c r="C274" t="s">
         <v>354</v>
@@ -10377,7 +10374,7 @@
         <v>274</v>
       </c>
       <c r="B275" t="s">
-        <v>241</v>
+        <v>240</v>
       </c>
       <c r="C275" t="s">
         <v>355</v>
@@ -10391,7 +10388,7 @@
         <v>275</v>
       </c>
       <c r="B276" t="s">
-        <v>244</v>
+        <v>243</v>
       </c>
       <c r="C276" t="s">
         <v>359</v>
@@ -10405,7 +10402,7 @@
         <v>276</v>
       </c>
       <c r="B277" t="s">
-        <v>285</v>
+        <v>286</v>
       </c>
       <c r="C277" t="s">
         <v>355</v>
@@ -10419,7 +10416,7 @@
         <v>277</v>
       </c>
       <c r="B278" t="s">
-        <v>275</v>
+        <v>276</v>
       </c>
       <c r="C278" t="s">
         <v>359</v>
@@ -10433,7 +10430,7 @@
         <v>278</v>
       </c>
       <c r="B279" t="s">
-        <v>254</v>
+        <v>255</v>
       </c>
       <c r="C279" t="s">
         <v>357</v>
@@ -10461,7 +10458,7 @@
         <v>280</v>
       </c>
       <c r="B281" t="s">
-        <v>261</v>
+        <v>262</v>
       </c>
       <c r="C281" t="s">
         <v>354</v>
@@ -10475,7 +10472,7 @@
         <v>281</v>
       </c>
       <c r="B282" t="s">
-        <v>264</v>
+        <v>265</v>
       </c>
       <c r="C282" t="s">
         <v>354</v>
@@ -10503,7 +10500,7 @@
         <v>283</v>
       </c>
       <c r="B284" t="s">
-        <v>281</v>
+        <v>282</v>
       </c>
       <c r="C284" t="s">
         <v>359</v>
@@ -10531,7 +10528,7 @@
         <v>285</v>
       </c>
       <c r="B286" t="s">
-        <v>268</v>
+        <v>269</v>
       </c>
       <c r="C286" t="s">
         <v>359</v>
@@ -10573,7 +10570,7 @@
         <v>288</v>
       </c>
       <c r="B289" t="s">
-        <v>291</v>
+        <v>292</v>
       </c>
       <c r="C289" t="s">
         <v>354</v>
@@ -10587,7 +10584,7 @@
         <v>289</v>
       </c>
       <c r="B290" t="s">
-        <v>282</v>
+        <v>283</v>
       </c>
       <c r="C290" t="s">
         <v>359</v>
@@ -10601,7 +10598,7 @@
         <v>290</v>
       </c>
       <c r="B291" t="s">
-        <v>278</v>
+        <v>279</v>
       </c>
       <c r="C291" t="s">
         <v>358</v>
@@ -10615,10 +10612,10 @@
         <v>291</v>
       </c>
       <c r="B292" t="s">
-        <v>289</v>
+        <v>341</v>
       </c>
       <c r="C292" t="s">
-        <v>358</v>
+        <v>357</v>
       </c>
       <c r="D292" t="s">
         <v>386</v>
@@ -10629,13 +10626,13 @@
         <v>292</v>
       </c>
       <c r="B293" t="s">
-        <v>288</v>
+        <v>290</v>
       </c>
       <c r="C293" t="s">
-        <v>359</v>
+        <v>358</v>
       </c>
       <c r="D293" t="s">
-        <v>389</v>
+        <v>386</v>
       </c>
     </row>
     <row r="294" spans="1:4">
@@ -10643,13 +10640,13 @@
         <v>293</v>
       </c>
       <c r="B294" t="s">
-        <v>233</v>
+        <v>289</v>
       </c>
       <c r="C294" t="s">
-        <v>356</v>
+        <v>359</v>
       </c>
       <c r="D294" t="s">
-        <v>379</v>
+        <v>389</v>
       </c>
     </row>
     <row r="295" spans="1:4">
@@ -10657,13 +10654,13 @@
         <v>294</v>
       </c>
       <c r="B295" t="s">
-        <v>309</v>
+        <v>233</v>
       </c>
       <c r="C295" t="s">
-        <v>355</v>
+        <v>356</v>
       </c>
       <c r="D295" t="s">
-        <v>364</v>
+        <v>379</v>
       </c>
     </row>
     <row r="296" spans="1:4">
@@ -10671,13 +10668,13 @@
         <v>295</v>
       </c>
       <c r="B296" t="s">
-        <v>295</v>
+        <v>309</v>
       </c>
       <c r="C296" t="s">
-        <v>359</v>
+        <v>355</v>
       </c>
       <c r="D296" t="s">
-        <v>376</v>
+        <v>364</v>
       </c>
     </row>
     <row r="297" spans="1:4">
@@ -10685,7 +10682,7 @@
         <v>296</v>
       </c>
       <c r="B297" t="s">
-        <v>284</v>
+        <v>285</v>
       </c>
       <c r="C297" t="s">
         <v>354</v>
@@ -10699,7 +10696,7 @@
         <v>297</v>
       </c>
       <c r="B298" t="s">
-        <v>293</v>
+        <v>294</v>
       </c>
       <c r="C298" t="s">
         <v>359</v>
@@ -10713,7 +10710,7 @@
         <v>298</v>
       </c>
       <c r="B299" t="s">
-        <v>294</v>
+        <v>295</v>
       </c>
       <c r="C299" t="s">
         <v>358</v>
@@ -10727,7 +10724,7 @@
         <v>299</v>
       </c>
       <c r="B300" t="s">
-        <v>273</v>
+        <v>274</v>
       </c>
       <c r="C300" t="s">
         <v>358</v>
@@ -10741,7 +10738,7 @@
         <v>300</v>
       </c>
       <c r="B301" t="s">
-        <v>292</v>
+        <v>293</v>
       </c>
       <c r="C301" t="s">
         <v>354</v>
@@ -10755,13 +10752,13 @@
         <v>301</v>
       </c>
       <c r="B302" t="s">
-        <v>310</v>
+        <v>306</v>
       </c>
       <c r="C302" t="s">
         <v>359</v>
       </c>
       <c r="D302" t="s">
-        <v>383</v>
+        <v>376</v>
       </c>
     </row>
     <row r="303" spans="1:4">
@@ -10769,13 +10766,13 @@
         <v>302</v>
       </c>
       <c r="B303" t="s">
-        <v>353</v>
+        <v>252</v>
       </c>
       <c r="C303" t="s">
         <v>357</v>
       </c>
       <c r="D303" t="s">
-        <v>386</v>
+        <v>360</v>
       </c>
     </row>
     <row r="304" spans="1:4">
@@ -10783,7 +10780,7 @@
         <v>303</v>
       </c>
       <c r="B304" t="s">
-        <v>274</v>
+        <v>275</v>
       </c>
       <c r="C304" t="s">
         <v>357</v>
@@ -10797,13 +10794,13 @@
         <v>304</v>
       </c>
       <c r="B305" t="s">
-        <v>342</v>
+        <v>310</v>
       </c>
       <c r="C305" t="s">
-        <v>354</v>
+        <v>359</v>
       </c>
       <c r="D305" t="s">
-        <v>364</v>
+        <v>383</v>
       </c>
     </row>
     <row r="306" spans="1:4">
@@ -10811,13 +10808,13 @@
         <v>305</v>
       </c>
       <c r="B306" t="s">
-        <v>311</v>
+        <v>342</v>
       </c>
       <c r="C306" t="s">
-        <v>356</v>
+        <v>354</v>
       </c>
       <c r="D306" t="s">
-        <v>388</v>
+        <v>364</v>
       </c>
     </row>
     <row r="307" spans="1:4">
@@ -10825,13 +10822,13 @@
         <v>306</v>
       </c>
       <c r="B307" t="s">
-        <v>290</v>
+        <v>311</v>
       </c>
       <c r="C307" t="s">
-        <v>355</v>
+        <v>356</v>
       </c>
       <c r="D307" t="s">
-        <v>379</v>
+        <v>388</v>
       </c>
     </row>
     <row r="308" spans="1:4">
@@ -10839,13 +10836,13 @@
         <v>307</v>
       </c>
       <c r="B308" t="s">
-        <v>321</v>
+        <v>291</v>
       </c>
       <c r="C308" t="s">
         <v>355</v>
       </c>
       <c r="D308" t="s">
-        <v>391</v>
+        <v>379</v>
       </c>
     </row>
     <row r="309" spans="1:4">
@@ -10853,13 +10850,13 @@
         <v>308</v>
       </c>
       <c r="B309" t="s">
-        <v>308</v>
+        <v>321</v>
       </c>
       <c r="C309" t="s">
-        <v>359</v>
+        <v>355</v>
       </c>
       <c r="D309" t="s">
-        <v>373</v>
+        <v>391</v>
       </c>
     </row>
     <row r="310" spans="1:4">
@@ -10867,13 +10864,13 @@
         <v>309</v>
       </c>
       <c r="B310" t="s">
-        <v>298</v>
+        <v>308</v>
       </c>
       <c r="C310" t="s">
-        <v>358</v>
+        <v>359</v>
       </c>
       <c r="D310" t="s">
-        <v>366</v>
+        <v>373</v>
       </c>
     </row>
     <row r="311" spans="1:4">
@@ -10881,13 +10878,13 @@
         <v>310</v>
       </c>
       <c r="B311" t="s">
-        <v>315</v>
+        <v>298</v>
       </c>
       <c r="C311" t="s">
-        <v>354</v>
+        <v>358</v>
       </c>
       <c r="D311" t="s">
-        <v>371</v>
+        <v>366</v>
       </c>
     </row>
     <row r="312" spans="1:4">
@@ -10895,13 +10892,13 @@
         <v>311</v>
       </c>
       <c r="B312" t="s">
-        <v>314</v>
+        <v>315</v>
       </c>
       <c r="C312" t="s">
         <v>354</v>
       </c>
       <c r="D312" t="s">
-        <v>379</v>
+        <v>371</v>
       </c>
     </row>
     <row r="313" spans="1:4">
@@ -10909,7 +10906,7 @@
         <v>312</v>
       </c>
       <c r="B313" t="s">
-        <v>305</v>
+        <v>314</v>
       </c>
       <c r="C313" t="s">
         <v>354</v>
@@ -10923,13 +10920,13 @@
         <v>313</v>
       </c>
       <c r="B314" t="s">
-        <v>393</v>
+        <v>305</v>
       </c>
       <c r="C314" t="s">
         <v>354</v>
       </c>
       <c r="D314" t="s">
-        <v>388</v>
+        <v>379</v>
       </c>
     </row>
     <row r="315" spans="1:4">
@@ -10937,13 +10934,13 @@
         <v>314</v>
       </c>
       <c r="B315" t="s">
-        <v>323</v>
+        <v>393</v>
       </c>
       <c r="C315" t="s">
-        <v>355</v>
+        <v>354</v>
       </c>
       <c r="D315" t="s">
-        <v>392</v>
+        <v>388</v>
       </c>
     </row>
     <row r="316" spans="1:4">
@@ -10951,13 +10948,13 @@
         <v>315</v>
       </c>
       <c r="B316" t="s">
-        <v>313</v>
+        <v>323</v>
       </c>
       <c r="C316" t="s">
-        <v>354</v>
+        <v>355</v>
       </c>
       <c r="D316" t="s">
-        <v>375</v>
+        <v>392</v>
       </c>
     </row>
     <row r="317" spans="1:4">
@@ -10965,13 +10962,13 @@
         <v>316</v>
       </c>
       <c r="B317" t="s">
-        <v>327</v>
+        <v>313</v>
       </c>
       <c r="C317" t="s">
-        <v>359</v>
+        <v>354</v>
       </c>
       <c r="D317" t="s">
-        <v>364</v>
+        <v>375</v>
       </c>
     </row>
     <row r="318" spans="1:4">
@@ -10979,13 +10976,13 @@
         <v>317</v>
       </c>
       <c r="B318" t="s">
-        <v>329</v>
+        <v>327</v>
       </c>
       <c r="C318" t="s">
-        <v>355</v>
+        <v>359</v>
       </c>
       <c r="D318" t="s">
-        <v>380</v>
+        <v>364</v>
       </c>
     </row>
     <row r="319" spans="1:4">
@@ -10993,13 +10990,13 @@
         <v>318</v>
       </c>
       <c r="B319" t="s">
-        <v>394</v>
+        <v>329</v>
       </c>
       <c r="C319" t="s">
         <v>355</v>
       </c>
       <c r="D319" t="s">
-        <v>372</v>
+        <v>380</v>
       </c>
     </row>
     <row r="320" spans="1:4">
@@ -11007,7 +11004,7 @@
         <v>319</v>
       </c>
       <c r="B320" t="s">
-        <v>325</v>
+        <v>394</v>
       </c>
       <c r="C320" t="s">
         <v>355</v>
@@ -11021,13 +11018,13 @@
         <v>320</v>
       </c>
       <c r="B321" t="s">
-        <v>395</v>
+        <v>325</v>
       </c>
       <c r="C321" t="s">
         <v>355</v>
       </c>
       <c r="D321" t="s">
-        <v>369</v>
+        <v>372</v>
       </c>
     </row>
     <row r="322" spans="1:4">
@@ -11035,13 +11032,13 @@
         <v>321</v>
       </c>
       <c r="B322" t="s">
-        <v>344</v>
+        <v>395</v>
       </c>
       <c r="C322" t="s">
-        <v>354</v>
+        <v>355</v>
       </c>
       <c r="D322" t="s">
-        <v>363</v>
+        <v>369</v>
       </c>
     </row>
     <row r="323" spans="1:4">
@@ -11049,13 +11046,13 @@
         <v>322</v>
       </c>
       <c r="B323" t="s">
-        <v>396</v>
+        <v>344</v>
       </c>
       <c r="C323" t="s">
-        <v>355</v>
+        <v>354</v>
       </c>
       <c r="D323" t="s">
-        <v>364</v>
+        <v>363</v>
       </c>
     </row>
     <row r="324" spans="1:4">
@@ -11063,13 +11060,13 @@
         <v>323</v>
       </c>
       <c r="B324" t="s">
-        <v>277</v>
+        <v>396</v>
       </c>
       <c r="C324" t="s">
-        <v>357</v>
+        <v>355</v>
       </c>
       <c r="D324" t="s">
-        <v>386</v>
+        <v>364</v>
       </c>
     </row>
     <row r="325" spans="1:4">
@@ -11077,13 +11074,13 @@
         <v>324</v>
       </c>
       <c r="B325" t="s">
-        <v>269</v>
+        <v>277</v>
       </c>
       <c r="C325" t="s">
         <v>357</v>
       </c>
       <c r="D325" t="s">
-        <v>362</v>
+        <v>386</v>
       </c>
     </row>
     <row r="326" spans="1:4">
@@ -11105,13 +11102,13 @@
         <v>326</v>
       </c>
       <c r="B327" t="s">
-        <v>397</v>
+        <v>273</v>
       </c>
       <c r="C327" t="s">
-        <v>355</v>
+        <v>357</v>
       </c>
       <c r="D327" t="s">
-        <v>376</v>
+        <v>362</v>
       </c>
     </row>
     <row r="328" spans="1:4">
@@ -11119,13 +11116,13 @@
         <v>327</v>
       </c>
       <c r="B328" t="s">
-        <v>299</v>
+        <v>397</v>
       </c>
       <c r="C328" t="s">
-        <v>354</v>
+        <v>355</v>
       </c>
       <c r="D328" t="s">
-        <v>365</v>
+        <v>376</v>
       </c>
     </row>
     <row r="329" spans="1:4">
@@ -11133,13 +11130,13 @@
         <v>328</v>
       </c>
       <c r="B329" t="s">
-        <v>345</v>
+        <v>299</v>
       </c>
       <c r="C329" t="s">
-        <v>355</v>
+        <v>354</v>
       </c>
       <c r="D329" t="s">
-        <v>385</v>
+        <v>365</v>
       </c>
     </row>
     <row r="330" spans="1:4">
@@ -11147,13 +11144,13 @@
         <v>329</v>
       </c>
       <c r="B330" t="s">
-        <v>317</v>
+        <v>345</v>
       </c>
       <c r="C330" t="s">
-        <v>357</v>
+        <v>355</v>
       </c>
       <c r="D330" t="s">
-        <v>360</v>
+        <v>385</v>
       </c>
     </row>
     <row r="331" spans="1:4">
@@ -11217,13 +11214,13 @@
         <v>334</v>
       </c>
       <c r="B335" t="s">
-        <v>306</v>
+        <v>347</v>
       </c>
       <c r="C335" t="s">
-        <v>357</v>
+        <v>359</v>
       </c>
       <c r="D335" t="s">
-        <v>387</v>
+        <v>391</v>
       </c>
     </row>
     <row r="336" spans="1:4">
@@ -11231,13 +11228,13 @@
         <v>335</v>
       </c>
       <c r="B336" t="s">
-        <v>347</v>
+        <v>398</v>
       </c>
       <c r="C336" t="s">
-        <v>359</v>
+        <v>355</v>
       </c>
       <c r="D336" t="s">
-        <v>391</v>
+        <v>388</v>
       </c>
     </row>
     <row r="337" spans="1:4">
@@ -11245,13 +11242,13 @@
         <v>336</v>
       </c>
       <c r="B337" t="s">
-        <v>398</v>
+        <v>317</v>
       </c>
       <c r="C337" t="s">
-        <v>355</v>
+        <v>357</v>
       </c>
       <c r="D337" t="s">
-        <v>388</v>
+        <v>387</v>
       </c>
     </row>
     <row r="338" spans="1:4">
@@ -11259,13 +11256,13 @@
         <v>337</v>
       </c>
       <c r="B338" t="s">
-        <v>340</v>
+        <v>330</v>
       </c>
       <c r="C338" t="s">
-        <v>357</v>
+        <v>358</v>
       </c>
       <c r="D338" t="s">
-        <v>378</v>
+        <v>391</v>
       </c>
     </row>
     <row r="339" spans="1:4">
@@ -11273,13 +11270,13 @@
         <v>338</v>
       </c>
       <c r="B339" t="s">
-        <v>330</v>
+        <v>287</v>
       </c>
       <c r="C339" t="s">
-        <v>358</v>
+        <v>357</v>
       </c>
       <c r="D339" t="s">
-        <v>391</v>
+        <v>370</v>
       </c>
     </row>
     <row r="340" spans="1:4">
@@ -11287,13 +11284,13 @@
         <v>339</v>
       </c>
       <c r="B340" t="s">
-        <v>286</v>
+        <v>351</v>
       </c>
       <c r="C340" t="s">
-        <v>357</v>
+        <v>354</v>
       </c>
       <c r="D340" t="s">
-        <v>370</v>
+        <v>379</v>
       </c>
     </row>
     <row r="341" spans="1:4">
@@ -11301,10 +11298,10 @@
         <v>340</v>
       </c>
       <c r="B341" t="s">
-        <v>351</v>
+        <v>320</v>
       </c>
       <c r="C341" t="s">
-        <v>354</v>
+        <v>355</v>
       </c>
       <c r="D341" t="s">
         <v>379</v>
@@ -11315,13 +11312,13 @@
         <v>341</v>
       </c>
       <c r="B342" t="s">
-        <v>320</v>
+        <v>322</v>
       </c>
       <c r="C342" t="s">
-        <v>355</v>
+        <v>356</v>
       </c>
       <c r="D342" t="s">
-        <v>379</v>
+        <v>362</v>
       </c>
     </row>
     <row r="343" spans="1:4">
@@ -11329,13 +11326,13 @@
         <v>342</v>
       </c>
       <c r="B343" t="s">
-        <v>322</v>
+        <v>340</v>
       </c>
       <c r="C343" t="s">
-        <v>356</v>
+        <v>358</v>
       </c>
       <c r="D343" t="s">
-        <v>362</v>
+        <v>374</v>
       </c>
     </row>
     <row r="344" spans="1:4">
@@ -11343,13 +11340,13 @@
         <v>343</v>
       </c>
       <c r="B344" t="s">
-        <v>341</v>
+        <v>399</v>
       </c>
       <c r="C344" t="s">
-        <v>358</v>
+        <v>356</v>
       </c>
       <c r="D344" t="s">
-        <v>374</v>
+        <v>376</v>
       </c>
     </row>
     <row r="345" spans="1:4">
@@ -11357,13 +11354,13 @@
         <v>344</v>
       </c>
       <c r="B345" t="s">
-        <v>399</v>
+        <v>400</v>
       </c>
       <c r="C345" t="s">
-        <v>356</v>
+        <v>354</v>
       </c>
       <c r="D345" t="s">
-        <v>376</v>
+        <v>379</v>
       </c>
     </row>
     <row r="346" spans="1:4">
@@ -11371,13 +11368,13 @@
         <v>345</v>
       </c>
       <c r="B346" t="s">
-        <v>400</v>
+        <v>346</v>
       </c>
       <c r="C346" t="s">
-        <v>354</v>
+        <v>359</v>
       </c>
       <c r="D346" t="s">
-        <v>379</v>
+        <v>388</v>
       </c>
     </row>
     <row r="347" spans="1:4">
@@ -11385,13 +11382,13 @@
         <v>346</v>
       </c>
       <c r="B347" t="s">
-        <v>401</v>
+        <v>332</v>
       </c>
       <c r="C347" t="s">
-        <v>357</v>
+        <v>354</v>
       </c>
       <c r="D347" t="s">
-        <v>365</v>
+        <v>379</v>
       </c>
     </row>
     <row r="348" spans="1:4">
@@ -11399,13 +11396,13 @@
         <v>347</v>
       </c>
       <c r="B348" t="s">
-        <v>346</v>
+        <v>312</v>
       </c>
       <c r="C348" t="s">
-        <v>359</v>
+        <v>355</v>
       </c>
       <c r="D348" t="s">
-        <v>388</v>
+        <v>383</v>
       </c>
     </row>
     <row r="349" spans="1:4">
@@ -11413,13 +11410,13 @@
         <v>348</v>
       </c>
       <c r="B349" t="s">
-        <v>332</v>
+        <v>348</v>
       </c>
       <c r="C349" t="s">
-        <v>354</v>
+        <v>358</v>
       </c>
       <c r="D349" t="s">
-        <v>379</v>
+        <v>367</v>
       </c>
     </row>
     <row r="350" spans="1:4">
@@ -11427,13 +11424,13 @@
         <v>349</v>
       </c>
       <c r="B350" t="s">
-        <v>312</v>
+        <v>401</v>
       </c>
       <c r="C350" t="s">
-        <v>355</v>
+        <v>357</v>
       </c>
       <c r="D350" t="s">
-        <v>383</v>
+        <v>378</v>
       </c>
     </row>
     <row r="351" spans="1:4">
@@ -11441,13 +11438,13 @@
         <v>350</v>
       </c>
       <c r="B351" t="s">
-        <v>348</v>
+        <v>328</v>
       </c>
       <c r="C351" t="s">
-        <v>358</v>
+        <v>354</v>
       </c>
       <c r="D351" t="s">
-        <v>367</v>
+        <v>379</v>
       </c>
     </row>
   </sheetData>
@@ -11640,13 +11637,13 @@
         <v>12</v>
       </c>
       <c r="B13" t="s">
-        <v>19</v>
+        <v>13</v>
       </c>
       <c r="C13" t="s">
         <v>354</v>
       </c>
       <c r="D13" t="s">
-        <v>371</v>
+        <v>369</v>
       </c>
     </row>
     <row r="14" spans="1:4">
@@ -11654,13 +11651,13 @@
         <v>13</v>
       </c>
       <c r="B14" t="s">
-        <v>13</v>
+        <v>22</v>
       </c>
       <c r="C14" t="s">
-        <v>354</v>
+        <v>355</v>
       </c>
       <c r="D14" t="s">
-        <v>369</v>
+        <v>375</v>
       </c>
     </row>
     <row r="15" spans="1:4">
@@ -11668,13 +11665,13 @@
         <v>14</v>
       </c>
       <c r="B15" t="s">
-        <v>22</v>
+        <v>19</v>
       </c>
       <c r="C15" t="s">
-        <v>355</v>
+        <v>354</v>
       </c>
       <c r="D15" t="s">
-        <v>375</v>
+        <v>371</v>
       </c>
     </row>
     <row r="16" spans="1:4">
@@ -11850,13 +11847,13 @@
         <v>27</v>
       </c>
       <c r="B28" t="s">
-        <v>42</v>
+        <v>31</v>
       </c>
       <c r="C28" t="s">
-        <v>354</v>
+        <v>355</v>
       </c>
       <c r="D28" t="s">
-        <v>385</v>
+        <v>360</v>
       </c>
     </row>
     <row r="29" spans="1:4">
@@ -11864,13 +11861,13 @@
         <v>28</v>
       </c>
       <c r="B29" t="s">
-        <v>31</v>
+        <v>29</v>
       </c>
       <c r="C29" t="s">
         <v>355</v>
       </c>
       <c r="D29" t="s">
-        <v>360</v>
+        <v>375</v>
       </c>
     </row>
     <row r="30" spans="1:4">
@@ -11878,13 +11875,13 @@
         <v>29</v>
       </c>
       <c r="B30" t="s">
-        <v>29</v>
+        <v>41</v>
       </c>
       <c r="C30" t="s">
-        <v>355</v>
+        <v>354</v>
       </c>
       <c r="D30" t="s">
-        <v>375</v>
+        <v>385</v>
       </c>
     </row>
     <row r="31" spans="1:4">
@@ -11892,13 +11889,13 @@
         <v>30</v>
       </c>
       <c r="B31" t="s">
-        <v>39</v>
+        <v>28</v>
       </c>
       <c r="C31" t="s">
-        <v>355</v>
+        <v>354</v>
       </c>
       <c r="D31" t="s">
-        <v>381</v>
+        <v>376</v>
       </c>
     </row>
     <row r="32" spans="1:4">
@@ -11906,13 +11903,13 @@
         <v>31</v>
       </c>
       <c r="B32" t="s">
-        <v>27</v>
+        <v>39</v>
       </c>
       <c r="C32" t="s">
-        <v>354</v>
+        <v>355</v>
       </c>
       <c r="D32" t="s">
-        <v>376</v>
+        <v>381</v>
       </c>
     </row>
     <row r="33" spans="1:4">
@@ -12018,7 +12015,7 @@
         <v>39</v>
       </c>
       <c r="B40" t="s">
-        <v>41</v>
+        <v>42</v>
       </c>
       <c r="C40" t="s">
         <v>357</v>
@@ -12102,7 +12099,7 @@
         <v>45</v>
       </c>
       <c r="B46" t="s">
-        <v>28</v>
+        <v>27</v>
       </c>
       <c r="C46" t="s">
         <v>354</v>
@@ -12116,7 +12113,7 @@
         <v>46</v>
       </c>
       <c r="B47" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="C47" t="s">
         <v>356</v>
@@ -12312,7 +12309,7 @@
         <v>60</v>
       </c>
       <c r="B61" t="s">
-        <v>47</v>
+        <v>46</v>
       </c>
       <c r="C61" t="s">
         <v>354</v>
@@ -12578,7 +12575,7 @@
         <v>79</v>
       </c>
       <c r="B80" t="s">
-        <v>114</v>
+        <v>115</v>
       </c>
       <c r="C80" t="s">
         <v>354</v>
@@ -12634,7 +12631,7 @@
         <v>83</v>
       </c>
       <c r="B84" t="s">
-        <v>86</v>
+        <v>85</v>
       </c>
       <c r="C84" t="s">
         <v>355</v>
@@ -12648,7 +12645,7 @@
         <v>84</v>
       </c>
       <c r="B85" t="s">
-        <v>85</v>
+        <v>86</v>
       </c>
       <c r="C85" t="s">
         <v>357</v>
@@ -12662,7 +12659,7 @@
         <v>85</v>
       </c>
       <c r="B86" t="s">
-        <v>101</v>
+        <v>102</v>
       </c>
       <c r="C86" t="s">
         <v>355</v>
@@ -12746,7 +12743,7 @@
         <v>91</v>
       </c>
       <c r="B92" t="s">
-        <v>105</v>
+        <v>106</v>
       </c>
       <c r="C92" t="s">
         <v>356</v>
@@ -12872,7 +12869,7 @@
         <v>100</v>
       </c>
       <c r="B101" t="s">
-        <v>115</v>
+        <v>116</v>
       </c>
       <c r="C101" t="s">
         <v>354</v>
@@ -12900,7 +12897,7 @@
         <v>102</v>
       </c>
       <c r="B103" t="s">
-        <v>102</v>
+        <v>101</v>
       </c>
       <c r="C103" t="s">
         <v>356</v>
@@ -12914,7 +12911,7 @@
         <v>103</v>
       </c>
       <c r="B104" t="s">
-        <v>104</v>
+        <v>105</v>
       </c>
       <c r="C104" t="s">
         <v>357</v>
@@ -12956,7 +12953,7 @@
         <v>106</v>
       </c>
       <c r="B107" t="s">
-        <v>145</v>
+        <v>147</v>
       </c>
       <c r="C107" t="s">
         <v>355</v>
@@ -12970,7 +12967,7 @@
         <v>107</v>
       </c>
       <c r="B108" t="s">
-        <v>106</v>
+        <v>107</v>
       </c>
       <c r="C108" t="s">
         <v>357</v>
@@ -12984,13 +12981,13 @@
         <v>108</v>
       </c>
       <c r="B109" t="s">
-        <v>108</v>
+        <v>89</v>
       </c>
       <c r="C109" t="s">
-        <v>357</v>
+        <v>355</v>
       </c>
       <c r="D109" t="s">
-        <v>366</v>
+        <v>383</v>
       </c>
     </row>
     <row r="110" spans="1:4">
@@ -12998,13 +12995,13 @@
         <v>109</v>
       </c>
       <c r="B110" t="s">
-        <v>89</v>
+        <v>95</v>
       </c>
       <c r="C110" t="s">
-        <v>355</v>
+        <v>354</v>
       </c>
       <c r="D110" t="s">
-        <v>383</v>
+        <v>381</v>
       </c>
     </row>
     <row r="111" spans="1:4">
@@ -13012,13 +13009,13 @@
         <v>110</v>
       </c>
       <c r="B111" t="s">
-        <v>95</v>
+        <v>144</v>
       </c>
       <c r="C111" t="s">
         <v>354</v>
       </c>
       <c r="D111" t="s">
-        <v>381</v>
+        <v>368</v>
       </c>
     </row>
     <row r="112" spans="1:4">
@@ -13026,13 +13023,13 @@
         <v>111</v>
       </c>
       <c r="B112" t="s">
-        <v>144</v>
+        <v>125</v>
       </c>
       <c r="C112" t="s">
-        <v>354</v>
+        <v>355</v>
       </c>
       <c r="D112" t="s">
-        <v>368</v>
+        <v>385</v>
       </c>
     </row>
     <row r="113" spans="1:4">
@@ -13040,13 +13037,13 @@
         <v>112</v>
       </c>
       <c r="B113" t="s">
-        <v>125</v>
+        <v>109</v>
       </c>
       <c r="C113" t="s">
-        <v>355</v>
+        <v>357</v>
       </c>
       <c r="D113" t="s">
-        <v>385</v>
+        <v>366</v>
       </c>
     </row>
     <row r="114" spans="1:4">
@@ -13068,7 +13065,7 @@
         <v>114</v>
       </c>
       <c r="B115" t="s">
-        <v>107</v>
+        <v>104</v>
       </c>
       <c r="C115" t="s">
         <v>355</v>
@@ -13082,7 +13079,7 @@
         <v>115</v>
       </c>
       <c r="B116" t="s">
-        <v>109</v>
+        <v>108</v>
       </c>
       <c r="C116" t="s">
         <v>355</v>
@@ -13096,13 +13093,13 @@
         <v>116</v>
       </c>
       <c r="B117" t="s">
-        <v>121</v>
+        <v>111</v>
       </c>
       <c r="C117" t="s">
-        <v>355</v>
+        <v>357</v>
       </c>
       <c r="D117" t="s">
-        <v>383</v>
+        <v>363</v>
       </c>
     </row>
     <row r="118" spans="1:4">
@@ -13110,13 +13107,13 @@
         <v>117</v>
       </c>
       <c r="B118" t="s">
-        <v>147</v>
+        <v>121</v>
       </c>
       <c r="C118" t="s">
         <v>355</v>
       </c>
       <c r="D118" t="s">
-        <v>366</v>
+        <v>383</v>
       </c>
     </row>
     <row r="119" spans="1:4">
@@ -13124,10 +13121,10 @@
         <v>118</v>
       </c>
       <c r="B119" t="s">
-        <v>123</v>
+        <v>146</v>
       </c>
       <c r="C119" t="s">
-        <v>354</v>
+        <v>355</v>
       </c>
       <c r="D119" t="s">
         <v>366</v>
@@ -13138,13 +13135,13 @@
         <v>119</v>
       </c>
       <c r="B120" t="s">
-        <v>158</v>
+        <v>123</v>
       </c>
       <c r="C120" t="s">
-        <v>355</v>
+        <v>354</v>
       </c>
       <c r="D120" t="s">
-        <v>392</v>
+        <v>366</v>
       </c>
     </row>
     <row r="121" spans="1:4">
@@ -13152,13 +13149,13 @@
         <v>120</v>
       </c>
       <c r="B121" t="s">
-        <v>150</v>
+        <v>158</v>
       </c>
       <c r="C121" t="s">
         <v>355</v>
       </c>
       <c r="D121" t="s">
-        <v>370</v>
+        <v>392</v>
       </c>
     </row>
     <row r="122" spans="1:4">
@@ -13166,13 +13163,13 @@
         <v>121</v>
       </c>
       <c r="B122" t="s">
-        <v>112</v>
+        <v>150</v>
       </c>
       <c r="C122" t="s">
-        <v>357</v>
+        <v>355</v>
       </c>
       <c r="D122" t="s">
-        <v>360</v>
+        <v>370</v>
       </c>
     </row>
     <row r="123" spans="1:4">
@@ -13180,13 +13177,13 @@
         <v>122</v>
       </c>
       <c r="B123" t="s">
-        <v>111</v>
+        <v>113</v>
       </c>
       <c r="C123" t="s">
-        <v>356</v>
+        <v>357</v>
       </c>
       <c r="D123" t="s">
-        <v>372</v>
+        <v>360</v>
       </c>
     </row>
     <row r="124" spans="1:4">
@@ -13194,13 +13191,13 @@
         <v>123</v>
       </c>
       <c r="B124" t="s">
-        <v>134</v>
+        <v>112</v>
       </c>
       <c r="C124" t="s">
-        <v>355</v>
+        <v>356</v>
       </c>
       <c r="D124" t="s">
-        <v>371</v>
+        <v>372</v>
       </c>
     </row>
     <row r="125" spans="1:4">
@@ -13208,13 +13205,13 @@
         <v>124</v>
       </c>
       <c r="B125" t="s">
-        <v>116</v>
+        <v>134</v>
       </c>
       <c r="C125" t="s">
-        <v>357</v>
+        <v>355</v>
       </c>
       <c r="D125" t="s">
-        <v>363</v>
+        <v>371</v>
       </c>
     </row>
     <row r="126" spans="1:4">
@@ -13250,7 +13247,7 @@
         <v>127</v>
       </c>
       <c r="B128" t="s">
-        <v>146</v>
+        <v>145</v>
       </c>
       <c r="C128" t="s">
         <v>354</v>
@@ -13306,13 +13303,13 @@
         <v>131</v>
       </c>
       <c r="B132" t="s">
-        <v>113</v>
+        <v>160</v>
       </c>
       <c r="C132" t="s">
-        <v>357</v>
+        <v>354</v>
       </c>
       <c r="D132" t="s">
-        <v>390</v>
+        <v>377</v>
       </c>
     </row>
     <row r="133" spans="1:4">
@@ -13320,13 +13317,13 @@
         <v>132</v>
       </c>
       <c r="B133" t="s">
-        <v>160</v>
+        <v>114</v>
       </c>
       <c r="C133" t="s">
-        <v>354</v>
+        <v>357</v>
       </c>
       <c r="D133" t="s">
-        <v>377</v>
+        <v>390</v>
       </c>
     </row>
     <row r="134" spans="1:4">
@@ -13446,10 +13443,10 @@
         <v>141</v>
       </c>
       <c r="B142" t="s">
-        <v>129</v>
+        <v>143</v>
       </c>
       <c r="C142" t="s">
-        <v>357</v>
+        <v>355</v>
       </c>
       <c r="D142" t="s">
         <v>381</v>
@@ -13460,13 +13457,13 @@
         <v>142</v>
       </c>
       <c r="B143" t="s">
-        <v>143</v>
+        <v>141</v>
       </c>
       <c r="C143" t="s">
-        <v>355</v>
+        <v>354</v>
       </c>
       <c r="D143" t="s">
-        <v>381</v>
+        <v>367</v>
       </c>
     </row>
     <row r="144" spans="1:4">
@@ -13474,13 +13471,13 @@
         <v>143</v>
       </c>
       <c r="B144" t="s">
-        <v>183</v>
+        <v>153</v>
       </c>
       <c r="C144" t="s">
-        <v>355</v>
+        <v>354</v>
       </c>
       <c r="D144" t="s">
-        <v>361</v>
+        <v>375</v>
       </c>
     </row>
     <row r="145" spans="1:4">
@@ -13488,13 +13485,13 @@
         <v>144</v>
       </c>
       <c r="B145" t="s">
-        <v>141</v>
+        <v>183</v>
       </c>
       <c r="C145" t="s">
         <v>354</v>
       </c>
       <c r="D145" t="s">
-        <v>367</v>
+        <v>378</v>
       </c>
     </row>
     <row r="146" spans="1:4">
@@ -13502,13 +13499,13 @@
         <v>145</v>
       </c>
       <c r="B146" t="s">
-        <v>153</v>
+        <v>184</v>
       </c>
       <c r="C146" t="s">
-        <v>354</v>
+        <v>355</v>
       </c>
       <c r="D146" t="s">
-        <v>375</v>
+        <v>361</v>
       </c>
     </row>
     <row r="147" spans="1:4">
@@ -13516,13 +13513,13 @@
         <v>146</v>
       </c>
       <c r="B147" t="s">
-        <v>184</v>
+        <v>129</v>
       </c>
       <c r="C147" t="s">
-        <v>354</v>
+        <v>357</v>
       </c>
       <c r="D147" t="s">
-        <v>378</v>
+        <v>381</v>
       </c>
     </row>
     <row r="148" spans="1:4">
@@ -13530,7 +13527,7 @@
         <v>147</v>
       </c>
       <c r="B148" t="s">
-        <v>175</v>
+        <v>176</v>
       </c>
       <c r="C148" t="s">
         <v>355</v>
@@ -13544,13 +13541,13 @@
         <v>148</v>
       </c>
       <c r="B149" t="s">
-        <v>139</v>
+        <v>133</v>
       </c>
       <c r="C149" t="s">
-        <v>358</v>
+        <v>357</v>
       </c>
       <c r="D149" t="s">
-        <v>372</v>
+        <v>370</v>
       </c>
     </row>
     <row r="150" spans="1:4">
@@ -13558,13 +13555,13 @@
         <v>149</v>
       </c>
       <c r="B150" t="s">
-        <v>133</v>
+        <v>139</v>
       </c>
       <c r="C150" t="s">
-        <v>357</v>
+        <v>358</v>
       </c>
       <c r="D150" t="s">
-        <v>370</v>
+        <v>372</v>
       </c>
     </row>
     <row r="151" spans="1:4">
@@ -13670,7 +13667,7 @@
         <v>157</v>
       </c>
       <c r="B158" t="s">
-        <v>176</v>
+        <v>175</v>
       </c>
       <c r="C158" t="s">
         <v>355</v>
@@ -13880,7 +13877,7 @@
         <v>172</v>
       </c>
       <c r="B173" t="s">
-        <v>169</v>
+        <v>170</v>
       </c>
       <c r="C173" t="s">
         <v>358</v>
@@ -13894,13 +13891,13 @@
         <v>173</v>
       </c>
       <c r="B174" t="s">
-        <v>201</v>
+        <v>171</v>
       </c>
       <c r="C174" t="s">
-        <v>355</v>
+        <v>358</v>
       </c>
       <c r="D174" t="s">
-        <v>383</v>
+        <v>362</v>
       </c>
     </row>
     <row r="175" spans="1:4">
@@ -13908,13 +13905,13 @@
         <v>174</v>
       </c>
       <c r="B175" t="s">
-        <v>170</v>
+        <v>198</v>
       </c>
       <c r="C175" t="s">
-        <v>358</v>
+        <v>356</v>
       </c>
       <c r="D175" t="s">
-        <v>362</v>
+        <v>390</v>
       </c>
     </row>
     <row r="176" spans="1:4">
@@ -13922,13 +13919,13 @@
         <v>175</v>
       </c>
       <c r="B176" t="s">
-        <v>198</v>
+        <v>172</v>
       </c>
       <c r="C176" t="s">
-        <v>356</v>
+        <v>358</v>
       </c>
       <c r="D176" t="s">
-        <v>390</v>
+        <v>385</v>
       </c>
     </row>
     <row r="177" spans="1:4">
@@ -13936,13 +13933,13 @@
         <v>176</v>
       </c>
       <c r="B177" t="s">
-        <v>171</v>
+        <v>124</v>
       </c>
       <c r="C177" t="s">
-        <v>358</v>
+        <v>355</v>
       </c>
       <c r="D177" t="s">
-        <v>385</v>
+        <v>379</v>
       </c>
     </row>
     <row r="178" spans="1:4">
@@ -13950,13 +13947,13 @@
         <v>177</v>
       </c>
       <c r="B178" t="s">
-        <v>124</v>
+        <v>174</v>
       </c>
       <c r="C178" t="s">
-        <v>355</v>
+        <v>359</v>
       </c>
       <c r="D178" t="s">
-        <v>379</v>
+        <v>372</v>
       </c>
     </row>
     <row r="179" spans="1:4">
@@ -13964,13 +13961,13 @@
         <v>178</v>
       </c>
       <c r="B179" t="s">
-        <v>174</v>
+        <v>130</v>
       </c>
       <c r="C179" t="s">
-        <v>359</v>
+        <v>355</v>
       </c>
       <c r="D179" t="s">
-        <v>372</v>
+        <v>379</v>
       </c>
     </row>
     <row r="180" spans="1:4">
@@ -13978,13 +13975,13 @@
         <v>179</v>
       </c>
       <c r="B180" t="s">
-        <v>130</v>
+        <v>205</v>
       </c>
       <c r="C180" t="s">
         <v>355</v>
       </c>
       <c r="D180" t="s">
-        <v>379</v>
+        <v>383</v>
       </c>
     </row>
     <row r="181" spans="1:4">
@@ -13992,13 +13989,13 @@
         <v>180</v>
       </c>
       <c r="B181" t="s">
-        <v>128</v>
+        <v>178</v>
       </c>
       <c r="C181" t="s">
-        <v>355</v>
+        <v>354</v>
       </c>
       <c r="D181" t="s">
-        <v>379</v>
+        <v>378</v>
       </c>
     </row>
     <row r="182" spans="1:4">
@@ -14006,13 +14003,13 @@
         <v>181</v>
       </c>
       <c r="B182" t="s">
-        <v>178</v>
+        <v>188</v>
       </c>
       <c r="C182" t="s">
-        <v>354</v>
+        <v>355</v>
       </c>
       <c r="D182" t="s">
-        <v>378</v>
+        <v>368</v>
       </c>
     </row>
     <row r="183" spans="1:4">
@@ -14020,13 +14017,13 @@
         <v>182</v>
       </c>
       <c r="B183" t="s">
-        <v>187</v>
+        <v>128</v>
       </c>
       <c r="C183" t="s">
         <v>355</v>
       </c>
       <c r="D183" t="s">
-        <v>368</v>
+        <v>379</v>
       </c>
     </row>
     <row r="184" spans="1:4">
@@ -14048,7 +14045,7 @@
         <v>184</v>
       </c>
       <c r="B185" t="s">
-        <v>186</v>
+        <v>187</v>
       </c>
       <c r="C185" t="s">
         <v>359</v>
@@ -14090,13 +14087,13 @@
         <v>187</v>
       </c>
       <c r="B188" t="s">
-        <v>161</v>
+        <v>239</v>
       </c>
       <c r="C188" t="s">
-        <v>357</v>
+        <v>354</v>
       </c>
       <c r="D188" t="s">
-        <v>373</v>
+        <v>372</v>
       </c>
     </row>
     <row r="189" spans="1:4">
@@ -14104,13 +14101,13 @@
         <v>188</v>
       </c>
       <c r="B189" t="s">
-        <v>240</v>
+        <v>162</v>
       </c>
       <c r="C189" t="s">
-        <v>354</v>
+        <v>357</v>
       </c>
       <c r="D189" t="s">
-        <v>372</v>
+        <v>373</v>
       </c>
     </row>
     <row r="190" spans="1:4">
@@ -14146,7 +14143,7 @@
         <v>191</v>
       </c>
       <c r="B192" t="s">
-        <v>188</v>
+        <v>186</v>
       </c>
       <c r="C192" t="s">
         <v>355</v>
@@ -14160,7 +14157,7 @@
         <v>192</v>
       </c>
       <c r="B193" t="s">
-        <v>204</v>
+        <v>203</v>
       </c>
       <c r="C193" t="s">
         <v>355</v>
@@ -14230,7 +14227,7 @@
         <v>197</v>
       </c>
       <c r="B198" t="s">
-        <v>203</v>
+        <v>202</v>
       </c>
       <c r="C198" t="s">
         <v>355</v>
@@ -14286,7 +14283,7 @@
         <v>201</v>
       </c>
       <c r="B202" t="s">
-        <v>205</v>
+        <v>204</v>
       </c>
       <c r="C202" t="s">
         <v>359</v>
@@ -14314,13 +14311,13 @@
         <v>203</v>
       </c>
       <c r="B204" t="s">
-        <v>162</v>
+        <v>169</v>
       </c>
       <c r="C204" t="s">
-        <v>356</v>
+        <v>357</v>
       </c>
       <c r="D204" t="s">
-        <v>389</v>
+        <v>364</v>
       </c>
     </row>
     <row r="205" spans="1:4">
@@ -14328,13 +14325,13 @@
         <v>204</v>
       </c>
       <c r="B205" t="s">
-        <v>220</v>
+        <v>161</v>
       </c>
       <c r="C205" t="s">
-        <v>355</v>
+        <v>356</v>
       </c>
       <c r="D205" t="s">
-        <v>372</v>
+        <v>389</v>
       </c>
     </row>
     <row r="206" spans="1:4">
@@ -14342,13 +14339,13 @@
         <v>205</v>
       </c>
       <c r="B206" t="s">
-        <v>208</v>
+        <v>220</v>
       </c>
       <c r="C206" t="s">
-        <v>358</v>
+        <v>355</v>
       </c>
       <c r="D206" t="s">
-        <v>380</v>
+        <v>372</v>
       </c>
     </row>
     <row r="207" spans="1:4">
@@ -14356,13 +14353,13 @@
         <v>206</v>
       </c>
       <c r="B207" t="s">
-        <v>197</v>
+        <v>208</v>
       </c>
       <c r="C207" t="s">
-        <v>356</v>
+        <v>358</v>
       </c>
       <c r="D207" t="s">
-        <v>364</v>
+        <v>380</v>
       </c>
     </row>
     <row r="208" spans="1:4">
@@ -14370,13 +14367,13 @@
         <v>207</v>
       </c>
       <c r="B208" t="s">
-        <v>209</v>
+        <v>197</v>
       </c>
       <c r="C208" t="s">
-        <v>358</v>
+        <v>356</v>
       </c>
       <c r="D208" t="s">
-        <v>377</v>
+        <v>364</v>
       </c>
     </row>
     <row r="209" spans="1:4">
@@ -14384,13 +14381,13 @@
         <v>208</v>
       </c>
       <c r="B209" t="s">
-        <v>236</v>
+        <v>209</v>
       </c>
       <c r="C209" t="s">
-        <v>355</v>
+        <v>358</v>
       </c>
       <c r="D209" t="s">
-        <v>389</v>
+        <v>377</v>
       </c>
     </row>
     <row r="210" spans="1:4">
@@ -14398,13 +14395,13 @@
         <v>209</v>
       </c>
       <c r="B210" t="s">
-        <v>172</v>
+        <v>236</v>
       </c>
       <c r="C210" t="s">
-        <v>357</v>
+        <v>355</v>
       </c>
       <c r="D210" t="s">
-        <v>364</v>
+        <v>389</v>
       </c>
     </row>
     <row r="211" spans="1:4">
@@ -14538,13 +14535,13 @@
         <v>219</v>
       </c>
       <c r="B220" t="s">
-        <v>159</v>
+        <v>211</v>
       </c>
       <c r="C220" t="s">
-        <v>355</v>
+        <v>356</v>
       </c>
       <c r="D220" t="s">
-        <v>379</v>
+        <v>366</v>
       </c>
     </row>
     <row r="221" spans="1:4">
@@ -14552,13 +14549,13 @@
         <v>220</v>
       </c>
       <c r="B221" t="s">
-        <v>211</v>
+        <v>159</v>
       </c>
       <c r="C221" t="s">
-        <v>356</v>
+        <v>355</v>
       </c>
       <c r="D221" t="s">
-        <v>366</v>
+        <v>379</v>
       </c>
     </row>
     <row r="222" spans="1:4">
@@ -14566,7 +14563,7 @@
         <v>221</v>
       </c>
       <c r="B222" t="s">
-        <v>243</v>
+        <v>242</v>
       </c>
       <c r="C222" t="s">
         <v>355</v>
@@ -14594,7 +14591,7 @@
         <v>223</v>
       </c>
       <c r="B224" t="s">
-        <v>242</v>
+        <v>241</v>
       </c>
       <c r="C224" t="s">
         <v>355</v>
@@ -14608,7 +14605,7 @@
         <v>224</v>
       </c>
       <c r="B225" t="s">
-        <v>259</v>
+        <v>260</v>
       </c>
       <c r="C225" t="s">
         <v>356</v>
@@ -14720,7 +14717,7 @@
         <v>232</v>
       </c>
       <c r="B233" t="s">
-        <v>202</v>
+        <v>201</v>
       </c>
       <c r="C233" t="s">
         <v>356</v>
@@ -14762,7 +14759,7 @@
         <v>235</v>
       </c>
       <c r="B236" t="s">
-        <v>253</v>
+        <v>254</v>
       </c>
       <c r="C236" t="s">
         <v>355</v>
@@ -14776,7 +14773,7 @@
         <v>236</v>
       </c>
       <c r="B237" t="s">
-        <v>241</v>
+        <v>240</v>
       </c>
       <c r="C237" t="s">
         <v>355</v>
@@ -14790,7 +14787,7 @@
         <v>237</v>
       </c>
       <c r="B238" t="s">
-        <v>238</v>
+        <v>237</v>
       </c>
       <c r="C238" t="s">
         <v>359</v>
@@ -14804,7 +14801,7 @@
         <v>238</v>
       </c>
       <c r="B239" t="s">
-        <v>239</v>
+        <v>238</v>
       </c>
       <c r="C239" t="s">
         <v>359</v>
@@ -14818,7 +14815,7 @@
         <v>239</v>
       </c>
       <c r="B240" t="s">
-        <v>252</v>
+        <v>253</v>
       </c>
       <c r="C240" t="s">
         <v>355</v>
@@ -14832,7 +14829,7 @@
         <v>240</v>
       </c>
       <c r="B241" t="s">
-        <v>244</v>
+        <v>243</v>
       </c>
       <c r="C241" t="s">
         <v>359</v>
@@ -14846,7 +14843,7 @@
         <v>241</v>
       </c>
       <c r="B242" t="s">
-        <v>247</v>
+        <v>246</v>
       </c>
       <c r="C242" t="s">
         <v>359</v>
@@ -14860,7 +14857,7 @@
         <v>242</v>
       </c>
       <c r="B243" t="s">
-        <v>248</v>
+        <v>247</v>
       </c>
       <c r="C243" t="s">
         <v>359</v>
@@ -14888,7 +14885,7 @@
         <v>244</v>
       </c>
       <c r="B245" t="s">
-        <v>249</v>
+        <v>248</v>
       </c>
       <c r="C245" t="s">
         <v>358</v>
@@ -14930,7 +14927,7 @@
         <v>247</v>
       </c>
       <c r="B248" t="s">
-        <v>267</v>
+        <v>268</v>
       </c>
       <c r="C248" t="s">
         <v>356</v>
@@ -14958,7 +14955,7 @@
         <v>249</v>
       </c>
       <c r="B250" t="s">
-        <v>255</v>
+        <v>256</v>
       </c>
       <c r="C250" t="s">
         <v>358</v>
@@ -14986,7 +14983,7 @@
         <v>251</v>
       </c>
       <c r="B252" t="s">
-        <v>256</v>
+        <v>257</v>
       </c>
       <c r="C252" t="s">
         <v>354</v>
@@ -15000,7 +14997,7 @@
         <v>252</v>
       </c>
       <c r="B253" t="s">
-        <v>260</v>
+        <v>261</v>
       </c>
       <c r="C253" t="s">
         <v>354</v>
@@ -15028,7 +15025,7 @@
         <v>254</v>
       </c>
       <c r="B255" t="s">
-        <v>245</v>
+        <v>244</v>
       </c>
       <c r="C255" t="s">
         <v>354</v>
@@ -15070,7 +15067,7 @@
         <v>257</v>
       </c>
       <c r="B258" t="s">
-        <v>263</v>
+        <v>264</v>
       </c>
       <c r="C258" t="s">
         <v>359</v>
@@ -15084,7 +15081,7 @@
         <v>258</v>
       </c>
       <c r="B259" t="s">
-        <v>262</v>
+        <v>263</v>
       </c>
       <c r="C259" t="s">
         <v>354</v>
@@ -15112,7 +15109,7 @@
         <v>260</v>
       </c>
       <c r="B261" t="s">
-        <v>266</v>
+        <v>267</v>
       </c>
       <c r="C261" t="s">
         <v>354</v>
@@ -15126,7 +15123,7 @@
         <v>261</v>
       </c>
       <c r="B262" t="s">
-        <v>268</v>
+        <v>269</v>
       </c>
       <c r="C262" t="s">
         <v>359</v>
@@ -15154,7 +15151,7 @@
         <v>263</v>
       </c>
       <c r="B264" t="s">
-        <v>246</v>
+        <v>245</v>
       </c>
       <c r="C264" t="s">
         <v>354</v>
@@ -15182,7 +15179,7 @@
         <v>265</v>
       </c>
       <c r="B266" t="s">
-        <v>279</v>
+        <v>280</v>
       </c>
       <c r="C266" t="s">
         <v>354</v>
@@ -15196,7 +15193,7 @@
         <v>266</v>
       </c>
       <c r="B267" t="s">
-        <v>283</v>
+        <v>284</v>
       </c>
       <c r="C267" t="s">
         <v>355</v>
@@ -15238,7 +15235,7 @@
         <v>269</v>
       </c>
       <c r="B270" t="s">
-        <v>285</v>
+        <v>286</v>
       </c>
       <c r="C270" t="s">
         <v>355</v>
@@ -15252,7 +15249,7 @@
         <v>270</v>
       </c>
       <c r="B271" t="s">
-        <v>257</v>
+        <v>258</v>
       </c>
       <c r="C271" t="s">
         <v>357</v>
@@ -15280,7 +15277,7 @@
         <v>272</v>
       </c>
       <c r="B273" t="s">
-        <v>273</v>
+        <v>274</v>
       </c>
       <c r="C273" t="s">
         <v>358</v>
@@ -15308,7 +15305,7 @@
         <v>274</v>
       </c>
       <c r="B275" t="s">
-        <v>275</v>
+        <v>276</v>
       </c>
       <c r="C275" t="s">
         <v>359</v>
@@ -15364,7 +15361,7 @@
         <v>278</v>
       </c>
       <c r="B279" t="s">
-        <v>254</v>
+        <v>255</v>
       </c>
       <c r="C279" t="s">
         <v>357</v>
@@ -15378,7 +15375,7 @@
         <v>279</v>
       </c>
       <c r="B280" t="s">
-        <v>276</v>
+        <v>278</v>
       </c>
       <c r="C280" t="s">
         <v>359</v>
@@ -15392,7 +15389,7 @@
         <v>280</v>
       </c>
       <c r="B281" t="s">
-        <v>278</v>
+        <v>279</v>
       </c>
       <c r="C281" t="s">
         <v>358</v>
@@ -15406,7 +15403,7 @@
         <v>281</v>
       </c>
       <c r="B282" t="s">
-        <v>281</v>
+        <v>282</v>
       </c>
       <c r="C282" t="s">
         <v>359</v>
@@ -15434,7 +15431,7 @@
         <v>283</v>
       </c>
       <c r="B284" t="s">
-        <v>282</v>
+        <v>283</v>
       </c>
       <c r="C284" t="s">
         <v>359</v>
@@ -15462,7 +15459,7 @@
         <v>285</v>
       </c>
       <c r="B286" t="s">
-        <v>264</v>
+        <v>265</v>
       </c>
       <c r="C286" t="s">
         <v>354</v>
@@ -15476,7 +15473,7 @@
         <v>286</v>
       </c>
       <c r="B287" t="s">
-        <v>280</v>
+        <v>281</v>
       </c>
       <c r="C287" t="s">
         <v>355</v>
@@ -15490,7 +15487,7 @@
         <v>287</v>
       </c>
       <c r="B288" t="s">
-        <v>291</v>
+        <v>292</v>
       </c>
       <c r="C288" t="s">
         <v>354</v>
@@ -15518,7 +15515,7 @@
         <v>289</v>
       </c>
       <c r="B290" t="s">
-        <v>289</v>
+        <v>290</v>
       </c>
       <c r="C290" t="s">
         <v>358</v>
@@ -15532,7 +15529,7 @@
         <v>290</v>
       </c>
       <c r="B291" t="s">
-        <v>288</v>
+        <v>289</v>
       </c>
       <c r="C291" t="s">
         <v>359</v>
@@ -15560,13 +15557,13 @@
         <v>292</v>
       </c>
       <c r="B293" t="s">
-        <v>295</v>
+        <v>294</v>
       </c>
       <c r="C293" t="s">
         <v>359</v>
       </c>
       <c r="D293" t="s">
-        <v>376</v>
+        <v>378</v>
       </c>
     </row>
     <row r="294" spans="1:4">
@@ -15574,10 +15571,10 @@
         <v>293</v>
       </c>
       <c r="B294" t="s">
-        <v>293</v>
+        <v>295</v>
       </c>
       <c r="C294" t="s">
-        <v>359</v>
+        <v>358</v>
       </c>
       <c r="D294" t="s">
         <v>378</v>
@@ -15588,10 +15585,10 @@
         <v>294</v>
       </c>
       <c r="B295" t="s">
-        <v>294</v>
+        <v>300</v>
       </c>
       <c r="C295" t="s">
-        <v>358</v>
+        <v>355</v>
       </c>
       <c r="D295" t="s">
         <v>378</v>
@@ -15602,13 +15599,13 @@
         <v>295</v>
       </c>
       <c r="B296" t="s">
-        <v>300</v>
+        <v>323</v>
       </c>
       <c r="C296" t="s">
         <v>355</v>
       </c>
       <c r="D296" t="s">
-        <v>378</v>
+        <v>392</v>
       </c>
     </row>
     <row r="297" spans="1:4">
@@ -15616,13 +15613,13 @@
         <v>296</v>
       </c>
       <c r="B297" t="s">
-        <v>323</v>
+        <v>298</v>
       </c>
       <c r="C297" t="s">
-        <v>355</v>
+        <v>358</v>
       </c>
       <c r="D297" t="s">
-        <v>392</v>
+        <v>366</v>
       </c>
     </row>
     <row r="298" spans="1:4">
@@ -15630,13 +15627,13 @@
         <v>297</v>
       </c>
       <c r="B298" t="s">
-        <v>298</v>
+        <v>312</v>
       </c>
       <c r="C298" t="s">
-        <v>358</v>
+        <v>355</v>
       </c>
       <c r="D298" t="s">
-        <v>366</v>
+        <v>383</v>
       </c>
     </row>
     <row r="299" spans="1:4">
@@ -15644,13 +15641,13 @@
         <v>298</v>
       </c>
       <c r="B299" t="s">
-        <v>312</v>
+        <v>306</v>
       </c>
       <c r="C299" t="s">
-        <v>355</v>
+        <v>359</v>
       </c>
       <c r="D299" t="s">
-        <v>383</v>
+        <v>376</v>
       </c>
     </row>
     <row r="300" spans="1:4">
@@ -15700,7 +15697,7 @@
         <v>302</v>
       </c>
       <c r="B303" t="s">
-        <v>284</v>
+        <v>285</v>
       </c>
       <c r="C303" t="s">
         <v>354</v>
@@ -15728,13 +15725,13 @@
         <v>304</v>
       </c>
       <c r="B305" t="s">
-        <v>237</v>
+        <v>293</v>
       </c>
       <c r="C305" t="s">
-        <v>357</v>
+        <v>354</v>
       </c>
       <c r="D305" t="s">
-        <v>360</v>
+        <v>379</v>
       </c>
     </row>
     <row r="306" spans="1:4">
@@ -15742,13 +15739,13 @@
         <v>305</v>
       </c>
       <c r="B306" t="s">
-        <v>292</v>
+        <v>338</v>
       </c>
       <c r="C306" t="s">
-        <v>354</v>
+        <v>355</v>
       </c>
       <c r="D306" t="s">
-        <v>379</v>
+        <v>363</v>
       </c>
     </row>
     <row r="307" spans="1:4">
@@ -15756,13 +15753,13 @@
         <v>306</v>
       </c>
       <c r="B307" t="s">
-        <v>338</v>
+        <v>249</v>
       </c>
       <c r="C307" t="s">
-        <v>355</v>
+        <v>357</v>
       </c>
       <c r="D307" t="s">
-        <v>363</v>
+        <v>360</v>
       </c>
     </row>
     <row r="308" spans="1:4">
@@ -15770,13 +15767,13 @@
         <v>307</v>
       </c>
       <c r="B308" t="s">
-        <v>258</v>
+        <v>252</v>
       </c>
       <c r="C308" t="s">
-        <v>355</v>
+        <v>357</v>
       </c>
       <c r="D308" t="s">
-        <v>388</v>
+        <v>360</v>
       </c>
     </row>
     <row r="309" spans="1:4">
@@ -15784,13 +15781,13 @@
         <v>308</v>
       </c>
       <c r="B309" t="s">
-        <v>396</v>
+        <v>259</v>
       </c>
       <c r="C309" t="s">
         <v>355</v>
       </c>
       <c r="D309" t="s">
-        <v>364</v>
+        <v>388</v>
       </c>
     </row>
     <row r="310" spans="1:4">
@@ -15798,13 +15795,13 @@
         <v>309</v>
       </c>
       <c r="B310" t="s">
-        <v>321</v>
+        <v>396</v>
       </c>
       <c r="C310" t="s">
         <v>355</v>
       </c>
       <c r="D310" t="s">
-        <v>391</v>
+        <v>364</v>
       </c>
     </row>
     <row r="311" spans="1:4">
@@ -15812,13 +15809,13 @@
         <v>310</v>
       </c>
       <c r="B311" t="s">
-        <v>315</v>
+        <v>321</v>
       </c>
       <c r="C311" t="s">
-        <v>354</v>
+        <v>355</v>
       </c>
       <c r="D311" t="s">
-        <v>371</v>
+        <v>391</v>
       </c>
     </row>
     <row r="312" spans="1:4">
@@ -15826,13 +15823,13 @@
         <v>311</v>
       </c>
       <c r="B312" t="s">
-        <v>265</v>
+        <v>315</v>
       </c>
       <c r="C312" t="s">
-        <v>355</v>
+        <v>354</v>
       </c>
       <c r="D312" t="s">
-        <v>379</v>
+        <v>371</v>
       </c>
     </row>
     <row r="313" spans="1:4">
@@ -15840,13 +15837,13 @@
         <v>312</v>
       </c>
       <c r="B313" t="s">
-        <v>344</v>
+        <v>266</v>
       </c>
       <c r="C313" t="s">
-        <v>354</v>
+        <v>355</v>
       </c>
       <c r="D313" t="s">
-        <v>363</v>
+        <v>379</v>
       </c>
     </row>
     <row r="314" spans="1:4">
@@ -15854,13 +15851,13 @@
         <v>313</v>
       </c>
       <c r="B314" t="s">
-        <v>400</v>
+        <v>344</v>
       </c>
       <c r="C314" t="s">
         <v>354</v>
       </c>
       <c r="D314" t="s">
-        <v>379</v>
+        <v>363</v>
       </c>
     </row>
     <row r="315" spans="1:4">
@@ -15868,7 +15865,7 @@
         <v>314</v>
       </c>
       <c r="B315" t="s">
-        <v>314</v>
+        <v>400</v>
       </c>
       <c r="C315" t="s">
         <v>354</v>
@@ -15882,13 +15879,13 @@
         <v>315</v>
       </c>
       <c r="B316" t="s">
-        <v>349</v>
+        <v>314</v>
       </c>
       <c r="C316" t="s">
-        <v>355</v>
+        <v>354</v>
       </c>
       <c r="D316" t="s">
-        <v>375</v>
+        <v>379</v>
       </c>
     </row>
     <row r="317" spans="1:4">
@@ -15896,13 +15893,13 @@
         <v>316</v>
       </c>
       <c r="B317" t="s">
-        <v>351</v>
+        <v>349</v>
       </c>
       <c r="C317" t="s">
-        <v>354</v>
+        <v>355</v>
       </c>
       <c r="D317" t="s">
-        <v>379</v>
+        <v>375</v>
       </c>
     </row>
     <row r="318" spans="1:4">
@@ -15910,13 +15907,13 @@
         <v>317</v>
       </c>
       <c r="B318" t="s">
-        <v>329</v>
+        <v>351</v>
       </c>
       <c r="C318" t="s">
-        <v>355</v>
+        <v>354</v>
       </c>
       <c r="D318" t="s">
-        <v>380</v>
+        <v>379</v>
       </c>
     </row>
     <row r="319" spans="1:4">
@@ -15924,13 +15921,13 @@
         <v>318</v>
       </c>
       <c r="B319" t="s">
-        <v>350</v>
+        <v>329</v>
       </c>
       <c r="C319" t="s">
         <v>355</v>
       </c>
       <c r="D319" t="s">
-        <v>389</v>
+        <v>380</v>
       </c>
     </row>
     <row r="320" spans="1:4">
@@ -15938,13 +15935,13 @@
         <v>319</v>
       </c>
       <c r="B320" t="s">
-        <v>345</v>
+        <v>350</v>
       </c>
       <c r="C320" t="s">
         <v>355</v>
       </c>
       <c r="D320" t="s">
-        <v>385</v>
+        <v>389</v>
       </c>
     </row>
     <row r="321" spans="1:4">
@@ -15952,13 +15949,13 @@
         <v>320</v>
       </c>
       <c r="B321" t="s">
-        <v>261</v>
+        <v>345</v>
       </c>
       <c r="C321" t="s">
-        <v>354</v>
+        <v>355</v>
       </c>
       <c r="D321" t="s">
-        <v>360</v>
+        <v>385</v>
       </c>
     </row>
     <row r="322" spans="1:4">
@@ -15966,13 +15963,13 @@
         <v>321</v>
       </c>
       <c r="B322" t="s">
-        <v>327</v>
+        <v>262</v>
       </c>
       <c r="C322" t="s">
-        <v>359</v>
+        <v>354</v>
       </c>
       <c r="D322" t="s">
-        <v>364</v>
+        <v>360</v>
       </c>
     </row>
     <row r="323" spans="1:4">
@@ -15980,13 +15977,13 @@
         <v>322</v>
       </c>
       <c r="B323" t="s">
-        <v>330</v>
+        <v>327</v>
       </c>
       <c r="C323" t="s">
-        <v>358</v>
+        <v>359</v>
       </c>
       <c r="D323" t="s">
-        <v>391</v>
+        <v>364</v>
       </c>
     </row>
     <row r="324" spans="1:4">
@@ -15994,13 +15991,13 @@
         <v>323</v>
       </c>
       <c r="B324" t="s">
-        <v>334</v>
+        <v>330</v>
       </c>
       <c r="C324" t="s">
-        <v>354</v>
+        <v>358</v>
       </c>
       <c r="D324" t="s">
-        <v>381</v>
+        <v>391</v>
       </c>
     </row>
     <row r="325" spans="1:4">
@@ -16008,13 +16005,13 @@
         <v>324</v>
       </c>
       <c r="B325" t="s">
-        <v>233</v>
+        <v>334</v>
       </c>
       <c r="C325" t="s">
-        <v>356</v>
+        <v>354</v>
       </c>
       <c r="D325" t="s">
-        <v>379</v>
+        <v>381</v>
       </c>
     </row>
     <row r="326" spans="1:4">
@@ -16022,13 +16019,13 @@
         <v>325</v>
       </c>
       <c r="B326" t="s">
-        <v>402</v>
+        <v>233</v>
       </c>
       <c r="C326" t="s">
-        <v>354</v>
+        <v>356</v>
       </c>
       <c r="D326" t="s">
-        <v>369</v>
+        <v>379</v>
       </c>
     </row>
     <row r="327" spans="1:4">
@@ -16036,13 +16033,13 @@
         <v>326</v>
       </c>
       <c r="B327" t="s">
-        <v>336</v>
+        <v>402</v>
       </c>
       <c r="C327" t="s">
-        <v>358</v>
+        <v>354</v>
       </c>
       <c r="D327" t="s">
-        <v>363</v>
+        <v>369</v>
       </c>
     </row>
     <row r="328" spans="1:4">
@@ -16050,13 +16047,13 @@
         <v>327</v>
       </c>
       <c r="B328" t="s">
-        <v>269</v>
+        <v>336</v>
       </c>
       <c r="C328" t="s">
-        <v>357</v>
+        <v>358</v>
       </c>
       <c r="D328" t="s">
-        <v>362</v>
+        <v>363</v>
       </c>
     </row>
     <row r="329" spans="1:4">
@@ -16064,7 +16061,7 @@
         <v>328</v>
       </c>
       <c r="B329" t="s">
-        <v>274</v>
+        <v>275</v>
       </c>
       <c r="C329" t="s">
         <v>357</v>
@@ -16078,7 +16075,7 @@
         <v>329</v>
       </c>
       <c r="B330" t="s">
-        <v>341</v>
+        <v>340</v>
       </c>
       <c r="C330" t="s">
         <v>358</v>
@@ -16092,13 +16089,13 @@
         <v>330</v>
       </c>
       <c r="B331" t="s">
-        <v>353</v>
+        <v>346</v>
       </c>
       <c r="C331" t="s">
-        <v>357</v>
+        <v>359</v>
       </c>
       <c r="D331" t="s">
-        <v>386</v>
+        <v>388</v>
       </c>
     </row>
     <row r="332" spans="1:4">
@@ -16106,13 +16103,13 @@
         <v>331</v>
       </c>
       <c r="B332" t="s">
-        <v>346</v>
+        <v>291</v>
       </c>
       <c r="C332" t="s">
-        <v>359</v>
+        <v>355</v>
       </c>
       <c r="D332" t="s">
-        <v>388</v>
+        <v>379</v>
       </c>
     </row>
     <row r="333" spans="1:4">
@@ -16120,10 +16117,10 @@
         <v>332</v>
       </c>
       <c r="B333" t="s">
-        <v>290</v>
+        <v>305</v>
       </c>
       <c r="C333" t="s">
-        <v>355</v>
+        <v>354</v>
       </c>
       <c r="D333" t="s">
         <v>379</v>
@@ -16134,13 +16131,13 @@
         <v>333</v>
       </c>
       <c r="B334" t="s">
-        <v>305</v>
+        <v>288</v>
       </c>
       <c r="C334" t="s">
-        <v>354</v>
+        <v>355</v>
       </c>
       <c r="D334" t="s">
-        <v>379</v>
+        <v>390</v>
       </c>
     </row>
     <row r="335" spans="1:4">
@@ -16148,13 +16145,13 @@
         <v>334</v>
       </c>
       <c r="B335" t="s">
-        <v>287</v>
+        <v>348</v>
       </c>
       <c r="C335" t="s">
-        <v>355</v>
+        <v>358</v>
       </c>
       <c r="D335" t="s">
-        <v>390</v>
+        <v>367</v>
       </c>
     </row>
     <row r="336" spans="1:4">
@@ -16162,13 +16159,13 @@
         <v>335</v>
       </c>
       <c r="B336" t="s">
-        <v>348</v>
+        <v>347</v>
       </c>
       <c r="C336" t="s">
-        <v>358</v>
+        <v>359</v>
       </c>
       <c r="D336" t="s">
-        <v>367</v>
+        <v>391</v>
       </c>
     </row>
     <row r="337" spans="1:4">
@@ -16176,13 +16173,13 @@
         <v>336</v>
       </c>
       <c r="B337" t="s">
-        <v>347</v>
+        <v>395</v>
       </c>
       <c r="C337" t="s">
-        <v>359</v>
+        <v>355</v>
       </c>
       <c r="D337" t="s">
-        <v>391</v>
+        <v>369</v>
       </c>
     </row>
     <row r="338" spans="1:4">
@@ -16190,13 +16187,13 @@
         <v>337</v>
       </c>
       <c r="B338" t="s">
-        <v>395</v>
+        <v>313</v>
       </c>
       <c r="C338" t="s">
-        <v>355</v>
+        <v>354</v>
       </c>
       <c r="D338" t="s">
-        <v>369</v>
+        <v>375</v>
       </c>
     </row>
     <row r="339" spans="1:4">
@@ -16204,13 +16201,13 @@
         <v>338</v>
       </c>
       <c r="B339" t="s">
-        <v>313</v>
+        <v>273</v>
       </c>
       <c r="C339" t="s">
-        <v>354</v>
+        <v>357</v>
       </c>
       <c r="D339" t="s">
-        <v>375</v>
+        <v>362</v>
       </c>
     </row>
     <row r="340" spans="1:4">
@@ -16218,13 +16215,13 @@
         <v>339</v>
       </c>
       <c r="B340" t="s">
-        <v>403</v>
+        <v>277</v>
       </c>
       <c r="C340" t="s">
-        <v>355</v>
+        <v>357</v>
       </c>
       <c r="D340" t="s">
-        <v>366</v>
+        <v>386</v>
       </c>
     </row>
     <row r="341" spans="1:4">
@@ -16232,13 +16229,13 @@
         <v>340</v>
       </c>
       <c r="B341" t="s">
-        <v>277</v>
+        <v>403</v>
       </c>
       <c r="C341" t="s">
-        <v>357</v>
+        <v>355</v>
       </c>
       <c r="D341" t="s">
-        <v>386</v>
+        <v>366</v>
       </c>
     </row>
     <row r="342" spans="1:4">
@@ -16260,13 +16257,13 @@
         <v>342</v>
       </c>
       <c r="B343" t="s">
-        <v>306</v>
+        <v>339</v>
       </c>
       <c r="C343" t="s">
-        <v>357</v>
+        <v>355</v>
       </c>
       <c r="D343" t="s">
-        <v>387</v>
+        <v>386</v>
       </c>
     </row>
     <row r="344" spans="1:4">
@@ -16274,13 +16271,13 @@
         <v>343</v>
       </c>
       <c r="B344" t="s">
-        <v>339</v>
+        <v>320</v>
       </c>
       <c r="C344" t="s">
         <v>355</v>
       </c>
       <c r="D344" t="s">
-        <v>386</v>
+        <v>379</v>
       </c>
     </row>
     <row r="345" spans="1:4">
@@ -16288,13 +16285,13 @@
         <v>344</v>
       </c>
       <c r="B345" t="s">
-        <v>320</v>
+        <v>322</v>
       </c>
       <c r="C345" t="s">
-        <v>355</v>
+        <v>356</v>
       </c>
       <c r="D345" t="s">
-        <v>379</v>
+        <v>362</v>
       </c>
     </row>
     <row r="346" spans="1:4">
@@ -16302,13 +16299,13 @@
         <v>345</v>
       </c>
       <c r="B346" t="s">
-        <v>322</v>
+        <v>399</v>
       </c>
       <c r="C346" t="s">
         <v>356</v>
       </c>
       <c r="D346" t="s">
-        <v>362</v>
+        <v>376</v>
       </c>
     </row>
     <row r="347" spans="1:4">
@@ -16316,13 +16313,13 @@
         <v>346</v>
       </c>
       <c r="B347" t="s">
-        <v>399</v>
+        <v>353</v>
       </c>
       <c r="C347" t="s">
-        <v>356</v>
+        <v>355</v>
       </c>
       <c r="D347" t="s">
-        <v>376</v>
+        <v>391</v>
       </c>
     </row>
     <row r="348" spans="1:4">
@@ -16330,13 +16327,13 @@
         <v>347</v>
       </c>
       <c r="B348" t="s">
-        <v>404</v>
+        <v>328</v>
       </c>
       <c r="C348" t="s">
-        <v>355</v>
+        <v>354</v>
       </c>
       <c r="D348" t="s">
-        <v>391</v>
+        <v>379</v>
       </c>
     </row>
     <row r="349" spans="1:4">
@@ -16344,13 +16341,13 @@
         <v>348</v>
       </c>
       <c r="B349" t="s">
-        <v>328</v>
+        <v>404</v>
       </c>
       <c r="C349" t="s">
         <v>354</v>
       </c>
       <c r="D349" t="s">
-        <v>379</v>
+        <v>364</v>
       </c>
     </row>
     <row r="350" spans="1:4">
@@ -16358,13 +16355,13 @@
         <v>349</v>
       </c>
       <c r="B350" t="s">
-        <v>405</v>
+        <v>332</v>
       </c>
       <c r="C350" t="s">
         <v>354</v>
       </c>
       <c r="D350" t="s">
-        <v>364</v>
+        <v>379</v>
       </c>
     </row>
     <row r="351" spans="1:4">
@@ -16372,13 +16369,13 @@
         <v>350</v>
       </c>
       <c r="B351" t="s">
-        <v>332</v>
+        <v>352</v>
       </c>
       <c r="C351" t="s">
-        <v>354</v>
+        <v>356</v>
       </c>
       <c r="D351" t="s">
-        <v>379</v>
+        <v>389</v>
       </c>
     </row>
   </sheetData>

--- a/docs/FantasyProsFootballDraft.xlsx
+++ b/docs/FantasyProsFootballDraft.xlsx
@@ -21,7 +21,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="3162" uniqueCount="405">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="3162" uniqueCount="406">
   <si>
     <t>Overall Rank</t>
   </si>
@@ -530,18 +530,18 @@
     <t>Justin Tucker</t>
   </si>
   <si>
+    <t>New Orleans Saints</t>
+  </si>
+  <si>
+    <t>Indianapolis Colts</t>
+  </si>
+  <si>
+    <t>New England Patriots</t>
+  </si>
+  <si>
     <t>Ryan Tannehill</t>
   </si>
   <si>
-    <t>New Orleans Saints</t>
-  </si>
-  <si>
-    <t>Indianapolis Colts</t>
-  </si>
-  <si>
-    <t>New England Patriots</t>
-  </si>
-  <si>
     <t>Mac Jones</t>
   </si>
   <si>
@@ -638,6 +638,9 @@
     <t>Matt Gay</t>
   </si>
   <si>
+    <t>Bryce Young</t>
+  </si>
+  <si>
     <t>Romeo Doubs</t>
   </si>
   <si>
@@ -662,6 +665,9 @@
     <t>Harrison Butker</t>
   </si>
   <si>
+    <t>CJ Stroud</t>
+  </si>
+  <si>
     <t>Van Jefferson</t>
   </si>
   <si>
@@ -770,51 +776,45 @@
     <t>Cincinnati Bengals</t>
   </si>
   <si>
+    <t>KJ Hamler</t>
+  </si>
+  <si>
+    <t>Jason Sanders</t>
+  </si>
+  <si>
+    <t>Terrace Marshall Jr.</t>
+  </si>
+  <si>
+    <t>Darius Slayton</t>
+  </si>
+  <si>
+    <t>Tennessee Titans</t>
+  </si>
+  <si>
+    <t>Zonovan Knight</t>
+  </si>
+  <si>
+    <t>Brock Purdy</t>
+  </si>
+  <si>
+    <t>John Metchie III</t>
+  </si>
+  <si>
+    <t>Daniel Bellinger</t>
+  </si>
+  <si>
+    <t>Pierre Strong Jr.</t>
+  </si>
+  <si>
+    <t>Tyrion Davis-Price</t>
+  </si>
+  <si>
+    <t>Eno Benjamin</t>
+  </si>
+  <si>
     <t>Jimmy Garoppolo</t>
   </si>
   <si>
-    <t>KJ Hamler</t>
-  </si>
-  <si>
-    <t>Jason Sanders</t>
-  </si>
-  <si>
-    <t>Brock Purdy</t>
-  </si>
-  <si>
-    <t>Terrace Marshall Jr.</t>
-  </si>
-  <si>
-    <t>Darius Slayton</t>
-  </si>
-  <si>
-    <t>Bryce Young</t>
-  </si>
-  <si>
-    <t>Tennessee Titans</t>
-  </si>
-  <si>
-    <t>Zonovan Knight</t>
-  </si>
-  <si>
-    <t>CJ Stroud</t>
-  </si>
-  <si>
-    <t>John Metchie III</t>
-  </si>
-  <si>
-    <t>Daniel Bellinger</t>
-  </si>
-  <si>
-    <t>Pierre Strong Jr.</t>
-  </si>
-  <si>
-    <t>Tyrion Davis-Price</t>
-  </si>
-  <si>
-    <t>Eno Benjamin</t>
-  </si>
-  <si>
     <t>Jake Elliott</t>
   </si>
   <si>
@@ -842,108 +842,108 @@
     <t>Darrel Williams</t>
   </si>
   <si>
+    <t>Arizona Cardinals</t>
+  </si>
+  <si>
+    <t>Jameis Winston</t>
+  </si>
+  <si>
+    <t>Jason Myers</t>
+  </si>
+  <si>
+    <t>Tyler Davis</t>
+  </si>
+  <si>
+    <t>Carolina Panthers</t>
+  </si>
+  <si>
+    <t>JaMycal Hasty</t>
+  </si>
+  <si>
+    <t>Rashid Shaheed</t>
+  </si>
+  <si>
+    <t>Graham Gano</t>
+  </si>
+  <si>
+    <t>Greg Joseph</t>
+  </si>
+  <si>
+    <t>Tyquan Thornton</t>
+  </si>
+  <si>
+    <t>Kendre Miller</t>
+  </si>
+  <si>
+    <t>Laviska Shenault Jr.</t>
+  </si>
+  <si>
+    <t>Baker Mayfield</t>
+  </si>
+  <si>
+    <t>Tim Patrick</t>
+  </si>
+  <si>
+    <t>Wil Lutz</t>
+  </si>
+  <si>
+    <t>Washington Commanders</t>
+  </si>
+  <si>
+    <t>Kayshon Boutte</t>
+  </si>
+  <si>
+    <t>Kyren Williams</t>
+  </si>
+  <si>
+    <t>Devon Achane</t>
+  </si>
+  <si>
+    <t>Greg Zuerlein</t>
+  </si>
+  <si>
+    <t>New York Jets</t>
+  </si>
+  <si>
+    <t>Josh Reynolds</t>
+  </si>
+  <si>
+    <t>J.D. McKissic</t>
+  </si>
+  <si>
+    <t>Minnesota Vikings</t>
+  </si>
+  <si>
+    <t>Jerome Ford</t>
+  </si>
+  <si>
+    <t>Braxton Berrios</t>
+  </si>
+  <si>
+    <t>Devin Duvernay</t>
+  </si>
+  <si>
+    <t>Isaiah Hodgins</t>
+  </si>
+  <si>
+    <t>Quez Watkins</t>
+  </si>
+  <si>
+    <t>Mark Ingram II</t>
+  </si>
+  <si>
+    <t>Israel Abanikanda</t>
+  </si>
+  <si>
+    <t>Brett Maher</t>
+  </si>
+  <si>
     <t>Matt Ryan</t>
   </si>
   <si>
-    <t>Arizona Cardinals</t>
-  </si>
-  <si>
-    <t>Jameis Winston</t>
-  </si>
-  <si>
-    <t>Jason Myers</t>
-  </si>
-  <si>
     <t>Sam Howell</t>
   </si>
   <si>
-    <t>Tyler Davis</t>
-  </si>
-  <si>
-    <t>Carolina Panthers</t>
-  </si>
-  <si>
-    <t>JaMycal Hasty</t>
-  </si>
-  <si>
-    <t>Rashid Shaheed</t>
-  </si>
-  <si>
-    <t>Graham Gano</t>
-  </si>
-  <si>
-    <t>Greg Joseph</t>
-  </si>
-  <si>
-    <t>Tyquan Thornton</t>
-  </si>
-  <si>
-    <t>Kendre Miller</t>
-  </si>
-  <si>
-    <t>Laviska Shenault Jr.</t>
-  </si>
-  <si>
-    <t>Baker Mayfield</t>
-  </si>
-  <si>
-    <t>Tim Patrick</t>
-  </si>
-  <si>
-    <t>Wil Lutz</t>
-  </si>
-  <si>
-    <t>Washington Commanders</t>
-  </si>
-  <si>
-    <t>Kayshon Boutte</t>
-  </si>
-  <si>
-    <t>Kyren Williams</t>
-  </si>
-  <si>
-    <t>Devon Achane</t>
-  </si>
-  <si>
-    <t>Greg Zuerlein</t>
-  </si>
-  <si>
-    <t>New York Jets</t>
-  </si>
-  <si>
-    <t>Josh Reynolds</t>
-  </si>
-  <si>
-    <t>J.D. McKissic</t>
-  </si>
-  <si>
-    <t>Minnesota Vikings</t>
-  </si>
-  <si>
-    <t>Jerome Ford</t>
-  </si>
-  <si>
-    <t>Braxton Berrios</t>
-  </si>
-  <si>
-    <t>Devin Duvernay</t>
-  </si>
-  <si>
-    <t>Isaiah Hodgins</t>
-  </si>
-  <si>
-    <t>Quez Watkins</t>
-  </si>
-  <si>
-    <t>Mark Ingram II</t>
-  </si>
-  <si>
-    <t>Israel Abanikanda</t>
-  </si>
-  <si>
-    <t>Brett Maher</t>
-  </si>
-  <si>
     <t>D'Ernest Johnson</t>
   </si>
   <si>
@@ -959,6 +959,9 @@
     <t>Brevin Jordan</t>
   </si>
   <si>
+    <t>Will Levis</t>
+  </si>
+  <si>
     <t>Randall Cobb</t>
   </si>
   <si>
@@ -974,57 +977,57 @@
     <t>Jelani Woods</t>
   </si>
   <si>
+    <t>Jonnu Smith</t>
+  </si>
+  <si>
+    <t>Cade Otton</t>
+  </si>
+  <si>
+    <t>Rashee Rice</t>
+  </si>
+  <si>
+    <t>Byron Pringle</t>
+  </si>
+  <si>
+    <t>Mo Alie-Cox</t>
+  </si>
+  <si>
+    <t>A.J. Green</t>
+  </si>
+  <si>
+    <t>Tyler Conklin</t>
+  </si>
+  <si>
+    <t>Jamison Crowder</t>
+  </si>
+  <si>
+    <t>Marvin Mims</t>
+  </si>
+  <si>
+    <t>Randy Bullock</t>
+  </si>
+  <si>
+    <t>Damien Williams</t>
+  </si>
+  <si>
+    <t>Sammy Watkins</t>
+  </si>
+  <si>
+    <t>Chicago Bears</t>
+  </si>
+  <si>
+    <t>Jalen Tolbert</t>
+  </si>
+  <si>
+    <t>DeWayne McBride</t>
+  </si>
+  <si>
+    <t>Trey Sermon</t>
+  </si>
+  <si>
     <t>Desmond Ridder</t>
   </si>
   <si>
-    <t>Jonnu Smith</t>
-  </si>
-  <si>
-    <t>Cade Otton</t>
-  </si>
-  <si>
-    <t>Rashee Rice</t>
-  </si>
-  <si>
-    <t>Byron Pringle</t>
-  </si>
-  <si>
-    <t>Mo Alie-Cox</t>
-  </si>
-  <si>
-    <t>A.J. Green</t>
-  </si>
-  <si>
-    <t>Tyler Conklin</t>
-  </si>
-  <si>
-    <t>Jamison Crowder</t>
-  </si>
-  <si>
-    <t>Marvin Mims</t>
-  </si>
-  <si>
-    <t>Randy Bullock</t>
-  </si>
-  <si>
-    <t>Damien Williams</t>
-  </si>
-  <si>
-    <t>Sammy Watkins</t>
-  </si>
-  <si>
-    <t>Chicago Bears</t>
-  </si>
-  <si>
-    <t>Jalen Tolbert</t>
-  </si>
-  <si>
-    <t>DeWayne McBride</t>
-  </si>
-  <si>
-    <t>Trey Sermon</t>
-  </si>
-  <si>
     <t>Justin Jackson</t>
   </si>
   <si>
@@ -1046,196 +1049,196 @@
     <t>Jacksonville Jaguars</t>
   </si>
   <si>
+    <t>Hassan Haskins</t>
+  </si>
+  <si>
+    <t>Ronald Jones II</t>
+  </si>
+  <si>
+    <t>Matt Breida</t>
+  </si>
+  <si>
+    <t>Nelson Agholor</t>
+  </si>
+  <si>
+    <t>Ka'imi Fairbairn</t>
+  </si>
+  <si>
+    <t>Cairo Santos</t>
+  </si>
+  <si>
+    <t>Seattle Seahawks</t>
+  </si>
+  <si>
+    <t>Cedrick Wilson Jr.</t>
+  </si>
+  <si>
+    <t>Marquez Callaway</t>
+  </si>
+  <si>
+    <t>Sony Michel</t>
+  </si>
+  <si>
+    <t>Adam Trautman</t>
+  </si>
+  <si>
     <t>Carson Wentz</t>
   </si>
   <si>
-    <t>Hassan Haskins</t>
-  </si>
-  <si>
-    <t>Ronald Jones II</t>
-  </si>
-  <si>
-    <t>Matt Breida</t>
-  </si>
-  <si>
-    <t>Nelson Agholor</t>
-  </si>
-  <si>
-    <t>Ka'imi Fairbairn</t>
-  </si>
-  <si>
-    <t>Cairo Santos</t>
-  </si>
-  <si>
-    <t>Seattle Seahawks</t>
-  </si>
-  <si>
-    <t>Cedrick Wilson Jr.</t>
-  </si>
-  <si>
-    <t>Marquez Callaway</t>
-  </si>
-  <si>
-    <t>Sony Michel</t>
-  </si>
-  <si>
-    <t>Adam Trautman</t>
+    <t>RB</t>
+  </si>
+  <si>
+    <t>WR</t>
+  </si>
+  <si>
+    <t>TE</t>
+  </si>
+  <si>
+    <t>QB</t>
+  </si>
+  <si>
+    <t>DST</t>
+  </si>
+  <si>
+    <t>K</t>
+  </si>
+  <si>
+    <t>SF</t>
+  </si>
+  <si>
+    <t>LAC</t>
+  </si>
+  <si>
+    <t>IND</t>
+  </si>
+  <si>
+    <t>NYG</t>
+  </si>
+  <si>
+    <t>TEN</t>
+  </si>
+  <si>
+    <t>CLE</t>
+  </si>
+  <si>
+    <t>MIN</t>
+  </si>
+  <si>
+    <t>SEA</t>
+  </si>
+  <si>
+    <t>KC</t>
+  </si>
+  <si>
+    <t>LV</t>
+  </si>
+  <si>
+    <t>LAR</t>
+  </si>
+  <si>
+    <t>CIN</t>
+  </si>
+  <si>
+    <t>BUF</t>
+  </si>
+  <si>
+    <t>PIT</t>
+  </si>
+  <si>
+    <t>JAC</t>
+  </si>
+  <si>
+    <t>MIA</t>
+  </si>
+  <si>
+    <t>DAL</t>
+  </si>
+  <si>
+    <t>PHI</t>
+  </si>
+  <si>
+    <t>NYJ</t>
+  </si>
+  <si>
+    <t>FA</t>
+  </si>
+  <si>
+    <t>BAL</t>
+  </si>
+  <si>
+    <t>DET</t>
+  </si>
+  <si>
+    <t>CAR</t>
+  </si>
+  <si>
+    <t>GB</t>
+  </si>
+  <si>
+    <t>TB</t>
+  </si>
+  <si>
+    <t>NE</t>
+  </si>
+  <si>
+    <t>WAS</t>
+  </si>
+  <si>
+    <t>ATL</t>
+  </si>
+  <si>
+    <t>HOU</t>
+  </si>
+  <si>
+    <t>NO</t>
+  </si>
+  <si>
+    <t>DEN</t>
+  </si>
+  <si>
+    <t>CHI</t>
+  </si>
+  <si>
+    <t>ARI</t>
+  </si>
+  <si>
+    <t>Rex Burkhead</t>
+  </si>
+  <si>
+    <t>Khalil Shakir</t>
+  </si>
+  <si>
+    <t>Mack Hollins</t>
+  </si>
+  <si>
+    <t>Kyle Philips</t>
+  </si>
+  <si>
+    <t>Noah Brown</t>
+  </si>
+  <si>
+    <t>Chris Moore</t>
+  </si>
+  <si>
+    <t>Jake Ferguson</t>
+  </si>
+  <si>
+    <t>Mike Davis</t>
+  </si>
+  <si>
+    <t>Ameer Abdullah</t>
+  </si>
+  <si>
+    <t>Jalen Reagor</t>
   </si>
   <si>
     <t>Velus Jones Jr.</t>
   </si>
   <si>
-    <t>RB</t>
-  </si>
-  <si>
-    <t>WR</t>
-  </si>
-  <si>
-    <t>TE</t>
-  </si>
-  <si>
-    <t>QB</t>
-  </si>
-  <si>
-    <t>DST</t>
-  </si>
-  <si>
-    <t>K</t>
-  </si>
-  <si>
-    <t>SF</t>
-  </si>
-  <si>
-    <t>LAC</t>
-  </si>
-  <si>
-    <t>IND</t>
-  </si>
-  <si>
-    <t>NYG</t>
-  </si>
-  <si>
-    <t>TEN</t>
-  </si>
-  <si>
-    <t>CLE</t>
-  </si>
-  <si>
-    <t>MIN</t>
-  </si>
-  <si>
-    <t>SEA</t>
-  </si>
-  <si>
-    <t>KC</t>
-  </si>
-  <si>
-    <t>LV</t>
-  </si>
-  <si>
-    <t>LAR</t>
-  </si>
-  <si>
-    <t>CIN</t>
-  </si>
-  <si>
-    <t>BUF</t>
-  </si>
-  <si>
-    <t>PIT</t>
-  </si>
-  <si>
-    <t>JAC</t>
-  </si>
-  <si>
-    <t>MIA</t>
-  </si>
-  <si>
-    <t>DAL</t>
-  </si>
-  <si>
-    <t>PHI</t>
-  </si>
-  <si>
-    <t>NYJ</t>
-  </si>
-  <si>
-    <t>FA</t>
-  </si>
-  <si>
-    <t>BAL</t>
-  </si>
-  <si>
-    <t>DET</t>
-  </si>
-  <si>
-    <t>CAR</t>
-  </si>
-  <si>
-    <t>GB</t>
-  </si>
-  <si>
-    <t>TB</t>
-  </si>
-  <si>
-    <t>NE</t>
-  </si>
-  <si>
-    <t>WAS</t>
-  </si>
-  <si>
-    <t>ATL</t>
-  </si>
-  <si>
-    <t>HOU</t>
-  </si>
-  <si>
-    <t>NO</t>
-  </si>
-  <si>
-    <t>DEN</t>
-  </si>
-  <si>
-    <t>CHI</t>
-  </si>
-  <si>
-    <t>ARI</t>
-  </si>
-  <si>
-    <t>Rex Burkhead</t>
-  </si>
-  <si>
-    <t>Khalil Shakir</t>
-  </si>
-  <si>
-    <t>Mack Hollins</t>
-  </si>
-  <si>
-    <t>Kyle Philips</t>
-  </si>
-  <si>
-    <t>Noah Brown</t>
-  </si>
-  <si>
-    <t>Chris Moore</t>
-  </si>
-  <si>
-    <t>Jake Ferguson</t>
-  </si>
-  <si>
-    <t>Mike Davis</t>
-  </si>
-  <si>
-    <t>Mike White</t>
-  </si>
-  <si>
-    <t>Ameer Abdullah</t>
-  </si>
-  <si>
-    <t>Jalen Reagor</t>
-  </si>
-  <si>
     <t>Dontrell Hilliard</t>
+  </si>
+  <si>
+    <t>Myles Gaskin</t>
   </si>
 </sst>
 </file>
@@ -3934,10 +3937,10 @@
         <v>169</v>
       </c>
       <c r="C167" t="s">
-        <v>357</v>
+        <v>358</v>
       </c>
       <c r="D167" t="s">
-        <v>364</v>
+        <v>389</v>
       </c>
     </row>
     <row r="168" spans="1:4">
@@ -3951,7 +3954,7 @@
         <v>358</v>
       </c>
       <c r="D168" t="s">
-        <v>389</v>
+        <v>362</v>
       </c>
     </row>
     <row r="169" spans="1:4">
@@ -3965,7 +3968,7 @@
         <v>358</v>
       </c>
       <c r="D169" t="s">
-        <v>362</v>
+        <v>385</v>
       </c>
     </row>
     <row r="170" spans="1:4">
@@ -3976,10 +3979,10 @@
         <v>172</v>
       </c>
       <c r="C170" t="s">
-        <v>358</v>
+        <v>357</v>
       </c>
       <c r="D170" t="s">
-        <v>385</v>
+        <v>364</v>
       </c>
     </row>
     <row r="171" spans="1:4">
@@ -4438,10 +4441,10 @@
         <v>205</v>
       </c>
       <c r="C203" t="s">
-        <v>355</v>
+        <v>357</v>
       </c>
       <c r="D203" t="s">
-        <v>383</v>
+        <v>379</v>
       </c>
     </row>
     <row r="204" spans="1:4">
@@ -4455,7 +4458,7 @@
         <v>355</v>
       </c>
       <c r="D204" t="s">
-        <v>386</v>
+        <v>383</v>
       </c>
     </row>
     <row r="205" spans="1:4">
@@ -4466,10 +4469,10 @@
         <v>207</v>
       </c>
       <c r="C205" t="s">
-        <v>354</v>
+        <v>355</v>
       </c>
       <c r="D205" t="s">
-        <v>373</v>
+        <v>386</v>
       </c>
     </row>
     <row r="206" spans="1:4">
@@ -4480,10 +4483,10 @@
         <v>208</v>
       </c>
       <c r="C206" t="s">
-        <v>358</v>
+        <v>354</v>
       </c>
       <c r="D206" t="s">
-        <v>380</v>
+        <v>373</v>
       </c>
     </row>
     <row r="207" spans="1:4">
@@ -4497,7 +4500,7 @@
         <v>358</v>
       </c>
       <c r="D207" t="s">
-        <v>377</v>
+        <v>380</v>
       </c>
     </row>
     <row r="208" spans="1:4">
@@ -4508,10 +4511,10 @@
         <v>210</v>
       </c>
       <c r="C208" t="s">
-        <v>356</v>
+        <v>358</v>
       </c>
       <c r="D208" t="s">
-        <v>389</v>
+        <v>377</v>
       </c>
     </row>
     <row r="209" spans="1:4">
@@ -4525,7 +4528,7 @@
         <v>356</v>
       </c>
       <c r="D209" t="s">
-        <v>366</v>
+        <v>389</v>
       </c>
     </row>
     <row r="210" spans="1:4">
@@ -4536,10 +4539,10 @@
         <v>212</v>
       </c>
       <c r="C210" t="s">
-        <v>359</v>
+        <v>356</v>
       </c>
       <c r="D210" t="s">
-        <v>368</v>
+        <v>366</v>
       </c>
     </row>
     <row r="211" spans="1:4">
@@ -4550,10 +4553,10 @@
         <v>213</v>
       </c>
       <c r="C211" t="s">
-        <v>355</v>
+        <v>359</v>
       </c>
       <c r="D211" t="s">
-        <v>370</v>
+        <v>368</v>
       </c>
     </row>
     <row r="212" spans="1:4">
@@ -4564,10 +4567,10 @@
         <v>214</v>
       </c>
       <c r="C212" t="s">
-        <v>358</v>
+        <v>357</v>
       </c>
       <c r="D212" t="s">
-        <v>365</v>
+        <v>379</v>
       </c>
     </row>
     <row r="213" spans="1:4">
@@ -4581,7 +4584,7 @@
         <v>355</v>
       </c>
       <c r="D213" t="s">
-        <v>384</v>
+        <v>370</v>
       </c>
     </row>
     <row r="214" spans="1:4">
@@ -4592,10 +4595,10 @@
         <v>216</v>
       </c>
       <c r="C214" t="s">
-        <v>359</v>
+        <v>358</v>
       </c>
       <c r="D214" t="s">
-        <v>384</v>
+        <v>365</v>
       </c>
     </row>
     <row r="215" spans="1:4">
@@ -4606,10 +4609,10 @@
         <v>217</v>
       </c>
       <c r="C215" t="s">
-        <v>354</v>
+        <v>355</v>
       </c>
       <c r="D215" t="s">
-        <v>362</v>
+        <v>384</v>
       </c>
     </row>
     <row r="216" spans="1:4">
@@ -4620,10 +4623,10 @@
         <v>218</v>
       </c>
       <c r="C216" t="s">
-        <v>356</v>
+        <v>359</v>
       </c>
       <c r="D216" t="s">
-        <v>392</v>
+        <v>384</v>
       </c>
     </row>
     <row r="217" spans="1:4">
@@ -4634,10 +4637,10 @@
         <v>219</v>
       </c>
       <c r="C217" t="s">
-        <v>358</v>
+        <v>354</v>
       </c>
       <c r="D217" t="s">
-        <v>375</v>
+        <v>362</v>
       </c>
     </row>
     <row r="218" spans="1:4">
@@ -4648,10 +4651,10 @@
         <v>220</v>
       </c>
       <c r="C218" t="s">
-        <v>355</v>
+        <v>356</v>
       </c>
       <c r="D218" t="s">
-        <v>372</v>
+        <v>392</v>
       </c>
     </row>
     <row r="219" spans="1:4">
@@ -4662,10 +4665,10 @@
         <v>221</v>
       </c>
       <c r="C219" t="s">
-        <v>354</v>
+        <v>358</v>
       </c>
       <c r="D219" t="s">
-        <v>360</v>
+        <v>375</v>
       </c>
     </row>
     <row r="220" spans="1:4">
@@ -4676,10 +4679,10 @@
         <v>222</v>
       </c>
       <c r="C220" t="s">
-        <v>359</v>
+        <v>355</v>
       </c>
       <c r="D220" t="s">
-        <v>385</v>
+        <v>372</v>
       </c>
     </row>
     <row r="221" spans="1:4">
@@ -4690,10 +4693,10 @@
         <v>223</v>
       </c>
       <c r="C221" t="s">
-        <v>355</v>
+        <v>354</v>
       </c>
       <c r="D221" t="s">
-        <v>379</v>
+        <v>360</v>
       </c>
     </row>
     <row r="222" spans="1:4">
@@ -4704,10 +4707,10 @@
         <v>224</v>
       </c>
       <c r="C222" t="s">
-        <v>358</v>
+        <v>359</v>
       </c>
       <c r="D222" t="s">
-        <v>373</v>
+        <v>385</v>
       </c>
     </row>
     <row r="223" spans="1:4">
@@ -4718,10 +4721,10 @@
         <v>225</v>
       </c>
       <c r="C223" t="s">
-        <v>354</v>
+        <v>355</v>
       </c>
       <c r="D223" t="s">
-        <v>377</v>
+        <v>379</v>
       </c>
     </row>
     <row r="224" spans="1:4">
@@ -4735,7 +4738,7 @@
         <v>358</v>
       </c>
       <c r="D224" t="s">
-        <v>368</v>
+        <v>373</v>
       </c>
     </row>
     <row r="225" spans="1:4">
@@ -4746,10 +4749,10 @@
         <v>227</v>
       </c>
       <c r="C225" t="s">
-        <v>355</v>
+        <v>354</v>
       </c>
       <c r="D225" t="s">
-        <v>363</v>
+        <v>377</v>
       </c>
     </row>
     <row r="226" spans="1:4">
@@ -4760,7 +4763,7 @@
         <v>228</v>
       </c>
       <c r="C226" t="s">
-        <v>354</v>
+        <v>358</v>
       </c>
       <c r="D226" t="s">
         <v>368</v>
@@ -4774,10 +4777,10 @@
         <v>229</v>
       </c>
       <c r="C227" t="s">
-        <v>354</v>
+        <v>355</v>
       </c>
       <c r="D227" t="s">
-        <v>361</v>
+        <v>363</v>
       </c>
     </row>
     <row r="228" spans="1:4">
@@ -4791,7 +4794,7 @@
         <v>354</v>
       </c>
       <c r="D228" t="s">
-        <v>361</v>
+        <v>368</v>
       </c>
     </row>
     <row r="229" spans="1:4">
@@ -4802,10 +4805,10 @@
         <v>231</v>
       </c>
       <c r="C229" t="s">
-        <v>356</v>
+        <v>354</v>
       </c>
       <c r="D229" t="s">
-        <v>380</v>
+        <v>361</v>
       </c>
     </row>
     <row r="230" spans="1:4">
@@ -4816,10 +4819,10 @@
         <v>232</v>
       </c>
       <c r="C230" t="s">
-        <v>355</v>
+        <v>354</v>
       </c>
       <c r="D230" t="s">
-        <v>362</v>
+        <v>361</v>
       </c>
     </row>
     <row r="231" spans="1:4">
@@ -4833,7 +4836,7 @@
         <v>356</v>
       </c>
       <c r="D231" t="s">
-        <v>379</v>
+        <v>380</v>
       </c>
     </row>
     <row r="232" spans="1:4">
@@ -4844,10 +4847,10 @@
         <v>234</v>
       </c>
       <c r="C232" t="s">
-        <v>356</v>
+        <v>355</v>
       </c>
       <c r="D232" t="s">
-        <v>383</v>
+        <v>362</v>
       </c>
     </row>
     <row r="233" spans="1:4">
@@ -4861,7 +4864,7 @@
         <v>356</v>
       </c>
       <c r="D233" t="s">
-        <v>364</v>
+        <v>379</v>
       </c>
     </row>
     <row r="234" spans="1:4">
@@ -4872,10 +4875,10 @@
         <v>236</v>
       </c>
       <c r="C234" t="s">
-        <v>355</v>
+        <v>356</v>
       </c>
       <c r="D234" t="s">
-        <v>389</v>
+        <v>383</v>
       </c>
     </row>
     <row r="235" spans="1:4">
@@ -4886,10 +4889,10 @@
         <v>237</v>
       </c>
       <c r="C235" t="s">
-        <v>359</v>
+        <v>356</v>
       </c>
       <c r="D235" t="s">
-        <v>390</v>
+        <v>364</v>
       </c>
     </row>
     <row r="236" spans="1:4">
@@ -4900,10 +4903,10 @@
         <v>238</v>
       </c>
       <c r="C236" t="s">
-        <v>359</v>
+        <v>355</v>
       </c>
       <c r="D236" t="s">
-        <v>392</v>
+        <v>389</v>
       </c>
     </row>
     <row r="237" spans="1:4">
@@ -4914,10 +4917,10 @@
         <v>239</v>
       </c>
       <c r="C237" t="s">
-        <v>354</v>
+        <v>359</v>
       </c>
       <c r="D237" t="s">
-        <v>372</v>
+        <v>390</v>
       </c>
     </row>
     <row r="238" spans="1:4">
@@ -4928,10 +4931,10 @@
         <v>240</v>
       </c>
       <c r="C238" t="s">
-        <v>355</v>
+        <v>359</v>
       </c>
       <c r="D238" t="s">
-        <v>363</v>
+        <v>392</v>
       </c>
     </row>
     <row r="239" spans="1:4">
@@ -4942,10 +4945,10 @@
         <v>241</v>
       </c>
       <c r="C239" t="s">
-        <v>355</v>
+        <v>354</v>
       </c>
       <c r="D239" t="s">
-        <v>392</v>
+        <v>372</v>
       </c>
     </row>
     <row r="240" spans="1:4">
@@ -4959,7 +4962,7 @@
         <v>355</v>
       </c>
       <c r="D240" t="s">
-        <v>374</v>
+        <v>363</v>
       </c>
     </row>
     <row r="241" spans="1:4">
@@ -4970,10 +4973,10 @@
         <v>243</v>
       </c>
       <c r="C241" t="s">
-        <v>359</v>
+        <v>355</v>
       </c>
       <c r="D241" t="s">
-        <v>379</v>
+        <v>392</v>
       </c>
     </row>
     <row r="242" spans="1:4">
@@ -4984,10 +4987,10 @@
         <v>244</v>
       </c>
       <c r="C242" t="s">
-        <v>354</v>
+        <v>355</v>
       </c>
       <c r="D242" t="s">
-        <v>379</v>
+        <v>374</v>
       </c>
     </row>
     <row r="243" spans="1:4">
@@ -4998,10 +5001,10 @@
         <v>245</v>
       </c>
       <c r="C243" t="s">
-        <v>354</v>
+        <v>359</v>
       </c>
       <c r="D243" t="s">
-        <v>380</v>
+        <v>379</v>
       </c>
     </row>
     <row r="244" spans="1:4">
@@ -5012,10 +5015,10 @@
         <v>246</v>
       </c>
       <c r="C244" t="s">
-        <v>359</v>
+        <v>354</v>
       </c>
       <c r="D244" t="s">
-        <v>387</v>
+        <v>379</v>
       </c>
     </row>
     <row r="245" spans="1:4">
@@ -5026,10 +5029,10 @@
         <v>247</v>
       </c>
       <c r="C245" t="s">
-        <v>359</v>
+        <v>354</v>
       </c>
       <c r="D245" t="s">
-        <v>360</v>
+        <v>380</v>
       </c>
     </row>
     <row r="246" spans="1:4">
@@ -5040,10 +5043,10 @@
         <v>248</v>
       </c>
       <c r="C246" t="s">
-        <v>358</v>
+        <v>359</v>
       </c>
       <c r="D246" t="s">
-        <v>371</v>
+        <v>387</v>
       </c>
     </row>
     <row r="247" spans="1:4">
@@ -5054,7 +5057,7 @@
         <v>249</v>
       </c>
       <c r="C247" t="s">
-        <v>357</v>
+        <v>359</v>
       </c>
       <c r="D247" t="s">
         <v>360</v>
@@ -5068,10 +5071,10 @@
         <v>250</v>
       </c>
       <c r="C248" t="s">
-        <v>355</v>
+        <v>358</v>
       </c>
       <c r="D248" t="s">
-        <v>390</v>
+        <v>371</v>
       </c>
     </row>
     <row r="249" spans="1:4">
@@ -5082,10 +5085,10 @@
         <v>251</v>
       </c>
       <c r="C249" t="s">
-        <v>359</v>
+        <v>355</v>
       </c>
       <c r="D249" t="s">
-        <v>375</v>
+        <v>390</v>
       </c>
     </row>
     <row r="250" spans="1:4">
@@ -5096,10 +5099,10 @@
         <v>252</v>
       </c>
       <c r="C250" t="s">
-        <v>357</v>
+        <v>359</v>
       </c>
       <c r="D250" t="s">
-        <v>360</v>
+        <v>375</v>
       </c>
     </row>
     <row r="251" spans="1:4">
@@ -5138,10 +5141,10 @@
         <v>255</v>
       </c>
       <c r="C253" t="s">
-        <v>357</v>
+        <v>358</v>
       </c>
       <c r="D253" t="s">
-        <v>379</v>
+        <v>364</v>
       </c>
     </row>
     <row r="254" spans="1:4">
@@ -5152,10 +5155,10 @@
         <v>256</v>
       </c>
       <c r="C254" t="s">
-        <v>358</v>
+        <v>354</v>
       </c>
       <c r="D254" t="s">
-        <v>364</v>
+        <v>378</v>
       </c>
     </row>
     <row r="255" spans="1:4">
@@ -5166,10 +5169,10 @@
         <v>257</v>
       </c>
       <c r="C255" t="s">
-        <v>354</v>
+        <v>357</v>
       </c>
       <c r="D255" t="s">
-        <v>378</v>
+        <v>360</v>
       </c>
     </row>
     <row r="256" spans="1:4">
@@ -5180,10 +5183,10 @@
         <v>258</v>
       </c>
       <c r="C256" t="s">
-        <v>357</v>
+        <v>355</v>
       </c>
       <c r="D256" t="s">
-        <v>379</v>
+        <v>388</v>
       </c>
     </row>
     <row r="257" spans="1:4">
@@ -5194,10 +5197,10 @@
         <v>259</v>
       </c>
       <c r="C257" t="s">
-        <v>355</v>
+        <v>356</v>
       </c>
       <c r="D257" t="s">
-        <v>388</v>
+        <v>363</v>
       </c>
     </row>
     <row r="258" spans="1:4">
@@ -5208,10 +5211,10 @@
         <v>260</v>
       </c>
       <c r="C258" t="s">
-        <v>356</v>
+        <v>354</v>
       </c>
       <c r="D258" t="s">
-        <v>363</v>
+        <v>385</v>
       </c>
     </row>
     <row r="259" spans="1:4">
@@ -5225,7 +5228,7 @@
         <v>354</v>
       </c>
       <c r="D259" t="s">
-        <v>385</v>
+        <v>360</v>
       </c>
     </row>
     <row r="260" spans="1:4">
@@ -5239,7 +5242,7 @@
         <v>354</v>
       </c>
       <c r="D260" t="s">
-        <v>360</v>
+        <v>389</v>
       </c>
     </row>
     <row r="261" spans="1:4">
@@ -5250,10 +5253,10 @@
         <v>263</v>
       </c>
       <c r="C261" t="s">
-        <v>354</v>
+        <v>357</v>
       </c>
       <c r="D261" t="s">
-        <v>389</v>
+        <v>360</v>
       </c>
     </row>
     <row r="262" spans="1:4">
@@ -5390,10 +5393,10 @@
         <v>273</v>
       </c>
       <c r="C271" t="s">
-        <v>357</v>
+        <v>358</v>
       </c>
       <c r="D271" t="s">
-        <v>362</v>
+        <v>392</v>
       </c>
     </row>
     <row r="272" spans="1:4">
@@ -5404,10 +5407,10 @@
         <v>274</v>
       </c>
       <c r="C272" t="s">
-        <v>358</v>
+        <v>357</v>
       </c>
       <c r="D272" t="s">
-        <v>392</v>
+        <v>389</v>
       </c>
     </row>
     <row r="273" spans="1:4">
@@ -5418,10 +5421,10 @@
         <v>275</v>
       </c>
       <c r="C273" t="s">
-        <v>357</v>
+        <v>359</v>
       </c>
       <c r="D273" t="s">
-        <v>389</v>
+        <v>367</v>
       </c>
     </row>
     <row r="274" spans="1:4">
@@ -5435,7 +5438,7 @@
         <v>359</v>
       </c>
       <c r="D274" t="s">
-        <v>367</v>
+        <v>379</v>
       </c>
     </row>
     <row r="275" spans="1:4">
@@ -5446,10 +5449,10 @@
         <v>277</v>
       </c>
       <c r="C275" t="s">
-        <v>357</v>
+        <v>358</v>
       </c>
       <c r="D275" t="s">
-        <v>386</v>
+        <v>382</v>
       </c>
     </row>
     <row r="276" spans="1:4">
@@ -5460,10 +5463,10 @@
         <v>278</v>
       </c>
       <c r="C276" t="s">
-        <v>359</v>
+        <v>354</v>
       </c>
       <c r="D276" t="s">
-        <v>379</v>
+        <v>374</v>
       </c>
     </row>
     <row r="277" spans="1:4">
@@ -5474,10 +5477,10 @@
         <v>279</v>
       </c>
       <c r="C277" t="s">
-        <v>358</v>
+        <v>355</v>
       </c>
       <c r="D277" t="s">
-        <v>382</v>
+        <v>389</v>
       </c>
     </row>
     <row r="278" spans="1:4">
@@ -5488,10 +5491,10 @@
         <v>280</v>
       </c>
       <c r="C278" t="s">
-        <v>354</v>
+        <v>359</v>
       </c>
       <c r="D278" t="s">
-        <v>374</v>
+        <v>363</v>
       </c>
     </row>
     <row r="279" spans="1:4">
@@ -5502,10 +5505,10 @@
         <v>281</v>
       </c>
       <c r="C279" t="s">
-        <v>355</v>
+        <v>359</v>
       </c>
       <c r="D279" t="s">
-        <v>389</v>
+        <v>366</v>
       </c>
     </row>
     <row r="280" spans="1:4">
@@ -5516,10 +5519,10 @@
         <v>282</v>
       </c>
       <c r="C280" t="s">
-        <v>359</v>
+        <v>355</v>
       </c>
       <c r="D280" t="s">
-        <v>363</v>
+        <v>385</v>
       </c>
     </row>
     <row r="281" spans="1:4">
@@ -5530,10 +5533,10 @@
         <v>283</v>
       </c>
       <c r="C281" t="s">
-        <v>359</v>
+        <v>354</v>
       </c>
       <c r="D281" t="s">
-        <v>366</v>
+        <v>379</v>
       </c>
     </row>
     <row r="282" spans="1:4">
@@ -5547,7 +5550,7 @@
         <v>355</v>
       </c>
       <c r="D282" t="s">
-        <v>385</v>
+        <v>382</v>
       </c>
     </row>
     <row r="283" spans="1:4">
@@ -5558,10 +5561,10 @@
         <v>285</v>
       </c>
       <c r="C283" t="s">
-        <v>354</v>
+        <v>357</v>
       </c>
       <c r="D283" t="s">
-        <v>379</v>
+        <v>370</v>
       </c>
     </row>
     <row r="284" spans="1:4">
@@ -5575,7 +5578,7 @@
         <v>355</v>
       </c>
       <c r="D284" t="s">
-        <v>382</v>
+        <v>390</v>
       </c>
     </row>
     <row r="285" spans="1:4">
@@ -5586,10 +5589,10 @@
         <v>287</v>
       </c>
       <c r="C285" t="s">
-        <v>357</v>
+        <v>359</v>
       </c>
       <c r="D285" t="s">
-        <v>370</v>
+        <v>389</v>
       </c>
     </row>
     <row r="286" spans="1:4">
@@ -5600,10 +5603,10 @@
         <v>288</v>
       </c>
       <c r="C286" t="s">
-        <v>355</v>
+        <v>358</v>
       </c>
       <c r="D286" t="s">
-        <v>390</v>
+        <v>386</v>
       </c>
     </row>
     <row r="287" spans="1:4">
@@ -5614,10 +5617,10 @@
         <v>289</v>
       </c>
       <c r="C287" t="s">
-        <v>359</v>
+        <v>355</v>
       </c>
       <c r="D287" t="s">
-        <v>389</v>
+        <v>379</v>
       </c>
     </row>
     <row r="288" spans="1:4">
@@ -5628,10 +5631,10 @@
         <v>290</v>
       </c>
       <c r="C288" t="s">
-        <v>358</v>
+        <v>354</v>
       </c>
       <c r="D288" t="s">
-        <v>386</v>
+        <v>370</v>
       </c>
     </row>
     <row r="289" spans="1:4">
@@ -5642,7 +5645,7 @@
         <v>291</v>
       </c>
       <c r="C289" t="s">
-        <v>355</v>
+        <v>354</v>
       </c>
       <c r="D289" t="s">
         <v>379</v>
@@ -5656,10 +5659,10 @@
         <v>292</v>
       </c>
       <c r="C290" t="s">
-        <v>354</v>
+        <v>359</v>
       </c>
       <c r="D290" t="s">
-        <v>370</v>
+        <v>378</v>
       </c>
     </row>
     <row r="291" spans="1:4">
@@ -5670,10 +5673,10 @@
         <v>293</v>
       </c>
       <c r="C291" t="s">
-        <v>354</v>
+        <v>358</v>
       </c>
       <c r="D291" t="s">
-        <v>379</v>
+        <v>378</v>
       </c>
     </row>
     <row r="292" spans="1:4">
@@ -5684,10 +5687,10 @@
         <v>294</v>
       </c>
       <c r="C292" t="s">
-        <v>359</v>
+        <v>355</v>
       </c>
       <c r="D292" t="s">
-        <v>378</v>
+        <v>381</v>
       </c>
     </row>
     <row r="293" spans="1:4">
@@ -5698,10 +5701,10 @@
         <v>295</v>
       </c>
       <c r="C293" t="s">
-        <v>358</v>
+        <v>354</v>
       </c>
       <c r="D293" t="s">
-        <v>378</v>
+        <v>386</v>
       </c>
     </row>
     <row r="294" spans="1:4">
@@ -5712,10 +5715,10 @@
         <v>296</v>
       </c>
       <c r="C294" t="s">
-        <v>355</v>
+        <v>358</v>
       </c>
       <c r="D294" t="s">
-        <v>381</v>
+        <v>366</v>
       </c>
     </row>
     <row r="295" spans="1:4">
@@ -5729,7 +5732,7 @@
         <v>354</v>
       </c>
       <c r="D295" t="s">
-        <v>386</v>
+        <v>365</v>
       </c>
     </row>
     <row r="296" spans="1:4">
@@ -5740,10 +5743,10 @@
         <v>298</v>
       </c>
       <c r="C296" t="s">
-        <v>358</v>
+        <v>355</v>
       </c>
       <c r="D296" t="s">
-        <v>366</v>
+        <v>378</v>
       </c>
     </row>
     <row r="297" spans="1:4">
@@ -5754,10 +5757,10 @@
         <v>299</v>
       </c>
       <c r="C297" t="s">
-        <v>354</v>
+        <v>355</v>
       </c>
       <c r="D297" t="s">
-        <v>365</v>
+        <v>380</v>
       </c>
     </row>
     <row r="298" spans="1:4">
@@ -5771,7 +5774,7 @@
         <v>355</v>
       </c>
       <c r="D298" t="s">
-        <v>378</v>
+        <v>363</v>
       </c>
     </row>
     <row r="299" spans="1:4">
@@ -5785,7 +5788,7 @@
         <v>355</v>
       </c>
       <c r="D299" t="s">
-        <v>380</v>
+        <v>377</v>
       </c>
     </row>
     <row r="300" spans="1:4">
@@ -5796,10 +5799,10 @@
         <v>302</v>
       </c>
       <c r="C300" t="s">
-        <v>355</v>
+        <v>354</v>
       </c>
       <c r="D300" t="s">
-        <v>363</v>
+        <v>389</v>
       </c>
     </row>
     <row r="301" spans="1:4">
@@ -5810,10 +5813,10 @@
         <v>303</v>
       </c>
       <c r="C301" t="s">
-        <v>355</v>
+        <v>354</v>
       </c>
       <c r="D301" t="s">
-        <v>377</v>
+        <v>379</v>
       </c>
     </row>
     <row r="302" spans="1:4">
@@ -5824,10 +5827,10 @@
         <v>304</v>
       </c>
       <c r="C302" t="s">
-        <v>354</v>
+        <v>359</v>
       </c>
       <c r="D302" t="s">
-        <v>389</v>
+        <v>376</v>
       </c>
     </row>
     <row r="303" spans="1:4">
@@ -5838,10 +5841,10 @@
         <v>305</v>
       </c>
       <c r="C303" t="s">
-        <v>354</v>
+        <v>357</v>
       </c>
       <c r="D303" t="s">
-        <v>379</v>
+        <v>362</v>
       </c>
     </row>
     <row r="304" spans="1:4">
@@ -5852,10 +5855,10 @@
         <v>306</v>
       </c>
       <c r="C304" t="s">
-        <v>359</v>
+        <v>357</v>
       </c>
       <c r="D304" t="s">
-        <v>376</v>
+        <v>386</v>
       </c>
     </row>
     <row r="305" spans="1:4">
@@ -5936,10 +5939,10 @@
         <v>312</v>
       </c>
       <c r="C310" t="s">
-        <v>355</v>
+        <v>357</v>
       </c>
       <c r="D310" t="s">
-        <v>383</v>
+        <v>379</v>
       </c>
     </row>
     <row r="311" spans="1:4">
@@ -5950,10 +5953,10 @@
         <v>313</v>
       </c>
       <c r="C311" t="s">
-        <v>354</v>
+        <v>355</v>
       </c>
       <c r="D311" t="s">
-        <v>375</v>
+        <v>383</v>
       </c>
     </row>
     <row r="312" spans="1:4">
@@ -5967,7 +5970,7 @@
         <v>354</v>
       </c>
       <c r="D312" t="s">
-        <v>379</v>
+        <v>375</v>
       </c>
     </row>
     <row r="313" spans="1:4">
@@ -5981,7 +5984,7 @@
         <v>354</v>
       </c>
       <c r="D313" t="s">
-        <v>371</v>
+        <v>379</v>
       </c>
     </row>
     <row r="314" spans="1:4">
@@ -5992,10 +5995,10 @@
         <v>316</v>
       </c>
       <c r="C314" t="s">
-        <v>356</v>
+        <v>354</v>
       </c>
       <c r="D314" t="s">
-        <v>362</v>
+        <v>371</v>
       </c>
     </row>
     <row r="315" spans="1:4">
@@ -6006,10 +6009,10 @@
         <v>317</v>
       </c>
       <c r="C315" t="s">
-        <v>357</v>
+        <v>356</v>
       </c>
       <c r="D315" t="s">
-        <v>387</v>
+        <v>362</v>
       </c>
     </row>
     <row r="316" spans="1:4">
@@ -6244,10 +6247,10 @@
         <v>334</v>
       </c>
       <c r="C332" t="s">
-        <v>354</v>
+        <v>357</v>
       </c>
       <c r="D332" t="s">
-        <v>381</v>
+        <v>387</v>
       </c>
     </row>
     <row r="333" spans="1:4">
@@ -6258,10 +6261,10 @@
         <v>335</v>
       </c>
       <c r="C333" t="s">
-        <v>356</v>
+        <v>354</v>
       </c>
       <c r="D333" t="s">
-        <v>379</v>
+        <v>381</v>
       </c>
     </row>
     <row r="334" spans="1:4">
@@ -6272,10 +6275,10 @@
         <v>336</v>
       </c>
       <c r="C334" t="s">
-        <v>358</v>
+        <v>356</v>
       </c>
       <c r="D334" t="s">
-        <v>363</v>
+        <v>379</v>
       </c>
     </row>
     <row r="335" spans="1:4">
@@ -6286,10 +6289,10 @@
         <v>337</v>
       </c>
       <c r="C335" t="s">
-        <v>355</v>
+        <v>358</v>
       </c>
       <c r="D335" t="s">
-        <v>379</v>
+        <v>363</v>
       </c>
     </row>
     <row r="336" spans="1:4">
@@ -6303,7 +6306,7 @@
         <v>355</v>
       </c>
       <c r="D336" t="s">
-        <v>363</v>
+        <v>379</v>
       </c>
     </row>
     <row r="337" spans="1:4">
@@ -6317,7 +6320,7 @@
         <v>355</v>
       </c>
       <c r="D337" t="s">
-        <v>386</v>
+        <v>363</v>
       </c>
     </row>
     <row r="338" spans="1:4">
@@ -6328,10 +6331,10 @@
         <v>340</v>
       </c>
       <c r="C338" t="s">
-        <v>358</v>
+        <v>355</v>
       </c>
       <c r="D338" t="s">
-        <v>374</v>
+        <v>386</v>
       </c>
     </row>
     <row r="339" spans="1:4">
@@ -6342,10 +6345,10 @@
         <v>341</v>
       </c>
       <c r="C339" t="s">
-        <v>357</v>
+        <v>358</v>
       </c>
       <c r="D339" t="s">
-        <v>386</v>
+        <v>374</v>
       </c>
     </row>
     <row r="340" spans="1:4">
@@ -6510,10 +6513,10 @@
         <v>353</v>
       </c>
       <c r="C351" t="s">
-        <v>355</v>
+        <v>357</v>
       </c>
       <c r="D351" t="s">
-        <v>391</v>
+        <v>386</v>
       </c>
     </row>
   </sheetData>
@@ -8820,7 +8823,7 @@
         <v>163</v>
       </c>
       <c r="B164" t="s">
-        <v>218</v>
+        <v>220</v>
       </c>
       <c r="C164" t="s">
         <v>356</v>
@@ -8904,7 +8907,7 @@
         <v>169</v>
       </c>
       <c r="B170" t="s">
-        <v>205</v>
+        <v>206</v>
       </c>
       <c r="C170" t="s">
         <v>355</v>
@@ -8932,7 +8935,7 @@
         <v>171</v>
       </c>
       <c r="B172" t="s">
-        <v>172</v>
+        <v>171</v>
       </c>
       <c r="C172" t="s">
         <v>358</v>
@@ -9030,7 +9033,7 @@
         <v>178</v>
       </c>
       <c r="B179" t="s">
-        <v>170</v>
+        <v>169</v>
       </c>
       <c r="C179" t="s">
         <v>358</v>
@@ -9058,7 +9061,7 @@
         <v>180</v>
       </c>
       <c r="B181" t="s">
-        <v>171</v>
+        <v>170</v>
       </c>
       <c r="C181" t="s">
         <v>358</v>
@@ -9128,7 +9131,7 @@
         <v>185</v>
       </c>
       <c r="B186" t="s">
-        <v>206</v>
+        <v>207</v>
       </c>
       <c r="C186" t="s">
         <v>355</v>
@@ -9198,7 +9201,7 @@
         <v>190</v>
       </c>
       <c r="B191" t="s">
-        <v>207</v>
+        <v>208</v>
       </c>
       <c r="C191" t="s">
         <v>354</v>
@@ -9268,13 +9271,13 @@
         <v>195</v>
       </c>
       <c r="B196" t="s">
-        <v>169</v>
+        <v>179</v>
       </c>
       <c r="C196" t="s">
-        <v>357</v>
+        <v>354</v>
       </c>
       <c r="D196" t="s">
-        <v>364</v>
+        <v>380</v>
       </c>
     </row>
     <row r="197" spans="1:4">
@@ -9282,13 +9285,13 @@
         <v>196</v>
       </c>
       <c r="B197" t="s">
-        <v>179</v>
+        <v>199</v>
       </c>
       <c r="C197" t="s">
         <v>354</v>
       </c>
       <c r="D197" t="s">
-        <v>380</v>
+        <v>371</v>
       </c>
     </row>
     <row r="198" spans="1:4">
@@ -9296,13 +9299,13 @@
         <v>197</v>
       </c>
       <c r="B198" t="s">
-        <v>199</v>
+        <v>172</v>
       </c>
       <c r="C198" t="s">
-        <v>354</v>
+        <v>357</v>
       </c>
       <c r="D198" t="s">
-        <v>371</v>
+        <v>364</v>
       </c>
     </row>
     <row r="199" spans="1:4">
@@ -9310,7 +9313,7 @@
         <v>198</v>
       </c>
       <c r="B199" t="s">
-        <v>210</v>
+        <v>211</v>
       </c>
       <c r="C199" t="s">
         <v>356</v>
@@ -9352,7 +9355,7 @@
         <v>201</v>
       </c>
       <c r="B202" t="s">
-        <v>228</v>
+        <v>230</v>
       </c>
       <c r="C202" t="s">
         <v>354</v>
@@ -9380,7 +9383,7 @@
         <v>203</v>
       </c>
       <c r="B204" t="s">
-        <v>220</v>
+        <v>222</v>
       </c>
       <c r="C204" t="s">
         <v>355</v>
@@ -9394,7 +9397,7 @@
         <v>204</v>
       </c>
       <c r="B205" t="s">
-        <v>208</v>
+        <v>209</v>
       </c>
       <c r="C205" t="s">
         <v>358</v>
@@ -9408,7 +9411,7 @@
         <v>205</v>
       </c>
       <c r="B206" t="s">
-        <v>209</v>
+        <v>210</v>
       </c>
       <c r="C206" t="s">
         <v>358</v>
@@ -9436,7 +9439,7 @@
         <v>207</v>
       </c>
       <c r="B208" t="s">
-        <v>239</v>
+        <v>241</v>
       </c>
       <c r="C208" t="s">
         <v>354</v>
@@ -9450,7 +9453,7 @@
         <v>208</v>
       </c>
       <c r="B209" t="s">
-        <v>212</v>
+        <v>213</v>
       </c>
       <c r="C209" t="s">
         <v>359</v>
@@ -9492,7 +9495,7 @@
         <v>211</v>
       </c>
       <c r="B212" t="s">
-        <v>232</v>
+        <v>234</v>
       </c>
       <c r="C212" t="s">
         <v>355</v>
@@ -9506,7 +9509,7 @@
         <v>212</v>
       </c>
       <c r="B213" t="s">
-        <v>213</v>
+        <v>215</v>
       </c>
       <c r="C213" t="s">
         <v>355</v>
@@ -9520,7 +9523,7 @@
         <v>213</v>
       </c>
       <c r="B214" t="s">
-        <v>214</v>
+        <v>216</v>
       </c>
       <c r="C214" t="s">
         <v>358</v>
@@ -9534,7 +9537,7 @@
         <v>214</v>
       </c>
       <c r="B215" t="s">
-        <v>229</v>
+        <v>231</v>
       </c>
       <c r="C215" t="s">
         <v>354</v>
@@ -9548,7 +9551,7 @@
         <v>215</v>
       </c>
       <c r="B216" t="s">
-        <v>231</v>
+        <v>233</v>
       </c>
       <c r="C216" t="s">
         <v>356</v>
@@ -9562,7 +9565,7 @@
         <v>216</v>
       </c>
       <c r="B217" t="s">
-        <v>211</v>
+        <v>212</v>
       </c>
       <c r="C217" t="s">
         <v>356</v>
@@ -9576,7 +9579,7 @@
         <v>217</v>
       </c>
       <c r="B218" t="s">
-        <v>227</v>
+        <v>229</v>
       </c>
       <c r="C218" t="s">
         <v>355</v>
@@ -9604,7 +9607,7 @@
         <v>219</v>
       </c>
       <c r="B220" t="s">
-        <v>234</v>
+        <v>236</v>
       </c>
       <c r="C220" t="s">
         <v>356</v>
@@ -9646,7 +9649,7 @@
         <v>222</v>
       </c>
       <c r="B223" t="s">
-        <v>216</v>
+        <v>218</v>
       </c>
       <c r="C223" t="s">
         <v>359</v>
@@ -9660,7 +9663,7 @@
         <v>223</v>
       </c>
       <c r="B224" t="s">
-        <v>222</v>
+        <v>224</v>
       </c>
       <c r="C224" t="s">
         <v>359</v>
@@ -9674,13 +9677,13 @@
         <v>224</v>
       </c>
       <c r="B225" t="s">
-        <v>224</v>
+        <v>214</v>
       </c>
       <c r="C225" t="s">
-        <v>358</v>
+        <v>357</v>
       </c>
       <c r="D225" t="s">
-        <v>373</v>
+        <v>379</v>
       </c>
     </row>
     <row r="226" spans="1:4">
@@ -9688,13 +9691,13 @@
         <v>225</v>
       </c>
       <c r="B226" t="s">
-        <v>219</v>
+        <v>226</v>
       </c>
       <c r="C226" t="s">
         <v>358</v>
       </c>
       <c r="D226" t="s">
-        <v>375</v>
+        <v>373</v>
       </c>
     </row>
     <row r="227" spans="1:4">
@@ -9702,13 +9705,13 @@
         <v>226</v>
       </c>
       <c r="B227" t="s">
-        <v>253</v>
+        <v>205</v>
       </c>
       <c r="C227" t="s">
-        <v>355</v>
+        <v>357</v>
       </c>
       <c r="D227" t="s">
-        <v>382</v>
+        <v>379</v>
       </c>
     </row>
     <row r="228" spans="1:4">
@@ -9716,13 +9719,13 @@
         <v>227</v>
       </c>
       <c r="B228" t="s">
-        <v>260</v>
+        <v>221</v>
       </c>
       <c r="C228" t="s">
-        <v>356</v>
+        <v>358</v>
       </c>
       <c r="D228" t="s">
-        <v>363</v>
+        <v>375</v>
       </c>
     </row>
     <row r="229" spans="1:4">
@@ -9730,13 +9733,13 @@
         <v>228</v>
       </c>
       <c r="B229" t="s">
-        <v>249</v>
+        <v>253</v>
       </c>
       <c r="C229" t="s">
-        <v>357</v>
+        <v>355</v>
       </c>
       <c r="D229" t="s">
-        <v>360</v>
+        <v>382</v>
       </c>
     </row>
     <row r="230" spans="1:4">
@@ -9744,13 +9747,13 @@
         <v>229</v>
       </c>
       <c r="B230" t="s">
-        <v>271</v>
+        <v>259</v>
       </c>
       <c r="C230" t="s">
-        <v>355</v>
+        <v>356</v>
       </c>
       <c r="D230" t="s">
-        <v>365</v>
+        <v>363</v>
       </c>
     </row>
     <row r="231" spans="1:4">
@@ -9758,13 +9761,13 @@
         <v>230</v>
       </c>
       <c r="B231" t="s">
-        <v>230</v>
+        <v>271</v>
       </c>
       <c r="C231" t="s">
-        <v>354</v>
+        <v>355</v>
       </c>
       <c r="D231" t="s">
-        <v>361</v>
+        <v>365</v>
       </c>
     </row>
     <row r="232" spans="1:4">
@@ -9772,13 +9775,13 @@
         <v>231</v>
       </c>
       <c r="B232" t="s">
-        <v>215</v>
+        <v>263</v>
       </c>
       <c r="C232" t="s">
-        <v>355</v>
+        <v>357</v>
       </c>
       <c r="D232" t="s">
-        <v>384</v>
+        <v>360</v>
       </c>
     </row>
     <row r="233" spans="1:4">
@@ -9786,13 +9789,13 @@
         <v>232</v>
       </c>
       <c r="B233" t="s">
-        <v>242</v>
+        <v>232</v>
       </c>
       <c r="C233" t="s">
-        <v>355</v>
+        <v>354</v>
       </c>
       <c r="D233" t="s">
-        <v>374</v>
+        <v>361</v>
       </c>
     </row>
     <row r="234" spans="1:4">
@@ -9800,13 +9803,13 @@
         <v>233</v>
       </c>
       <c r="B234" t="s">
-        <v>226</v>
+        <v>217</v>
       </c>
       <c r="C234" t="s">
-        <v>358</v>
+        <v>355</v>
       </c>
       <c r="D234" t="s">
-        <v>368</v>
+        <v>384</v>
       </c>
     </row>
     <row r="235" spans="1:4">
@@ -9814,13 +9817,13 @@
         <v>234</v>
       </c>
       <c r="B235" t="s">
-        <v>284</v>
+        <v>244</v>
       </c>
       <c r="C235" t="s">
         <v>355</v>
       </c>
       <c r="D235" t="s">
-        <v>385</v>
+        <v>374</v>
       </c>
     </row>
     <row r="236" spans="1:4">
@@ -9828,13 +9831,13 @@
         <v>235</v>
       </c>
       <c r="B236" t="s">
-        <v>307</v>
+        <v>228</v>
       </c>
       <c r="C236" t="s">
-        <v>354</v>
+        <v>358</v>
       </c>
       <c r="D236" t="s">
-        <v>365</v>
+        <v>368</v>
       </c>
     </row>
     <row r="237" spans="1:4">
@@ -9842,13 +9845,13 @@
         <v>236</v>
       </c>
       <c r="B237" t="s">
-        <v>297</v>
+        <v>282</v>
       </c>
       <c r="C237" t="s">
-        <v>354</v>
+        <v>355</v>
       </c>
       <c r="D237" t="s">
-        <v>386</v>
+        <v>385</v>
       </c>
     </row>
     <row r="238" spans="1:4">
@@ -9856,13 +9859,13 @@
         <v>237</v>
       </c>
       <c r="B238" t="s">
-        <v>217</v>
+        <v>307</v>
       </c>
       <c r="C238" t="s">
         <v>354</v>
       </c>
       <c r="D238" t="s">
-        <v>362</v>
+        <v>365</v>
       </c>
     </row>
     <row r="239" spans="1:4">
@@ -9870,13 +9873,13 @@
         <v>238</v>
       </c>
       <c r="B239" t="s">
-        <v>246</v>
+        <v>295</v>
       </c>
       <c r="C239" t="s">
-        <v>359</v>
+        <v>354</v>
       </c>
       <c r="D239" t="s">
-        <v>387</v>
+        <v>386</v>
       </c>
     </row>
     <row r="240" spans="1:4">
@@ -9884,13 +9887,13 @@
         <v>239</v>
       </c>
       <c r="B240" t="s">
-        <v>221</v>
+        <v>219</v>
       </c>
       <c r="C240" t="s">
         <v>354</v>
       </c>
       <c r="D240" t="s">
-        <v>360</v>
+        <v>362</v>
       </c>
     </row>
     <row r="241" spans="1:4">
@@ -9898,13 +9901,13 @@
         <v>240</v>
       </c>
       <c r="B241" t="s">
-        <v>247</v>
+        <v>248</v>
       </c>
       <c r="C241" t="s">
         <v>359</v>
       </c>
       <c r="D241" t="s">
-        <v>360</v>
+        <v>387</v>
       </c>
     </row>
     <row r="242" spans="1:4">
@@ -9912,13 +9915,13 @@
         <v>241</v>
       </c>
       <c r="B242" t="s">
-        <v>259</v>
+        <v>223</v>
       </c>
       <c r="C242" t="s">
-        <v>355</v>
+        <v>354</v>
       </c>
       <c r="D242" t="s">
-        <v>388</v>
+        <v>360</v>
       </c>
     </row>
     <row r="243" spans="1:4">
@@ -9926,13 +9929,13 @@
         <v>242</v>
       </c>
       <c r="B243" t="s">
-        <v>248</v>
+        <v>249</v>
       </c>
       <c r="C243" t="s">
-        <v>358</v>
+        <v>359</v>
       </c>
       <c r="D243" t="s">
-        <v>371</v>
+        <v>360</v>
       </c>
     </row>
     <row r="244" spans="1:4">
@@ -9940,13 +9943,13 @@
         <v>243</v>
       </c>
       <c r="B244" t="s">
-        <v>244</v>
+        <v>258</v>
       </c>
       <c r="C244" t="s">
-        <v>354</v>
+        <v>355</v>
       </c>
       <c r="D244" t="s">
-        <v>379</v>
+        <v>388</v>
       </c>
     </row>
     <row r="245" spans="1:4">
@@ -9954,13 +9957,13 @@
         <v>244</v>
       </c>
       <c r="B245" t="s">
-        <v>225</v>
+        <v>250</v>
       </c>
       <c r="C245" t="s">
-        <v>354</v>
+        <v>358</v>
       </c>
       <c r="D245" t="s">
-        <v>377</v>
+        <v>371</v>
       </c>
     </row>
     <row r="246" spans="1:4">
@@ -9968,13 +9971,13 @@
         <v>245</v>
       </c>
       <c r="B246" t="s">
-        <v>281</v>
+        <v>246</v>
       </c>
       <c r="C246" t="s">
-        <v>355</v>
+        <v>354</v>
       </c>
       <c r="D246" t="s">
-        <v>389</v>
+        <v>379</v>
       </c>
     </row>
     <row r="247" spans="1:4">
@@ -9982,13 +9985,13 @@
         <v>246</v>
       </c>
       <c r="B247" t="s">
-        <v>319</v>
+        <v>227</v>
       </c>
       <c r="C247" t="s">
-        <v>356</v>
+        <v>354</v>
       </c>
       <c r="D247" t="s">
-        <v>384</v>
+        <v>377</v>
       </c>
     </row>
     <row r="248" spans="1:4">
@@ -9996,13 +9999,13 @@
         <v>247</v>
       </c>
       <c r="B248" t="s">
-        <v>302</v>
+        <v>279</v>
       </c>
       <c r="C248" t="s">
         <v>355</v>
       </c>
       <c r="D248" t="s">
-        <v>363</v>
+        <v>389</v>
       </c>
     </row>
     <row r="249" spans="1:4">
@@ -10010,13 +10013,13 @@
         <v>248</v>
       </c>
       <c r="B249" t="s">
-        <v>241</v>
+        <v>319</v>
       </c>
       <c r="C249" t="s">
-        <v>355</v>
+        <v>356</v>
       </c>
       <c r="D249" t="s">
-        <v>392</v>
+        <v>384</v>
       </c>
     </row>
     <row r="250" spans="1:4">
@@ -10024,13 +10027,13 @@
         <v>249</v>
       </c>
       <c r="B250" t="s">
-        <v>237</v>
+        <v>300</v>
       </c>
       <c r="C250" t="s">
-        <v>359</v>
+        <v>355</v>
       </c>
       <c r="D250" t="s">
-        <v>390</v>
+        <v>363</v>
       </c>
     </row>
     <row r="251" spans="1:4">
@@ -10038,13 +10041,13 @@
         <v>250</v>
       </c>
       <c r="B251" t="s">
-        <v>236</v>
+        <v>243</v>
       </c>
       <c r="C251" t="s">
         <v>355</v>
       </c>
       <c r="D251" t="s">
-        <v>389</v>
+        <v>392</v>
       </c>
     </row>
     <row r="252" spans="1:4">
@@ -10052,13 +10055,13 @@
         <v>251</v>
       </c>
       <c r="B252" t="s">
-        <v>223</v>
+        <v>239</v>
       </c>
       <c r="C252" t="s">
-        <v>355</v>
+        <v>359</v>
       </c>
       <c r="D252" t="s">
-        <v>379</v>
+        <v>390</v>
       </c>
     </row>
     <row r="253" spans="1:4">
@@ -10069,10 +10072,10 @@
         <v>238</v>
       </c>
       <c r="C253" t="s">
-        <v>359</v>
+        <v>355</v>
       </c>
       <c r="D253" t="s">
-        <v>392</v>
+        <v>389</v>
       </c>
     </row>
     <row r="254" spans="1:4">
@@ -10080,13 +10083,13 @@
         <v>253</v>
       </c>
       <c r="B254" t="s">
-        <v>251</v>
+        <v>225</v>
       </c>
       <c r="C254" t="s">
-        <v>359</v>
+        <v>355</v>
       </c>
       <c r="D254" t="s">
-        <v>375</v>
+        <v>379</v>
       </c>
     </row>
     <row r="255" spans="1:4">
@@ -10094,13 +10097,13 @@
         <v>254</v>
       </c>
       <c r="B255" t="s">
-        <v>257</v>
+        <v>240</v>
       </c>
       <c r="C255" t="s">
-        <v>354</v>
+        <v>359</v>
       </c>
       <c r="D255" t="s">
-        <v>378</v>
+        <v>392</v>
       </c>
     </row>
     <row r="256" spans="1:4">
@@ -10108,13 +10111,13 @@
         <v>255</v>
       </c>
       <c r="B256" t="s">
-        <v>235</v>
+        <v>252</v>
       </c>
       <c r="C256" t="s">
-        <v>356</v>
+        <v>359</v>
       </c>
       <c r="D256" t="s">
-        <v>364</v>
+        <v>375</v>
       </c>
     </row>
     <row r="257" spans="1:4">
@@ -10122,13 +10125,13 @@
         <v>256</v>
       </c>
       <c r="B257" t="s">
-        <v>250</v>
+        <v>256</v>
       </c>
       <c r="C257" t="s">
-        <v>355</v>
+        <v>354</v>
       </c>
       <c r="D257" t="s">
-        <v>390</v>
+        <v>378</v>
       </c>
     </row>
     <row r="258" spans="1:4">
@@ -10136,13 +10139,13 @@
         <v>257</v>
       </c>
       <c r="B258" t="s">
-        <v>263</v>
+        <v>237</v>
       </c>
       <c r="C258" t="s">
-        <v>354</v>
+        <v>356</v>
       </c>
       <c r="D258" t="s">
-        <v>389</v>
+        <v>364</v>
       </c>
     </row>
     <row r="259" spans="1:4">
@@ -10150,13 +10153,13 @@
         <v>258</v>
       </c>
       <c r="B259" t="s">
-        <v>267</v>
+        <v>251</v>
       </c>
       <c r="C259" t="s">
-        <v>354</v>
+        <v>355</v>
       </c>
       <c r="D259" t="s">
-        <v>379</v>
+        <v>390</v>
       </c>
     </row>
     <row r="260" spans="1:4">
@@ -10164,13 +10167,13 @@
         <v>259</v>
       </c>
       <c r="B260" t="s">
-        <v>261</v>
+        <v>262</v>
       </c>
       <c r="C260" t="s">
         <v>354</v>
       </c>
       <c r="D260" t="s">
-        <v>385</v>
+        <v>389</v>
       </c>
     </row>
     <row r="261" spans="1:4">
@@ -10178,13 +10181,13 @@
         <v>260</v>
       </c>
       <c r="B261" t="s">
-        <v>245</v>
+        <v>267</v>
       </c>
       <c r="C261" t="s">
         <v>354</v>
       </c>
       <c r="D261" t="s">
-        <v>380</v>
+        <v>379</v>
       </c>
     </row>
     <row r="262" spans="1:4">
@@ -10192,13 +10195,13 @@
         <v>261</v>
       </c>
       <c r="B262" t="s">
-        <v>268</v>
+        <v>260</v>
       </c>
       <c r="C262" t="s">
-        <v>356</v>
+        <v>354</v>
       </c>
       <c r="D262" t="s">
-        <v>386</v>
+        <v>385</v>
       </c>
     </row>
     <row r="263" spans="1:4">
@@ -10206,13 +10209,13 @@
         <v>262</v>
       </c>
       <c r="B263" t="s">
-        <v>256</v>
+        <v>247</v>
       </c>
       <c r="C263" t="s">
-        <v>358</v>
+        <v>354</v>
       </c>
       <c r="D263" t="s">
-        <v>364</v>
+        <v>380</v>
       </c>
     </row>
     <row r="264" spans="1:4">
@@ -10220,13 +10223,13 @@
         <v>263</v>
       </c>
       <c r="B264" t="s">
-        <v>296</v>
+        <v>268</v>
       </c>
       <c r="C264" t="s">
-        <v>355</v>
+        <v>356</v>
       </c>
       <c r="D264" t="s">
-        <v>381</v>
+        <v>386</v>
       </c>
     </row>
     <row r="265" spans="1:4">
@@ -10234,13 +10237,13 @@
         <v>264</v>
       </c>
       <c r="B265" t="s">
-        <v>270</v>
+        <v>255</v>
       </c>
       <c r="C265" t="s">
-        <v>355</v>
+        <v>358</v>
       </c>
       <c r="D265" t="s">
-        <v>385</v>
+        <v>364</v>
       </c>
     </row>
     <row r="266" spans="1:4">
@@ -10248,13 +10251,13 @@
         <v>265</v>
       </c>
       <c r="B266" t="s">
-        <v>288</v>
+        <v>294</v>
       </c>
       <c r="C266" t="s">
         <v>355</v>
       </c>
       <c r="D266" t="s">
-        <v>390</v>
+        <v>381</v>
       </c>
     </row>
     <row r="267" spans="1:4">
@@ -10262,13 +10265,13 @@
         <v>266</v>
       </c>
       <c r="B267" t="s">
-        <v>338</v>
+        <v>270</v>
       </c>
       <c r="C267" t="s">
         <v>355</v>
       </c>
       <c r="D267" t="s">
-        <v>363</v>
+        <v>385</v>
       </c>
     </row>
     <row r="268" spans="1:4">
@@ -10276,13 +10279,13 @@
         <v>267</v>
       </c>
       <c r="B268" t="s">
-        <v>266</v>
+        <v>286</v>
       </c>
       <c r="C268" t="s">
         <v>355</v>
       </c>
       <c r="D268" t="s">
-        <v>379</v>
+        <v>390</v>
       </c>
     </row>
     <row r="269" spans="1:4">
@@ -10290,13 +10293,13 @@
         <v>268</v>
       </c>
       <c r="B269" t="s">
-        <v>264</v>
+        <v>339</v>
       </c>
       <c r="C269" t="s">
-        <v>359</v>
+        <v>355</v>
       </c>
       <c r="D269" t="s">
-        <v>377</v>
+        <v>363</v>
       </c>
     </row>
     <row r="270" spans="1:4">
@@ -10304,13 +10307,13 @@
         <v>269</v>
       </c>
       <c r="B270" t="s">
-        <v>301</v>
+        <v>266</v>
       </c>
       <c r="C270" t="s">
         <v>355</v>
       </c>
       <c r="D270" t="s">
-        <v>380</v>
+        <v>379</v>
       </c>
     </row>
     <row r="271" spans="1:4">
@@ -10318,13 +10321,13 @@
         <v>270</v>
       </c>
       <c r="B271" t="s">
-        <v>258</v>
+        <v>264</v>
       </c>
       <c r="C271" t="s">
-        <v>357</v>
+        <v>359</v>
       </c>
       <c r="D271" t="s">
-        <v>379</v>
+        <v>377</v>
       </c>
     </row>
     <row r="272" spans="1:4">
@@ -10332,13 +10335,13 @@
         <v>271</v>
       </c>
       <c r="B272" t="s">
-        <v>316</v>
+        <v>299</v>
       </c>
       <c r="C272" t="s">
-        <v>356</v>
+        <v>355</v>
       </c>
       <c r="D272" t="s">
-        <v>362</v>
+        <v>380</v>
       </c>
     </row>
     <row r="273" spans="1:4">
@@ -10346,13 +10349,13 @@
         <v>272</v>
       </c>
       <c r="B273" t="s">
-        <v>303</v>
+        <v>317</v>
       </c>
       <c r="C273" t="s">
-        <v>355</v>
+        <v>356</v>
       </c>
       <c r="D273" t="s">
-        <v>377</v>
+        <v>362</v>
       </c>
     </row>
     <row r="274" spans="1:4">
@@ -10360,13 +10363,13 @@
         <v>273</v>
       </c>
       <c r="B274" t="s">
-        <v>280</v>
+        <v>301</v>
       </c>
       <c r="C274" t="s">
-        <v>354</v>
+        <v>355</v>
       </c>
       <c r="D274" t="s">
-        <v>374</v>
+        <v>377</v>
       </c>
     </row>
     <row r="275" spans="1:4">
@@ -10374,13 +10377,13 @@
         <v>274</v>
       </c>
       <c r="B275" t="s">
-        <v>240</v>
+        <v>278</v>
       </c>
       <c r="C275" t="s">
-        <v>355</v>
+        <v>354</v>
       </c>
       <c r="D275" t="s">
-        <v>363</v>
+        <v>374</v>
       </c>
     </row>
     <row r="276" spans="1:4">
@@ -10388,13 +10391,13 @@
         <v>275</v>
       </c>
       <c r="B276" t="s">
-        <v>243</v>
+        <v>242</v>
       </c>
       <c r="C276" t="s">
-        <v>359</v>
+        <v>355</v>
       </c>
       <c r="D276" t="s">
-        <v>379</v>
+        <v>363</v>
       </c>
     </row>
     <row r="277" spans="1:4">
@@ -10402,13 +10405,13 @@
         <v>276</v>
       </c>
       <c r="B277" t="s">
-        <v>286</v>
+        <v>245</v>
       </c>
       <c r="C277" t="s">
-        <v>355</v>
+        <v>359</v>
       </c>
       <c r="D277" t="s">
-        <v>382</v>
+        <v>379</v>
       </c>
     </row>
     <row r="278" spans="1:4">
@@ -10416,13 +10419,13 @@
         <v>277</v>
       </c>
       <c r="B278" t="s">
-        <v>276</v>
+        <v>284</v>
       </c>
       <c r="C278" t="s">
-        <v>359</v>
+        <v>355</v>
       </c>
       <c r="D278" t="s">
-        <v>367</v>
+        <v>382</v>
       </c>
     </row>
     <row r="279" spans="1:4">
@@ -10430,13 +10433,13 @@
         <v>278</v>
       </c>
       <c r="B279" t="s">
-        <v>255</v>
+        <v>275</v>
       </c>
       <c r="C279" t="s">
-        <v>357</v>
+        <v>359</v>
       </c>
       <c r="D279" t="s">
-        <v>379</v>
+        <v>367</v>
       </c>
     </row>
     <row r="280" spans="1:4">
@@ -10458,7 +10461,7 @@
         <v>280</v>
       </c>
       <c r="B281" t="s">
-        <v>262</v>
+        <v>261</v>
       </c>
       <c r="C281" t="s">
         <v>354</v>
@@ -10486,7 +10489,7 @@
         <v>282</v>
       </c>
       <c r="B283" t="s">
-        <v>304</v>
+        <v>302</v>
       </c>
       <c r="C283" t="s">
         <v>354</v>
@@ -10500,7 +10503,7 @@
         <v>283</v>
       </c>
       <c r="B284" t="s">
-        <v>282</v>
+        <v>280</v>
       </c>
       <c r="C284" t="s">
         <v>359</v>
@@ -10556,7 +10559,7 @@
         <v>287</v>
       </c>
       <c r="B288" t="s">
-        <v>300</v>
+        <v>298</v>
       </c>
       <c r="C288" t="s">
         <v>355</v>
@@ -10570,7 +10573,7 @@
         <v>288</v>
       </c>
       <c r="B289" t="s">
-        <v>292</v>
+        <v>290</v>
       </c>
       <c r="C289" t="s">
         <v>354</v>
@@ -10584,7 +10587,7 @@
         <v>289</v>
       </c>
       <c r="B290" t="s">
-        <v>283</v>
+        <v>281</v>
       </c>
       <c r="C290" t="s">
         <v>359</v>
@@ -10598,7 +10601,7 @@
         <v>290</v>
       </c>
       <c r="B291" t="s">
-        <v>279</v>
+        <v>277</v>
       </c>
       <c r="C291" t="s">
         <v>358</v>
@@ -10612,10 +10615,10 @@
         <v>291</v>
       </c>
       <c r="B292" t="s">
-        <v>341</v>
+        <v>288</v>
       </c>
       <c r="C292" t="s">
-        <v>357</v>
+        <v>358</v>
       </c>
       <c r="D292" t="s">
         <v>386</v>
@@ -10626,13 +10629,13 @@
         <v>292</v>
       </c>
       <c r="B293" t="s">
-        <v>290</v>
+        <v>287</v>
       </c>
       <c r="C293" t="s">
-        <v>358</v>
+        <v>359</v>
       </c>
       <c r="D293" t="s">
-        <v>386</v>
+        <v>389</v>
       </c>
     </row>
     <row r="294" spans="1:4">
@@ -10640,13 +10643,13 @@
         <v>293</v>
       </c>
       <c r="B294" t="s">
-        <v>289</v>
+        <v>235</v>
       </c>
       <c r="C294" t="s">
-        <v>359</v>
+        <v>356</v>
       </c>
       <c r="D294" t="s">
-        <v>389</v>
+        <v>379</v>
       </c>
     </row>
     <row r="295" spans="1:4">
@@ -10654,13 +10657,13 @@
         <v>294</v>
       </c>
       <c r="B295" t="s">
-        <v>233</v>
+        <v>309</v>
       </c>
       <c r="C295" t="s">
-        <v>356</v>
+        <v>355</v>
       </c>
       <c r="D295" t="s">
-        <v>379</v>
+        <v>364</v>
       </c>
     </row>
     <row r="296" spans="1:4">
@@ -10668,13 +10671,13 @@
         <v>295</v>
       </c>
       <c r="B296" t="s">
-        <v>309</v>
+        <v>283</v>
       </c>
       <c r="C296" t="s">
-        <v>355</v>
+        <v>354</v>
       </c>
       <c r="D296" t="s">
-        <v>364</v>
+        <v>379</v>
       </c>
     </row>
     <row r="297" spans="1:4">
@@ -10682,13 +10685,13 @@
         <v>296</v>
       </c>
       <c r="B297" t="s">
-        <v>285</v>
+        <v>292</v>
       </c>
       <c r="C297" t="s">
-        <v>354</v>
+        <v>359</v>
       </c>
       <c r="D297" t="s">
-        <v>379</v>
+        <v>378</v>
       </c>
     </row>
     <row r="298" spans="1:4">
@@ -10696,10 +10699,10 @@
         <v>297</v>
       </c>
       <c r="B298" t="s">
-        <v>294</v>
+        <v>293</v>
       </c>
       <c r="C298" t="s">
-        <v>359</v>
+        <v>358</v>
       </c>
       <c r="D298" t="s">
         <v>378</v>
@@ -10710,13 +10713,13 @@
         <v>298</v>
       </c>
       <c r="B299" t="s">
-        <v>295</v>
+        <v>273</v>
       </c>
       <c r="C299" t="s">
         <v>358</v>
       </c>
       <c r="D299" t="s">
-        <v>378</v>
+        <v>392</v>
       </c>
     </row>
     <row r="300" spans="1:4">
@@ -10724,13 +10727,13 @@
         <v>299</v>
       </c>
       <c r="B300" t="s">
-        <v>274</v>
+        <v>291</v>
       </c>
       <c r="C300" t="s">
-        <v>358</v>
+        <v>354</v>
       </c>
       <c r="D300" t="s">
-        <v>392</v>
+        <v>379</v>
       </c>
     </row>
     <row r="301" spans="1:4">
@@ -10738,13 +10741,13 @@
         <v>300</v>
       </c>
       <c r="B301" t="s">
-        <v>293</v>
+        <v>304</v>
       </c>
       <c r="C301" t="s">
-        <v>354</v>
+        <v>359</v>
       </c>
       <c r="D301" t="s">
-        <v>379</v>
+        <v>376</v>
       </c>
     </row>
     <row r="302" spans="1:4">
@@ -10752,13 +10755,13 @@
         <v>301</v>
       </c>
       <c r="B302" t="s">
-        <v>306</v>
+        <v>257</v>
       </c>
       <c r="C302" t="s">
-        <v>359</v>
+        <v>357</v>
       </c>
       <c r="D302" t="s">
-        <v>376</v>
+        <v>360</v>
       </c>
     </row>
     <row r="303" spans="1:4">
@@ -10766,13 +10769,13 @@
         <v>302</v>
       </c>
       <c r="B303" t="s">
-        <v>252</v>
+        <v>310</v>
       </c>
       <c r="C303" t="s">
-        <v>357</v>
+        <v>359</v>
       </c>
       <c r="D303" t="s">
-        <v>360</v>
+        <v>383</v>
       </c>
     </row>
     <row r="304" spans="1:4">
@@ -10780,13 +10783,13 @@
         <v>303</v>
       </c>
       <c r="B304" t="s">
-        <v>275</v>
+        <v>342</v>
       </c>
       <c r="C304" t="s">
-        <v>357</v>
+        <v>354</v>
       </c>
       <c r="D304" t="s">
-        <v>389</v>
+        <v>364</v>
       </c>
     </row>
     <row r="305" spans="1:4">
@@ -10794,13 +10797,13 @@
         <v>304</v>
       </c>
       <c r="B305" t="s">
-        <v>310</v>
+        <v>274</v>
       </c>
       <c r="C305" t="s">
-        <v>359</v>
+        <v>357</v>
       </c>
       <c r="D305" t="s">
-        <v>383</v>
+        <v>389</v>
       </c>
     </row>
     <row r="306" spans="1:4">
@@ -10808,13 +10811,13 @@
         <v>305</v>
       </c>
       <c r="B306" t="s">
-        <v>342</v>
+        <v>311</v>
       </c>
       <c r="C306" t="s">
-        <v>354</v>
+        <v>356</v>
       </c>
       <c r="D306" t="s">
-        <v>364</v>
+        <v>388</v>
       </c>
     </row>
     <row r="307" spans="1:4">
@@ -10822,13 +10825,13 @@
         <v>306</v>
       </c>
       <c r="B307" t="s">
-        <v>311</v>
+        <v>353</v>
       </c>
       <c r="C307" t="s">
-        <v>356</v>
+        <v>357</v>
       </c>
       <c r="D307" t="s">
-        <v>388</v>
+        <v>386</v>
       </c>
     </row>
     <row r="308" spans="1:4">
@@ -10836,7 +10839,7 @@
         <v>307</v>
       </c>
       <c r="B308" t="s">
-        <v>291</v>
+        <v>289</v>
       </c>
       <c r="C308" t="s">
         <v>355</v>
@@ -10878,7 +10881,7 @@
         <v>310</v>
       </c>
       <c r="B311" t="s">
-        <v>298</v>
+        <v>296</v>
       </c>
       <c r="C311" t="s">
         <v>358</v>
@@ -10892,7 +10895,7 @@
         <v>311</v>
       </c>
       <c r="B312" t="s">
-        <v>315</v>
+        <v>316</v>
       </c>
       <c r="C312" t="s">
         <v>354</v>
@@ -10906,7 +10909,7 @@
         <v>312</v>
       </c>
       <c r="B313" t="s">
-        <v>314</v>
+        <v>315</v>
       </c>
       <c r="C313" t="s">
         <v>354</v>
@@ -10920,7 +10923,7 @@
         <v>313</v>
       </c>
       <c r="B314" t="s">
-        <v>305</v>
+        <v>303</v>
       </c>
       <c r="C314" t="s">
         <v>354</v>
@@ -10962,7 +10965,7 @@
         <v>316</v>
       </c>
       <c r="B317" t="s">
-        <v>313</v>
+        <v>314</v>
       </c>
       <c r="C317" t="s">
         <v>354</v>
@@ -11074,7 +11077,7 @@
         <v>324</v>
       </c>
       <c r="B325" t="s">
-        <v>277</v>
+        <v>306</v>
       </c>
       <c r="C325" t="s">
         <v>357</v>
@@ -11102,13 +11105,13 @@
         <v>326</v>
       </c>
       <c r="B327" t="s">
-        <v>273</v>
+        <v>397</v>
       </c>
       <c r="C327" t="s">
-        <v>357</v>
+        <v>355</v>
       </c>
       <c r="D327" t="s">
-        <v>362</v>
+        <v>376</v>
       </c>
     </row>
     <row r="328" spans="1:4">
@@ -11116,13 +11119,13 @@
         <v>327</v>
       </c>
       <c r="B328" t="s">
-        <v>397</v>
+        <v>297</v>
       </c>
       <c r="C328" t="s">
-        <v>355</v>
+        <v>354</v>
       </c>
       <c r="D328" t="s">
-        <v>376</v>
+        <v>365</v>
       </c>
     </row>
     <row r="329" spans="1:4">
@@ -11130,13 +11133,13 @@
         <v>328</v>
       </c>
       <c r="B329" t="s">
-        <v>299</v>
+        <v>345</v>
       </c>
       <c r="C329" t="s">
-        <v>354</v>
+        <v>355</v>
       </c>
       <c r="D329" t="s">
-        <v>365</v>
+        <v>385</v>
       </c>
     </row>
     <row r="330" spans="1:4">
@@ -11144,13 +11147,13 @@
         <v>329</v>
       </c>
       <c r="B330" t="s">
-        <v>345</v>
+        <v>349</v>
       </c>
       <c r="C330" t="s">
         <v>355</v>
       </c>
       <c r="D330" t="s">
-        <v>385</v>
+        <v>375</v>
       </c>
     </row>
     <row r="331" spans="1:4">
@@ -11158,13 +11161,13 @@
         <v>330</v>
       </c>
       <c r="B331" t="s">
-        <v>349</v>
+        <v>305</v>
       </c>
       <c r="C331" t="s">
-        <v>355</v>
+        <v>357</v>
       </c>
       <c r="D331" t="s">
-        <v>375</v>
+        <v>362</v>
       </c>
     </row>
     <row r="332" spans="1:4">
@@ -11186,7 +11189,7 @@
         <v>332</v>
       </c>
       <c r="B333" t="s">
-        <v>336</v>
+        <v>337</v>
       </c>
       <c r="C333" t="s">
         <v>358</v>
@@ -11200,7 +11203,7 @@
         <v>333</v>
       </c>
       <c r="B334" t="s">
-        <v>334</v>
+        <v>335</v>
       </c>
       <c r="C334" t="s">
         <v>354</v>
@@ -11242,13 +11245,13 @@
         <v>336</v>
       </c>
       <c r="B337" t="s">
-        <v>317</v>
+        <v>330</v>
       </c>
       <c r="C337" t="s">
-        <v>357</v>
+        <v>358</v>
       </c>
       <c r="D337" t="s">
-        <v>387</v>
+        <v>391</v>
       </c>
     </row>
     <row r="338" spans="1:4">
@@ -11256,13 +11259,13 @@
         <v>337</v>
       </c>
       <c r="B338" t="s">
-        <v>330</v>
+        <v>351</v>
       </c>
       <c r="C338" t="s">
-        <v>358</v>
+        <v>354</v>
       </c>
       <c r="D338" t="s">
-        <v>391</v>
+        <v>379</v>
       </c>
     </row>
     <row r="339" spans="1:4">
@@ -11270,13 +11273,13 @@
         <v>338</v>
       </c>
       <c r="B339" t="s">
-        <v>287</v>
+        <v>320</v>
       </c>
       <c r="C339" t="s">
-        <v>357</v>
+        <v>355</v>
       </c>
       <c r="D339" t="s">
-        <v>370</v>
+        <v>379</v>
       </c>
     </row>
     <row r="340" spans="1:4">
@@ -11284,13 +11287,13 @@
         <v>339</v>
       </c>
       <c r="B340" t="s">
-        <v>351</v>
+        <v>285</v>
       </c>
       <c r="C340" t="s">
-        <v>354</v>
+        <v>357</v>
       </c>
       <c r="D340" t="s">
-        <v>379</v>
+        <v>370</v>
       </c>
     </row>
     <row r="341" spans="1:4">
@@ -11298,13 +11301,13 @@
         <v>340</v>
       </c>
       <c r="B341" t="s">
-        <v>320</v>
+        <v>322</v>
       </c>
       <c r="C341" t="s">
-        <v>355</v>
+        <v>356</v>
       </c>
       <c r="D341" t="s">
-        <v>379</v>
+        <v>362</v>
       </c>
     </row>
     <row r="342" spans="1:4">
@@ -11312,13 +11315,13 @@
         <v>341</v>
       </c>
       <c r="B342" t="s">
-        <v>322</v>
+        <v>341</v>
       </c>
       <c r="C342" t="s">
-        <v>356</v>
+        <v>358</v>
       </c>
       <c r="D342" t="s">
-        <v>362</v>
+        <v>374</v>
       </c>
     </row>
     <row r="343" spans="1:4">
@@ -11326,13 +11329,13 @@
         <v>342</v>
       </c>
       <c r="B343" t="s">
-        <v>340</v>
+        <v>399</v>
       </c>
       <c r="C343" t="s">
-        <v>358</v>
+        <v>356</v>
       </c>
       <c r="D343" t="s">
-        <v>374</v>
+        <v>376</v>
       </c>
     </row>
     <row r="344" spans="1:4">
@@ -11340,13 +11343,13 @@
         <v>343</v>
       </c>
       <c r="B344" t="s">
-        <v>399</v>
+        <v>334</v>
       </c>
       <c r="C344" t="s">
-        <v>356</v>
+        <v>357</v>
       </c>
       <c r="D344" t="s">
-        <v>376</v>
+        <v>387</v>
       </c>
     </row>
     <row r="345" spans="1:4">
@@ -11396,7 +11399,7 @@
         <v>347</v>
       </c>
       <c r="B348" t="s">
-        <v>312</v>
+        <v>313</v>
       </c>
       <c r="C348" t="s">
         <v>355</v>
@@ -11424,13 +11427,13 @@
         <v>349</v>
       </c>
       <c r="B350" t="s">
-        <v>401</v>
+        <v>312</v>
       </c>
       <c r="C350" t="s">
         <v>357</v>
       </c>
       <c r="D350" t="s">
-        <v>378</v>
+        <v>379</v>
       </c>
     </row>
     <row r="351" spans="1:4">
@@ -13681,7 +13684,7 @@
         <v>158</v>
       </c>
       <c r="B159" t="s">
-        <v>218</v>
+        <v>220</v>
       </c>
       <c r="C159" t="s">
         <v>356</v>
@@ -13751,7 +13754,7 @@
         <v>163</v>
       </c>
       <c r="B164" t="s">
-        <v>207</v>
+        <v>208</v>
       </c>
       <c r="C164" t="s">
         <v>354</v>
@@ -13877,7 +13880,7 @@
         <v>172</v>
       </c>
       <c r="B173" t="s">
-        <v>170</v>
+        <v>169</v>
       </c>
       <c r="C173" t="s">
         <v>358</v>
@@ -13891,7 +13894,7 @@
         <v>173</v>
       </c>
       <c r="B174" t="s">
-        <v>171</v>
+        <v>170</v>
       </c>
       <c r="C174" t="s">
         <v>358</v>
@@ -13919,7 +13922,7 @@
         <v>175</v>
       </c>
       <c r="B176" t="s">
-        <v>172</v>
+        <v>171</v>
       </c>
       <c r="C176" t="s">
         <v>358</v>
@@ -13975,7 +13978,7 @@
         <v>179</v>
       </c>
       <c r="B180" t="s">
-        <v>205</v>
+        <v>206</v>
       </c>
       <c r="C180" t="s">
         <v>355</v>
@@ -14087,7 +14090,7 @@
         <v>187</v>
       </c>
       <c r="B188" t="s">
-        <v>239</v>
+        <v>241</v>
       </c>
       <c r="C188" t="s">
         <v>354</v>
@@ -14185,7 +14188,7 @@
         <v>194</v>
       </c>
       <c r="B195" t="s">
-        <v>206</v>
+        <v>207</v>
       </c>
       <c r="C195" t="s">
         <v>355</v>
@@ -14199,7 +14202,7 @@
         <v>195</v>
       </c>
       <c r="B196" t="s">
-        <v>229</v>
+        <v>231</v>
       </c>
       <c r="C196" t="s">
         <v>354</v>
@@ -14213,7 +14216,7 @@
         <v>196</v>
       </c>
       <c r="B197" t="s">
-        <v>228</v>
+        <v>230</v>
       </c>
       <c r="C197" t="s">
         <v>354</v>
@@ -14241,7 +14244,7 @@
         <v>198</v>
       </c>
       <c r="B199" t="s">
-        <v>297</v>
+        <v>295</v>
       </c>
       <c r="C199" t="s">
         <v>354</v>
@@ -14297,7 +14300,7 @@
         <v>202</v>
       </c>
       <c r="B203" t="s">
-        <v>232</v>
+        <v>234</v>
       </c>
       <c r="C203" t="s">
         <v>355</v>
@@ -14311,13 +14314,13 @@
         <v>203</v>
       </c>
       <c r="B204" t="s">
-        <v>169</v>
+        <v>161</v>
       </c>
       <c r="C204" t="s">
-        <v>357</v>
+        <v>356</v>
       </c>
       <c r="D204" t="s">
-        <v>364</v>
+        <v>389</v>
       </c>
     </row>
     <row r="205" spans="1:4">
@@ -14325,13 +14328,13 @@
         <v>204</v>
       </c>
       <c r="B205" t="s">
-        <v>161</v>
+        <v>222</v>
       </c>
       <c r="C205" t="s">
-        <v>356</v>
+        <v>355</v>
       </c>
       <c r="D205" t="s">
-        <v>389</v>
+        <v>372</v>
       </c>
     </row>
     <row r="206" spans="1:4">
@@ -14339,13 +14342,13 @@
         <v>205</v>
       </c>
       <c r="B206" t="s">
-        <v>220</v>
+        <v>209</v>
       </c>
       <c r="C206" t="s">
-        <v>355</v>
+        <v>358</v>
       </c>
       <c r="D206" t="s">
-        <v>372</v>
+        <v>380</v>
       </c>
     </row>
     <row r="207" spans="1:4">
@@ -14353,13 +14356,13 @@
         <v>206</v>
       </c>
       <c r="B207" t="s">
-        <v>208</v>
+        <v>197</v>
       </c>
       <c r="C207" t="s">
-        <v>358</v>
+        <v>356</v>
       </c>
       <c r="D207" t="s">
-        <v>380</v>
+        <v>364</v>
       </c>
     </row>
     <row r="208" spans="1:4">
@@ -14367,13 +14370,13 @@
         <v>207</v>
       </c>
       <c r="B208" t="s">
-        <v>197</v>
+        <v>210</v>
       </c>
       <c r="C208" t="s">
-        <v>356</v>
+        <v>358</v>
       </c>
       <c r="D208" t="s">
-        <v>364</v>
+        <v>377</v>
       </c>
     </row>
     <row r="209" spans="1:4">
@@ -14381,13 +14384,13 @@
         <v>208</v>
       </c>
       <c r="B209" t="s">
-        <v>209</v>
+        <v>238</v>
       </c>
       <c r="C209" t="s">
-        <v>358</v>
+        <v>355</v>
       </c>
       <c r="D209" t="s">
-        <v>377</v>
+        <v>389</v>
       </c>
     </row>
     <row r="210" spans="1:4">
@@ -14395,13 +14398,13 @@
         <v>209</v>
       </c>
       <c r="B210" t="s">
-        <v>236</v>
+        <v>172</v>
       </c>
       <c r="C210" t="s">
-        <v>355</v>
+        <v>357</v>
       </c>
       <c r="D210" t="s">
-        <v>389</v>
+        <v>364</v>
       </c>
     </row>
     <row r="211" spans="1:4">
@@ -14423,7 +14426,7 @@
         <v>211</v>
       </c>
       <c r="B212" t="s">
-        <v>215</v>
+        <v>217</v>
       </c>
       <c r="C212" t="s">
         <v>355</v>
@@ -14437,7 +14440,7 @@
         <v>212</v>
       </c>
       <c r="B213" t="s">
-        <v>212</v>
+        <v>213</v>
       </c>
       <c r="C213" t="s">
         <v>359</v>
@@ -14451,7 +14454,7 @@
         <v>213</v>
       </c>
       <c r="B214" t="s">
-        <v>210</v>
+        <v>211</v>
       </c>
       <c r="C214" t="s">
         <v>356</v>
@@ -14465,7 +14468,7 @@
         <v>214</v>
       </c>
       <c r="B215" t="s">
-        <v>213</v>
+        <v>215</v>
       </c>
       <c r="C215" t="s">
         <v>355</v>
@@ -14479,7 +14482,7 @@
         <v>215</v>
       </c>
       <c r="B216" t="s">
-        <v>227</v>
+        <v>229</v>
       </c>
       <c r="C216" t="s">
         <v>355</v>
@@ -14493,7 +14496,7 @@
         <v>216</v>
       </c>
       <c r="B217" t="s">
-        <v>214</v>
+        <v>216</v>
       </c>
       <c r="C217" t="s">
         <v>358</v>
@@ -14507,7 +14510,7 @@
         <v>217</v>
       </c>
       <c r="B218" t="s">
-        <v>216</v>
+        <v>218</v>
       </c>
       <c r="C218" t="s">
         <v>359</v>
@@ -14521,7 +14524,7 @@
         <v>218</v>
       </c>
       <c r="B219" t="s">
-        <v>219</v>
+        <v>221</v>
       </c>
       <c r="C219" t="s">
         <v>358</v>
@@ -14535,7 +14538,7 @@
         <v>219</v>
       </c>
       <c r="B220" t="s">
-        <v>211</v>
+        <v>212</v>
       </c>
       <c r="C220" t="s">
         <v>356</v>
@@ -14563,7 +14566,7 @@
         <v>221</v>
       </c>
       <c r="B222" t="s">
-        <v>242</v>
+        <v>244</v>
       </c>
       <c r="C222" t="s">
         <v>355</v>
@@ -14591,7 +14594,7 @@
         <v>223</v>
       </c>
       <c r="B224" t="s">
-        <v>241</v>
+        <v>243</v>
       </c>
       <c r="C224" t="s">
         <v>355</v>
@@ -14605,7 +14608,7 @@
         <v>224</v>
       </c>
       <c r="B225" t="s">
-        <v>260</v>
+        <v>259</v>
       </c>
       <c r="C225" t="s">
         <v>356</v>
@@ -14633,7 +14636,7 @@
         <v>226</v>
       </c>
       <c r="B227" t="s">
-        <v>234</v>
+        <v>236</v>
       </c>
       <c r="C227" t="s">
         <v>356</v>
@@ -14661,7 +14664,7 @@
         <v>228</v>
       </c>
       <c r="B229" t="s">
-        <v>231</v>
+        <v>233</v>
       </c>
       <c r="C229" t="s">
         <v>356</v>
@@ -14675,7 +14678,7 @@
         <v>229</v>
       </c>
       <c r="B230" t="s">
-        <v>222</v>
+        <v>224</v>
       </c>
       <c r="C230" t="s">
         <v>359</v>
@@ -14689,7 +14692,7 @@
         <v>230</v>
       </c>
       <c r="B231" t="s">
-        <v>224</v>
+        <v>226</v>
       </c>
       <c r="C231" t="s">
         <v>358</v>
@@ -14703,7 +14706,7 @@
         <v>231</v>
       </c>
       <c r="B232" t="s">
-        <v>226</v>
+        <v>228</v>
       </c>
       <c r="C232" t="s">
         <v>358</v>
@@ -14745,7 +14748,7 @@
         <v>234</v>
       </c>
       <c r="B235" t="s">
-        <v>230</v>
+        <v>232</v>
       </c>
       <c r="C235" t="s">
         <v>354</v>
@@ -14773,7 +14776,7 @@
         <v>236</v>
       </c>
       <c r="B237" t="s">
-        <v>240</v>
+        <v>242</v>
       </c>
       <c r="C237" t="s">
         <v>355</v>
@@ -14787,13 +14790,13 @@
         <v>237</v>
       </c>
       <c r="B238" t="s">
-        <v>237</v>
+        <v>205</v>
       </c>
       <c r="C238" t="s">
-        <v>359</v>
+        <v>357</v>
       </c>
       <c r="D238" t="s">
-        <v>390</v>
+        <v>379</v>
       </c>
     </row>
     <row r="239" spans="1:4">
@@ -14801,13 +14804,13 @@
         <v>238</v>
       </c>
       <c r="B239" t="s">
-        <v>238</v>
+        <v>239</v>
       </c>
       <c r="C239" t="s">
         <v>359</v>
       </c>
       <c r="D239" t="s">
-        <v>392</v>
+        <v>390</v>
       </c>
     </row>
     <row r="240" spans="1:4">
@@ -14815,13 +14818,13 @@
         <v>239</v>
       </c>
       <c r="B240" t="s">
-        <v>253</v>
+        <v>240</v>
       </c>
       <c r="C240" t="s">
-        <v>355</v>
+        <v>359</v>
       </c>
       <c r="D240" t="s">
-        <v>382</v>
+        <v>392</v>
       </c>
     </row>
     <row r="241" spans="1:4">
@@ -14829,13 +14832,13 @@
         <v>240</v>
       </c>
       <c r="B241" t="s">
-        <v>243</v>
+        <v>253</v>
       </c>
       <c r="C241" t="s">
-        <v>359</v>
+        <v>355</v>
       </c>
       <c r="D241" t="s">
-        <v>379</v>
+        <v>382</v>
       </c>
     </row>
     <row r="242" spans="1:4">
@@ -14843,13 +14846,13 @@
         <v>241</v>
       </c>
       <c r="B242" t="s">
-        <v>246</v>
+        <v>245</v>
       </c>
       <c r="C242" t="s">
         <v>359</v>
       </c>
       <c r="D242" t="s">
-        <v>387</v>
+        <v>379</v>
       </c>
     </row>
     <row r="243" spans="1:4">
@@ -14857,13 +14860,13 @@
         <v>242</v>
       </c>
       <c r="B243" t="s">
-        <v>247</v>
+        <v>248</v>
       </c>
       <c r="C243" t="s">
         <v>359</v>
       </c>
       <c r="D243" t="s">
-        <v>360</v>
+        <v>387</v>
       </c>
     </row>
     <row r="244" spans="1:4">
@@ -14871,13 +14874,13 @@
         <v>243</v>
       </c>
       <c r="B244" t="s">
-        <v>319</v>
+        <v>214</v>
       </c>
       <c r="C244" t="s">
-        <v>356</v>
+        <v>357</v>
       </c>
       <c r="D244" t="s">
-        <v>384</v>
+        <v>379</v>
       </c>
     </row>
     <row r="245" spans="1:4">
@@ -14885,13 +14888,13 @@
         <v>244</v>
       </c>
       <c r="B245" t="s">
-        <v>248</v>
+        <v>249</v>
       </c>
       <c r="C245" t="s">
-        <v>358</v>
+        <v>359</v>
       </c>
       <c r="D245" t="s">
-        <v>371</v>
+        <v>360</v>
       </c>
     </row>
     <row r="246" spans="1:4">
@@ -14899,13 +14902,13 @@
         <v>245</v>
       </c>
       <c r="B246" t="s">
-        <v>251</v>
+        <v>319</v>
       </c>
       <c r="C246" t="s">
-        <v>359</v>
+        <v>356</v>
       </c>
       <c r="D246" t="s">
-        <v>375</v>
+        <v>384</v>
       </c>
     </row>
     <row r="247" spans="1:4">
@@ -14916,10 +14919,10 @@
         <v>250</v>
       </c>
       <c r="C247" t="s">
-        <v>355</v>
+        <v>358</v>
       </c>
       <c r="D247" t="s">
-        <v>390</v>
+        <v>371</v>
       </c>
     </row>
     <row r="248" spans="1:4">
@@ -14927,13 +14930,13 @@
         <v>247</v>
       </c>
       <c r="B248" t="s">
-        <v>268</v>
+        <v>252</v>
       </c>
       <c r="C248" t="s">
-        <v>356</v>
+        <v>359</v>
       </c>
       <c r="D248" t="s">
-        <v>386</v>
+        <v>375</v>
       </c>
     </row>
     <row r="249" spans="1:4">
@@ -14941,13 +14944,13 @@
         <v>248</v>
       </c>
       <c r="B249" t="s">
-        <v>217</v>
+        <v>251</v>
       </c>
       <c r="C249" t="s">
-        <v>354</v>
+        <v>355</v>
       </c>
       <c r="D249" t="s">
-        <v>362</v>
+        <v>390</v>
       </c>
     </row>
     <row r="250" spans="1:4">
@@ -14955,13 +14958,13 @@
         <v>249</v>
       </c>
       <c r="B250" t="s">
-        <v>256</v>
+        <v>268</v>
       </c>
       <c r="C250" t="s">
-        <v>358</v>
+        <v>356</v>
       </c>
       <c r="D250" t="s">
-        <v>364</v>
+        <v>386</v>
       </c>
     </row>
     <row r="251" spans="1:4">
@@ -14969,13 +14972,13 @@
         <v>250</v>
       </c>
       <c r="B251" t="s">
-        <v>270</v>
+        <v>219</v>
       </c>
       <c r="C251" t="s">
-        <v>355</v>
+        <v>354</v>
       </c>
       <c r="D251" t="s">
-        <v>385</v>
+        <v>362</v>
       </c>
     </row>
     <row r="252" spans="1:4">
@@ -14983,13 +14986,13 @@
         <v>251</v>
       </c>
       <c r="B252" t="s">
-        <v>257</v>
+        <v>255</v>
       </c>
       <c r="C252" t="s">
-        <v>354</v>
+        <v>358</v>
       </c>
       <c r="D252" t="s">
-        <v>378</v>
+        <v>364</v>
       </c>
     </row>
     <row r="253" spans="1:4">
@@ -14997,10 +15000,10 @@
         <v>252</v>
       </c>
       <c r="B253" t="s">
-        <v>261</v>
+        <v>270</v>
       </c>
       <c r="C253" t="s">
-        <v>354</v>
+        <v>355</v>
       </c>
       <c r="D253" t="s">
         <v>385</v>
@@ -15011,13 +15014,13 @@
         <v>253</v>
       </c>
       <c r="B254" t="s">
-        <v>235</v>
+        <v>256</v>
       </c>
       <c r="C254" t="s">
-        <v>356</v>
+        <v>354</v>
       </c>
       <c r="D254" t="s">
-        <v>364</v>
+        <v>378</v>
       </c>
     </row>
     <row r="255" spans="1:4">
@@ -15025,13 +15028,13 @@
         <v>254</v>
       </c>
       <c r="B255" t="s">
-        <v>244</v>
+        <v>260</v>
       </c>
       <c r="C255" t="s">
         <v>354</v>
       </c>
       <c r="D255" t="s">
-        <v>379</v>
+        <v>385</v>
       </c>
     </row>
     <row r="256" spans="1:4">
@@ -15039,13 +15042,13 @@
         <v>255</v>
       </c>
       <c r="B256" t="s">
-        <v>331</v>
+        <v>237</v>
       </c>
       <c r="C256" t="s">
-        <v>355</v>
+        <v>356</v>
       </c>
       <c r="D256" t="s">
-        <v>376</v>
+        <v>364</v>
       </c>
     </row>
     <row r="257" spans="1:4">
@@ -15053,13 +15056,13 @@
         <v>256</v>
       </c>
       <c r="B257" t="s">
-        <v>225</v>
+        <v>246</v>
       </c>
       <c r="C257" t="s">
         <v>354</v>
       </c>
       <c r="D257" t="s">
-        <v>377</v>
+        <v>379</v>
       </c>
     </row>
     <row r="258" spans="1:4">
@@ -15067,13 +15070,13 @@
         <v>257</v>
       </c>
       <c r="B258" t="s">
-        <v>264</v>
+        <v>331</v>
       </c>
       <c r="C258" t="s">
-        <v>359</v>
+        <v>355</v>
       </c>
       <c r="D258" t="s">
-        <v>377</v>
+        <v>376</v>
       </c>
     </row>
     <row r="259" spans="1:4">
@@ -15081,13 +15084,13 @@
         <v>258</v>
       </c>
       <c r="B259" t="s">
-        <v>263</v>
+        <v>227</v>
       </c>
       <c r="C259" t="s">
         <v>354</v>
       </c>
       <c r="D259" t="s">
-        <v>389</v>
+        <v>377</v>
       </c>
     </row>
     <row r="260" spans="1:4">
@@ -15095,13 +15098,13 @@
         <v>259</v>
       </c>
       <c r="B260" t="s">
-        <v>325</v>
+        <v>264</v>
       </c>
       <c r="C260" t="s">
-        <v>355</v>
+        <v>359</v>
       </c>
       <c r="D260" t="s">
-        <v>372</v>
+        <v>377</v>
       </c>
     </row>
     <row r="261" spans="1:4">
@@ -15109,13 +15112,13 @@
         <v>260</v>
       </c>
       <c r="B261" t="s">
-        <v>267</v>
+        <v>262</v>
       </c>
       <c r="C261" t="s">
         <v>354</v>
       </c>
       <c r="D261" t="s">
-        <v>379</v>
+        <v>389</v>
       </c>
     </row>
     <row r="262" spans="1:4">
@@ -15123,13 +15126,13 @@
         <v>261</v>
       </c>
       <c r="B262" t="s">
-        <v>269</v>
+        <v>325</v>
       </c>
       <c r="C262" t="s">
-        <v>359</v>
+        <v>355</v>
       </c>
       <c r="D262" t="s">
-        <v>361</v>
+        <v>372</v>
       </c>
     </row>
     <row r="263" spans="1:4">
@@ -15137,13 +15140,13 @@
         <v>262</v>
       </c>
       <c r="B263" t="s">
-        <v>393</v>
+        <v>267</v>
       </c>
       <c r="C263" t="s">
         <v>354</v>
       </c>
       <c r="D263" t="s">
-        <v>388</v>
+        <v>379</v>
       </c>
     </row>
     <row r="264" spans="1:4">
@@ -15151,13 +15154,13 @@
         <v>263</v>
       </c>
       <c r="B264" t="s">
-        <v>245</v>
+        <v>269</v>
       </c>
       <c r="C264" t="s">
-        <v>354</v>
+        <v>359</v>
       </c>
       <c r="D264" t="s">
-        <v>380</v>
+        <v>361</v>
       </c>
     </row>
     <row r="265" spans="1:4">
@@ -15165,13 +15168,13 @@
         <v>264</v>
       </c>
       <c r="B265" t="s">
-        <v>221</v>
+        <v>393</v>
       </c>
       <c r="C265" t="s">
         <v>354</v>
       </c>
       <c r="D265" t="s">
-        <v>360</v>
+        <v>388</v>
       </c>
     </row>
     <row r="266" spans="1:4">
@@ -15179,13 +15182,13 @@
         <v>265</v>
       </c>
       <c r="B266" t="s">
-        <v>280</v>
+        <v>247</v>
       </c>
       <c r="C266" t="s">
         <v>354</v>
       </c>
       <c r="D266" t="s">
-        <v>374</v>
+        <v>380</v>
       </c>
     </row>
     <row r="267" spans="1:4">
@@ -15193,13 +15196,13 @@
         <v>266</v>
       </c>
       <c r="B267" t="s">
-        <v>284</v>
+        <v>223</v>
       </c>
       <c r="C267" t="s">
-        <v>355</v>
+        <v>354</v>
       </c>
       <c r="D267" t="s">
-        <v>385</v>
+        <v>360</v>
       </c>
     </row>
     <row r="268" spans="1:4">
@@ -15207,13 +15210,13 @@
         <v>267</v>
       </c>
       <c r="B268" t="s">
-        <v>296</v>
+        <v>278</v>
       </c>
       <c r="C268" t="s">
-        <v>355</v>
+        <v>354</v>
       </c>
       <c r="D268" t="s">
-        <v>381</v>
+        <v>374</v>
       </c>
     </row>
     <row r="269" spans="1:4">
@@ -15221,10 +15224,10 @@
         <v>268</v>
       </c>
       <c r="B269" t="s">
-        <v>318</v>
+        <v>282</v>
       </c>
       <c r="C269" t="s">
-        <v>356</v>
+        <v>355</v>
       </c>
       <c r="D269" t="s">
         <v>385</v>
@@ -15235,13 +15238,13 @@
         <v>269</v>
       </c>
       <c r="B270" t="s">
-        <v>286</v>
+        <v>294</v>
       </c>
       <c r="C270" t="s">
         <v>355</v>
       </c>
       <c r="D270" t="s">
-        <v>382</v>
+        <v>381</v>
       </c>
     </row>
     <row r="271" spans="1:4">
@@ -15249,13 +15252,13 @@
         <v>270</v>
       </c>
       <c r="B271" t="s">
-        <v>258</v>
+        <v>318</v>
       </c>
       <c r="C271" t="s">
-        <v>357</v>
+        <v>356</v>
       </c>
       <c r="D271" t="s">
-        <v>379</v>
+        <v>385</v>
       </c>
     </row>
     <row r="272" spans="1:4">
@@ -15263,13 +15266,13 @@
         <v>271</v>
       </c>
       <c r="B272" t="s">
-        <v>303</v>
+        <v>284</v>
       </c>
       <c r="C272" t="s">
         <v>355</v>
       </c>
       <c r="D272" t="s">
-        <v>377</v>
+        <v>382</v>
       </c>
     </row>
     <row r="273" spans="1:4">
@@ -15277,13 +15280,13 @@
         <v>272</v>
       </c>
       <c r="B273" t="s">
-        <v>274</v>
+        <v>301</v>
       </c>
       <c r="C273" t="s">
-        <v>358</v>
+        <v>355</v>
       </c>
       <c r="D273" t="s">
-        <v>392</v>
+        <v>377</v>
       </c>
     </row>
     <row r="274" spans="1:4">
@@ -15291,13 +15294,13 @@
         <v>273</v>
       </c>
       <c r="B274" t="s">
-        <v>324</v>
+        <v>273</v>
       </c>
       <c r="C274" t="s">
-        <v>356</v>
+        <v>358</v>
       </c>
       <c r="D274" t="s">
-        <v>378</v>
+        <v>392</v>
       </c>
     </row>
     <row r="275" spans="1:4">
@@ -15305,13 +15308,13 @@
         <v>274</v>
       </c>
       <c r="B275" t="s">
-        <v>276</v>
+        <v>324</v>
       </c>
       <c r="C275" t="s">
-        <v>359</v>
+        <v>356</v>
       </c>
       <c r="D275" t="s">
-        <v>367</v>
+        <v>378</v>
       </c>
     </row>
     <row r="276" spans="1:4">
@@ -15319,13 +15322,13 @@
         <v>275</v>
       </c>
       <c r="B276" t="s">
-        <v>304</v>
+        <v>275</v>
       </c>
       <c r="C276" t="s">
-        <v>354</v>
+        <v>359</v>
       </c>
       <c r="D276" t="s">
-        <v>389</v>
+        <v>367</v>
       </c>
     </row>
     <row r="277" spans="1:4">
@@ -15333,13 +15336,13 @@
         <v>276</v>
       </c>
       <c r="B277" t="s">
-        <v>301</v>
+        <v>302</v>
       </c>
       <c r="C277" t="s">
-        <v>355</v>
+        <v>354</v>
       </c>
       <c r="D277" t="s">
-        <v>380</v>
+        <v>389</v>
       </c>
     </row>
     <row r="278" spans="1:4">
@@ -15347,13 +15350,13 @@
         <v>277</v>
       </c>
       <c r="B278" t="s">
-        <v>302</v>
+        <v>299</v>
       </c>
       <c r="C278" t="s">
         <v>355</v>
       </c>
       <c r="D278" t="s">
-        <v>363</v>
+        <v>380</v>
       </c>
     </row>
     <row r="279" spans="1:4">
@@ -15361,13 +15364,13 @@
         <v>278</v>
       </c>
       <c r="B279" t="s">
-        <v>255</v>
+        <v>300</v>
       </c>
       <c r="C279" t="s">
-        <v>357</v>
+        <v>355</v>
       </c>
       <c r="D279" t="s">
-        <v>379</v>
+        <v>363</v>
       </c>
     </row>
     <row r="280" spans="1:4">
@@ -15375,7 +15378,7 @@
         <v>279</v>
       </c>
       <c r="B280" t="s">
-        <v>278</v>
+        <v>276</v>
       </c>
       <c r="C280" t="s">
         <v>359</v>
@@ -15389,7 +15392,7 @@
         <v>280</v>
       </c>
       <c r="B281" t="s">
-        <v>279</v>
+        <v>277</v>
       </c>
       <c r="C281" t="s">
         <v>358</v>
@@ -15403,7 +15406,7 @@
         <v>281</v>
       </c>
       <c r="B282" t="s">
-        <v>282</v>
+        <v>280</v>
       </c>
       <c r="C282" t="s">
         <v>359</v>
@@ -15431,7 +15434,7 @@
         <v>283</v>
       </c>
       <c r="B284" t="s">
-        <v>283</v>
+        <v>281</v>
       </c>
       <c r="C284" t="s">
         <v>359</v>
@@ -15445,7 +15448,7 @@
         <v>284</v>
       </c>
       <c r="B285" t="s">
-        <v>316</v>
+        <v>317</v>
       </c>
       <c r="C285" t="s">
         <v>356</v>
@@ -15473,7 +15476,7 @@
         <v>286</v>
       </c>
       <c r="B287" t="s">
-        <v>281</v>
+        <v>279</v>
       </c>
       <c r="C287" t="s">
         <v>355</v>
@@ -15487,7 +15490,7 @@
         <v>287</v>
       </c>
       <c r="B288" t="s">
-        <v>292</v>
+        <v>290</v>
       </c>
       <c r="C288" t="s">
         <v>354</v>
@@ -15501,7 +15504,7 @@
         <v>288</v>
       </c>
       <c r="B289" t="s">
-        <v>223</v>
+        <v>225</v>
       </c>
       <c r="C289" t="s">
         <v>355</v>
@@ -15515,7 +15518,7 @@
         <v>289</v>
       </c>
       <c r="B290" t="s">
-        <v>290</v>
+        <v>288</v>
       </c>
       <c r="C290" t="s">
         <v>358</v>
@@ -15529,7 +15532,7 @@
         <v>290</v>
       </c>
       <c r="B291" t="s">
-        <v>289</v>
+        <v>287</v>
       </c>
       <c r="C291" t="s">
         <v>359</v>
@@ -15557,7 +15560,7 @@
         <v>292</v>
       </c>
       <c r="B293" t="s">
-        <v>294</v>
+        <v>292</v>
       </c>
       <c r="C293" t="s">
         <v>359</v>
@@ -15571,7 +15574,7 @@
         <v>293</v>
       </c>
       <c r="B294" t="s">
-        <v>295</v>
+        <v>293</v>
       </c>
       <c r="C294" t="s">
         <v>358</v>
@@ -15585,7 +15588,7 @@
         <v>294</v>
       </c>
       <c r="B295" t="s">
-        <v>300</v>
+        <v>298</v>
       </c>
       <c r="C295" t="s">
         <v>355</v>
@@ -15613,7 +15616,7 @@
         <v>296</v>
       </c>
       <c r="B297" t="s">
-        <v>298</v>
+        <v>296</v>
       </c>
       <c r="C297" t="s">
         <v>358</v>
@@ -15627,7 +15630,7 @@
         <v>297</v>
       </c>
       <c r="B298" t="s">
-        <v>312</v>
+        <v>313</v>
       </c>
       <c r="C298" t="s">
         <v>355</v>
@@ -15641,7 +15644,7 @@
         <v>298</v>
       </c>
       <c r="B299" t="s">
-        <v>306</v>
+        <v>304</v>
       </c>
       <c r="C299" t="s">
         <v>359</v>
@@ -15697,7 +15700,7 @@
         <v>302</v>
       </c>
       <c r="B303" t="s">
-        <v>285</v>
+        <v>283</v>
       </c>
       <c r="C303" t="s">
         <v>354</v>
@@ -15725,7 +15728,7 @@
         <v>304</v>
       </c>
       <c r="B305" t="s">
-        <v>293</v>
+        <v>291</v>
       </c>
       <c r="C305" t="s">
         <v>354</v>
@@ -15739,7 +15742,7 @@
         <v>305</v>
       </c>
       <c r="B306" t="s">
-        <v>338</v>
+        <v>339</v>
       </c>
       <c r="C306" t="s">
         <v>355</v>
@@ -15753,13 +15756,13 @@
         <v>306</v>
       </c>
       <c r="B307" t="s">
-        <v>249</v>
+        <v>258</v>
       </c>
       <c r="C307" t="s">
-        <v>357</v>
+        <v>355</v>
       </c>
       <c r="D307" t="s">
-        <v>360</v>
+        <v>388</v>
       </c>
     </row>
     <row r="308" spans="1:4">
@@ -15767,13 +15770,13 @@
         <v>307</v>
       </c>
       <c r="B308" t="s">
-        <v>252</v>
+        <v>396</v>
       </c>
       <c r="C308" t="s">
-        <v>357</v>
+        <v>355</v>
       </c>
       <c r="D308" t="s">
-        <v>360</v>
+        <v>364</v>
       </c>
     </row>
     <row r="309" spans="1:4">
@@ -15781,13 +15784,13 @@
         <v>308</v>
       </c>
       <c r="B309" t="s">
-        <v>259</v>
+        <v>321</v>
       </c>
       <c r="C309" t="s">
         <v>355</v>
       </c>
       <c r="D309" t="s">
-        <v>388</v>
+        <v>391</v>
       </c>
     </row>
     <row r="310" spans="1:4">
@@ -15795,13 +15798,13 @@
         <v>309</v>
       </c>
       <c r="B310" t="s">
-        <v>396</v>
+        <v>316</v>
       </c>
       <c r="C310" t="s">
-        <v>355</v>
+        <v>354</v>
       </c>
       <c r="D310" t="s">
-        <v>364</v>
+        <v>371</v>
       </c>
     </row>
     <row r="311" spans="1:4">
@@ -15809,13 +15812,13 @@
         <v>310</v>
       </c>
       <c r="B311" t="s">
-        <v>321</v>
+        <v>266</v>
       </c>
       <c r="C311" t="s">
         <v>355</v>
       </c>
       <c r="D311" t="s">
-        <v>391</v>
+        <v>379</v>
       </c>
     </row>
     <row r="312" spans="1:4">
@@ -15823,13 +15826,13 @@
         <v>311</v>
       </c>
       <c r="B312" t="s">
-        <v>315</v>
+        <v>344</v>
       </c>
       <c r="C312" t="s">
         <v>354</v>
       </c>
       <c r="D312" t="s">
-        <v>371</v>
+        <v>363</v>
       </c>
     </row>
     <row r="313" spans="1:4">
@@ -15837,10 +15840,10 @@
         <v>312</v>
       </c>
       <c r="B313" t="s">
-        <v>266</v>
+        <v>400</v>
       </c>
       <c r="C313" t="s">
-        <v>355</v>
+        <v>354</v>
       </c>
       <c r="D313" t="s">
         <v>379</v>
@@ -15851,13 +15854,13 @@
         <v>313</v>
       </c>
       <c r="B314" t="s">
-        <v>344</v>
+        <v>315</v>
       </c>
       <c r="C314" t="s">
         <v>354</v>
       </c>
       <c r="D314" t="s">
-        <v>363</v>
+        <v>379</v>
       </c>
     </row>
     <row r="315" spans="1:4">
@@ -15865,13 +15868,13 @@
         <v>314</v>
       </c>
       <c r="B315" t="s">
-        <v>400</v>
+        <v>349</v>
       </c>
       <c r="C315" t="s">
-        <v>354</v>
+        <v>355</v>
       </c>
       <c r="D315" t="s">
-        <v>379</v>
+        <v>375</v>
       </c>
     </row>
     <row r="316" spans="1:4">
@@ -15879,7 +15882,7 @@
         <v>315</v>
       </c>
       <c r="B316" t="s">
-        <v>314</v>
+        <v>351</v>
       </c>
       <c r="C316" t="s">
         <v>354</v>
@@ -15893,13 +15896,13 @@
         <v>316</v>
       </c>
       <c r="B317" t="s">
-        <v>349</v>
+        <v>329</v>
       </c>
       <c r="C317" t="s">
         <v>355</v>
       </c>
       <c r="D317" t="s">
-        <v>375</v>
+        <v>380</v>
       </c>
     </row>
     <row r="318" spans="1:4">
@@ -15907,13 +15910,13 @@
         <v>317</v>
       </c>
       <c r="B318" t="s">
-        <v>351</v>
+        <v>350</v>
       </c>
       <c r="C318" t="s">
-        <v>354</v>
+        <v>355</v>
       </c>
       <c r="D318" t="s">
-        <v>379</v>
+        <v>389</v>
       </c>
     </row>
     <row r="319" spans="1:4">
@@ -15921,13 +15924,13 @@
         <v>318</v>
       </c>
       <c r="B319" t="s">
-        <v>329</v>
+        <v>345</v>
       </c>
       <c r="C319" t="s">
         <v>355</v>
       </c>
       <c r="D319" t="s">
-        <v>380</v>
+        <v>385</v>
       </c>
     </row>
     <row r="320" spans="1:4">
@@ -15935,13 +15938,13 @@
         <v>319</v>
       </c>
       <c r="B320" t="s">
-        <v>350</v>
+        <v>261</v>
       </c>
       <c r="C320" t="s">
-        <v>355</v>
+        <v>354</v>
       </c>
       <c r="D320" t="s">
-        <v>389</v>
+        <v>360</v>
       </c>
     </row>
     <row r="321" spans="1:4">
@@ -15949,13 +15952,13 @@
         <v>320</v>
       </c>
       <c r="B321" t="s">
-        <v>345</v>
+        <v>327</v>
       </c>
       <c r="C321" t="s">
-        <v>355</v>
+        <v>359</v>
       </c>
       <c r="D321" t="s">
-        <v>385</v>
+        <v>364</v>
       </c>
     </row>
     <row r="322" spans="1:4">
@@ -15963,13 +15966,13 @@
         <v>321</v>
       </c>
       <c r="B322" t="s">
-        <v>262</v>
+        <v>330</v>
       </c>
       <c r="C322" t="s">
-        <v>354</v>
+        <v>358</v>
       </c>
       <c r="D322" t="s">
-        <v>360</v>
+        <v>391</v>
       </c>
     </row>
     <row r="323" spans="1:4">
@@ -15977,13 +15980,13 @@
         <v>322</v>
       </c>
       <c r="B323" t="s">
-        <v>327</v>
+        <v>263</v>
       </c>
       <c r="C323" t="s">
-        <v>359</v>
+        <v>357</v>
       </c>
       <c r="D323" t="s">
-        <v>364</v>
+        <v>360</v>
       </c>
     </row>
     <row r="324" spans="1:4">
@@ -15991,13 +15994,13 @@
         <v>323</v>
       </c>
       <c r="B324" t="s">
-        <v>330</v>
+        <v>335</v>
       </c>
       <c r="C324" t="s">
-        <v>358</v>
+        <v>354</v>
       </c>
       <c r="D324" t="s">
-        <v>391</v>
+        <v>381</v>
       </c>
     </row>
     <row r="325" spans="1:4">
@@ -16005,13 +16008,13 @@
         <v>324</v>
       </c>
       <c r="B325" t="s">
-        <v>334</v>
+        <v>235</v>
       </c>
       <c r="C325" t="s">
-        <v>354</v>
+        <v>356</v>
       </c>
       <c r="D325" t="s">
-        <v>381</v>
+        <v>379</v>
       </c>
     </row>
     <row r="326" spans="1:4">
@@ -16019,13 +16022,13 @@
         <v>325</v>
       </c>
       <c r="B326" t="s">
-        <v>233</v>
+        <v>257</v>
       </c>
       <c r="C326" t="s">
-        <v>356</v>
+        <v>357</v>
       </c>
       <c r="D326" t="s">
-        <v>379</v>
+        <v>360</v>
       </c>
     </row>
     <row r="327" spans="1:4">
@@ -16033,7 +16036,7 @@
         <v>326</v>
       </c>
       <c r="B327" t="s">
-        <v>402</v>
+        <v>401</v>
       </c>
       <c r="C327" t="s">
         <v>354</v>
@@ -16047,7 +16050,7 @@
         <v>327</v>
       </c>
       <c r="B328" t="s">
-        <v>336</v>
+        <v>337</v>
       </c>
       <c r="C328" t="s">
         <v>358</v>
@@ -16061,7 +16064,7 @@
         <v>328</v>
       </c>
       <c r="B329" t="s">
-        <v>275</v>
+        <v>274</v>
       </c>
       <c r="C329" t="s">
         <v>357</v>
@@ -16075,7 +16078,7 @@
         <v>329</v>
       </c>
       <c r="B330" t="s">
-        <v>340</v>
+        <v>341</v>
       </c>
       <c r="C330" t="s">
         <v>358</v>
@@ -16089,13 +16092,13 @@
         <v>330</v>
       </c>
       <c r="B331" t="s">
-        <v>346</v>
+        <v>353</v>
       </c>
       <c r="C331" t="s">
-        <v>359</v>
+        <v>357</v>
       </c>
       <c r="D331" t="s">
-        <v>388</v>
+        <v>386</v>
       </c>
     </row>
     <row r="332" spans="1:4">
@@ -16103,13 +16106,13 @@
         <v>331</v>
       </c>
       <c r="B332" t="s">
-        <v>291</v>
+        <v>346</v>
       </c>
       <c r="C332" t="s">
-        <v>355</v>
+        <v>359</v>
       </c>
       <c r="D332" t="s">
-        <v>379</v>
+        <v>388</v>
       </c>
     </row>
     <row r="333" spans="1:4">
@@ -16117,10 +16120,10 @@
         <v>332</v>
       </c>
       <c r="B333" t="s">
-        <v>305</v>
+        <v>289</v>
       </c>
       <c r="C333" t="s">
-        <v>354</v>
+        <v>355</v>
       </c>
       <c r="D333" t="s">
         <v>379</v>
@@ -16131,13 +16134,13 @@
         <v>333</v>
       </c>
       <c r="B334" t="s">
-        <v>288</v>
+        <v>303</v>
       </c>
       <c r="C334" t="s">
-        <v>355</v>
+        <v>354</v>
       </c>
       <c r="D334" t="s">
-        <v>390</v>
+        <v>379</v>
       </c>
     </row>
     <row r="335" spans="1:4">
@@ -16145,13 +16148,13 @@
         <v>334</v>
       </c>
       <c r="B335" t="s">
-        <v>348</v>
+        <v>286</v>
       </c>
       <c r="C335" t="s">
-        <v>358</v>
+        <v>355</v>
       </c>
       <c r="D335" t="s">
-        <v>367</v>
+        <v>390</v>
       </c>
     </row>
     <row r="336" spans="1:4">
@@ -16159,13 +16162,13 @@
         <v>335</v>
       </c>
       <c r="B336" t="s">
-        <v>347</v>
+        <v>348</v>
       </c>
       <c r="C336" t="s">
-        <v>359</v>
+        <v>358</v>
       </c>
       <c r="D336" t="s">
-        <v>391</v>
+        <v>367</v>
       </c>
     </row>
     <row r="337" spans="1:4">
@@ -16173,13 +16176,13 @@
         <v>336</v>
       </c>
       <c r="B337" t="s">
-        <v>395</v>
+        <v>347</v>
       </c>
       <c r="C337" t="s">
-        <v>355</v>
+        <v>359</v>
       </c>
       <c r="D337" t="s">
-        <v>369</v>
+        <v>391</v>
       </c>
     </row>
     <row r="338" spans="1:4">
@@ -16187,13 +16190,13 @@
         <v>337</v>
       </c>
       <c r="B338" t="s">
-        <v>313</v>
+        <v>395</v>
       </c>
       <c r="C338" t="s">
-        <v>354</v>
+        <v>355</v>
       </c>
       <c r="D338" t="s">
-        <v>375</v>
+        <v>369</v>
       </c>
     </row>
     <row r="339" spans="1:4">
@@ -16201,13 +16204,13 @@
         <v>338</v>
       </c>
       <c r="B339" t="s">
-        <v>273</v>
+        <v>314</v>
       </c>
       <c r="C339" t="s">
-        <v>357</v>
+        <v>354</v>
       </c>
       <c r="D339" t="s">
-        <v>362</v>
+        <v>375</v>
       </c>
     </row>
     <row r="340" spans="1:4">
@@ -16215,13 +16218,13 @@
         <v>339</v>
       </c>
       <c r="B340" t="s">
-        <v>277</v>
+        <v>402</v>
       </c>
       <c r="C340" t="s">
-        <v>357</v>
+        <v>355</v>
       </c>
       <c r="D340" t="s">
-        <v>386</v>
+        <v>366</v>
       </c>
     </row>
     <row r="341" spans="1:4">
@@ -16229,13 +16232,13 @@
         <v>340</v>
       </c>
       <c r="B341" t="s">
-        <v>403</v>
+        <v>297</v>
       </c>
       <c r="C341" t="s">
-        <v>355</v>
+        <v>354</v>
       </c>
       <c r="D341" t="s">
-        <v>366</v>
+        <v>365</v>
       </c>
     </row>
     <row r="342" spans="1:4">
@@ -16243,13 +16246,13 @@
         <v>341</v>
       </c>
       <c r="B342" t="s">
-        <v>299</v>
+        <v>340</v>
       </c>
       <c r="C342" t="s">
-        <v>354</v>
+        <v>355</v>
       </c>
       <c r="D342" t="s">
-        <v>365</v>
+        <v>386</v>
       </c>
     </row>
     <row r="343" spans="1:4">
@@ -16257,13 +16260,13 @@
         <v>342</v>
       </c>
       <c r="B343" t="s">
-        <v>339</v>
+        <v>320</v>
       </c>
       <c r="C343" t="s">
         <v>355</v>
       </c>
       <c r="D343" t="s">
-        <v>386</v>
+        <v>379</v>
       </c>
     </row>
     <row r="344" spans="1:4">
@@ -16271,13 +16274,13 @@
         <v>343</v>
       </c>
       <c r="B344" t="s">
-        <v>320</v>
+        <v>322</v>
       </c>
       <c r="C344" t="s">
-        <v>355</v>
+        <v>356</v>
       </c>
       <c r="D344" t="s">
-        <v>379</v>
+        <v>362</v>
       </c>
     </row>
     <row r="345" spans="1:4">
@@ -16285,13 +16288,13 @@
         <v>344</v>
       </c>
       <c r="B345" t="s">
-        <v>322</v>
+        <v>399</v>
       </c>
       <c r="C345" t="s">
         <v>356</v>
       </c>
       <c r="D345" t="s">
-        <v>362</v>
+        <v>376</v>
       </c>
     </row>
     <row r="346" spans="1:4">
@@ -16299,13 +16302,13 @@
         <v>345</v>
       </c>
       <c r="B346" t="s">
-        <v>399</v>
+        <v>403</v>
       </c>
       <c r="C346" t="s">
-        <v>356</v>
+        <v>355</v>
       </c>
       <c r="D346" t="s">
-        <v>376</v>
+        <v>391</v>
       </c>
     </row>
     <row r="347" spans="1:4">
@@ -16313,13 +16316,13 @@
         <v>346</v>
       </c>
       <c r="B347" t="s">
-        <v>353</v>
+        <v>328</v>
       </c>
       <c r="C347" t="s">
-        <v>355</v>
+        <v>354</v>
       </c>
       <c r="D347" t="s">
-        <v>391</v>
+        <v>379</v>
       </c>
     </row>
     <row r="348" spans="1:4">
@@ -16327,13 +16330,13 @@
         <v>347</v>
       </c>
       <c r="B348" t="s">
-        <v>328</v>
+        <v>404</v>
       </c>
       <c r="C348" t="s">
         <v>354</v>
       </c>
       <c r="D348" t="s">
-        <v>379</v>
+        <v>364</v>
       </c>
     </row>
     <row r="349" spans="1:4">
@@ -16341,13 +16344,13 @@
         <v>348</v>
       </c>
       <c r="B349" t="s">
-        <v>404</v>
+        <v>332</v>
       </c>
       <c r="C349" t="s">
         <v>354</v>
       </c>
       <c r="D349" t="s">
-        <v>364</v>
+        <v>379</v>
       </c>
     </row>
     <row r="350" spans="1:4">
@@ -16355,13 +16358,13 @@
         <v>349</v>
       </c>
       <c r="B350" t="s">
-        <v>332</v>
+        <v>352</v>
       </c>
       <c r="C350" t="s">
-        <v>354</v>
+        <v>356</v>
       </c>
       <c r="D350" t="s">
-        <v>379</v>
+        <v>389</v>
       </c>
     </row>
     <row r="351" spans="1:4">
@@ -16369,13 +16372,13 @@
         <v>350</v>
       </c>
       <c r="B351" t="s">
-        <v>352</v>
+        <v>405</v>
       </c>
       <c r="C351" t="s">
-        <v>356</v>
+        <v>354</v>
       </c>
       <c r="D351" t="s">
-        <v>389</v>
+        <v>375</v>
       </c>
     </row>
   </sheetData>

--- a/docs/FantasyProsFootballDraft.xlsx
+++ b/docs/FantasyProsFootballDraft.xlsx
@@ -21,7 +21,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="3162" uniqueCount="406">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="3162" uniqueCount="405">
   <si>
     <t>Overall Rank</t>
   </si>
@@ -89,15 +89,15 @@
     <t>Breece Hall</t>
   </si>
   <si>
+    <t>A.J. Brown</t>
+  </si>
+  <si>
+    <t>Dalvin Cook</t>
+  </si>
+  <si>
     <t>Joe Mixon</t>
   </si>
   <si>
-    <t>A.J. Brown</t>
-  </si>
-  <si>
-    <t>Dalvin Cook</t>
-  </si>
-  <si>
     <t>CeeDee Lamb</t>
   </si>
   <si>
@@ -146,12 +146,12 @@
     <t>Patrick Mahomes II</t>
   </si>
   <si>
+    <t>Garrett Wilson</t>
+  </si>
+  <si>
     <t>J.K. Dobbins</t>
   </si>
   <si>
-    <t>Garrett Wilson</t>
-  </si>
-  <si>
     <t>DeVonta Smith</t>
   </si>
   <si>
@@ -173,12 +173,12 @@
     <t>Kyle Pitts</t>
   </si>
   <si>
+    <t>Miles Sanders</t>
+  </si>
+  <si>
     <t>Jalen Hurts</t>
   </si>
   <si>
-    <t>Miles Sanders</t>
-  </si>
-  <si>
     <t>Terry McLaurin</t>
   </si>
   <si>
@@ -215,30 +215,30 @@
     <t>Jerry Jeudy</t>
   </si>
   <si>
+    <t>Lamar Jackson</t>
+  </si>
+  <si>
+    <t>Javonte Williams</t>
+  </si>
+  <si>
     <t>James Conner</t>
   </si>
   <si>
-    <t>Lamar Jackson</t>
-  </si>
-  <si>
-    <t>Javonte Williams</t>
-  </si>
-  <si>
     <t>Tyler Lockett</t>
   </si>
   <si>
     <t>Justin Fields</t>
   </si>
   <si>
+    <t>Brandon Aiyuk</t>
+  </si>
+  <si>
+    <t>Justin Herbert</t>
+  </si>
+  <si>
     <t>Tyler Allgeier</t>
   </si>
   <si>
-    <t>Brandon Aiyuk</t>
-  </si>
-  <si>
-    <t>Justin Herbert</t>
-  </si>
-  <si>
     <t>David Montgomery</t>
   </si>
   <si>
@@ -266,15 +266,15 @@
     <t>Ezekiel Elliott</t>
   </si>
   <si>
+    <t>AJ Dillon</t>
+  </si>
+  <si>
     <t>Drake London</t>
   </si>
   <si>
     <t>Gabe Davis</t>
   </si>
   <si>
-    <t>AJ Dillon</t>
-  </si>
-  <si>
     <t>George Pickens</t>
   </si>
   <si>
@@ -287,33 +287,33 @@
     <t>Isiah Pacheco</t>
   </si>
   <si>
+    <t>Khalil Herbert</t>
+  </si>
+  <si>
+    <t>James Cook</t>
+  </si>
+  <si>
     <t>Marquise Brown</t>
   </si>
   <si>
-    <t>James Cook</t>
-  </si>
-  <si>
-    <t>Khalil Herbert</t>
-  </si>
-  <si>
     <t>Evan Engram</t>
   </si>
   <si>
     <t>Treylon Burks</t>
   </si>
   <si>
+    <t>Deshaun Watson</t>
+  </si>
+  <si>
+    <t>Pat Freiermuth</t>
+  </si>
+  <si>
+    <t>Courtland Sutton</t>
+  </si>
+  <si>
     <t>Jamaal Williams</t>
   </si>
   <si>
-    <t>Deshaun Watson</t>
-  </si>
-  <si>
-    <t>Pat Freiermuth</t>
-  </si>
-  <si>
-    <t>Courtland Sutton</t>
-  </si>
-  <si>
     <t>Dalton Schultz</t>
   </si>
   <si>
@@ -335,21 +335,21 @@
     <t>Tua Tagovailoa</t>
   </si>
   <si>
+    <t>Brandin Cooks</t>
+  </si>
+  <si>
     <t>Leonard Fournette</t>
   </si>
   <si>
-    <t>Brandin Cooks</t>
-  </si>
-  <si>
     <t>David Njoku</t>
   </si>
   <si>
+    <t>Kadarius Toney</t>
+  </si>
+  <si>
     <t>Kirk Cousins</t>
   </si>
   <si>
-    <t>Kadarius Toney</t>
-  </si>
-  <si>
     <t>Daniel Jones</t>
   </si>
   <si>
@@ -383,24 +383,24 @@
     <t>Rachaad White</t>
   </si>
   <si>
+    <t>Geno Smith</t>
+  </si>
+  <si>
     <t>Kyler Murray</t>
   </si>
   <si>
-    <t>Geno Smith</t>
-  </si>
-  <si>
     <t>Devin Singletary</t>
   </si>
   <si>
     <t>Alexander Mattison</t>
   </si>
   <si>
+    <t>Jared Goff</t>
+  </si>
+  <si>
     <t>Rashaad Penny</t>
   </si>
   <si>
-    <t>Jared Goff</t>
-  </si>
-  <si>
     <t>Elijah Moore</t>
   </si>
   <si>
@@ -431,105 +431,105 @@
     <t>Allen Lazard</t>
   </si>
   <si>
+    <t>Mike Gesicki</t>
+  </si>
+  <si>
+    <t>Aaron Rodgers</t>
+  </si>
+  <si>
+    <t>Matthew Stafford</t>
+  </si>
+  <si>
+    <t>Tyler Boyd</t>
+  </si>
+  <si>
+    <t>Buffalo Bills</t>
+  </si>
+  <si>
+    <t>D'Onta Foreman</t>
+  </si>
+  <si>
+    <t>Michael Gallup</t>
+  </si>
+  <si>
+    <t>Derek Carr</t>
+  </si>
+  <si>
+    <t>Jerick McKinnon</t>
+  </si>
+  <si>
+    <t>San Francisco 49ers</t>
+  </si>
+  <si>
+    <t>Clyde Edwards-Helaire</t>
+  </si>
+  <si>
+    <t>Nico Collins</t>
+  </si>
+  <si>
+    <t>DJ Chark Jr.</t>
+  </si>
+  <si>
+    <t>Jeff Wilson Jr.</t>
+  </si>
+  <si>
+    <t>Greg Dulcich</t>
+  </si>
+  <si>
+    <t>Hunter Henry</t>
+  </si>
+  <si>
+    <t>Donovan Peoples-Jones</t>
+  </si>
+  <si>
+    <t>Tyler Higbee</t>
+  </si>
+  <si>
+    <t>Zay Jones</t>
+  </si>
+  <si>
+    <t>Rondale Moore</t>
+  </si>
+  <si>
+    <t>Zamir White</t>
+  </si>
+  <si>
+    <t>Chigoziem Okonkwo</t>
+  </si>
+  <si>
+    <t>Hunter Renfrow</t>
+  </si>
+  <si>
+    <t>Adam Thielen</t>
+  </si>
+  <si>
+    <t>Kenny Pickett</t>
+  </si>
+  <si>
+    <t>Kenneth Gainwell</t>
+  </si>
+  <si>
     <t>Tom Brady</t>
   </si>
   <si>
-    <t>Mike Gesicki</t>
-  </si>
-  <si>
-    <t>Tyler Boyd</t>
-  </si>
-  <si>
-    <t>Matthew Stafford</t>
-  </si>
-  <si>
-    <t>Buffalo Bills</t>
-  </si>
-  <si>
-    <t>Aaron Rodgers</t>
-  </si>
-  <si>
-    <t>Michael Gallup</t>
-  </si>
-  <si>
-    <t>D'Onta Foreman</t>
-  </si>
-  <si>
-    <t>Derek Carr</t>
-  </si>
-  <si>
-    <t>Clyde Edwards-Helaire</t>
-  </si>
-  <si>
-    <t>Jerick McKinnon</t>
-  </si>
-  <si>
-    <t>San Francisco 49ers</t>
-  </si>
-  <si>
-    <t>Nico Collins</t>
-  </si>
-  <si>
-    <t>Jeff Wilson Jr.</t>
-  </si>
-  <si>
-    <t>DJ Chark Jr.</t>
-  </si>
-  <si>
-    <t>Greg Dulcich</t>
-  </si>
-  <si>
-    <t>Hunter Henry</t>
-  </si>
-  <si>
-    <t>Donovan Peoples-Jones</t>
-  </si>
-  <si>
-    <t>Tyler Higbee</t>
-  </si>
-  <si>
-    <t>Zay Jones</t>
-  </si>
-  <si>
-    <t>Zamir White</t>
-  </si>
-  <si>
-    <t>Rondale Moore</t>
-  </si>
-  <si>
-    <t>Chigoziem Okonkwo</t>
-  </si>
-  <si>
-    <t>Hunter Renfrow</t>
-  </si>
-  <si>
-    <t>Adam Thielen</t>
-  </si>
-  <si>
-    <t>Kenny Pickett</t>
-  </si>
-  <si>
     <t>Denver Broncos</t>
   </si>
   <si>
-    <t>Kenneth Gainwell</t>
-  </si>
-  <si>
     <t>Justin Tucker</t>
   </si>
   <si>
     <t>Tampa Bay Buccaneers</t>
   </si>
   <si>
+    <t>New England Patriots</t>
+  </si>
+  <si>
+    <t>Noah Fant</t>
+  </si>
+  <si>
     <t>Chuba Hubbard</t>
   </si>
   <si>
-    <t>New England Patriots</t>
-  </si>
-  <si>
-    <t>Noah Fant</t>
-  </si>
-  <si>
     <t>Dallas Cowboys</t>
   </si>
   <si>
@@ -572,6 +572,9 @@
     <t>New Orleans Saints</t>
   </si>
   <si>
+    <t>Michael Carter</t>
+  </si>
+  <si>
     <t>Allen Robinson II</t>
   </si>
   <si>
@@ -581,9 +584,6 @@
     <t>Evan McPherson</t>
   </si>
   <si>
-    <t>Michael Carter</t>
-  </si>
-  <si>
     <t>Trey McBride</t>
   </si>
   <si>
@@ -611,12 +611,12 @@
     <t>Curtis Samuel</t>
   </si>
   <si>
+    <t>Jaylen Warren</t>
+  </si>
+  <si>
     <t>Zach Charbonnet</t>
   </si>
   <si>
-    <t>Jaylen Warren</t>
-  </si>
-  <si>
     <t>Baltimore Ravens</t>
   </si>
   <si>
@@ -653,18 +653,21 @@
     <t>Cleveland Browns</t>
   </si>
   <si>
+    <t>Joshua Kelley</t>
+  </si>
+  <si>
     <t>Van Jefferson</t>
   </si>
   <si>
-    <t>Joshua Kelley</t>
-  </si>
-  <si>
     <t>Green Bay Packers</t>
   </si>
   <si>
     <t>Nick Folk</t>
   </si>
   <si>
+    <t>Jordan Mason</t>
+  </si>
+  <si>
     <t>Josh Downs</t>
   </si>
   <si>
@@ -674,9 +677,6 @@
     <t>Matt Gay</t>
   </si>
   <si>
-    <t>Jordan Mason</t>
-  </si>
-  <si>
     <t>Ryan Succop</t>
   </si>
   <si>
@@ -791,15 +791,18 @@
     <t>C.J. Stroud</t>
   </si>
   <si>
+    <t>Kendre Miller</t>
+  </si>
+  <si>
     <t>Boston Scott</t>
   </si>
   <si>
-    <t>Kendre Miller</t>
-  </si>
-  <si>
     <t>Sean Tucker</t>
   </si>
   <si>
+    <t>Sam Howell</t>
+  </si>
+  <si>
     <t>Tennessee Titans</t>
   </si>
   <si>
@@ -812,9 +815,6 @@
     <t>Devon Achane</t>
   </si>
   <si>
-    <t>Sam Howell</t>
-  </si>
-  <si>
     <t>Kenyan Drake</t>
   </si>
   <si>
@@ -857,21 +857,21 @@
     <t>Jarvis Landry</t>
   </si>
   <si>
+    <t>Zach Evans</t>
+  </si>
+  <si>
+    <t>KJ Hamler</t>
+  </si>
+  <si>
+    <t>Greg Zuerlein</t>
+  </si>
+  <si>
+    <t>Austin Hooper</t>
+  </si>
+  <si>
     <t>Brock Purdy</t>
   </si>
   <si>
-    <t>Zach Evans</t>
-  </si>
-  <si>
-    <t>KJ Hamler</t>
-  </si>
-  <si>
-    <t>Greg Zuerlein</t>
-  </si>
-  <si>
-    <t>Austin Hooper</t>
-  </si>
-  <si>
     <t>Jelani Woods</t>
   </si>
   <si>
@@ -893,21 +893,21 @@
     <t>Robbie Anderson</t>
   </si>
   <si>
+    <t>Latavius Murray</t>
+  </si>
+  <si>
+    <t>Cade Otton</t>
+  </si>
+  <si>
+    <t>D'Ernest Johnson</t>
+  </si>
+  <si>
+    <t>Tim Patrick</t>
+  </si>
+  <si>
     <t>J.D. McKissic</t>
   </si>
   <si>
-    <t>Latavius Murray</t>
-  </si>
-  <si>
-    <t>D'Ernest Johnson</t>
-  </si>
-  <si>
-    <t>Cade Otton</t>
-  </si>
-  <si>
-    <t>Tim Patrick</t>
-  </si>
-  <si>
     <t>JaMycal Hasty</t>
   </si>
   <si>
@@ -926,12 +926,12 @@
     <t>Chris Boswell</t>
   </si>
   <si>
+    <t>Rodrigo Blankenship</t>
+  </si>
+  <si>
     <t>Jerome Ford</t>
   </si>
   <si>
-    <t>Rodrigo Blankenship</t>
-  </si>
-  <si>
     <t>Minnesota Vikings</t>
   </si>
   <si>
@@ -944,12 +944,12 @@
     <t>Nick Westbrook-Ikhine</t>
   </si>
   <si>
+    <t>Jacksonville Jaguars</t>
+  </si>
+  <si>
     <t>Darrel Williams</t>
   </si>
   <si>
-    <t>Jacksonville Jaguars</t>
-  </si>
-  <si>
     <t>Laviska Shenault Jr.</t>
   </si>
   <si>
@@ -1028,6 +1028,9 @@
     <t>Carson Wentz</t>
   </si>
   <si>
+    <t>Jordan Love</t>
+  </si>
+  <si>
     <t>DeWayne McBride</t>
   </si>
   <si>
@@ -1082,9 +1085,6 @@
     <t>Trey Sermon</t>
   </si>
   <si>
-    <t>Kevin Harris</t>
-  </si>
-  <si>
     <t>RB</t>
   </si>
   <si>
@@ -1233,9 +1233,6 @@
   </si>
   <si>
     <t>Byron Pringle</t>
-  </si>
-  <si>
-    <t>Jordan Love</t>
   </si>
   <si>
     <t>Mike Davis</t>
@@ -1879,10 +1876,10 @@
         <v>22</v>
       </c>
       <c r="C20" t="s">
-        <v>354</v>
+        <v>355</v>
       </c>
       <c r="D20" t="s">
-        <v>370</v>
+        <v>377</v>
       </c>
     </row>
     <row r="21" spans="1:4">
@@ -1893,10 +1890,10 @@
         <v>23</v>
       </c>
       <c r="C21" t="s">
-        <v>355</v>
+        <v>354</v>
       </c>
       <c r="D21" t="s">
-        <v>377</v>
+        <v>367</v>
       </c>
     </row>
     <row r="22" spans="1:4">
@@ -1910,7 +1907,7 @@
         <v>354</v>
       </c>
       <c r="D22" t="s">
-        <v>367</v>
+        <v>370</v>
       </c>
     </row>
     <row r="23" spans="1:4">
@@ -2145,10 +2142,10 @@
         <v>41</v>
       </c>
       <c r="C39" t="s">
-        <v>354</v>
+        <v>355</v>
       </c>
       <c r="D39" t="s">
-        <v>379</v>
+        <v>376</v>
       </c>
     </row>
     <row r="40" spans="1:4">
@@ -2159,10 +2156,10 @@
         <v>42</v>
       </c>
       <c r="C40" t="s">
-        <v>355</v>
+        <v>354</v>
       </c>
       <c r="D40" t="s">
-        <v>376</v>
+        <v>379</v>
       </c>
     </row>
     <row r="41" spans="1:4">
@@ -2271,7 +2268,7 @@
         <v>50</v>
       </c>
       <c r="C48" t="s">
-        <v>357</v>
+        <v>354</v>
       </c>
       <c r="D48" t="s">
         <v>377</v>
@@ -2285,7 +2282,7 @@
         <v>51</v>
       </c>
       <c r="C49" t="s">
-        <v>354</v>
+        <v>357</v>
       </c>
       <c r="D49" t="s">
         <v>377</v>
@@ -2467,10 +2464,10 @@
         <v>64</v>
       </c>
       <c r="C62" t="s">
-        <v>354</v>
+        <v>357</v>
       </c>
       <c r="D62" t="s">
-        <v>391</v>
+        <v>379</v>
       </c>
     </row>
     <row r="63" spans="1:4">
@@ -2481,10 +2478,10 @@
         <v>65</v>
       </c>
       <c r="C63" t="s">
-        <v>357</v>
+        <v>354</v>
       </c>
       <c r="D63" t="s">
-        <v>379</v>
+        <v>390</v>
       </c>
     </row>
     <row r="64" spans="1:4">
@@ -2498,7 +2495,7 @@
         <v>354</v>
       </c>
       <c r="D64" t="s">
-        <v>390</v>
+        <v>391</v>
       </c>
     </row>
     <row r="65" spans="1:4">
@@ -2537,10 +2534,10 @@
         <v>69</v>
       </c>
       <c r="C67" t="s">
-        <v>354</v>
+        <v>355</v>
       </c>
       <c r="D67" t="s">
-        <v>386</v>
+        <v>360</v>
       </c>
     </row>
     <row r="68" spans="1:4">
@@ -2551,10 +2548,10 @@
         <v>70</v>
       </c>
       <c r="C68" t="s">
-        <v>355</v>
+        <v>357</v>
       </c>
       <c r="D68" t="s">
-        <v>360</v>
+        <v>362</v>
       </c>
     </row>
     <row r="69" spans="1:4">
@@ -2565,10 +2562,10 @@
         <v>71</v>
       </c>
       <c r="C69" t="s">
-        <v>357</v>
+        <v>354</v>
       </c>
       <c r="D69" t="s">
-        <v>362</v>
+        <v>386</v>
       </c>
     </row>
     <row r="70" spans="1:4">
@@ -2705,10 +2702,10 @@
         <v>81</v>
       </c>
       <c r="C79" t="s">
-        <v>355</v>
+        <v>354</v>
       </c>
       <c r="D79" t="s">
-        <v>386</v>
+        <v>383</v>
       </c>
     </row>
     <row r="80" spans="1:4">
@@ -2722,7 +2719,7 @@
         <v>355</v>
       </c>
       <c r="D80" t="s">
-        <v>373</v>
+        <v>386</v>
       </c>
     </row>
     <row r="81" spans="1:4">
@@ -2733,10 +2730,10 @@
         <v>83</v>
       </c>
       <c r="C81" t="s">
-        <v>354</v>
+        <v>355</v>
       </c>
       <c r="D81" t="s">
-        <v>383</v>
+        <v>373</v>
       </c>
     </row>
     <row r="82" spans="1:4">
@@ -2803,10 +2800,10 @@
         <v>88</v>
       </c>
       <c r="C86" t="s">
-        <v>355</v>
+        <v>354</v>
       </c>
       <c r="D86" t="s">
-        <v>391</v>
+        <v>392</v>
       </c>
     </row>
     <row r="87" spans="1:4">
@@ -2831,10 +2828,10 @@
         <v>90</v>
       </c>
       <c r="C88" t="s">
-        <v>354</v>
+        <v>355</v>
       </c>
       <c r="D88" t="s">
-        <v>392</v>
+        <v>391</v>
       </c>
     </row>
     <row r="89" spans="1:4">
@@ -2873,10 +2870,10 @@
         <v>93</v>
       </c>
       <c r="C91" t="s">
-        <v>354</v>
+        <v>357</v>
       </c>
       <c r="D91" t="s">
-        <v>380</v>
+        <v>365</v>
       </c>
     </row>
     <row r="92" spans="1:4">
@@ -2887,10 +2884,10 @@
         <v>94</v>
       </c>
       <c r="C92" t="s">
-        <v>357</v>
+        <v>356</v>
       </c>
       <c r="D92" t="s">
-        <v>365</v>
+        <v>374</v>
       </c>
     </row>
     <row r="93" spans="1:4">
@@ -2901,10 +2898,10 @@
         <v>95</v>
       </c>
       <c r="C93" t="s">
-        <v>356</v>
+        <v>355</v>
       </c>
       <c r="D93" t="s">
-        <v>374</v>
+        <v>390</v>
       </c>
     </row>
     <row r="94" spans="1:4">
@@ -2915,10 +2912,10 @@
         <v>96</v>
       </c>
       <c r="C94" t="s">
-        <v>355</v>
+        <v>354</v>
       </c>
       <c r="D94" t="s">
-        <v>390</v>
+        <v>380</v>
       </c>
     </row>
     <row r="95" spans="1:4">
@@ -3027,10 +3024,10 @@
         <v>104</v>
       </c>
       <c r="C102" t="s">
-        <v>354</v>
+        <v>355</v>
       </c>
       <c r="D102" t="s">
-        <v>385</v>
+        <v>384</v>
       </c>
     </row>
     <row r="103" spans="1:4">
@@ -3041,10 +3038,10 @@
         <v>105</v>
       </c>
       <c r="C103" t="s">
-        <v>355</v>
+        <v>354</v>
       </c>
       <c r="D103" t="s">
-        <v>384</v>
+        <v>385</v>
       </c>
     </row>
     <row r="104" spans="1:4">
@@ -3069,10 +3066,10 @@
         <v>107</v>
       </c>
       <c r="C105" t="s">
-        <v>357</v>
+        <v>355</v>
       </c>
       <c r="D105" t="s">
-        <v>367</v>
+        <v>368</v>
       </c>
     </row>
     <row r="106" spans="1:4">
@@ -3083,10 +3080,10 @@
         <v>108</v>
       </c>
       <c r="C106" t="s">
-        <v>355</v>
+        <v>357</v>
       </c>
       <c r="D106" t="s">
-        <v>368</v>
+        <v>367</v>
       </c>
     </row>
     <row r="107" spans="1:4">
@@ -3254,7 +3251,7 @@
         <v>357</v>
       </c>
       <c r="D118" t="s">
-        <v>391</v>
+        <v>366</v>
       </c>
     </row>
     <row r="119" spans="1:4">
@@ -3268,7 +3265,7 @@
         <v>357</v>
       </c>
       <c r="D119" t="s">
-        <v>366</v>
+        <v>391</v>
       </c>
     </row>
     <row r="120" spans="1:4">
@@ -3307,10 +3304,10 @@
         <v>124</v>
       </c>
       <c r="C122" t="s">
-        <v>354</v>
+        <v>357</v>
       </c>
       <c r="D122" t="s">
-        <v>366</v>
+        <v>380</v>
       </c>
     </row>
     <row r="123" spans="1:4">
@@ -3321,10 +3318,10 @@
         <v>125</v>
       </c>
       <c r="C123" t="s">
-        <v>357</v>
+        <v>354</v>
       </c>
       <c r="D123" t="s">
-        <v>380</v>
+        <v>366</v>
       </c>
     </row>
     <row r="124" spans="1:4">
@@ -3475,10 +3472,10 @@
         <v>136</v>
       </c>
       <c r="C134" t="s">
-        <v>357</v>
+        <v>356</v>
       </c>
       <c r="D134" t="s">
-        <v>385</v>
+        <v>375</v>
       </c>
     </row>
     <row r="135" spans="1:4">
@@ -3489,10 +3486,10 @@
         <v>137</v>
       </c>
       <c r="C135" t="s">
-        <v>356</v>
+        <v>357</v>
       </c>
       <c r="D135" t="s">
-        <v>375</v>
+        <v>383</v>
       </c>
     </row>
     <row r="136" spans="1:4">
@@ -3503,10 +3500,10 @@
         <v>138</v>
       </c>
       <c r="C136" t="s">
-        <v>355</v>
+        <v>357</v>
       </c>
       <c r="D136" t="s">
-        <v>370</v>
+        <v>371</v>
       </c>
     </row>
     <row r="137" spans="1:4">
@@ -3517,10 +3514,10 @@
         <v>139</v>
       </c>
       <c r="C137" t="s">
-        <v>357</v>
+        <v>355</v>
       </c>
       <c r="D137" t="s">
-        <v>371</v>
+        <v>370</v>
       </c>
     </row>
     <row r="138" spans="1:4">
@@ -3545,10 +3542,10 @@
         <v>141</v>
       </c>
       <c r="C139" t="s">
-        <v>357</v>
+        <v>354</v>
       </c>
       <c r="D139" t="s">
-        <v>383</v>
+        <v>382</v>
       </c>
     </row>
     <row r="140" spans="1:4">
@@ -3573,10 +3570,10 @@
         <v>143</v>
       </c>
       <c r="C141" t="s">
-        <v>354</v>
+        <v>357</v>
       </c>
       <c r="D141" t="s">
-        <v>382</v>
+        <v>369</v>
       </c>
     </row>
     <row r="142" spans="1:4">
@@ -3587,10 +3584,10 @@
         <v>144</v>
       </c>
       <c r="C142" t="s">
-        <v>357</v>
+        <v>354</v>
       </c>
       <c r="D142" t="s">
-        <v>369</v>
+        <v>368</v>
       </c>
     </row>
     <row r="143" spans="1:4">
@@ -3601,10 +3598,10 @@
         <v>145</v>
       </c>
       <c r="C143" t="s">
-        <v>354</v>
+        <v>358</v>
       </c>
       <c r="D143" t="s">
-        <v>368</v>
+        <v>360</v>
       </c>
     </row>
     <row r="144" spans="1:4">
@@ -3629,10 +3626,10 @@
         <v>147</v>
       </c>
       <c r="C145" t="s">
-        <v>358</v>
+        <v>355</v>
       </c>
       <c r="D145" t="s">
-        <v>360</v>
+        <v>384</v>
       </c>
     </row>
     <row r="146" spans="1:4">
@@ -3646,7 +3643,7 @@
         <v>355</v>
       </c>
       <c r="D146" t="s">
-        <v>384</v>
+        <v>380</v>
       </c>
     </row>
     <row r="147" spans="1:4">
@@ -3671,10 +3668,10 @@
         <v>150</v>
       </c>
       <c r="C148" t="s">
-        <v>355</v>
+        <v>356</v>
       </c>
       <c r="D148" t="s">
-        <v>380</v>
+        <v>390</v>
       </c>
     </row>
     <row r="149" spans="1:4">
@@ -3688,7 +3685,7 @@
         <v>356</v>
       </c>
       <c r="D149" t="s">
-        <v>390</v>
+        <v>381</v>
       </c>
     </row>
     <row r="150" spans="1:4">
@@ -3699,10 +3696,10 @@
         <v>152</v>
       </c>
       <c r="C150" t="s">
-        <v>356</v>
+        <v>355</v>
       </c>
       <c r="D150" t="s">
-        <v>381</v>
+        <v>365</v>
       </c>
     </row>
     <row r="151" spans="1:4">
@@ -3713,10 +3710,10 @@
         <v>153</v>
       </c>
       <c r="C151" t="s">
-        <v>355</v>
+        <v>356</v>
       </c>
       <c r="D151" t="s">
-        <v>365</v>
+        <v>371</v>
       </c>
     </row>
     <row r="152" spans="1:4">
@@ -3727,10 +3724,10 @@
         <v>154</v>
       </c>
       <c r="C152" t="s">
-        <v>356</v>
+        <v>355</v>
       </c>
       <c r="D152" t="s">
-        <v>371</v>
+        <v>372</v>
       </c>
     </row>
     <row r="153" spans="1:4">
@@ -3744,7 +3741,7 @@
         <v>355</v>
       </c>
       <c r="D153" t="s">
-        <v>372</v>
+        <v>391</v>
       </c>
     </row>
     <row r="154" spans="1:4">
@@ -3769,10 +3766,10 @@
         <v>157</v>
       </c>
       <c r="C155" t="s">
-        <v>355</v>
+        <v>356</v>
       </c>
       <c r="D155" t="s">
-        <v>391</v>
+        <v>364</v>
       </c>
     </row>
     <row r="156" spans="1:4">
@@ -3783,10 +3780,10 @@
         <v>158</v>
       </c>
       <c r="C156" t="s">
-        <v>356</v>
+        <v>355</v>
       </c>
       <c r="D156" t="s">
-        <v>364</v>
+        <v>369</v>
       </c>
     </row>
     <row r="157" spans="1:4">
@@ -3800,7 +3797,7 @@
         <v>355</v>
       </c>
       <c r="D157" t="s">
-        <v>369</v>
+        <v>367</v>
       </c>
     </row>
     <row r="158" spans="1:4">
@@ -3811,10 +3808,10 @@
         <v>160</v>
       </c>
       <c r="C158" t="s">
-        <v>355</v>
+        <v>357</v>
       </c>
       <c r="D158" t="s">
-        <v>367</v>
+        <v>374</v>
       </c>
     </row>
     <row r="159" spans="1:4">
@@ -3825,10 +3822,10 @@
         <v>161</v>
       </c>
       <c r="C159" t="s">
-        <v>357</v>
+        <v>354</v>
       </c>
       <c r="D159" t="s">
-        <v>374</v>
+        <v>377</v>
       </c>
     </row>
     <row r="160" spans="1:4">
@@ -3839,10 +3836,10 @@
         <v>162</v>
       </c>
       <c r="C160" t="s">
-        <v>358</v>
+        <v>357</v>
       </c>
       <c r="D160" t="s">
-        <v>390</v>
+        <v>385</v>
       </c>
     </row>
     <row r="161" spans="1:4">
@@ -3853,10 +3850,10 @@
         <v>163</v>
       </c>
       <c r="C161" t="s">
-        <v>354</v>
+        <v>358</v>
       </c>
       <c r="D161" t="s">
-        <v>377</v>
+        <v>390</v>
       </c>
     </row>
     <row r="162" spans="1:4">
@@ -3895,10 +3892,10 @@
         <v>166</v>
       </c>
       <c r="C164" t="s">
-        <v>354</v>
+        <v>358</v>
       </c>
       <c r="D164" t="s">
-        <v>382</v>
+        <v>381</v>
       </c>
     </row>
     <row r="165" spans="1:4">
@@ -3909,10 +3906,10 @@
         <v>167</v>
       </c>
       <c r="C165" t="s">
-        <v>358</v>
+        <v>356</v>
       </c>
       <c r="D165" t="s">
-        <v>381</v>
+        <v>366</v>
       </c>
     </row>
     <row r="166" spans="1:4">
@@ -3923,10 +3920,10 @@
         <v>168</v>
       </c>
       <c r="C166" t="s">
-        <v>356</v>
+        <v>354</v>
       </c>
       <c r="D166" t="s">
-        <v>366</v>
+        <v>382</v>
       </c>
     </row>
     <row r="167" spans="1:4">
@@ -4133,10 +4130,10 @@
         <v>183</v>
       </c>
       <c r="C181" t="s">
-        <v>355</v>
+        <v>354</v>
       </c>
       <c r="D181" t="s">
-        <v>371</v>
+        <v>376</v>
       </c>
     </row>
     <row r="182" spans="1:4">
@@ -4147,10 +4144,10 @@
         <v>184</v>
       </c>
       <c r="C182" t="s">
-        <v>359</v>
+        <v>355</v>
       </c>
       <c r="D182" t="s">
-        <v>369</v>
+        <v>371</v>
       </c>
     </row>
     <row r="183" spans="1:4">
@@ -4164,7 +4161,7 @@
         <v>359</v>
       </c>
       <c r="D183" t="s">
-        <v>370</v>
+        <v>369</v>
       </c>
     </row>
     <row r="184" spans="1:4">
@@ -4175,10 +4172,10 @@
         <v>186</v>
       </c>
       <c r="C184" t="s">
-        <v>354</v>
+        <v>359</v>
       </c>
       <c r="D184" t="s">
-        <v>376</v>
+        <v>370</v>
       </c>
     </row>
     <row r="185" spans="1:4">
@@ -4318,7 +4315,7 @@
         <v>354</v>
       </c>
       <c r="D194" t="s">
-        <v>388</v>
+        <v>374</v>
       </c>
     </row>
     <row r="195" spans="1:4">
@@ -4332,7 +4329,7 @@
         <v>354</v>
       </c>
       <c r="D195" t="s">
-        <v>374</v>
+        <v>388</v>
       </c>
     </row>
     <row r="196" spans="1:4">
@@ -4511,10 +4508,10 @@
         <v>210</v>
       </c>
       <c r="C208" t="s">
-        <v>355</v>
+        <v>354</v>
       </c>
       <c r="D208" t="s">
-        <v>371</v>
+        <v>362</v>
       </c>
     </row>
     <row r="209" spans="1:4">
@@ -4525,10 +4522,10 @@
         <v>211</v>
       </c>
       <c r="C209" t="s">
-        <v>354</v>
+        <v>355</v>
       </c>
       <c r="D209" t="s">
-        <v>362</v>
+        <v>371</v>
       </c>
     </row>
     <row r="210" spans="1:4">
@@ -4567,10 +4564,10 @@
         <v>214</v>
       </c>
       <c r="C212" t="s">
-        <v>355</v>
+        <v>354</v>
       </c>
       <c r="D212" t="s">
-        <v>388</v>
+        <v>360</v>
       </c>
     </row>
     <row r="213" spans="1:4">
@@ -4584,7 +4581,7 @@
         <v>355</v>
       </c>
       <c r="D213" t="s">
-        <v>376</v>
+        <v>388</v>
       </c>
     </row>
     <row r="214" spans="1:4">
@@ -4595,10 +4592,10 @@
         <v>216</v>
       </c>
       <c r="C214" t="s">
-        <v>359</v>
+        <v>355</v>
       </c>
       <c r="D214" t="s">
-        <v>371</v>
+        <v>376</v>
       </c>
     </row>
     <row r="215" spans="1:4">
@@ -4609,10 +4606,10 @@
         <v>217</v>
       </c>
       <c r="C215" t="s">
-        <v>354</v>
+        <v>359</v>
       </c>
       <c r="D215" t="s">
-        <v>360</v>
+        <v>371</v>
       </c>
     </row>
     <row r="216" spans="1:4">
@@ -5158,7 +5155,7 @@
         <v>354</v>
       </c>
       <c r="D254" t="s">
-        <v>377</v>
+        <v>388</v>
       </c>
     </row>
     <row r="255" spans="1:4">
@@ -5172,7 +5169,7 @@
         <v>354</v>
       </c>
       <c r="D255" t="s">
-        <v>388</v>
+        <v>377</v>
       </c>
     </row>
     <row r="256" spans="1:4">
@@ -5197,10 +5194,10 @@
         <v>259</v>
       </c>
       <c r="C257" t="s">
-        <v>358</v>
+        <v>357</v>
       </c>
       <c r="D257" t="s">
-        <v>364</v>
+        <v>387</v>
       </c>
     </row>
     <row r="258" spans="1:4">
@@ -5211,10 +5208,10 @@
         <v>260</v>
       </c>
       <c r="C258" t="s">
-        <v>359</v>
+        <v>358</v>
       </c>
       <c r="D258" t="s">
-        <v>363</v>
+        <v>364</v>
       </c>
     </row>
     <row r="259" spans="1:4">
@@ -5228,7 +5225,7 @@
         <v>359</v>
       </c>
       <c r="D259" t="s">
-        <v>366</v>
+        <v>363</v>
       </c>
     </row>
     <row r="260" spans="1:4">
@@ -5239,10 +5236,10 @@
         <v>262</v>
       </c>
       <c r="C260" t="s">
-        <v>354</v>
+        <v>359</v>
       </c>
       <c r="D260" t="s">
-        <v>388</v>
+        <v>366</v>
       </c>
     </row>
     <row r="261" spans="1:4">
@@ -5253,10 +5250,10 @@
         <v>263</v>
       </c>
       <c r="C261" t="s">
-        <v>357</v>
+        <v>354</v>
       </c>
       <c r="D261" t="s">
-        <v>387</v>
+        <v>388</v>
       </c>
     </row>
     <row r="262" spans="1:4">
@@ -5463,10 +5460,10 @@
         <v>278</v>
       </c>
       <c r="C276" t="s">
-        <v>357</v>
+        <v>354</v>
       </c>
       <c r="D276" t="s">
-        <v>360</v>
+        <v>388</v>
       </c>
     </row>
     <row r="277" spans="1:4">
@@ -5477,10 +5474,10 @@
         <v>279</v>
       </c>
       <c r="C277" t="s">
-        <v>354</v>
+        <v>355</v>
       </c>
       <c r="D277" t="s">
-        <v>388</v>
+        <v>390</v>
       </c>
     </row>
     <row r="278" spans="1:4">
@@ -5491,10 +5488,10 @@
         <v>280</v>
       </c>
       <c r="C278" t="s">
-        <v>355</v>
+        <v>359</v>
       </c>
       <c r="D278" t="s">
-        <v>390</v>
+        <v>376</v>
       </c>
     </row>
     <row r="279" spans="1:4">
@@ -5505,10 +5502,10 @@
         <v>281</v>
       </c>
       <c r="C279" t="s">
-        <v>359</v>
+        <v>356</v>
       </c>
       <c r="D279" t="s">
-        <v>376</v>
+        <v>364</v>
       </c>
     </row>
     <row r="280" spans="1:4">
@@ -5519,10 +5516,10 @@
         <v>282</v>
       </c>
       <c r="C280" t="s">
-        <v>356</v>
+        <v>357</v>
       </c>
       <c r="D280" t="s">
-        <v>364</v>
+        <v>360</v>
       </c>
     </row>
     <row r="281" spans="1:4">
@@ -5634,7 +5631,7 @@
         <v>354</v>
       </c>
       <c r="D288" t="s">
-        <v>387</v>
+        <v>390</v>
       </c>
     </row>
     <row r="289" spans="1:4">
@@ -5645,10 +5642,10 @@
         <v>291</v>
       </c>
       <c r="C289" t="s">
-        <v>354</v>
+        <v>356</v>
       </c>
       <c r="D289" t="s">
-        <v>390</v>
+        <v>385</v>
       </c>
     </row>
     <row r="290" spans="1:4">
@@ -5673,10 +5670,10 @@
         <v>293</v>
       </c>
       <c r="C291" t="s">
-        <v>356</v>
+        <v>355</v>
       </c>
       <c r="D291" t="s">
-        <v>385</v>
+        <v>390</v>
       </c>
     </row>
     <row r="292" spans="1:4">
@@ -5687,10 +5684,10 @@
         <v>294</v>
       </c>
       <c r="C292" t="s">
-        <v>355</v>
+        <v>354</v>
       </c>
       <c r="D292" t="s">
-        <v>390</v>
+        <v>387</v>
       </c>
     </row>
     <row r="293" spans="1:4">
@@ -5785,10 +5782,10 @@
         <v>301</v>
       </c>
       <c r="C299" t="s">
-        <v>354</v>
+        <v>359</v>
       </c>
       <c r="D299" t="s">
-        <v>365</v>
+        <v>388</v>
       </c>
     </row>
     <row r="300" spans="1:4">
@@ -5799,10 +5796,10 @@
         <v>302</v>
       </c>
       <c r="C300" t="s">
-        <v>359</v>
+        <v>354</v>
       </c>
       <c r="D300" t="s">
-        <v>388</v>
+        <v>365</v>
       </c>
     </row>
     <row r="301" spans="1:4">
@@ -5869,10 +5866,10 @@
         <v>307</v>
       </c>
       <c r="C305" t="s">
-        <v>354</v>
+        <v>358</v>
       </c>
       <c r="D305" t="s">
-        <v>391</v>
+        <v>372</v>
       </c>
     </row>
     <row r="306" spans="1:4">
@@ -5883,10 +5880,10 @@
         <v>308</v>
       </c>
       <c r="C306" t="s">
-        <v>358</v>
+        <v>354</v>
       </c>
       <c r="D306" t="s">
-        <v>372</v>
+        <v>391</v>
       </c>
     </row>
     <row r="307" spans="1:4">
@@ -6261,10 +6258,10 @@
         <v>335</v>
       </c>
       <c r="C333" t="s">
-        <v>354</v>
+        <v>357</v>
       </c>
       <c r="D333" t="s">
-        <v>388</v>
+        <v>383</v>
       </c>
     </row>
     <row r="334" spans="1:4">
@@ -6275,7 +6272,7 @@
         <v>336</v>
       </c>
       <c r="C334" t="s">
-        <v>359</v>
+        <v>354</v>
       </c>
       <c r="D334" t="s">
         <v>388</v>
@@ -6289,7 +6286,7 @@
         <v>337</v>
       </c>
       <c r="C335" t="s">
-        <v>357</v>
+        <v>359</v>
       </c>
       <c r="D335" t="s">
         <v>388</v>
@@ -6303,10 +6300,10 @@
         <v>338</v>
       </c>
       <c r="C336" t="s">
-        <v>356</v>
+        <v>357</v>
       </c>
       <c r="D336" t="s">
-        <v>376</v>
+        <v>388</v>
       </c>
     </row>
     <row r="337" spans="1:4">
@@ -6317,10 +6314,10 @@
         <v>339</v>
       </c>
       <c r="C337" t="s">
-        <v>354</v>
+        <v>356</v>
       </c>
       <c r="D337" t="s">
-        <v>390</v>
+        <v>376</v>
       </c>
     </row>
     <row r="338" spans="1:4">
@@ -6331,10 +6328,10 @@
         <v>340</v>
       </c>
       <c r="C338" t="s">
-        <v>356</v>
+        <v>354</v>
       </c>
       <c r="D338" t="s">
-        <v>388</v>
+        <v>390</v>
       </c>
     </row>
     <row r="339" spans="1:4">
@@ -6345,10 +6342,10 @@
         <v>341</v>
       </c>
       <c r="C339" t="s">
-        <v>354</v>
+        <v>356</v>
       </c>
       <c r="D339" t="s">
-        <v>364</v>
+        <v>388</v>
       </c>
     </row>
     <row r="340" spans="1:4">
@@ -6359,10 +6356,10 @@
         <v>342</v>
       </c>
       <c r="C340" t="s">
-        <v>355</v>
+        <v>354</v>
       </c>
       <c r="D340" t="s">
-        <v>373</v>
+        <v>364</v>
       </c>
     </row>
     <row r="341" spans="1:4">
@@ -6373,10 +6370,10 @@
         <v>343</v>
       </c>
       <c r="C341" t="s">
-        <v>356</v>
+        <v>355</v>
       </c>
       <c r="D341" t="s">
-        <v>384</v>
+        <v>373</v>
       </c>
     </row>
     <row r="342" spans="1:4">
@@ -6387,10 +6384,10 @@
         <v>344</v>
       </c>
       <c r="C342" t="s">
-        <v>357</v>
+        <v>356</v>
       </c>
       <c r="D342" t="s">
-        <v>382</v>
+        <v>384</v>
       </c>
     </row>
     <row r="343" spans="1:4">
@@ -6401,10 +6398,10 @@
         <v>345</v>
       </c>
       <c r="C343" t="s">
-        <v>355</v>
+        <v>357</v>
       </c>
       <c r="D343" t="s">
-        <v>391</v>
+        <v>382</v>
       </c>
     </row>
     <row r="344" spans="1:4">
@@ -6415,7 +6412,7 @@
         <v>346</v>
       </c>
       <c r="C344" t="s">
-        <v>354</v>
+        <v>355</v>
       </c>
       <c r="D344" t="s">
         <v>391</v>
@@ -6432,7 +6429,7 @@
         <v>354</v>
       </c>
       <c r="D345" t="s">
-        <v>384</v>
+        <v>391</v>
       </c>
     </row>
     <row r="346" spans="1:4">
@@ -6446,7 +6443,7 @@
         <v>354</v>
       </c>
       <c r="D346" t="s">
-        <v>368</v>
+        <v>384</v>
       </c>
     </row>
     <row r="347" spans="1:4">
@@ -6457,10 +6454,10 @@
         <v>349</v>
       </c>
       <c r="C347" t="s">
-        <v>358</v>
+        <v>354</v>
       </c>
       <c r="D347" t="s">
-        <v>380</v>
+        <v>368</v>
       </c>
     </row>
     <row r="348" spans="1:4">
@@ -6471,10 +6468,10 @@
         <v>350</v>
       </c>
       <c r="C348" t="s">
-        <v>354</v>
+        <v>358</v>
       </c>
       <c r="D348" t="s">
-        <v>388</v>
+        <v>380</v>
       </c>
     </row>
     <row r="349" spans="1:4">
@@ -6485,10 +6482,10 @@
         <v>351</v>
       </c>
       <c r="C349" t="s">
-        <v>356</v>
+        <v>354</v>
       </c>
       <c r="D349" t="s">
-        <v>369</v>
+        <v>388</v>
       </c>
     </row>
     <row r="350" spans="1:4">
@@ -6499,10 +6496,10 @@
         <v>352</v>
       </c>
       <c r="C350" t="s">
-        <v>354</v>
+        <v>356</v>
       </c>
       <c r="D350" t="s">
-        <v>377</v>
+        <v>369</v>
       </c>
     </row>
     <row r="351" spans="1:4">
@@ -6516,7 +6513,7 @@
         <v>354</v>
       </c>
       <c r="D351" t="s">
-        <v>381</v>
+        <v>377</v>
       </c>
     </row>
   </sheetData>
@@ -6779,13 +6776,13 @@
         <v>17</v>
       </c>
       <c r="B18" t="s">
-        <v>22</v>
+        <v>25</v>
       </c>
       <c r="C18" t="s">
-        <v>354</v>
+        <v>355</v>
       </c>
       <c r="D18" t="s">
-        <v>370</v>
+        <v>378</v>
       </c>
     </row>
     <row r="19" spans="1:4">
@@ -6793,13 +6790,13 @@
         <v>18</v>
       </c>
       <c r="B19" t="s">
-        <v>25</v>
+        <v>22</v>
       </c>
       <c r="C19" t="s">
         <v>355</v>
       </c>
       <c r="D19" t="s">
-        <v>378</v>
+        <v>377</v>
       </c>
     </row>
     <row r="20" spans="1:4">
@@ -6807,13 +6804,13 @@
         <v>19</v>
       </c>
       <c r="B20" t="s">
-        <v>23</v>
+        <v>24</v>
       </c>
       <c r="C20" t="s">
-        <v>355</v>
+        <v>354</v>
       </c>
       <c r="D20" t="s">
-        <v>377</v>
+        <v>370</v>
       </c>
     </row>
     <row r="21" spans="1:4">
@@ -6891,13 +6888,13 @@
         <v>25</v>
       </c>
       <c r="B26" t="s">
-        <v>32</v>
+        <v>23</v>
       </c>
       <c r="C26" t="s">
-        <v>355</v>
+        <v>354</v>
       </c>
       <c r="D26" t="s">
-        <v>380</v>
+        <v>367</v>
       </c>
     </row>
     <row r="27" spans="1:4">
@@ -6905,13 +6902,13 @@
         <v>26</v>
       </c>
       <c r="B27" t="s">
-        <v>24</v>
+        <v>32</v>
       </c>
       <c r="C27" t="s">
-        <v>354</v>
+        <v>355</v>
       </c>
       <c r="D27" t="s">
-        <v>367</v>
+        <v>380</v>
       </c>
     </row>
     <row r="28" spans="1:4">
@@ -7031,7 +7028,7 @@
         <v>35</v>
       </c>
       <c r="B36" t="s">
-        <v>42</v>
+        <v>41</v>
       </c>
       <c r="C36" t="s">
         <v>355</v>
@@ -7059,7 +7056,7 @@
         <v>37</v>
       </c>
       <c r="B38" t="s">
-        <v>66</v>
+        <v>65</v>
       </c>
       <c r="C38" t="s">
         <v>354</v>
@@ -7129,7 +7126,7 @@
         <v>42</v>
       </c>
       <c r="B43" t="s">
-        <v>50</v>
+        <v>51</v>
       </c>
       <c r="C43" t="s">
         <v>357</v>
@@ -7157,13 +7154,13 @@
         <v>44</v>
       </c>
       <c r="B45" t="s">
-        <v>62</v>
+        <v>47</v>
       </c>
       <c r="C45" t="s">
         <v>354</v>
       </c>
       <c r="D45" t="s">
-        <v>389</v>
+        <v>384</v>
       </c>
     </row>
     <row r="46" spans="1:4">
@@ -7171,13 +7168,13 @@
         <v>45</v>
       </c>
       <c r="B46" t="s">
-        <v>47</v>
+        <v>62</v>
       </c>
       <c r="C46" t="s">
         <v>354</v>
       </c>
       <c r="D46" t="s">
-        <v>384</v>
+        <v>389</v>
       </c>
     </row>
     <row r="47" spans="1:4">
@@ -7185,7 +7182,7 @@
         <v>46</v>
       </c>
       <c r="B47" t="s">
-        <v>41</v>
+        <v>42</v>
       </c>
       <c r="C47" t="s">
         <v>354</v>
@@ -7227,13 +7224,13 @@
         <v>49</v>
       </c>
       <c r="B50" t="s">
-        <v>64</v>
+        <v>45</v>
       </c>
       <c r="C50" t="s">
         <v>354</v>
       </c>
       <c r="D50" t="s">
-        <v>391</v>
+        <v>371</v>
       </c>
     </row>
     <row r="51" spans="1:4">
@@ -7241,13 +7238,13 @@
         <v>50</v>
       </c>
       <c r="B51" t="s">
-        <v>45</v>
+        <v>60</v>
       </c>
       <c r="C51" t="s">
-        <v>354</v>
+        <v>357</v>
       </c>
       <c r="D51" t="s">
-        <v>371</v>
+        <v>370</v>
       </c>
     </row>
     <row r="52" spans="1:4">
@@ -7255,13 +7252,13 @@
         <v>51</v>
       </c>
       <c r="B52" t="s">
-        <v>60</v>
+        <v>66</v>
       </c>
       <c r="C52" t="s">
-        <v>357</v>
+        <v>354</v>
       </c>
       <c r="D52" t="s">
-        <v>370</v>
+        <v>391</v>
       </c>
     </row>
     <row r="53" spans="1:4">
@@ -7325,7 +7322,7 @@
         <v>56</v>
       </c>
       <c r="B57" t="s">
-        <v>51</v>
+        <v>50</v>
       </c>
       <c r="C57" t="s">
         <v>354</v>
@@ -7339,13 +7336,13 @@
         <v>57</v>
       </c>
       <c r="B58" t="s">
-        <v>72</v>
+        <v>49</v>
       </c>
       <c r="C58" t="s">
-        <v>354</v>
+        <v>356</v>
       </c>
       <c r="D58" t="s">
-        <v>392</v>
+        <v>386</v>
       </c>
     </row>
     <row r="59" spans="1:4">
@@ -7353,13 +7350,13 @@
         <v>58</v>
       </c>
       <c r="B59" t="s">
-        <v>49</v>
+        <v>72</v>
       </c>
       <c r="C59" t="s">
-        <v>356</v>
+        <v>354</v>
       </c>
       <c r="D59" t="s">
-        <v>386</v>
+        <v>392</v>
       </c>
     </row>
     <row r="60" spans="1:4">
@@ -7409,7 +7406,7 @@
         <v>62</v>
       </c>
       <c r="B63" t="s">
-        <v>65</v>
+        <v>64</v>
       </c>
       <c r="C63" t="s">
         <v>357</v>
@@ -7465,7 +7462,7 @@
         <v>66</v>
       </c>
       <c r="B67" t="s">
-        <v>70</v>
+        <v>69</v>
       </c>
       <c r="C67" t="s">
         <v>355</v>
@@ -7479,7 +7476,7 @@
         <v>67</v>
       </c>
       <c r="B68" t="s">
-        <v>81</v>
+        <v>82</v>
       </c>
       <c r="C68" t="s">
         <v>355</v>
@@ -7493,7 +7490,7 @@
         <v>68</v>
       </c>
       <c r="B69" t="s">
-        <v>71</v>
+        <v>70</v>
       </c>
       <c r="C69" t="s">
         <v>357</v>
@@ -7507,7 +7504,7 @@
         <v>69</v>
       </c>
       <c r="B70" t="s">
-        <v>69</v>
+        <v>71</v>
       </c>
       <c r="C70" t="s">
         <v>354</v>
@@ -7549,7 +7546,7 @@
         <v>72</v>
       </c>
       <c r="B73" t="s">
-        <v>83</v>
+        <v>81</v>
       </c>
       <c r="C73" t="s">
         <v>354</v>
@@ -7591,7 +7588,7 @@
         <v>75</v>
       </c>
       <c r="B76" t="s">
-        <v>104</v>
+        <v>105</v>
       </c>
       <c r="C76" t="s">
         <v>354</v>
@@ -7605,7 +7602,7 @@
         <v>76</v>
       </c>
       <c r="B77" t="s">
-        <v>88</v>
+        <v>90</v>
       </c>
       <c r="C77" t="s">
         <v>355</v>
@@ -7619,13 +7616,13 @@
         <v>77</v>
       </c>
       <c r="B78" t="s">
-        <v>77</v>
+        <v>89</v>
       </c>
       <c r="C78" t="s">
         <v>354</v>
       </c>
       <c r="D78" t="s">
-        <v>387</v>
+        <v>373</v>
       </c>
     </row>
     <row r="79" spans="1:4">
@@ -7633,13 +7630,13 @@
         <v>78</v>
       </c>
       <c r="B79" t="s">
-        <v>80</v>
+        <v>77</v>
       </c>
       <c r="C79" t="s">
         <v>354</v>
       </c>
       <c r="D79" t="s">
-        <v>378</v>
+        <v>387</v>
       </c>
     </row>
     <row r="80" spans="1:4">
@@ -7647,13 +7644,13 @@
         <v>79</v>
       </c>
       <c r="B80" t="s">
-        <v>98</v>
+        <v>80</v>
       </c>
       <c r="C80" t="s">
-        <v>355</v>
+        <v>354</v>
       </c>
       <c r="D80" t="s">
-        <v>374</v>
+        <v>378</v>
       </c>
     </row>
     <row r="81" spans="1:4">
@@ -7661,13 +7658,13 @@
         <v>80</v>
       </c>
       <c r="B81" t="s">
-        <v>89</v>
+        <v>98</v>
       </c>
       <c r="C81" t="s">
-        <v>354</v>
+        <v>355</v>
       </c>
       <c r="D81" t="s">
-        <v>373</v>
+        <v>374</v>
       </c>
     </row>
     <row r="82" spans="1:4">
@@ -7745,7 +7742,7 @@
         <v>86</v>
       </c>
       <c r="B87" t="s">
-        <v>96</v>
+        <v>95</v>
       </c>
       <c r="C87" t="s">
         <v>355</v>
@@ -7759,7 +7756,7 @@
         <v>87</v>
       </c>
       <c r="B88" t="s">
-        <v>95</v>
+        <v>94</v>
       </c>
       <c r="C88" t="s">
         <v>356</v>
@@ -7773,7 +7770,7 @@
         <v>88</v>
       </c>
       <c r="B89" t="s">
-        <v>90</v>
+        <v>88</v>
       </c>
       <c r="C89" t="s">
         <v>354</v>
@@ -7787,13 +7784,13 @@
         <v>89</v>
       </c>
       <c r="B90" t="s">
-        <v>91</v>
+        <v>111</v>
       </c>
       <c r="C90" t="s">
-        <v>356</v>
+        <v>354</v>
       </c>
       <c r="D90" t="s">
-        <v>372</v>
+        <v>387</v>
       </c>
     </row>
     <row r="91" spans="1:4">
@@ -7801,13 +7798,13 @@
         <v>90</v>
       </c>
       <c r="B91" t="s">
-        <v>97</v>
+        <v>91</v>
       </c>
       <c r="C91" t="s">
         <v>356</v>
       </c>
       <c r="D91" t="s">
-        <v>378</v>
+        <v>372</v>
       </c>
     </row>
     <row r="92" spans="1:4">
@@ -7815,13 +7812,13 @@
         <v>91</v>
       </c>
       <c r="B92" t="s">
-        <v>111</v>
+        <v>97</v>
       </c>
       <c r="C92" t="s">
-        <v>354</v>
+        <v>356</v>
       </c>
       <c r="D92" t="s">
-        <v>387</v>
+        <v>378</v>
       </c>
     </row>
     <row r="93" spans="1:4">
@@ -7843,7 +7840,7 @@
         <v>93</v>
       </c>
       <c r="B94" t="s">
-        <v>82</v>
+        <v>83</v>
       </c>
       <c r="C94" t="s">
         <v>355</v>
@@ -7857,7 +7854,7 @@
         <v>94</v>
       </c>
       <c r="B95" t="s">
-        <v>94</v>
+        <v>93</v>
       </c>
       <c r="C95" t="s">
         <v>357</v>
@@ -7899,13 +7896,13 @@
         <v>97</v>
       </c>
       <c r="B98" t="s">
-        <v>93</v>
+        <v>54</v>
       </c>
       <c r="C98" t="s">
-        <v>354</v>
+        <v>355</v>
       </c>
       <c r="D98" t="s">
-        <v>380</v>
+        <v>372</v>
       </c>
     </row>
     <row r="99" spans="1:4">
@@ -7913,13 +7910,13 @@
         <v>98</v>
       </c>
       <c r="B99" t="s">
-        <v>117</v>
+        <v>96</v>
       </c>
       <c r="C99" t="s">
         <v>354</v>
       </c>
       <c r="D99" t="s">
-        <v>365</v>
+        <v>380</v>
       </c>
     </row>
     <row r="100" spans="1:4">
@@ -7927,13 +7924,13 @@
         <v>99</v>
       </c>
       <c r="B100" t="s">
-        <v>54</v>
+        <v>86</v>
       </c>
       <c r="C100" t="s">
         <v>355</v>
       </c>
       <c r="D100" t="s">
-        <v>372</v>
+        <v>387</v>
       </c>
     </row>
     <row r="101" spans="1:4">
@@ -7941,13 +7938,13 @@
         <v>100</v>
       </c>
       <c r="B101" t="s">
-        <v>86</v>
+        <v>117</v>
       </c>
       <c r="C101" t="s">
-        <v>355</v>
+        <v>354</v>
       </c>
       <c r="D101" t="s">
-        <v>387</v>
+        <v>365</v>
       </c>
     </row>
     <row r="102" spans="1:4">
@@ -7983,7 +7980,7 @@
         <v>103</v>
       </c>
       <c r="B104" t="s">
-        <v>105</v>
+        <v>104</v>
       </c>
       <c r="C104" t="s">
         <v>355</v>
@@ -8039,10 +8036,10 @@
         <v>107</v>
       </c>
       <c r="B108" t="s">
-        <v>114</v>
+        <v>113</v>
       </c>
       <c r="C108" t="s">
-        <v>354</v>
+        <v>355</v>
       </c>
       <c r="D108" t="s">
         <v>381</v>
@@ -8053,13 +8050,13 @@
         <v>108</v>
       </c>
       <c r="B109" t="s">
-        <v>113</v>
+        <v>108</v>
       </c>
       <c r="C109" t="s">
-        <v>355</v>
+        <v>357</v>
       </c>
       <c r="D109" t="s">
-        <v>381</v>
+        <v>367</v>
       </c>
     </row>
     <row r="110" spans="1:4">
@@ -8067,13 +8064,13 @@
         <v>109</v>
       </c>
       <c r="B110" t="s">
-        <v>107</v>
+        <v>114</v>
       </c>
       <c r="C110" t="s">
-        <v>357</v>
+        <v>354</v>
       </c>
       <c r="D110" t="s">
-        <v>367</v>
+        <v>381</v>
       </c>
     </row>
     <row r="111" spans="1:4">
@@ -8095,13 +8092,13 @@
         <v>111</v>
       </c>
       <c r="B112" t="s">
-        <v>109</v>
+        <v>122</v>
       </c>
       <c r="C112" t="s">
-        <v>357</v>
+        <v>354</v>
       </c>
       <c r="D112" t="s">
-        <v>363</v>
+        <v>373</v>
       </c>
     </row>
     <row r="113" spans="1:4">
@@ -8109,13 +8106,13 @@
         <v>112</v>
       </c>
       <c r="B113" t="s">
-        <v>122</v>
+        <v>109</v>
       </c>
       <c r="C113" t="s">
-        <v>354</v>
+        <v>357</v>
       </c>
       <c r="D113" t="s">
-        <v>373</v>
+        <v>363</v>
       </c>
     </row>
     <row r="114" spans="1:4">
@@ -8151,7 +8148,7 @@
         <v>115</v>
       </c>
       <c r="B116" t="s">
-        <v>108</v>
+        <v>107</v>
       </c>
       <c r="C116" t="s">
         <v>355</v>
@@ -8207,7 +8204,7 @@
         <v>119</v>
       </c>
       <c r="B120" t="s">
-        <v>120</v>
+        <v>121</v>
       </c>
       <c r="C120" t="s">
         <v>357</v>
@@ -8221,7 +8218,7 @@
         <v>120</v>
       </c>
       <c r="B121" t="s">
-        <v>146</v>
+        <v>144</v>
       </c>
       <c r="C121" t="s">
         <v>354</v>
@@ -8235,13 +8232,13 @@
         <v>121</v>
       </c>
       <c r="B122" t="s">
-        <v>135</v>
+        <v>125</v>
       </c>
       <c r="C122" t="s">
-        <v>355</v>
+        <v>354</v>
       </c>
       <c r="D122" t="s">
-        <v>383</v>
+        <v>366</v>
       </c>
     </row>
     <row r="123" spans="1:4">
@@ -8249,13 +8246,13 @@
         <v>122</v>
       </c>
       <c r="B123" t="s">
-        <v>124</v>
+        <v>135</v>
       </c>
       <c r="C123" t="s">
-        <v>354</v>
+        <v>355</v>
       </c>
       <c r="D123" t="s">
-        <v>366</v>
+        <v>383</v>
       </c>
     </row>
     <row r="124" spans="1:4">
@@ -8263,7 +8260,7 @@
         <v>123</v>
       </c>
       <c r="B124" t="s">
-        <v>157</v>
+        <v>155</v>
       </c>
       <c r="C124" t="s">
         <v>355</v>
@@ -8277,7 +8274,7 @@
         <v>124</v>
       </c>
       <c r="B125" t="s">
-        <v>155</v>
+        <v>154</v>
       </c>
       <c r="C125" t="s">
         <v>355</v>
@@ -8291,13 +8288,13 @@
         <v>125</v>
       </c>
       <c r="B126" t="s">
-        <v>130</v>
+        <v>133</v>
       </c>
       <c r="C126" t="s">
         <v>354</v>
       </c>
       <c r="D126" t="s">
-        <v>386</v>
+        <v>375</v>
       </c>
     </row>
     <row r="127" spans="1:4">
@@ -8305,13 +8302,13 @@
         <v>126</v>
       </c>
       <c r="B127" t="s">
-        <v>133</v>
+        <v>139</v>
       </c>
       <c r="C127" t="s">
-        <v>354</v>
+        <v>355</v>
       </c>
       <c r="D127" t="s">
-        <v>375</v>
+        <v>370</v>
       </c>
     </row>
     <row r="128" spans="1:4">
@@ -8319,13 +8316,13 @@
         <v>127</v>
       </c>
       <c r="B128" t="s">
-        <v>138</v>
+        <v>130</v>
       </c>
       <c r="C128" t="s">
-        <v>355</v>
+        <v>354</v>
       </c>
       <c r="D128" t="s">
-        <v>370</v>
+        <v>386</v>
       </c>
     </row>
     <row r="129" spans="1:4">
@@ -8333,13 +8330,13 @@
         <v>128</v>
       </c>
       <c r="B129" t="s">
-        <v>116</v>
+        <v>158</v>
       </c>
       <c r="C129" t="s">
-        <v>357</v>
+        <v>355</v>
       </c>
       <c r="D129" t="s">
-        <v>390</v>
+        <v>369</v>
       </c>
     </row>
     <row r="130" spans="1:4">
@@ -8347,13 +8344,13 @@
         <v>129</v>
       </c>
       <c r="B130" t="s">
-        <v>159</v>
+        <v>116</v>
       </c>
       <c r="C130" t="s">
-        <v>355</v>
+        <v>357</v>
       </c>
       <c r="D130" t="s">
-        <v>369</v>
+        <v>390</v>
       </c>
     </row>
     <row r="131" spans="1:4">
@@ -8361,7 +8358,7 @@
         <v>130</v>
       </c>
       <c r="B131" t="s">
-        <v>121</v>
+        <v>120</v>
       </c>
       <c r="C131" t="s">
         <v>357</v>
@@ -8375,7 +8372,7 @@
         <v>131</v>
       </c>
       <c r="B132" t="s">
-        <v>148</v>
+        <v>147</v>
       </c>
       <c r="C132" t="s">
         <v>355</v>
@@ -8403,7 +8400,7 @@
         <v>133</v>
       </c>
       <c r="B134" t="s">
-        <v>160</v>
+        <v>159</v>
       </c>
       <c r="C134" t="s">
         <v>355</v>
@@ -8417,13 +8414,13 @@
         <v>134</v>
       </c>
       <c r="B135" t="s">
-        <v>145</v>
+        <v>131</v>
       </c>
       <c r="C135" t="s">
-        <v>354</v>
+        <v>356</v>
       </c>
       <c r="D135" t="s">
-        <v>368</v>
+        <v>362</v>
       </c>
     </row>
     <row r="136" spans="1:4">
@@ -8431,13 +8428,13 @@
         <v>135</v>
       </c>
       <c r="B136" t="s">
-        <v>131</v>
+        <v>132</v>
       </c>
       <c r="C136" t="s">
         <v>356</v>
       </c>
       <c r="D136" t="s">
-        <v>362</v>
+        <v>391</v>
       </c>
     </row>
     <row r="137" spans="1:4">
@@ -8445,13 +8442,13 @@
         <v>136</v>
       </c>
       <c r="B137" t="s">
-        <v>132</v>
+        <v>152</v>
       </c>
       <c r="C137" t="s">
-        <v>356</v>
+        <v>355</v>
       </c>
       <c r="D137" t="s">
-        <v>391</v>
+        <v>365</v>
       </c>
     </row>
     <row r="138" spans="1:4">
@@ -8459,13 +8456,13 @@
         <v>137</v>
       </c>
       <c r="B138" t="s">
-        <v>153</v>
+        <v>146</v>
       </c>
       <c r="C138" t="s">
-        <v>355</v>
+        <v>354</v>
       </c>
       <c r="D138" t="s">
-        <v>365</v>
+        <v>368</v>
       </c>
     </row>
     <row r="139" spans="1:4">
@@ -8487,7 +8484,7 @@
         <v>139</v>
       </c>
       <c r="B140" t="s">
-        <v>125</v>
+        <v>124</v>
       </c>
       <c r="C140" t="s">
         <v>357</v>
@@ -8501,13 +8498,13 @@
         <v>140</v>
       </c>
       <c r="B141" t="s">
-        <v>154</v>
+        <v>161</v>
       </c>
       <c r="C141" t="s">
-        <v>356</v>
+        <v>354</v>
       </c>
       <c r="D141" t="s">
-        <v>371</v>
+        <v>377</v>
       </c>
     </row>
     <row r="142" spans="1:4">
@@ -8515,13 +8512,13 @@
         <v>141</v>
       </c>
       <c r="B142" t="s">
-        <v>150</v>
+        <v>153</v>
       </c>
       <c r="C142" t="s">
-        <v>355</v>
+        <v>356</v>
       </c>
       <c r="D142" t="s">
-        <v>380</v>
+        <v>371</v>
       </c>
     </row>
     <row r="143" spans="1:4">
@@ -8529,13 +8526,13 @@
         <v>142</v>
       </c>
       <c r="B143" t="s">
-        <v>163</v>
+        <v>148</v>
       </c>
       <c r="C143" t="s">
-        <v>354</v>
+        <v>355</v>
       </c>
       <c r="D143" t="s">
-        <v>377</v>
+        <v>380</v>
       </c>
     </row>
     <row r="144" spans="1:4">
@@ -8543,7 +8540,7 @@
         <v>143</v>
       </c>
       <c r="B144" t="s">
-        <v>143</v>
+        <v>141</v>
       </c>
       <c r="C144" t="s">
         <v>354</v>
@@ -8613,13 +8610,13 @@
         <v>148</v>
       </c>
       <c r="B149" t="s">
-        <v>137</v>
+        <v>138</v>
       </c>
       <c r="C149" t="s">
-        <v>356</v>
+        <v>357</v>
       </c>
       <c r="D149" t="s">
-        <v>375</v>
+        <v>371</v>
       </c>
     </row>
     <row r="150" spans="1:4">
@@ -8627,13 +8624,13 @@
         <v>149</v>
       </c>
       <c r="B150" t="s">
-        <v>139</v>
+        <v>136</v>
       </c>
       <c r="C150" t="s">
-        <v>357</v>
+        <v>356</v>
       </c>
       <c r="D150" t="s">
-        <v>371</v>
+        <v>375</v>
       </c>
     </row>
     <row r="151" spans="1:4">
@@ -8641,7 +8638,7 @@
         <v>150</v>
       </c>
       <c r="B151" t="s">
-        <v>151</v>
+        <v>150</v>
       </c>
       <c r="C151" t="s">
         <v>356</v>
@@ -8655,13 +8652,13 @@
         <v>151</v>
       </c>
       <c r="B152" t="s">
-        <v>170</v>
+        <v>183</v>
       </c>
       <c r="C152" t="s">
         <v>354</v>
       </c>
       <c r="D152" t="s">
-        <v>390</v>
+        <v>376</v>
       </c>
     </row>
     <row r="153" spans="1:4">
@@ -8669,7 +8666,7 @@
         <v>152</v>
       </c>
       <c r="B153" t="s">
-        <v>166</v>
+        <v>168</v>
       </c>
       <c r="C153" t="s">
         <v>354</v>
@@ -8683,7 +8680,7 @@
         <v>153</v>
       </c>
       <c r="B154" t="s">
-        <v>152</v>
+        <v>151</v>
       </c>
       <c r="C154" t="s">
         <v>356</v>
@@ -8697,13 +8694,13 @@
         <v>154</v>
       </c>
       <c r="B155" t="s">
-        <v>140</v>
+        <v>170</v>
       </c>
       <c r="C155" t="s">
-        <v>358</v>
+        <v>354</v>
       </c>
       <c r="D155" t="s">
-        <v>373</v>
+        <v>390</v>
       </c>
     </row>
     <row r="156" spans="1:4">
@@ -8711,13 +8708,13 @@
         <v>155</v>
       </c>
       <c r="B156" t="s">
-        <v>186</v>
+        <v>137</v>
       </c>
       <c r="C156" t="s">
-        <v>354</v>
+        <v>357</v>
       </c>
       <c r="D156" t="s">
-        <v>376</v>
+        <v>383</v>
       </c>
     </row>
     <row r="157" spans="1:4">
@@ -8725,13 +8722,13 @@
         <v>156</v>
       </c>
       <c r="B157" t="s">
-        <v>141</v>
+        <v>140</v>
       </c>
       <c r="C157" t="s">
-        <v>357</v>
+        <v>358</v>
       </c>
       <c r="D157" t="s">
-        <v>383</v>
+        <v>373</v>
       </c>
     </row>
     <row r="158" spans="1:4">
@@ -8739,7 +8736,7 @@
         <v>157</v>
       </c>
       <c r="B158" t="s">
-        <v>147</v>
+        <v>145</v>
       </c>
       <c r="C158" t="s">
         <v>358</v>
@@ -8767,13 +8764,13 @@
         <v>159</v>
       </c>
       <c r="B160" t="s">
-        <v>136</v>
+        <v>143</v>
       </c>
       <c r="C160" t="s">
         <v>357</v>
       </c>
       <c r="D160" t="s">
-        <v>385</v>
+        <v>369</v>
       </c>
     </row>
     <row r="161" spans="1:4">
@@ -8781,13 +8778,13 @@
         <v>160</v>
       </c>
       <c r="B161" t="s">
-        <v>144</v>
+        <v>128</v>
       </c>
       <c r="C161" t="s">
-        <v>357</v>
+        <v>355</v>
       </c>
       <c r="D161" t="s">
-        <v>369</v>
+        <v>388</v>
       </c>
     </row>
     <row r="162" spans="1:4">
@@ -8795,7 +8792,7 @@
         <v>161</v>
       </c>
       <c r="B162" t="s">
-        <v>128</v>
+        <v>129</v>
       </c>
       <c r="C162" t="s">
         <v>355</v>
@@ -8809,13 +8806,13 @@
         <v>162</v>
       </c>
       <c r="B163" t="s">
-        <v>129</v>
+        <v>187</v>
       </c>
       <c r="C163" t="s">
-        <v>355</v>
+        <v>356</v>
       </c>
       <c r="D163" t="s">
-        <v>388</v>
+        <v>391</v>
       </c>
     </row>
     <row r="164" spans="1:4">
@@ -8823,13 +8820,13 @@
         <v>163</v>
       </c>
       <c r="B164" t="s">
-        <v>187</v>
+        <v>184</v>
       </c>
       <c r="C164" t="s">
-        <v>356</v>
+        <v>355</v>
       </c>
       <c r="D164" t="s">
-        <v>391</v>
+        <v>371</v>
       </c>
     </row>
     <row r="165" spans="1:4">
@@ -8837,13 +8834,13 @@
         <v>164</v>
       </c>
       <c r="B165" t="s">
-        <v>183</v>
+        <v>193</v>
       </c>
       <c r="C165" t="s">
         <v>355</v>
       </c>
       <c r="D165" t="s">
-        <v>371</v>
+        <v>383</v>
       </c>
     </row>
     <row r="166" spans="1:4">
@@ -8851,13 +8848,13 @@
         <v>165</v>
       </c>
       <c r="B166" t="s">
-        <v>193</v>
+        <v>134</v>
       </c>
       <c r="C166" t="s">
         <v>355</v>
       </c>
       <c r="D166" t="s">
-        <v>383</v>
+        <v>388</v>
       </c>
     </row>
     <row r="167" spans="1:4">
@@ -8865,13 +8862,13 @@
         <v>166</v>
       </c>
       <c r="B167" t="s">
-        <v>134</v>
+        <v>167</v>
       </c>
       <c r="C167" t="s">
-        <v>355</v>
+        <v>356</v>
       </c>
       <c r="D167" t="s">
-        <v>388</v>
+        <v>366</v>
       </c>
     </row>
     <row r="168" spans="1:4">
@@ -8879,13 +8876,13 @@
         <v>167</v>
       </c>
       <c r="B168" t="s">
-        <v>168</v>
+        <v>157</v>
       </c>
       <c r="C168" t="s">
         <v>356</v>
       </c>
       <c r="D168" t="s">
-        <v>366</v>
+        <v>364</v>
       </c>
     </row>
     <row r="169" spans="1:4">
@@ -8893,13 +8890,13 @@
         <v>168</v>
       </c>
       <c r="B169" t="s">
-        <v>158</v>
+        <v>203</v>
       </c>
       <c r="C169" t="s">
         <v>356</v>
       </c>
       <c r="D169" t="s">
-        <v>364</v>
+        <v>370</v>
       </c>
     </row>
     <row r="170" spans="1:4">
@@ -8907,13 +8904,13 @@
         <v>169</v>
       </c>
       <c r="B170" t="s">
-        <v>203</v>
+        <v>196</v>
       </c>
       <c r="C170" t="s">
-        <v>356</v>
+        <v>354</v>
       </c>
       <c r="D170" t="s">
-        <v>370</v>
+        <v>374</v>
       </c>
     </row>
     <row r="171" spans="1:4">
@@ -8921,7 +8918,7 @@
         <v>170</v>
       </c>
       <c r="B171" t="s">
-        <v>162</v>
+        <v>163</v>
       </c>
       <c r="C171" t="s">
         <v>358</v>
@@ -8949,13 +8946,13 @@
         <v>172</v>
       </c>
       <c r="B173" t="s">
-        <v>197</v>
+        <v>169</v>
       </c>
       <c r="C173" t="s">
-        <v>354</v>
+        <v>358</v>
       </c>
       <c r="D173" t="s">
-        <v>374</v>
+        <v>378</v>
       </c>
     </row>
     <row r="174" spans="1:4">
@@ -8963,13 +8960,13 @@
         <v>173</v>
       </c>
       <c r="B174" t="s">
-        <v>169</v>
+        <v>181</v>
       </c>
       <c r="C174" t="s">
-        <v>358</v>
+        <v>354</v>
       </c>
       <c r="D174" t="s">
-        <v>378</v>
+        <v>376</v>
       </c>
     </row>
     <row r="175" spans="1:4">
@@ -8977,13 +8974,13 @@
         <v>174</v>
       </c>
       <c r="B175" t="s">
-        <v>181</v>
+        <v>166</v>
       </c>
       <c r="C175" t="s">
-        <v>354</v>
+        <v>358</v>
       </c>
       <c r="D175" t="s">
-        <v>376</v>
+        <v>381</v>
       </c>
     </row>
     <row r="176" spans="1:4">
@@ -8991,13 +8988,13 @@
         <v>175</v>
       </c>
       <c r="B176" t="s">
-        <v>167</v>
+        <v>202</v>
       </c>
       <c r="C176" t="s">
-        <v>358</v>
+        <v>355</v>
       </c>
       <c r="D176" t="s">
-        <v>381</v>
+        <v>367</v>
       </c>
     </row>
     <row r="177" spans="1:4">
@@ -9005,13 +9002,13 @@
         <v>176</v>
       </c>
       <c r="B177" t="s">
-        <v>202</v>
+        <v>164</v>
       </c>
       <c r="C177" t="s">
-        <v>355</v>
+        <v>359</v>
       </c>
       <c r="D177" t="s">
-        <v>367</v>
+        <v>379</v>
       </c>
     </row>
     <row r="178" spans="1:4">
@@ -9019,13 +9016,13 @@
         <v>177</v>
       </c>
       <c r="B178" t="s">
-        <v>164</v>
+        <v>160</v>
       </c>
       <c r="C178" t="s">
-        <v>359</v>
+        <v>357</v>
       </c>
       <c r="D178" t="s">
-        <v>379</v>
+        <v>374</v>
       </c>
     </row>
     <row r="179" spans="1:4">
@@ -9033,13 +9030,13 @@
         <v>178</v>
       </c>
       <c r="B179" t="s">
-        <v>161</v>
+        <v>127</v>
       </c>
       <c r="C179" t="s">
-        <v>357</v>
+        <v>356</v>
       </c>
       <c r="D179" t="s">
-        <v>374</v>
+        <v>389</v>
       </c>
     </row>
     <row r="180" spans="1:4">
@@ -9047,13 +9044,13 @@
         <v>179</v>
       </c>
       <c r="B180" t="s">
-        <v>127</v>
+        <v>200</v>
       </c>
       <c r="C180" t="s">
-        <v>356</v>
+        <v>355</v>
       </c>
       <c r="D180" t="s">
-        <v>389</v>
+        <v>361</v>
       </c>
     </row>
     <row r="181" spans="1:4">
@@ -9061,13 +9058,13 @@
         <v>180</v>
       </c>
       <c r="B181" t="s">
-        <v>200</v>
+        <v>174</v>
       </c>
       <c r="C181" t="s">
         <v>355</v>
       </c>
       <c r="D181" t="s">
-        <v>361</v>
+        <v>368</v>
       </c>
     </row>
     <row r="182" spans="1:4">
@@ -9075,13 +9072,13 @@
         <v>181</v>
       </c>
       <c r="B182" t="s">
-        <v>174</v>
+        <v>165</v>
       </c>
       <c r="C182" t="s">
-        <v>355</v>
+        <v>358</v>
       </c>
       <c r="D182" t="s">
-        <v>368</v>
+        <v>385</v>
       </c>
     </row>
     <row r="183" spans="1:4">
@@ -9089,10 +9086,10 @@
         <v>182</v>
       </c>
       <c r="B183" t="s">
-        <v>165</v>
+        <v>162</v>
       </c>
       <c r="C183" t="s">
-        <v>358</v>
+        <v>357</v>
       </c>
       <c r="D183" t="s">
         <v>385</v>
@@ -9215,7 +9212,7 @@
         <v>191</v>
       </c>
       <c r="B192" t="s">
-        <v>184</v>
+        <v>185</v>
       </c>
       <c r="C192" t="s">
         <v>359</v>
@@ -9257,7 +9254,7 @@
         <v>194</v>
       </c>
       <c r="B195" t="s">
-        <v>185</v>
+        <v>186</v>
       </c>
       <c r="C195" t="s">
         <v>359</v>
@@ -9327,7 +9324,7 @@
         <v>199</v>
       </c>
       <c r="B200" t="s">
-        <v>196</v>
+        <v>197</v>
       </c>
       <c r="C200" t="s">
         <v>354</v>
@@ -9439,7 +9436,7 @@
         <v>207</v>
       </c>
       <c r="B208" t="s">
-        <v>215</v>
+        <v>216</v>
       </c>
       <c r="C208" t="s">
         <v>355</v>
@@ -9481,7 +9478,7 @@
         <v>210</v>
       </c>
       <c r="B211" t="s">
-        <v>211</v>
+        <v>210</v>
       </c>
       <c r="C211" t="s">
         <v>354</v>
@@ -9495,7 +9492,7 @@
         <v>211</v>
       </c>
       <c r="B212" t="s">
-        <v>210</v>
+        <v>211</v>
       </c>
       <c r="C212" t="s">
         <v>355</v>
@@ -9803,7 +9800,7 @@
         <v>233</v>
       </c>
       <c r="B234" t="s">
-        <v>216</v>
+        <v>217</v>
       </c>
       <c r="C234" t="s">
         <v>359</v>
@@ -9817,13 +9814,13 @@
         <v>234</v>
       </c>
       <c r="B235" t="s">
-        <v>244</v>
+        <v>214</v>
       </c>
       <c r="C235" t="s">
-        <v>356</v>
+        <v>354</v>
       </c>
       <c r="D235" t="s">
-        <v>390</v>
+        <v>360</v>
       </c>
     </row>
     <row r="236" spans="1:4">
@@ -9831,13 +9828,13 @@
         <v>235</v>
       </c>
       <c r="B236" t="s">
-        <v>228</v>
+        <v>244</v>
       </c>
       <c r="C236" t="s">
-        <v>359</v>
+        <v>356</v>
       </c>
       <c r="D236" t="s">
-        <v>386</v>
+        <v>390</v>
       </c>
     </row>
     <row r="237" spans="1:4">
@@ -9845,13 +9842,13 @@
         <v>236</v>
       </c>
       <c r="B237" t="s">
-        <v>217</v>
+        <v>228</v>
       </c>
       <c r="C237" t="s">
-        <v>354</v>
+        <v>359</v>
       </c>
       <c r="D237" t="s">
-        <v>360</v>
+        <v>386</v>
       </c>
     </row>
     <row r="238" spans="1:4">
@@ -9929,7 +9926,7 @@
         <v>242</v>
       </c>
       <c r="B243" t="s">
-        <v>214</v>
+        <v>215</v>
       </c>
       <c r="C243" t="s">
         <v>355</v>
@@ -9999,7 +9996,7 @@
         <v>247</v>
       </c>
       <c r="B248" t="s">
-        <v>290</v>
+        <v>294</v>
       </c>
       <c r="C248" t="s">
         <v>354</v>
@@ -10083,13 +10080,13 @@
         <v>253</v>
       </c>
       <c r="B254" t="s">
-        <v>249</v>
+        <v>248</v>
       </c>
       <c r="C254" t="s">
-        <v>359</v>
+        <v>357</v>
       </c>
       <c r="D254" t="s">
-        <v>377</v>
+        <v>388</v>
       </c>
     </row>
     <row r="255" spans="1:4">
@@ -10097,13 +10094,13 @@
         <v>254</v>
       </c>
       <c r="B255" t="s">
-        <v>280</v>
+        <v>249</v>
       </c>
       <c r="C255" t="s">
-        <v>355</v>
+        <v>359</v>
       </c>
       <c r="D255" t="s">
-        <v>390</v>
+        <v>377</v>
       </c>
     </row>
     <row r="256" spans="1:4">
@@ -10111,13 +10108,13 @@
         <v>255</v>
       </c>
       <c r="B256" t="s">
-        <v>254</v>
+        <v>279</v>
       </c>
       <c r="C256" t="s">
-        <v>358</v>
+        <v>355</v>
       </c>
       <c r="D256" t="s">
-        <v>387</v>
+        <v>390</v>
       </c>
     </row>
     <row r="257" spans="1:4">
@@ -10125,13 +10122,13 @@
         <v>256</v>
       </c>
       <c r="B257" t="s">
-        <v>241</v>
+        <v>254</v>
       </c>
       <c r="C257" t="s">
-        <v>355</v>
+        <v>358</v>
       </c>
       <c r="D257" t="s">
-        <v>388</v>
+        <v>387</v>
       </c>
     </row>
     <row r="258" spans="1:4">
@@ -10139,10 +10136,10 @@
         <v>257</v>
       </c>
       <c r="B258" t="s">
-        <v>265</v>
+        <v>241</v>
       </c>
       <c r="C258" t="s">
-        <v>354</v>
+        <v>355</v>
       </c>
       <c r="D258" t="s">
         <v>388</v>
@@ -10153,7 +10150,7 @@
         <v>258</v>
       </c>
       <c r="B259" t="s">
-        <v>257</v>
+        <v>265</v>
       </c>
       <c r="C259" t="s">
         <v>354</v>
@@ -10167,10 +10164,10 @@
         <v>259</v>
       </c>
       <c r="B260" t="s">
-        <v>248</v>
+        <v>256</v>
       </c>
       <c r="C260" t="s">
-        <v>357</v>
+        <v>354</v>
       </c>
       <c r="D260" t="s">
         <v>388</v>
@@ -10223,13 +10220,13 @@
         <v>263</v>
       </c>
       <c r="B264" t="s">
-        <v>273</v>
+        <v>281</v>
       </c>
       <c r="C264" t="s">
-        <v>354</v>
+        <v>356</v>
       </c>
       <c r="D264" t="s">
-        <v>389</v>
+        <v>364</v>
       </c>
     </row>
     <row r="265" spans="1:4">
@@ -10237,13 +10234,13 @@
         <v>264</v>
       </c>
       <c r="B265" t="s">
-        <v>282</v>
+        <v>273</v>
       </c>
       <c r="C265" t="s">
-        <v>356</v>
+        <v>354</v>
       </c>
       <c r="D265" t="s">
-        <v>364</v>
+        <v>389</v>
       </c>
     </row>
     <row r="266" spans="1:4">
@@ -10251,7 +10248,7 @@
         <v>265</v>
       </c>
       <c r="B266" t="s">
-        <v>262</v>
+        <v>263</v>
       </c>
       <c r="C266" t="s">
         <v>354</v>
@@ -10293,13 +10290,13 @@
         <v>268</v>
       </c>
       <c r="B269" t="s">
-        <v>256</v>
+        <v>288</v>
       </c>
       <c r="C269" t="s">
-        <v>354</v>
+        <v>355</v>
       </c>
       <c r="D269" t="s">
-        <v>377</v>
+        <v>381</v>
       </c>
     </row>
     <row r="270" spans="1:4">
@@ -10307,13 +10304,13 @@
         <v>269</v>
       </c>
       <c r="B270" t="s">
-        <v>288</v>
+        <v>257</v>
       </c>
       <c r="C270" t="s">
-        <v>355</v>
+        <v>354</v>
       </c>
       <c r="D270" t="s">
-        <v>381</v>
+        <v>377</v>
       </c>
     </row>
     <row r="271" spans="1:4">
@@ -10335,7 +10332,7 @@
         <v>271</v>
       </c>
       <c r="B272" t="s">
-        <v>261</v>
+        <v>262</v>
       </c>
       <c r="C272" t="s">
         <v>359</v>
@@ -10363,7 +10360,7 @@
         <v>273</v>
       </c>
       <c r="B274" t="s">
-        <v>260</v>
+        <v>261</v>
       </c>
       <c r="C274" t="s">
         <v>359</v>
@@ -10377,7 +10374,7 @@
         <v>274</v>
       </c>
       <c r="B275" t="s">
-        <v>293</v>
+        <v>291</v>
       </c>
       <c r="C275" t="s">
         <v>356</v>
@@ -10419,7 +10416,7 @@
         <v>277</v>
       </c>
       <c r="B278" t="s">
-        <v>259</v>
+        <v>260</v>
       </c>
       <c r="C278" t="s">
         <v>358</v>
@@ -10489,7 +10486,7 @@
         <v>282</v>
       </c>
       <c r="B283" t="s">
-        <v>279</v>
+        <v>278</v>
       </c>
       <c r="C283" t="s">
         <v>354</v>
@@ -10559,7 +10556,7 @@
         <v>287</v>
       </c>
       <c r="B288" t="s">
-        <v>281</v>
+        <v>280</v>
       </c>
       <c r="C288" t="s">
         <v>359</v>
@@ -10657,7 +10654,7 @@
         <v>294</v>
       </c>
       <c r="B295" t="s">
-        <v>291</v>
+        <v>290</v>
       </c>
       <c r="C295" t="s">
         <v>354</v>
@@ -10685,13 +10682,13 @@
         <v>296</v>
       </c>
       <c r="B297" t="s">
-        <v>310</v>
+        <v>275</v>
       </c>
       <c r="C297" t="s">
-        <v>355</v>
+        <v>357</v>
       </c>
       <c r="D297" t="s">
-        <v>363</v>
+        <v>389</v>
       </c>
     </row>
     <row r="298" spans="1:4">
@@ -10699,13 +10696,13 @@
         <v>297</v>
       </c>
       <c r="B298" t="s">
-        <v>275</v>
+        <v>310</v>
       </c>
       <c r="C298" t="s">
-        <v>357</v>
+        <v>355</v>
       </c>
       <c r="D298" t="s">
-        <v>389</v>
+        <v>363</v>
       </c>
     </row>
     <row r="299" spans="1:4">
@@ -10741,7 +10738,7 @@
         <v>300</v>
       </c>
       <c r="B301" t="s">
-        <v>263</v>
+        <v>259</v>
       </c>
       <c r="C301" t="s">
         <v>357</v>
@@ -10755,7 +10752,7 @@
         <v>301</v>
       </c>
       <c r="B302" t="s">
-        <v>294</v>
+        <v>293</v>
       </c>
       <c r="C302" t="s">
         <v>355</v>
@@ -10811,7 +10808,7 @@
         <v>305</v>
       </c>
       <c r="B306" t="s">
-        <v>308</v>
+        <v>307</v>
       </c>
       <c r="C306" t="s">
         <v>358</v>
@@ -10853,7 +10850,7 @@
         <v>308</v>
       </c>
       <c r="B309" t="s">
-        <v>278</v>
+        <v>282</v>
       </c>
       <c r="C309" t="s">
         <v>357</v>
@@ -10881,7 +10878,7 @@
         <v>310</v>
       </c>
       <c r="B311" t="s">
-        <v>307</v>
+        <v>308</v>
       </c>
       <c r="C311" t="s">
         <v>354</v>
@@ -10923,7 +10920,7 @@
         <v>313</v>
       </c>
       <c r="B314" t="s">
-        <v>302</v>
+        <v>301</v>
       </c>
       <c r="C314" t="s">
         <v>359</v>
@@ -10937,7 +10934,7 @@
         <v>314</v>
       </c>
       <c r="B315" t="s">
-        <v>301</v>
+        <v>302</v>
       </c>
       <c r="C315" t="s">
         <v>354</v>
@@ -10965,13 +10962,13 @@
         <v>316</v>
       </c>
       <c r="B317" t="s">
-        <v>325</v>
+        <v>319</v>
       </c>
       <c r="C317" t="s">
-        <v>354</v>
+        <v>358</v>
       </c>
       <c r="D317" t="s">
-        <v>389</v>
+        <v>366</v>
       </c>
     </row>
     <row r="318" spans="1:4">
@@ -10979,13 +10976,13 @@
         <v>317</v>
       </c>
       <c r="B318" t="s">
-        <v>319</v>
+        <v>314</v>
       </c>
       <c r="C318" t="s">
-        <v>358</v>
+        <v>355</v>
       </c>
       <c r="D318" t="s">
-        <v>366</v>
+        <v>388</v>
       </c>
     </row>
     <row r="319" spans="1:4">
@@ -10993,13 +10990,13 @@
         <v>318</v>
       </c>
       <c r="B319" t="s">
-        <v>314</v>
+        <v>325</v>
       </c>
       <c r="C319" t="s">
-        <v>355</v>
+        <v>354</v>
       </c>
       <c r="D319" t="s">
-        <v>388</v>
+        <v>389</v>
       </c>
     </row>
     <row r="320" spans="1:4">
@@ -11035,7 +11032,7 @@
         <v>321</v>
       </c>
       <c r="B322" t="s">
-        <v>342</v>
+        <v>343</v>
       </c>
       <c r="C322" t="s">
         <v>355</v>
@@ -11063,7 +11060,7 @@
         <v>323</v>
       </c>
       <c r="B324" t="s">
-        <v>338</v>
+        <v>339</v>
       </c>
       <c r="C324" t="s">
         <v>356</v>
@@ -11077,7 +11074,7 @@
         <v>324</v>
       </c>
       <c r="B325" t="s">
-        <v>343</v>
+        <v>344</v>
       </c>
       <c r="C325" t="s">
         <v>356</v>
@@ -11105,7 +11102,7 @@
         <v>326</v>
       </c>
       <c r="B327" t="s">
-        <v>341</v>
+        <v>342</v>
       </c>
       <c r="C327" t="s">
         <v>354</v>
@@ -11133,7 +11130,7 @@
         <v>328</v>
       </c>
       <c r="B329" t="s">
-        <v>345</v>
+        <v>346</v>
       </c>
       <c r="C329" t="s">
         <v>355</v>
@@ -11147,7 +11144,7 @@
         <v>329</v>
       </c>
       <c r="B330" t="s">
-        <v>347</v>
+        <v>348</v>
       </c>
       <c r="C330" t="s">
         <v>354</v>
@@ -11189,13 +11186,13 @@
         <v>332</v>
       </c>
       <c r="B333" t="s">
-        <v>339</v>
+        <v>326</v>
       </c>
       <c r="C333" t="s">
-        <v>354</v>
+        <v>359</v>
       </c>
       <c r="D333" t="s">
-        <v>390</v>
+        <v>392</v>
       </c>
     </row>
     <row r="334" spans="1:4">
@@ -11203,13 +11200,13 @@
         <v>333</v>
       </c>
       <c r="B334" t="s">
-        <v>326</v>
+        <v>340</v>
       </c>
       <c r="C334" t="s">
-        <v>359</v>
+        <v>354</v>
       </c>
       <c r="D334" t="s">
-        <v>392</v>
+        <v>390</v>
       </c>
     </row>
     <row r="335" spans="1:4">
@@ -11259,7 +11256,7 @@
         <v>337</v>
       </c>
       <c r="B338" t="s">
-        <v>335</v>
+        <v>336</v>
       </c>
       <c r="C338" t="s">
         <v>354</v>
@@ -11301,7 +11298,7 @@
         <v>340</v>
       </c>
       <c r="B341" t="s">
-        <v>346</v>
+        <v>347</v>
       </c>
       <c r="C341" t="s">
         <v>354</v>
@@ -11399,7 +11396,7 @@
         <v>347</v>
       </c>
       <c r="B348" t="s">
-        <v>336</v>
+        <v>337</v>
       </c>
       <c r="C348" t="s">
         <v>359</v>
@@ -11682,13 +11679,13 @@
         <v>15</v>
       </c>
       <c r="B16" t="s">
-        <v>17</v>
+        <v>9</v>
       </c>
       <c r="C16" t="s">
         <v>354</v>
       </c>
       <c r="D16" t="s">
-        <v>372</v>
+        <v>365</v>
       </c>
     </row>
     <row r="17" spans="1:4">
@@ -11696,13 +11693,13 @@
         <v>16</v>
       </c>
       <c r="B17" t="s">
-        <v>9</v>
+        <v>17</v>
       </c>
       <c r="C17" t="s">
         <v>354</v>
       </c>
       <c r="D17" t="s">
-        <v>365</v>
+        <v>372</v>
       </c>
     </row>
     <row r="18" spans="1:4">
@@ -11710,7 +11707,7 @@
         <v>17</v>
       </c>
       <c r="B18" t="s">
-        <v>22</v>
+        <v>24</v>
       </c>
       <c r="C18" t="s">
         <v>354</v>
@@ -11738,7 +11735,7 @@
         <v>19</v>
       </c>
       <c r="B20" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="C20" t="s">
         <v>355</v>
@@ -11752,13 +11749,13 @@
         <v>20</v>
       </c>
       <c r="B21" t="s">
-        <v>19</v>
+        <v>21</v>
       </c>
       <c r="C21" t="s">
         <v>354</v>
       </c>
       <c r="D21" t="s">
-        <v>374</v>
+        <v>376</v>
       </c>
     </row>
     <row r="22" spans="1:4">
@@ -11766,13 +11763,13 @@
         <v>21</v>
       </c>
       <c r="B22" t="s">
-        <v>21</v>
+        <v>19</v>
       </c>
       <c r="C22" t="s">
         <v>354</v>
       </c>
       <c r="D22" t="s">
-        <v>376</v>
+        <v>374</v>
       </c>
     </row>
     <row r="23" spans="1:4">
@@ -11836,7 +11833,7 @@
         <v>26</v>
       </c>
       <c r="B27" t="s">
-        <v>66</v>
+        <v>65</v>
       </c>
       <c r="C27" t="s">
         <v>354</v>
@@ -11906,7 +11903,7 @@
         <v>31</v>
       </c>
       <c r="B32" t="s">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="C32" t="s">
         <v>354</v>
@@ -11948,7 +11945,7 @@
         <v>34</v>
       </c>
       <c r="B35" t="s">
-        <v>42</v>
+        <v>41</v>
       </c>
       <c r="C35" t="s">
         <v>355</v>
@@ -11962,13 +11959,13 @@
         <v>35</v>
       </c>
       <c r="B36" t="s">
-        <v>38</v>
+        <v>36</v>
       </c>
       <c r="C36" t="s">
-        <v>354</v>
+        <v>355</v>
       </c>
       <c r="D36" t="s">
-        <v>383</v>
+        <v>366</v>
       </c>
     </row>
     <row r="37" spans="1:4">
@@ -11976,13 +11973,13 @@
         <v>36</v>
       </c>
       <c r="B37" t="s">
-        <v>36</v>
+        <v>34</v>
       </c>
       <c r="C37" t="s">
-        <v>355</v>
+        <v>357</v>
       </c>
       <c r="D37" t="s">
-        <v>366</v>
+        <v>373</v>
       </c>
     </row>
     <row r="38" spans="1:4">
@@ -11990,13 +11987,13 @@
         <v>37</v>
       </c>
       <c r="B38" t="s">
-        <v>34</v>
+        <v>38</v>
       </c>
       <c r="C38" t="s">
-        <v>357</v>
+        <v>354</v>
       </c>
       <c r="D38" t="s">
-        <v>373</v>
+        <v>383</v>
       </c>
     </row>
     <row r="39" spans="1:4">
@@ -12046,7 +12043,7 @@
         <v>41</v>
       </c>
       <c r="B42" t="s">
-        <v>50</v>
+        <v>51</v>
       </c>
       <c r="C42" t="s">
         <v>357</v>
@@ -12088,13 +12085,13 @@
         <v>44</v>
       </c>
       <c r="B45" t="s">
-        <v>39</v>
+        <v>47</v>
       </c>
       <c r="C45" t="s">
-        <v>355</v>
+        <v>354</v>
       </c>
       <c r="D45" t="s">
-        <v>365</v>
+        <v>384</v>
       </c>
     </row>
     <row r="46" spans="1:4">
@@ -12102,13 +12099,13 @@
         <v>45</v>
       </c>
       <c r="B46" t="s">
-        <v>37</v>
+        <v>39</v>
       </c>
       <c r="C46" t="s">
         <v>355</v>
       </c>
       <c r="D46" t="s">
-        <v>382</v>
+        <v>365</v>
       </c>
     </row>
     <row r="47" spans="1:4">
@@ -12116,13 +12113,13 @@
         <v>46</v>
       </c>
       <c r="B47" t="s">
-        <v>47</v>
+        <v>37</v>
       </c>
       <c r="C47" t="s">
-        <v>354</v>
+        <v>355</v>
       </c>
       <c r="D47" t="s">
-        <v>384</v>
+        <v>382</v>
       </c>
     </row>
     <row r="48" spans="1:4">
@@ -12158,7 +12155,7 @@
         <v>49</v>
       </c>
       <c r="B50" t="s">
-        <v>64</v>
+        <v>66</v>
       </c>
       <c r="C50" t="s">
         <v>354</v>
@@ -12256,13 +12253,13 @@
         <v>56</v>
       </c>
       <c r="B57" t="s">
-        <v>72</v>
+        <v>42</v>
       </c>
       <c r="C57" t="s">
         <v>354</v>
       </c>
       <c r="D57" t="s">
-        <v>392</v>
+        <v>379</v>
       </c>
     </row>
     <row r="58" spans="1:4">
@@ -12270,13 +12267,13 @@
         <v>57</v>
       </c>
       <c r="B58" t="s">
-        <v>41</v>
+        <v>72</v>
       </c>
       <c r="C58" t="s">
         <v>354</v>
       </c>
       <c r="D58" t="s">
-        <v>379</v>
+        <v>392</v>
       </c>
     </row>
     <row r="59" spans="1:4">
@@ -12298,7 +12295,7 @@
         <v>59</v>
       </c>
       <c r="B60" t="s">
-        <v>81</v>
+        <v>82</v>
       </c>
       <c r="C60" t="s">
         <v>355</v>
@@ -12312,7 +12309,7 @@
         <v>60</v>
       </c>
       <c r="B61" t="s">
-        <v>51</v>
+        <v>50</v>
       </c>
       <c r="C61" t="s">
         <v>354</v>
@@ -12382,7 +12379,7 @@
         <v>65</v>
       </c>
       <c r="B66" t="s">
-        <v>104</v>
+        <v>105</v>
       </c>
       <c r="C66" t="s">
         <v>354</v>
@@ -12396,7 +12393,7 @@
         <v>66</v>
       </c>
       <c r="B67" t="s">
-        <v>65</v>
+        <v>64</v>
       </c>
       <c r="C67" t="s">
         <v>357</v>
@@ -12410,7 +12407,7 @@
         <v>67</v>
       </c>
       <c r="B68" t="s">
-        <v>70</v>
+        <v>69</v>
       </c>
       <c r="C68" t="s">
         <v>355</v>
@@ -12424,7 +12421,7 @@
         <v>68</v>
       </c>
       <c r="B69" t="s">
-        <v>88</v>
+        <v>90</v>
       </c>
       <c r="C69" t="s">
         <v>355</v>
@@ -12452,7 +12449,7 @@
         <v>70</v>
       </c>
       <c r="B71" t="s">
-        <v>69</v>
+        <v>71</v>
       </c>
       <c r="C71" t="s">
         <v>354</v>
@@ -12466,13 +12463,13 @@
         <v>71</v>
       </c>
       <c r="B72" t="s">
-        <v>119</v>
+        <v>81</v>
       </c>
       <c r="C72" t="s">
         <v>354</v>
       </c>
       <c r="D72" t="s">
-        <v>385</v>
+        <v>383</v>
       </c>
     </row>
     <row r="73" spans="1:4">
@@ -12494,13 +12491,13 @@
         <v>73</v>
       </c>
       <c r="B74" t="s">
-        <v>83</v>
+        <v>119</v>
       </c>
       <c r="C74" t="s">
         <v>354</v>
       </c>
       <c r="D74" t="s">
-        <v>383</v>
+        <v>385</v>
       </c>
     </row>
     <row r="75" spans="1:4">
@@ -12508,7 +12505,7 @@
         <v>74</v>
       </c>
       <c r="B75" t="s">
-        <v>71</v>
+        <v>70</v>
       </c>
       <c r="C75" t="s">
         <v>357</v>
@@ -12564,13 +12561,13 @@
         <v>78</v>
       </c>
       <c r="B79" t="s">
-        <v>111</v>
+        <v>89</v>
       </c>
       <c r="C79" t="s">
         <v>354</v>
       </c>
       <c r="D79" t="s">
-        <v>387</v>
+        <v>373</v>
       </c>
     </row>
     <row r="80" spans="1:4">
@@ -12578,13 +12575,13 @@
         <v>79</v>
       </c>
       <c r="B80" t="s">
-        <v>89</v>
+        <v>111</v>
       </c>
       <c r="C80" t="s">
         <v>354</v>
       </c>
       <c r="D80" t="s">
-        <v>373</v>
+        <v>387</v>
       </c>
     </row>
     <row r="81" spans="1:4">
@@ -12634,13 +12631,13 @@
         <v>83</v>
       </c>
       <c r="B84" t="s">
-        <v>77</v>
+        <v>84</v>
       </c>
       <c r="C84" t="s">
-        <v>354</v>
+        <v>355</v>
       </c>
       <c r="D84" t="s">
-        <v>387</v>
+        <v>374</v>
       </c>
     </row>
     <row r="85" spans="1:4">
@@ -12648,13 +12645,13 @@
         <v>84</v>
       </c>
       <c r="B85" t="s">
-        <v>84</v>
+        <v>77</v>
       </c>
       <c r="C85" t="s">
-        <v>355</v>
+        <v>354</v>
       </c>
       <c r="D85" t="s">
-        <v>374</v>
+        <v>387</v>
       </c>
     </row>
     <row r="86" spans="1:4">
@@ -12676,7 +12673,7 @@
         <v>86</v>
       </c>
       <c r="B87" t="s">
-        <v>96</v>
+        <v>95</v>
       </c>
       <c r="C87" t="s">
         <v>355</v>
@@ -12690,7 +12687,7 @@
         <v>87</v>
       </c>
       <c r="B88" t="s">
-        <v>95</v>
+        <v>94</v>
       </c>
       <c r="C88" t="s">
         <v>356</v>
@@ -12788,13 +12785,13 @@
         <v>94</v>
       </c>
       <c r="B95" t="s">
-        <v>115</v>
+        <v>88</v>
       </c>
       <c r="C95" t="s">
-        <v>355</v>
+        <v>354</v>
       </c>
       <c r="D95" t="s">
-        <v>368</v>
+        <v>392</v>
       </c>
     </row>
     <row r="96" spans="1:4">
@@ -12802,13 +12799,13 @@
         <v>95</v>
       </c>
       <c r="B96" t="s">
-        <v>94</v>
+        <v>115</v>
       </c>
       <c r="C96" t="s">
-        <v>357</v>
+        <v>355</v>
       </c>
       <c r="D96" t="s">
-        <v>365</v>
+        <v>368</v>
       </c>
     </row>
     <row r="97" spans="1:4">
@@ -12816,13 +12813,13 @@
         <v>96</v>
       </c>
       <c r="B97" t="s">
-        <v>90</v>
+        <v>93</v>
       </c>
       <c r="C97" t="s">
-        <v>354</v>
+        <v>357</v>
       </c>
       <c r="D97" t="s">
-        <v>392</v>
+        <v>365</v>
       </c>
     </row>
     <row r="98" spans="1:4">
@@ -12858,7 +12855,7 @@
         <v>99</v>
       </c>
       <c r="B100" t="s">
-        <v>105</v>
+        <v>104</v>
       </c>
       <c r="C100" t="s">
         <v>355</v>
@@ -12886,7 +12883,7 @@
         <v>101</v>
       </c>
       <c r="B102" t="s">
-        <v>82</v>
+        <v>83</v>
       </c>
       <c r="C102" t="s">
         <v>355</v>
@@ -12928,13 +12925,13 @@
         <v>104</v>
       </c>
       <c r="B105" t="s">
-        <v>93</v>
+        <v>86</v>
       </c>
       <c r="C105" t="s">
-        <v>354</v>
+        <v>355</v>
       </c>
       <c r="D105" t="s">
-        <v>380</v>
+        <v>387</v>
       </c>
     </row>
     <row r="106" spans="1:4">
@@ -12942,13 +12939,13 @@
         <v>105</v>
       </c>
       <c r="B106" t="s">
-        <v>86</v>
+        <v>96</v>
       </c>
       <c r="C106" t="s">
-        <v>355</v>
+        <v>354</v>
       </c>
       <c r="D106" t="s">
-        <v>387</v>
+        <v>380</v>
       </c>
     </row>
     <row r="107" spans="1:4">
@@ -12984,7 +12981,7 @@
         <v>108</v>
       </c>
       <c r="B109" t="s">
-        <v>107</v>
+        <v>108</v>
       </c>
       <c r="C109" t="s">
         <v>357</v>
@@ -13012,13 +13009,13 @@
         <v>110</v>
       </c>
       <c r="B111" t="s">
-        <v>146</v>
+        <v>59</v>
       </c>
       <c r="C111" t="s">
-        <v>354</v>
+        <v>355</v>
       </c>
       <c r="D111" t="s">
-        <v>368</v>
+        <v>380</v>
       </c>
     </row>
     <row r="112" spans="1:4">
@@ -13026,13 +13023,13 @@
         <v>111</v>
       </c>
       <c r="B112" t="s">
-        <v>59</v>
+        <v>144</v>
       </c>
       <c r="C112" t="s">
-        <v>355</v>
+        <v>354</v>
       </c>
       <c r="D112" t="s">
-        <v>380</v>
+        <v>368</v>
       </c>
     </row>
     <row r="113" spans="1:4">
@@ -13040,7 +13037,7 @@
         <v>112</v>
       </c>
       <c r="B113" t="s">
-        <v>157</v>
+        <v>155</v>
       </c>
       <c r="C113" t="s">
         <v>355</v>
@@ -13082,7 +13079,7 @@
         <v>115</v>
       </c>
       <c r="B116" t="s">
-        <v>159</v>
+        <v>158</v>
       </c>
       <c r="C116" t="s">
         <v>355</v>
@@ -13096,13 +13093,13 @@
         <v>116</v>
       </c>
       <c r="B117" t="s">
-        <v>108</v>
+        <v>110</v>
       </c>
       <c r="C117" t="s">
-        <v>355</v>
+        <v>357</v>
       </c>
       <c r="D117" t="s">
-        <v>368</v>
+        <v>360</v>
       </c>
     </row>
     <row r="118" spans="1:4">
@@ -13110,13 +13107,13 @@
         <v>117</v>
       </c>
       <c r="B118" t="s">
-        <v>123</v>
+        <v>107</v>
       </c>
       <c r="C118" t="s">
-        <v>354</v>
+        <v>355</v>
       </c>
       <c r="D118" t="s">
-        <v>367</v>
+        <v>368</v>
       </c>
     </row>
     <row r="119" spans="1:4">
@@ -13124,13 +13121,13 @@
         <v>118</v>
       </c>
       <c r="B119" t="s">
-        <v>110</v>
+        <v>123</v>
       </c>
       <c r="C119" t="s">
-        <v>357</v>
+        <v>354</v>
       </c>
       <c r="D119" t="s">
-        <v>360</v>
+        <v>367</v>
       </c>
     </row>
     <row r="120" spans="1:4">
@@ -13138,7 +13135,7 @@
         <v>119</v>
       </c>
       <c r="B120" t="s">
-        <v>155</v>
+        <v>154</v>
       </c>
       <c r="C120" t="s">
         <v>355</v>
@@ -13208,13 +13205,13 @@
         <v>124</v>
       </c>
       <c r="B125" t="s">
-        <v>120</v>
+        <v>133</v>
       </c>
       <c r="C125" t="s">
-        <v>357</v>
+        <v>354</v>
       </c>
       <c r="D125" t="s">
-        <v>391</v>
+        <v>375</v>
       </c>
     </row>
     <row r="126" spans="1:4">
@@ -13222,13 +13219,13 @@
         <v>125</v>
       </c>
       <c r="B126" t="s">
-        <v>133</v>
+        <v>121</v>
       </c>
       <c r="C126" t="s">
-        <v>354</v>
+        <v>357</v>
       </c>
       <c r="D126" t="s">
-        <v>375</v>
+        <v>391</v>
       </c>
     </row>
     <row r="127" spans="1:4">
@@ -13236,13 +13233,13 @@
         <v>126</v>
       </c>
       <c r="B127" t="s">
-        <v>130</v>
+        <v>147</v>
       </c>
       <c r="C127" t="s">
-        <v>354</v>
+        <v>355</v>
       </c>
       <c r="D127" t="s">
-        <v>386</v>
+        <v>384</v>
       </c>
     </row>
     <row r="128" spans="1:4">
@@ -13250,13 +13247,13 @@
         <v>127</v>
       </c>
       <c r="B128" t="s">
-        <v>148</v>
+        <v>130</v>
       </c>
       <c r="C128" t="s">
-        <v>355</v>
+        <v>354</v>
       </c>
       <c r="D128" t="s">
-        <v>384</v>
+        <v>386</v>
       </c>
     </row>
     <row r="129" spans="1:4">
@@ -13278,13 +13275,13 @@
         <v>129</v>
       </c>
       <c r="B130" t="s">
-        <v>138</v>
+        <v>120</v>
       </c>
       <c r="C130" t="s">
-        <v>355</v>
+        <v>357</v>
       </c>
       <c r="D130" t="s">
-        <v>370</v>
+        <v>366</v>
       </c>
     </row>
     <row r="131" spans="1:4">
@@ -13292,13 +13289,13 @@
         <v>130</v>
       </c>
       <c r="B131" t="s">
-        <v>173</v>
+        <v>139</v>
       </c>
       <c r="C131" t="s">
         <v>355</v>
       </c>
       <c r="D131" t="s">
-        <v>363</v>
+        <v>370</v>
       </c>
     </row>
     <row r="132" spans="1:4">
@@ -13306,13 +13303,13 @@
         <v>131</v>
       </c>
       <c r="B132" t="s">
-        <v>116</v>
+        <v>161</v>
       </c>
       <c r="C132" t="s">
-        <v>357</v>
+        <v>354</v>
       </c>
       <c r="D132" t="s">
-        <v>390</v>
+        <v>377</v>
       </c>
     </row>
     <row r="133" spans="1:4">
@@ -13320,13 +13317,13 @@
         <v>132</v>
       </c>
       <c r="B133" t="s">
-        <v>163</v>
+        <v>173</v>
       </c>
       <c r="C133" t="s">
-        <v>354</v>
+        <v>355</v>
       </c>
       <c r="D133" t="s">
-        <v>377</v>
+        <v>363</v>
       </c>
     </row>
     <row r="134" spans="1:4">
@@ -13334,13 +13331,13 @@
         <v>133</v>
       </c>
       <c r="B134" t="s">
-        <v>121</v>
+        <v>131</v>
       </c>
       <c r="C134" t="s">
-        <v>357</v>
+        <v>356</v>
       </c>
       <c r="D134" t="s">
-        <v>366</v>
+        <v>362</v>
       </c>
     </row>
     <row r="135" spans="1:4">
@@ -13348,13 +13345,13 @@
         <v>134</v>
       </c>
       <c r="B135" t="s">
-        <v>131</v>
+        <v>125</v>
       </c>
       <c r="C135" t="s">
-        <v>356</v>
+        <v>354</v>
       </c>
       <c r="D135" t="s">
-        <v>362</v>
+        <v>366</v>
       </c>
     </row>
     <row r="136" spans="1:4">
@@ -13362,13 +13359,13 @@
         <v>135</v>
       </c>
       <c r="B136" t="s">
-        <v>124</v>
+        <v>116</v>
       </c>
       <c r="C136" t="s">
-        <v>354</v>
+        <v>357</v>
       </c>
       <c r="D136" t="s">
-        <v>366</v>
+        <v>390</v>
       </c>
     </row>
     <row r="137" spans="1:4">
@@ -13376,7 +13373,7 @@
         <v>136</v>
       </c>
       <c r="B137" t="s">
-        <v>154</v>
+        <v>153</v>
       </c>
       <c r="C137" t="s">
         <v>356</v>
@@ -13390,13 +13387,13 @@
         <v>137</v>
       </c>
       <c r="B138" t="s">
-        <v>145</v>
+        <v>132</v>
       </c>
       <c r="C138" t="s">
-        <v>354</v>
+        <v>356</v>
       </c>
       <c r="D138" t="s">
-        <v>368</v>
+        <v>391</v>
       </c>
     </row>
     <row r="139" spans="1:4">
@@ -13404,13 +13401,13 @@
         <v>138</v>
       </c>
       <c r="B139" t="s">
-        <v>132</v>
+        <v>159</v>
       </c>
       <c r="C139" t="s">
-        <v>356</v>
+        <v>355</v>
       </c>
       <c r="D139" t="s">
-        <v>391</v>
+        <v>367</v>
       </c>
     </row>
     <row r="140" spans="1:4">
@@ -13418,13 +13415,13 @@
         <v>139</v>
       </c>
       <c r="B140" t="s">
-        <v>160</v>
+        <v>180</v>
       </c>
       <c r="C140" t="s">
         <v>355</v>
       </c>
       <c r="D140" t="s">
-        <v>367</v>
+        <v>392</v>
       </c>
     </row>
     <row r="141" spans="1:4">
@@ -13432,13 +13429,13 @@
         <v>140</v>
       </c>
       <c r="B141" t="s">
-        <v>180</v>
+        <v>206</v>
       </c>
       <c r="C141" t="s">
         <v>355</v>
       </c>
       <c r="D141" t="s">
-        <v>392</v>
+        <v>368</v>
       </c>
     </row>
     <row r="142" spans="1:4">
@@ -13446,13 +13443,13 @@
         <v>141</v>
       </c>
       <c r="B142" t="s">
-        <v>206</v>
+        <v>183</v>
       </c>
       <c r="C142" t="s">
-        <v>355</v>
+        <v>354</v>
       </c>
       <c r="D142" t="s">
-        <v>368</v>
+        <v>376</v>
       </c>
     </row>
     <row r="143" spans="1:4">
@@ -13460,13 +13457,13 @@
         <v>142</v>
       </c>
       <c r="B143" t="s">
-        <v>153</v>
+        <v>146</v>
       </c>
       <c r="C143" t="s">
-        <v>355</v>
+        <v>354</v>
       </c>
       <c r="D143" t="s">
-        <v>365</v>
+        <v>368</v>
       </c>
     </row>
     <row r="144" spans="1:4">
@@ -13474,13 +13471,13 @@
         <v>143</v>
       </c>
       <c r="B144" t="s">
-        <v>188</v>
+        <v>152</v>
       </c>
       <c r="C144" t="s">
         <v>355</v>
       </c>
       <c r="D144" t="s">
-        <v>362</v>
+        <v>365</v>
       </c>
     </row>
     <row r="145" spans="1:4">
@@ -13488,13 +13485,13 @@
         <v>144</v>
       </c>
       <c r="B145" t="s">
-        <v>149</v>
+        <v>188</v>
       </c>
       <c r="C145" t="s">
-        <v>354</v>
+        <v>355</v>
       </c>
       <c r="D145" t="s">
-        <v>375</v>
+        <v>362</v>
       </c>
     </row>
     <row r="146" spans="1:4">
@@ -13502,13 +13499,13 @@
         <v>145</v>
       </c>
       <c r="B146" t="s">
-        <v>186</v>
+        <v>124</v>
       </c>
       <c r="C146" t="s">
-        <v>354</v>
+        <v>357</v>
       </c>
       <c r="D146" t="s">
-        <v>376</v>
+        <v>380</v>
       </c>
     </row>
     <row r="147" spans="1:4">
@@ -13516,13 +13513,13 @@
         <v>146</v>
       </c>
       <c r="B147" t="s">
-        <v>125</v>
+        <v>149</v>
       </c>
       <c r="C147" t="s">
-        <v>357</v>
+        <v>354</v>
       </c>
       <c r="D147" t="s">
-        <v>380</v>
+        <v>375</v>
       </c>
     </row>
     <row r="148" spans="1:4">
@@ -13544,7 +13541,7 @@
         <v>148</v>
       </c>
       <c r="B149" t="s">
-        <v>152</v>
+        <v>151</v>
       </c>
       <c r="C149" t="s">
         <v>356</v>
@@ -13586,7 +13583,7 @@
         <v>151</v>
       </c>
       <c r="B152" t="s">
-        <v>150</v>
+        <v>148</v>
       </c>
       <c r="C152" t="s">
         <v>355</v>
@@ -13600,7 +13597,7 @@
         <v>152</v>
       </c>
       <c r="B153" t="s">
-        <v>147</v>
+        <v>145</v>
       </c>
       <c r="C153" t="s">
         <v>358</v>
@@ -13614,7 +13611,7 @@
         <v>153</v>
       </c>
       <c r="B154" t="s">
-        <v>183</v>
+        <v>184</v>
       </c>
       <c r="C154" t="s">
         <v>355</v>
@@ -13628,7 +13625,7 @@
         <v>154</v>
       </c>
       <c r="B155" t="s">
-        <v>139</v>
+        <v>138</v>
       </c>
       <c r="C155" t="s">
         <v>357</v>
@@ -13642,13 +13639,13 @@
         <v>155</v>
       </c>
       <c r="B156" t="s">
-        <v>193</v>
+        <v>141</v>
       </c>
       <c r="C156" t="s">
-        <v>355</v>
+        <v>354</v>
       </c>
       <c r="D156" t="s">
-        <v>383</v>
+        <v>382</v>
       </c>
     </row>
     <row r="157" spans="1:4">
@@ -13656,13 +13653,13 @@
         <v>156</v>
       </c>
       <c r="B157" t="s">
-        <v>143</v>
+        <v>193</v>
       </c>
       <c r="C157" t="s">
-        <v>354</v>
+        <v>355</v>
       </c>
       <c r="D157" t="s">
-        <v>382</v>
+        <v>383</v>
       </c>
     </row>
     <row r="158" spans="1:4">
@@ -13670,7 +13667,7 @@
         <v>157</v>
       </c>
       <c r="B158" t="s">
-        <v>137</v>
+        <v>136</v>
       </c>
       <c r="C158" t="s">
         <v>356</v>
@@ -13684,7 +13681,7 @@
         <v>158</v>
       </c>
       <c r="B159" t="s">
-        <v>151</v>
+        <v>150</v>
       </c>
       <c r="C159" t="s">
         <v>356</v>
@@ -13698,13 +13695,13 @@
         <v>159</v>
       </c>
       <c r="B160" t="s">
-        <v>141</v>
+        <v>196</v>
       </c>
       <c r="C160" t="s">
-        <v>357</v>
+        <v>354</v>
       </c>
       <c r="D160" t="s">
-        <v>383</v>
+        <v>374</v>
       </c>
     </row>
     <row r="161" spans="1:4">
@@ -13712,13 +13709,13 @@
         <v>160</v>
       </c>
       <c r="B161" t="s">
-        <v>136</v>
+        <v>137</v>
       </c>
       <c r="C161" t="s">
         <v>357</v>
       </c>
       <c r="D161" t="s">
-        <v>385</v>
+        <v>383</v>
       </c>
     </row>
     <row r="162" spans="1:4">
@@ -13726,13 +13723,13 @@
         <v>161</v>
       </c>
       <c r="B162" t="s">
-        <v>166</v>
+        <v>143</v>
       </c>
       <c r="C162" t="s">
-        <v>354</v>
+        <v>357</v>
       </c>
       <c r="D162" t="s">
-        <v>382</v>
+        <v>369</v>
       </c>
     </row>
     <row r="163" spans="1:4">
@@ -13740,13 +13737,13 @@
         <v>162</v>
       </c>
       <c r="B163" t="s">
-        <v>144</v>
+        <v>168</v>
       </c>
       <c r="C163" t="s">
-        <v>357</v>
+        <v>354</v>
       </c>
       <c r="D163" t="s">
-        <v>369</v>
+        <v>382</v>
       </c>
     </row>
     <row r="164" spans="1:4">
@@ -13754,13 +13751,13 @@
         <v>163</v>
       </c>
       <c r="B164" t="s">
-        <v>197</v>
+        <v>167</v>
       </c>
       <c r="C164" t="s">
-        <v>354</v>
+        <v>356</v>
       </c>
       <c r="D164" t="s">
-        <v>374</v>
+        <v>366</v>
       </c>
     </row>
     <row r="165" spans="1:4">
@@ -13768,13 +13765,13 @@
         <v>164</v>
       </c>
       <c r="B165" t="s">
-        <v>168</v>
+        <v>156</v>
       </c>
       <c r="C165" t="s">
-        <v>356</v>
+        <v>354</v>
       </c>
       <c r="D165" t="s">
-        <v>366</v>
+        <v>369</v>
       </c>
     </row>
     <row r="166" spans="1:4">
@@ -13782,13 +13779,13 @@
         <v>165</v>
       </c>
       <c r="B166" t="s">
-        <v>156</v>
+        <v>203</v>
       </c>
       <c r="C166" t="s">
-        <v>354</v>
+        <v>356</v>
       </c>
       <c r="D166" t="s">
-        <v>369</v>
+        <v>370</v>
       </c>
     </row>
     <row r="167" spans="1:4">
@@ -13796,13 +13793,13 @@
         <v>166</v>
       </c>
       <c r="B167" t="s">
-        <v>203</v>
+        <v>163</v>
       </c>
       <c r="C167" t="s">
-        <v>356</v>
+        <v>358</v>
       </c>
       <c r="D167" t="s">
-        <v>370</v>
+        <v>390</v>
       </c>
     </row>
     <row r="168" spans="1:4">
@@ -13810,13 +13807,13 @@
         <v>167</v>
       </c>
       <c r="B168" t="s">
-        <v>162</v>
+        <v>164</v>
       </c>
       <c r="C168" t="s">
-        <v>358</v>
+        <v>359</v>
       </c>
       <c r="D168" t="s">
-        <v>390</v>
+        <v>379</v>
       </c>
     </row>
     <row r="169" spans="1:4">
@@ -13824,13 +13821,13 @@
         <v>168</v>
       </c>
       <c r="B169" t="s">
-        <v>164</v>
+        <v>166</v>
       </c>
       <c r="C169" t="s">
-        <v>359</v>
+        <v>358</v>
       </c>
       <c r="D169" t="s">
-        <v>379</v>
+        <v>381</v>
       </c>
     </row>
     <row r="170" spans="1:4">
@@ -13838,13 +13835,13 @@
         <v>169</v>
       </c>
       <c r="B170" t="s">
-        <v>167</v>
+        <v>165</v>
       </c>
       <c r="C170" t="s">
         <v>358</v>
       </c>
       <c r="D170" t="s">
-        <v>381</v>
+        <v>385</v>
       </c>
     </row>
     <row r="171" spans="1:4">
@@ -13852,13 +13849,13 @@
         <v>170</v>
       </c>
       <c r="B171" t="s">
-        <v>165</v>
+        <v>172</v>
       </c>
       <c r="C171" t="s">
         <v>358</v>
       </c>
       <c r="D171" t="s">
-        <v>385</v>
+        <v>371</v>
       </c>
     </row>
     <row r="172" spans="1:4">
@@ -13866,13 +13863,13 @@
         <v>171</v>
       </c>
       <c r="B172" t="s">
-        <v>172</v>
+        <v>169</v>
       </c>
       <c r="C172" t="s">
         <v>358</v>
       </c>
       <c r="D172" t="s">
-        <v>371</v>
+        <v>378</v>
       </c>
     </row>
     <row r="173" spans="1:4">
@@ -13880,13 +13877,13 @@
         <v>172</v>
       </c>
       <c r="B173" t="s">
-        <v>169</v>
+        <v>176</v>
       </c>
       <c r="C173" t="s">
-        <v>358</v>
+        <v>359</v>
       </c>
       <c r="D173" t="s">
-        <v>378</v>
+        <v>373</v>
       </c>
     </row>
     <row r="174" spans="1:4">
@@ -13894,13 +13891,13 @@
         <v>173</v>
       </c>
       <c r="B174" t="s">
-        <v>176</v>
+        <v>199</v>
       </c>
       <c r="C174" t="s">
-        <v>359</v>
+        <v>354</v>
       </c>
       <c r="D174" t="s">
-        <v>373</v>
+        <v>370</v>
       </c>
     </row>
     <row r="175" spans="1:4">
@@ -13908,13 +13905,13 @@
         <v>174</v>
       </c>
       <c r="B175" t="s">
-        <v>199</v>
+        <v>223</v>
       </c>
       <c r="C175" t="s">
-        <v>354</v>
+        <v>355</v>
       </c>
       <c r="D175" t="s">
-        <v>370</v>
+        <v>364</v>
       </c>
     </row>
     <row r="176" spans="1:4">
@@ -13922,13 +13919,13 @@
         <v>175</v>
       </c>
       <c r="B176" t="s">
-        <v>223</v>
+        <v>202</v>
       </c>
       <c r="C176" t="s">
         <v>355</v>
       </c>
       <c r="D176" t="s">
-        <v>364</v>
+        <v>367</v>
       </c>
     </row>
     <row r="177" spans="1:4">
@@ -13936,13 +13933,13 @@
         <v>176</v>
       </c>
       <c r="B177" t="s">
-        <v>202</v>
+        <v>292</v>
       </c>
       <c r="C177" t="s">
-        <v>355</v>
+        <v>354</v>
       </c>
       <c r="D177" t="s">
-        <v>367</v>
+        <v>365</v>
       </c>
     </row>
     <row r="178" spans="1:4">
@@ -13964,13 +13961,13 @@
         <v>178</v>
       </c>
       <c r="B179" t="s">
-        <v>292</v>
+        <v>195</v>
       </c>
       <c r="C179" t="s">
-        <v>354</v>
+        <v>355</v>
       </c>
       <c r="D179" t="s">
-        <v>365</v>
+        <v>387</v>
       </c>
     </row>
     <row r="180" spans="1:4">
@@ -13978,13 +13975,13 @@
         <v>179</v>
       </c>
       <c r="B180" t="s">
-        <v>195</v>
+        <v>200</v>
       </c>
       <c r="C180" t="s">
         <v>355</v>
       </c>
       <c r="D180" t="s">
-        <v>387</v>
+        <v>361</v>
       </c>
     </row>
     <row r="181" spans="1:4">
@@ -13992,13 +13989,13 @@
         <v>180</v>
       </c>
       <c r="B181" t="s">
-        <v>200</v>
+        <v>160</v>
       </c>
       <c r="C181" t="s">
-        <v>355</v>
+        <v>357</v>
       </c>
       <c r="D181" t="s">
-        <v>361</v>
+        <v>374</v>
       </c>
     </row>
     <row r="182" spans="1:4">
@@ -14020,13 +14017,13 @@
         <v>182</v>
       </c>
       <c r="B183" t="s">
-        <v>161</v>
+        <v>232</v>
       </c>
       <c r="C183" t="s">
-        <v>357</v>
+        <v>354</v>
       </c>
       <c r="D183" t="s">
-        <v>374</v>
+        <v>373</v>
       </c>
     </row>
     <row r="184" spans="1:4">
@@ -14034,13 +14031,13 @@
         <v>183</v>
       </c>
       <c r="B184" t="s">
-        <v>232</v>
+        <v>185</v>
       </c>
       <c r="C184" t="s">
-        <v>354</v>
+        <v>359</v>
       </c>
       <c r="D184" t="s">
-        <v>373</v>
+        <v>369</v>
       </c>
     </row>
     <row r="185" spans="1:4">
@@ -14048,13 +14045,13 @@
         <v>184</v>
       </c>
       <c r="B185" t="s">
-        <v>184</v>
+        <v>186</v>
       </c>
       <c r="C185" t="s">
         <v>359</v>
       </c>
       <c r="D185" t="s">
-        <v>369</v>
+        <v>370</v>
       </c>
     </row>
     <row r="186" spans="1:4">
@@ -14062,13 +14059,13 @@
         <v>185</v>
       </c>
       <c r="B186" t="s">
-        <v>185</v>
+        <v>207</v>
       </c>
       <c r="C186" t="s">
-        <v>359</v>
+        <v>355</v>
       </c>
       <c r="D186" t="s">
-        <v>370</v>
+        <v>385</v>
       </c>
     </row>
     <row r="187" spans="1:4">
@@ -14076,13 +14073,13 @@
         <v>186</v>
       </c>
       <c r="B187" t="s">
-        <v>207</v>
+        <v>157</v>
       </c>
       <c r="C187" t="s">
-        <v>355</v>
+        <v>356</v>
       </c>
       <c r="D187" t="s">
-        <v>385</v>
+        <v>364</v>
       </c>
     </row>
     <row r="188" spans="1:4">
@@ -14090,13 +14087,13 @@
         <v>187</v>
       </c>
       <c r="B188" t="s">
-        <v>158</v>
+        <v>189</v>
       </c>
       <c r="C188" t="s">
-        <v>356</v>
+        <v>358</v>
       </c>
       <c r="D188" t="s">
-        <v>364</v>
+        <v>361</v>
       </c>
     </row>
     <row r="189" spans="1:4">
@@ -14104,13 +14101,13 @@
         <v>188</v>
       </c>
       <c r="B189" t="s">
-        <v>189</v>
+        <v>162</v>
       </c>
       <c r="C189" t="s">
-        <v>358</v>
+        <v>357</v>
       </c>
       <c r="D189" t="s">
-        <v>361</v>
+        <v>385</v>
       </c>
     </row>
     <row r="190" spans="1:4">
@@ -14314,7 +14311,7 @@
         <v>203</v>
       </c>
       <c r="B204" t="s">
-        <v>290</v>
+        <v>294</v>
       </c>
       <c r="C204" t="s">
         <v>354</v>
@@ -14328,13 +14325,13 @@
         <v>204</v>
       </c>
       <c r="B205" t="s">
-        <v>192</v>
+        <v>171</v>
       </c>
       <c r="C205" t="s">
-        <v>356</v>
+        <v>357</v>
       </c>
       <c r="D205" t="s">
-        <v>389</v>
+        <v>381</v>
       </c>
     </row>
     <row r="206" spans="1:4">
@@ -14342,13 +14339,13 @@
         <v>205</v>
       </c>
       <c r="B206" t="s">
-        <v>171</v>
+        <v>192</v>
       </c>
       <c r="C206" t="s">
-        <v>357</v>
+        <v>356</v>
       </c>
       <c r="D206" t="s">
-        <v>381</v>
+        <v>389</v>
       </c>
     </row>
     <row r="207" spans="1:4">
@@ -14356,7 +14353,7 @@
         <v>206</v>
       </c>
       <c r="B207" t="s">
-        <v>215</v>
+        <v>216</v>
       </c>
       <c r="C207" t="s">
         <v>355</v>
@@ -14398,7 +14395,7 @@
         <v>209</v>
       </c>
       <c r="B210" t="s">
-        <v>210</v>
+        <v>211</v>
       </c>
       <c r="C210" t="s">
         <v>355</v>
@@ -14440,7 +14437,7 @@
         <v>212</v>
       </c>
       <c r="B213" t="s">
-        <v>216</v>
+        <v>217</v>
       </c>
       <c r="C213" t="s">
         <v>359</v>
@@ -14510,7 +14507,7 @@
         <v>217</v>
       </c>
       <c r="B218" t="s">
-        <v>211</v>
+        <v>210</v>
       </c>
       <c r="C218" t="s">
         <v>354</v>
@@ -14524,7 +14521,7 @@
         <v>218</v>
       </c>
       <c r="B219" t="s">
-        <v>196</v>
+        <v>197</v>
       </c>
       <c r="C219" t="s">
         <v>354</v>
@@ -15000,7 +14997,7 @@
         <v>252</v>
       </c>
       <c r="B253" t="s">
-        <v>217</v>
+        <v>214</v>
       </c>
       <c r="C253" t="s">
         <v>354</v>
@@ -15014,13 +15011,13 @@
         <v>253</v>
       </c>
       <c r="B254" t="s">
-        <v>273</v>
+        <v>260</v>
       </c>
       <c r="C254" t="s">
-        <v>354</v>
+        <v>358</v>
       </c>
       <c r="D254" t="s">
-        <v>389</v>
+        <v>364</v>
       </c>
     </row>
     <row r="255" spans="1:4">
@@ -15028,13 +15025,13 @@
         <v>254</v>
       </c>
       <c r="B255" t="s">
-        <v>259</v>
+        <v>273</v>
       </c>
       <c r="C255" t="s">
-        <v>358</v>
+        <v>354</v>
       </c>
       <c r="D255" t="s">
-        <v>364</v>
+        <v>389</v>
       </c>
     </row>
     <row r="256" spans="1:4">
@@ -15056,7 +15053,7 @@
         <v>256</v>
       </c>
       <c r="B257" t="s">
-        <v>261</v>
+        <v>262</v>
       </c>
       <c r="C257" t="s">
         <v>359</v>
@@ -15070,7 +15067,7 @@
         <v>257</v>
       </c>
       <c r="B258" t="s">
-        <v>260</v>
+        <v>261</v>
       </c>
       <c r="C258" t="s">
         <v>359</v>
@@ -15084,7 +15081,7 @@
         <v>258</v>
       </c>
       <c r="B259" t="s">
-        <v>280</v>
+        <v>279</v>
       </c>
       <c r="C259" t="s">
         <v>355</v>
@@ -15168,7 +15165,7 @@
         <v>264</v>
       </c>
       <c r="B265" t="s">
-        <v>214</v>
+        <v>215</v>
       </c>
       <c r="C265" t="s">
         <v>355</v>
@@ -15210,13 +15207,13 @@
         <v>267</v>
       </c>
       <c r="B268" t="s">
-        <v>274</v>
+        <v>248</v>
       </c>
       <c r="C268" t="s">
-        <v>358</v>
+        <v>357</v>
       </c>
       <c r="D268" t="s">
-        <v>382</v>
+        <v>388</v>
       </c>
     </row>
     <row r="269" spans="1:4">
@@ -15224,13 +15221,13 @@
         <v>268</v>
       </c>
       <c r="B269" t="s">
-        <v>248</v>
+        <v>274</v>
       </c>
       <c r="C269" t="s">
-        <v>357</v>
+        <v>358</v>
       </c>
       <c r="D269" t="s">
-        <v>388</v>
+        <v>382</v>
       </c>
     </row>
     <row r="270" spans="1:4">
@@ -15238,7 +15235,7 @@
         <v>269</v>
       </c>
       <c r="B270" t="s">
-        <v>282</v>
+        <v>281</v>
       </c>
       <c r="C270" t="s">
         <v>356</v>
@@ -15266,13 +15263,13 @@
         <v>271</v>
       </c>
       <c r="B272" t="s">
-        <v>257</v>
+        <v>317</v>
       </c>
       <c r="C272" t="s">
-        <v>354</v>
+        <v>356</v>
       </c>
       <c r="D272" t="s">
-        <v>388</v>
+        <v>381</v>
       </c>
     </row>
     <row r="273" spans="1:4">
@@ -15280,13 +15277,13 @@
         <v>272</v>
       </c>
       <c r="B273" t="s">
-        <v>317</v>
+        <v>256</v>
       </c>
       <c r="C273" t="s">
-        <v>356</v>
+        <v>354</v>
       </c>
       <c r="D273" t="s">
-        <v>381</v>
+        <v>388</v>
       </c>
     </row>
     <row r="274" spans="1:4">
@@ -15350,7 +15347,7 @@
         <v>277</v>
       </c>
       <c r="B278" t="s">
-        <v>281</v>
+        <v>280</v>
       </c>
       <c r="C278" t="s">
         <v>359</v>
@@ -15378,7 +15375,7 @@
         <v>279</v>
       </c>
       <c r="B280" t="s">
-        <v>293</v>
+        <v>291</v>
       </c>
       <c r="C280" t="s">
         <v>356</v>
@@ -15392,7 +15389,7 @@
         <v>280</v>
       </c>
       <c r="B281" t="s">
-        <v>262</v>
+        <v>263</v>
       </c>
       <c r="C281" t="s">
         <v>354</v>
@@ -15420,7 +15417,7 @@
         <v>282</v>
       </c>
       <c r="B283" t="s">
-        <v>256</v>
+        <v>257</v>
       </c>
       <c r="C283" t="s">
         <v>354</v>
@@ -15434,7 +15431,7 @@
         <v>283</v>
       </c>
       <c r="B284" t="s">
-        <v>302</v>
+        <v>301</v>
       </c>
       <c r="C284" t="s">
         <v>359</v>
@@ -15476,7 +15473,7 @@
         <v>286</v>
       </c>
       <c r="B287" t="s">
-        <v>279</v>
+        <v>278</v>
       </c>
       <c r="C287" t="s">
         <v>354</v>
@@ -15588,7 +15585,7 @@
         <v>294</v>
       </c>
       <c r="B295" t="s">
-        <v>291</v>
+        <v>290</v>
       </c>
       <c r="C295" t="s">
         <v>354</v>
@@ -15658,7 +15655,7 @@
         <v>299</v>
       </c>
       <c r="B300" t="s">
-        <v>308</v>
+        <v>307</v>
       </c>
       <c r="C300" t="s">
         <v>358</v>
@@ -15700,7 +15697,7 @@
         <v>302</v>
       </c>
       <c r="B303" t="s">
-        <v>347</v>
+        <v>348</v>
       </c>
       <c r="C303" t="s">
         <v>354</v>
@@ -15728,7 +15725,7 @@
         <v>304</v>
       </c>
       <c r="B305" t="s">
-        <v>307</v>
+        <v>308</v>
       </c>
       <c r="C305" t="s">
         <v>354</v>
@@ -15756,13 +15753,13 @@
         <v>306</v>
       </c>
       <c r="B307" t="s">
-        <v>311</v>
+        <v>259</v>
       </c>
       <c r="C307" t="s">
-        <v>358</v>
+        <v>357</v>
       </c>
       <c r="D307" t="s">
-        <v>363</v>
+        <v>387</v>
       </c>
     </row>
     <row r="308" spans="1:4">
@@ -15770,13 +15767,13 @@
         <v>307</v>
       </c>
       <c r="B308" t="s">
-        <v>318</v>
+        <v>311</v>
       </c>
       <c r="C308" t="s">
-        <v>355</v>
+        <v>358</v>
       </c>
       <c r="D308" t="s">
-        <v>369</v>
+        <v>363</v>
       </c>
     </row>
     <row r="309" spans="1:4">
@@ -15784,13 +15781,13 @@
         <v>308</v>
       </c>
       <c r="B309" t="s">
-        <v>343</v>
+        <v>318</v>
       </c>
       <c r="C309" t="s">
-        <v>356</v>
+        <v>355</v>
       </c>
       <c r="D309" t="s">
-        <v>384</v>
+        <v>369</v>
       </c>
     </row>
     <row r="310" spans="1:4">
@@ -15798,13 +15795,13 @@
         <v>309</v>
       </c>
       <c r="B310" t="s">
-        <v>342</v>
+        <v>344</v>
       </c>
       <c r="C310" t="s">
-        <v>355</v>
+        <v>356</v>
       </c>
       <c r="D310" t="s">
-        <v>373</v>
+        <v>384</v>
       </c>
     </row>
     <row r="311" spans="1:4">
@@ -15812,13 +15809,13 @@
         <v>310</v>
       </c>
       <c r="B311" t="s">
-        <v>263</v>
+        <v>343</v>
       </c>
       <c r="C311" t="s">
-        <v>357</v>
+        <v>355</v>
       </c>
       <c r="D311" t="s">
-        <v>387</v>
+        <v>373</v>
       </c>
     </row>
     <row r="312" spans="1:4">
@@ -15896,7 +15893,7 @@
         <v>316</v>
       </c>
       <c r="B317" t="s">
-        <v>278</v>
+        <v>282</v>
       </c>
       <c r="C317" t="s">
         <v>357</v>
@@ -15966,13 +15963,13 @@
         <v>321</v>
       </c>
       <c r="B322" t="s">
-        <v>327</v>
+        <v>293</v>
       </c>
       <c r="C322" t="s">
-        <v>354</v>
+        <v>355</v>
       </c>
       <c r="D322" t="s">
-        <v>380</v>
+        <v>390</v>
       </c>
     </row>
     <row r="323" spans="1:4">
@@ -15980,13 +15977,13 @@
         <v>322</v>
       </c>
       <c r="B323" t="s">
-        <v>294</v>
+        <v>327</v>
       </c>
       <c r="C323" t="s">
-        <v>355</v>
+        <v>354</v>
       </c>
       <c r="D323" t="s">
-        <v>390</v>
+        <v>380</v>
       </c>
     </row>
     <row r="324" spans="1:4">
@@ -16008,7 +16005,7 @@
         <v>324</v>
       </c>
       <c r="B325" t="s">
-        <v>301</v>
+        <v>302</v>
       </c>
       <c r="C325" t="s">
         <v>354</v>
@@ -16036,7 +16033,7 @@
         <v>326</v>
       </c>
       <c r="B327" t="s">
-        <v>341</v>
+        <v>342</v>
       </c>
       <c r="C327" t="s">
         <v>354</v>
@@ -16064,7 +16061,7 @@
         <v>328</v>
       </c>
       <c r="B329" t="s">
-        <v>336</v>
+        <v>337</v>
       </c>
       <c r="C329" t="s">
         <v>359</v>
@@ -16078,7 +16075,7 @@
         <v>329</v>
       </c>
       <c r="B330" t="s">
-        <v>345</v>
+        <v>346</v>
       </c>
       <c r="C330" t="s">
         <v>355</v>
@@ -16106,7 +16103,7 @@
         <v>331</v>
       </c>
       <c r="B332" t="s">
-        <v>335</v>
+        <v>336</v>
       </c>
       <c r="C332" t="s">
         <v>354</v>
@@ -16120,7 +16117,7 @@
         <v>332</v>
       </c>
       <c r="B333" t="s">
-        <v>338</v>
+        <v>339</v>
       </c>
       <c r="C333" t="s">
         <v>356</v>
@@ -16148,13 +16145,13 @@
         <v>334</v>
       </c>
       <c r="B335" t="s">
-        <v>339</v>
+        <v>314</v>
       </c>
       <c r="C335" t="s">
-        <v>354</v>
+        <v>355</v>
       </c>
       <c r="D335" t="s">
-        <v>390</v>
+        <v>388</v>
       </c>
     </row>
     <row r="336" spans="1:4">
@@ -16162,13 +16159,13 @@
         <v>335</v>
       </c>
       <c r="B336" t="s">
-        <v>314</v>
+        <v>340</v>
       </c>
       <c r="C336" t="s">
-        <v>355</v>
+        <v>354</v>
       </c>
       <c r="D336" t="s">
-        <v>388</v>
+        <v>390</v>
       </c>
     </row>
     <row r="337" spans="1:4">
@@ -16260,13 +16257,13 @@
         <v>342</v>
       </c>
       <c r="B343" t="s">
-        <v>399</v>
+        <v>329</v>
       </c>
       <c r="C343" t="s">
-        <v>354</v>
+        <v>356</v>
       </c>
       <c r="D343" t="s">
-        <v>376</v>
+        <v>388</v>
       </c>
     </row>
     <row r="344" spans="1:4">
@@ -16274,10 +16271,10 @@
         <v>343</v>
       </c>
       <c r="B344" t="s">
-        <v>329</v>
+        <v>333</v>
       </c>
       <c r="C344" t="s">
-        <v>356</v>
+        <v>355</v>
       </c>
       <c r="D344" t="s">
         <v>388</v>
@@ -16288,13 +16285,13 @@
         <v>344</v>
       </c>
       <c r="B345" t="s">
-        <v>333</v>
+        <v>399</v>
       </c>
       <c r="C345" t="s">
-        <v>355</v>
+        <v>354</v>
       </c>
       <c r="D345" t="s">
-        <v>388</v>
+        <v>376</v>
       </c>
     </row>
     <row r="346" spans="1:4">
@@ -16302,13 +16299,13 @@
         <v>345</v>
       </c>
       <c r="B346" t="s">
-        <v>404</v>
+        <v>394</v>
       </c>
       <c r="C346" t="s">
-        <v>357</v>
+        <v>355</v>
       </c>
       <c r="D346" t="s">
-        <v>383</v>
+        <v>391</v>
       </c>
     </row>
     <row r="347" spans="1:4">
@@ -16316,13 +16313,13 @@
         <v>346</v>
       </c>
       <c r="B347" t="s">
-        <v>394</v>
+        <v>401</v>
       </c>
       <c r="C347" t="s">
-        <v>355</v>
+        <v>356</v>
       </c>
       <c r="D347" t="s">
-        <v>391</v>
+        <v>378</v>
       </c>
     </row>
     <row r="348" spans="1:4">
@@ -16330,13 +16327,13 @@
         <v>347</v>
       </c>
       <c r="B348" t="s">
-        <v>401</v>
+        <v>335</v>
       </c>
       <c r="C348" t="s">
-        <v>356</v>
+        <v>357</v>
       </c>
       <c r="D348" t="s">
-        <v>378</v>
+        <v>383</v>
       </c>
     </row>
     <row r="349" spans="1:4">
@@ -16372,7 +16369,7 @@
         <v>350</v>
       </c>
       <c r="B351" t="s">
-        <v>405</v>
+        <v>404</v>
       </c>
       <c r="C351" t="s">
         <v>354</v>

--- a/docs/FantasyProsFootballDraft.xlsx
+++ b/docs/FantasyProsFootballDraft.xlsx
@@ -440,12 +440,12 @@
     <t>Raheem Mostert</t>
   </si>
   <si>
+    <t>Jerick McKinnon</t>
+  </si>
+  <si>
     <t>Michael Gallup</t>
   </si>
   <si>
-    <t>Jerick McKinnon</t>
-  </si>
-  <si>
     <t>Greg Dulcich</t>
   </si>
   <si>
@@ -476,15 +476,15 @@
     <t>Chigoziem Okonkwo</t>
   </si>
   <si>
+    <t>Tyler Higbee</t>
+  </si>
+  <si>
+    <t>Zamir White</t>
+  </si>
+  <si>
     <t>Clyde Edwards-Helaire</t>
   </si>
   <si>
-    <t>Tyler Higbee</t>
-  </si>
-  <si>
-    <t>Zamir White</t>
-  </si>
-  <si>
     <t>Kenneth Gainwell</t>
   </si>
   <si>
@@ -545,15 +545,15 @@
     <t>Tyler Bass</t>
   </si>
   <si>
+    <t>Philadelphia Eagles</t>
+  </si>
+  <si>
+    <t>Trey McBride</t>
+  </si>
+  <si>
     <t>Chase Edmonds</t>
   </si>
   <si>
-    <t>Philadelphia Eagles</t>
-  </si>
-  <si>
-    <t>Trey McBride</t>
-  </si>
-  <si>
     <t>Gus Edwards</t>
   </si>
   <si>
@@ -572,15 +572,15 @@
     <t>Juwan Johnson</t>
   </si>
   <si>
+    <t>Michael Carter</t>
+  </si>
+  <si>
+    <t>Daniel Carlson</t>
+  </si>
+  <si>
     <t>Jaylen Warren</t>
   </si>
   <si>
-    <t>Michael Carter</t>
-  </si>
-  <si>
-    <t>Daniel Carlson</t>
-  </si>
-  <si>
     <t>Joshua Palmer</t>
   </si>
   <si>
@@ -596,18 +596,18 @@
     <t>Evan McPherson</t>
   </si>
   <si>
+    <t>Curtis Samuel</t>
+  </si>
+  <si>
+    <t>Alec Pierce</t>
+  </si>
+  <si>
+    <t>Baltimore Ravens</t>
+  </si>
+  <si>
     <t>Samaje Perine</t>
   </si>
   <si>
-    <t>Curtis Samuel</t>
-  </si>
-  <si>
-    <t>Alec Pierce</t>
-  </si>
-  <si>
-    <t>Baltimore Ravens</t>
-  </si>
-  <si>
     <t>Zay Flowers</t>
   </si>
   <si>
@@ -653,12 +653,12 @@
     <t>Russell Gage</t>
   </si>
   <si>
+    <t>Nick Folk</t>
+  </si>
+  <si>
     <t>Jordan Mason</t>
   </si>
   <si>
-    <t>Nick Folk</t>
-  </si>
-  <si>
     <t>Van Jefferson</t>
   </si>
   <si>
@@ -695,30 +695,30 @@
     <t>Zack Moss</t>
   </si>
   <si>
+    <t>Younghoe Koo</t>
+  </si>
+  <si>
     <t>Zonovan Knight</t>
   </si>
   <si>
-    <t>Younghoe Koo</t>
-  </si>
-  <si>
     <t>Tom Brady</t>
   </si>
   <si>
     <t>Robert Woods</t>
   </si>
   <si>
+    <t>Cincinnati Bengals</t>
+  </si>
+  <si>
+    <t>Robbie Gould</t>
+  </si>
+  <si>
+    <t>Brandon McManus</t>
+  </si>
+  <si>
     <t>Pierre Strong Jr.</t>
   </si>
   <si>
-    <t>Cincinnati Bengals</t>
-  </si>
-  <si>
-    <t>Robbie Gould</t>
-  </si>
-  <si>
-    <t>Brandon McManus</t>
-  </si>
-  <si>
     <t>Isaiah Likely</t>
   </si>
   <si>
@@ -728,15 +728,15 @@
     <t>Terrace Marshall Jr.</t>
   </si>
   <si>
+    <t>Josh Downs</t>
+  </si>
+  <si>
+    <t>Jason Sanders</t>
+  </si>
+  <si>
     <t>Isaiah Spiller</t>
   </si>
   <si>
-    <t>Josh Downs</t>
-  </si>
-  <si>
-    <t>Jason Sanders</t>
-  </si>
-  <si>
     <t>Miami Dolphins</t>
   </si>
   <si>
@@ -806,12 +806,12 @@
     <t>Tennessee Titans</t>
   </si>
   <si>
+    <t>Boston Scott</t>
+  </si>
+  <si>
     <t>Marvin Jones Jr.</t>
   </si>
   <si>
-    <t>Boston Scott</t>
-  </si>
-  <si>
     <t>Jelani Woods</t>
   </si>
   <si>
@@ -821,15 +821,15 @@
     <t>Robert Tonyan</t>
   </si>
   <si>
+    <t>Tim Patrick</t>
+  </si>
+  <si>
+    <t>David Bell</t>
+  </si>
+  <si>
     <t>KJ Hamler</t>
   </si>
   <si>
-    <t>Tim Patrick</t>
-  </si>
-  <si>
-    <t>David Bell</t>
-  </si>
-  <si>
     <t>Sean Tucker</t>
   </si>
   <si>
@@ -893,15 +893,15 @@
     <t>Zach Evans</t>
   </si>
   <si>
+    <t>Kyren Williams</t>
+  </si>
+  <si>
+    <t>D'Ernest Johnson</t>
+  </si>
+  <si>
     <t>Josh Reynolds</t>
   </si>
   <si>
-    <t>Kyren Williams</t>
-  </si>
-  <si>
-    <t>D'Ernest Johnson</t>
-  </si>
-  <si>
     <t>Jacksonville Jaguars</t>
   </si>
   <si>
@@ -947,18 +947,18 @@
     <t>Rodrigo Blankenship</t>
   </si>
   <si>
+    <t>New York Giants</t>
+  </si>
+  <si>
+    <t>Mason Crosby</t>
+  </si>
+  <si>
+    <t>Richie James Jr.</t>
+  </si>
+  <si>
     <t>Darrel Williams</t>
   </si>
   <si>
-    <t>New York Giants</t>
-  </si>
-  <si>
-    <t>Mason Crosby</t>
-  </si>
-  <si>
-    <t>Richie James Jr.</t>
-  </si>
-  <si>
     <t>Jonnu Smith</t>
   </si>
   <si>
@@ -971,12 +971,12 @@
     <t>Kenny Golladay</t>
   </si>
   <si>
+    <t>Ka'imi Fairbairn</t>
+  </si>
+  <si>
     <t>Hassan Haskins</t>
   </si>
   <si>
-    <t>Ka'imi Fairbairn</t>
-  </si>
-  <si>
     <t>Nick Westbrook-Ikhine</t>
   </si>
   <si>
@@ -1004,24 +1004,24 @@
     <t>Jordan Love</t>
   </si>
   <si>
+    <t>Roschon Johnson</t>
+  </si>
+  <si>
     <t>Matt Breida</t>
   </si>
   <si>
+    <t>Mark Ingram II</t>
+  </si>
+  <si>
     <t>Cedric Tillman</t>
   </si>
   <si>
-    <t>Mark Ingram II</t>
+    <t>Will Levis</t>
   </si>
   <si>
     <t>Dontrell Hilliard</t>
   </si>
   <si>
-    <t>Will Levis</t>
-  </si>
-  <si>
-    <t>Roschon Johnson</t>
-  </si>
-  <si>
     <t>Randy Bullock</t>
   </si>
   <si>
@@ -1043,42 +1043,42 @@
     <t>Dalton Kincaid</t>
   </si>
   <si>
+    <t>Luke Musgrave</t>
+  </si>
+  <si>
+    <t>Ronald Jones II</t>
+  </si>
+  <si>
+    <t>Rex Burkhead</t>
+  </si>
+  <si>
+    <t>Kenny McIntosh</t>
+  </si>
+  <si>
+    <t>Marvin Mims</t>
+  </si>
+  <si>
+    <t>Jamison Crowder</t>
+  </si>
+  <si>
+    <t>DeWayne McBride</t>
+  </si>
+  <si>
     <t>A.J. Green</t>
   </si>
   <si>
-    <t>Luke Musgrave</t>
-  </si>
-  <si>
-    <t>Ronald Jones II</t>
-  </si>
-  <si>
-    <t>Rex Burkhead</t>
-  </si>
-  <si>
-    <t>Marvin Mims</t>
-  </si>
-  <si>
-    <t>Kenny McIntosh</t>
-  </si>
-  <si>
-    <t>Jamison Crowder</t>
-  </si>
-  <si>
-    <t>DeWayne McBride</t>
-  </si>
-  <si>
     <t>Brevin Jordan</t>
   </si>
   <si>
     <t>Khalil Shakir</t>
   </si>
   <si>
+    <t>Darnell Washington</t>
+  </si>
+  <si>
     <t>Ty Johnson</t>
   </si>
   <si>
-    <t>Darnell Washington</t>
-  </si>
-  <si>
     <t>Andy Dalton</t>
   </si>
   <si>
@@ -1205,19 +1205,19 @@
     <t>Greg Dortch</t>
   </si>
   <si>
+    <t>Nelson Agholor</t>
+  </si>
+  <si>
     <t>Noah Brown</t>
   </si>
   <si>
-    <t>Nelson Agholor</t>
-  </si>
-  <si>
     <t>Jalen Tolbert</t>
   </si>
   <si>
+    <t>Riley Patterson</t>
+  </si>
+  <si>
     <t>Deuce Vaughn</t>
-  </si>
-  <si>
-    <t>Riley Patterson</t>
   </si>
   <si>
     <t>Ameer Abdullah</t>
@@ -3508,10 +3508,10 @@
         <v>139</v>
       </c>
       <c r="C137" t="s">
-        <v>355</v>
+        <v>354</v>
       </c>
       <c r="D137" t="s">
-        <v>377</v>
+        <v>368</v>
       </c>
     </row>
     <row r="138" spans="1:4">
@@ -3522,10 +3522,10 @@
         <v>140</v>
       </c>
       <c r="C138" t="s">
-        <v>354</v>
+        <v>355</v>
       </c>
       <c r="D138" t="s">
-        <v>368</v>
+        <v>377</v>
       </c>
     </row>
     <row r="139" spans="1:4">
@@ -3676,10 +3676,10 @@
         <v>151</v>
       </c>
       <c r="C149" t="s">
-        <v>354</v>
+        <v>356</v>
       </c>
       <c r="D149" t="s">
-        <v>368</v>
+        <v>372</v>
       </c>
     </row>
     <row r="150" spans="1:4">
@@ -3690,10 +3690,10 @@
         <v>152</v>
       </c>
       <c r="C150" t="s">
-        <v>356</v>
+        <v>354</v>
       </c>
       <c r="D150" t="s">
-        <v>372</v>
+        <v>369</v>
       </c>
     </row>
     <row r="151" spans="1:4">
@@ -3707,7 +3707,7 @@
         <v>354</v>
       </c>
       <c r="D151" t="s">
-        <v>369</v>
+        <v>368</v>
       </c>
     </row>
     <row r="152" spans="1:4">
@@ -3998,10 +3998,10 @@
         <v>174</v>
       </c>
       <c r="C172" t="s">
-        <v>354</v>
+        <v>358</v>
       </c>
       <c r="D172" t="s">
-        <v>389</v>
+        <v>376</v>
       </c>
     </row>
     <row r="173" spans="1:4">
@@ -4012,10 +4012,10 @@
         <v>175</v>
       </c>
       <c r="C173" t="s">
-        <v>358</v>
+        <v>356</v>
       </c>
       <c r="D173" t="s">
-        <v>376</v>
+        <v>390</v>
       </c>
     </row>
     <row r="174" spans="1:4">
@@ -4026,10 +4026,10 @@
         <v>176</v>
       </c>
       <c r="C174" t="s">
-        <v>356</v>
+        <v>354</v>
       </c>
       <c r="D174" t="s">
-        <v>390</v>
+        <v>389</v>
       </c>
     </row>
     <row r="175" spans="1:4">
@@ -4127,7 +4127,7 @@
         <v>354</v>
       </c>
       <c r="D181" t="s">
-        <v>373</v>
+        <v>378</v>
       </c>
     </row>
     <row r="182" spans="1:4">
@@ -4138,10 +4138,10 @@
         <v>184</v>
       </c>
       <c r="C182" t="s">
-        <v>354</v>
+        <v>359</v>
       </c>
       <c r="D182" t="s">
-        <v>378</v>
+        <v>369</v>
       </c>
     </row>
     <row r="183" spans="1:4">
@@ -4152,10 +4152,10 @@
         <v>185</v>
       </c>
       <c r="C183" t="s">
-        <v>359</v>
+        <v>354</v>
       </c>
       <c r="D183" t="s">
-        <v>369</v>
+        <v>373</v>
       </c>
     </row>
     <row r="184" spans="1:4">
@@ -4236,10 +4236,10 @@
         <v>191</v>
       </c>
       <c r="C189" t="s">
-        <v>354</v>
+        <v>355</v>
       </c>
       <c r="D189" t="s">
-        <v>370</v>
+        <v>387</v>
       </c>
     </row>
     <row r="190" spans="1:4">
@@ -4253,7 +4253,7 @@
         <v>355</v>
       </c>
       <c r="D190" t="s">
-        <v>387</v>
+        <v>361</v>
       </c>
     </row>
     <row r="191" spans="1:4">
@@ -4264,10 +4264,10 @@
         <v>193</v>
       </c>
       <c r="C191" t="s">
-        <v>355</v>
+        <v>358</v>
       </c>
       <c r="D191" t="s">
-        <v>361</v>
+        <v>379</v>
       </c>
     </row>
     <row r="192" spans="1:4">
@@ -4278,10 +4278,10 @@
         <v>194</v>
       </c>
       <c r="C192" t="s">
-        <v>358</v>
+        <v>354</v>
       </c>
       <c r="D192" t="s">
-        <v>379</v>
+        <v>370</v>
       </c>
     </row>
     <row r="193" spans="1:4">
@@ -4502,10 +4502,10 @@
         <v>210</v>
       </c>
       <c r="C208" t="s">
-        <v>354</v>
+        <v>359</v>
       </c>
       <c r="D208" t="s">
-        <v>360</v>
+        <v>381</v>
       </c>
     </row>
     <row r="209" spans="1:4">
@@ -4516,10 +4516,10 @@
         <v>211</v>
       </c>
       <c r="C209" t="s">
-        <v>359</v>
+        <v>354</v>
       </c>
       <c r="D209" t="s">
-        <v>381</v>
+        <v>360</v>
       </c>
     </row>
     <row r="210" spans="1:4">
@@ -4698,10 +4698,10 @@
         <v>224</v>
       </c>
       <c r="C222" t="s">
-        <v>354</v>
+        <v>359</v>
       </c>
       <c r="D222" t="s">
-        <v>378</v>
+        <v>385</v>
       </c>
     </row>
     <row r="223" spans="1:4">
@@ -4712,10 +4712,10 @@
         <v>225</v>
       </c>
       <c r="C223" t="s">
-        <v>359</v>
+        <v>354</v>
       </c>
       <c r="D223" t="s">
-        <v>385</v>
+        <v>378</v>
       </c>
     </row>
     <row r="224" spans="1:4">
@@ -4754,10 +4754,10 @@
         <v>228</v>
       </c>
       <c r="C226" t="s">
-        <v>354</v>
+        <v>358</v>
       </c>
       <c r="D226" t="s">
-        <v>381</v>
+        <v>370</v>
       </c>
     </row>
     <row r="227" spans="1:4">
@@ -4768,10 +4768,10 @@
         <v>229</v>
       </c>
       <c r="C227" t="s">
-        <v>358</v>
+        <v>359</v>
       </c>
       <c r="D227" t="s">
-        <v>370</v>
+        <v>360</v>
       </c>
     </row>
     <row r="228" spans="1:4">
@@ -4785,7 +4785,7 @@
         <v>359</v>
       </c>
       <c r="D228" t="s">
-        <v>360</v>
+        <v>389</v>
       </c>
     </row>
     <row r="229" spans="1:4">
@@ -4796,10 +4796,10 @@
         <v>231</v>
       </c>
       <c r="C229" t="s">
-        <v>359</v>
+        <v>354</v>
       </c>
       <c r="D229" t="s">
-        <v>389</v>
+        <v>381</v>
       </c>
     </row>
     <row r="230" spans="1:4">
@@ -4852,10 +4852,10 @@
         <v>235</v>
       </c>
       <c r="C233" t="s">
-        <v>354</v>
+        <v>355</v>
       </c>
       <c r="D233" t="s">
-        <v>362</v>
+        <v>392</v>
       </c>
     </row>
     <row r="234" spans="1:4">
@@ -4866,10 +4866,10 @@
         <v>236</v>
       </c>
       <c r="C234" t="s">
-        <v>355</v>
+        <v>359</v>
       </c>
       <c r="D234" t="s">
-        <v>392</v>
+        <v>375</v>
       </c>
     </row>
     <row r="235" spans="1:4">
@@ -4880,10 +4880,10 @@
         <v>237</v>
       </c>
       <c r="C235" t="s">
-        <v>359</v>
+        <v>354</v>
       </c>
       <c r="D235" t="s">
-        <v>375</v>
+        <v>362</v>
       </c>
     </row>
     <row r="236" spans="1:4">
@@ -5216,10 +5216,10 @@
         <v>261</v>
       </c>
       <c r="C259" t="s">
-        <v>355</v>
+        <v>354</v>
       </c>
       <c r="D259" t="s">
-        <v>371</v>
+        <v>376</v>
       </c>
     </row>
     <row r="260" spans="1:4">
@@ -5230,10 +5230,10 @@
         <v>262</v>
       </c>
       <c r="C260" t="s">
-        <v>354</v>
+        <v>355</v>
       </c>
       <c r="D260" t="s">
-        <v>376</v>
+        <v>371</v>
       </c>
     </row>
     <row r="261" spans="1:4">
@@ -5303,7 +5303,7 @@
         <v>355</v>
       </c>
       <c r="D265" t="s">
-        <v>389</v>
+        <v>366</v>
       </c>
     </row>
     <row r="266" spans="1:4">
@@ -5317,7 +5317,7 @@
         <v>355</v>
       </c>
       <c r="D266" t="s">
-        <v>366</v>
+        <v>389</v>
       </c>
     </row>
     <row r="267" spans="1:4">
@@ -5622,10 +5622,10 @@
         <v>290</v>
       </c>
       <c r="C288" t="s">
-        <v>355</v>
+        <v>354</v>
       </c>
       <c r="D288" t="s">
-        <v>380</v>
+        <v>372</v>
       </c>
     </row>
     <row r="289" spans="1:4">
@@ -5639,7 +5639,7 @@
         <v>354</v>
       </c>
       <c r="D289" t="s">
-        <v>372</v>
+        <v>366</v>
       </c>
     </row>
     <row r="290" spans="1:4">
@@ -5650,10 +5650,10 @@
         <v>292</v>
       </c>
       <c r="C290" t="s">
-        <v>354</v>
+        <v>355</v>
       </c>
       <c r="D290" t="s">
-        <v>366</v>
+        <v>380</v>
       </c>
     </row>
     <row r="291" spans="1:4">
@@ -5874,10 +5874,10 @@
         <v>308</v>
       </c>
       <c r="C306" t="s">
-        <v>354</v>
+        <v>358</v>
       </c>
       <c r="D306" t="s">
-        <v>390</v>
+        <v>363</v>
       </c>
     </row>
     <row r="307" spans="1:4">
@@ -5888,10 +5888,10 @@
         <v>309</v>
       </c>
       <c r="C307" t="s">
-        <v>358</v>
+        <v>359</v>
       </c>
       <c r="D307" t="s">
-        <v>363</v>
+        <v>382</v>
       </c>
     </row>
     <row r="308" spans="1:4">
@@ -5902,10 +5902,10 @@
         <v>310</v>
       </c>
       <c r="C308" t="s">
-        <v>359</v>
+        <v>355</v>
       </c>
       <c r="D308" t="s">
-        <v>382</v>
+        <v>363</v>
       </c>
     </row>
     <row r="309" spans="1:4">
@@ -5916,10 +5916,10 @@
         <v>311</v>
       </c>
       <c r="C309" t="s">
-        <v>355</v>
+        <v>354</v>
       </c>
       <c r="D309" t="s">
-        <v>363</v>
+        <v>390</v>
       </c>
     </row>
     <row r="310" spans="1:4">
@@ -5986,10 +5986,10 @@
         <v>316</v>
       </c>
       <c r="C314" t="s">
-        <v>354</v>
+        <v>359</v>
       </c>
       <c r="D314" t="s">
-        <v>364</v>
+        <v>384</v>
       </c>
     </row>
     <row r="315" spans="1:4">
@@ -6000,10 +6000,10 @@
         <v>317</v>
       </c>
       <c r="C315" t="s">
-        <v>359</v>
+        <v>354</v>
       </c>
       <c r="D315" t="s">
-        <v>384</v>
+        <v>364</v>
       </c>
     </row>
     <row r="316" spans="1:4">
@@ -6143,7 +6143,7 @@
         <v>354</v>
       </c>
       <c r="D325" t="s">
-        <v>363</v>
+        <v>392</v>
       </c>
     </row>
     <row r="326" spans="1:4">
@@ -6154,10 +6154,10 @@
         <v>328</v>
       </c>
       <c r="C326" t="s">
-        <v>355</v>
+        <v>354</v>
       </c>
       <c r="D326" t="s">
-        <v>392</v>
+        <v>363</v>
       </c>
     </row>
     <row r="327" spans="1:4">
@@ -6182,10 +6182,10 @@
         <v>330</v>
       </c>
       <c r="C328" t="s">
-        <v>354</v>
+        <v>355</v>
       </c>
       <c r="D328" t="s">
-        <v>364</v>
+        <v>392</v>
       </c>
     </row>
     <row r="329" spans="1:4">
@@ -6213,7 +6213,7 @@
         <v>354</v>
       </c>
       <c r="D330" t="s">
-        <v>392</v>
+        <v>364</v>
       </c>
     </row>
     <row r="331" spans="1:4">
@@ -6322,7 +6322,7 @@
         <v>340</v>
       </c>
       <c r="C338" t="s">
-        <v>355</v>
+        <v>356</v>
       </c>
       <c r="D338" t="s">
         <v>392</v>
@@ -6336,10 +6336,10 @@
         <v>341</v>
       </c>
       <c r="C339" t="s">
-        <v>356</v>
+        <v>354</v>
       </c>
       <c r="D339" t="s">
-        <v>392</v>
+        <v>368</v>
       </c>
     </row>
     <row r="340" spans="1:4">
@@ -6353,7 +6353,7 @@
         <v>354</v>
       </c>
       <c r="D340" t="s">
-        <v>368</v>
+        <v>384</v>
       </c>
     </row>
     <row r="341" spans="1:4">
@@ -6367,7 +6367,7 @@
         <v>354</v>
       </c>
       <c r="D341" t="s">
-        <v>384</v>
+        <v>392</v>
       </c>
     </row>
     <row r="342" spans="1:4">
@@ -6392,10 +6392,10 @@
         <v>345</v>
       </c>
       <c r="C343" t="s">
-        <v>354</v>
+        <v>355</v>
       </c>
       <c r="D343" t="s">
-        <v>392</v>
+        <v>374</v>
       </c>
     </row>
     <row r="344" spans="1:4">
@@ -6406,10 +6406,10 @@
         <v>346</v>
       </c>
       <c r="C344" t="s">
-        <v>355</v>
+        <v>354</v>
       </c>
       <c r="D344" t="s">
-        <v>374</v>
+        <v>392</v>
       </c>
     </row>
     <row r="345" spans="1:4">
@@ -6420,7 +6420,7 @@
         <v>347</v>
       </c>
       <c r="C345" t="s">
-        <v>354</v>
+        <v>355</v>
       </c>
       <c r="D345" t="s">
         <v>392</v>
@@ -6462,10 +6462,10 @@
         <v>350</v>
       </c>
       <c r="C348" t="s">
-        <v>354</v>
+        <v>356</v>
       </c>
       <c r="D348" t="s">
-        <v>378</v>
+        <v>392</v>
       </c>
     </row>
     <row r="349" spans="1:4">
@@ -6476,10 +6476,10 @@
         <v>351</v>
       </c>
       <c r="C349" t="s">
-        <v>356</v>
+        <v>354</v>
       </c>
       <c r="D349" t="s">
-        <v>392</v>
+        <v>378</v>
       </c>
     </row>
     <row r="350" spans="1:4">
@@ -8170,7 +8170,7 @@
         <v>117</v>
       </c>
       <c r="B118" t="s">
-        <v>140</v>
+        <v>139</v>
       </c>
       <c r="C118" t="s">
         <v>354</v>
@@ -8366,7 +8366,7 @@
         <v>131</v>
       </c>
       <c r="B132" t="s">
-        <v>139</v>
+        <v>140</v>
       </c>
       <c r="C132" t="s">
         <v>355</v>
@@ -8492,7 +8492,7 @@
         <v>140</v>
       </c>
       <c r="B141" t="s">
-        <v>152</v>
+        <v>151</v>
       </c>
       <c r="C141" t="s">
         <v>356</v>
@@ -8548,7 +8548,7 @@
         <v>144</v>
       </c>
       <c r="B145" t="s">
-        <v>151</v>
+        <v>153</v>
       </c>
       <c r="C145" t="s">
         <v>354</v>
@@ -8590,7 +8590,7 @@
         <v>147</v>
       </c>
       <c r="B148" t="s">
-        <v>153</v>
+        <v>152</v>
       </c>
       <c r="C148" t="s">
         <v>354</v>
@@ -8674,7 +8674,7 @@
         <v>153</v>
       </c>
       <c r="B154" t="s">
-        <v>184</v>
+        <v>183</v>
       </c>
       <c r="C154" t="s">
         <v>354</v>
@@ -8730,7 +8730,7 @@
         <v>157</v>
       </c>
       <c r="B158" t="s">
-        <v>176</v>
+        <v>175</v>
       </c>
       <c r="C158" t="s">
         <v>356</v>
@@ -8758,13 +8758,13 @@
         <v>159</v>
       </c>
       <c r="B160" t="s">
-        <v>174</v>
+        <v>136</v>
       </c>
       <c r="C160" t="s">
-        <v>354</v>
+        <v>358</v>
       </c>
       <c r="D160" t="s">
-        <v>389</v>
+        <v>374</v>
       </c>
     </row>
     <row r="161" spans="1:4">
@@ -8772,13 +8772,13 @@
         <v>160</v>
       </c>
       <c r="B161" t="s">
-        <v>136</v>
+        <v>176</v>
       </c>
       <c r="C161" t="s">
-        <v>358</v>
+        <v>354</v>
       </c>
       <c r="D161" t="s">
-        <v>374</v>
+        <v>389</v>
       </c>
     </row>
     <row r="162" spans="1:4">
@@ -8800,7 +8800,7 @@
         <v>162</v>
       </c>
       <c r="B163" t="s">
-        <v>183</v>
+        <v>185</v>
       </c>
       <c r="C163" t="s">
         <v>354</v>
@@ -8870,7 +8870,7 @@
         <v>167</v>
       </c>
       <c r="B168" t="s">
-        <v>192</v>
+        <v>191</v>
       </c>
       <c r="C168" t="s">
         <v>355</v>
@@ -8954,7 +8954,7 @@
         <v>173</v>
       </c>
       <c r="B174" t="s">
-        <v>193</v>
+        <v>192</v>
       </c>
       <c r="C174" t="s">
         <v>355</v>
@@ -8968,7 +8968,7 @@
         <v>174</v>
       </c>
       <c r="B175" t="s">
-        <v>191</v>
+        <v>194</v>
       </c>
       <c r="C175" t="s">
         <v>354</v>
@@ -9052,7 +9052,7 @@
         <v>180</v>
       </c>
       <c r="B181" t="s">
-        <v>175</v>
+        <v>174</v>
       </c>
       <c r="C181" t="s">
         <v>358</v>
@@ -9220,7 +9220,7 @@
         <v>192</v>
       </c>
       <c r="B193" t="s">
-        <v>194</v>
+        <v>193</v>
       </c>
       <c r="C193" t="s">
         <v>358</v>
@@ -9276,7 +9276,7 @@
         <v>196</v>
       </c>
       <c r="B197" t="s">
-        <v>185</v>
+        <v>184</v>
       </c>
       <c r="C197" t="s">
         <v>359</v>
@@ -9318,7 +9318,7 @@
         <v>199</v>
       </c>
       <c r="B200" t="s">
-        <v>235</v>
+        <v>237</v>
       </c>
       <c r="C200" t="s">
         <v>354</v>
@@ -9556,13 +9556,13 @@
         <v>216</v>
       </c>
       <c r="B217" t="s">
-        <v>292</v>
+        <v>202</v>
       </c>
       <c r="C217" t="s">
-        <v>354</v>
+        <v>358</v>
       </c>
       <c r="D217" t="s">
-        <v>366</v>
+        <v>362</v>
       </c>
     </row>
     <row r="218" spans="1:4">
@@ -9570,7 +9570,7 @@
         <v>217</v>
       </c>
       <c r="B218" t="s">
-        <v>228</v>
+        <v>231</v>
       </c>
       <c r="C218" t="s">
         <v>354</v>
@@ -9584,13 +9584,13 @@
         <v>218</v>
       </c>
       <c r="B219" t="s">
-        <v>202</v>
+        <v>291</v>
       </c>
       <c r="C219" t="s">
-        <v>358</v>
+        <v>354</v>
       </c>
       <c r="D219" t="s">
-        <v>362</v>
+        <v>366</v>
       </c>
     </row>
     <row r="220" spans="1:4">
@@ -9598,7 +9598,7 @@
         <v>219</v>
       </c>
       <c r="B220" t="s">
-        <v>268</v>
+        <v>267</v>
       </c>
       <c r="C220" t="s">
         <v>355</v>
@@ -9612,7 +9612,7 @@
         <v>220</v>
       </c>
       <c r="B221" t="s">
-        <v>224</v>
+        <v>225</v>
       </c>
       <c r="C221" t="s">
         <v>354</v>
@@ -9682,7 +9682,7 @@
         <v>225</v>
       </c>
       <c r="B226" t="s">
-        <v>210</v>
+        <v>211</v>
       </c>
       <c r="C226" t="s">
         <v>354</v>
@@ -9738,7 +9738,7 @@
         <v>229</v>
       </c>
       <c r="B230" t="s">
-        <v>211</v>
+        <v>210</v>
       </c>
       <c r="C230" t="s">
         <v>359</v>
@@ -9780,7 +9780,7 @@
         <v>232</v>
       </c>
       <c r="B233" t="s">
-        <v>225</v>
+        <v>224</v>
       </c>
       <c r="C233" t="s">
         <v>359</v>
@@ -9836,7 +9836,7 @@
         <v>236</v>
       </c>
       <c r="B237" t="s">
-        <v>229</v>
+        <v>228</v>
       </c>
       <c r="C237" t="s">
         <v>358</v>
@@ -9864,7 +9864,7 @@
         <v>238</v>
       </c>
       <c r="B239" t="s">
-        <v>261</v>
+        <v>262</v>
       </c>
       <c r="C239" t="s">
         <v>355</v>
@@ -9948,7 +9948,7 @@
         <v>244</v>
       </c>
       <c r="B245" t="s">
-        <v>230</v>
+        <v>229</v>
       </c>
       <c r="C245" t="s">
         <v>359</v>
@@ -9962,7 +9962,7 @@
         <v>245</v>
       </c>
       <c r="B246" t="s">
-        <v>237</v>
+        <v>236</v>
       </c>
       <c r="C246" t="s">
         <v>359</v>
@@ -9976,7 +9976,7 @@
         <v>246</v>
       </c>
       <c r="B247" t="s">
-        <v>231</v>
+        <v>230</v>
       </c>
       <c r="C247" t="s">
         <v>359</v>
@@ -10004,7 +10004,7 @@
         <v>248</v>
       </c>
       <c r="B249" t="s">
-        <v>266</v>
+        <v>268</v>
       </c>
       <c r="C249" t="s">
         <v>355</v>
@@ -10018,7 +10018,7 @@
         <v>249</v>
       </c>
       <c r="B250" t="s">
-        <v>236</v>
+        <v>235</v>
       </c>
       <c r="C250" t="s">
         <v>355</v>
@@ -10060,10 +10060,10 @@
         <v>252</v>
       </c>
       <c r="B253" t="s">
-        <v>301</v>
+        <v>250</v>
       </c>
       <c r="C253" t="s">
-        <v>354</v>
+        <v>358</v>
       </c>
       <c r="D253" t="s">
         <v>387</v>
@@ -10074,10 +10074,10 @@
         <v>253</v>
       </c>
       <c r="B254" t="s">
-        <v>250</v>
+        <v>301</v>
       </c>
       <c r="C254" t="s">
-        <v>358</v>
+        <v>354</v>
       </c>
       <c r="D254" t="s">
         <v>387</v>
@@ -10088,7 +10088,7 @@
         <v>254</v>
       </c>
       <c r="B255" t="s">
-        <v>290</v>
+        <v>292</v>
       </c>
       <c r="C255" t="s">
         <v>355</v>
@@ -10186,13 +10186,13 @@
         <v>261</v>
       </c>
       <c r="B262" t="s">
-        <v>259</v>
+        <v>263</v>
       </c>
       <c r="C262" t="s">
-        <v>354</v>
+        <v>356</v>
       </c>
       <c r="D262" t="s">
-        <v>379</v>
+        <v>361</v>
       </c>
     </row>
     <row r="263" spans="1:4">
@@ -10200,13 +10200,13 @@
         <v>262</v>
       </c>
       <c r="B263" t="s">
-        <v>263</v>
+        <v>255</v>
       </c>
       <c r="C263" t="s">
-        <v>356</v>
+        <v>357</v>
       </c>
       <c r="D263" t="s">
-        <v>361</v>
+        <v>392</v>
       </c>
     </row>
     <row r="264" spans="1:4">
@@ -10214,13 +10214,13 @@
         <v>263</v>
       </c>
       <c r="B264" t="s">
-        <v>255</v>
+        <v>259</v>
       </c>
       <c r="C264" t="s">
-        <v>357</v>
+        <v>354</v>
       </c>
       <c r="D264" t="s">
-        <v>392</v>
+        <v>379</v>
       </c>
     </row>
     <row r="265" spans="1:4">
@@ -10242,13 +10242,13 @@
         <v>265</v>
       </c>
       <c r="B266" t="s">
-        <v>291</v>
+        <v>300</v>
       </c>
       <c r="C266" t="s">
-        <v>354</v>
+        <v>355</v>
       </c>
       <c r="D266" t="s">
-        <v>372</v>
+        <v>390</v>
       </c>
     </row>
     <row r="267" spans="1:4">
@@ -10256,13 +10256,13 @@
         <v>266</v>
       </c>
       <c r="B267" t="s">
-        <v>300</v>
+        <v>290</v>
       </c>
       <c r="C267" t="s">
-        <v>355</v>
+        <v>354</v>
       </c>
       <c r="D267" t="s">
-        <v>390</v>
+        <v>372</v>
       </c>
     </row>
     <row r="268" spans="1:4">
@@ -10284,13 +10284,13 @@
         <v>268</v>
       </c>
       <c r="B269" t="s">
-        <v>278</v>
+        <v>306</v>
       </c>
       <c r="C269" t="s">
-        <v>354</v>
+        <v>355</v>
       </c>
       <c r="D269" t="s">
-        <v>371</v>
+        <v>376</v>
       </c>
     </row>
     <row r="270" spans="1:4">
@@ -10298,13 +10298,13 @@
         <v>269</v>
       </c>
       <c r="B270" t="s">
-        <v>306</v>
+        <v>278</v>
       </c>
       <c r="C270" t="s">
-        <v>355</v>
+        <v>354</v>
       </c>
       <c r="D270" t="s">
-        <v>376</v>
+        <v>371</v>
       </c>
     </row>
     <row r="271" spans="1:4">
@@ -10382,13 +10382,13 @@
         <v>275</v>
       </c>
       <c r="B276" t="s">
-        <v>262</v>
+        <v>272</v>
       </c>
       <c r="C276" t="s">
         <v>354</v>
       </c>
       <c r="D276" t="s">
-        <v>376</v>
+        <v>392</v>
       </c>
     </row>
     <row r="277" spans="1:4">
@@ -10396,13 +10396,13 @@
         <v>276</v>
       </c>
       <c r="B277" t="s">
-        <v>272</v>
+        <v>312</v>
       </c>
       <c r="C277" t="s">
-        <v>354</v>
+        <v>356</v>
       </c>
       <c r="D277" t="s">
-        <v>392</v>
+        <v>381</v>
       </c>
     </row>
     <row r="278" spans="1:4">
@@ -10410,13 +10410,13 @@
         <v>277</v>
       </c>
       <c r="B278" t="s">
-        <v>312</v>
+        <v>261</v>
       </c>
       <c r="C278" t="s">
-        <v>356</v>
+        <v>354</v>
       </c>
       <c r="D278" t="s">
-        <v>381</v>
+        <v>376</v>
       </c>
     </row>
     <row r="279" spans="1:4">
@@ -10438,13 +10438,13 @@
         <v>279</v>
       </c>
       <c r="B280" t="s">
-        <v>279</v>
+        <v>273</v>
       </c>
       <c r="C280" t="s">
-        <v>354</v>
+        <v>358</v>
       </c>
       <c r="D280" t="s">
-        <v>392</v>
+        <v>383</v>
       </c>
     </row>
     <row r="281" spans="1:4">
@@ -10452,13 +10452,13 @@
         <v>280</v>
       </c>
       <c r="B281" t="s">
-        <v>273</v>
+        <v>279</v>
       </c>
       <c r="C281" t="s">
-        <v>358</v>
+        <v>354</v>
       </c>
       <c r="D281" t="s">
-        <v>383</v>
+        <v>392</v>
       </c>
     </row>
     <row r="282" spans="1:4">
@@ -10466,7 +10466,7 @@
         <v>281</v>
       </c>
       <c r="B282" t="s">
-        <v>316</v>
+        <v>317</v>
       </c>
       <c r="C282" t="s">
         <v>354</v>
@@ -10494,7 +10494,7 @@
         <v>283</v>
       </c>
       <c r="B284" t="s">
-        <v>311</v>
+        <v>310</v>
       </c>
       <c r="C284" t="s">
         <v>355</v>
@@ -10522,7 +10522,7 @@
         <v>285</v>
       </c>
       <c r="B286" t="s">
-        <v>267</v>
+        <v>266</v>
       </c>
       <c r="C286" t="s">
         <v>355</v>
@@ -10648,10 +10648,10 @@
         <v>294</v>
       </c>
       <c r="B295" t="s">
-        <v>295</v>
+        <v>251</v>
       </c>
       <c r="C295" t="s">
-        <v>354</v>
+        <v>356</v>
       </c>
       <c r="D295" t="s">
         <v>392</v>
@@ -10662,13 +10662,13 @@
         <v>295</v>
       </c>
       <c r="B296" t="s">
-        <v>251</v>
+        <v>281</v>
       </c>
       <c r="C296" t="s">
-        <v>356</v>
+        <v>359</v>
       </c>
       <c r="D296" t="s">
-        <v>392</v>
+        <v>378</v>
       </c>
     </row>
     <row r="297" spans="1:4">
@@ -10676,13 +10676,13 @@
         <v>296</v>
       </c>
       <c r="B297" t="s">
-        <v>281</v>
+        <v>295</v>
       </c>
       <c r="C297" t="s">
-        <v>359</v>
+        <v>354</v>
       </c>
       <c r="D297" t="s">
-        <v>378</v>
+        <v>392</v>
       </c>
     </row>
     <row r="298" spans="1:4">
@@ -10844,7 +10844,7 @@
         <v>308</v>
       </c>
       <c r="B309" t="s">
-        <v>308</v>
+        <v>311</v>
       </c>
       <c r="C309" t="s">
         <v>354</v>
@@ -10886,7 +10886,7 @@
         <v>311</v>
       </c>
       <c r="B312" t="s">
-        <v>309</v>
+        <v>308</v>
       </c>
       <c r="C312" t="s">
         <v>358</v>
@@ -10900,7 +10900,7 @@
         <v>312</v>
       </c>
       <c r="B313" t="s">
-        <v>327</v>
+        <v>328</v>
       </c>
       <c r="C313" t="s">
         <v>354</v>
@@ -10928,7 +10928,7 @@
         <v>314</v>
       </c>
       <c r="B315" t="s">
-        <v>310</v>
+        <v>309</v>
       </c>
       <c r="C315" t="s">
         <v>359</v>
@@ -11012,10 +11012,10 @@
         <v>320</v>
       </c>
       <c r="B321" t="s">
-        <v>323</v>
+        <v>327</v>
       </c>
       <c r="C321" t="s">
-        <v>355</v>
+        <v>354</v>
       </c>
       <c r="D321" t="s">
         <v>392</v>
@@ -11026,13 +11026,13 @@
         <v>321</v>
       </c>
       <c r="B322" t="s">
-        <v>330</v>
+        <v>323</v>
       </c>
       <c r="C322" t="s">
-        <v>354</v>
+        <v>355</v>
       </c>
       <c r="D322" t="s">
-        <v>364</v>
+        <v>392</v>
       </c>
     </row>
     <row r="323" spans="1:4">
@@ -11040,7 +11040,7 @@
         <v>322</v>
       </c>
       <c r="B323" t="s">
-        <v>343</v>
+        <v>342</v>
       </c>
       <c r="C323" t="s">
         <v>354</v>
@@ -11054,13 +11054,13 @@
         <v>323</v>
       </c>
       <c r="B324" t="s">
-        <v>324</v>
+        <v>332</v>
       </c>
       <c r="C324" t="s">
         <v>354</v>
       </c>
       <c r="D324" t="s">
-        <v>375</v>
+        <v>364</v>
       </c>
     </row>
     <row r="325" spans="1:4">
@@ -11068,13 +11068,13 @@
         <v>324</v>
       </c>
       <c r="B325" t="s">
-        <v>340</v>
+        <v>324</v>
       </c>
       <c r="C325" t="s">
-        <v>355</v>
+        <v>354</v>
       </c>
       <c r="D325" t="s">
-        <v>392</v>
+        <v>375</v>
       </c>
     </row>
     <row r="326" spans="1:4">
@@ -11082,7 +11082,7 @@
         <v>325</v>
       </c>
       <c r="B326" t="s">
-        <v>317</v>
+        <v>316</v>
       </c>
       <c r="C326" t="s">
         <v>359</v>
@@ -11124,13 +11124,13 @@
         <v>328</v>
       </c>
       <c r="B329" t="s">
-        <v>332</v>
+        <v>345</v>
       </c>
       <c r="C329" t="s">
-        <v>354</v>
+        <v>355</v>
       </c>
       <c r="D329" t="s">
-        <v>392</v>
+        <v>374</v>
       </c>
     </row>
     <row r="330" spans="1:4">
@@ -11138,7 +11138,7 @@
         <v>329</v>
       </c>
       <c r="B330" t="s">
-        <v>328</v>
+        <v>330</v>
       </c>
       <c r="C330" t="s">
         <v>355</v>
@@ -11152,13 +11152,13 @@
         <v>330</v>
       </c>
       <c r="B331" t="s">
-        <v>346</v>
+        <v>322</v>
       </c>
       <c r="C331" t="s">
-        <v>355</v>
+        <v>357</v>
       </c>
       <c r="D331" t="s">
-        <v>374</v>
+        <v>361</v>
       </c>
     </row>
     <row r="332" spans="1:4">
@@ -11166,13 +11166,13 @@
         <v>331</v>
       </c>
       <c r="B332" t="s">
-        <v>322</v>
+        <v>305</v>
       </c>
       <c r="C332" t="s">
         <v>357</v>
       </c>
       <c r="D332" t="s">
-        <v>361</v>
+        <v>372</v>
       </c>
     </row>
     <row r="333" spans="1:4">
@@ -11180,13 +11180,13 @@
         <v>332</v>
       </c>
       <c r="B333" t="s">
-        <v>305</v>
+        <v>325</v>
       </c>
       <c r="C333" t="s">
-        <v>357</v>
+        <v>359</v>
       </c>
       <c r="D333" t="s">
-        <v>372</v>
+        <v>391</v>
       </c>
     </row>
     <row r="334" spans="1:4">
@@ -11194,13 +11194,13 @@
         <v>333</v>
       </c>
       <c r="B334" t="s">
-        <v>325</v>
+        <v>349</v>
       </c>
       <c r="C334" t="s">
-        <v>359</v>
+        <v>355</v>
       </c>
       <c r="D334" t="s">
-        <v>391</v>
+        <v>374</v>
       </c>
     </row>
     <row r="335" spans="1:4">
@@ -11208,13 +11208,13 @@
         <v>334</v>
       </c>
       <c r="B335" t="s">
-        <v>349</v>
+        <v>351</v>
       </c>
       <c r="C335" t="s">
-        <v>355</v>
+        <v>354</v>
       </c>
       <c r="D335" t="s">
-        <v>374</v>
+        <v>378</v>
       </c>
     </row>
     <row r="336" spans="1:4">
@@ -11222,13 +11222,13 @@
         <v>335</v>
       </c>
       <c r="B336" t="s">
-        <v>350</v>
+        <v>347</v>
       </c>
       <c r="C336" t="s">
-        <v>354</v>
+        <v>355</v>
       </c>
       <c r="D336" t="s">
-        <v>378</v>
+        <v>392</v>
       </c>
     </row>
     <row r="337" spans="1:4">
@@ -11270,7 +11270,7 @@
         <v>355</v>
       </c>
       <c r="D339" t="s">
-        <v>377</v>
+        <v>381</v>
       </c>
     </row>
     <row r="340" spans="1:4">
@@ -11278,13 +11278,13 @@
         <v>339</v>
       </c>
       <c r="B340" t="s">
-        <v>395</v>
+        <v>334</v>
       </c>
       <c r="C340" t="s">
-        <v>355</v>
+        <v>358</v>
       </c>
       <c r="D340" t="s">
-        <v>381</v>
+        <v>391</v>
       </c>
     </row>
     <row r="341" spans="1:4">
@@ -11292,13 +11292,13 @@
         <v>340</v>
       </c>
       <c r="B341" t="s">
-        <v>334</v>
+        <v>395</v>
       </c>
       <c r="C341" t="s">
-        <v>358</v>
+        <v>355</v>
       </c>
       <c r="D341" t="s">
-        <v>391</v>
+        <v>377</v>
       </c>
     </row>
     <row r="342" spans="1:4">
@@ -11379,10 +11379,10 @@
         <v>397</v>
       </c>
       <c r="C347" t="s">
-        <v>354</v>
+        <v>359</v>
       </c>
       <c r="D347" t="s">
-        <v>392</v>
+        <v>371</v>
       </c>
     </row>
     <row r="348" spans="1:4">
@@ -11390,13 +11390,13 @@
         <v>347</v>
       </c>
       <c r="B348" t="s">
-        <v>398</v>
+        <v>341</v>
       </c>
       <c r="C348" t="s">
-        <v>359</v>
+        <v>354</v>
       </c>
       <c r="D348" t="s">
-        <v>371</v>
+        <v>368</v>
       </c>
     </row>
     <row r="349" spans="1:4">
@@ -11404,7 +11404,7 @@
         <v>348</v>
       </c>
       <c r="B349" t="s">
-        <v>345</v>
+        <v>398</v>
       </c>
       <c r="C349" t="s">
         <v>354</v>
@@ -11418,13 +11418,13 @@
         <v>349</v>
       </c>
       <c r="B350" t="s">
-        <v>342</v>
+        <v>343</v>
       </c>
       <c r="C350" t="s">
         <v>354</v>
       </c>
       <c r="D350" t="s">
-        <v>368</v>
+        <v>392</v>
       </c>
     </row>
     <row r="351" spans="1:4">
@@ -12989,7 +12989,7 @@
         <v>109</v>
       </c>
       <c r="B110" t="s">
-        <v>140</v>
+        <v>139</v>
       </c>
       <c r="C110" t="s">
         <v>354</v>
@@ -13269,7 +13269,7 @@
         <v>129</v>
       </c>
       <c r="B130" t="s">
-        <v>139</v>
+        <v>140</v>
       </c>
       <c r="C130" t="s">
         <v>355</v>
@@ -13325,7 +13325,7 @@
         <v>133</v>
       </c>
       <c r="B134" t="s">
-        <v>152</v>
+        <v>151</v>
       </c>
       <c r="C134" t="s">
         <v>356</v>
@@ -13451,7 +13451,7 @@
         <v>142</v>
       </c>
       <c r="B143" t="s">
-        <v>184</v>
+        <v>183</v>
       </c>
       <c r="C143" t="s">
         <v>354</v>
@@ -13493,7 +13493,7 @@
         <v>145</v>
       </c>
       <c r="B146" t="s">
-        <v>176</v>
+        <v>175</v>
       </c>
       <c r="C146" t="s">
         <v>356</v>
@@ -13507,7 +13507,7 @@
         <v>146</v>
       </c>
       <c r="B147" t="s">
-        <v>151</v>
+        <v>153</v>
       </c>
       <c r="C147" t="s">
         <v>354</v>
@@ -13563,7 +13563,7 @@
         <v>150</v>
       </c>
       <c r="B151" t="s">
-        <v>183</v>
+        <v>185</v>
       </c>
       <c r="C151" t="s">
         <v>354</v>
@@ -13647,13 +13647,13 @@
         <v>156</v>
       </c>
       <c r="B157" t="s">
-        <v>174</v>
+        <v>126</v>
       </c>
       <c r="C157" t="s">
         <v>354</v>
       </c>
       <c r="D157" t="s">
-        <v>389</v>
+        <v>392</v>
       </c>
     </row>
     <row r="158" spans="1:4">
@@ -13661,13 +13661,13 @@
         <v>157</v>
       </c>
       <c r="B158" t="s">
-        <v>126</v>
+        <v>162</v>
       </c>
       <c r="C158" t="s">
         <v>354</v>
       </c>
       <c r="D158" t="s">
-        <v>392</v>
+        <v>383</v>
       </c>
     </row>
     <row r="159" spans="1:4">
@@ -13675,13 +13675,13 @@
         <v>158</v>
       </c>
       <c r="B159" t="s">
-        <v>162</v>
+        <v>127</v>
       </c>
       <c r="C159" t="s">
-        <v>354</v>
+        <v>357</v>
       </c>
       <c r="D159" t="s">
-        <v>383</v>
+        <v>382</v>
       </c>
     </row>
     <row r="160" spans="1:4">
@@ -13689,13 +13689,13 @@
         <v>159</v>
       </c>
       <c r="B160" t="s">
-        <v>127</v>
+        <v>188</v>
       </c>
       <c r="C160" t="s">
-        <v>357</v>
+        <v>355</v>
       </c>
       <c r="D160" t="s">
-        <v>382</v>
+        <v>372</v>
       </c>
     </row>
     <row r="161" spans="1:4">
@@ -13703,13 +13703,13 @@
         <v>160</v>
       </c>
       <c r="B161" t="s">
-        <v>188</v>
+        <v>135</v>
       </c>
       <c r="C161" t="s">
-        <v>355</v>
+        <v>356</v>
       </c>
       <c r="D161" t="s">
-        <v>372</v>
+        <v>375</v>
       </c>
     </row>
     <row r="162" spans="1:4">
@@ -13717,13 +13717,13 @@
         <v>161</v>
       </c>
       <c r="B162" t="s">
-        <v>135</v>
+        <v>176</v>
       </c>
       <c r="C162" t="s">
-        <v>356</v>
+        <v>354</v>
       </c>
       <c r="D162" t="s">
-        <v>375</v>
+        <v>389</v>
       </c>
     </row>
     <row r="163" spans="1:4">
@@ -13787,7 +13787,7 @@
         <v>166</v>
       </c>
       <c r="B167" t="s">
-        <v>153</v>
+        <v>152</v>
       </c>
       <c r="C167" t="s">
         <v>354</v>
@@ -13829,7 +13829,7 @@
         <v>169</v>
       </c>
       <c r="B170" t="s">
-        <v>191</v>
+        <v>194</v>
       </c>
       <c r="C170" t="s">
         <v>354</v>
@@ -13857,7 +13857,7 @@
         <v>171</v>
       </c>
       <c r="B172" t="s">
-        <v>193</v>
+        <v>192</v>
       </c>
       <c r="C172" t="s">
         <v>355</v>
@@ -13927,7 +13927,7 @@
         <v>176</v>
       </c>
       <c r="B177" t="s">
-        <v>175</v>
+        <v>174</v>
       </c>
       <c r="C177" t="s">
         <v>358</v>
@@ -13941,7 +13941,7 @@
         <v>177</v>
       </c>
       <c r="B178" t="s">
-        <v>292</v>
+        <v>291</v>
       </c>
       <c r="C178" t="s">
         <v>354</v>
@@ -13983,7 +13983,7 @@
         <v>180</v>
       </c>
       <c r="B181" t="s">
-        <v>192</v>
+        <v>191</v>
       </c>
       <c r="C181" t="s">
         <v>355</v>
@@ -14011,7 +14011,7 @@
         <v>182</v>
       </c>
       <c r="B183" t="s">
-        <v>185</v>
+        <v>184</v>
       </c>
       <c r="C183" t="s">
         <v>359</v>
@@ -14081,7 +14081,7 @@
         <v>187</v>
       </c>
       <c r="B188" t="s">
-        <v>235</v>
+        <v>237</v>
       </c>
       <c r="C188" t="s">
         <v>354</v>
@@ -14137,7 +14137,7 @@
         <v>191</v>
       </c>
       <c r="B192" t="s">
-        <v>194</v>
+        <v>193</v>
       </c>
       <c r="C192" t="s">
         <v>358</v>
@@ -14221,13 +14221,13 @@
         <v>197</v>
       </c>
       <c r="B198" t="s">
-        <v>201</v>
+        <v>217</v>
       </c>
       <c r="C198" t="s">
-        <v>354</v>
+        <v>355</v>
       </c>
       <c r="D198" t="s">
-        <v>362</v>
+        <v>363</v>
       </c>
     </row>
     <row r="199" spans="1:4">
@@ -14235,13 +14235,13 @@
         <v>198</v>
       </c>
       <c r="B199" t="s">
-        <v>217</v>
+        <v>201</v>
       </c>
       <c r="C199" t="s">
-        <v>355</v>
+        <v>354</v>
       </c>
       <c r="D199" t="s">
-        <v>363</v>
+        <v>362</v>
       </c>
     </row>
     <row r="200" spans="1:4">
@@ -14305,7 +14305,7 @@
         <v>203</v>
       </c>
       <c r="B204" t="s">
-        <v>268</v>
+        <v>267</v>
       </c>
       <c r="C204" t="s">
         <v>355</v>
@@ -14361,7 +14361,7 @@
         <v>207</v>
       </c>
       <c r="B208" t="s">
-        <v>211</v>
+        <v>210</v>
       </c>
       <c r="C208" t="s">
         <v>359</v>
@@ -14389,13 +14389,13 @@
         <v>209</v>
       </c>
       <c r="B210" t="s">
-        <v>177</v>
+        <v>172</v>
       </c>
       <c r="C210" t="s">
-        <v>354</v>
+        <v>357</v>
       </c>
       <c r="D210" t="s">
-        <v>379</v>
+        <v>364</v>
       </c>
     </row>
     <row r="211" spans="1:4">
@@ -14403,13 +14403,13 @@
         <v>210</v>
       </c>
       <c r="B211" t="s">
-        <v>172</v>
+        <v>163</v>
       </c>
       <c r="C211" t="s">
-        <v>357</v>
+        <v>355</v>
       </c>
       <c r="D211" t="s">
-        <v>364</v>
+        <v>392</v>
       </c>
     </row>
     <row r="212" spans="1:4">
@@ -14417,13 +14417,13 @@
         <v>211</v>
       </c>
       <c r="B212" t="s">
-        <v>163</v>
+        <v>177</v>
       </c>
       <c r="C212" t="s">
-        <v>355</v>
+        <v>354</v>
       </c>
       <c r="D212" t="s">
-        <v>392</v>
+        <v>379</v>
       </c>
     </row>
     <row r="213" spans="1:4">
@@ -14515,13 +14515,13 @@
         <v>218</v>
       </c>
       <c r="B219" t="s">
-        <v>301</v>
+        <v>218</v>
       </c>
       <c r="C219" t="s">
-        <v>354</v>
+        <v>358</v>
       </c>
       <c r="D219" t="s">
-        <v>387</v>
+        <v>382</v>
       </c>
     </row>
     <row r="220" spans="1:4">
@@ -14529,13 +14529,13 @@
         <v>219</v>
       </c>
       <c r="B220" t="s">
-        <v>218</v>
+        <v>301</v>
       </c>
       <c r="C220" t="s">
-        <v>358</v>
+        <v>354</v>
       </c>
       <c r="D220" t="s">
-        <v>382</v>
+        <v>387</v>
       </c>
     </row>
     <row r="221" spans="1:4">
@@ -14571,7 +14571,7 @@
         <v>222</v>
       </c>
       <c r="B223" t="s">
-        <v>228</v>
+        <v>231</v>
       </c>
       <c r="C223" t="s">
         <v>354</v>
@@ -14599,7 +14599,7 @@
         <v>224</v>
       </c>
       <c r="B225" t="s">
-        <v>225</v>
+        <v>224</v>
       </c>
       <c r="C225" t="s">
         <v>359</v>
@@ -14627,7 +14627,7 @@
         <v>226</v>
       </c>
       <c r="B227" t="s">
-        <v>230</v>
+        <v>229</v>
       </c>
       <c r="C227" t="s">
         <v>359</v>
@@ -14641,7 +14641,7 @@
         <v>227</v>
       </c>
       <c r="B228" t="s">
-        <v>224</v>
+        <v>225</v>
       </c>
       <c r="C228" t="s">
         <v>354</v>
@@ -14655,7 +14655,7 @@
         <v>228</v>
       </c>
       <c r="B229" t="s">
-        <v>229</v>
+        <v>228</v>
       </c>
       <c r="C229" t="s">
         <v>358</v>
@@ -14669,7 +14669,7 @@
         <v>229</v>
       </c>
       <c r="B230" t="s">
-        <v>231</v>
+        <v>230</v>
       </c>
       <c r="C230" t="s">
         <v>359</v>
@@ -14725,7 +14725,7 @@
         <v>233</v>
       </c>
       <c r="B234" t="s">
-        <v>237</v>
+        <v>236</v>
       </c>
       <c r="C234" t="s">
         <v>359</v>
@@ -14879,7 +14879,7 @@
         <v>244</v>
       </c>
       <c r="B245" t="s">
-        <v>261</v>
+        <v>262</v>
       </c>
       <c r="C245" t="s">
         <v>355</v>
@@ -14963,7 +14963,7 @@
         <v>250</v>
       </c>
       <c r="B251" t="s">
-        <v>210</v>
+        <v>211</v>
       </c>
       <c r="C251" t="s">
         <v>354</v>
@@ -15005,7 +15005,7 @@
         <v>253</v>
       </c>
       <c r="B254" t="s">
-        <v>266</v>
+        <v>268</v>
       </c>
       <c r="C254" t="s">
         <v>355</v>
@@ -15033,13 +15033,13 @@
         <v>255</v>
       </c>
       <c r="B256" t="s">
-        <v>316</v>
+        <v>257</v>
       </c>
       <c r="C256" t="s">
-        <v>354</v>
+        <v>359</v>
       </c>
       <c r="D256" t="s">
-        <v>364</v>
+        <v>363</v>
       </c>
     </row>
     <row r="257" spans="1:4">
@@ -15047,13 +15047,13 @@
         <v>256</v>
       </c>
       <c r="B257" t="s">
-        <v>257</v>
+        <v>260</v>
       </c>
       <c r="C257" t="s">
-        <v>359</v>
+        <v>358</v>
       </c>
       <c r="D257" t="s">
-        <v>363</v>
+        <v>364</v>
       </c>
     </row>
     <row r="258" spans="1:4">
@@ -15061,10 +15061,10 @@
         <v>257</v>
       </c>
       <c r="B258" t="s">
-        <v>260</v>
+        <v>317</v>
       </c>
       <c r="C258" t="s">
-        <v>358</v>
+        <v>354</v>
       </c>
       <c r="D258" t="s">
         <v>364</v>
@@ -15117,13 +15117,13 @@
         <v>261</v>
       </c>
       <c r="B262" t="s">
-        <v>291</v>
+        <v>292</v>
       </c>
       <c r="C262" t="s">
-        <v>354</v>
+        <v>355</v>
       </c>
       <c r="D262" t="s">
-        <v>372</v>
+        <v>380</v>
       </c>
     </row>
     <row r="263" spans="1:4">
@@ -15131,13 +15131,13 @@
         <v>262</v>
       </c>
       <c r="B263" t="s">
-        <v>290</v>
+        <v>252</v>
       </c>
       <c r="C263" t="s">
-        <v>355</v>
+        <v>354</v>
       </c>
       <c r="D263" t="s">
-        <v>380</v>
+        <v>392</v>
       </c>
     </row>
     <row r="264" spans="1:4">
@@ -15145,13 +15145,13 @@
         <v>263</v>
       </c>
       <c r="B264" t="s">
-        <v>252</v>
+        <v>290</v>
       </c>
       <c r="C264" t="s">
         <v>354</v>
       </c>
       <c r="D264" t="s">
-        <v>392</v>
+        <v>372</v>
       </c>
     </row>
     <row r="265" spans="1:4">
@@ -15215,13 +15215,13 @@
         <v>268</v>
       </c>
       <c r="B269" t="s">
-        <v>259</v>
+        <v>276</v>
       </c>
       <c r="C269" t="s">
-        <v>354</v>
+        <v>356</v>
       </c>
       <c r="D269" t="s">
-        <v>379</v>
+        <v>364</v>
       </c>
     </row>
     <row r="270" spans="1:4">
@@ -15229,13 +15229,13 @@
         <v>269</v>
       </c>
       <c r="B270" t="s">
-        <v>276</v>
+        <v>274</v>
       </c>
       <c r="C270" t="s">
-        <v>356</v>
+        <v>359</v>
       </c>
       <c r="D270" t="s">
-        <v>364</v>
+        <v>386</v>
       </c>
     </row>
     <row r="271" spans="1:4">
@@ -15243,13 +15243,13 @@
         <v>270</v>
       </c>
       <c r="B271" t="s">
-        <v>274</v>
+        <v>259</v>
       </c>
       <c r="C271" t="s">
-        <v>359</v>
+        <v>354</v>
       </c>
       <c r="D271" t="s">
-        <v>386</v>
+        <v>379</v>
       </c>
     </row>
     <row r="272" spans="1:4">
@@ -15341,7 +15341,7 @@
         <v>277</v>
       </c>
       <c r="B278" t="s">
-        <v>311</v>
+        <v>310</v>
       </c>
       <c r="C278" t="s">
         <v>355</v>
@@ -15397,7 +15397,7 @@
         <v>281</v>
       </c>
       <c r="B282" t="s">
-        <v>236</v>
+        <v>235</v>
       </c>
       <c r="C282" t="s">
         <v>355</v>
@@ -15425,13 +15425,13 @@
         <v>283</v>
       </c>
       <c r="B284" t="s">
-        <v>241</v>
+        <v>271</v>
       </c>
       <c r="C284" t="s">
-        <v>357</v>
+        <v>354</v>
       </c>
       <c r="D284" t="s">
-        <v>387</v>
+        <v>392</v>
       </c>
     </row>
     <row r="285" spans="1:4">
@@ -15439,13 +15439,13 @@
         <v>284</v>
       </c>
       <c r="B285" t="s">
-        <v>293</v>
+        <v>241</v>
       </c>
       <c r="C285" t="s">
-        <v>358</v>
+        <v>357</v>
       </c>
       <c r="D285" t="s">
-        <v>371</v>
+        <v>387</v>
       </c>
     </row>
     <row r="286" spans="1:4">
@@ -15453,13 +15453,13 @@
         <v>285</v>
       </c>
       <c r="B286" t="s">
-        <v>242</v>
+        <v>293</v>
       </c>
       <c r="C286" t="s">
-        <v>354</v>
+        <v>358</v>
       </c>
       <c r="D286" t="s">
-        <v>360</v>
+        <v>371</v>
       </c>
     </row>
     <row r="287" spans="1:4">
@@ -15467,13 +15467,13 @@
         <v>286</v>
       </c>
       <c r="B287" t="s">
-        <v>271</v>
+        <v>242</v>
       </c>
       <c r="C287" t="s">
         <v>354</v>
       </c>
       <c r="D287" t="s">
-        <v>392</v>
+        <v>360</v>
       </c>
     </row>
     <row r="288" spans="1:4">
@@ -15509,13 +15509,13 @@
         <v>289</v>
       </c>
       <c r="B290" t="s">
-        <v>262</v>
+        <v>245</v>
       </c>
       <c r="C290" t="s">
-        <v>354</v>
+        <v>355</v>
       </c>
       <c r="D290" t="s">
-        <v>376</v>
+        <v>392</v>
       </c>
     </row>
     <row r="291" spans="1:4">
@@ -15523,13 +15523,13 @@
         <v>290</v>
       </c>
       <c r="B291" t="s">
-        <v>245</v>
+        <v>261</v>
       </c>
       <c r="C291" t="s">
-        <v>355</v>
+        <v>354</v>
       </c>
       <c r="D291" t="s">
-        <v>392</v>
+        <v>376</v>
       </c>
     </row>
     <row r="292" spans="1:4">
@@ -15663,7 +15663,7 @@
         <v>300</v>
       </c>
       <c r="B301" t="s">
-        <v>310</v>
+        <v>309</v>
       </c>
       <c r="C301" t="s">
         <v>359</v>
@@ -15677,7 +15677,7 @@
         <v>301</v>
       </c>
       <c r="B302" t="s">
-        <v>343</v>
+        <v>342</v>
       </c>
       <c r="C302" t="s">
         <v>354</v>
@@ -15691,7 +15691,7 @@
         <v>302</v>
       </c>
       <c r="B303" t="s">
-        <v>267</v>
+        <v>266</v>
       </c>
       <c r="C303" t="s">
         <v>355</v>
@@ -15705,7 +15705,7 @@
         <v>303</v>
       </c>
       <c r="B304" t="s">
-        <v>309</v>
+        <v>308</v>
       </c>
       <c r="C304" t="s">
         <v>358</v>
@@ -15747,7 +15747,7 @@
         <v>306</v>
       </c>
       <c r="B307" t="s">
-        <v>308</v>
+        <v>311</v>
       </c>
       <c r="C307" t="s">
         <v>354</v>
@@ -15761,13 +15761,13 @@
         <v>307</v>
       </c>
       <c r="B308" t="s">
-        <v>295</v>
+        <v>321</v>
       </c>
       <c r="C308" t="s">
-        <v>354</v>
+        <v>355</v>
       </c>
       <c r="D308" t="s">
-        <v>392</v>
+        <v>378</v>
       </c>
     </row>
     <row r="309" spans="1:4">
@@ -15775,13 +15775,13 @@
         <v>308</v>
       </c>
       <c r="B309" t="s">
-        <v>321</v>
+        <v>295</v>
       </c>
       <c r="C309" t="s">
-        <v>355</v>
+        <v>354</v>
       </c>
       <c r="D309" t="s">
-        <v>378</v>
+        <v>392</v>
       </c>
     </row>
     <row r="310" spans="1:4">
@@ -15789,7 +15789,7 @@
         <v>309</v>
       </c>
       <c r="B310" t="s">
-        <v>317</v>
+        <v>316</v>
       </c>
       <c r="C310" t="s">
         <v>359</v>
@@ -15831,7 +15831,7 @@
         <v>312</v>
       </c>
       <c r="B313" t="s">
-        <v>327</v>
+        <v>328</v>
       </c>
       <c r="C313" t="s">
         <v>354</v>
@@ -15901,10 +15901,10 @@
         <v>317</v>
       </c>
       <c r="B318" t="s">
-        <v>329</v>
+        <v>275</v>
       </c>
       <c r="C318" t="s">
-        <v>354</v>
+        <v>357</v>
       </c>
       <c r="D318" t="s">
         <v>386</v>
@@ -15915,10 +15915,10 @@
         <v>318</v>
       </c>
       <c r="B319" t="s">
-        <v>275</v>
+        <v>329</v>
       </c>
       <c r="C319" t="s">
-        <v>357</v>
+        <v>354</v>
       </c>
       <c r="D319" t="s">
         <v>386</v>
@@ -15957,13 +15957,13 @@
         <v>321</v>
       </c>
       <c r="B322" t="s">
-        <v>330</v>
+        <v>396</v>
       </c>
       <c r="C322" t="s">
-        <v>354</v>
+        <v>355</v>
       </c>
       <c r="D322" t="s">
-        <v>364</v>
+        <v>377</v>
       </c>
     </row>
     <row r="323" spans="1:4">
@@ -15971,13 +15971,13 @@
         <v>322</v>
       </c>
       <c r="B323" t="s">
-        <v>396</v>
+        <v>288</v>
       </c>
       <c r="C323" t="s">
-        <v>355</v>
+        <v>357</v>
       </c>
       <c r="D323" t="s">
-        <v>377</v>
+        <v>385</v>
       </c>
     </row>
     <row r="324" spans="1:4">
@@ -15985,13 +15985,13 @@
         <v>323</v>
       </c>
       <c r="B324" t="s">
-        <v>288</v>
+        <v>332</v>
       </c>
       <c r="C324" t="s">
-        <v>357</v>
+        <v>354</v>
       </c>
       <c r="D324" t="s">
-        <v>385</v>
+        <v>364</v>
       </c>
     </row>
     <row r="325" spans="1:4">
@@ -15999,7 +15999,7 @@
         <v>324</v>
       </c>
       <c r="B325" t="s">
-        <v>346</v>
+        <v>345</v>
       </c>
       <c r="C325" t="s">
         <v>355</v>
@@ -16041,7 +16041,7 @@
         <v>327</v>
       </c>
       <c r="B328" t="s">
-        <v>340</v>
+        <v>323</v>
       </c>
       <c r="C328" t="s">
         <v>355</v>
@@ -16055,10 +16055,10 @@
         <v>328</v>
       </c>
       <c r="B329" t="s">
-        <v>323</v>
+        <v>336</v>
       </c>
       <c r="C329" t="s">
-        <v>355</v>
+        <v>359</v>
       </c>
       <c r="D329" t="s">
         <v>392</v>
@@ -16069,13 +16069,13 @@
         <v>329</v>
       </c>
       <c r="B330" t="s">
-        <v>336</v>
+        <v>333</v>
       </c>
       <c r="C330" t="s">
         <v>359</v>
       </c>
       <c r="D330" t="s">
-        <v>392</v>
+        <v>364</v>
       </c>
     </row>
     <row r="331" spans="1:4">
@@ -16083,13 +16083,13 @@
         <v>330</v>
       </c>
       <c r="B331" t="s">
-        <v>333</v>
+        <v>324</v>
       </c>
       <c r="C331" t="s">
-        <v>359</v>
+        <v>354</v>
       </c>
       <c r="D331" t="s">
-        <v>364</v>
+        <v>375</v>
       </c>
     </row>
     <row r="332" spans="1:4">
@@ -16097,13 +16097,13 @@
         <v>331</v>
       </c>
       <c r="B332" t="s">
-        <v>324</v>
+        <v>338</v>
       </c>
       <c r="C332" t="s">
-        <v>354</v>
+        <v>356</v>
       </c>
       <c r="D332" t="s">
-        <v>375</v>
+        <v>378</v>
       </c>
     </row>
     <row r="333" spans="1:4">
@@ -16111,13 +16111,13 @@
         <v>332</v>
       </c>
       <c r="B333" t="s">
-        <v>338</v>
+        <v>337</v>
       </c>
       <c r="C333" t="s">
-        <v>356</v>
+        <v>354</v>
       </c>
       <c r="D333" t="s">
-        <v>378</v>
+        <v>389</v>
       </c>
     </row>
     <row r="334" spans="1:4">
@@ -16125,13 +16125,13 @@
         <v>333</v>
       </c>
       <c r="B334" t="s">
-        <v>337</v>
+        <v>353</v>
       </c>
       <c r="C334" t="s">
         <v>354</v>
       </c>
       <c r="D334" t="s">
-        <v>389</v>
+        <v>375</v>
       </c>
     </row>
     <row r="335" spans="1:4">
@@ -16139,13 +16139,13 @@
         <v>334</v>
       </c>
       <c r="B335" t="s">
-        <v>353</v>
+        <v>347</v>
       </c>
       <c r="C335" t="s">
-        <v>354</v>
+        <v>355</v>
       </c>
       <c r="D335" t="s">
-        <v>375</v>
+        <v>392</v>
       </c>
     </row>
     <row r="336" spans="1:4">
@@ -16167,13 +16167,13 @@
         <v>336</v>
       </c>
       <c r="B337" t="s">
-        <v>326</v>
+        <v>327</v>
       </c>
       <c r="C337" t="s">
-        <v>357</v>
+        <v>354</v>
       </c>
       <c r="D337" t="s">
-        <v>382</v>
+        <v>392</v>
       </c>
     </row>
     <row r="338" spans="1:4">
@@ -16181,13 +16181,13 @@
         <v>337</v>
       </c>
       <c r="B338" t="s">
-        <v>328</v>
+        <v>326</v>
       </c>
       <c r="C338" t="s">
-        <v>355</v>
+        <v>357</v>
       </c>
       <c r="D338" t="s">
-        <v>392</v>
+        <v>382</v>
       </c>
     </row>
     <row r="339" spans="1:4">
@@ -16195,13 +16195,13 @@
         <v>338</v>
       </c>
       <c r="B339" t="s">
-        <v>350</v>
+        <v>330</v>
       </c>
       <c r="C339" t="s">
-        <v>354</v>
+        <v>355</v>
       </c>
       <c r="D339" t="s">
-        <v>378</v>
+        <v>392</v>
       </c>
     </row>
     <row r="340" spans="1:4">
@@ -16209,13 +16209,13 @@
         <v>339</v>
       </c>
       <c r="B340" t="s">
-        <v>347</v>
+        <v>351</v>
       </c>
       <c r="C340" t="s">
         <v>354</v>
       </c>
       <c r="D340" t="s">
-        <v>392</v>
+        <v>378</v>
       </c>
     </row>
     <row r="341" spans="1:4">
@@ -16223,13 +16223,13 @@
         <v>340</v>
       </c>
       <c r="B341" t="s">
-        <v>322</v>
+        <v>346</v>
       </c>
       <c r="C341" t="s">
-        <v>357</v>
+        <v>354</v>
       </c>
       <c r="D341" t="s">
-        <v>361</v>
+        <v>392</v>
       </c>
     </row>
     <row r="342" spans="1:4">
@@ -16237,13 +16237,13 @@
         <v>341</v>
       </c>
       <c r="B342" t="s">
-        <v>349</v>
+        <v>322</v>
       </c>
       <c r="C342" t="s">
-        <v>355</v>
+        <v>357</v>
       </c>
       <c r="D342" t="s">
-        <v>374</v>
+        <v>361</v>
       </c>
     </row>
     <row r="343" spans="1:4">
@@ -16251,13 +16251,13 @@
         <v>342</v>
       </c>
       <c r="B343" t="s">
-        <v>399</v>
+        <v>349</v>
       </c>
       <c r="C343" t="s">
-        <v>354</v>
+        <v>355</v>
       </c>
       <c r="D343" t="s">
-        <v>369</v>
+        <v>374</v>
       </c>
     </row>
     <row r="344" spans="1:4">
@@ -16265,13 +16265,13 @@
         <v>343</v>
       </c>
       <c r="B344" t="s">
-        <v>400</v>
+        <v>399</v>
       </c>
       <c r="C344" t="s">
         <v>354</v>
       </c>
       <c r="D344" t="s">
-        <v>365</v>
+        <v>369</v>
       </c>
     </row>
     <row r="345" spans="1:4">
@@ -16293,13 +16293,13 @@
         <v>345</v>
       </c>
       <c r="B346" t="s">
-        <v>393</v>
+        <v>400</v>
       </c>
       <c r="C346" t="s">
-        <v>355</v>
+        <v>354</v>
       </c>
       <c r="D346" t="s">
-        <v>390</v>
+        <v>365</v>
       </c>
     </row>
     <row r="347" spans="1:4">
@@ -16307,13 +16307,13 @@
         <v>346</v>
       </c>
       <c r="B347" t="s">
-        <v>342</v>
+        <v>393</v>
       </c>
       <c r="C347" t="s">
-        <v>354</v>
+        <v>355</v>
       </c>
       <c r="D347" t="s">
-        <v>368</v>
+        <v>390</v>
       </c>
     </row>
     <row r="348" spans="1:4">
@@ -16321,13 +16321,13 @@
         <v>347</v>
       </c>
       <c r="B348" t="s">
-        <v>332</v>
+        <v>341</v>
       </c>
       <c r="C348" t="s">
         <v>354</v>
       </c>
       <c r="D348" t="s">
-        <v>392</v>
+        <v>368</v>
       </c>
     </row>
     <row r="349" spans="1:4">
@@ -16349,7 +16349,7 @@
         <v>349</v>
       </c>
       <c r="B350" t="s">
-        <v>398</v>
+        <v>397</v>
       </c>
       <c r="C350" t="s">
         <v>359</v>

--- a/docs/FantasyProsFootballDraft.xlsx
+++ b/docs/FantasyProsFootballDraft.xlsx
@@ -21,7 +21,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="3162" uniqueCount="403">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="3162" uniqueCount="404">
   <si>
     <t>Overall Rank</t>
   </si>
@@ -176,12 +176,12 @@
     <t>Calvin Ridley</t>
   </si>
   <si>
+    <t>Jalen Hurts</t>
+  </si>
+  <si>
     <t>Christian Watson</t>
   </si>
   <si>
-    <t>Jalen Hurts</t>
-  </si>
-  <si>
     <t>Chris Olave</t>
   </si>
   <si>
@@ -203,12 +203,12 @@
     <t>Mike Williams</t>
   </si>
   <si>
+    <t>Jerry Jeudy</t>
+  </si>
+  <si>
     <t>Dallas Goedert</t>
   </si>
   <si>
-    <t>Jerry Jeudy</t>
-  </si>
-  <si>
     <t>Alvin Kamara</t>
   </si>
   <si>
@@ -218,12 +218,12 @@
     <t>Tyler Lockett</t>
   </si>
   <si>
+    <t>Tyler Allgeier</t>
+  </si>
+  <si>
     <t>Lamar Jackson</t>
   </si>
   <si>
-    <t>Tyler Allgeier</t>
-  </si>
-  <si>
     <t>Javonte Williams</t>
   </si>
   <si>
@@ -275,12 +275,12 @@
     <t>George Pickens</t>
   </si>
   <si>
+    <t>Isiah Pacheco</t>
+  </si>
+  <si>
     <t>Jahan Dotson</t>
   </si>
   <si>
-    <t>Isiah Pacheco</t>
-  </si>
-  <si>
     <t>Dak Prescott</t>
   </si>
   <si>
@@ -296,15 +296,15 @@
     <t>Courtland Sutton</t>
   </si>
   <si>
+    <t>Jamaal Williams</t>
+  </si>
+  <si>
+    <t>Dalton Schultz</t>
+  </si>
+  <si>
     <t>Treylon Burks</t>
   </si>
   <si>
-    <t>Jamaal Williams</t>
-  </si>
-  <si>
-    <t>Dalton Schultz</t>
-  </si>
-  <si>
     <t>Evan Engram</t>
   </si>
   <si>
@@ -344,18 +344,18 @@
     <t>Daniel Jones</t>
   </si>
   <si>
+    <t>Jakobi Meyers</t>
+  </si>
+  <si>
     <t>Leonard Fournette</t>
   </si>
   <si>
-    <t>Jakobi Meyers</t>
+    <t>Damien Harris</t>
   </si>
   <si>
     <t>Brandin Cooks</t>
   </si>
   <si>
-    <t>Damien Harris</t>
-  </si>
-  <si>
     <t>Antonio Gibson</t>
   </si>
   <si>
@@ -368,12 +368,12 @@
     <t>Russell Wilson</t>
   </si>
   <si>
+    <t>Michael Thomas</t>
+  </si>
+  <si>
     <t>Rachaad White</t>
   </si>
   <si>
-    <t>Michael Thomas</t>
-  </si>
-  <si>
     <t>Geno Smith</t>
   </si>
   <si>
@@ -407,27 +407,27 @@
     <t>Aaron Rodgers</t>
   </si>
   <si>
+    <t>Taysom Hill</t>
+  </si>
+  <si>
     <t>Gerald Everett</t>
   </si>
   <si>
-    <t>Taysom Hill</t>
-  </si>
-  <si>
     <t>Cordarrelle Patterson</t>
   </si>
   <si>
     <t>Allen Lazard</t>
   </si>
   <si>
+    <t>Zach Ertz</t>
+  </si>
+  <si>
+    <t>Matthew Stafford</t>
+  </si>
+  <si>
     <t>Tyler Boyd</t>
   </si>
   <si>
-    <t>Matthew Stafford</t>
-  </si>
-  <si>
-    <t>Zach Ertz</t>
-  </si>
-  <si>
     <t>Mike Gesicki</t>
   </si>
   <si>
@@ -470,6 +470,9 @@
     <t>Nico Collins</t>
   </si>
   <si>
+    <t>Zamir White</t>
+  </si>
+  <si>
     <t>DJ Chark Jr.</t>
   </si>
   <si>
@@ -479,9 +482,6 @@
     <t>Tyler Higbee</t>
   </si>
   <si>
-    <t>Zamir White</t>
-  </si>
-  <si>
     <t>Clyde Edwards-Helaire</t>
   </si>
   <si>
@@ -491,15 +491,15 @@
     <t>Hunter Henry</t>
   </si>
   <si>
+    <t>Kenny Pickett</t>
+  </si>
+  <si>
+    <t>Adam Thielen</t>
+  </si>
+  <si>
     <t>Hunter Renfrow</t>
   </si>
   <si>
-    <t>Kenny Pickett</t>
-  </si>
-  <si>
-    <t>Adam Thielen</t>
-  </si>
-  <si>
     <t>Jaxon Smith-Njigba</t>
   </si>
   <si>
@@ -521,15 +521,15 @@
     <t>Justin Tucker</t>
   </si>
   <si>
+    <t>Mac Jones</t>
+  </si>
+  <si>
     <t>Noah Fant</t>
   </si>
   <si>
     <t>New England Patriots</t>
   </si>
   <si>
-    <t>Mac Jones</t>
-  </si>
-  <si>
     <t>Wan'Dale Robinson</t>
   </si>
   <si>
@@ -542,21 +542,21 @@
     <t>Ryan Tannehill</t>
   </si>
   <si>
+    <t>Philadelphia Eagles</t>
+  </si>
+  <si>
     <t>Tyler Bass</t>
   </si>
   <si>
-    <t>Philadelphia Eagles</t>
-  </si>
-  <si>
     <t>Trey McBride</t>
   </si>
   <si>
+    <t>Gus Edwards</t>
+  </si>
+  <si>
     <t>Chase Edmonds</t>
   </si>
   <si>
-    <t>Gus Edwards</t>
-  </si>
-  <si>
     <t>John Metchie III</t>
   </si>
   <si>
@@ -596,21 +596,21 @@
     <t>Evan McPherson</t>
   </si>
   <si>
+    <t>Zay Flowers</t>
+  </si>
+  <si>
+    <t>Alec Pierce</t>
+  </si>
+  <si>
     <t>Curtis Samuel</t>
   </si>
   <si>
-    <t>Alec Pierce</t>
-  </si>
-  <si>
     <t>Baltimore Ravens</t>
   </si>
   <si>
     <t>Samaje Perine</t>
   </si>
   <si>
-    <t>Zay Flowers</t>
-  </si>
-  <si>
     <t>Indianapolis Colts</t>
   </si>
   <si>
@@ -650,18 +650,18 @@
     <t>Jalin Hyatt</t>
   </si>
   <si>
+    <t>Nick Folk</t>
+  </si>
+  <si>
+    <t>Van Jefferson</t>
+  </si>
+  <si>
+    <t>Jordan Mason</t>
+  </si>
+  <si>
     <t>Russell Gage</t>
   </si>
   <si>
-    <t>Nick Folk</t>
-  </si>
-  <si>
-    <t>Jordan Mason</t>
-  </si>
-  <si>
-    <t>Van Jefferson</t>
-  </si>
-  <si>
     <t>Pittsburgh Steelers</t>
   </si>
   <si>
@@ -677,12 +677,12 @@
     <t>Darius Slayton</t>
   </si>
   <si>
+    <t>Corey Davis</t>
+  </si>
+  <si>
     <t>Green Bay Packers</t>
   </si>
   <si>
-    <t>Corey Davis</t>
-  </si>
-  <si>
     <t>Ryan Succop</t>
   </si>
   <si>
@@ -701,72 +701,78 @@
     <t>Zonovan Knight</t>
   </si>
   <si>
+    <t>Josh Downs</t>
+  </si>
+  <si>
+    <t>Cincinnati Bengals</t>
+  </si>
+  <si>
+    <t>Robbie Gould</t>
+  </si>
+  <si>
+    <t>Brandon McManus</t>
+  </si>
+  <si>
+    <t>Pierre Strong Jr.</t>
+  </si>
+  <si>
+    <t>Isaiah Likely</t>
+  </si>
+  <si>
+    <t>Robert Woods</t>
+  </si>
+  <si>
+    <t>Parris Campbell</t>
+  </si>
+  <si>
+    <t>Terrace Marshall Jr.</t>
+  </si>
+  <si>
+    <t>Sam Howell</t>
+  </si>
+  <si>
+    <t>Jason Sanders</t>
+  </si>
+  <si>
+    <t>Isaiah Spiller</t>
+  </si>
+  <si>
+    <t>Irv Smith Jr.</t>
+  </si>
+  <si>
+    <t>Miami Dolphins</t>
+  </si>
+  <si>
+    <t>Nyheim Hines</t>
+  </si>
+  <si>
+    <t>Tyrion Davis-Price</t>
+  </si>
+  <si>
+    <t>Matt Prater</t>
+  </si>
+  <si>
+    <t>Albert Okwuegbunam</t>
+  </si>
+  <si>
+    <t>Odell Beckham Jr.</t>
+  </si>
+  <si>
     <t>Tom Brady</t>
   </si>
   <si>
-    <t>Robert Woods</t>
-  </si>
-  <si>
-    <t>Cincinnati Bengals</t>
-  </si>
-  <si>
-    <t>Robbie Gould</t>
-  </si>
-  <si>
-    <t>Brandon McManus</t>
-  </si>
-  <si>
-    <t>Pierre Strong Jr.</t>
-  </si>
-  <si>
-    <t>Isaiah Likely</t>
-  </si>
-  <si>
-    <t>Parris Campbell</t>
-  </si>
-  <si>
-    <t>Terrace Marshall Jr.</t>
-  </si>
-  <si>
-    <t>Josh Downs</t>
-  </si>
-  <si>
-    <t>Jason Sanders</t>
-  </si>
-  <si>
-    <t>Isaiah Spiller</t>
-  </si>
-  <si>
-    <t>Miami Dolphins</t>
-  </si>
-  <si>
-    <t>Irv Smith Jr.</t>
-  </si>
-  <si>
-    <t>Nyheim Hines</t>
-  </si>
-  <si>
-    <t>Sam Howell</t>
-  </si>
-  <si>
-    <t>Tyrion Davis-Price</t>
-  </si>
-  <si>
-    <t>Matt Prater</t>
-  </si>
-  <si>
-    <t>Albert Okwuegbunam</t>
-  </si>
-  <si>
-    <t>Odell Beckham Jr.</t>
-  </si>
-  <si>
     <t>Tyquan Thornton</t>
   </si>
   <si>
     <t>Jake Elliott</t>
   </si>
   <si>
+    <t>Tank Bigsby</t>
+  </si>
+  <si>
+    <t>Michael Mayer</t>
+  </si>
+  <si>
     <t>Julio Jones</t>
   </si>
   <si>
@@ -776,10 +782,7 @@
     <t>Washington Commanders</t>
   </si>
   <si>
-    <t>Michael Mayer</t>
-  </si>
-  <si>
-    <t>Tank Bigsby</t>
+    <t>Bryce Young</t>
   </si>
   <si>
     <t>Melvin Gordon III</t>
@@ -788,9 +791,6 @@
     <t>Isaiah Hodgins</t>
   </si>
   <si>
-    <t>Bryce Young</t>
-  </si>
-  <si>
     <t>Jason Myers</t>
   </si>
   <si>
@@ -806,99 +806,99 @@
     <t>Tennessee Titans</t>
   </si>
   <si>
+    <t>Marvin Jones Jr.</t>
+  </si>
+  <si>
+    <t>Robert Tonyan</t>
+  </si>
+  <si>
     <t>Boston Scott</t>
   </si>
   <si>
-    <t>Marvin Jones Jr.</t>
+    <t>C.J. Stroud</t>
   </si>
   <si>
     <t>Jelani Woods</t>
   </si>
   <si>
-    <t>C.J. Stroud</t>
-  </si>
-  <si>
-    <t>Robert Tonyan</t>
+    <t>David Bell</t>
   </si>
   <si>
     <t>Tim Patrick</t>
   </si>
   <si>
-    <t>David Bell</t>
-  </si>
-  <si>
     <t>KJ Hamler</t>
   </si>
   <si>
+    <t>Kendre Miller</t>
+  </si>
+  <si>
+    <t>Greg Joseph</t>
+  </si>
+  <si>
     <t>Sean Tucker</t>
   </si>
   <si>
-    <t>Greg Joseph</t>
-  </si>
-  <si>
-    <t>Kendre Miller</t>
+    <t>Carolina Panthers</t>
+  </si>
+  <si>
+    <t>Jameis Winston</t>
+  </si>
+  <si>
+    <t>Wil Lutz</t>
+  </si>
+  <si>
+    <t>Austin Hooper</t>
+  </si>
+  <si>
+    <t>Zach Evans</t>
   </si>
   <si>
     <t>Devon Achane</t>
   </si>
   <si>
-    <t>Carolina Panthers</t>
-  </si>
-  <si>
-    <t>Wil Lutz</t>
-  </si>
-  <si>
-    <t>Jameis Winston</t>
-  </si>
-  <si>
-    <t>Austin Hooper</t>
-  </si>
-  <si>
     <t>Kayshon Boutte</t>
   </si>
   <si>
     <t>JaMycal Hasty</t>
   </si>
   <si>
+    <t>Dustin Hopkins</t>
+  </si>
+  <si>
+    <t>Jerome Ford</t>
+  </si>
+  <si>
+    <t>Greg Zuerlein</t>
+  </si>
+  <si>
     <t>Darrell Henderson Jr.</t>
   </si>
   <si>
-    <t>Dustin Hopkins</t>
-  </si>
-  <si>
-    <t>Greg Zuerlein</t>
-  </si>
-  <si>
     <t>Logan Thomas</t>
   </si>
   <si>
+    <t>Jarvis Landry</t>
+  </si>
+  <si>
+    <t>Brett Maher</t>
+  </si>
+  <si>
+    <t>Desmond Ridder</t>
+  </si>
+  <si>
     <t>Cade Otton</t>
   </si>
   <si>
-    <t>Jarvis Landry</t>
-  </si>
-  <si>
-    <t>Brett Maher</t>
-  </si>
-  <si>
-    <t>Jerome Ford</t>
-  </si>
-  <si>
     <t>Kendrick Bourne</t>
   </si>
   <si>
-    <t>Desmond Ridder</t>
-  </si>
-  <si>
-    <t>Zach Evans</t>
+    <t>D'Ernest Johnson</t>
   </si>
   <si>
     <t>Kyren Williams</t>
   </si>
   <si>
-    <t>D'Ernest Johnson</t>
-  </si>
-  <si>
     <t>Josh Reynolds</t>
   </si>
   <si>
@@ -908,24 +908,24 @@
     <t>Eno Benjamin</t>
   </si>
   <si>
+    <t>Devin Duvernay</t>
+  </si>
+  <si>
+    <t>Latavius Murray</t>
+  </si>
+  <si>
+    <t>Arizona Cardinals</t>
+  </si>
+  <si>
+    <t>Robbie Anderson</t>
+  </si>
+  <si>
     <t>Israel Abanikanda</t>
   </si>
   <si>
-    <t>Devin Duvernay</t>
-  </si>
-  <si>
-    <t>Latavius Murray</t>
-  </si>
-  <si>
-    <t>Arizona Cardinals</t>
-  </si>
-  <si>
     <t>Brock Purdy</t>
   </si>
   <si>
-    <t>Robbie Anderson</t>
-  </si>
-  <si>
     <t>J.D. McKissic</t>
   </si>
   <si>
@@ -935,12 +935,12 @@
     <t>Laviska Shenault Jr.</t>
   </si>
   <si>
+    <t>Baker Mayfield</t>
+  </si>
+  <si>
     <t>Minnesota Vikings</t>
   </si>
   <si>
-    <t>Baker Mayfield</t>
-  </si>
-  <si>
     <t>Quez Watkins</t>
   </si>
   <si>
@@ -1004,15 +1004,18 @@
     <t>Jordan Love</t>
   </si>
   <si>
+    <t>Matt Breida</t>
+  </si>
+  <si>
     <t>Roschon Johnson</t>
   </si>
   <si>
-    <t>Matt Breida</t>
-  </si>
-  <si>
     <t>Mark Ingram II</t>
   </si>
   <si>
+    <t>Carson Wentz</t>
+  </si>
+  <si>
     <t>Cedric Tillman</t>
   </si>
   <si>
@@ -1022,15 +1025,12 @@
     <t>Dontrell Hilliard</t>
   </si>
   <si>
+    <t>Chicago Bears</t>
+  </si>
+  <si>
     <t>Randy Bullock</t>
   </si>
   <si>
-    <t>Chicago Bears</t>
-  </si>
-  <si>
-    <t>Carson Wentz</t>
-  </si>
-  <si>
     <t>Tyler Davis</t>
   </si>
   <si>
@@ -1043,181 +1043,184 @@
     <t>Dalton Kincaid</t>
   </si>
   <si>
+    <t>Ronald Jones II</t>
+  </si>
+  <si>
+    <t>Rex Burkhead</t>
+  </si>
+  <si>
+    <t>Marvin Mims</t>
+  </si>
+  <si>
     <t>Luke Musgrave</t>
   </si>
   <si>
-    <t>Ronald Jones II</t>
-  </si>
-  <si>
-    <t>Rex Burkhead</t>
+    <t>Jamison Crowder</t>
+  </si>
+  <si>
+    <t>DeWayne McBride</t>
+  </si>
+  <si>
+    <t>A.J. Green</t>
   </si>
   <si>
     <t>Kenny McIntosh</t>
   </si>
   <si>
-    <t>Marvin Mims</t>
-  </si>
-  <si>
-    <t>Jamison Crowder</t>
-  </si>
-  <si>
-    <t>DeWayne McBride</t>
-  </si>
-  <si>
-    <t>A.J. Green</t>
-  </si>
-  <si>
     <t>Brevin Jordan</t>
   </si>
   <si>
     <t>Khalil Shakir</t>
   </si>
   <si>
+    <t>Ty Johnson</t>
+  </si>
+  <si>
+    <t>Riley Patterson</t>
+  </si>
+  <si>
+    <t>Andy Dalton</t>
+  </si>
+  <si>
     <t>Darnell Washington</t>
   </si>
   <si>
-    <t>Ty Johnson</t>
-  </si>
-  <si>
-    <t>Andy Dalton</t>
+    <t>RB</t>
+  </si>
+  <si>
+    <t>WR</t>
+  </si>
+  <si>
+    <t>TE</t>
+  </si>
+  <si>
+    <t>QB</t>
+  </si>
+  <si>
+    <t>DST</t>
+  </si>
+  <si>
+    <t>K</t>
+  </si>
+  <si>
+    <t>SF</t>
+  </si>
+  <si>
+    <t>IND</t>
+  </si>
+  <si>
+    <t>LAC</t>
+  </si>
+  <si>
+    <t>NYG</t>
+  </si>
+  <si>
+    <t>TEN</t>
+  </si>
+  <si>
+    <t>SEA</t>
+  </si>
+  <si>
+    <t>CLE</t>
+  </si>
+  <si>
+    <t>MIN</t>
+  </si>
+  <si>
+    <t>KC</t>
+  </si>
+  <si>
+    <t>LV</t>
+  </si>
+  <si>
+    <t>CIN</t>
+  </si>
+  <si>
+    <t>JAC</t>
+  </si>
+  <si>
+    <t>LAR</t>
+  </si>
+  <si>
+    <t>PIT</t>
+  </si>
+  <si>
+    <t>BUF</t>
+  </si>
+  <si>
+    <t>MIA</t>
+  </si>
+  <si>
+    <t>PHI</t>
+  </si>
+  <si>
+    <t>DAL</t>
+  </si>
+  <si>
+    <t>NYJ</t>
+  </si>
+  <si>
+    <t>BAL</t>
+  </si>
+  <si>
+    <t>DET</t>
+  </si>
+  <si>
+    <t>NE</t>
+  </si>
+  <si>
+    <t>GB</t>
+  </si>
+  <si>
+    <t>CAR</t>
+  </si>
+  <si>
+    <t>HOU</t>
+  </si>
+  <si>
+    <t>ATL</t>
+  </si>
+  <si>
+    <t>NO</t>
+  </si>
+  <si>
+    <t>WAS</t>
+  </si>
+  <si>
+    <t>TB</t>
+  </si>
+  <si>
+    <t>DEN</t>
+  </si>
+  <si>
+    <t>ARI</t>
+  </si>
+  <si>
+    <t>CHI</t>
+  </si>
+  <si>
+    <t>FA</t>
+  </si>
+  <si>
+    <t>Greg Dortch</t>
+  </si>
+  <si>
+    <t>Nelson Agholor</t>
+  </si>
+  <si>
+    <t>Noah Brown</t>
   </si>
   <si>
     <t>Myles Gaskin</t>
   </si>
   <si>
-    <t>RB</t>
-  </si>
-  <si>
-    <t>WR</t>
-  </si>
-  <si>
-    <t>TE</t>
-  </si>
-  <si>
-    <t>QB</t>
-  </si>
-  <si>
-    <t>DST</t>
-  </si>
-  <si>
-    <t>K</t>
-  </si>
-  <si>
-    <t>SF</t>
-  </si>
-  <si>
-    <t>IND</t>
-  </si>
-  <si>
-    <t>LAC</t>
-  </si>
-  <si>
-    <t>NYG</t>
-  </si>
-  <si>
-    <t>TEN</t>
-  </si>
-  <si>
-    <t>SEA</t>
-  </si>
-  <si>
-    <t>CLE</t>
-  </si>
-  <si>
-    <t>MIN</t>
-  </si>
-  <si>
-    <t>KC</t>
-  </si>
-  <si>
-    <t>LV</t>
-  </si>
-  <si>
-    <t>CIN</t>
-  </si>
-  <si>
-    <t>JAC</t>
-  </si>
-  <si>
-    <t>LAR</t>
-  </si>
-  <si>
-    <t>PIT</t>
-  </si>
-  <si>
-    <t>BUF</t>
-  </si>
-  <si>
-    <t>MIA</t>
-  </si>
-  <si>
-    <t>PHI</t>
-  </si>
-  <si>
-    <t>DAL</t>
-  </si>
-  <si>
-    <t>NYJ</t>
-  </si>
-  <si>
-    <t>BAL</t>
-  </si>
-  <si>
-    <t>DET</t>
-  </si>
-  <si>
-    <t>NE</t>
-  </si>
-  <si>
-    <t>GB</t>
-  </si>
-  <si>
-    <t>CAR</t>
-  </si>
-  <si>
-    <t>HOU</t>
-  </si>
-  <si>
-    <t>ATL</t>
-  </si>
-  <si>
-    <t>NO</t>
-  </si>
-  <si>
-    <t>WAS</t>
-  </si>
-  <si>
-    <t>TB</t>
-  </si>
-  <si>
-    <t>DEN</t>
-  </si>
-  <si>
-    <t>ARI</t>
-  </si>
-  <si>
-    <t>CHI</t>
-  </si>
-  <si>
-    <t>FA</t>
-  </si>
-  <si>
-    <t>Greg Dortch</t>
-  </si>
-  <si>
-    <t>Nelson Agholor</t>
-  </si>
-  <si>
-    <t>Noah Brown</t>
-  </si>
-  <si>
     <t>Jalen Tolbert</t>
   </si>
   <si>
-    <t>Riley Patterson</t>
-  </si>
-  <si>
     <t>Deuce Vaughn</t>
+  </si>
+  <si>
+    <t>Mo Alie-Cox</t>
   </si>
   <si>
     <t>Ameer Abdullah</t>
@@ -2276,10 +2279,10 @@
         <v>51</v>
       </c>
       <c r="C49" t="s">
-        <v>355</v>
+        <v>357</v>
       </c>
       <c r="D49" t="s">
-        <v>382</v>
+        <v>376</v>
       </c>
     </row>
     <row r="50" spans="1:4">
@@ -2290,10 +2293,10 @@
         <v>52</v>
       </c>
       <c r="C50" t="s">
-        <v>357</v>
+        <v>355</v>
       </c>
       <c r="D50" t="s">
-        <v>376</v>
+        <v>382</v>
       </c>
     </row>
     <row r="51" spans="1:4">
@@ -2402,10 +2405,10 @@
         <v>60</v>
       </c>
       <c r="C58" t="s">
-        <v>356</v>
+        <v>355</v>
       </c>
       <c r="D58" t="s">
-        <v>376</v>
+        <v>389</v>
       </c>
     </row>
     <row r="59" spans="1:4">
@@ -2416,10 +2419,10 @@
         <v>61</v>
       </c>
       <c r="C59" t="s">
-        <v>355</v>
+        <v>356</v>
       </c>
       <c r="D59" t="s">
-        <v>389</v>
+        <v>376</v>
       </c>
     </row>
     <row r="60" spans="1:4">
@@ -2472,10 +2475,10 @@
         <v>65</v>
       </c>
       <c r="C63" t="s">
-        <v>357</v>
+        <v>354</v>
       </c>
       <c r="D63" t="s">
-        <v>379</v>
+        <v>385</v>
       </c>
     </row>
     <row r="64" spans="1:4">
@@ -2486,10 +2489,10 @@
         <v>66</v>
       </c>
       <c r="C64" t="s">
-        <v>354</v>
+        <v>357</v>
       </c>
       <c r="D64" t="s">
-        <v>385</v>
+        <v>379</v>
       </c>
     </row>
     <row r="65" spans="1:4">
@@ -2738,10 +2741,10 @@
         <v>84</v>
       </c>
       <c r="C82" t="s">
-        <v>355</v>
+        <v>354</v>
       </c>
       <c r="D82" t="s">
-        <v>387</v>
+        <v>368</v>
       </c>
     </row>
     <row r="83" spans="1:4">
@@ -2752,10 +2755,10 @@
         <v>85</v>
       </c>
       <c r="C83" t="s">
-        <v>354</v>
+        <v>355</v>
       </c>
       <c r="D83" t="s">
-        <v>368</v>
+        <v>387</v>
       </c>
     </row>
     <row r="84" spans="1:4">
@@ -2836,10 +2839,10 @@
         <v>91</v>
       </c>
       <c r="C89" t="s">
-        <v>355</v>
+        <v>354</v>
       </c>
       <c r="D89" t="s">
-        <v>364</v>
+        <v>380</v>
       </c>
     </row>
     <row r="90" spans="1:4">
@@ -2850,10 +2853,10 @@
         <v>92</v>
       </c>
       <c r="C90" t="s">
-        <v>354</v>
+        <v>356</v>
       </c>
       <c r="D90" t="s">
-        <v>380</v>
+        <v>377</v>
       </c>
     </row>
     <row r="91" spans="1:4">
@@ -2864,10 +2867,10 @@
         <v>93</v>
       </c>
       <c r="C91" t="s">
-        <v>356</v>
+        <v>355</v>
       </c>
       <c r="D91" t="s">
-        <v>377</v>
+        <v>364</v>
       </c>
     </row>
     <row r="92" spans="1:4">
@@ -3060,10 +3063,10 @@
         <v>107</v>
       </c>
       <c r="C105" t="s">
-        <v>354</v>
+        <v>355</v>
       </c>
       <c r="D105" t="s">
-        <v>388</v>
+        <v>381</v>
       </c>
     </row>
     <row r="106" spans="1:4">
@@ -3074,10 +3077,10 @@
         <v>108</v>
       </c>
       <c r="C106" t="s">
-        <v>355</v>
+        <v>354</v>
       </c>
       <c r="D106" t="s">
-        <v>381</v>
+        <v>388</v>
       </c>
     </row>
     <row r="107" spans="1:4">
@@ -3088,10 +3091,10 @@
         <v>109</v>
       </c>
       <c r="C107" t="s">
-        <v>355</v>
+        <v>354</v>
       </c>
       <c r="D107" t="s">
-        <v>384</v>
+        <v>381</v>
       </c>
     </row>
     <row r="108" spans="1:4">
@@ -3102,10 +3105,10 @@
         <v>110</v>
       </c>
       <c r="C108" t="s">
-        <v>354</v>
+        <v>355</v>
       </c>
       <c r="D108" t="s">
-        <v>381</v>
+        <v>384</v>
       </c>
     </row>
     <row r="109" spans="1:4">
@@ -3172,10 +3175,10 @@
         <v>115</v>
       </c>
       <c r="C113" t="s">
-        <v>354</v>
+        <v>355</v>
       </c>
       <c r="D113" t="s">
-        <v>388</v>
+        <v>386</v>
       </c>
     </row>
     <row r="114" spans="1:4">
@@ -3186,10 +3189,10 @@
         <v>116</v>
       </c>
       <c r="C114" t="s">
-        <v>355</v>
+        <v>354</v>
       </c>
       <c r="D114" t="s">
-        <v>386</v>
+        <v>388</v>
       </c>
     </row>
     <row r="115" spans="1:4">
@@ -3357,7 +3360,7 @@
         <v>356</v>
       </c>
       <c r="D126" t="s">
-        <v>362</v>
+        <v>386</v>
       </c>
     </row>
     <row r="127" spans="1:4">
@@ -3371,7 +3374,7 @@
         <v>356</v>
       </c>
       <c r="D127" t="s">
-        <v>386</v>
+        <v>362</v>
       </c>
     </row>
     <row r="128" spans="1:4">
@@ -3410,10 +3413,10 @@
         <v>132</v>
       </c>
       <c r="C130" t="s">
-        <v>355</v>
+        <v>356</v>
       </c>
       <c r="D130" t="s">
-        <v>370</v>
+        <v>390</v>
       </c>
     </row>
     <row r="131" spans="1:4">
@@ -3438,10 +3441,10 @@
         <v>134</v>
       </c>
       <c r="C132" t="s">
-        <v>356</v>
+        <v>355</v>
       </c>
       <c r="D132" t="s">
-        <v>390</v>
+        <v>370</v>
       </c>
     </row>
     <row r="133" spans="1:4">
@@ -3648,10 +3651,10 @@
         <v>149</v>
       </c>
       <c r="C147" t="s">
-        <v>355</v>
+        <v>354</v>
       </c>
       <c r="D147" t="s">
-        <v>380</v>
+        <v>369</v>
       </c>
     </row>
     <row r="148" spans="1:4">
@@ -3662,10 +3665,10 @@
         <v>150</v>
       </c>
       <c r="C148" t="s">
-        <v>356</v>
+        <v>355</v>
       </c>
       <c r="D148" t="s">
-        <v>364</v>
+        <v>380</v>
       </c>
     </row>
     <row r="149" spans="1:4">
@@ -3679,7 +3682,7 @@
         <v>356</v>
       </c>
       <c r="D149" t="s">
-        <v>372</v>
+        <v>364</v>
       </c>
     </row>
     <row r="150" spans="1:4">
@@ -3690,10 +3693,10 @@
         <v>152</v>
       </c>
       <c r="C150" t="s">
-        <v>354</v>
+        <v>356</v>
       </c>
       <c r="D150" t="s">
-        <v>369</v>
+        <v>372</v>
       </c>
     </row>
     <row r="151" spans="1:4">
@@ -3746,10 +3749,10 @@
         <v>156</v>
       </c>
       <c r="C154" t="s">
-        <v>355</v>
+        <v>357</v>
       </c>
       <c r="D154" t="s">
-        <v>369</v>
+        <v>373</v>
       </c>
     </row>
     <row r="155" spans="1:4">
@@ -3760,10 +3763,10 @@
         <v>157</v>
       </c>
       <c r="C155" t="s">
-        <v>357</v>
+        <v>355</v>
       </c>
       <c r="D155" t="s">
-        <v>373</v>
+        <v>367</v>
       </c>
     </row>
     <row r="156" spans="1:4">
@@ -3777,7 +3780,7 @@
         <v>355</v>
       </c>
       <c r="D156" t="s">
-        <v>367</v>
+        <v>369</v>
       </c>
     </row>
     <row r="157" spans="1:4">
@@ -3886,10 +3889,10 @@
         <v>166</v>
       </c>
       <c r="C164" t="s">
-        <v>356</v>
+        <v>357</v>
       </c>
       <c r="D164" t="s">
-        <v>365</v>
+        <v>381</v>
       </c>
     </row>
     <row r="165" spans="1:4">
@@ -3900,10 +3903,10 @@
         <v>167</v>
       </c>
       <c r="C165" t="s">
-        <v>358</v>
+        <v>356</v>
       </c>
       <c r="D165" t="s">
-        <v>381</v>
+        <v>365</v>
       </c>
     </row>
     <row r="166" spans="1:4">
@@ -3914,7 +3917,7 @@
         <v>168</v>
       </c>
       <c r="C166" t="s">
-        <v>357</v>
+        <v>358</v>
       </c>
       <c r="D166" t="s">
         <v>381</v>
@@ -3984,10 +3987,10 @@
         <v>173</v>
       </c>
       <c r="C171" t="s">
-        <v>359</v>
+        <v>358</v>
       </c>
       <c r="D171" t="s">
-        <v>374</v>
+        <v>376</v>
       </c>
     </row>
     <row r="172" spans="1:4">
@@ -3998,10 +4001,10 @@
         <v>174</v>
       </c>
       <c r="C172" t="s">
-        <v>358</v>
+        <v>359</v>
       </c>
       <c r="D172" t="s">
-        <v>376</v>
+        <v>374</v>
       </c>
     </row>
     <row r="173" spans="1:4">
@@ -4029,7 +4032,7 @@
         <v>354</v>
       </c>
       <c r="D174" t="s">
-        <v>389</v>
+        <v>379</v>
       </c>
     </row>
     <row r="175" spans="1:4">
@@ -4043,7 +4046,7 @@
         <v>354</v>
       </c>
       <c r="D175" t="s">
-        <v>379</v>
+        <v>389</v>
       </c>
     </row>
     <row r="176" spans="1:4">
@@ -4239,7 +4242,7 @@
         <v>355</v>
       </c>
       <c r="D189" t="s">
-        <v>387</v>
+        <v>392</v>
       </c>
     </row>
     <row r="190" spans="1:4">
@@ -4264,10 +4267,10 @@
         <v>193</v>
       </c>
       <c r="C191" t="s">
-        <v>358</v>
+        <v>355</v>
       </c>
       <c r="D191" t="s">
-        <v>379</v>
+        <v>387</v>
       </c>
     </row>
     <row r="192" spans="1:4">
@@ -4278,10 +4281,10 @@
         <v>194</v>
       </c>
       <c r="C192" t="s">
-        <v>354</v>
+        <v>358</v>
       </c>
       <c r="D192" t="s">
-        <v>370</v>
+        <v>379</v>
       </c>
     </row>
     <row r="193" spans="1:4">
@@ -4292,10 +4295,10 @@
         <v>195</v>
       </c>
       <c r="C193" t="s">
-        <v>355</v>
+        <v>354</v>
       </c>
       <c r="D193" t="s">
-        <v>392</v>
+        <v>370</v>
       </c>
     </row>
     <row r="194" spans="1:4">
@@ -4488,10 +4491,10 @@
         <v>209</v>
       </c>
       <c r="C207" t="s">
-        <v>355</v>
+        <v>359</v>
       </c>
       <c r="D207" t="s">
-        <v>388</v>
+        <v>381</v>
       </c>
     </row>
     <row r="208" spans="1:4">
@@ -4502,10 +4505,10 @@
         <v>210</v>
       </c>
       <c r="C208" t="s">
-        <v>359</v>
+        <v>355</v>
       </c>
       <c r="D208" t="s">
-        <v>381</v>
+        <v>372</v>
       </c>
     </row>
     <row r="209" spans="1:4">
@@ -4533,7 +4536,7 @@
         <v>355</v>
       </c>
       <c r="D210" t="s">
-        <v>372</v>
+        <v>388</v>
       </c>
     </row>
     <row r="211" spans="1:4">
@@ -4614,10 +4617,10 @@
         <v>218</v>
       </c>
       <c r="C216" t="s">
-        <v>358</v>
+        <v>355</v>
       </c>
       <c r="D216" t="s">
-        <v>382</v>
+        <v>378</v>
       </c>
     </row>
     <row r="217" spans="1:4">
@@ -4628,10 +4631,10 @@
         <v>219</v>
       </c>
       <c r="C217" t="s">
-        <v>355</v>
+        <v>358</v>
       </c>
       <c r="D217" t="s">
-        <v>378</v>
+        <v>382</v>
       </c>
     </row>
     <row r="218" spans="1:4">
@@ -4726,7 +4729,7 @@
         <v>226</v>
       </c>
       <c r="C224" t="s">
-        <v>357</v>
+        <v>355</v>
       </c>
       <c r="D224" t="s">
         <v>392</v>
@@ -4740,10 +4743,10 @@
         <v>227</v>
       </c>
       <c r="C225" t="s">
-        <v>355</v>
+        <v>358</v>
       </c>
       <c r="D225" t="s">
-        <v>364</v>
+        <v>370</v>
       </c>
     </row>
     <row r="226" spans="1:4">
@@ -4754,10 +4757,10 @@
         <v>228</v>
       </c>
       <c r="C226" t="s">
-        <v>358</v>
+        <v>359</v>
       </c>
       <c r="D226" t="s">
-        <v>370</v>
+        <v>360</v>
       </c>
     </row>
     <row r="227" spans="1:4">
@@ -4771,7 +4774,7 @@
         <v>359</v>
       </c>
       <c r="D227" t="s">
-        <v>360</v>
+        <v>389</v>
       </c>
     </row>
     <row r="228" spans="1:4">
@@ -4782,10 +4785,10 @@
         <v>230</v>
       </c>
       <c r="C228" t="s">
-        <v>359</v>
+        <v>354</v>
       </c>
       <c r="D228" t="s">
-        <v>389</v>
+        <v>381</v>
       </c>
     </row>
     <row r="229" spans="1:4">
@@ -4796,10 +4799,10 @@
         <v>231</v>
       </c>
       <c r="C229" t="s">
-        <v>354</v>
+        <v>356</v>
       </c>
       <c r="D229" t="s">
-        <v>381</v>
+        <v>379</v>
       </c>
     </row>
     <row r="230" spans="1:4">
@@ -4810,10 +4813,10 @@
         <v>232</v>
       </c>
       <c r="C230" t="s">
-        <v>356</v>
+        <v>355</v>
       </c>
       <c r="D230" t="s">
-        <v>379</v>
+        <v>364</v>
       </c>
     </row>
     <row r="231" spans="1:4">
@@ -4852,10 +4855,10 @@
         <v>235</v>
       </c>
       <c r="C233" t="s">
-        <v>355</v>
+        <v>357</v>
       </c>
       <c r="D233" t="s">
-        <v>392</v>
+        <v>387</v>
       </c>
     </row>
     <row r="234" spans="1:4">
@@ -4894,10 +4897,10 @@
         <v>238</v>
       </c>
       <c r="C236" t="s">
-        <v>358</v>
+        <v>356</v>
       </c>
       <c r="D236" t="s">
-        <v>375</v>
+        <v>367</v>
       </c>
     </row>
     <row r="237" spans="1:4">
@@ -4908,10 +4911,10 @@
         <v>239</v>
       </c>
       <c r="C237" t="s">
-        <v>356</v>
+        <v>358</v>
       </c>
       <c r="D237" t="s">
-        <v>367</v>
+        <v>375</v>
       </c>
     </row>
     <row r="238" spans="1:4">
@@ -4936,10 +4939,10 @@
         <v>241</v>
       </c>
       <c r="C239" t="s">
-        <v>357</v>
+        <v>354</v>
       </c>
       <c r="D239" t="s">
-        <v>387</v>
+        <v>360</v>
       </c>
     </row>
     <row r="240" spans="1:4">
@@ -4950,10 +4953,10 @@
         <v>242</v>
       </c>
       <c r="C240" t="s">
-        <v>354</v>
+        <v>359</v>
       </c>
       <c r="D240" t="s">
-        <v>360</v>
+        <v>390</v>
       </c>
     </row>
     <row r="241" spans="1:4">
@@ -4964,10 +4967,10 @@
         <v>243</v>
       </c>
       <c r="C241" t="s">
-        <v>359</v>
+        <v>356</v>
       </c>
       <c r="D241" t="s">
-        <v>390</v>
+        <v>389</v>
       </c>
     </row>
     <row r="242" spans="1:4">
@@ -4978,10 +4981,10 @@
         <v>244</v>
       </c>
       <c r="C242" t="s">
-        <v>356</v>
+        <v>355</v>
       </c>
       <c r="D242" t="s">
-        <v>389</v>
+        <v>392</v>
       </c>
     </row>
     <row r="243" spans="1:4">
@@ -4992,7 +4995,7 @@
         <v>245</v>
       </c>
       <c r="C243" t="s">
-        <v>355</v>
+        <v>357</v>
       </c>
       <c r="D243" t="s">
         <v>392</v>
@@ -5034,10 +5037,10 @@
         <v>248</v>
       </c>
       <c r="C246" t="s">
-        <v>355</v>
+        <v>354</v>
       </c>
       <c r="D246" t="s">
-        <v>388</v>
+        <v>392</v>
       </c>
     </row>
     <row r="247" spans="1:4">
@@ -5048,10 +5051,10 @@
         <v>249</v>
       </c>
       <c r="C247" t="s">
-        <v>357</v>
+        <v>356</v>
       </c>
       <c r="D247" t="s">
-        <v>360</v>
+        <v>392</v>
       </c>
     </row>
     <row r="248" spans="1:4">
@@ -5062,10 +5065,10 @@
         <v>250</v>
       </c>
       <c r="C248" t="s">
-        <v>358</v>
+        <v>355</v>
       </c>
       <c r="D248" t="s">
-        <v>387</v>
+        <v>388</v>
       </c>
     </row>
     <row r="249" spans="1:4">
@@ -5076,10 +5079,10 @@
         <v>251</v>
       </c>
       <c r="C249" t="s">
-        <v>356</v>
+        <v>357</v>
       </c>
       <c r="D249" t="s">
-        <v>392</v>
+        <v>360</v>
       </c>
     </row>
     <row r="250" spans="1:4">
@@ -5090,10 +5093,10 @@
         <v>252</v>
       </c>
       <c r="C250" t="s">
-        <v>354</v>
+        <v>358</v>
       </c>
       <c r="D250" t="s">
-        <v>392</v>
+        <v>387</v>
       </c>
     </row>
     <row r="251" spans="1:4">
@@ -5104,10 +5107,10 @@
         <v>253</v>
       </c>
       <c r="C251" t="s">
-        <v>354</v>
+        <v>357</v>
       </c>
       <c r="D251" t="s">
-        <v>368</v>
+        <v>392</v>
       </c>
     </row>
     <row r="252" spans="1:4">
@@ -5118,10 +5121,10 @@
         <v>254</v>
       </c>
       <c r="C252" t="s">
-        <v>355</v>
+        <v>354</v>
       </c>
       <c r="D252" t="s">
-        <v>363</v>
+        <v>368</v>
       </c>
     </row>
     <row r="253" spans="1:4">
@@ -5132,10 +5135,10 @@
         <v>255</v>
       </c>
       <c r="C253" t="s">
-        <v>357</v>
+        <v>355</v>
       </c>
       <c r="D253" t="s">
-        <v>392</v>
+        <v>363</v>
       </c>
     </row>
     <row r="254" spans="1:4">
@@ -5216,10 +5219,10 @@
         <v>261</v>
       </c>
       <c r="C259" t="s">
-        <v>354</v>
+        <v>355</v>
       </c>
       <c r="D259" t="s">
-        <v>376</v>
+        <v>371</v>
       </c>
     </row>
     <row r="260" spans="1:4">
@@ -5230,10 +5233,10 @@
         <v>262</v>
       </c>
       <c r="C260" t="s">
-        <v>355</v>
+        <v>356</v>
       </c>
       <c r="D260" t="s">
-        <v>371</v>
+        <v>382</v>
       </c>
     </row>
     <row r="261" spans="1:4">
@@ -5244,10 +5247,10 @@
         <v>263</v>
       </c>
       <c r="C261" t="s">
-        <v>356</v>
+        <v>354</v>
       </c>
       <c r="D261" t="s">
-        <v>361</v>
+        <v>376</v>
       </c>
     </row>
     <row r="262" spans="1:4">
@@ -5275,7 +5278,7 @@
         <v>356</v>
       </c>
       <c r="D263" t="s">
-        <v>382</v>
+        <v>361</v>
       </c>
     </row>
     <row r="264" spans="1:4">
@@ -5289,7 +5292,7 @@
         <v>355</v>
       </c>
       <c r="D264" t="s">
-        <v>389</v>
+        <v>366</v>
       </c>
     </row>
     <row r="265" spans="1:4">
@@ -5303,7 +5306,7 @@
         <v>355</v>
       </c>
       <c r="D265" t="s">
-        <v>366</v>
+        <v>389</v>
       </c>
     </row>
     <row r="266" spans="1:4">
@@ -5370,10 +5373,10 @@
         <v>272</v>
       </c>
       <c r="C270" t="s">
-        <v>354</v>
+        <v>358</v>
       </c>
       <c r="D270" t="s">
-        <v>392</v>
+        <v>383</v>
       </c>
     </row>
     <row r="271" spans="1:4">
@@ -5384,10 +5387,10 @@
         <v>273</v>
       </c>
       <c r="C271" t="s">
-        <v>358</v>
+        <v>357</v>
       </c>
       <c r="D271" t="s">
-        <v>383</v>
+        <v>386</v>
       </c>
     </row>
     <row r="272" spans="1:4">
@@ -5412,10 +5415,10 @@
         <v>275</v>
       </c>
       <c r="C273" t="s">
-        <v>357</v>
+        <v>356</v>
       </c>
       <c r="D273" t="s">
-        <v>386</v>
+        <v>364</v>
       </c>
     </row>
     <row r="274" spans="1:4">
@@ -5426,10 +5429,10 @@
         <v>276</v>
       </c>
       <c r="C274" t="s">
-        <v>356</v>
+        <v>354</v>
       </c>
       <c r="D274" t="s">
-        <v>364</v>
+        <v>392</v>
       </c>
     </row>
     <row r="275" spans="1:4">
@@ -5440,7 +5443,7 @@
         <v>277</v>
       </c>
       <c r="C275" t="s">
-        <v>355</v>
+        <v>354</v>
       </c>
       <c r="D275" t="s">
         <v>392</v>
@@ -5454,10 +5457,10 @@
         <v>278</v>
       </c>
       <c r="C276" t="s">
-        <v>354</v>
+        <v>355</v>
       </c>
       <c r="D276" t="s">
-        <v>371</v>
+        <v>392</v>
       </c>
     </row>
     <row r="277" spans="1:4">
@@ -5471,7 +5474,7 @@
         <v>354</v>
       </c>
       <c r="D277" t="s">
-        <v>392</v>
+        <v>371</v>
       </c>
     </row>
     <row r="278" spans="1:4">
@@ -5496,10 +5499,10 @@
         <v>281</v>
       </c>
       <c r="C279" t="s">
-        <v>359</v>
+        <v>354</v>
       </c>
       <c r="D279" t="s">
-        <v>378</v>
+        <v>366</v>
       </c>
     </row>
     <row r="280" spans="1:4">
@@ -5510,10 +5513,10 @@
         <v>282</v>
       </c>
       <c r="C280" t="s">
-        <v>356</v>
+        <v>359</v>
       </c>
       <c r="D280" t="s">
-        <v>387</v>
+        <v>378</v>
       </c>
     </row>
     <row r="281" spans="1:4">
@@ -5524,10 +5527,10 @@
         <v>283</v>
       </c>
       <c r="C281" t="s">
-        <v>356</v>
+        <v>354</v>
       </c>
       <c r="D281" t="s">
-        <v>388</v>
+        <v>392</v>
       </c>
     </row>
     <row r="282" spans="1:4">
@@ -5538,10 +5541,10 @@
         <v>284</v>
       </c>
       <c r="C282" t="s">
-        <v>355</v>
+        <v>356</v>
       </c>
       <c r="D282" t="s">
-        <v>386</v>
+        <v>387</v>
       </c>
     </row>
     <row r="283" spans="1:4">
@@ -5552,10 +5555,10 @@
         <v>285</v>
       </c>
       <c r="C283" t="s">
-        <v>359</v>
+        <v>355</v>
       </c>
       <c r="D283" t="s">
-        <v>377</v>
+        <v>386</v>
       </c>
     </row>
     <row r="284" spans="1:4">
@@ -5566,10 +5569,10 @@
         <v>286</v>
       </c>
       <c r="C284" t="s">
-        <v>354</v>
+        <v>359</v>
       </c>
       <c r="D284" t="s">
-        <v>366</v>
+        <v>377</v>
       </c>
     </row>
     <row r="285" spans="1:4">
@@ -5580,10 +5583,10 @@
         <v>287</v>
       </c>
       <c r="C285" t="s">
-        <v>355</v>
+        <v>357</v>
       </c>
       <c r="D285" t="s">
-        <v>381</v>
+        <v>385</v>
       </c>
     </row>
     <row r="286" spans="1:4">
@@ -5594,10 +5597,10 @@
         <v>288</v>
       </c>
       <c r="C286" t="s">
-        <v>357</v>
+        <v>356</v>
       </c>
       <c r="D286" t="s">
-        <v>385</v>
+        <v>388</v>
       </c>
     </row>
     <row r="287" spans="1:4">
@@ -5608,10 +5611,10 @@
         <v>289</v>
       </c>
       <c r="C287" t="s">
-        <v>354</v>
+        <v>355</v>
       </c>
       <c r="D287" t="s">
-        <v>392</v>
+        <v>381</v>
       </c>
     </row>
     <row r="288" spans="1:4">
@@ -5625,7 +5628,7 @@
         <v>354</v>
       </c>
       <c r="D288" t="s">
-        <v>372</v>
+        <v>366</v>
       </c>
     </row>
     <row r="289" spans="1:4">
@@ -5639,7 +5642,7 @@
         <v>354</v>
       </c>
       <c r="D289" t="s">
-        <v>366</v>
+        <v>372</v>
       </c>
     </row>
     <row r="290" spans="1:4">
@@ -5692,10 +5695,10 @@
         <v>295</v>
       </c>
       <c r="C293" t="s">
-        <v>354</v>
+        <v>355</v>
       </c>
       <c r="D293" t="s">
-        <v>392</v>
+        <v>379</v>
       </c>
     </row>
     <row r="294" spans="1:4">
@@ -5706,10 +5709,10 @@
         <v>296</v>
       </c>
       <c r="C294" t="s">
-        <v>355</v>
+        <v>354</v>
       </c>
       <c r="D294" t="s">
-        <v>379</v>
+        <v>389</v>
       </c>
     </row>
     <row r="295" spans="1:4">
@@ -5720,10 +5723,10 @@
         <v>297</v>
       </c>
       <c r="C295" t="s">
-        <v>354</v>
+        <v>358</v>
       </c>
       <c r="D295" t="s">
-        <v>389</v>
+        <v>390</v>
       </c>
     </row>
     <row r="296" spans="1:4">
@@ -5734,7 +5737,7 @@
         <v>298</v>
       </c>
       <c r="C296" t="s">
-        <v>358</v>
+        <v>355</v>
       </c>
       <c r="D296" t="s">
         <v>390</v>
@@ -5748,10 +5751,10 @@
         <v>299</v>
       </c>
       <c r="C297" t="s">
-        <v>357</v>
+        <v>354</v>
       </c>
       <c r="D297" t="s">
-        <v>360</v>
+        <v>392</v>
       </c>
     </row>
     <row r="298" spans="1:4">
@@ -5762,10 +5765,10 @@
         <v>300</v>
       </c>
       <c r="C298" t="s">
-        <v>355</v>
+        <v>357</v>
       </c>
       <c r="D298" t="s">
-        <v>390</v>
+        <v>360</v>
       </c>
     </row>
     <row r="299" spans="1:4">
@@ -5818,10 +5821,10 @@
         <v>304</v>
       </c>
       <c r="C302" t="s">
-        <v>358</v>
+        <v>357</v>
       </c>
       <c r="D302" t="s">
-        <v>367</v>
+        <v>372</v>
       </c>
     </row>
     <row r="303" spans="1:4">
@@ -5832,10 +5835,10 @@
         <v>305</v>
       </c>
       <c r="C303" t="s">
-        <v>357</v>
+        <v>358</v>
       </c>
       <c r="D303" t="s">
-        <v>372</v>
+        <v>367</v>
       </c>
     </row>
     <row r="304" spans="1:4">
@@ -6143,7 +6146,7 @@
         <v>354</v>
       </c>
       <c r="D325" t="s">
-        <v>392</v>
+        <v>363</v>
       </c>
     </row>
     <row r="326" spans="1:4">
@@ -6157,7 +6160,7 @@
         <v>354</v>
       </c>
       <c r="D326" t="s">
-        <v>363</v>
+        <v>392</v>
       </c>
     </row>
     <row r="327" spans="1:4">
@@ -6182,10 +6185,10 @@
         <v>330</v>
       </c>
       <c r="C328" t="s">
-        <v>355</v>
+        <v>357</v>
       </c>
       <c r="D328" t="s">
-        <v>392</v>
+        <v>387</v>
       </c>
     </row>
     <row r="329" spans="1:4">
@@ -6196,7 +6199,7 @@
         <v>331</v>
       </c>
       <c r="C329" t="s">
-        <v>357</v>
+        <v>355</v>
       </c>
       <c r="D329" t="s">
         <v>392</v>
@@ -6210,10 +6213,10 @@
         <v>332</v>
       </c>
       <c r="C330" t="s">
-        <v>354</v>
+        <v>357</v>
       </c>
       <c r="D330" t="s">
-        <v>364</v>
+        <v>392</v>
       </c>
     </row>
     <row r="331" spans="1:4">
@@ -6224,7 +6227,7 @@
         <v>333</v>
       </c>
       <c r="C331" t="s">
-        <v>359</v>
+        <v>354</v>
       </c>
       <c r="D331" t="s">
         <v>364</v>
@@ -6252,10 +6255,10 @@
         <v>335</v>
       </c>
       <c r="C333" t="s">
-        <v>357</v>
+        <v>359</v>
       </c>
       <c r="D333" t="s">
-        <v>387</v>
+        <v>364</v>
       </c>
     </row>
     <row r="334" spans="1:4">
@@ -6322,10 +6325,10 @@
         <v>340</v>
       </c>
       <c r="C338" t="s">
-        <v>356</v>
+        <v>354</v>
       </c>
       <c r="D338" t="s">
-        <v>392</v>
+        <v>368</v>
       </c>
     </row>
     <row r="339" spans="1:4">
@@ -6339,7 +6342,7 @@
         <v>354</v>
       </c>
       <c r="D339" t="s">
-        <v>368</v>
+        <v>384</v>
       </c>
     </row>
     <row r="340" spans="1:4">
@@ -6350,10 +6353,10 @@
         <v>342</v>
       </c>
       <c r="C340" t="s">
-        <v>354</v>
+        <v>355</v>
       </c>
       <c r="D340" t="s">
-        <v>384</v>
+        <v>392</v>
       </c>
     </row>
     <row r="341" spans="1:4">
@@ -6364,7 +6367,7 @@
         <v>343</v>
       </c>
       <c r="C341" t="s">
-        <v>354</v>
+        <v>356</v>
       </c>
       <c r="D341" t="s">
         <v>392</v>
@@ -6381,7 +6384,7 @@
         <v>355</v>
       </c>
       <c r="D342" t="s">
-        <v>392</v>
+        <v>374</v>
       </c>
     </row>
     <row r="343" spans="1:4">
@@ -6392,10 +6395,10 @@
         <v>345</v>
       </c>
       <c r="C343" t="s">
-        <v>355</v>
+        <v>354</v>
       </c>
       <c r="D343" t="s">
-        <v>374</v>
+        <v>392</v>
       </c>
     </row>
     <row r="344" spans="1:4">
@@ -6406,7 +6409,7 @@
         <v>346</v>
       </c>
       <c r="C344" t="s">
-        <v>354</v>
+        <v>355</v>
       </c>
       <c r="D344" t="s">
         <v>392</v>
@@ -6420,7 +6423,7 @@
         <v>347</v>
       </c>
       <c r="C345" t="s">
-        <v>355</v>
+        <v>354</v>
       </c>
       <c r="D345" t="s">
         <v>392</v>
@@ -6462,10 +6465,10 @@
         <v>350</v>
       </c>
       <c r="C348" t="s">
-        <v>356</v>
+        <v>354</v>
       </c>
       <c r="D348" t="s">
-        <v>392</v>
+        <v>378</v>
       </c>
     </row>
     <row r="349" spans="1:4">
@@ -6476,10 +6479,10 @@
         <v>351</v>
       </c>
       <c r="C349" t="s">
-        <v>354</v>
+        <v>359</v>
       </c>
       <c r="D349" t="s">
-        <v>378</v>
+        <v>371</v>
       </c>
     </row>
     <row r="350" spans="1:4">
@@ -6504,10 +6507,10 @@
         <v>353</v>
       </c>
       <c r="C351" t="s">
-        <v>354</v>
+        <v>356</v>
       </c>
       <c r="D351" t="s">
-        <v>375</v>
+        <v>392</v>
       </c>
     </row>
   </sheetData>
@@ -6644,13 +6647,13 @@
         <v>8</v>
       </c>
       <c r="B9" t="s">
-        <v>9</v>
+        <v>17</v>
       </c>
       <c r="C9" t="s">
-        <v>354</v>
+        <v>355</v>
       </c>
       <c r="D9" t="s">
-        <v>365</v>
+        <v>372</v>
       </c>
     </row>
     <row r="10" spans="1:4">
@@ -6658,13 +6661,13 @@
         <v>9</v>
       </c>
       <c r="B10" t="s">
-        <v>17</v>
+        <v>9</v>
       </c>
       <c r="C10" t="s">
-        <v>355</v>
+        <v>354</v>
       </c>
       <c r="D10" t="s">
-        <v>372</v>
+        <v>365</v>
       </c>
     </row>
     <row r="11" spans="1:4">
@@ -6980,13 +6983,13 @@
         <v>32</v>
       </c>
       <c r="B33" t="s">
-        <v>33</v>
+        <v>44</v>
       </c>
       <c r="C33" t="s">
-        <v>355</v>
+        <v>356</v>
       </c>
       <c r="D33" t="s">
-        <v>360</v>
+        <v>367</v>
       </c>
     </row>
     <row r="34" spans="1:4">
@@ -6994,13 +6997,13 @@
         <v>33</v>
       </c>
       <c r="B34" t="s">
-        <v>44</v>
+        <v>37</v>
       </c>
       <c r="C34" t="s">
-        <v>356</v>
+        <v>355</v>
       </c>
       <c r="D34" t="s">
-        <v>367</v>
+        <v>365</v>
       </c>
     </row>
     <row r="35" spans="1:4">
@@ -7008,13 +7011,13 @@
         <v>34</v>
       </c>
       <c r="B35" t="s">
-        <v>37</v>
+        <v>33</v>
       </c>
       <c r="C35" t="s">
         <v>355</v>
       </c>
       <c r="D35" t="s">
-        <v>365</v>
+        <v>360</v>
       </c>
     </row>
     <row r="36" spans="1:4">
@@ -7092,7 +7095,7 @@
         <v>40</v>
       </c>
       <c r="B41" t="s">
-        <v>52</v>
+        <v>51</v>
       </c>
       <c r="C41" t="s">
         <v>357</v>
@@ -7372,7 +7375,7 @@
         <v>60</v>
       </c>
       <c r="B61" t="s">
-        <v>51</v>
+        <v>52</v>
       </c>
       <c r="C61" t="s">
         <v>355</v>
@@ -7386,7 +7389,7 @@
         <v>61</v>
       </c>
       <c r="B62" t="s">
-        <v>61</v>
+        <v>60</v>
       </c>
       <c r="C62" t="s">
         <v>355</v>
@@ -7414,7 +7417,7 @@
         <v>63</v>
       </c>
       <c r="B64" t="s">
-        <v>65</v>
+        <v>66</v>
       </c>
       <c r="C64" t="s">
         <v>357</v>
@@ -7428,7 +7431,7 @@
         <v>64</v>
       </c>
       <c r="B65" t="s">
-        <v>60</v>
+        <v>61</v>
       </c>
       <c r="C65" t="s">
         <v>356</v>
@@ -7442,13 +7445,13 @@
         <v>65</v>
       </c>
       <c r="B66" t="s">
-        <v>76</v>
+        <v>71</v>
       </c>
       <c r="C66" t="s">
-        <v>355</v>
+        <v>357</v>
       </c>
       <c r="D66" t="s">
-        <v>385</v>
+        <v>362</v>
       </c>
     </row>
     <row r="67" spans="1:4">
@@ -7456,13 +7459,13 @@
         <v>66</v>
       </c>
       <c r="B67" t="s">
-        <v>71</v>
+        <v>76</v>
       </c>
       <c r="C67" t="s">
-        <v>357</v>
+        <v>355</v>
       </c>
       <c r="D67" t="s">
-        <v>362</v>
+        <v>385</v>
       </c>
     </row>
     <row r="68" spans="1:4">
@@ -7498,13 +7501,13 @@
         <v>69</v>
       </c>
       <c r="B70" t="s">
-        <v>73</v>
+        <v>65</v>
       </c>
       <c r="C70" t="s">
-        <v>355</v>
+        <v>354</v>
       </c>
       <c r="D70" t="s">
-        <v>371</v>
+        <v>385</v>
       </c>
     </row>
     <row r="71" spans="1:4">
@@ -7512,13 +7515,13 @@
         <v>70</v>
       </c>
       <c r="B71" t="s">
-        <v>66</v>
+        <v>73</v>
       </c>
       <c r="C71" t="s">
-        <v>354</v>
+        <v>355</v>
       </c>
       <c r="D71" t="s">
-        <v>385</v>
+        <v>371</v>
       </c>
     </row>
     <row r="72" spans="1:4">
@@ -7666,13 +7669,13 @@
         <v>81</v>
       </c>
       <c r="B82" t="s">
-        <v>107</v>
+        <v>84</v>
       </c>
       <c r="C82" t="s">
         <v>354</v>
       </c>
       <c r="D82" t="s">
-        <v>388</v>
+        <v>368</v>
       </c>
     </row>
     <row r="83" spans="1:4">
@@ -7680,13 +7683,13 @@
         <v>82</v>
       </c>
       <c r="B83" t="s">
-        <v>85</v>
+        <v>108</v>
       </c>
       <c r="C83" t="s">
         <v>354</v>
       </c>
       <c r="D83" t="s">
-        <v>368</v>
+        <v>388</v>
       </c>
     </row>
     <row r="84" spans="1:4">
@@ -7694,7 +7697,7 @@
         <v>83</v>
       </c>
       <c r="B84" t="s">
-        <v>115</v>
+        <v>116</v>
       </c>
       <c r="C84" t="s">
         <v>354</v>
@@ -7736,13 +7739,13 @@
         <v>86</v>
       </c>
       <c r="B87" t="s">
-        <v>93</v>
+        <v>87</v>
       </c>
       <c r="C87" t="s">
-        <v>356</v>
+        <v>354</v>
       </c>
       <c r="D87" t="s">
-        <v>377</v>
+        <v>391</v>
       </c>
     </row>
     <row r="88" spans="1:4">
@@ -7750,13 +7753,13 @@
         <v>87</v>
       </c>
       <c r="B88" t="s">
-        <v>96</v>
+        <v>92</v>
       </c>
       <c r="C88" t="s">
         <v>356</v>
       </c>
       <c r="D88" t="s">
-        <v>373</v>
+        <v>377</v>
       </c>
     </row>
     <row r="89" spans="1:4">
@@ -7764,13 +7767,13 @@
         <v>88</v>
       </c>
       <c r="B89" t="s">
-        <v>87</v>
+        <v>96</v>
       </c>
       <c r="C89" t="s">
-        <v>354</v>
+        <v>356</v>
       </c>
       <c r="D89" t="s">
-        <v>391</v>
+        <v>373</v>
       </c>
     </row>
     <row r="90" spans="1:4">
@@ -7834,13 +7837,13 @@
         <v>93</v>
       </c>
       <c r="B94" t="s">
-        <v>91</v>
+        <v>95</v>
       </c>
       <c r="C94" t="s">
-        <v>355</v>
+        <v>357</v>
       </c>
       <c r="D94" t="s">
-        <v>364</v>
+        <v>366</v>
       </c>
     </row>
     <row r="95" spans="1:4">
@@ -7848,13 +7851,13 @@
         <v>94</v>
       </c>
       <c r="B95" t="s">
-        <v>95</v>
+        <v>93</v>
       </c>
       <c r="C95" t="s">
-        <v>357</v>
+        <v>355</v>
       </c>
       <c r="D95" t="s">
-        <v>366</v>
+        <v>364</v>
       </c>
     </row>
     <row r="96" spans="1:4">
@@ -7876,7 +7879,7 @@
         <v>96</v>
       </c>
       <c r="B97" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="C97" t="s">
         <v>354</v>
@@ -7918,7 +7921,7 @@
         <v>99</v>
       </c>
       <c r="B100" t="s">
-        <v>84</v>
+        <v>85</v>
       </c>
       <c r="C100" t="s">
         <v>355</v>
@@ -7946,13 +7949,13 @@
         <v>101</v>
       </c>
       <c r="B102" t="s">
-        <v>99</v>
+        <v>103</v>
       </c>
       <c r="C102" t="s">
-        <v>354</v>
+        <v>357</v>
       </c>
       <c r="D102" t="s">
-        <v>360</v>
+        <v>367</v>
       </c>
     </row>
     <row r="103" spans="1:4">
@@ -7960,13 +7963,13 @@
         <v>102</v>
       </c>
       <c r="B103" t="s">
-        <v>103</v>
+        <v>99</v>
       </c>
       <c r="C103" t="s">
-        <v>357</v>
+        <v>354</v>
       </c>
       <c r="D103" t="s">
-        <v>367</v>
+        <v>360</v>
       </c>
     </row>
     <row r="104" spans="1:4">
@@ -8002,10 +8005,10 @@
         <v>105</v>
       </c>
       <c r="B106" t="s">
-        <v>108</v>
+        <v>109</v>
       </c>
       <c r="C106" t="s">
-        <v>355</v>
+        <v>354</v>
       </c>
       <c r="D106" t="s">
         <v>381</v>
@@ -8016,13 +8019,13 @@
         <v>106</v>
       </c>
       <c r="B107" t="s">
-        <v>113</v>
+        <v>107</v>
       </c>
       <c r="C107" t="s">
         <v>355</v>
       </c>
       <c r="D107" t="s">
-        <v>368</v>
+        <v>381</v>
       </c>
     </row>
     <row r="108" spans="1:4">
@@ -8030,13 +8033,13 @@
         <v>107</v>
       </c>
       <c r="B108" t="s">
-        <v>97</v>
+        <v>113</v>
       </c>
       <c r="C108" t="s">
-        <v>354</v>
+        <v>355</v>
       </c>
       <c r="D108" t="s">
-        <v>392</v>
+        <v>368</v>
       </c>
     </row>
     <row r="109" spans="1:4">
@@ -8044,13 +8047,13 @@
         <v>108</v>
       </c>
       <c r="B109" t="s">
-        <v>110</v>
+        <v>97</v>
       </c>
       <c r="C109" t="s">
         <v>354</v>
       </c>
       <c r="D109" t="s">
-        <v>381</v>
+        <v>392</v>
       </c>
     </row>
     <row r="110" spans="1:4">
@@ -8058,7 +8061,7 @@
         <v>109</v>
       </c>
       <c r="B110" t="s">
-        <v>109</v>
+        <v>110</v>
       </c>
       <c r="C110" t="s">
         <v>355</v>
@@ -8128,7 +8131,7 @@
         <v>114</v>
       </c>
       <c r="B115" t="s">
-        <v>116</v>
+        <v>115</v>
       </c>
       <c r="C115" t="s">
         <v>355</v>
@@ -8170,13 +8173,13 @@
         <v>117</v>
       </c>
       <c r="B118" t="s">
-        <v>139</v>
+        <v>147</v>
       </c>
       <c r="C118" t="s">
-        <v>354</v>
+        <v>355</v>
       </c>
       <c r="D118" t="s">
-        <v>368</v>
+        <v>390</v>
       </c>
     </row>
     <row r="119" spans="1:4">
@@ -8198,13 +8201,13 @@
         <v>119</v>
       </c>
       <c r="B120" t="s">
-        <v>147</v>
+        <v>139</v>
       </c>
       <c r="C120" t="s">
-        <v>355</v>
+        <v>354</v>
       </c>
       <c r="D120" t="s">
-        <v>390</v>
+        <v>368</v>
       </c>
     </row>
     <row r="121" spans="1:4">
@@ -8296,13 +8299,13 @@
         <v>126</v>
       </c>
       <c r="B127" t="s">
-        <v>132</v>
+        <v>158</v>
       </c>
       <c r="C127" t="s">
         <v>355</v>
       </c>
       <c r="D127" t="s">
-        <v>370</v>
+        <v>369</v>
       </c>
     </row>
     <row r="128" spans="1:4">
@@ -8310,13 +8313,13 @@
         <v>127</v>
       </c>
       <c r="B128" t="s">
-        <v>156</v>
+        <v>134</v>
       </c>
       <c r="C128" t="s">
         <v>355</v>
       </c>
       <c r="D128" t="s">
-        <v>369</v>
+        <v>370</v>
       </c>
     </row>
     <row r="129" spans="1:4">
@@ -8352,13 +8355,13 @@
         <v>130</v>
       </c>
       <c r="B131" t="s">
-        <v>121</v>
+        <v>148</v>
       </c>
       <c r="C131" t="s">
-        <v>357</v>
+        <v>355</v>
       </c>
       <c r="D131" t="s">
-        <v>380</v>
+        <v>384</v>
       </c>
     </row>
     <row r="132" spans="1:4">
@@ -8380,13 +8383,13 @@
         <v>132</v>
       </c>
       <c r="B133" t="s">
-        <v>148</v>
+        <v>121</v>
       </c>
       <c r="C133" t="s">
-        <v>355</v>
+        <v>357</v>
       </c>
       <c r="D133" t="s">
-        <v>384</v>
+        <v>380</v>
       </c>
     </row>
     <row r="134" spans="1:4">
@@ -8408,7 +8411,7 @@
         <v>134</v>
       </c>
       <c r="B135" t="s">
-        <v>158</v>
+        <v>157</v>
       </c>
       <c r="C135" t="s">
         <v>355</v>
@@ -8450,7 +8453,7 @@
         <v>137</v>
       </c>
       <c r="B138" t="s">
-        <v>128</v>
+        <v>129</v>
       </c>
       <c r="C138" t="s">
         <v>356</v>
@@ -8464,7 +8467,7 @@
         <v>138</v>
       </c>
       <c r="B139" t="s">
-        <v>134</v>
+        <v>132</v>
       </c>
       <c r="C139" t="s">
         <v>356</v>
@@ -8492,7 +8495,7 @@
         <v>140</v>
       </c>
       <c r="B141" t="s">
-        <v>151</v>
+        <v>152</v>
       </c>
       <c r="C141" t="s">
         <v>356</v>
@@ -8534,7 +8537,7 @@
         <v>143</v>
       </c>
       <c r="B144" t="s">
-        <v>149</v>
+        <v>150</v>
       </c>
       <c r="C144" t="s">
         <v>355</v>
@@ -8576,13 +8579,13 @@
         <v>146</v>
       </c>
       <c r="B147" t="s">
-        <v>181</v>
+        <v>149</v>
       </c>
       <c r="C147" t="s">
-        <v>355</v>
+        <v>354</v>
       </c>
       <c r="D147" t="s">
-        <v>391</v>
+        <v>369</v>
       </c>
     </row>
     <row r="148" spans="1:4">
@@ -8590,13 +8593,13 @@
         <v>147</v>
       </c>
       <c r="B148" t="s">
-        <v>152</v>
+        <v>181</v>
       </c>
       <c r="C148" t="s">
-        <v>354</v>
+        <v>355</v>
       </c>
       <c r="D148" t="s">
-        <v>369</v>
+        <v>391</v>
       </c>
     </row>
     <row r="149" spans="1:4">
@@ -8646,13 +8649,13 @@
         <v>151</v>
       </c>
       <c r="B152" t="s">
-        <v>203</v>
+        <v>186</v>
       </c>
       <c r="C152" t="s">
         <v>355</v>
       </c>
       <c r="D152" t="s">
-        <v>368</v>
+        <v>362</v>
       </c>
     </row>
     <row r="153" spans="1:4">
@@ -8660,13 +8663,13 @@
         <v>152</v>
       </c>
       <c r="B153" t="s">
-        <v>186</v>
+        <v>203</v>
       </c>
       <c r="C153" t="s">
         <v>355</v>
       </c>
       <c r="D153" t="s">
-        <v>362</v>
+        <v>368</v>
       </c>
     </row>
     <row r="154" spans="1:4">
@@ -8688,13 +8691,13 @@
         <v>154</v>
       </c>
       <c r="B155" t="s">
-        <v>133</v>
+        <v>155</v>
       </c>
       <c r="C155" t="s">
-        <v>357</v>
+        <v>356</v>
       </c>
       <c r="D155" t="s">
-        <v>372</v>
+        <v>381</v>
       </c>
     </row>
     <row r="156" spans="1:4">
@@ -8702,13 +8705,13 @@
         <v>155</v>
       </c>
       <c r="B156" t="s">
-        <v>155</v>
+        <v>133</v>
       </c>
       <c r="C156" t="s">
-        <v>356</v>
+        <v>357</v>
       </c>
       <c r="D156" t="s">
-        <v>381</v>
+        <v>372</v>
       </c>
     </row>
     <row r="157" spans="1:4">
@@ -8772,7 +8775,7 @@
         <v>160</v>
       </c>
       <c r="B161" t="s">
-        <v>176</v>
+        <v>177</v>
       </c>
       <c r="C161" t="s">
         <v>354</v>
@@ -8814,7 +8817,7 @@
         <v>163</v>
       </c>
       <c r="B164" t="s">
-        <v>166</v>
+        <v>167</v>
       </c>
       <c r="C164" t="s">
         <v>356</v>
@@ -8842,7 +8845,7 @@
         <v>165</v>
       </c>
       <c r="B166" t="s">
-        <v>150</v>
+        <v>151</v>
       </c>
       <c r="C166" t="s">
         <v>356</v>
@@ -8870,7 +8873,7 @@
         <v>167</v>
       </c>
       <c r="B168" t="s">
-        <v>191</v>
+        <v>193</v>
       </c>
       <c r="C168" t="s">
         <v>355</v>
@@ -8898,7 +8901,7 @@
         <v>169</v>
       </c>
       <c r="B170" t="s">
-        <v>157</v>
+        <v>156</v>
       </c>
       <c r="C170" t="s">
         <v>357</v>
@@ -8968,7 +8971,7 @@
         <v>174</v>
       </c>
       <c r="B175" t="s">
-        <v>194</v>
+        <v>195</v>
       </c>
       <c r="C175" t="s">
         <v>354</v>
@@ -9010,7 +9013,7 @@
         <v>177</v>
       </c>
       <c r="B178" t="s">
-        <v>129</v>
+        <v>128</v>
       </c>
       <c r="C178" t="s">
         <v>356</v>
@@ -9038,7 +9041,7 @@
         <v>179</v>
       </c>
       <c r="B180" t="s">
-        <v>177</v>
+        <v>176</v>
       </c>
       <c r="C180" t="s">
         <v>354</v>
@@ -9052,7 +9055,7 @@
         <v>180</v>
       </c>
       <c r="B181" t="s">
-        <v>174</v>
+        <v>173</v>
       </c>
       <c r="C181" t="s">
         <v>358</v>
@@ -9080,13 +9083,13 @@
         <v>182</v>
       </c>
       <c r="B183" t="s">
-        <v>209</v>
+        <v>163</v>
       </c>
       <c r="C183" t="s">
         <v>355</v>
       </c>
       <c r="D183" t="s">
-        <v>388</v>
+        <v>392</v>
       </c>
     </row>
     <row r="184" spans="1:4">
@@ -9094,13 +9097,13 @@
         <v>183</v>
       </c>
       <c r="B184" t="s">
-        <v>163</v>
+        <v>168</v>
       </c>
       <c r="C184" t="s">
-        <v>355</v>
+        <v>358</v>
       </c>
       <c r="D184" t="s">
-        <v>392</v>
+        <v>381</v>
       </c>
     </row>
     <row r="185" spans="1:4">
@@ -9108,13 +9111,13 @@
         <v>184</v>
       </c>
       <c r="B185" t="s">
-        <v>167</v>
+        <v>212</v>
       </c>
       <c r="C185" t="s">
-        <v>358</v>
+        <v>355</v>
       </c>
       <c r="D185" t="s">
-        <v>381</v>
+        <v>388</v>
       </c>
     </row>
     <row r="186" spans="1:4">
@@ -9122,7 +9125,7 @@
         <v>185</v>
       </c>
       <c r="B186" t="s">
-        <v>173</v>
+        <v>174</v>
       </c>
       <c r="C186" t="s">
         <v>359</v>
@@ -9136,13 +9139,13 @@
         <v>186</v>
       </c>
       <c r="B187" t="s">
-        <v>170</v>
+        <v>197</v>
       </c>
       <c r="C187" t="s">
-        <v>358</v>
+        <v>355</v>
       </c>
       <c r="D187" t="s">
-        <v>388</v>
+        <v>381</v>
       </c>
     </row>
     <row r="188" spans="1:4">
@@ -9150,13 +9153,13 @@
         <v>187</v>
       </c>
       <c r="B188" t="s">
-        <v>197</v>
+        <v>170</v>
       </c>
       <c r="C188" t="s">
-        <v>355</v>
+        <v>358</v>
       </c>
       <c r="D188" t="s">
-        <v>381</v>
+        <v>388</v>
       </c>
     </row>
     <row r="189" spans="1:4">
@@ -9164,7 +9167,7 @@
         <v>188</v>
       </c>
       <c r="B189" t="s">
-        <v>227</v>
+        <v>232</v>
       </c>
       <c r="C189" t="s">
         <v>355</v>
@@ -9220,7 +9223,7 @@
         <v>192</v>
       </c>
       <c r="B193" t="s">
-        <v>193</v>
+        <v>194</v>
       </c>
       <c r="C193" t="s">
         <v>358</v>
@@ -9234,13 +9237,13 @@
         <v>193</v>
       </c>
       <c r="B194" t="s">
-        <v>172</v>
+        <v>217</v>
       </c>
       <c r="C194" t="s">
-        <v>357</v>
+        <v>355</v>
       </c>
       <c r="D194" t="s">
-        <v>364</v>
+        <v>363</v>
       </c>
     </row>
     <row r="195" spans="1:4">
@@ -9248,13 +9251,13 @@
         <v>194</v>
       </c>
       <c r="B195" t="s">
-        <v>233</v>
+        <v>172</v>
       </c>
       <c r="C195" t="s">
-        <v>355</v>
+        <v>357</v>
       </c>
       <c r="D195" t="s">
-        <v>361</v>
+        <v>364</v>
       </c>
     </row>
     <row r="196" spans="1:4">
@@ -9262,13 +9265,13 @@
         <v>195</v>
       </c>
       <c r="B196" t="s">
-        <v>217</v>
+        <v>233</v>
       </c>
       <c r="C196" t="s">
         <v>355</v>
       </c>
       <c r="D196" t="s">
-        <v>363</v>
+        <v>361</v>
       </c>
     </row>
     <row r="197" spans="1:4">
@@ -9290,7 +9293,7 @@
         <v>197</v>
       </c>
       <c r="B198" t="s">
-        <v>168</v>
+        <v>166</v>
       </c>
       <c r="C198" t="s">
         <v>357</v>
@@ -9332,10 +9335,10 @@
         <v>200</v>
       </c>
       <c r="B201" t="s">
-        <v>240</v>
+        <v>222</v>
       </c>
       <c r="C201" t="s">
-        <v>354</v>
+        <v>355</v>
       </c>
       <c r="D201" t="s">
         <v>374</v>
@@ -9346,13 +9349,13 @@
         <v>201</v>
       </c>
       <c r="B202" t="s">
-        <v>222</v>
+        <v>189</v>
       </c>
       <c r="C202" t="s">
-        <v>355</v>
+        <v>358</v>
       </c>
       <c r="D202" t="s">
-        <v>374</v>
+        <v>386</v>
       </c>
     </row>
     <row r="203" spans="1:4">
@@ -9360,10 +9363,10 @@
         <v>202</v>
       </c>
       <c r="B203" t="s">
-        <v>189</v>
+        <v>205</v>
       </c>
       <c r="C203" t="s">
-        <v>358</v>
+        <v>355</v>
       </c>
       <c r="D203" t="s">
         <v>386</v>
@@ -9374,7 +9377,7 @@
         <v>203</v>
       </c>
       <c r="B204" t="s">
-        <v>219</v>
+        <v>218</v>
       </c>
       <c r="C204" t="s">
         <v>355</v>
@@ -9388,13 +9391,13 @@
         <v>204</v>
       </c>
       <c r="B205" t="s">
-        <v>205</v>
+        <v>190</v>
       </c>
       <c r="C205" t="s">
-        <v>355</v>
+        <v>359</v>
       </c>
       <c r="D205" t="s">
-        <v>386</v>
+        <v>370</v>
       </c>
     </row>
     <row r="206" spans="1:4">
@@ -9402,13 +9405,13 @@
         <v>205</v>
       </c>
       <c r="B206" t="s">
-        <v>190</v>
+        <v>210</v>
       </c>
       <c r="C206" t="s">
-        <v>359</v>
+        <v>355</v>
       </c>
       <c r="D206" t="s">
-        <v>370</v>
+        <v>372</v>
       </c>
     </row>
     <row r="207" spans="1:4">
@@ -9416,13 +9419,13 @@
         <v>206</v>
       </c>
       <c r="B207" t="s">
-        <v>212</v>
+        <v>207</v>
       </c>
       <c r="C207" t="s">
-        <v>355</v>
+        <v>356</v>
       </c>
       <c r="D207" t="s">
-        <v>372</v>
+        <v>363</v>
       </c>
     </row>
     <row r="208" spans="1:4">
@@ -9430,13 +9433,13 @@
         <v>207</v>
       </c>
       <c r="B208" t="s">
-        <v>207</v>
+        <v>240</v>
       </c>
       <c r="C208" t="s">
-        <v>356</v>
+        <v>354</v>
       </c>
       <c r="D208" t="s">
-        <v>363</v>
+        <v>374</v>
       </c>
     </row>
     <row r="209" spans="1:4">
@@ -9458,7 +9461,7 @@
         <v>209</v>
       </c>
       <c r="B210" t="s">
-        <v>239</v>
+        <v>238</v>
       </c>
       <c r="C210" t="s">
         <v>356</v>
@@ -9500,13 +9503,13 @@
         <v>212</v>
       </c>
       <c r="B213" t="s">
-        <v>232</v>
+        <v>191</v>
       </c>
       <c r="C213" t="s">
-        <v>356</v>
+        <v>355</v>
       </c>
       <c r="D213" t="s">
-        <v>379</v>
+        <v>392</v>
       </c>
     </row>
     <row r="214" spans="1:4">
@@ -9514,13 +9517,13 @@
         <v>213</v>
       </c>
       <c r="B214" t="s">
-        <v>198</v>
+        <v>231</v>
       </c>
       <c r="C214" t="s">
-        <v>359</v>
+        <v>356</v>
       </c>
       <c r="D214" t="s">
-        <v>368</v>
+        <v>379</v>
       </c>
     </row>
     <row r="215" spans="1:4">
@@ -9528,13 +9531,13 @@
         <v>214</v>
       </c>
       <c r="B215" t="s">
-        <v>195</v>
+        <v>198</v>
       </c>
       <c r="C215" t="s">
-        <v>355</v>
+        <v>359</v>
       </c>
       <c r="D215" t="s">
-        <v>392</v>
+        <v>368</v>
       </c>
     </row>
     <row r="216" spans="1:4">
@@ -9570,7 +9573,7 @@
         <v>217</v>
       </c>
       <c r="B218" t="s">
-        <v>231</v>
+        <v>230</v>
       </c>
       <c r="C218" t="s">
         <v>354</v>
@@ -9584,7 +9587,7 @@
         <v>218</v>
       </c>
       <c r="B219" t="s">
-        <v>291</v>
+        <v>290</v>
       </c>
       <c r="C219" t="s">
         <v>354</v>
@@ -9598,7 +9601,7 @@
         <v>219</v>
       </c>
       <c r="B220" t="s">
-        <v>267</v>
+        <v>266</v>
       </c>
       <c r="C220" t="s">
         <v>355</v>
@@ -9640,13 +9643,13 @@
         <v>222</v>
       </c>
       <c r="B223" t="s">
-        <v>223</v>
+        <v>215</v>
       </c>
       <c r="C223" t="s">
-        <v>354</v>
+        <v>358</v>
       </c>
       <c r="D223" t="s">
-        <v>361</v>
+        <v>368</v>
       </c>
     </row>
     <row r="224" spans="1:4">
@@ -9654,13 +9657,13 @@
         <v>223</v>
       </c>
       <c r="B224" t="s">
-        <v>215</v>
+        <v>223</v>
       </c>
       <c r="C224" t="s">
-        <v>358</v>
+        <v>354</v>
       </c>
       <c r="D224" t="s">
-        <v>368</v>
+        <v>361</v>
       </c>
     </row>
     <row r="225" spans="1:4">
@@ -9682,13 +9685,13 @@
         <v>225</v>
       </c>
       <c r="B226" t="s">
-        <v>211</v>
+        <v>246</v>
       </c>
       <c r="C226" t="s">
-        <v>354</v>
+        <v>355</v>
       </c>
       <c r="D226" t="s">
-        <v>360</v>
+        <v>381</v>
       </c>
     </row>
     <row r="227" spans="1:4">
@@ -9696,13 +9699,13 @@
         <v>226</v>
       </c>
       <c r="B227" t="s">
-        <v>246</v>
+        <v>211</v>
       </c>
       <c r="C227" t="s">
-        <v>355</v>
+        <v>354</v>
       </c>
       <c r="D227" t="s">
-        <v>381</v>
+        <v>360</v>
       </c>
     </row>
     <row r="228" spans="1:4">
@@ -9710,7 +9713,7 @@
         <v>227</v>
       </c>
       <c r="B228" t="s">
-        <v>248</v>
+        <v>250</v>
       </c>
       <c r="C228" t="s">
         <v>355</v>
@@ -9738,13 +9741,13 @@
         <v>229</v>
       </c>
       <c r="B230" t="s">
-        <v>210</v>
+        <v>208</v>
       </c>
       <c r="C230" t="s">
-        <v>359</v>
+        <v>355</v>
       </c>
       <c r="D230" t="s">
-        <v>381</v>
+        <v>392</v>
       </c>
     </row>
     <row r="231" spans="1:4">
@@ -9752,13 +9755,13 @@
         <v>230</v>
       </c>
       <c r="B231" t="s">
-        <v>208</v>
+        <v>209</v>
       </c>
       <c r="C231" t="s">
-        <v>355</v>
+        <v>359</v>
       </c>
       <c r="D231" t="s">
-        <v>392</v>
+        <v>381</v>
       </c>
     </row>
     <row r="232" spans="1:4">
@@ -9794,7 +9797,7 @@
         <v>233</v>
       </c>
       <c r="B234" t="s">
-        <v>244</v>
+        <v>243</v>
       </c>
       <c r="C234" t="s">
         <v>356</v>
@@ -9808,7 +9811,7 @@
         <v>234</v>
       </c>
       <c r="B235" t="s">
-        <v>265</v>
+        <v>262</v>
       </c>
       <c r="C235" t="s">
         <v>356</v>
@@ -9822,7 +9825,7 @@
         <v>235</v>
       </c>
       <c r="B236" t="s">
-        <v>218</v>
+        <v>219</v>
       </c>
       <c r="C236" t="s">
         <v>358</v>
@@ -9836,7 +9839,7 @@
         <v>236</v>
       </c>
       <c r="B237" t="s">
-        <v>228</v>
+        <v>227</v>
       </c>
       <c r="C237" t="s">
         <v>358</v>
@@ -9850,7 +9853,7 @@
         <v>237</v>
       </c>
       <c r="B238" t="s">
-        <v>253</v>
+        <v>254</v>
       </c>
       <c r="C238" t="s">
         <v>354</v>
@@ -9864,7 +9867,7 @@
         <v>238</v>
       </c>
       <c r="B239" t="s">
-        <v>262</v>
+        <v>261</v>
       </c>
       <c r="C239" t="s">
         <v>355</v>
@@ -9878,7 +9881,7 @@
         <v>239</v>
       </c>
       <c r="B240" t="s">
-        <v>254</v>
+        <v>255</v>
       </c>
       <c r="C240" t="s">
         <v>355</v>
@@ -9920,7 +9923,7 @@
         <v>242</v>
       </c>
       <c r="B243" t="s">
-        <v>238</v>
+        <v>239</v>
       </c>
       <c r="C243" t="s">
         <v>358</v>
@@ -9934,13 +9937,13 @@
         <v>243</v>
       </c>
       <c r="B244" t="s">
-        <v>226</v>
+        <v>228</v>
       </c>
       <c r="C244" t="s">
-        <v>357</v>
+        <v>359</v>
       </c>
       <c r="D244" t="s">
-        <v>392</v>
+        <v>360</v>
       </c>
     </row>
     <row r="245" spans="1:4">
@@ -9948,13 +9951,13 @@
         <v>244</v>
       </c>
       <c r="B245" t="s">
-        <v>229</v>
+        <v>236</v>
       </c>
       <c r="C245" t="s">
         <v>359</v>
       </c>
       <c r="D245" t="s">
-        <v>360</v>
+        <v>375</v>
       </c>
     </row>
     <row r="246" spans="1:4">
@@ -9962,13 +9965,13 @@
         <v>245</v>
       </c>
       <c r="B246" t="s">
-        <v>236</v>
+        <v>248</v>
       </c>
       <c r="C246" t="s">
-        <v>359</v>
+        <v>354</v>
       </c>
       <c r="D246" t="s">
-        <v>375</v>
+        <v>392</v>
       </c>
     </row>
     <row r="247" spans="1:4">
@@ -9976,13 +9979,13 @@
         <v>246</v>
       </c>
       <c r="B247" t="s">
-        <v>230</v>
+        <v>226</v>
       </c>
       <c r="C247" t="s">
-        <v>359</v>
+        <v>355</v>
       </c>
       <c r="D247" t="s">
-        <v>389</v>
+        <v>392</v>
       </c>
     </row>
     <row r="248" spans="1:4">
@@ -9990,13 +9993,13 @@
         <v>247</v>
       </c>
       <c r="B248" t="s">
-        <v>282</v>
+        <v>229</v>
       </c>
       <c r="C248" t="s">
-        <v>356</v>
+        <v>359</v>
       </c>
       <c r="D248" t="s">
-        <v>387</v>
+        <v>389</v>
       </c>
     </row>
     <row r="249" spans="1:4">
@@ -10004,13 +10007,13 @@
         <v>248</v>
       </c>
       <c r="B249" t="s">
-        <v>268</v>
+        <v>284</v>
       </c>
       <c r="C249" t="s">
-        <v>355</v>
+        <v>356</v>
       </c>
       <c r="D249" t="s">
-        <v>389</v>
+        <v>387</v>
       </c>
     </row>
     <row r="250" spans="1:4">
@@ -10018,13 +10021,13 @@
         <v>249</v>
       </c>
       <c r="B250" t="s">
-        <v>235</v>
+        <v>268</v>
       </c>
       <c r="C250" t="s">
         <v>355</v>
       </c>
       <c r="D250" t="s">
-        <v>392</v>
+        <v>389</v>
       </c>
     </row>
     <row r="251" spans="1:4">
@@ -10032,7 +10035,7 @@
         <v>250</v>
       </c>
       <c r="B251" t="s">
-        <v>243</v>
+        <v>242</v>
       </c>
       <c r="C251" t="s">
         <v>359</v>
@@ -10049,10 +10052,10 @@
         <v>252</v>
       </c>
       <c r="C252" t="s">
-        <v>354</v>
+        <v>358</v>
       </c>
       <c r="D252" t="s">
-        <v>392</v>
+        <v>387</v>
       </c>
     </row>
     <row r="253" spans="1:4">
@@ -10060,10 +10063,10 @@
         <v>252</v>
       </c>
       <c r="B253" t="s">
-        <v>250</v>
+        <v>301</v>
       </c>
       <c r="C253" t="s">
-        <v>358</v>
+        <v>354</v>
       </c>
       <c r="D253" t="s">
         <v>387</v>
@@ -10074,13 +10077,13 @@
         <v>253</v>
       </c>
       <c r="B254" t="s">
-        <v>301</v>
+        <v>292</v>
       </c>
       <c r="C254" t="s">
-        <v>354</v>
+        <v>355</v>
       </c>
       <c r="D254" t="s">
-        <v>387</v>
+        <v>380</v>
       </c>
     </row>
     <row r="255" spans="1:4">
@@ -10088,13 +10091,13 @@
         <v>254</v>
       </c>
       <c r="B255" t="s">
-        <v>292</v>
+        <v>245</v>
       </c>
       <c r="C255" t="s">
-        <v>355</v>
+        <v>357</v>
       </c>
       <c r="D255" t="s">
-        <v>380</v>
+        <v>392</v>
       </c>
     </row>
     <row r="256" spans="1:4">
@@ -10102,7 +10105,7 @@
         <v>255</v>
       </c>
       <c r="B256" t="s">
-        <v>245</v>
+        <v>244</v>
       </c>
       <c r="C256" t="s">
         <v>355</v>
@@ -10116,7 +10119,7 @@
         <v>256</v>
       </c>
       <c r="B257" t="s">
-        <v>276</v>
+        <v>275</v>
       </c>
       <c r="C257" t="s">
         <v>356</v>
@@ -10130,7 +10133,7 @@
         <v>257</v>
       </c>
       <c r="B258" t="s">
-        <v>287</v>
+        <v>289</v>
       </c>
       <c r="C258" t="s">
         <v>355</v>
@@ -10144,7 +10147,7 @@
         <v>258</v>
       </c>
       <c r="B259" t="s">
-        <v>284</v>
+        <v>285</v>
       </c>
       <c r="C259" t="s">
         <v>355</v>
@@ -10158,13 +10161,13 @@
         <v>259</v>
       </c>
       <c r="B260" t="s">
-        <v>283</v>
+        <v>247</v>
       </c>
       <c r="C260" t="s">
-        <v>356</v>
+        <v>359</v>
       </c>
       <c r="D260" t="s">
-        <v>388</v>
+        <v>376</v>
       </c>
     </row>
     <row r="261" spans="1:4">
@@ -10172,13 +10175,13 @@
         <v>260</v>
       </c>
       <c r="B261" t="s">
-        <v>247</v>
+        <v>253</v>
       </c>
       <c r="C261" t="s">
-        <v>359</v>
+        <v>357</v>
       </c>
       <c r="D261" t="s">
-        <v>376</v>
+        <v>392</v>
       </c>
     </row>
     <row r="262" spans="1:4">
@@ -10186,13 +10189,13 @@
         <v>261</v>
       </c>
       <c r="B262" t="s">
-        <v>263</v>
+        <v>288</v>
       </c>
       <c r="C262" t="s">
         <v>356</v>
       </c>
       <c r="D262" t="s">
-        <v>361</v>
+        <v>388</v>
       </c>
     </row>
     <row r="263" spans="1:4">
@@ -10200,13 +10203,13 @@
         <v>262</v>
       </c>
       <c r="B263" t="s">
-        <v>255</v>
+        <v>265</v>
       </c>
       <c r="C263" t="s">
-        <v>357</v>
+        <v>356</v>
       </c>
       <c r="D263" t="s">
-        <v>392</v>
+        <v>361</v>
       </c>
     </row>
     <row r="264" spans="1:4">
@@ -10228,7 +10231,7 @@
         <v>264</v>
       </c>
       <c r="B265" t="s">
-        <v>242</v>
+        <v>241</v>
       </c>
       <c r="C265" t="s">
         <v>354</v>
@@ -10242,7 +10245,7 @@
         <v>265</v>
       </c>
       <c r="B266" t="s">
-        <v>300</v>
+        <v>298</v>
       </c>
       <c r="C266" t="s">
         <v>355</v>
@@ -10256,7 +10259,7 @@
         <v>266</v>
       </c>
       <c r="B267" t="s">
-        <v>290</v>
+        <v>291</v>
       </c>
       <c r="C267" t="s">
         <v>354</v>
@@ -10270,13 +10273,13 @@
         <v>267</v>
       </c>
       <c r="B268" t="s">
-        <v>296</v>
+        <v>269</v>
       </c>
       <c r="C268" t="s">
-        <v>355</v>
+        <v>354</v>
       </c>
       <c r="D268" t="s">
-        <v>379</v>
+        <v>392</v>
       </c>
     </row>
     <row r="269" spans="1:4">
@@ -10284,13 +10287,13 @@
         <v>268</v>
       </c>
       <c r="B269" t="s">
-        <v>306</v>
+        <v>295</v>
       </c>
       <c r="C269" t="s">
         <v>355</v>
       </c>
       <c r="D269" t="s">
-        <v>376</v>
+        <v>379</v>
       </c>
     </row>
     <row r="270" spans="1:4">
@@ -10298,13 +10301,13 @@
         <v>269</v>
       </c>
       <c r="B270" t="s">
-        <v>278</v>
+        <v>306</v>
       </c>
       <c r="C270" t="s">
-        <v>354</v>
+        <v>355</v>
       </c>
       <c r="D270" t="s">
-        <v>371</v>
+        <v>376</v>
       </c>
     </row>
     <row r="271" spans="1:4">
@@ -10312,13 +10315,13 @@
         <v>270</v>
       </c>
       <c r="B271" t="s">
-        <v>271</v>
+        <v>279</v>
       </c>
       <c r="C271" t="s">
         <v>354</v>
       </c>
       <c r="D271" t="s">
-        <v>392</v>
+        <v>371</v>
       </c>
     </row>
     <row r="272" spans="1:4">
@@ -10354,7 +10357,7 @@
         <v>273</v>
       </c>
       <c r="B274" t="s">
-        <v>269</v>
+        <v>271</v>
       </c>
       <c r="C274" t="s">
         <v>354</v>
@@ -10382,13 +10385,13 @@
         <v>275</v>
       </c>
       <c r="B276" t="s">
-        <v>272</v>
+        <v>312</v>
       </c>
       <c r="C276" t="s">
-        <v>354</v>
+        <v>356</v>
       </c>
       <c r="D276" t="s">
-        <v>392</v>
+        <v>381</v>
       </c>
     </row>
     <row r="277" spans="1:4">
@@ -10396,13 +10399,13 @@
         <v>276</v>
       </c>
       <c r="B277" t="s">
-        <v>312</v>
+        <v>257</v>
       </c>
       <c r="C277" t="s">
-        <v>356</v>
+        <v>359</v>
       </c>
       <c r="D277" t="s">
-        <v>381</v>
+        <v>363</v>
       </c>
     </row>
     <row r="278" spans="1:4">
@@ -10410,13 +10413,13 @@
         <v>277</v>
       </c>
       <c r="B278" t="s">
-        <v>261</v>
+        <v>272</v>
       </c>
       <c r="C278" t="s">
-        <v>354</v>
+        <v>358</v>
       </c>
       <c r="D278" t="s">
-        <v>376</v>
+        <v>383</v>
       </c>
     </row>
     <row r="279" spans="1:4">
@@ -10424,13 +10427,13 @@
         <v>278</v>
       </c>
       <c r="B279" t="s">
-        <v>257</v>
+        <v>283</v>
       </c>
       <c r="C279" t="s">
-        <v>359</v>
+        <v>354</v>
       </c>
       <c r="D279" t="s">
-        <v>363</v>
+        <v>392</v>
       </c>
     </row>
     <row r="280" spans="1:4">
@@ -10438,13 +10441,13 @@
         <v>279</v>
       </c>
       <c r="B280" t="s">
-        <v>273</v>
+        <v>235</v>
       </c>
       <c r="C280" t="s">
-        <v>358</v>
+        <v>357</v>
       </c>
       <c r="D280" t="s">
-        <v>383</v>
+        <v>387</v>
       </c>
     </row>
     <row r="281" spans="1:4">
@@ -10452,13 +10455,13 @@
         <v>280</v>
       </c>
       <c r="B281" t="s">
-        <v>279</v>
+        <v>263</v>
       </c>
       <c r="C281" t="s">
         <v>354</v>
       </c>
       <c r="D281" t="s">
-        <v>392</v>
+        <v>376</v>
       </c>
     </row>
     <row r="282" spans="1:4">
@@ -10480,7 +10483,7 @@
         <v>282</v>
       </c>
       <c r="B283" t="s">
-        <v>249</v>
+        <v>251</v>
       </c>
       <c r="C283" t="s">
         <v>357</v>
@@ -10508,13 +10511,13 @@
         <v>284</v>
       </c>
       <c r="B285" t="s">
-        <v>241</v>
+        <v>276</v>
       </c>
       <c r="C285" t="s">
-        <v>357</v>
+        <v>354</v>
       </c>
       <c r="D285" t="s">
-        <v>387</v>
+        <v>392</v>
       </c>
     </row>
     <row r="286" spans="1:4">
@@ -10522,7 +10525,7 @@
         <v>285</v>
       </c>
       <c r="B286" t="s">
-        <v>266</v>
+        <v>267</v>
       </c>
       <c r="C286" t="s">
         <v>355</v>
@@ -10536,13 +10539,13 @@
         <v>286</v>
       </c>
       <c r="B287" t="s">
-        <v>294</v>
+        <v>277</v>
       </c>
       <c r="C287" t="s">
         <v>354</v>
       </c>
       <c r="D287" t="s">
-        <v>386</v>
+        <v>392</v>
       </c>
     </row>
     <row r="288" spans="1:4">
@@ -10550,13 +10553,13 @@
         <v>287</v>
       </c>
       <c r="B288" t="s">
-        <v>260</v>
+        <v>294</v>
       </c>
       <c r="C288" t="s">
-        <v>358</v>
+        <v>354</v>
       </c>
       <c r="D288" t="s">
-        <v>364</v>
+        <v>386</v>
       </c>
     </row>
     <row r="289" spans="1:4">
@@ -10564,13 +10567,13 @@
         <v>288</v>
       </c>
       <c r="B289" t="s">
-        <v>270</v>
+        <v>260</v>
       </c>
       <c r="C289" t="s">
-        <v>359</v>
+        <v>358</v>
       </c>
       <c r="D289" t="s">
-        <v>367</v>
+        <v>364</v>
       </c>
     </row>
     <row r="290" spans="1:4">
@@ -10578,13 +10581,13 @@
         <v>289</v>
       </c>
       <c r="B290" t="s">
-        <v>314</v>
+        <v>270</v>
       </c>
       <c r="C290" t="s">
-        <v>355</v>
+        <v>359</v>
       </c>
       <c r="D290" t="s">
-        <v>369</v>
+        <v>367</v>
       </c>
     </row>
     <row r="291" spans="1:4">
@@ -10592,13 +10595,13 @@
         <v>290</v>
       </c>
       <c r="B291" t="s">
-        <v>289</v>
+        <v>314</v>
       </c>
       <c r="C291" t="s">
-        <v>354</v>
+        <v>355</v>
       </c>
       <c r="D291" t="s">
-        <v>392</v>
+        <v>369</v>
       </c>
     </row>
     <row r="292" spans="1:4">
@@ -10606,13 +10609,13 @@
         <v>291</v>
       </c>
       <c r="B292" t="s">
-        <v>274</v>
+        <v>249</v>
       </c>
       <c r="C292" t="s">
-        <v>359</v>
+        <v>356</v>
       </c>
       <c r="D292" t="s">
-        <v>386</v>
+        <v>392</v>
       </c>
     </row>
     <row r="293" spans="1:4">
@@ -10620,13 +10623,13 @@
         <v>292</v>
       </c>
       <c r="B293" t="s">
-        <v>277</v>
+        <v>274</v>
       </c>
       <c r="C293" t="s">
-        <v>355</v>
+        <v>359</v>
       </c>
       <c r="D293" t="s">
-        <v>392</v>
+        <v>386</v>
       </c>
     </row>
     <row r="294" spans="1:4">
@@ -10634,7 +10637,7 @@
         <v>293</v>
       </c>
       <c r="B294" t="s">
-        <v>285</v>
+        <v>286</v>
       </c>
       <c r="C294" t="s">
         <v>359</v>
@@ -10648,10 +10651,10 @@
         <v>294</v>
       </c>
       <c r="B295" t="s">
-        <v>251</v>
+        <v>278</v>
       </c>
       <c r="C295" t="s">
-        <v>356</v>
+        <v>355</v>
       </c>
       <c r="D295" t="s">
         <v>392</v>
@@ -10662,7 +10665,7 @@
         <v>295</v>
       </c>
       <c r="B296" t="s">
-        <v>281</v>
+        <v>282</v>
       </c>
       <c r="C296" t="s">
         <v>359</v>
@@ -10676,13 +10679,13 @@
         <v>296</v>
       </c>
       <c r="B297" t="s">
-        <v>295</v>
+        <v>293</v>
       </c>
       <c r="C297" t="s">
-        <v>354</v>
+        <v>358</v>
       </c>
       <c r="D297" t="s">
-        <v>392</v>
+        <v>371</v>
       </c>
     </row>
     <row r="298" spans="1:4">
@@ -10690,13 +10693,13 @@
         <v>297</v>
       </c>
       <c r="B298" t="s">
-        <v>293</v>
+        <v>296</v>
       </c>
       <c r="C298" t="s">
-        <v>358</v>
+        <v>354</v>
       </c>
       <c r="D298" t="s">
-        <v>371</v>
+        <v>389</v>
       </c>
     </row>
     <row r="299" spans="1:4">
@@ -10704,13 +10707,13 @@
         <v>298</v>
       </c>
       <c r="B299" t="s">
-        <v>297</v>
+        <v>299</v>
       </c>
       <c r="C299" t="s">
         <v>354</v>
       </c>
       <c r="D299" t="s">
-        <v>389</v>
+        <v>392</v>
       </c>
     </row>
     <row r="300" spans="1:4">
@@ -10718,7 +10721,7 @@
         <v>299</v>
       </c>
       <c r="B300" t="s">
-        <v>275</v>
+        <v>273</v>
       </c>
       <c r="C300" t="s">
         <v>357</v>
@@ -10732,13 +10735,13 @@
         <v>300</v>
       </c>
       <c r="B301" t="s">
-        <v>315</v>
+        <v>281</v>
       </c>
       <c r="C301" t="s">
-        <v>355</v>
+        <v>354</v>
       </c>
       <c r="D301" t="s">
-        <v>363</v>
+        <v>366</v>
       </c>
     </row>
     <row r="302" spans="1:4">
@@ -10746,13 +10749,13 @@
         <v>301</v>
       </c>
       <c r="B302" t="s">
-        <v>313</v>
+        <v>315</v>
       </c>
       <c r="C302" t="s">
-        <v>354</v>
+        <v>355</v>
       </c>
       <c r="D302" t="s">
-        <v>370</v>
+        <v>363</v>
       </c>
     </row>
     <row r="303" spans="1:4">
@@ -10760,13 +10763,13 @@
         <v>302</v>
       </c>
       <c r="B303" t="s">
-        <v>318</v>
+        <v>313</v>
       </c>
       <c r="C303" t="s">
-        <v>355</v>
+        <v>354</v>
       </c>
       <c r="D303" t="s">
-        <v>364</v>
+        <v>370</v>
       </c>
     </row>
     <row r="304" spans="1:4">
@@ -10774,13 +10777,13 @@
         <v>303</v>
       </c>
       <c r="B304" t="s">
-        <v>286</v>
+        <v>318</v>
       </c>
       <c r="C304" t="s">
-        <v>354</v>
+        <v>355</v>
       </c>
       <c r="D304" t="s">
-        <v>366</v>
+        <v>364</v>
       </c>
     </row>
     <row r="305" spans="1:4">
@@ -10816,7 +10819,7 @@
         <v>306</v>
       </c>
       <c r="B307" t="s">
-        <v>298</v>
+        <v>297</v>
       </c>
       <c r="C307" t="s">
         <v>358</v>
@@ -10830,7 +10833,7 @@
         <v>307</v>
       </c>
       <c r="B308" t="s">
-        <v>288</v>
+        <v>287</v>
       </c>
       <c r="C308" t="s">
         <v>357</v>
@@ -10900,7 +10903,7 @@
         <v>312</v>
       </c>
       <c r="B313" t="s">
-        <v>328</v>
+        <v>327</v>
       </c>
       <c r="C313" t="s">
         <v>354</v>
@@ -10914,7 +10917,7 @@
         <v>313</v>
       </c>
       <c r="B314" t="s">
-        <v>304</v>
+        <v>305</v>
       </c>
       <c r="C314" t="s">
         <v>358</v>
@@ -10928,13 +10931,13 @@
         <v>314</v>
       </c>
       <c r="B315" t="s">
-        <v>309</v>
+        <v>307</v>
       </c>
       <c r="C315" t="s">
         <v>359</v>
       </c>
       <c r="D315" t="s">
-        <v>382</v>
+        <v>392</v>
       </c>
     </row>
     <row r="316" spans="1:4">
@@ -10942,13 +10945,13 @@
         <v>315</v>
       </c>
       <c r="B316" t="s">
-        <v>307</v>
+        <v>309</v>
       </c>
       <c r="C316" t="s">
         <v>359</v>
       </c>
       <c r="D316" t="s">
-        <v>392</v>
+        <v>382</v>
       </c>
     </row>
     <row r="317" spans="1:4">
@@ -10970,13 +10973,13 @@
         <v>317</v>
       </c>
       <c r="B318" t="s">
-        <v>299</v>
+        <v>338</v>
       </c>
       <c r="C318" t="s">
-        <v>357</v>
+        <v>356</v>
       </c>
       <c r="D318" t="s">
-        <v>360</v>
+        <v>378</v>
       </c>
     </row>
     <row r="319" spans="1:4">
@@ -10998,13 +11001,13 @@
         <v>319</v>
       </c>
       <c r="B320" t="s">
-        <v>338</v>
+        <v>323</v>
       </c>
       <c r="C320" t="s">
-        <v>356</v>
+        <v>355</v>
       </c>
       <c r="D320" t="s">
-        <v>378</v>
+        <v>392</v>
       </c>
     </row>
     <row r="321" spans="1:4">
@@ -11012,13 +11015,13 @@
         <v>320</v>
       </c>
       <c r="B321" t="s">
-        <v>327</v>
+        <v>341</v>
       </c>
       <c r="C321" t="s">
         <v>354</v>
       </c>
       <c r="D321" t="s">
-        <v>392</v>
+        <v>384</v>
       </c>
     </row>
     <row r="322" spans="1:4">
@@ -11026,13 +11029,13 @@
         <v>321</v>
       </c>
       <c r="B322" t="s">
-        <v>323</v>
+        <v>333</v>
       </c>
       <c r="C322" t="s">
-        <v>355</v>
+        <v>354</v>
       </c>
       <c r="D322" t="s">
-        <v>392</v>
+        <v>364</v>
       </c>
     </row>
     <row r="323" spans="1:4">
@@ -11040,13 +11043,13 @@
         <v>322</v>
       </c>
       <c r="B323" t="s">
-        <v>342</v>
+        <v>328</v>
       </c>
       <c r="C323" t="s">
         <v>354</v>
       </c>
       <c r="D323" t="s">
-        <v>384</v>
+        <v>392</v>
       </c>
     </row>
     <row r="324" spans="1:4">
@@ -11054,13 +11057,13 @@
         <v>323</v>
       </c>
       <c r="B324" t="s">
-        <v>332</v>
+        <v>324</v>
       </c>
       <c r="C324" t="s">
         <v>354</v>
       </c>
       <c r="D324" t="s">
-        <v>364</v>
+        <v>375</v>
       </c>
     </row>
     <row r="325" spans="1:4">
@@ -11068,13 +11071,13 @@
         <v>324</v>
       </c>
       <c r="B325" t="s">
-        <v>324</v>
+        <v>300</v>
       </c>
       <c r="C325" t="s">
-        <v>354</v>
+        <v>357</v>
       </c>
       <c r="D325" t="s">
-        <v>375</v>
+        <v>360</v>
       </c>
     </row>
     <row r="326" spans="1:4">
@@ -11124,7 +11127,7 @@
         <v>328</v>
       </c>
       <c r="B329" t="s">
-        <v>345</v>
+        <v>344</v>
       </c>
       <c r="C329" t="s">
         <v>355</v>
@@ -11138,7 +11141,7 @@
         <v>329</v>
       </c>
       <c r="B330" t="s">
-        <v>330</v>
+        <v>331</v>
       </c>
       <c r="C330" t="s">
         <v>355</v>
@@ -11166,7 +11169,7 @@
         <v>331</v>
       </c>
       <c r="B332" t="s">
-        <v>305</v>
+        <v>304</v>
       </c>
       <c r="C332" t="s">
         <v>357</v>
@@ -11180,13 +11183,13 @@
         <v>332</v>
       </c>
       <c r="B333" t="s">
-        <v>325</v>
+        <v>330</v>
       </c>
       <c r="C333" t="s">
-        <v>359</v>
+        <v>357</v>
       </c>
       <c r="D333" t="s">
-        <v>391</v>
+        <v>387</v>
       </c>
     </row>
     <row r="334" spans="1:4">
@@ -11194,13 +11197,13 @@
         <v>333</v>
       </c>
       <c r="B334" t="s">
-        <v>349</v>
+        <v>325</v>
       </c>
       <c r="C334" t="s">
-        <v>355</v>
+        <v>359</v>
       </c>
       <c r="D334" t="s">
-        <v>374</v>
+        <v>391</v>
       </c>
     </row>
     <row r="335" spans="1:4">
@@ -11208,13 +11211,13 @@
         <v>334</v>
       </c>
       <c r="B335" t="s">
-        <v>351</v>
+        <v>349</v>
       </c>
       <c r="C335" t="s">
-        <v>354</v>
+        <v>355</v>
       </c>
       <c r="D335" t="s">
-        <v>378</v>
+        <v>374</v>
       </c>
     </row>
     <row r="336" spans="1:4">
@@ -11222,13 +11225,13 @@
         <v>335</v>
       </c>
       <c r="B336" t="s">
-        <v>347</v>
+        <v>350</v>
       </c>
       <c r="C336" t="s">
-        <v>355</v>
+        <v>354</v>
       </c>
       <c r="D336" t="s">
-        <v>392</v>
+        <v>378</v>
       </c>
     </row>
     <row r="337" spans="1:4">
@@ -11236,13 +11239,13 @@
         <v>336</v>
       </c>
       <c r="B337" t="s">
-        <v>335</v>
+        <v>346</v>
       </c>
       <c r="C337" t="s">
-        <v>357</v>
+        <v>355</v>
       </c>
       <c r="D337" t="s">
-        <v>387</v>
+        <v>392</v>
       </c>
     </row>
     <row r="338" spans="1:4">
@@ -11320,7 +11323,7 @@
         <v>342</v>
       </c>
       <c r="B343" t="s">
-        <v>353</v>
+        <v>396</v>
       </c>
       <c r="C343" t="s">
         <v>354</v>
@@ -11334,7 +11337,7 @@
         <v>343</v>
       </c>
       <c r="B344" t="s">
-        <v>344</v>
+        <v>342</v>
       </c>
       <c r="C344" t="s">
         <v>355</v>
@@ -11348,7 +11351,7 @@
         <v>344</v>
       </c>
       <c r="B345" t="s">
-        <v>396</v>
+        <v>397</v>
       </c>
       <c r="C345" t="s">
         <v>355</v>
@@ -11362,7 +11365,7 @@
         <v>345</v>
       </c>
       <c r="B346" t="s">
-        <v>333</v>
+        <v>335</v>
       </c>
       <c r="C346" t="s">
         <v>359</v>
@@ -11376,13 +11379,13 @@
         <v>346</v>
       </c>
       <c r="B347" t="s">
-        <v>397</v>
+        <v>398</v>
       </c>
       <c r="C347" t="s">
-        <v>359</v>
+        <v>354</v>
       </c>
       <c r="D347" t="s">
-        <v>371</v>
+        <v>392</v>
       </c>
     </row>
     <row r="348" spans="1:4">
@@ -11390,7 +11393,7 @@
         <v>347</v>
       </c>
       <c r="B348" t="s">
-        <v>341</v>
+        <v>340</v>
       </c>
       <c r="C348" t="s">
         <v>354</v>
@@ -11404,10 +11407,10 @@
         <v>348</v>
       </c>
       <c r="B349" t="s">
-        <v>398</v>
+        <v>336</v>
       </c>
       <c r="C349" t="s">
-        <v>354</v>
+        <v>359</v>
       </c>
       <c r="D349" t="s">
         <v>392</v>
@@ -11418,7 +11421,7 @@
         <v>349</v>
       </c>
       <c r="B350" t="s">
-        <v>343</v>
+        <v>345</v>
       </c>
       <c r="C350" t="s">
         <v>354</v>
@@ -11432,13 +11435,13 @@
         <v>350</v>
       </c>
       <c r="B351" t="s">
-        <v>336</v>
+        <v>399</v>
       </c>
       <c r="C351" t="s">
-        <v>359</v>
+        <v>356</v>
       </c>
       <c r="D351" t="s">
-        <v>392</v>
+        <v>361</v>
       </c>
     </row>
   </sheetData>
@@ -12037,7 +12040,7 @@
         <v>41</v>
       </c>
       <c r="B42" t="s">
-        <v>52</v>
+        <v>51</v>
       </c>
       <c r="C42" t="s">
         <v>357</v>
@@ -12331,7 +12334,7 @@
         <v>62</v>
       </c>
       <c r="B63" t="s">
-        <v>60</v>
+        <v>61</v>
       </c>
       <c r="C63" t="s">
         <v>356</v>
@@ -12345,7 +12348,7 @@
         <v>63</v>
       </c>
       <c r="B64" t="s">
-        <v>61</v>
+        <v>60</v>
       </c>
       <c r="C64" t="s">
         <v>355</v>
@@ -12401,7 +12404,7 @@
         <v>67</v>
       </c>
       <c r="B68" t="s">
-        <v>65</v>
+        <v>66</v>
       </c>
       <c r="C68" t="s">
         <v>357</v>
@@ -12429,7 +12432,7 @@
         <v>69</v>
       </c>
       <c r="B70" t="s">
-        <v>107</v>
+        <v>108</v>
       </c>
       <c r="C70" t="s">
         <v>354</v>
@@ -12443,7 +12446,7 @@
         <v>70</v>
       </c>
       <c r="B71" t="s">
-        <v>66</v>
+        <v>65</v>
       </c>
       <c r="C71" t="s">
         <v>354</v>
@@ -12457,7 +12460,7 @@
         <v>71</v>
       </c>
       <c r="B72" t="s">
-        <v>115</v>
+        <v>116</v>
       </c>
       <c r="C72" t="s">
         <v>354</v>
@@ -12499,7 +12502,7 @@
         <v>74</v>
       </c>
       <c r="B75" t="s">
-        <v>51</v>
+        <v>52</v>
       </c>
       <c r="C75" t="s">
         <v>355</v>
@@ -12653,7 +12656,7 @@
         <v>85</v>
       </c>
       <c r="B86" t="s">
-        <v>93</v>
+        <v>92</v>
       </c>
       <c r="C86" t="s">
         <v>356</v>
@@ -12681,7 +12684,7 @@
         <v>87</v>
       </c>
       <c r="B88" t="s">
-        <v>85</v>
+        <v>84</v>
       </c>
       <c r="C88" t="s">
         <v>354</v>
@@ -12723,7 +12726,7 @@
         <v>90</v>
       </c>
       <c r="B91" t="s">
-        <v>91</v>
+        <v>93</v>
       </c>
       <c r="C91" t="s">
         <v>355</v>
@@ -12807,7 +12810,7 @@
         <v>96</v>
       </c>
       <c r="B97" t="s">
-        <v>110</v>
+        <v>109</v>
       </c>
       <c r="C97" t="s">
         <v>354</v>
@@ -12835,7 +12838,7 @@
         <v>98</v>
       </c>
       <c r="B99" t="s">
-        <v>109</v>
+        <v>110</v>
       </c>
       <c r="C99" t="s">
         <v>355</v>
@@ -12863,7 +12866,7 @@
         <v>100</v>
       </c>
       <c r="B101" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="C101" t="s">
         <v>354</v>
@@ -12905,7 +12908,7 @@
         <v>103</v>
       </c>
       <c r="B104" t="s">
-        <v>108</v>
+        <v>107</v>
       </c>
       <c r="C104" t="s">
         <v>355</v>
@@ -12919,7 +12922,7 @@
         <v>104</v>
       </c>
       <c r="B105" t="s">
-        <v>84</v>
+        <v>85</v>
       </c>
       <c r="C105" t="s">
         <v>355</v>
@@ -13045,7 +13048,7 @@
         <v>113</v>
       </c>
       <c r="B114" t="s">
-        <v>156</v>
+        <v>158</v>
       </c>
       <c r="C114" t="s">
         <v>355</v>
@@ -13129,7 +13132,7 @@
         <v>119</v>
       </c>
       <c r="B120" t="s">
-        <v>116</v>
+        <v>115</v>
       </c>
       <c r="C120" t="s">
         <v>355</v>
@@ -13255,7 +13258,7 @@
         <v>128</v>
       </c>
       <c r="B129" t="s">
-        <v>132</v>
+        <v>134</v>
       </c>
       <c r="C129" t="s">
         <v>355</v>
@@ -13325,7 +13328,7 @@
         <v>133</v>
       </c>
       <c r="B134" t="s">
-        <v>151</v>
+        <v>152</v>
       </c>
       <c r="C134" t="s">
         <v>356</v>
@@ -13381,7 +13384,7 @@
         <v>137</v>
       </c>
       <c r="B138" t="s">
-        <v>128</v>
+        <v>129</v>
       </c>
       <c r="C138" t="s">
         <v>356</v>
@@ -13423,7 +13426,7 @@
         <v>140</v>
       </c>
       <c r="B141" t="s">
-        <v>134</v>
+        <v>132</v>
       </c>
       <c r="C141" t="s">
         <v>356</v>
@@ -13437,7 +13440,7 @@
         <v>141</v>
       </c>
       <c r="B142" t="s">
-        <v>158</v>
+        <v>157</v>
       </c>
       <c r="C142" t="s">
         <v>355</v>
@@ -13605,7 +13608,7 @@
         <v>153</v>
       </c>
       <c r="B154" t="s">
-        <v>149</v>
+        <v>150</v>
       </c>
       <c r="C154" t="s">
         <v>355</v>
@@ -13717,7 +13720,7 @@
         <v>161</v>
       </c>
       <c r="B162" t="s">
-        <v>176</v>
+        <v>177</v>
       </c>
       <c r="C162" t="s">
         <v>354</v>
@@ -13745,7 +13748,7 @@
         <v>163</v>
       </c>
       <c r="B164" t="s">
-        <v>166</v>
+        <v>167</v>
       </c>
       <c r="C164" t="s">
         <v>356</v>
@@ -13787,7 +13790,7 @@
         <v>166</v>
       </c>
       <c r="B167" t="s">
-        <v>152</v>
+        <v>149</v>
       </c>
       <c r="C167" t="s">
         <v>354</v>
@@ -13829,7 +13832,7 @@
         <v>169</v>
       </c>
       <c r="B170" t="s">
-        <v>194</v>
+        <v>195</v>
       </c>
       <c r="C170" t="s">
         <v>354</v>
@@ -13843,7 +13846,7 @@
         <v>170</v>
       </c>
       <c r="B171" t="s">
-        <v>167</v>
+        <v>168</v>
       </c>
       <c r="C171" t="s">
         <v>358</v>
@@ -13885,7 +13888,7 @@
         <v>173</v>
       </c>
       <c r="B174" t="s">
-        <v>173</v>
+        <v>174</v>
       </c>
       <c r="C174" t="s">
         <v>359</v>
@@ -13913,7 +13916,7 @@
         <v>175</v>
       </c>
       <c r="B176" t="s">
-        <v>150</v>
+        <v>151</v>
       </c>
       <c r="C176" t="s">
         <v>356</v>
@@ -13927,7 +13930,7 @@
         <v>176</v>
       </c>
       <c r="B177" t="s">
-        <v>174</v>
+        <v>173</v>
       </c>
       <c r="C177" t="s">
         <v>358</v>
@@ -13941,7 +13944,7 @@
         <v>177</v>
       </c>
       <c r="B178" t="s">
-        <v>291</v>
+        <v>290</v>
       </c>
       <c r="C178" t="s">
         <v>354</v>
@@ -13969,7 +13972,7 @@
         <v>179</v>
       </c>
       <c r="B180" t="s">
-        <v>157</v>
+        <v>156</v>
       </c>
       <c r="C180" t="s">
         <v>357</v>
@@ -13983,7 +13986,7 @@
         <v>180</v>
       </c>
       <c r="B181" t="s">
-        <v>191</v>
+        <v>193</v>
       </c>
       <c r="C181" t="s">
         <v>355</v>
@@ -13997,7 +14000,7 @@
         <v>181</v>
       </c>
       <c r="B182" t="s">
-        <v>227</v>
+        <v>232</v>
       </c>
       <c r="C182" t="s">
         <v>355</v>
@@ -14025,7 +14028,7 @@
         <v>183</v>
       </c>
       <c r="B184" t="s">
-        <v>209</v>
+        <v>212</v>
       </c>
       <c r="C184" t="s">
         <v>355</v>
@@ -14137,7 +14140,7 @@
         <v>191</v>
       </c>
       <c r="B192" t="s">
-        <v>193</v>
+        <v>194</v>
       </c>
       <c r="C192" t="s">
         <v>358</v>
@@ -14207,7 +14210,7 @@
         <v>196</v>
       </c>
       <c r="B197" t="s">
-        <v>168</v>
+        <v>166</v>
       </c>
       <c r="C197" t="s">
         <v>357</v>
@@ -14277,7 +14280,7 @@
         <v>201</v>
       </c>
       <c r="B202" t="s">
-        <v>239</v>
+        <v>238</v>
       </c>
       <c r="C202" t="s">
         <v>356</v>
@@ -14305,7 +14308,7 @@
         <v>203</v>
       </c>
       <c r="B204" t="s">
-        <v>267</v>
+        <v>266</v>
       </c>
       <c r="C204" t="s">
         <v>355</v>
@@ -14333,7 +14336,7 @@
         <v>205</v>
       </c>
       <c r="B206" t="s">
-        <v>219</v>
+        <v>218</v>
       </c>
       <c r="C206" t="s">
         <v>355</v>
@@ -14347,7 +14350,7 @@
         <v>206</v>
       </c>
       <c r="B207" t="s">
-        <v>212</v>
+        <v>210</v>
       </c>
       <c r="C207" t="s">
         <v>355</v>
@@ -14361,7 +14364,7 @@
         <v>207</v>
       </c>
       <c r="B208" t="s">
-        <v>210</v>
+        <v>209</v>
       </c>
       <c r="C208" t="s">
         <v>359</v>
@@ -14417,7 +14420,7 @@
         <v>211</v>
       </c>
       <c r="B212" t="s">
-        <v>177</v>
+        <v>176</v>
       </c>
       <c r="C212" t="s">
         <v>354</v>
@@ -14515,7 +14518,7 @@
         <v>218</v>
       </c>
       <c r="B219" t="s">
-        <v>218</v>
+        <v>219</v>
       </c>
       <c r="C219" t="s">
         <v>358</v>
@@ -14571,7 +14574,7 @@
         <v>222</v>
       </c>
       <c r="B223" t="s">
-        <v>231</v>
+        <v>230</v>
       </c>
       <c r="C223" t="s">
         <v>354</v>
@@ -14585,7 +14588,7 @@
         <v>223</v>
       </c>
       <c r="B224" t="s">
-        <v>232</v>
+        <v>231</v>
       </c>
       <c r="C224" t="s">
         <v>356</v>
@@ -14627,7 +14630,7 @@
         <v>226</v>
       </c>
       <c r="B227" t="s">
-        <v>229</v>
+        <v>228</v>
       </c>
       <c r="C227" t="s">
         <v>359</v>
@@ -14655,7 +14658,7 @@
         <v>228</v>
       </c>
       <c r="B229" t="s">
-        <v>228</v>
+        <v>227</v>
       </c>
       <c r="C229" t="s">
         <v>358</v>
@@ -14669,7 +14672,7 @@
         <v>229</v>
       </c>
       <c r="B230" t="s">
-        <v>230</v>
+        <v>229</v>
       </c>
       <c r="C230" t="s">
         <v>359</v>
@@ -14683,7 +14686,7 @@
         <v>230</v>
       </c>
       <c r="B231" t="s">
-        <v>253</v>
+        <v>254</v>
       </c>
       <c r="C231" t="s">
         <v>354</v>
@@ -14711,7 +14714,7 @@
         <v>232</v>
       </c>
       <c r="B233" t="s">
-        <v>238</v>
+        <v>239</v>
       </c>
       <c r="C233" t="s">
         <v>358</v>
@@ -14753,7 +14756,7 @@
         <v>235</v>
       </c>
       <c r="B236" t="s">
-        <v>248</v>
+        <v>250</v>
       </c>
       <c r="C236" t="s">
         <v>355</v>
@@ -14767,7 +14770,7 @@
         <v>236</v>
       </c>
       <c r="B237" t="s">
-        <v>243</v>
+        <v>242</v>
       </c>
       <c r="C237" t="s">
         <v>359</v>
@@ -14795,7 +14798,7 @@
         <v>238</v>
       </c>
       <c r="B239" t="s">
-        <v>244</v>
+        <v>243</v>
       </c>
       <c r="C239" t="s">
         <v>356</v>
@@ -14809,7 +14812,7 @@
         <v>239</v>
       </c>
       <c r="B240" t="s">
-        <v>265</v>
+        <v>262</v>
       </c>
       <c r="C240" t="s">
         <v>356</v>
@@ -14823,7 +14826,7 @@
         <v>240</v>
       </c>
       <c r="B241" t="s">
-        <v>254</v>
+        <v>255</v>
       </c>
       <c r="C241" t="s">
         <v>355</v>
@@ -14837,7 +14840,7 @@
         <v>241</v>
       </c>
       <c r="B242" t="s">
-        <v>129</v>
+        <v>128</v>
       </c>
       <c r="C242" t="s">
         <v>356</v>
@@ -14879,7 +14882,7 @@
         <v>244</v>
       </c>
       <c r="B245" t="s">
-        <v>262</v>
+        <v>261</v>
       </c>
       <c r="C245" t="s">
         <v>355</v>
@@ -14893,7 +14896,7 @@
         <v>245</v>
       </c>
       <c r="B246" t="s">
-        <v>195</v>
+        <v>191</v>
       </c>
       <c r="C246" t="s">
         <v>355</v>
@@ -14907,7 +14910,7 @@
         <v>246</v>
       </c>
       <c r="B247" t="s">
-        <v>282</v>
+        <v>284</v>
       </c>
       <c r="C247" t="s">
         <v>356</v>
@@ -14935,7 +14938,7 @@
         <v>248</v>
       </c>
       <c r="B249" t="s">
-        <v>226</v>
+        <v>245</v>
       </c>
       <c r="C249" t="s">
         <v>357</v>
@@ -14949,7 +14952,7 @@
         <v>249</v>
       </c>
       <c r="B250" t="s">
-        <v>250</v>
+        <v>252</v>
       </c>
       <c r="C250" t="s">
         <v>358</v>
@@ -14991,7 +14994,7 @@
         <v>252</v>
       </c>
       <c r="B253" t="s">
-        <v>278</v>
+        <v>279</v>
       </c>
       <c r="C253" t="s">
         <v>354</v>
@@ -15019,7 +15022,7 @@
         <v>254</v>
       </c>
       <c r="B255" t="s">
-        <v>284</v>
+        <v>285</v>
       </c>
       <c r="C255" t="s">
         <v>355</v>
@@ -15089,7 +15092,7 @@
         <v>259</v>
       </c>
       <c r="B260" t="s">
-        <v>287</v>
+        <v>289</v>
       </c>
       <c r="C260" t="s">
         <v>355</v>
@@ -15131,7 +15134,7 @@
         <v>262</v>
       </c>
       <c r="B263" t="s">
-        <v>252</v>
+        <v>248</v>
       </c>
       <c r="C263" t="s">
         <v>354</v>
@@ -15145,7 +15148,7 @@
         <v>263</v>
       </c>
       <c r="B264" t="s">
-        <v>290</v>
+        <v>291</v>
       </c>
       <c r="C264" t="s">
         <v>354</v>
@@ -15173,7 +15176,7 @@
         <v>265</v>
       </c>
       <c r="B266" t="s">
-        <v>273</v>
+        <v>272</v>
       </c>
       <c r="C266" t="s">
         <v>358</v>
@@ -15187,7 +15190,7 @@
         <v>266</v>
       </c>
       <c r="B267" t="s">
-        <v>283</v>
+        <v>288</v>
       </c>
       <c r="C267" t="s">
         <v>356</v>
@@ -15201,7 +15204,7 @@
         <v>267</v>
       </c>
       <c r="B268" t="s">
-        <v>300</v>
+        <v>298</v>
       </c>
       <c r="C268" t="s">
         <v>355</v>
@@ -15215,7 +15218,7 @@
         <v>268</v>
       </c>
       <c r="B269" t="s">
-        <v>276</v>
+        <v>275</v>
       </c>
       <c r="C269" t="s">
         <v>356</v>
@@ -15285,7 +15288,7 @@
         <v>273</v>
       </c>
       <c r="B274" t="s">
-        <v>263</v>
+        <v>265</v>
       </c>
       <c r="C274" t="s">
         <v>356</v>
@@ -15299,7 +15302,7 @@
         <v>274</v>
       </c>
       <c r="B275" t="s">
-        <v>296</v>
+        <v>295</v>
       </c>
       <c r="C275" t="s">
         <v>355</v>
@@ -15313,7 +15316,7 @@
         <v>275</v>
       </c>
       <c r="B276" t="s">
-        <v>285</v>
+        <v>286</v>
       </c>
       <c r="C276" t="s">
         <v>359</v>
@@ -15327,7 +15330,7 @@
         <v>276</v>
       </c>
       <c r="B277" t="s">
-        <v>281</v>
+        <v>282</v>
       </c>
       <c r="C277" t="s">
         <v>359</v>
@@ -15369,7 +15372,7 @@
         <v>279</v>
       </c>
       <c r="B280" t="s">
-        <v>255</v>
+        <v>253</v>
       </c>
       <c r="C280" t="s">
         <v>357</v>
@@ -15397,7 +15400,7 @@
         <v>281</v>
       </c>
       <c r="B282" t="s">
-        <v>235</v>
+        <v>226</v>
       </c>
       <c r="C282" t="s">
         <v>355</v>
@@ -15411,7 +15414,7 @@
         <v>282</v>
       </c>
       <c r="B283" t="s">
-        <v>279</v>
+        <v>283</v>
       </c>
       <c r="C283" t="s">
         <v>354</v>
@@ -15425,7 +15428,7 @@
         <v>283</v>
       </c>
       <c r="B284" t="s">
-        <v>271</v>
+        <v>269</v>
       </c>
       <c r="C284" t="s">
         <v>354</v>
@@ -15439,7 +15442,7 @@
         <v>284</v>
       </c>
       <c r="B285" t="s">
-        <v>241</v>
+        <v>235</v>
       </c>
       <c r="C285" t="s">
         <v>357</v>
@@ -15467,7 +15470,7 @@
         <v>286</v>
       </c>
       <c r="B287" t="s">
-        <v>242</v>
+        <v>241</v>
       </c>
       <c r="C287" t="s">
         <v>354</v>
@@ -15481,7 +15484,7 @@
         <v>287</v>
       </c>
       <c r="B288" t="s">
-        <v>298</v>
+        <v>297</v>
       </c>
       <c r="C288" t="s">
         <v>358</v>
@@ -15495,7 +15498,7 @@
         <v>288</v>
       </c>
       <c r="B289" t="s">
-        <v>272</v>
+        <v>277</v>
       </c>
       <c r="C289" t="s">
         <v>354</v>
@@ -15509,7 +15512,7 @@
         <v>289</v>
       </c>
       <c r="B290" t="s">
-        <v>245</v>
+        <v>244</v>
       </c>
       <c r="C290" t="s">
         <v>355</v>
@@ -15523,7 +15526,7 @@
         <v>290</v>
       </c>
       <c r="B291" t="s">
-        <v>261</v>
+        <v>263</v>
       </c>
       <c r="C291" t="s">
         <v>354</v>
@@ -15551,7 +15554,7 @@
         <v>292</v>
       </c>
       <c r="B293" t="s">
-        <v>269</v>
+        <v>271</v>
       </c>
       <c r="C293" t="s">
         <v>354</v>
@@ -15593,7 +15596,7 @@
         <v>295</v>
       </c>
       <c r="B296" t="s">
-        <v>289</v>
+        <v>276</v>
       </c>
       <c r="C296" t="s">
         <v>354</v>
@@ -15607,7 +15610,7 @@
         <v>296</v>
       </c>
       <c r="B297" t="s">
-        <v>304</v>
+        <v>305</v>
       </c>
       <c r="C297" t="s">
         <v>358</v>
@@ -15635,7 +15638,7 @@
         <v>298</v>
       </c>
       <c r="B299" t="s">
-        <v>249</v>
+        <v>251</v>
       </c>
       <c r="C299" t="s">
         <v>357</v>
@@ -15649,7 +15652,7 @@
         <v>299</v>
       </c>
       <c r="B300" t="s">
-        <v>297</v>
+        <v>296</v>
       </c>
       <c r="C300" t="s">
         <v>354</v>
@@ -15677,7 +15680,7 @@
         <v>301</v>
       </c>
       <c r="B302" t="s">
-        <v>342</v>
+        <v>341</v>
       </c>
       <c r="C302" t="s">
         <v>354</v>
@@ -15691,7 +15694,7 @@
         <v>302</v>
       </c>
       <c r="B303" t="s">
-        <v>266</v>
+        <v>267</v>
       </c>
       <c r="C303" t="s">
         <v>355</v>
@@ -15775,7 +15778,7 @@
         <v>308</v>
       </c>
       <c r="B309" t="s">
-        <v>295</v>
+        <v>299</v>
       </c>
       <c r="C309" t="s">
         <v>354</v>
@@ -15831,7 +15834,7 @@
         <v>312</v>
       </c>
       <c r="B313" t="s">
-        <v>328</v>
+        <v>327</v>
       </c>
       <c r="C313" t="s">
         <v>354</v>
@@ -15859,7 +15862,7 @@
         <v>314</v>
       </c>
       <c r="B315" t="s">
-        <v>251</v>
+        <v>249</v>
       </c>
       <c r="C315" t="s">
         <v>356</v>
@@ -15873,7 +15876,7 @@
         <v>315</v>
       </c>
       <c r="B316" t="s">
-        <v>286</v>
+        <v>281</v>
       </c>
       <c r="C316" t="s">
         <v>354</v>
@@ -15887,7 +15890,7 @@
         <v>316</v>
       </c>
       <c r="B317" t="s">
-        <v>277</v>
+        <v>278</v>
       </c>
       <c r="C317" t="s">
         <v>355</v>
@@ -15901,7 +15904,7 @@
         <v>317</v>
       </c>
       <c r="B318" t="s">
-        <v>275</v>
+        <v>273</v>
       </c>
       <c r="C318" t="s">
         <v>357</v>
@@ -15957,7 +15960,7 @@
         <v>321</v>
       </c>
       <c r="B322" t="s">
-        <v>396</v>
+        <v>397</v>
       </c>
       <c r="C322" t="s">
         <v>355</v>
@@ -15971,7 +15974,7 @@
         <v>322</v>
       </c>
       <c r="B323" t="s">
-        <v>288</v>
+        <v>287</v>
       </c>
       <c r="C323" t="s">
         <v>357</v>
@@ -15985,7 +15988,7 @@
         <v>323</v>
       </c>
       <c r="B324" t="s">
-        <v>332</v>
+        <v>333</v>
       </c>
       <c r="C324" t="s">
         <v>354</v>
@@ -15999,7 +16002,7 @@
         <v>324</v>
       </c>
       <c r="B325" t="s">
-        <v>345</v>
+        <v>344</v>
       </c>
       <c r="C325" t="s">
         <v>355</v>
@@ -16013,7 +16016,7 @@
         <v>325</v>
       </c>
       <c r="B326" t="s">
-        <v>299</v>
+        <v>300</v>
       </c>
       <c r="C326" t="s">
         <v>357</v>
@@ -16069,7 +16072,7 @@
         <v>329</v>
       </c>
       <c r="B330" t="s">
-        <v>333</v>
+        <v>335</v>
       </c>
       <c r="C330" t="s">
         <v>359</v>
@@ -16125,7 +16128,7 @@
         <v>333</v>
       </c>
       <c r="B334" t="s">
-        <v>353</v>
+        <v>396</v>
       </c>
       <c r="C334" t="s">
         <v>354</v>
@@ -16139,7 +16142,7 @@
         <v>334</v>
       </c>
       <c r="B335" t="s">
-        <v>347</v>
+        <v>346</v>
       </c>
       <c r="C335" t="s">
         <v>355</v>
@@ -16153,7 +16156,7 @@
         <v>335</v>
       </c>
       <c r="B336" t="s">
-        <v>305</v>
+        <v>304</v>
       </c>
       <c r="C336" t="s">
         <v>357</v>
@@ -16167,7 +16170,7 @@
         <v>336</v>
       </c>
       <c r="B337" t="s">
-        <v>327</v>
+        <v>328</v>
       </c>
       <c r="C337" t="s">
         <v>354</v>
@@ -16195,7 +16198,7 @@
         <v>338</v>
       </c>
       <c r="B339" t="s">
-        <v>330</v>
+        <v>331</v>
       </c>
       <c r="C339" t="s">
         <v>355</v>
@@ -16209,7 +16212,7 @@
         <v>339</v>
       </c>
       <c r="B340" t="s">
-        <v>351</v>
+        <v>350</v>
       </c>
       <c r="C340" t="s">
         <v>354</v>
@@ -16223,7 +16226,7 @@
         <v>340</v>
       </c>
       <c r="B341" t="s">
-        <v>346</v>
+        <v>345</v>
       </c>
       <c r="C341" t="s">
         <v>354</v>
@@ -16265,7 +16268,7 @@
         <v>343</v>
       </c>
       <c r="B344" t="s">
-        <v>399</v>
+        <v>400</v>
       </c>
       <c r="C344" t="s">
         <v>354</v>
@@ -16279,7 +16282,7 @@
         <v>344</v>
       </c>
       <c r="B345" t="s">
-        <v>331</v>
+        <v>332</v>
       </c>
       <c r="C345" t="s">
         <v>357</v>
@@ -16293,7 +16296,7 @@
         <v>345</v>
       </c>
       <c r="B346" t="s">
-        <v>400</v>
+        <v>401</v>
       </c>
       <c r="C346" t="s">
         <v>354</v>
@@ -16321,7 +16324,7 @@
         <v>347</v>
       </c>
       <c r="B348" t="s">
-        <v>341</v>
+        <v>340</v>
       </c>
       <c r="C348" t="s">
         <v>354</v>
@@ -16335,7 +16338,7 @@
         <v>348</v>
       </c>
       <c r="B349" t="s">
-        <v>401</v>
+        <v>402</v>
       </c>
       <c r="C349" t="s">
         <v>355</v>
@@ -16349,7 +16352,7 @@
         <v>349</v>
       </c>
       <c r="B350" t="s">
-        <v>397</v>
+        <v>351</v>
       </c>
       <c r="C350" t="s">
         <v>359</v>
@@ -16363,7 +16366,7 @@
         <v>350</v>
       </c>
       <c r="B351" t="s">
-        <v>402</v>
+        <v>403</v>
       </c>
       <c r="C351" t="s">
         <v>356</v>

--- a/docs/FantasyProsFootballDraft.xlsx
+++ b/docs/FantasyProsFootballDraft.xlsx
@@ -239,12 +239,12 @@
     <t>DeAndre Hopkins</t>
   </si>
   <si>
+    <t>David Montgomery</t>
+  </si>
+  <si>
     <t>Justin Herbert</t>
   </si>
   <si>
-    <t>David Montgomery</t>
-  </si>
-  <si>
     <t>Rashod Bateman</t>
   </si>
   <si>
@@ -305,12 +305,12 @@
     <t>Pat Freiermuth</t>
   </si>
   <si>
+    <t>Dalton Schultz</t>
+  </si>
+  <si>
     <t>Deshaun Watson</t>
   </si>
   <si>
-    <t>Dalton Schultz</t>
-  </si>
-  <si>
     <t>Evan Engram</t>
   </si>
   <si>
@@ -380,6 +380,9 @@
     <t>Geno Smith</t>
   </si>
   <si>
+    <t>Kyler Murray</t>
+  </si>
+  <si>
     <t>Dawson Knox</t>
   </si>
   <si>
@@ -392,9 +395,6 @@
     <t>Alexander Mattison</t>
   </si>
   <si>
-    <t>Kyler Murray</t>
-  </si>
-  <si>
     <t>Rashaad Penny</t>
   </si>
   <si>
@@ -524,15 +524,15 @@
     <t>Wan'Dale Robinson</t>
   </si>
   <si>
+    <t>Mecole Hardman</t>
+  </si>
+  <si>
+    <t>Jaxon Smith-Njigba</t>
+  </si>
+  <si>
     <t>Tampa Bay Buccaneers</t>
   </si>
   <si>
-    <t>Mecole Hardman</t>
-  </si>
-  <si>
-    <t>Jaxon Smith-Njigba</t>
-  </si>
-  <si>
     <t>Quentin Johnston</t>
   </si>
   <si>
@@ -650,12 +650,12 @@
     <t>Nick Folk</t>
   </si>
   <si>
+    <t>Daniel Bellinger</t>
+  </si>
+  <si>
     <t>Pittsburgh Steelers</t>
   </si>
   <si>
-    <t>Daniel Bellinger</t>
-  </si>
-  <si>
     <t>Cleveland Browns</t>
   </si>
   <si>
@@ -668,21 +668,21 @@
     <t>Darius Slayton</t>
   </si>
   <si>
+    <t>Green Bay Packers</t>
+  </si>
+  <si>
+    <t>Zach Charbonnet</t>
+  </si>
+  <si>
+    <t>New York Jets</t>
+  </si>
+  <si>
+    <t>Ryan Succop</t>
+  </si>
+  <si>
     <t>Kansas City Chiefs</t>
   </si>
   <si>
-    <t>Green Bay Packers</t>
-  </si>
-  <si>
-    <t>Zach Charbonnet</t>
-  </si>
-  <si>
-    <t>Ryan Succop</t>
-  </si>
-  <si>
-    <t>New York Jets</t>
-  </si>
-  <si>
     <t>Zack Moss</t>
   </si>
   <si>
@@ -785,12 +785,12 @@
     <t>Tyquan Thornton</t>
   </si>
   <si>
+    <t>Kenyan Drake</t>
+  </si>
+  <si>
     <t>Jason Myers</t>
   </si>
   <si>
-    <t>Kenyan Drake</t>
-  </si>
-  <si>
     <t>Sterling Shepard</t>
   </si>
   <si>
@@ -881,10 +881,10 @@
     <t>Zach Evans</t>
   </si>
   <si>
+    <t>Devin Duvernay</t>
+  </si>
+  <si>
     <t>Jacksonville Jaguars</t>
-  </si>
-  <si>
-    <t>Devin Duvernay</t>
   </si>
   <si>
     <t>Josh Reynolds</t>
@@ -2573,10 +2573,10 @@
         <v>72</v>
       </c>
       <c r="C70" t="s">
-        <v>357</v>
+        <v>354</v>
       </c>
       <c r="D70" t="s">
-        <v>362</v>
+        <v>391</v>
       </c>
     </row>
     <row r="71" spans="1:4">
@@ -2587,10 +2587,10 @@
         <v>73</v>
       </c>
       <c r="C71" t="s">
-        <v>354</v>
+        <v>357</v>
       </c>
       <c r="D71" t="s">
-        <v>391</v>
+        <v>362</v>
       </c>
     </row>
     <row r="72" spans="1:4">
@@ -2881,10 +2881,10 @@
         <v>94</v>
       </c>
       <c r="C92" t="s">
-        <v>357</v>
+        <v>356</v>
       </c>
       <c r="D92" t="s">
-        <v>364</v>
+        <v>378</v>
       </c>
     </row>
     <row r="93" spans="1:4">
@@ -2895,10 +2895,10 @@
         <v>95</v>
       </c>
       <c r="C93" t="s">
-        <v>356</v>
+        <v>357</v>
       </c>
       <c r="D93" t="s">
-        <v>378</v>
+        <v>364</v>
       </c>
     </row>
     <row r="94" spans="1:4">
@@ -3231,10 +3231,10 @@
         <v>119</v>
       </c>
       <c r="C117" t="s">
-        <v>356</v>
+        <v>357</v>
       </c>
       <c r="D117" t="s">
-        <v>374</v>
+        <v>390</v>
       </c>
     </row>
     <row r="118" spans="1:4">
@@ -3245,10 +3245,10 @@
         <v>120</v>
       </c>
       <c r="C118" t="s">
-        <v>357</v>
+        <v>356</v>
       </c>
       <c r="D118" t="s">
-        <v>380</v>
+        <v>374</v>
       </c>
     </row>
     <row r="119" spans="1:4">
@@ -3259,10 +3259,10 @@
         <v>121</v>
       </c>
       <c r="C119" t="s">
-        <v>354</v>
+        <v>357</v>
       </c>
       <c r="D119" t="s">
-        <v>374</v>
+        <v>380</v>
       </c>
     </row>
     <row r="120" spans="1:4">
@@ -3276,7 +3276,7 @@
         <v>354</v>
       </c>
       <c r="D120" t="s">
-        <v>367</v>
+        <v>374</v>
       </c>
     </row>
     <row r="121" spans="1:4">
@@ -3287,10 +3287,10 @@
         <v>123</v>
       </c>
       <c r="C121" t="s">
-        <v>357</v>
+        <v>354</v>
       </c>
       <c r="D121" t="s">
-        <v>390</v>
+        <v>367</v>
       </c>
     </row>
     <row r="122" spans="1:4">
@@ -3903,10 +3903,10 @@
         <v>167</v>
       </c>
       <c r="C165" t="s">
-        <v>358</v>
+        <v>355</v>
       </c>
       <c r="D165" t="s">
-        <v>388</v>
+        <v>368</v>
       </c>
     </row>
     <row r="166" spans="1:4">
@@ -3920,7 +3920,7 @@
         <v>355</v>
       </c>
       <c r="D166" t="s">
-        <v>368</v>
+        <v>392</v>
       </c>
     </row>
     <row r="167" spans="1:4">
@@ -3931,10 +3931,10 @@
         <v>169</v>
       </c>
       <c r="C167" t="s">
-        <v>355</v>
+        <v>358</v>
       </c>
       <c r="D167" t="s">
-        <v>392</v>
+        <v>388</v>
       </c>
     </row>
     <row r="168" spans="1:4">
@@ -4491,10 +4491,10 @@
         <v>209</v>
       </c>
       <c r="C207" t="s">
-        <v>358</v>
+        <v>356</v>
       </c>
       <c r="D207" t="s">
-        <v>373</v>
+        <v>363</v>
       </c>
     </row>
     <row r="208" spans="1:4">
@@ -4505,10 +4505,10 @@
         <v>210</v>
       </c>
       <c r="C208" t="s">
-        <v>356</v>
+        <v>358</v>
       </c>
       <c r="D208" t="s">
-        <v>363</v>
+        <v>373</v>
       </c>
     </row>
     <row r="209" spans="1:4">
@@ -4578,7 +4578,7 @@
         <v>358</v>
       </c>
       <c r="D213" t="s">
-        <v>368</v>
+        <v>382</v>
       </c>
     </row>
     <row r="214" spans="1:4">
@@ -4589,10 +4589,10 @@
         <v>216</v>
       </c>
       <c r="C214" t="s">
-        <v>358</v>
+        <v>354</v>
       </c>
       <c r="D214" t="s">
-        <v>382</v>
+        <v>392</v>
       </c>
     </row>
     <row r="215" spans="1:4">
@@ -4603,10 +4603,10 @@
         <v>217</v>
       </c>
       <c r="C215" t="s">
-        <v>354</v>
+        <v>358</v>
       </c>
       <c r="D215" t="s">
-        <v>392</v>
+        <v>377</v>
       </c>
     </row>
     <row r="216" spans="1:4">
@@ -4634,7 +4634,7 @@
         <v>358</v>
       </c>
       <c r="D217" t="s">
-        <v>377</v>
+        <v>368</v>
       </c>
     </row>
     <row r="218" spans="1:4">
@@ -5121,10 +5121,10 @@
         <v>254</v>
       </c>
       <c r="C252" t="s">
-        <v>359</v>
+        <v>354</v>
       </c>
       <c r="D252" t="s">
-        <v>366</v>
+        <v>379</v>
       </c>
     </row>
     <row r="253" spans="1:4">
@@ -5135,10 +5135,10 @@
         <v>255</v>
       </c>
       <c r="C253" t="s">
-        <v>354</v>
+        <v>359</v>
       </c>
       <c r="D253" t="s">
-        <v>379</v>
+        <v>366</v>
       </c>
     </row>
     <row r="254" spans="1:4">
@@ -5569,10 +5569,10 @@
         <v>286</v>
       </c>
       <c r="C284" t="s">
-        <v>358</v>
+        <v>355</v>
       </c>
       <c r="D284" t="s">
-        <v>371</v>
+        <v>379</v>
       </c>
     </row>
     <row r="285" spans="1:4">
@@ -5583,10 +5583,10 @@
         <v>287</v>
       </c>
       <c r="C285" t="s">
-        <v>355</v>
+        <v>358</v>
       </c>
       <c r="D285" t="s">
-        <v>379</v>
+        <v>371</v>
       </c>
     </row>
     <row r="286" spans="1:4">
@@ -7389,7 +7389,7 @@
         <v>61</v>
       </c>
       <c r="B62" t="s">
-        <v>73</v>
+        <v>72</v>
       </c>
       <c r="C62" t="s">
         <v>354</v>
@@ -7403,13 +7403,13 @@
         <v>62</v>
       </c>
       <c r="B63" t="s">
-        <v>66</v>
+        <v>60</v>
       </c>
       <c r="C63" t="s">
-        <v>357</v>
+        <v>355</v>
       </c>
       <c r="D63" t="s">
-        <v>379</v>
+        <v>389</v>
       </c>
     </row>
     <row r="64" spans="1:4">
@@ -7417,13 +7417,13 @@
         <v>63</v>
       </c>
       <c r="B64" t="s">
-        <v>60</v>
+        <v>66</v>
       </c>
       <c r="C64" t="s">
-        <v>355</v>
+        <v>357</v>
       </c>
       <c r="D64" t="s">
-        <v>389</v>
+        <v>379</v>
       </c>
     </row>
     <row r="65" spans="1:4">
@@ -7445,13 +7445,13 @@
         <v>65</v>
       </c>
       <c r="B66" t="s">
-        <v>72</v>
+        <v>68</v>
       </c>
       <c r="C66" t="s">
         <v>357</v>
       </c>
       <c r="D66" t="s">
-        <v>362</v>
+        <v>391</v>
       </c>
     </row>
     <row r="67" spans="1:4">
@@ -7459,13 +7459,13 @@
         <v>66</v>
       </c>
       <c r="B67" t="s">
-        <v>68</v>
+        <v>61</v>
       </c>
       <c r="C67" t="s">
-        <v>357</v>
+        <v>356</v>
       </c>
       <c r="D67" t="s">
-        <v>391</v>
+        <v>376</v>
       </c>
     </row>
     <row r="68" spans="1:4">
@@ -7473,13 +7473,13 @@
         <v>67</v>
       </c>
       <c r="B68" t="s">
-        <v>61</v>
+        <v>73</v>
       </c>
       <c r="C68" t="s">
-        <v>356</v>
+        <v>357</v>
       </c>
       <c r="D68" t="s">
-        <v>376</v>
+        <v>362</v>
       </c>
     </row>
     <row r="69" spans="1:4">
@@ -7795,7 +7795,7 @@
         <v>90</v>
       </c>
       <c r="B91" t="s">
-        <v>95</v>
+        <v>94</v>
       </c>
       <c r="C91" t="s">
         <v>356</v>
@@ -7865,13 +7865,13 @@
         <v>95</v>
       </c>
       <c r="B96" t="s">
-        <v>94</v>
+        <v>90</v>
       </c>
       <c r="C96" t="s">
-        <v>357</v>
+        <v>354</v>
       </c>
       <c r="D96" t="s">
-        <v>364</v>
+        <v>380</v>
       </c>
     </row>
     <row r="97" spans="1:4">
@@ -7879,13 +7879,13 @@
         <v>96</v>
       </c>
       <c r="B97" t="s">
-        <v>90</v>
+        <v>82</v>
       </c>
       <c r="C97" t="s">
-        <v>354</v>
+        <v>355</v>
       </c>
       <c r="D97" t="s">
-        <v>380</v>
+        <v>374</v>
       </c>
     </row>
     <row r="98" spans="1:4">
@@ -7893,13 +7893,13 @@
         <v>97</v>
       </c>
       <c r="B98" t="s">
-        <v>82</v>
+        <v>95</v>
       </c>
       <c r="C98" t="s">
-        <v>355</v>
+        <v>357</v>
       </c>
       <c r="D98" t="s">
-        <v>374</v>
+        <v>364</v>
       </c>
     </row>
     <row r="99" spans="1:4">
@@ -7991,13 +7991,13 @@
         <v>104</v>
       </c>
       <c r="B105" t="s">
-        <v>103</v>
+        <v>101</v>
       </c>
       <c r="C105" t="s">
-        <v>357</v>
+        <v>356</v>
       </c>
       <c r="D105" t="s">
-        <v>375</v>
+        <v>391</v>
       </c>
     </row>
     <row r="106" spans="1:4">
@@ -8005,13 +8005,13 @@
         <v>105</v>
       </c>
       <c r="B106" t="s">
-        <v>101</v>
+        <v>103</v>
       </c>
       <c r="C106" t="s">
-        <v>356</v>
+        <v>357</v>
       </c>
       <c r="D106" t="s">
-        <v>391</v>
+        <v>375</v>
       </c>
     </row>
     <row r="107" spans="1:4">
@@ -8047,13 +8047,13 @@
         <v>108</v>
       </c>
       <c r="B109" t="s">
-        <v>109</v>
+        <v>105</v>
       </c>
       <c r="C109" t="s">
-        <v>355</v>
+        <v>357</v>
       </c>
       <c r="D109" t="s">
-        <v>384</v>
+        <v>363</v>
       </c>
     </row>
     <row r="110" spans="1:4">
@@ -8061,13 +8061,13 @@
         <v>109</v>
       </c>
       <c r="B110" t="s">
-        <v>105</v>
+        <v>109</v>
       </c>
       <c r="C110" t="s">
-        <v>357</v>
+        <v>355</v>
       </c>
       <c r="D110" t="s">
-        <v>363</v>
+        <v>384</v>
       </c>
     </row>
     <row r="111" spans="1:4">
@@ -8075,7 +8075,7 @@
         <v>110</v>
       </c>
       <c r="B111" t="s">
-        <v>121</v>
+        <v>122</v>
       </c>
       <c r="C111" t="s">
         <v>354</v>
@@ -8131,7 +8131,7 @@
         <v>114</v>
       </c>
       <c r="B115" t="s">
-        <v>122</v>
+        <v>123</v>
       </c>
       <c r="C115" t="s">
         <v>354</v>
@@ -8159,7 +8159,7 @@
         <v>116</v>
       </c>
       <c r="B117" t="s">
-        <v>119</v>
+        <v>120</v>
       </c>
       <c r="C117" t="s">
         <v>356</v>
@@ -8271,7 +8271,7 @@
         <v>124</v>
       </c>
       <c r="B125" t="s">
-        <v>120</v>
+        <v>121</v>
       </c>
       <c r="C125" t="s">
         <v>357</v>
@@ -8313,7 +8313,7 @@
         <v>127</v>
       </c>
       <c r="B128" t="s">
-        <v>123</v>
+        <v>119</v>
       </c>
       <c r="C128" t="s">
         <v>357</v>
@@ -8999,7 +8999,7 @@
         <v>176</v>
       </c>
       <c r="B177" t="s">
-        <v>168</v>
+        <v>167</v>
       </c>
       <c r="C177" t="s">
         <v>355</v>
@@ -9041,13 +9041,13 @@
         <v>179</v>
       </c>
       <c r="B180" t="s">
-        <v>165</v>
+        <v>173</v>
       </c>
       <c r="C180" t="s">
-        <v>358</v>
+        <v>359</v>
       </c>
       <c r="D180" t="s">
-        <v>381</v>
+        <v>374</v>
       </c>
     </row>
     <row r="181" spans="1:4">
@@ -9055,13 +9055,13 @@
         <v>180</v>
       </c>
       <c r="B181" t="s">
-        <v>173</v>
+        <v>165</v>
       </c>
       <c r="C181" t="s">
-        <v>359</v>
+        <v>358</v>
       </c>
       <c r="D181" t="s">
-        <v>374</v>
+        <v>381</v>
       </c>
     </row>
     <row r="182" spans="1:4">
@@ -9069,7 +9069,7 @@
         <v>181</v>
       </c>
       <c r="B182" t="s">
-        <v>167</v>
+        <v>169</v>
       </c>
       <c r="C182" t="s">
         <v>358</v>
@@ -9111,7 +9111,7 @@
         <v>184</v>
       </c>
       <c r="B185" t="s">
-        <v>169</v>
+        <v>168</v>
       </c>
       <c r="C185" t="s">
         <v>355</v>
@@ -9251,13 +9251,13 @@
         <v>194</v>
       </c>
       <c r="B195" t="s">
-        <v>184</v>
+        <v>171</v>
       </c>
       <c r="C195" t="s">
-        <v>359</v>
+        <v>357</v>
       </c>
       <c r="D195" t="s">
-        <v>369</v>
+        <v>365</v>
       </c>
     </row>
     <row r="196" spans="1:4">
@@ -9265,13 +9265,13 @@
         <v>195</v>
       </c>
       <c r="B196" t="s">
-        <v>232</v>
+        <v>184</v>
       </c>
       <c r="C196" t="s">
-        <v>355</v>
+        <v>359</v>
       </c>
       <c r="D196" t="s">
-        <v>361</v>
+        <v>369</v>
       </c>
     </row>
     <row r="197" spans="1:4">
@@ -9279,13 +9279,13 @@
         <v>196</v>
       </c>
       <c r="B197" t="s">
-        <v>171</v>
+        <v>232</v>
       </c>
       <c r="C197" t="s">
-        <v>357</v>
+        <v>355</v>
       </c>
       <c r="D197" t="s">
-        <v>365</v>
+        <v>361</v>
       </c>
     </row>
     <row r="198" spans="1:4">
@@ -9363,7 +9363,7 @@
         <v>202</v>
       </c>
       <c r="B203" t="s">
-        <v>210</v>
+        <v>209</v>
       </c>
       <c r="C203" t="s">
         <v>356</v>
@@ -9559,7 +9559,7 @@
         <v>216</v>
       </c>
       <c r="B217" t="s">
-        <v>217</v>
+        <v>216</v>
       </c>
       <c r="C217" t="s">
         <v>354</v>
@@ -9727,13 +9727,13 @@
         <v>228</v>
       </c>
       <c r="B229" t="s">
-        <v>215</v>
+        <v>260</v>
       </c>
       <c r="C229" t="s">
-        <v>358</v>
+        <v>356</v>
       </c>
       <c r="D229" t="s">
-        <v>368</v>
+        <v>382</v>
       </c>
     </row>
     <row r="230" spans="1:4">
@@ -9741,13 +9741,13 @@
         <v>229</v>
       </c>
       <c r="B230" t="s">
-        <v>260</v>
+        <v>219</v>
       </c>
       <c r="C230" t="s">
-        <v>356</v>
+        <v>358</v>
       </c>
       <c r="D230" t="s">
-        <v>382</v>
+        <v>368</v>
       </c>
     </row>
     <row r="231" spans="1:4">
@@ -9755,7 +9755,7 @@
         <v>230</v>
       </c>
       <c r="B231" t="s">
-        <v>209</v>
+        <v>210</v>
       </c>
       <c r="C231" t="s">
         <v>358</v>
@@ -9797,7 +9797,7 @@
         <v>233</v>
       </c>
       <c r="B234" t="s">
-        <v>219</v>
+        <v>217</v>
       </c>
       <c r="C234" t="s">
         <v>358</v>
@@ -9881,7 +9881,7 @@
         <v>239</v>
       </c>
       <c r="B240" t="s">
-        <v>216</v>
+        <v>215</v>
       </c>
       <c r="C240" t="s">
         <v>358</v>
@@ -9965,13 +9965,13 @@
         <v>245</v>
       </c>
       <c r="B246" t="s">
-        <v>251</v>
+        <v>237</v>
       </c>
       <c r="C246" t="s">
-        <v>354</v>
+        <v>358</v>
       </c>
       <c r="D246" t="s">
-        <v>392</v>
+        <v>375</v>
       </c>
     </row>
     <row r="247" spans="1:4">
@@ -9979,13 +9979,13 @@
         <v>246</v>
       </c>
       <c r="B247" t="s">
-        <v>237</v>
+        <v>251</v>
       </c>
       <c r="C247" t="s">
-        <v>358</v>
+        <v>354</v>
       </c>
       <c r="D247" t="s">
-        <v>375</v>
+        <v>392</v>
       </c>
     </row>
     <row r="248" spans="1:4">
@@ -10161,7 +10161,7 @@
         <v>259</v>
       </c>
       <c r="B260" t="s">
-        <v>255</v>
+        <v>254</v>
       </c>
       <c r="C260" t="s">
         <v>354</v>
@@ -10329,7 +10329,7 @@
         <v>271</v>
       </c>
       <c r="B272" t="s">
-        <v>287</v>
+        <v>286</v>
       </c>
       <c r="C272" t="s">
         <v>355</v>
@@ -10385,7 +10385,7 @@
         <v>275</v>
       </c>
       <c r="B276" t="s">
-        <v>254</v>
+        <v>255</v>
       </c>
       <c r="C276" t="s">
         <v>359</v>
@@ -10665,7 +10665,7 @@
         <v>295</v>
       </c>
       <c r="B296" t="s">
-        <v>286</v>
+        <v>287</v>
       </c>
       <c r="C296" t="s">
         <v>358</v>
@@ -11197,13 +11197,13 @@
         <v>333</v>
       </c>
       <c r="B334" t="s">
-        <v>326</v>
+        <v>322</v>
       </c>
       <c r="C334" t="s">
         <v>357</v>
       </c>
       <c r="D334" t="s">
-        <v>382</v>
+        <v>392</v>
       </c>
     </row>
     <row r="335" spans="1:4">
@@ -11211,13 +11211,13 @@
         <v>334</v>
       </c>
       <c r="B335" t="s">
-        <v>322</v>
+        <v>393</v>
       </c>
       <c r="C335" t="s">
-        <v>357</v>
+        <v>356</v>
       </c>
       <c r="D335" t="s">
-        <v>392</v>
+        <v>369</v>
       </c>
     </row>
     <row r="336" spans="1:4">
@@ -11225,13 +11225,13 @@
         <v>335</v>
       </c>
       <c r="B336" t="s">
-        <v>393</v>
+        <v>314</v>
       </c>
       <c r="C336" t="s">
-        <v>356</v>
+        <v>357</v>
       </c>
       <c r="D336" t="s">
-        <v>369</v>
+        <v>372</v>
       </c>
     </row>
     <row r="337" spans="1:4">
@@ -11239,13 +11239,13 @@
         <v>336</v>
       </c>
       <c r="B337" t="s">
-        <v>314</v>
+        <v>326</v>
       </c>
       <c r="C337" t="s">
         <v>357</v>
       </c>
       <c r="D337" t="s">
-        <v>372</v>
+        <v>382</v>
       </c>
     </row>
     <row r="338" spans="1:4">
@@ -12292,7 +12292,7 @@
         <v>59</v>
       </c>
       <c r="B60" t="s">
-        <v>73</v>
+        <v>72</v>
       </c>
       <c r="C60" t="s">
         <v>354</v>
@@ -12404,13 +12404,13 @@
         <v>67</v>
       </c>
       <c r="B68" t="s">
-        <v>66</v>
+        <v>88</v>
       </c>
       <c r="C68" t="s">
-        <v>357</v>
+        <v>355</v>
       </c>
       <c r="D68" t="s">
-        <v>379</v>
+        <v>390</v>
       </c>
     </row>
     <row r="69" spans="1:4">
@@ -12418,13 +12418,13 @@
         <v>68</v>
       </c>
       <c r="B69" t="s">
-        <v>88</v>
+        <v>66</v>
       </c>
       <c r="C69" t="s">
-        <v>355</v>
+        <v>357</v>
       </c>
       <c r="D69" t="s">
-        <v>390</v>
+        <v>379</v>
       </c>
     </row>
     <row r="70" spans="1:4">
@@ -12502,7 +12502,7 @@
         <v>74</v>
       </c>
       <c r="B75" t="s">
-        <v>72</v>
+        <v>73</v>
       </c>
       <c r="C75" t="s">
         <v>357</v>
@@ -12726,7 +12726,7 @@
         <v>90</v>
       </c>
       <c r="B91" t="s">
-        <v>95</v>
+        <v>94</v>
       </c>
       <c r="C91" t="s">
         <v>356</v>
@@ -12796,7 +12796,7 @@
         <v>95</v>
       </c>
       <c r="B96" t="s">
-        <v>94</v>
+        <v>95</v>
       </c>
       <c r="C96" t="s">
         <v>357</v>
@@ -12936,7 +12936,7 @@
         <v>105</v>
       </c>
       <c r="B106" t="s">
-        <v>121</v>
+        <v>122</v>
       </c>
       <c r="C106" t="s">
         <v>354</v>
@@ -12950,13 +12950,13 @@
         <v>106</v>
       </c>
       <c r="B107" t="s">
-        <v>103</v>
+        <v>125</v>
       </c>
       <c r="C107" t="s">
-        <v>357</v>
+        <v>355</v>
       </c>
       <c r="D107" t="s">
-        <v>375</v>
+        <v>377</v>
       </c>
     </row>
     <row r="108" spans="1:4">
@@ -12964,13 +12964,13 @@
         <v>107</v>
       </c>
       <c r="B108" t="s">
-        <v>125</v>
+        <v>103</v>
       </c>
       <c r="C108" t="s">
-        <v>355</v>
+        <v>357</v>
       </c>
       <c r="D108" t="s">
-        <v>377</v>
+        <v>375</v>
       </c>
     </row>
     <row r="109" spans="1:4">
@@ -13076,7 +13076,7 @@
         <v>115</v>
       </c>
       <c r="B116" t="s">
-        <v>122</v>
+        <v>123</v>
       </c>
       <c r="C116" t="s">
         <v>354</v>
@@ -13146,7 +13146,7 @@
         <v>120</v>
       </c>
       <c r="B121" t="s">
-        <v>119</v>
+        <v>120</v>
       </c>
       <c r="C121" t="s">
         <v>356</v>
@@ -13174,13 +13174,13 @@
         <v>122</v>
       </c>
       <c r="B123" t="s">
-        <v>118</v>
+        <v>119</v>
       </c>
       <c r="C123" t="s">
         <v>357</v>
       </c>
       <c r="D123" t="s">
-        <v>366</v>
+        <v>390</v>
       </c>
     </row>
     <row r="124" spans="1:4">
@@ -13188,13 +13188,13 @@
         <v>123</v>
       </c>
       <c r="B124" t="s">
-        <v>155</v>
+        <v>118</v>
       </c>
       <c r="C124" t="s">
-        <v>354</v>
+        <v>357</v>
       </c>
       <c r="D124" t="s">
-        <v>376</v>
+        <v>366</v>
       </c>
     </row>
     <row r="125" spans="1:4">
@@ -13202,13 +13202,13 @@
         <v>124</v>
       </c>
       <c r="B125" t="s">
-        <v>136</v>
+        <v>155</v>
       </c>
       <c r="C125" t="s">
         <v>354</v>
       </c>
       <c r="D125" t="s">
-        <v>375</v>
+        <v>376</v>
       </c>
     </row>
     <row r="126" spans="1:4">
@@ -13216,13 +13216,13 @@
         <v>125</v>
       </c>
       <c r="B126" t="s">
-        <v>120</v>
+        <v>136</v>
       </c>
       <c r="C126" t="s">
-        <v>357</v>
+        <v>354</v>
       </c>
       <c r="D126" t="s">
-        <v>380</v>
+        <v>375</v>
       </c>
     </row>
     <row r="127" spans="1:4">
@@ -13230,13 +13230,13 @@
         <v>126</v>
       </c>
       <c r="B127" t="s">
-        <v>166</v>
+        <v>121</v>
       </c>
       <c r="C127" t="s">
-        <v>355</v>
+        <v>357</v>
       </c>
       <c r="D127" t="s">
-        <v>363</v>
+        <v>380</v>
       </c>
     </row>
     <row r="128" spans="1:4">
@@ -13244,13 +13244,13 @@
         <v>127</v>
       </c>
       <c r="B128" t="s">
-        <v>133</v>
+        <v>166</v>
       </c>
       <c r="C128" t="s">
         <v>355</v>
       </c>
       <c r="D128" t="s">
-        <v>370</v>
+        <v>363</v>
       </c>
     </row>
     <row r="129" spans="1:4">
@@ -13258,13 +13258,13 @@
         <v>128</v>
       </c>
       <c r="B129" t="s">
-        <v>140</v>
+        <v>133</v>
       </c>
       <c r="C129" t="s">
         <v>355</v>
       </c>
       <c r="D129" t="s">
-        <v>378</v>
+        <v>370</v>
       </c>
     </row>
     <row r="130" spans="1:4">
@@ -13272,13 +13272,13 @@
         <v>129</v>
       </c>
       <c r="B130" t="s">
-        <v>130</v>
+        <v>140</v>
       </c>
       <c r="C130" t="s">
-        <v>354</v>
+        <v>355</v>
       </c>
       <c r="D130" t="s">
-        <v>385</v>
+        <v>378</v>
       </c>
     </row>
     <row r="131" spans="1:4">
@@ -13286,13 +13286,13 @@
         <v>130</v>
       </c>
       <c r="B131" t="s">
-        <v>113</v>
+        <v>130</v>
       </c>
       <c r="C131" t="s">
         <v>354</v>
       </c>
       <c r="D131" t="s">
-        <v>392</v>
+        <v>385</v>
       </c>
     </row>
     <row r="132" spans="1:4">
@@ -13300,13 +13300,13 @@
         <v>131</v>
       </c>
       <c r="B132" t="s">
-        <v>116</v>
+        <v>113</v>
       </c>
       <c r="C132" t="s">
-        <v>357</v>
+        <v>354</v>
       </c>
       <c r="D132" t="s">
-        <v>389</v>
+        <v>392</v>
       </c>
     </row>
     <row r="133" spans="1:4">
@@ -13314,13 +13314,13 @@
         <v>132</v>
       </c>
       <c r="B133" t="s">
-        <v>141</v>
+        <v>116</v>
       </c>
       <c r="C133" t="s">
-        <v>355</v>
+        <v>357</v>
       </c>
       <c r="D133" t="s">
-        <v>364</v>
+        <v>389</v>
       </c>
     </row>
     <row r="134" spans="1:4">
@@ -13328,13 +13328,13 @@
         <v>133</v>
       </c>
       <c r="B134" t="s">
-        <v>147</v>
+        <v>141</v>
       </c>
       <c r="C134" t="s">
         <v>355</v>
       </c>
       <c r="D134" t="s">
-        <v>384</v>
+        <v>364</v>
       </c>
     </row>
     <row r="135" spans="1:4">
@@ -13342,13 +13342,13 @@
         <v>134</v>
       </c>
       <c r="B135" t="s">
-        <v>150</v>
+        <v>147</v>
       </c>
       <c r="C135" t="s">
-        <v>356</v>
+        <v>355</v>
       </c>
       <c r="D135" t="s">
-        <v>372</v>
+        <v>384</v>
       </c>
     </row>
     <row r="136" spans="1:4">
@@ -13356,13 +13356,13 @@
         <v>135</v>
       </c>
       <c r="B136" t="s">
-        <v>128</v>
+        <v>150</v>
       </c>
       <c r="C136" t="s">
         <v>356</v>
       </c>
       <c r="D136" t="s">
-        <v>362</v>
+        <v>372</v>
       </c>
     </row>
     <row r="137" spans="1:4">
@@ -13370,13 +13370,13 @@
         <v>136</v>
       </c>
       <c r="B137" t="s">
-        <v>123</v>
+        <v>128</v>
       </c>
       <c r="C137" t="s">
-        <v>357</v>
+        <v>356</v>
       </c>
       <c r="D137" t="s">
-        <v>390</v>
+        <v>362</v>
       </c>
     </row>
     <row r="138" spans="1:4">
@@ -13874,13 +13874,13 @@
         <v>172</v>
       </c>
       <c r="B173" t="s">
-        <v>167</v>
+        <v>193</v>
       </c>
       <c r="C173" t="s">
-        <v>358</v>
+        <v>355</v>
       </c>
       <c r="D173" t="s">
-        <v>388</v>
+        <v>361</v>
       </c>
     </row>
     <row r="174" spans="1:4">
@@ -13888,13 +13888,13 @@
         <v>173</v>
       </c>
       <c r="B174" t="s">
-        <v>193</v>
+        <v>169</v>
       </c>
       <c r="C174" t="s">
-        <v>355</v>
+        <v>358</v>
       </c>
       <c r="D174" t="s">
-        <v>361</v>
+        <v>388</v>
       </c>
     </row>
     <row r="175" spans="1:4">
@@ -13958,13 +13958,13 @@
         <v>178</v>
       </c>
       <c r="B179" t="s">
-        <v>222</v>
+        <v>182</v>
       </c>
       <c r="C179" t="s">
-        <v>355</v>
+        <v>358</v>
       </c>
       <c r="D179" t="s">
-        <v>365</v>
+        <v>372</v>
       </c>
     </row>
     <row r="180" spans="1:4">
@@ -13972,13 +13972,13 @@
         <v>179</v>
       </c>
       <c r="B180" t="s">
-        <v>177</v>
+        <v>222</v>
       </c>
       <c r="C180" t="s">
-        <v>358</v>
+        <v>355</v>
       </c>
       <c r="D180" t="s">
-        <v>376</v>
+        <v>365</v>
       </c>
     </row>
     <row r="181" spans="1:4">
@@ -13986,13 +13986,13 @@
         <v>180</v>
       </c>
       <c r="B181" t="s">
-        <v>182</v>
+        <v>177</v>
       </c>
       <c r="C181" t="s">
         <v>358</v>
       </c>
       <c r="D181" t="s">
-        <v>372</v>
+        <v>376</v>
       </c>
     </row>
     <row r="182" spans="1:4">
@@ -14112,7 +14112,7 @@
         <v>189</v>
       </c>
       <c r="B190" t="s">
-        <v>168</v>
+        <v>167</v>
       </c>
       <c r="C190" t="s">
         <v>355</v>
@@ -14350,7 +14350,7 @@
         <v>206</v>
       </c>
       <c r="B207" t="s">
-        <v>210</v>
+        <v>209</v>
       </c>
       <c r="C207" t="s">
         <v>356</v>
@@ -14364,13 +14364,13 @@
         <v>207</v>
       </c>
       <c r="B208" t="s">
-        <v>208</v>
+        <v>171</v>
       </c>
       <c r="C208" t="s">
-        <v>359</v>
+        <v>357</v>
       </c>
       <c r="D208" t="s">
-        <v>381</v>
+        <v>365</v>
       </c>
     </row>
     <row r="209" spans="1:4">
@@ -14378,13 +14378,13 @@
         <v>208</v>
       </c>
       <c r="B209" t="s">
-        <v>176</v>
+        <v>208</v>
       </c>
       <c r="C209" t="s">
-        <v>354</v>
+        <v>359</v>
       </c>
       <c r="D209" t="s">
-        <v>379</v>
+        <v>381</v>
       </c>
     </row>
     <row r="210" spans="1:4">
@@ -14392,13 +14392,13 @@
         <v>209</v>
       </c>
       <c r="B210" t="s">
-        <v>218</v>
+        <v>176</v>
       </c>
       <c r="C210" t="s">
-        <v>359</v>
+        <v>354</v>
       </c>
       <c r="D210" t="s">
-        <v>388</v>
+        <v>379</v>
       </c>
     </row>
     <row r="211" spans="1:4">
@@ -14406,13 +14406,13 @@
         <v>210</v>
       </c>
       <c r="B211" t="s">
-        <v>213</v>
+        <v>218</v>
       </c>
       <c r="C211" t="s">
         <v>359</v>
       </c>
       <c r="D211" t="s">
-        <v>372</v>
+        <v>388</v>
       </c>
     </row>
     <row r="212" spans="1:4">
@@ -14420,13 +14420,13 @@
         <v>211</v>
       </c>
       <c r="B212" t="s">
-        <v>211</v>
+        <v>213</v>
       </c>
       <c r="C212" t="s">
-        <v>358</v>
+        <v>359</v>
       </c>
       <c r="D212" t="s">
-        <v>364</v>
+        <v>372</v>
       </c>
     </row>
     <row r="213" spans="1:4">
@@ -14434,13 +14434,13 @@
         <v>212</v>
       </c>
       <c r="B213" t="s">
-        <v>171</v>
+        <v>211</v>
       </c>
       <c r="C213" t="s">
-        <v>357</v>
+        <v>358</v>
       </c>
       <c r="D213" t="s">
-        <v>365</v>
+        <v>364</v>
       </c>
     </row>
     <row r="214" spans="1:4">
@@ -14462,7 +14462,7 @@
         <v>214</v>
       </c>
       <c r="B215" t="s">
-        <v>209</v>
+        <v>210</v>
       </c>
       <c r="C215" t="s">
         <v>358</v>
@@ -14476,7 +14476,7 @@
         <v>215</v>
       </c>
       <c r="B216" t="s">
-        <v>216</v>
+        <v>215</v>
       </c>
       <c r="C216" t="s">
         <v>358</v>
@@ -14490,13 +14490,13 @@
         <v>216</v>
       </c>
       <c r="B217" t="s">
-        <v>215</v>
+        <v>206</v>
       </c>
       <c r="C217" t="s">
-        <v>358</v>
+        <v>355</v>
       </c>
       <c r="D217" t="s">
-        <v>368</v>
+        <v>386</v>
       </c>
     </row>
     <row r="218" spans="1:4">
@@ -14504,13 +14504,13 @@
         <v>217</v>
       </c>
       <c r="B218" t="s">
-        <v>206</v>
+        <v>219</v>
       </c>
       <c r="C218" t="s">
-        <v>355</v>
+        <v>358</v>
       </c>
       <c r="D218" t="s">
-        <v>386</v>
+        <v>368</v>
       </c>
     </row>
     <row r="219" spans="1:4">
@@ -14518,7 +14518,7 @@
         <v>218</v>
       </c>
       <c r="B219" t="s">
-        <v>169</v>
+        <v>168</v>
       </c>
       <c r="C219" t="s">
         <v>355</v>
@@ -14602,7 +14602,7 @@
         <v>224</v>
       </c>
       <c r="B225" t="s">
-        <v>219</v>
+        <v>217</v>
       </c>
       <c r="C225" t="s">
         <v>358</v>
@@ -14826,7 +14826,7 @@
         <v>240</v>
       </c>
       <c r="B241" t="s">
-        <v>217</v>
+        <v>216</v>
       </c>
       <c r="C241" t="s">
         <v>354</v>
@@ -14952,7 +14952,7 @@
         <v>249</v>
       </c>
       <c r="B250" t="s">
-        <v>254</v>
+        <v>255</v>
       </c>
       <c r="C250" t="s">
         <v>359</v>
@@ -15134,13 +15134,13 @@
         <v>262</v>
       </c>
       <c r="B263" t="s">
-        <v>268</v>
+        <v>276</v>
       </c>
       <c r="C263" t="s">
-        <v>358</v>
+        <v>355</v>
       </c>
       <c r="D263" t="s">
-        <v>383</v>
+        <v>389</v>
       </c>
     </row>
     <row r="264" spans="1:4">
@@ -15148,13 +15148,13 @@
         <v>263</v>
       </c>
       <c r="B264" t="s">
-        <v>276</v>
+        <v>268</v>
       </c>
       <c r="C264" t="s">
-        <v>355</v>
+        <v>358</v>
       </c>
       <c r="D264" t="s">
-        <v>389</v>
+        <v>383</v>
       </c>
     </row>
     <row r="265" spans="1:4">
@@ -15176,7 +15176,7 @@
         <v>265</v>
       </c>
       <c r="B266" t="s">
-        <v>255</v>
+        <v>254</v>
       </c>
       <c r="C266" t="s">
         <v>354</v>
@@ -15190,7 +15190,7 @@
         <v>266</v>
       </c>
       <c r="B267" t="s">
-        <v>287</v>
+        <v>286</v>
       </c>
       <c r="C267" t="s">
         <v>355</v>
@@ -15344,7 +15344,7 @@
         <v>277</v>
       </c>
       <c r="B278" t="s">
-        <v>286</v>
+        <v>287</v>
       </c>
       <c r="C278" t="s">
         <v>358</v>

--- a/docs/FantasyProsFootballDraft.xlsx
+++ b/docs/FantasyProsFootballDraft.xlsx
@@ -83,21 +83,21 @@
     <t>Stefon Diggs</t>
   </si>
   <si>
+    <t>A.J. Brown</t>
+  </si>
+  <si>
     <t>Tyreek Hill</t>
   </si>
   <si>
-    <t>A.J. Brown</t>
-  </si>
-  <si>
     <t>Breece Hall</t>
   </si>
   <si>
+    <t>CeeDee Lamb</t>
+  </si>
+  <si>
     <t>Dalvin Cook</t>
   </si>
   <si>
-    <t>CeeDee Lamb</t>
-  </si>
-  <si>
     <t>Tony Pollard</t>
   </si>
   <si>
@@ -146,18 +146,18 @@
     <t>Garrett Wilson</t>
   </si>
   <si>
+    <t>Cam Akers</t>
+  </si>
+  <si>
     <t>DeVonta Smith</t>
   </si>
   <si>
-    <t>Cam Akers</t>
+    <t>Amari Cooper</t>
   </si>
   <si>
     <t>Patrick Mahomes II</t>
   </si>
   <si>
-    <t>Amari Cooper</t>
-  </si>
-  <si>
     <t>T.J. Hockenson</t>
   </si>
   <si>
@@ -167,24 +167,24 @@
     <t>Kyle Pitts</t>
   </si>
   <si>
+    <t>Jalen Hurts</t>
+  </si>
+  <si>
     <t>Miles Sanders</t>
   </si>
   <si>
-    <t>Jalen Hurts</t>
-  </si>
-  <si>
     <t>Keenan Allen</t>
   </si>
   <si>
     <t>Chris Olave</t>
   </si>
   <si>
+    <t>Terry McLaurin</t>
+  </si>
+  <si>
     <t>Christian Watson</t>
   </si>
   <si>
-    <t>Terry McLaurin</t>
-  </si>
-  <si>
     <t>Mike Evans</t>
   </si>
   <si>
@@ -239,12 +239,12 @@
     <t>DeAndre Hopkins</t>
   </si>
   <si>
+    <t>Justin Herbert</t>
+  </si>
+  <si>
     <t>David Montgomery</t>
   </si>
   <si>
-    <t>Justin Herbert</t>
-  </si>
-  <si>
     <t>Rashod Bateman</t>
   </si>
   <si>
@@ -317,12 +317,12 @@
     <t>Diontae Johnson</t>
   </si>
   <si>
+    <t>Darnell Mooney</t>
+  </si>
+  <si>
     <t>Elijah Mitchell</t>
   </si>
   <si>
-    <t>Darnell Mooney</t>
-  </si>
-  <si>
     <t>David Njoku</t>
   </si>
   <si>
@@ -374,18 +374,18 @@
     <t>Russell Wilson</t>
   </si>
   <si>
+    <t>Geno Smith</t>
+  </si>
+  <si>
+    <t>Kyler Murray</t>
+  </si>
+  <si>
+    <t>Dawson Knox</t>
+  </si>
+  <si>
     <t>Kareem Hunt</t>
   </si>
   <si>
-    <t>Geno Smith</t>
-  </si>
-  <si>
-    <t>Kyler Murray</t>
-  </si>
-  <si>
-    <t>Dawson Knox</t>
-  </si>
-  <si>
     <t>Jared Goff</t>
   </si>
   <si>
@@ -395,18 +395,21 @@
     <t>Alexander Mattison</t>
   </si>
   <si>
+    <t>Elijah Moore</t>
+  </si>
+  <si>
     <t>Rashaad Penny</t>
   </si>
   <si>
-    <t>Elijah Moore</t>
-  </si>
-  <si>
     <t>Aaron Rodgers</t>
   </si>
   <si>
     <t>Allen Lazard</t>
   </si>
   <si>
+    <t>Taysom Hill</t>
+  </si>
+  <si>
     <t>Gerald Everett</t>
   </si>
   <si>
@@ -416,9 +419,6 @@
     <t>Cordarrelle Patterson</t>
   </si>
   <si>
-    <t>Taysom Hill</t>
-  </si>
-  <si>
     <t>Zach Ertz</t>
   </si>
   <si>
@@ -431,51 +431,51 @@
     <t>Mike Gesicki</t>
   </si>
   <si>
+    <t>D'Onta Foreman</t>
+  </si>
+  <si>
     <t>Raheem Mostert</t>
   </si>
   <si>
-    <t>D'Onta Foreman</t>
-  </si>
-  <si>
     <t>Derek Carr</t>
   </si>
   <si>
+    <t>Michael Gallup</t>
+  </si>
+  <si>
+    <t>Jeff Wilson Jr.</t>
+  </si>
+  <si>
+    <t>Donovan Peoples-Jones</t>
+  </si>
+  <si>
     <t>Jerick McKinnon</t>
   </si>
   <si>
-    <t>Michael Gallup</t>
-  </si>
-  <si>
-    <t>Donovan Peoples-Jones</t>
-  </si>
-  <si>
     <t>San Francisco 49ers</t>
   </si>
   <si>
-    <t>Jeff Wilson Jr.</t>
+    <t>Greg Dulcich</t>
+  </si>
+  <si>
+    <t>Nico Collins</t>
+  </si>
+  <si>
+    <t>Zay Jones</t>
   </si>
   <si>
     <t>Rondale Moore</t>
   </si>
   <si>
-    <t>Zay Jones</t>
-  </si>
-  <si>
-    <t>Greg Dulcich</t>
-  </si>
-  <si>
-    <t>Nico Collins</t>
-  </si>
-  <si>
     <t>DJ Chark Jr.</t>
   </si>
   <si>
+    <t>Tyler Higbee</t>
+  </si>
+  <si>
     <t>Zamir White</t>
   </si>
   <si>
-    <t>Tyler Higbee</t>
-  </si>
-  <si>
     <t>Jahmyr Gibbs</t>
   </si>
   <si>
@@ -485,24 +485,24 @@
     <t>Chigoziem Okonkwo</t>
   </si>
   <si>
+    <t>Kenneth Gainwell</t>
+  </si>
+  <si>
+    <t>Chuba Hubbard</t>
+  </si>
+  <si>
     <t>Adam Thielen</t>
   </si>
   <si>
-    <t>Kenneth Gainwell</t>
+    <t>Kenny Pickett</t>
   </si>
   <si>
     <t>Hunter Renfrow</t>
   </si>
   <si>
-    <t>Kenny Pickett</t>
-  </si>
-  <si>
     <t>Hunter Henry</t>
   </si>
   <si>
-    <t>Chuba Hubbard</t>
-  </si>
-  <si>
     <t>Denver Broncos</t>
   </si>
   <si>
@@ -524,19 +524,22 @@
     <t>Wan'Dale Robinson</t>
   </si>
   <si>
+    <t>Jaxon Smith-Njigba</t>
+  </si>
+  <si>
+    <t>Tampa Bay Buccaneers</t>
+  </si>
+  <si>
+    <t>Quentin Johnston</t>
+  </si>
+  <si>
+    <t>Ryan Tannehill</t>
+  </si>
+  <si>
     <t>Mecole Hardman</t>
   </si>
   <si>
-    <t>Jaxon Smith-Njigba</t>
-  </si>
-  <si>
-    <t>Tampa Bay Buccaneers</t>
-  </si>
-  <si>
-    <t>Quentin Johnston</t>
-  </si>
-  <si>
-    <t>Ryan Tannehill</t>
+    <t>Trey McBride</t>
   </si>
   <si>
     <t>Jordan Addison</t>
@@ -545,9 +548,6 @@
     <t>Tyler Bass</t>
   </si>
   <si>
-    <t>Trey McBride</t>
-  </si>
-  <si>
     <t>Chase Edmonds</t>
   </si>
   <si>
@@ -557,69 +557,69 @@
     <t>Philadelphia Eagles</t>
   </si>
   <si>
+    <t>James Robinson</t>
+  </si>
+  <si>
+    <t>Los Angeles Rams</t>
+  </si>
+  <si>
     <t>Chase Claypool</t>
   </si>
   <si>
-    <t>James Robinson</t>
+    <t>John Metchie III</t>
+  </si>
+  <si>
+    <t>Michael Carter</t>
+  </si>
+  <si>
+    <t>Joshua Palmer</t>
   </si>
   <si>
     <t>Allen Robinson II</t>
   </si>
   <si>
-    <t>John Metchie III</t>
-  </si>
-  <si>
-    <t>Los Angeles Rams</t>
-  </si>
-  <si>
-    <t>Michael Carter</t>
-  </si>
-  <si>
     <t>Daniel Carlson</t>
   </si>
   <si>
+    <t>Romeo Doubs</t>
+  </si>
+  <si>
     <t>Jaylen Warren</t>
   </si>
   <si>
-    <t>Joshua Palmer</t>
-  </si>
-  <si>
     <t>Juwan Johnson</t>
   </si>
   <si>
-    <t>Romeo Doubs</t>
-  </si>
-  <si>
     <t>New Orleans Saints</t>
   </si>
   <si>
     <t>Evan McPherson</t>
   </si>
   <si>
+    <t>Alec Pierce</t>
+  </si>
+  <si>
     <t>Baltimore Ravens</t>
   </si>
   <si>
+    <t>Samaje Perine</t>
+  </si>
+  <si>
     <t>DeVante Parker</t>
   </si>
   <si>
-    <t>Alec Pierce</t>
-  </si>
-  <si>
-    <t>Samaje Perine</t>
-  </si>
-  <si>
     <t>Curtis Samuel</t>
   </si>
   <si>
     <t>Indianapolis Colts</t>
   </si>
   <si>
+    <t>Harrison Butker</t>
+  </si>
+  <si>
     <t>K.J. Osborn</t>
   </si>
   <si>
-    <t>Harrison Butker</t>
-  </si>
-  <si>
     <t>Hayden Hurst</t>
   </si>
   <si>
@@ -632,30 +632,30 @@
     <t>Marquez Valdes-Scantling</t>
   </si>
   <si>
+    <t>Los Angeles Chargers</t>
+  </si>
+  <si>
     <t>Skyy Moore</t>
   </si>
   <si>
-    <t>Los Angeles Chargers</t>
+    <t>Rashid Shaheed</t>
   </si>
   <si>
     <t>Russell Gage</t>
   </si>
   <si>
-    <t>Rashid Shaheed</t>
-  </si>
-  <si>
     <t>Van Jefferson</t>
   </si>
   <si>
     <t>Nick Folk</t>
   </si>
   <si>
+    <t>Pittsburgh Steelers</t>
+  </si>
+  <si>
     <t>Daniel Bellinger</t>
   </si>
   <si>
-    <t>Pittsburgh Steelers</t>
-  </si>
-  <si>
     <t>Cleveland Browns</t>
   </si>
   <si>
@@ -665,15 +665,15 @@
     <t>Matt Gay</t>
   </si>
   <si>
+    <t>Green Bay Packers</t>
+  </si>
+  <si>
+    <t>Zach Charbonnet</t>
+  </si>
+  <si>
     <t>Darius Slayton</t>
   </si>
   <si>
-    <t>Green Bay Packers</t>
-  </si>
-  <si>
-    <t>Zach Charbonnet</t>
-  </si>
-  <si>
     <t>New York Jets</t>
   </si>
   <si>
@@ -689,12 +689,12 @@
     <t>Isaiah McKenzie</t>
   </si>
   <si>
+    <t>Jalin Hyatt</t>
+  </si>
+  <si>
     <t>Robert Woods</t>
   </si>
   <si>
-    <t>Jalin Hyatt</t>
-  </si>
-  <si>
     <t>Younghoe Koo</t>
   </si>
   <si>
@@ -716,81 +716,81 @@
     <t>Robbie Gould</t>
   </si>
   <si>
+    <t>Parris Campbell</t>
+  </si>
+  <si>
     <t>Brandon McManus</t>
   </si>
   <si>
-    <t>Parris Campbell</t>
-  </si>
-  <si>
     <t>Isaiah Spiller</t>
   </si>
   <si>
+    <t>Isaiah Likely</t>
+  </si>
+  <si>
+    <t>Terrace Marshall Jr.</t>
+  </si>
+  <si>
     <t>Irv Smith Jr.</t>
   </si>
   <si>
-    <t>Terrace Marshall Jr.</t>
-  </si>
-  <si>
-    <t>Isaiah Likely</t>
-  </si>
-  <si>
     <t>Miami Dolphins</t>
   </si>
   <si>
     <t>Jason Sanders</t>
   </si>
   <si>
+    <t>Albert Okwuegbunam</t>
+  </si>
+  <si>
+    <t>Matt Prater</t>
+  </si>
+  <si>
+    <t>Michael Mayer</t>
+  </si>
+  <si>
+    <t>Odell Beckham Jr.</t>
+  </si>
+  <si>
+    <t>Sam Howell</t>
+  </si>
+  <si>
+    <t>Julio Jones</t>
+  </si>
+  <si>
+    <t>Tyrion Davis-Price</t>
+  </si>
+  <si>
+    <t>Washington Commanders</t>
+  </si>
+  <si>
+    <t>Jimmy Garoppolo</t>
+  </si>
+  <si>
+    <t>Jake Elliott</t>
+  </si>
+  <si>
     <t>Nyheim Hines</t>
   </si>
   <si>
-    <t>Albert Okwuegbunam</t>
-  </si>
-  <si>
-    <t>Matt Prater</t>
-  </si>
-  <si>
-    <t>Michael Mayer</t>
-  </si>
-  <si>
-    <t>Odell Beckham Jr.</t>
-  </si>
-  <si>
-    <t>Sam Howell</t>
-  </si>
-  <si>
-    <t>Julio Jones</t>
-  </si>
-  <si>
-    <t>Tyrion Davis-Price</t>
-  </si>
-  <si>
-    <t>Washington Commanders</t>
-  </si>
-  <si>
-    <t>Jimmy Garoppolo</t>
-  </si>
-  <si>
-    <t>Jake Elliott</t>
-  </si>
-  <si>
     <t>Melvin Gordon III</t>
   </si>
   <si>
     <t>Tank Bigsby</t>
   </si>
   <si>
+    <t>Tyquan Thornton</t>
+  </si>
+  <si>
     <t>Bryce Young</t>
   </si>
   <si>
-    <t>Tyquan Thornton</t>
+    <t>Jason Myers</t>
   </si>
   <si>
     <t>Kenyan Drake</t>
   </si>
   <si>
-    <t>Jason Myers</t>
-  </si>
-  <si>
     <t>Sterling Shepard</t>
   </si>
   <si>
@@ -1148,10 +1148,10 @@
     <t>BUF</t>
   </si>
   <si>
+    <t>PHI</t>
+  </si>
+  <si>
     <t>MIA</t>
-  </si>
-  <si>
-    <t>PHI</t>
   </si>
   <si>
     <t>NYJ</t>
@@ -1887,10 +1887,10 @@
         <v>23</v>
       </c>
       <c r="C21" t="s">
-        <v>354</v>
+        <v>355</v>
       </c>
       <c r="D21" t="s">
-        <v>367</v>
+        <v>378</v>
       </c>
     </row>
     <row r="22" spans="1:4">
@@ -1901,10 +1901,10 @@
         <v>24</v>
       </c>
       <c r="C22" t="s">
-        <v>355</v>
+        <v>354</v>
       </c>
       <c r="D22" t="s">
-        <v>378</v>
+        <v>367</v>
       </c>
     </row>
     <row r="23" spans="1:4">
@@ -1932,7 +1932,7 @@
         <v>355</v>
       </c>
       <c r="D24" t="s">
-        <v>375</v>
+        <v>376</v>
       </c>
     </row>
     <row r="25" spans="1:4">
@@ -2139,10 +2139,10 @@
         <v>41</v>
       </c>
       <c r="C39" t="s">
-        <v>355</v>
+        <v>354</v>
       </c>
       <c r="D39" t="s">
-        <v>376</v>
+        <v>372</v>
       </c>
     </row>
     <row r="40" spans="1:4">
@@ -2153,10 +2153,10 @@
         <v>42</v>
       </c>
       <c r="C40" t="s">
-        <v>354</v>
+        <v>355</v>
       </c>
       <c r="D40" t="s">
-        <v>372</v>
+        <v>375</v>
       </c>
     </row>
     <row r="41" spans="1:4">
@@ -2167,10 +2167,10 @@
         <v>43</v>
       </c>
       <c r="C41" t="s">
-        <v>357</v>
+        <v>355</v>
       </c>
       <c r="D41" t="s">
-        <v>368</v>
+        <v>364</v>
       </c>
     </row>
     <row r="42" spans="1:4">
@@ -2181,10 +2181,10 @@
         <v>44</v>
       </c>
       <c r="C42" t="s">
-        <v>355</v>
+        <v>357</v>
       </c>
       <c r="D42" t="s">
-        <v>364</v>
+        <v>368</v>
       </c>
     </row>
     <row r="43" spans="1:4">
@@ -2237,10 +2237,10 @@
         <v>48</v>
       </c>
       <c r="C46" t="s">
-        <v>354</v>
+        <v>357</v>
       </c>
       <c r="D46" t="s">
-        <v>376</v>
+        <v>375</v>
       </c>
     </row>
     <row r="47" spans="1:4">
@@ -2251,10 +2251,10 @@
         <v>49</v>
       </c>
       <c r="C47" t="s">
-        <v>357</v>
+        <v>354</v>
       </c>
       <c r="D47" t="s">
-        <v>376</v>
+        <v>375</v>
       </c>
     </row>
     <row r="48" spans="1:4">
@@ -2296,7 +2296,7 @@
         <v>355</v>
       </c>
       <c r="D50" t="s">
-        <v>382</v>
+        <v>387</v>
       </c>
     </row>
     <row r="51" spans="1:4">
@@ -2310,7 +2310,7 @@
         <v>355</v>
       </c>
       <c r="D51" t="s">
-        <v>387</v>
+        <v>382</v>
       </c>
     </row>
     <row r="52" spans="1:4">
@@ -2422,7 +2422,7 @@
         <v>356</v>
       </c>
       <c r="D59" t="s">
-        <v>376</v>
+        <v>375</v>
       </c>
     </row>
     <row r="60" spans="1:4">
@@ -2573,10 +2573,10 @@
         <v>72</v>
       </c>
       <c r="C70" t="s">
-        <v>354</v>
+        <v>357</v>
       </c>
       <c r="D70" t="s">
-        <v>391</v>
+        <v>362</v>
       </c>
     </row>
     <row r="71" spans="1:4">
@@ -2587,10 +2587,10 @@
         <v>73</v>
       </c>
       <c r="C71" t="s">
-        <v>357</v>
+        <v>354</v>
       </c>
       <c r="D71" t="s">
-        <v>362</v>
+        <v>391</v>
       </c>
     </row>
     <row r="72" spans="1:4">
@@ -2937,10 +2937,10 @@
         <v>98</v>
       </c>
       <c r="C96" t="s">
-        <v>354</v>
+        <v>355</v>
       </c>
       <c r="D96" t="s">
-        <v>360</v>
+        <v>391</v>
       </c>
     </row>
     <row r="97" spans="1:4">
@@ -2951,10 +2951,10 @@
         <v>99</v>
       </c>
       <c r="C97" t="s">
-        <v>355</v>
+        <v>354</v>
       </c>
       <c r="D97" t="s">
-        <v>391</v>
+        <v>360</v>
       </c>
     </row>
     <row r="98" spans="1:4">
@@ -3010,7 +3010,7 @@
         <v>357</v>
       </c>
       <c r="D101" t="s">
-        <v>375</v>
+        <v>376</v>
       </c>
     </row>
     <row r="102" spans="1:4">
@@ -3203,10 +3203,10 @@
         <v>117</v>
       </c>
       <c r="C115" t="s">
-        <v>354</v>
+        <v>357</v>
       </c>
       <c r="D115" t="s">
-        <v>364</v>
+        <v>366</v>
       </c>
     </row>
     <row r="116" spans="1:4">
@@ -3220,7 +3220,7 @@
         <v>357</v>
       </c>
       <c r="D116" t="s">
-        <v>366</v>
+        <v>390</v>
       </c>
     </row>
     <row r="117" spans="1:4">
@@ -3231,10 +3231,10 @@
         <v>119</v>
       </c>
       <c r="C117" t="s">
-        <v>357</v>
+        <v>356</v>
       </c>
       <c r="D117" t="s">
-        <v>390</v>
+        <v>374</v>
       </c>
     </row>
     <row r="118" spans="1:4">
@@ -3245,10 +3245,10 @@
         <v>120</v>
       </c>
       <c r="C118" t="s">
-        <v>356</v>
+        <v>354</v>
       </c>
       <c r="D118" t="s">
-        <v>374</v>
+        <v>364</v>
       </c>
     </row>
     <row r="119" spans="1:4">
@@ -3301,10 +3301,10 @@
         <v>124</v>
       </c>
       <c r="C122" t="s">
-        <v>354</v>
+        <v>355</v>
       </c>
       <c r="D122" t="s">
-        <v>366</v>
+        <v>377</v>
       </c>
     </row>
     <row r="123" spans="1:4">
@@ -3315,10 +3315,10 @@
         <v>125</v>
       </c>
       <c r="C123" t="s">
-        <v>355</v>
+        <v>354</v>
       </c>
       <c r="D123" t="s">
-        <v>377</v>
+        <v>366</v>
       </c>
     </row>
     <row r="124" spans="1:4">
@@ -3360,7 +3360,7 @@
         <v>356</v>
       </c>
       <c r="D126" t="s">
-        <v>362</v>
+        <v>386</v>
       </c>
     </row>
     <row r="127" spans="1:4">
@@ -3371,10 +3371,10 @@
         <v>129</v>
       </c>
       <c r="C127" t="s">
-        <v>357</v>
+        <v>356</v>
       </c>
       <c r="D127" t="s">
-        <v>372</v>
+        <v>362</v>
       </c>
     </row>
     <row r="128" spans="1:4">
@@ -3385,10 +3385,10 @@
         <v>130</v>
       </c>
       <c r="C128" t="s">
-        <v>354</v>
+        <v>357</v>
       </c>
       <c r="D128" t="s">
-        <v>385</v>
+        <v>372</v>
       </c>
     </row>
     <row r="129" spans="1:4">
@@ -3399,10 +3399,10 @@
         <v>131</v>
       </c>
       <c r="C129" t="s">
-        <v>356</v>
+        <v>354</v>
       </c>
       <c r="D129" t="s">
-        <v>386</v>
+        <v>385</v>
       </c>
     </row>
     <row r="130" spans="1:4">
@@ -3458,7 +3458,7 @@
         <v>356</v>
       </c>
       <c r="D133" t="s">
-        <v>375</v>
+        <v>376</v>
       </c>
     </row>
     <row r="134" spans="1:4">
@@ -3472,7 +3472,7 @@
         <v>354</v>
       </c>
       <c r="D134" t="s">
-        <v>375</v>
+        <v>383</v>
       </c>
     </row>
     <row r="135" spans="1:4">
@@ -3486,7 +3486,7 @@
         <v>354</v>
       </c>
       <c r="D135" t="s">
-        <v>383</v>
+        <v>376</v>
       </c>
     </row>
     <row r="136" spans="1:4">
@@ -3511,10 +3511,10 @@
         <v>139</v>
       </c>
       <c r="C137" t="s">
-        <v>354</v>
+        <v>355</v>
       </c>
       <c r="D137" t="s">
-        <v>368</v>
+        <v>378</v>
       </c>
     </row>
     <row r="138" spans="1:4">
@@ -3525,10 +3525,10 @@
         <v>140</v>
       </c>
       <c r="C138" t="s">
-        <v>355</v>
+        <v>354</v>
       </c>
       <c r="D138" t="s">
-        <v>378</v>
+        <v>376</v>
       </c>
     </row>
     <row r="139" spans="1:4">
@@ -3553,10 +3553,10 @@
         <v>142</v>
       </c>
       <c r="C140" t="s">
-        <v>358</v>
+        <v>354</v>
       </c>
       <c r="D140" t="s">
-        <v>360</v>
+        <v>368</v>
       </c>
     </row>
     <row r="141" spans="1:4">
@@ -3567,10 +3567,10 @@
         <v>143</v>
       </c>
       <c r="C141" t="s">
-        <v>354</v>
+        <v>358</v>
       </c>
       <c r="D141" t="s">
-        <v>375</v>
+        <v>360</v>
       </c>
     </row>
     <row r="142" spans="1:4">
@@ -3581,10 +3581,10 @@
         <v>144</v>
       </c>
       <c r="C142" t="s">
-        <v>355</v>
+        <v>356</v>
       </c>
       <c r="D142" t="s">
-        <v>390</v>
+        <v>389</v>
       </c>
     </row>
     <row r="143" spans="1:4">
@@ -3598,7 +3598,7 @@
         <v>355</v>
       </c>
       <c r="D143" t="s">
-        <v>371</v>
+        <v>384</v>
       </c>
     </row>
     <row r="144" spans="1:4">
@@ -3609,10 +3609,10 @@
         <v>146</v>
       </c>
       <c r="C144" t="s">
-        <v>356</v>
+        <v>355</v>
       </c>
       <c r="D144" t="s">
-        <v>389</v>
+        <v>371</v>
       </c>
     </row>
     <row r="145" spans="1:4">
@@ -3626,7 +3626,7 @@
         <v>355</v>
       </c>
       <c r="D145" t="s">
-        <v>384</v>
+        <v>390</v>
       </c>
     </row>
     <row r="146" spans="1:4">
@@ -3651,10 +3651,10 @@
         <v>149</v>
       </c>
       <c r="C147" t="s">
-        <v>354</v>
+        <v>356</v>
       </c>
       <c r="D147" t="s">
-        <v>369</v>
+        <v>372</v>
       </c>
     </row>
     <row r="148" spans="1:4">
@@ -3665,10 +3665,10 @@
         <v>150</v>
       </c>
       <c r="C148" t="s">
-        <v>356</v>
+        <v>354</v>
       </c>
       <c r="D148" t="s">
-        <v>372</v>
+        <v>369</v>
       </c>
     </row>
     <row r="149" spans="1:4">
@@ -3721,10 +3721,10 @@
         <v>154</v>
       </c>
       <c r="C152" t="s">
-        <v>355</v>
+        <v>354</v>
       </c>
       <c r="D152" t="s">
-        <v>367</v>
+        <v>375</v>
       </c>
     </row>
     <row r="153" spans="1:4">
@@ -3738,7 +3738,7 @@
         <v>354</v>
       </c>
       <c r="D153" t="s">
-        <v>376</v>
+        <v>383</v>
       </c>
     </row>
     <row r="154" spans="1:4">
@@ -3752,7 +3752,7 @@
         <v>355</v>
       </c>
       <c r="D154" t="s">
-        <v>369</v>
+        <v>367</v>
       </c>
     </row>
     <row r="155" spans="1:4">
@@ -3777,10 +3777,10 @@
         <v>158</v>
       </c>
       <c r="C156" t="s">
-        <v>356</v>
+        <v>355</v>
       </c>
       <c r="D156" t="s">
-        <v>381</v>
+        <v>369</v>
       </c>
     </row>
     <row r="157" spans="1:4">
@@ -3791,10 +3791,10 @@
         <v>159</v>
       </c>
       <c r="C157" t="s">
-        <v>354</v>
+        <v>356</v>
       </c>
       <c r="D157" t="s">
-        <v>383</v>
+        <v>381</v>
       </c>
     </row>
     <row r="158" spans="1:4">
@@ -3906,7 +3906,7 @@
         <v>355</v>
       </c>
       <c r="D165" t="s">
-        <v>368</v>
+        <v>392</v>
       </c>
     </row>
     <row r="166" spans="1:4">
@@ -3917,10 +3917,10 @@
         <v>168</v>
       </c>
       <c r="C166" t="s">
-        <v>355</v>
+        <v>358</v>
       </c>
       <c r="D166" t="s">
-        <v>392</v>
+        <v>388</v>
       </c>
     </row>
     <row r="167" spans="1:4">
@@ -3931,10 +3931,10 @@
         <v>169</v>
       </c>
       <c r="C167" t="s">
-        <v>358</v>
+        <v>355</v>
       </c>
       <c r="D167" t="s">
-        <v>388</v>
+        <v>392</v>
       </c>
     </row>
     <row r="168" spans="1:4">
@@ -3945,10 +3945,10 @@
         <v>170</v>
       </c>
       <c r="C168" t="s">
-        <v>355</v>
+        <v>357</v>
       </c>
       <c r="D168" t="s">
-        <v>392</v>
+        <v>365</v>
       </c>
     </row>
     <row r="169" spans="1:4">
@@ -3959,10 +3959,10 @@
         <v>171</v>
       </c>
       <c r="C169" t="s">
-        <v>357</v>
+        <v>355</v>
       </c>
       <c r="D169" t="s">
-        <v>365</v>
+        <v>368</v>
       </c>
     </row>
     <row r="170" spans="1:4">
@@ -3973,10 +3973,10 @@
         <v>172</v>
       </c>
       <c r="C170" t="s">
-        <v>355</v>
+        <v>356</v>
       </c>
       <c r="D170" t="s">
-        <v>392</v>
+        <v>390</v>
       </c>
     </row>
     <row r="171" spans="1:4">
@@ -3987,10 +3987,10 @@
         <v>173</v>
       </c>
       <c r="C171" t="s">
-        <v>359</v>
+        <v>355</v>
       </c>
       <c r="D171" t="s">
-        <v>374</v>
+        <v>392</v>
       </c>
     </row>
     <row r="172" spans="1:4">
@@ -4001,10 +4001,10 @@
         <v>174</v>
       </c>
       <c r="C172" t="s">
-        <v>356</v>
+        <v>359</v>
       </c>
       <c r="D172" t="s">
-        <v>390</v>
+        <v>374</v>
       </c>
     </row>
     <row r="173" spans="1:4">
@@ -4046,7 +4046,7 @@
         <v>358</v>
       </c>
       <c r="D175" t="s">
-        <v>376</v>
+        <v>375</v>
       </c>
     </row>
     <row r="176" spans="1:4">
@@ -4057,10 +4057,10 @@
         <v>178</v>
       </c>
       <c r="C176" t="s">
-        <v>355</v>
+        <v>354</v>
       </c>
       <c r="D176" t="s">
-        <v>391</v>
+        <v>377</v>
       </c>
     </row>
     <row r="177" spans="1:4">
@@ -4071,10 +4071,10 @@
         <v>179</v>
       </c>
       <c r="C177" t="s">
-        <v>354</v>
+        <v>358</v>
       </c>
       <c r="D177" t="s">
-        <v>377</v>
+        <v>372</v>
       </c>
     </row>
     <row r="178" spans="1:4">
@@ -4088,7 +4088,7 @@
         <v>355</v>
       </c>
       <c r="D178" t="s">
-        <v>372</v>
+        <v>391</v>
       </c>
     </row>
     <row r="179" spans="1:4">
@@ -4113,10 +4113,10 @@
         <v>182</v>
       </c>
       <c r="C180" t="s">
-        <v>358</v>
+        <v>354</v>
       </c>
       <c r="D180" t="s">
-        <v>372</v>
+        <v>377</v>
       </c>
     </row>
     <row r="181" spans="1:4">
@@ -4127,10 +4127,10 @@
         <v>183</v>
       </c>
       <c r="C181" t="s">
-        <v>354</v>
+        <v>355</v>
       </c>
       <c r="D181" t="s">
-        <v>377</v>
+        <v>362</v>
       </c>
     </row>
     <row r="182" spans="1:4">
@@ -4141,10 +4141,10 @@
         <v>184</v>
       </c>
       <c r="C182" t="s">
-        <v>359</v>
+        <v>355</v>
       </c>
       <c r="D182" t="s">
-        <v>369</v>
+        <v>372</v>
       </c>
     </row>
     <row r="183" spans="1:4">
@@ -4155,10 +4155,10 @@
         <v>185</v>
       </c>
       <c r="C183" t="s">
-        <v>354</v>
+        <v>359</v>
       </c>
       <c r="D183" t="s">
-        <v>373</v>
+        <v>369</v>
       </c>
     </row>
     <row r="184" spans="1:4">
@@ -4172,7 +4172,7 @@
         <v>355</v>
       </c>
       <c r="D184" t="s">
-        <v>362</v>
+        <v>382</v>
       </c>
     </row>
     <row r="185" spans="1:4">
@@ -4183,10 +4183,10 @@
         <v>187</v>
       </c>
       <c r="C185" t="s">
-        <v>356</v>
+        <v>354</v>
       </c>
       <c r="D185" t="s">
-        <v>386</v>
+        <v>373</v>
       </c>
     </row>
     <row r="186" spans="1:4">
@@ -4197,10 +4197,10 @@
         <v>188</v>
       </c>
       <c r="C186" t="s">
-        <v>355</v>
+        <v>356</v>
       </c>
       <c r="D186" t="s">
-        <v>382</v>
+        <v>386</v>
       </c>
     </row>
     <row r="187" spans="1:4">
@@ -4239,10 +4239,10 @@
         <v>191</v>
       </c>
       <c r="C189" t="s">
-        <v>358</v>
+        <v>355</v>
       </c>
       <c r="D189" t="s">
-        <v>379</v>
+        <v>361</v>
       </c>
     </row>
     <row r="190" spans="1:4">
@@ -4253,10 +4253,10 @@
         <v>192</v>
       </c>
       <c r="C190" t="s">
-        <v>355</v>
+        <v>358</v>
       </c>
       <c r="D190" t="s">
-        <v>381</v>
+        <v>379</v>
       </c>
     </row>
     <row r="191" spans="1:4">
@@ -4267,10 +4267,10 @@
         <v>193</v>
       </c>
       <c r="C191" t="s">
-        <v>355</v>
+        <v>354</v>
       </c>
       <c r="D191" t="s">
-        <v>361</v>
+        <v>370</v>
       </c>
     </row>
     <row r="192" spans="1:4">
@@ -4281,10 +4281,10 @@
         <v>194</v>
       </c>
       <c r="C192" t="s">
-        <v>354</v>
+        <v>355</v>
       </c>
       <c r="D192" t="s">
-        <v>370</v>
+        <v>381</v>
       </c>
     </row>
     <row r="193" spans="1:4">
@@ -4323,10 +4323,10 @@
         <v>197</v>
       </c>
       <c r="C195" t="s">
-        <v>355</v>
+        <v>359</v>
       </c>
       <c r="D195" t="s">
-        <v>367</v>
+        <v>368</v>
       </c>
     </row>
     <row r="196" spans="1:4">
@@ -4337,10 +4337,10 @@
         <v>198</v>
       </c>
       <c r="C196" t="s">
-        <v>359</v>
+        <v>355</v>
       </c>
       <c r="D196" t="s">
-        <v>368</v>
+        <v>367</v>
       </c>
     </row>
     <row r="197" spans="1:4">
@@ -4407,10 +4407,10 @@
         <v>203</v>
       </c>
       <c r="C201" t="s">
-        <v>355</v>
+        <v>358</v>
       </c>
       <c r="D201" t="s">
-        <v>368</v>
+        <v>362</v>
       </c>
     </row>
     <row r="202" spans="1:4">
@@ -4421,10 +4421,10 @@
         <v>204</v>
       </c>
       <c r="C202" t="s">
-        <v>358</v>
+        <v>355</v>
       </c>
       <c r="D202" t="s">
-        <v>362</v>
+        <v>368</v>
       </c>
     </row>
     <row r="203" spans="1:4">
@@ -4438,7 +4438,7 @@
         <v>355</v>
       </c>
       <c r="D203" t="s">
-        <v>388</v>
+        <v>386</v>
       </c>
     </row>
     <row r="204" spans="1:4">
@@ -4452,7 +4452,7 @@
         <v>355</v>
       </c>
       <c r="D204" t="s">
-        <v>386</v>
+        <v>388</v>
       </c>
     </row>
     <row r="205" spans="1:4">
@@ -4491,10 +4491,10 @@
         <v>209</v>
       </c>
       <c r="C207" t="s">
-        <v>356</v>
+        <v>358</v>
       </c>
       <c r="D207" t="s">
-        <v>363</v>
+        <v>373</v>
       </c>
     </row>
     <row r="208" spans="1:4">
@@ -4505,10 +4505,10 @@
         <v>210</v>
       </c>
       <c r="C208" t="s">
-        <v>358</v>
+        <v>356</v>
       </c>
       <c r="D208" t="s">
-        <v>373</v>
+        <v>363</v>
       </c>
     </row>
     <row r="209" spans="1:4">
@@ -4561,10 +4561,10 @@
         <v>214</v>
       </c>
       <c r="C212" t="s">
-        <v>355</v>
+        <v>358</v>
       </c>
       <c r="D212" t="s">
-        <v>363</v>
+        <v>382</v>
       </c>
     </row>
     <row r="213" spans="1:4">
@@ -4575,10 +4575,10 @@
         <v>215</v>
       </c>
       <c r="C213" t="s">
-        <v>358</v>
+        <v>354</v>
       </c>
       <c r="D213" t="s">
-        <v>382</v>
+        <v>392</v>
       </c>
     </row>
     <row r="214" spans="1:4">
@@ -4589,10 +4589,10 @@
         <v>216</v>
       </c>
       <c r="C214" t="s">
-        <v>354</v>
+        <v>355</v>
       </c>
       <c r="D214" t="s">
-        <v>392</v>
+        <v>363</v>
       </c>
     </row>
     <row r="215" spans="1:4">
@@ -4676,7 +4676,7 @@
         <v>355</v>
       </c>
       <c r="D220" t="s">
-        <v>365</v>
+        <v>392</v>
       </c>
     </row>
     <row r="221" spans="1:4">
@@ -4690,7 +4690,7 @@
         <v>355</v>
       </c>
       <c r="D221" t="s">
-        <v>392</v>
+        <v>365</v>
       </c>
     </row>
     <row r="222" spans="1:4">
@@ -4799,10 +4799,10 @@
         <v>231</v>
       </c>
       <c r="C229" t="s">
-        <v>359</v>
+        <v>355</v>
       </c>
       <c r="D229" t="s">
-        <v>389</v>
+        <v>361</v>
       </c>
     </row>
     <row r="230" spans="1:4">
@@ -4813,10 +4813,10 @@
         <v>232</v>
       </c>
       <c r="C230" t="s">
-        <v>355</v>
+        <v>359</v>
       </c>
       <c r="D230" t="s">
-        <v>361</v>
+        <v>389</v>
       </c>
     </row>
     <row r="231" spans="1:4">
@@ -4844,7 +4844,7 @@
         <v>356</v>
       </c>
       <c r="D232" t="s">
-        <v>367</v>
+        <v>379</v>
       </c>
     </row>
     <row r="233" spans="1:4">
@@ -4872,7 +4872,7 @@
         <v>356</v>
       </c>
       <c r="D234" t="s">
-        <v>379</v>
+        <v>367</v>
       </c>
     </row>
     <row r="235" spans="1:4">
@@ -4886,7 +4886,7 @@
         <v>358</v>
       </c>
       <c r="D235" t="s">
-        <v>375</v>
+        <v>376</v>
       </c>
     </row>
     <row r="236" spans="1:4">
@@ -4900,7 +4900,7 @@
         <v>359</v>
       </c>
       <c r="D236" t="s">
-        <v>375</v>
+        <v>376</v>
       </c>
     </row>
     <row r="237" spans="1:4">
@@ -4911,10 +4911,10 @@
         <v>239</v>
       </c>
       <c r="C237" t="s">
-        <v>354</v>
+        <v>356</v>
       </c>
       <c r="D237" t="s">
-        <v>374</v>
+        <v>389</v>
       </c>
     </row>
     <row r="238" spans="1:4">
@@ -4925,10 +4925,10 @@
         <v>240</v>
       </c>
       <c r="C238" t="s">
-        <v>356</v>
+        <v>359</v>
       </c>
       <c r="D238" t="s">
-        <v>389</v>
+        <v>390</v>
       </c>
     </row>
     <row r="239" spans="1:4">
@@ -4939,10 +4939,10 @@
         <v>241</v>
       </c>
       <c r="C239" t="s">
-        <v>359</v>
+        <v>356</v>
       </c>
       <c r="D239" t="s">
-        <v>390</v>
+        <v>392</v>
       </c>
     </row>
     <row r="240" spans="1:4">
@@ -4953,7 +4953,7 @@
         <v>242</v>
       </c>
       <c r="C240" t="s">
-        <v>356</v>
+        <v>355</v>
       </c>
       <c r="D240" t="s">
         <v>392</v>
@@ -4967,10 +4967,10 @@
         <v>243</v>
       </c>
       <c r="C241" t="s">
-        <v>355</v>
+        <v>357</v>
       </c>
       <c r="D241" t="s">
-        <v>392</v>
+        <v>387</v>
       </c>
     </row>
     <row r="242" spans="1:4">
@@ -4981,10 +4981,10 @@
         <v>244</v>
       </c>
       <c r="C242" t="s">
-        <v>357</v>
+        <v>355</v>
       </c>
       <c r="D242" t="s">
-        <v>387</v>
+        <v>388</v>
       </c>
     </row>
     <row r="243" spans="1:4">
@@ -4995,10 +4995,10 @@
         <v>245</v>
       </c>
       <c r="C243" t="s">
-        <v>355</v>
+        <v>354</v>
       </c>
       <c r="D243" t="s">
-        <v>388</v>
+        <v>360</v>
       </c>
     </row>
     <row r="244" spans="1:4">
@@ -5009,10 +5009,10 @@
         <v>246</v>
       </c>
       <c r="C244" t="s">
-        <v>354</v>
+        <v>358</v>
       </c>
       <c r="D244" t="s">
-        <v>360</v>
+        <v>387</v>
       </c>
     </row>
     <row r="245" spans="1:4">
@@ -5023,10 +5023,10 @@
         <v>247</v>
       </c>
       <c r="C245" t="s">
-        <v>358</v>
+        <v>357</v>
       </c>
       <c r="D245" t="s">
-        <v>387</v>
+        <v>360</v>
       </c>
     </row>
     <row r="246" spans="1:4">
@@ -5037,10 +5037,10 @@
         <v>248</v>
       </c>
       <c r="C246" t="s">
-        <v>357</v>
+        <v>359</v>
       </c>
       <c r="D246" t="s">
-        <v>360</v>
+        <v>375</v>
       </c>
     </row>
     <row r="247" spans="1:4">
@@ -5051,10 +5051,10 @@
         <v>249</v>
       </c>
       <c r="C247" t="s">
-        <v>359</v>
+        <v>354</v>
       </c>
       <c r="D247" t="s">
-        <v>376</v>
+        <v>374</v>
       </c>
     </row>
     <row r="248" spans="1:4">
@@ -5093,10 +5093,10 @@
         <v>252</v>
       </c>
       <c r="C250" t="s">
-        <v>357</v>
+        <v>355</v>
       </c>
       <c r="D250" t="s">
-        <v>392</v>
+        <v>381</v>
       </c>
     </row>
     <row r="251" spans="1:4">
@@ -5107,10 +5107,10 @@
         <v>253</v>
       </c>
       <c r="C251" t="s">
-        <v>355</v>
+        <v>357</v>
       </c>
       <c r="D251" t="s">
-        <v>381</v>
+        <v>392</v>
       </c>
     </row>
     <row r="252" spans="1:4">
@@ -5121,10 +5121,10 @@
         <v>254</v>
       </c>
       <c r="C252" t="s">
-        <v>354</v>
+        <v>359</v>
       </c>
       <c r="D252" t="s">
-        <v>379</v>
+        <v>366</v>
       </c>
     </row>
     <row r="253" spans="1:4">
@@ -5135,10 +5135,10 @@
         <v>255</v>
       </c>
       <c r="C253" t="s">
-        <v>359</v>
+        <v>354</v>
       </c>
       <c r="D253" t="s">
-        <v>366</v>
+        <v>379</v>
       </c>
     </row>
     <row r="254" spans="1:4">
@@ -5194,7 +5194,7 @@
         <v>354</v>
       </c>
       <c r="D257" t="s">
-        <v>376</v>
+        <v>375</v>
       </c>
     </row>
     <row r="258" spans="1:4">
@@ -5908,7 +5908,7 @@
         <v>355</v>
       </c>
       <c r="D308" t="s">
-        <v>376</v>
+        <v>375</v>
       </c>
     </row>
     <row r="309" spans="1:4">
@@ -6146,7 +6146,7 @@
         <v>354</v>
       </c>
       <c r="D325" t="s">
-        <v>375</v>
+        <v>376</v>
       </c>
     </row>
     <row r="326" spans="1:4">
@@ -6731,13 +6731,13 @@
         <v>14</v>
       </c>
       <c r="B15" t="s">
-        <v>20</v>
+        <v>21</v>
       </c>
       <c r="C15" t="s">
         <v>355</v>
       </c>
       <c r="D15" t="s">
-        <v>375</v>
+        <v>376</v>
       </c>
     </row>
     <row r="16" spans="1:4">
@@ -6773,7 +6773,7 @@
         <v>17</v>
       </c>
       <c r="B18" t="s">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="C18" t="s">
         <v>355</v>
@@ -6787,13 +6787,13 @@
         <v>18</v>
       </c>
       <c r="B19" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="C19" t="s">
         <v>355</v>
       </c>
       <c r="D19" t="s">
-        <v>376</v>
+        <v>375</v>
       </c>
     </row>
     <row r="20" spans="1:4">
@@ -6815,13 +6815,13 @@
         <v>20</v>
       </c>
       <c r="B21" t="s">
-        <v>26</v>
+        <v>18</v>
       </c>
       <c r="C21" t="s">
-        <v>355</v>
+        <v>354</v>
       </c>
       <c r="D21" t="s">
-        <v>375</v>
+        <v>373</v>
       </c>
     </row>
     <row r="22" spans="1:4">
@@ -6829,13 +6829,13 @@
         <v>21</v>
       </c>
       <c r="B22" t="s">
-        <v>18</v>
+        <v>26</v>
       </c>
       <c r="C22" t="s">
-        <v>354</v>
+        <v>355</v>
       </c>
       <c r="D22" t="s">
-        <v>373</v>
+        <v>376</v>
       </c>
     </row>
     <row r="23" spans="1:4">
@@ -6913,13 +6913,13 @@
         <v>27</v>
       </c>
       <c r="B28" t="s">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="C28" t="s">
         <v>354</v>
       </c>
       <c r="D28" t="s">
-        <v>378</v>
+        <v>367</v>
       </c>
     </row>
     <row r="29" spans="1:4">
@@ -6927,13 +6927,13 @@
         <v>28</v>
       </c>
       <c r="B29" t="s">
-        <v>23</v>
+        <v>25</v>
       </c>
       <c r="C29" t="s">
         <v>354</v>
       </c>
       <c r="D29" t="s">
-        <v>367</v>
+        <v>378</v>
       </c>
     </row>
     <row r="30" spans="1:4">
@@ -7025,7 +7025,7 @@
         <v>35</v>
       </c>
       <c r="B36" t="s">
-        <v>43</v>
+        <v>44</v>
       </c>
       <c r="C36" t="s">
         <v>357</v>
@@ -7039,13 +7039,13 @@
         <v>36</v>
       </c>
       <c r="B37" t="s">
-        <v>41</v>
+        <v>42</v>
       </c>
       <c r="C37" t="s">
         <v>355</v>
       </c>
       <c r="D37" t="s">
-        <v>376</v>
+        <v>375</v>
       </c>
     </row>
     <row r="38" spans="1:4">
@@ -7067,13 +7067,13 @@
         <v>38</v>
       </c>
       <c r="B39" t="s">
-        <v>49</v>
+        <v>48</v>
       </c>
       <c r="C39" t="s">
         <v>357</v>
       </c>
       <c r="D39" t="s">
-        <v>376</v>
+        <v>375</v>
       </c>
     </row>
     <row r="40" spans="1:4">
@@ -7137,7 +7137,7 @@
         <v>43</v>
       </c>
       <c r="B44" t="s">
-        <v>44</v>
+        <v>43</v>
       </c>
       <c r="C44" t="s">
         <v>355</v>
@@ -7207,7 +7207,7 @@
         <v>48</v>
       </c>
       <c r="B49" t="s">
-        <v>42</v>
+        <v>41</v>
       </c>
       <c r="C49" t="s">
         <v>354</v>
@@ -7291,7 +7291,7 @@
         <v>54</v>
       </c>
       <c r="B55" t="s">
-        <v>53</v>
+        <v>52</v>
       </c>
       <c r="C55" t="s">
         <v>355</v>
@@ -7319,13 +7319,13 @@
         <v>56</v>
       </c>
       <c r="B57" t="s">
-        <v>48</v>
+        <v>49</v>
       </c>
       <c r="C57" t="s">
         <v>354</v>
       </c>
       <c r="D57" t="s">
-        <v>376</v>
+        <v>375</v>
       </c>
     </row>
     <row r="58" spans="1:4">
@@ -7361,7 +7361,7 @@
         <v>59</v>
       </c>
       <c r="B60" t="s">
-        <v>52</v>
+        <v>53</v>
       </c>
       <c r="C60" t="s">
         <v>355</v>
@@ -7389,13 +7389,13 @@
         <v>61</v>
       </c>
       <c r="B62" t="s">
-        <v>72</v>
+        <v>60</v>
       </c>
       <c r="C62" t="s">
-        <v>354</v>
+        <v>355</v>
       </c>
       <c r="D62" t="s">
-        <v>391</v>
+        <v>389</v>
       </c>
     </row>
     <row r="63" spans="1:4">
@@ -7403,13 +7403,13 @@
         <v>62</v>
       </c>
       <c r="B63" t="s">
-        <v>60</v>
+        <v>66</v>
       </c>
       <c r="C63" t="s">
-        <v>355</v>
+        <v>357</v>
       </c>
       <c r="D63" t="s">
-        <v>389</v>
+        <v>379</v>
       </c>
     </row>
     <row r="64" spans="1:4">
@@ -7417,13 +7417,13 @@
         <v>63</v>
       </c>
       <c r="B64" t="s">
-        <v>66</v>
+        <v>73</v>
       </c>
       <c r="C64" t="s">
-        <v>357</v>
+        <v>354</v>
       </c>
       <c r="D64" t="s">
-        <v>379</v>
+        <v>391</v>
       </c>
     </row>
     <row r="65" spans="1:4">
@@ -7465,7 +7465,7 @@
         <v>356</v>
       </c>
       <c r="D67" t="s">
-        <v>376</v>
+        <v>375</v>
       </c>
     </row>
     <row r="68" spans="1:4">
@@ -7473,7 +7473,7 @@
         <v>67</v>
       </c>
       <c r="B68" t="s">
-        <v>73</v>
+        <v>72</v>
       </c>
       <c r="C68" t="s">
         <v>357</v>
@@ -7599,13 +7599,13 @@
         <v>76</v>
       </c>
       <c r="B77" t="s">
-        <v>97</v>
+        <v>80</v>
       </c>
       <c r="C77" t="s">
-        <v>355</v>
+        <v>354</v>
       </c>
       <c r="D77" t="s">
-        <v>373</v>
+        <v>378</v>
       </c>
     </row>
     <row r="78" spans="1:4">
@@ -7613,13 +7613,13 @@
         <v>77</v>
       </c>
       <c r="B78" t="s">
-        <v>80</v>
+        <v>97</v>
       </c>
       <c r="C78" t="s">
-        <v>354</v>
+        <v>355</v>
       </c>
       <c r="D78" t="s">
-        <v>378</v>
+        <v>373</v>
       </c>
     </row>
     <row r="79" spans="1:4">
@@ -7683,7 +7683,7 @@
         <v>82</v>
       </c>
       <c r="B83" t="s">
-        <v>107</v>
+        <v>114</v>
       </c>
       <c r="C83" t="s">
         <v>354</v>
@@ -7697,13 +7697,13 @@
         <v>83</v>
       </c>
       <c r="B84" t="s">
-        <v>114</v>
+        <v>83</v>
       </c>
       <c r="C84" t="s">
-        <v>354</v>
+        <v>355</v>
       </c>
       <c r="D84" t="s">
-        <v>388</v>
+        <v>373</v>
       </c>
     </row>
     <row r="85" spans="1:4">
@@ -7711,13 +7711,13 @@
         <v>84</v>
       </c>
       <c r="B85" t="s">
-        <v>83</v>
+        <v>91</v>
       </c>
       <c r="C85" t="s">
         <v>355</v>
       </c>
       <c r="D85" t="s">
-        <v>373</v>
+        <v>389</v>
       </c>
     </row>
     <row r="86" spans="1:4">
@@ -7725,13 +7725,13 @@
         <v>85</v>
       </c>
       <c r="B86" t="s">
-        <v>91</v>
+        <v>87</v>
       </c>
       <c r="C86" t="s">
-        <v>355</v>
+        <v>354</v>
       </c>
       <c r="D86" t="s">
-        <v>389</v>
+        <v>391</v>
       </c>
     </row>
     <row r="87" spans="1:4">
@@ -7739,13 +7739,13 @@
         <v>86</v>
       </c>
       <c r="B87" t="s">
-        <v>87</v>
+        <v>107</v>
       </c>
       <c r="C87" t="s">
         <v>354</v>
       </c>
       <c r="D87" t="s">
-        <v>391</v>
+        <v>388</v>
       </c>
     </row>
     <row r="88" spans="1:4">
@@ -7753,13 +7753,13 @@
         <v>87</v>
       </c>
       <c r="B88" t="s">
-        <v>55</v>
+        <v>58</v>
       </c>
       <c r="C88" t="s">
         <v>355</v>
       </c>
       <c r="D88" t="s">
-        <v>371</v>
+        <v>380</v>
       </c>
     </row>
     <row r="89" spans="1:4">
@@ -7767,13 +7767,13 @@
         <v>88</v>
       </c>
       <c r="B89" t="s">
-        <v>58</v>
+        <v>55</v>
       </c>
       <c r="C89" t="s">
         <v>355</v>
       </c>
       <c r="D89" t="s">
-        <v>380</v>
+        <v>371</v>
       </c>
     </row>
     <row r="90" spans="1:4">
@@ -7823,13 +7823,13 @@
         <v>92</v>
       </c>
       <c r="B93" t="s">
-        <v>96</v>
+        <v>92</v>
       </c>
       <c r="C93" t="s">
-        <v>356</v>
+        <v>355</v>
       </c>
       <c r="D93" t="s">
-        <v>371</v>
+        <v>365</v>
       </c>
     </row>
     <row r="94" spans="1:4">
@@ -7837,13 +7837,13 @@
         <v>93</v>
       </c>
       <c r="B94" t="s">
-        <v>92</v>
+        <v>96</v>
       </c>
       <c r="C94" t="s">
-        <v>355</v>
+        <v>356</v>
       </c>
       <c r="D94" t="s">
-        <v>365</v>
+        <v>371</v>
       </c>
     </row>
     <row r="95" spans="1:4">
@@ -7921,13 +7921,13 @@
         <v>99</v>
       </c>
       <c r="B100" t="s">
-        <v>117</v>
+        <v>98</v>
       </c>
       <c r="C100" t="s">
-        <v>354</v>
+        <v>355</v>
       </c>
       <c r="D100" t="s">
-        <v>364</v>
+        <v>391</v>
       </c>
     </row>
     <row r="101" spans="1:4">
@@ -7935,13 +7935,13 @@
         <v>100</v>
       </c>
       <c r="B101" t="s">
-        <v>99</v>
+        <v>120</v>
       </c>
       <c r="C101" t="s">
-        <v>355</v>
+        <v>354</v>
       </c>
       <c r="D101" t="s">
-        <v>391</v>
+        <v>364</v>
       </c>
     </row>
     <row r="102" spans="1:4">
@@ -7977,7 +7977,7 @@
         <v>103</v>
       </c>
       <c r="B104" t="s">
-        <v>98</v>
+        <v>99</v>
       </c>
       <c r="C104" t="s">
         <v>354</v>
@@ -8011,7 +8011,7 @@
         <v>357</v>
       </c>
       <c r="D106" t="s">
-        <v>375</v>
+        <v>376</v>
       </c>
     </row>
     <row r="107" spans="1:4">
@@ -8075,13 +8075,13 @@
         <v>110</v>
       </c>
       <c r="B111" t="s">
-        <v>122</v>
+        <v>104</v>
       </c>
       <c r="C111" t="s">
-        <v>354</v>
+        <v>355</v>
       </c>
       <c r="D111" t="s">
-        <v>374</v>
+        <v>368</v>
       </c>
     </row>
     <row r="112" spans="1:4">
@@ -8089,13 +8089,13 @@
         <v>111</v>
       </c>
       <c r="B112" t="s">
-        <v>104</v>
+        <v>122</v>
       </c>
       <c r="C112" t="s">
-        <v>355</v>
+        <v>354</v>
       </c>
       <c r="D112" t="s">
-        <v>368</v>
+        <v>374</v>
       </c>
     </row>
     <row r="113" spans="1:4">
@@ -8103,7 +8103,7 @@
         <v>112</v>
       </c>
       <c r="B113" t="s">
-        <v>125</v>
+        <v>124</v>
       </c>
       <c r="C113" t="s">
         <v>355</v>
@@ -8159,7 +8159,7 @@
         <v>116</v>
       </c>
       <c r="B117" t="s">
-        <v>120</v>
+        <v>119</v>
       </c>
       <c r="C117" t="s">
         <v>356</v>
@@ -8173,13 +8173,13 @@
         <v>117</v>
       </c>
       <c r="B118" t="s">
-        <v>139</v>
+        <v>115</v>
       </c>
       <c r="C118" t="s">
-        <v>354</v>
+        <v>357</v>
       </c>
       <c r="D118" t="s">
-        <v>368</v>
+        <v>360</v>
       </c>
     </row>
     <row r="119" spans="1:4">
@@ -8187,7 +8187,7 @@
         <v>118</v>
       </c>
       <c r="B119" t="s">
-        <v>144</v>
+        <v>147</v>
       </c>
       <c r="C119" t="s">
         <v>355</v>
@@ -8201,13 +8201,13 @@
         <v>119</v>
       </c>
       <c r="B120" t="s">
-        <v>115</v>
+        <v>142</v>
       </c>
       <c r="C120" t="s">
-        <v>357</v>
+        <v>354</v>
       </c>
       <c r="D120" t="s">
-        <v>360</v>
+        <v>368</v>
       </c>
     </row>
     <row r="121" spans="1:4">
@@ -8215,7 +8215,7 @@
         <v>120</v>
       </c>
       <c r="B121" t="s">
-        <v>145</v>
+        <v>146</v>
       </c>
       <c r="C121" t="s">
         <v>355</v>
@@ -8229,7 +8229,7 @@
         <v>121</v>
       </c>
       <c r="B122" t="s">
-        <v>118</v>
+        <v>117</v>
       </c>
       <c r="C122" t="s">
         <v>357</v>
@@ -8285,13 +8285,13 @@
         <v>125</v>
       </c>
       <c r="B126" t="s">
-        <v>124</v>
+        <v>141</v>
       </c>
       <c r="C126" t="s">
-        <v>354</v>
+        <v>355</v>
       </c>
       <c r="D126" t="s">
-        <v>366</v>
+        <v>364</v>
       </c>
     </row>
     <row r="127" spans="1:4">
@@ -8299,13 +8299,13 @@
         <v>126</v>
       </c>
       <c r="B127" t="s">
-        <v>141</v>
+        <v>125</v>
       </c>
       <c r="C127" t="s">
-        <v>355</v>
+        <v>354</v>
       </c>
       <c r="D127" t="s">
-        <v>364</v>
+        <v>366</v>
       </c>
     </row>
     <row r="128" spans="1:4">
@@ -8313,7 +8313,7 @@
         <v>127</v>
       </c>
       <c r="B128" t="s">
-        <v>119</v>
+        <v>118</v>
       </c>
       <c r="C128" t="s">
         <v>357</v>
@@ -8327,13 +8327,13 @@
         <v>128</v>
       </c>
       <c r="B129" t="s">
-        <v>156</v>
+        <v>133</v>
       </c>
       <c r="C129" t="s">
         <v>355</v>
       </c>
       <c r="D129" t="s">
-        <v>369</v>
+        <v>370</v>
       </c>
     </row>
     <row r="130" spans="1:4">
@@ -8341,7 +8341,7 @@
         <v>129</v>
       </c>
       <c r="B130" t="s">
-        <v>130</v>
+        <v>131</v>
       </c>
       <c r="C130" t="s">
         <v>354</v>
@@ -8355,13 +8355,13 @@
         <v>130</v>
       </c>
       <c r="B131" t="s">
-        <v>133</v>
+        <v>158</v>
       </c>
       <c r="C131" t="s">
         <v>355</v>
       </c>
       <c r="D131" t="s">
-        <v>370</v>
+        <v>369</v>
       </c>
     </row>
     <row r="132" spans="1:4">
@@ -8369,13 +8369,13 @@
         <v>131</v>
       </c>
       <c r="B132" t="s">
-        <v>136</v>
+        <v>137</v>
       </c>
       <c r="C132" t="s">
         <v>354</v>
       </c>
       <c r="D132" t="s">
-        <v>375</v>
+        <v>376</v>
       </c>
     </row>
     <row r="133" spans="1:4">
@@ -8386,10 +8386,10 @@
         <v>140</v>
       </c>
       <c r="C133" t="s">
-        <v>355</v>
+        <v>354</v>
       </c>
       <c r="D133" t="s">
-        <v>378</v>
+        <v>376</v>
       </c>
     </row>
     <row r="134" spans="1:4">
@@ -8397,13 +8397,13 @@
         <v>133</v>
       </c>
       <c r="B134" t="s">
-        <v>143</v>
+        <v>139</v>
       </c>
       <c r="C134" t="s">
-        <v>354</v>
+        <v>355</v>
       </c>
       <c r="D134" t="s">
-        <v>375</v>
+        <v>378</v>
       </c>
     </row>
     <row r="135" spans="1:4">
@@ -8411,13 +8411,13 @@
         <v>134</v>
       </c>
       <c r="B135" t="s">
-        <v>155</v>
+        <v>154</v>
       </c>
       <c r="C135" t="s">
         <v>354</v>
       </c>
       <c r="D135" t="s">
-        <v>376</v>
+        <v>375</v>
       </c>
     </row>
     <row r="136" spans="1:4">
@@ -8425,7 +8425,7 @@
         <v>135</v>
       </c>
       <c r="B136" t="s">
-        <v>147</v>
+        <v>145</v>
       </c>
       <c r="C136" t="s">
         <v>355</v>
@@ -8439,7 +8439,7 @@
         <v>136</v>
       </c>
       <c r="B137" t="s">
-        <v>128</v>
+        <v>129</v>
       </c>
       <c r="C137" t="s">
         <v>356</v>
@@ -8453,13 +8453,13 @@
         <v>137</v>
       </c>
       <c r="B138" t="s">
-        <v>154</v>
+        <v>136</v>
       </c>
       <c r="C138" t="s">
-        <v>355</v>
+        <v>354</v>
       </c>
       <c r="D138" t="s">
-        <v>367</v>
+        <v>383</v>
       </c>
     </row>
     <row r="139" spans="1:4">
@@ -8467,13 +8467,13 @@
         <v>138</v>
       </c>
       <c r="B139" t="s">
-        <v>137</v>
+        <v>156</v>
       </c>
       <c r="C139" t="s">
-        <v>354</v>
+        <v>355</v>
       </c>
       <c r="D139" t="s">
-        <v>383</v>
+        <v>367</v>
       </c>
     </row>
     <row r="140" spans="1:4">
@@ -8481,13 +8481,13 @@
         <v>139</v>
       </c>
       <c r="B140" t="s">
-        <v>166</v>
+        <v>144</v>
       </c>
       <c r="C140" t="s">
-        <v>355</v>
+        <v>356</v>
       </c>
       <c r="D140" t="s">
-        <v>363</v>
+        <v>389</v>
       </c>
     </row>
     <row r="141" spans="1:4">
@@ -8495,7 +8495,7 @@
         <v>140</v>
       </c>
       <c r="B141" t="s">
-        <v>150</v>
+        <v>149</v>
       </c>
       <c r="C141" t="s">
         <v>356</v>
@@ -8509,13 +8509,13 @@
         <v>141</v>
       </c>
       <c r="B142" t="s">
-        <v>146</v>
+        <v>166</v>
       </c>
       <c r="C142" t="s">
-        <v>356</v>
+        <v>355</v>
       </c>
       <c r="D142" t="s">
-        <v>389</v>
+        <v>363</v>
       </c>
     </row>
     <row r="143" spans="1:4">
@@ -8537,13 +8537,13 @@
         <v>143</v>
       </c>
       <c r="B144" t="s">
-        <v>152</v>
+        <v>148</v>
       </c>
       <c r="C144" t="s">
-        <v>354</v>
+        <v>355</v>
       </c>
       <c r="D144" t="s">
-        <v>368</v>
+        <v>380</v>
       </c>
     </row>
     <row r="145" spans="1:4">
@@ -8551,13 +8551,13 @@
         <v>144</v>
       </c>
       <c r="B145" t="s">
-        <v>148</v>
+        <v>152</v>
       </c>
       <c r="C145" t="s">
-        <v>355</v>
+        <v>354</v>
       </c>
       <c r="D145" t="s">
-        <v>380</v>
+        <v>368</v>
       </c>
     </row>
     <row r="146" spans="1:4">
@@ -8565,13 +8565,13 @@
         <v>145</v>
       </c>
       <c r="B146" t="s">
-        <v>178</v>
+        <v>150</v>
       </c>
       <c r="C146" t="s">
-        <v>355</v>
+        <v>354</v>
       </c>
       <c r="D146" t="s">
-        <v>391</v>
+        <v>369</v>
       </c>
     </row>
     <row r="147" spans="1:4">
@@ -8579,13 +8579,13 @@
         <v>146</v>
       </c>
       <c r="B147" t="s">
-        <v>149</v>
+        <v>155</v>
       </c>
       <c r="C147" t="s">
         <v>354</v>
       </c>
       <c r="D147" t="s">
-        <v>369</v>
+        <v>383</v>
       </c>
     </row>
     <row r="148" spans="1:4">
@@ -8593,13 +8593,13 @@
         <v>147</v>
       </c>
       <c r="B148" t="s">
-        <v>159</v>
+        <v>180</v>
       </c>
       <c r="C148" t="s">
-        <v>354</v>
+        <v>355</v>
       </c>
       <c r="D148" t="s">
-        <v>383</v>
+        <v>391</v>
       </c>
     </row>
     <row r="149" spans="1:4">
@@ -8613,7 +8613,7 @@
         <v>356</v>
       </c>
       <c r="D149" t="s">
-        <v>375</v>
+        <v>376</v>
       </c>
     </row>
     <row r="150" spans="1:4">
@@ -8635,7 +8635,7 @@
         <v>150</v>
       </c>
       <c r="B151" t="s">
-        <v>186</v>
+        <v>183</v>
       </c>
       <c r="C151" t="s">
         <v>355</v>
@@ -8649,7 +8649,7 @@
         <v>151</v>
       </c>
       <c r="B152" t="s">
-        <v>129</v>
+        <v>130</v>
       </c>
       <c r="C152" t="s">
         <v>357</v>
@@ -8663,13 +8663,13 @@
         <v>152</v>
       </c>
       <c r="B153" t="s">
-        <v>183</v>
+        <v>186</v>
       </c>
       <c r="C153" t="s">
-        <v>354</v>
+        <v>355</v>
       </c>
       <c r="D153" t="s">
-        <v>377</v>
+        <v>382</v>
       </c>
     </row>
     <row r="154" spans="1:4">
@@ -8677,13 +8677,13 @@
         <v>153</v>
       </c>
       <c r="B154" t="s">
-        <v>188</v>
+        <v>182</v>
       </c>
       <c r="C154" t="s">
-        <v>355</v>
+        <v>354</v>
       </c>
       <c r="D154" t="s">
-        <v>382</v>
+        <v>377</v>
       </c>
     </row>
     <row r="155" spans="1:4">
@@ -8691,13 +8691,13 @@
         <v>154</v>
       </c>
       <c r="B155" t="s">
-        <v>203</v>
+        <v>138</v>
       </c>
       <c r="C155" t="s">
-        <v>355</v>
+        <v>357</v>
       </c>
       <c r="D155" t="s">
-        <v>368</v>
+        <v>369</v>
       </c>
     </row>
     <row r="156" spans="1:4">
@@ -8705,13 +8705,13 @@
         <v>155</v>
       </c>
       <c r="B156" t="s">
-        <v>138</v>
+        <v>172</v>
       </c>
       <c r="C156" t="s">
-        <v>357</v>
+        <v>356</v>
       </c>
       <c r="D156" t="s">
-        <v>369</v>
+        <v>390</v>
       </c>
     </row>
     <row r="157" spans="1:4">
@@ -8719,13 +8719,13 @@
         <v>156</v>
       </c>
       <c r="B157" t="s">
-        <v>174</v>
+        <v>204</v>
       </c>
       <c r="C157" t="s">
-        <v>356</v>
+        <v>355</v>
       </c>
       <c r="D157" t="s">
-        <v>390</v>
+        <v>368</v>
       </c>
     </row>
     <row r="158" spans="1:4">
@@ -8747,13 +8747,13 @@
         <v>158</v>
       </c>
       <c r="B159" t="s">
-        <v>158</v>
+        <v>134</v>
       </c>
       <c r="C159" t="s">
-        <v>356</v>
+        <v>358</v>
       </c>
       <c r="D159" t="s">
-  